--- a/Data/彙整清單_整理版.xlsx
+++ b/Data/彙整清單_整理版.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\svnbox\Python\Stock\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\svnbox\Python\Stock\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F6BEFB-69E1-4870-A36D-5B948ECA2B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4023127-E235-45D0-8D33-F99E1F22469A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D923A086-913E-4840-96DC-7378B4FF8169}"/>
   </bookViews>
@@ -656,168 +656,6 @@
     <t xml:space="preserve">  2.29 /    0.0</t>
   </si>
   <si>
-    <t xml:space="preserve">     0.2 /     0.19 /      0.2 /     0.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    12.1 /     12.1 /    11.96 /    12.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.05 /     1.08 /     1.13 /     1.79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.85 /     1.87 /     1.85 /     1.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    14.2 /    14.16 /    13.85 /    13.36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.91 /     0.86 /     0.64 /     0.49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.94 /     2.73 /     1.99 /      2.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.12 /      0.1 /     0.07 /     0.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    10.5 /    10.27 /     9.44 /     8.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.13 /     0.03 /     0.02 /     0.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7.78 /     7.78 /      7.7 /     8.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7.31 /     5.82 /     4.31 /     1.99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    21.6 /    21.64 /    21.56 /    21.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.47 /     0.43 /     0.39 /     0.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.19 /     3.28 /     3.31 /     3.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     0.5 /     0.45 /     0.38 /      0.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.37 /     1.55 /     1.58 /     1.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5.29 /      5.4 /     5.24 /     5.56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    45.7 /    45.62 /     45.7 /    46.94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.44 /     1.41 /     1.35 /     3.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    32.8 /    32.84 /    34.02 /    34.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    10.1 /      9.8 /     6.37 /     5.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    20.0 /    19.96 /    19.97 /     21.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.96 /      1.0 /     1.16 /     1.62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    34.1 /    33.96 /     33.6 /    33.47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.97 /     0.48 /     0.16 /     0.71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     1.3 /     1.75 /     2.01 /     2.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    36.4 /     31.0 /    14.69 /    12.56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    22.2 /     22.2 /    21.79 /    22.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    20.4 /    20.34 /    20.73 /     23.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    20.6 /     20.7 /    21.18 /    21.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.75 /     0.76 /     0.68 /     0.59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.62 /     3.68 /     3.72 /     3.65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    21.9 /    21.94 /     21.9 /    22.82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    10.5 /    10.62 /    10.67 /    17.78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    30.8 /    30.92 /     31.0 /    31.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.31 /      0.3 /     0.58 /     0.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    42.4 /    42.44 /    42.16 /     41.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.87 /     0.87 /     0.95 /     1.31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4.27 /     4.28 /     4.37 /     5.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.05 /     0.22 /     0.39 /      0.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    26.8 /    26.82 /    26.58 /    26.74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.27 /     0.29 /     0.35 /     0.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    12.3 /    12.26 /    11.46 /     10.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.13 /     1.12 /     0.81 /     0.71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6.18 /     6.18 /     6.16 /     6.39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     0.0 /      0.0 /     0.17 /      0.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    23.5 /    23.64 /    24.25 /    25.45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     0.9 /     0.89 /     1.11 /      2.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    24.0 /    23.98 /     23.3 /     22.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.32 /     1.11 /     0.71 /     0.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    47.0 /     47.2 /    46.79 /    49.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.66 /     3.67 /     5.43 /     5.61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    21.3 /    21.14 /    20.76 /    20.51</t>
-  </si>
-  <si>
     <t xml:space="preserve">    2.74 /     2.82 /     3.47 /     4.68</t>
   </si>
   <si>
@@ -830,9 +668,6 @@
     <t>志聖工業股份有限公司</t>
   </si>
   <si>
-    <t xml:space="preserve">    10.9 /    10.76 /    10.84 /    11.17</t>
-  </si>
-  <si>
     <t xml:space="preserve">  2.51 /    0.2</t>
   </si>
   <si>
@@ -854,187 +689,352 @@
     <t>44.26  /  44.08  /  43.69  /  43.22  /  43.56</t>
   </si>
   <si>
-    <t xml:space="preserve">    60.5 /    61.28 /    59.21 /    57.53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1197.0 /   1864.2 /   1465.0 /   1511.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    68.4 /    68.88 /    68.65 /    68.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    75.7 /   145.14 /    141.0 /   194.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   19.95 /    20.07 /    19.94 /    19.59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2042.0 /   2631.0 /  3027.05 /   3432.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    15.8 /     15.6 /    15.29 /    15.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1830.0 /    834.0 /   609.05 /  1114.43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    25.5 /    25.89 /    25.29 /    24.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   888.0 /    806.4 /    923.2 /    536.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    56.1 /    56.46 /    57.04 /    62.43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   559.0 /    951.4 /  1101.55 /   822.73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    25.7 /    26.03 /     25.7 /    25.94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    88.4 /     88.6 /    99.42 /   149.76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   31.25 /    31.46 /    31.76 /    31.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   240.0 /    321.0 /   421.95 /   747.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   33.65 /    34.26 /     35.3 /    34.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1307.0 /   1392.2 /  2063.05 /  4101.48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   24.55 /    24.33 /    24.06 /    23.99</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 18114.0 /  10226.8 / 14210.85 / 13429.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    66.1 /    66.18 /    65.26 /    59.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2906.0 /   2753.8 / 11575.75 /  7199.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    30.7 /    30.54 /    30.14 /     30.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  5383.0 /   5799.6 /   5003.6 /   7513.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    85.0 /    83.28 /    82.07 /    80.89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2926.0 /   2130.4 /   1834.2 /  1736.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    37.6 /    33.73 /    28.14 /    26.89</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 24332.0 /  13641.4 /   7189.6 /  3508.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   170.0 /    168.8 /   165.12 /   163.56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  6612.0 /   2499.4 /  2393.35 /  2995.65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   37.45 /    37.65 /    37.91 /    38.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1082.0 /    910.8 /   1371.4 /  1619.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    49.5 /    49.63 /    49.32 /    48.87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   129.0 /    174.6 /   101.28 /    117.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    75.7 /    75.84 /     75.3 /    74.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 12908.0 /  14856.8 / 18811.45 / 19893.52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    56.1 /    55.76 /    54.46 /    53.58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   861.0 /   1265.6 /   1041.7 /   914.47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   122.5 /    123.5 /    123.1 /    119.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   678.0 /    526.2 /    827.3 /    949.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    29.2 /    29.33 /    29.02 /    29.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   426.0 /    333.6 /   424.15 /   589.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    51.8 /    52.22 /    51.16 /    51.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  5780.0 /   4931.2 /  4299.95 /  3804.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    34.2 /    34.67 /    34.02 /    31.52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  4870.0 /  10691.6 / 11737.95 / 11367.48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    14.0 /    14.04 /    13.93 /    13.69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   148.0 /    256.4 /    300.1 /   273.73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    59.6 /     58.9 /    58.36 /    58.94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  8209.0 /   3073.4 /  2382.55 /  3612.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   49.75 /    50.37 /    48.22 /    45.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  7214.0 /  10591.6 /   6543.5 /  4371.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    48.1 /    48.26 /    47.33 /    46.48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3984.0 /   4593.2 /  5790.05 /   6721.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   48.55 /    48.41 /    47.77 /    47.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1120.0 /   1311.0 /   836.45 /   931.63</t>
-  </si>
-  <si>
     <t xml:space="preserve">   37.55 /    37.67 /    38.52 /    36.95</t>
   </si>
   <si>
     <t xml:space="preserve">  4392.0 /   4485.0 /  13782.8 /  13349.7</t>
   </si>
   <si>
-    <t xml:space="preserve">    52.6 /    52.46 /     51.0 /    48.58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   817.0 /   1169.8 /   552.15 /   506.43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.77 /     0.66 /     0.59 /     0.57</t>
+    <t xml:space="preserve">    60.9 /    61.06 /    59.39 /    57.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1349.0 /   1685.0 /   1499.1 /  1514.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    12.1 /     12.1 /    11.98 /    12.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1.3 /     1.17 /     1.13 /     1.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    68.3 /    68.62 /    68.61 /    68.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   134.0 /   127.54 /   141.59 /   193.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.84 /     1.85 /     1.85 /     1.94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    20.0 /    20.05 /    19.95 /    19.61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1280.0 /   2170.6 /  2973.05 /  3381.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    14.2 /     14.2 /    13.91 /    13.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.92 /      0.9 /     0.69 /     0.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   15.85 /    15.66 /    15.33 /    15.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2256.0 /   1132.4 /    703.3 /  1132.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.62 /     2.86 /     2.12 /     2.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.14 /     0.12 /     0.08 /     0.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    25.5 /    25.79 /    25.36 /    24.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   336.0 /    634.8 /    872.9 /   530.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    10.5 /    10.44 /     9.63 /     8.84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.16 /     0.09 /     0.03 /     0.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    55.9 /    56.18 /    56.86 /    62.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   963.0 /   1006.4 /  1103.05 /   830.87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    7.76 /     7.71 /      7.7 /     8.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    7.66 /     6.72 /     4.81 /     2.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    25.8 /    25.94 /    25.72 /    25.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   106.0 /     94.3 /    99.85 /   147.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    21.7 /    21.64 /    21.58 /    21.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.56 /     0.49 /     0.41 /     0.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   31.35 /    31.39 /    31.72 /    31.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   168.0 /    320.6 /   383.25 /   735.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.18 /     3.23 /     3.29 /     3.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     0.5 /     0.51 /     0.39 /     0.77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    33.1 /    33.86 /    35.16 /    34.38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1440.0 /   1499.0 /   1885.8 /  4063.63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.29 /     1.38 /     1.59 /     1.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5.91 /     5.44 /     5.34 /     5.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   24.65 /    24.41 /    24.11 /     24.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11764.0 /  11064.8 / 14160.15 / 13296.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    46.0 /    45.76 /     45.7 /    46.87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.61 /     1.48 /     1.35 /     3.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    66.3 /    66.12 /    65.48 /    59.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  6986.0 /   3624.8 /  11524.2 /  7281.83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    32.8 /     32.8 /     33.8 /     34.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    8.51 /     9.47 /     6.92 /     5.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   30.85 /    30.66 /    30.17 /     30.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  9828.0 /   6905.4 /  5036.55 /  7566.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    20.0 /     20.0 /    19.95 /    21.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.97 /     0.97 /     1.14 /     1.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    85.0 /     83.8 /    82.23 /    80.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2346.0 /   2301.8 /  1874.95 /  1743.73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    34.1 /    34.04 /    33.67 /    33.49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1.4 /      0.9 /     0.28 /     0.71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   37.15 /     34.6 /    28.75 /    27.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10818.0 /  11128.8 /   7707.2 /  3310.72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.28 /     1.46 /     1.93 /     2.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    36.9 /    34.24 /    17.74 /    13.71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   168.0 /    168.8 /    165.5 /   163.92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2089.0 /   2703.4 /   2421.9 /  2994.93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    22.0 /     22.2 /    21.88 /    22.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    18.8 /    19.76 /    20.35 /    22.81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    37.3 /    37.55 /    37.84 /    38.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1374.0 /   1052.0 /  1388.85 /  1619.88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    20.6 /    20.64 /    21.08 /    21.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.72 /     0.77 /     0.69 /     0.59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   49.65 /    49.65 /    49.32 /    48.93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   132.0 /    176.6 /   104.92 /   119.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.63 /     3.65 /     3.71 /     3.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    75.9 /     75.7 /    75.29 /    74.53</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16600.0 /  14184.0 /  18391.6 / 19961.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    21.9 /    21.92 /    21.89 /     22.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    10.5 /    10.54 /    10.73 /    17.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    55.5 /     55.9 /    54.54 /    53.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   930.0 /   1360.8 /   1044.4 /   923.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    30.8 /     30.9 /    30.98 /    31.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.32 /     0.31 /     0.55 /     0.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   122.5 /    123.3 /   123.12 /    119.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   312.0 /    503.0 /   764.05 /   938.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    42.4 /    42.42 /    42.23 /    41.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.72 /     1.04 /     0.98 /     1.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    29.0 /    29.24 /    29.02 /    29.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   352.0 /    342.4 /   419.75 /   584.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.17 /     4.23 /     4.32 /     5.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.16 /     0.07 /     0.35 /     0.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    52.0 /    52.12 /    51.25 /    51.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3717.0 /   4965.2 /  4303.75 /  3811.77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    26.9 /    26.84 /    26.64 /    26.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.28 /     0.28 /     0.34 /     0.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   34.45 /    34.57 /     34.1 /    31.63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  6272.0 /   8563.4 / 11664.05 /  11443.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    12.5 /    12.32 /    11.63 /    10.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     0.8 /     1.05 /     0.86 /     0.72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    14.0 /    14.03 /    13.93 /     13.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   243.0 /    253.4 /    280.1 /   275.94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    6.18 /     6.18 /     6.16 /     6.38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     0.0 /      0.0 /     0.13 /      0.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    59.3 /    58.96 /    58.32 /    59.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2911.0 /   3351.0 /   2421.4 /   3586.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    23.4 /    23.56 /    24.08 /    25.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.95 /     0.92 /     1.04 /     2.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   49.75 /    50.38 /    48.36 /    45.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3426.0 /   8351.2 /  6203.45 /   4315.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    24.4 /     24.2 /    23.45 /    22.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1.5 /     1.33 /     0.81 /     0.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    48.3 /     48.2 /     47.4 /    46.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  5068.0 /   4617.8 /  5785.25 /  6667.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    47.1 /    47.14 /    46.81 /    48.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.84 /     3.72 /     5.23 /     5.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   48.55 /    48.44 /    47.84 /    47.38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   846.0 /   1248.0 /    858.9 /   930.82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    21.5 /    21.32 /    20.84 /    20.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.21 /      0.2 /      0.2 /     0.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    52.2 /    52.46 /    50.98 /    48.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   270.0 /   1087.0 /    492.5 /    497.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    10.6 /    10.72 /     10.8 /    11.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.77 /     0.74 /     0.61 /     0.57</t>
   </si>
 </sst>
 </file>
@@ -2056,7 +2056,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J16" sqref="J16"/>
+      <selection pane="bottomRight" activeCell="K28" sqref="K27:K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2273,25 +2273,25 @@
         <v>19760719</v>
       </c>
       <c r="G3">
-        <v>4.46</v>
+        <v>4.43</v>
       </c>
       <c r="H3">
-        <v>17.190000000000001</v>
+        <v>17.3</v>
       </c>
       <c r="I3">
-        <v>2.1800000000000002</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="J3" t="s">
-        <v>257</v>
+        <v>204</v>
       </c>
       <c r="K3" t="s">
-        <v>258</v>
+        <v>205</v>
       </c>
       <c r="L3" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="M3" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="N3" s="1">
         <v>11</v>
@@ -2395,22 +2395,22 @@
         <v>19951102</v>
       </c>
       <c r="G4">
-        <v>3.8</v>
+        <v>3.81</v>
       </c>
       <c r="H4">
-        <v>17.36</v>
+        <v>17.34</v>
       </c>
       <c r="I4">
         <v>3.21</v>
       </c>
       <c r="J4" t="s">
-        <v>259</v>
+        <v>208</v>
       </c>
       <c r="K4" t="s">
-        <v>260</v>
+        <v>209</v>
       </c>
       <c r="L4" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="M4" t="s">
         <v>172</v>
@@ -2517,25 +2517,25 @@
         <v>19730831</v>
       </c>
       <c r="G5">
-        <v>5.51</v>
+        <v>5.5</v>
       </c>
       <c r="H5">
-        <v>8.7899999999999991</v>
+        <v>8.81</v>
       </c>
       <c r="I5">
         <v>0.94</v>
       </c>
       <c r="J5" t="s">
-        <v>261</v>
+        <v>211</v>
       </c>
       <c r="K5" t="s">
-        <v>262</v>
+        <v>212</v>
       </c>
       <c r="L5" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="M5" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="N5" s="1">
         <v>9</v>
@@ -2639,25 +2639,25 @@
         <v>20001031</v>
       </c>
       <c r="G6">
-        <v>2.5299999999999998</v>
+        <v>2.52</v>
       </c>
       <c r="H6">
-        <v>11.21</v>
+        <v>11.24</v>
       </c>
       <c r="I6">
         <v>1.01</v>
       </c>
       <c r="J6" t="s">
-        <v>263</v>
+        <v>215</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>264</v>
+        <v>216</v>
       </c>
       <c r="L6" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="M6" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="N6" s="1">
         <v>13</v>
@@ -2770,16 +2770,16 @@
         <v>1.73</v>
       </c>
       <c r="J7" t="s">
-        <v>265</v>
+        <v>219</v>
       </c>
       <c r="K7" t="s">
-        <v>266</v>
+        <v>220</v>
       </c>
       <c r="L7" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="M7" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="N7" s="1">
         <v>13</v>
@@ -2883,25 +2883,25 @@
         <v>19950204</v>
       </c>
       <c r="G8">
-        <v>6.42</v>
+        <v>6.44</v>
       </c>
       <c r="H8">
-        <v>8.83</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="I8">
-        <v>2.62</v>
+        <v>2.61</v>
       </c>
       <c r="J8" t="s">
-        <v>267</v>
+        <v>223</v>
       </c>
       <c r="K8" t="s">
-        <v>268</v>
+        <v>224</v>
       </c>
       <c r="L8" t="s">
-        <v>201</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>202</v>
+        <v>225</v>
+      </c>
+      <c r="M8" t="s">
+        <v>226</v>
       </c>
       <c r="N8" s="1">
         <v>12</v>
@@ -3005,25 +3005,25 @@
         <v>20180416</v>
       </c>
       <c r="G9">
-        <v>7.78</v>
+        <v>7.75</v>
       </c>
       <c r="H9">
-        <v>14.6</v>
+        <v>14.66</v>
       </c>
       <c r="I9">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="J9" t="s">
-        <v>269</v>
+        <v>227</v>
       </c>
       <c r="K9" t="s">
-        <v>270</v>
+        <v>228</v>
       </c>
       <c r="L9" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="M9" t="s">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="N9" s="1">
         <v>14</v>
@@ -3127,25 +3127,25 @@
         <v>19930427</v>
       </c>
       <c r="G10">
-        <v>5.44</v>
+        <v>5.42</v>
       </c>
       <c r="H10">
-        <v>8.7799999999999994</v>
+        <v>8.81</v>
       </c>
       <c r="I10">
         <v>1.95</v>
       </c>
       <c r="J10" t="s">
-        <v>271</v>
+        <v>231</v>
       </c>
       <c r="K10" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
       <c r="L10" t="s">
-        <v>205</v>
+        <v>233</v>
       </c>
       <c r="M10" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="N10" s="1">
         <v>12</v>
@@ -3249,25 +3249,25 @@
         <v>20160322</v>
       </c>
       <c r="G11">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="H11">
-        <v>8.74</v>
+        <v>8.6</v>
       </c>
       <c r="I11">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="J11" t="s">
-        <v>273</v>
+        <v>235</v>
       </c>
       <c r="K11" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="L11" t="s">
-        <v>207</v>
+        <v>237</v>
       </c>
       <c r="M11" t="s">
-        <v>208</v>
+        <v>238</v>
       </c>
       <c r="N11" s="1">
         <v>10</v>
@@ -3371,25 +3371,25 @@
         <v>19920218</v>
       </c>
       <c r="G12">
-        <v>6.52</v>
+        <v>6.49</v>
       </c>
       <c r="H12">
-        <v>7.62</v>
+        <v>7.66</v>
       </c>
       <c r="I12">
         <v>0.99</v>
       </c>
       <c r="J12" t="s">
-        <v>275</v>
+        <v>239</v>
       </c>
       <c r="K12" t="s">
-        <v>276</v>
+        <v>240</v>
       </c>
       <c r="L12" t="s">
-        <v>209</v>
+        <v>241</v>
       </c>
       <c r="M12" t="s">
-        <v>210</v>
+        <v>242</v>
       </c>
       <c r="N12" s="1">
         <v>9</v>
@@ -3493,25 +3493,25 @@
         <v>19951213</v>
       </c>
       <c r="G13">
-        <v>4.99</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="H13">
-        <v>6.6</v>
+        <v>6.62</v>
       </c>
       <c r="I13">
         <v>1.87</v>
       </c>
       <c r="J13" t="s">
-        <v>277</v>
-      </c>
-      <c r="K13" t="s">
-        <v>278</v>
+        <v>243</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>244</v>
       </c>
       <c r="L13" t="s">
-        <v>211</v>
+        <v>245</v>
       </c>
       <c r="M13" t="s">
-        <v>212</v>
+        <v>246</v>
       </c>
       <c r="N13" s="1">
         <v>9</v>
@@ -3615,25 +3615,25 @@
         <v>19960722</v>
       </c>
       <c r="G14">
-        <v>4.8899999999999997</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="H14">
-        <v>6.66</v>
+        <v>6.69</v>
       </c>
       <c r="I14">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="J14" t="s">
-        <v>279</v>
+        <v>247</v>
       </c>
       <c r="K14" t="s">
-        <v>280</v>
+        <v>248</v>
       </c>
       <c r="L14" t="s">
-        <v>213</v>
+        <v>249</v>
       </c>
       <c r="M14" t="s">
-        <v>214</v>
+        <v>250</v>
       </c>
       <c r="N14" s="1">
         <v>8</v>
@@ -3746,16 +3746,16 @@
         <v>2.13</v>
       </c>
       <c r="J15" t="s">
-        <v>281</v>
+        <v>251</v>
       </c>
       <c r="K15" t="s">
-        <v>282</v>
+        <v>252</v>
       </c>
       <c r="L15" t="s">
-        <v>215</v>
+        <v>253</v>
       </c>
       <c r="M15" t="s">
-        <v>216</v>
+        <v>254</v>
       </c>
       <c r="N15" s="1">
         <v>10</v>
@@ -3859,25 +3859,25 @@
         <v>20000911</v>
       </c>
       <c r="G16">
-        <v>5.32</v>
+        <v>5.38</v>
       </c>
       <c r="H16">
-        <v>13.93</v>
+        <v>13.76</v>
       </c>
       <c r="I16">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="J16" t="s">
-        <v>283</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>284</v>
+        <v>255</v>
+      </c>
+      <c r="K16" t="s">
+        <v>256</v>
       </c>
       <c r="L16" t="s">
-        <v>217</v>
+        <v>257</v>
       </c>
       <c r="M16" t="s">
-        <v>218</v>
+        <v>258</v>
       </c>
       <c r="N16" s="1">
         <v>13</v>
@@ -3981,25 +3981,25 @@
         <v>20010917</v>
       </c>
       <c r="G17">
-        <v>5.29</v>
+        <v>5.36</v>
       </c>
       <c r="H17">
-        <v>9.74</v>
+        <v>9.6199999999999992</v>
       </c>
       <c r="I17">
-        <v>5.09</v>
+        <v>5.03</v>
       </c>
       <c r="J17" t="s">
-        <v>285</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>286</v>
+        <v>259</v>
+      </c>
+      <c r="K17" t="s">
+        <v>260</v>
       </c>
       <c r="L17" t="s">
-        <v>219</v>
+        <v>261</v>
       </c>
       <c r="M17" t="s">
-        <v>220</v>
+        <v>262</v>
       </c>
       <c r="N17" s="1">
         <v>12</v>
@@ -4103,25 +4103,25 @@
         <v>19931027</v>
       </c>
       <c r="G18">
-        <v>9.08</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="H18">
-        <v>4.41</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="I18">
         <v>1.23</v>
       </c>
       <c r="J18" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="K18" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="L18" t="s">
-        <v>221</v>
+        <v>265</v>
       </c>
       <c r="M18" t="s">
-        <v>222</v>
+        <v>266</v>
       </c>
       <c r="N18" s="1">
         <v>7</v>
@@ -4225,22 +4225,22 @@
         <v>20000911</v>
       </c>
       <c r="G19">
-        <v>7.27</v>
+        <v>7.25</v>
       </c>
       <c r="H19">
-        <v>7.04</v>
+        <v>7.06</v>
       </c>
       <c r="I19">
         <v>1.57</v>
       </c>
       <c r="J19" t="s">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="K19" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
       <c r="L19" t="s">
-        <v>223</v>
+        <v>269</v>
       </c>
       <c r="M19" t="s">
         <v>171</v>
@@ -4347,25 +4347,25 @@
         <v>20011219</v>
       </c>
       <c r="G20">
-        <v>3.96</v>
+        <v>3.95</v>
       </c>
       <c r="H20">
-        <v>6.24</v>
+        <v>6.25</v>
       </c>
       <c r="I20">
-        <v>1.1200000000000001</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="J20" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="K20" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
       <c r="L20" t="s">
-        <v>224</v>
+        <v>272</v>
       </c>
       <c r="M20" t="s">
-        <v>225</v>
+        <v>273</v>
       </c>
       <c r="N20" s="1">
         <v>7</v>
@@ -4469,25 +4469,25 @@
         <v>20020225</v>
       </c>
       <c r="G21">
-        <v>6.4</v>
+        <v>6.47</v>
       </c>
       <c r="H21">
-        <v>7.73</v>
+        <v>7.64</v>
       </c>
       <c r="I21">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="J21" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
       <c r="K21" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="L21" t="s">
-        <v>226</v>
+        <v>276</v>
       </c>
       <c r="M21" t="s">
-        <v>227</v>
+        <v>277</v>
       </c>
       <c r="N21" s="1">
         <v>10</v>
@@ -4600,16 +4600,16 @@
         <v>1.76</v>
       </c>
       <c r="J22" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="K22" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="L22" t="s">
-        <v>228</v>
+        <v>280</v>
       </c>
       <c r="M22" t="s">
-        <v>229</v>
+        <v>281</v>
       </c>
       <c r="N22" s="1">
         <v>8</v>
@@ -4713,25 +4713,25 @@
         <v>20081126</v>
       </c>
       <c r="G23">
-        <v>6.85</v>
+        <v>6.9</v>
       </c>
       <c r="H23">
-        <v>8.18</v>
+        <v>8.1199999999999992</v>
       </c>
       <c r="I23">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="J23" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="K23" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="L23" t="s">
-        <v>230</v>
+        <v>284</v>
       </c>
       <c r="M23" t="s">
-        <v>231</v>
+        <v>285</v>
       </c>
       <c r="N23" s="1">
         <v>9</v>
@@ -4835,25 +4835,25 @@
         <v>20051109</v>
       </c>
       <c r="G24">
-        <v>5.98</v>
+        <v>5.96</v>
       </c>
       <c r="H24">
-        <v>8.9499999999999993</v>
+        <v>8.98</v>
       </c>
       <c r="I24">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="J24" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="K24" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="L24" t="s">
-        <v>232</v>
+        <v>288</v>
       </c>
       <c r="M24" t="s">
-        <v>233</v>
+        <v>289</v>
       </c>
       <c r="N24" s="1">
         <v>9</v>
@@ -4957,25 +4957,25 @@
         <v>20130912</v>
       </c>
       <c r="G25">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="H25">
-        <v>3.31</v>
+        <v>3.34</v>
       </c>
       <c r="I25">
         <v>0.83</v>
       </c>
       <c r="J25" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="K25" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="L25" t="s">
-        <v>234</v>
+        <v>292</v>
       </c>
       <c r="M25" t="s">
-        <v>235</v>
+        <v>293</v>
       </c>
       <c r="N25" s="1">
         <v>8</v>
@@ -5088,16 +5088,16 @@
         <v>0.77</v>
       </c>
       <c r="J26" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="K26" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="L26" t="s">
-        <v>236</v>
+        <v>296</v>
       </c>
       <c r="M26" t="s">
-        <v>237</v>
+        <v>297</v>
       </c>
       <c r="N26" s="1">
         <v>11</v>
@@ -5201,25 +5201,25 @@
         <v>20030825</v>
       </c>
       <c r="G27">
-        <v>4.82</v>
+        <v>4.84</v>
       </c>
       <c r="H27">
-        <v>10.38</v>
+        <v>10.33</v>
       </c>
       <c r="I27">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="J27" t="s">
-        <v>305</v>
-      </c>
-      <c r="K27" s="8" t="s">
-        <v>306</v>
+        <v>298</v>
+      </c>
+      <c r="K27" t="s">
+        <v>299</v>
       </c>
       <c r="L27" t="s">
-        <v>238</v>
+        <v>300</v>
       </c>
       <c r="M27" t="s">
-        <v>239</v>
+        <v>301</v>
       </c>
       <c r="N27" s="1">
         <v>9</v>
@@ -5332,16 +5332,16 @@
         <v>2.02</v>
       </c>
       <c r="J28" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="K28" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="L28" t="s">
-        <v>240</v>
+        <v>304</v>
       </c>
       <c r="M28" t="s">
-        <v>241</v>
+        <v>305</v>
       </c>
       <c r="N28" s="1">
         <v>7</v>
@@ -5445,25 +5445,25 @@
         <v>20140411</v>
       </c>
       <c r="G29">
-        <v>4.57</v>
+        <v>4.55</v>
       </c>
       <c r="H29">
-        <v>8.08</v>
+        <v>8.1199999999999992</v>
       </c>
       <c r="I29">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="J29" t="s">
+        <v>306</v>
+      </c>
+      <c r="K29" t="s">
+        <v>307</v>
+      </c>
+      <c r="L29" t="s">
+        <v>308</v>
+      </c>
+      <c r="M29" t="s">
         <v>309</v>
-      </c>
-      <c r="K29" t="s">
-        <v>310</v>
-      </c>
-      <c r="L29" t="s">
-        <v>242</v>
-      </c>
-      <c r="M29" t="s">
-        <v>243</v>
       </c>
       <c r="N29" s="1">
         <v>9</v>
@@ -5576,16 +5576,16 @@
         <v>1</v>
       </c>
       <c r="J30" t="s">
+        <v>310</v>
+      </c>
+      <c r="K30" t="s">
         <v>311</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L30" t="s">
         <v>312</v>
       </c>
-      <c r="L30" t="s">
-        <v>244</v>
-      </c>
       <c r="M30" t="s">
-        <v>191</v>
+        <v>313</v>
       </c>
       <c r="N30" s="1">
         <v>6</v>
@@ -5698,16 +5698,16 @@
         <v>2.52</v>
       </c>
       <c r="J31" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
       <c r="K31" t="s">
-        <v>314</v>
+        <v>203</v>
       </c>
       <c r="L31" t="s">
-        <v>245</v>
+        <v>191</v>
       </c>
       <c r="M31" t="s">
-        <v>246</v>
+        <v>192</v>
       </c>
       <c r="N31" s="1">
         <v>15</v>
@@ -5796,10 +5796,10 @@
         <v>2467</v>
       </c>
       <c r="B32" t="s">
-        <v>247</v>
+        <v>193</v>
       </c>
       <c r="C32" t="s">
-        <v>248</v>
+        <v>194</v>
       </c>
       <c r="D32" s="7">
         <v>1521896590</v>
@@ -5811,22 +5811,22 @@
         <v>20010917</v>
       </c>
       <c r="G32">
-        <v>5.15</v>
+        <v>5.19</v>
       </c>
       <c r="H32">
-        <v>12.61</v>
+        <v>12.52</v>
       </c>
       <c r="I32">
-        <v>3.07</v>
+        <v>3.05</v>
       </c>
       <c r="J32" t="s">
+        <v>314</v>
+      </c>
+      <c r="K32" t="s">
         <v>315</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
         <v>316</v>
-      </c>
-      <c r="L32" t="s">
-        <v>249</v>
       </c>
       <c r="M32" t="s">
         <v>317</v>
@@ -5898,7 +5898,7 @@
         <v>57</v>
       </c>
       <c r="AJ32" t="s">
-        <v>250</v>
+        <v>195</v>
       </c>
       <c r="AK32" t="s">
         <v>142</v>
@@ -5913,22 +5913,22 @@
         <v>91</v>
       </c>
       <c r="AO32" t="s">
-        <v>251</v>
+        <v>196</v>
       </c>
       <c r="AP32" t="s">
-        <v>252</v>
+        <v>197</v>
       </c>
       <c r="AQ32" t="s">
-        <v>253</v>
+        <v>198</v>
       </c>
       <c r="AR32" t="s">
-        <v>254</v>
+        <v>199</v>
       </c>
       <c r="AS32" t="s">
-        <v>255</v>
+        <v>200</v>
       </c>
       <c r="AT32" t="s">
-        <v>256</v>
+        <v>201</v>
       </c>
       <c r="AU32"/>
     </row>
@@ -5937,6 +5937,11 @@
     <sortCondition ref="A3:A31"/>
   </sortState>
   <mergeCells count="21">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="Z1:Z2"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="AB1:AB2"/>
+    <mergeCell ref="AC1:AC2"/>
     <mergeCell ref="AJ1:AN1"/>
     <mergeCell ref="AD1:AD2"/>
     <mergeCell ref="B1:B2"/>
@@ -5953,11 +5958,6 @@
     <mergeCell ref="AG1:AG2"/>
     <mergeCell ref="AH1:AH2"/>
     <mergeCell ref="AI1:AI2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="Z1:Z2"/>
-    <mergeCell ref="AA1:AA2"/>
-    <mergeCell ref="AB1:AB2"/>
-    <mergeCell ref="AC1:AC2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="AF3:AF30">

--- a/Data/彙整清單_整理版.xlsx
+++ b/Data/彙整清單_整理版.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\svnbox\Python\Stock\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hmlu\svnbox\Research\Python\Stock\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4023127-E235-45D0-8D33-F99E1F22469A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5DAC190-5197-4EFF-8484-7D703000DE5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D923A086-913E-4840-96DC-7378B4FF8169}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D923A086-913E-4840-96DC-7378B4FF8169}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="316">
   <si>
     <t>公司名稱</t>
   </si>
@@ -671,24 +671,6 @@
     <t xml:space="preserve">  2.51 /    0.2</t>
   </si>
   <si>
-    <t>26404.0  /  26421.0  /  26440.0  /  26456.0  /  26546.0</t>
-  </si>
-  <si>
-    <t>111.0  /  112.0  /  114.0  /  120.0  /  119.0</t>
-  </si>
-  <si>
-    <t>20.0  /  20.0  /  20.0  /  20.0  /  21.0</t>
-  </si>
-  <si>
-    <t>34.38  /  34.53  /  34.46  /  34.17  /  34.46</t>
-  </si>
-  <si>
-    <t>21.29  /  21.31  /  21.75  /  22.54  /  21.92</t>
-  </si>
-  <si>
-    <t>44.26  /  44.08  /  43.69  /  43.22  /  43.56</t>
-  </si>
-  <si>
     <t xml:space="preserve">   37.55 /    37.67 /    38.52 /    36.95</t>
   </si>
   <si>
@@ -1035,6 +1017,18 @@
   </si>
   <si>
     <t xml:space="preserve">    0.77 /     0.74 /     0.61 /     0.57</t>
+  </si>
+  <si>
+    <t>100-1000張比例</t>
+  </si>
+  <si>
+    <t>1000張以上人數</t>
+  </si>
+  <si>
+    <t>1000張以上比例</t>
+  </si>
+  <si>
+    <t>100張以下比例</t>
   </si>
 </sst>
 </file>
@@ -2053,10 +2047,10 @@
   <dimension ref="A1:AU32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="O21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K28" sqref="K27:K28"/>
+      <selection pane="bottomRight" activeCell="U34" sqref="U34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2074,10 +2068,11 @@
     <col min="33" max="34" width="9.625" style="1" customWidth="1"/>
     <col min="35" max="35" width="6.625" style="1" customWidth="1"/>
     <col min="36" max="40" width="10.625" style="1" customWidth="1"/>
-    <col min="41" max="16384" width="9" style="1"/>
+    <col min="41" max="46" width="20.625" style="1" customWidth="1"/>
+    <col min="47" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>58</v>
       </c>
@@ -2169,7 +2164,7 @@
       <c r="AM1" s="9"/>
       <c r="AN1" s="9"/>
     </row>
-    <row r="2" spans="1:40" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -2252,8 +2247,22 @@
       <c r="AN2" s="2">
         <v>2017</v>
       </c>
+      <c r="AO2" t="s">
+        <v>315</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>312</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>314</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>313</v>
+      </c>
+      <c r="AS2"/>
+      <c r="AT2"/>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1229</v>
       </c>
@@ -2282,16 +2291,16 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="J3" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="K3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="L3" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="M3" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="N3" s="1">
         <v>11</v>
@@ -2375,7 +2384,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1231</v>
       </c>
@@ -2404,13 +2413,13 @@
         <v>3.21</v>
       </c>
       <c r="J4" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="K4" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="L4" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="M4" t="s">
         <v>172</v>
@@ -2497,7 +2506,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1409</v>
       </c>
@@ -2526,16 +2535,16 @@
         <v>0.94</v>
       </c>
       <c r="J5" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="K5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="L5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="M5" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="N5" s="1">
         <v>9</v>
@@ -2619,7 +2628,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1474</v>
       </c>
@@ -2648,16 +2657,16 @@
         <v>1.01</v>
       </c>
       <c r="J6" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="L6" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="M6" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="N6" s="1">
         <v>13</v>
@@ -2741,7 +2750,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1514</v>
       </c>
@@ -2770,16 +2779,16 @@
         <v>1.73</v>
       </c>
       <c r="J7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="K7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="L7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="M7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="N7" s="1">
         <v>13</v>
@@ -2863,7 +2872,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1515</v>
       </c>
@@ -2892,16 +2901,16 @@
         <v>2.61</v>
       </c>
       <c r="J8" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="K8" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="L8" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="M8" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="N8" s="1">
         <v>12</v>
@@ -2985,7 +2994,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1587</v>
       </c>
@@ -3014,16 +3023,16 @@
         <v>1.4</v>
       </c>
       <c r="J9" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="K9" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="L9" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="M9" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="N9" s="1">
         <v>14</v>
@@ -3107,7 +3116,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2020</v>
       </c>
@@ -3136,16 +3145,16 @@
         <v>1.95</v>
       </c>
       <c r="J10" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="K10" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="L10" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="M10" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="N10" s="1">
         <v>12</v>
@@ -3229,7 +3238,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2069</v>
       </c>
@@ -3258,16 +3267,16 @@
         <v>1.39</v>
       </c>
       <c r="J11" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="K11" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="L11" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="M11" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="N11" s="1">
         <v>10</v>
@@ -3351,7 +3360,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2324</v>
       </c>
@@ -3380,16 +3389,16 @@
         <v>0.99</v>
       </c>
       <c r="J12" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="K12" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="L12" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="M12" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="N12" s="1">
         <v>9</v>
@@ -3473,7 +3482,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2347</v>
       </c>
@@ -3502,16 +3511,16 @@
         <v>1.87</v>
       </c>
       <c r="J13" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="L13" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="M13" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="N13" s="1">
         <v>9</v>
@@ -3595,7 +3604,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2352</v>
       </c>
@@ -3624,16 +3633,16 @@
         <v>1.68</v>
       </c>
       <c r="J14" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="K14" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="L14" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="M14" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="N14" s="1">
         <v>8</v>
@@ -3717,7 +3726,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2385</v>
       </c>
@@ -3746,16 +3755,16 @@
         <v>2.13</v>
       </c>
       <c r="J15" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="K15" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="L15" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="M15" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="N15" s="1">
         <v>10</v>
@@ -3839,7 +3848,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2417</v>
       </c>
@@ -3868,16 +3877,16 @@
         <v>1.69</v>
       </c>
       <c r="J16" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="K16" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="L16" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="M16" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="N16" s="1">
         <v>13</v>
@@ -3990,16 +3999,16 @@
         <v>5.03</v>
       </c>
       <c r="J17" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="K17" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="L17" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="M17" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="N17" s="1">
         <v>12</v>
@@ -4112,16 +4121,16 @@
         <v>1.23</v>
       </c>
       <c r="J18" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="K18" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="L18" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M18" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="N18" s="1">
         <v>7</v>
@@ -4234,13 +4243,13 @@
         <v>1.57</v>
       </c>
       <c r="J19" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K19" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="L19" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="M19" t="s">
         <v>171</v>
@@ -4356,16 +4365,16 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="J20" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="K20" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="L20" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="M20" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="N20" s="1">
         <v>7</v>
@@ -4478,16 +4487,16 @@
         <v>1.93</v>
       </c>
       <c r="J21" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="K21" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L21" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="M21" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="N21" s="1">
         <v>10</v>
@@ -4600,16 +4609,16 @@
         <v>1.76</v>
       </c>
       <c r="J22" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="K22" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="L22" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="M22" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="N22" s="1">
         <v>8</v>
@@ -4722,16 +4731,16 @@
         <v>1.66</v>
       </c>
       <c r="J23" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="K23" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="L23" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="M23" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="N23" s="1">
         <v>9</v>
@@ -4844,16 +4853,16 @@
         <v>1.44</v>
       </c>
       <c r="J24" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="K24" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="L24" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="M24" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="N24" s="1">
         <v>9</v>
@@ -4966,16 +4975,16 @@
         <v>0.83</v>
       </c>
       <c r="J25" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="K25" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="L25" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="M25" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="N25" s="1">
         <v>8</v>
@@ -5088,16 +5097,16 @@
         <v>0.77</v>
       </c>
       <c r="J26" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="K26" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="L26" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="M26" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="N26" s="1">
         <v>11</v>
@@ -5210,16 +5219,16 @@
         <v>1.86</v>
       </c>
       <c r="J27" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="K27" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="L27" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="M27" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="N27" s="1">
         <v>9</v>
@@ -5332,16 +5341,16 @@
         <v>2.02</v>
       </c>
       <c r="J28" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="K28" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="L28" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="M28" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="N28" s="1">
         <v>7</v>
@@ -5454,16 +5463,16 @@
         <v>1.54</v>
       </c>
       <c r="J29" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="K29" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="L29" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="M29" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="N29" s="1">
         <v>9</v>
@@ -5576,16 +5585,16 @@
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="K30" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="L30" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="M30" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="N30" s="1">
         <v>6</v>
@@ -5698,10 +5707,10 @@
         <v>2.52</v>
       </c>
       <c r="J31" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="K31" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="L31" t="s">
         <v>191</v>
@@ -5820,16 +5829,16 @@
         <v>3.05</v>
       </c>
       <c r="J32" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="K32" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="L32" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="M32" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="N32">
         <v>11</v>
@@ -5912,24 +5921,12 @@
       <c r="AN32" t="s">
         <v>91</v>
       </c>
-      <c r="AO32" t="s">
-        <v>196</v>
-      </c>
-      <c r="AP32" t="s">
-        <v>197</v>
-      </c>
-      <c r="AQ32" t="s">
-        <v>198</v>
-      </c>
-      <c r="AR32" t="s">
-        <v>199</v>
-      </c>
-      <c r="AS32" t="s">
-        <v>200</v>
-      </c>
-      <c r="AT32" t="s">
-        <v>201</v>
-      </c>
+      <c r="AO32"/>
+      <c r="AP32"/>
+      <c r="AQ32"/>
+      <c r="AR32"/>
+      <c r="AS32"/>
+      <c r="AT32"/>
       <c r="AU32"/>
     </row>
   </sheetData>
@@ -5937,11 +5934,6 @@
     <sortCondition ref="A3:A31"/>
   </sortState>
   <mergeCells count="21">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="Z1:Z2"/>
-    <mergeCell ref="AA1:AA2"/>
-    <mergeCell ref="AB1:AB2"/>
-    <mergeCell ref="AC1:AC2"/>
     <mergeCell ref="AJ1:AN1"/>
     <mergeCell ref="AD1:AD2"/>
     <mergeCell ref="B1:B2"/>
@@ -5958,10 +5950,15 @@
     <mergeCell ref="AG1:AG2"/>
     <mergeCell ref="AH1:AH2"/>
     <mergeCell ref="AI1:AI2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="Z1:Z2"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="AB1:AB2"/>
+    <mergeCell ref="AC1:AC2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="AF3:AF30">
-    <cfRule type="colorScale" priority="45">
+    <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5971,7 +5968,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA4:AA30">
-    <cfRule type="colorScale" priority="47">
+    <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5981,7 +5978,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z3:Z30">
-    <cfRule type="colorScale" priority="49">
+    <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5991,7 +5988,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA3:AA30">
-    <cfRule type="colorScale" priority="51">
+    <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6001,7 +5998,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD3:AD30">
-    <cfRule type="colorScale" priority="53">
+    <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6011,7 +6008,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB3:AB30">
-    <cfRule type="colorScale" priority="55">
+    <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6021,7 +6018,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z29:Z31">
-    <cfRule type="colorScale" priority="7">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6033,6 +6030,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z3:Z31">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA3:AF31">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -6042,7 +6049,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA3:AF31">
+  <conditionalFormatting sqref="AG3:AI31">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -6052,18 +6059,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG3:AI31">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="Z3:AI31">
-    <cfRule type="colorScale" priority="56">
+    <cfRule type="colorScale" priority="57">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6073,7 +6070,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z3:AI32">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>

--- a/Data/彙整清單_整理版.xlsx
+++ b/Data/彙整清單_整理版.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hmlu\svnbox\Research\Python\Stock\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5DAC190-5197-4EFF-8484-7D703000DE5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2059B20C-5F90-40C6-979A-E5AE523DF87E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D923A086-913E-4840-96DC-7378B4FF8169}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$6:$AN$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$6:$AN$27</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="430">
   <si>
     <t>公司名稱</t>
   </si>
@@ -58,24 +58,12 @@
     <t>ROE</t>
   </si>
   <si>
-    <t>亞力</t>
-  </si>
-  <si>
-    <t>亞力電機股份有限公司</t>
-  </si>
-  <si>
     <t>弘裕</t>
   </si>
   <si>
     <t>弘裕企業股份有限公司</t>
   </si>
   <si>
-    <t>吉茂</t>
-  </si>
-  <si>
-    <t>吉茂精密股份有限公司</t>
-  </si>
-  <si>
     <t>至上</t>
   </si>
   <si>
@@ -86,12 +74,6 @@
   </si>
   <si>
     <t>南茂科技股份有限公司</t>
-  </si>
-  <si>
-    <t>力山</t>
-  </si>
-  <si>
-    <t>力山工業股份有限公司</t>
   </si>
   <si>
     <t>建國</t>
@@ -470,30 +452,12 @@
     <t xml:space="preserve">   0.6 /    0.0</t>
   </si>
   <si>
-    <t xml:space="preserve">   0.7 /    0.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   0.7 /    0.3</t>
-  </si>
-  <si>
     <t xml:space="preserve">   3.6 /    0.0</t>
   </si>
   <si>
     <t xml:space="preserve">   3.0 /    0.0</t>
   </si>
   <si>
-    <t xml:space="preserve">   1.5 /    0.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   0.1 /    0.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.44 /    0.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   1.0 /   1.05</t>
-  </si>
-  <si>
     <t xml:space="preserve">   1.7 /    0.0</t>
   </si>
   <si>
@@ -722,42 +686,6 @@
     <t xml:space="preserve">    0.14 /     0.12 /     0.08 /     0.12</t>
   </si>
   <si>
-    <t xml:space="preserve">    25.5 /    25.79 /    25.36 /    24.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   336.0 /    634.8 /    872.9 /   530.45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    10.5 /    10.44 /     9.63 /     8.84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.16 /     0.09 /     0.03 /     0.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    55.9 /    56.18 /    56.86 /    62.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   963.0 /   1006.4 /  1103.05 /   830.87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7.76 /     7.71 /      7.7 /     8.44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7.66 /     6.72 /     4.81 /     2.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    25.8 /    25.94 /    25.72 /    25.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   106.0 /     94.3 /    99.85 /   147.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    21.7 /    21.64 /    21.58 /    21.66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.56 /     0.49 /     0.41 /     0.51</t>
-  </si>
-  <si>
     <t xml:space="preserve">   31.35 /    31.39 /    31.72 /    31.29</t>
   </si>
   <si>
@@ -1029,6 +957,420 @@
   </si>
   <si>
     <t>100張以下比例</t>
+  </si>
+  <si>
+    <t>聯成</t>
+  </si>
+  <si>
+    <t>聯成化學科技股份有限公司</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   21.25 /    21.21 /    21.22 /    22.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  6507.0 /   2969.2 /   2871.1 /  3921.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    9.08 /      9.1 /     8.97 /     9.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.82 /      0.8 /     0.95 /     1.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.2 /    0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.2 /    0.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.0 /    0.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.6 /   0.25</t>
+  </si>
+  <si>
+    <t>24.44  /  24.53  /  24.45  /  24.32  /  24.24</t>
+  </si>
+  <si>
+    <t>11.02  /  10.93  /  10.93  /  11.0  /  10.65</t>
+  </si>
+  <si>
+    <t>64.47  /  64.47  /  64.55  /  64.59  /  65.04</t>
+  </si>
+  <si>
+    <t>74.0  /  73.0  /  72.0  /  70.0  /  74.0</t>
+  </si>
+  <si>
+    <t>台聚</t>
+  </si>
+  <si>
+    <t>台灣聚合化學品股份有限公司</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    30.8 /    30.74 /    31.09 /    33.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 28146.0 /   9782.2 /  5551.65 /  7865.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    37.5 /    37.88 /    38.44 /    39.98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     0.3 /     0.34 /     0.57 /     2.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.3 /    0.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.5 /    0.2</t>
+  </si>
+  <si>
+    <t>26.52  /  26.59  /  26.45  /  25.97  /  25.9</t>
+  </si>
+  <si>
+    <t>9.99  /  10.1  /  9.95  /  9.8  /  9.81</t>
+  </si>
+  <si>
+    <t>63.4  /  63.22  /  63.5  /  64.17  /  64.24</t>
+  </si>
+  <si>
+    <t>73.0  /  72.0  /  71.0  /  75.0  /  75.0</t>
+  </si>
+  <si>
+    <t>威健</t>
+  </si>
+  <si>
+    <t>威健實業股份有限公司</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    31.0 /    31.84 /    31.13 /    29.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  9243.0 /   9012.8 /  12034.5 / 11587.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    11.1 /    11.48 /    10.77 /    10.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    7.21 /     7.03 /     7.49 /     11.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.33 /    0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.58 /    0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.02 /    0.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.31 /   0.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.06 /    0.0</t>
+  </si>
+  <si>
+    <t>49.1  /  48.08  /  50.35  /  50.92  /  50.96</t>
+  </si>
+  <si>
+    <t>23.19  /  22.9  /  23.58  /  23.2  /  23.48</t>
+  </si>
+  <si>
+    <t>27.63  /  28.92  /  26.0  /  25.79  /  25.5</t>
+  </si>
+  <si>
+    <t>33.0  /  36.0  /  31.0  /  30.0  /  30.0</t>
+  </si>
+  <si>
+    <t>展宇</t>
+  </si>
+  <si>
+    <t>展宇科技材料股份有限公司</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   21.15 /    21.31 /    21.33 /    22.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   124.0 /   108.02 /    94.07 /   464.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.43 /     1.41 /     1.34 /     1.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.22 /     0.21 /     0.19 /     1.91</t>
+  </si>
+  <si>
+    <t>20.29  /  20.32  /  20.3  /  20.14  /  20.23</t>
+  </si>
+  <si>
+    <t>25.93  /  25.93  /  25.97  /  26.16  /  26.08</t>
+  </si>
+  <si>
+    <t>53.7  /  53.67  /  53.66  /  53.62  /  53.62</t>
+  </si>
+  <si>
+    <t>20.0  /  20.0  /  20.0  /  20.0  /  20.0</t>
+  </si>
+  <si>
+    <t>增你強</t>
+  </si>
+  <si>
+    <t>增你強股份有限公司</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   33.25 /    34.04 /    33.83 /    31.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1649.0 /   1251.4 /   2101.4 /  1447.77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    8.51 /     8.54 /     8.56 /     7.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.68 /     1.64 /      1.2 /     1.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.9 /    0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.82 /    0.0</t>
+  </si>
+  <si>
+    <t>47.92  /  47.76  /  48.1  /  49.14  /  48.58</t>
+  </si>
+  <si>
+    <t>18.17  /  19.17  /  18.74  /  18.09  /  18.0</t>
+  </si>
+  <si>
+    <t>33.85  /  32.98  /  33.08  /  32.68  /  33.35</t>
+  </si>
+  <si>
+    <t>23.0  /  21.0  /  21.0  /  21.0  /  22.0</t>
+  </si>
+  <si>
+    <t>亞聚</t>
+  </si>
+  <si>
+    <t>亞洲聚合股份有限公司</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   37.25 /    36.15 /    36.44 /    38.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 53753.0 /  13518.6 /  6499.45 / 11712.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    8.71 /     9.08 /     9.48 /    10.63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.93 /     0.97 /     1.06 /     2.87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.2 /    0.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.6 /    0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.2 /    0.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.6 /    0.3</t>
+  </si>
+  <si>
+    <t>33.44  /  33.61  /  33.7  /  32.53  /  32.42</t>
+  </si>
+  <si>
+    <t>12.86  /  12.58  /  12.48  /  11.91  /  11.52</t>
+  </si>
+  <si>
+    <t>53.63  /  53.74  /  53.74  /  55.49  /  55.99</t>
+  </si>
+  <si>
+    <t>31.0  /  32.0  /  31.0  /  36.0  /  37.0</t>
+  </si>
+  <si>
+    <t>益登</t>
+  </si>
+  <si>
+    <t>益登科技股份有限公司</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    32.7 /    32.54 /    32.24 /    32.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1590.0 /    877.8 /   720.65 /  1001.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    6.05 /     6.17 /     6.25 /     6.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.12 /     0.14 /     0.26 /     0.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.9 /    1.0</t>
+  </si>
+  <si>
+    <t>40.62  /  40.8  /  41.12  /  41.15  /  41.0</t>
+  </si>
+  <si>
+    <t>21.23  /  20.53  /  19.72  /  19.14  /  18.7</t>
+  </si>
+  <si>
+    <t>38.08  /  38.6  /  39.06  /  39.64  /  40.23</t>
+  </si>
+  <si>
+    <t>19.0  /  20.0  /  20.0  /  21.0  /  22.0</t>
+  </si>
+  <si>
+    <t>弘憶股</t>
+  </si>
+  <si>
+    <t>弘憶國際股份有限公司</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    23.5 /    24.08 /     24.0 /    23.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1123.0 /    841.2 /   975.45 /   1877.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5.84 /     5.85 /     5.85 /     6.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.41 /     1.25 /     0.84 /     0.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.0 /    1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.6 /    0.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.6 /    0.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.0 /   0.12</t>
+  </si>
+  <si>
+    <t>35.36  /  35.42  /  35.39  /  34.11  /  31.39</t>
+  </si>
+  <si>
+    <t>17.47  /  17.48  /  17.63  /  17.72  /  18.34</t>
+  </si>
+  <si>
+    <t>47.09  /  47.02  /  46.91  /  48.09  /  50.21</t>
+  </si>
+  <si>
+    <t>12.0  /  12.0  /  12.0  /  13.0  /  13.0</t>
+  </si>
+  <si>
+    <t>精元</t>
+  </si>
+  <si>
+    <t>精元電腦股份有限公司</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    46.3 /    47.72 /     46.2 /    44.98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   989.0 /   2291.2 /  1452.75 /  1293.77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.88 /     0.94 /     1.16 /     1.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.11 /     0.09 /     0.12 /     1.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.01 /    0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.48 /    0.0</t>
+  </si>
+  <si>
+    <t>25.24  /  25.18  /  24.74  /  24.13  /  23.65</t>
+  </si>
+  <si>
+    <t>9.34  /  9.37  /  9.85  /  9.47  /  8.68</t>
+  </si>
+  <si>
+    <t>65.34  /  65.38  /  65.31  /  66.32  /  67.6</t>
+  </si>
+  <si>
+    <t>15.0  /  15.0  /  15.0  /  16.0  /  17.0</t>
+  </si>
+  <si>
+    <t>華夏</t>
+  </si>
+  <si>
+    <t>華夏海灣塑膠股份有限公司</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   34.75 /     34.9 /    34.29 /    35.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13672.0 /   5446.0 /   3801.8 /  7824.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    10.9 /    10.84 /    11.04 /    14.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.79 /     0.78 /     0.85 /     1.79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.5 /    0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.5 /    0.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.5 /    0.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.7 /    0.3</t>
+  </si>
+  <si>
+    <t>38.33  /  38.5  /  38.45  /  37.87  /  37.75</t>
+  </si>
+  <si>
+    <t>12.37  /  12.43  /  12.65  /  12.69  /  12.76</t>
+  </si>
+  <si>
+    <t>49.23  /  49.0  /  48.85  /  49.37  /  49.4</t>
+  </si>
+  <si>
+    <t>33.0  /  33.0  /  34.0  /  35.0  /  34.0</t>
+  </si>
+  <si>
+    <t>聲寶</t>
+  </si>
+  <si>
+    <t>聲寶股份有限公司</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   30.05 /     30.0 /    29.73 /    29.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   672.0 /    553.2 /   456.55 /    581.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    10.4 /    10.32 /    10.23 /    10.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.97 /     0.99 /     1.04 /     1.68</t>
+  </si>
+  <si>
+    <t>32.09  /  32.28  /  32.27  /  32.33  /  32.44</t>
+  </si>
+  <si>
+    <t>15.04  /  14.91  /  14.95  /  15.08  /  15.1</t>
+  </si>
+  <si>
+    <t>52.8  /  52.74  /  52.71  /  52.52  /  52.39</t>
+  </si>
+  <si>
+    <t>42.0  /  42.0  /  42.0  /  42.0  /  42.0</t>
   </si>
 </sst>
 </file>
@@ -1221,7 +1563,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1399,12 +1741,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1652,7 +1988,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1675,9 +2011,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2044,13 +2377,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2696BFBE-0625-42C0-8E1C-A5A53CEB8548}">
-  <dimension ref="A1:AU32"/>
+  <dimension ref="A1:AU40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="O21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="N14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="U34" sqref="U34"/>
+      <selection pane="bottomRight" activeCell="Z3" sqref="Z3:AI40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2073,165 +2406,165 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="10" t="s">
+      <c r="A1" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" s="10" t="s">
+      <c r="G1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
-      <c r="Z1" s="10" t="s">
+      <c r="Z1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AA1" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC1" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD1" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE1" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF1" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG1" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH1" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="AB1" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC1" s="9" t="s">
+      <c r="AI1" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AD1" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE1" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF1" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG1" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH1" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI1" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="AJ1" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="AK1" s="9"/>
-      <c r="AL1" s="9"/>
-      <c r="AM1" s="9"/>
-      <c r="AN1" s="9"/>
+      <c r="AJ1" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK1" s="8"/>
+      <c r="AL1" s="8"/>
+      <c r="AM1" s="8"/>
+      <c r="AN1" s="8"/>
     </row>
     <row r="2" spans="1:46" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
       <c r="J2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="O2" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="N2" s="5" t="s">
+      <c r="P2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="W2" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="O2" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="R2" s="5" t="s">
+      <c r="X2" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="Y2" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="T2" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="W2" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="X2" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y2" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z2" s="10"/>
-      <c r="AA2" s="9"/>
-      <c r="AB2" s="10"/>
-      <c r="AC2" s="9"/>
-      <c r="AD2" s="9"/>
-      <c r="AE2" s="9"/>
-      <c r="AF2" s="9"/>
-      <c r="AG2" s="9"/>
-      <c r="AH2" s="9"/>
-      <c r="AI2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="8"/>
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="8"/>
       <c r="AJ2" s="2">
         <v>2021</v>
       </c>
@@ -2248,16 +2581,16 @@
         <v>2017</v>
       </c>
       <c r="AO2" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="AP2" t="s">
-        <v>312</v>
+        <v>288</v>
       </c>
       <c r="AQ2" t="s">
-        <v>314</v>
+        <v>290</v>
       </c>
       <c r="AR2" t="s">
-        <v>313</v>
+        <v>289</v>
       </c>
       <c r="AS2"/>
       <c r="AT2"/>
@@ -2267,10 +2600,10 @@
         <v>1229</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D3" s="7">
         <v>14096480360</v>
@@ -2291,16 +2624,16 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="J3" t="s">
-        <v>198</v>
-      </c>
-      <c r="K3" t="s">
-        <v>199</v>
+        <v>186</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="L3" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="M3" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="N3" s="1">
         <v>11</v>
@@ -2369,19 +2702,19 @@
         <v>60</v>
       </c>
       <c r="AJ3" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AK3" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AM3" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AN3" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:46" x14ac:dyDescent="0.25">
@@ -2389,10 +2722,10 @@
         <v>1231</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D4" s="7">
         <v>2017623940</v>
@@ -2413,16 +2746,16 @@
         <v>3.21</v>
       </c>
       <c r="J4" t="s">
-        <v>202</v>
-      </c>
-      <c r="K4" t="s">
-        <v>203</v>
+        <v>190</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="L4" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="M4" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="N4" s="1">
         <v>11</v>
@@ -2491,19 +2824,19 @@
         <v>43</v>
       </c>
       <c r="AJ4" s="1" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AK4" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AL4" s="1" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AM4" s="1" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="AN4" s="1" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:46" x14ac:dyDescent="0.25">
@@ -2511,10 +2844,10 @@
         <v>1409</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D5" s="7">
         <v>16184092910</v>
@@ -2535,16 +2868,16 @@
         <v>0.94</v>
       </c>
       <c r="J5" t="s">
-        <v>205</v>
-      </c>
-      <c r="K5" t="s">
-        <v>206</v>
+        <v>193</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="L5" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="M5" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="N5" s="1">
         <v>9</v>
@@ -2613,19 +2946,19 @@
         <v>47</v>
       </c>
       <c r="AJ5" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="AK5" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="AL5" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="AM5" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="AN5" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:46" x14ac:dyDescent="0.25">
@@ -2633,10 +2966,10 @@
         <v>1474</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D6" s="7">
         <v>1298969690</v>
@@ -2657,16 +2990,16 @@
         <v>1.01</v>
       </c>
       <c r="J6" t="s">
-        <v>209</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>210</v>
+        <v>197</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="L6" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="M6" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="N6" s="1">
         <v>13</v>
@@ -2735,3203 +3068,4311 @@
         <v>43</v>
       </c>
       <c r="AJ6" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="AK6" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="AL6" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="AM6" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="AN6" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>1514</v>
+        <v>2020</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D7" s="7">
-        <v>2283266720</v>
+        <v>2225261000</v>
       </c>
       <c r="E7" s="1">
-        <v>19680925</v>
+        <v>19590929</v>
       </c>
       <c r="F7" s="1">
-        <v>19940326</v>
+        <v>19930427</v>
       </c>
       <c r="G7">
-        <v>4.71</v>
+        <v>5.42</v>
       </c>
       <c r="H7">
-        <v>16.78</v>
+        <v>8.81</v>
       </c>
       <c r="I7">
-        <v>1.73</v>
+        <v>1.95</v>
       </c>
       <c r="J7" t="s">
-        <v>213</v>
-      </c>
-      <c r="K7" t="s">
-        <v>214</v>
+        <v>201</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="L7" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="M7" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="N7" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O7" s="1">
-        <v>19.760000000000002</v>
+        <v>42.72</v>
       </c>
       <c r="P7" s="1">
         <v>14.8</v>
       </c>
       <c r="Q7" s="1">
-        <v>22.5</v>
+        <v>52.69</v>
       </c>
       <c r="R7" s="1">
-        <v>16.600000000000001</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="S7" s="1">
-        <v>25.23</v>
+        <v>62.66</v>
       </c>
       <c r="T7" s="1">
-        <v>18.399999999999999</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="U7" s="1">
-        <v>27.97</v>
+        <v>72.62</v>
       </c>
       <c r="V7" s="1">
-        <v>20.2</v>
+        <v>23.2</v>
       </c>
       <c r="W7" s="1">
-        <v>30.7</v>
+        <v>82.59</v>
       </c>
       <c r="X7" s="1">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="Y7" s="1">
-        <v>33.44</v>
+        <v>92.56</v>
       </c>
       <c r="Z7" s="1">
-        <v>18.34</v>
+        <v>14.3</v>
       </c>
       <c r="AA7" s="1">
-        <v>7.73</v>
+        <v>9.4700000000000006</v>
       </c>
       <c r="AB7" s="1">
-        <v>11.62</v>
+        <v>27.47</v>
       </c>
       <c r="AC7" s="1">
-        <v>8.6</v>
+        <v>16.52</v>
       </c>
       <c r="AD7" s="1">
-        <v>7.3</v>
+        <v>14.13</v>
       </c>
       <c r="AE7" s="1">
-        <v>0.79</v>
+        <v>0.89</v>
       </c>
       <c r="AF7" s="1">
-        <v>89.88</v>
+        <v>57.32</v>
       </c>
       <c r="AG7" s="1">
-        <v>-2.67</v>
+        <v>0.9</v>
       </c>
       <c r="AH7" s="1">
-        <v>-4.1100000000000003</v>
+        <v>1.46</v>
       </c>
       <c r="AI7" s="1">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="AJ7" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AK7" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AL7" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AM7" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AN7" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="AK7" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AL7" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AM7" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AN7" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>1515</v>
+        <v>2069</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D8" s="7">
-        <v>1814735000</v>
+        <v>1663868360</v>
       </c>
       <c r="E8" s="1">
-        <v>19730430</v>
+        <v>19870724</v>
       </c>
       <c r="F8" s="1">
-        <v>19950204</v>
+        <v>20160322</v>
       </c>
       <c r="G8">
-        <v>6.44</v>
+        <v>1.66</v>
       </c>
       <c r="H8">
-        <v>8.8000000000000007</v>
+        <v>8.6</v>
       </c>
       <c r="I8">
-        <v>2.61</v>
+        <v>1.39</v>
       </c>
       <c r="J8" t="s">
-        <v>217</v>
-      </c>
-      <c r="K8" t="s">
-        <v>218</v>
+        <v>205</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>206</v>
       </c>
       <c r="L8" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="M8" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="N8" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O8" s="1">
-        <v>76.2</v>
+        <v>38.6</v>
       </c>
       <c r="P8" s="1">
-        <v>15.6</v>
+        <v>13.4</v>
       </c>
       <c r="Q8" s="1">
-        <v>99.06</v>
+        <v>51.72</v>
       </c>
       <c r="R8" s="1">
-        <v>19.2</v>
+        <v>16.8</v>
       </c>
       <c r="S8" s="1">
-        <v>121.9</v>
+        <v>64.849999999999994</v>
       </c>
       <c r="T8" s="1">
-        <v>22.8</v>
+        <v>20.2</v>
       </c>
       <c r="U8" s="1">
-        <v>144.80000000000001</v>
+        <v>77.97</v>
       </c>
       <c r="V8" s="1">
-        <v>26.4</v>
+        <v>23.6</v>
       </c>
       <c r="W8" s="1">
-        <v>167.6</v>
+        <v>91.1</v>
       </c>
       <c r="X8" s="1">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Y8" s="1">
-        <v>190.5</v>
+        <v>104.2</v>
       </c>
       <c r="Z8" s="1">
-        <v>13.81</v>
+        <v>13</v>
       </c>
       <c r="AA8" s="1">
-        <v>8.14</v>
+        <v>6.49</v>
       </c>
       <c r="AB8" s="1">
-        <v>28.22</v>
+        <v>19.260000000000002</v>
       </c>
       <c r="AC8" s="1">
-        <v>7.63</v>
+        <v>6.18</v>
       </c>
       <c r="AD8" s="1">
-        <v>6.12</v>
+        <v>5.03</v>
       </c>
       <c r="AE8" s="1">
-        <v>1.74</v>
+        <v>1.39</v>
       </c>
       <c r="AF8" s="1">
-        <v>106.68</v>
+        <v>105.02</v>
       </c>
       <c r="AG8" s="1">
-        <v>7.24</v>
+        <v>-7.36</v>
       </c>
       <c r="AH8" s="1">
-        <v>2.77</v>
+        <v>-9.52</v>
       </c>
       <c r="AI8" s="1">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AJ8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL8" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AM8" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="AK8" s="1" t="s">
+      <c r="AN8" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="AL8" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AM8" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AN8" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>1587</v>
+        <v>2324</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="D9" s="7">
-        <v>686244490</v>
+        <v>44071466250</v>
       </c>
       <c r="E9" s="1">
-        <v>19840822</v>
+        <v>19840601</v>
       </c>
       <c r="F9" s="1">
-        <v>20180416</v>
+        <v>19920218</v>
       </c>
       <c r="G9">
-        <v>7.75</v>
+        <v>6.49</v>
       </c>
       <c r="H9">
-        <v>14.66</v>
+        <v>7.66</v>
       </c>
       <c r="I9">
-        <v>1.4</v>
+        <v>0.99</v>
       </c>
       <c r="J9" t="s">
-        <v>221</v>
-      </c>
-      <c r="K9" t="s">
-        <v>222</v>
+        <v>209</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="L9" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="M9" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="N9" s="1">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O9" s="1">
-        <v>24.64</v>
+        <v>28.98</v>
       </c>
       <c r="P9" s="1">
-        <v>16.8</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="Q9" s="1">
-        <v>29.57</v>
+        <v>32.840000000000003</v>
       </c>
       <c r="R9" s="1">
-        <v>19.600000000000001</v>
+        <v>11.4</v>
       </c>
       <c r="S9" s="1">
-        <v>34.5</v>
+        <v>36.71</v>
       </c>
       <c r="T9" s="1">
-        <v>22.4</v>
+        <v>12.6</v>
       </c>
       <c r="U9" s="1">
-        <v>39.42</v>
+        <v>40.57</v>
       </c>
       <c r="V9" s="1">
-        <v>25.2</v>
+        <v>13.8</v>
       </c>
       <c r="W9" s="1">
-        <v>44.35</v>
+        <v>44.44</v>
       </c>
       <c r="X9" s="1">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="Y9" s="1">
-        <v>49.28</v>
+        <v>48.3</v>
       </c>
       <c r="Z9" s="1">
-        <v>23.6</v>
+        <v>3.35</v>
       </c>
       <c r="AA9" s="1">
-        <v>7.66</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="AB9" s="1">
-        <v>9.01</v>
+        <v>11.72</v>
       </c>
       <c r="AC9" s="1">
-        <v>7.17</v>
+        <v>1.49</v>
       </c>
       <c r="AD9" s="1">
-        <v>4.87</v>
+        <v>1.18</v>
       </c>
       <c r="AE9" s="1">
-        <v>0.84</v>
+        <v>2.33</v>
       </c>
       <c r="AF9" s="1">
-        <v>106.83</v>
+        <v>73.150000000000006</v>
       </c>
       <c r="AG9" s="1">
-        <v>-0.27</v>
+        <v>-5.67</v>
       </c>
       <c r="AH9" s="1">
-        <v>-1.07</v>
+        <v>-7.8</v>
       </c>
       <c r="AI9" s="1">
         <v>36</v>
       </c>
       <c r="AJ9" s="1" t="s">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="AK9" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AL9" s="1" t="s">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="AM9" s="1" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="AN9" s="1" t="s">
-        <v>136</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>2020</v>
+        <v>2347</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D10" s="7">
-        <v>2225261000</v>
+        <v>16679469680</v>
       </c>
       <c r="E10" s="1">
-        <v>19590929</v>
+        <v>19880912</v>
       </c>
       <c r="F10" s="1">
-        <v>19930427</v>
+        <v>19951213</v>
       </c>
       <c r="G10">
-        <v>5.42</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="H10">
-        <v>8.81</v>
+        <v>6.62</v>
       </c>
       <c r="I10">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="J10" t="s">
-        <v>225</v>
-      </c>
-      <c r="K10" t="s">
-        <v>226</v>
+        <v>213</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>214</v>
       </c>
       <c r="L10" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="M10" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="N10" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O10" s="1">
-        <v>42.72</v>
+        <v>90.18</v>
       </c>
       <c r="P10" s="1">
-        <v>14.8</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="Q10" s="1">
-        <v>52.69</v>
+        <v>102.2</v>
       </c>
       <c r="R10" s="1">
-        <v>17.600000000000001</v>
+        <v>11.4</v>
       </c>
       <c r="S10" s="1">
-        <v>62.66</v>
+        <v>114.2</v>
       </c>
       <c r="T10" s="1">
-        <v>20.399999999999999</v>
+        <v>12.6</v>
       </c>
       <c r="U10" s="1">
-        <v>72.62</v>
+        <v>126.3</v>
       </c>
       <c r="V10" s="1">
-        <v>23.2</v>
+        <v>13.8</v>
       </c>
       <c r="W10" s="1">
-        <v>82.59</v>
+        <v>138.30000000000001</v>
       </c>
       <c r="X10" s="1">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="Y10" s="1">
-        <v>92.56</v>
+        <v>150.30000000000001</v>
       </c>
       <c r="Z10" s="1">
-        <v>14.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="AA10" s="1">
-        <v>9.4700000000000006</v>
+        <v>2.29</v>
       </c>
       <c r="AB10" s="1">
-        <v>27.47</v>
+        <v>32.94</v>
       </c>
       <c r="AC10" s="1">
-        <v>16.52</v>
+        <v>6.79</v>
       </c>
       <c r="AD10" s="1">
-        <v>14.13</v>
+        <v>5.12</v>
       </c>
       <c r="AE10" s="1">
-        <v>0.89</v>
+        <v>2.25</v>
       </c>
       <c r="AF10" s="1">
-        <v>57.32</v>
+        <v>33.729999999999997</v>
       </c>
       <c r="AG10" s="1">
-        <v>0.9</v>
+        <v>3.64</v>
       </c>
       <c r="AH10" s="1">
-        <v>1.46</v>
+        <v>0.68</v>
       </c>
       <c r="AI10" s="1">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="AJ10" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="AK10" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="AL10" s="1" t="s">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AM10" s="1" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="AN10" s="1" t="s">
-        <v>141</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>2069</v>
+        <v>2352</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="D11" s="7">
-        <v>1663868360</v>
+        <v>19667819580</v>
       </c>
       <c r="E11" s="1">
-        <v>19870724</v>
+        <v>19840421</v>
       </c>
       <c r="F11" s="1">
-        <v>20160322</v>
+        <v>19960722</v>
       </c>
       <c r="G11">
-        <v>1.66</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="H11">
-        <v>8.6</v>
+        <v>6.69</v>
       </c>
       <c r="I11">
-        <v>1.39</v>
+        <v>1.68</v>
       </c>
       <c r="J11" t="s">
-        <v>229</v>
-      </c>
-      <c r="K11" t="s">
-        <v>230</v>
+        <v>217</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>218</v>
       </c>
       <c r="L11" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="M11" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="N11" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O11" s="1">
-        <v>38.6</v>
+        <v>36.96</v>
       </c>
       <c r="P11" s="1">
-        <v>13.4</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="Q11" s="1">
-        <v>51.72</v>
+        <v>47.12</v>
       </c>
       <c r="R11" s="1">
+        <v>12.4</v>
+      </c>
+      <c r="S11" s="1">
+        <v>57.29</v>
+      </c>
+      <c r="T11" s="1">
+        <v>14.6</v>
+      </c>
+      <c r="U11" s="1">
+        <v>67.45</v>
+      </c>
+      <c r="V11" s="1">
         <v>16.8</v>
       </c>
-      <c r="S11" s="1">
-        <v>64.849999999999994</v>
-      </c>
-      <c r="T11" s="1">
-        <v>20.2</v>
-      </c>
-      <c r="U11" s="1">
-        <v>77.97</v>
-      </c>
-      <c r="V11" s="1">
-        <v>23.6</v>
-      </c>
       <c r="W11" s="1">
-        <v>91.1</v>
+        <v>77.62</v>
       </c>
       <c r="X11" s="1">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="Y11" s="1">
-        <v>104.2</v>
+        <v>87.78</v>
       </c>
       <c r="Z11" s="1">
-        <v>13</v>
+        <v>14.67</v>
       </c>
       <c r="AA11" s="1">
-        <v>6.49</v>
+        <v>3.42</v>
       </c>
       <c r="AB11" s="1">
-        <v>19.260000000000002</v>
+        <v>20.170000000000002</v>
       </c>
       <c r="AC11" s="1">
-        <v>6.18</v>
+        <v>6.69</v>
       </c>
       <c r="AD11" s="1">
-        <v>5.03</v>
+        <v>5.45</v>
       </c>
       <c r="AE11" s="1">
-        <v>1.39</v>
+        <v>1.24</v>
       </c>
       <c r="AF11" s="1">
-        <v>105.02</v>
+        <v>51.12</v>
       </c>
       <c r="AG11" s="1">
-        <v>-7.36</v>
+        <v>-1.7</v>
       </c>
       <c r="AH11" s="1">
-        <v>-9.52</v>
+        <v>-5.0199999999999996</v>
       </c>
       <c r="AI11" s="1">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AJ11" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="AK11" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AL11" s="1" t="s">
-        <v>142</v>
+        <v>84</v>
       </c>
       <c r="AM11" s="1" t="s">
-        <v>143</v>
+        <v>95</v>
       </c>
       <c r="AN11" s="1" t="s">
-        <v>144</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>2324</v>
+        <v>2385</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="D12" s="7">
-        <v>44071466250</v>
+        <v>7452927490</v>
       </c>
       <c r="E12" s="1">
-        <v>19840601</v>
+        <v>19830222</v>
       </c>
       <c r="F12" s="1">
-        <v>19920218</v>
+        <v>19990105</v>
       </c>
       <c r="G12">
-        <v>6.49</v>
+        <v>6.47</v>
       </c>
       <c r="H12">
-        <v>7.66</v>
+        <v>10.48</v>
       </c>
       <c r="I12">
-        <v>0.99</v>
+        <v>2.13</v>
       </c>
       <c r="J12" t="s">
-        <v>233</v>
-      </c>
-      <c r="K12" t="s">
-        <v>234</v>
+        <v>221</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>222</v>
       </c>
       <c r="L12" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="M12" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="N12" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O12" s="1">
-        <v>28.98</v>
+        <v>81.2</v>
       </c>
       <c r="P12" s="1">
-        <v>10.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="1">
-        <v>32.840000000000003</v>
+        <v>89.32</v>
       </c>
       <c r="R12" s="1">
-        <v>11.4</v>
+        <v>12</v>
       </c>
       <c r="S12" s="1">
-        <v>36.71</v>
+        <v>97.44</v>
       </c>
       <c r="T12" s="1">
-        <v>12.6</v>
+        <v>13</v>
       </c>
       <c r="U12" s="1">
-        <v>40.57</v>
+        <v>105.6</v>
       </c>
       <c r="V12" s="1">
-        <v>13.8</v>
+        <v>14</v>
       </c>
       <c r="W12" s="1">
-        <v>44.44</v>
+        <v>113.7</v>
       </c>
       <c r="X12" s="1">
         <v>15</v>
       </c>
       <c r="Y12" s="1">
-        <v>48.3</v>
+        <v>121.8</v>
       </c>
       <c r="Z12" s="1">
-        <v>3.35</v>
+        <v>17.55</v>
       </c>
       <c r="AA12" s="1">
-        <v>1.0900000000000001</v>
+        <v>7.9</v>
       </c>
       <c r="AB12" s="1">
-        <v>11.72</v>
+        <v>22.24</v>
       </c>
       <c r="AC12" s="1">
-        <v>1.49</v>
+        <v>8.7799999999999994</v>
       </c>
       <c r="AD12" s="1">
-        <v>1.18</v>
+        <v>7.09</v>
       </c>
       <c r="AE12" s="1">
-        <v>2.33</v>
+        <v>1.32</v>
       </c>
       <c r="AF12" s="1">
-        <v>73.150000000000006</v>
+        <v>89.98</v>
       </c>
       <c r="AG12" s="1">
-        <v>-5.67</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="AH12" s="1">
-        <v>-7.8</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="AI12" s="1">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AJ12" s="1" t="s">
-        <v>95</v>
+        <v>165</v>
       </c>
       <c r="AK12" s="1" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="AL12" s="1" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="AM12" s="1" t="s">
-        <v>96</v>
+        <v>167</v>
       </c>
       <c r="AN12" s="1" t="s">
-        <v>96</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>2347</v>
+        <v>2417</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="D13" s="7">
-        <v>16679469680</v>
+        <v>1543138640</v>
       </c>
       <c r="E13" s="1">
-        <v>19880912</v>
+        <v>19900117</v>
       </c>
       <c r="F13" s="1">
-        <v>19951213</v>
+        <v>20000911</v>
       </c>
       <c r="G13">
-        <v>4.9800000000000004</v>
+        <v>5.38</v>
       </c>
       <c r="H13">
-        <v>6.62</v>
+        <v>13.76</v>
       </c>
       <c r="I13">
-        <v>1.87</v>
+        <v>1.69</v>
       </c>
       <c r="J13" t="s">
-        <v>237</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>238</v>
+        <v>225</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>226</v>
       </c>
       <c r="L13" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="M13" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="N13" s="1">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="O13" s="1">
-        <v>90.18</v>
+        <v>28.34</v>
       </c>
       <c r="P13" s="1">
-        <v>10.199999999999999</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="Q13" s="1">
-        <v>102.2</v>
+        <v>35.75</v>
       </c>
       <c r="R13" s="1">
-        <v>11.4</v>
+        <v>19.8</v>
       </c>
       <c r="S13" s="1">
-        <v>114.2</v>
+        <v>43.16</v>
       </c>
       <c r="T13" s="1">
-        <v>12.6</v>
+        <v>23.2</v>
       </c>
       <c r="U13" s="1">
-        <v>126.3</v>
+        <v>50.58</v>
       </c>
       <c r="V13" s="1">
-        <v>13.8</v>
+        <v>26.6</v>
       </c>
       <c r="W13" s="1">
-        <v>138.30000000000001</v>
+        <v>57.99</v>
       </c>
       <c r="X13" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="Y13" s="1">
-        <v>150.30000000000001</v>
+        <v>65.400000000000006</v>
       </c>
       <c r="Z13" s="1">
-        <v>4.4000000000000004</v>
+        <v>48.85</v>
       </c>
       <c r="AA13" s="1">
-        <v>2.29</v>
+        <v>12.06</v>
       </c>
       <c r="AB13" s="1">
-        <v>32.94</v>
+        <v>9.5399999999999991</v>
       </c>
       <c r="AC13" s="1">
-        <v>6.79</v>
+        <v>12.15</v>
       </c>
       <c r="AD13" s="1">
-        <v>5.12</v>
+        <v>9.57</v>
       </c>
       <c r="AE13" s="1">
-        <v>2.25</v>
+        <v>0.67</v>
       </c>
       <c r="AF13" s="1">
-        <v>33.729999999999997</v>
+        <v>99.26</v>
       </c>
       <c r="AG13" s="1">
-        <v>3.64</v>
+        <v>0.98</v>
       </c>
       <c r="AH13" s="1">
-        <v>0.68</v>
+        <v>-0.77</v>
       </c>
       <c r="AI13" s="1">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AJ13" s="1" t="s">
-        <v>145</v>
+        <v>99</v>
       </c>
       <c r="AK13" s="1" t="s">
-        <v>146</v>
+        <v>100</v>
       </c>
       <c r="AL13" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="AM13" s="1" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="AN13" s="1" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>2352</v>
+        <v>2458</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>98</v>
+        <v>26</v>
       </c>
       <c r="D14" s="7">
-        <v>19667819580</v>
+        <v>3038803920</v>
       </c>
       <c r="E14" s="1">
-        <v>19840421</v>
+        <v>19940505</v>
       </c>
       <c r="F14" s="1">
-        <v>19960722</v>
+        <v>20010917</v>
       </c>
       <c r="G14">
-        <v>4.8600000000000003</v>
+        <v>5.36</v>
       </c>
       <c r="H14">
-        <v>6.69</v>
+        <v>9.6199999999999992</v>
       </c>
       <c r="I14">
-        <v>1.68</v>
+        <v>5.03</v>
       </c>
       <c r="J14" t="s">
-        <v>241</v>
-      </c>
-      <c r="K14" t="s">
-        <v>242</v>
+        <v>229</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>230</v>
       </c>
       <c r="L14" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="M14" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="N14" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="O14" s="1">
-        <v>36.96</v>
+        <v>205.2</v>
       </c>
       <c r="P14" s="1">
-        <v>10.199999999999999</v>
+        <v>14.2</v>
       </c>
       <c r="Q14" s="1">
-        <v>47.12</v>
+        <v>242.8</v>
       </c>
       <c r="R14" s="1">
-        <v>12.4</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="S14" s="1">
-        <v>57.29</v>
+        <v>280.39999999999998</v>
       </c>
       <c r="T14" s="1">
-        <v>14.6</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="U14" s="1">
-        <v>67.45</v>
+        <v>318.10000000000002</v>
       </c>
       <c r="V14" s="1">
-        <v>16.8</v>
+        <v>20.8</v>
       </c>
       <c r="W14" s="1">
-        <v>77.62</v>
+        <v>355.7</v>
       </c>
       <c r="X14" s="1">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Y14" s="1">
-        <v>87.78</v>
+        <v>393.3</v>
       </c>
       <c r="Z14" s="1">
-        <v>14.67</v>
+        <v>49.84</v>
       </c>
       <c r="AA14" s="1">
-        <v>3.42</v>
+        <v>31.99</v>
       </c>
       <c r="AB14" s="1">
-        <v>20.170000000000002</v>
+        <v>52.13</v>
       </c>
       <c r="AC14" s="1">
-        <v>6.69</v>
+        <v>32.97</v>
       </c>
       <c r="AD14" s="1">
-        <v>5.45</v>
+        <v>26.28</v>
       </c>
       <c r="AE14" s="1">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AF14" s="1">
-        <v>51.12</v>
+        <v>97.03</v>
       </c>
       <c r="AG14" s="1">
-        <v>-1.7</v>
+        <v>12.18</v>
       </c>
       <c r="AH14" s="1">
-        <v>-5.0199999999999996</v>
+        <v>18.04</v>
       </c>
       <c r="AI14" s="1">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="AJ14" s="1" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="AK14" s="1" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="AL14" s="1" t="s">
-        <v>90</v>
+        <v>137</v>
       </c>
       <c r="AM14" s="1" t="s">
-        <v>101</v>
+        <v>138</v>
       </c>
       <c r="AN14" s="1" t="s">
-        <v>102</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>2385</v>
+        <v>2520</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="D15" s="7">
-        <v>7452927490</v>
+        <v>5541701000</v>
       </c>
       <c r="E15" s="1">
-        <v>19830222</v>
+        <v>19791123</v>
       </c>
       <c r="F15" s="1">
-        <v>19990105</v>
+        <v>19931027</v>
       </c>
       <c r="G15">
-        <v>6.47</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="H15">
-        <v>10.48</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="I15">
-        <v>2.13</v>
+        <v>1.23</v>
       </c>
       <c r="J15" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="K15" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="L15" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="M15" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="N15" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="O15" s="1">
-        <v>81.2</v>
+        <v>59.57</v>
       </c>
       <c r="P15" s="1">
-        <v>11</v>
+        <v>8.4</v>
       </c>
       <c r="Q15" s="1">
-        <v>89.32</v>
+        <v>71.48</v>
       </c>
       <c r="R15" s="1">
-        <v>12</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="S15" s="1">
-        <v>97.44</v>
+        <v>83.4</v>
       </c>
       <c r="T15" s="1">
-        <v>13</v>
+        <v>11.2</v>
       </c>
       <c r="U15" s="1">
-        <v>105.6</v>
+        <v>95.31</v>
       </c>
       <c r="V15" s="1">
+        <v>12.6</v>
+      </c>
+      <c r="W15" s="1">
+        <v>107.2</v>
+      </c>
+      <c r="X15" s="1">
         <v>14</v>
       </c>
-      <c r="W15" s="1">
-        <v>113.7</v>
-      </c>
-      <c r="X15" s="1">
-        <v>15</v>
-      </c>
       <c r="Y15" s="1">
-        <v>121.8</v>
+        <v>119.1</v>
       </c>
       <c r="Z15" s="1">
-        <v>17.55</v>
+        <v>26.73</v>
       </c>
       <c r="AA15" s="1">
-        <v>7.9</v>
+        <v>19.5</v>
       </c>
       <c r="AB15" s="1">
-        <v>22.24</v>
+        <v>21.09</v>
       </c>
       <c r="AC15" s="1">
-        <v>8.7799999999999994</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="AD15" s="1">
-        <v>7.09</v>
+        <v>15.12</v>
       </c>
       <c r="AE15" s="1">
-        <v>1.32</v>
+        <v>0.46</v>
       </c>
       <c r="AF15" s="1">
-        <v>89.98</v>
+        <v>103.17</v>
       </c>
       <c r="AG15" s="1">
-        <v>4.0599999999999996</v>
+        <v>10.72</v>
       </c>
       <c r="AH15" s="1">
-        <v>1.1399999999999999</v>
+        <v>10.69</v>
       </c>
       <c r="AI15" s="1">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AJ15" s="1" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="AK15" s="1" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="AL15" s="1" t="s">
-        <v>178</v>
+        <v>106</v>
       </c>
       <c r="AM15" s="1" t="s">
-        <v>179</v>
+        <v>85</v>
       </c>
       <c r="AN15" s="1" t="s">
-        <v>180</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>2417</v>
+        <v>2546</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>103</v>
+        <v>17</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="D16" s="7">
-        <v>1543138640</v>
+        <v>1060356600</v>
       </c>
       <c r="E16" s="1">
-        <v>19900117</v>
+        <v>19820413</v>
       </c>
       <c r="F16" s="1">
         <v>20000911</v>
       </c>
       <c r="G16">
-        <v>5.38</v>
+        <v>7.25</v>
       </c>
       <c r="H16">
-        <v>13.76</v>
+        <v>7.06</v>
       </c>
       <c r="I16">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="J16" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="K16" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="L16" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="M16" t="s">
-        <v>252</v>
+        <v>159</v>
       </c>
       <c r="N16" s="1">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="O16" s="1">
-        <v>28.34</v>
+        <v>49.21</v>
       </c>
       <c r="P16" s="1">
-        <v>16.399999999999999</v>
+        <v>8</v>
       </c>
       <c r="Q16" s="1">
-        <v>35.75</v>
+        <v>56.24</v>
       </c>
       <c r="R16" s="1">
-        <v>19.8</v>
+        <v>9</v>
       </c>
       <c r="S16" s="1">
-        <v>43.16</v>
+        <v>63.27</v>
       </c>
       <c r="T16" s="1">
-        <v>23.2</v>
+        <v>10</v>
       </c>
       <c r="U16" s="1">
-        <v>50.58</v>
+        <v>70.3</v>
       </c>
       <c r="V16" s="1">
-        <v>26.6</v>
+        <v>11</v>
       </c>
       <c r="W16" s="1">
-        <v>57.99</v>
+        <v>77.33</v>
       </c>
       <c r="X16" s="1">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="Y16" s="1">
-        <v>65.400000000000006</v>
+        <v>84.36</v>
       </c>
       <c r="Z16" s="1">
-        <v>48.85</v>
+        <v>11.23</v>
       </c>
       <c r="AA16" s="1">
-        <v>12.06</v>
+        <v>8.3800000000000008</v>
       </c>
       <c r="AB16" s="1">
-        <v>9.5399999999999991</v>
+        <v>23.02</v>
       </c>
       <c r="AC16" s="1">
-        <v>12.15</v>
+        <v>9.17</v>
       </c>
       <c r="AD16" s="1">
-        <v>9.57</v>
+        <v>7.35</v>
       </c>
       <c r="AE16" s="1">
-        <v>0.67</v>
+        <v>1.07</v>
       </c>
       <c r="AF16" s="1">
-        <v>99.26</v>
+        <v>91.38</v>
       </c>
       <c r="AG16" s="1">
-        <v>0.98</v>
+        <v>5.88</v>
       </c>
       <c r="AH16" s="1">
-        <v>-0.77</v>
+        <v>5.85</v>
       </c>
       <c r="AI16" s="1">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="AJ16" s="1" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="AK16" s="1" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="AL16" s="1" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="AM16" s="1" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="AN16" s="1" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>2458</v>
+        <v>2881</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D17" s="7">
-        <v>3038803920</v>
+        <v>134049543940</v>
       </c>
       <c r="E17" s="1">
-        <v>19940505</v>
+        <v>20011219</v>
       </c>
       <c r="F17" s="1">
-        <v>20010917</v>
+        <v>20011219</v>
       </c>
       <c r="G17">
-        <v>5.36</v>
+        <v>3.95</v>
       </c>
       <c r="H17">
-        <v>9.6199999999999992</v>
+        <v>6.25</v>
       </c>
       <c r="I17">
-        <v>5.03</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="J17" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="K17" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="L17" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="M17" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="N17" s="1">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="O17" s="1">
-        <v>205.2</v>
+        <v>92.68</v>
       </c>
       <c r="P17" s="1">
-        <v>14.2</v>
+        <v>7.8</v>
       </c>
       <c r="Q17" s="1">
-        <v>242.8</v>
+        <v>103.3</v>
       </c>
       <c r="R17" s="1">
-        <v>16.399999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="S17" s="1">
-        <v>280.39999999999998</v>
+        <v>113.9</v>
       </c>
       <c r="T17" s="1">
-        <v>18.600000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="U17" s="1">
-        <v>318.10000000000002</v>
+        <v>124.5</v>
       </c>
       <c r="V17" s="1">
-        <v>20.8</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="W17" s="1">
-        <v>355.7</v>
+        <v>135</v>
       </c>
       <c r="X17" s="1">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="Y17" s="1">
-        <v>393.3</v>
+        <v>145.6</v>
       </c>
       <c r="Z17" s="1">
-        <v>49.84</v>
+        <v>0</v>
       </c>
       <c r="AA17" s="1">
-        <v>31.99</v>
+        <v>0</v>
       </c>
       <c r="AB17" s="1">
-        <v>52.13</v>
+        <v>21.39</v>
       </c>
       <c r="AC17" s="1">
-        <v>32.97</v>
+        <v>39.32</v>
       </c>
       <c r="AD17" s="1">
-        <v>26.28</v>
+        <v>34.96</v>
       </c>
       <c r="AE17" s="1">
-        <v>1.23</v>
+        <v>0.05</v>
       </c>
       <c r="AF17" s="1">
-        <v>97.03</v>
+        <v>0</v>
       </c>
       <c r="AG17" s="1">
-        <v>12.18</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="AH17" s="1">
-        <v>18.04</v>
+        <v>4.46</v>
       </c>
       <c r="AI17" s="1">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="AJ17" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="AK17" s="1" t="s">
-        <v>148</v>
+        <v>99</v>
       </c>
       <c r="AL17" s="1" t="s">
-        <v>149</v>
+        <v>99</v>
       </c>
       <c r="AM17" s="1" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="AN17" s="1" t="s">
-        <v>151</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>2520</v>
+        <v>3005</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>109</v>
+        <v>29</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="D18" s="7">
-        <v>5541701000</v>
+        <v>5954614000</v>
       </c>
       <c r="E18" s="1">
-        <v>19791123</v>
+        <v>19891005</v>
       </c>
       <c r="F18" s="1">
-        <v>19931027</v>
+        <v>20020225</v>
       </c>
       <c r="G18">
-        <v>9.1199999999999992</v>
+        <v>6.47</v>
       </c>
       <c r="H18">
-        <v>4.3899999999999997</v>
+        <v>7.64</v>
       </c>
       <c r="I18">
-        <v>1.23</v>
+        <v>1.93</v>
       </c>
       <c r="J18" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="K18" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="L18" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="M18" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="N18" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="O18" s="1">
-        <v>59.57</v>
+        <v>73</v>
       </c>
       <c r="P18" s="1">
-        <v>8.4</v>
+        <v>11.4</v>
       </c>
       <c r="Q18" s="1">
-        <v>71.48</v>
+        <v>83.22</v>
       </c>
       <c r="R18" s="1">
-        <v>9.8000000000000007</v>
+        <v>12.8</v>
       </c>
       <c r="S18" s="1">
-        <v>83.4</v>
+        <v>93.44</v>
       </c>
       <c r="T18" s="1">
-        <v>11.2</v>
+        <v>14.2</v>
       </c>
       <c r="U18" s="1">
-        <v>95.31</v>
+        <v>103.7</v>
       </c>
       <c r="V18" s="1">
-        <v>12.6</v>
+        <v>15.6</v>
       </c>
       <c r="W18" s="1">
-        <v>107.2</v>
+        <v>113.9</v>
       </c>
       <c r="X18" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="Y18" s="1">
-        <v>119.1</v>
+        <v>124.1</v>
       </c>
       <c r="Z18" s="1">
-        <v>26.73</v>
+        <v>24.89</v>
       </c>
       <c r="AA18" s="1">
-        <v>19.5</v>
+        <v>8.01</v>
       </c>
       <c r="AB18" s="1">
-        <v>21.09</v>
+        <v>25.54</v>
       </c>
       <c r="AC18" s="1">
-        <v>18.899999999999999</v>
+        <v>20.46</v>
       </c>
       <c r="AD18" s="1">
-        <v>15.12</v>
+        <v>15.77</v>
       </c>
       <c r="AE18" s="1">
-        <v>0.46</v>
+        <v>0.86</v>
       </c>
       <c r="AF18" s="1">
-        <v>103.17</v>
+        <v>39.15</v>
       </c>
       <c r="AG18" s="1">
-        <v>10.72</v>
+        <v>0.9</v>
       </c>
       <c r="AH18" s="1">
-        <v>10.69</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="AI18" s="1">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AJ18" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="AK18" s="1" t="s">
-        <v>99</v>
+        <v>148</v>
       </c>
       <c r="AL18" s="1" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="AM18" s="1" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="AN18" s="1" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>2546</v>
+        <v>3044</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="D19" s="7">
-        <v>1060356600</v>
+        <v>5256058980</v>
       </c>
       <c r="E19" s="1">
-        <v>19820413</v>
+        <v>19911216</v>
       </c>
       <c r="F19" s="1">
-        <v>20000911</v>
+        <v>20020826</v>
       </c>
       <c r="G19">
-        <v>7.25</v>
+        <v>6</v>
       </c>
       <c r="H19">
-        <v>7.06</v>
+        <v>10.44</v>
       </c>
       <c r="I19">
-        <v>1.57</v>
+        <v>1.76</v>
       </c>
       <c r="J19" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="K19" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="L19" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M19" t="s">
-        <v>171</v>
+        <v>251</v>
       </c>
       <c r="N19" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O19" s="1">
-        <v>49.21</v>
+        <v>93.92</v>
       </c>
       <c r="P19" s="1">
-        <v>8</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="Q19" s="1">
-        <v>56.24</v>
+        <v>108</v>
       </c>
       <c r="R19" s="1">
-        <v>9</v>
+        <v>10.4</v>
       </c>
       <c r="S19" s="1">
-        <v>63.27</v>
+        <v>122.1</v>
       </c>
       <c r="T19" s="1">
-        <v>10</v>
+        <v>11.6</v>
       </c>
       <c r="U19" s="1">
-        <v>70.3</v>
+        <v>136.19999999999999</v>
       </c>
       <c r="V19" s="1">
-        <v>11</v>
+        <v>12.8</v>
       </c>
       <c r="W19" s="1">
-        <v>77.33</v>
+        <v>150.30000000000001</v>
       </c>
       <c r="X19" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Y19" s="1">
-        <v>84.36</v>
+        <v>164.4</v>
       </c>
       <c r="Z19" s="1">
-        <v>11.23</v>
+        <v>18.75</v>
       </c>
       <c r="AA19" s="1">
-        <v>8.3800000000000008</v>
+        <v>10.47</v>
       </c>
       <c r="AB19" s="1">
-        <v>23.02</v>
+        <v>15.91</v>
       </c>
       <c r="AC19" s="1">
-        <v>9.17</v>
+        <v>11.99</v>
       </c>
       <c r="AD19" s="1">
-        <v>7.35</v>
+        <v>9.36</v>
       </c>
       <c r="AE19" s="1">
-        <v>1.07</v>
+        <v>0.78</v>
       </c>
       <c r="AF19" s="1">
-        <v>91.38</v>
+        <v>87.32</v>
       </c>
       <c r="AG19" s="1">
-        <v>5.88</v>
+        <v>7.58</v>
       </c>
       <c r="AH19" s="1">
-        <v>5.85</v>
+        <v>-10.16</v>
       </c>
       <c r="AI19" s="1">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="AJ19" s="1" t="s">
-        <v>131</v>
+        <v>75</v>
       </c>
       <c r="AK19" s="1" t="s">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="AL19" s="1" t="s">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="AM19" s="1" t="s">
-        <v>152</v>
+        <v>78</v>
       </c>
       <c r="AN19" s="1" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>2881</v>
+        <v>3209</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>25</v>
+        <v>107</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="D20" s="7">
-        <v>134049543940</v>
+        <v>2005321840</v>
       </c>
       <c r="E20" s="1">
-        <v>20011219</v>
+        <v>19910415</v>
       </c>
       <c r="F20" s="1">
-        <v>20011219</v>
+        <v>20081126</v>
       </c>
       <c r="G20">
-        <v>3.95</v>
+        <v>6.9</v>
       </c>
       <c r="H20">
-        <v>6.25</v>
+        <v>8.1199999999999992</v>
       </c>
       <c r="I20">
-        <v>1.1299999999999999</v>
+        <v>1.66</v>
       </c>
       <c r="J20" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="K20" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="L20" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="M20" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="N20" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O20" s="1">
-        <v>92.68</v>
+        <v>32.04</v>
       </c>
       <c r="P20" s="1">
-        <v>7.8</v>
+        <v>10</v>
       </c>
       <c r="Q20" s="1">
-        <v>103.3</v>
+        <v>35.6</v>
       </c>
       <c r="R20" s="1">
-        <v>8.6</v>
+        <v>11</v>
       </c>
       <c r="S20" s="1">
-        <v>113.9</v>
+        <v>39.159999999999997</v>
       </c>
       <c r="T20" s="1">
-        <v>9.4</v>
+        <v>12</v>
       </c>
       <c r="U20" s="1">
-        <v>124.5</v>
+        <v>42.72</v>
       </c>
       <c r="V20" s="1">
-        <v>10.199999999999999</v>
+        <v>13</v>
       </c>
       <c r="W20" s="1">
-        <v>135</v>
+        <v>46.28</v>
       </c>
       <c r="X20" s="1">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Y20" s="1">
-        <v>145.6</v>
+        <v>49.84</v>
       </c>
       <c r="Z20" s="1">
-        <v>0</v>
+        <v>5.31</v>
       </c>
       <c r="AA20" s="1">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AB20" s="1">
-        <v>21.39</v>
+        <v>22.5</v>
       </c>
       <c r="AC20" s="1">
-        <v>39.32</v>
+        <v>2.11</v>
       </c>
       <c r="AD20" s="1">
-        <v>34.96</v>
+        <v>1.63</v>
       </c>
       <c r="AE20" s="1">
-        <v>0.05</v>
+        <v>3.25</v>
       </c>
       <c r="AF20" s="1">
-        <v>0</v>
+        <v>106.64</v>
       </c>
       <c r="AG20" s="1">
-        <v>5.0999999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="AH20" s="1">
-        <v>4.46</v>
+        <v>-1.1599999999999999</v>
       </c>
       <c r="AI20" s="1">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="AJ20" s="1" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="AK20" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="AL20" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="AM20" s="1" t="s">
-        <v>154</v>
+        <v>112</v>
       </c>
       <c r="AN20" s="1" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>3005</v>
+        <v>3702</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>35</v>
+        <v>174</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="7">
-        <v>5954614000</v>
+        <v>175</v>
+      </c>
+      <c r="D21" s="1">
+        <v>18790568330</v>
       </c>
       <c r="E21" s="1">
-        <v>19891005</v>
+        <v>20051109</v>
       </c>
       <c r="F21" s="1">
-        <v>20020225</v>
+        <v>20051109</v>
       </c>
       <c r="G21">
-        <v>6.47</v>
+        <v>5.96</v>
       </c>
       <c r="H21">
-        <v>7.64</v>
+        <v>8.98</v>
       </c>
       <c r="I21">
-        <v>1.93</v>
+        <v>1.44</v>
       </c>
       <c r="J21" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="K21" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="L21" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="M21" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="N21" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O21" s="1">
-        <v>73</v>
+        <v>55.71</v>
       </c>
       <c r="P21" s="1">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>60.66</v>
+      </c>
+      <c r="R21" s="1">
+        <v>10.6</v>
+      </c>
+      <c r="S21" s="1">
+        <v>65.61</v>
+      </c>
+      <c r="T21" s="1">
         <v>11.4</v>
       </c>
-      <c r="Q21" s="1">
-        <v>83.22</v>
-      </c>
-      <c r="R21" s="1">
-        <v>12.8</v>
-      </c>
-      <c r="S21" s="1">
-        <v>93.44</v>
-      </c>
-      <c r="T21" s="1">
-        <v>14.2</v>
-      </c>
       <c r="U21" s="1">
-        <v>103.7</v>
+        <v>70.569999999999993</v>
       </c>
       <c r="V21" s="1">
-        <v>15.6</v>
+        <v>12.2</v>
       </c>
       <c r="W21" s="1">
-        <v>113.9</v>
+        <v>75.52</v>
       </c>
       <c r="X21" s="1">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Y21" s="1">
-        <v>124.1</v>
+        <v>80.47</v>
       </c>
       <c r="Z21" s="1">
-        <v>24.89</v>
+        <v>3.89</v>
       </c>
       <c r="AA21" s="1">
-        <v>8.01</v>
+        <v>1.82</v>
       </c>
       <c r="AB21" s="1">
-        <v>25.54</v>
+        <v>17.649999999999999</v>
       </c>
       <c r="AC21" s="1">
-        <v>20.46</v>
+        <v>1.87</v>
       </c>
       <c r="AD21" s="1">
-        <v>15.77</v>
+        <v>1.54</v>
       </c>
       <c r="AE21" s="1">
-        <v>0.86</v>
+        <v>2.9</v>
       </c>
       <c r="AF21" s="1">
-        <v>39.15</v>
+        <v>97.33</v>
       </c>
       <c r="AG21" s="1">
-        <v>0.9</v>
+        <v>-16.23</v>
       </c>
       <c r="AH21" s="1">
-        <v>4.0599999999999996</v>
+        <v>-16.72</v>
       </c>
       <c r="AI21" s="1">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="AJ21" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="AK21" s="1" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="AL21" s="1" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="AM21" s="1" t="s">
-        <v>142</v>
+        <v>177</v>
       </c>
       <c r="AN21" s="1" t="s">
-        <v>132</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>3044</v>
+        <v>3706</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="D22" s="7">
-        <v>5256058980</v>
+        <v>12065567890</v>
       </c>
       <c r="E22" s="1">
-        <v>19911216</v>
+        <v>20130912</v>
       </c>
       <c r="F22" s="1">
-        <v>20020826</v>
+        <v>20130912</v>
       </c>
       <c r="G22">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="H22">
-        <v>10.44</v>
+        <v>3.34</v>
       </c>
       <c r="I22">
-        <v>1.76</v>
+        <v>0.83</v>
       </c>
       <c r="J22" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="K22" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="L22" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="M22" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="N22" s="1">
         <v>8</v>
       </c>
       <c r="O22" s="1">
-        <v>93.92</v>
+        <v>82.56</v>
       </c>
       <c r="P22" s="1">
-        <v>9.1999999999999993</v>
+        <v>9.4</v>
       </c>
       <c r="Q22" s="1">
-        <v>108</v>
+        <v>97.01</v>
       </c>
       <c r="R22" s="1">
-        <v>10.4</v>
+        <v>10.8</v>
       </c>
       <c r="S22" s="1">
-        <v>122.1</v>
+        <v>111.5</v>
       </c>
       <c r="T22" s="1">
-        <v>11.6</v>
+        <v>12.2</v>
       </c>
       <c r="U22" s="1">
-        <v>136.19999999999999</v>
+        <v>125.9</v>
       </c>
       <c r="V22" s="1">
-        <v>12.8</v>
+        <v>13.6</v>
       </c>
       <c r="W22" s="1">
-        <v>150.30000000000001</v>
+        <v>140.4</v>
       </c>
       <c r="X22" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Y22" s="1">
-        <v>164.4</v>
+        <v>154.80000000000001</v>
       </c>
       <c r="Z22" s="1">
-        <v>18.75</v>
+        <v>9.75</v>
       </c>
       <c r="AA22" s="1">
-        <v>10.47</v>
+        <v>-0.09</v>
       </c>
       <c r="AB22" s="1">
-        <v>15.91</v>
+        <v>33</v>
       </c>
       <c r="AC22" s="1">
-        <v>11.99</v>
+        <v>55.14</v>
       </c>
       <c r="AD22" s="1">
-        <v>9.36</v>
+        <v>34.869999999999997</v>
       </c>
       <c r="AE22" s="1">
-        <v>0.78</v>
+        <v>0.68</v>
       </c>
       <c r="AF22" s="1">
-        <v>87.32</v>
+        <v>-0.16</v>
       </c>
       <c r="AG22" s="1">
-        <v>7.58</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AH22" s="1">
-        <v>-10.16</v>
+        <v>1.44</v>
       </c>
       <c r="AI22" s="1">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="AJ22" s="1" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="AK22" s="1" t="s">
-        <v>82</v>
+        <v>143</v>
       </c>
       <c r="AL22" s="1" t="s">
-        <v>83</v>
+        <v>144</v>
       </c>
       <c r="AM22" s="1" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="AN22" s="1" t="s">
-        <v>85</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>3209</v>
+        <v>5515</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>114</v>
+        <v>14</v>
       </c>
       <c r="D23" s="7">
-        <v>2005321840</v>
+        <v>2574401050</v>
       </c>
       <c r="E23" s="1">
-        <v>19910415</v>
+        <v>19601121</v>
       </c>
       <c r="F23" s="1">
-        <v>20081126</v>
+        <v>20031006</v>
       </c>
       <c r="G23">
-        <v>6.9</v>
+        <v>5.71</v>
       </c>
       <c r="H23">
-        <v>8.1199999999999992</v>
+        <v>7.73</v>
       </c>
       <c r="I23">
-        <v>1.66</v>
+        <v>0.77</v>
       </c>
       <c r="J23" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="K23" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="L23" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="M23" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="N23" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O23" s="1">
-        <v>32.04</v>
+        <v>19.8</v>
       </c>
       <c r="P23" s="1">
-        <v>10</v>
+        <v>12.4</v>
       </c>
       <c r="Q23" s="1">
-        <v>35.6</v>
+        <v>22.32</v>
       </c>
       <c r="R23" s="1">
-        <v>11</v>
+        <v>13.8</v>
       </c>
       <c r="S23" s="1">
-        <v>39.159999999999997</v>
+        <v>24.84</v>
       </c>
       <c r="T23" s="1">
-        <v>12</v>
+        <v>15.2</v>
       </c>
       <c r="U23" s="1">
-        <v>42.72</v>
+        <v>27.36</v>
       </c>
       <c r="V23" s="1">
-        <v>13</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="W23" s="1">
-        <v>46.28</v>
+        <v>29.88</v>
       </c>
       <c r="X23" s="1">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="Y23" s="1">
-        <v>49.84</v>
+        <v>32.4</v>
       </c>
       <c r="Z23" s="1">
-        <v>5.31</v>
+        <v>13.13</v>
       </c>
       <c r="AA23" s="1">
-        <v>2.25</v>
+        <v>7.24</v>
       </c>
       <c r="AB23" s="1">
-        <v>22.5</v>
+        <v>10.87</v>
       </c>
       <c r="AC23" s="1">
-        <v>2.11</v>
+        <v>12.76</v>
       </c>
       <c r="AD23" s="1">
-        <v>1.63</v>
+        <v>9.4700000000000006</v>
       </c>
       <c r="AE23" s="1">
-        <v>3.25</v>
+        <v>0.61</v>
       </c>
       <c r="AF23" s="1">
-        <v>106.64</v>
+        <v>56.74</v>
       </c>
       <c r="AG23" s="1">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="AH23" s="1">
-        <v>-1.1599999999999999</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="AI23" s="1">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="AJ23" s="1" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="AK23" s="1" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="AL23" s="1" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="AM23" s="1" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="AN23" s="1" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>3702</v>
+        <v>6257</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>186</v>
+        <v>114</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D24" s="1">
-        <v>18790568330</v>
+        <v>115</v>
+      </c>
+      <c r="D24" s="7">
+        <v>4444791420</v>
       </c>
       <c r="E24" s="1">
-        <v>20051109</v>
+        <v>19881215</v>
       </c>
       <c r="F24" s="1">
-        <v>20051109</v>
+        <v>20030825</v>
       </c>
       <c r="G24">
-        <v>5.96</v>
+        <v>4.84</v>
       </c>
       <c r="H24">
-        <v>8.98</v>
+        <v>10.33</v>
       </c>
       <c r="I24">
-        <v>1.44</v>
+        <v>1.86</v>
       </c>
       <c r="J24" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="K24" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="L24" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="M24" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="N24" s="1">
         <v>9</v>
       </c>
       <c r="O24" s="1">
-        <v>55.71</v>
+        <v>52.47</v>
       </c>
       <c r="P24" s="1">
-        <v>9.8000000000000007</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="Q24" s="1">
-        <v>60.66</v>
+        <v>59.47</v>
       </c>
       <c r="R24" s="1">
-        <v>10.6</v>
+        <v>11.4</v>
       </c>
       <c r="S24" s="1">
-        <v>65.61</v>
+        <v>66.459999999999994</v>
       </c>
       <c r="T24" s="1">
-        <v>11.4</v>
+        <v>12.6</v>
       </c>
       <c r="U24" s="1">
-        <v>70.569999999999993</v>
+        <v>73.459999999999994</v>
       </c>
       <c r="V24" s="1">
-        <v>12.2</v>
+        <v>13.8</v>
       </c>
       <c r="W24" s="1">
-        <v>75.52</v>
+        <v>80.45</v>
       </c>
       <c r="X24" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y24" s="1">
-        <v>80.47</v>
+        <v>87.45</v>
       </c>
       <c r="Z24" s="1">
-        <v>3.89</v>
+        <v>30.03</v>
       </c>
       <c r="AA24" s="1">
-        <v>1.82</v>
+        <v>21.36</v>
       </c>
       <c r="AB24" s="1">
-        <v>17.649999999999999</v>
+        <v>19.16</v>
       </c>
       <c r="AC24" s="1">
-        <v>1.87</v>
+        <v>22.37</v>
       </c>
       <c r="AD24" s="1">
-        <v>1.54</v>
+        <v>18.329999999999998</v>
       </c>
       <c r="AE24" s="1">
-        <v>2.9</v>
+        <v>0.51</v>
       </c>
       <c r="AF24" s="1">
-        <v>97.33</v>
+        <v>95.49</v>
       </c>
       <c r="AG24" s="1">
-        <v>-16.23</v>
+        <v>17.23</v>
       </c>
       <c r="AH24" s="1">
-        <v>-16.72</v>
+        <v>-2.14</v>
       </c>
       <c r="AI24" s="1">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="AJ24" s="1" t="s">
-        <v>188</v>
+        <v>116</v>
       </c>
       <c r="AK24" s="1" t="s">
-        <v>189</v>
+        <v>117</v>
       </c>
       <c r="AL24" s="1" t="s">
-        <v>159</v>
+        <v>118</v>
       </c>
       <c r="AM24" s="1" t="s">
-        <v>189</v>
+        <v>119</v>
       </c>
       <c r="AN24" s="1" t="s">
-        <v>190</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>3706</v>
+        <v>8112</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="D25" s="7">
-        <v>12065567890</v>
+        <v>4284964730</v>
       </c>
       <c r="E25" s="1">
-        <v>20130912</v>
+        <v>19870305</v>
       </c>
       <c r="F25" s="1">
-        <v>20130912</v>
+        <v>20071231</v>
       </c>
       <c r="G25">
-        <v>2.9</v>
+        <v>6.03</v>
       </c>
       <c r="H25">
-        <v>3.34</v>
+        <v>7.85</v>
       </c>
       <c r="I25">
-        <v>0.83</v>
+        <v>2.02</v>
       </c>
       <c r="J25" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="K25" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="L25" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="M25" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="N25" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O25" s="1">
-        <v>82.56</v>
+        <v>46.97</v>
       </c>
       <c r="P25" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>55.02</v>
+      </c>
+      <c r="R25" s="1">
         <v>9.4</v>
       </c>
-      <c r="Q25" s="1">
-        <v>97.01</v>
-      </c>
-      <c r="R25" s="1">
+      <c r="S25" s="1">
+        <v>63.07</v>
+      </c>
+      <c r="T25" s="1">
+        <v>10.6</v>
+      </c>
+      <c r="U25" s="1">
+        <v>71.13</v>
+      </c>
+      <c r="V25" s="1">
+        <v>11.8</v>
+      </c>
+      <c r="W25" s="1">
+        <v>79.180000000000007</v>
+      </c>
+      <c r="X25" s="1">
+        <v>13</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>87.23</v>
+      </c>
+      <c r="Z25" s="1">
+        <v>3.26</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>2.17</v>
+      </c>
+      <c r="AB25" s="1">
+        <v>31.83</v>
+      </c>
+      <c r="AC25" s="1">
+        <v>2.02</v>
+      </c>
+      <c r="AD25" s="1">
+        <v>1.53</v>
+      </c>
+      <c r="AE25" s="1">
+        <v>4.42</v>
+      </c>
+      <c r="AF25" s="1">
+        <v>107.43</v>
+      </c>
+      <c r="AG25" s="1">
+        <v>-12.76</v>
+      </c>
+      <c r="AH25" s="1">
+        <v>-8.07</v>
+      </c>
+      <c r="AI25" s="1">
+        <v>32</v>
+      </c>
+      <c r="AJ25" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK25" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AL25" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM25" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AN25" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>8150</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="7">
+        <v>7272401260</v>
+      </c>
+      <c r="E26" s="1">
+        <v>19970728</v>
+      </c>
+      <c r="F26" s="1">
+        <v>20140411</v>
+      </c>
+      <c r="G26">
+        <v>4.55</v>
+      </c>
+      <c r="H26">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="I26">
+        <v>1.54</v>
+      </c>
+      <c r="J26" t="s">
+        <v>276</v>
+      </c>
+      <c r="K26" t="s">
+        <v>277</v>
+      </c>
+      <c r="L26" t="s">
+        <v>278</v>
+      </c>
+      <c r="M26" t="s">
+        <v>279</v>
+      </c>
+      <c r="N26" s="1">
+        <v>9</v>
+      </c>
+      <c r="O26" s="1">
+        <v>53.55</v>
+      </c>
+      <c r="P26" s="1">
         <v>10.8</v>
       </c>
-      <c r="S25" s="1">
-        <v>111.5</v>
-      </c>
-      <c r="T25" s="1">
-        <v>12.2</v>
-      </c>
-      <c r="U25" s="1">
-        <v>125.9</v>
-      </c>
-      <c r="V25" s="1">
-        <v>13.6</v>
-      </c>
-      <c r="W25" s="1">
-        <v>140.4</v>
-      </c>
-      <c r="X25" s="1">
-        <v>15</v>
-      </c>
-      <c r="Y25" s="1">
-        <v>154.80000000000001</v>
-      </c>
-      <c r="Z25" s="1">
-        <v>9.75</v>
-      </c>
-      <c r="AA25" s="1">
-        <v>-0.09</v>
-      </c>
-      <c r="AB25" s="1">
-        <v>33</v>
-      </c>
-      <c r="AC25" s="1">
-        <v>55.14</v>
-      </c>
-      <c r="AD25" s="1">
-        <v>34.869999999999997</v>
-      </c>
-      <c r="AE25" s="1">
-        <v>0.68</v>
-      </c>
-      <c r="AF25" s="1">
-        <v>-0.16</v>
-      </c>
-      <c r="AG25" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="AH25" s="1">
-        <v>1.44</v>
-      </c>
-      <c r="AI25" s="1">
-        <v>57</v>
-      </c>
-      <c r="AJ25" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AK25" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="AL25" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="AM25" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AN25" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>5515</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="7">
-        <v>2574401050</v>
-      </c>
-      <c r="E26" s="1">
-        <v>19601121</v>
-      </c>
-      <c r="F26" s="1">
-        <v>20031006</v>
-      </c>
-      <c r="G26">
-        <v>5.71</v>
-      </c>
-      <c r="H26">
-        <v>7.73</v>
-      </c>
-      <c r="I26">
-        <v>0.77</v>
-      </c>
-      <c r="J26" t="s">
-        <v>288</v>
-      </c>
-      <c r="K26" t="s">
-        <v>289</v>
-      </c>
-      <c r="L26" t="s">
-        <v>290</v>
-      </c>
-      <c r="M26" t="s">
-        <v>291</v>
-      </c>
-      <c r="N26" s="1">
-        <v>11</v>
-      </c>
-      <c r="O26" s="1">
-        <v>19.8</v>
-      </c>
-      <c r="P26" s="1">
-        <v>12.4</v>
-      </c>
       <c r="Q26" s="1">
-        <v>22.32</v>
+        <v>64.260000000000005</v>
       </c>
       <c r="R26" s="1">
-        <v>13.8</v>
+        <v>12.6</v>
       </c>
       <c r="S26" s="1">
-        <v>24.84</v>
+        <v>74.97</v>
       </c>
       <c r="T26" s="1">
-        <v>15.2</v>
+        <v>14.4</v>
       </c>
       <c r="U26" s="1">
-        <v>27.36</v>
+        <v>85.68</v>
       </c>
       <c r="V26" s="1">
-        <v>16.600000000000001</v>
+        <v>16.2</v>
       </c>
       <c r="W26" s="1">
-        <v>29.88</v>
+        <v>96.39</v>
       </c>
       <c r="X26" s="1">
         <v>18</v>
       </c>
       <c r="Y26" s="1">
-        <v>32.4</v>
+        <v>107.1</v>
       </c>
       <c r="Z26" s="1">
-        <v>13.13</v>
+        <v>26.62</v>
       </c>
       <c r="AA26" s="1">
-        <v>7.24</v>
+        <v>20.51</v>
       </c>
       <c r="AB26" s="1">
-        <v>10.87</v>
+        <v>22.24</v>
       </c>
       <c r="AC26" s="1">
-        <v>12.76</v>
+        <v>21.26</v>
       </c>
       <c r="AD26" s="1">
-        <v>9.4700000000000006</v>
+        <v>17.670000000000002</v>
       </c>
       <c r="AE26" s="1">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AF26" s="1">
-        <v>56.74</v>
+        <v>96.47</v>
       </c>
       <c r="AG26" s="1">
-        <v>1.3</v>
+        <v>7.35</v>
       </c>
       <c r="AH26" s="1">
-        <v>2.4500000000000002</v>
+        <v>1.02</v>
       </c>
       <c r="AI26" s="1">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="AJ26" s="1" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="AK26" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="AL26" s="1" t="s">
-        <v>91</v>
+        <v>152</v>
       </c>
       <c r="AM26" s="1" t="s">
-        <v>91</v>
+        <v>153</v>
       </c>
       <c r="AN26" s="1" t="s">
-        <v>91</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>6257</v>
+        <v>8213</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>120</v>
+        <v>62</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>121</v>
+        <v>63</v>
       </c>
       <c r="D27" s="7">
-        <v>4444791420</v>
+        <v>2712424880</v>
       </c>
       <c r="E27" s="1">
-        <v>19881215</v>
+        <v>19980421</v>
       </c>
       <c r="F27" s="1">
-        <v>20030825</v>
+        <v>20091225</v>
       </c>
       <c r="G27">
-        <v>4.84</v>
+        <v>7.21</v>
       </c>
       <c r="H27">
-        <v>10.33</v>
+        <v>8.02</v>
       </c>
       <c r="I27">
-        <v>1.86</v>
+        <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="K27" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="L27" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="M27" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="N27" s="1">
+        <v>6</v>
+      </c>
+      <c r="O27" s="1">
+        <v>36.659999999999997</v>
+      </c>
+      <c r="P27" s="1">
+        <v>7</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>42.77</v>
+      </c>
+      <c r="R27" s="1">
+        <v>8</v>
+      </c>
+      <c r="S27" s="1">
+        <v>48.88</v>
+      </c>
+      <c r="T27" s="1">
         <v>9</v>
       </c>
-      <c r="O27" s="1">
-        <v>52.47</v>
-      </c>
-      <c r="P27" s="1">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="Q27" s="1">
-        <v>59.47</v>
-      </c>
-      <c r="R27" s="1">
-        <v>11.4</v>
-      </c>
-      <c r="S27" s="1">
-        <v>66.459999999999994</v>
-      </c>
-      <c r="T27" s="1">
-        <v>12.6</v>
-      </c>
       <c r="U27" s="1">
-        <v>73.459999999999994</v>
+        <v>54.99</v>
       </c>
       <c r="V27" s="1">
-        <v>13.8</v>
+        <v>10</v>
       </c>
       <c r="W27" s="1">
-        <v>80.45</v>
+        <v>61.1</v>
       </c>
       <c r="X27" s="1">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Y27" s="1">
-        <v>87.45</v>
+        <v>67.209999999999994</v>
       </c>
       <c r="Z27" s="1">
-        <v>30.03</v>
+        <v>15.64</v>
       </c>
       <c r="AA27" s="1">
-        <v>21.36</v>
+        <v>8.6</v>
       </c>
       <c r="AB27" s="1">
-        <v>19.16</v>
+        <v>13.51</v>
       </c>
       <c r="AC27" s="1">
-        <v>22.37</v>
+        <v>9.09</v>
       </c>
       <c r="AD27" s="1">
-        <v>18.329999999999998</v>
+        <v>6.58</v>
       </c>
       <c r="AE27" s="1">
-        <v>0.51</v>
+        <v>0.86</v>
       </c>
       <c r="AF27" s="1">
-        <v>95.49</v>
+        <v>94.61</v>
       </c>
       <c r="AG27" s="1">
-        <v>17.23</v>
+        <v>2.02</v>
       </c>
       <c r="AH27" s="1">
-        <v>-2.14</v>
+        <v>0.38</v>
       </c>
       <c r="AI27" s="1">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="AJ27" s="1" t="s">
-        <v>122</v>
+        <v>155</v>
       </c>
       <c r="AK27" s="1" t="s">
-        <v>123</v>
+        <v>156</v>
       </c>
       <c r="AL27" s="1" t="s">
-        <v>124</v>
+        <v>157</v>
       </c>
       <c r="AM27" s="1" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="AN27" s="1" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>8112</v>
+        <v>8215</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D28" s="7">
+        <v>3206745140</v>
+      </c>
+      <c r="E28" s="1">
+        <v>19980716</v>
+      </c>
+      <c r="F28" s="1">
+        <v>20101112</v>
+      </c>
+      <c r="G28">
+        <v>1.86</v>
+      </c>
+      <c r="H28">
+        <v>13.7</v>
+      </c>
+      <c r="I28">
+        <v>2.52</v>
+      </c>
+      <c r="J28" t="s">
+        <v>184</v>
+      </c>
+      <c r="K28" t="s">
+        <v>185</v>
+      </c>
+      <c r="L28" t="s">
+        <v>179</v>
+      </c>
+      <c r="M28" t="s">
+        <v>180</v>
+      </c>
+      <c r="N28" s="1">
+        <v>15</v>
+      </c>
+      <c r="O28" s="1">
+        <v>41.1</v>
+      </c>
+      <c r="P28" s="1">
+        <v>18</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>49.32</v>
+      </c>
+      <c r="R28" s="1">
+        <v>21</v>
+      </c>
+      <c r="S28" s="1">
+        <v>57.54</v>
+      </c>
+      <c r="T28" s="1">
+        <v>24</v>
+      </c>
+      <c r="U28" s="1">
+        <v>65.760000000000005</v>
+      </c>
+      <c r="V28" s="1">
+        <v>27</v>
+      </c>
+      <c r="W28" s="1">
+        <v>73.98</v>
+      </c>
+      <c r="X28" s="1">
+        <v>30</v>
+      </c>
+      <c r="Y28" s="1">
+        <v>82.2</v>
+      </c>
+      <c r="Z28" s="1">
+        <v>18.329999999999998</v>
+      </c>
+      <c r="AA28" s="1">
+        <v>6.21</v>
+      </c>
+      <c r="AB28" s="1">
+        <v>20.77</v>
+      </c>
+      <c r="AC28" s="1">
+        <v>7.17</v>
+      </c>
+      <c r="AD28" s="1">
+        <v>5.72</v>
+      </c>
+      <c r="AE28" s="1">
+        <v>1.46</v>
+      </c>
+      <c r="AF28" s="1">
+        <v>86.61</v>
+      </c>
+      <c r="AG28" s="1">
+        <v>2.25</v>
+      </c>
+      <c r="AH28" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="AI28" s="1">
+        <v>40</v>
+      </c>
+      <c r="AJ28" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AK28" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL28" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AM28" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AN28" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2467</v>
+      </c>
+      <c r="B29" t="s">
+        <v>181</v>
+      </c>
+      <c r="C29" t="s">
+        <v>182</v>
+      </c>
+      <c r="D29" s="7">
+        <v>1521896590</v>
+      </c>
+      <c r="E29">
+        <v>19780418</v>
+      </c>
+      <c r="F29">
+        <v>20010917</v>
+      </c>
+      <c r="G29">
+        <v>5.19</v>
+      </c>
+      <c r="H29">
+        <v>12.52</v>
+      </c>
+      <c r="I29">
+        <v>3.05</v>
+      </c>
+      <c r="J29" t="s">
+        <v>284</v>
+      </c>
+      <c r="K29" t="s">
+        <v>285</v>
+      </c>
+      <c r="L29" t="s">
+        <v>286</v>
+      </c>
+      <c r="M29" t="s">
+        <v>287</v>
+      </c>
+      <c r="N29">
+        <v>11</v>
+      </c>
+      <c r="O29">
+        <v>45.76</v>
+      </c>
+      <c r="P29">
+        <v>12.8</v>
+      </c>
+      <c r="Q29">
+        <v>53.25</v>
+      </c>
+      <c r="R29">
+        <v>14.6</v>
+      </c>
+      <c r="S29">
+        <v>60.74</v>
+      </c>
+      <c r="T29">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="U29">
+        <v>68.22</v>
+      </c>
+      <c r="V29">
+        <v>18.2</v>
+      </c>
+      <c r="W29">
+        <v>75.709999999999994</v>
+      </c>
+      <c r="X29">
+        <v>20</v>
+      </c>
+      <c r="Y29">
+        <v>83.2</v>
+      </c>
+      <c r="Z29">
+        <v>34.07</v>
+      </c>
+      <c r="AA29">
+        <v>12.91</v>
+      </c>
+      <c r="AB29">
+        <v>26.43</v>
+      </c>
+      <c r="AC29">
+        <v>15.84</v>
+      </c>
+      <c r="AD29">
+        <v>12.85</v>
+      </c>
+      <c r="AE29">
+        <v>0.8</v>
+      </c>
+      <c r="AF29">
+        <v>81.5</v>
+      </c>
+      <c r="AG29">
+        <v>2.44</v>
+      </c>
+      <c r="AH29">
+        <v>-2.57</v>
+      </c>
+      <c r="AI29">
+        <v>57</v>
+      </c>
+      <c r="AJ29" t="s">
+        <v>183</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>130</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>130</v>
+      </c>
+      <c r="AM29" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN29" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO29"/>
+      <c r="AP29"/>
+      <c r="AQ29"/>
+      <c r="AR29"/>
+      <c r="AS29"/>
+      <c r="AT29"/>
+      <c r="AU29"/>
+    </row>
+    <row r="30" spans="1:47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1313</v>
+      </c>
+      <c r="B30" t="s">
+        <v>292</v>
+      </c>
+      <c r="C30" t="s">
+        <v>293</v>
+      </c>
+      <c r="D30" s="7">
+        <v>13471206070</v>
+      </c>
+      <c r="E30">
+        <v>19760814</v>
+      </c>
+      <c r="F30">
+        <v>19890327</v>
+      </c>
+      <c r="G30">
+        <v>4.74</v>
+      </c>
+      <c r="H30">
+        <v>6.43</v>
+      </c>
+      <c r="I30">
+        <v>0.95</v>
+      </c>
+      <c r="J30" t="s">
+        <v>294</v>
+      </c>
+      <c r="K30" t="s">
+        <v>295</v>
+      </c>
+      <c r="L30" t="s">
+        <v>296</v>
+      </c>
+      <c r="M30" t="s">
+        <v>297</v>
+      </c>
+      <c r="N30">
         <v>13</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="O30">
+        <v>43.16</v>
+      </c>
+      <c r="P30">
+        <v>15.6</v>
+      </c>
+      <c r="Q30">
+        <v>51.79</v>
+      </c>
+      <c r="R30">
+        <v>18.2</v>
+      </c>
+      <c r="S30">
+        <v>60.42</v>
+      </c>
+      <c r="T30">
+        <v>20.8</v>
+      </c>
+      <c r="U30">
+        <v>69.06</v>
+      </c>
+      <c r="V30">
+        <v>23.4</v>
+      </c>
+      <c r="W30">
+        <v>77.69</v>
+      </c>
+      <c r="X30">
+        <v>26</v>
+      </c>
+      <c r="Y30">
+        <v>86.32</v>
+      </c>
+      <c r="Z30">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="AA30">
+        <v>5.84</v>
+      </c>
+      <c r="AB30">
+        <v>14.89</v>
+      </c>
+      <c r="AC30">
+        <v>6.4</v>
+      </c>
+      <c r="AD30">
+        <v>5.03</v>
+      </c>
+      <c r="AE30">
+        <v>1.63</v>
+      </c>
+      <c r="AF30">
+        <v>91.25</v>
+      </c>
+      <c r="AG30">
+        <v>-0.67</v>
+      </c>
+      <c r="AH30">
+        <v>-1.21</v>
+      </c>
+      <c r="AI30">
+        <v>40</v>
+      </c>
+      <c r="AJ30" t="s">
+        <v>106</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>298</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>299</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>300</v>
+      </c>
+      <c r="AN30" t="s">
+        <v>301</v>
+      </c>
+      <c r="AO30" t="s">
+        <v>302</v>
+      </c>
+      <c r="AP30" t="s">
+        <v>303</v>
+      </c>
+      <c r="AQ30" t="s">
+        <v>304</v>
+      </c>
+      <c r="AR30" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="31" spans="1:47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1304</v>
+      </c>
+      <c r="B31" t="s">
+        <v>306</v>
+      </c>
+      <c r="C31" t="s">
+        <v>307</v>
+      </c>
+      <c r="D31" s="7">
+        <v>11887635000</v>
+      </c>
+      <c r="E31">
+        <v>19650526</v>
+      </c>
+      <c r="F31">
+        <v>19720520</v>
+      </c>
+      <c r="G31">
+        <v>3.31</v>
+      </c>
+      <c r="H31">
+        <v>6.62</v>
+      </c>
+      <c r="I31">
+        <v>1.35</v>
+      </c>
+      <c r="J31" t="s">
+        <v>308</v>
+      </c>
+      <c r="K31" t="s">
+        <v>309</v>
+      </c>
+      <c r="L31" t="s">
+        <v>310</v>
+      </c>
+      <c r="M31" t="s">
+        <v>311</v>
+      </c>
+      <c r="N31">
+        <v>10</v>
+      </c>
+      <c r="O31">
+        <v>45.7</v>
+      </c>
+      <c r="P31">
+        <v>12</v>
+      </c>
+      <c r="Q31">
+        <v>54.84</v>
+      </c>
+      <c r="R31">
         <v>14</v>
       </c>
-      <c r="D28" s="7">
-        <v>4284964730</v>
-      </c>
-      <c r="E28" s="1">
-        <v>19870305</v>
-      </c>
-      <c r="F28" s="1">
-        <v>20071231</v>
-      </c>
-      <c r="G28">
-        <v>6.03</v>
-      </c>
-      <c r="H28">
+      <c r="S31">
+        <v>63.98</v>
+      </c>
+      <c r="T31">
+        <v>16</v>
+      </c>
+      <c r="U31">
+        <v>73.12</v>
+      </c>
+      <c r="V31">
+        <v>18</v>
+      </c>
+      <c r="W31">
+        <v>82.26</v>
+      </c>
+      <c r="X31">
+        <v>20</v>
+      </c>
+      <c r="Y31">
+        <v>91.4</v>
+      </c>
+      <c r="Z31">
+        <v>23.9</v>
+      </c>
+      <c r="AA31">
+        <v>16.989999999999998</v>
+      </c>
+      <c r="AB31">
+        <v>19.39</v>
+      </c>
+      <c r="AC31">
+        <v>17.850000000000001</v>
+      </c>
+      <c r="AD31">
+        <v>14.06</v>
+      </c>
+      <c r="AE31">
+        <v>0.87</v>
+      </c>
+      <c r="AF31">
+        <v>95.18</v>
+      </c>
+      <c r="AG31">
+        <v>5.37</v>
+      </c>
+      <c r="AH31">
+        <v>3.45</v>
+      </c>
+      <c r="AI31">
+        <v>60</v>
+      </c>
+      <c r="AJ31" t="s">
+        <v>106</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>121</v>
+      </c>
+      <c r="AM31" t="s">
+        <v>312</v>
+      </c>
+      <c r="AN31" t="s">
+        <v>313</v>
+      </c>
+      <c r="AO31" t="s">
+        <v>314</v>
+      </c>
+      <c r="AP31" t="s">
+        <v>315</v>
+      </c>
+      <c r="AQ31" t="s">
+        <v>316</v>
+      </c>
+      <c r="AR31" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="32" spans="1:47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>3033</v>
+      </c>
+      <c r="B32" t="s">
+        <v>318</v>
+      </c>
+      <c r="C32" t="s">
+        <v>319</v>
+      </c>
+      <c r="D32" s="7">
+        <v>3990554430</v>
+      </c>
+      <c r="E32">
+        <v>19770120</v>
+      </c>
+      <c r="F32">
+        <v>20020826</v>
+      </c>
+      <c r="G32">
+        <v>4.18</v>
+      </c>
+      <c r="H32">
+        <v>8.8699999999999992</v>
+      </c>
+      <c r="I32">
+        <v>1.74</v>
+      </c>
+      <c r="J32" t="s">
+        <v>320</v>
+      </c>
+      <c r="K32" t="s">
+        <v>321</v>
+      </c>
+      <c r="L32" t="s">
+        <v>322</v>
+      </c>
+      <c r="M32" t="s">
+        <v>323</v>
+      </c>
+      <c r="N32">
+        <v>9</v>
+      </c>
+      <c r="O32">
+        <v>34.83</v>
+      </c>
+      <c r="P32">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="Q32">
+        <v>39.47</v>
+      </c>
+      <c r="R32">
+        <v>11.4</v>
+      </c>
+      <c r="S32">
+        <v>44.12</v>
+      </c>
+      <c r="T32">
+        <v>12.6</v>
+      </c>
+      <c r="U32">
+        <v>48.76</v>
+      </c>
+      <c r="V32">
+        <v>13.8</v>
+      </c>
+      <c r="W32">
+        <v>53.41</v>
+      </c>
+      <c r="X32">
+        <v>15</v>
+      </c>
+      <c r="Y32">
+        <v>58.05</v>
+      </c>
+      <c r="Z32">
+        <v>7.01</v>
+      </c>
+      <c r="AA32">
+        <v>3.51</v>
+      </c>
+      <c r="AB32">
+        <v>25.16</v>
+      </c>
+      <c r="AC32">
+        <v>3.37</v>
+      </c>
+      <c r="AD32">
+        <v>2.33</v>
+      </c>
+      <c r="AE32">
+        <v>2.89</v>
+      </c>
+      <c r="AF32">
+        <v>104.15</v>
+      </c>
+      <c r="AG32">
+        <v>0.88</v>
+      </c>
+      <c r="AH32">
+        <v>0.86</v>
+      </c>
+      <c r="AI32">
+        <v>34</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>324</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>325</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>326</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>327</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>328</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>329</v>
+      </c>
+      <c r="AP32" t="s">
+        <v>330</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>331</v>
+      </c>
+      <c r="AR32" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="33" spans="1:44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1776</v>
+      </c>
+      <c r="B33" t="s">
+        <v>333</v>
+      </c>
+      <c r="C33" t="s">
+        <v>334</v>
+      </c>
+      <c r="D33" s="7">
+        <v>703352990</v>
+      </c>
+      <c r="E33">
+        <v>19760424</v>
+      </c>
+      <c r="F33">
+        <v>20160509</v>
+      </c>
+      <c r="G33">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="H33">
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="I33">
+        <v>1.42</v>
+      </c>
+      <c r="J33" t="s">
+        <v>335</v>
+      </c>
+      <c r="K33" t="s">
+        <v>336</v>
+      </c>
+      <c r="L33" t="s">
+        <v>337</v>
+      </c>
+      <c r="M33" t="s">
+        <v>338</v>
+      </c>
+      <c r="N33">
+        <v>12</v>
+      </c>
+      <c r="O33">
+        <v>30</v>
+      </c>
+      <c r="P33">
+        <v>14.4</v>
+      </c>
+      <c r="Q33">
+        <v>36</v>
+      </c>
+      <c r="R33">
+        <v>16.8</v>
+      </c>
+      <c r="S33">
+        <v>42</v>
+      </c>
+      <c r="T33">
+        <v>19.2</v>
+      </c>
+      <c r="U33">
+        <v>48</v>
+      </c>
+      <c r="V33">
+        <v>21.6</v>
+      </c>
+      <c r="W33">
+        <v>54</v>
+      </c>
+      <c r="X33">
+        <v>24</v>
+      </c>
+      <c r="Y33">
+        <v>60</v>
+      </c>
+      <c r="Z33">
+        <v>20.57</v>
+      </c>
+      <c r="AA33">
+        <v>7.03</v>
+      </c>
+      <c r="AB33">
+        <v>19.61</v>
+      </c>
+      <c r="AC33">
+        <v>7.3</v>
+      </c>
+      <c r="AD33">
+        <v>15.07</v>
+      </c>
+      <c r="AE33">
+        <v>0.78</v>
+      </c>
+      <c r="AF33">
+        <v>96.3</v>
+      </c>
+      <c r="AG33">
+        <v>1.64</v>
+      </c>
+      <c r="AH33">
+        <v>7.28</v>
+      </c>
+      <c r="AI33">
+        <v>60</v>
+      </c>
+      <c r="AJ33" t="s">
+        <v>106</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>129</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN33" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO33" t="s">
+        <v>339</v>
+      </c>
+      <c r="AP33" t="s">
+        <v>340</v>
+      </c>
+      <c r="AQ33" t="s">
+        <v>341</v>
+      </c>
+      <c r="AR33" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="34" spans="1:44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>3028</v>
+      </c>
+      <c r="B34" t="s">
+        <v>343</v>
+      </c>
+      <c r="C34" t="s">
+        <v>344</v>
+      </c>
+      <c r="D34" s="7">
+        <v>2138248640</v>
+      </c>
+      <c r="E34">
+        <v>19821006</v>
+      </c>
+      <c r="F34">
+        <v>20020826</v>
+      </c>
+      <c r="G34">
+        <v>5.6</v>
+      </c>
+      <c r="H34">
+        <v>8.74</v>
+      </c>
+      <c r="I34">
+        <v>1.42</v>
+      </c>
+      <c r="J34" t="s">
+        <v>345</v>
+      </c>
+      <c r="K34" t="s">
+        <v>346</v>
+      </c>
+      <c r="L34" t="s">
+        <v>347</v>
+      </c>
+      <c r="M34" t="s">
+        <v>348</v>
+      </c>
+      <c r="N34">
+        <v>10</v>
+      </c>
+      <c r="O34">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="P34">
+        <v>11</v>
+      </c>
+      <c r="Q34">
+        <v>42.57</v>
+      </c>
+      <c r="R34">
+        <v>12</v>
+      </c>
+      <c r="S34">
+        <v>46.44</v>
+      </c>
+      <c r="T34">
+        <v>13</v>
+      </c>
+      <c r="U34">
+        <v>50.31</v>
+      </c>
+      <c r="V34">
+        <v>14</v>
+      </c>
+      <c r="W34">
+        <v>54.18</v>
+      </c>
+      <c r="X34">
+        <v>15</v>
+      </c>
+      <c r="Y34">
+        <v>58.05</v>
+      </c>
+      <c r="Z34">
+        <v>5.93</v>
+      </c>
+      <c r="AA34">
+        <v>2.59</v>
+      </c>
+      <c r="AB34">
+        <v>18.72</v>
+      </c>
+      <c r="AC34">
+        <v>2.64</v>
+      </c>
+      <c r="AD34">
+        <v>2.19</v>
+      </c>
+      <c r="AE34">
+        <v>2.15</v>
+      </c>
+      <c r="AF34">
+        <v>98.11</v>
+      </c>
+      <c r="AG34">
+        <v>-1.74</v>
+      </c>
+      <c r="AH34">
+        <v>-1.7</v>
+      </c>
+      <c r="AI34">
+        <v>30</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>349</v>
+      </c>
+      <c r="AK34" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>125</v>
+      </c>
+      <c r="AM34" t="s">
+        <v>350</v>
+      </c>
+      <c r="AN34" t="s">
+        <v>93</v>
+      </c>
+      <c r="AO34" t="s">
+        <v>351</v>
+      </c>
+      <c r="AP34" t="s">
+        <v>352</v>
+      </c>
+      <c r="AQ34" t="s">
+        <v>353</v>
+      </c>
+      <c r="AR34" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="35" spans="1:44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1308</v>
+      </c>
+      <c r="B35" t="s">
+        <v>355</v>
+      </c>
+      <c r="C35" t="s">
+        <v>356</v>
+      </c>
+      <c r="D35" s="7">
+        <v>5937439190</v>
+      </c>
+      <c r="E35">
+        <v>19770125</v>
+      </c>
+      <c r="F35">
+        <v>19860620</v>
+      </c>
+      <c r="G35">
+        <v>3.92</v>
+      </c>
+      <c r="H35">
         <v>7.85</v>
       </c>
-      <c r="I28">
-        <v>2.02</v>
-      </c>
-      <c r="J28" t="s">
-        <v>296</v>
-      </c>
-      <c r="K28" t="s">
-        <v>297</v>
-      </c>
-      <c r="L28" t="s">
+      <c r="I35">
+        <v>1.4</v>
+      </c>
+      <c r="J35" t="s">
+        <v>357</v>
+      </c>
+      <c r="K35" t="s">
+        <v>358</v>
+      </c>
+      <c r="L35" t="s">
+        <v>359</v>
+      </c>
+      <c r="M35" t="s">
+        <v>360</v>
+      </c>
+      <c r="N35">
+        <v>11</v>
+      </c>
+      <c r="O35">
+        <v>50.16</v>
+      </c>
+      <c r="P35">
+        <v>13.2</v>
+      </c>
+      <c r="Q35">
+        <v>60.19</v>
+      </c>
+      <c r="R35">
+        <v>15.4</v>
+      </c>
+      <c r="S35">
+        <v>70.22</v>
+      </c>
+      <c r="T35">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="U35">
+        <v>80.260000000000005</v>
+      </c>
+      <c r="V35">
+        <v>19.8</v>
+      </c>
+      <c r="W35">
+        <v>90.29</v>
+      </c>
+      <c r="X35">
+        <v>22</v>
+      </c>
+      <c r="Y35">
+        <v>100.3</v>
+      </c>
+      <c r="Z35">
+        <v>34.97</v>
+      </c>
+      <c r="AA35">
+        <v>31.99</v>
+      </c>
+      <c r="AB35">
+        <v>21.15</v>
+      </c>
+      <c r="AC35">
+        <v>38.909999999999997</v>
+      </c>
+      <c r="AD35">
+        <v>32.46</v>
+      </c>
+      <c r="AE35">
+        <v>0.49</v>
+      </c>
+      <c r="AF35">
+        <v>82.22</v>
+      </c>
+      <c r="AG35">
+        <v>2.54</v>
+      </c>
+      <c r="AH35">
+        <v>2.56</v>
+      </c>
+      <c r="AI35">
+        <v>72</v>
+      </c>
+      <c r="AJ35" t="s">
+        <v>361</v>
+      </c>
+      <c r="AK35" t="s">
+        <v>362</v>
+      </c>
+      <c r="AL35" t="s">
+        <v>121</v>
+      </c>
+      <c r="AM35" t="s">
+        <v>363</v>
+      </c>
+      <c r="AN35" t="s">
+        <v>364</v>
+      </c>
+      <c r="AO35" t="s">
+        <v>365</v>
+      </c>
+      <c r="AP35" t="s">
+        <v>366</v>
+      </c>
+      <c r="AQ35" t="s">
+        <v>367</v>
+      </c>
+      <c r="AR35" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="36" spans="1:44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>3048</v>
+      </c>
+      <c r="B36" t="s">
+        <v>369</v>
+      </c>
+      <c r="C36" t="s">
+        <v>370</v>
+      </c>
+      <c r="D36" s="7">
+        <v>2448297940</v>
+      </c>
+      <c r="E36">
+        <v>19960711</v>
+      </c>
+      <c r="F36">
+        <v>20021001</v>
+      </c>
+      <c r="G36">
+        <v>8.98</v>
+      </c>
+      <c r="H36">
+        <v>7.53</v>
+      </c>
+      <c r="I36">
+        <v>1.98</v>
+      </c>
+      <c r="J36" t="s">
+        <v>371</v>
+      </c>
+      <c r="K36" t="s">
+        <v>372</v>
+      </c>
+      <c r="L36" t="s">
+        <v>373</v>
+      </c>
+      <c r="M36" t="s">
+        <v>374</v>
+      </c>
+      <c r="N36">
+        <v>8</v>
+      </c>
+      <c r="O36">
+        <v>34.32</v>
+      </c>
+      <c r="P36">
+        <v>9.6</v>
+      </c>
+      <c r="Q36">
+        <v>41.18</v>
+      </c>
+      <c r="R36">
+        <v>11.2</v>
+      </c>
+      <c r="S36">
+        <v>48.05</v>
+      </c>
+      <c r="T36">
+        <v>12.8</v>
+      </c>
+      <c r="U36">
+        <v>54.91</v>
+      </c>
+      <c r="V36">
+        <v>14.4</v>
+      </c>
+      <c r="W36">
+        <v>61.78</v>
+      </c>
+      <c r="X36">
+        <v>16</v>
+      </c>
+      <c r="Y36">
+        <v>68.64</v>
+      </c>
+      <c r="Z36">
+        <v>3.24</v>
+      </c>
+      <c r="AA36">
+        <v>1.5</v>
+      </c>
+      <c r="AB36">
+        <v>27.8</v>
+      </c>
+      <c r="AC36">
+        <v>1.3</v>
+      </c>
+      <c r="AD36">
+        <v>1.04</v>
+      </c>
+      <c r="AE36">
+        <v>4.37</v>
+      </c>
+      <c r="AF36">
+        <v>115.38</v>
+      </c>
+      <c r="AG36">
+        <v>-2.5099999999999998</v>
+      </c>
+      <c r="AH36">
+        <v>-3.46</v>
+      </c>
+      <c r="AI36">
+        <v>30</v>
+      </c>
+      <c r="AJ36" t="s">
+        <v>375</v>
+      </c>
+      <c r="AK36" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL36" t="s">
+        <v>172</v>
+      </c>
+      <c r="AM36" t="s">
+        <v>106</v>
+      </c>
+      <c r="AN36" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO36" t="s">
+        <v>376</v>
+      </c>
+      <c r="AP36" t="s">
+        <v>377</v>
+      </c>
+      <c r="AQ36" t="s">
+        <v>378</v>
+      </c>
+      <c r="AR36" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="37" spans="1:44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>3312</v>
+      </c>
+      <c r="B37" t="s">
+        <v>380</v>
+      </c>
+      <c r="C37" t="s">
+        <v>381</v>
+      </c>
+      <c r="D37" s="7">
+        <v>1376254550</v>
+      </c>
+      <c r="E37">
+        <v>19951006</v>
+      </c>
+      <c r="F37">
+        <v>20101229</v>
+      </c>
+      <c r="G37">
+        <v>4.18</v>
+      </c>
+      <c r="H37">
+        <v>7.61</v>
+      </c>
+      <c r="I37">
+        <v>1.82</v>
+      </c>
+      <c r="J37" t="s">
+        <v>382</v>
+      </c>
+      <c r="K37" t="s">
+        <v>383</v>
+      </c>
+      <c r="L37" t="s">
+        <v>384</v>
+      </c>
+      <c r="M37" t="s">
+        <v>385</v>
+      </c>
+      <c r="N37">
+        <v>15</v>
+      </c>
+      <c r="O37">
+        <v>47.1</v>
+      </c>
+      <c r="P37">
+        <v>18</v>
+      </c>
+      <c r="Q37">
+        <v>56.52</v>
+      </c>
+      <c r="R37">
+        <v>21</v>
+      </c>
+      <c r="S37">
+        <v>65.94</v>
+      </c>
+      <c r="T37">
+        <v>24</v>
+      </c>
+      <c r="U37">
+        <v>75.36</v>
+      </c>
+      <c r="V37">
+        <v>27</v>
+      </c>
+      <c r="W37">
+        <v>84.78</v>
+      </c>
+      <c r="X37">
+        <v>30</v>
+      </c>
+      <c r="Y37">
+        <v>94.2</v>
+      </c>
+      <c r="Z37">
+        <v>5.84</v>
+      </c>
+      <c r="AA37">
+        <v>3.09</v>
+      </c>
+      <c r="AB37">
+        <v>27.98</v>
+      </c>
+      <c r="AC37">
+        <v>3.08</v>
+      </c>
+      <c r="AD37">
+        <v>2.5</v>
+      </c>
+      <c r="AE37">
+        <v>3.01</v>
+      </c>
+      <c r="AF37">
+        <v>100.32</v>
+      </c>
+      <c r="AG37">
+        <v>-3.19</v>
+      </c>
+      <c r="AH37">
+        <v>-3.32</v>
+      </c>
+      <c r="AI37">
+        <v>40</v>
+      </c>
+      <c r="AJ37" t="s">
+        <v>386</v>
+      </c>
+      <c r="AK37" t="s">
+        <v>387</v>
+      </c>
+      <c r="AL37" t="s">
+        <v>388</v>
+      </c>
+      <c r="AM37" t="s">
+        <v>389</v>
+      </c>
+      <c r="AN37" t="s">
+        <v>102</v>
+      </c>
+      <c r="AO37" t="s">
+        <v>390</v>
+      </c>
+      <c r="AP37" t="s">
+        <v>391</v>
+      </c>
+      <c r="AQ37" t="s">
+        <v>392</v>
+      </c>
+      <c r="AR37" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="38" spans="1:44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2387</v>
+      </c>
+      <c r="B38" t="s">
+        <v>394</v>
+      </c>
+      <c r="C38" t="s">
+        <v>395</v>
+      </c>
+      <c r="D38" s="7">
+        <v>1952510510</v>
+      </c>
+      <c r="E38">
+        <v>19910722</v>
+      </c>
+      <c r="F38">
+        <v>19990125</v>
+      </c>
+      <c r="G38">
+        <v>4.26</v>
+      </c>
+      <c r="H38">
+        <v>7.36</v>
+      </c>
+      <c r="I38">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="J38" t="s">
+        <v>396</v>
+      </c>
+      <c r="K38" t="s">
+        <v>397</v>
+      </c>
+      <c r="L38" t="s">
+        <v>398</v>
+      </c>
+      <c r="M38" t="s">
+        <v>399</v>
+      </c>
+      <c r="N38">
+        <v>10</v>
+      </c>
+      <c r="O38">
+        <v>63.9</v>
+      </c>
+      <c r="P38">
+        <v>12.6</v>
+      </c>
+      <c r="Q38">
+        <v>80.510000000000005</v>
+      </c>
+      <c r="R38">
+        <v>15.2</v>
+      </c>
+      <c r="S38">
+        <v>97.13</v>
+      </c>
+      <c r="T38">
+        <v>17.8</v>
+      </c>
+      <c r="U38">
+        <v>113.7</v>
+      </c>
+      <c r="V38">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="W38">
+        <v>130.4</v>
+      </c>
+      <c r="X38">
+        <v>23</v>
+      </c>
+      <c r="Y38">
+        <v>147</v>
+      </c>
+      <c r="Z38">
+        <v>12.93</v>
+      </c>
+      <c r="AA38">
+        <v>7.05</v>
+      </c>
+      <c r="AB38">
+        <v>12.98</v>
+      </c>
+      <c r="AC38">
+        <v>6.67</v>
+      </c>
+      <c r="AD38">
+        <v>4.84</v>
+      </c>
+      <c r="AE38">
+        <v>1.06</v>
+      </c>
+      <c r="AF38">
+        <v>105.7</v>
+      </c>
+      <c r="AG38">
+        <v>4.08</v>
+      </c>
+      <c r="AH38">
+        <v>-3.91</v>
+      </c>
+      <c r="AI38">
+        <v>40</v>
+      </c>
+      <c r="AJ38" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK38" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL38" t="s">
+        <v>400</v>
+      </c>
+      <c r="AM38" t="s">
+        <v>120</v>
+      </c>
+      <c r="AN38" t="s">
+        <v>401</v>
+      </c>
+      <c r="AO38" t="s">
+        <v>402</v>
+      </c>
+      <c r="AP38" t="s">
+        <v>403</v>
+      </c>
+      <c r="AQ38" t="s">
+        <v>404</v>
+      </c>
+      <c r="AR38" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="39" spans="1:44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1305</v>
+      </c>
+      <c r="B39" t="s">
+        <v>406</v>
+      </c>
+      <c r="C39" t="s">
+        <v>407</v>
+      </c>
+      <c r="D39" s="7">
+        <v>5810504940</v>
+      </c>
+      <c r="E39">
+        <v>19640429</v>
+      </c>
+      <c r="F39">
+        <v>19730305</v>
+      </c>
+      <c r="G39">
+        <v>6.57</v>
+      </c>
+      <c r="H39">
+        <v>7.04</v>
+      </c>
+      <c r="I39">
+        <v>1.92</v>
+      </c>
+      <c r="J39" t="s">
+        <v>408</v>
+      </c>
+      <c r="K39" t="s">
+        <v>409</v>
+      </c>
+      <c r="L39" t="s">
+        <v>410</v>
+      </c>
+      <c r="M39" t="s">
+        <v>411</v>
+      </c>
+      <c r="N39">
+        <v>7</v>
+      </c>
+      <c r="O39">
+        <v>34.86</v>
+      </c>
+      <c r="P39">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="Q39">
+        <v>43.82</v>
+      </c>
+      <c r="R39">
+        <v>10.6</v>
+      </c>
+      <c r="S39">
+        <v>52.79</v>
+      </c>
+      <c r="T39">
+        <v>12.4</v>
+      </c>
+      <c r="U39">
+        <v>61.75</v>
+      </c>
+      <c r="V39">
+        <v>14.2</v>
+      </c>
+      <c r="W39">
+        <v>70.72</v>
+      </c>
+      <c r="X39">
+        <v>16</v>
+      </c>
+      <c r="Y39">
+        <v>79.680000000000007</v>
+      </c>
+      <c r="Z39">
+        <v>25.41</v>
+      </c>
+      <c r="AA39">
+        <v>16.78</v>
+      </c>
+      <c r="AB39">
+        <v>24.74</v>
+      </c>
+      <c r="AC39">
+        <v>16.5</v>
+      </c>
+      <c r="AD39">
+        <v>13.25</v>
+      </c>
+      <c r="AE39">
+        <v>1.29</v>
+      </c>
+      <c r="AF39">
+        <v>101.7</v>
+      </c>
+      <c r="AG39">
+        <v>1.93</v>
+      </c>
+      <c r="AH39">
+        <v>-0.39</v>
+      </c>
+      <c r="AI39">
+        <v>57</v>
+      </c>
+      <c r="AJ39" t="s">
+        <v>162</v>
+      </c>
+      <c r="AK39" t="s">
+        <v>412</v>
+      </c>
+      <c r="AL39" t="s">
+        <v>413</v>
+      </c>
+      <c r="AM39" t="s">
+        <v>414</v>
+      </c>
+      <c r="AN39" t="s">
+        <v>415</v>
+      </c>
+      <c r="AO39" t="s">
+        <v>416</v>
+      </c>
+      <c r="AP39" t="s">
+        <v>417</v>
+      </c>
+      <c r="AQ39" t="s">
+        <v>418</v>
+      </c>
+      <c r="AR39" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="40" spans="1:44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1604</v>
+      </c>
+      <c r="B40" t="s">
+        <v>420</v>
+      </c>
+      <c r="C40" t="s">
+        <v>421</v>
+      </c>
+      <c r="D40" s="7">
+        <v>3872000000</v>
+      </c>
+      <c r="E40">
+        <v>19620911</v>
+      </c>
+      <c r="F40">
+        <v>19701214</v>
+      </c>
+      <c r="G40">
+        <v>8.31</v>
+      </c>
+      <c r="H40">
+        <v>6.5</v>
+      </c>
+      <c r="I40">
+        <v>1.32</v>
+      </c>
+      <c r="J40" t="s">
+        <v>422</v>
+      </c>
+      <c r="K40" t="s">
+        <v>423</v>
+      </c>
+      <c r="L40" t="s">
+        <v>424</v>
+      </c>
+      <c r="M40" t="s">
+        <v>425</v>
+      </c>
+      <c r="N40">
+        <v>7</v>
+      </c>
+      <c r="O40">
+        <v>32.130000000000003</v>
+      </c>
+      <c r="P40">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="Q40">
+        <v>37.64</v>
+      </c>
+      <c r="R40">
+        <v>9.4</v>
+      </c>
+      <c r="S40">
+        <v>43.15</v>
+      </c>
+      <c r="T40">
+        <v>10.6</v>
+      </c>
+      <c r="U40">
+        <v>48.65</v>
+      </c>
+      <c r="V40">
+        <v>11.8</v>
+      </c>
+      <c r="W40">
+        <v>54.16</v>
+      </c>
+      <c r="X40">
+        <v>13</v>
+      </c>
+      <c r="Y40">
+        <v>59.67</v>
+      </c>
+      <c r="Z40">
+        <v>17.72</v>
+      </c>
+      <c r="AA40">
+        <v>7.61</v>
+      </c>
+      <c r="AB40">
+        <v>26.03</v>
+      </c>
+      <c r="AC40">
+        <v>26.84</v>
+      </c>
+      <c r="AD40">
+        <v>24.99</v>
+      </c>
+      <c r="AE40">
+        <v>0.67</v>
+      </c>
+      <c r="AF40">
+        <v>28.35</v>
+      </c>
+      <c r="AG40">
+        <v>0.53</v>
+      </c>
+      <c r="AH40">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="AI40">
+        <v>62</v>
+      </c>
+      <c r="AJ40" t="s">
+        <v>130</v>
+      </c>
+      <c r="AK40" t="s">
+        <v>93</v>
+      </c>
+      <c r="AL40" t="s">
+        <v>127</v>
+      </c>
+      <c r="AM40" t="s">
         <v>298</v>
       </c>
-      <c r="M28" t="s">
-        <v>299</v>
-      </c>
-      <c r="N28" s="1">
-        <v>7</v>
-      </c>
-      <c r="O28" s="1">
-        <v>46.97</v>
-      </c>
-      <c r="P28" s="1">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="Q28" s="1">
-        <v>55.02</v>
-      </c>
-      <c r="R28" s="1">
-        <v>9.4</v>
-      </c>
-      <c r="S28" s="1">
-        <v>63.07</v>
-      </c>
-      <c r="T28" s="1">
-        <v>10.6</v>
-      </c>
-      <c r="U28" s="1">
-        <v>71.13</v>
-      </c>
-      <c r="V28" s="1">
-        <v>11.8</v>
-      </c>
-      <c r="W28" s="1">
-        <v>79.180000000000007</v>
-      </c>
-      <c r="X28" s="1">
-        <v>13</v>
-      </c>
-      <c r="Y28" s="1">
-        <v>87.23</v>
-      </c>
-      <c r="Z28" s="1">
-        <v>3.26</v>
-      </c>
-      <c r="AA28" s="1">
-        <v>2.17</v>
-      </c>
-      <c r="AB28" s="1">
-        <v>31.83</v>
-      </c>
-      <c r="AC28" s="1">
-        <v>2.02</v>
-      </c>
-      <c r="AD28" s="1">
-        <v>1.53</v>
-      </c>
-      <c r="AE28" s="1">
-        <v>4.42</v>
-      </c>
-      <c r="AF28" s="1">
-        <v>107.43</v>
-      </c>
-      <c r="AG28" s="1">
-        <v>-12.76</v>
-      </c>
-      <c r="AH28" s="1">
-        <v>-8.07</v>
-      </c>
-      <c r="AI28" s="1">
-        <v>32</v>
-      </c>
-      <c r="AJ28" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AK28" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AL28" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AM28" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="AN28" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="29" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>8150</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="7">
-        <v>7272401260</v>
-      </c>
-      <c r="E29" s="1">
-        <v>19970728</v>
-      </c>
-      <c r="F29" s="1">
-        <v>20140411</v>
-      </c>
-      <c r="G29">
-        <v>4.55</v>
-      </c>
-      <c r="H29">
-        <v>8.1199999999999992</v>
-      </c>
-      <c r="I29">
-        <v>1.54</v>
-      </c>
-      <c r="J29" t="s">
-        <v>300</v>
-      </c>
-      <c r="K29" t="s">
-        <v>301</v>
-      </c>
-      <c r="L29" t="s">
-        <v>302</v>
-      </c>
-      <c r="M29" t="s">
-        <v>303</v>
-      </c>
-      <c r="N29" s="1">
-        <v>9</v>
-      </c>
-      <c r="O29" s="1">
-        <v>53.55</v>
-      </c>
-      <c r="P29" s="1">
-        <v>10.8</v>
-      </c>
-      <c r="Q29" s="1">
-        <v>64.260000000000005</v>
-      </c>
-      <c r="R29" s="1">
-        <v>12.6</v>
-      </c>
-      <c r="S29" s="1">
-        <v>74.97</v>
-      </c>
-      <c r="T29" s="1">
-        <v>14.4</v>
-      </c>
-      <c r="U29" s="1">
-        <v>85.68</v>
-      </c>
-      <c r="V29" s="1">
-        <v>16.2</v>
-      </c>
-      <c r="W29" s="1">
-        <v>96.39</v>
-      </c>
-      <c r="X29" s="1">
-        <v>18</v>
-      </c>
-      <c r="Y29" s="1">
-        <v>107.1</v>
-      </c>
-      <c r="Z29" s="1">
-        <v>26.62</v>
-      </c>
-      <c r="AA29" s="1">
-        <v>20.51</v>
-      </c>
-      <c r="AB29" s="1">
-        <v>22.24</v>
-      </c>
-      <c r="AC29" s="1">
-        <v>21.26</v>
-      </c>
-      <c r="AD29" s="1">
-        <v>17.670000000000002</v>
-      </c>
-      <c r="AE29" s="1">
-        <v>0.74</v>
-      </c>
-      <c r="AF29" s="1">
-        <v>96.47</v>
-      </c>
-      <c r="AG29" s="1">
-        <v>7.35</v>
-      </c>
-      <c r="AH29" s="1">
-        <v>1.02</v>
-      </c>
-      <c r="AI29" s="1">
-        <v>66</v>
-      </c>
-      <c r="AJ29" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AK29" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AL29" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="AM29" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AN29" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="30" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>8213</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D30" s="7">
-        <v>2712424880</v>
-      </c>
-      <c r="E30" s="1">
-        <v>19980421</v>
-      </c>
-      <c r="F30" s="1">
-        <v>20091225</v>
-      </c>
-      <c r="G30">
-        <v>7.21</v>
-      </c>
-      <c r="H30">
-        <v>8.02</v>
-      </c>
-      <c r="I30">
-        <v>1</v>
-      </c>
-      <c r="J30" t="s">
-        <v>304</v>
-      </c>
-      <c r="K30" t="s">
-        <v>305</v>
-      </c>
-      <c r="L30" t="s">
-        <v>306</v>
-      </c>
-      <c r="M30" t="s">
-        <v>307</v>
-      </c>
-      <c r="N30" s="1">
-        <v>6</v>
-      </c>
-      <c r="O30" s="1">
-        <v>36.659999999999997</v>
-      </c>
-      <c r="P30" s="1">
-        <v>7</v>
-      </c>
-      <c r="Q30" s="1">
-        <v>42.77</v>
-      </c>
-      <c r="R30" s="1">
-        <v>8</v>
-      </c>
-      <c r="S30" s="1">
-        <v>48.88</v>
-      </c>
-      <c r="T30" s="1">
-        <v>9</v>
-      </c>
-      <c r="U30" s="1">
-        <v>54.99</v>
-      </c>
-      <c r="V30" s="1">
-        <v>10</v>
-      </c>
-      <c r="W30" s="1">
-        <v>61.1</v>
-      </c>
-      <c r="X30" s="1">
-        <v>11</v>
-      </c>
-      <c r="Y30" s="1">
-        <v>67.209999999999994</v>
-      </c>
-      <c r="Z30" s="1">
-        <v>15.64</v>
-      </c>
-      <c r="AA30" s="1">
-        <v>8.6</v>
-      </c>
-      <c r="AB30" s="1">
-        <v>13.51</v>
-      </c>
-      <c r="AC30" s="1">
-        <v>9.09</v>
-      </c>
-      <c r="AD30" s="1">
-        <v>6.58</v>
-      </c>
-      <c r="AE30" s="1">
-        <v>0.86</v>
-      </c>
-      <c r="AF30" s="1">
-        <v>94.61</v>
-      </c>
-      <c r="AG30" s="1">
-        <v>2.02</v>
-      </c>
-      <c r="AH30" s="1">
-        <v>0.38</v>
-      </c>
-      <c r="AI30" s="1">
-        <v>47</v>
-      </c>
-      <c r="AJ30" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AK30" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="AL30" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="AM30" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="AN30" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="31" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>8215</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D31" s="7">
-        <v>3206745140</v>
-      </c>
-      <c r="E31" s="1">
-        <v>19980716</v>
-      </c>
-      <c r="F31" s="1">
-        <v>20101112</v>
-      </c>
-      <c r="G31">
-        <v>1.86</v>
-      </c>
-      <c r="H31">
-        <v>13.7</v>
-      </c>
-      <c r="I31">
-        <v>2.52</v>
-      </c>
-      <c r="J31" t="s">
-        <v>196</v>
-      </c>
-      <c r="K31" t="s">
-        <v>197</v>
-      </c>
-      <c r="L31" t="s">
-        <v>191</v>
-      </c>
-      <c r="M31" t="s">
-        <v>192</v>
-      </c>
-      <c r="N31" s="1">
-        <v>15</v>
-      </c>
-      <c r="O31" s="1">
-        <v>41.1</v>
-      </c>
-      <c r="P31" s="1">
-        <v>18</v>
-      </c>
-      <c r="Q31" s="1">
-        <v>49.32</v>
-      </c>
-      <c r="R31" s="1">
-        <v>21</v>
-      </c>
-      <c r="S31" s="1">
-        <v>57.54</v>
-      </c>
-      <c r="T31" s="1">
-        <v>24</v>
-      </c>
-      <c r="U31" s="1">
-        <v>65.760000000000005</v>
-      </c>
-      <c r="V31" s="1">
-        <v>27</v>
-      </c>
-      <c r="W31" s="1">
-        <v>73.98</v>
-      </c>
-      <c r="X31" s="1">
-        <v>30</v>
-      </c>
-      <c r="Y31" s="1">
-        <v>82.2</v>
-      </c>
-      <c r="Z31" s="1">
-        <v>18.329999999999998</v>
-      </c>
-      <c r="AA31" s="1">
-        <v>6.21</v>
-      </c>
-      <c r="AB31" s="1">
-        <v>20.77</v>
-      </c>
-      <c r="AC31" s="1">
-        <v>7.17</v>
-      </c>
-      <c r="AD31" s="1">
-        <v>5.72</v>
-      </c>
-      <c r="AE31" s="1">
-        <v>1.46</v>
-      </c>
-      <c r="AF31" s="1">
-        <v>86.61</v>
-      </c>
-      <c r="AG31" s="1">
-        <v>2.25</v>
-      </c>
-      <c r="AH31" s="1">
-        <v>0.89</v>
-      </c>
-      <c r="AI31" s="1">
-        <v>40</v>
-      </c>
-      <c r="AJ31" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="AK31" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AL31" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AM31" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="AN31" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="32" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>2467</v>
-      </c>
-      <c r="B32" t="s">
-        <v>193</v>
-      </c>
-      <c r="C32" t="s">
-        <v>194</v>
-      </c>
-      <c r="D32" s="7">
-        <v>1521896590</v>
-      </c>
-      <c r="E32">
-        <v>19780418</v>
-      </c>
-      <c r="F32">
-        <v>20010917</v>
-      </c>
-      <c r="G32">
-        <v>5.19</v>
-      </c>
-      <c r="H32">
-        <v>12.52</v>
-      </c>
-      <c r="I32">
-        <v>3.05</v>
-      </c>
-      <c r="J32" t="s">
-        <v>308</v>
-      </c>
-      <c r="K32" t="s">
-        <v>309</v>
-      </c>
-      <c r="L32" t="s">
-        <v>310</v>
-      </c>
-      <c r="M32" t="s">
-        <v>311</v>
-      </c>
-      <c r="N32">
-        <v>11</v>
-      </c>
-      <c r="O32">
-        <v>45.76</v>
-      </c>
-      <c r="P32">
-        <v>12.8</v>
-      </c>
-      <c r="Q32">
-        <v>53.25</v>
-      </c>
-      <c r="R32">
-        <v>14.6</v>
-      </c>
-      <c r="S32">
-        <v>60.74</v>
-      </c>
-      <c r="T32">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="U32">
-        <v>68.22</v>
-      </c>
-      <c r="V32">
-        <v>18.2</v>
-      </c>
-      <c r="W32">
-        <v>75.709999999999994</v>
-      </c>
-      <c r="X32">
-        <v>20</v>
-      </c>
-      <c r="Y32">
-        <v>83.2</v>
-      </c>
-      <c r="Z32">
-        <v>34.07</v>
-      </c>
-      <c r="AA32">
-        <v>12.91</v>
-      </c>
-      <c r="AB32">
-        <v>26.43</v>
-      </c>
-      <c r="AC32">
-        <v>15.84</v>
-      </c>
-      <c r="AD32">
-        <v>12.85</v>
-      </c>
-      <c r="AE32">
-        <v>0.8</v>
-      </c>
-      <c r="AF32">
-        <v>81.5</v>
-      </c>
-      <c r="AG32">
-        <v>2.44</v>
-      </c>
-      <c r="AH32">
-        <v>-2.57</v>
-      </c>
-      <c r="AI32">
-        <v>57</v>
-      </c>
-      <c r="AJ32" t="s">
-        <v>195</v>
-      </c>
-      <c r="AK32" t="s">
-        <v>142</v>
-      </c>
-      <c r="AL32" t="s">
-        <v>142</v>
-      </c>
-      <c r="AM32" t="s">
-        <v>99</v>
-      </c>
-      <c r="AN32" t="s">
-        <v>91</v>
-      </c>
-      <c r="AO32"/>
-      <c r="AP32"/>
-      <c r="AQ32"/>
-      <c r="AR32"/>
-      <c r="AS32"/>
-      <c r="AT32"/>
-      <c r="AU32"/>
+      <c r="AN40" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO40" t="s">
+        <v>426</v>
+      </c>
+      <c r="AP40" t="s">
+        <v>427</v>
+      </c>
+      <c r="AQ40" t="s">
+        <v>428</v>
+      </c>
+      <c r="AR40" t="s">
+        <v>429</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:AN31">
-    <sortCondition ref="A3:A31"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:AN28">
+    <sortCondition ref="A3:A28"/>
   </sortState>
   <mergeCells count="21">
     <mergeCell ref="AJ1:AN1"/>
@@ -5957,68 +7398,8 @@
     <mergeCell ref="AC1:AC2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="AF3:AF30">
-    <cfRule type="colorScale" priority="46">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA4:AA30">
-    <cfRule type="colorScale" priority="48">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z3:Z30">
-    <cfRule type="colorScale" priority="50">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA3:AA30">
-    <cfRule type="colorScale" priority="52">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD3:AD30">
-    <cfRule type="colorScale" priority="54">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB3:AB30">
-    <cfRule type="colorScale" priority="56">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z29:Z31">
-    <cfRule type="colorScale" priority="8">
+  <conditionalFormatting sqref="Z26:Z28">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6029,8 +7410,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z3:Z31">
-    <cfRule type="colorScale" priority="6">
+  <conditionalFormatting sqref="Z3:Z28">
+    <cfRule type="colorScale" priority="89">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6039,8 +7420,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA3:AF31">
-    <cfRule type="colorScale" priority="5">
+  <conditionalFormatting sqref="Z3:AI29">
+    <cfRule type="colorScale" priority="101">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6049,8 +7430,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG3:AI31">
-    <cfRule type="colorScale" priority="4">
+  <conditionalFormatting sqref="AF3:AF27">
+    <cfRule type="colorScale" priority="108">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6059,8 +7440,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z3:AI31">
-    <cfRule type="colorScale" priority="57">
+  <conditionalFormatting sqref="AA4:AA27">
+    <cfRule type="colorScale" priority="110">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6069,8 +7450,88 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z3:AI32">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="Z3:Z27">
+    <cfRule type="colorScale" priority="112">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA3:AA27">
+    <cfRule type="colorScale" priority="114">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD3:AD27">
+    <cfRule type="colorScale" priority="116">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB3:AB27">
+    <cfRule type="colorScale" priority="118">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA3:AF28">
+    <cfRule type="colorScale" priority="120">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG3:AI28">
+    <cfRule type="colorScale" priority="122">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z3:AI28">
+    <cfRule type="colorScale" priority="124">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z6:AI29">
+    <cfRule type="colorScale" priority="126">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z3:AI40">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>

--- a/Data/彙整清單_整理版.xlsx
+++ b/Data/彙整清單_整理版.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hmlu\svnbox\Research\Python\Stock\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2059B20C-5F90-40C6-979A-E5AE523DF87E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0448D389-56FA-4B02-9720-A494CB5E0464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D923A086-913E-4840-96DC-7378B4FF8169}"/>
+    <workbookView xWindow="33240" yWindow="3075" windowWidth="23505" windowHeight="11235" xr2:uid="{D923A086-913E-4840-96DC-7378B4FF8169}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -2380,10 +2380,10 @@
   <dimension ref="A1:AU40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="N14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Z3" sqref="Z3:AI40"/>
+      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2962,4419 +2962,4460 @@
       </c>
     </row>
     <row r="6" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>1474</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
+      <c r="A6">
+        <v>1304</v>
+      </c>
+      <c r="B6" t="s">
+        <v>306</v>
+      </c>
+      <c r="C6" t="s">
+        <v>307</v>
       </c>
       <c r="D6" s="7">
-        <v>1298969690</v>
-      </c>
-      <c r="E6" s="1">
-        <v>19700904</v>
-      </c>
-      <c r="F6" s="1">
-        <v>20001031</v>
+        <v>11887635000</v>
+      </c>
+      <c r="E6">
+        <v>19650526</v>
+      </c>
+      <c r="F6">
+        <v>19720520</v>
       </c>
       <c r="G6">
-        <v>2.52</v>
+        <v>3.31</v>
       </c>
       <c r="H6">
-        <v>11.24</v>
+        <v>6.62</v>
       </c>
       <c r="I6">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="J6" t="s">
-        <v>197</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>198</v>
+        <v>308</v>
+      </c>
+      <c r="K6" t="s">
+        <v>309</v>
       </c>
       <c r="L6" t="s">
-        <v>199</v>
+        <v>310</v>
       </c>
       <c r="M6" t="s">
-        <v>200</v>
-      </c>
-      <c r="N6" s="1">
-        <v>13</v>
-      </c>
-      <c r="O6" s="1">
-        <v>18.329999999999998</v>
-      </c>
-      <c r="P6" s="1">
-        <v>15.4</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>21.71</v>
-      </c>
-      <c r="R6" s="1">
-        <v>17.8</v>
-      </c>
-      <c r="S6" s="1">
-        <v>25.1</v>
-      </c>
-      <c r="T6" s="1">
-        <v>20.2</v>
-      </c>
-      <c r="U6" s="1">
-        <v>28.48</v>
-      </c>
-      <c r="V6" s="1">
-        <v>22.6</v>
-      </c>
-      <c r="W6" s="1">
-        <v>31.87</v>
-      </c>
-      <c r="X6" s="1">
-        <v>25</v>
-      </c>
-      <c r="Y6" s="1">
-        <v>35.25</v>
-      </c>
-      <c r="Z6" s="1">
-        <v>16.04</v>
-      </c>
-      <c r="AA6" s="1">
-        <v>5.23</v>
-      </c>
-      <c r="AB6" s="1">
-        <v>8.11</v>
-      </c>
-      <c r="AC6" s="1">
-        <v>6.05</v>
-      </c>
-      <c r="AD6" s="1">
-        <v>4.8099999999999996</v>
-      </c>
-      <c r="AE6" s="1">
-        <v>0.85</v>
-      </c>
-      <c r="AF6" s="1">
-        <v>86.45</v>
-      </c>
-      <c r="AG6" s="1">
-        <v>0.86</v>
-      </c>
-      <c r="AH6" s="1">
-        <v>-0.96</v>
-      </c>
-      <c r="AI6" s="1">
-        <v>43</v>
-      </c>
-      <c r="AJ6" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AK6" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AL6" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="N6">
+        <v>10</v>
+      </c>
+      <c r="O6">
+        <v>45.7</v>
+      </c>
+      <c r="P6">
+        <v>12</v>
+      </c>
+      <c r="Q6">
+        <v>54.84</v>
+      </c>
+      <c r="R6">
+        <v>14</v>
+      </c>
+      <c r="S6">
+        <v>63.98</v>
+      </c>
+      <c r="T6">
+        <v>16</v>
+      </c>
+      <c r="U6">
+        <v>73.12</v>
+      </c>
+      <c r="V6">
+        <v>18</v>
+      </c>
+      <c r="W6">
+        <v>82.26</v>
+      </c>
+      <c r="X6">
+        <v>20</v>
+      </c>
+      <c r="Y6">
+        <v>91.4</v>
+      </c>
+      <c r="Z6">
+        <v>23.9</v>
+      </c>
+      <c r="AA6">
+        <v>16.989999999999998</v>
+      </c>
+      <c r="AB6">
+        <v>19.39</v>
+      </c>
+      <c r="AC6">
+        <v>17.850000000000001</v>
+      </c>
+      <c r="AD6">
+        <v>14.06</v>
+      </c>
+      <c r="AE6">
+        <v>0.87</v>
+      </c>
+      <c r="AF6">
+        <v>95.18</v>
+      </c>
+      <c r="AG6">
+        <v>5.37</v>
+      </c>
+      <c r="AH6">
+        <v>3.45</v>
+      </c>
+      <c r="AI6">
+        <v>60</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>106</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL6" t="s">
         <v>121</v>
       </c>
-      <c r="AM6" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AN6" s="1" t="s">
-        <v>122</v>
+      <c r="AM6" t="s">
+        <v>312</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>313</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>314</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>315</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>316</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="7" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>2020</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="A7">
+        <v>1305</v>
+      </c>
+      <c r="B7" t="s">
+        <v>406</v>
+      </c>
+      <c r="C7" t="s">
+        <v>407</v>
+      </c>
+      <c r="D7" s="7">
+        <v>5810504940</v>
+      </c>
+      <c r="E7">
+        <v>19640429</v>
+      </c>
+      <c r="F7">
+        <v>19730305</v>
+      </c>
+      <c r="G7">
+        <v>6.57</v>
+      </c>
+      <c r="H7">
+        <v>7.04</v>
+      </c>
+      <c r="I7">
+        <v>1.92</v>
+      </c>
+      <c r="J7" t="s">
+        <v>408</v>
+      </c>
+      <c r="K7" t="s">
+        <v>409</v>
+      </c>
+      <c r="L7" t="s">
+        <v>410</v>
+      </c>
+      <c r="M7" t="s">
+        <v>411</v>
+      </c>
+      <c r="N7">
+        <v>7</v>
+      </c>
+      <c r="O7">
+        <v>34.86</v>
+      </c>
+      <c r="P7">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="Q7">
+        <v>43.82</v>
+      </c>
+      <c r="R7">
+        <v>10.6</v>
+      </c>
+      <c r="S7">
+        <v>52.79</v>
+      </c>
+      <c r="T7">
+        <v>12.4</v>
+      </c>
+      <c r="U7">
+        <v>61.75</v>
+      </c>
+      <c r="V7">
+        <v>14.2</v>
+      </c>
+      <c r="W7">
+        <v>70.72</v>
+      </c>
+      <c r="X7">
         <v>16</v>
       </c>
-      <c r="D7" s="7">
-        <v>2225261000</v>
-      </c>
-      <c r="E7" s="1">
-        <v>19590929</v>
-      </c>
-      <c r="F7" s="1">
-        <v>19930427</v>
-      </c>
-      <c r="G7">
-        <v>5.42</v>
-      </c>
-      <c r="H7">
-        <v>8.81</v>
-      </c>
-      <c r="I7">
-        <v>1.95</v>
-      </c>
-      <c r="J7" t="s">
-        <v>201</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="L7" t="s">
-        <v>203</v>
-      </c>
-      <c r="M7" t="s">
-        <v>204</v>
-      </c>
-      <c r="N7" s="1">
-        <v>12</v>
-      </c>
-      <c r="O7" s="1">
-        <v>42.72</v>
-      </c>
-      <c r="P7" s="1">
-        <v>14.8</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>52.69</v>
-      </c>
-      <c r="R7" s="1">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="S7" s="1">
-        <v>62.66</v>
-      </c>
-      <c r="T7" s="1">
-        <v>20.399999999999999</v>
-      </c>
-      <c r="U7" s="1">
-        <v>72.62</v>
-      </c>
-      <c r="V7" s="1">
-        <v>23.2</v>
-      </c>
-      <c r="W7" s="1">
-        <v>82.59</v>
-      </c>
-      <c r="X7" s="1">
-        <v>26</v>
-      </c>
-      <c r="Y7" s="1">
-        <v>92.56</v>
-      </c>
-      <c r="Z7" s="1">
-        <v>14.3</v>
-      </c>
-      <c r="AA7" s="1">
-        <v>9.4700000000000006</v>
-      </c>
-      <c r="AB7" s="1">
-        <v>27.47</v>
-      </c>
-      <c r="AC7" s="1">
-        <v>16.52</v>
-      </c>
-      <c r="AD7" s="1">
-        <v>14.13</v>
-      </c>
-      <c r="AE7" s="1">
-        <v>0.89</v>
-      </c>
-      <c r="AF7" s="1">
-        <v>57.32</v>
-      </c>
-      <c r="AG7" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="AH7" s="1">
-        <v>1.46</v>
-      </c>
-      <c r="AI7" s="1">
-        <v>47</v>
-      </c>
-      <c r="AJ7" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AK7" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AL7" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AM7" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AN7" s="1" t="s">
-        <v>129</v>
+      <c r="Y7">
+        <v>79.680000000000007</v>
+      </c>
+      <c r="Z7">
+        <v>25.41</v>
+      </c>
+      <c r="AA7">
+        <v>16.78</v>
+      </c>
+      <c r="AB7">
+        <v>24.74</v>
+      </c>
+      <c r="AC7">
+        <v>16.5</v>
+      </c>
+      <c r="AD7">
+        <v>13.25</v>
+      </c>
+      <c r="AE7">
+        <v>1.29</v>
+      </c>
+      <c r="AF7">
+        <v>101.7</v>
+      </c>
+      <c r="AG7">
+        <v>1.93</v>
+      </c>
+      <c r="AH7">
+        <v>-0.39</v>
+      </c>
+      <c r="AI7">
+        <v>57</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>162</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>412</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>413</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>414</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>415</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>416</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>417</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>418</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="8" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>2069</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>24</v>
+      <c r="A8">
+        <v>1308</v>
+      </c>
+      <c r="B8" t="s">
+        <v>355</v>
+      </c>
+      <c r="C8" t="s">
+        <v>356</v>
       </c>
       <c r="D8" s="7">
-        <v>1663868360</v>
-      </c>
-      <c r="E8" s="1">
-        <v>19870724</v>
-      </c>
-      <c r="F8" s="1">
-        <v>20160322</v>
+        <v>5937439190</v>
+      </c>
+      <c r="E8">
+        <v>19770125</v>
+      </c>
+      <c r="F8">
+        <v>19860620</v>
       </c>
       <c r="G8">
-        <v>1.66</v>
+        <v>3.92</v>
       </c>
       <c r="H8">
-        <v>8.6</v>
+        <v>7.85</v>
       </c>
       <c r="I8">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="J8" t="s">
-        <v>205</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>206</v>
+        <v>357</v>
+      </c>
+      <c r="K8" t="s">
+        <v>358</v>
       </c>
       <c r="L8" t="s">
-        <v>207</v>
+        <v>359</v>
       </c>
       <c r="M8" t="s">
-        <v>208</v>
-      </c>
-      <c r="N8" s="1">
-        <v>10</v>
-      </c>
-      <c r="O8" s="1">
-        <v>38.6</v>
-      </c>
-      <c r="P8" s="1">
-        <v>13.4</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>51.72</v>
-      </c>
-      <c r="R8" s="1">
-        <v>16.8</v>
-      </c>
-      <c r="S8" s="1">
-        <v>64.849999999999994</v>
-      </c>
-      <c r="T8" s="1">
-        <v>20.2</v>
-      </c>
-      <c r="U8" s="1">
-        <v>77.97</v>
-      </c>
-      <c r="V8" s="1">
-        <v>23.6</v>
-      </c>
-      <c r="W8" s="1">
-        <v>91.1</v>
-      </c>
-      <c r="X8" s="1">
-        <v>27</v>
-      </c>
-      <c r="Y8" s="1">
-        <v>104.2</v>
-      </c>
-      <c r="Z8" s="1">
-        <v>13</v>
-      </c>
-      <c r="AA8" s="1">
-        <v>6.49</v>
-      </c>
-      <c r="AB8" s="1">
-        <v>19.260000000000002</v>
-      </c>
-      <c r="AC8" s="1">
-        <v>6.18</v>
-      </c>
-      <c r="AD8" s="1">
-        <v>5.03</v>
-      </c>
-      <c r="AE8" s="1">
-        <v>1.39</v>
-      </c>
-      <c r="AF8" s="1">
-        <v>105.02</v>
-      </c>
-      <c r="AG8" s="1">
-        <v>-7.36</v>
-      </c>
-      <c r="AH8" s="1">
-        <v>-9.52</v>
-      </c>
-      <c r="AI8" s="1">
-        <v>34</v>
-      </c>
-      <c r="AJ8" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AK8" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AL8" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AM8" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AN8" s="1" t="s">
-        <v>132</v>
+        <v>360</v>
+      </c>
+      <c r="N8">
+        <v>11</v>
+      </c>
+      <c r="O8">
+        <v>50.16</v>
+      </c>
+      <c r="P8">
+        <v>13.2</v>
+      </c>
+      <c r="Q8">
+        <v>60.19</v>
+      </c>
+      <c r="R8">
+        <v>15.4</v>
+      </c>
+      <c r="S8">
+        <v>70.22</v>
+      </c>
+      <c r="T8">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="U8">
+        <v>80.260000000000005</v>
+      </c>
+      <c r="V8">
+        <v>19.8</v>
+      </c>
+      <c r="W8">
+        <v>90.29</v>
+      </c>
+      <c r="X8">
+        <v>22</v>
+      </c>
+      <c r="Y8">
+        <v>100.3</v>
+      </c>
+      <c r="Z8">
+        <v>34.97</v>
+      </c>
+      <c r="AA8">
+        <v>31.99</v>
+      </c>
+      <c r="AB8">
+        <v>21.15</v>
+      </c>
+      <c r="AC8">
+        <v>38.909999999999997</v>
+      </c>
+      <c r="AD8">
+        <v>32.46</v>
+      </c>
+      <c r="AE8">
+        <v>0.49</v>
+      </c>
+      <c r="AF8">
+        <v>82.22</v>
+      </c>
+      <c r="AG8">
+        <v>2.54</v>
+      </c>
+      <c r="AH8">
+        <v>2.56</v>
+      </c>
+      <c r="AI8">
+        <v>72</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>361</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>362</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>121</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>363</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>364</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>365</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>366</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>367</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="9" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>2324</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>88</v>
+      <c r="A9">
+        <v>1313</v>
+      </c>
+      <c r="B9" t="s">
+        <v>292</v>
+      </c>
+      <c r="C9" t="s">
+        <v>293</v>
       </c>
       <c r="D9" s="7">
-        <v>44071466250</v>
-      </c>
-      <c r="E9" s="1">
-        <v>19840601</v>
-      </c>
-      <c r="F9" s="1">
-        <v>19920218</v>
+        <v>13471206070</v>
+      </c>
+      <c r="E9">
+        <v>19760814</v>
+      </c>
+      <c r="F9">
+        <v>19890327</v>
       </c>
       <c r="G9">
-        <v>6.49</v>
+        <v>4.74</v>
       </c>
       <c r="H9">
-        <v>7.66</v>
+        <v>6.43</v>
       </c>
       <c r="I9">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="J9" t="s">
-        <v>209</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>210</v>
+        <v>294</v>
+      </c>
+      <c r="K9" t="s">
+        <v>295</v>
       </c>
       <c r="L9" t="s">
-        <v>211</v>
+        <v>296</v>
       </c>
       <c r="M9" t="s">
-        <v>212</v>
-      </c>
-      <c r="N9" s="1">
-        <v>9</v>
-      </c>
-      <c r="O9" s="1">
-        <v>28.98</v>
-      </c>
-      <c r="P9" s="1">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>32.840000000000003</v>
-      </c>
-      <c r="R9" s="1">
-        <v>11.4</v>
-      </c>
-      <c r="S9" s="1">
-        <v>36.71</v>
-      </c>
-      <c r="T9" s="1">
-        <v>12.6</v>
-      </c>
-      <c r="U9" s="1">
-        <v>40.57</v>
-      </c>
-      <c r="V9" s="1">
-        <v>13.8</v>
-      </c>
-      <c r="W9" s="1">
-        <v>44.44</v>
-      </c>
-      <c r="X9" s="1">
-        <v>15</v>
-      </c>
-      <c r="Y9" s="1">
-        <v>48.3</v>
-      </c>
-      <c r="Z9" s="1">
-        <v>3.35</v>
-      </c>
-      <c r="AA9" s="1">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="AB9" s="1">
-        <v>11.72</v>
-      </c>
-      <c r="AC9" s="1">
-        <v>1.49</v>
-      </c>
-      <c r="AD9" s="1">
-        <v>1.18</v>
-      </c>
-      <c r="AE9" s="1">
-        <v>2.33</v>
-      </c>
-      <c r="AF9" s="1">
-        <v>73.150000000000006</v>
-      </c>
-      <c r="AG9" s="1">
-        <v>-5.67</v>
-      </c>
-      <c r="AH9" s="1">
-        <v>-7.8</v>
-      </c>
-      <c r="AI9" s="1">
-        <v>36</v>
-      </c>
-      <c r="AJ9" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AK9" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL9" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AM9" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AN9" s="1" t="s">
-        <v>90</v>
+        <v>297</v>
+      </c>
+      <c r="N9">
+        <v>13</v>
+      </c>
+      <c r="O9">
+        <v>43.16</v>
+      </c>
+      <c r="P9">
+        <v>15.6</v>
+      </c>
+      <c r="Q9">
+        <v>51.79</v>
+      </c>
+      <c r="R9">
+        <v>18.2</v>
+      </c>
+      <c r="S9">
+        <v>60.42</v>
+      </c>
+      <c r="T9">
+        <v>20.8</v>
+      </c>
+      <c r="U9">
+        <v>69.06</v>
+      </c>
+      <c r="V9">
+        <v>23.4</v>
+      </c>
+      <c r="W9">
+        <v>77.69</v>
+      </c>
+      <c r="X9">
+        <v>26</v>
+      </c>
+      <c r="Y9">
+        <v>86.32</v>
+      </c>
+      <c r="Z9">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="AA9">
+        <v>5.84</v>
+      </c>
+      <c r="AB9">
+        <v>14.89</v>
+      </c>
+      <c r="AC9">
+        <v>6.4</v>
+      </c>
+      <c r="AD9">
+        <v>5.03</v>
+      </c>
+      <c r="AE9">
+        <v>1.63</v>
+      </c>
+      <c r="AF9">
+        <v>91.25</v>
+      </c>
+      <c r="AG9">
+        <v>-0.67</v>
+      </c>
+      <c r="AH9">
+        <v>-1.21</v>
+      </c>
+      <c r="AI9">
+        <v>40</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>106</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>298</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>299</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>300</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>301</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>302</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>303</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>304</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>2347</v>
+        <v>1474</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D10" s="7">
-        <v>16679469680</v>
+        <v>1298969690</v>
       </c>
       <c r="E10" s="1">
-        <v>19880912</v>
+        <v>19700904</v>
       </c>
       <c r="F10" s="1">
-        <v>19951213</v>
+        <v>20001031</v>
       </c>
       <c r="G10">
-        <v>4.9800000000000004</v>
+        <v>2.52</v>
       </c>
       <c r="H10">
-        <v>6.62</v>
+        <v>11.24</v>
       </c>
       <c r="I10">
-        <v>1.87</v>
+        <v>1.01</v>
       </c>
       <c r="J10" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="L10" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="M10" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="N10" s="1">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="O10" s="1">
-        <v>90.18</v>
+        <v>18.329999999999998</v>
       </c>
       <c r="P10" s="1">
-        <v>10.199999999999999</v>
+        <v>15.4</v>
       </c>
       <c r="Q10" s="1">
-        <v>102.2</v>
+        <v>21.71</v>
       </c>
       <c r="R10" s="1">
-        <v>11.4</v>
+        <v>17.8</v>
       </c>
       <c r="S10" s="1">
-        <v>114.2</v>
+        <v>25.1</v>
       </c>
       <c r="T10" s="1">
-        <v>12.6</v>
+        <v>20.2</v>
       </c>
       <c r="U10" s="1">
-        <v>126.3</v>
+        <v>28.48</v>
       </c>
       <c r="V10" s="1">
-        <v>13.8</v>
+        <v>22.6</v>
       </c>
       <c r="W10" s="1">
-        <v>138.30000000000001</v>
+        <v>31.87</v>
       </c>
       <c r="X10" s="1">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="Y10" s="1">
-        <v>150.30000000000001</v>
+        <v>35.25</v>
       </c>
       <c r="Z10" s="1">
-        <v>4.4000000000000004</v>
+        <v>16.04</v>
       </c>
       <c r="AA10" s="1">
-        <v>2.29</v>
+        <v>5.23</v>
       </c>
       <c r="AB10" s="1">
-        <v>32.94</v>
+        <v>8.11</v>
       </c>
       <c r="AC10" s="1">
-        <v>6.79</v>
+        <v>6.05</v>
       </c>
       <c r="AD10" s="1">
-        <v>5.12</v>
+        <v>4.8099999999999996</v>
       </c>
       <c r="AE10" s="1">
-        <v>2.25</v>
+        <v>0.85</v>
       </c>
       <c r="AF10" s="1">
-        <v>33.729999999999997</v>
+        <v>86.45</v>
       </c>
       <c r="AG10" s="1">
-        <v>3.64</v>
+        <v>0.86</v>
       </c>
       <c r="AH10" s="1">
-        <v>0.68</v>
+        <v>-0.96</v>
       </c>
       <c r="AI10" s="1">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AJ10" s="1" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="AK10" s="1" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="AL10" s="1" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="AM10" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="AN10" s="1" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>2352</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>92</v>
+      <c r="A11">
+        <v>1604</v>
+      </c>
+      <c r="B11" t="s">
+        <v>420</v>
+      </c>
+      <c r="C11" t="s">
+        <v>421</v>
       </c>
       <c r="D11" s="7">
-        <v>19667819580</v>
-      </c>
-      <c r="E11" s="1">
-        <v>19840421</v>
-      </c>
-      <c r="F11" s="1">
-        <v>19960722</v>
+        <v>3872000000</v>
+      </c>
+      <c r="E11">
+        <v>19620911</v>
+      </c>
+      <c r="F11">
+        <v>19701214</v>
       </c>
       <c r="G11">
-        <v>4.8600000000000003</v>
+        <v>8.31</v>
       </c>
       <c r="H11">
-        <v>6.69</v>
+        <v>6.5</v>
       </c>
       <c r="I11">
-        <v>1.68</v>
+        <v>1.32</v>
       </c>
       <c r="J11" t="s">
-        <v>217</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>218</v>
+        <v>422</v>
+      </c>
+      <c r="K11" t="s">
+        <v>423</v>
       </c>
       <c r="L11" t="s">
-        <v>219</v>
+        <v>424</v>
       </c>
       <c r="M11" t="s">
-        <v>220</v>
-      </c>
-      <c r="N11" s="1">
-        <v>8</v>
-      </c>
-      <c r="O11" s="1">
-        <v>36.96</v>
-      </c>
-      <c r="P11" s="1">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>47.12</v>
-      </c>
-      <c r="R11" s="1">
-        <v>12.4</v>
-      </c>
-      <c r="S11" s="1">
-        <v>57.29</v>
-      </c>
-      <c r="T11" s="1">
-        <v>14.6</v>
-      </c>
-      <c r="U11" s="1">
-        <v>67.45</v>
-      </c>
-      <c r="V11" s="1">
-        <v>16.8</v>
-      </c>
-      <c r="W11" s="1">
-        <v>77.62</v>
-      </c>
-      <c r="X11" s="1">
-        <v>19</v>
-      </c>
-      <c r="Y11" s="1">
-        <v>87.78</v>
-      </c>
-      <c r="Z11" s="1">
-        <v>14.67</v>
-      </c>
-      <c r="AA11" s="1">
-        <v>3.42</v>
-      </c>
-      <c r="AB11" s="1">
-        <v>20.170000000000002</v>
-      </c>
-      <c r="AC11" s="1">
-        <v>6.69</v>
-      </c>
-      <c r="AD11" s="1">
-        <v>5.45</v>
-      </c>
-      <c r="AE11" s="1">
-        <v>1.24</v>
-      </c>
-      <c r="AF11" s="1">
-        <v>51.12</v>
-      </c>
-      <c r="AG11" s="1">
-        <v>-1.7</v>
-      </c>
-      <c r="AH11" s="1">
-        <v>-5.0199999999999996</v>
-      </c>
-      <c r="AI11" s="1">
-        <v>40</v>
-      </c>
-      <c r="AJ11" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="N11">
+        <v>7</v>
+      </c>
+      <c r="O11">
+        <v>32.130000000000003</v>
+      </c>
+      <c r="P11">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="Q11">
+        <v>37.64</v>
+      </c>
+      <c r="R11">
+        <v>9.4</v>
+      </c>
+      <c r="S11">
+        <v>43.15</v>
+      </c>
+      <c r="T11">
+        <v>10.6</v>
+      </c>
+      <c r="U11">
+        <v>48.65</v>
+      </c>
+      <c r="V11">
+        <v>11.8</v>
+      </c>
+      <c r="W11">
+        <v>54.16</v>
+      </c>
+      <c r="X11">
+        <v>13</v>
+      </c>
+      <c r="Y11">
+        <v>59.67</v>
+      </c>
+      <c r="Z11">
+        <v>17.72</v>
+      </c>
+      <c r="AA11">
+        <v>7.61</v>
+      </c>
+      <c r="AB11">
+        <v>26.03</v>
+      </c>
+      <c r="AC11">
+        <v>26.84</v>
+      </c>
+      <c r="AD11">
+        <v>24.99</v>
+      </c>
+      <c r="AE11">
+        <v>0.67</v>
+      </c>
+      <c r="AF11">
+        <v>28.35</v>
+      </c>
+      <c r="AG11">
+        <v>0.53</v>
+      </c>
+      <c r="AH11">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="AI11">
+        <v>62</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>130</v>
+      </c>
+      <c r="AK11" t="s">
         <v>93</v>
       </c>
-      <c r="AK11" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AL11" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM11" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AN11" s="1" t="s">
-        <v>96</v>
+      <c r="AL11" t="s">
+        <v>127</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>298</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>426</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>427</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>428</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="12" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>2385</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>22</v>
+      <c r="A12">
+        <v>1776</v>
+      </c>
+      <c r="B12" t="s">
+        <v>333</v>
+      </c>
+      <c r="C12" t="s">
+        <v>334</v>
       </c>
       <c r="D12" s="7">
-        <v>7452927490</v>
-      </c>
-      <c r="E12" s="1">
-        <v>19830222</v>
-      </c>
-      <c r="F12" s="1">
-        <v>19990105</v>
+        <v>703352990</v>
+      </c>
+      <c r="E12">
+        <v>19760424</v>
+      </c>
+      <c r="F12">
+        <v>20160509</v>
       </c>
       <c r="G12">
-        <v>6.47</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="H12">
-        <v>10.48</v>
+        <v>8.6199999999999992</v>
       </c>
       <c r="I12">
-        <v>2.13</v>
+        <v>1.42</v>
       </c>
       <c r="J12" t="s">
-        <v>221</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>222</v>
+        <v>335</v>
+      </c>
+      <c r="K12" t="s">
+        <v>336</v>
       </c>
       <c r="L12" t="s">
-        <v>223</v>
+        <v>337</v>
       </c>
       <c r="M12" t="s">
-        <v>224</v>
-      </c>
-      <c r="N12" s="1">
-        <v>10</v>
-      </c>
-      <c r="O12" s="1">
-        <v>81.2</v>
-      </c>
-      <c r="P12" s="1">
-        <v>11</v>
-      </c>
-      <c r="Q12" s="1">
-        <v>89.32</v>
-      </c>
-      <c r="R12" s="1">
+        <v>338</v>
+      </c>
+      <c r="N12">
         <v>12</v>
       </c>
-      <c r="S12" s="1">
-        <v>97.44</v>
-      </c>
-      <c r="T12" s="1">
-        <v>13</v>
-      </c>
-      <c r="U12" s="1">
-        <v>105.6</v>
-      </c>
-      <c r="V12" s="1">
-        <v>14</v>
-      </c>
-      <c r="W12" s="1">
-        <v>113.7</v>
-      </c>
-      <c r="X12" s="1">
-        <v>15</v>
-      </c>
-      <c r="Y12" s="1">
-        <v>121.8</v>
-      </c>
-      <c r="Z12" s="1">
-        <v>17.55</v>
-      </c>
-      <c r="AA12" s="1">
-        <v>7.9</v>
-      </c>
-      <c r="AB12" s="1">
-        <v>22.24</v>
-      </c>
-      <c r="AC12" s="1">
-        <v>8.7799999999999994</v>
-      </c>
-      <c r="AD12" s="1">
-        <v>7.09</v>
-      </c>
-      <c r="AE12" s="1">
-        <v>1.32</v>
-      </c>
-      <c r="AF12" s="1">
-        <v>89.98</v>
-      </c>
-      <c r="AG12" s="1">
-        <v>4.0599999999999996</v>
-      </c>
-      <c r="AH12" s="1">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="AI12" s="1">
-        <v>38</v>
-      </c>
-      <c r="AJ12" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AK12" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AL12" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AM12" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AN12" s="1" t="s">
-        <v>168</v>
+      <c r="O12">
+        <v>30</v>
+      </c>
+      <c r="P12">
+        <v>14.4</v>
+      </c>
+      <c r="Q12">
+        <v>36</v>
+      </c>
+      <c r="R12">
+        <v>16.8</v>
+      </c>
+      <c r="S12">
+        <v>42</v>
+      </c>
+      <c r="T12">
+        <v>19.2</v>
+      </c>
+      <c r="U12">
+        <v>48</v>
+      </c>
+      <c r="V12">
+        <v>21.6</v>
+      </c>
+      <c r="W12">
+        <v>54</v>
+      </c>
+      <c r="X12">
+        <v>24</v>
+      </c>
+      <c r="Y12">
+        <v>60</v>
+      </c>
+      <c r="Z12">
+        <v>20.57</v>
+      </c>
+      <c r="AA12">
+        <v>7.03</v>
+      </c>
+      <c r="AB12">
+        <v>19.61</v>
+      </c>
+      <c r="AC12">
+        <v>7.3</v>
+      </c>
+      <c r="AD12">
+        <v>15.07</v>
+      </c>
+      <c r="AE12">
+        <v>0.78</v>
+      </c>
+      <c r="AF12">
+        <v>96.3</v>
+      </c>
+      <c r="AG12">
+        <v>1.64</v>
+      </c>
+      <c r="AH12">
+        <v>7.28</v>
+      </c>
+      <c r="AI12">
+        <v>60</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>106</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>129</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>339</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>340</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>341</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="13" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>2417</v>
+        <v>2020</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="D13" s="7">
-        <v>1543138640</v>
+        <v>2225261000</v>
       </c>
       <c r="E13" s="1">
-        <v>19900117</v>
+        <v>19590929</v>
       </c>
       <c r="F13" s="1">
-        <v>20000911</v>
+        <v>19930427</v>
       </c>
       <c r="G13">
-        <v>5.38</v>
+        <v>5.42</v>
       </c>
       <c r="H13">
-        <v>13.76</v>
+        <v>8.81</v>
       </c>
       <c r="I13">
-        <v>1.69</v>
+        <v>1.95</v>
       </c>
       <c r="J13" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="L13" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="M13" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="N13" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O13" s="1">
-        <v>28.34</v>
+        <v>42.72</v>
       </c>
       <c r="P13" s="1">
-        <v>16.399999999999999</v>
+        <v>14.8</v>
       </c>
       <c r="Q13" s="1">
-        <v>35.75</v>
+        <v>52.69</v>
       </c>
       <c r="R13" s="1">
-        <v>19.8</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="S13" s="1">
-        <v>43.16</v>
+        <v>62.66</v>
       </c>
       <c r="T13" s="1">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="U13" s="1">
+        <v>72.62</v>
+      </c>
+      <c r="V13" s="1">
         <v>23.2</v>
       </c>
-      <c r="U13" s="1">
-        <v>50.58</v>
-      </c>
-      <c r="V13" s="1">
-        <v>26.6</v>
-      </c>
       <c r="W13" s="1">
-        <v>57.99</v>
+        <v>82.59</v>
       </c>
       <c r="X13" s="1">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Y13" s="1">
-        <v>65.400000000000006</v>
+        <v>92.56</v>
       </c>
       <c r="Z13" s="1">
-        <v>48.85</v>
+        <v>14.3</v>
       </c>
       <c r="AA13" s="1">
-        <v>12.06</v>
+        <v>9.4700000000000006</v>
       </c>
       <c r="AB13" s="1">
-        <v>9.5399999999999991</v>
+        <v>27.47</v>
       </c>
       <c r="AC13" s="1">
-        <v>12.15</v>
+        <v>16.52</v>
       </c>
       <c r="AD13" s="1">
-        <v>9.57</v>
+        <v>14.13</v>
       </c>
       <c r="AE13" s="1">
-        <v>0.67</v>
+        <v>0.89</v>
       </c>
       <c r="AF13" s="1">
-        <v>99.26</v>
+        <v>57.32</v>
       </c>
       <c r="AG13" s="1">
-        <v>0.98</v>
+        <v>0.9</v>
       </c>
       <c r="AH13" s="1">
-        <v>-0.77</v>
+        <v>1.46</v>
       </c>
       <c r="AI13" s="1">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="AJ13" s="1" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="AK13" s="1" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="AL13" s="1" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="AM13" s="1" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="AN13" s="1" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>2458</v>
+        <v>2069</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D14" s="7">
-        <v>3038803920</v>
+        <v>1663868360</v>
       </c>
       <c r="E14" s="1">
-        <v>19940505</v>
+        <v>19870724</v>
       </c>
       <c r="F14" s="1">
-        <v>20010917</v>
+        <v>20160322</v>
       </c>
       <c r="G14">
-        <v>5.36</v>
+        <v>1.66</v>
       </c>
       <c r="H14">
-        <v>9.6199999999999992</v>
+        <v>8.6</v>
       </c>
       <c r="I14">
+        <v>1.39</v>
+      </c>
+      <c r="J14" t="s">
+        <v>205</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="L14" t="s">
+        <v>207</v>
+      </c>
+      <c r="M14" t="s">
+        <v>208</v>
+      </c>
+      <c r="N14" s="1">
+        <v>10</v>
+      </c>
+      <c r="O14" s="1">
+        <v>38.6</v>
+      </c>
+      <c r="P14" s="1">
+        <v>13.4</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>51.72</v>
+      </c>
+      <c r="R14" s="1">
+        <v>16.8</v>
+      </c>
+      <c r="S14" s="1">
+        <v>64.849999999999994</v>
+      </c>
+      <c r="T14" s="1">
+        <v>20.2</v>
+      </c>
+      <c r="U14" s="1">
+        <v>77.97</v>
+      </c>
+      <c r="V14" s="1">
+        <v>23.6</v>
+      </c>
+      <c r="W14" s="1">
+        <v>91.1</v>
+      </c>
+      <c r="X14" s="1">
+        <v>27</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>104.2</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>13</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>6.49</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>19.260000000000002</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>6.18</v>
+      </c>
+      <c r="AD14" s="1">
         <v>5.03</v>
       </c>
-      <c r="J14" t="s">
-        <v>229</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="L14" t="s">
-        <v>231</v>
-      </c>
-      <c r="M14" t="s">
-        <v>232</v>
-      </c>
-      <c r="N14" s="1">
-        <v>12</v>
-      </c>
-      <c r="O14" s="1">
-        <v>205.2</v>
-      </c>
-      <c r="P14" s="1">
-        <v>14.2</v>
-      </c>
-      <c r="Q14" s="1">
-        <v>242.8</v>
-      </c>
-      <c r="R14" s="1">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="S14" s="1">
-        <v>280.39999999999998</v>
-      </c>
-      <c r="T14" s="1">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="U14" s="1">
-        <v>318.10000000000002</v>
-      </c>
-      <c r="V14" s="1">
-        <v>20.8</v>
-      </c>
-      <c r="W14" s="1">
-        <v>355.7</v>
-      </c>
-      <c r="X14" s="1">
-        <v>23</v>
-      </c>
-      <c r="Y14" s="1">
-        <v>393.3</v>
-      </c>
-      <c r="Z14" s="1">
-        <v>49.84</v>
-      </c>
-      <c r="AA14" s="1">
-        <v>31.99</v>
-      </c>
-      <c r="AB14" s="1">
-        <v>52.13</v>
-      </c>
-      <c r="AC14" s="1">
-        <v>32.97</v>
-      </c>
-      <c r="AD14" s="1">
-        <v>26.28</v>
-      </c>
       <c r="AE14" s="1">
-        <v>1.23</v>
+        <v>1.39</v>
       </c>
       <c r="AF14" s="1">
-        <v>97.03</v>
+        <v>105.02</v>
       </c>
       <c r="AG14" s="1">
-        <v>12.18</v>
+        <v>-7.36</v>
       </c>
       <c r="AH14" s="1">
-        <v>18.04</v>
+        <v>-9.52</v>
       </c>
       <c r="AI14" s="1">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AJ14" s="1" t="s">
-        <v>135</v>
+        <v>83</v>
       </c>
       <c r="AK14" s="1" t="s">
-        <v>136</v>
+        <v>85</v>
       </c>
       <c r="AL14" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="AM14" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="AN14" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>2520</v>
+        <v>2324</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="D15" s="7">
-        <v>5541701000</v>
+        <v>44071466250</v>
       </c>
       <c r="E15" s="1">
-        <v>19791123</v>
+        <v>19840601</v>
       </c>
       <c r="F15" s="1">
-        <v>19931027</v>
+        <v>19920218</v>
       </c>
       <c r="G15">
-        <v>9.1199999999999992</v>
+        <v>6.49</v>
       </c>
       <c r="H15">
-        <v>4.3899999999999997</v>
+        <v>7.66</v>
       </c>
       <c r="I15">
-        <v>1.23</v>
+        <v>0.99</v>
       </c>
       <c r="J15" t="s">
-        <v>233</v>
-      </c>
-      <c r="K15" t="s">
-        <v>234</v>
+        <v>209</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="L15" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="M15" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="N15" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O15" s="1">
-        <v>59.57</v>
+        <v>28.98</v>
       </c>
       <c r="P15" s="1">
-        <v>8.4</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="Q15" s="1">
-        <v>71.48</v>
+        <v>32.840000000000003</v>
       </c>
       <c r="R15" s="1">
-        <v>9.8000000000000007</v>
+        <v>11.4</v>
       </c>
       <c r="S15" s="1">
-        <v>83.4</v>
+        <v>36.71</v>
       </c>
       <c r="T15" s="1">
-        <v>11.2</v>
+        <v>12.6</v>
       </c>
       <c r="U15" s="1">
-        <v>95.31</v>
+        <v>40.57</v>
       </c>
       <c r="V15" s="1">
-        <v>12.6</v>
+        <v>13.8</v>
       </c>
       <c r="W15" s="1">
-        <v>107.2</v>
+        <v>44.44</v>
       </c>
       <c r="X15" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Y15" s="1">
-        <v>119.1</v>
+        <v>48.3</v>
       </c>
       <c r="Z15" s="1">
-        <v>26.73</v>
+        <v>3.35</v>
       </c>
       <c r="AA15" s="1">
-        <v>19.5</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="AB15" s="1">
-        <v>21.09</v>
+        <v>11.72</v>
       </c>
       <c r="AC15" s="1">
-        <v>18.899999999999999</v>
+        <v>1.49</v>
       </c>
       <c r="AD15" s="1">
-        <v>15.12</v>
+        <v>1.18</v>
       </c>
       <c r="AE15" s="1">
-        <v>0.46</v>
+        <v>2.33</v>
       </c>
       <c r="AF15" s="1">
-        <v>103.17</v>
+        <v>73.150000000000006</v>
       </c>
       <c r="AG15" s="1">
-        <v>10.72</v>
+        <v>-5.67</v>
       </c>
       <c r="AH15" s="1">
-        <v>10.69</v>
+        <v>-7.8</v>
       </c>
       <c r="AI15" s="1">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="AJ15" s="1" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="AK15" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="AL15" s="1" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="AM15" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AN15" s="1" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>2546</v>
+        <v>2347</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D16" s="7">
-        <v>1060356600</v>
+        <v>16679469680</v>
       </c>
       <c r="E16" s="1">
-        <v>19820413</v>
+        <v>19880912</v>
       </c>
       <c r="F16" s="1">
-        <v>20000911</v>
+        <v>19951213</v>
       </c>
       <c r="G16">
-        <v>7.25</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="H16">
-        <v>7.06</v>
+        <v>6.62</v>
       </c>
       <c r="I16">
-        <v>1.57</v>
+        <v>1.87</v>
       </c>
       <c r="J16" t="s">
-        <v>237</v>
-      </c>
-      <c r="K16" t="s">
-        <v>238</v>
+        <v>213</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>214</v>
       </c>
       <c r="L16" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="M16" t="s">
-        <v>159</v>
+        <v>216</v>
       </c>
       <c r="N16" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O16" s="1">
-        <v>49.21</v>
+        <v>90.18</v>
       </c>
       <c r="P16" s="1">
-        <v>8</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="Q16" s="1">
-        <v>56.24</v>
+        <v>102.2</v>
       </c>
       <c r="R16" s="1">
-        <v>9</v>
+        <v>11.4</v>
       </c>
       <c r="S16" s="1">
-        <v>63.27</v>
+        <v>114.2</v>
       </c>
       <c r="T16" s="1">
-        <v>10</v>
+        <v>12.6</v>
       </c>
       <c r="U16" s="1">
-        <v>70.3</v>
+        <v>126.3</v>
       </c>
       <c r="V16" s="1">
-        <v>11</v>
+        <v>13.8</v>
       </c>
       <c r="W16" s="1">
-        <v>77.33</v>
+        <v>138.30000000000001</v>
       </c>
       <c r="X16" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Y16" s="1">
-        <v>84.36</v>
+        <v>150.30000000000001</v>
       </c>
       <c r="Z16" s="1">
-        <v>11.23</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="AA16" s="1">
-        <v>8.3800000000000008</v>
+        <v>2.29</v>
       </c>
       <c r="AB16" s="1">
-        <v>23.02</v>
+        <v>32.94</v>
       </c>
       <c r="AC16" s="1">
-        <v>9.17</v>
+        <v>6.79</v>
       </c>
       <c r="AD16" s="1">
-        <v>7.35</v>
+        <v>5.12</v>
       </c>
       <c r="AE16" s="1">
-        <v>1.07</v>
+        <v>2.25</v>
       </c>
       <c r="AF16" s="1">
-        <v>91.38</v>
+        <v>33.729999999999997</v>
       </c>
       <c r="AG16" s="1">
-        <v>5.88</v>
+        <v>3.64</v>
       </c>
       <c r="AH16" s="1">
-        <v>5.85</v>
+        <v>0.68</v>
       </c>
       <c r="AI16" s="1">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ16" s="1" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="AK16" s="1" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="AL16" s="1" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="AM16" s="1" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="AN16" s="1" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>2881</v>
+        <v>2352</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="7">
+        <v>19667819580</v>
+      </c>
+      <c r="E17" s="1">
+        <v>19840421</v>
+      </c>
+      <c r="F17" s="1">
+        <v>19960722</v>
+      </c>
+      <c r="G17">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="H17">
+        <v>6.69</v>
+      </c>
+      <c r="I17">
+        <v>1.68</v>
+      </c>
+      <c r="J17" t="s">
+        <v>217</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="L17" t="s">
+        <v>219</v>
+      </c>
+      <c r="M17" t="s">
+        <v>220</v>
+      </c>
+      <c r="N17" s="1">
+        <v>8</v>
+      </c>
+      <c r="O17" s="1">
+        <v>36.96</v>
+      </c>
+      <c r="P17" s="1">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>47.12</v>
+      </c>
+      <c r="R17" s="1">
+        <v>12.4</v>
+      </c>
+      <c r="S17" s="1">
+        <v>57.29</v>
+      </c>
+      <c r="T17" s="1">
+        <v>14.6</v>
+      </c>
+      <c r="U17" s="1">
+        <v>67.45</v>
+      </c>
+      <c r="V17" s="1">
+        <v>16.8</v>
+      </c>
+      <c r="W17" s="1">
+        <v>77.62</v>
+      </c>
+      <c r="X17" s="1">
         <v>19</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="7">
-        <v>134049543940</v>
-      </c>
-      <c r="E17" s="1">
-        <v>20011219</v>
-      </c>
-      <c r="F17" s="1">
-        <v>20011219</v>
-      </c>
-      <c r="G17">
-        <v>3.95</v>
-      </c>
-      <c r="H17">
-        <v>6.25</v>
-      </c>
-      <c r="I17">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="J17" t="s">
-        <v>240</v>
-      </c>
-      <c r="K17" t="s">
-        <v>241</v>
-      </c>
-      <c r="L17" t="s">
-        <v>242</v>
-      </c>
-      <c r="M17" t="s">
-        <v>243</v>
-      </c>
-      <c r="N17" s="1">
-        <v>7</v>
-      </c>
-      <c r="O17" s="1">
-        <v>92.68</v>
-      </c>
-      <c r="P17" s="1">
-        <v>7.8</v>
-      </c>
-      <c r="Q17" s="1">
-        <v>103.3</v>
-      </c>
-      <c r="R17" s="1">
-        <v>8.6</v>
-      </c>
-      <c r="S17" s="1">
-        <v>113.9</v>
-      </c>
-      <c r="T17" s="1">
-        <v>9.4</v>
-      </c>
-      <c r="U17" s="1">
-        <v>124.5</v>
-      </c>
-      <c r="V17" s="1">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="W17" s="1">
-        <v>135</v>
-      </c>
-      <c r="X17" s="1">
-        <v>11</v>
-      </c>
       <c r="Y17" s="1">
-        <v>145.6</v>
+        <v>87.78</v>
       </c>
       <c r="Z17" s="1">
-        <v>0</v>
+        <v>14.67</v>
       </c>
       <c r="AA17" s="1">
-        <v>0</v>
+        <v>3.42</v>
       </c>
       <c r="AB17" s="1">
-        <v>21.39</v>
+        <v>20.170000000000002</v>
       </c>
       <c r="AC17" s="1">
-        <v>39.32</v>
+        <v>6.69</v>
       </c>
       <c r="AD17" s="1">
-        <v>34.96</v>
+        <v>5.45</v>
       </c>
       <c r="AE17" s="1">
-        <v>0.05</v>
+        <v>1.24</v>
       </c>
       <c r="AF17" s="1">
-        <v>0</v>
+        <v>51.12</v>
       </c>
       <c r="AG17" s="1">
-        <v>5.0999999999999996</v>
+        <v>-1.7</v>
       </c>
       <c r="AH17" s="1">
-        <v>4.46</v>
+        <v>-5.0199999999999996</v>
       </c>
       <c r="AI17" s="1">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="AJ17" s="1" t="s">
-        <v>141</v>
+        <v>93</v>
       </c>
       <c r="AK17" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="AL17" s="1" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="AM17" s="1" t="s">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="AN17" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>3005</v>
+        <v>2385</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D18" s="7">
-        <v>5954614000</v>
+        <v>7452927490</v>
       </c>
       <c r="E18" s="1">
-        <v>19891005</v>
+        <v>19830222</v>
       </c>
       <c r="F18" s="1">
-        <v>20020225</v>
+        <v>19990105</v>
       </c>
       <c r="G18">
         <v>6.47</v>
       </c>
       <c r="H18">
-        <v>7.64</v>
+        <v>10.48</v>
       </c>
       <c r="I18">
-        <v>1.93</v>
+        <v>2.13</v>
       </c>
       <c r="J18" t="s">
-        <v>244</v>
-      </c>
-      <c r="K18" t="s">
-        <v>245</v>
+        <v>221</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>222</v>
       </c>
       <c r="L18" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="M18" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="N18" s="1">
         <v>10</v>
       </c>
       <c r="O18" s="1">
-        <v>73</v>
+        <v>81.2</v>
       </c>
       <c r="P18" s="1">
-        <v>11.4</v>
+        <v>11</v>
       </c>
       <c r="Q18" s="1">
-        <v>83.22</v>
+        <v>89.32</v>
       </c>
       <c r="R18" s="1">
-        <v>12.8</v>
+        <v>12</v>
       </c>
       <c r="S18" s="1">
-        <v>93.44</v>
+        <v>97.44</v>
       </c>
       <c r="T18" s="1">
-        <v>14.2</v>
+        <v>13</v>
       </c>
       <c r="U18" s="1">
-        <v>103.7</v>
+        <v>105.6</v>
       </c>
       <c r="V18" s="1">
-        <v>15.6</v>
+        <v>14</v>
       </c>
       <c r="W18" s="1">
-        <v>113.9</v>
+        <v>113.7</v>
       </c>
       <c r="X18" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y18" s="1">
-        <v>124.1</v>
+        <v>121.8</v>
       </c>
       <c r="Z18" s="1">
-        <v>24.89</v>
+        <v>17.55</v>
       </c>
       <c r="AA18" s="1">
-        <v>8.01</v>
+        <v>7.9</v>
       </c>
       <c r="AB18" s="1">
-        <v>25.54</v>
+        <v>22.24</v>
       </c>
       <c r="AC18" s="1">
-        <v>20.46</v>
+        <v>8.7799999999999994</v>
       </c>
       <c r="AD18" s="1">
-        <v>15.77</v>
+        <v>7.09</v>
       </c>
       <c r="AE18" s="1">
-        <v>0.86</v>
+        <v>1.32</v>
       </c>
       <c r="AF18" s="1">
-        <v>39.15</v>
+        <v>89.98</v>
       </c>
       <c r="AG18" s="1">
-        <v>0.9</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="AH18" s="1">
-        <v>4.0599999999999996</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="AI18" s="1">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="AJ18" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="AK18" s="1" t="s">
-        <v>148</v>
+        <v>77</v>
       </c>
       <c r="AL18" s="1" t="s">
-        <v>124</v>
+        <v>166</v>
       </c>
       <c r="AM18" s="1" t="s">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c r="AN18" s="1" t="s">
-        <v>124</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>3044</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>69</v>
+      <c r="A19">
+        <v>2387</v>
+      </c>
+      <c r="B19" t="s">
+        <v>394</v>
+      </c>
+      <c r="C19" t="s">
+        <v>395</v>
       </c>
       <c r="D19" s="7">
-        <v>5256058980</v>
-      </c>
-      <c r="E19" s="1">
-        <v>19911216</v>
-      </c>
-      <c r="F19" s="1">
-        <v>20020826</v>
+        <v>1952510510</v>
+      </c>
+      <c r="E19">
+        <v>19910722</v>
+      </c>
+      <c r="F19">
+        <v>19990125</v>
       </c>
       <c r="G19">
-        <v>6</v>
+        <v>4.26</v>
       </c>
       <c r="H19">
-        <v>10.44</v>
+        <v>7.36</v>
       </c>
       <c r="I19">
-        <v>1.76</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="J19" t="s">
-        <v>248</v>
+        <v>396</v>
       </c>
       <c r="K19" t="s">
-        <v>249</v>
+        <v>397</v>
       </c>
       <c r="L19" t="s">
-        <v>250</v>
+        <v>398</v>
       </c>
       <c r="M19" t="s">
-        <v>251</v>
-      </c>
-      <c r="N19" s="1">
-        <v>8</v>
-      </c>
-      <c r="O19" s="1">
-        <v>93.92</v>
-      </c>
-      <c r="P19" s="1">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="Q19" s="1">
-        <v>108</v>
-      </c>
-      <c r="R19" s="1">
-        <v>10.4</v>
-      </c>
-      <c r="S19" s="1">
-        <v>122.1</v>
-      </c>
-      <c r="T19" s="1">
-        <v>11.6</v>
-      </c>
-      <c r="U19" s="1">
-        <v>136.19999999999999</v>
-      </c>
-      <c r="V19" s="1">
-        <v>12.8</v>
-      </c>
-      <c r="W19" s="1">
-        <v>150.30000000000001</v>
-      </c>
-      <c r="X19" s="1">
-        <v>14</v>
-      </c>
-      <c r="Y19" s="1">
-        <v>164.4</v>
-      </c>
-      <c r="Z19" s="1">
-        <v>18.75</v>
-      </c>
-      <c r="AA19" s="1">
-        <v>10.47</v>
-      </c>
-      <c r="AB19" s="1">
-        <v>15.91</v>
-      </c>
-      <c r="AC19" s="1">
-        <v>11.99</v>
-      </c>
-      <c r="AD19" s="1">
-        <v>9.36</v>
-      </c>
-      <c r="AE19" s="1">
-        <v>0.78</v>
-      </c>
-      <c r="AF19" s="1">
-        <v>87.32</v>
-      </c>
-      <c r="AG19" s="1">
-        <v>7.58</v>
-      </c>
-      <c r="AH19" s="1">
-        <v>-10.16</v>
-      </c>
-      <c r="AI19" s="1">
-        <v>49</v>
-      </c>
-      <c r="AJ19" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AK19" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AL19" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AM19" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AN19" s="1" t="s">
-        <v>79</v>
+        <v>399</v>
+      </c>
+      <c r="N19">
+        <v>10</v>
+      </c>
+      <c r="O19">
+        <v>63.9</v>
+      </c>
+      <c r="P19">
+        <v>12.6</v>
+      </c>
+      <c r="Q19">
+        <v>80.510000000000005</v>
+      </c>
+      <c r="R19">
+        <v>15.2</v>
+      </c>
+      <c r="S19">
+        <v>97.13</v>
+      </c>
+      <c r="T19">
+        <v>17.8</v>
+      </c>
+      <c r="U19">
+        <v>113.7</v>
+      </c>
+      <c r="V19">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="W19">
+        <v>130.4</v>
+      </c>
+      <c r="X19">
+        <v>23</v>
+      </c>
+      <c r="Y19">
+        <v>147</v>
+      </c>
+      <c r="Z19">
+        <v>12.93</v>
+      </c>
+      <c r="AA19">
+        <v>7.05</v>
+      </c>
+      <c r="AB19">
+        <v>12.98</v>
+      </c>
+      <c r="AC19">
+        <v>6.67</v>
+      </c>
+      <c r="AD19">
+        <v>4.84</v>
+      </c>
+      <c r="AE19">
+        <v>1.06</v>
+      </c>
+      <c r="AF19">
+        <v>105.7</v>
+      </c>
+      <c r="AG19">
+        <v>4.08</v>
+      </c>
+      <c r="AH19">
+        <v>-3.91</v>
+      </c>
+      <c r="AI19">
+        <v>40</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>400</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>120</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>401</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>402</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>403</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>404</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="20" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>3209</v>
+        <v>2417</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D20" s="7">
-        <v>2005321840</v>
+        <v>1543138640</v>
       </c>
       <c r="E20" s="1">
-        <v>19910415</v>
+        <v>19900117</v>
       </c>
       <c r="F20" s="1">
-        <v>20081126</v>
+        <v>20000911</v>
       </c>
       <c r="G20">
-        <v>6.9</v>
+        <v>5.38</v>
       </c>
       <c r="H20">
-        <v>8.1199999999999992</v>
+        <v>13.76</v>
       </c>
       <c r="I20">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="J20" t="s">
-        <v>252</v>
-      </c>
-      <c r="K20" t="s">
-        <v>253</v>
+        <v>225</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>226</v>
       </c>
       <c r="L20" t="s">
-        <v>254</v>
+        <v>227</v>
       </c>
       <c r="M20" t="s">
-        <v>255</v>
+        <v>228</v>
       </c>
       <c r="N20" s="1">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="O20" s="1">
-        <v>32.04</v>
+        <v>28.34</v>
       </c>
       <c r="P20" s="1">
-        <v>10</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="Q20" s="1">
-        <v>35.6</v>
+        <v>35.75</v>
       </c>
       <c r="R20" s="1">
-        <v>11</v>
+        <v>19.8</v>
       </c>
       <c r="S20" s="1">
-        <v>39.159999999999997</v>
+        <v>43.16</v>
       </c>
       <c r="T20" s="1">
-        <v>12</v>
+        <v>23.2</v>
       </c>
       <c r="U20" s="1">
-        <v>42.72</v>
+        <v>50.58</v>
       </c>
       <c r="V20" s="1">
-        <v>13</v>
+        <v>26.6</v>
       </c>
       <c r="W20" s="1">
-        <v>46.28</v>
+        <v>57.99</v>
       </c>
       <c r="X20" s="1">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="Y20" s="1">
-        <v>49.84</v>
+        <v>65.400000000000006</v>
       </c>
       <c r="Z20" s="1">
-        <v>5.31</v>
+        <v>48.85</v>
       </c>
       <c r="AA20" s="1">
-        <v>2.25</v>
+        <v>12.06</v>
       </c>
       <c r="AB20" s="1">
-        <v>22.5</v>
+        <v>9.5399999999999991</v>
       </c>
       <c r="AC20" s="1">
-        <v>2.11</v>
+        <v>12.15</v>
       </c>
       <c r="AD20" s="1">
-        <v>1.63</v>
+        <v>9.57</v>
       </c>
       <c r="AE20" s="1">
-        <v>3.25</v>
+        <v>0.67</v>
       </c>
       <c r="AF20" s="1">
-        <v>106.64</v>
+        <v>99.26</v>
       </c>
       <c r="AG20" s="1">
-        <v>0.7</v>
+        <v>0.98</v>
       </c>
       <c r="AH20" s="1">
-        <v>-1.1599999999999999</v>
+        <v>-0.77</v>
       </c>
       <c r="AI20" s="1">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="AJ20" s="1" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="AK20" s="1" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AL20" s="1" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="AM20" s="1" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="AN20" s="1" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>3702</v>
+        <v>2458</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>174</v>
+        <v>25</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D21" s="1">
-        <v>18790568330</v>
+        <v>26</v>
+      </c>
+      <c r="D21" s="7">
+        <v>3038803920</v>
       </c>
       <c r="E21" s="1">
-        <v>20051109</v>
+        <v>19940505</v>
       </c>
       <c r="F21" s="1">
-        <v>20051109</v>
+        <v>20010917</v>
       </c>
       <c r="G21">
-        <v>5.96</v>
+        <v>5.36</v>
       </c>
       <c r="H21">
-        <v>8.98</v>
+        <v>9.6199999999999992</v>
       </c>
       <c r="I21">
-        <v>1.44</v>
+        <v>5.03</v>
       </c>
       <c r="J21" t="s">
-        <v>256</v>
-      </c>
-      <c r="K21" t="s">
-        <v>257</v>
+        <v>229</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>230</v>
       </c>
       <c r="L21" t="s">
-        <v>258</v>
+        <v>231</v>
       </c>
       <c r="M21" t="s">
-        <v>259</v>
+        <v>232</v>
       </c>
       <c r="N21" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O21" s="1">
-        <v>55.71</v>
+        <v>205.2</v>
       </c>
       <c r="P21" s="1">
-        <v>9.8000000000000007</v>
+        <v>14.2</v>
       </c>
       <c r="Q21" s="1">
-        <v>60.66</v>
+        <v>242.8</v>
       </c>
       <c r="R21" s="1">
-        <v>10.6</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="S21" s="1">
-        <v>65.61</v>
+        <v>280.39999999999998</v>
       </c>
       <c r="T21" s="1">
-        <v>11.4</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="U21" s="1">
-        <v>70.569999999999993</v>
+        <v>318.10000000000002</v>
       </c>
       <c r="V21" s="1">
-        <v>12.2</v>
+        <v>20.8</v>
       </c>
       <c r="W21" s="1">
-        <v>75.52</v>
+        <v>355.7</v>
       </c>
       <c r="X21" s="1">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="Y21" s="1">
-        <v>80.47</v>
+        <v>393.3</v>
       </c>
       <c r="Z21" s="1">
-        <v>3.89</v>
+        <v>49.84</v>
       </c>
       <c r="AA21" s="1">
-        <v>1.82</v>
+        <v>31.99</v>
       </c>
       <c r="AB21" s="1">
-        <v>17.649999999999999</v>
+        <v>52.13</v>
       </c>
       <c r="AC21" s="1">
-        <v>1.87</v>
+        <v>32.97</v>
       </c>
       <c r="AD21" s="1">
-        <v>1.54</v>
+        <v>26.28</v>
       </c>
       <c r="AE21" s="1">
-        <v>2.9</v>
+        <v>1.23</v>
       </c>
       <c r="AF21" s="1">
-        <v>97.33</v>
+        <v>97.03</v>
       </c>
       <c r="AG21" s="1">
-        <v>-16.23</v>
+        <v>12.18</v>
       </c>
       <c r="AH21" s="1">
-        <v>-16.72</v>
+        <v>18.04</v>
       </c>
       <c r="AI21" s="1">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="AJ21" s="1" t="s">
-        <v>176</v>
+        <v>135</v>
       </c>
       <c r="AK21" s="1" t="s">
-        <v>177</v>
+        <v>136</v>
       </c>
       <c r="AL21" s="1" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="AM21" s="1" t="s">
-        <v>177</v>
+        <v>138</v>
       </c>
       <c r="AN21" s="1" t="s">
-        <v>178</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>3706</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>32</v>
+      <c r="A22">
+        <v>2467</v>
+      </c>
+      <c r="B22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C22" t="s">
+        <v>182</v>
       </c>
       <c r="D22" s="7">
-        <v>12065567890</v>
-      </c>
-      <c r="E22" s="1">
-        <v>20130912</v>
-      </c>
-      <c r="F22" s="1">
-        <v>20130912</v>
+        <v>1521896590</v>
+      </c>
+      <c r="E22">
+        <v>19780418</v>
+      </c>
+      <c r="F22">
+        <v>20010917</v>
       </c>
       <c r="G22">
-        <v>2.9</v>
+        <v>5.19</v>
       </c>
       <c r="H22">
-        <v>3.34</v>
+        <v>12.52</v>
       </c>
       <c r="I22">
-        <v>0.83</v>
+        <v>3.05</v>
       </c>
       <c r="J22" t="s">
-        <v>260</v>
+        <v>284</v>
       </c>
       <c r="K22" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="L22" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="M22" t="s">
-        <v>263</v>
-      </c>
-      <c r="N22" s="1">
-        <v>8</v>
-      </c>
-      <c r="O22" s="1">
-        <v>82.56</v>
-      </c>
-      <c r="P22" s="1">
-        <v>9.4</v>
-      </c>
-      <c r="Q22" s="1">
-        <v>97.01</v>
-      </c>
-      <c r="R22" s="1">
-        <v>10.8</v>
-      </c>
-      <c r="S22" s="1">
-        <v>111.5</v>
-      </c>
-      <c r="T22" s="1">
-        <v>12.2</v>
-      </c>
-      <c r="U22" s="1">
-        <v>125.9</v>
-      </c>
-      <c r="V22" s="1">
-        <v>13.6</v>
-      </c>
-      <c r="W22" s="1">
-        <v>140.4</v>
-      </c>
-      <c r="X22" s="1">
-        <v>15</v>
-      </c>
-      <c r="Y22" s="1">
-        <v>154.80000000000001</v>
-      </c>
-      <c r="Z22" s="1">
-        <v>9.75</v>
-      </c>
-      <c r="AA22" s="1">
-        <v>-0.09</v>
-      </c>
-      <c r="AB22" s="1">
-        <v>33</v>
-      </c>
-      <c r="AC22" s="1">
-        <v>55.14</v>
-      </c>
-      <c r="AD22" s="1">
-        <v>34.869999999999997</v>
-      </c>
-      <c r="AE22" s="1">
-        <v>0.68</v>
-      </c>
-      <c r="AF22" s="1">
-        <v>-0.16</v>
-      </c>
-      <c r="AG22" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="AH22" s="1">
-        <v>1.44</v>
-      </c>
-      <c r="AI22" s="1">
+        <v>287</v>
+      </c>
+      <c r="N22">
+        <v>11</v>
+      </c>
+      <c r="O22">
+        <v>45.76</v>
+      </c>
+      <c r="P22">
+        <v>12.8</v>
+      </c>
+      <c r="Q22">
+        <v>53.25</v>
+      </c>
+      <c r="R22">
+        <v>14.6</v>
+      </c>
+      <c r="S22">
+        <v>60.74</v>
+      </c>
+      <c r="T22">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="U22">
+        <v>68.22</v>
+      </c>
+      <c r="V22">
+        <v>18.2</v>
+      </c>
+      <c r="W22">
+        <v>75.709999999999994</v>
+      </c>
+      <c r="X22">
+        <v>20</v>
+      </c>
+      <c r="Y22">
+        <v>83.2</v>
+      </c>
+      <c r="Z22">
+        <v>34.07</v>
+      </c>
+      <c r="AA22">
+        <v>12.91</v>
+      </c>
+      <c r="AB22">
+        <v>26.43</v>
+      </c>
+      <c r="AC22">
+        <v>15.84</v>
+      </c>
+      <c r="AD22">
+        <v>12.85</v>
+      </c>
+      <c r="AE22">
+        <v>0.8</v>
+      </c>
+      <c r="AF22">
+        <v>81.5</v>
+      </c>
+      <c r="AG22">
+        <v>2.44</v>
+      </c>
+      <c r="AH22">
+        <v>-2.57</v>
+      </c>
+      <c r="AI22">
         <v>57</v>
       </c>
-      <c r="AJ22" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AK22" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AL22" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AM22" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AN22" s="1" t="s">
+      <c r="AJ22" t="s">
+        <v>183</v>
+      </c>
+      <c r="AK22" t="s">
         <v>130</v>
       </c>
+      <c r="AL22" t="s">
+        <v>130</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO22"/>
+      <c r="AP22"/>
+      <c r="AQ22"/>
+      <c r="AR22"/>
     </row>
     <row r="23" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>5515</v>
+        <v>2520</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" s="7">
+        <v>5541701000</v>
+      </c>
+      <c r="E23" s="1">
+        <v>19791123</v>
+      </c>
+      <c r="F23" s="1">
+        <v>19931027</v>
+      </c>
+      <c r="G23">
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="H23">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="I23">
+        <v>1.23</v>
+      </c>
+      <c r="J23" t="s">
+        <v>233</v>
+      </c>
+      <c r="K23" t="s">
+        <v>234</v>
+      </c>
+      <c r="L23" t="s">
+        <v>235</v>
+      </c>
+      <c r="M23" t="s">
+        <v>236</v>
+      </c>
+      <c r="N23" s="1">
+        <v>7</v>
+      </c>
+      <c r="O23" s="1">
+        <v>59.57</v>
+      </c>
+      <c r="P23" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>71.48</v>
+      </c>
+      <c r="R23" s="1">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="S23" s="1">
+        <v>83.4</v>
+      </c>
+      <c r="T23" s="1">
+        <v>11.2</v>
+      </c>
+      <c r="U23" s="1">
+        <v>95.31</v>
+      </c>
+      <c r="V23" s="1">
+        <v>12.6</v>
+      </c>
+      <c r="W23" s="1">
+        <v>107.2</v>
+      </c>
+      <c r="X23" s="1">
         <v>14</v>
       </c>
-      <c r="D23" s="7">
-        <v>2574401050</v>
-      </c>
-      <c r="E23" s="1">
-        <v>19601121</v>
-      </c>
-      <c r="F23" s="1">
-        <v>20031006</v>
-      </c>
-      <c r="G23">
-        <v>5.71</v>
-      </c>
-      <c r="H23">
-        <v>7.73</v>
-      </c>
-      <c r="I23">
-        <v>0.77</v>
-      </c>
-      <c r="J23" t="s">
-        <v>264</v>
-      </c>
-      <c r="K23" t="s">
-        <v>265</v>
-      </c>
-      <c r="L23" t="s">
-        <v>266</v>
-      </c>
-      <c r="M23" t="s">
-        <v>267</v>
-      </c>
-      <c r="N23" s="1">
-        <v>11</v>
-      </c>
-      <c r="O23" s="1">
-        <v>19.8</v>
-      </c>
-      <c r="P23" s="1">
-        <v>12.4</v>
-      </c>
-      <c r="Q23" s="1">
-        <v>22.32</v>
-      </c>
-      <c r="R23" s="1">
-        <v>13.8</v>
-      </c>
-      <c r="S23" s="1">
-        <v>24.84</v>
-      </c>
-      <c r="T23" s="1">
-        <v>15.2</v>
-      </c>
-      <c r="U23" s="1">
-        <v>27.36</v>
-      </c>
-      <c r="V23" s="1">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="W23" s="1">
-        <v>29.88</v>
-      </c>
-      <c r="X23" s="1">
-        <v>18</v>
-      </c>
       <c r="Y23" s="1">
-        <v>32.4</v>
+        <v>119.1</v>
       </c>
       <c r="Z23" s="1">
-        <v>13.13</v>
+        <v>26.73</v>
       </c>
       <c r="AA23" s="1">
-        <v>7.24</v>
+        <v>19.5</v>
       </c>
       <c r="AB23" s="1">
-        <v>10.87</v>
+        <v>21.09</v>
       </c>
       <c r="AC23" s="1">
-        <v>12.76</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="AD23" s="1">
-        <v>9.4700000000000006</v>
+        <v>15.12</v>
       </c>
       <c r="AE23" s="1">
-        <v>0.61</v>
+        <v>0.46</v>
       </c>
       <c r="AF23" s="1">
-        <v>56.74</v>
+        <v>103.17</v>
       </c>
       <c r="AG23" s="1">
-        <v>1.3</v>
+        <v>10.72</v>
       </c>
       <c r="AH23" s="1">
-        <v>2.4500000000000002</v>
+        <v>10.69</v>
       </c>
       <c r="AI23" s="1">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="AJ23" s="1" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="AK23" s="1" t="s">
-        <v>146</v>
+        <v>93</v>
       </c>
       <c r="AL23" s="1" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="AM23" s="1" t="s">
         <v>85</v>
       </c>
       <c r="AN23" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>6257</v>
+        <v>2546</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>114</v>
+        <v>17</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>115</v>
+        <v>18</v>
       </c>
       <c r="D24" s="7">
-        <v>4444791420</v>
+        <v>1060356600</v>
       </c>
       <c r="E24" s="1">
-        <v>19881215</v>
+        <v>19820413</v>
       </c>
       <c r="F24" s="1">
-        <v>20030825</v>
+        <v>20000911</v>
       </c>
       <c r="G24">
-        <v>4.84</v>
+        <v>7.25</v>
       </c>
       <c r="H24">
-        <v>10.33</v>
+        <v>7.06</v>
       </c>
       <c r="I24">
-        <v>1.86</v>
+        <v>1.57</v>
       </c>
       <c r="J24" t="s">
-        <v>268</v>
+        <v>237</v>
       </c>
       <c r="K24" t="s">
-        <v>269</v>
+        <v>238</v>
       </c>
       <c r="L24" t="s">
-        <v>270</v>
+        <v>239</v>
       </c>
       <c r="M24" t="s">
-        <v>271</v>
+        <v>159</v>
       </c>
       <c r="N24" s="1">
+        <v>7</v>
+      </c>
+      <c r="O24" s="1">
+        <v>49.21</v>
+      </c>
+      <c r="P24" s="1">
+        <v>8</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>56.24</v>
+      </c>
+      <c r="R24" s="1">
         <v>9</v>
       </c>
-      <c r="O24" s="1">
-        <v>52.47</v>
-      </c>
-      <c r="P24" s="1">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="Q24" s="1">
-        <v>59.47</v>
-      </c>
-      <c r="R24" s="1">
-        <v>11.4</v>
-      </c>
       <c r="S24" s="1">
-        <v>66.459999999999994</v>
+        <v>63.27</v>
       </c>
       <c r="T24" s="1">
-        <v>12.6</v>
+        <v>10</v>
       </c>
       <c r="U24" s="1">
-        <v>73.459999999999994</v>
+        <v>70.3</v>
       </c>
       <c r="V24" s="1">
-        <v>13.8</v>
+        <v>11</v>
       </c>
       <c r="W24" s="1">
-        <v>80.45</v>
+        <v>77.33</v>
       </c>
       <c r="X24" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Y24" s="1">
-        <v>87.45</v>
+        <v>84.36</v>
       </c>
       <c r="Z24" s="1">
-        <v>30.03</v>
+        <v>11.23</v>
       </c>
       <c r="AA24" s="1">
-        <v>21.36</v>
+        <v>8.3800000000000008</v>
       </c>
       <c r="AB24" s="1">
-        <v>19.16</v>
+        <v>23.02</v>
       </c>
       <c r="AC24" s="1">
-        <v>22.37</v>
+        <v>9.17</v>
       </c>
       <c r="AD24" s="1">
-        <v>18.329999999999998</v>
+        <v>7.35</v>
       </c>
       <c r="AE24" s="1">
-        <v>0.51</v>
+        <v>1.07</v>
       </c>
       <c r="AF24" s="1">
-        <v>95.49</v>
+        <v>91.38</v>
       </c>
       <c r="AG24" s="1">
-        <v>17.23</v>
+        <v>5.88</v>
       </c>
       <c r="AH24" s="1">
-        <v>-2.14</v>
+        <v>5.85</v>
       </c>
       <c r="AI24" s="1">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="AJ24" s="1" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="AK24" s="1" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="AL24" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AM24" s="1" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="AN24" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>8112</v>
+        <v>2881</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D25" s="7">
-        <v>4284964730</v>
+        <v>134049543940</v>
       </c>
       <c r="E25" s="1">
-        <v>19870305</v>
+        <v>20011219</v>
       </c>
       <c r="F25" s="1">
-        <v>20071231</v>
+        <v>20011219</v>
       </c>
       <c r="G25">
-        <v>6.03</v>
+        <v>3.95</v>
       </c>
       <c r="H25">
-        <v>7.85</v>
+        <v>6.25</v>
       </c>
       <c r="I25">
-        <v>2.02</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="J25" t="s">
-        <v>272</v>
+        <v>240</v>
       </c>
       <c r="K25" t="s">
-        <v>273</v>
+        <v>241</v>
       </c>
       <c r="L25" t="s">
-        <v>274</v>
+        <v>242</v>
       </c>
       <c r="M25" t="s">
-        <v>275</v>
+        <v>243</v>
       </c>
       <c r="N25" s="1">
         <v>7</v>
       </c>
       <c r="O25" s="1">
-        <v>46.97</v>
+        <v>92.68</v>
       </c>
       <c r="P25" s="1">
-        <v>8.1999999999999993</v>
+        <v>7.8</v>
       </c>
       <c r="Q25" s="1">
-        <v>55.02</v>
+        <v>103.3</v>
       </c>
       <c r="R25" s="1">
+        <v>8.6</v>
+      </c>
+      <c r="S25" s="1">
+        <v>113.9</v>
+      </c>
+      <c r="T25" s="1">
         <v>9.4</v>
       </c>
-      <c r="S25" s="1">
-        <v>63.07</v>
-      </c>
-      <c r="T25" s="1">
-        <v>10.6</v>
-      </c>
       <c r="U25" s="1">
-        <v>71.13</v>
+        <v>124.5</v>
       </c>
       <c r="V25" s="1">
-        <v>11.8</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="W25" s="1">
-        <v>79.180000000000007</v>
+        <v>135</v>
       </c>
       <c r="X25" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y25" s="1">
-        <v>87.23</v>
+        <v>145.6</v>
       </c>
       <c r="Z25" s="1">
-        <v>3.26</v>
+        <v>0</v>
       </c>
       <c r="AA25" s="1">
-        <v>2.17</v>
+        <v>0</v>
       </c>
       <c r="AB25" s="1">
-        <v>31.83</v>
+        <v>21.39</v>
       </c>
       <c r="AC25" s="1">
-        <v>2.02</v>
+        <v>39.32</v>
       </c>
       <c r="AD25" s="1">
-        <v>1.53</v>
+        <v>34.96</v>
       </c>
       <c r="AE25" s="1">
-        <v>4.42</v>
+        <v>0.05</v>
       </c>
       <c r="AF25" s="1">
-        <v>107.43</v>
+        <v>0</v>
       </c>
       <c r="AG25" s="1">
-        <v>-12.76</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="AH25" s="1">
-        <v>-8.07</v>
+        <v>4.46</v>
       </c>
       <c r="AI25" s="1">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="AJ25" s="1" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="AK25" s="1" t="s">
-        <v>147</v>
+        <v>99</v>
       </c>
       <c r="AL25" s="1" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="AM25" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="AN25" s="1" t="s">
-        <v>149</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>8150</v>
+        <v>3005</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D26" s="7">
-        <v>7272401260</v>
+        <v>5954614000</v>
       </c>
       <c r="E26" s="1">
-        <v>19970728</v>
+        <v>19891005</v>
       </c>
       <c r="F26" s="1">
-        <v>20140411</v>
+        <v>20020225</v>
       </c>
       <c r="G26">
-        <v>4.55</v>
+        <v>6.47</v>
       </c>
       <c r="H26">
-        <v>8.1199999999999992</v>
+        <v>7.64</v>
       </c>
       <c r="I26">
-        <v>1.54</v>
+        <v>1.93</v>
       </c>
       <c r="J26" t="s">
-        <v>276</v>
+        <v>244</v>
       </c>
       <c r="K26" t="s">
-        <v>277</v>
+        <v>245</v>
       </c>
       <c r="L26" t="s">
-        <v>278</v>
+        <v>246</v>
       </c>
       <c r="M26" t="s">
-        <v>279</v>
+        <v>247</v>
       </c>
       <c r="N26" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O26" s="1">
-        <v>53.55</v>
+        <v>73</v>
       </c>
       <c r="P26" s="1">
-        <v>10.8</v>
+        <v>11.4</v>
       </c>
       <c r="Q26" s="1">
-        <v>64.260000000000005</v>
+        <v>83.22</v>
       </c>
       <c r="R26" s="1">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="S26" s="1">
-        <v>74.97</v>
+        <v>93.44</v>
       </c>
       <c r="T26" s="1">
-        <v>14.4</v>
+        <v>14.2</v>
       </c>
       <c r="U26" s="1">
-        <v>85.68</v>
+        <v>103.7</v>
       </c>
       <c r="V26" s="1">
-        <v>16.2</v>
+        <v>15.6</v>
       </c>
       <c r="W26" s="1">
-        <v>96.39</v>
+        <v>113.9</v>
       </c>
       <c r="X26" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y26" s="1">
-        <v>107.1</v>
+        <v>124.1</v>
       </c>
       <c r="Z26" s="1">
-        <v>26.62</v>
+        <v>24.89</v>
       </c>
       <c r="AA26" s="1">
-        <v>20.51</v>
+        <v>8.01</v>
       </c>
       <c r="AB26" s="1">
-        <v>22.24</v>
+        <v>25.54</v>
       </c>
       <c r="AC26" s="1">
-        <v>21.26</v>
+        <v>20.46</v>
       </c>
       <c r="AD26" s="1">
-        <v>17.670000000000002</v>
+        <v>15.77</v>
       </c>
       <c r="AE26" s="1">
-        <v>0.74</v>
+        <v>0.86</v>
       </c>
       <c r="AF26" s="1">
-        <v>96.47</v>
+        <v>39.15</v>
       </c>
       <c r="AG26" s="1">
-        <v>7.35</v>
+        <v>0.9</v>
       </c>
       <c r="AH26" s="1">
-        <v>1.02</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="AI26" s="1">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="AJ26" s="1" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="AK26" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="AL26" s="1" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="AM26" s="1" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="AN26" s="1" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>8213</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>63</v>
+      <c r="A27">
+        <v>3028</v>
+      </c>
+      <c r="B27" t="s">
+        <v>343</v>
+      </c>
+      <c r="C27" t="s">
+        <v>344</v>
       </c>
       <c r="D27" s="7">
-        <v>2712424880</v>
-      </c>
-      <c r="E27" s="1">
-        <v>19980421</v>
-      </c>
-      <c r="F27" s="1">
-        <v>20091225</v>
+        <v>2138248640</v>
+      </c>
+      <c r="E27">
+        <v>19821006</v>
+      </c>
+      <c r="F27">
+        <v>20020826</v>
       </c>
       <c r="G27">
-        <v>7.21</v>
+        <v>5.6</v>
       </c>
       <c r="H27">
-        <v>8.02</v>
+        <v>8.74</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>1.42</v>
       </c>
       <c r="J27" t="s">
-        <v>280</v>
+        <v>345</v>
       </c>
       <c r="K27" t="s">
-        <v>281</v>
+        <v>346</v>
       </c>
       <c r="L27" t="s">
-        <v>282</v>
+        <v>347</v>
       </c>
       <c r="M27" t="s">
-        <v>283</v>
-      </c>
-      <c r="N27" s="1">
-        <v>6</v>
-      </c>
-      <c r="O27" s="1">
-        <v>36.659999999999997</v>
-      </c>
-      <c r="P27" s="1">
-        <v>7</v>
-      </c>
-      <c r="Q27" s="1">
-        <v>42.77</v>
-      </c>
-      <c r="R27" s="1">
-        <v>8</v>
-      </c>
-      <c r="S27" s="1">
-        <v>48.88</v>
-      </c>
-      <c r="T27" s="1">
-        <v>9</v>
-      </c>
-      <c r="U27" s="1">
-        <v>54.99</v>
-      </c>
-      <c r="V27" s="1">
+        <v>348</v>
+      </c>
+      <c r="N27">
         <v>10</v>
       </c>
-      <c r="W27" s="1">
-        <v>61.1</v>
-      </c>
-      <c r="X27" s="1">
+      <c r="O27">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="P27">
         <v>11</v>
       </c>
-      <c r="Y27" s="1">
-        <v>67.209999999999994</v>
-      </c>
-      <c r="Z27" s="1">
-        <v>15.64</v>
-      </c>
-      <c r="AA27" s="1">
-        <v>8.6</v>
-      </c>
-      <c r="AB27" s="1">
-        <v>13.51</v>
-      </c>
-      <c r="AC27" s="1">
-        <v>9.09</v>
-      </c>
-      <c r="AD27" s="1">
-        <v>6.58</v>
-      </c>
-      <c r="AE27" s="1">
-        <v>0.86</v>
-      </c>
-      <c r="AF27" s="1">
-        <v>94.61</v>
-      </c>
-      <c r="AG27" s="1">
-        <v>2.02</v>
-      </c>
-      <c r="AH27" s="1">
-        <v>0.38</v>
-      </c>
-      <c r="AI27" s="1">
-        <v>47</v>
-      </c>
-      <c r="AJ27" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="AK27" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="AL27" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AM27" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="AN27" s="1" t="s">
+      <c r="Q27">
+        <v>42.57</v>
+      </c>
+      <c r="R27">
+        <v>12</v>
+      </c>
+      <c r="S27">
+        <v>46.44</v>
+      </c>
+      <c r="T27">
+        <v>13</v>
+      </c>
+      <c r="U27">
+        <v>50.31</v>
+      </c>
+      <c r="V27">
+        <v>14</v>
+      </c>
+      <c r="W27">
+        <v>54.18</v>
+      </c>
+      <c r="X27">
+        <v>15</v>
+      </c>
+      <c r="Y27">
+        <v>58.05</v>
+      </c>
+      <c r="Z27">
+        <v>5.93</v>
+      </c>
+      <c r="AA27">
+        <v>2.59</v>
+      </c>
+      <c r="AB27">
+        <v>18.72</v>
+      </c>
+      <c r="AC27">
+        <v>2.64</v>
+      </c>
+      <c r="AD27">
+        <v>2.19</v>
+      </c>
+      <c r="AE27">
+        <v>2.15</v>
+      </c>
+      <c r="AF27">
+        <v>98.11</v>
+      </c>
+      <c r="AG27">
+        <v>-1.74</v>
+      </c>
+      <c r="AH27">
+        <v>-1.7</v>
+      </c>
+      <c r="AI27">
+        <v>30</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>349</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>125</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>350</v>
+      </c>
+      <c r="AN27" t="s">
         <v>93</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>351</v>
+      </c>
+      <c r="AP27" t="s">
+        <v>352</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>353</v>
+      </c>
+      <c r="AR27" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="28" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>8215</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>171</v>
+      <c r="A28">
+        <v>3033</v>
+      </c>
+      <c r="B28" t="s">
+        <v>318</v>
+      </c>
+      <c r="C28" t="s">
+        <v>319</v>
       </c>
       <c r="D28" s="7">
-        <v>3206745140</v>
-      </c>
-      <c r="E28" s="1">
-        <v>19980716</v>
-      </c>
-      <c r="F28" s="1">
-        <v>20101112</v>
+        <v>3990554430</v>
+      </c>
+      <c r="E28">
+        <v>19770120</v>
+      </c>
+      <c r="F28">
+        <v>20020826</v>
       </c>
       <c r="G28">
-        <v>1.86</v>
+        <v>4.18</v>
       </c>
       <c r="H28">
-        <v>13.7</v>
+        <v>8.8699999999999992</v>
       </c>
       <c r="I28">
-        <v>2.52</v>
+        <v>1.74</v>
       </c>
       <c r="J28" t="s">
-        <v>184</v>
+        <v>320</v>
       </c>
       <c r="K28" t="s">
-        <v>185</v>
+        <v>321</v>
       </c>
       <c r="L28" t="s">
-        <v>179</v>
+        <v>322</v>
       </c>
       <c r="M28" t="s">
-        <v>180</v>
-      </c>
-      <c r="N28" s="1">
+        <v>323</v>
+      </c>
+      <c r="N28">
+        <v>9</v>
+      </c>
+      <c r="O28">
+        <v>34.83</v>
+      </c>
+      <c r="P28">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="Q28">
+        <v>39.47</v>
+      </c>
+      <c r="R28">
+        <v>11.4</v>
+      </c>
+      <c r="S28">
+        <v>44.12</v>
+      </c>
+      <c r="T28">
+        <v>12.6</v>
+      </c>
+      <c r="U28">
+        <v>48.76</v>
+      </c>
+      <c r="V28">
+        <v>13.8</v>
+      </c>
+      <c r="W28">
+        <v>53.41</v>
+      </c>
+      <c r="X28">
         <v>15</v>
       </c>
-      <c r="O28" s="1">
-        <v>41.1</v>
-      </c>
-      <c r="P28" s="1">
-        <v>18</v>
-      </c>
-      <c r="Q28" s="1">
-        <v>49.32</v>
-      </c>
-      <c r="R28" s="1">
-        <v>21</v>
-      </c>
-      <c r="S28" s="1">
-        <v>57.54</v>
-      </c>
-      <c r="T28" s="1">
-        <v>24</v>
-      </c>
-      <c r="U28" s="1">
-        <v>65.760000000000005</v>
-      </c>
-      <c r="V28" s="1">
-        <v>27</v>
-      </c>
-      <c r="W28" s="1">
-        <v>73.98</v>
-      </c>
-      <c r="X28" s="1">
-        <v>30</v>
-      </c>
-      <c r="Y28" s="1">
-        <v>82.2</v>
-      </c>
-      <c r="Z28" s="1">
-        <v>18.329999999999998</v>
-      </c>
-      <c r="AA28" s="1">
-        <v>6.21</v>
-      </c>
-      <c r="AB28" s="1">
-        <v>20.77</v>
-      </c>
-      <c r="AC28" s="1">
-        <v>7.17</v>
-      </c>
-      <c r="AD28" s="1">
-        <v>5.72</v>
-      </c>
-      <c r="AE28" s="1">
-        <v>1.46</v>
-      </c>
-      <c r="AF28" s="1">
-        <v>86.61</v>
-      </c>
-      <c r="AG28" s="1">
-        <v>2.25</v>
-      </c>
-      <c r="AH28" s="1">
-        <v>0.89</v>
-      </c>
-      <c r="AI28" s="1">
-        <v>40</v>
-      </c>
-      <c r="AJ28" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="AK28" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AL28" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AM28" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="AN28" s="1" t="s">
-        <v>102</v>
+      <c r="Y28">
+        <v>58.05</v>
+      </c>
+      <c r="Z28">
+        <v>7.01</v>
+      </c>
+      <c r="AA28">
+        <v>3.51</v>
+      </c>
+      <c r="AB28">
+        <v>25.16</v>
+      </c>
+      <c r="AC28">
+        <v>3.37</v>
+      </c>
+      <c r="AD28">
+        <v>2.33</v>
+      </c>
+      <c r="AE28">
+        <v>2.89</v>
+      </c>
+      <c r="AF28">
+        <v>104.15</v>
+      </c>
+      <c r="AG28">
+        <v>0.88</v>
+      </c>
+      <c r="AH28">
+        <v>0.86</v>
+      </c>
+      <c r="AI28">
+        <v>34</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>324</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>325</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>326</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>327</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>328</v>
+      </c>
+      <c r="AO28" t="s">
+        <v>329</v>
+      </c>
+      <c r="AP28" t="s">
+        <v>330</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>331</v>
+      </c>
+      <c r="AR28" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="29" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>2467</v>
-      </c>
-      <c r="B29" t="s">
-        <v>181</v>
-      </c>
-      <c r="C29" t="s">
-        <v>182</v>
+      <c r="A29" s="1">
+        <v>3044</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="D29" s="7">
-        <v>1521896590</v>
-      </c>
-      <c r="E29">
-        <v>19780418</v>
-      </c>
-      <c r="F29">
-        <v>20010917</v>
+        <v>5256058980</v>
+      </c>
+      <c r="E29" s="1">
+        <v>19911216</v>
+      </c>
+      <c r="F29" s="1">
+        <v>20020826</v>
       </c>
       <c r="G29">
-        <v>5.19</v>
+        <v>6</v>
       </c>
       <c r="H29">
-        <v>12.52</v>
+        <v>10.44</v>
       </c>
       <c r="I29">
-        <v>3.05</v>
+        <v>1.76</v>
       </c>
       <c r="J29" t="s">
-        <v>284</v>
+        <v>248</v>
       </c>
       <c r="K29" t="s">
-        <v>285</v>
+        <v>249</v>
       </c>
       <c r="L29" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
       <c r="M29" t="s">
-        <v>287</v>
-      </c>
-      <c r="N29">
-        <v>11</v>
-      </c>
-      <c r="O29">
-        <v>45.76</v>
-      </c>
-      <c r="P29">
+        <v>251</v>
+      </c>
+      <c r="N29" s="1">
+        <v>8</v>
+      </c>
+      <c r="O29" s="1">
+        <v>93.92</v>
+      </c>
+      <c r="P29" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>108</v>
+      </c>
+      <c r="R29" s="1">
+        <v>10.4</v>
+      </c>
+      <c r="S29" s="1">
+        <v>122.1</v>
+      </c>
+      <c r="T29" s="1">
+        <v>11.6</v>
+      </c>
+      <c r="U29" s="1">
+        <v>136.19999999999999</v>
+      </c>
+      <c r="V29" s="1">
         <v>12.8</v>
       </c>
-      <c r="Q29">
-        <v>53.25</v>
-      </c>
-      <c r="R29">
-        <v>14.6</v>
-      </c>
-      <c r="S29">
-        <v>60.74</v>
-      </c>
-      <c r="T29">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="U29">
-        <v>68.22</v>
-      </c>
-      <c r="V29">
-        <v>18.2</v>
-      </c>
-      <c r="W29">
-        <v>75.709999999999994</v>
-      </c>
-      <c r="X29">
-        <v>20</v>
-      </c>
-      <c r="Y29">
-        <v>83.2</v>
-      </c>
-      <c r="Z29">
-        <v>34.07</v>
-      </c>
-      <c r="AA29">
-        <v>12.91</v>
-      </c>
-      <c r="AB29">
-        <v>26.43</v>
-      </c>
-      <c r="AC29">
-        <v>15.84</v>
-      </c>
-      <c r="AD29">
-        <v>12.85</v>
-      </c>
-      <c r="AE29">
-        <v>0.8</v>
-      </c>
-      <c r="AF29">
-        <v>81.5</v>
-      </c>
-      <c r="AG29">
-        <v>2.44</v>
-      </c>
-      <c r="AH29">
-        <v>-2.57</v>
-      </c>
-      <c r="AI29">
-        <v>57</v>
-      </c>
-      <c r="AJ29" t="s">
-        <v>183</v>
-      </c>
-      <c r="AK29" t="s">
-        <v>130</v>
-      </c>
-      <c r="AL29" t="s">
-        <v>130</v>
-      </c>
-      <c r="AM29" t="s">
-        <v>93</v>
-      </c>
-      <c r="AN29" t="s">
-        <v>85</v>
-      </c>
-      <c r="AO29"/>
-      <c r="AP29"/>
-      <c r="AQ29"/>
-      <c r="AR29"/>
+      <c r="W29" s="1">
+        <v>150.30000000000001</v>
+      </c>
+      <c r="X29" s="1">
+        <v>14</v>
+      </c>
+      <c r="Y29" s="1">
+        <v>164.4</v>
+      </c>
+      <c r="Z29" s="1">
+        <v>18.75</v>
+      </c>
+      <c r="AA29" s="1">
+        <v>10.47</v>
+      </c>
+      <c r="AB29" s="1">
+        <v>15.91</v>
+      </c>
+      <c r="AC29" s="1">
+        <v>11.99</v>
+      </c>
+      <c r="AD29" s="1">
+        <v>9.36</v>
+      </c>
+      <c r="AE29" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="AF29" s="1">
+        <v>87.32</v>
+      </c>
+      <c r="AG29" s="1">
+        <v>7.58</v>
+      </c>
+      <c r="AH29" s="1">
+        <v>-10.16</v>
+      </c>
+      <c r="AI29" s="1">
+        <v>49</v>
+      </c>
+      <c r="AJ29" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK29" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL29" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN29" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="AS29"/>
       <c r="AT29"/>
       <c r="AU29"/>
     </row>
     <row r="30" spans="1:47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>1313</v>
+        <v>3048</v>
       </c>
       <c r="B30" t="s">
-        <v>292</v>
+        <v>369</v>
       </c>
       <c r="C30" t="s">
-        <v>293</v>
+        <v>370</v>
       </c>
       <c r="D30" s="7">
-        <v>13471206070</v>
+        <v>2448297940</v>
       </c>
       <c r="E30">
-        <v>19760814</v>
+        <v>19960711</v>
       </c>
       <c r="F30">
-        <v>19890327</v>
+        <v>20021001</v>
       </c>
       <c r="G30">
-        <v>4.74</v>
+        <v>8.98</v>
       </c>
       <c r="H30">
-        <v>6.43</v>
+        <v>7.53</v>
       </c>
       <c r="I30">
-        <v>0.95</v>
+        <v>1.98</v>
       </c>
       <c r="J30" t="s">
-        <v>294</v>
+        <v>371</v>
       </c>
       <c r="K30" t="s">
-        <v>295</v>
+        <v>372</v>
       </c>
       <c r="L30" t="s">
-        <v>296</v>
+        <v>373</v>
       </c>
       <c r="M30" t="s">
-        <v>297</v>
+        <v>374</v>
       </c>
       <c r="N30">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="O30">
-        <v>43.16</v>
+        <v>34.32</v>
       </c>
       <c r="P30">
-        <v>15.6</v>
+        <v>9.6</v>
       </c>
       <c r="Q30">
-        <v>51.79</v>
+        <v>41.18</v>
       </c>
       <c r="R30">
-        <v>18.2</v>
+        <v>11.2</v>
       </c>
       <c r="S30">
-        <v>60.42</v>
+        <v>48.05</v>
       </c>
       <c r="T30">
-        <v>20.8</v>
+        <v>12.8</v>
       </c>
       <c r="U30">
-        <v>69.06</v>
+        <v>54.91</v>
       </c>
       <c r="V30">
-        <v>23.4</v>
+        <v>14.4</v>
       </c>
       <c r="W30">
-        <v>77.69</v>
+        <v>61.78</v>
       </c>
       <c r="X30">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="Y30">
-        <v>86.32</v>
+        <v>68.64</v>
       </c>
       <c r="Z30">
-        <v>9.1999999999999993</v>
+        <v>3.24</v>
       </c>
       <c r="AA30">
-        <v>5.84</v>
+        <v>1.5</v>
       </c>
       <c r="AB30">
-        <v>14.89</v>
+        <v>27.8</v>
       </c>
       <c r="AC30">
-        <v>6.4</v>
+        <v>1.3</v>
       </c>
       <c r="AD30">
-        <v>5.03</v>
+        <v>1.04</v>
       </c>
       <c r="AE30">
-        <v>1.63</v>
+        <v>4.37</v>
       </c>
       <c r="AF30">
-        <v>91.25</v>
+        <v>115.38</v>
       </c>
       <c r="AG30">
-        <v>-0.67</v>
+        <v>-2.5099999999999998</v>
       </c>
       <c r="AH30">
-        <v>-1.21</v>
+        <v>-3.46</v>
       </c>
       <c r="AI30">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AJ30" t="s">
+        <v>375</v>
+      </c>
+      <c r="AK30" t="s">
         <v>106</v>
       </c>
-      <c r="AK30" t="s">
-        <v>298</v>
-      </c>
       <c r="AL30" t="s">
-        <v>299</v>
+        <v>172</v>
       </c>
       <c r="AM30" t="s">
-        <v>300</v>
+        <v>106</v>
       </c>
       <c r="AN30" t="s">
-        <v>301</v>
+        <v>85</v>
       </c>
       <c r="AO30" t="s">
-        <v>302</v>
+        <v>376</v>
       </c>
       <c r="AP30" t="s">
-        <v>303</v>
+        <v>377</v>
       </c>
       <c r="AQ30" t="s">
-        <v>304</v>
+        <v>378</v>
       </c>
       <c r="AR30" t="s">
-        <v>305</v>
+        <v>379</v>
       </c>
     </row>
     <row r="31" spans="1:47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>1304</v>
-      </c>
-      <c r="B31" t="s">
-        <v>306</v>
-      </c>
-      <c r="C31" t="s">
-        <v>307</v>
+      <c r="A31" s="1">
+        <v>3209</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="D31" s="7">
-        <v>11887635000</v>
-      </c>
-      <c r="E31">
-        <v>19650526</v>
-      </c>
-      <c r="F31">
-        <v>19720520</v>
+        <v>2005321840</v>
+      </c>
+      <c r="E31" s="1">
+        <v>19910415</v>
+      </c>
+      <c r="F31" s="1">
+        <v>20081126</v>
       </c>
       <c r="G31">
-        <v>3.31</v>
+        <v>6.9</v>
       </c>
       <c r="H31">
-        <v>6.62</v>
+        <v>8.1199999999999992</v>
       </c>
       <c r="I31">
-        <v>1.35</v>
+        <v>1.66</v>
       </c>
       <c r="J31" t="s">
-        <v>308</v>
+        <v>252</v>
       </c>
       <c r="K31" t="s">
-        <v>309</v>
+        <v>253</v>
       </c>
       <c r="L31" t="s">
-        <v>310</v>
+        <v>254</v>
       </c>
       <c r="M31" t="s">
-        <v>311</v>
-      </c>
-      <c r="N31">
+        <v>255</v>
+      </c>
+      <c r="N31" s="1">
+        <v>9</v>
+      </c>
+      <c r="O31" s="1">
+        <v>32.04</v>
+      </c>
+      <c r="P31" s="1">
         <v>10</v>
       </c>
-      <c r="O31">
-        <v>45.7</v>
-      </c>
-      <c r="P31">
+      <c r="Q31" s="1">
+        <v>35.6</v>
+      </c>
+      <c r="R31" s="1">
+        <v>11</v>
+      </c>
+      <c r="S31" s="1">
+        <v>39.159999999999997</v>
+      </c>
+      <c r="T31" s="1">
         <v>12</v>
       </c>
-      <c r="Q31">
-        <v>54.84</v>
-      </c>
-      <c r="R31">
+      <c r="U31" s="1">
+        <v>42.72</v>
+      </c>
+      <c r="V31" s="1">
+        <v>13</v>
+      </c>
+      <c r="W31" s="1">
+        <v>46.28</v>
+      </c>
+      <c r="X31" s="1">
         <v>14</v>
       </c>
-      <c r="S31">
-        <v>63.98</v>
-      </c>
-      <c r="T31">
-        <v>16</v>
-      </c>
-      <c r="U31">
-        <v>73.12</v>
-      </c>
-      <c r="V31">
-        <v>18</v>
-      </c>
-      <c r="W31">
-        <v>82.26</v>
-      </c>
-      <c r="X31">
-        <v>20</v>
-      </c>
-      <c r="Y31">
-        <v>91.4</v>
-      </c>
-      <c r="Z31">
-        <v>23.9</v>
-      </c>
-      <c r="AA31">
-        <v>16.989999999999998</v>
-      </c>
-      <c r="AB31">
-        <v>19.39</v>
-      </c>
-      <c r="AC31">
-        <v>17.850000000000001</v>
-      </c>
-      <c r="AD31">
-        <v>14.06</v>
-      </c>
-      <c r="AE31">
-        <v>0.87</v>
-      </c>
-      <c r="AF31">
-        <v>95.18</v>
-      </c>
-      <c r="AG31">
-        <v>5.37</v>
-      </c>
-      <c r="AH31">
-        <v>3.45</v>
-      </c>
-      <c r="AI31">
-        <v>60</v>
-      </c>
-      <c r="AJ31" t="s">
-        <v>106</v>
-      </c>
-      <c r="AK31" t="s">
-        <v>85</v>
-      </c>
-      <c r="AL31" t="s">
-        <v>121</v>
-      </c>
-      <c r="AM31" t="s">
-        <v>312</v>
-      </c>
-      <c r="AN31" t="s">
-        <v>313</v>
-      </c>
-      <c r="AO31" t="s">
-        <v>314</v>
-      </c>
-      <c r="AP31" t="s">
-        <v>315</v>
-      </c>
-      <c r="AQ31" t="s">
-        <v>316</v>
-      </c>
-      <c r="AR31" t="s">
-        <v>317</v>
-      </c>
+      <c r="Y31" s="1">
+        <v>49.84</v>
+      </c>
+      <c r="Z31" s="1">
+        <v>5.31</v>
+      </c>
+      <c r="AA31" s="1">
+        <v>2.25</v>
+      </c>
+      <c r="AB31" s="1">
+        <v>22.5</v>
+      </c>
+      <c r="AC31" s="1">
+        <v>2.11</v>
+      </c>
+      <c r="AD31" s="1">
+        <v>1.63</v>
+      </c>
+      <c r="AE31" s="1">
+        <v>3.25</v>
+      </c>
+      <c r="AF31" s="1">
+        <v>106.64</v>
+      </c>
+      <c r="AG31" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="AH31" s="1">
+        <v>-1.1599999999999999</v>
+      </c>
+      <c r="AI31" s="1">
+        <v>38</v>
+      </c>
+      <c r="AJ31" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK31" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AL31" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM31" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN31" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AO31" s="1"/>
+      <c r="AP31" s="1"/>
+      <c r="AQ31" s="1"/>
+      <c r="AR31" s="1"/>
     </row>
     <row r="32" spans="1:47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>3033</v>
+        <v>3312</v>
       </c>
       <c r="B32" t="s">
-        <v>318</v>
+        <v>380</v>
       </c>
       <c r="C32" t="s">
-        <v>319</v>
+        <v>381</v>
       </c>
       <c r="D32" s="7">
-        <v>3990554430</v>
+        <v>1376254550</v>
       </c>
       <c r="E32">
-        <v>19770120</v>
+        <v>19951006</v>
       </c>
       <c r="F32">
-        <v>20020826</v>
+        <v>20101229</v>
       </c>
       <c r="G32">
         <v>4.18</v>
       </c>
       <c r="H32">
-        <v>8.8699999999999992</v>
+        <v>7.61</v>
       </c>
       <c r="I32">
-        <v>1.74</v>
+        <v>1.82</v>
       </c>
       <c r="J32" t="s">
-        <v>320</v>
+        <v>382</v>
       </c>
       <c r="K32" t="s">
-        <v>321</v>
+        <v>383</v>
       </c>
       <c r="L32" t="s">
-        <v>322</v>
+        <v>384</v>
       </c>
       <c r="M32" t="s">
-        <v>323</v>
+        <v>385</v>
       </c>
       <c r="N32">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="O32">
-        <v>34.83</v>
+        <v>47.1</v>
       </c>
       <c r="P32">
-        <v>10.199999999999999</v>
+        <v>18</v>
       </c>
       <c r="Q32">
-        <v>39.47</v>
+        <v>56.52</v>
       </c>
       <c r="R32">
-        <v>11.4</v>
+        <v>21</v>
       </c>
       <c r="S32">
-        <v>44.12</v>
+        <v>65.94</v>
       </c>
       <c r="T32">
-        <v>12.6</v>
+        <v>24</v>
       </c>
       <c r="U32">
-        <v>48.76</v>
+        <v>75.36</v>
       </c>
       <c r="V32">
-        <v>13.8</v>
+        <v>27</v>
       </c>
       <c r="W32">
-        <v>53.41</v>
+        <v>84.78</v>
       </c>
       <c r="X32">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="Y32">
-        <v>58.05</v>
+        <v>94.2</v>
       </c>
       <c r="Z32">
-        <v>7.01</v>
+        <v>5.84</v>
       </c>
       <c r="AA32">
-        <v>3.51</v>
+        <v>3.09</v>
       </c>
       <c r="AB32">
-        <v>25.16</v>
+        <v>27.98</v>
       </c>
       <c r="AC32">
-        <v>3.37</v>
+        <v>3.08</v>
       </c>
       <c r="AD32">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AE32">
-        <v>2.89</v>
+        <v>3.01</v>
       </c>
       <c r="AF32">
-        <v>104.15</v>
+        <v>100.32</v>
       </c>
       <c r="AG32">
-        <v>0.88</v>
+        <v>-3.19</v>
       </c>
       <c r="AH32">
-        <v>0.86</v>
+        <v>-3.32</v>
       </c>
       <c r="AI32">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AJ32" t="s">
-        <v>324</v>
+        <v>386</v>
       </c>
       <c r="AK32" t="s">
-        <v>325</v>
+        <v>387</v>
       </c>
       <c r="AL32" t="s">
-        <v>326</v>
+        <v>388</v>
       </c>
       <c r="AM32" t="s">
-        <v>327</v>
+        <v>389</v>
       </c>
       <c r="AN32" t="s">
-        <v>328</v>
+        <v>102</v>
       </c>
       <c r="AO32" t="s">
-        <v>329</v>
+        <v>390</v>
       </c>
       <c r="AP32" t="s">
-        <v>330</v>
+        <v>391</v>
       </c>
       <c r="AQ32" t="s">
-        <v>331</v>
+        <v>392</v>
       </c>
       <c r="AR32" t="s">
-        <v>332</v>
+        <v>393</v>
       </c>
     </row>
     <row r="33" spans="1:44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>1776</v>
-      </c>
-      <c r="B33" t="s">
-        <v>333</v>
-      </c>
-      <c r="C33" t="s">
-        <v>334</v>
-      </c>
-      <c r="D33" s="7">
-        <v>703352990</v>
-      </c>
-      <c r="E33">
-        <v>19760424</v>
-      </c>
-      <c r="F33">
-        <v>20160509</v>
+      <c r="A33" s="1">
+        <v>3702</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D33" s="1">
+        <v>18790568330</v>
+      </c>
+      <c r="E33" s="1">
+        <v>20051109</v>
+      </c>
+      <c r="F33" s="1">
+        <v>20051109</v>
       </c>
       <c r="G33">
-        <v>4.6900000000000004</v>
+        <v>5.96</v>
       </c>
       <c r="H33">
-        <v>8.6199999999999992</v>
+        <v>8.98</v>
       </c>
       <c r="I33">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="J33" t="s">
-        <v>335</v>
+        <v>256</v>
       </c>
       <c r="K33" t="s">
-        <v>336</v>
+        <v>257</v>
       </c>
       <c r="L33" t="s">
-        <v>337</v>
+        <v>258</v>
       </c>
       <c r="M33" t="s">
-        <v>338</v>
-      </c>
-      <c r="N33">
-        <v>12</v>
-      </c>
-      <c r="O33">
-        <v>30</v>
-      </c>
-      <c r="P33">
-        <v>14.4</v>
-      </c>
-      <c r="Q33">
-        <v>36</v>
-      </c>
-      <c r="R33">
-        <v>16.8</v>
-      </c>
-      <c r="S33">
-        <v>42</v>
-      </c>
-      <c r="T33">
-        <v>19.2</v>
-      </c>
-      <c r="U33">
-        <v>48</v>
-      </c>
-      <c r="V33">
-        <v>21.6</v>
-      </c>
-      <c r="W33">
-        <v>54</v>
-      </c>
-      <c r="X33">
-        <v>24</v>
-      </c>
-      <c r="Y33">
-        <v>60</v>
-      </c>
-      <c r="Z33">
-        <v>20.57</v>
-      </c>
-      <c r="AA33">
-        <v>7.03</v>
-      </c>
-      <c r="AB33">
-        <v>19.61</v>
-      </c>
-      <c r="AC33">
-        <v>7.3</v>
-      </c>
-      <c r="AD33">
-        <v>15.07</v>
-      </c>
-      <c r="AE33">
-        <v>0.78</v>
-      </c>
-      <c r="AF33">
-        <v>96.3</v>
-      </c>
-      <c r="AG33">
-        <v>1.64</v>
-      </c>
-      <c r="AH33">
-        <v>7.28</v>
-      </c>
-      <c r="AI33">
-        <v>60</v>
-      </c>
-      <c r="AJ33" t="s">
-        <v>106</v>
-      </c>
-      <c r="AK33" t="s">
-        <v>84</v>
-      </c>
-      <c r="AL33" t="s">
-        <v>129</v>
-      </c>
-      <c r="AM33" t="s">
-        <v>93</v>
-      </c>
-      <c r="AN33" t="s">
-        <v>89</v>
-      </c>
-      <c r="AO33" t="s">
-        <v>339</v>
-      </c>
-      <c r="AP33" t="s">
-        <v>340</v>
-      </c>
-      <c r="AQ33" t="s">
-        <v>341</v>
-      </c>
-      <c r="AR33" t="s">
-        <v>342</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="N33" s="1">
+        <v>9</v>
+      </c>
+      <c r="O33" s="1">
+        <v>55.71</v>
+      </c>
+      <c r="P33" s="1">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>60.66</v>
+      </c>
+      <c r="R33" s="1">
+        <v>10.6</v>
+      </c>
+      <c r="S33" s="1">
+        <v>65.61</v>
+      </c>
+      <c r="T33" s="1">
+        <v>11.4</v>
+      </c>
+      <c r="U33" s="1">
+        <v>70.569999999999993</v>
+      </c>
+      <c r="V33" s="1">
+        <v>12.2</v>
+      </c>
+      <c r="W33" s="1">
+        <v>75.52</v>
+      </c>
+      <c r="X33" s="1">
+        <v>13</v>
+      </c>
+      <c r="Y33" s="1">
+        <v>80.47</v>
+      </c>
+      <c r="Z33" s="1">
+        <v>3.89</v>
+      </c>
+      <c r="AA33" s="1">
+        <v>1.82</v>
+      </c>
+      <c r="AB33" s="1">
+        <v>17.649999999999999</v>
+      </c>
+      <c r="AC33" s="1">
+        <v>1.87</v>
+      </c>
+      <c r="AD33" s="1">
+        <v>1.54</v>
+      </c>
+      <c r="AE33" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="AF33" s="1">
+        <v>97.33</v>
+      </c>
+      <c r="AG33" s="1">
+        <v>-16.23</v>
+      </c>
+      <c r="AH33" s="1">
+        <v>-16.72</v>
+      </c>
+      <c r="AI33" s="1">
+        <v>28</v>
+      </c>
+      <c r="AJ33" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="AK33" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="AL33" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AM33" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="AN33" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AO33" s="1"/>
+      <c r="AP33" s="1"/>
+      <c r="AQ33" s="1"/>
+      <c r="AR33" s="1"/>
     </row>
     <row r="34" spans="1:44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>3028</v>
-      </c>
-      <c r="B34" t="s">
-        <v>343</v>
-      </c>
-      <c r="C34" t="s">
-        <v>344</v>
+      <c r="A34" s="1">
+        <v>3706</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D34" s="7">
-        <v>2138248640</v>
-      </c>
-      <c r="E34">
-        <v>19821006</v>
-      </c>
-      <c r="F34">
-        <v>20020826</v>
+        <v>12065567890</v>
+      </c>
+      <c r="E34" s="1">
+        <v>20130912</v>
+      </c>
+      <c r="F34" s="1">
+        <v>20130912</v>
       </c>
       <c r="G34">
-        <v>5.6</v>
+        <v>2.9</v>
       </c>
       <c r="H34">
-        <v>8.74</v>
+        <v>3.34</v>
       </c>
       <c r="I34">
-        <v>1.42</v>
+        <v>0.83</v>
       </c>
       <c r="J34" t="s">
-        <v>345</v>
+        <v>260</v>
       </c>
       <c r="K34" t="s">
-        <v>346</v>
+        <v>261</v>
       </c>
       <c r="L34" t="s">
-        <v>347</v>
+        <v>262</v>
       </c>
       <c r="M34" t="s">
-        <v>348</v>
-      </c>
-      <c r="N34">
-        <v>10</v>
-      </c>
-      <c r="O34">
-        <v>38.700000000000003</v>
-      </c>
-      <c r="P34">
-        <v>11</v>
-      </c>
-      <c r="Q34">
-        <v>42.57</v>
-      </c>
-      <c r="R34">
-        <v>12</v>
-      </c>
-      <c r="S34">
-        <v>46.44</v>
-      </c>
-      <c r="T34">
-        <v>13</v>
-      </c>
-      <c r="U34">
-        <v>50.31</v>
-      </c>
-      <c r="V34">
-        <v>14</v>
-      </c>
-      <c r="W34">
-        <v>54.18</v>
-      </c>
-      <c r="X34">
+        <v>263</v>
+      </c>
+      <c r="N34" s="1">
+        <v>8</v>
+      </c>
+      <c r="O34" s="1">
+        <v>82.56</v>
+      </c>
+      <c r="P34" s="1">
+        <v>9.4</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>97.01</v>
+      </c>
+      <c r="R34" s="1">
+        <v>10.8</v>
+      </c>
+      <c r="S34" s="1">
+        <v>111.5</v>
+      </c>
+      <c r="T34" s="1">
+        <v>12.2</v>
+      </c>
+      <c r="U34" s="1">
+        <v>125.9</v>
+      </c>
+      <c r="V34" s="1">
+        <v>13.6</v>
+      </c>
+      <c r="W34" s="1">
+        <v>140.4</v>
+      </c>
+      <c r="X34" s="1">
         <v>15</v>
       </c>
-      <c r="Y34">
-        <v>58.05</v>
-      </c>
-      <c r="Z34">
-        <v>5.93</v>
-      </c>
-      <c r="AA34">
-        <v>2.59</v>
-      </c>
-      <c r="AB34">
-        <v>18.72</v>
-      </c>
-      <c r="AC34">
-        <v>2.64</v>
-      </c>
-      <c r="AD34">
-        <v>2.19</v>
-      </c>
-      <c r="AE34">
-        <v>2.15</v>
-      </c>
-      <c r="AF34">
-        <v>98.11</v>
-      </c>
-      <c r="AG34">
-        <v>-1.74</v>
-      </c>
-      <c r="AH34">
-        <v>-1.7</v>
-      </c>
-      <c r="AI34">
-        <v>30</v>
-      </c>
-      <c r="AJ34" t="s">
-        <v>349</v>
-      </c>
-      <c r="AK34" t="s">
+      <c r="Y34" s="1">
+        <v>154.80000000000001</v>
+      </c>
+      <c r="Z34" s="1">
+        <v>9.75</v>
+      </c>
+      <c r="AA34" s="1">
+        <v>-0.09</v>
+      </c>
+      <c r="AB34" s="1">
+        <v>33</v>
+      </c>
+      <c r="AC34" s="1">
+        <v>55.14</v>
+      </c>
+      <c r="AD34" s="1">
+        <v>34.869999999999997</v>
+      </c>
+      <c r="AE34" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="AF34" s="1">
+        <v>-0.16</v>
+      </c>
+      <c r="AG34" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AH34" s="1">
+        <v>1.44</v>
+      </c>
+      <c r="AI34" s="1">
+        <v>57</v>
+      </c>
+      <c r="AJ34" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="AL34" t="s">
-        <v>125</v>
-      </c>
-      <c r="AM34" t="s">
-        <v>350</v>
-      </c>
-      <c r="AN34" t="s">
-        <v>93</v>
-      </c>
-      <c r="AO34" t="s">
-        <v>351</v>
-      </c>
-      <c r="AP34" t="s">
-        <v>352</v>
-      </c>
-      <c r="AQ34" t="s">
-        <v>353</v>
-      </c>
-      <c r="AR34" t="s">
-        <v>354</v>
-      </c>
+      <c r="AK34" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AL34" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AM34" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AN34" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AO34" s="1"/>
+      <c r="AP34" s="1"/>
+      <c r="AQ34" s="1"/>
+      <c r="AR34" s="1"/>
     </row>
     <row r="35" spans="1:44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>1308</v>
-      </c>
-      <c r="B35" t="s">
-        <v>355</v>
-      </c>
-      <c r="C35" t="s">
-        <v>356</v>
+      <c r="A35" s="1">
+        <v>5515</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="D35" s="7">
-        <v>5937439190</v>
-      </c>
-      <c r="E35">
-        <v>19770125</v>
-      </c>
-      <c r="F35">
-        <v>19860620</v>
+        <v>2574401050</v>
+      </c>
+      <c r="E35" s="1">
+        <v>19601121</v>
+      </c>
+      <c r="F35" s="1">
+        <v>20031006</v>
       </c>
       <c r="G35">
-        <v>3.92</v>
+        <v>5.71</v>
       </c>
       <c r="H35">
-        <v>7.85</v>
+        <v>7.73</v>
       </c>
       <c r="I35">
-        <v>1.4</v>
+        <v>0.77</v>
       </c>
       <c r="J35" t="s">
-        <v>357</v>
+        <v>264</v>
       </c>
       <c r="K35" t="s">
-        <v>358</v>
+        <v>265</v>
       </c>
       <c r="L35" t="s">
-        <v>359</v>
+        <v>266</v>
       </c>
       <c r="M35" t="s">
-        <v>360</v>
-      </c>
-      <c r="N35">
+        <v>267</v>
+      </c>
+      <c r="N35" s="1">
         <v>11</v>
       </c>
-      <c r="O35">
-        <v>50.16</v>
-      </c>
-      <c r="P35">
-        <v>13.2</v>
-      </c>
-      <c r="Q35">
-        <v>60.19</v>
-      </c>
-      <c r="R35">
-        <v>15.4</v>
-      </c>
-      <c r="S35">
-        <v>70.22</v>
-      </c>
-      <c r="T35">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="U35">
-        <v>80.260000000000005</v>
-      </c>
-      <c r="V35">
+      <c r="O35" s="1">
         <v>19.8</v>
       </c>
-      <c r="W35">
-        <v>90.29</v>
-      </c>
-      <c r="X35">
-        <v>22</v>
-      </c>
-      <c r="Y35">
-        <v>100.3</v>
-      </c>
-      <c r="Z35">
-        <v>34.97</v>
-      </c>
-      <c r="AA35">
-        <v>31.99</v>
-      </c>
-      <c r="AB35">
-        <v>21.15</v>
-      </c>
-      <c r="AC35">
-        <v>38.909999999999997</v>
-      </c>
-      <c r="AD35">
-        <v>32.46</v>
-      </c>
-      <c r="AE35">
-        <v>0.49</v>
-      </c>
-      <c r="AF35">
-        <v>82.22</v>
-      </c>
-      <c r="AG35">
-        <v>2.54</v>
-      </c>
-      <c r="AH35">
-        <v>2.56</v>
-      </c>
-      <c r="AI35">
-        <v>72</v>
-      </c>
-      <c r="AJ35" t="s">
-        <v>361</v>
-      </c>
-      <c r="AK35" t="s">
-        <v>362</v>
-      </c>
-      <c r="AL35" t="s">
-        <v>121</v>
-      </c>
-      <c r="AM35" t="s">
-        <v>363</v>
-      </c>
-      <c r="AN35" t="s">
-        <v>364</v>
-      </c>
-      <c r="AO35" t="s">
-        <v>365</v>
-      </c>
-      <c r="AP35" t="s">
-        <v>366</v>
-      </c>
-      <c r="AQ35" t="s">
-        <v>367</v>
-      </c>
-      <c r="AR35" t="s">
-        <v>368</v>
-      </c>
+      <c r="P35" s="1">
+        <v>12.4</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>22.32</v>
+      </c>
+      <c r="R35" s="1">
+        <v>13.8</v>
+      </c>
+      <c r="S35" s="1">
+        <v>24.84</v>
+      </c>
+      <c r="T35" s="1">
+        <v>15.2</v>
+      </c>
+      <c r="U35" s="1">
+        <v>27.36</v>
+      </c>
+      <c r="V35" s="1">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="W35" s="1">
+        <v>29.88</v>
+      </c>
+      <c r="X35" s="1">
+        <v>18</v>
+      </c>
+      <c r="Y35" s="1">
+        <v>32.4</v>
+      </c>
+      <c r="Z35" s="1">
+        <v>13.13</v>
+      </c>
+      <c r="AA35" s="1">
+        <v>7.24</v>
+      </c>
+      <c r="AB35" s="1">
+        <v>10.87</v>
+      </c>
+      <c r="AC35" s="1">
+        <v>12.76</v>
+      </c>
+      <c r="AD35" s="1">
+        <v>9.4700000000000006</v>
+      </c>
+      <c r="AE35" s="1">
+        <v>0.61</v>
+      </c>
+      <c r="AF35" s="1">
+        <v>56.74</v>
+      </c>
+      <c r="AG35" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="AH35" s="1">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="AI35" s="1">
+        <v>51</v>
+      </c>
+      <c r="AJ35" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AK35" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AL35" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM35" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AN35" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO35" s="1"/>
+      <c r="AP35" s="1"/>
+      <c r="AQ35" s="1"/>
+      <c r="AR35" s="1"/>
     </row>
     <row r="36" spans="1:44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>3048</v>
-      </c>
-      <c r="B36" t="s">
-        <v>369</v>
-      </c>
-      <c r="C36" t="s">
-        <v>370</v>
+      <c r="A36" s="1">
+        <v>6257</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="D36" s="7">
-        <v>2448297940</v>
-      </c>
-      <c r="E36">
-        <v>19960711</v>
-      </c>
-      <c r="F36">
-        <v>20021001</v>
+        <v>4444791420</v>
+      </c>
+      <c r="E36" s="1">
+        <v>19881215</v>
+      </c>
+      <c r="F36" s="1">
+        <v>20030825</v>
       </c>
       <c r="G36">
-        <v>8.98</v>
+        <v>4.84</v>
       </c>
       <c r="H36">
-        <v>7.53</v>
+        <v>10.33</v>
       </c>
       <c r="I36">
-        <v>1.98</v>
+        <v>1.86</v>
       </c>
       <c r="J36" t="s">
-        <v>371</v>
+        <v>268</v>
       </c>
       <c r="K36" t="s">
-        <v>372</v>
+        <v>269</v>
       </c>
       <c r="L36" t="s">
-        <v>373</v>
+        <v>270</v>
       </c>
       <c r="M36" t="s">
-        <v>374</v>
-      </c>
-      <c r="N36">
-        <v>8</v>
-      </c>
-      <c r="O36">
-        <v>34.32</v>
-      </c>
-      <c r="P36">
-        <v>9.6</v>
-      </c>
-      <c r="Q36">
-        <v>41.18</v>
-      </c>
-      <c r="R36">
-        <v>11.2</v>
-      </c>
-      <c r="S36">
-        <v>48.05</v>
-      </c>
-      <c r="T36">
-        <v>12.8</v>
-      </c>
-      <c r="U36">
-        <v>54.91</v>
-      </c>
-      <c r="V36">
-        <v>14.4</v>
-      </c>
-      <c r="W36">
-        <v>61.78</v>
-      </c>
-      <c r="X36">
-        <v>16</v>
-      </c>
-      <c r="Y36">
-        <v>68.64</v>
-      </c>
-      <c r="Z36">
-        <v>3.24</v>
-      </c>
-      <c r="AA36">
-        <v>1.5</v>
-      </c>
-      <c r="AB36">
-        <v>27.8</v>
-      </c>
-      <c r="AC36">
-        <v>1.3</v>
-      </c>
-      <c r="AD36">
-        <v>1.04</v>
-      </c>
-      <c r="AE36">
-        <v>4.37</v>
-      </c>
-      <c r="AF36">
-        <v>115.38</v>
-      </c>
-      <c r="AG36">
-        <v>-2.5099999999999998</v>
-      </c>
-      <c r="AH36">
-        <v>-3.46</v>
-      </c>
-      <c r="AI36">
-        <v>30</v>
-      </c>
-      <c r="AJ36" t="s">
-        <v>375</v>
-      </c>
-      <c r="AK36" t="s">
-        <v>106</v>
-      </c>
-      <c r="AL36" t="s">
-        <v>172</v>
-      </c>
-      <c r="AM36" t="s">
-        <v>106</v>
-      </c>
-      <c r="AN36" t="s">
-        <v>85</v>
-      </c>
-      <c r="AO36" t="s">
-        <v>376</v>
-      </c>
-      <c r="AP36" t="s">
-        <v>377</v>
-      </c>
-      <c r="AQ36" t="s">
-        <v>378</v>
-      </c>
-      <c r="AR36" t="s">
-        <v>379</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="N36" s="1">
+        <v>9</v>
+      </c>
+      <c r="O36" s="1">
+        <v>52.47</v>
+      </c>
+      <c r="P36" s="1">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>59.47</v>
+      </c>
+      <c r="R36" s="1">
+        <v>11.4</v>
+      </c>
+      <c r="S36" s="1">
+        <v>66.459999999999994</v>
+      </c>
+      <c r="T36" s="1">
+        <v>12.6</v>
+      </c>
+      <c r="U36" s="1">
+        <v>73.459999999999994</v>
+      </c>
+      <c r="V36" s="1">
+        <v>13.8</v>
+      </c>
+      <c r="W36" s="1">
+        <v>80.45</v>
+      </c>
+      <c r="X36" s="1">
+        <v>15</v>
+      </c>
+      <c r="Y36" s="1">
+        <v>87.45</v>
+      </c>
+      <c r="Z36" s="1">
+        <v>30.03</v>
+      </c>
+      <c r="AA36" s="1">
+        <v>21.36</v>
+      </c>
+      <c r="AB36" s="1">
+        <v>19.16</v>
+      </c>
+      <c r="AC36" s="1">
+        <v>22.37</v>
+      </c>
+      <c r="AD36" s="1">
+        <v>18.329999999999998</v>
+      </c>
+      <c r="AE36" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="AF36" s="1">
+        <v>95.49</v>
+      </c>
+      <c r="AG36" s="1">
+        <v>17.23</v>
+      </c>
+      <c r="AH36" s="1">
+        <v>-2.14</v>
+      </c>
+      <c r="AI36" s="1">
+        <v>64</v>
+      </c>
+      <c r="AJ36" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AK36" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AL36" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AM36" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AN36" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO36" s="1"/>
+      <c r="AP36" s="1"/>
+      <c r="AQ36" s="1"/>
+      <c r="AR36" s="1"/>
     </row>
     <row r="37" spans="1:44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>3312</v>
-      </c>
-      <c r="B37" t="s">
-        <v>380</v>
-      </c>
-      <c r="C37" t="s">
-        <v>381</v>
+      <c r="A37" s="1">
+        <v>8112</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="D37" s="7">
-        <v>1376254550</v>
-      </c>
-      <c r="E37">
-        <v>19951006</v>
-      </c>
-      <c r="F37">
-        <v>20101229</v>
+        <v>4284964730</v>
+      </c>
+      <c r="E37" s="1">
+        <v>19870305</v>
+      </c>
+      <c r="F37" s="1">
+        <v>20071231</v>
       </c>
       <c r="G37">
-        <v>4.18</v>
+        <v>6.03</v>
       </c>
       <c r="H37">
-        <v>7.61</v>
+        <v>7.85</v>
       </c>
       <c r="I37">
-        <v>1.82</v>
+        <v>2.02</v>
       </c>
       <c r="J37" t="s">
-        <v>382</v>
+        <v>272</v>
       </c>
       <c r="K37" t="s">
-        <v>383</v>
+        <v>273</v>
       </c>
       <c r="L37" t="s">
-        <v>384</v>
+        <v>274</v>
       </c>
       <c r="M37" t="s">
-        <v>385</v>
-      </c>
-      <c r="N37">
-        <v>15</v>
-      </c>
-      <c r="O37">
-        <v>47.1</v>
-      </c>
-      <c r="P37">
-        <v>18</v>
-      </c>
-      <c r="Q37">
-        <v>56.52</v>
-      </c>
-      <c r="R37">
-        <v>21</v>
-      </c>
-      <c r="S37">
-        <v>65.94</v>
-      </c>
-      <c r="T37">
-        <v>24</v>
-      </c>
-      <c r="U37">
-        <v>75.36</v>
-      </c>
-      <c r="V37">
-        <v>27</v>
-      </c>
-      <c r="W37">
-        <v>84.78</v>
-      </c>
-      <c r="X37">
-        <v>30</v>
-      </c>
-      <c r="Y37">
-        <v>94.2</v>
-      </c>
-      <c r="Z37">
-        <v>5.84</v>
-      </c>
-      <c r="AA37">
-        <v>3.09</v>
-      </c>
-      <c r="AB37">
-        <v>27.98</v>
-      </c>
-      <c r="AC37">
-        <v>3.08</v>
-      </c>
-      <c r="AD37">
-        <v>2.5</v>
-      </c>
-      <c r="AE37">
-        <v>3.01</v>
-      </c>
-      <c r="AF37">
-        <v>100.32</v>
-      </c>
-      <c r="AG37">
-        <v>-3.19</v>
-      </c>
-      <c r="AH37">
-        <v>-3.32</v>
-      </c>
-      <c r="AI37">
-        <v>40</v>
-      </c>
-      <c r="AJ37" t="s">
-        <v>386</v>
-      </c>
-      <c r="AK37" t="s">
-        <v>387</v>
-      </c>
-      <c r="AL37" t="s">
-        <v>388</v>
-      </c>
-      <c r="AM37" t="s">
-        <v>389</v>
-      </c>
-      <c r="AN37" t="s">
-        <v>102</v>
-      </c>
-      <c r="AO37" t="s">
-        <v>390</v>
-      </c>
-      <c r="AP37" t="s">
-        <v>391</v>
-      </c>
-      <c r="AQ37" t="s">
-        <v>392</v>
-      </c>
-      <c r="AR37" t="s">
-        <v>393</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="N37" s="1">
+        <v>7</v>
+      </c>
+      <c r="O37" s="1">
+        <v>46.97</v>
+      </c>
+      <c r="P37" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>55.02</v>
+      </c>
+      <c r="R37" s="1">
+        <v>9.4</v>
+      </c>
+      <c r="S37" s="1">
+        <v>63.07</v>
+      </c>
+      <c r="T37" s="1">
+        <v>10.6</v>
+      </c>
+      <c r="U37" s="1">
+        <v>71.13</v>
+      </c>
+      <c r="V37" s="1">
+        <v>11.8</v>
+      </c>
+      <c r="W37" s="1">
+        <v>79.180000000000007</v>
+      </c>
+      <c r="X37" s="1">
+        <v>13</v>
+      </c>
+      <c r="Y37" s="1">
+        <v>87.23</v>
+      </c>
+      <c r="Z37" s="1">
+        <v>3.26</v>
+      </c>
+      <c r="AA37" s="1">
+        <v>2.17</v>
+      </c>
+      <c r="AB37" s="1">
+        <v>31.83</v>
+      </c>
+      <c r="AC37" s="1">
+        <v>2.02</v>
+      </c>
+      <c r="AD37" s="1">
+        <v>1.53</v>
+      </c>
+      <c r="AE37" s="1">
+        <v>4.42</v>
+      </c>
+      <c r="AF37" s="1">
+        <v>107.43</v>
+      </c>
+      <c r="AG37" s="1">
+        <v>-12.76</v>
+      </c>
+      <c r="AH37" s="1">
+        <v>-8.07</v>
+      </c>
+      <c r="AI37" s="1">
+        <v>32</v>
+      </c>
+      <c r="AJ37" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK37" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AL37" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM37" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AN37" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO37" s="1"/>
+      <c r="AP37" s="1"/>
+      <c r="AQ37" s="1"/>
+      <c r="AR37" s="1"/>
     </row>
     <row r="38" spans="1:44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>2387</v>
-      </c>
-      <c r="B38" t="s">
-        <v>394</v>
-      </c>
-      <c r="C38" t="s">
-        <v>395</v>
+      <c r="A38" s="1">
+        <v>8150</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="D38" s="7">
-        <v>1952510510</v>
-      </c>
-      <c r="E38">
-        <v>19910722</v>
-      </c>
-      <c r="F38">
-        <v>19990125</v>
+        <v>7272401260</v>
+      </c>
+      <c r="E38" s="1">
+        <v>19970728</v>
+      </c>
+      <c r="F38" s="1">
+        <v>20140411</v>
       </c>
       <c r="G38">
-        <v>4.26</v>
+        <v>4.55</v>
       </c>
       <c r="H38">
-        <v>7.36</v>
+        <v>8.1199999999999992</v>
       </c>
       <c r="I38">
-        <v>1.1599999999999999</v>
+        <v>1.54</v>
       </c>
       <c r="J38" t="s">
-        <v>396</v>
+        <v>276</v>
       </c>
       <c r="K38" t="s">
-        <v>397</v>
+        <v>277</v>
       </c>
       <c r="L38" t="s">
-        <v>398</v>
+        <v>278</v>
       </c>
       <c r="M38" t="s">
-        <v>399</v>
-      </c>
-      <c r="N38">
-        <v>10</v>
-      </c>
-      <c r="O38">
-        <v>63.9</v>
-      </c>
-      <c r="P38">
+        <v>279</v>
+      </c>
+      <c r="N38" s="1">
+        <v>9</v>
+      </c>
+      <c r="O38" s="1">
+        <v>53.55</v>
+      </c>
+      <c r="P38" s="1">
+        <v>10.8</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>64.260000000000005</v>
+      </c>
+      <c r="R38" s="1">
         <v>12.6</v>
       </c>
-      <c r="Q38">
-        <v>80.510000000000005</v>
-      </c>
-      <c r="R38">
-        <v>15.2</v>
-      </c>
-      <c r="S38">
-        <v>97.13</v>
-      </c>
-      <c r="T38">
-        <v>17.8</v>
-      </c>
-      <c r="U38">
-        <v>113.7</v>
-      </c>
-      <c r="V38">
-        <v>20.399999999999999</v>
-      </c>
-      <c r="W38">
-        <v>130.4</v>
-      </c>
-      <c r="X38">
-        <v>23</v>
-      </c>
-      <c r="Y38">
-        <v>147</v>
-      </c>
-      <c r="Z38">
-        <v>12.93</v>
-      </c>
-      <c r="AA38">
-        <v>7.05</v>
-      </c>
-      <c r="AB38">
-        <v>12.98</v>
-      </c>
-      <c r="AC38">
-        <v>6.67</v>
-      </c>
-      <c r="AD38">
-        <v>4.84</v>
-      </c>
-      <c r="AE38">
-        <v>1.06</v>
-      </c>
-      <c r="AF38">
-        <v>105.7</v>
-      </c>
-      <c r="AG38">
-        <v>4.08</v>
-      </c>
-      <c r="AH38">
-        <v>-3.91</v>
-      </c>
-      <c r="AI38">
-        <v>40</v>
-      </c>
-      <c r="AJ38" t="s">
-        <v>99</v>
-      </c>
-      <c r="AK38" t="s">
-        <v>106</v>
-      </c>
-      <c r="AL38" t="s">
-        <v>400</v>
-      </c>
-      <c r="AM38" t="s">
-        <v>120</v>
-      </c>
-      <c r="AN38" t="s">
-        <v>401</v>
-      </c>
-      <c r="AO38" t="s">
-        <v>402</v>
-      </c>
-      <c r="AP38" t="s">
-        <v>403</v>
-      </c>
-      <c r="AQ38" t="s">
-        <v>404</v>
-      </c>
-      <c r="AR38" t="s">
-        <v>405</v>
-      </c>
+      <c r="S38" s="1">
+        <v>74.97</v>
+      </c>
+      <c r="T38" s="1">
+        <v>14.4</v>
+      </c>
+      <c r="U38" s="1">
+        <v>85.68</v>
+      </c>
+      <c r="V38" s="1">
+        <v>16.2</v>
+      </c>
+      <c r="W38" s="1">
+        <v>96.39</v>
+      </c>
+      <c r="X38" s="1">
+        <v>18</v>
+      </c>
+      <c r="Y38" s="1">
+        <v>107.1</v>
+      </c>
+      <c r="Z38" s="1">
+        <v>26.62</v>
+      </c>
+      <c r="AA38" s="1">
+        <v>20.51</v>
+      </c>
+      <c r="AB38" s="1">
+        <v>22.24</v>
+      </c>
+      <c r="AC38" s="1">
+        <v>21.26</v>
+      </c>
+      <c r="AD38" s="1">
+        <v>17.670000000000002</v>
+      </c>
+      <c r="AE38" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="AF38" s="1">
+        <v>96.47</v>
+      </c>
+      <c r="AG38" s="1">
+        <v>7.35</v>
+      </c>
+      <c r="AH38" s="1">
+        <v>1.02</v>
+      </c>
+      <c r="AI38" s="1">
+        <v>66</v>
+      </c>
+      <c r="AJ38" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AK38" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AL38" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AM38" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AN38" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AO38" s="1"/>
+      <c r="AP38" s="1"/>
+      <c r="AQ38" s="1"/>
+      <c r="AR38" s="1"/>
     </row>
     <row r="39" spans="1:44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>1305</v>
-      </c>
-      <c r="B39" t="s">
-        <v>406</v>
-      </c>
-      <c r="C39" t="s">
-        <v>407</v>
+      <c r="A39" s="1">
+        <v>8213</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="D39" s="7">
-        <v>5810504940</v>
-      </c>
-      <c r="E39">
-        <v>19640429</v>
-      </c>
-      <c r="F39">
-        <v>19730305</v>
+        <v>2712424880</v>
+      </c>
+      <c r="E39" s="1">
+        <v>19980421</v>
+      </c>
+      <c r="F39" s="1">
+        <v>20091225</v>
       </c>
       <c r="G39">
-        <v>6.57</v>
+        <v>7.21</v>
       </c>
       <c r="H39">
-        <v>7.04</v>
+        <v>8.02</v>
       </c>
       <c r="I39">
-        <v>1.92</v>
+        <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>408</v>
+        <v>280</v>
       </c>
       <c r="K39" t="s">
-        <v>409</v>
+        <v>281</v>
       </c>
       <c r="L39" t="s">
-        <v>410</v>
+        <v>282</v>
       </c>
       <c r="M39" t="s">
-        <v>411</v>
-      </c>
-      <c r="N39">
+        <v>283</v>
+      </c>
+      <c r="N39" s="1">
+        <v>6</v>
+      </c>
+      <c r="O39" s="1">
+        <v>36.659999999999997</v>
+      </c>
+      <c r="P39" s="1">
         <v>7</v>
       </c>
-      <c r="O39">
-        <v>34.86</v>
-      </c>
-      <c r="P39">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="Q39">
-        <v>43.82</v>
-      </c>
-      <c r="R39">
-        <v>10.6</v>
-      </c>
-      <c r="S39">
-        <v>52.79</v>
-      </c>
-      <c r="T39">
-        <v>12.4</v>
-      </c>
-      <c r="U39">
-        <v>61.75</v>
-      </c>
-      <c r="V39">
-        <v>14.2</v>
-      </c>
-      <c r="W39">
-        <v>70.72</v>
-      </c>
-      <c r="X39">
-        <v>16</v>
-      </c>
-      <c r="Y39">
-        <v>79.680000000000007</v>
-      </c>
-      <c r="Z39">
-        <v>25.41</v>
-      </c>
-      <c r="AA39">
-        <v>16.78</v>
-      </c>
-      <c r="AB39">
-        <v>24.74</v>
-      </c>
-      <c r="AC39">
-        <v>16.5</v>
-      </c>
-      <c r="AD39">
-        <v>13.25</v>
-      </c>
-      <c r="AE39">
-        <v>1.29</v>
-      </c>
-      <c r="AF39">
-        <v>101.7</v>
-      </c>
-      <c r="AG39">
-        <v>1.93</v>
-      </c>
-      <c r="AH39">
-        <v>-0.39</v>
-      </c>
-      <c r="AI39">
-        <v>57</v>
-      </c>
-      <c r="AJ39" t="s">
-        <v>162</v>
-      </c>
-      <c r="AK39" t="s">
-        <v>412</v>
-      </c>
-      <c r="AL39" t="s">
-        <v>413</v>
-      </c>
-      <c r="AM39" t="s">
-        <v>414</v>
-      </c>
-      <c r="AN39" t="s">
-        <v>415</v>
-      </c>
-      <c r="AO39" t="s">
-        <v>416</v>
-      </c>
-      <c r="AP39" t="s">
-        <v>417</v>
-      </c>
-      <c r="AQ39" t="s">
-        <v>418</v>
-      </c>
-      <c r="AR39" t="s">
-        <v>419</v>
-      </c>
+      <c r="Q39" s="1">
+        <v>42.77</v>
+      </c>
+      <c r="R39" s="1">
+        <v>8</v>
+      </c>
+      <c r="S39" s="1">
+        <v>48.88</v>
+      </c>
+      <c r="T39" s="1">
+        <v>9</v>
+      </c>
+      <c r="U39" s="1">
+        <v>54.99</v>
+      </c>
+      <c r="V39" s="1">
+        <v>10</v>
+      </c>
+      <c r="W39" s="1">
+        <v>61.1</v>
+      </c>
+      <c r="X39" s="1">
+        <v>11</v>
+      </c>
+      <c r="Y39" s="1">
+        <v>67.209999999999994</v>
+      </c>
+      <c r="Z39" s="1">
+        <v>15.64</v>
+      </c>
+      <c r="AA39" s="1">
+        <v>8.6</v>
+      </c>
+      <c r="AB39" s="1">
+        <v>13.51</v>
+      </c>
+      <c r="AC39" s="1">
+        <v>9.09</v>
+      </c>
+      <c r="AD39" s="1">
+        <v>6.58</v>
+      </c>
+      <c r="AE39" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="AF39" s="1">
+        <v>94.61</v>
+      </c>
+      <c r="AG39" s="1">
+        <v>2.02</v>
+      </c>
+      <c r="AH39" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="AI39" s="1">
+        <v>47</v>
+      </c>
+      <c r="AJ39" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AK39" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AL39" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AM39" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AN39" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AO39" s="1"/>
+      <c r="AP39" s="1"/>
+      <c r="AQ39" s="1"/>
+      <c r="AR39" s="1"/>
     </row>
     <row r="40" spans="1:44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>1604</v>
-      </c>
-      <c r="B40" t="s">
-        <v>420</v>
-      </c>
-      <c r="C40" t="s">
-        <v>421</v>
+      <c r="A40" s="1">
+        <v>8215</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="D40" s="7">
-        <v>3872000000</v>
-      </c>
-      <c r="E40">
-        <v>19620911</v>
-      </c>
-      <c r="F40">
-        <v>19701214</v>
+        <v>3206745140</v>
+      </c>
+      <c r="E40" s="1">
+        <v>19980716</v>
+      </c>
+      <c r="F40" s="1">
+        <v>20101112</v>
       </c>
       <c r="G40">
-        <v>8.31</v>
+        <v>1.86</v>
       </c>
       <c r="H40">
-        <v>6.5</v>
+        <v>13.7</v>
       </c>
       <c r="I40">
-        <v>1.32</v>
+        <v>2.52</v>
       </c>
       <c r="J40" t="s">
-        <v>422</v>
+        <v>184</v>
       </c>
       <c r="K40" t="s">
-        <v>423</v>
+        <v>185</v>
       </c>
       <c r="L40" t="s">
-        <v>424</v>
+        <v>179</v>
       </c>
       <c r="M40" t="s">
-        <v>425</v>
-      </c>
-      <c r="N40">
-        <v>7</v>
-      </c>
-      <c r="O40">
-        <v>32.130000000000003</v>
-      </c>
-      <c r="P40">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="Q40">
-        <v>37.64</v>
-      </c>
-      <c r="R40">
-        <v>9.4</v>
-      </c>
-      <c r="S40">
-        <v>43.15</v>
-      </c>
-      <c r="T40">
-        <v>10.6</v>
-      </c>
-      <c r="U40">
-        <v>48.65</v>
-      </c>
-      <c r="V40">
-        <v>11.8</v>
-      </c>
-      <c r="W40">
-        <v>54.16</v>
-      </c>
-      <c r="X40">
-        <v>13</v>
-      </c>
-      <c r="Y40">
-        <v>59.67</v>
-      </c>
-      <c r="Z40">
-        <v>17.72</v>
-      </c>
-      <c r="AA40">
-        <v>7.61</v>
-      </c>
-      <c r="AB40">
-        <v>26.03</v>
-      </c>
-      <c r="AC40">
-        <v>26.84</v>
-      </c>
-      <c r="AD40">
-        <v>24.99</v>
-      </c>
-      <c r="AE40">
-        <v>0.67</v>
-      </c>
-      <c r="AF40">
-        <v>28.35</v>
-      </c>
-      <c r="AG40">
-        <v>0.53</v>
-      </c>
-      <c r="AH40">
-        <v>4.1399999999999997</v>
-      </c>
-      <c r="AI40">
-        <v>62</v>
-      </c>
-      <c r="AJ40" t="s">
-        <v>130</v>
-      </c>
-      <c r="AK40" t="s">
-        <v>93</v>
-      </c>
-      <c r="AL40" t="s">
-        <v>127</v>
-      </c>
-      <c r="AM40" t="s">
-        <v>298</v>
-      </c>
-      <c r="AN40" t="s">
-        <v>127</v>
-      </c>
-      <c r="AO40" t="s">
-        <v>426</v>
-      </c>
-      <c r="AP40" t="s">
-        <v>427</v>
-      </c>
-      <c r="AQ40" t="s">
-        <v>428</v>
-      </c>
-      <c r="AR40" t="s">
-        <v>429</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="N40" s="1">
+        <v>15</v>
+      </c>
+      <c r="O40" s="1">
+        <v>41.1</v>
+      </c>
+      <c r="P40" s="1">
+        <v>18</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>49.32</v>
+      </c>
+      <c r="R40" s="1">
+        <v>21</v>
+      </c>
+      <c r="S40" s="1">
+        <v>57.54</v>
+      </c>
+      <c r="T40" s="1">
+        <v>24</v>
+      </c>
+      <c r="U40" s="1">
+        <v>65.760000000000005</v>
+      </c>
+      <c r="V40" s="1">
+        <v>27</v>
+      </c>
+      <c r="W40" s="1">
+        <v>73.98</v>
+      </c>
+      <c r="X40" s="1">
+        <v>30</v>
+      </c>
+      <c r="Y40" s="1">
+        <v>82.2</v>
+      </c>
+      <c r="Z40" s="1">
+        <v>18.329999999999998</v>
+      </c>
+      <c r="AA40" s="1">
+        <v>6.21</v>
+      </c>
+      <c r="AB40" s="1">
+        <v>20.77</v>
+      </c>
+      <c r="AC40" s="1">
+        <v>7.17</v>
+      </c>
+      <c r="AD40" s="1">
+        <v>5.72</v>
+      </c>
+      <c r="AE40" s="1">
+        <v>1.46</v>
+      </c>
+      <c r="AF40" s="1">
+        <v>86.61</v>
+      </c>
+      <c r="AG40" s="1">
+        <v>2.25</v>
+      </c>
+      <c r="AH40" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="AI40" s="1">
+        <v>40</v>
+      </c>
+      <c r="AJ40" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AK40" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL40" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AM40" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AN40" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AO40" s="1"/>
+      <c r="AP40" s="1"/>
+      <c r="AQ40" s="1"/>
+      <c r="AR40" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:AN28">
-    <sortCondition ref="A3:A28"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:AR40">
+    <sortCondition ref="A3:A40"/>
   </sortState>
   <mergeCells count="21">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="Z1:Z2"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="AB1:AB2"/>
+    <mergeCell ref="AC1:AC2"/>
     <mergeCell ref="AJ1:AN1"/>
     <mergeCell ref="AD1:AD2"/>
     <mergeCell ref="B1:B2"/>
@@ -7391,11 +7432,6 @@
     <mergeCell ref="AG1:AG2"/>
     <mergeCell ref="AH1:AH2"/>
     <mergeCell ref="AI1:AI2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="Z1:Z2"/>
-    <mergeCell ref="AA1:AA2"/>
-    <mergeCell ref="AB1:AB2"/>
-    <mergeCell ref="AC1:AC2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="Z26:Z28">

--- a/Data/彙整清單_整理版.xlsx
+++ b/Data/彙整清單_整理版.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hmlu\svnbox\Research\Python\Stock\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0448D389-56FA-4B02-9720-A494CB5E0464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AFB300A-31C0-483F-84CF-54B3153B4F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33240" yWindow="3075" windowWidth="23505" windowHeight="11235" xr2:uid="{D923A086-913E-4840-96DC-7378B4FF8169}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D923A086-913E-4840-96DC-7378B4FF8169}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -620,12 +620,6 @@
     <t xml:space="preserve">  2.29 /    0.0</t>
   </si>
   <si>
-    <t xml:space="preserve">    2.74 /     2.82 /     3.47 /     4.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     2.7 /     2.66 /     3.16 /     6.07</t>
-  </si>
-  <si>
     <t>志聖</t>
   </si>
   <si>
@@ -635,318 +629,6 @@
     <t xml:space="preserve">  2.51 /    0.2</t>
   </si>
   <si>
-    <t xml:space="preserve">   37.55 /    37.67 /    38.52 /    36.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  4392.0 /   4485.0 /  13782.8 /  13349.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    60.9 /    61.06 /    59.39 /    57.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1349.0 /   1685.0 /   1499.1 /  1514.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    12.1 /     12.1 /    11.98 /    12.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     1.3 /     1.17 /     1.13 /     1.62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    68.3 /    68.62 /    68.61 /    68.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   134.0 /   127.54 /   141.59 /   193.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.84 /     1.85 /     1.85 /     1.94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    20.0 /    20.05 /    19.95 /    19.61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1280.0 /   2170.6 /  2973.05 /  3381.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    14.2 /     14.2 /    13.91 /    13.41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.92 /      0.9 /     0.69 /     0.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   15.85 /    15.66 /    15.33 /    15.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2256.0 /   1132.4 /    703.3 /  1132.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.62 /     2.86 /     2.12 /     2.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.14 /     0.12 /     0.08 /     0.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   31.35 /    31.39 /    31.72 /    31.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   168.0 /    320.6 /   383.25 /   735.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.18 /     3.23 /     3.29 /     3.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     0.5 /     0.51 /     0.39 /     0.77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    33.1 /    33.86 /    35.16 /    34.38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1440.0 /   1499.0 /   1885.8 /  4063.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.29 /     1.38 /     1.59 /     1.56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5.91 /     5.44 /     5.34 /     5.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   24.65 /    24.41 /    24.11 /     24.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 11764.0 /  11064.8 / 14160.15 / 13296.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    46.0 /    45.76 /     45.7 /    46.87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.61 /     1.48 /     1.35 /     3.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    66.3 /    66.12 /    65.48 /    59.43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  6986.0 /   3624.8 /  11524.2 /  7281.83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    32.8 /     32.8 /     33.8 /     34.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8.51 /     9.47 /     6.92 /     5.44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   30.85 /    30.66 /    30.17 /     30.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  9828.0 /   6905.4 /  5036.55 /  7566.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    20.0 /     20.0 /    19.95 /    21.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.97 /     0.97 /     1.14 /     1.58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    85.0 /     83.8 /    82.23 /    80.99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2346.0 /   2301.8 /  1874.95 /  1743.73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    34.1 /    34.04 /    33.67 /    33.49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     1.4 /      0.9 /     0.28 /     0.71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   37.15 /     34.6 /    28.75 /    27.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10818.0 /  11128.8 /   7707.2 /  3310.72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.28 /     1.46 /     1.93 /     2.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    36.9 /    34.24 /    17.74 /    13.71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   168.0 /    168.8 /    165.5 /   163.92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2089.0 /   2703.4 /   2421.9 /  2994.93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    22.0 /     22.2 /    21.88 /    22.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    18.8 /    19.76 /    20.35 /    22.81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    37.3 /    37.55 /    37.84 /    38.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1374.0 /   1052.0 /  1388.85 /  1619.88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    20.6 /    20.64 /    21.08 /    21.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.72 /     0.77 /     0.69 /     0.59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   49.65 /    49.65 /    49.32 /    48.93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   132.0 /    176.6 /   104.92 /   119.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.63 /     3.65 /     3.71 /     3.65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    75.9 /     75.7 /    75.29 /    74.53</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 16600.0 /  14184.0 /  18391.6 / 19961.58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    21.9 /    21.92 /    21.89 /     22.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    10.5 /    10.54 /    10.73 /    17.37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    55.5 /     55.9 /    54.54 /    53.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   930.0 /   1360.8 /   1044.4 /   923.37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    30.8 /     30.9 /    30.98 /    31.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.32 /     0.31 /     0.55 /     0.66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   122.5 /    123.3 /   123.12 /    119.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   312.0 /    503.0 /   764.05 /   938.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    42.4 /    42.42 /    42.23 /    41.62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.72 /     1.04 /     0.98 /     1.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    29.0 /    29.24 /    29.02 /    29.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   352.0 /    342.4 /   419.75 /   584.47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4.17 /     4.23 /     4.32 /     5.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.16 /     0.07 /     0.35 /     0.37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    52.0 /    52.12 /    51.25 /    51.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3717.0 /   4965.2 /  4303.75 /  3811.77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    26.9 /    26.84 /    26.64 /    26.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.28 /     0.28 /     0.34 /     0.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   34.45 /    34.57 /     34.1 /    31.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  6272.0 /   8563.4 / 11664.05 /  11443.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    12.5 /    12.32 /    11.63 /    10.97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     0.8 /     1.05 /     0.86 /     0.72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    14.0 /    14.03 /    13.93 /     13.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   243.0 /    253.4 /    280.1 /   275.94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6.18 /     6.18 /     6.16 /     6.38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     0.0 /      0.0 /     0.13 /      0.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    59.3 /    58.96 /    58.32 /    59.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2911.0 /   3351.0 /   2421.4 /   3586.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    23.4 /    23.56 /    24.08 /    25.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.95 /     0.92 /     1.04 /     2.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   49.75 /    50.38 /    48.36 /    45.43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3426.0 /   8351.2 /  6203.45 /   4315.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    24.4 /     24.2 /    23.45 /    22.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     1.5 /     1.33 /     0.81 /     0.66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    48.3 /     48.2 /     47.4 /    46.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  5068.0 /   4617.8 /  5785.25 /  6667.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    47.1 /    47.14 /    46.81 /    48.97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.84 /     3.72 /     5.23 /     5.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   48.55 /    48.44 /    47.84 /    47.38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   846.0 /   1248.0 /    858.9 /   930.82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    21.5 /    21.32 /    20.84 /    20.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.21 /      0.2 /      0.2 /     0.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    52.2 /    52.46 /    50.98 /    48.74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   270.0 /   1087.0 /    492.5 /    497.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    10.6 /    10.72 /     10.8 /    11.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.77 /     0.74 /     0.61 /     0.57</t>
-  </si>
-  <si>
     <t>100-1000張比例</t>
   </si>
   <si>
@@ -971,12 +653,6 @@
     <t xml:space="preserve">  6507.0 /   2969.2 /   2871.1 /  3921.17</t>
   </si>
   <si>
-    <t xml:space="preserve">    9.08 /      9.1 /     8.97 /     9.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.82 /      0.8 /     0.95 /     1.04</t>
-  </si>
-  <si>
     <t xml:space="preserve">   0.2 /    0.0</t>
   </si>
   <si>
@@ -1013,12 +689,6 @@
     <t xml:space="preserve"> 28146.0 /   9782.2 /  5551.65 /  7865.17</t>
   </si>
   <si>
-    <t xml:space="preserve">    37.5 /    37.88 /    38.44 /    39.98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     0.3 /     0.34 /     0.57 /     2.36</t>
-  </si>
-  <si>
     <t xml:space="preserve">   0.3 /    0.2</t>
   </si>
   <si>
@@ -1049,12 +719,6 @@
     <t xml:space="preserve">  9243.0 /   9012.8 /  12034.5 / 11587.75</t>
   </si>
   <si>
-    <t xml:space="preserve">    11.1 /    11.48 /    10.77 /    10.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7.21 /     7.03 /     7.49 /     11.0</t>
-  </si>
-  <si>
     <t xml:space="preserve">  1.33 /    0.0</t>
   </si>
   <si>
@@ -1094,12 +758,6 @@
     <t xml:space="preserve">   124.0 /   108.02 /    94.07 /   464.58</t>
   </si>
   <si>
-    <t xml:space="preserve">    1.43 /     1.41 /     1.34 /     1.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.22 /     0.21 /     0.19 /     1.91</t>
-  </si>
-  <si>
     <t>20.29  /  20.32  /  20.3  /  20.14  /  20.23</t>
   </si>
   <si>
@@ -1124,12 +782,6 @@
     <t xml:space="preserve">  1649.0 /   1251.4 /   2101.4 /  1447.77</t>
   </si>
   <si>
-    <t xml:space="preserve">    8.51 /     8.54 /     8.56 /     7.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.68 /     1.64 /      1.2 /     1.09</t>
-  </si>
-  <si>
     <t xml:space="preserve">   1.9 /    0.0</t>
   </si>
   <si>
@@ -1160,12 +812,6 @@
     <t xml:space="preserve"> 53753.0 /  13518.6 /  6499.45 / 11712.15</t>
   </si>
   <si>
-    <t xml:space="preserve">    8.71 /     9.08 /     9.48 /    10.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.93 /     0.97 /     1.06 /     2.87</t>
-  </si>
-  <si>
     <t xml:space="preserve">   1.2 /    0.2</t>
   </si>
   <si>
@@ -1202,12 +848,6 @@
     <t xml:space="preserve">  1590.0 /    877.8 /   720.65 /  1001.03</t>
   </si>
   <si>
-    <t xml:space="preserve">    6.05 /     6.17 /     6.25 /     6.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.12 /     0.14 /     0.26 /     0.99</t>
-  </si>
-  <si>
     <t xml:space="preserve">   1.9 /    1.0</t>
   </si>
   <si>
@@ -1235,12 +875,6 @@
     <t xml:space="preserve">  1123.0 /    841.2 /   975.45 /   1877.4</t>
   </si>
   <si>
-    <t xml:space="preserve">    5.84 /     5.85 /     5.85 /     6.56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.41 /     1.25 /     0.84 /     0.51</t>
-  </si>
-  <si>
     <t xml:space="preserve">   0.0 /    1.0</t>
   </si>
   <si>
@@ -1277,12 +911,6 @@
     <t xml:space="preserve">   989.0 /   2291.2 /  1452.75 /  1293.77</t>
   </si>
   <si>
-    <t xml:space="preserve">    0.88 /     0.94 /     1.16 /     1.74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.11 /     0.09 /     0.12 /     1.16</t>
-  </si>
-  <si>
     <t xml:space="preserve">  1.01 /    0.0</t>
   </si>
   <si>
@@ -1313,12 +941,6 @@
     <t xml:space="preserve"> 13672.0 /   5446.0 /   3801.8 /  7824.37</t>
   </si>
   <si>
-    <t xml:space="preserve">    10.9 /    10.84 /    11.04 /    14.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.79 /     0.78 /     0.85 /     1.79</t>
-  </si>
-  <si>
     <t xml:space="preserve">   0.5 /    0.5</t>
   </si>
   <si>
@@ -1355,12 +977,6 @@
     <t xml:space="preserve">   672.0 /    553.2 /   456.55 /    581.4</t>
   </si>
   <si>
-    <t xml:space="preserve">    10.4 /    10.32 /    10.23 /    10.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.97 /     0.99 /     1.04 /     1.68</t>
-  </si>
-  <si>
     <t>32.09  /  32.28  /  32.27  /  32.33  /  32.44</t>
   </si>
   <si>
@@ -1371,6 +987,390 @@
   </si>
   <si>
     <t>42.0  /  42.0  /  42.0  /  42.0  /  42.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    60.9 /    60.86 /    59.56 /    57.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1465.0 /   1493.0 /  1545.05 /  1517.53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    12.1 /     12.1 /    11.99 /    12.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.41 /     1.23 /     1.14 /     1.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    68.6 /    68.48 /    68.58 /    68.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   117.0 /   127.34 /   137.24 /   192.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.83 /     1.84 /     1.85 /     1.93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    19.8 /    19.97 /    19.95 /    19.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3687.0 /   2324.6 /   2901.5 /  3389.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    14.1 /    14.18 /    13.93 /    13.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.93 /     0.92 /     0.71 /     0.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    37.3 /     37.7 /    38.34 /    39.91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.45 /     0.34 /     0.54 /     2.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    10.5 /    10.78 /    10.98 /    14.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.92 /     0.81 /     0.84 /     1.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     9.4 /     9.05 /     9.45 /     10.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.14 /     0.99 /     1.07 /     2.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    9.14 /      9.1 /     8.98 /     9.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.79 /      0.8 /     0.94 /     1.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    15.6 /    15.68 /    15.35 /    15.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   986.0 /   1219.2 /   702.85 /  1133.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.44 /     2.79 /     2.16 /     2.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.12 /     0.12 /     0.08 /     0.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    10.4 /    10.34 /    10.24 /     10.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.97 /     0.98 /     1.02 /     1.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.41 /     1.42 /     1.35 /     1.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.24 /     0.22 /     0.19 /     1.82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   31.25 /    31.31 /    31.68 /    31.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   415.0 /    352.0 /    381.8 /   730.83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     3.1 /     3.19 /     3.28 /     3.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.52 /     0.51 /      0.4 /     0.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   32.35 /    33.38 /    34.99 /    34.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1742.0 /   1573.8 /   1867.5 /  4050.63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.29 /     1.34 /      1.6 /     1.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5.57 /     5.49 /     5.38 /     5.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   24.75 /    24.52 /    24.15 /    24.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14814.0 /  12329.4 / 14004.75 / 13398.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    46.0 /    45.84 /     45.7 /    46.83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.93 /     1.58 /     1.38 /      3.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    66.0 /    66.08 /    65.65 /    59.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4067.0 /   4017.0 /  11415.6 /  7317.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    32.8 /     32.8 /    33.68 /    34.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    8.94 /     9.34 /     7.21 /     5.49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    30.5 /    30.67 /    30.18 /    30.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  6304.0 /   7210.8 /  5056.15 /  7510.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    20.0 /     20.0 /    19.94 /     21.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.03 /     0.98 /     1.13 /     1.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    86.7 /    84.68 /    82.48 /    81.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  5699.0 /   3179.2 /  2096.45 /  1820.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    34.4 /    34.14 /    33.72 /    33.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.39 /     1.51 /     0.45 /     0.76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.84 /     0.91 /     1.11 /     1.73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.11 /      0.1 /     0.11 /      1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   35.15 /    35.23 /    29.23 /    27.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  7401.0 /  11311.6 /   8037.9 /  3339.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.18 /     1.35 /     1.87 /     2.53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    37.7 /     36.2 /    19.28 /    14.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   163.5 /    167.5 /   165.68 /    164.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2789.0 /   2955.4 /   2503.6 /  3007.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    21.8 /    22.08 /     21.9 /    22.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    19.1 /    19.46 /    20.22 /    22.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    51.5 /    52.34 /    50.96 /    48.89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   499.0 /    861.2 /    494.5 /   501.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    10.5 /    10.68 /    10.77 /    11.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.88 /     0.84 /     0.63 /     0.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    36.9 /    37.38 /    37.74 /    38.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1688.0 /   1230.8 /   1410.8 /  1627.63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    20.5 /     20.6 /    21.02 /    21.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.65 /     0.74 /     0.68 /     0.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   49.75 /    49.67 /    49.33 /    48.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   134.0 /    165.0 /   107.98 /   120.73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.63 /     3.63 /      3.7 /     3.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    75.7 /    75.58 /    75.28 /    74.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 23358.0 /  16145.0 / 18780.75 / 20181.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    21.9 /     21.9 /    21.88 /    22.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    10.4 /    10.48 /    10.75 /    17.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    54.9 /    55.74 /     54.6 /    53.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1517.0 /   1356.0 /   1090.2 /   937.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    30.8 /    30.86 /    30.96 /    31.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.28 /     0.31 /     0.53 /     0.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    8.39 /     8.49 /     8.59 /     7.72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.75 /     1.66 /     1.27 /     1.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    11.0 /    11.38 /    10.86 /    10.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    11.5 /     7.81 /     7.76 /    10.77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   123.0 /    123.0 /   123.12 /   119.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   553.0 /    523.0 /   734.35 /   937.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    42.4 /     42.4 /    42.26 /    41.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.75 /     1.22 /     1.02 /     1.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    6.03 /     6.13 /     6.23 /     6.77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.17 /     0.15 /     0.24 /     0.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    28.9 /    29.14 /    29.01 /     29.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   655.0 /    407.2 /    436.3 /   588.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.11 /      4.2 /     4.29 /      5.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.16 /     0.09 /     0.33 /     0.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5.62 /     5.79 /     5.81 /     6.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.78 /     1.18 /     0.83 /     0.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    51.7 /    51.94 /    51.32 /    51.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3752.0 /   4986.0 /  4313.45 /  3838.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    26.8 /    26.84 /    26.65 /    26.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.28 /     0.28 /     0.33 /     0.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    33.8 /    34.29 /    34.16 /    31.73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  7250.0 /   6869.2 /  11721.0 / 11542.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    12.3 /    12.32 /     11.7 /     11.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.83 /     0.99 /     0.88 /     0.73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   13.95 /     14.0 /    13.92 /    13.72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   205.0 /    232.6 /   279.85 /   277.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    6.15 /     6.17 /     6.16 /     6.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     0.0 /      0.0 /      0.1 /      0.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    58.1 /    58.82 /    58.28 /    59.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3954.0 /   3718.2 /   2408.3 /  3611.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    23.1 /    23.46 /    23.99 /    25.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.74 /     0.89 /      1.0 /     2.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    49.2 /    50.12 /    48.44 /    45.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3599.0 /   5769.6 /   5831.8 /  4332.77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    24.3 /    24.24 /     23.5 /     22.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.42 /     1.37 /     0.85 /     0.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    47.1 /     47.9 /    47.44 /    46.63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  6397.0 /   5088.6 /  5860.95 /  6675.82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    46.9 /    47.04 /    46.82 /    48.86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.74 /     3.72 /      5.1 /     5.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    48.0 /    48.33 /    47.88 /    47.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1338.0 /   1228.4 /    908.6 /   944.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    21.4 /    21.34 /    20.87 /    20.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.19 /      0.2 /     0.19 /     0.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   36.75 /     37.3 /    38.44 /    37.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3678.0 /   3732.0 /  13143.1 / 13142.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.42 /     2.68 /     3.37 /     4.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.31 /     2.47 /     3.05 /     5.48</t>
   </si>
 </sst>
 </file>
@@ -1563,7 +1563,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1741,6 +1741,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1988,7 +1994,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2021,6 +2027,9 @@
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2383,7 +2392,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2581,16 +2590,16 @@
         <v>2017</v>
       </c>
       <c r="AO2" t="s">
-        <v>291</v>
+        <v>185</v>
       </c>
       <c r="AP2" t="s">
-        <v>288</v>
+        <v>182</v>
       </c>
       <c r="AQ2" t="s">
-        <v>290</v>
+        <v>184</v>
       </c>
       <c r="AR2" t="s">
-        <v>289</v>
+        <v>183</v>
       </c>
       <c r="AS2"/>
       <c r="AT2"/>
@@ -2624,16 +2633,16 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="J3" t="s">
-        <v>186</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>187</v>
+        <v>302</v>
+      </c>
+      <c r="K3" t="s">
+        <v>303</v>
       </c>
       <c r="L3" t="s">
-        <v>188</v>
+        <v>304</v>
       </c>
       <c r="M3" t="s">
-        <v>189</v>
+        <v>305</v>
       </c>
       <c r="N3" s="1">
         <v>11</v>
@@ -2737,22 +2746,22 @@
         <v>19951102</v>
       </c>
       <c r="G4">
-        <v>3.81</v>
+        <v>3.79</v>
       </c>
       <c r="H4">
-        <v>17.34</v>
+        <v>17.41</v>
       </c>
       <c r="I4">
-        <v>3.21</v>
+        <v>3.22</v>
       </c>
       <c r="J4" t="s">
-        <v>190</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>191</v>
+        <v>306</v>
+      </c>
+      <c r="K4" t="s">
+        <v>307</v>
       </c>
       <c r="L4" t="s">
-        <v>192</v>
+        <v>308</v>
       </c>
       <c r="M4" t="s">
         <v>160</v>
@@ -2859,25 +2868,25 @@
         <v>19730831</v>
       </c>
       <c r="G5">
-        <v>5.5</v>
+        <v>5.56</v>
       </c>
       <c r="H5">
-        <v>8.81</v>
+        <v>8.7200000000000006</v>
       </c>
       <c r="I5">
-        <v>0.94</v>
+        <v>0.93</v>
       </c>
       <c r="J5" t="s">
-        <v>193</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>194</v>
+        <v>309</v>
+      </c>
+      <c r="K5" t="s">
+        <v>310</v>
       </c>
       <c r="L5" t="s">
-        <v>195</v>
+        <v>311</v>
       </c>
       <c r="M5" t="s">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="N5" s="1">
         <v>9</v>
@@ -2966,10 +2975,10 @@
         <v>1304</v>
       </c>
       <c r="B6" t="s">
-        <v>306</v>
+        <v>198</v>
       </c>
       <c r="C6" t="s">
-        <v>307</v>
+        <v>199</v>
       </c>
       <c r="D6" s="7">
         <v>11887635000</v>
@@ -2981,25 +2990,25 @@
         <v>19720520</v>
       </c>
       <c r="G6">
-        <v>3.31</v>
+        <v>3.25</v>
       </c>
       <c r="H6">
-        <v>6.62</v>
+        <v>6.74</v>
       </c>
       <c r="I6">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="J6" t="s">
-        <v>308</v>
-      </c>
-      <c r="K6" t="s">
-        <v>309</v>
+        <v>200</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>201</v>
       </c>
       <c r="L6" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="M6" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="N6">
         <v>10</v>
@@ -3077,22 +3086,22 @@
         <v>121</v>
       </c>
       <c r="AM6" t="s">
-        <v>312</v>
+        <v>202</v>
       </c>
       <c r="AN6" t="s">
-        <v>313</v>
+        <v>203</v>
       </c>
       <c r="AO6" t="s">
-        <v>314</v>
+        <v>204</v>
       </c>
       <c r="AP6" t="s">
-        <v>315</v>
+        <v>205</v>
       </c>
       <c r="AQ6" t="s">
-        <v>316</v>
+        <v>206</v>
       </c>
       <c r="AR6" t="s">
-        <v>317</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:46" x14ac:dyDescent="0.25">
@@ -3100,10 +3109,10 @@
         <v>1305</v>
       </c>
       <c r="B7" t="s">
-        <v>406</v>
+        <v>282</v>
       </c>
       <c r="C7" t="s">
-        <v>407</v>
+        <v>283</v>
       </c>
       <c r="D7" s="7">
         <v>5810504940</v>
@@ -3115,25 +3124,25 @@
         <v>19730305</v>
       </c>
       <c r="G7">
-        <v>6.57</v>
+        <v>6.62</v>
       </c>
       <c r="H7">
-        <v>7.04</v>
+        <v>6.99</v>
       </c>
       <c r="I7">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="J7" t="s">
-        <v>408</v>
+        <v>284</v>
       </c>
       <c r="K7" t="s">
-        <v>409</v>
+        <v>285</v>
       </c>
       <c r="L7" t="s">
-        <v>410</v>
+        <v>315</v>
       </c>
       <c r="M7" t="s">
-        <v>411</v>
+        <v>316</v>
       </c>
       <c r="N7">
         <v>7</v>
@@ -3205,28 +3214,28 @@
         <v>162</v>
       </c>
       <c r="AK7" t="s">
-        <v>412</v>
+        <v>286</v>
       </c>
       <c r="AL7" t="s">
-        <v>413</v>
+        <v>287</v>
       </c>
       <c r="AM7" t="s">
-        <v>414</v>
+        <v>288</v>
       </c>
       <c r="AN7" t="s">
-        <v>415</v>
+        <v>289</v>
       </c>
       <c r="AO7" t="s">
-        <v>416</v>
+        <v>290</v>
       </c>
       <c r="AP7" t="s">
-        <v>417</v>
+        <v>291</v>
       </c>
       <c r="AQ7" t="s">
-        <v>418</v>
+        <v>292</v>
       </c>
       <c r="AR7" t="s">
-        <v>419</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:46" x14ac:dyDescent="0.25">
@@ -3234,10 +3243,10 @@
         <v>1308</v>
       </c>
       <c r="B8" t="s">
-        <v>355</v>
+        <v>239</v>
       </c>
       <c r="C8" t="s">
-        <v>356</v>
+        <v>240</v>
       </c>
       <c r="D8" s="7">
         <v>5937439190</v>
@@ -3249,25 +3258,25 @@
         <v>19860620</v>
       </c>
       <c r="G8">
-        <v>3.92</v>
+        <v>3.76</v>
       </c>
       <c r="H8">
-        <v>7.85</v>
+        <v>8.19</v>
       </c>
       <c r="I8">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="J8" t="s">
-        <v>357</v>
-      </c>
-      <c r="K8" t="s">
-        <v>358</v>
+        <v>241</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>242</v>
       </c>
       <c r="L8" t="s">
-        <v>359</v>
+        <v>317</v>
       </c>
       <c r="M8" t="s">
-        <v>360</v>
+        <v>318</v>
       </c>
       <c r="N8">
         <v>11</v>
@@ -3336,31 +3345,31 @@
         <v>72</v>
       </c>
       <c r="AJ8" t="s">
-        <v>361</v>
+        <v>243</v>
       </c>
       <c r="AK8" t="s">
-        <v>362</v>
+        <v>244</v>
       </c>
       <c r="AL8" t="s">
         <v>121</v>
       </c>
       <c r="AM8" t="s">
-        <v>363</v>
+        <v>245</v>
       </c>
       <c r="AN8" t="s">
-        <v>364</v>
+        <v>246</v>
       </c>
       <c r="AO8" t="s">
-        <v>365</v>
+        <v>247</v>
       </c>
       <c r="AP8" t="s">
-        <v>366</v>
+        <v>248</v>
       </c>
       <c r="AQ8" t="s">
-        <v>367</v>
+        <v>249</v>
       </c>
       <c r="AR8" t="s">
-        <v>368</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:46" x14ac:dyDescent="0.25">
@@ -3368,10 +3377,10 @@
         <v>1313</v>
       </c>
       <c r="B9" t="s">
-        <v>292</v>
+        <v>186</v>
       </c>
       <c r="C9" t="s">
-        <v>293</v>
+        <v>187</v>
       </c>
       <c r="D9" s="7">
         <v>13471206070</v>
@@ -3383,25 +3392,25 @@
         <v>19890327</v>
       </c>
       <c r="G9">
-        <v>4.74</v>
+        <v>4.71</v>
       </c>
       <c r="H9">
-        <v>6.43</v>
+        <v>6.48</v>
       </c>
       <c r="I9">
         <v>0.95</v>
       </c>
       <c r="J9" t="s">
-        <v>294</v>
-      </c>
-      <c r="K9" t="s">
-        <v>295</v>
+        <v>188</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>189</v>
       </c>
       <c r="L9" t="s">
-        <v>296</v>
+        <v>319</v>
       </c>
       <c r="M9" t="s">
-        <v>297</v>
+        <v>320</v>
       </c>
       <c r="N9">
         <v>13</v>
@@ -3473,28 +3482,28 @@
         <v>106</v>
       </c>
       <c r="AK9" t="s">
-        <v>298</v>
+        <v>190</v>
       </c>
       <c r="AL9" t="s">
-        <v>299</v>
+        <v>191</v>
       </c>
       <c r="AM9" t="s">
-        <v>300</v>
+        <v>192</v>
       </c>
       <c r="AN9" t="s">
-        <v>301</v>
+        <v>193</v>
       </c>
       <c r="AO9" t="s">
-        <v>302</v>
+        <v>194</v>
       </c>
       <c r="AP9" t="s">
-        <v>303</v>
+        <v>195</v>
       </c>
       <c r="AQ9" t="s">
-        <v>304</v>
+        <v>196</v>
       </c>
       <c r="AR9" t="s">
-        <v>305</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:46" x14ac:dyDescent="0.25">
@@ -3517,25 +3526,25 @@
         <v>20001031</v>
       </c>
       <c r="G10">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="H10">
-        <v>11.24</v>
+        <v>11.06</v>
       </c>
       <c r="I10">
-        <v>1.01</v>
+        <v>0.99</v>
       </c>
       <c r="J10" t="s">
-        <v>197</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>198</v>
+        <v>321</v>
+      </c>
+      <c r="K10" t="s">
+        <v>322</v>
       </c>
       <c r="L10" t="s">
-        <v>199</v>
+        <v>323</v>
       </c>
       <c r="M10" t="s">
-        <v>200</v>
+        <v>324</v>
       </c>
       <c r="N10" s="1">
         <v>13</v>
@@ -3624,10 +3633,10 @@
         <v>1604</v>
       </c>
       <c r="B11" t="s">
-        <v>420</v>
+        <v>294</v>
       </c>
       <c r="C11" t="s">
-        <v>421</v>
+        <v>295</v>
       </c>
       <c r="D11" s="7">
         <v>3872000000</v>
@@ -3639,25 +3648,25 @@
         <v>19701214</v>
       </c>
       <c r="G11">
-        <v>8.31</v>
+        <v>8.32</v>
       </c>
       <c r="H11">
-        <v>6.5</v>
+        <v>6.49</v>
       </c>
       <c r="I11">
         <v>1.32</v>
       </c>
       <c r="J11" t="s">
-        <v>422</v>
+        <v>296</v>
       </c>
       <c r="K11" t="s">
-        <v>423</v>
+        <v>297</v>
       </c>
       <c r="L11" t="s">
-        <v>424</v>
+        <v>325</v>
       </c>
       <c r="M11" t="s">
-        <v>425</v>
+        <v>326</v>
       </c>
       <c r="N11">
         <v>7</v>
@@ -3735,22 +3744,22 @@
         <v>127</v>
       </c>
       <c r="AM11" t="s">
-        <v>298</v>
+        <v>190</v>
       </c>
       <c r="AN11" t="s">
         <v>127</v>
       </c>
       <c r="AO11" t="s">
-        <v>426</v>
+        <v>298</v>
       </c>
       <c r="AP11" t="s">
-        <v>427</v>
+        <v>299</v>
       </c>
       <c r="AQ11" t="s">
-        <v>428</v>
+        <v>300</v>
       </c>
       <c r="AR11" t="s">
-        <v>429</v>
+        <v>301</v>
       </c>
     </row>
     <row r="12" spans="1:46" x14ac:dyDescent="0.25">
@@ -3758,10 +3767,10 @@
         <v>1776</v>
       </c>
       <c r="B12" t="s">
-        <v>333</v>
+        <v>221</v>
       </c>
       <c r="C12" t="s">
-        <v>334</v>
+        <v>222</v>
       </c>
       <c r="D12" s="7">
         <v>703352990</v>
@@ -3773,25 +3782,25 @@
         <v>20160509</v>
       </c>
       <c r="G12">
-        <v>4.6900000000000004</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="H12">
-        <v>8.6199999999999992</v>
+        <v>8.56</v>
       </c>
       <c r="I12">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="J12" t="s">
-        <v>335</v>
+        <v>223</v>
       </c>
       <c r="K12" t="s">
-        <v>336</v>
+        <v>224</v>
       </c>
       <c r="L12" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="M12" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="N12">
         <v>12</v>
@@ -3875,16 +3884,16 @@
         <v>89</v>
       </c>
       <c r="AO12" t="s">
-        <v>339</v>
+        <v>225</v>
       </c>
       <c r="AP12" t="s">
-        <v>340</v>
+        <v>226</v>
       </c>
       <c r="AQ12" t="s">
-        <v>341</v>
+        <v>227</v>
       </c>
       <c r="AR12" t="s">
-        <v>342</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:46" x14ac:dyDescent="0.25">
@@ -3907,25 +3916,25 @@
         <v>19930427</v>
       </c>
       <c r="G13">
-        <v>5.42</v>
+        <v>5.44</v>
       </c>
       <c r="H13">
-        <v>8.81</v>
+        <v>8.7799999999999994</v>
       </c>
       <c r="I13">
         <v>1.95</v>
       </c>
       <c r="J13" t="s">
-        <v>201</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>202</v>
+        <v>329</v>
+      </c>
+      <c r="K13" t="s">
+        <v>330</v>
       </c>
       <c r="L13" t="s">
-        <v>203</v>
+        <v>331</v>
       </c>
       <c r="M13" t="s">
-        <v>204</v>
+        <v>332</v>
       </c>
       <c r="N13" s="1">
         <v>12</v>
@@ -4029,25 +4038,25 @@
         <v>20160322</v>
       </c>
       <c r="G14">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="H14">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="I14">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="J14" t="s">
-        <v>205</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>206</v>
+        <v>333</v>
+      </c>
+      <c r="K14" t="s">
+        <v>334</v>
       </c>
       <c r="L14" t="s">
-        <v>207</v>
+        <v>335</v>
       </c>
       <c r="M14" t="s">
-        <v>208</v>
+        <v>336</v>
       </c>
       <c r="N14" s="1">
         <v>10</v>
@@ -4151,25 +4160,25 @@
         <v>19920218</v>
       </c>
       <c r="G15">
-        <v>6.49</v>
+        <v>6.46</v>
       </c>
       <c r="H15">
-        <v>7.66</v>
+        <v>7.69</v>
       </c>
       <c r="I15">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>209</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>210</v>
+        <v>337</v>
+      </c>
+      <c r="K15" t="s">
+        <v>338</v>
       </c>
       <c r="L15" t="s">
-        <v>211</v>
+        <v>339</v>
       </c>
       <c r="M15" t="s">
-        <v>212</v>
+        <v>340</v>
       </c>
       <c r="N15" s="1">
         <v>9</v>
@@ -4273,25 +4282,25 @@
         <v>19951213</v>
       </c>
       <c r="G16">
-        <v>4.9800000000000004</v>
+        <v>5</v>
       </c>
       <c r="H16">
-        <v>6.62</v>
+        <v>6.59</v>
       </c>
       <c r="I16">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="J16" t="s">
-        <v>213</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>214</v>
+        <v>341</v>
+      </c>
+      <c r="K16" t="s">
+        <v>342</v>
       </c>
       <c r="L16" t="s">
-        <v>215</v>
+        <v>343</v>
       </c>
       <c r="M16" t="s">
-        <v>216</v>
+        <v>344</v>
       </c>
       <c r="N16" s="1">
         <v>9</v>
@@ -4395,25 +4404,25 @@
         <v>19960722</v>
       </c>
       <c r="G17">
-        <v>4.8600000000000003</v>
+        <v>4.92</v>
       </c>
       <c r="H17">
-        <v>6.69</v>
+        <v>6.62</v>
       </c>
       <c r="I17">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="J17" t="s">
-        <v>217</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>218</v>
+        <v>345</v>
+      </c>
+      <c r="K17" t="s">
+        <v>346</v>
       </c>
       <c r="L17" t="s">
-        <v>219</v>
+        <v>347</v>
       </c>
       <c r="M17" t="s">
-        <v>220</v>
+        <v>348</v>
       </c>
       <c r="N17" s="1">
         <v>8</v>
@@ -4517,25 +4526,25 @@
         <v>19990105</v>
       </c>
       <c r="G18">
-        <v>6.47</v>
+        <v>6.34</v>
       </c>
       <c r="H18">
-        <v>10.48</v>
+        <v>10.69</v>
       </c>
       <c r="I18">
-        <v>2.13</v>
+        <v>2.17</v>
       </c>
       <c r="J18" t="s">
-        <v>221</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>222</v>
+        <v>349</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>350</v>
       </c>
       <c r="L18" t="s">
-        <v>223</v>
+        <v>351</v>
       </c>
       <c r="M18" t="s">
-        <v>224</v>
+        <v>352</v>
       </c>
       <c r="N18" s="1">
         <v>10</v>
@@ -4624,10 +4633,10 @@
         <v>2387</v>
       </c>
       <c r="B19" t="s">
-        <v>394</v>
+        <v>272</v>
       </c>
       <c r="C19" t="s">
-        <v>395</v>
+        <v>273</v>
       </c>
       <c r="D19" s="7">
         <v>1952510510</v>
@@ -4639,25 +4648,25 @@
         <v>19990125</v>
       </c>
       <c r="G19">
-        <v>4.26</v>
+        <v>4.32</v>
       </c>
       <c r="H19">
-        <v>7.36</v>
+        <v>7.25</v>
       </c>
       <c r="I19">
-        <v>1.1599999999999999</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="J19" t="s">
-        <v>396</v>
+        <v>274</v>
       </c>
       <c r="K19" t="s">
-        <v>397</v>
+        <v>275</v>
       </c>
       <c r="L19" t="s">
-        <v>398</v>
+        <v>353</v>
       </c>
       <c r="M19" t="s">
-        <v>399</v>
+        <v>354</v>
       </c>
       <c r="N19">
         <v>10</v>
@@ -4732,25 +4741,25 @@
         <v>106</v>
       </c>
       <c r="AL19" t="s">
-        <v>400</v>
+        <v>276</v>
       </c>
       <c r="AM19" t="s">
         <v>120</v>
       </c>
       <c r="AN19" t="s">
-        <v>401</v>
+        <v>277</v>
       </c>
       <c r="AO19" t="s">
-        <v>402</v>
+        <v>278</v>
       </c>
       <c r="AP19" t="s">
-        <v>403</v>
+        <v>279</v>
       </c>
       <c r="AQ19" t="s">
-        <v>404</v>
+        <v>280</v>
       </c>
       <c r="AR19" t="s">
-        <v>405</v>
+        <v>281</v>
       </c>
     </row>
     <row r="20" spans="1:47" x14ac:dyDescent="0.25">
@@ -4773,25 +4782,25 @@
         <v>20000911</v>
       </c>
       <c r="G20">
-        <v>5.38</v>
+        <v>5.69</v>
       </c>
       <c r="H20">
-        <v>13.76</v>
+        <v>13.02</v>
       </c>
       <c r="I20">
-        <v>1.69</v>
+        <v>1.6</v>
       </c>
       <c r="J20" t="s">
-        <v>225</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>226</v>
+        <v>355</v>
+      </c>
+      <c r="K20" t="s">
+        <v>356</v>
       </c>
       <c r="L20" t="s">
-        <v>227</v>
+        <v>357</v>
       </c>
       <c r="M20" t="s">
-        <v>228</v>
+        <v>358</v>
       </c>
       <c r="N20" s="1">
         <v>13</v>
@@ -4895,25 +4904,25 @@
         <v>20010917</v>
       </c>
       <c r="G21">
-        <v>5.36</v>
+        <v>5.5</v>
       </c>
       <c r="H21">
-        <v>9.6199999999999992</v>
+        <v>9.36</v>
       </c>
       <c r="I21">
-        <v>5.03</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="J21" t="s">
-        <v>229</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>230</v>
+        <v>359</v>
+      </c>
+      <c r="K21" t="s">
+        <v>360</v>
       </c>
       <c r="L21" t="s">
-        <v>231</v>
+        <v>361</v>
       </c>
       <c r="M21" t="s">
-        <v>232</v>
+        <v>362</v>
       </c>
       <c r="N21" s="1">
         <v>12</v>
@@ -5002,10 +5011,10 @@
         <v>2467</v>
       </c>
       <c r="B22" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C22" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D22" s="7">
         <v>1521896590</v>
@@ -5017,25 +5026,25 @@
         <v>20010917</v>
       </c>
       <c r="G22">
-        <v>5.19</v>
+        <v>5.26</v>
       </c>
       <c r="H22">
-        <v>12.52</v>
+        <v>12.35</v>
       </c>
       <c r="I22">
-        <v>3.05</v>
+        <v>3.01</v>
       </c>
       <c r="J22" t="s">
-        <v>284</v>
+        <v>363</v>
       </c>
       <c r="K22" t="s">
-        <v>285</v>
+        <v>364</v>
       </c>
       <c r="L22" t="s">
-        <v>286</v>
+        <v>365</v>
       </c>
       <c r="M22" t="s">
-        <v>287</v>
+        <v>366</v>
       </c>
       <c r="N22">
         <v>11</v>
@@ -5104,7 +5113,7 @@
         <v>57</v>
       </c>
       <c r="AJ22" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AK22" t="s">
         <v>130</v>
@@ -5143,25 +5152,25 @@
         <v>19931027</v>
       </c>
       <c r="G23">
-        <v>9.1199999999999992</v>
+        <v>9.2100000000000009</v>
       </c>
       <c r="H23">
-        <v>4.3899999999999997</v>
+        <v>4.34</v>
       </c>
       <c r="I23">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="J23" t="s">
-        <v>233</v>
+        <v>367</v>
       </c>
       <c r="K23" t="s">
-        <v>234</v>
+        <v>368</v>
       </c>
       <c r="L23" t="s">
-        <v>235</v>
+        <v>369</v>
       </c>
       <c r="M23" t="s">
-        <v>236</v>
+        <v>370</v>
       </c>
       <c r="N23" s="1">
         <v>7</v>
@@ -5265,22 +5274,22 @@
         <v>20000911</v>
       </c>
       <c r="G24">
-        <v>7.25</v>
+        <v>7.24</v>
       </c>
       <c r="H24">
-        <v>7.06</v>
+        <v>7.08</v>
       </c>
       <c r="I24">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="J24" t="s">
-        <v>237</v>
+        <v>371</v>
       </c>
       <c r="K24" t="s">
-        <v>238</v>
+        <v>372</v>
       </c>
       <c r="L24" t="s">
-        <v>239</v>
+        <v>373</v>
       </c>
       <c r="M24" t="s">
         <v>159</v>
@@ -5387,25 +5396,25 @@
         <v>20011219</v>
       </c>
       <c r="G25">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="H25">
-        <v>6.25</v>
+        <v>6.24</v>
       </c>
       <c r="I25">
-        <v>1.1299999999999999</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="J25" t="s">
-        <v>240</v>
+        <v>374</v>
       </c>
       <c r="K25" t="s">
-        <v>241</v>
+        <v>375</v>
       </c>
       <c r="L25" t="s">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="M25" t="s">
-        <v>243</v>
+        <v>377</v>
       </c>
       <c r="N25" s="1">
         <v>7</v>
@@ -5509,25 +5518,25 @@
         <v>20020225</v>
       </c>
       <c r="G26">
-        <v>6.47</v>
+        <v>6.54</v>
       </c>
       <c r="H26">
-        <v>7.64</v>
+        <v>7.56</v>
       </c>
       <c r="I26">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="J26" t="s">
-        <v>244</v>
+        <v>378</v>
       </c>
       <c r="K26" t="s">
-        <v>245</v>
+        <v>379</v>
       </c>
       <c r="L26" t="s">
-        <v>246</v>
+        <v>380</v>
       </c>
       <c r="M26" t="s">
-        <v>247</v>
+        <v>381</v>
       </c>
       <c r="N26" s="1">
         <v>10</v>
@@ -5616,10 +5625,10 @@
         <v>3028</v>
       </c>
       <c r="B27" t="s">
-        <v>343</v>
+        <v>229</v>
       </c>
       <c r="C27" t="s">
-        <v>344</v>
+        <v>230</v>
       </c>
       <c r="D27" s="7">
         <v>2138248640</v>
@@ -5631,25 +5640,25 @@
         <v>20020826</v>
       </c>
       <c r="G27">
-        <v>5.6</v>
+        <v>5.71</v>
       </c>
       <c r="H27">
-        <v>8.74</v>
+        <v>8.57</v>
       </c>
       <c r="I27">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="J27" t="s">
-        <v>345</v>
+        <v>231</v>
       </c>
       <c r="K27" t="s">
-        <v>346</v>
+        <v>232</v>
       </c>
       <c r="L27" t="s">
-        <v>347</v>
+        <v>382</v>
       </c>
       <c r="M27" t="s">
-        <v>348</v>
+        <v>383</v>
       </c>
       <c r="N27">
         <v>10</v>
@@ -5718,7 +5727,7 @@
         <v>30</v>
       </c>
       <c r="AJ27" t="s">
-        <v>349</v>
+        <v>233</v>
       </c>
       <c r="AK27" t="s">
         <v>106</v>
@@ -5727,22 +5736,22 @@
         <v>125</v>
       </c>
       <c r="AM27" t="s">
-        <v>350</v>
+        <v>234</v>
       </c>
       <c r="AN27" t="s">
         <v>93</v>
       </c>
       <c r="AO27" t="s">
-        <v>351</v>
+        <v>235</v>
       </c>
       <c r="AP27" t="s">
-        <v>352</v>
+        <v>236</v>
       </c>
       <c r="AQ27" t="s">
-        <v>353</v>
+        <v>237</v>
       </c>
       <c r="AR27" t="s">
-        <v>354</v>
+        <v>238</v>
       </c>
     </row>
     <row r="28" spans="1:47" x14ac:dyDescent="0.25">
@@ -5750,10 +5759,10 @@
         <v>3033</v>
       </c>
       <c r="B28" t="s">
-        <v>318</v>
+        <v>208</v>
       </c>
       <c r="C28" t="s">
-        <v>319</v>
+        <v>209</v>
       </c>
       <c r="D28" s="7">
         <v>3990554430</v>
@@ -5765,25 +5774,25 @@
         <v>20020826</v>
       </c>
       <c r="G28">
-        <v>4.18</v>
+        <v>4.29</v>
       </c>
       <c r="H28">
-        <v>8.8699999999999992</v>
+        <v>8.64</v>
       </c>
       <c r="I28">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="J28" t="s">
-        <v>320</v>
+        <v>210</v>
       </c>
       <c r="K28" t="s">
-        <v>321</v>
+        <v>211</v>
       </c>
       <c r="L28" t="s">
-        <v>322</v>
+        <v>384</v>
       </c>
       <c r="M28" t="s">
-        <v>323</v>
+        <v>385</v>
       </c>
       <c r="N28">
         <v>9</v>
@@ -5852,31 +5861,31 @@
         <v>34</v>
       </c>
       <c r="AJ28" t="s">
-        <v>324</v>
+        <v>212</v>
       </c>
       <c r="AK28" t="s">
-        <v>325</v>
+        <v>213</v>
       </c>
       <c r="AL28" t="s">
-        <v>326</v>
+        <v>214</v>
       </c>
       <c r="AM28" t="s">
-        <v>327</v>
+        <v>215</v>
       </c>
       <c r="AN28" t="s">
-        <v>328</v>
+        <v>216</v>
       </c>
       <c r="AO28" t="s">
-        <v>329</v>
+        <v>217</v>
       </c>
       <c r="AP28" t="s">
-        <v>330</v>
+        <v>218</v>
       </c>
       <c r="AQ28" t="s">
-        <v>331</v>
+        <v>219</v>
       </c>
       <c r="AR28" t="s">
-        <v>332</v>
+        <v>220</v>
       </c>
     </row>
     <row r="29" spans="1:47" x14ac:dyDescent="0.25">
@@ -5899,25 +5908,25 @@
         <v>20020826</v>
       </c>
       <c r="G29">
-        <v>6</v>
+        <v>5.98</v>
       </c>
       <c r="H29">
-        <v>10.44</v>
+        <v>10.49</v>
       </c>
       <c r="I29">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="J29" t="s">
-        <v>248</v>
+        <v>386</v>
       </c>
       <c r="K29" t="s">
-        <v>249</v>
+        <v>387</v>
       </c>
       <c r="L29" t="s">
-        <v>250</v>
+        <v>388</v>
       </c>
       <c r="M29" t="s">
-        <v>251</v>
+        <v>389</v>
       </c>
       <c r="N29" s="1">
         <v>8</v>
@@ -6009,10 +6018,10 @@
         <v>3048</v>
       </c>
       <c r="B30" t="s">
-        <v>369</v>
+        <v>251</v>
       </c>
       <c r="C30" t="s">
-        <v>370</v>
+        <v>252</v>
       </c>
       <c r="D30" s="7">
         <v>2448297940</v>
@@ -6024,25 +6033,25 @@
         <v>20021001</v>
       </c>
       <c r="G30">
-        <v>8.98</v>
+        <v>8.8699999999999992</v>
       </c>
       <c r="H30">
-        <v>7.53</v>
+        <v>7.62</v>
       </c>
       <c r="I30">
-        <v>1.98</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="J30" t="s">
-        <v>371</v>
-      </c>
-      <c r="K30" t="s">
-        <v>372</v>
+        <v>253</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>254</v>
       </c>
       <c r="L30" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="M30" t="s">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="N30">
         <v>8</v>
@@ -6111,7 +6120,7 @@
         <v>30</v>
       </c>
       <c r="AJ30" t="s">
-        <v>375</v>
+        <v>255</v>
       </c>
       <c r="AK30" t="s">
         <v>106</v>
@@ -6126,16 +6135,16 @@
         <v>85</v>
       </c>
       <c r="AO30" t="s">
-        <v>376</v>
+        <v>256</v>
       </c>
       <c r="AP30" t="s">
-        <v>377</v>
+        <v>257</v>
       </c>
       <c r="AQ30" t="s">
-        <v>378</v>
+        <v>258</v>
       </c>
       <c r="AR30" t="s">
-        <v>379</v>
+        <v>259</v>
       </c>
     </row>
     <row r="31" spans="1:47" customFormat="1" x14ac:dyDescent="0.25">
@@ -6158,25 +6167,25 @@
         <v>20081126</v>
       </c>
       <c r="G31">
-        <v>6.9</v>
+        <v>6.92</v>
       </c>
       <c r="H31">
-        <v>8.1199999999999992</v>
+        <v>8.1</v>
       </c>
       <c r="I31">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="J31" t="s">
-        <v>252</v>
+        <v>392</v>
       </c>
       <c r="K31" t="s">
-        <v>253</v>
+        <v>393</v>
       </c>
       <c r="L31" t="s">
-        <v>254</v>
+        <v>394</v>
       </c>
       <c r="M31" t="s">
-        <v>255</v>
+        <v>395</v>
       </c>
       <c r="N31" s="1">
         <v>9</v>
@@ -6269,10 +6278,10 @@
         <v>3312</v>
       </c>
       <c r="B32" t="s">
-        <v>380</v>
+        <v>260</v>
       </c>
       <c r="C32" t="s">
-        <v>381</v>
+        <v>261</v>
       </c>
       <c r="D32" s="7">
         <v>1376254550</v>
@@ -6284,25 +6293,25 @@
         <v>20101229</v>
       </c>
       <c r="G32">
-        <v>4.18</v>
+        <v>4.26</v>
       </c>
       <c r="H32">
-        <v>7.61</v>
+        <v>7.48</v>
       </c>
       <c r="I32">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="J32" t="s">
-        <v>382</v>
+        <v>262</v>
       </c>
       <c r="K32" t="s">
-        <v>383</v>
+        <v>263</v>
       </c>
       <c r="L32" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="M32" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="N32">
         <v>15</v>
@@ -6371,31 +6380,31 @@
         <v>40</v>
       </c>
       <c r="AJ32" t="s">
-        <v>386</v>
+        <v>264</v>
       </c>
       <c r="AK32" t="s">
-        <v>387</v>
+        <v>265</v>
       </c>
       <c r="AL32" t="s">
-        <v>388</v>
+        <v>266</v>
       </c>
       <c r="AM32" t="s">
-        <v>389</v>
+        <v>267</v>
       </c>
       <c r="AN32" t="s">
         <v>102</v>
       </c>
       <c r="AO32" t="s">
-        <v>390</v>
+        <v>268</v>
       </c>
       <c r="AP32" t="s">
-        <v>391</v>
+        <v>269</v>
       </c>
       <c r="AQ32" t="s">
-        <v>392</v>
+        <v>270</v>
       </c>
       <c r="AR32" t="s">
-        <v>393</v>
+        <v>271</v>
       </c>
     </row>
     <row r="33" spans="1:44" customFormat="1" x14ac:dyDescent="0.25">
@@ -6418,25 +6427,25 @@
         <v>20051109</v>
       </c>
       <c r="G33">
-        <v>5.96</v>
+        <v>6</v>
       </c>
       <c r="H33">
-        <v>8.98</v>
+        <v>8.93</v>
       </c>
       <c r="I33">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="J33" t="s">
-        <v>256</v>
+        <v>398</v>
       </c>
       <c r="K33" t="s">
-        <v>257</v>
+        <v>399</v>
       </c>
       <c r="L33" t="s">
-        <v>258</v>
+        <v>400</v>
       </c>
       <c r="M33" t="s">
-        <v>259</v>
+        <v>401</v>
       </c>
       <c r="N33" s="1">
         <v>9</v>
@@ -6544,25 +6553,25 @@
         <v>20130912</v>
       </c>
       <c r="G34">
-        <v>2.9</v>
+        <v>2.96</v>
       </c>
       <c r="H34">
-        <v>3.34</v>
+        <v>3.28</v>
       </c>
       <c r="I34">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="J34" t="s">
-        <v>260</v>
+        <v>402</v>
       </c>
       <c r="K34" t="s">
-        <v>261</v>
+        <v>403</v>
       </c>
       <c r="L34" t="s">
-        <v>262</v>
+        <v>404</v>
       </c>
       <c r="M34" t="s">
-        <v>263</v>
+        <v>405</v>
       </c>
       <c r="N34" s="1">
         <v>8</v>
@@ -6670,25 +6679,25 @@
         <v>20031006</v>
       </c>
       <c r="G35">
-        <v>5.71</v>
+        <v>5.73</v>
       </c>
       <c r="H35">
-        <v>7.73</v>
+        <v>7.71</v>
       </c>
       <c r="I35">
         <v>0.77</v>
       </c>
       <c r="J35" t="s">
-        <v>264</v>
+        <v>406</v>
       </c>
       <c r="K35" t="s">
-        <v>265</v>
+        <v>407</v>
       </c>
       <c r="L35" t="s">
-        <v>266</v>
+        <v>408</v>
       </c>
       <c r="M35" t="s">
-        <v>267</v>
+        <v>409</v>
       </c>
       <c r="N35" s="1">
         <v>11</v>
@@ -6796,25 +6805,25 @@
         <v>20030825</v>
       </c>
       <c r="G36">
-        <v>4.84</v>
+        <v>4.9400000000000004</v>
       </c>
       <c r="H36">
-        <v>10.33</v>
+        <v>10.119999999999999</v>
       </c>
       <c r="I36">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="J36" t="s">
-        <v>268</v>
+        <v>410</v>
       </c>
       <c r="K36" t="s">
-        <v>269</v>
+        <v>411</v>
       </c>
       <c r="L36" t="s">
-        <v>270</v>
+        <v>412</v>
       </c>
       <c r="M36" t="s">
-        <v>271</v>
+        <v>413</v>
       </c>
       <c r="N36" s="1">
         <v>9</v>
@@ -6922,25 +6931,25 @@
         <v>20071231</v>
       </c>
       <c r="G37">
-        <v>6.03</v>
+        <v>6.1</v>
       </c>
       <c r="H37">
-        <v>7.85</v>
+        <v>7.76</v>
       </c>
       <c r="I37">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="J37" t="s">
-        <v>272</v>
+        <v>414</v>
       </c>
       <c r="K37" t="s">
-        <v>273</v>
+        <v>415</v>
       </c>
       <c r="L37" t="s">
-        <v>274</v>
+        <v>416</v>
       </c>
       <c r="M37" t="s">
-        <v>275</v>
+        <v>417</v>
       </c>
       <c r="N37" s="1">
         <v>7</v>
@@ -7048,25 +7057,25 @@
         <v>20140411</v>
       </c>
       <c r="G38">
-        <v>4.55</v>
+        <v>4.67</v>
       </c>
       <c r="H38">
-        <v>8.1199999999999992</v>
+        <v>7.92</v>
       </c>
       <c r="I38">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="J38" t="s">
-        <v>276</v>
+        <v>418</v>
       </c>
       <c r="K38" t="s">
-        <v>277</v>
+        <v>419</v>
       </c>
       <c r="L38" t="s">
-        <v>278</v>
+        <v>420</v>
       </c>
       <c r="M38" t="s">
-        <v>279</v>
+        <v>421</v>
       </c>
       <c r="N38" s="1">
         <v>9</v>
@@ -7174,25 +7183,25 @@
         <v>20091225</v>
       </c>
       <c r="G39">
-        <v>7.21</v>
+        <v>7.29</v>
       </c>
       <c r="H39">
-        <v>8.02</v>
+        <v>7.93</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="J39" t="s">
-        <v>280</v>
+        <v>422</v>
       </c>
       <c r="K39" t="s">
-        <v>281</v>
+        <v>423</v>
       </c>
       <c r="L39" t="s">
-        <v>282</v>
+        <v>424</v>
       </c>
       <c r="M39" t="s">
-        <v>283</v>
+        <v>425</v>
       </c>
       <c r="N39" s="1">
         <v>6</v>
@@ -7300,25 +7309,25 @@
         <v>20101112</v>
       </c>
       <c r="G40">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="H40">
-        <v>13.7</v>
+        <v>13.41</v>
       </c>
       <c r="I40">
-        <v>2.52</v>
+        <v>2.46</v>
       </c>
       <c r="J40" t="s">
-        <v>184</v>
+        <v>426</v>
       </c>
       <c r="K40" t="s">
-        <v>185</v>
+        <v>427</v>
       </c>
       <c r="L40" t="s">
-        <v>179</v>
+        <v>428</v>
       </c>
       <c r="M40" t="s">
-        <v>180</v>
+        <v>429</v>
       </c>
       <c r="N40" s="1">
         <v>15</v>
@@ -7411,11 +7420,6 @@
     <sortCondition ref="A3:A40"/>
   </sortState>
   <mergeCells count="21">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="Z1:Z2"/>
-    <mergeCell ref="AA1:AA2"/>
-    <mergeCell ref="AB1:AB2"/>
-    <mergeCell ref="AC1:AC2"/>
     <mergeCell ref="AJ1:AN1"/>
     <mergeCell ref="AD1:AD2"/>
     <mergeCell ref="B1:B2"/>
@@ -7432,6 +7436,11 @@
     <mergeCell ref="AG1:AG2"/>
     <mergeCell ref="AH1:AH2"/>
     <mergeCell ref="AI1:AI2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="Z1:Z2"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="AB1:AB2"/>
+    <mergeCell ref="AC1:AC2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="Z26:Z28">

--- a/Data/彙整清單_整理版.xlsx
+++ b/Data/彙整清單_整理版.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hmlu\svnbox\Research\Python\Stock\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\svnbox\Python\Stock\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AFB300A-31C0-483F-84CF-54B3153B4F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F2DDC9-E039-41E4-BC88-A927B0E522E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D923A086-913E-4840-96DC-7378B4FF8169}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D923A086-913E-4840-96DC-7378B4FF8169}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$6:$AN$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$6:$AP$27</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="432">
   <si>
     <t>公司名稱</t>
   </si>
@@ -647,12 +647,6 @@
     <t>聯成化學科技股份有限公司</t>
   </si>
   <si>
-    <t xml:space="preserve">   21.25 /    21.21 /    21.22 /    22.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  6507.0 /   2969.2 /   2871.1 /  3921.17</t>
-  </si>
-  <si>
     <t xml:space="preserve">   0.2 /    0.0</t>
   </si>
   <si>
@@ -683,12 +677,6 @@
     <t>台灣聚合化學品股份有限公司</t>
   </si>
   <si>
-    <t xml:space="preserve">    30.8 /    30.74 /    31.09 /    33.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 28146.0 /   9782.2 /  5551.65 /  7865.17</t>
-  </si>
-  <si>
     <t xml:space="preserve">   0.3 /    0.2</t>
   </si>
   <si>
@@ -713,12 +701,6 @@
     <t>威健實業股份有限公司</t>
   </si>
   <si>
-    <t xml:space="preserve">    31.0 /    31.84 /    31.13 /    29.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  9243.0 /   9012.8 /  12034.5 / 11587.75</t>
-  </si>
-  <si>
     <t xml:space="preserve">  1.33 /    0.0</t>
   </si>
   <si>
@@ -752,12 +734,6 @@
     <t>展宇科技材料股份有限公司</t>
   </si>
   <si>
-    <t xml:space="preserve">   21.15 /    21.31 /    21.33 /    22.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   124.0 /   108.02 /    94.07 /   464.58</t>
-  </si>
-  <si>
     <t>20.29  /  20.32  /  20.3  /  20.14  /  20.23</t>
   </si>
   <si>
@@ -776,12 +752,6 @@
     <t>增你強股份有限公司</t>
   </si>
   <si>
-    <t xml:space="preserve">   33.25 /    34.04 /    33.83 /    31.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1649.0 /   1251.4 /   2101.4 /  1447.77</t>
-  </si>
-  <si>
     <t xml:space="preserve">   1.9 /    0.0</t>
   </si>
   <si>
@@ -806,12 +776,6 @@
     <t>亞洲聚合股份有限公司</t>
   </si>
   <si>
-    <t xml:space="preserve">   37.25 /    36.15 /    36.44 /    38.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 53753.0 /  13518.6 /  6499.45 / 11712.15</t>
-  </si>
-  <si>
     <t xml:space="preserve">   1.2 /    0.2</t>
   </si>
   <si>
@@ -842,12 +806,6 @@
     <t>益登科技股份有限公司</t>
   </si>
   <si>
-    <t xml:space="preserve">    32.7 /    32.54 /    32.24 /    32.36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1590.0 /    877.8 /   720.65 /  1001.03</t>
-  </si>
-  <si>
     <t xml:space="preserve">   1.9 /    1.0</t>
   </si>
   <si>
@@ -869,12 +827,6 @@
     <t>弘憶國際股份有限公司</t>
   </si>
   <si>
-    <t xml:space="preserve">    23.5 /    24.08 /     24.0 /    23.48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1123.0 /    841.2 /   975.45 /   1877.4</t>
-  </si>
-  <si>
     <t xml:space="preserve">   0.0 /    1.0</t>
   </si>
   <si>
@@ -905,12 +857,6 @@
     <t>精元電腦股份有限公司</t>
   </si>
   <si>
-    <t xml:space="preserve">    46.3 /    47.72 /     46.2 /    44.98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   989.0 /   2291.2 /  1452.75 /  1293.77</t>
-  </si>
-  <si>
     <t xml:space="preserve">  1.01 /    0.0</t>
   </si>
   <si>
@@ -935,12 +881,6 @@
     <t>華夏海灣塑膠股份有限公司</t>
   </si>
   <si>
-    <t xml:space="preserve">   34.75 /     34.9 /    34.29 /    35.56</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 13672.0 /   5446.0 /   3801.8 /  7824.37</t>
-  </si>
-  <si>
     <t xml:space="preserve">   0.5 /    0.5</t>
   </si>
   <si>
@@ -971,12 +911,6 @@
     <t>聲寶股份有限公司</t>
   </si>
   <si>
-    <t xml:space="preserve">   30.05 /     30.0 /    29.73 /    29.66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   672.0 /    553.2 /   456.55 /    581.4</t>
-  </si>
-  <si>
     <t>32.09  /  32.28  /  32.27  /  32.33  /  32.44</t>
   </si>
   <si>
@@ -989,388 +923,464 @@
     <t>42.0  /  42.0  /  42.0  /  42.0  /  42.0</t>
   </si>
   <si>
-    <t xml:space="preserve">    60.9 /    60.86 /    59.56 /    57.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1465.0 /   1493.0 /  1545.05 /  1517.53</t>
-  </si>
-  <si>
     <t xml:space="preserve">    12.1 /     12.1 /    11.99 /    12.04</t>
   </si>
   <si>
-    <t xml:space="preserve">    1.41 /     1.23 /     1.14 /     1.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    68.6 /    68.48 /    68.58 /    68.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   117.0 /   127.34 /   137.24 /   192.32</t>
-  </si>
-  <si>
     <t xml:space="preserve">    1.83 /     1.84 /     1.85 /     1.93</t>
   </si>
   <si>
-    <t xml:space="preserve">    19.8 /    19.97 /    19.95 /    19.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3687.0 /   2324.6 /   2901.5 /  3389.02</t>
-  </si>
-  <si>
     <t xml:space="preserve">    14.1 /    14.18 /    13.93 /    13.43</t>
   </si>
   <si>
-    <t xml:space="preserve">    0.93 /     0.92 /     0.71 /     0.51</t>
-  </si>
-  <si>
     <t xml:space="preserve">    37.3 /     37.7 /    38.34 /    39.91</t>
   </si>
   <si>
-    <t xml:space="preserve">    0.45 /     0.34 /     0.54 /     2.25</t>
-  </si>
-  <si>
     <t xml:space="preserve">    10.5 /    10.78 /    10.98 /    14.06</t>
   </si>
   <si>
-    <t xml:space="preserve">    0.92 /     0.81 /     0.84 /     1.68</t>
-  </si>
-  <si>
     <t xml:space="preserve">     9.4 /     9.05 /     9.45 /     10.6</t>
   </si>
   <si>
-    <t xml:space="preserve">    1.14 /     0.99 /     1.07 /     2.74</t>
-  </si>
-  <si>
     <t xml:space="preserve">    9.14 /      9.1 /     8.98 /     9.21</t>
   </si>
   <si>
-    <t xml:space="preserve">    0.79 /      0.8 /     0.94 /     1.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    15.6 /    15.68 /    15.35 /    15.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   986.0 /   1219.2 /   702.85 /  1133.58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.44 /     2.79 /     2.16 /     2.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.12 /     0.12 /     0.08 /     0.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    10.4 /    10.34 /    10.24 /     10.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.97 /     0.98 /     1.02 /     1.65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.41 /     1.42 /     1.35 /     1.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.24 /     0.22 /     0.19 /     1.82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   31.25 /    31.31 /    31.68 /    31.31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   415.0 /    352.0 /    381.8 /   730.83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     3.1 /     3.19 /     3.28 /     3.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.52 /     0.51 /      0.4 /     0.74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   32.35 /    33.38 /    34.99 /    34.41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1742.0 /   1573.8 /   1867.5 /  4050.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.29 /     1.34 /      1.6 /     1.56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5.57 /     5.49 /     5.38 /     5.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   24.75 /    24.52 /    24.15 /    24.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 14814.0 /  12329.4 / 14004.75 / 13398.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    46.0 /    45.84 /     45.7 /    46.83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.93 /     1.58 /     1.38 /      3.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    66.0 /    66.08 /    65.65 /    59.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  4067.0 /   4017.0 /  11415.6 /  7317.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    32.8 /     32.8 /    33.68 /    34.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8.94 /     9.34 /     7.21 /     5.49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    30.5 /    30.67 /    30.18 /    30.62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  6304.0 /   7210.8 /  5056.15 /  7510.52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    20.0 /     20.0 /    19.94 /     21.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.03 /     0.98 /     1.13 /     1.56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    86.7 /    84.68 /    82.48 /    81.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  5699.0 /   3179.2 /  2096.45 /  1820.65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    34.4 /    34.14 /    33.72 /    33.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.39 /     1.51 /     0.45 /     0.76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.84 /     0.91 /     1.11 /     1.73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.11 /      0.1 /     0.11 /      1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   35.15 /    35.23 /    29.23 /    27.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  7401.0 /  11311.6 /   8037.9 /  3339.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.18 /     1.35 /     1.87 /     2.53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    37.7 /     36.2 /    19.28 /    14.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   163.5 /    167.5 /   165.68 /    164.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2789.0 /   2955.4 /   2503.6 /  3007.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    21.8 /    22.08 /     21.9 /    22.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    19.1 /    19.46 /    20.22 /    22.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    51.5 /    52.34 /    50.96 /    48.89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   499.0 /    861.2 /    494.5 /   501.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    10.5 /    10.68 /    10.77 /    11.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.88 /     0.84 /     0.63 /     0.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    36.9 /    37.38 /    37.74 /    38.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1688.0 /   1230.8 /   1410.8 /  1627.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    20.5 /     20.6 /    21.02 /    21.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.65 /     0.74 /     0.68 /     0.58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   49.75 /    49.67 /    49.33 /    48.99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   134.0 /    165.0 /   107.98 /   120.73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.63 /     3.63 /      3.7 /     3.66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    75.7 /    75.58 /    75.28 /    74.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 23358.0 /  16145.0 / 18780.75 / 20181.45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    21.9 /     21.9 /    21.88 /    22.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    10.4 /    10.48 /    10.75 /    17.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    54.9 /    55.74 /     54.6 /    53.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1517.0 /   1356.0 /   1090.2 /   937.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    30.8 /    30.86 /    30.96 /    31.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.28 /     0.31 /     0.53 /     0.66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8.39 /     8.49 /     8.59 /     7.72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.75 /     1.66 /     1.27 /     1.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    11.0 /    11.38 /    10.86 /    10.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    11.5 /     7.81 /     7.76 /    10.77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   123.0 /    123.0 /   123.12 /   119.99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   553.0 /    523.0 /   734.35 /   937.47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    42.4 /     42.4 /    42.26 /    41.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.75 /     1.22 /     1.02 /     1.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6.03 /     6.13 /     6.23 /     6.77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.17 /     0.15 /     0.24 /     0.97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    28.9 /    29.14 /    29.01 /     29.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   655.0 /    407.2 /    436.3 /   588.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4.11 /      4.2 /     4.29 /      5.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.16 /     0.09 /     0.33 /     0.36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5.62 /     5.79 /     5.81 /     6.56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.78 /     1.18 /     0.83 /     0.52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    51.7 /    51.94 /    51.32 /    51.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3752.0 /   4986.0 /  4313.45 /  3838.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    26.8 /    26.84 /    26.65 /    26.75</t>
-  </si>
-  <si>
     <t xml:space="preserve">    0.28 /     0.28 /     0.33 /     0.51</t>
   </si>
   <si>
-    <t xml:space="preserve">    33.8 /    34.29 /    34.16 /    31.73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  7250.0 /   6869.2 /  11721.0 / 11542.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    12.3 /    12.32 /     11.7 /     11.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.83 /     0.99 /     0.88 /     0.73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   13.95 /     14.0 /    13.92 /    13.72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   205.0 /    232.6 /   279.85 /   277.68</t>
-  </si>
-  <si>
     <t xml:space="preserve">    6.15 /     6.17 /     6.16 /     6.37</t>
   </si>
   <si>
-    <t xml:space="preserve">     0.0 /      0.0 /      0.1 /      0.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    58.1 /    58.82 /    58.28 /    59.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3954.0 /   3718.2 /   2408.3 /  3611.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    23.1 /    23.46 /    23.99 /    25.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.74 /     0.89 /      1.0 /     2.41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    49.2 /    50.12 /    48.44 /    45.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3599.0 /   5769.6 /   5831.8 /  4332.77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    24.3 /    24.24 /     23.5 /     22.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.42 /     1.37 /     0.85 /     0.66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    47.1 /     47.9 /    47.44 /    46.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  6397.0 /   5088.6 /  5860.95 /  6675.82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    46.9 /    47.04 /    46.82 /    48.86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.74 /     3.72 /      5.1 /     5.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    48.0 /    48.33 /    47.88 /    47.43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1338.0 /   1228.4 /    908.6 /   944.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    21.4 /    21.34 /    20.87 /    20.56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.19 /      0.2 /     0.19 /     0.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   36.75 /     37.3 /    38.44 /    37.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3678.0 /   3732.0 /  13143.1 / 13142.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.42 /     2.68 /     3.37 /     4.48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.31 /     2.47 /     3.05 /     5.48</t>
+    <t xml:space="preserve"> 籌碼
+集中度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 超額
+買超</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    60.8 /     60.7 /    59.72 /    57.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1955.0 /   1687.0 /  1593.85 /  1530.77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.44 /     1.31 /     1.14 /     1.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    69.4 /     68.6 /    68.64 /    68.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    98.2 /   115.78 /   124.16 /   192.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   19.85 /    19.92 /    19.94 /    19.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1679.0 /   2182.2 /  2872.15 /  3375.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.44 /     0.82 /     0.72 /     0.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    30.2 /    30.54 /    31.03 /    32.94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  6367.0 /  10328.0 /   5648.9 /  7660.53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.68 /     0.42 /     0.53 /     2.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    33.8 /    34.65 /    34.27 /    35.46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  6310.0 /   5953.0 /  3970.95 /  7611.98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.64 /     0.98 /     0.87 /     1.61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    37.3 /    36.38 /    36.46 /    38.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  9865.0 /  14595.2 /   6607.7 / 11349.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.41 /     1.08 /     1.09 /     2.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   21.15 /    21.18 /    21.21 /    22.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2428.0 /   2840.4 /   2886.6 /  3907.38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.81 /      0.8 /     0.94 /     1.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    15.7 /    15.71 /    15.38 /    15.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   489.0 /   1228.6 /   712.75 /  1125.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.63 /     2.75 /     2.22 /     2.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     0.1 /     0.12 /     0.09 /     0.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    30.0 /    30.01 /    29.73 /    29.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   448.0 /    514.2 /   426.95 /   572.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    10.4 /    10.36 /    10.25 /     10.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.99 /     0.97 /     1.02 /     1.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    21.3 /    21.28 /    21.31 /    22.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    26.2 /    87.66 /    91.08 /   444.84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.43 /     1.42 /     1.35 /     1.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.24 /     0.23 /     0.19 /     1.72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   31.35 /    31.28 /    31.66 /    31.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   330.0 /    328.6 /    377.2 /   719.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.11 /     3.15 /     3.27 /     3.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.53 /     0.51 /     0.41 /     0.73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    32.6 /    33.07 /    34.84 /    34.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1263.0 /   1477.2 /  1839.75 /  4032.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.37 /     1.33 /     1.61 /     1.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5.82 /      5.6 /     5.43 /      5.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   24.85 /    24.63 /    24.18 /    24.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12398.0 /  13362.8 /  12552.9 / 13398.53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    46.0 /    45.92 /     45.7 /     46.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     2.1 /     1.71 /     1.42 /     2.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    66.2 /     66.1 /    65.76 /    59.91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3137.0 /   3807.2 /  11038.7 /  7336.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    32.8 /     32.8 /    33.56 /    34.53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    9.11 /     9.15 /     7.51 /     5.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    31.0 /    30.72 /    30.21 /    30.63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  6600.0 /   6708.8 /  5185.05 /  7511.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    20.0 /     20.0 /    19.93 /    21.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.03 /     0.99 /     1.12 /     1.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    87.0 /     85.6 /    82.76 /    81.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3074.0 /   3556.6 /   2187.6 /   1852.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    34.5 /    34.24 /    33.78 /    33.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.97 /     2.18 /     0.64 /      0.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   46.95 /    47.34 /    46.14 /    45.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   556.0 /   1783.2 /  1418.55 /  1296.92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.89 /     0.87 /     1.06 /     1.71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.13 /     0.11 /      0.1 /     1.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    34.0 /    35.72 /    29.67 /    27.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  5916.0 /  10920.2 /  8302.85 /  3400.77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.28 /     1.27 /     1.82 /     2.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    38.1 /     37.8 /    20.85 /    14.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   165.5 /    167.1 /   165.95 /   164.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   862.0 /   2865.2 /  2495.75 /  2997.78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    21.8 /     22.0 /    21.94 /    22.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    19.7 /    19.32 /    20.08 /    22.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    50.8 /    52.22 /    50.91 /     49.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   277.0 /    825.6 /    499.6 /   495.92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    10.5 /    10.64 /    10.74 /     11.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.58 /     0.88 /     0.63 /     0.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    36.7 /    37.18 /    37.63 /    38.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1619.0 /   1372.6 /   1413.6 /  1633.83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    20.5 /    20.56 /    20.96 /    21.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.69 /     0.72 /     0.69 /     0.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   49.95 /     49.7 /    49.36 /    49.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   194.0 /    170.8 /   116.15 /   123.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.66 /     3.63 /      3.7 /     3.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    76.4 /     75.8 /     75.3 /    74.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14842.0 /  15991.4 / 18806.35 / 20147.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    22.0 /    21.92 /    21.88 /    22.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    10.5 /    10.46 /    10.75 /    16.84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    54.9 /    55.46 /    54.64 /    53.83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   748.0 /   1097.2 /   1088.9 /    939.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    30.8 /    30.82 /    30.94 /    31.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.28 /      0.3 /     0.51 /     0.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   33.25 /    33.76 /    33.88 /    31.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   837.0 /   1155.2 /   2066.4 /  1456.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    8.44 /     8.46 /     8.61 /     7.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.72 /     1.69 /     1.34 /     1.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   30.85 /    31.65 /    31.21 /    29.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3002.0 /   8935.0 / 11984.75 /  11571.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    11.0 /    11.26 /    10.98 /    10.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    12.0 /     8.87 /     8.05 /     10.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   124.0 /    123.1 /    123.1 /   120.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   344.0 /    526.8 /   716.05 /   933.53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    42.4 /     42.4 /    42.27 /    41.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.67 /     1.37 /     1.05 /     1.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   33.05 /    32.63 /    32.31 /    32.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2031.0 /   1064.6 /   804.95 /  1016.93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    6.12 /      6.1 /     6.22 /      6.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.17 /     0.15 /     0.23 /     0.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   28.95 /    29.08 /    29.02 /     29.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   234.0 /    383.8 /    389.7 /    583.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.08 /     4.17 /     4.26 /     4.98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.16 /     0.12 /     0.32 /     0.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   24.95 /    24.15 /    24.06 /    23.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3742.0 /   1362.6 /  1079.15 /  1933.38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5.89 /      5.8 /      5.8 /     6.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.98 /     1.15 /     0.83 /     0.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    51.8 /    51.84 /     51.4 /     51.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2754.0 /   4252.6 /  4260.95 /  3830.73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    26.8 /    26.84 /    26.67 /    26.76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   33.65 /    34.12 /    34.17 /    31.82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  5207.0 /   5582.0 /  11189.0 / 11605.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    12.4 /    12.36 /    11.77 /    11.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.86 /     0.93 /     0.89 /     0.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   13.95 /    13.99 /    13.92 /    13.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   112.0 /    174.8 /   275.95 /   276.72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     0.0 /      0.0 /     0.08 /      0.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    58.5 /    58.76 /     58.3 /    59.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2037.0 /   3804.2 /  2373.65 /  3581.98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    23.0 /    23.34 /    23.89 /     25.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.82 /     0.87 /     0.97 /     2.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    49.5 /    49.82 /    48.55 /    45.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2943.0 /   4847.4 /  5690.55 /  4353.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    24.3 /    24.26 /    23.58 /    22.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1.4 /     1.41 /      0.9 /     0.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    47.4 /    47.79 /    47.49 /    46.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2857.0 /   4505.6 /  5876.05 /  6635.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    46.9 /    46.98 /    46.83 /    48.76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.82 /     3.76 /     4.89 /     5.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    48.1 /    48.29 /    47.94 /    47.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   614.0 /   1019.6 /   914.55 /   942.88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    21.5 /    21.42 /    20.91 /    20.59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.24 /     0.21 /     0.19 /     0.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    37.0 /     37.2 /    38.31 /    37.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2011.0 /   3203.6 /  11716.9 / 13091.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.44 /     2.58 /     3.23 /      4.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.25 /     2.35 /     2.92 /     5.23</t>
   </si>
 </sst>
 </file>
@@ -1994,7 +2004,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2019,6 +2029,9 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2028,8 +2041,11 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2386,13 +2402,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2696BFBE-0625-42C0-8E1C-A5A53CEB8548}">
-  <dimension ref="A1:AU40"/>
+  <dimension ref="A1:AW40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="I6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="A12:XFD12"/>
+      <selection pane="bottomRight" activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2405,41 +2421,42 @@
     <col min="10" max="10" width="30.625" style="1" customWidth="1"/>
     <col min="11" max="11" width="35.625" style="1" customWidth="1"/>
     <col min="12" max="13" width="30.625" style="1" customWidth="1"/>
-    <col min="14" max="25" width="6.625" style="1" customWidth="1"/>
-    <col min="26" max="32" width="8.625" style="1" customWidth="1"/>
-    <col min="33" max="34" width="9.625" style="1" customWidth="1"/>
-    <col min="35" max="35" width="6.625" style="1" customWidth="1"/>
-    <col min="36" max="40" width="10.625" style="1" customWidth="1"/>
-    <col min="41" max="46" width="20.625" style="1" customWidth="1"/>
-    <col min="47" max="16384" width="9" style="1"/>
+    <col min="14" max="15" width="7.625" style="1" customWidth="1"/>
+    <col min="16" max="27" width="6.625" style="1" customWidth="1"/>
+    <col min="28" max="34" width="8.625" style="1" customWidth="1"/>
+    <col min="35" max="36" width="9.625" style="1" customWidth="1"/>
+    <col min="37" max="37" width="6.625" style="1" customWidth="1"/>
+    <col min="38" max="42" width="10.625" style="1" customWidth="1"/>
+    <col min="43" max="48" width="20.625" style="1" customWidth="1"/>
+    <col min="49" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="10" t="s">
         <v>33</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -2454,68 +2471,74 @@
       <c r="M1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="P1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="9" t="s">
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AC1" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="AB1" s="9" t="s">
+      <c r="AD1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="AC1" s="8" t="s">
+      <c r="AE1" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AD1" s="8" t="s">
+      <c r="AF1" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="AE1" s="8" t="s">
+      <c r="AG1" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AF1" s="8" t="s">
+      <c r="AH1" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AG1" s="8" t="s">
+      <c r="AI1" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="AH1" s="8" t="s">
+      <c r="AJ1" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="AI1" s="8" t="s">
+      <c r="AK1" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="AJ1" s="8" t="s">
+      <c r="AL1" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="AK1" s="8"/>
-      <c r="AL1" s="8"/>
-      <c r="AM1" s="8"/>
-      <c r="AN1" s="8"/>
+      <c r="AM1" s="9"/>
+      <c r="AN1" s="9"/>
+      <c r="AO1" s="9"/>
+      <c r="AP1" s="9"/>
     </row>
-    <row r="2" spans="1:46" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+    <row r="2" spans="1:48" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
       <c r="J2" s="4" t="s">
         <v>36</v>
       </c>
@@ -2528,83 +2551,85 @@
       <c r="M2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="T2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="U2" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="V2" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="W2" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="X2" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="Y2" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="Z2" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="Y2" s="5" t="s">
+      <c r="AA2" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="8"/>
-      <c r="AB2" s="9"/>
-      <c r="AC2" s="8"/>
-      <c r="AD2" s="8"/>
-      <c r="AE2" s="8"/>
-      <c r="AF2" s="8"/>
-      <c r="AG2" s="8"/>
-      <c r="AH2" s="8"/>
-      <c r="AI2" s="8"/>
-      <c r="AJ2" s="2">
+      <c r="AB2" s="10"/>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="10"/>
+      <c r="AE2" s="9"/>
+      <c r="AF2" s="9"/>
+      <c r="AG2" s="9"/>
+      <c r="AH2" s="9"/>
+      <c r="AI2" s="9"/>
+      <c r="AJ2" s="9"/>
+      <c r="AK2" s="9"/>
+      <c r="AL2" s="2">
         <v>2021</v>
       </c>
-      <c r="AK2" s="2">
+      <c r="AM2" s="2">
         <v>2020</v>
       </c>
-      <c r="AL2" s="2">
+      <c r="AN2" s="2">
         <v>2019</v>
       </c>
-      <c r="AM2" s="2">
+      <c r="AO2" s="2">
         <v>2018</v>
       </c>
-      <c r="AN2" s="2">
+      <c r="AP2" s="2">
         <v>2017</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AQ2" t="s">
         <v>185</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AR2" t="s">
         <v>182</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AS2" t="s">
         <v>184</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AT2" t="s">
         <v>183</v>
       </c>
-      <c r="AS2"/>
-      <c r="AT2"/>
+      <c r="AU2"/>
+      <c r="AV2"/>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1229</v>
       </c>
@@ -2624,109 +2649,115 @@
         <v>19760719</v>
       </c>
       <c r="G3">
-        <v>4.43</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="H3">
-        <v>17.3</v>
+        <v>17.27</v>
       </c>
       <c r="I3">
-        <v>2.2000000000000002</v>
+        <v>2.19</v>
       </c>
       <c r="J3" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="K3" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="L3" t="s">
-        <v>304</v>
+        <v>280</v>
       </c>
       <c r="M3" t="s">
-        <v>305</v>
-      </c>
-      <c r="N3" s="1">
+        <v>293</v>
+      </c>
+      <c r="N3">
+        <v>0.19</v>
+      </c>
+      <c r="O3">
+        <v>-45.58</v>
+      </c>
+      <c r="P3" s="1">
         <v>11</v>
       </c>
-      <c r="O3" s="1">
+      <c r="Q3" s="1">
         <v>35.200000000000003</v>
       </c>
-      <c r="P3" s="1">
+      <c r="R3" s="1">
         <v>12.6</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="S3" s="1">
         <v>40.32</v>
       </c>
-      <c r="R3" s="1">
+      <c r="T3" s="1">
         <v>14.2</v>
       </c>
-      <c r="S3" s="1">
+      <c r="U3" s="1">
         <v>45.44</v>
       </c>
-      <c r="T3" s="1">
+      <c r="V3" s="1">
         <v>15.8</v>
       </c>
-      <c r="U3" s="1">
+      <c r="W3" s="1">
         <v>50.56</v>
       </c>
-      <c r="V3" s="1">
+      <c r="X3" s="1">
         <v>17.399999999999999</v>
       </c>
-      <c r="W3" s="1">
+      <c r="Y3" s="1">
         <v>55.68</v>
       </c>
-      <c r="X3" s="1">
+      <c r="Z3" s="1">
         <v>19</v>
       </c>
-      <c r="Y3" s="1">
+      <c r="AA3" s="1">
         <v>60.8</v>
       </c>
-      <c r="Z3" s="1">
+      <c r="AB3" s="1">
         <v>26.64</v>
       </c>
-      <c r="AA3" s="1">
+      <c r="AC3" s="1">
         <v>16.34</v>
       </c>
-      <c r="AB3" s="1">
+      <c r="AD3" s="1">
         <v>12.1</v>
       </c>
-      <c r="AC3" s="1">
+      <c r="AE3" s="1">
         <v>53.98</v>
       </c>
-      <c r="AD3" s="1">
+      <c r="AF3" s="1">
         <v>52.93</v>
       </c>
-      <c r="AE3" s="1">
+      <c r="AG3" s="1">
         <v>0.18</v>
       </c>
-      <c r="AF3" s="1">
+      <c r="AH3" s="1">
         <v>30.27</v>
       </c>
-      <c r="AG3" s="1">
+      <c r="AI3" s="1">
         <v>1.28</v>
       </c>
-      <c r="AH3" s="1">
+      <c r="AJ3" s="1">
         <v>0.52</v>
       </c>
-      <c r="AI3" s="1">
+      <c r="AK3" s="1">
         <v>60</v>
       </c>
-      <c r="AJ3" s="1" t="s">
+      <c r="AL3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AK3" s="1" t="s">
+      <c r="AM3" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="AN3" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="AO3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1231</v>
       </c>
@@ -2746,109 +2777,115 @@
         <v>19951102</v>
       </c>
       <c r="G4">
-        <v>3.79</v>
+        <v>3.75</v>
       </c>
       <c r="H4">
-        <v>17.41</v>
+        <v>17.61</v>
       </c>
       <c r="I4">
-        <v>3.22</v>
+        <v>3.26</v>
       </c>
       <c r="J4" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="K4" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="L4" t="s">
-        <v>308</v>
+        <v>281</v>
       </c>
       <c r="M4" t="s">
         <v>160</v>
       </c>
-      <c r="N4" s="1">
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>-0.92</v>
+      </c>
+      <c r="P4" s="1">
         <v>11</v>
       </c>
-      <c r="O4" s="1">
+      <c r="Q4" s="1">
         <v>43.23</v>
       </c>
-      <c r="P4" s="1">
+      <c r="R4" s="1">
         <v>12.2</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="S4" s="1">
         <v>47.95</v>
       </c>
-      <c r="R4" s="1">
+      <c r="T4" s="1">
         <v>13.4</v>
       </c>
-      <c r="S4" s="1">
+      <c r="U4" s="1">
         <v>52.66</v>
       </c>
-      <c r="T4" s="1">
+      <c r="V4" s="1">
         <v>14.6</v>
       </c>
-      <c r="U4" s="1">
+      <c r="W4" s="1">
         <v>57.38</v>
       </c>
-      <c r="V4" s="1">
+      <c r="X4" s="1">
         <v>15.8</v>
       </c>
-      <c r="W4" s="1">
+      <c r="Y4" s="1">
         <v>62.09</v>
       </c>
-      <c r="X4" s="1">
+      <c r="Z4" s="1">
         <v>17</v>
       </c>
-      <c r="Y4" s="1">
+      <c r="AA4" s="1">
         <v>66.81</v>
       </c>
-      <c r="Z4" s="1">
+      <c r="AB4" s="1">
         <v>23.18</v>
       </c>
-      <c r="AA4" s="1">
+      <c r="AC4" s="1">
         <v>9.2799999999999994</v>
       </c>
-      <c r="AB4" s="1">
+      <c r="AD4" s="1">
         <v>17.32</v>
       </c>
-      <c r="AC4" s="1">
+      <c r="AE4" s="1">
         <v>9.73</v>
       </c>
-      <c r="AD4" s="1">
+      <c r="AF4" s="1">
         <v>7.83</v>
       </c>
-      <c r="AE4" s="1">
+      <c r="AG4" s="1">
         <v>1.03</v>
       </c>
-      <c r="AF4" s="1">
+      <c r="AH4" s="1">
         <v>95.38</v>
       </c>
-      <c r="AG4" s="1">
+      <c r="AI4" s="1">
         <v>2.4900000000000002</v>
       </c>
-      <c r="AH4" s="1">
+      <c r="AJ4" s="1">
         <v>0.91</v>
       </c>
-      <c r="AI4" s="1">
+      <c r="AK4" s="1">
         <v>43</v>
       </c>
-      <c r="AJ4" s="1" t="s">
+      <c r="AL4" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="AK4" s="1" t="s">
+      <c r="AM4" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AL4" s="1" t="s">
+      <c r="AN4" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="AM4" s="1" t="s">
+      <c r="AO4" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="AN4" s="1" t="s">
+      <c r="AP4" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1409</v>
       </c>
@@ -2868,117 +2905,123 @@
         <v>19730831</v>
       </c>
       <c r="G5">
-        <v>5.56</v>
+        <v>5.54</v>
       </c>
       <c r="H5">
-        <v>8.7200000000000006</v>
+        <v>8.74</v>
       </c>
       <c r="I5">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
       <c r="J5" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="K5" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="L5" t="s">
-        <v>311</v>
+        <v>282</v>
       </c>
       <c r="M5" t="s">
-        <v>312</v>
-      </c>
-      <c r="N5" s="1">
+        <v>298</v>
+      </c>
+      <c r="N5">
+        <v>0.76</v>
+      </c>
+      <c r="O5">
+        <v>-9.83</v>
+      </c>
+      <c r="P5" s="1">
         <v>9</v>
       </c>
-      <c r="O5" s="1">
+      <c r="Q5" s="1">
         <v>20.43</v>
       </c>
-      <c r="P5" s="1">
+      <c r="R5" s="1">
         <v>10.6</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="S5" s="1">
         <v>24.06</v>
       </c>
-      <c r="R5" s="1">
+      <c r="T5" s="1">
         <v>12.2</v>
       </c>
-      <c r="S5" s="1">
+      <c r="U5" s="1">
         <v>27.69</v>
       </c>
-      <c r="T5" s="1">
+      <c r="V5" s="1">
         <v>13.8</v>
       </c>
-      <c r="U5" s="1">
+      <c r="W5" s="1">
         <v>31.33</v>
       </c>
-      <c r="V5" s="1">
+      <c r="X5" s="1">
         <v>15.4</v>
       </c>
-      <c r="W5" s="1">
+      <c r="Y5" s="1">
         <v>34.96</v>
       </c>
-      <c r="X5" s="1">
+      <c r="Z5" s="1">
         <v>17</v>
       </c>
-      <c r="Y5" s="1">
+      <c r="AA5" s="1">
         <v>38.590000000000003</v>
       </c>
-      <c r="Z5" s="1">
+      <c r="AB5" s="1">
         <v>24.73</v>
       </c>
-      <c r="AA5" s="1">
+      <c r="AC5" s="1">
         <v>13.99</v>
       </c>
-      <c r="AB5" s="1">
+      <c r="AD5" s="1">
         <v>11.28</v>
       </c>
-      <c r="AC5" s="1">
+      <c r="AE5" s="1">
         <v>13.87</v>
       </c>
-      <c r="AD5" s="1">
+      <c r="AF5" s="1">
         <v>11.48</v>
       </c>
-      <c r="AE5" s="1">
+      <c r="AG5" s="1">
         <v>0.24</v>
       </c>
-      <c r="AF5" s="1">
+      <c r="AH5" s="1">
         <v>100.87</v>
       </c>
-      <c r="AG5" s="1">
+      <c r="AI5" s="1">
         <v>-2.2000000000000002</v>
       </c>
-      <c r="AH5" s="1">
+      <c r="AJ5" s="1">
         <v>-3.53</v>
       </c>
-      <c r="AI5" s="1">
+      <c r="AK5" s="1">
         <v>47</v>
       </c>
-      <c r="AJ5" s="1" t="s">
+      <c r="AL5" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AK5" s="1" t="s">
+      <c r="AM5" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="AL5" s="1" t="s">
+      <c r="AN5" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="AM5" s="1" t="s">
+      <c r="AO5" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="AN5" s="1" t="s">
+      <c r="AP5" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1304</v>
       </c>
       <c r="B6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D6" s="7">
         <v>11887635000</v>
@@ -2990,129 +3033,135 @@
         <v>19720520</v>
       </c>
       <c r="G6">
-        <v>3.25</v>
+        <v>3.31</v>
       </c>
       <c r="H6">
-        <v>6.74</v>
+        <v>6.61</v>
       </c>
       <c r="I6">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="J6" t="s">
+        <v>299</v>
+      </c>
+      <c r="K6" t="s">
+        <v>300</v>
+      </c>
+      <c r="L6" t="s">
+        <v>283</v>
+      </c>
+      <c r="M6" t="s">
+        <v>301</v>
+      </c>
+      <c r="N6">
+        <v>0.21</v>
+      </c>
+      <c r="O6">
+        <v>-24.65</v>
+      </c>
+      <c r="P6">
+        <v>10</v>
+      </c>
+      <c r="Q6">
+        <v>45.7</v>
+      </c>
+      <c r="R6">
+        <v>12</v>
+      </c>
+      <c r="S6">
+        <v>54.84</v>
+      </c>
+      <c r="T6">
+        <v>14</v>
+      </c>
+      <c r="U6">
+        <v>63.98</v>
+      </c>
+      <c r="V6">
+        <v>16</v>
+      </c>
+      <c r="W6">
+        <v>73.12</v>
+      </c>
+      <c r="X6">
+        <v>18</v>
+      </c>
+      <c r="Y6">
+        <v>82.26</v>
+      </c>
+      <c r="Z6">
+        <v>20</v>
+      </c>
+      <c r="AA6">
+        <v>91.4</v>
+      </c>
+      <c r="AB6">
+        <v>23.9</v>
+      </c>
+      <c r="AC6">
+        <v>16.989999999999998</v>
+      </c>
+      <c r="AD6">
+        <v>19.39</v>
+      </c>
+      <c r="AE6">
+        <v>17.850000000000001</v>
+      </c>
+      <c r="AF6">
+        <v>14.06</v>
+      </c>
+      <c r="AG6">
+        <v>0.87</v>
+      </c>
+      <c r="AH6">
+        <v>95.18</v>
+      </c>
+      <c r="AI6">
+        <v>5.37</v>
+      </c>
+      <c r="AJ6">
+        <v>3.45</v>
+      </c>
+      <c r="AK6">
+        <v>60</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>106</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>121</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>198</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>199</v>
+      </c>
+      <c r="AQ6" t="s">
         <v>200</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="AR6" t="s">
         <v>201</v>
       </c>
-      <c r="L6" t="s">
-        <v>313</v>
-      </c>
-      <c r="M6" t="s">
-        <v>314</v>
-      </c>
-      <c r="N6">
-        <v>10</v>
-      </c>
-      <c r="O6">
-        <v>45.7</v>
-      </c>
-      <c r="P6">
-        <v>12</v>
-      </c>
-      <c r="Q6">
-        <v>54.84</v>
-      </c>
-      <c r="R6">
-        <v>14</v>
-      </c>
-      <c r="S6">
-        <v>63.98</v>
-      </c>
-      <c r="T6">
-        <v>16</v>
-      </c>
-      <c r="U6">
-        <v>73.12</v>
-      </c>
-      <c r="V6">
-        <v>18</v>
-      </c>
-      <c r="W6">
-        <v>82.26</v>
-      </c>
-      <c r="X6">
-        <v>20</v>
-      </c>
-      <c r="Y6">
-        <v>91.4</v>
-      </c>
-      <c r="Z6">
-        <v>23.9</v>
-      </c>
-      <c r="AA6">
-        <v>16.989999999999998</v>
-      </c>
-      <c r="AB6">
-        <v>19.39</v>
-      </c>
-      <c r="AC6">
-        <v>17.850000000000001</v>
-      </c>
-      <c r="AD6">
-        <v>14.06</v>
-      </c>
-      <c r="AE6">
-        <v>0.87</v>
-      </c>
-      <c r="AF6">
-        <v>95.18</v>
-      </c>
-      <c r="AG6">
-        <v>5.37</v>
-      </c>
-      <c r="AH6">
-        <v>3.45</v>
-      </c>
-      <c r="AI6">
-        <v>60</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>106</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>121</v>
-      </c>
-      <c r="AM6" t="s">
+      <c r="AS6" t="s">
         <v>202</v>
       </c>
-      <c r="AN6" t="s">
+      <c r="AT6" t="s">
         <v>203</v>
       </c>
-      <c r="AO6" t="s">
-        <v>204</v>
-      </c>
-      <c r="AP6" t="s">
-        <v>205</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>206</v>
-      </c>
-      <c r="AR6" t="s">
-        <v>207</v>
-      </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1305</v>
       </c>
       <c r="B7" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="C7" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="D7" s="7">
         <v>5810504940</v>
@@ -3124,129 +3173,135 @@
         <v>19730305</v>
       </c>
       <c r="G7">
-        <v>6.62</v>
+        <v>6.8</v>
       </c>
       <c r="H7">
-        <v>6.99</v>
+        <v>6.8</v>
       </c>
       <c r="I7">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="J7" t="s">
+        <v>302</v>
+      </c>
+      <c r="K7" t="s">
+        <v>303</v>
+      </c>
+      <c r="L7" t="s">
         <v>284</v>
       </c>
-      <c r="K7" t="s">
-        <v>285</v>
-      </c>
-      <c r="L7" t="s">
-        <v>315</v>
-      </c>
       <c r="M7" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="N7">
+        <v>0.45</v>
+      </c>
+      <c r="O7">
+        <v>-16.43</v>
+      </c>
+      <c r="P7">
         <v>7</v>
       </c>
-      <c r="O7">
+      <c r="Q7">
         <v>34.86</v>
       </c>
-      <c r="P7">
+      <c r="R7">
         <v>8.8000000000000007</v>
       </c>
-      <c r="Q7">
+      <c r="S7">
         <v>43.82</v>
       </c>
-      <c r="R7">
+      <c r="T7">
         <v>10.6</v>
       </c>
-      <c r="S7">
+      <c r="U7">
         <v>52.79</v>
       </c>
-      <c r="T7">
+      <c r="V7">
         <v>12.4</v>
       </c>
-      <c r="U7">
+      <c r="W7">
         <v>61.75</v>
       </c>
-      <c r="V7">
+      <c r="X7">
         <v>14.2</v>
       </c>
-      <c r="W7">
+      <c r="Y7">
         <v>70.72</v>
       </c>
-      <c r="X7">
+      <c r="Z7">
         <v>16</v>
       </c>
-      <c r="Y7">
+      <c r="AA7">
         <v>79.680000000000007</v>
       </c>
-      <c r="Z7">
+      <c r="AB7">
         <v>25.41</v>
       </c>
-      <c r="AA7">
+      <c r="AC7">
         <v>16.78</v>
       </c>
-      <c r="AB7">
+      <c r="AD7">
         <v>24.74</v>
       </c>
-      <c r="AC7">
+      <c r="AE7">
         <v>16.5</v>
       </c>
-      <c r="AD7">
+      <c r="AF7">
         <v>13.25</v>
       </c>
-      <c r="AE7">
+      <c r="AG7">
         <v>1.29</v>
       </c>
-      <c r="AF7">
+      <c r="AH7">
         <v>101.7</v>
       </c>
-      <c r="AG7">
+      <c r="AI7">
         <v>1.93</v>
       </c>
-      <c r="AH7">
+      <c r="AJ7">
         <v>-0.39</v>
       </c>
-      <c r="AI7">
+      <c r="AK7">
         <v>57</v>
       </c>
-      <c r="AJ7" t="s">
+      <c r="AL7" t="s">
         <v>162</v>
       </c>
-      <c r="AK7" t="s">
-        <v>286</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>287</v>
-      </c>
       <c r="AM7" t="s">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="AN7" t="s">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="AO7" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
       <c r="AP7" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="AQ7" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="AR7" t="s">
-        <v>293</v>
+        <v>271</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>272</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>273</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1308</v>
       </c>
       <c r="B8" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="C8" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D8" s="7">
         <v>5937439190</v>
@@ -3258,121 +3313,127 @@
         <v>19860620</v>
       </c>
       <c r="G8">
-        <v>3.76</v>
+        <v>3.75</v>
       </c>
       <c r="H8">
-        <v>8.19</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="I8">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="J8" t="s">
-        <v>241</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>242</v>
+        <v>305</v>
+      </c>
+      <c r="K8" t="s">
+        <v>306</v>
       </c>
       <c r="L8" t="s">
-        <v>317</v>
+        <v>285</v>
       </c>
       <c r="M8" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="N8">
+        <v>1.01</v>
+      </c>
+      <c r="O8">
+        <v>-1.63</v>
+      </c>
+      <c r="P8">
         <v>11</v>
       </c>
-      <c r="O8">
+      <c r="Q8">
         <v>50.16</v>
       </c>
-      <c r="P8">
+      <c r="R8">
         <v>13.2</v>
       </c>
-      <c r="Q8">
+      <c r="S8">
         <v>60.19</v>
       </c>
-      <c r="R8">
+      <c r="T8">
         <v>15.4</v>
       </c>
-      <c r="S8">
+      <c r="U8">
         <v>70.22</v>
       </c>
-      <c r="T8">
+      <c r="V8">
         <v>17.600000000000001</v>
       </c>
-      <c r="U8">
+      <c r="W8">
         <v>80.260000000000005</v>
       </c>
-      <c r="V8">
+      <c r="X8">
         <v>19.8</v>
       </c>
-      <c r="W8">
+      <c r="Y8">
         <v>90.29</v>
       </c>
-      <c r="X8">
+      <c r="Z8">
         <v>22</v>
       </c>
-      <c r="Y8">
+      <c r="AA8">
         <v>100.3</v>
       </c>
-      <c r="Z8">
+      <c r="AB8">
         <v>34.97</v>
       </c>
-      <c r="AA8">
+      <c r="AC8">
         <v>31.99</v>
       </c>
-      <c r="AB8">
+      <c r="AD8">
         <v>21.15</v>
       </c>
-      <c r="AC8">
+      <c r="AE8">
         <v>38.909999999999997</v>
       </c>
-      <c r="AD8">
+      <c r="AF8">
         <v>32.46</v>
       </c>
-      <c r="AE8">
+      <c r="AG8">
         <v>0.49</v>
       </c>
-      <c r="AF8">
+      <c r="AH8">
         <v>82.22</v>
       </c>
-      <c r="AG8">
+      <c r="AI8">
         <v>2.54</v>
       </c>
-      <c r="AH8">
+      <c r="AJ8">
         <v>2.56</v>
       </c>
-      <c r="AI8">
+      <c r="AK8">
         <v>72</v>
       </c>
-      <c r="AJ8" t="s">
-        <v>243</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>244</v>
-      </c>
       <c r="AL8" t="s">
+        <v>231</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN8" t="s">
         <v>121</v>
       </c>
-      <c r="AM8" t="s">
-        <v>245</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>246</v>
-      </c>
       <c r="AO8" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="AP8" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="AQ8" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="AR8" t="s">
-        <v>250</v>
+        <v>236</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>237</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>238</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1313</v>
       </c>
@@ -3392,121 +3453,127 @@
         <v>19890327</v>
       </c>
       <c r="G9">
-        <v>4.71</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="H9">
-        <v>6.48</v>
+        <v>6.45</v>
       </c>
       <c r="I9">
         <v>0.95</v>
       </c>
       <c r="J9" t="s">
+        <v>308</v>
+      </c>
+      <c r="K9" t="s">
+        <v>309</v>
+      </c>
+      <c r="L9" t="s">
+        <v>286</v>
+      </c>
+      <c r="M9" t="s">
+        <v>310</v>
+      </c>
+      <c r="N9">
+        <v>0.35</v>
+      </c>
+      <c r="O9">
+        <v>-28.79</v>
+      </c>
+      <c r="P9">
+        <v>13</v>
+      </c>
+      <c r="Q9">
+        <v>43.16</v>
+      </c>
+      <c r="R9">
+        <v>15.6</v>
+      </c>
+      <c r="S9">
+        <v>51.79</v>
+      </c>
+      <c r="T9">
+        <v>18.2</v>
+      </c>
+      <c r="U9">
+        <v>60.42</v>
+      </c>
+      <c r="V9">
+        <v>20.8</v>
+      </c>
+      <c r="W9">
+        <v>69.06</v>
+      </c>
+      <c r="X9">
+        <v>23.4</v>
+      </c>
+      <c r="Y9">
+        <v>77.69</v>
+      </c>
+      <c r="Z9">
+        <v>26</v>
+      </c>
+      <c r="AA9">
+        <v>86.32</v>
+      </c>
+      <c r="AB9">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="AC9">
+        <v>5.84</v>
+      </c>
+      <c r="AD9">
+        <v>14.89</v>
+      </c>
+      <c r="AE9">
+        <v>6.4</v>
+      </c>
+      <c r="AF9">
+        <v>5.03</v>
+      </c>
+      <c r="AG9">
+        <v>1.63</v>
+      </c>
+      <c r="AH9">
+        <v>91.25</v>
+      </c>
+      <c r="AI9">
+        <v>-0.67</v>
+      </c>
+      <c r="AJ9">
+        <v>-1.21</v>
+      </c>
+      <c r="AK9">
+        <v>40</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>106</v>
+      </c>
+      <c r="AM9" t="s">
         <v>188</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="AN9" t="s">
         <v>189</v>
       </c>
-      <c r="L9" t="s">
-        <v>319</v>
-      </c>
-      <c r="M9" t="s">
-        <v>320</v>
-      </c>
-      <c r="N9">
-        <v>13</v>
-      </c>
-      <c r="O9">
-        <v>43.16</v>
-      </c>
-      <c r="P9">
-        <v>15.6</v>
-      </c>
-      <c r="Q9">
-        <v>51.79</v>
-      </c>
-      <c r="R9">
-        <v>18.2</v>
-      </c>
-      <c r="S9">
-        <v>60.42</v>
-      </c>
-      <c r="T9">
-        <v>20.8</v>
-      </c>
-      <c r="U9">
-        <v>69.06</v>
-      </c>
-      <c r="V9">
-        <v>23.4</v>
-      </c>
-      <c r="W9">
-        <v>77.69</v>
-      </c>
-      <c r="X9">
-        <v>26</v>
-      </c>
-      <c r="Y9">
-        <v>86.32</v>
-      </c>
-      <c r="Z9">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="AA9">
-        <v>5.84</v>
-      </c>
-      <c r="AB9">
-        <v>14.89</v>
-      </c>
-      <c r="AC9">
-        <v>6.4</v>
-      </c>
-      <c r="AD9">
-        <v>5.03</v>
-      </c>
-      <c r="AE9">
-        <v>1.63</v>
-      </c>
-      <c r="AF9">
-        <v>91.25</v>
-      </c>
-      <c r="AG9">
-        <v>-0.67</v>
-      </c>
-      <c r="AH9">
-        <v>-1.21</v>
-      </c>
-      <c r="AI9">
-        <v>40</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>106</v>
-      </c>
-      <c r="AK9" t="s">
+      <c r="AO9" t="s">
         <v>190</v>
       </c>
-      <c r="AL9" t="s">
+      <c r="AP9" t="s">
         <v>191</v>
       </c>
-      <c r="AM9" t="s">
+      <c r="AQ9" t="s">
         <v>192</v>
       </c>
-      <c r="AN9" t="s">
+      <c r="AR9" t="s">
         <v>193</v>
       </c>
-      <c r="AO9" t="s">
+      <c r="AS9" t="s">
         <v>194</v>
       </c>
-      <c r="AP9" t="s">
+      <c r="AT9" t="s">
         <v>195</v>
       </c>
-      <c r="AQ9" t="s">
-        <v>196</v>
-      </c>
-      <c r="AR9" t="s">
-        <v>197</v>
-      </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1474</v>
       </c>
@@ -3526,117 +3593,123 @@
         <v>20001031</v>
       </c>
       <c r="G10">
-        <v>2.56</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="H10">
-        <v>11.06</v>
+        <v>11.13</v>
       </c>
       <c r="I10">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="K10" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="L10" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="M10" t="s">
-        <v>324</v>
-      </c>
-      <c r="N10" s="1">
+        <v>314</v>
+      </c>
+      <c r="N10">
+        <v>1.92</v>
+      </c>
+      <c r="O10" s="8">
+        <v>17.579999999999998</v>
+      </c>
+      <c r="P10" s="1">
         <v>13</v>
       </c>
-      <c r="O10" s="1">
+      <c r="Q10" s="1">
         <v>18.329999999999998</v>
       </c>
-      <c r="P10" s="1">
+      <c r="R10" s="1">
         <v>15.4</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="S10" s="1">
         <v>21.71</v>
       </c>
-      <c r="R10" s="1">
+      <c r="T10" s="1">
         <v>17.8</v>
       </c>
-      <c r="S10" s="1">
+      <c r="U10" s="1">
         <v>25.1</v>
       </c>
-      <c r="T10" s="1">
+      <c r="V10" s="1">
         <v>20.2</v>
       </c>
-      <c r="U10" s="1">
+      <c r="W10" s="1">
         <v>28.48</v>
       </c>
-      <c r="V10" s="1">
+      <c r="X10" s="1">
         <v>22.6</v>
       </c>
-      <c r="W10" s="1">
+      <c r="Y10" s="1">
         <v>31.87</v>
       </c>
-      <c r="X10" s="1">
+      <c r="Z10" s="1">
         <v>25</v>
       </c>
-      <c r="Y10" s="1">
+      <c r="AA10" s="1">
         <v>35.25</v>
       </c>
-      <c r="Z10" s="1">
+      <c r="AB10" s="1">
         <v>16.04</v>
       </c>
-      <c r="AA10" s="1">
+      <c r="AC10" s="1">
         <v>5.23</v>
       </c>
-      <c r="AB10" s="1">
+      <c r="AD10" s="1">
         <v>8.11</v>
       </c>
-      <c r="AC10" s="1">
+      <c r="AE10" s="1">
         <v>6.05</v>
       </c>
-      <c r="AD10" s="1">
+      <c r="AF10" s="1">
         <v>4.8099999999999996</v>
       </c>
-      <c r="AE10" s="1">
+      <c r="AG10" s="1">
         <v>0.85</v>
       </c>
-      <c r="AF10" s="1">
+      <c r="AH10" s="1">
         <v>86.45</v>
       </c>
-      <c r="AG10" s="1">
+      <c r="AI10" s="1">
         <v>0.86</v>
       </c>
-      <c r="AH10" s="1">
+      <c r="AJ10" s="1">
         <v>-0.96</v>
       </c>
-      <c r="AI10" s="1">
+      <c r="AK10" s="1">
         <v>43</v>
       </c>
-      <c r="AJ10" s="1" t="s">
+      <c r="AL10" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="AK10" s="1" t="s">
+      <c r="AM10" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AL10" s="1" t="s">
+      <c r="AN10" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="AM10" s="1" t="s">
+      <c r="AO10" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="AN10" s="1" t="s">
+      <c r="AP10" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1604</v>
       </c>
       <c r="B11" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="C11" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="D11" s="7">
         <v>3872000000</v>
@@ -3648,129 +3721,135 @@
         <v>19701214</v>
       </c>
       <c r="G11">
-        <v>8.32</v>
+        <v>8.33</v>
       </c>
       <c r="H11">
-        <v>6.49</v>
+        <v>6.48</v>
       </c>
       <c r="I11">
         <v>1.32</v>
       </c>
       <c r="J11" t="s">
-        <v>296</v>
+        <v>315</v>
       </c>
       <c r="K11" t="s">
-        <v>297</v>
+        <v>316</v>
       </c>
       <c r="L11" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="M11" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="N11">
+        <v>0.64</v>
+      </c>
+      <c r="O11">
+        <v>-6.47</v>
+      </c>
+      <c r="P11">
         <v>7</v>
       </c>
-      <c r="O11">
+      <c r="Q11">
         <v>32.130000000000003</v>
       </c>
-      <c r="P11">
+      <c r="R11">
         <v>8.1999999999999993</v>
       </c>
-      <c r="Q11">
+      <c r="S11">
         <v>37.64</v>
       </c>
-      <c r="R11">
+      <c r="T11">
         <v>9.4</v>
       </c>
-      <c r="S11">
+      <c r="U11">
         <v>43.15</v>
       </c>
-      <c r="T11">
+      <c r="V11">
         <v>10.6</v>
       </c>
-      <c r="U11">
+      <c r="W11">
         <v>48.65</v>
       </c>
-      <c r="V11">
+      <c r="X11">
         <v>11.8</v>
       </c>
-      <c r="W11">
+      <c r="Y11">
         <v>54.16</v>
       </c>
-      <c r="X11">
+      <c r="Z11">
         <v>13</v>
       </c>
-      <c r="Y11">
+      <c r="AA11">
         <v>59.67</v>
       </c>
-      <c r="Z11">
+      <c r="AB11">
         <v>17.72</v>
       </c>
-      <c r="AA11">
+      <c r="AC11">
         <v>7.61</v>
       </c>
-      <c r="AB11">
+      <c r="AD11">
         <v>26.03</v>
       </c>
-      <c r="AC11">
+      <c r="AE11">
         <v>26.84</v>
       </c>
-      <c r="AD11">
+      <c r="AF11">
         <v>24.99</v>
       </c>
-      <c r="AE11">
+      <c r="AG11">
         <v>0.67</v>
       </c>
-      <c r="AF11">
+      <c r="AH11">
         <v>28.35</v>
       </c>
-      <c r="AG11">
+      <c r="AI11">
         <v>0.53</v>
       </c>
-      <c r="AH11">
+      <c r="AJ11">
         <v>4.1399999999999997</v>
       </c>
-      <c r="AI11">
+      <c r="AK11">
         <v>62</v>
       </c>
-      <c r="AJ11" t="s">
+      <c r="AL11" t="s">
         <v>130</v>
       </c>
-      <c r="AK11" t="s">
+      <c r="AM11" t="s">
         <v>93</v>
-      </c>
-      <c r="AL11" t="s">
-        <v>127</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>190</v>
       </c>
       <c r="AN11" t="s">
         <v>127</v>
       </c>
       <c r="AO11" t="s">
-        <v>298</v>
+        <v>188</v>
       </c>
       <c r="AP11" t="s">
-        <v>299</v>
+        <v>127</v>
       </c>
       <c r="AQ11" t="s">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="AR11" t="s">
-        <v>301</v>
+        <v>277</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>278</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>279</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1776</v>
       </c>
       <c r="B12" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C12" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D12" s="7">
         <v>703352990</v>
@@ -3782,121 +3861,127 @@
         <v>20160509</v>
       </c>
       <c r="G12">
-        <v>4.7300000000000004</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="H12">
-        <v>8.56</v>
+        <v>8.6199999999999992</v>
       </c>
       <c r="I12">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="J12" t="s">
-        <v>223</v>
+        <v>319</v>
       </c>
       <c r="K12" t="s">
-        <v>224</v>
+        <v>320</v>
       </c>
       <c r="L12" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="M12" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="N12">
+        <v>2.4</v>
+      </c>
+      <c r="O12">
+        <v>8.44</v>
+      </c>
+      <c r="P12">
         <v>12</v>
       </c>
-      <c r="O12">
+      <c r="Q12">
         <v>30</v>
       </c>
-      <c r="P12">
+      <c r="R12">
         <v>14.4</v>
       </c>
-      <c r="Q12">
+      <c r="S12">
         <v>36</v>
       </c>
-      <c r="R12">
+      <c r="T12">
         <v>16.8</v>
       </c>
-      <c r="S12">
+      <c r="U12">
         <v>42</v>
       </c>
-      <c r="T12">
+      <c r="V12">
         <v>19.2</v>
       </c>
-      <c r="U12">
+      <c r="W12">
         <v>48</v>
       </c>
-      <c r="V12">
+      <c r="X12">
         <v>21.6</v>
       </c>
-      <c r="W12">
+      <c r="Y12">
         <v>54</v>
       </c>
-      <c r="X12">
+      <c r="Z12">
         <v>24</v>
       </c>
-      <c r="Y12">
+      <c r="AA12">
         <v>60</v>
       </c>
-      <c r="Z12">
+      <c r="AB12">
         <v>20.57</v>
       </c>
-      <c r="AA12">
+      <c r="AC12">
         <v>7.03</v>
       </c>
-      <c r="AB12">
+      <c r="AD12">
         <v>19.61</v>
       </c>
-      <c r="AC12">
+      <c r="AE12">
         <v>7.3</v>
       </c>
-      <c r="AD12">
+      <c r="AF12">
         <v>15.07</v>
       </c>
-      <c r="AE12">
+      <c r="AG12">
         <v>0.78</v>
       </c>
-      <c r="AF12">
+      <c r="AH12">
         <v>96.3</v>
       </c>
-      <c r="AG12">
+      <c r="AI12">
         <v>1.64</v>
       </c>
-      <c r="AH12">
+      <c r="AJ12">
         <v>7.28</v>
       </c>
-      <c r="AI12">
+      <c r="AK12">
         <v>60</v>
       </c>
-      <c r="AJ12" t="s">
+      <c r="AL12" t="s">
         <v>106</v>
       </c>
-      <c r="AK12" t="s">
+      <c r="AM12" t="s">
         <v>84</v>
       </c>
-      <c r="AL12" t="s">
+      <c r="AN12" t="s">
         <v>129</v>
       </c>
-      <c r="AM12" t="s">
+      <c r="AO12" t="s">
         <v>93</v>
       </c>
-      <c r="AN12" t="s">
+      <c r="AP12" t="s">
         <v>89</v>
       </c>
-      <c r="AO12" t="s">
-        <v>225</v>
-      </c>
-      <c r="AP12" t="s">
-        <v>226</v>
-      </c>
       <c r="AQ12" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="AR12" t="s">
-        <v>228</v>
+        <v>218</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>219</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>220</v>
       </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2020</v>
       </c>
@@ -3916,109 +4001,115 @@
         <v>19930427</v>
       </c>
       <c r="G13">
-        <v>5.44</v>
+        <v>5.42</v>
       </c>
       <c r="H13">
-        <v>8.7799999999999994</v>
+        <v>8.81</v>
       </c>
       <c r="I13">
         <v>1.95</v>
       </c>
       <c r="J13" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="K13" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="L13" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="M13" t="s">
-        <v>332</v>
-      </c>
-      <c r="N13" s="1">
+        <v>326</v>
+      </c>
+      <c r="N13">
+        <v>0.75</v>
+      </c>
+      <c r="O13">
+        <v>6.97</v>
+      </c>
+      <c r="P13" s="1">
         <v>12</v>
       </c>
-      <c r="O13" s="1">
+      <c r="Q13" s="1">
         <v>42.72</v>
       </c>
-      <c r="P13" s="1">
+      <c r="R13" s="1">
         <v>14.8</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="S13" s="1">
         <v>52.69</v>
       </c>
-      <c r="R13" s="1">
+      <c r="T13" s="1">
         <v>17.600000000000001</v>
       </c>
-      <c r="S13" s="1">
+      <c r="U13" s="1">
         <v>62.66</v>
       </c>
-      <c r="T13" s="1">
+      <c r="V13" s="1">
         <v>20.399999999999999</v>
       </c>
-      <c r="U13" s="1">
+      <c r="W13" s="1">
         <v>72.62</v>
       </c>
-      <c r="V13" s="1">
+      <c r="X13" s="1">
         <v>23.2</v>
       </c>
-      <c r="W13" s="1">
+      <c r="Y13" s="1">
         <v>82.59</v>
       </c>
-      <c r="X13" s="1">
+      <c r="Z13" s="1">
         <v>26</v>
       </c>
-      <c r="Y13" s="1">
+      <c r="AA13" s="1">
         <v>92.56</v>
       </c>
-      <c r="Z13" s="1">
+      <c r="AB13" s="1">
         <v>14.3</v>
       </c>
-      <c r="AA13" s="1">
+      <c r="AC13" s="1">
         <v>9.4700000000000006</v>
       </c>
-      <c r="AB13" s="1">
+      <c r="AD13" s="1">
         <v>27.47</v>
       </c>
-      <c r="AC13" s="1">
+      <c r="AE13" s="1">
         <v>16.52</v>
       </c>
-      <c r="AD13" s="1">
+      <c r="AF13" s="1">
         <v>14.13</v>
       </c>
-      <c r="AE13" s="1">
+      <c r="AG13" s="1">
         <v>0.89</v>
       </c>
-      <c r="AF13" s="1">
+      <c r="AH13" s="1">
         <v>57.32</v>
       </c>
-      <c r="AG13" s="1">
+      <c r="AI13" s="1">
         <v>0.9</v>
       </c>
-      <c r="AH13" s="1">
+      <c r="AJ13" s="1">
         <v>1.46</v>
       </c>
-      <c r="AI13" s="1">
+      <c r="AK13" s="1">
         <v>47</v>
       </c>
-      <c r="AJ13" s="1" t="s">
+      <c r="AL13" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="AK13" s="1" t="s">
+      <c r="AM13" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="AL13" s="1" t="s">
+      <c r="AN13" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="AM13" s="1" t="s">
+      <c r="AO13" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AN13" s="1" t="s">
+      <c r="AP13" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2069</v>
       </c>
@@ -4038,109 +4129,115 @@
         <v>20160322</v>
       </c>
       <c r="G14">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="H14">
-        <v>8.4</v>
+        <v>8.4700000000000006</v>
       </c>
       <c r="I14">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="J14" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="K14" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="L14" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="M14" t="s">
-        <v>336</v>
-      </c>
-      <c r="N14" s="1">
+        <v>330</v>
+      </c>
+      <c r="N14">
+        <v>0.67</v>
+      </c>
+      <c r="O14">
+        <v>0.63</v>
+      </c>
+      <c r="P14" s="1">
         <v>10</v>
       </c>
-      <c r="O14" s="1">
+      <c r="Q14" s="1">
         <v>38.6</v>
       </c>
-      <c r="P14" s="1">
+      <c r="R14" s="1">
         <v>13.4</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="S14" s="1">
         <v>51.72</v>
       </c>
-      <c r="R14" s="1">
+      <c r="T14" s="1">
         <v>16.8</v>
       </c>
-      <c r="S14" s="1">
+      <c r="U14" s="1">
         <v>64.849999999999994</v>
       </c>
-      <c r="T14" s="1">
+      <c r="V14" s="1">
         <v>20.2</v>
       </c>
-      <c r="U14" s="1">
+      <c r="W14" s="1">
         <v>77.97</v>
       </c>
-      <c r="V14" s="1">
+      <c r="X14" s="1">
         <v>23.6</v>
       </c>
-      <c r="W14" s="1">
+      <c r="Y14" s="1">
         <v>91.1</v>
       </c>
-      <c r="X14" s="1">
+      <c r="Z14" s="1">
         <v>27</v>
       </c>
-      <c r="Y14" s="1">
+      <c r="AA14" s="1">
         <v>104.2</v>
       </c>
-      <c r="Z14" s="1">
+      <c r="AB14" s="1">
         <v>13</v>
       </c>
-      <c r="AA14" s="1">
+      <c r="AC14" s="1">
         <v>6.49</v>
       </c>
-      <c r="AB14" s="1">
+      <c r="AD14" s="1">
         <v>19.260000000000002</v>
       </c>
-      <c r="AC14" s="1">
+      <c r="AE14" s="1">
         <v>6.18</v>
       </c>
-      <c r="AD14" s="1">
+      <c r="AF14" s="1">
         <v>5.03</v>
       </c>
-      <c r="AE14" s="1">
+      <c r="AG14" s="1">
         <v>1.39</v>
       </c>
-      <c r="AF14" s="1">
+      <c r="AH14" s="1">
         <v>105.02</v>
       </c>
-      <c r="AG14" s="1">
+      <c r="AI14" s="1">
         <v>-7.36</v>
       </c>
-      <c r="AH14" s="1">
+      <c r="AJ14" s="1">
         <v>-9.52</v>
       </c>
-      <c r="AI14" s="1">
+      <c r="AK14" s="1">
         <v>34</v>
       </c>
-      <c r="AJ14" s="1" t="s">
+      <c r="AL14" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="AK14" s="1" t="s">
+      <c r="AM14" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="AL14" s="1" t="s">
+      <c r="AN14" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="AM14" s="1" t="s">
+      <c r="AO14" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="AN14" s="1" t="s">
+      <c r="AP14" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2324</v>
       </c>
@@ -4160,100 +4257,100 @@
         <v>19920218</v>
       </c>
       <c r="G15">
-        <v>6.46</v>
+        <v>6.44</v>
       </c>
       <c r="H15">
-        <v>7.69</v>
+        <v>7.72</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="K15" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="L15" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="M15" t="s">
-        <v>340</v>
-      </c>
-      <c r="N15" s="1">
+        <v>334</v>
+      </c>
+      <c r="N15">
+        <v>1.47</v>
+      </c>
+      <c r="O15">
+        <v>12.4</v>
+      </c>
+      <c r="P15" s="1">
         <v>9</v>
       </c>
-      <c r="O15" s="1">
+      <c r="Q15" s="1">
         <v>28.98</v>
       </c>
-      <c r="P15" s="1">
+      <c r="R15" s="1">
         <v>10.199999999999999</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="S15" s="1">
         <v>32.840000000000003</v>
       </c>
-      <c r="R15" s="1">
+      <c r="T15" s="1">
         <v>11.4</v>
       </c>
-      <c r="S15" s="1">
+      <c r="U15" s="1">
         <v>36.71</v>
       </c>
-      <c r="T15" s="1">
+      <c r="V15" s="1">
         <v>12.6</v>
       </c>
-      <c r="U15" s="1">
+      <c r="W15" s="1">
         <v>40.57</v>
       </c>
-      <c r="V15" s="1">
+      <c r="X15" s="1">
         <v>13.8</v>
       </c>
-      <c r="W15" s="1">
+      <c r="Y15" s="1">
         <v>44.44</v>
       </c>
-      <c r="X15" s="1">
+      <c r="Z15" s="1">
         <v>15</v>
       </c>
-      <c r="Y15" s="1">
+      <c r="AA15" s="1">
         <v>48.3</v>
       </c>
-      <c r="Z15" s="1">
+      <c r="AB15" s="1">
         <v>3.35</v>
       </c>
-      <c r="AA15" s="1">
+      <c r="AC15" s="1">
         <v>1.0900000000000001</v>
       </c>
-      <c r="AB15" s="1">
+      <c r="AD15" s="1">
         <v>11.72</v>
       </c>
-      <c r="AC15" s="1">
+      <c r="AE15" s="1">
         <v>1.49</v>
       </c>
-      <c r="AD15" s="1">
+      <c r="AF15" s="1">
         <v>1.18</v>
       </c>
-      <c r="AE15" s="1">
+      <c r="AG15" s="1">
         <v>2.33</v>
       </c>
-      <c r="AF15" s="1">
+      <c r="AH15" s="1">
         <v>73.150000000000006</v>
       </c>
-      <c r="AG15" s="1">
+      <c r="AI15" s="1">
         <v>-5.67</v>
       </c>
-      <c r="AH15" s="1">
+      <c r="AJ15" s="1">
         <v>-7.8</v>
       </c>
-      <c r="AI15" s="1">
+      <c r="AK15" s="1">
         <v>36</v>
       </c>
-      <c r="AJ15" s="1" t="s">
+      <c r="AL15" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="AK15" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL15" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="AM15" s="1" t="s">
         <v>90</v>
@@ -4261,8 +4358,14 @@
       <c r="AN15" s="1" t="s">
         <v>90</v>
       </c>
+      <c r="AO15" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AP15" s="1" t="s">
+        <v>90</v>
+      </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2347</v>
       </c>
@@ -4282,109 +4385,115 @@
         <v>19951213</v>
       </c>
       <c r="G16">
-        <v>5</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="H16">
-        <v>6.59</v>
+        <v>6.61</v>
       </c>
       <c r="I16">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="J16" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="K16" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="L16" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="M16" t="s">
-        <v>344</v>
-      </c>
-      <c r="N16" s="1">
+        <v>338</v>
+      </c>
+      <c r="N16">
+        <v>1.92</v>
+      </c>
+      <c r="O16">
+        <v>2.44</v>
+      </c>
+      <c r="P16" s="1">
         <v>9</v>
       </c>
-      <c r="O16" s="1">
+      <c r="Q16" s="1">
         <v>90.18</v>
       </c>
-      <c r="P16" s="1">
+      <c r="R16" s="1">
         <v>10.199999999999999</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="S16" s="1">
         <v>102.2</v>
       </c>
-      <c r="R16" s="1">
+      <c r="T16" s="1">
         <v>11.4</v>
       </c>
-      <c r="S16" s="1">
+      <c r="U16" s="1">
         <v>114.2</v>
       </c>
-      <c r="T16" s="1">
+      <c r="V16" s="1">
         <v>12.6</v>
       </c>
-      <c r="U16" s="1">
+      <c r="W16" s="1">
         <v>126.3</v>
       </c>
-      <c r="V16" s="1">
+      <c r="X16" s="1">
         <v>13.8</v>
       </c>
-      <c r="W16" s="1">
+      <c r="Y16" s="1">
         <v>138.30000000000001</v>
       </c>
-      <c r="X16" s="1">
+      <c r="Z16" s="1">
         <v>15</v>
       </c>
-      <c r="Y16" s="1">
+      <c r="AA16" s="1">
         <v>150.30000000000001</v>
       </c>
-      <c r="Z16" s="1">
+      <c r="AB16" s="1">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AA16" s="1">
+      <c r="AC16" s="1">
         <v>2.29</v>
       </c>
-      <c r="AB16" s="1">
+      <c r="AD16" s="1">
         <v>32.94</v>
       </c>
-      <c r="AC16" s="1">
+      <c r="AE16" s="1">
         <v>6.79</v>
       </c>
-      <c r="AD16" s="1">
+      <c r="AF16" s="1">
         <v>5.12</v>
       </c>
-      <c r="AE16" s="1">
+      <c r="AG16" s="1">
         <v>2.25</v>
       </c>
-      <c r="AF16" s="1">
+      <c r="AH16" s="1">
         <v>33.729999999999997</v>
       </c>
-      <c r="AG16" s="1">
+      <c r="AI16" s="1">
         <v>3.64</v>
       </c>
-      <c r="AH16" s="1">
+      <c r="AJ16" s="1">
         <v>0.68</v>
       </c>
-      <c r="AI16" s="1">
+      <c r="AK16" s="1">
         <v>40</v>
       </c>
-      <c r="AJ16" s="1" t="s">
+      <c r="AL16" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="AK16" s="1" t="s">
+      <c r="AM16" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="AL16" s="1" t="s">
+      <c r="AN16" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AM16" s="1" t="s">
+      <c r="AO16" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="AN16" s="1" t="s">
+      <c r="AP16" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2352</v>
       </c>
@@ -4404,109 +4513,115 @@
         <v>19960722</v>
       </c>
       <c r="G17">
-        <v>4.92</v>
+        <v>4.84</v>
       </c>
       <c r="H17">
-        <v>6.62</v>
+        <v>6.72</v>
       </c>
       <c r="I17">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="J17" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="K17" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="L17" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="M17" t="s">
-        <v>348</v>
-      </c>
-      <c r="N17" s="1">
+        <v>342</v>
+      </c>
+      <c r="N17">
+        <v>1.55</v>
+      </c>
+      <c r="O17" s="8">
+        <v>22.67</v>
+      </c>
+      <c r="P17" s="1">
         <v>8</v>
       </c>
-      <c r="O17" s="1">
+      <c r="Q17" s="1">
         <v>36.96</v>
       </c>
-      <c r="P17" s="1">
+      <c r="R17" s="1">
         <v>10.199999999999999</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="S17" s="1">
         <v>47.12</v>
       </c>
-      <c r="R17" s="1">
+      <c r="T17" s="1">
         <v>12.4</v>
       </c>
-      <c r="S17" s="1">
+      <c r="U17" s="1">
         <v>57.29</v>
       </c>
-      <c r="T17" s="1">
+      <c r="V17" s="1">
         <v>14.6</v>
       </c>
-      <c r="U17" s="1">
+      <c r="W17" s="1">
         <v>67.45</v>
       </c>
-      <c r="V17" s="1">
+      <c r="X17" s="1">
         <v>16.8</v>
       </c>
-      <c r="W17" s="1">
+      <c r="Y17" s="1">
         <v>77.62</v>
       </c>
-      <c r="X17" s="1">
+      <c r="Z17" s="1">
         <v>19</v>
       </c>
-      <c r="Y17" s="1">
+      <c r="AA17" s="1">
         <v>87.78</v>
       </c>
-      <c r="Z17" s="1">
+      <c r="AB17" s="1">
         <v>14.67</v>
       </c>
-      <c r="AA17" s="1">
+      <c r="AC17" s="1">
         <v>3.42</v>
       </c>
-      <c r="AB17" s="1">
+      <c r="AD17" s="1">
         <v>20.170000000000002</v>
       </c>
-      <c r="AC17" s="1">
+      <c r="AE17" s="1">
         <v>6.69</v>
       </c>
-      <c r="AD17" s="1">
+      <c r="AF17" s="1">
         <v>5.45</v>
       </c>
-      <c r="AE17" s="1">
+      <c r="AG17" s="1">
         <v>1.24</v>
       </c>
-      <c r="AF17" s="1">
+      <c r="AH17" s="1">
         <v>51.12</v>
       </c>
-      <c r="AG17" s="1">
+      <c r="AI17" s="1">
         <v>-1.7</v>
       </c>
-      <c r="AH17" s="1">
+      <c r="AJ17" s="1">
         <v>-5.0199999999999996</v>
       </c>
-      <c r="AI17" s="1">
+      <c r="AK17" s="1">
         <v>40</v>
       </c>
-      <c r="AJ17" s="1" t="s">
+      <c r="AL17" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AK17" s="1" t="s">
+      <c r="AM17" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="AL17" s="1" t="s">
+      <c r="AN17" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="AM17" s="1" t="s">
+      <c r="AO17" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="AN17" s="1" t="s">
+      <c r="AP17" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2385</v>
       </c>
@@ -4526,117 +4641,123 @@
         <v>19990105</v>
       </c>
       <c r="G18">
-        <v>6.34</v>
+        <v>6.32</v>
       </c>
       <c r="H18">
-        <v>10.69</v>
+        <v>10.73</v>
       </c>
       <c r="I18">
-        <v>2.17</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="J18" t="s">
-        <v>349</v>
-      </c>
-      <c r="K18" s="11" t="s">
-        <v>350</v>
+        <v>343</v>
+      </c>
+      <c r="K18" t="s">
+        <v>344</v>
       </c>
       <c r="L18" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="M18" t="s">
-        <v>352</v>
-      </c>
-      <c r="N18" s="1">
+        <v>346</v>
+      </c>
+      <c r="N18">
+        <v>0.98</v>
+      </c>
+      <c r="O18">
+        <v>5.3</v>
+      </c>
+      <c r="P18" s="1">
         <v>10</v>
       </c>
-      <c r="O18" s="1">
+      <c r="Q18" s="1">
         <v>81.2</v>
       </c>
-      <c r="P18" s="1">
+      <c r="R18" s="1">
         <v>11</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="S18" s="1">
         <v>89.32</v>
       </c>
-      <c r="R18" s="1">
+      <c r="T18" s="1">
         <v>12</v>
       </c>
-      <c r="S18" s="1">
+      <c r="U18" s="1">
         <v>97.44</v>
       </c>
-      <c r="T18" s="1">
+      <c r="V18" s="1">
         <v>13</v>
       </c>
-      <c r="U18" s="1">
+      <c r="W18" s="1">
         <v>105.6</v>
       </c>
-      <c r="V18" s="1">
+      <c r="X18" s="1">
         <v>14</v>
       </c>
-      <c r="W18" s="1">
+      <c r="Y18" s="1">
         <v>113.7</v>
       </c>
-      <c r="X18" s="1">
+      <c r="Z18" s="1">
         <v>15</v>
       </c>
-      <c r="Y18" s="1">
+      <c r="AA18" s="1">
         <v>121.8</v>
       </c>
-      <c r="Z18" s="1">
+      <c r="AB18" s="1">
         <v>17.55</v>
       </c>
-      <c r="AA18" s="1">
+      <c r="AC18" s="1">
         <v>7.9</v>
       </c>
-      <c r="AB18" s="1">
+      <c r="AD18" s="1">
         <v>22.24</v>
       </c>
-      <c r="AC18" s="1">
+      <c r="AE18" s="1">
         <v>8.7799999999999994</v>
       </c>
-      <c r="AD18" s="1">
+      <c r="AF18" s="1">
         <v>7.09</v>
       </c>
-      <c r="AE18" s="1">
+      <c r="AG18" s="1">
         <v>1.32</v>
       </c>
-      <c r="AF18" s="1">
+      <c r="AH18" s="1">
         <v>89.98</v>
       </c>
-      <c r="AG18" s="1">
+      <c r="AI18" s="1">
         <v>4.0599999999999996</v>
       </c>
-      <c r="AH18" s="1">
+      <c r="AJ18" s="1">
         <v>1.1399999999999999</v>
       </c>
-      <c r="AI18" s="1">
+      <c r="AK18" s="1">
         <v>38</v>
       </c>
-      <c r="AJ18" s="1" t="s">
+      <c r="AL18" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="AK18" s="1" t="s">
+      <c r="AM18" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="AL18" s="1" t="s">
+      <c r="AN18" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="AM18" s="1" t="s">
+      <c r="AO18" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="AN18" s="1" t="s">
+      <c r="AP18" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2387</v>
       </c>
       <c r="B19" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="C19" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="D19" s="7">
         <v>1952510510</v>
@@ -4648,121 +4769,127 @@
         <v>19990125</v>
       </c>
       <c r="G19">
-        <v>4.32</v>
+        <v>4.26</v>
       </c>
       <c r="H19">
-        <v>7.25</v>
+        <v>7.35</v>
       </c>
       <c r="I19">
-        <v>1.1399999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="J19" t="s">
-        <v>274</v>
+        <v>347</v>
       </c>
       <c r="K19" t="s">
-        <v>275</v>
+        <v>348</v>
       </c>
       <c r="L19" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="M19" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="N19">
+        <v>0.67</v>
+      </c>
+      <c r="O19">
+        <v>0.36</v>
+      </c>
+      <c r="P19">
         <v>10</v>
       </c>
-      <c r="O19">
+      <c r="Q19">
         <v>63.9</v>
       </c>
-      <c r="P19">
+      <c r="R19">
         <v>12.6</v>
       </c>
-      <c r="Q19">
+      <c r="S19">
         <v>80.510000000000005</v>
       </c>
-      <c r="R19">
+      <c r="T19">
         <v>15.2</v>
       </c>
-      <c r="S19">
+      <c r="U19">
         <v>97.13</v>
       </c>
-      <c r="T19">
+      <c r="V19">
         <v>17.8</v>
       </c>
-      <c r="U19">
+      <c r="W19">
         <v>113.7</v>
       </c>
-      <c r="V19">
+      <c r="X19">
         <v>20.399999999999999</v>
       </c>
-      <c r="W19">
+      <c r="Y19">
         <v>130.4</v>
       </c>
-      <c r="X19">
+      <c r="Z19">
         <v>23</v>
       </c>
-      <c r="Y19">
+      <c r="AA19">
         <v>147</v>
       </c>
-      <c r="Z19">
+      <c r="AB19">
         <v>12.93</v>
       </c>
-      <c r="AA19">
+      <c r="AC19">
         <v>7.05</v>
       </c>
-      <c r="AB19">
+      <c r="AD19">
         <v>12.98</v>
       </c>
-      <c r="AC19">
+      <c r="AE19">
         <v>6.67</v>
       </c>
-      <c r="AD19">
+      <c r="AF19">
         <v>4.84</v>
       </c>
-      <c r="AE19">
+      <c r="AG19">
         <v>1.06</v>
       </c>
-      <c r="AF19">
+      <c r="AH19">
         <v>105.7</v>
       </c>
-      <c r="AG19">
+      <c r="AI19">
         <v>4.08</v>
       </c>
-      <c r="AH19">
+      <c r="AJ19">
         <v>-3.91</v>
       </c>
-      <c r="AI19">
+      <c r="AK19">
         <v>40</v>
       </c>
-      <c r="AJ19" t="s">
+      <c r="AL19" t="s">
         <v>99</v>
       </c>
-      <c r="AK19" t="s">
+      <c r="AM19" t="s">
         <v>106</v>
       </c>
-      <c r="AL19" t="s">
-        <v>276</v>
-      </c>
-      <c r="AM19" t="s">
+      <c r="AN19" t="s">
+        <v>258</v>
+      </c>
+      <c r="AO19" t="s">
         <v>120</v>
       </c>
-      <c r="AN19" t="s">
-        <v>277</v>
-      </c>
-      <c r="AO19" t="s">
-        <v>278</v>
-      </c>
       <c r="AP19" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="AQ19" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="AR19" t="s">
-        <v>281</v>
+        <v>261</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>262</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>263</v>
       </c>
     </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2417</v>
       </c>
@@ -4782,100 +4909,100 @@
         <v>20000911</v>
       </c>
       <c r="G20">
-        <v>5.69</v>
+        <v>5.88</v>
       </c>
       <c r="H20">
-        <v>13.02</v>
+        <v>12.59</v>
       </c>
       <c r="I20">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="J20" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="K20" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="L20" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="M20" t="s">
-        <v>358</v>
-      </c>
-      <c r="N20" s="1">
+        <v>354</v>
+      </c>
+      <c r="N20">
+        <v>1.2</v>
+      </c>
+      <c r="O20">
+        <v>0.76</v>
+      </c>
+      <c r="P20" s="1">
         <v>13</v>
       </c>
-      <c r="O20" s="1">
+      <c r="Q20" s="1">
         <v>28.34</v>
       </c>
-      <c r="P20" s="1">
+      <c r="R20" s="1">
         <v>16.399999999999999</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="S20" s="1">
         <v>35.75</v>
       </c>
-      <c r="R20" s="1">
+      <c r="T20" s="1">
         <v>19.8</v>
       </c>
-      <c r="S20" s="1">
+      <c r="U20" s="1">
         <v>43.16</v>
       </c>
-      <c r="T20" s="1">
+      <c r="V20" s="1">
         <v>23.2</v>
       </c>
-      <c r="U20" s="1">
+      <c r="W20" s="1">
         <v>50.58</v>
       </c>
-      <c r="V20" s="1">
+      <c r="X20" s="1">
         <v>26.6</v>
       </c>
-      <c r="W20" s="1">
+      <c r="Y20" s="1">
         <v>57.99</v>
       </c>
-      <c r="X20" s="1">
+      <c r="Z20" s="1">
         <v>30</v>
       </c>
-      <c r="Y20" s="1">
+      <c r="AA20" s="1">
         <v>65.400000000000006</v>
       </c>
-      <c r="Z20" s="1">
+      <c r="AB20" s="1">
         <v>48.85</v>
       </c>
-      <c r="AA20" s="1">
+      <c r="AC20" s="1">
         <v>12.06</v>
       </c>
-      <c r="AB20" s="1">
+      <c r="AD20" s="1">
         <v>9.5399999999999991</v>
       </c>
-      <c r="AC20" s="1">
+      <c r="AE20" s="1">
         <v>12.15</v>
       </c>
-      <c r="AD20" s="1">
+      <c r="AF20" s="1">
         <v>9.57</v>
       </c>
-      <c r="AE20" s="1">
+      <c r="AG20" s="1">
         <v>0.67</v>
       </c>
-      <c r="AF20" s="1">
+      <c r="AH20" s="1">
         <v>99.26</v>
       </c>
-      <c r="AG20" s="1">
+      <c r="AI20" s="1">
         <v>0.98</v>
       </c>
-      <c r="AH20" s="1">
+      <c r="AJ20" s="1">
         <v>-0.77</v>
       </c>
-      <c r="AI20" s="1">
+      <c r="AK20" s="1">
         <v>60</v>
       </c>
-      <c r="AJ20" s="1" t="s">
+      <c r="AL20" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="AK20" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AL20" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="AM20" s="1" t="s">
         <v>100</v>
@@ -4883,8 +5010,14 @@
       <c r="AN20" s="1" t="s">
         <v>100</v>
       </c>
+      <c r="AO20" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AP20" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2458</v>
       </c>
@@ -4904,109 +5037,115 @@
         <v>20010917</v>
       </c>
       <c r="G21">
-        <v>5.5</v>
+        <v>5.44</v>
       </c>
       <c r="H21">
-        <v>9.36</v>
+        <v>9.48</v>
       </c>
       <c r="I21">
-        <v>4.9000000000000004</v>
+        <v>4.96</v>
       </c>
       <c r="J21" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="K21" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="L21" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="M21" t="s">
-        <v>362</v>
-      </c>
-      <c r="N21" s="1">
+        <v>358</v>
+      </c>
+      <c r="N21" s="8">
+        <v>3.43</v>
+      </c>
+      <c r="O21" s="8">
+        <v>19.559999999999999</v>
+      </c>
+      <c r="P21" s="1">
         <v>12</v>
       </c>
-      <c r="O21" s="1">
+      <c r="Q21" s="1">
         <v>205.2</v>
       </c>
-      <c r="P21" s="1">
+      <c r="R21" s="1">
         <v>14.2</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="S21" s="1">
         <v>242.8</v>
       </c>
-      <c r="R21" s="1">
+      <c r="T21" s="1">
         <v>16.399999999999999</v>
       </c>
-      <c r="S21" s="1">
+      <c r="U21" s="1">
         <v>280.39999999999998</v>
       </c>
-      <c r="T21" s="1">
+      <c r="V21" s="1">
         <v>18.600000000000001</v>
       </c>
-      <c r="U21" s="1">
+      <c r="W21" s="1">
         <v>318.10000000000002</v>
       </c>
-      <c r="V21" s="1">
+      <c r="X21" s="1">
         <v>20.8</v>
       </c>
-      <c r="W21" s="1">
+      <c r="Y21" s="1">
         <v>355.7</v>
       </c>
-      <c r="X21" s="1">
+      <c r="Z21" s="1">
         <v>23</v>
       </c>
-      <c r="Y21" s="1">
+      <c r="AA21" s="1">
         <v>393.3</v>
       </c>
-      <c r="Z21" s="1">
+      <c r="AB21" s="1">
         <v>49.84</v>
       </c>
-      <c r="AA21" s="1">
+      <c r="AC21" s="1">
         <v>31.99</v>
       </c>
-      <c r="AB21" s="1">
+      <c r="AD21" s="1">
         <v>52.13</v>
       </c>
-      <c r="AC21" s="1">
+      <c r="AE21" s="1">
         <v>32.97</v>
       </c>
-      <c r="AD21" s="1">
+      <c r="AF21" s="1">
         <v>26.28</v>
       </c>
-      <c r="AE21" s="1">
+      <c r="AG21" s="1">
         <v>1.23</v>
       </c>
-      <c r="AF21" s="1">
+      <c r="AH21" s="1">
         <v>97.03</v>
       </c>
-      <c r="AG21" s="1">
+      <c r="AI21" s="1">
         <v>12.18</v>
       </c>
-      <c r="AH21" s="1">
+      <c r="AJ21" s="1">
         <v>18.04</v>
       </c>
-      <c r="AI21" s="1">
+      <c r="AK21" s="1">
         <v>74</v>
       </c>
-      <c r="AJ21" s="1" t="s">
+      <c r="AL21" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="AK21" s="1" t="s">
+      <c r="AM21" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="AL21" s="1" t="s">
+      <c r="AN21" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="AM21" s="1" t="s">
+      <c r="AO21" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="AN21" s="1" t="s">
+      <c r="AP21" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2467</v>
       </c>
@@ -5026,113 +5165,119 @@
         <v>20010917</v>
       </c>
       <c r="G22">
-        <v>5.26</v>
+        <v>5.33</v>
       </c>
       <c r="H22">
-        <v>12.35</v>
+        <v>12.18</v>
       </c>
       <c r="I22">
-        <v>3.01</v>
+        <v>2.97</v>
       </c>
       <c r="J22" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="K22" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="L22" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="M22" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="N22">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="O22">
+        <v>-14.98</v>
+      </c>
+      <c r="P22">
         <v>11</v>
       </c>
-      <c r="O22">
+      <c r="Q22">
         <v>45.76</v>
       </c>
-      <c r="P22">
+      <c r="R22">
         <v>12.8</v>
       </c>
-      <c r="Q22">
+      <c r="S22">
         <v>53.25</v>
       </c>
-      <c r="R22">
+      <c r="T22">
         <v>14.6</v>
       </c>
-      <c r="S22">
+      <c r="U22">
         <v>60.74</v>
       </c>
-      <c r="T22">
+      <c r="V22">
         <v>16.399999999999999</v>
       </c>
-      <c r="U22">
+      <c r="W22">
         <v>68.22</v>
       </c>
-      <c r="V22">
+      <c r="X22">
         <v>18.2</v>
       </c>
-      <c r="W22">
+      <c r="Y22">
         <v>75.709999999999994</v>
       </c>
-      <c r="X22">
+      <c r="Z22">
         <v>20</v>
       </c>
-      <c r="Y22">
+      <c r="AA22">
         <v>83.2</v>
       </c>
-      <c r="Z22">
+      <c r="AB22">
         <v>34.07</v>
       </c>
-      <c r="AA22">
+      <c r="AC22">
         <v>12.91</v>
       </c>
-      <c r="AB22">
+      <c r="AD22">
         <v>26.43</v>
       </c>
-      <c r="AC22">
+      <c r="AE22">
         <v>15.84</v>
       </c>
-      <c r="AD22">
+      <c r="AF22">
         <v>12.85</v>
       </c>
-      <c r="AE22">
+      <c r="AG22">
         <v>0.8</v>
       </c>
-      <c r="AF22">
+      <c r="AH22">
         <v>81.5</v>
       </c>
-      <c r="AG22">
+      <c r="AI22">
         <v>2.44</v>
       </c>
-      <c r="AH22">
+      <c r="AJ22">
         <v>-2.57</v>
       </c>
-      <c r="AI22">
+      <c r="AK22">
         <v>57</v>
       </c>
-      <c r="AJ22" t="s">
+      <c r="AL22" t="s">
         <v>181</v>
       </c>
-      <c r="AK22" t="s">
+      <c r="AM22" t="s">
         <v>130</v>
       </c>
-      <c r="AL22" t="s">
+      <c r="AN22" t="s">
         <v>130</v>
       </c>
-      <c r="AM22" t="s">
+      <c r="AO22" t="s">
         <v>93</v>
       </c>
-      <c r="AN22" t="s">
+      <c r="AP22" t="s">
         <v>85</v>
       </c>
-      <c r="AO22"/>
-      <c r="AP22"/>
       <c r="AQ22"/>
       <c r="AR22"/>
+      <c r="AS22"/>
+      <c r="AT22"/>
     </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>2520</v>
       </c>
@@ -5152,109 +5297,115 @@
         <v>19931027</v>
       </c>
       <c r="G23">
-        <v>9.2100000000000009</v>
+        <v>9.26</v>
       </c>
       <c r="H23">
-        <v>4.34</v>
+        <v>4.32</v>
       </c>
       <c r="I23">
         <v>1.21</v>
       </c>
       <c r="J23" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="K23" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="L23" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="M23" t="s">
-        <v>370</v>
-      </c>
-      <c r="N23" s="1">
+        <v>366</v>
+      </c>
+      <c r="N23">
+        <v>0.42</v>
+      </c>
+      <c r="O23">
+        <v>-17.61</v>
+      </c>
+      <c r="P23" s="1">
         <v>7</v>
       </c>
-      <c r="O23" s="1">
+      <c r="Q23" s="1">
         <v>59.57</v>
       </c>
-      <c r="P23" s="1">
+      <c r="R23" s="1">
         <v>8.4</v>
       </c>
-      <c r="Q23" s="1">
+      <c r="S23" s="1">
         <v>71.48</v>
       </c>
-      <c r="R23" s="1">
+      <c r="T23" s="1">
         <v>9.8000000000000007</v>
       </c>
-      <c r="S23" s="1">
+      <c r="U23" s="1">
         <v>83.4</v>
       </c>
-      <c r="T23" s="1">
+      <c r="V23" s="1">
         <v>11.2</v>
       </c>
-      <c r="U23" s="1">
+      <c r="W23" s="1">
         <v>95.31</v>
       </c>
-      <c r="V23" s="1">
+      <c r="X23" s="1">
         <v>12.6</v>
       </c>
-      <c r="W23" s="1">
+      <c r="Y23" s="1">
         <v>107.2</v>
       </c>
-      <c r="X23" s="1">
+      <c r="Z23" s="1">
         <v>14</v>
       </c>
-      <c r="Y23" s="1">
+      <c r="AA23" s="1">
         <v>119.1</v>
       </c>
-      <c r="Z23" s="1">
+      <c r="AB23" s="1">
         <v>26.73</v>
       </c>
-      <c r="AA23" s="1">
+      <c r="AC23" s="1">
         <v>19.5</v>
       </c>
-      <c r="AB23" s="1">
+      <c r="AD23" s="1">
         <v>21.09</v>
       </c>
-      <c r="AC23" s="1">
+      <c r="AE23" s="1">
         <v>18.899999999999999</v>
       </c>
-      <c r="AD23" s="1">
+      <c r="AF23" s="1">
         <v>15.12</v>
       </c>
-      <c r="AE23" s="1">
+      <c r="AG23" s="1">
         <v>0.46</v>
       </c>
-      <c r="AF23" s="1">
+      <c r="AH23" s="1">
         <v>103.17</v>
       </c>
-      <c r="AG23" s="1">
+      <c r="AI23" s="1">
         <v>10.72</v>
       </c>
-      <c r="AH23" s="1">
+      <c r="AJ23" s="1">
         <v>10.69</v>
       </c>
-      <c r="AI23" s="1">
+      <c r="AK23" s="1">
         <v>53</v>
       </c>
-      <c r="AJ23" s="1" t="s">
+      <c r="AL23" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="AK23" s="1" t="s">
+      <c r="AM23" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AL23" s="1" t="s">
+      <c r="AN23" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="AM23" s="1" t="s">
+      <c r="AO23" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="AN23" s="1" t="s">
+      <c r="AP23" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>2546</v>
       </c>
@@ -5274,109 +5425,115 @@
         <v>20000911</v>
       </c>
       <c r="G24">
-        <v>7.24</v>
+        <v>7.21</v>
       </c>
       <c r="H24">
-        <v>7.08</v>
+        <v>7.11</v>
       </c>
       <c r="I24">
         <v>1.58</v>
       </c>
       <c r="J24" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="K24" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="L24" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="M24" t="s">
         <v>159</v>
       </c>
-      <c r="N24" s="1">
+      <c r="N24">
+        <v>0.91</v>
+      </c>
+      <c r="O24">
+        <v>8.76</v>
+      </c>
+      <c r="P24" s="1">
         <v>7</v>
       </c>
-      <c r="O24" s="1">
+      <c r="Q24" s="1">
         <v>49.21</v>
       </c>
-      <c r="P24" s="1">
+      <c r="R24" s="1">
         <v>8</v>
       </c>
-      <c r="Q24" s="1">
+      <c r="S24" s="1">
         <v>56.24</v>
       </c>
-      <c r="R24" s="1">
+      <c r="T24" s="1">
         <v>9</v>
       </c>
-      <c r="S24" s="1">
+      <c r="U24" s="1">
         <v>63.27</v>
       </c>
-      <c r="T24" s="1">
+      <c r="V24" s="1">
         <v>10</v>
       </c>
-      <c r="U24" s="1">
+      <c r="W24" s="1">
         <v>70.3</v>
       </c>
-      <c r="V24" s="1">
+      <c r="X24" s="1">
         <v>11</v>
       </c>
-      <c r="W24" s="1">
+      <c r="Y24" s="1">
         <v>77.33</v>
       </c>
-      <c r="X24" s="1">
+      <c r="Z24" s="1">
         <v>12</v>
       </c>
-      <c r="Y24" s="1">
+      <c r="AA24" s="1">
         <v>84.36</v>
       </c>
-      <c r="Z24" s="1">
+      <c r="AB24" s="1">
         <v>11.23</v>
       </c>
-      <c r="AA24" s="1">
+      <c r="AC24" s="1">
         <v>8.3800000000000008</v>
       </c>
-      <c r="AB24" s="1">
+      <c r="AD24" s="1">
         <v>23.02</v>
       </c>
-      <c r="AC24" s="1">
+      <c r="AE24" s="1">
         <v>9.17</v>
       </c>
-      <c r="AD24" s="1">
+      <c r="AF24" s="1">
         <v>7.35</v>
       </c>
-      <c r="AE24" s="1">
+      <c r="AG24" s="1">
         <v>1.07</v>
       </c>
-      <c r="AF24" s="1">
+      <c r="AH24" s="1">
         <v>91.38</v>
       </c>
-      <c r="AG24" s="1">
+      <c r="AI24" s="1">
         <v>5.88</v>
       </c>
-      <c r="AH24" s="1">
+      <c r="AJ24" s="1">
         <v>5.85</v>
       </c>
-      <c r="AI24" s="1">
+      <c r="AK24" s="1">
         <v>45</v>
       </c>
-      <c r="AJ24" s="1" t="s">
+      <c r="AL24" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="AK24" s="1" t="s">
+      <c r="AM24" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="AL24" s="1" t="s">
+      <c r="AN24" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="AM24" s="1" t="s">
+      <c r="AO24" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="AN24" s="1" t="s">
+      <c r="AP24" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>2881</v>
       </c>
@@ -5396,109 +5553,115 @@
         <v>20011219</v>
       </c>
       <c r="G25">
-        <v>3.96</v>
+        <v>3.93</v>
       </c>
       <c r="H25">
-        <v>6.24</v>
+        <v>6.29</v>
       </c>
       <c r="I25">
-        <v>1.1200000000000001</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="J25" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="K25" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="L25" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="M25" t="s">
-        <v>377</v>
-      </c>
-      <c r="N25" s="1">
+        <v>373</v>
+      </c>
+      <c r="N25">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="O25" s="8">
+        <v>20.04</v>
+      </c>
+      <c r="P25" s="1">
         <v>7</v>
       </c>
-      <c r="O25" s="1">
+      <c r="Q25" s="1">
         <v>92.68</v>
       </c>
-      <c r="P25" s="1">
+      <c r="R25" s="1">
         <v>7.8</v>
       </c>
-      <c r="Q25" s="1">
+      <c r="S25" s="1">
         <v>103.3</v>
       </c>
-      <c r="R25" s="1">
+      <c r="T25" s="1">
         <v>8.6</v>
       </c>
-      <c r="S25" s="1">
+      <c r="U25" s="1">
         <v>113.9</v>
       </c>
-      <c r="T25" s="1">
+      <c r="V25" s="1">
         <v>9.4</v>
       </c>
-      <c r="U25" s="1">
+      <c r="W25" s="1">
         <v>124.5</v>
       </c>
-      <c r="V25" s="1">
+      <c r="X25" s="1">
         <v>10.199999999999999</v>
       </c>
-      <c r="W25" s="1">
+      <c r="Y25" s="1">
         <v>135</v>
       </c>
-      <c r="X25" s="1">
+      <c r="Z25" s="1">
         <v>11</v>
       </c>
-      <c r="Y25" s="1">
+      <c r="AA25" s="1">
         <v>145.6</v>
       </c>
-      <c r="Z25" s="1">
+      <c r="AB25" s="1">
         <v>0</v>
       </c>
-      <c r="AA25" s="1">
+      <c r="AC25" s="1">
         <v>0</v>
       </c>
-      <c r="AB25" s="1">
+      <c r="AD25" s="1">
         <v>21.39</v>
       </c>
-      <c r="AC25" s="1">
+      <c r="AE25" s="1">
         <v>39.32</v>
       </c>
-      <c r="AD25" s="1">
+      <c r="AF25" s="1">
         <v>34.96</v>
       </c>
-      <c r="AE25" s="1">
+      <c r="AG25" s="1">
         <v>0.05</v>
       </c>
-      <c r="AF25" s="1">
+      <c r="AH25" s="1">
         <v>0</v>
       </c>
-      <c r="AG25" s="1">
+      <c r="AI25" s="1">
         <v>5.0999999999999996</v>
       </c>
-      <c r="AH25" s="1">
+      <c r="AJ25" s="1">
         <v>4.46</v>
       </c>
-      <c r="AI25" s="1">
+      <c r="AK25" s="1">
         <v>56</v>
       </c>
-      <c r="AJ25" s="1" t="s">
+      <c r="AL25" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="AK25" s="1" t="s">
+      <c r="AM25" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="AL25" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AM25" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="AN25" s="1" t="s">
         <v>99</v>
       </c>
+      <c r="AO25" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP25" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
-    <row r="26" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>3005</v>
       </c>
@@ -5527,108 +5690,114 @@
         <v>1.91</v>
       </c>
       <c r="J26" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="K26" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="L26" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="M26" t="s">
-        <v>381</v>
-      </c>
-      <c r="N26" s="1">
+        <v>377</v>
+      </c>
+      <c r="N26">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="O26">
+        <v>-21.66</v>
+      </c>
+      <c r="P26" s="1">
         <v>10</v>
       </c>
-      <c r="O26" s="1">
+      <c r="Q26" s="1">
         <v>73</v>
       </c>
-      <c r="P26" s="1">
+      <c r="R26" s="1">
         <v>11.4</v>
       </c>
-      <c r="Q26" s="1">
+      <c r="S26" s="1">
         <v>83.22</v>
       </c>
-      <c r="R26" s="1">
+      <c r="T26" s="1">
         <v>12.8</v>
       </c>
-      <c r="S26" s="1">
+      <c r="U26" s="1">
         <v>93.44</v>
       </c>
-      <c r="T26" s="1">
+      <c r="V26" s="1">
         <v>14.2</v>
       </c>
-      <c r="U26" s="1">
+      <c r="W26" s="1">
         <v>103.7</v>
       </c>
-      <c r="V26" s="1">
+      <c r="X26" s="1">
         <v>15.6</v>
       </c>
-      <c r="W26" s="1">
+      <c r="Y26" s="1">
         <v>113.9</v>
       </c>
-      <c r="X26" s="1">
+      <c r="Z26" s="1">
         <v>17</v>
       </c>
-      <c r="Y26" s="1">
+      <c r="AA26" s="1">
         <v>124.1</v>
       </c>
-      <c r="Z26" s="1">
+      <c r="AB26" s="1">
         <v>24.89</v>
       </c>
-      <c r="AA26" s="1">
+      <c r="AC26" s="1">
         <v>8.01</v>
       </c>
-      <c r="AB26" s="1">
+      <c r="AD26" s="1">
         <v>25.54</v>
       </c>
-      <c r="AC26" s="1">
+      <c r="AE26" s="1">
         <v>20.46</v>
       </c>
-      <c r="AD26" s="1">
+      <c r="AF26" s="1">
         <v>15.77</v>
       </c>
-      <c r="AE26" s="1">
+      <c r="AG26" s="1">
         <v>0.86</v>
       </c>
-      <c r="AF26" s="1">
+      <c r="AH26" s="1">
         <v>39.15</v>
       </c>
-      <c r="AG26" s="1">
+      <c r="AI26" s="1">
         <v>0.9</v>
       </c>
-      <c r="AH26" s="1">
+      <c r="AJ26" s="1">
         <v>4.0599999999999996</v>
       </c>
-      <c r="AI26" s="1">
+      <c r="AK26" s="1">
         <v>57</v>
       </c>
-      <c r="AJ26" s="1" t="s">
+      <c r="AL26" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="AK26" s="1" t="s">
+      <c r="AM26" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="AL26" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AM26" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="AN26" s="1" t="s">
         <v>124</v>
       </c>
+      <c r="AO26" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AP26" s="1" t="s">
+        <v>124</v>
+      </c>
     </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3028</v>
       </c>
       <c r="B27" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C27" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="D27" s="7">
         <v>2138248640</v>
@@ -5649,120 +5818,126 @@
         <v>1.39</v>
       </c>
       <c r="J27" t="s">
-        <v>231</v>
+        <v>378</v>
       </c>
       <c r="K27" t="s">
-        <v>232</v>
+        <v>379</v>
       </c>
       <c r="L27" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="M27" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="N27">
+        <v>0.89</v>
+      </c>
+      <c r="O27">
+        <v>-17.350000000000001</v>
+      </c>
+      <c r="P27">
         <v>10</v>
       </c>
-      <c r="O27">
+      <c r="Q27">
         <v>38.700000000000003</v>
       </c>
-      <c r="P27">
+      <c r="R27">
         <v>11</v>
       </c>
-      <c r="Q27">
+      <c r="S27">
         <v>42.57</v>
       </c>
-      <c r="R27">
+      <c r="T27">
         <v>12</v>
       </c>
-      <c r="S27">
+      <c r="U27">
         <v>46.44</v>
       </c>
-      <c r="T27">
+      <c r="V27">
         <v>13</v>
       </c>
-      <c r="U27">
+      <c r="W27">
         <v>50.31</v>
       </c>
-      <c r="V27">
+      <c r="X27">
         <v>14</v>
       </c>
-      <c r="W27">
+      <c r="Y27">
         <v>54.18</v>
       </c>
-      <c r="X27">
+      <c r="Z27">
         <v>15</v>
       </c>
-      <c r="Y27">
+      <c r="AA27">
         <v>58.05</v>
       </c>
-      <c r="Z27">
+      <c r="AB27">
         <v>5.93</v>
       </c>
-      <c r="AA27">
+      <c r="AC27">
         <v>2.59</v>
       </c>
-      <c r="AB27">
+      <c r="AD27">
         <v>18.72</v>
       </c>
-      <c r="AC27">
+      <c r="AE27">
         <v>2.64</v>
       </c>
-      <c r="AD27">
+      <c r="AF27">
         <v>2.19</v>
       </c>
-      <c r="AE27">
+      <c r="AG27">
         <v>2.15</v>
       </c>
-      <c r="AF27">
+      <c r="AH27">
         <v>98.11</v>
       </c>
-      <c r="AG27">
+      <c r="AI27">
         <v>-1.74</v>
       </c>
-      <c r="AH27">
+      <c r="AJ27">
         <v>-1.7</v>
       </c>
-      <c r="AI27">
+      <c r="AK27">
         <v>30</v>
       </c>
-      <c r="AJ27" t="s">
-        <v>233</v>
-      </c>
-      <c r="AK27" t="s">
+      <c r="AL27" t="s">
+        <v>223</v>
+      </c>
+      <c r="AM27" t="s">
         <v>106</v>
       </c>
-      <c r="AL27" t="s">
+      <c r="AN27" t="s">
         <v>125</v>
       </c>
-      <c r="AM27" t="s">
-        <v>234</v>
-      </c>
-      <c r="AN27" t="s">
+      <c r="AO27" t="s">
+        <v>224</v>
+      </c>
+      <c r="AP27" t="s">
         <v>93</v>
       </c>
-      <c r="AO27" t="s">
-        <v>235</v>
-      </c>
-      <c r="AP27" t="s">
-        <v>236</v>
-      </c>
       <c r="AQ27" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="AR27" t="s">
-        <v>238</v>
+        <v>226</v>
+      </c>
+      <c r="AS27" t="s">
+        <v>227</v>
+      </c>
+      <c r="AT27" t="s">
+        <v>228</v>
       </c>
     </row>
-    <row r="28" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3033</v>
       </c>
       <c r="B28" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C28" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D28" s="7">
         <v>3990554430</v>
@@ -5774,19 +5949,19 @@
         <v>20020826</v>
       </c>
       <c r="G28">
-        <v>4.29</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="H28">
-        <v>8.64</v>
+        <v>8.59</v>
       </c>
       <c r="I28">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="J28" t="s">
-        <v>210</v>
+        <v>382</v>
       </c>
       <c r="K28" t="s">
-        <v>211</v>
+        <v>383</v>
       </c>
       <c r="L28" t="s">
         <v>384</v>
@@ -5795,100 +5970,106 @@
         <v>385</v>
       </c>
       <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>-1.73</v>
+      </c>
+      <c r="P28">
         <v>9</v>
       </c>
-      <c r="O28">
+      <c r="Q28">
         <v>34.83</v>
       </c>
-      <c r="P28">
+      <c r="R28">
         <v>10.199999999999999</v>
       </c>
-      <c r="Q28">
+      <c r="S28">
         <v>39.47</v>
       </c>
-      <c r="R28">
+      <c r="T28">
         <v>11.4</v>
       </c>
-      <c r="S28">
+      <c r="U28">
         <v>44.12</v>
       </c>
-      <c r="T28">
+      <c r="V28">
         <v>12.6</v>
       </c>
-      <c r="U28">
+      <c r="W28">
         <v>48.76</v>
       </c>
-      <c r="V28">
+      <c r="X28">
         <v>13.8</v>
       </c>
-      <c r="W28">
+      <c r="Y28">
         <v>53.41</v>
       </c>
-      <c r="X28">
+      <c r="Z28">
         <v>15</v>
       </c>
-      <c r="Y28">
+      <c r="AA28">
         <v>58.05</v>
       </c>
-      <c r="Z28">
+      <c r="AB28">
         <v>7.01</v>
       </c>
-      <c r="AA28">
+      <c r="AC28">
         <v>3.51</v>
       </c>
-      <c r="AB28">
+      <c r="AD28">
         <v>25.16</v>
       </c>
-      <c r="AC28">
+      <c r="AE28">
         <v>3.37</v>
       </c>
-      <c r="AD28">
+      <c r="AF28">
         <v>2.33</v>
       </c>
-      <c r="AE28">
+      <c r="AG28">
         <v>2.89</v>
       </c>
-      <c r="AF28">
+      <c r="AH28">
         <v>104.15</v>
       </c>
-      <c r="AG28">
+      <c r="AI28">
         <v>0.88</v>
       </c>
-      <c r="AH28">
+      <c r="AJ28">
         <v>0.86</v>
       </c>
-      <c r="AI28">
+      <c r="AK28">
         <v>34</v>
       </c>
-      <c r="AJ28" t="s">
+      <c r="AL28" t="s">
+        <v>206</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>207</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>208</v>
+      </c>
+      <c r="AO28" t="s">
+        <v>209</v>
+      </c>
+      <c r="AP28" t="s">
+        <v>210</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>211</v>
+      </c>
+      <c r="AR28" t="s">
         <v>212</v>
       </c>
-      <c r="AK28" t="s">
+      <c r="AS28" t="s">
         <v>213</v>
       </c>
-      <c r="AL28" t="s">
+      <c r="AT28" t="s">
         <v>214</v>
       </c>
-      <c r="AM28" t="s">
-        <v>215</v>
-      </c>
-      <c r="AN28" t="s">
-        <v>216</v>
-      </c>
-      <c r="AO28" t="s">
-        <v>217</v>
-      </c>
-      <c r="AP28" t="s">
-        <v>218</v>
-      </c>
-      <c r="AQ28" t="s">
-        <v>219</v>
-      </c>
-      <c r="AR28" t="s">
-        <v>220</v>
-      </c>
     </row>
-    <row r="29" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>3044</v>
       </c>
@@ -5908,13 +6089,13 @@
         <v>20020826</v>
       </c>
       <c r="G29">
-        <v>5.98</v>
+        <v>5.93</v>
       </c>
       <c r="H29">
-        <v>10.49</v>
+        <v>10.57</v>
       </c>
       <c r="I29">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="J29" t="s">
         <v>386</v>
@@ -5928,100 +6109,106 @@
       <c r="M29" t="s">
         <v>389</v>
       </c>
-      <c r="N29" s="1">
+      <c r="N29">
+        <v>1.54</v>
+      </c>
+      <c r="O29" s="8">
+        <v>13.97</v>
+      </c>
+      <c r="P29" s="1">
         <v>8</v>
       </c>
-      <c r="O29" s="1">
+      <c r="Q29" s="1">
         <v>93.92</v>
       </c>
-      <c r="P29" s="1">
+      <c r="R29" s="1">
         <v>9.1999999999999993</v>
       </c>
-      <c r="Q29" s="1">
+      <c r="S29" s="1">
         <v>108</v>
       </c>
-      <c r="R29" s="1">
+      <c r="T29" s="1">
         <v>10.4</v>
       </c>
-      <c r="S29" s="1">
+      <c r="U29" s="1">
         <v>122.1</v>
       </c>
-      <c r="T29" s="1">
+      <c r="V29" s="1">
         <v>11.6</v>
       </c>
-      <c r="U29" s="1">
+      <c r="W29" s="1">
         <v>136.19999999999999</v>
       </c>
-      <c r="V29" s="1">
+      <c r="X29" s="1">
         <v>12.8</v>
       </c>
-      <c r="W29" s="1">
+      <c r="Y29" s="1">
         <v>150.30000000000001</v>
       </c>
-      <c r="X29" s="1">
+      <c r="Z29" s="1">
         <v>14</v>
       </c>
-      <c r="Y29" s="1">
+      <c r="AA29" s="1">
         <v>164.4</v>
       </c>
-      <c r="Z29" s="1">
+      <c r="AB29" s="1">
         <v>18.75</v>
       </c>
-      <c r="AA29" s="1">
+      <c r="AC29" s="1">
         <v>10.47</v>
       </c>
-      <c r="AB29" s="1">
+      <c r="AD29" s="1">
         <v>15.91</v>
       </c>
-      <c r="AC29" s="1">
+      <c r="AE29" s="1">
         <v>11.99</v>
       </c>
-      <c r="AD29" s="1">
+      <c r="AF29" s="1">
         <v>9.36</v>
       </c>
-      <c r="AE29" s="1">
+      <c r="AG29" s="1">
         <v>0.78</v>
       </c>
-      <c r="AF29" s="1">
+      <c r="AH29" s="1">
         <v>87.32</v>
       </c>
-      <c r="AG29" s="1">
+      <c r="AI29" s="1">
         <v>7.58</v>
       </c>
-      <c r="AH29" s="1">
+      <c r="AJ29" s="1">
         <v>-10.16</v>
       </c>
-      <c r="AI29" s="1">
+      <c r="AK29" s="1">
         <v>49</v>
       </c>
-      <c r="AJ29" s="1" t="s">
+      <c r="AL29" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="AK29" s="1" t="s">
+      <c r="AM29" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AL29" s="1" t="s">
+      <c r="AN29" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="AM29" s="1" t="s">
+      <c r="AO29" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AN29" s="1" t="s">
+      <c r="AP29" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AS29"/>
-      <c r="AT29"/>
       <c r="AU29"/>
+      <c r="AV29"/>
+      <c r="AW29"/>
     </row>
-    <row r="30" spans="1:47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3048</v>
       </c>
       <c r="B30" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="C30" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="D30" s="7">
         <v>2448297940</v>
@@ -6033,121 +6220,127 @@
         <v>20021001</v>
       </c>
       <c r="G30">
-        <v>8.8699999999999992</v>
+        <v>8.77</v>
       </c>
       <c r="H30">
-        <v>7.62</v>
+        <v>7.7</v>
       </c>
       <c r="I30">
-        <v>2.0099999999999998</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="J30" t="s">
-        <v>253</v>
-      </c>
-      <c r="K30" s="11" t="s">
-        <v>254</v>
+        <v>390</v>
+      </c>
+      <c r="K30" s="8" t="s">
+        <v>391</v>
       </c>
       <c r="L30" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="M30" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="N30">
+        <v>1.93</v>
+      </c>
+      <c r="O30" s="8">
+        <v>15.02</v>
+      </c>
+      <c r="P30">
         <v>8</v>
       </c>
-      <c r="O30">
+      <c r="Q30">
         <v>34.32</v>
       </c>
-      <c r="P30">
+      <c r="R30">
         <v>9.6</v>
       </c>
-      <c r="Q30">
+      <c r="S30">
         <v>41.18</v>
       </c>
-      <c r="R30">
+      <c r="T30">
         <v>11.2</v>
       </c>
-      <c r="S30">
+      <c r="U30">
         <v>48.05</v>
       </c>
-      <c r="T30">
+      <c r="V30">
         <v>12.8</v>
       </c>
-      <c r="U30">
+      <c r="W30">
         <v>54.91</v>
       </c>
-      <c r="V30">
+      <c r="X30">
         <v>14.4</v>
       </c>
-      <c r="W30">
+      <c r="Y30">
         <v>61.78</v>
       </c>
-      <c r="X30">
+      <c r="Z30">
         <v>16</v>
       </c>
-      <c r="Y30">
+      <c r="AA30">
         <v>68.64</v>
       </c>
-      <c r="Z30">
+      <c r="AB30">
         <v>3.24</v>
       </c>
-      <c r="AA30">
+      <c r="AC30">
         <v>1.5</v>
       </c>
-      <c r="AB30">
+      <c r="AD30">
         <v>27.8</v>
       </c>
-      <c r="AC30">
+      <c r="AE30">
         <v>1.3</v>
       </c>
-      <c r="AD30">
+      <c r="AF30">
         <v>1.04</v>
       </c>
-      <c r="AE30">
+      <c r="AG30">
         <v>4.37</v>
       </c>
-      <c r="AF30">
+      <c r="AH30">
         <v>115.38</v>
       </c>
-      <c r="AG30">
+      <c r="AI30">
         <v>-2.5099999999999998</v>
       </c>
-      <c r="AH30">
+      <c r="AJ30">
         <v>-3.46</v>
       </c>
-      <c r="AI30">
+      <c r="AK30">
         <v>30</v>
       </c>
-      <c r="AJ30" t="s">
-        <v>255</v>
-      </c>
-      <c r="AK30" t="s">
-        <v>106</v>
-      </c>
       <c r="AL30" t="s">
-        <v>172</v>
+        <v>241</v>
       </c>
       <c r="AM30" t="s">
         <v>106</v>
       </c>
       <c r="AN30" t="s">
+        <v>172</v>
+      </c>
+      <c r="AO30" t="s">
+        <v>106</v>
+      </c>
+      <c r="AP30" t="s">
         <v>85</v>
       </c>
-      <c r="AO30" t="s">
-        <v>256</v>
-      </c>
-      <c r="AP30" t="s">
-        <v>257</v>
-      </c>
       <c r="AQ30" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="AR30" t="s">
-        <v>259</v>
+        <v>243</v>
+      </c>
+      <c r="AS30" t="s">
+        <v>244</v>
+      </c>
+      <c r="AT30" t="s">
+        <v>245</v>
       </c>
     </row>
-    <row r="31" spans="1:47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>3209</v>
       </c>
@@ -6167,121 +6360,127 @@
         <v>20081126</v>
       </c>
       <c r="G31">
-        <v>6.92</v>
+        <v>6.91</v>
       </c>
       <c r="H31">
-        <v>8.1</v>
+        <v>8.11</v>
       </c>
       <c r="I31">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="J31" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="K31" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="L31" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="M31" t="s">
-        <v>395</v>
-      </c>
-      <c r="N31" s="1">
+        <v>397</v>
+      </c>
+      <c r="N31">
+        <v>2.29</v>
+      </c>
+      <c r="O31">
+        <v>-3.48</v>
+      </c>
+      <c r="P31" s="1">
         <v>9</v>
       </c>
-      <c r="O31" s="1">
+      <c r="Q31" s="1">
         <v>32.04</v>
       </c>
-      <c r="P31" s="1">
+      <c r="R31" s="1">
         <v>10</v>
       </c>
-      <c r="Q31" s="1">
+      <c r="S31" s="1">
         <v>35.6</v>
       </c>
-      <c r="R31" s="1">
+      <c r="T31" s="1">
         <v>11</v>
       </c>
-      <c r="S31" s="1">
+      <c r="U31" s="1">
         <v>39.159999999999997</v>
       </c>
-      <c r="T31" s="1">
+      <c r="V31" s="1">
         <v>12</v>
       </c>
-      <c r="U31" s="1">
+      <c r="W31" s="1">
         <v>42.72</v>
       </c>
-      <c r="V31" s="1">
+      <c r="X31" s="1">
         <v>13</v>
       </c>
-      <c r="W31" s="1">
+      <c r="Y31" s="1">
         <v>46.28</v>
       </c>
-      <c r="X31" s="1">
+      <c r="Z31" s="1">
         <v>14</v>
       </c>
-      <c r="Y31" s="1">
+      <c r="AA31" s="1">
         <v>49.84</v>
       </c>
-      <c r="Z31" s="1">
+      <c r="AB31" s="1">
         <v>5.31</v>
       </c>
-      <c r="AA31" s="1">
+      <c r="AC31" s="1">
         <v>2.25</v>
       </c>
-      <c r="AB31" s="1">
+      <c r="AD31" s="1">
         <v>22.5</v>
       </c>
-      <c r="AC31" s="1">
+      <c r="AE31" s="1">
         <v>2.11</v>
       </c>
-      <c r="AD31" s="1">
+      <c r="AF31" s="1">
         <v>1.63</v>
       </c>
-      <c r="AE31" s="1">
+      <c r="AG31" s="1">
         <v>3.25</v>
       </c>
-      <c r="AF31" s="1">
+      <c r="AH31" s="1">
         <v>106.64</v>
       </c>
-      <c r="AG31" s="1">
+      <c r="AI31" s="1">
         <v>0.7</v>
       </c>
-      <c r="AH31" s="1">
+      <c r="AJ31" s="1">
         <v>-1.1599999999999999</v>
       </c>
-      <c r="AI31" s="1">
+      <c r="AK31" s="1">
         <v>38</v>
       </c>
-      <c r="AJ31" s="1" t="s">
+      <c r="AL31" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="AK31" s="1" t="s">
+      <c r="AM31" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="AL31" s="1" t="s">
+      <c r="AN31" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AM31" s="1" t="s">
+      <c r="AO31" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="AN31" s="1" t="s">
+      <c r="AP31" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="AO31" s="1"/>
-      <c r="AP31" s="1"/>
       <c r="AQ31" s="1"/>
       <c r="AR31" s="1"/>
+      <c r="AS31" s="1"/>
+      <c r="AT31" s="1"/>
     </row>
-    <row r="32" spans="1:47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3312</v>
       </c>
       <c r="B32" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="C32" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="D32" s="7">
         <v>1376254550</v>
@@ -6293,121 +6492,127 @@
         <v>20101229</v>
       </c>
       <c r="G32">
-        <v>4.26</v>
+        <v>4.01</v>
       </c>
       <c r="H32">
-        <v>7.48</v>
+        <v>7.95</v>
       </c>
       <c r="I32">
-        <v>1.79</v>
+        <v>1.9</v>
       </c>
       <c r="J32" t="s">
-        <v>262</v>
+        <v>398</v>
       </c>
       <c r="K32" t="s">
-        <v>263</v>
+        <v>399</v>
       </c>
       <c r="L32" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="M32" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="N32">
+        <v>1.71</v>
+      </c>
+      <c r="O32">
+        <v>7.16</v>
+      </c>
+      <c r="P32">
         <v>15</v>
       </c>
-      <c r="O32">
+      <c r="Q32">
         <v>47.1</v>
       </c>
-      <c r="P32">
+      <c r="R32">
         <v>18</v>
       </c>
-      <c r="Q32">
+      <c r="S32">
         <v>56.52</v>
       </c>
-      <c r="R32">
+      <c r="T32">
         <v>21</v>
       </c>
-      <c r="S32">
+      <c r="U32">
         <v>65.94</v>
       </c>
-      <c r="T32">
+      <c r="V32">
         <v>24</v>
       </c>
-      <c r="U32">
+      <c r="W32">
         <v>75.36</v>
       </c>
-      <c r="V32">
+      <c r="X32">
         <v>27</v>
       </c>
-      <c r="W32">
+      <c r="Y32">
         <v>84.78</v>
       </c>
-      <c r="X32">
+      <c r="Z32">
         <v>30</v>
       </c>
-      <c r="Y32">
+      <c r="AA32">
         <v>94.2</v>
       </c>
-      <c r="Z32">
+      <c r="AB32">
         <v>5.84</v>
       </c>
-      <c r="AA32">
+      <c r="AC32">
         <v>3.09</v>
       </c>
-      <c r="AB32">
+      <c r="AD32">
         <v>27.98</v>
       </c>
-      <c r="AC32">
+      <c r="AE32">
         <v>3.08</v>
       </c>
-      <c r="AD32">
+      <c r="AF32">
         <v>2.5</v>
       </c>
-      <c r="AE32">
+      <c r="AG32">
         <v>3.01</v>
       </c>
-      <c r="AF32">
+      <c r="AH32">
         <v>100.32</v>
       </c>
-      <c r="AG32">
+      <c r="AI32">
         <v>-3.19</v>
       </c>
-      <c r="AH32">
+      <c r="AJ32">
         <v>-3.32</v>
       </c>
-      <c r="AI32">
+      <c r="AK32">
         <v>40</v>
       </c>
-      <c r="AJ32" t="s">
-        <v>264</v>
-      </c>
-      <c r="AK32" t="s">
-        <v>265</v>
-      </c>
       <c r="AL32" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="AM32" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="AN32" t="s">
+        <v>250</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>251</v>
+      </c>
+      <c r="AP32" t="s">
         <v>102</v>
       </c>
-      <c r="AO32" t="s">
-        <v>268</v>
-      </c>
-      <c r="AP32" t="s">
-        <v>269</v>
-      </c>
       <c r="AQ32" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="AR32" t="s">
-        <v>271</v>
+        <v>253</v>
+      </c>
+      <c r="AS32" t="s">
+        <v>254</v>
+      </c>
+      <c r="AT32" t="s">
+        <v>255</v>
       </c>
     </row>
-    <row r="33" spans="1:44" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>3702</v>
       </c>
@@ -6427,113 +6632,119 @@
         <v>20051109</v>
       </c>
       <c r="G33">
-        <v>6</v>
+        <v>5.98</v>
       </c>
       <c r="H33">
-        <v>8.93</v>
+        <v>8.9499999999999993</v>
       </c>
       <c r="I33">
         <v>1.43</v>
       </c>
       <c r="J33" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="K33" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="L33" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="M33" t="s">
-        <v>401</v>
-      </c>
-      <c r="N33" s="1">
+        <v>287</v>
+      </c>
+      <c r="N33">
+        <v>0.45</v>
+      </c>
+      <c r="O33">
+        <v>-28.03</v>
+      </c>
+      <c r="P33" s="1">
         <v>9</v>
       </c>
-      <c r="O33" s="1">
+      <c r="Q33" s="1">
         <v>55.71</v>
       </c>
-      <c r="P33" s="1">
+      <c r="R33" s="1">
         <v>9.8000000000000007</v>
       </c>
-      <c r="Q33" s="1">
+      <c r="S33" s="1">
         <v>60.66</v>
       </c>
-      <c r="R33" s="1">
+      <c r="T33" s="1">
         <v>10.6</v>
       </c>
-      <c r="S33" s="1">
+      <c r="U33" s="1">
         <v>65.61</v>
       </c>
-      <c r="T33" s="1">
+      <c r="V33" s="1">
         <v>11.4</v>
       </c>
-      <c r="U33" s="1">
+      <c r="W33" s="1">
         <v>70.569999999999993</v>
       </c>
-      <c r="V33" s="1">
+      <c r="X33" s="1">
         <v>12.2</v>
       </c>
-      <c r="W33" s="1">
+      <c r="Y33" s="1">
         <v>75.52</v>
       </c>
-      <c r="X33" s="1">
+      <c r="Z33" s="1">
         <v>13</v>
       </c>
-      <c r="Y33" s="1">
+      <c r="AA33" s="1">
         <v>80.47</v>
       </c>
-      <c r="Z33" s="1">
+      <c r="AB33" s="1">
         <v>3.89</v>
       </c>
-      <c r="AA33" s="1">
+      <c r="AC33" s="1">
         <v>1.82</v>
       </c>
-      <c r="AB33" s="1">
+      <c r="AD33" s="1">
         <v>17.649999999999999</v>
       </c>
-      <c r="AC33" s="1">
+      <c r="AE33" s="1">
         <v>1.87</v>
       </c>
-      <c r="AD33" s="1">
+      <c r="AF33" s="1">
         <v>1.54</v>
       </c>
-      <c r="AE33" s="1">
+      <c r="AG33" s="1">
         <v>2.9</v>
       </c>
-      <c r="AF33" s="1">
+      <c r="AH33" s="1">
         <v>97.33</v>
       </c>
-      <c r="AG33" s="1">
+      <c r="AI33" s="1">
         <v>-16.23</v>
       </c>
-      <c r="AH33" s="1">
+      <c r="AJ33" s="1">
         <v>-16.72</v>
       </c>
-      <c r="AI33" s="1">
+      <c r="AK33" s="1">
         <v>28</v>
       </c>
-      <c r="AJ33" s="1" t="s">
+      <c r="AL33" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="AK33" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="AL33" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="AM33" s="1" t="s">
         <v>177</v>
       </c>
       <c r="AN33" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AO33" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="AP33" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="AO33" s="1"/>
-      <c r="AP33" s="1"/>
       <c r="AQ33" s="1"/>
       <c r="AR33" s="1"/>
+      <c r="AS33" s="1"/>
+      <c r="AT33" s="1"/>
     </row>
-    <row r="34" spans="1:44" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>3706</v>
       </c>
@@ -6553,113 +6764,119 @@
         <v>20130912</v>
       </c>
       <c r="G34">
-        <v>2.96</v>
+        <v>2.97</v>
       </c>
       <c r="H34">
-        <v>3.28</v>
+        <v>3.26</v>
       </c>
       <c r="I34">
-        <v>0.82</v>
+        <v>0.81</v>
       </c>
       <c r="J34" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="K34" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="L34" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="M34" t="s">
-        <v>405</v>
-      </c>
-      <c r="N34" s="1">
+        <v>408</v>
+      </c>
+      <c r="N34">
+        <v>0.79</v>
+      </c>
+      <c r="O34">
+        <v>-4.74</v>
+      </c>
+      <c r="P34" s="1">
         <v>8</v>
       </c>
-      <c r="O34" s="1">
+      <c r="Q34" s="1">
         <v>82.56</v>
       </c>
-      <c r="P34" s="1">
+      <c r="R34" s="1">
         <v>9.4</v>
       </c>
-      <c r="Q34" s="1">
+      <c r="S34" s="1">
         <v>97.01</v>
       </c>
-      <c r="R34" s="1">
+      <c r="T34" s="1">
         <v>10.8</v>
       </c>
-      <c r="S34" s="1">
+      <c r="U34" s="1">
         <v>111.5</v>
       </c>
-      <c r="T34" s="1">
+      <c r="V34" s="1">
         <v>12.2</v>
       </c>
-      <c r="U34" s="1">
+      <c r="W34" s="1">
         <v>125.9</v>
       </c>
-      <c r="V34" s="1">
+      <c r="X34" s="1">
         <v>13.6</v>
       </c>
-      <c r="W34" s="1">
+      <c r="Y34" s="1">
         <v>140.4</v>
       </c>
-      <c r="X34" s="1">
+      <c r="Z34" s="1">
         <v>15</v>
       </c>
-      <c r="Y34" s="1">
+      <c r="AA34" s="1">
         <v>154.80000000000001</v>
       </c>
-      <c r="Z34" s="1">
+      <c r="AB34" s="1">
         <v>9.75</v>
       </c>
-      <c r="AA34" s="1">
+      <c r="AC34" s="1">
         <v>-0.09</v>
       </c>
-      <c r="AB34" s="1">
+      <c r="AD34" s="1">
         <v>33</v>
       </c>
-      <c r="AC34" s="1">
+      <c r="AE34" s="1">
         <v>55.14</v>
       </c>
-      <c r="AD34" s="1">
+      <c r="AF34" s="1">
         <v>34.869999999999997</v>
       </c>
-      <c r="AE34" s="1">
+      <c r="AG34" s="1">
         <v>0.68</v>
       </c>
-      <c r="AF34" s="1">
+      <c r="AH34" s="1">
         <v>-0.16</v>
       </c>
-      <c r="AG34" s="1">
+      <c r="AI34" s="1">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AH34" s="1">
+      <c r="AJ34" s="1">
         <v>1.44</v>
       </c>
-      <c r="AI34" s="1">
+      <c r="AK34" s="1">
         <v>57</v>
       </c>
-      <c r="AJ34" s="1" t="s">
+      <c r="AL34" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="AK34" s="1" t="s">
+      <c r="AM34" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="AL34" s="1" t="s">
+      <c r="AN34" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="AM34" s="1" t="s">
+      <c r="AO34" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="AN34" s="1" t="s">
+      <c r="AP34" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="AO34" s="1"/>
-      <c r="AP34" s="1"/>
       <c r="AQ34" s="1"/>
       <c r="AR34" s="1"/>
+      <c r="AS34" s="1"/>
+      <c r="AT34" s="1"/>
     </row>
-    <row r="35" spans="1:44" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>5515</v>
       </c>
@@ -6688,104 +6905,110 @@
         <v>0.77</v>
       </c>
       <c r="J35" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="K35" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="L35" t="s">
-        <v>408</v>
+        <v>288</v>
       </c>
       <c r="M35" t="s">
-        <v>409</v>
-      </c>
-      <c r="N35" s="1">
+        <v>411</v>
+      </c>
+      <c r="N35">
+        <v>0.38</v>
+      </c>
+      <c r="O35">
+        <v>-3.58</v>
+      </c>
+      <c r="P35" s="1">
         <v>11</v>
       </c>
-      <c r="O35" s="1">
+      <c r="Q35" s="1">
         <v>19.8</v>
       </c>
-      <c r="P35" s="1">
+      <c r="R35" s="1">
         <v>12.4</v>
       </c>
-      <c r="Q35" s="1">
+      <c r="S35" s="1">
         <v>22.32</v>
       </c>
-      <c r="R35" s="1">
+      <c r="T35" s="1">
         <v>13.8</v>
       </c>
-      <c r="S35" s="1">
+      <c r="U35" s="1">
         <v>24.84</v>
       </c>
-      <c r="T35" s="1">
+      <c r="V35" s="1">
         <v>15.2</v>
       </c>
-      <c r="U35" s="1">
+      <c r="W35" s="1">
         <v>27.36</v>
       </c>
-      <c r="V35" s="1">
+      <c r="X35" s="1">
         <v>16.600000000000001</v>
       </c>
-      <c r="W35" s="1">
+      <c r="Y35" s="1">
         <v>29.88</v>
       </c>
-      <c r="X35" s="1">
+      <c r="Z35" s="1">
         <v>18</v>
       </c>
-      <c r="Y35" s="1">
+      <c r="AA35" s="1">
         <v>32.4</v>
       </c>
-      <c r="Z35" s="1">
+      <c r="AB35" s="1">
         <v>13.13</v>
       </c>
-      <c r="AA35" s="1">
+      <c r="AC35" s="1">
         <v>7.24</v>
       </c>
-      <c r="AB35" s="1">
+      <c r="AD35" s="1">
         <v>10.87</v>
       </c>
-      <c r="AC35" s="1">
+      <c r="AE35" s="1">
         <v>12.76</v>
       </c>
-      <c r="AD35" s="1">
+      <c r="AF35" s="1">
         <v>9.4700000000000006</v>
       </c>
-      <c r="AE35" s="1">
+      <c r="AG35" s="1">
         <v>0.61</v>
       </c>
-      <c r="AF35" s="1">
+      <c r="AH35" s="1">
         <v>56.74</v>
       </c>
-      <c r="AG35" s="1">
+      <c r="AI35" s="1">
         <v>1.3</v>
       </c>
-      <c r="AH35" s="1">
+      <c r="AJ35" s="1">
         <v>2.4500000000000002</v>
       </c>
-      <c r="AI35" s="1">
+      <c r="AK35" s="1">
         <v>51</v>
       </c>
-      <c r="AJ35" s="1" t="s">
+      <c r="AL35" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="AK35" s="1" t="s">
+      <c r="AM35" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="AL35" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AM35" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="AN35" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="AO35" s="1"/>
-      <c r="AP35" s="1"/>
+      <c r="AO35" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AP35" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="AQ35" s="1"/>
       <c r="AR35" s="1"/>
+      <c r="AS35" s="1"/>
+      <c r="AT35" s="1"/>
     </row>
-    <row r="36" spans="1:44" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>6257</v>
       </c>
@@ -6805,113 +7028,119 @@
         <v>20030825</v>
       </c>
       <c r="G36">
-        <v>4.9400000000000004</v>
+        <v>4.91</v>
       </c>
       <c r="H36">
-        <v>10.119999999999999</v>
+        <v>10.19</v>
       </c>
       <c r="I36">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="J36" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="K36" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="L36" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="M36" t="s">
-        <v>413</v>
-      </c>
-      <c r="N36" s="1">
+        <v>415</v>
+      </c>
+      <c r="N36" s="8">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="O36" s="8">
+        <v>15.34</v>
+      </c>
+      <c r="P36" s="1">
         <v>9</v>
       </c>
-      <c r="O36" s="1">
+      <c r="Q36" s="1">
         <v>52.47</v>
       </c>
-      <c r="P36" s="1">
+      <c r="R36" s="1">
         <v>10.199999999999999</v>
       </c>
-      <c r="Q36" s="1">
+      <c r="S36" s="1">
         <v>59.47</v>
       </c>
-      <c r="R36" s="1">
+      <c r="T36" s="1">
         <v>11.4</v>
       </c>
-      <c r="S36" s="1">
+      <c r="U36" s="1">
         <v>66.459999999999994</v>
       </c>
-      <c r="T36" s="1">
+      <c r="V36" s="1">
         <v>12.6</v>
       </c>
-      <c r="U36" s="1">
+      <c r="W36" s="1">
         <v>73.459999999999994</v>
       </c>
-      <c r="V36" s="1">
+      <c r="X36" s="1">
         <v>13.8</v>
       </c>
-      <c r="W36" s="1">
+      <c r="Y36" s="1">
         <v>80.45</v>
       </c>
-      <c r="X36" s="1">
+      <c r="Z36" s="1">
         <v>15</v>
       </c>
-      <c r="Y36" s="1">
+      <c r="AA36" s="1">
         <v>87.45</v>
       </c>
-      <c r="Z36" s="1">
+      <c r="AB36" s="1">
         <v>30.03</v>
       </c>
-      <c r="AA36" s="1">
+      <c r="AC36" s="1">
         <v>21.36</v>
       </c>
-      <c r="AB36" s="1">
+      <c r="AD36" s="1">
         <v>19.16</v>
       </c>
-      <c r="AC36" s="1">
+      <c r="AE36" s="1">
         <v>22.37</v>
       </c>
-      <c r="AD36" s="1">
+      <c r="AF36" s="1">
         <v>18.329999999999998</v>
       </c>
-      <c r="AE36" s="1">
+      <c r="AG36" s="1">
         <v>0.51</v>
       </c>
-      <c r="AF36" s="1">
+      <c r="AH36" s="1">
         <v>95.49</v>
       </c>
-      <c r="AG36" s="1">
+      <c r="AI36" s="1">
         <v>17.23</v>
       </c>
-      <c r="AH36" s="1">
+      <c r="AJ36" s="1">
         <v>-2.14</v>
       </c>
-      <c r="AI36" s="1">
+      <c r="AK36" s="1">
         <v>64</v>
       </c>
-      <c r="AJ36" s="1" t="s">
+      <c r="AL36" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="AK36" s="1" t="s">
+      <c r="AM36" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="AL36" s="1" t="s">
+      <c r="AN36" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="AM36" s="1" t="s">
+      <c r="AO36" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="AN36" s="1" t="s">
+      <c r="AP36" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AO36" s="1"/>
-      <c r="AP36" s="1"/>
       <c r="AQ36" s="1"/>
       <c r="AR36" s="1"/>
+      <c r="AS36" s="1"/>
+      <c r="AT36" s="1"/>
     </row>
-    <row r="37" spans="1:44" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>8112</v>
       </c>
@@ -6931,113 +7160,119 @@
         <v>20071231</v>
       </c>
       <c r="G37">
-        <v>6.1</v>
+        <v>6.06</v>
       </c>
       <c r="H37">
-        <v>7.76</v>
+        <v>7.81</v>
       </c>
       <c r="I37">
-        <v>2</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="J37" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="K37" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="L37" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="M37" t="s">
-        <v>417</v>
-      </c>
-      <c r="N37" s="1">
+        <v>419</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>-1.19</v>
+      </c>
+      <c r="P37" s="1">
         <v>7</v>
       </c>
-      <c r="O37" s="1">
+      <c r="Q37" s="1">
         <v>46.97</v>
       </c>
-      <c r="P37" s="1">
+      <c r="R37" s="1">
         <v>8.1999999999999993</v>
       </c>
-      <c r="Q37" s="1">
+      <c r="S37" s="1">
         <v>55.02</v>
       </c>
-      <c r="R37" s="1">
+      <c r="T37" s="1">
         <v>9.4</v>
       </c>
-      <c r="S37" s="1">
+      <c r="U37" s="1">
         <v>63.07</v>
       </c>
-      <c r="T37" s="1">
+      <c r="V37" s="1">
         <v>10.6</v>
       </c>
-      <c r="U37" s="1">
+      <c r="W37" s="1">
         <v>71.13</v>
       </c>
-      <c r="V37" s="1">
+      <c r="X37" s="1">
         <v>11.8</v>
       </c>
-      <c r="W37" s="1">
+      <c r="Y37" s="1">
         <v>79.180000000000007</v>
       </c>
-      <c r="X37" s="1">
+      <c r="Z37" s="1">
         <v>13</v>
       </c>
-      <c r="Y37" s="1">
+      <c r="AA37" s="1">
         <v>87.23</v>
       </c>
-      <c r="Z37" s="1">
+      <c r="AB37" s="1">
         <v>3.26</v>
       </c>
-      <c r="AA37" s="1">
+      <c r="AC37" s="1">
         <v>2.17</v>
       </c>
-      <c r="AB37" s="1">
+      <c r="AD37" s="1">
         <v>31.83</v>
       </c>
-      <c r="AC37" s="1">
+      <c r="AE37" s="1">
         <v>2.02</v>
       </c>
-      <c r="AD37" s="1">
+      <c r="AF37" s="1">
         <v>1.53</v>
       </c>
-      <c r="AE37" s="1">
+      <c r="AG37" s="1">
         <v>4.42</v>
       </c>
-      <c r="AF37" s="1">
+      <c r="AH37" s="1">
         <v>107.43</v>
       </c>
-      <c r="AG37" s="1">
+      <c r="AI37" s="1">
         <v>-12.76</v>
       </c>
-      <c r="AH37" s="1">
+      <c r="AJ37" s="1">
         <v>-8.07</v>
       </c>
-      <c r="AI37" s="1">
+      <c r="AK37" s="1">
         <v>32</v>
-      </c>
-      <c r="AJ37" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AK37" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="AL37" s="1" t="s">
         <v>124</v>
       </c>
       <c r="AM37" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AN37" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AO37" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="AN37" s="1" t="s">
+      <c r="AP37" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="AO37" s="1"/>
-      <c r="AP37" s="1"/>
       <c r="AQ37" s="1"/>
       <c r="AR37" s="1"/>
+      <c r="AS37" s="1"/>
+      <c r="AT37" s="1"/>
     </row>
-    <row r="38" spans="1:44" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>8150</v>
       </c>
@@ -7057,113 +7292,119 @@
         <v>20140411</v>
       </c>
       <c r="G38">
-        <v>4.67</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="H38">
-        <v>7.92</v>
+        <v>7.97</v>
       </c>
       <c r="I38">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="J38" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="K38" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="L38" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="M38" t="s">
-        <v>421</v>
-      </c>
-      <c r="N38" s="1">
+        <v>423</v>
+      </c>
+      <c r="N38">
+        <v>1.21</v>
+      </c>
+      <c r="O38">
+        <v>7.73</v>
+      </c>
+      <c r="P38" s="1">
         <v>9</v>
       </c>
-      <c r="O38" s="1">
+      <c r="Q38" s="1">
         <v>53.55</v>
       </c>
-      <c r="P38" s="1">
+      <c r="R38" s="1">
         <v>10.8</v>
       </c>
-      <c r="Q38" s="1">
+      <c r="S38" s="1">
         <v>64.260000000000005</v>
       </c>
-      <c r="R38" s="1">
+      <c r="T38" s="1">
         <v>12.6</v>
       </c>
-      <c r="S38" s="1">
+      <c r="U38" s="1">
         <v>74.97</v>
       </c>
-      <c r="T38" s="1">
+      <c r="V38" s="1">
         <v>14.4</v>
       </c>
-      <c r="U38" s="1">
+      <c r="W38" s="1">
         <v>85.68</v>
       </c>
-      <c r="V38" s="1">
+      <c r="X38" s="1">
         <v>16.2</v>
       </c>
-      <c r="W38" s="1">
+      <c r="Y38" s="1">
         <v>96.39</v>
       </c>
-      <c r="X38" s="1">
+      <c r="Z38" s="1">
         <v>18</v>
       </c>
-      <c r="Y38" s="1">
+      <c r="AA38" s="1">
         <v>107.1</v>
       </c>
-      <c r="Z38" s="1">
+      <c r="AB38" s="1">
         <v>26.62</v>
       </c>
-      <c r="AA38" s="1">
+      <c r="AC38" s="1">
         <v>20.51</v>
       </c>
-      <c r="AB38" s="1">
+      <c r="AD38" s="1">
         <v>22.24</v>
       </c>
-      <c r="AC38" s="1">
+      <c r="AE38" s="1">
         <v>21.26</v>
       </c>
-      <c r="AD38" s="1">
+      <c r="AF38" s="1">
         <v>17.670000000000002</v>
       </c>
-      <c r="AE38" s="1">
+      <c r="AG38" s="1">
         <v>0.74</v>
       </c>
-      <c r="AF38" s="1">
+      <c r="AH38" s="1">
         <v>96.47</v>
       </c>
-      <c r="AG38" s="1">
+      <c r="AI38" s="1">
         <v>7.35</v>
       </c>
-      <c r="AH38" s="1">
+      <c r="AJ38" s="1">
         <v>1.02</v>
       </c>
-      <c r="AI38" s="1">
+      <c r="AK38" s="1">
         <v>66</v>
       </c>
-      <c r="AJ38" s="1" t="s">
+      <c r="AL38" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="AK38" s="1" t="s">
+      <c r="AM38" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="AL38" s="1" t="s">
+      <c r="AN38" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AM38" s="1" t="s">
+      <c r="AO38" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="AN38" s="1" t="s">
+      <c r="AP38" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="AO38" s="1"/>
-      <c r="AP38" s="1"/>
       <c r="AQ38" s="1"/>
       <c r="AR38" s="1"/>
+      <c r="AS38" s="1"/>
+      <c r="AT38" s="1"/>
     </row>
-    <row r="39" spans="1:44" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>8213</v>
       </c>
@@ -7183,113 +7424,119 @@
         <v>20091225</v>
       </c>
       <c r="G39">
-        <v>7.29</v>
+        <v>7.28</v>
       </c>
       <c r="H39">
-        <v>7.93</v>
+        <v>7.95</v>
       </c>
       <c r="I39">
         <v>0.99</v>
       </c>
       <c r="J39" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="K39" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="L39" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="M39" t="s">
-        <v>425</v>
-      </c>
-      <c r="N39" s="1">
+        <v>427</v>
+      </c>
+      <c r="N39">
+        <v>1.97</v>
+      </c>
+      <c r="O39" s="8">
+        <v>12.87</v>
+      </c>
+      <c r="P39" s="1">
         <v>6</v>
       </c>
-      <c r="O39" s="1">
+      <c r="Q39" s="1">
         <v>36.659999999999997</v>
       </c>
-      <c r="P39" s="1">
+      <c r="R39" s="1">
         <v>7</v>
       </c>
-      <c r="Q39" s="1">
+      <c r="S39" s="1">
         <v>42.77</v>
       </c>
-      <c r="R39" s="1">
+      <c r="T39" s="1">
         <v>8</v>
       </c>
-      <c r="S39" s="1">
+      <c r="U39" s="1">
         <v>48.88</v>
       </c>
-      <c r="T39" s="1">
+      <c r="V39" s="1">
         <v>9</v>
       </c>
-      <c r="U39" s="1">
+      <c r="W39" s="1">
         <v>54.99</v>
       </c>
-      <c r="V39" s="1">
+      <c r="X39" s="1">
         <v>10</v>
       </c>
-      <c r="W39" s="1">
+      <c r="Y39" s="1">
         <v>61.1</v>
       </c>
-      <c r="X39" s="1">
+      <c r="Z39" s="1">
         <v>11</v>
       </c>
-      <c r="Y39" s="1">
+      <c r="AA39" s="1">
         <v>67.209999999999994</v>
       </c>
-      <c r="Z39" s="1">
+      <c r="AB39" s="1">
         <v>15.64</v>
       </c>
-      <c r="AA39" s="1">
+      <c r="AC39" s="1">
         <v>8.6</v>
       </c>
-      <c r="AB39" s="1">
+      <c r="AD39" s="1">
         <v>13.51</v>
       </c>
-      <c r="AC39" s="1">
+      <c r="AE39" s="1">
         <v>9.09</v>
       </c>
-      <c r="AD39" s="1">
+      <c r="AF39" s="1">
         <v>6.58</v>
       </c>
-      <c r="AE39" s="1">
+      <c r="AG39" s="1">
         <v>0.86</v>
       </c>
-      <c r="AF39" s="1">
+      <c r="AH39" s="1">
         <v>94.61</v>
       </c>
-      <c r="AG39" s="1">
+      <c r="AI39" s="1">
         <v>2.02</v>
       </c>
-      <c r="AH39" s="1">
+      <c r="AJ39" s="1">
         <v>0.38</v>
       </c>
-      <c r="AI39" s="1">
+      <c r="AK39" s="1">
         <v>47</v>
       </c>
-      <c r="AJ39" s="1" t="s">
+      <c r="AL39" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AK39" s="1" t="s">
+      <c r="AM39" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="AL39" s="1" t="s">
+      <c r="AN39" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="AM39" s="1" t="s">
+      <c r="AO39" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="AN39" s="1" t="s">
+      <c r="AP39" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AO39" s="1"/>
-      <c r="AP39" s="1"/>
       <c r="AQ39" s="1"/>
       <c r="AR39" s="1"/>
+      <c r="AS39" s="1"/>
+      <c r="AT39" s="1"/>
     </row>
-    <row r="40" spans="1:44" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>8215</v>
       </c>
@@ -7309,119 +7556,132 @@
         <v>20101112</v>
       </c>
       <c r="G40">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="H40">
-        <v>13.41</v>
+        <v>13.5</v>
       </c>
       <c r="I40">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="J40" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="K40" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="L40" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="M40" t="s">
-        <v>429</v>
-      </c>
-      <c r="N40" s="1">
+        <v>431</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>5.12</v>
+      </c>
+      <c r="P40" s="1">
         <v>15</v>
       </c>
-      <c r="O40" s="1">
+      <c r="Q40" s="1">
         <v>41.1</v>
       </c>
-      <c r="P40" s="1">
+      <c r="R40" s="1">
         <v>18</v>
       </c>
-      <c r="Q40" s="1">
+      <c r="S40" s="1">
         <v>49.32</v>
       </c>
-      <c r="R40" s="1">
+      <c r="T40" s="1">
         <v>21</v>
       </c>
-      <c r="S40" s="1">
+      <c r="U40" s="1">
         <v>57.54</v>
       </c>
-      <c r="T40" s="1">
+      <c r="V40" s="1">
         <v>24</v>
       </c>
-      <c r="U40" s="1">
+      <c r="W40" s="1">
         <v>65.760000000000005</v>
       </c>
-      <c r="V40" s="1">
+      <c r="X40" s="1">
         <v>27</v>
       </c>
-      <c r="W40" s="1">
+      <c r="Y40" s="1">
         <v>73.98</v>
       </c>
-      <c r="X40" s="1">
+      <c r="Z40" s="1">
         <v>30</v>
       </c>
-      <c r="Y40" s="1">
+      <c r="AA40" s="1">
         <v>82.2</v>
       </c>
-      <c r="Z40" s="1">
+      <c r="AB40" s="1">
         <v>18.329999999999998</v>
       </c>
-      <c r="AA40" s="1">
+      <c r="AC40" s="1">
         <v>6.21</v>
       </c>
-      <c r="AB40" s="1">
+      <c r="AD40" s="1">
         <v>20.77</v>
       </c>
-      <c r="AC40" s="1">
+      <c r="AE40" s="1">
         <v>7.17</v>
       </c>
-      <c r="AD40" s="1">
+      <c r="AF40" s="1">
         <v>5.72</v>
       </c>
-      <c r="AE40" s="1">
+      <c r="AG40" s="1">
         <v>1.46</v>
       </c>
-      <c r="AF40" s="1">
+      <c r="AH40" s="1">
         <v>86.61</v>
       </c>
-      <c r="AG40" s="1">
+      <c r="AI40" s="1">
         <v>2.25</v>
       </c>
-      <c r="AH40" s="1">
+      <c r="AJ40" s="1">
         <v>0.89</v>
       </c>
-      <c r="AI40" s="1">
+      <c r="AK40" s="1">
         <v>40</v>
       </c>
-      <c r="AJ40" s="1" t="s">
+      <c r="AL40" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="AK40" s="1" t="s">
+      <c r="AM40" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="AL40" s="1" t="s">
+      <c r="AN40" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="AM40" s="1" t="s">
+      <c r="AO40" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="AN40" s="1" t="s">
+      <c r="AP40" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AO40" s="1"/>
-      <c r="AP40" s="1"/>
       <c r="AQ40" s="1"/>
       <c r="AR40" s="1"/>
+      <c r="AS40" s="1"/>
+      <c r="AT40" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:AR40">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:AT40">
     <sortCondition ref="A3:A40"/>
   </sortState>
-  <mergeCells count="21">
-    <mergeCell ref="AJ1:AN1"/>
+  <mergeCells count="23">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="AB1:AB2"/>
+    <mergeCell ref="AC1:AC2"/>
     <mergeCell ref="AD1:AD2"/>
+    <mergeCell ref="AE1:AE2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="AL1:AP1"/>
+    <mergeCell ref="AF1:AF2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
@@ -7430,20 +7690,15 @@
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
-    <mergeCell ref="N1:W1"/>
-    <mergeCell ref="AE1:AE2"/>
-    <mergeCell ref="AF1:AF2"/>
+    <mergeCell ref="P1:Y1"/>
     <mergeCell ref="AG1:AG2"/>
     <mergeCell ref="AH1:AH2"/>
     <mergeCell ref="AI1:AI2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="Z1:Z2"/>
-    <mergeCell ref="AA1:AA2"/>
-    <mergeCell ref="AB1:AB2"/>
-    <mergeCell ref="AC1:AC2"/>
+    <mergeCell ref="AJ1:AJ2"/>
+    <mergeCell ref="AK1:AK2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="Z26:Z28">
+  <conditionalFormatting sqref="AB26:AB28">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -7455,7 +7710,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z3:Z28">
+  <conditionalFormatting sqref="AB3:AB28">
     <cfRule type="colorScale" priority="89">
       <colorScale>
         <cfvo type="min"/>
@@ -7465,7 +7720,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z3:AI29">
+  <conditionalFormatting sqref="AB3:AK29">
     <cfRule type="colorScale" priority="101">
       <colorScale>
         <cfvo type="min"/>
@@ -7475,7 +7730,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF3:AF27">
+  <conditionalFormatting sqref="AH3:AH27">
     <cfRule type="colorScale" priority="108">
       <colorScale>
         <cfvo type="min"/>
@@ -7485,7 +7740,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA4:AA27">
+  <conditionalFormatting sqref="AC4:AC27">
     <cfRule type="colorScale" priority="110">
       <colorScale>
         <cfvo type="min"/>
@@ -7495,7 +7750,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z3:Z27">
+  <conditionalFormatting sqref="AB3:AB27">
     <cfRule type="colorScale" priority="112">
       <colorScale>
         <cfvo type="min"/>
@@ -7505,7 +7760,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA3:AA27">
+  <conditionalFormatting sqref="AC3:AC27">
     <cfRule type="colorScale" priority="114">
       <colorScale>
         <cfvo type="min"/>
@@ -7515,7 +7770,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD3:AD27">
+  <conditionalFormatting sqref="AF3:AF27">
     <cfRule type="colorScale" priority="116">
       <colorScale>
         <cfvo type="min"/>
@@ -7525,7 +7780,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB3:AB27">
+  <conditionalFormatting sqref="AD3:AD27">
     <cfRule type="colorScale" priority="118">
       <colorScale>
         <cfvo type="min"/>
@@ -7535,7 +7790,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA3:AF28">
+  <conditionalFormatting sqref="AC3:AH28">
     <cfRule type="colorScale" priority="120">
       <colorScale>
         <cfvo type="min"/>
@@ -7545,7 +7800,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG3:AI28">
+  <conditionalFormatting sqref="AI3:AK28">
     <cfRule type="colorScale" priority="122">
       <colorScale>
         <cfvo type="min"/>
@@ -7555,7 +7810,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z3:AI28">
+  <conditionalFormatting sqref="AB3:AK28">
     <cfRule type="colorScale" priority="124">
       <colorScale>
         <cfvo type="min"/>
@@ -7565,7 +7820,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z6:AI29">
+  <conditionalFormatting sqref="AB6:AK29">
     <cfRule type="colorScale" priority="126">
       <colorScale>
         <cfvo type="min"/>
@@ -7575,7 +7830,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z3:AI40">
+  <conditionalFormatting sqref="AB3:AK40">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/Data/彙整清單_整理版.xlsx
+++ b/Data/彙整清單_整理版.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\svnbox\Python\Stock\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hmlu\svnbox\Research\Python\Stock\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F2DDC9-E039-41E4-BC88-A927B0E522E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205996FA-CD7D-4928-88A4-748C01F7551C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D923A086-913E-4840-96DC-7378B4FF8169}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D923A086-913E-4840-96DC-7378B4FF8169}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$6:$AP$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$6:$AT$27</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="539">
   <si>
     <t>公司名稱</t>
   </si>
@@ -659,18 +659,6 @@
     <t xml:space="preserve">   0.6 /   0.25</t>
   </si>
   <si>
-    <t>24.44  /  24.53  /  24.45  /  24.32  /  24.24</t>
-  </si>
-  <si>
-    <t>11.02  /  10.93  /  10.93  /  11.0  /  10.65</t>
-  </si>
-  <si>
-    <t>64.47  /  64.47  /  64.55  /  64.59  /  65.04</t>
-  </si>
-  <si>
-    <t>74.0  /  73.0  /  72.0  /  70.0  /  74.0</t>
-  </si>
-  <si>
     <t>台聚</t>
   </si>
   <si>
@@ -683,18 +671,6 @@
     <t xml:space="preserve">   0.5 /    0.2</t>
   </si>
   <si>
-    <t>26.52  /  26.59  /  26.45  /  25.97  /  25.9</t>
-  </si>
-  <si>
-    <t>9.99  /  10.1  /  9.95  /  9.8  /  9.81</t>
-  </si>
-  <si>
-    <t>63.4  /  63.22  /  63.5  /  64.17  /  64.24</t>
-  </si>
-  <si>
-    <t>73.0  /  72.0  /  71.0  /  75.0  /  75.0</t>
-  </si>
-  <si>
     <t>威健</t>
   </si>
   <si>
@@ -716,33 +692,12 @@
     <t xml:space="preserve">  1.06 /    0.0</t>
   </si>
   <si>
-    <t>49.1  /  48.08  /  50.35  /  50.92  /  50.96</t>
-  </si>
-  <si>
-    <t>23.19  /  22.9  /  23.58  /  23.2  /  23.48</t>
-  </si>
-  <si>
-    <t>27.63  /  28.92  /  26.0  /  25.79  /  25.5</t>
-  </si>
-  <si>
-    <t>33.0  /  36.0  /  31.0  /  30.0  /  30.0</t>
-  </si>
-  <si>
     <t>展宇</t>
   </si>
   <si>
     <t>展宇科技材料股份有限公司</t>
   </si>
   <si>
-    <t>20.29  /  20.32  /  20.3  /  20.14  /  20.23</t>
-  </si>
-  <si>
-    <t>25.93  /  25.93  /  25.97  /  26.16  /  26.08</t>
-  </si>
-  <si>
-    <t>53.7  /  53.67  /  53.66  /  53.62  /  53.62</t>
-  </si>
-  <si>
     <t>20.0  /  20.0  /  20.0  /  20.0  /  20.0</t>
   </si>
   <si>
@@ -758,18 +713,6 @@
     <t xml:space="preserve">  1.82 /    0.0</t>
   </si>
   <si>
-    <t>47.92  /  47.76  /  48.1  /  49.14  /  48.58</t>
-  </si>
-  <si>
-    <t>18.17  /  19.17  /  18.74  /  18.09  /  18.0</t>
-  </si>
-  <si>
-    <t>33.85  /  32.98  /  33.08  /  32.68  /  33.35</t>
-  </si>
-  <si>
-    <t>23.0  /  21.0  /  21.0  /  21.0  /  22.0</t>
-  </si>
-  <si>
     <t>亞聚</t>
   </si>
   <si>
@@ -788,18 +731,6 @@
     <t xml:space="preserve">   0.6 /    0.3</t>
   </si>
   <si>
-    <t>33.44  /  33.61  /  33.7  /  32.53  /  32.42</t>
-  </si>
-  <si>
-    <t>12.86  /  12.58  /  12.48  /  11.91  /  11.52</t>
-  </si>
-  <si>
-    <t>53.63  /  53.74  /  53.74  /  55.49  /  55.99</t>
-  </si>
-  <si>
-    <t>31.0  /  32.0  /  31.0  /  36.0  /  37.0</t>
-  </si>
-  <si>
     <t>益登</t>
   </si>
   <si>
@@ -809,18 +740,6 @@
     <t xml:space="preserve">   1.9 /    1.0</t>
   </si>
   <si>
-    <t>40.62  /  40.8  /  41.12  /  41.15  /  41.0</t>
-  </si>
-  <si>
-    <t>21.23  /  20.53  /  19.72  /  19.14  /  18.7</t>
-  </si>
-  <si>
-    <t>38.08  /  38.6  /  39.06  /  39.64  /  40.23</t>
-  </si>
-  <si>
-    <t>19.0  /  20.0  /  20.0  /  21.0  /  22.0</t>
-  </si>
-  <si>
     <t>弘憶股</t>
   </si>
   <si>
@@ -839,18 +758,6 @@
     <t xml:space="preserve">   0.0 /   0.12</t>
   </si>
   <si>
-    <t>35.36  /  35.42  /  35.39  /  34.11  /  31.39</t>
-  </si>
-  <si>
-    <t>17.47  /  17.48  /  17.63  /  17.72  /  18.34</t>
-  </si>
-  <si>
-    <t>47.09  /  47.02  /  46.91  /  48.09  /  50.21</t>
-  </si>
-  <si>
-    <t>12.0  /  12.0  /  12.0  /  13.0  /  13.0</t>
-  </si>
-  <si>
     <t>精元</t>
   </si>
   <si>
@@ -863,18 +770,6 @@
     <t xml:space="preserve">  0.48 /    0.0</t>
   </si>
   <si>
-    <t>25.24  /  25.18  /  24.74  /  24.13  /  23.65</t>
-  </si>
-  <si>
-    <t>9.34  /  9.37  /  9.85  /  9.47  /  8.68</t>
-  </si>
-  <si>
-    <t>65.34  /  65.38  /  65.31  /  66.32  /  67.6</t>
-  </si>
-  <si>
-    <t>15.0  /  15.0  /  15.0  /  16.0  /  17.0</t>
-  </si>
-  <si>
     <t>華夏</t>
   </si>
   <si>
@@ -893,34 +788,10 @@
     <t xml:space="preserve">   1.7 /    0.3</t>
   </si>
   <si>
-    <t>38.33  /  38.5  /  38.45  /  37.87  /  37.75</t>
-  </si>
-  <si>
-    <t>12.37  /  12.43  /  12.65  /  12.69  /  12.76</t>
-  </si>
-  <si>
-    <t>49.23  /  49.0  /  48.85  /  49.37  /  49.4</t>
-  </si>
-  <si>
-    <t>33.0  /  33.0  /  34.0  /  35.0  /  34.0</t>
-  </si>
-  <si>
     <t>聲寶</t>
   </si>
   <si>
     <t>聲寶股份有限公司</t>
-  </si>
-  <si>
-    <t>32.09  /  32.28  /  32.27  /  32.33  /  32.44</t>
-  </si>
-  <si>
-    <t>15.04  /  14.91  /  14.95  /  15.08  /  15.1</t>
-  </si>
-  <si>
-    <t>52.8  /  52.74  /  52.71  /  52.52  /  52.39</t>
-  </si>
-  <si>
-    <t>42.0  /  42.0  /  42.0  /  42.0  /  42.0</t>
   </si>
   <si>
     <t xml:space="preserve">    12.1 /     12.1 /    11.99 /    12.04</t>
@@ -1381,6 +1252,456 @@
   </si>
   <si>
     <t xml:space="preserve">    2.25 /     2.35 /     2.92 /     5.23</t>
+  </si>
+  <si>
+    <t>26.11  /  26.12  /  26.22  /  26.3  /  26.36</t>
+  </si>
+  <si>
+    <t>9.24  /  9.22  /  9.13  /  9.16  /  9.21</t>
+  </si>
+  <si>
+    <t>64.59  /  64.59  /  64.58  /  64.46  /  64.37</t>
+  </si>
+  <si>
+    <t>79.0  /  79.0  /  80.0  /  79.0  /  78.0</t>
+  </si>
+  <si>
+    <t>0.0  /  29.9  /  30.04  /  30.06  /  29.98</t>
+  </si>
+  <si>
+    <t>0.0  /  6.47  /  6.36  /  6.34  /  6.4</t>
+  </si>
+  <si>
+    <t>0.0  /  63.53  /  63.53  /  63.53  /  63.53</t>
+  </si>
+  <si>
+    <t>0.0  /  16.0  /  16.0  /  16.0  /  16.0</t>
+  </si>
+  <si>
+    <t>24.74  /  24.83  /  24.9  /  25.14  /  25.19</t>
+  </si>
+  <si>
+    <t>7.52  /  7.38  /  7.38  /  7.51  /  7.37</t>
+  </si>
+  <si>
+    <t>67.65  /  67.71  /  67.65  /  67.26  /  67.38</t>
+  </si>
+  <si>
+    <t>110.0  /  112.0  /  112.0  /  110.0  /  112.0</t>
+  </si>
+  <si>
+    <t>27.15  /  26.52  /  26.59  /  26.45  /  25.97</t>
+  </si>
+  <si>
+    <t>10.35  /  9.99  /  10.1  /  9.95  /  9.8</t>
+  </si>
+  <si>
+    <t>62.42  /  63.4  /  63.22  /  63.5  /  64.17</t>
+  </si>
+  <si>
+    <t>68.0  /  73.0  /  72.0  /  71.0  /  75.0</t>
+  </si>
+  <si>
+    <t>37.74  /  38.33  /  38.5  /  38.45  /  37.87</t>
+  </si>
+  <si>
+    <t>11.75  /  12.37  /  12.43  /  12.65  /  12.69</t>
+  </si>
+  <si>
+    <t>50.43  /  49.23  /  49.0  /  48.85  /  49.37</t>
+  </si>
+  <si>
+    <t>35.0  /  33.0  /  33.0  /  34.0  /  35.0</t>
+  </si>
+  <si>
+    <t>34.27  /  33.44  /  33.61  /  33.7  /  32.53</t>
+  </si>
+  <si>
+    <t>12.39  /  12.86  /  12.58  /  12.48  /  11.91</t>
+  </si>
+  <si>
+    <t>53.27  /  53.63  /  53.74  /  53.74  /  55.49</t>
+  </si>
+  <si>
+    <t>30.0  /  31.0  /  32.0  /  31.0  /  36.0</t>
+  </si>
+  <si>
+    <t>24.6  /  24.44  /  24.53  /  24.45  /  24.32</t>
+  </si>
+  <si>
+    <t>11.14  /  11.02  /  10.93  /  10.93  /  11.0</t>
+  </si>
+  <si>
+    <t>64.17  /  64.47  /  64.47  /  64.55  /  64.59</t>
+  </si>
+  <si>
+    <t>73.0  /  74.0  /  73.0  /  72.0  /  70.0</t>
+  </si>
+  <si>
+    <t>40.15  /  40.57  /  40.73  /  41.56  /  41.58</t>
+  </si>
+  <si>
+    <t>18.09  /  17.78  /  17.62  /  16.85  /  16.84</t>
+  </si>
+  <si>
+    <t>41.69  /  41.59  /  41.59  /  41.55  /  41.51</t>
+  </si>
+  <si>
+    <t>14.0  /  14.0  /  14.0  /  14.0  /  14.0</t>
+  </si>
+  <si>
+    <t>31.88  /  32.09  /  32.28  /  32.27  /  32.33</t>
+  </si>
+  <si>
+    <t>15.35  /  15.04  /  14.91  /  14.95  /  15.08</t>
+  </si>
+  <si>
+    <t>52.69  /  52.8  /  52.74  /  52.71  /  52.52</t>
+  </si>
+  <si>
+    <t>41.0  /  42.0  /  42.0  /  42.0  /  42.0</t>
+  </si>
+  <si>
+    <t>20.1  /  20.29  /  20.32  /  20.3  /  20.14</t>
+  </si>
+  <si>
+    <t>26.12  /  25.93  /  25.93  /  25.97  /  26.16</t>
+  </si>
+  <si>
+    <t>53.71  /  53.7  /  53.67  /  53.66  /  53.62</t>
+  </si>
+  <si>
+    <t>35.15  /  34.97  /  35.0  /  35.1  /  35.16</t>
+  </si>
+  <si>
+    <t>13.69  /  13.88  /  13.83  /  13.72  /  13.76</t>
+  </si>
+  <si>
+    <t>51.08  /  51.08  /  51.1  /  51.11  /  51.0</t>
+  </si>
+  <si>
+    <t>28.0  /  28.0  /  28.0  /  28.0  /  28.0</t>
+  </si>
+  <si>
+    <t>36.38  /  35.95  /  36.13  /  36.64  /  36.69</t>
+  </si>
+  <si>
+    <t>12.83  /  12.78  /  12.67  /  13.03  /  12.16</t>
+  </si>
+  <si>
+    <t>50.72  /  51.21  /  51.11  /  50.24  /  51.09</t>
+  </si>
+  <si>
+    <t>18.0  /  19.0  /  19.0  /  18.0  /  19.0</t>
+  </si>
+  <si>
+    <t>23.09  /  23.34  /  23.39  /  23.18  /  23.01</t>
+  </si>
+  <si>
+    <t>9.83  /  9.94  /  9.99  /  9.95  /  9.86</t>
+  </si>
+  <si>
+    <t>67.0  /  66.63  /  66.55  /  66.81  /  67.07</t>
+  </si>
+  <si>
+    <t>396.0  /  396.0  /  394.0  /  395.0  /  398.0</t>
+  </si>
+  <si>
+    <t>11.15  /  10.99  /  11.01  /  11.41  /  11.66</t>
+  </si>
+  <si>
+    <t>9.77  /  9.79  /  10.05  /  10.79  /  10.76</t>
+  </si>
+  <si>
+    <t>79.0  /  79.15  /  78.86  /  77.73  /  77.52</t>
+  </si>
+  <si>
+    <t>167.0  /  168.0  /  164.0  /  171.0  /  174.0</t>
+  </si>
+  <si>
+    <t>29.46  /  29.6  /  29.6  /  29.49  /  29.27</t>
+  </si>
+  <si>
+    <t>15.73  /  15.63  /  15.59  /  15.56  /  15.63</t>
+  </si>
+  <si>
+    <t>54.72  /  54.68  /  54.75  /  54.89  /  55.04</t>
+  </si>
+  <si>
+    <t>145.0  /  146.0  /  146.0  /  147.0  /  147.0</t>
+  </si>
+  <si>
+    <t>17.11  /  17.26  /  17.34  /  17.35  /  17.44</t>
+  </si>
+  <si>
+    <t>13.68  /  13.4  /  13.44  /  13.77  /  13.89</t>
+  </si>
+  <si>
+    <t>69.14  /  69.25  /  69.13  /  68.79  /  68.59</t>
+  </si>
+  <si>
+    <t>126.0  /  128.0  /  127.0  /  124.0  /  123.0</t>
+  </si>
+  <si>
+    <t>25.48  /  25.24  /  25.18  /  24.74  /  24.13</t>
+  </si>
+  <si>
+    <t>9.19  /  9.34  /  9.37  /  9.85  /  9.47</t>
+  </si>
+  <si>
+    <t>65.27  /  65.34  /  65.38  /  65.31  /  66.32</t>
+  </si>
+  <si>
+    <t>15.0  /  15.0  /  15.0  /  15.0  /  16.0</t>
+  </si>
+  <si>
+    <t>55.1  /  57.83  /  55.27  /  56.08  /  55.75</t>
+  </si>
+  <si>
+    <t>10.41  /  11.79  /  12.49  /  12.83  /  13.17</t>
+  </si>
+  <si>
+    <t>34.4  /  30.31  /  32.17  /  31.0  /  31.03</t>
+  </si>
+  <si>
+    <t>13.0  /  12.0  /  14.0  /  13.0  /  13.0</t>
+  </si>
+  <si>
+    <t>33.58  /  33.66  /  33.77  /  34.64  /  35.31</t>
+  </si>
+  <si>
+    <t>18.84  /  18.91  /  19.04  /  19.72  /  19.11</t>
+  </si>
+  <si>
+    <t>47.52  /  47.35  /  47.12  /  45.57  /  45.5</t>
+  </si>
+  <si>
+    <t>46.0  /  46.0  /  46.0  /  43.0  /  42.0</t>
+  </si>
+  <si>
+    <t>34.25  /  34.38  /  34.53  /  34.46  /  34.17</t>
+  </si>
+  <si>
+    <t>21.25  /  21.29  /  21.31  /  21.75  /  22.54</t>
+  </si>
+  <si>
+    <t>44.44  /  44.26  /  44.08  /  43.69  /  43.22</t>
+  </si>
+  <si>
+    <t>21.96  /  21.79  /  21.62  /  20.97  /  20.48</t>
+  </si>
+  <si>
+    <t>15.6  /  15.63  /  15.39  /  15.43  /  15.36</t>
+  </si>
+  <si>
+    <t>62.36  /  62.5  /  62.92  /  63.53  /  64.08</t>
+  </si>
+  <si>
+    <t>62.0  /  62.0  /  64.0  /  65.0  /  67.0</t>
+  </si>
+  <si>
+    <t>30.1  /  29.84  /  29.69  /  29.57  /  29.5</t>
+  </si>
+  <si>
+    <t>13.21  /  13.48  /  13.62  /  13.74  /  13.8</t>
+  </si>
+  <si>
+    <t>56.62  /  56.62  /  56.62  /  56.62  /  56.62</t>
+  </si>
+  <si>
+    <t>11.0  /  11.0  /  11.0  /  11.0  /  11.0</t>
+  </si>
+  <si>
+    <t>11.86  /  11.85  /  11.97  /  11.88  /  11.76</t>
+  </si>
+  <si>
+    <t>6.37  /  6.36  /  6.4  /  6.35  /  6.3</t>
+  </si>
+  <si>
+    <t>81.71  /  81.73  /  81.54  /  81.7  /  81.85</t>
+  </si>
+  <si>
+    <t>597.0  /  594.0  /  592.0  /  594.0  /  595.0</t>
+  </si>
+  <si>
+    <t>13.82  /  13.87  /  13.84  /  13.77  /  13.78</t>
+  </si>
+  <si>
+    <t>10.92  /  10.73  /  10.67  /  10.58  /  10.62</t>
+  </si>
+  <si>
+    <t>75.2  /  75.35  /  75.4  /  75.57  /  75.53</t>
+  </si>
+  <si>
+    <t>70.0  /  71.0  /  71.0  /  71.0  /  70.0</t>
+  </si>
+  <si>
+    <t>48.2  /  47.92  /  47.76  /  48.1  /  49.14</t>
+  </si>
+  <si>
+    <t>18.54  /  18.17  /  19.17  /  18.74  /  18.09</t>
+  </si>
+  <si>
+    <t>33.17  /  33.85  /  32.98  /  33.08  /  32.68</t>
+  </si>
+  <si>
+    <t>22.0  /  23.0  /  21.0  /  21.0  /  21.0</t>
+  </si>
+  <si>
+    <t>49.58  /  49.1  /  48.08  /  50.35  /  50.92</t>
+  </si>
+  <si>
+    <t>23.27  /  23.19  /  22.9  /  23.58  /  23.2</t>
+  </si>
+  <si>
+    <t>27.06  /  27.63  /  28.92  /  26.0  /  25.79</t>
+  </si>
+  <si>
+    <t>32.0  /  33.0  /  36.0  /  31.0  /  30.0</t>
+  </si>
+  <si>
+    <t>9.3  /  9.36  /  9.49  /  9.4  /  9.58</t>
+  </si>
+  <si>
+    <t>13.96  /  13.95  /  13.67  /  13.44  /  13.56</t>
+  </si>
+  <si>
+    <t>76.67  /  76.62  /  76.77  /  77.09  /  76.78</t>
+  </si>
+  <si>
+    <t>90.0  /  90.0  /  91.0  /  91.0  /  90.0</t>
+  </si>
+  <si>
+    <t>40.77  /  40.62  /  40.8  /  41.12  /  41.15</t>
+  </si>
+  <si>
+    <t>19.98  /  21.23  /  20.53  /  19.72  /  19.14</t>
+  </si>
+  <si>
+    <t>39.18  /  38.08  /  38.6  /  39.06  /  39.64</t>
+  </si>
+  <si>
+    <t>21.0  /  19.0  /  20.0  /  20.0  /  21.0</t>
+  </si>
+  <si>
+    <t>48.24  /  48.28  /  48.46  /  48.46  /  48.2</t>
+  </si>
+  <si>
+    <t>23.07  /  23.0  /  22.79  /  22.76  /  22.38</t>
+  </si>
+  <si>
+    <t>28.63  /  28.66  /  28.67  /  28.71  /  29.35</t>
+  </si>
+  <si>
+    <t>17.0  /  17.0  /  16.0  /  16.0  /  17.0</t>
+  </si>
+  <si>
+    <t>35.65  /  35.36  /  35.42  /  35.39  /  34.11</t>
+  </si>
+  <si>
+    <t>17.0  /  17.47  /  17.48  /  17.63  /  17.72</t>
+  </si>
+  <si>
+    <t>47.25  /  47.09  /  47.02  /  46.91  /  48.09</t>
+  </si>
+  <si>
+    <t>12.0  /  12.0  /  12.0  /  12.0  /  13.0</t>
+  </si>
+  <si>
+    <t>16.83  /  16.78  /  16.8  /  16.61  /  16.5</t>
+  </si>
+  <si>
+    <t>10.86  /  10.79  /  10.8  /  11.01  /  11.03</t>
+  </si>
+  <si>
+    <t>72.25  /  72.36  /  72.32  /  72.3  /  72.41</t>
+  </si>
+  <si>
+    <t>182.0  /  182.0  /  182.0  /  178.0  /  176.0</t>
+  </si>
+  <si>
+    <t>39.59  /  39.53  /  40.41  /  40.34  /  40.96</t>
+  </si>
+  <si>
+    <t>14.66  /  14.3  /  14.44  /  14.62  /  14.92</t>
+  </si>
+  <si>
+    <t>45.68  /  46.08  /  45.06  /  44.97  /  44.05</t>
+  </si>
+  <si>
+    <t>69.0  /  73.0  /  69.0  /  70.0  /  67.0</t>
+  </si>
+  <si>
+    <t>28.57  /  28.62  /  28.68  /  28.73  /  28.59</t>
+  </si>
+  <si>
+    <t>19.84  /  19.53  /  19.49  /  19.53  /  19.03</t>
+  </si>
+  <si>
+    <t>51.52  /  51.76  /  51.76  /  51.69  /  52.31</t>
+  </si>
+  <si>
+    <t>29.0  /  29.0  /  29.0  /  29.0  /  30.0</t>
+  </si>
+  <si>
+    <t>48.67  /  48.59  /  48.41  /  48.31  /  47.95</t>
+  </si>
+  <si>
+    <t>19.72  /  19.61  /  20.04  /  20.38  /  20.55</t>
+  </si>
+  <si>
+    <t>31.56  /  31.71  /  31.47  /  31.24  /  31.44</t>
+  </si>
+  <si>
+    <t>56.0  /  56.0  /  55.0  /  54.0  /  55.0</t>
+  </si>
+  <si>
+    <t>48.12  /  48.41  /  49.35  /  49.33  /  48.95</t>
+  </si>
+  <si>
+    <t>20.22  /  20.62  /  20.29  /  19.93  /  20.01</t>
+  </si>
+  <si>
+    <t>31.59  /  30.89  /  30.29  /  30.65  /  30.99</t>
+  </si>
+  <si>
+    <t>41.0  /  40.0  /  41.0  /  43.0  /  43.0</t>
+  </si>
+  <si>
+    <t>22.13  /  22.27  /  23.01  /  23.5  /  23.35</t>
+  </si>
+  <si>
+    <t>12.41  /  12.39  /  12.24  /  12.87  /  12.86</t>
+  </si>
+  <si>
+    <t>65.38  /  65.28  /  64.67  /  63.57  /  63.71</t>
+  </si>
+  <si>
+    <t>89.0  /  88.0  /  90.0  /  89.0  /  88.0</t>
+  </si>
+  <si>
+    <t>40.74  /  40.81  /  41.01  /  41.11  /  41.19</t>
+  </si>
+  <si>
+    <t>23.62  /  23.57  /  23.48  /  23.37  /  23.13</t>
+  </si>
+  <si>
+    <t>35.57  /  35.53  /  35.45  /  35.42  /  35.59</t>
+  </si>
+  <si>
+    <t>38.0  /  38.0  /  38.0  /  38.0  /  38.0</t>
+  </si>
+  <si>
+    <t>38.51  /  37.39  /  35.9  /  35.2  /  35.69</t>
+  </si>
+  <si>
+    <t>9.52  /  9.63  /  9.72  /  10.22  /  10.34</t>
+  </si>
+  <si>
+    <t>51.88  /  52.91  /  54.31  /  54.52  /  53.89</t>
+  </si>
+  <si>
+    <t>15.0  /  16.0  /  18.0  /  18.0  /  18.0</t>
   </si>
 </sst>
 </file>
@@ -2038,14 +2359,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2405,10 +2726,10 @@
   <dimension ref="A1:AW40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="I6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K23" sqref="K23"/>
+      <selection pane="bottomRight" activeCell="AB14" sqref="AB14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2423,11 +2744,12 @@
     <col min="12" max="13" width="30.625" style="1" customWidth="1"/>
     <col min="14" max="15" width="7.625" style="1" customWidth="1"/>
     <col min="16" max="27" width="6.625" style="1" customWidth="1"/>
-    <col min="28" max="34" width="8.625" style="1" customWidth="1"/>
-    <col min="35" max="36" width="9.625" style="1" customWidth="1"/>
-    <col min="37" max="37" width="6.625" style="1" customWidth="1"/>
-    <col min="38" max="42" width="10.625" style="1" customWidth="1"/>
-    <col min="43" max="48" width="20.625" style="1" customWidth="1"/>
+    <col min="28" max="31" width="30.625" style="1" customWidth="1"/>
+    <col min="32" max="38" width="8.625" style="1" customWidth="1"/>
+    <col min="39" max="40" width="9.625" style="1" customWidth="1"/>
+    <col min="41" max="41" width="6.625" style="1" customWidth="1"/>
+    <col min="42" max="46" width="10.625" style="1" customWidth="1"/>
+    <col min="47" max="48" width="20.625" style="1" customWidth="1"/>
     <col min="49" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -2441,7 +2763,7 @@
       <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="13" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="10" t="s">
@@ -2471,11 +2793,11 @@
       <c r="M1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="N1" s="13" t="s">
-        <v>290</v>
-      </c>
-      <c r="O1" s="13" t="s">
-        <v>289</v>
+      <c r="N1" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>246</v>
       </c>
       <c r="P1" s="10" t="s">
         <v>4</v>
@@ -2491,49 +2813,61 @@
       <c r="Y1" s="10"/>
       <c r="Z1" s="3"/>
       <c r="AA1" s="3"/>
-      <c r="AB1" s="10" t="s">
+      <c r="AB1" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="AC1" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AD1" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE1" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="AF1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="AC1" s="9" t="s">
+      <c r="AG1" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="AD1" s="10" t="s">
+      <c r="AH1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="AE1" s="9" t="s">
+      <c r="AI1" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AF1" s="9" t="s">
+      <c r="AJ1" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="AG1" s="9" t="s">
+      <c r="AK1" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AH1" s="9" t="s">
+      <c r="AL1" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AI1" s="9" t="s">
+      <c r="AM1" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="AJ1" s="9" t="s">
+      <c r="AN1" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="AK1" s="9" t="s">
+      <c r="AO1" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="AL1" s="9" t="s">
+      <c r="AP1" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="AM1" s="9"/>
-      <c r="AN1" s="9"/>
-      <c r="AO1" s="9"/>
-      <c r="AP1" s="9"/>
+      <c r="AQ1" s="9"/>
+      <c r="AR1" s="9"/>
+      <c r="AS1" s="9"/>
+      <c r="AT1" s="9"/>
     </row>
     <row r="2" spans="1:48" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
-      <c r="D2" s="11"/>
+      <c r="D2" s="13"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -2589,42 +2923,34 @@
       <c r="AA2" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="AB2" s="10"/>
-      <c r="AC2" s="9"/>
-      <c r="AD2" s="10"/>
-      <c r="AE2" s="9"/>
-      <c r="AF2" s="9"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="12"/>
+      <c r="AF2" s="10"/>
       <c r="AG2" s="9"/>
-      <c r="AH2" s="9"/>
+      <c r="AH2" s="10"/>
       <c r="AI2" s="9"/>
       <c r="AJ2" s="9"/>
       <c r="AK2" s="9"/>
-      <c r="AL2" s="2">
+      <c r="AL2" s="9"/>
+      <c r="AM2" s="9"/>
+      <c r="AN2" s="9"/>
+      <c r="AO2" s="9"/>
+      <c r="AP2" s="2">
         <v>2021</v>
       </c>
-      <c r="AM2" s="2">
+      <c r="AQ2" s="2">
         <v>2020</v>
       </c>
-      <c r="AN2" s="2">
+      <c r="AR2" s="2">
         <v>2019</v>
       </c>
-      <c r="AO2" s="2">
+      <c r="AS2" s="2">
         <v>2018</v>
       </c>
-      <c r="AP2" s="2">
+      <c r="AT2" s="2">
         <v>2017</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>185</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>182</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>184</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>183</v>
       </c>
       <c r="AU2"/>
       <c r="AV2"/>
@@ -2658,16 +2984,16 @@
         <v>2.19</v>
       </c>
       <c r="J3" t="s">
-        <v>291</v>
+        <v>248</v>
       </c>
       <c r="K3" t="s">
-        <v>292</v>
+        <v>249</v>
       </c>
       <c r="L3" t="s">
-        <v>280</v>
+        <v>237</v>
       </c>
       <c r="M3" t="s">
-        <v>293</v>
+        <v>250</v>
       </c>
       <c r="N3">
         <v>0.19</v>
@@ -2675,85 +3001,97 @@
       <c r="O3">
         <v>-45.58</v>
       </c>
-      <c r="P3" s="1">
+      <c r="P3">
         <v>11</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="Q3">
         <v>35.200000000000003</v>
       </c>
-      <c r="R3" s="1">
+      <c r="R3">
         <v>12.6</v>
       </c>
-      <c r="S3" s="1">
+      <c r="S3">
         <v>40.32</v>
       </c>
-      <c r="T3" s="1">
+      <c r="T3">
         <v>14.2</v>
       </c>
-      <c r="U3" s="1">
+      <c r="U3">
         <v>45.44</v>
       </c>
-      <c r="V3" s="1">
+      <c r="V3">
         <v>15.8</v>
       </c>
-      <c r="W3" s="1">
+      <c r="W3">
         <v>50.56</v>
       </c>
-      <c r="X3" s="1">
+      <c r="X3">
         <v>17.399999999999999</v>
       </c>
-      <c r="Y3" s="1">
+      <c r="Y3">
         <v>55.68</v>
       </c>
-      <c r="Z3" s="1">
+      <c r="Z3">
         <v>19</v>
       </c>
-      <c r="AA3" s="1">
+      <c r="AA3">
         <v>60.8</v>
       </c>
-      <c r="AB3" s="1">
+      <c r="AB3" t="s">
+        <v>389</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>390</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>391</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>392</v>
+      </c>
+      <c r="AF3" s="1">
         <v>26.64</v>
       </c>
-      <c r="AC3" s="1">
+      <c r="AG3" s="1">
         <v>16.34</v>
       </c>
-      <c r="AD3" s="1">
+      <c r="AH3" s="1">
         <v>12.1</v>
       </c>
-      <c r="AE3" s="1">
+      <c r="AI3" s="1">
         <v>53.98</v>
       </c>
-      <c r="AF3" s="1">
+      <c r="AJ3" s="1">
         <v>52.93</v>
       </c>
-      <c r="AG3" s="1">
+      <c r="AK3" s="1">
         <v>0.18</v>
       </c>
-      <c r="AH3" s="1">
+      <c r="AL3" s="1">
         <v>30.27</v>
       </c>
-      <c r="AI3" s="1">
+      <c r="AM3" s="1">
         <v>1.28</v>
       </c>
-      <c r="AJ3" s="1">
+      <c r="AN3" s="1">
         <v>0.52</v>
       </c>
-      <c r="AK3" s="1">
+      <c r="AO3" s="1">
         <v>60</v>
       </c>
-      <c r="AL3" s="1" t="s">
+      <c r="AP3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AM3" s="1" t="s">
+      <c r="AQ3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AN3" s="1" t="s">
+      <c r="AR3" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AO3" s="1" t="s">
+      <c r="AS3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AP3" s="1" t="s">
+      <c r="AT3" s="1" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2786,13 +3124,13 @@
         <v>3.26</v>
       </c>
       <c r="J4" t="s">
-        <v>294</v>
+        <v>251</v>
       </c>
       <c r="K4" t="s">
-        <v>295</v>
+        <v>252</v>
       </c>
       <c r="L4" t="s">
-        <v>281</v>
+        <v>238</v>
       </c>
       <c r="M4" t="s">
         <v>160</v>
@@ -2803,85 +3141,97 @@
       <c r="O4">
         <v>-0.92</v>
       </c>
-      <c r="P4" s="1">
+      <c r="P4">
         <v>11</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="Q4">
         <v>43.23</v>
       </c>
-      <c r="R4" s="1">
+      <c r="R4">
         <v>12.2</v>
       </c>
-      <c r="S4" s="1">
+      <c r="S4">
         <v>47.95</v>
       </c>
-      <c r="T4" s="1">
+      <c r="T4">
         <v>13.4</v>
       </c>
-      <c r="U4" s="1">
+      <c r="U4">
         <v>52.66</v>
       </c>
-      <c r="V4" s="1">
+      <c r="V4">
         <v>14.6</v>
       </c>
-      <c r="W4" s="1">
+      <c r="W4">
         <v>57.38</v>
       </c>
-      <c r="X4" s="1">
+      <c r="X4">
         <v>15.8</v>
       </c>
-      <c r="Y4" s="1">
+      <c r="Y4">
         <v>62.09</v>
       </c>
-      <c r="Z4" s="1">
+      <c r="Z4">
         <v>17</v>
       </c>
-      <c r="AA4" s="1">
+      <c r="AA4">
         <v>66.81</v>
       </c>
-      <c r="AB4" s="1">
+      <c r="AB4" t="s">
+        <v>393</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>394</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>395</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>396</v>
+      </c>
+      <c r="AF4" s="1">
         <v>23.18</v>
       </c>
-      <c r="AC4" s="1">
+      <c r="AG4" s="1">
         <v>9.2799999999999994</v>
       </c>
-      <c r="AD4" s="1">
+      <c r="AH4" s="1">
         <v>17.32</v>
       </c>
-      <c r="AE4" s="1">
+      <c r="AI4" s="1">
         <v>9.73</v>
       </c>
-      <c r="AF4" s="1">
+      <c r="AJ4" s="1">
         <v>7.83</v>
       </c>
-      <c r="AG4" s="1">
+      <c r="AK4" s="1">
         <v>1.03</v>
       </c>
-      <c r="AH4" s="1">
+      <c r="AL4" s="1">
         <v>95.38</v>
       </c>
-      <c r="AI4" s="1">
+      <c r="AM4" s="1">
         <v>2.4900000000000002</v>
       </c>
-      <c r="AJ4" s="1">
+      <c r="AN4" s="1">
         <v>0.91</v>
       </c>
-      <c r="AK4" s="1">
+      <c r="AO4" s="1">
         <v>43</v>
       </c>
-      <c r="AL4" s="1" t="s">
+      <c r="AP4" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="AM4" s="1" t="s">
+      <c r="AQ4" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AN4" s="1" t="s">
+      <c r="AR4" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="AO4" s="1" t="s">
+      <c r="AS4" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="AP4" s="1" t="s">
+      <c r="AT4" s="1" t="s">
         <v>164</v>
       </c>
     </row>
@@ -2914,16 +3264,16 @@
         <v>0.94</v>
       </c>
       <c r="J5" t="s">
-        <v>296</v>
+        <v>253</v>
       </c>
       <c r="K5" t="s">
-        <v>297</v>
+        <v>254</v>
       </c>
       <c r="L5" t="s">
-        <v>282</v>
+        <v>239</v>
       </c>
       <c r="M5" t="s">
-        <v>298</v>
+        <v>255</v>
       </c>
       <c r="N5">
         <v>0.76</v>
@@ -2931,85 +3281,97 @@
       <c r="O5">
         <v>-9.83</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5">
         <v>9</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Q5">
         <v>20.43</v>
       </c>
-      <c r="R5" s="1">
+      <c r="R5">
         <v>10.6</v>
       </c>
-      <c r="S5" s="1">
+      <c r="S5">
         <v>24.06</v>
       </c>
-      <c r="T5" s="1">
+      <c r="T5">
         <v>12.2</v>
       </c>
-      <c r="U5" s="1">
+      <c r="U5">
         <v>27.69</v>
       </c>
-      <c r="V5" s="1">
+      <c r="V5">
         <v>13.8</v>
       </c>
-      <c r="W5" s="1">
+      <c r="W5">
         <v>31.33</v>
       </c>
-      <c r="X5" s="1">
+      <c r="X5">
         <v>15.4</v>
       </c>
-      <c r="Y5" s="1">
+      <c r="Y5">
         <v>34.96</v>
       </c>
-      <c r="Z5" s="1">
+      <c r="Z5">
         <v>17</v>
       </c>
-      <c r="AA5" s="1">
+      <c r="AA5">
         <v>38.590000000000003</v>
       </c>
-      <c r="AB5" s="1">
+      <c r="AB5" t="s">
+        <v>397</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>398</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>399</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>400</v>
+      </c>
+      <c r="AF5" s="1">
         <v>24.73</v>
       </c>
-      <c r="AC5" s="1">
+      <c r="AG5" s="1">
         <v>13.99</v>
       </c>
-      <c r="AD5" s="1">
+      <c r="AH5" s="1">
         <v>11.28</v>
       </c>
-      <c r="AE5" s="1">
+      <c r="AI5" s="1">
         <v>13.87</v>
       </c>
-      <c r="AF5" s="1">
+      <c r="AJ5" s="1">
         <v>11.48</v>
       </c>
-      <c r="AG5" s="1">
+      <c r="AK5" s="1">
         <v>0.24</v>
       </c>
-      <c r="AH5" s="1">
+      <c r="AL5" s="1">
         <v>100.87</v>
       </c>
-      <c r="AI5" s="1">
+      <c r="AM5" s="1">
         <v>-2.2000000000000002</v>
       </c>
-      <c r="AJ5" s="1">
+      <c r="AN5" s="1">
         <v>-3.53</v>
       </c>
-      <c r="AK5" s="1">
+      <c r="AO5" s="1">
         <v>47</v>
       </c>
-      <c r="AL5" s="1" t="s">
+      <c r="AP5" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AM5" s="1" t="s">
+      <c r="AQ5" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="AN5" s="1" t="s">
+      <c r="AR5" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="AO5" s="1" t="s">
+      <c r="AS5" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="AP5" s="1" t="s">
+      <c r="AT5" s="1" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3018,10 +3380,10 @@
         <v>1304</v>
       </c>
       <c r="B6" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C6" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D6" s="7">
         <v>11887635000</v>
@@ -3042,16 +3404,16 @@
         <v>1.35</v>
       </c>
       <c r="J6" t="s">
-        <v>299</v>
+        <v>256</v>
       </c>
       <c r="K6" t="s">
-        <v>300</v>
+        <v>257</v>
       </c>
       <c r="L6" t="s">
-        <v>283</v>
+        <v>240</v>
       </c>
       <c r="M6" t="s">
-        <v>301</v>
+        <v>258</v>
       </c>
       <c r="N6">
         <v>0.21</v>
@@ -3095,62 +3457,62 @@
       <c r="AA6">
         <v>91.4</v>
       </c>
-      <c r="AB6">
+      <c r="AB6" t="s">
+        <v>401</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>402</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>403</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>404</v>
+      </c>
+      <c r="AF6">
         <v>23.9</v>
       </c>
-      <c r="AC6">
+      <c r="AG6">
         <v>16.989999999999998</v>
       </c>
-      <c r="AD6">
+      <c r="AH6">
         <v>19.39</v>
       </c>
-      <c r="AE6">
+      <c r="AI6">
         <v>17.850000000000001</v>
       </c>
-      <c r="AF6">
+      <c r="AJ6">
         <v>14.06</v>
       </c>
-      <c r="AG6">
+      <c r="AK6">
         <v>0.87</v>
       </c>
-      <c r="AH6">
+      <c r="AL6">
         <v>95.18</v>
       </c>
-      <c r="AI6">
+      <c r="AM6">
         <v>5.37</v>
       </c>
-      <c r="AJ6">
+      <c r="AN6">
         <v>3.45</v>
       </c>
-      <c r="AK6">
+      <c r="AO6">
         <v>60</v>
       </c>
-      <c r="AL6" t="s">
+      <c r="AP6" t="s">
         <v>106</v>
       </c>
-      <c r="AM6" t="s">
+      <c r="AQ6" t="s">
         <v>85</v>
       </c>
-      <c r="AN6" t="s">
+      <c r="AR6" t="s">
         <v>121</v>
       </c>
-      <c r="AO6" t="s">
-        <v>198</v>
-      </c>
-      <c r="AP6" t="s">
-        <v>199</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>200</v>
-      </c>
-      <c r="AR6" t="s">
-        <v>201</v>
-      </c>
       <c r="AS6" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="AT6" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:48" x14ac:dyDescent="0.25">
@@ -3158,10 +3520,10 @@
         <v>1305</v>
       </c>
       <c r="B7" t="s">
-        <v>264</v>
+        <v>229</v>
       </c>
       <c r="C7" t="s">
-        <v>265</v>
+        <v>230</v>
       </c>
       <c r="D7" s="7">
         <v>5810504940</v>
@@ -3182,16 +3544,16 @@
         <v>1.85</v>
       </c>
       <c r="J7" t="s">
-        <v>302</v>
+        <v>259</v>
       </c>
       <c r="K7" t="s">
-        <v>303</v>
+        <v>260</v>
       </c>
       <c r="L7" t="s">
-        <v>284</v>
+        <v>241</v>
       </c>
       <c r="M7" t="s">
-        <v>304</v>
+        <v>261</v>
       </c>
       <c r="N7">
         <v>0.45</v>
@@ -3235,62 +3597,62 @@
       <c r="AA7">
         <v>79.680000000000007</v>
       </c>
-      <c r="AB7">
+      <c r="AB7" t="s">
+        <v>405</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>406</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>407</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>408</v>
+      </c>
+      <c r="AF7">
         <v>25.41</v>
       </c>
-      <c r="AC7">
+      <c r="AG7">
         <v>16.78</v>
       </c>
-      <c r="AD7">
+      <c r="AH7">
         <v>24.74</v>
       </c>
-      <c r="AE7">
+      <c r="AI7">
         <v>16.5</v>
       </c>
-      <c r="AF7">
+      <c r="AJ7">
         <v>13.25</v>
       </c>
-      <c r="AG7">
+      <c r="AK7">
         <v>1.29</v>
       </c>
-      <c r="AH7">
+      <c r="AL7">
         <v>101.7</v>
       </c>
-      <c r="AI7">
+      <c r="AM7">
         <v>1.93</v>
       </c>
-      <c r="AJ7">
+      <c r="AN7">
         <v>-0.39</v>
       </c>
-      <c r="AK7">
+      <c r="AO7">
         <v>57</v>
       </c>
-      <c r="AL7" t="s">
+      <c r="AP7" t="s">
         <v>162</v>
       </c>
-      <c r="AM7" t="s">
-        <v>266</v>
-      </c>
-      <c r="AN7" t="s">
-        <v>267</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>268</v>
-      </c>
-      <c r="AP7" t="s">
-        <v>269</v>
-      </c>
       <c r="AQ7" t="s">
-        <v>270</v>
+        <v>231</v>
       </c>
       <c r="AR7" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="AS7" t="s">
-        <v>272</v>
+        <v>233</v>
       </c>
       <c r="AT7" t="s">
-        <v>273</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.25">
@@ -3298,10 +3660,10 @@
         <v>1308</v>
       </c>
       <c r="B8" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="C8" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="D8" s="7">
         <v>5937439190</v>
@@ -3322,16 +3684,16 @@
         <v>1.47</v>
       </c>
       <c r="J8" t="s">
-        <v>305</v>
+        <v>262</v>
       </c>
       <c r="K8" t="s">
-        <v>306</v>
+        <v>263</v>
       </c>
       <c r="L8" t="s">
-        <v>285</v>
+        <v>242</v>
       </c>
       <c r="M8" t="s">
-        <v>307</v>
+        <v>264</v>
       </c>
       <c r="N8">
         <v>1.01</v>
@@ -3375,62 +3737,62 @@
       <c r="AA8">
         <v>100.3</v>
       </c>
-      <c r="AB8">
+      <c r="AB8" t="s">
+        <v>409</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>410</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>411</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>412</v>
+      </c>
+      <c r="AF8">
         <v>34.97</v>
       </c>
-      <c r="AC8">
+      <c r="AG8">
         <v>31.99</v>
       </c>
-      <c r="AD8">
+      <c r="AH8">
         <v>21.15</v>
       </c>
-      <c r="AE8">
+      <c r="AI8">
         <v>38.909999999999997</v>
       </c>
-      <c r="AF8">
+      <c r="AJ8">
         <v>32.46</v>
       </c>
-      <c r="AG8">
+      <c r="AK8">
         <v>0.49</v>
       </c>
-      <c r="AH8">
+      <c r="AL8">
         <v>82.22</v>
       </c>
-      <c r="AI8">
+      <c r="AM8">
         <v>2.54</v>
       </c>
-      <c r="AJ8">
+      <c r="AN8">
         <v>2.56</v>
       </c>
-      <c r="AK8">
+      <c r="AO8">
         <v>72</v>
       </c>
-      <c r="AL8" t="s">
-        <v>231</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN8" t="s">
+      <c r="AP8" t="s">
+        <v>212</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>213</v>
+      </c>
+      <c r="AR8" t="s">
         <v>121</v>
       </c>
-      <c r="AO8" t="s">
-        <v>233</v>
-      </c>
-      <c r="AP8" t="s">
-        <v>234</v>
-      </c>
-      <c r="AQ8" t="s">
-        <v>235</v>
-      </c>
-      <c r="AR8" t="s">
-        <v>236</v>
-      </c>
       <c r="AS8" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="AT8" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:48" x14ac:dyDescent="0.25">
@@ -3462,16 +3824,16 @@
         <v>0.95</v>
       </c>
       <c r="J9" t="s">
-        <v>308</v>
+        <v>265</v>
       </c>
       <c r="K9" t="s">
-        <v>309</v>
+        <v>266</v>
       </c>
       <c r="L9" t="s">
-        <v>286</v>
+        <v>243</v>
       </c>
       <c r="M9" t="s">
-        <v>310</v>
+        <v>267</v>
       </c>
       <c r="N9">
         <v>0.35</v>
@@ -3515,62 +3877,62 @@
       <c r="AA9">
         <v>86.32</v>
       </c>
-      <c r="AB9">
+      <c r="AB9" t="s">
+        <v>413</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>414</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>415</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>416</v>
+      </c>
+      <c r="AF9">
         <v>9.1999999999999993</v>
       </c>
-      <c r="AC9">
+      <c r="AG9">
         <v>5.84</v>
       </c>
-      <c r="AD9">
+      <c r="AH9">
         <v>14.89</v>
       </c>
-      <c r="AE9">
+      <c r="AI9">
         <v>6.4</v>
       </c>
-      <c r="AF9">
+      <c r="AJ9">
         <v>5.03</v>
       </c>
-      <c r="AG9">
+      <c r="AK9">
         <v>1.63</v>
       </c>
-      <c r="AH9">
+      <c r="AL9">
         <v>91.25</v>
       </c>
-      <c r="AI9">
+      <c r="AM9">
         <v>-0.67</v>
       </c>
-      <c r="AJ9">
+      <c r="AN9">
         <v>-1.21</v>
       </c>
-      <c r="AK9">
+      <c r="AO9">
         <v>40</v>
       </c>
-      <c r="AL9" t="s">
+      <c r="AP9" t="s">
         <v>106</v>
       </c>
-      <c r="AM9" t="s">
+      <c r="AQ9" t="s">
         <v>188</v>
       </c>
-      <c r="AN9" t="s">
+      <c r="AR9" t="s">
         <v>189</v>
       </c>
-      <c r="AO9" t="s">
+      <c r="AS9" t="s">
         <v>190</v>
       </c>
-      <c r="AP9" t="s">
+      <c r="AT9" t="s">
         <v>191</v>
-      </c>
-      <c r="AQ9" t="s">
-        <v>192</v>
-      </c>
-      <c r="AR9" t="s">
-        <v>193</v>
-      </c>
-      <c r="AS9" t="s">
-        <v>194</v>
-      </c>
-      <c r="AT9" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:48" x14ac:dyDescent="0.25">
@@ -3602,16 +3964,16 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>311</v>
+        <v>268</v>
       </c>
       <c r="K10" t="s">
-        <v>312</v>
+        <v>269</v>
       </c>
       <c r="L10" t="s">
-        <v>313</v>
+        <v>270</v>
       </c>
       <c r="M10" t="s">
-        <v>314</v>
+        <v>271</v>
       </c>
       <c r="N10">
         <v>1.92</v>
@@ -3619,85 +3981,97 @@
       <c r="O10" s="8">
         <v>17.579999999999998</v>
       </c>
-      <c r="P10" s="1">
+      <c r="P10">
         <v>13</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="Q10">
         <v>18.329999999999998</v>
       </c>
-      <c r="R10" s="1">
+      <c r="R10">
         <v>15.4</v>
       </c>
-      <c r="S10" s="1">
+      <c r="S10">
         <v>21.71</v>
       </c>
-      <c r="T10" s="1">
+      <c r="T10">
         <v>17.8</v>
       </c>
-      <c r="U10" s="1">
+      <c r="U10">
         <v>25.1</v>
       </c>
-      <c r="V10" s="1">
+      <c r="V10">
         <v>20.2</v>
       </c>
-      <c r="W10" s="1">
+      <c r="W10">
         <v>28.48</v>
       </c>
-      <c r="X10" s="1">
+      <c r="X10">
         <v>22.6</v>
       </c>
-      <c r="Y10" s="1">
+      <c r="Y10">
         <v>31.87</v>
       </c>
-      <c r="Z10" s="1">
+      <c r="Z10">
         <v>25</v>
       </c>
-      <c r="AA10" s="1">
+      <c r="AA10">
         <v>35.25</v>
       </c>
-      <c r="AB10" s="1">
+      <c r="AB10" t="s">
+        <v>417</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>418</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>419</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>420</v>
+      </c>
+      <c r="AF10" s="1">
         <v>16.04</v>
       </c>
-      <c r="AC10" s="1">
+      <c r="AG10" s="1">
         <v>5.23</v>
       </c>
-      <c r="AD10" s="1">
+      <c r="AH10" s="1">
         <v>8.11</v>
       </c>
-      <c r="AE10" s="1">
+      <c r="AI10" s="1">
         <v>6.05</v>
       </c>
-      <c r="AF10" s="1">
+      <c r="AJ10" s="1">
         <v>4.8099999999999996</v>
       </c>
-      <c r="AG10" s="1">
+      <c r="AK10" s="1">
         <v>0.85</v>
       </c>
-      <c r="AH10" s="1">
+      <c r="AL10" s="1">
         <v>86.45</v>
       </c>
-      <c r="AI10" s="1">
+      <c r="AM10" s="1">
         <v>0.86</v>
       </c>
-      <c r="AJ10" s="1">
+      <c r="AN10" s="1">
         <v>-0.96</v>
       </c>
-      <c r="AK10" s="1">
+      <c r="AO10" s="1">
         <v>43</v>
       </c>
-      <c r="AL10" s="1" t="s">
+      <c r="AP10" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="AM10" s="1" t="s">
+      <c r="AQ10" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AN10" s="1" t="s">
+      <c r="AR10" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="AO10" s="1" t="s">
+      <c r="AS10" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="AP10" s="1" t="s">
+      <c r="AT10" s="1" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3706,10 +4080,10 @@
         <v>1604</v>
       </c>
       <c r="B11" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="C11" t="s">
-        <v>275</v>
+        <v>236</v>
       </c>
       <c r="D11" s="7">
         <v>3872000000</v>
@@ -3730,16 +4104,16 @@
         <v>1.32</v>
       </c>
       <c r="J11" t="s">
-        <v>315</v>
+        <v>272</v>
       </c>
       <c r="K11" t="s">
-        <v>316</v>
+        <v>273</v>
       </c>
       <c r="L11" t="s">
-        <v>317</v>
+        <v>274</v>
       </c>
       <c r="M11" t="s">
-        <v>318</v>
+        <v>275</v>
       </c>
       <c r="N11">
         <v>0.64</v>
@@ -3783,62 +4157,62 @@
       <c r="AA11">
         <v>59.67</v>
       </c>
-      <c r="AB11">
+      <c r="AB11" t="s">
+        <v>421</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>422</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>423</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>424</v>
+      </c>
+      <c r="AF11">
         <v>17.72</v>
       </c>
-      <c r="AC11">
+      <c r="AG11">
         <v>7.61</v>
       </c>
-      <c r="AD11">
+      <c r="AH11">
         <v>26.03</v>
       </c>
-      <c r="AE11">
+      <c r="AI11">
         <v>26.84</v>
       </c>
-      <c r="AF11">
+      <c r="AJ11">
         <v>24.99</v>
       </c>
-      <c r="AG11">
+      <c r="AK11">
         <v>0.67</v>
       </c>
-      <c r="AH11">
+      <c r="AL11">
         <v>28.35</v>
       </c>
-      <c r="AI11">
+      <c r="AM11">
         <v>0.53</v>
       </c>
-      <c r="AJ11">
+      <c r="AN11">
         <v>4.1399999999999997</v>
       </c>
-      <c r="AK11">
+      <c r="AO11">
         <v>62</v>
       </c>
-      <c r="AL11" t="s">
+      <c r="AP11" t="s">
         <v>130</v>
       </c>
-      <c r="AM11" t="s">
+      <c r="AQ11" t="s">
         <v>93</v>
       </c>
-      <c r="AN11" t="s">
+      <c r="AR11" t="s">
         <v>127</v>
       </c>
-      <c r="AO11" t="s">
+      <c r="AS11" t="s">
         <v>188</v>
       </c>
-      <c r="AP11" t="s">
+      <c r="AT11" t="s">
         <v>127</v>
-      </c>
-      <c r="AQ11" t="s">
-        <v>276</v>
-      </c>
-      <c r="AR11" t="s">
-        <v>277</v>
-      </c>
-      <c r="AS11" t="s">
-        <v>278</v>
-      </c>
-      <c r="AT11" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="12" spans="1:48" x14ac:dyDescent="0.25">
@@ -3846,10 +4220,10 @@
         <v>1776</v>
       </c>
       <c r="B12" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="C12" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="D12" s="7">
         <v>703352990</v>
@@ -3870,16 +4244,16 @@
         <v>1.42</v>
       </c>
       <c r="J12" t="s">
-        <v>319</v>
+        <v>276</v>
       </c>
       <c r="K12" t="s">
-        <v>320</v>
+        <v>277</v>
       </c>
       <c r="L12" t="s">
-        <v>321</v>
+        <v>278</v>
       </c>
       <c r="M12" t="s">
-        <v>322</v>
+        <v>279</v>
       </c>
       <c r="N12">
         <v>2.4</v>
@@ -3923,62 +4297,62 @@
       <c r="AA12">
         <v>60</v>
       </c>
-      <c r="AB12">
+      <c r="AB12" t="s">
+        <v>425</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>426</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>427</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>205</v>
+      </c>
+      <c r="AF12">
         <v>20.57</v>
       </c>
-      <c r="AC12">
+      <c r="AG12">
         <v>7.03</v>
       </c>
-      <c r="AD12">
+      <c r="AH12">
         <v>19.61</v>
       </c>
-      <c r="AE12">
+      <c r="AI12">
         <v>7.3</v>
       </c>
-      <c r="AF12">
+      <c r="AJ12">
         <v>15.07</v>
       </c>
-      <c r="AG12">
+      <c r="AK12">
         <v>0.78</v>
       </c>
-      <c r="AH12">
+      <c r="AL12">
         <v>96.3</v>
       </c>
-      <c r="AI12">
+      <c r="AM12">
         <v>1.64</v>
       </c>
-      <c r="AJ12">
+      <c r="AN12">
         <v>7.28</v>
       </c>
-      <c r="AK12">
+      <c r="AO12">
         <v>60</v>
       </c>
-      <c r="AL12" t="s">
+      <c r="AP12" t="s">
         <v>106</v>
       </c>
-      <c r="AM12" t="s">
+      <c r="AQ12" t="s">
         <v>84</v>
       </c>
-      <c r="AN12" t="s">
+      <c r="AR12" t="s">
         <v>129</v>
       </c>
-      <c r="AO12" t="s">
+      <c r="AS12" t="s">
         <v>93</v>
       </c>
-      <c r="AP12" t="s">
+      <c r="AT12" t="s">
         <v>89</v>
-      </c>
-      <c r="AQ12" t="s">
-        <v>217</v>
-      </c>
-      <c r="AR12" t="s">
-        <v>218</v>
-      </c>
-      <c r="AS12" t="s">
-        <v>219</v>
-      </c>
-      <c r="AT12" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:48" x14ac:dyDescent="0.25">
@@ -4010,16 +4384,16 @@
         <v>1.95</v>
       </c>
       <c r="J13" t="s">
-        <v>323</v>
+        <v>280</v>
       </c>
       <c r="K13" t="s">
-        <v>324</v>
+        <v>281</v>
       </c>
       <c r="L13" t="s">
-        <v>325</v>
+        <v>282</v>
       </c>
       <c r="M13" t="s">
-        <v>326</v>
+        <v>283</v>
       </c>
       <c r="N13">
         <v>0.75</v>
@@ -4027,85 +4401,97 @@
       <c r="O13">
         <v>6.97</v>
       </c>
-      <c r="P13" s="1">
+      <c r="P13">
         <v>12</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="Q13">
         <v>42.72</v>
       </c>
-      <c r="R13" s="1">
+      <c r="R13">
         <v>14.8</v>
       </c>
-      <c r="S13" s="1">
+      <c r="S13">
         <v>52.69</v>
       </c>
-      <c r="T13" s="1">
+      <c r="T13">
         <v>17.600000000000001</v>
       </c>
-      <c r="U13" s="1">
+      <c r="U13">
         <v>62.66</v>
       </c>
-      <c r="V13" s="1">
+      <c r="V13">
         <v>20.399999999999999</v>
       </c>
-      <c r="W13" s="1">
+      <c r="W13">
         <v>72.62</v>
       </c>
-      <c r="X13" s="1">
+      <c r="X13">
         <v>23.2</v>
       </c>
-      <c r="Y13" s="1">
+      <c r="Y13">
         <v>82.59</v>
       </c>
-      <c r="Z13" s="1">
+      <c r="Z13">
         <v>26</v>
       </c>
-      <c r="AA13" s="1">
+      <c r="AA13">
         <v>92.56</v>
       </c>
-      <c r="AB13" s="1">
+      <c r="AB13" t="s">
+        <v>428</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>429</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>430</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>431</v>
+      </c>
+      <c r="AF13" s="1">
         <v>14.3</v>
       </c>
-      <c r="AC13" s="1">
+      <c r="AG13" s="1">
         <v>9.4700000000000006</v>
       </c>
-      <c r="AD13" s="1">
+      <c r="AH13" s="1">
         <v>27.47</v>
       </c>
-      <c r="AE13" s="1">
+      <c r="AI13" s="1">
         <v>16.52</v>
       </c>
-      <c r="AF13" s="1">
+      <c r="AJ13" s="1">
         <v>14.13</v>
       </c>
-      <c r="AG13" s="1">
+      <c r="AK13" s="1">
         <v>0.89</v>
       </c>
-      <c r="AH13" s="1">
+      <c r="AL13" s="1">
         <v>57.32</v>
       </c>
-      <c r="AI13" s="1">
+      <c r="AM13" s="1">
         <v>0.9</v>
       </c>
-      <c r="AJ13" s="1">
+      <c r="AN13" s="1">
         <v>1.46</v>
       </c>
-      <c r="AK13" s="1">
+      <c r="AO13" s="1">
         <v>47</v>
       </c>
-      <c r="AL13" s="1" t="s">
+      <c r="AP13" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="AM13" s="1" t="s">
+      <c r="AQ13" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="AN13" s="1" t="s">
+      <c r="AR13" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="AO13" s="1" t="s">
+      <c r="AS13" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AP13" s="1" t="s">
+      <c r="AT13" s="1" t="s">
         <v>129</v>
       </c>
     </row>
@@ -4138,16 +4524,16 @@
         <v>1.37</v>
       </c>
       <c r="J14" t="s">
-        <v>327</v>
+        <v>284</v>
       </c>
       <c r="K14" t="s">
-        <v>328</v>
+        <v>285</v>
       </c>
       <c r="L14" t="s">
-        <v>329</v>
+        <v>286</v>
       </c>
       <c r="M14" t="s">
-        <v>330</v>
+        <v>287</v>
       </c>
       <c r="N14">
         <v>0.67</v>
@@ -4155,85 +4541,97 @@
       <c r="O14">
         <v>0.63</v>
       </c>
-      <c r="P14" s="1">
+      <c r="P14">
         <v>10</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="Q14">
         <v>38.6</v>
       </c>
-      <c r="R14" s="1">
+      <c r="R14">
         <v>13.4</v>
       </c>
-      <c r="S14" s="1">
+      <c r="S14">
         <v>51.72</v>
       </c>
-      <c r="T14" s="1">
+      <c r="T14">
         <v>16.8</v>
       </c>
-      <c r="U14" s="1">
+      <c r="U14">
         <v>64.849999999999994</v>
       </c>
-      <c r="V14" s="1">
+      <c r="V14">
         <v>20.2</v>
       </c>
-      <c r="W14" s="1">
+      <c r="W14">
         <v>77.97</v>
       </c>
-      <c r="X14" s="1">
+      <c r="X14">
         <v>23.6</v>
       </c>
-      <c r="Y14" s="1">
+      <c r="Y14">
         <v>91.1</v>
       </c>
-      <c r="Z14" s="1">
+      <c r="Z14">
         <v>27</v>
       </c>
-      <c r="AA14" s="1">
+      <c r="AA14">
         <v>104.2</v>
       </c>
-      <c r="AB14" s="1">
+      <c r="AB14" t="s">
+        <v>432</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>433</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>434</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>435</v>
+      </c>
+      <c r="AF14" s="1">
         <v>13</v>
       </c>
-      <c r="AC14" s="1">
+      <c r="AG14" s="1">
         <v>6.49</v>
       </c>
-      <c r="AD14" s="1">
+      <c r="AH14" s="1">
         <v>19.260000000000002</v>
       </c>
-      <c r="AE14" s="1">
+      <c r="AI14" s="1">
         <v>6.18</v>
       </c>
-      <c r="AF14" s="1">
+      <c r="AJ14" s="1">
         <v>5.03</v>
       </c>
-      <c r="AG14" s="1">
+      <c r="AK14" s="1">
         <v>1.39</v>
       </c>
-      <c r="AH14" s="1">
+      <c r="AL14" s="1">
         <v>105.02</v>
       </c>
-      <c r="AI14" s="1">
+      <c r="AM14" s="1">
         <v>-7.36</v>
       </c>
-      <c r="AJ14" s="1">
+      <c r="AN14" s="1">
         <v>-9.52</v>
       </c>
-      <c r="AK14" s="1">
+      <c r="AO14" s="1">
         <v>34</v>
       </c>
-      <c r="AL14" s="1" t="s">
+      <c r="AP14" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="AM14" s="1" t="s">
+      <c r="AQ14" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="AN14" s="1" t="s">
+      <c r="AR14" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="AO14" s="1" t="s">
+      <c r="AS14" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="AP14" s="1" t="s">
+      <c r="AT14" s="1" t="s">
         <v>132</v>
       </c>
     </row>
@@ -4266,16 +4664,16 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="K15" t="s">
-        <v>332</v>
+        <v>289</v>
       </c>
       <c r="L15" t="s">
-        <v>333</v>
+        <v>290</v>
       </c>
       <c r="M15" t="s">
-        <v>334</v>
+        <v>291</v>
       </c>
       <c r="N15">
         <v>1.47</v>
@@ -4283,85 +4681,97 @@
       <c r="O15">
         <v>12.4</v>
       </c>
-      <c r="P15" s="1">
+      <c r="P15">
         <v>9</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="Q15">
         <v>28.98</v>
       </c>
-      <c r="R15" s="1">
+      <c r="R15">
         <v>10.199999999999999</v>
       </c>
-      <c r="S15" s="1">
+      <c r="S15">
         <v>32.840000000000003</v>
       </c>
-      <c r="T15" s="1">
+      <c r="T15">
         <v>11.4</v>
       </c>
-      <c r="U15" s="1">
+      <c r="U15">
         <v>36.71</v>
       </c>
-      <c r="V15" s="1">
+      <c r="V15">
         <v>12.6</v>
       </c>
-      <c r="W15" s="1">
+      <c r="W15">
         <v>40.57</v>
       </c>
-      <c r="X15" s="1">
+      <c r="X15">
         <v>13.8</v>
       </c>
-      <c r="Y15" s="1">
+      <c r="Y15">
         <v>44.44</v>
       </c>
-      <c r="Z15" s="1">
+      <c r="Z15">
         <v>15</v>
       </c>
-      <c r="AA15" s="1">
+      <c r="AA15">
         <v>48.3</v>
       </c>
-      <c r="AB15" s="1">
+      <c r="AB15" t="s">
+        <v>436</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>437</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>438</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>439</v>
+      </c>
+      <c r="AF15" s="1">
         <v>3.35</v>
       </c>
-      <c r="AC15" s="1">
+      <c r="AG15" s="1">
         <v>1.0900000000000001</v>
       </c>
-      <c r="AD15" s="1">
+      <c r="AH15" s="1">
         <v>11.72</v>
       </c>
-      <c r="AE15" s="1">
+      <c r="AI15" s="1">
         <v>1.49</v>
       </c>
-      <c r="AF15" s="1">
+      <c r="AJ15" s="1">
         <v>1.18</v>
       </c>
-      <c r="AG15" s="1">
+      <c r="AK15" s="1">
         <v>2.33</v>
       </c>
-      <c r="AH15" s="1">
+      <c r="AL15" s="1">
         <v>73.150000000000006</v>
       </c>
-      <c r="AI15" s="1">
+      <c r="AM15" s="1">
         <v>-5.67</v>
       </c>
-      <c r="AJ15" s="1">
+      <c r="AN15" s="1">
         <v>-7.8</v>
       </c>
-      <c r="AK15" s="1">
+      <c r="AO15" s="1">
         <v>36</v>
       </c>
-      <c r="AL15" s="1" t="s">
+      <c r="AP15" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AM15" s="1" t="s">
+      <c r="AQ15" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AN15" s="1" t="s">
+      <c r="AR15" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AO15" s="1" t="s">
+      <c r="AS15" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AP15" s="1" t="s">
+      <c r="AT15" s="1" t="s">
         <v>90</v>
       </c>
     </row>
@@ -4394,16 +4804,16 @@
         <v>1.87</v>
       </c>
       <c r="J16" t="s">
-        <v>335</v>
+        <v>292</v>
       </c>
       <c r="K16" t="s">
-        <v>336</v>
+        <v>293</v>
       </c>
       <c r="L16" t="s">
-        <v>337</v>
+        <v>294</v>
       </c>
       <c r="M16" t="s">
-        <v>338</v>
+        <v>295</v>
       </c>
       <c r="N16">
         <v>1.92</v>
@@ -4411,85 +4821,97 @@
       <c r="O16">
         <v>2.44</v>
       </c>
-      <c r="P16" s="1">
+      <c r="P16">
         <v>9</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="Q16">
         <v>90.18</v>
       </c>
-      <c r="R16" s="1">
+      <c r="R16">
         <v>10.199999999999999</v>
       </c>
-      <c r="S16" s="1">
+      <c r="S16">
         <v>102.2</v>
       </c>
-      <c r="T16" s="1">
+      <c r="T16">
         <v>11.4</v>
       </c>
-      <c r="U16" s="1">
+      <c r="U16">
         <v>114.2</v>
       </c>
-      <c r="V16" s="1">
+      <c r="V16">
         <v>12.6</v>
       </c>
-      <c r="W16" s="1">
+      <c r="W16">
         <v>126.3</v>
       </c>
-      <c r="X16" s="1">
+      <c r="X16">
         <v>13.8</v>
       </c>
-      <c r="Y16" s="1">
+      <c r="Y16">
         <v>138.30000000000001</v>
       </c>
-      <c r="Z16" s="1">
+      <c r="Z16">
         <v>15</v>
       </c>
-      <c r="AA16" s="1">
+      <c r="AA16">
         <v>150.30000000000001</v>
       </c>
-      <c r="AB16" s="1">
+      <c r="AB16" t="s">
+        <v>440</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>442</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>443</v>
+      </c>
+      <c r="AF16" s="1">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AC16" s="1">
+      <c r="AG16" s="1">
         <v>2.29</v>
       </c>
-      <c r="AD16" s="1">
+      <c r="AH16" s="1">
         <v>32.94</v>
       </c>
-      <c r="AE16" s="1">
+      <c r="AI16" s="1">
         <v>6.79</v>
       </c>
-      <c r="AF16" s="1">
+      <c r="AJ16" s="1">
         <v>5.12</v>
       </c>
-      <c r="AG16" s="1">
+      <c r="AK16" s="1">
         <v>2.25</v>
       </c>
-      <c r="AH16" s="1">
+      <c r="AL16" s="1">
         <v>33.729999999999997</v>
       </c>
-      <c r="AI16" s="1">
+      <c r="AM16" s="1">
         <v>3.64</v>
       </c>
-      <c r="AJ16" s="1">
+      <c r="AN16" s="1">
         <v>0.68</v>
       </c>
-      <c r="AK16" s="1">
+      <c r="AO16" s="1">
         <v>40</v>
       </c>
-      <c r="AL16" s="1" t="s">
+      <c r="AP16" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="AM16" s="1" t="s">
+      <c r="AQ16" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="AN16" s="1" t="s">
+      <c r="AR16" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AO16" s="1" t="s">
+      <c r="AS16" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="AP16" s="1" t="s">
+      <c r="AT16" s="1" t="s">
         <v>106</v>
       </c>
     </row>
@@ -4522,16 +4944,16 @@
         <v>1.69</v>
       </c>
       <c r="J17" t="s">
-        <v>339</v>
+        <v>296</v>
       </c>
       <c r="K17" t="s">
-        <v>340</v>
+        <v>297</v>
       </c>
       <c r="L17" t="s">
-        <v>341</v>
+        <v>298</v>
       </c>
       <c r="M17" t="s">
-        <v>342</v>
+        <v>299</v>
       </c>
       <c r="N17">
         <v>1.55</v>
@@ -4539,85 +4961,97 @@
       <c r="O17" s="8">
         <v>22.67</v>
       </c>
-      <c r="P17" s="1">
+      <c r="P17">
         <v>8</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="Q17">
         <v>36.96</v>
       </c>
-      <c r="R17" s="1">
+      <c r="R17">
         <v>10.199999999999999</v>
       </c>
-      <c r="S17" s="1">
+      <c r="S17">
         <v>47.12</v>
       </c>
-      <c r="T17" s="1">
+      <c r="T17">
         <v>12.4</v>
       </c>
-      <c r="U17" s="1">
+      <c r="U17">
         <v>57.29</v>
       </c>
-      <c r="V17" s="1">
+      <c r="V17">
         <v>14.6</v>
       </c>
-      <c r="W17" s="1">
+      <c r="W17">
         <v>67.45</v>
       </c>
-      <c r="X17" s="1">
+      <c r="X17">
         <v>16.8</v>
       </c>
-      <c r="Y17" s="1">
+      <c r="Y17">
         <v>77.62</v>
       </c>
-      <c r="Z17" s="1">
+      <c r="Z17">
         <v>19</v>
       </c>
-      <c r="AA17" s="1">
+      <c r="AA17">
         <v>87.78</v>
       </c>
-      <c r="AB17" s="1">
+      <c r="AB17" t="s">
+        <v>444</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>445</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>446</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>447</v>
+      </c>
+      <c r="AF17" s="1">
         <v>14.67</v>
       </c>
-      <c r="AC17" s="1">
+      <c r="AG17" s="1">
         <v>3.42</v>
       </c>
-      <c r="AD17" s="1">
+      <c r="AH17" s="1">
         <v>20.170000000000002</v>
       </c>
-      <c r="AE17" s="1">
+      <c r="AI17" s="1">
         <v>6.69</v>
       </c>
-      <c r="AF17" s="1">
+      <c r="AJ17" s="1">
         <v>5.45</v>
       </c>
-      <c r="AG17" s="1">
+      <c r="AK17" s="1">
         <v>1.24</v>
       </c>
-      <c r="AH17" s="1">
+      <c r="AL17" s="1">
         <v>51.12</v>
       </c>
-      <c r="AI17" s="1">
+      <c r="AM17" s="1">
         <v>-1.7</v>
       </c>
-      <c r="AJ17" s="1">
+      <c r="AN17" s="1">
         <v>-5.0199999999999996</v>
       </c>
-      <c r="AK17" s="1">
+      <c r="AO17" s="1">
         <v>40</v>
       </c>
-      <c r="AL17" s="1" t="s">
+      <c r="AP17" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AM17" s="1" t="s">
+      <c r="AQ17" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="AN17" s="1" t="s">
+      <c r="AR17" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="AO17" s="1" t="s">
+      <c r="AS17" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="AP17" s="1" t="s">
+      <c r="AT17" s="1" t="s">
         <v>96</v>
       </c>
     </row>
@@ -4650,16 +5084,16 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="J18" t="s">
-        <v>343</v>
+        <v>300</v>
       </c>
       <c r="K18" t="s">
-        <v>344</v>
+        <v>301</v>
       </c>
       <c r="L18" t="s">
-        <v>345</v>
+        <v>302</v>
       </c>
       <c r="M18" t="s">
-        <v>346</v>
+        <v>303</v>
       </c>
       <c r="N18">
         <v>0.98</v>
@@ -4667,85 +5101,97 @@
       <c r="O18">
         <v>5.3</v>
       </c>
-      <c r="P18" s="1">
+      <c r="P18">
         <v>10</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="Q18">
         <v>81.2</v>
       </c>
-      <c r="R18" s="1">
+      <c r="R18">
         <v>11</v>
       </c>
-      <c r="S18" s="1">
+      <c r="S18">
         <v>89.32</v>
       </c>
-      <c r="T18" s="1">
+      <c r="T18">
         <v>12</v>
       </c>
-      <c r="U18" s="1">
+      <c r="U18">
         <v>97.44</v>
       </c>
-      <c r="V18" s="1">
+      <c r="V18">
         <v>13</v>
       </c>
-      <c r="W18" s="1">
+      <c r="W18">
         <v>105.6</v>
       </c>
-      <c r="X18" s="1">
+      <c r="X18">
         <v>14</v>
       </c>
-      <c r="Y18" s="1">
+      <c r="Y18">
         <v>113.7</v>
       </c>
-      <c r="Z18" s="1">
+      <c r="Z18">
         <v>15</v>
       </c>
-      <c r="AA18" s="1">
+      <c r="AA18">
         <v>121.8</v>
       </c>
-      <c r="AB18" s="1">
+      <c r="AB18" t="s">
+        <v>448</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>449</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>450</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>451</v>
+      </c>
+      <c r="AF18" s="1">
         <v>17.55</v>
       </c>
-      <c r="AC18" s="1">
+      <c r="AG18" s="1">
         <v>7.9</v>
       </c>
-      <c r="AD18" s="1">
+      <c r="AH18" s="1">
         <v>22.24</v>
       </c>
-      <c r="AE18" s="1">
+      <c r="AI18" s="1">
         <v>8.7799999999999994</v>
       </c>
-      <c r="AF18" s="1">
+      <c r="AJ18" s="1">
         <v>7.09</v>
       </c>
-      <c r="AG18" s="1">
+      <c r="AK18" s="1">
         <v>1.32</v>
       </c>
-      <c r="AH18" s="1">
+      <c r="AL18" s="1">
         <v>89.98</v>
       </c>
-      <c r="AI18" s="1">
+      <c r="AM18" s="1">
         <v>4.0599999999999996</v>
       </c>
-      <c r="AJ18" s="1">
+      <c r="AN18" s="1">
         <v>1.1399999999999999</v>
       </c>
-      <c r="AK18" s="1">
+      <c r="AO18" s="1">
         <v>38</v>
       </c>
-      <c r="AL18" s="1" t="s">
+      <c r="AP18" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="AM18" s="1" t="s">
+      <c r="AQ18" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="AN18" s="1" t="s">
+      <c r="AR18" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="AO18" s="1" t="s">
+      <c r="AS18" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="AP18" s="1" t="s">
+      <c r="AT18" s="1" t="s">
         <v>168</v>
       </c>
     </row>
@@ -4754,10 +5200,10 @@
         <v>2387</v>
       </c>
       <c r="B19" t="s">
-        <v>256</v>
+        <v>225</v>
       </c>
       <c r="C19" t="s">
-        <v>257</v>
+        <v>226</v>
       </c>
       <c r="D19" s="7">
         <v>1952510510</v>
@@ -4778,16 +5224,16 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="J19" t="s">
-        <v>347</v>
+        <v>304</v>
       </c>
       <c r="K19" t="s">
-        <v>348</v>
+        <v>305</v>
       </c>
       <c r="L19" t="s">
-        <v>349</v>
+        <v>306</v>
       </c>
       <c r="M19" t="s">
-        <v>350</v>
+        <v>307</v>
       </c>
       <c r="N19">
         <v>0.67</v>
@@ -4831,62 +5277,62 @@
       <c r="AA19">
         <v>147</v>
       </c>
-      <c r="AB19">
+      <c r="AB19" t="s">
+        <v>452</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>453</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>454</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>455</v>
+      </c>
+      <c r="AF19">
         <v>12.93</v>
       </c>
-      <c r="AC19">
+      <c r="AG19">
         <v>7.05</v>
       </c>
-      <c r="AD19">
+      <c r="AH19">
         <v>12.98</v>
       </c>
-      <c r="AE19">
+      <c r="AI19">
         <v>6.67</v>
       </c>
-      <c r="AF19">
+      <c r="AJ19">
         <v>4.84</v>
       </c>
-      <c r="AG19">
+      <c r="AK19">
         <v>1.06</v>
       </c>
-      <c r="AH19">
+      <c r="AL19">
         <v>105.7</v>
       </c>
-      <c r="AI19">
+      <c r="AM19">
         <v>4.08</v>
       </c>
-      <c r="AJ19">
+      <c r="AN19">
         <v>-3.91</v>
       </c>
-      <c r="AK19">
+      <c r="AO19">
         <v>40</v>
       </c>
-      <c r="AL19" t="s">
+      <c r="AP19" t="s">
         <v>99</v>
       </c>
-      <c r="AM19" t="s">
+      <c r="AQ19" t="s">
         <v>106</v>
       </c>
-      <c r="AN19" t="s">
-        <v>258</v>
-      </c>
-      <c r="AO19" t="s">
+      <c r="AR19" t="s">
+        <v>227</v>
+      </c>
+      <c r="AS19" t="s">
         <v>120</v>
       </c>
-      <c r="AP19" t="s">
-        <v>259</v>
-      </c>
-      <c r="AQ19" t="s">
-        <v>260</v>
-      </c>
-      <c r="AR19" t="s">
-        <v>261</v>
-      </c>
-      <c r="AS19" t="s">
-        <v>262</v>
-      </c>
       <c r="AT19" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
@@ -4918,16 +5364,16 @@
         <v>1.55</v>
       </c>
       <c r="J20" t="s">
-        <v>351</v>
+        <v>308</v>
       </c>
       <c r="K20" t="s">
-        <v>352</v>
+        <v>309</v>
       </c>
       <c r="L20" t="s">
-        <v>353</v>
+        <v>310</v>
       </c>
       <c r="M20" t="s">
-        <v>354</v>
+        <v>311</v>
       </c>
       <c r="N20">
         <v>1.2</v>
@@ -4935,85 +5381,97 @@
       <c r="O20">
         <v>0.76</v>
       </c>
-      <c r="P20" s="1">
+      <c r="P20">
         <v>13</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="Q20">
         <v>28.34</v>
       </c>
-      <c r="R20" s="1">
+      <c r="R20">
         <v>16.399999999999999</v>
       </c>
-      <c r="S20" s="1">
+      <c r="S20">
         <v>35.75</v>
       </c>
-      <c r="T20" s="1">
+      <c r="T20">
         <v>19.8</v>
       </c>
-      <c r="U20" s="1">
+      <c r="U20">
         <v>43.16</v>
       </c>
-      <c r="V20" s="1">
+      <c r="V20">
         <v>23.2</v>
       </c>
-      <c r="W20" s="1">
+      <c r="W20">
         <v>50.58</v>
       </c>
-      <c r="X20" s="1">
+      <c r="X20">
         <v>26.6</v>
       </c>
-      <c r="Y20" s="1">
+      <c r="Y20">
         <v>57.99</v>
       </c>
-      <c r="Z20" s="1">
+      <c r="Z20">
         <v>30</v>
       </c>
-      <c r="AA20" s="1">
+      <c r="AA20">
         <v>65.400000000000006</v>
       </c>
-      <c r="AB20" s="1">
+      <c r="AB20" t="s">
+        <v>456</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>457</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>458</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>459</v>
+      </c>
+      <c r="AF20" s="1">
         <v>48.85</v>
       </c>
-      <c r="AC20" s="1">
+      <c r="AG20" s="1">
         <v>12.06</v>
       </c>
-      <c r="AD20" s="1">
+      <c r="AH20" s="1">
         <v>9.5399999999999991</v>
       </c>
-      <c r="AE20" s="1">
+      <c r="AI20" s="1">
         <v>12.15</v>
       </c>
-      <c r="AF20" s="1">
+      <c r="AJ20" s="1">
         <v>9.57</v>
       </c>
-      <c r="AG20" s="1">
+      <c r="AK20" s="1">
         <v>0.67</v>
       </c>
-      <c r="AH20" s="1">
+      <c r="AL20" s="1">
         <v>99.26</v>
       </c>
-      <c r="AI20" s="1">
+      <c r="AM20" s="1">
         <v>0.98</v>
       </c>
-      <c r="AJ20" s="1">
+      <c r="AN20" s="1">
         <v>-0.77</v>
       </c>
-      <c r="AK20" s="1">
+      <c r="AO20" s="1">
         <v>60</v>
       </c>
-      <c r="AL20" s="1" t="s">
+      <c r="AP20" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AM20" s="1" t="s">
+      <c r="AQ20" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AN20" s="1" t="s">
+      <c r="AR20" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AO20" s="1" t="s">
+      <c r="AS20" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AP20" s="1" t="s">
+      <c r="AT20" s="1" t="s">
         <v>100</v>
       </c>
     </row>
@@ -5046,16 +5504,16 @@
         <v>4.96</v>
       </c>
       <c r="J21" t="s">
-        <v>355</v>
+        <v>312</v>
       </c>
       <c r="K21" t="s">
-        <v>356</v>
+        <v>313</v>
       </c>
       <c r="L21" t="s">
-        <v>357</v>
+        <v>314</v>
       </c>
       <c r="M21" t="s">
-        <v>358</v>
+        <v>315</v>
       </c>
       <c r="N21" s="8">
         <v>3.43</v>
@@ -5063,89 +5521,101 @@
       <c r="O21" s="8">
         <v>19.559999999999999</v>
       </c>
-      <c r="P21" s="1">
+      <c r="P21">
         <v>12</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="Q21">
         <v>205.2</v>
       </c>
-      <c r="R21" s="1">
+      <c r="R21">
         <v>14.2</v>
       </c>
-      <c r="S21" s="1">
+      <c r="S21">
         <v>242.8</v>
       </c>
-      <c r="T21" s="1">
+      <c r="T21">
         <v>16.399999999999999</v>
       </c>
-      <c r="U21" s="1">
+      <c r="U21">
         <v>280.39999999999998</v>
       </c>
-      <c r="V21" s="1">
+      <c r="V21">
         <v>18.600000000000001</v>
       </c>
-      <c r="W21" s="1">
+      <c r="W21">
         <v>318.10000000000002</v>
       </c>
-      <c r="X21" s="1">
+      <c r="X21">
         <v>20.8</v>
       </c>
-      <c r="Y21" s="1">
+      <c r="Y21">
         <v>355.7</v>
       </c>
-      <c r="Z21" s="1">
+      <c r="Z21">
         <v>23</v>
       </c>
-      <c r="AA21" s="1">
+      <c r="AA21">
         <v>393.3</v>
       </c>
-      <c r="AB21" s="1">
+      <c r="AB21" t="s">
+        <v>460</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>461</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>462</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>463</v>
+      </c>
+      <c r="AF21" s="1">
         <v>49.84</v>
       </c>
-      <c r="AC21" s="1">
+      <c r="AG21" s="1">
         <v>31.99</v>
       </c>
-      <c r="AD21" s="1">
+      <c r="AH21" s="1">
         <v>52.13</v>
       </c>
-      <c r="AE21" s="1">
+      <c r="AI21" s="1">
         <v>32.97</v>
       </c>
-      <c r="AF21" s="1">
+      <c r="AJ21" s="1">
         <v>26.28</v>
       </c>
-      <c r="AG21" s="1">
+      <c r="AK21" s="1">
         <v>1.23</v>
       </c>
-      <c r="AH21" s="1">
+      <c r="AL21" s="1">
         <v>97.03</v>
       </c>
-      <c r="AI21" s="1">
+      <c r="AM21" s="1">
         <v>12.18</v>
       </c>
-      <c r="AJ21" s="1">
+      <c r="AN21" s="1">
         <v>18.04</v>
       </c>
-      <c r="AK21" s="1">
+      <c r="AO21" s="1">
         <v>74</v>
       </c>
-      <c r="AL21" s="1" t="s">
+      <c r="AP21" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="AM21" s="1" t="s">
+      <c r="AQ21" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="AN21" s="1" t="s">
+      <c r="AR21" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="AO21" s="1" t="s">
+      <c r="AS21" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="AP21" s="1" t="s">
+      <c r="AT21" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="22" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2467</v>
       </c>
@@ -5174,16 +5644,16 @@
         <v>2.97</v>
       </c>
       <c r="J22" t="s">
-        <v>359</v>
+        <v>316</v>
       </c>
       <c r="K22" t="s">
-        <v>360</v>
+        <v>317</v>
       </c>
       <c r="L22" t="s">
-        <v>361</v>
+        <v>318</v>
       </c>
       <c r="M22" t="s">
-        <v>362</v>
+        <v>319</v>
       </c>
       <c r="N22">
         <v>0.56000000000000005</v>
@@ -5227,55 +5697,63 @@
       <c r="AA22">
         <v>83.2</v>
       </c>
-      <c r="AB22">
+      <c r="AB22" t="s">
+        <v>464</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>465</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>466</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>205</v>
+      </c>
+      <c r="AF22">
         <v>34.07</v>
       </c>
-      <c r="AC22">
+      <c r="AG22">
         <v>12.91</v>
       </c>
-      <c r="AD22">
+      <c r="AH22">
         <v>26.43</v>
       </c>
-      <c r="AE22">
+      <c r="AI22">
         <v>15.84</v>
       </c>
-      <c r="AF22">
+      <c r="AJ22">
         <v>12.85</v>
       </c>
-      <c r="AG22">
+      <c r="AK22">
         <v>0.8</v>
       </c>
-      <c r="AH22">
+      <c r="AL22">
         <v>81.5</v>
       </c>
-      <c r="AI22">
+      <c r="AM22">
         <v>2.44</v>
       </c>
-      <c r="AJ22">
+      <c r="AN22">
         <v>-2.57</v>
       </c>
-      <c r="AK22">
+      <c r="AO22">
         <v>57</v>
       </c>
-      <c r="AL22" t="s">
+      <c r="AP22" t="s">
         <v>181</v>
       </c>
-      <c r="AM22" t="s">
+      <c r="AQ22" t="s">
         <v>130</v>
       </c>
-      <c r="AN22" t="s">
+      <c r="AR22" t="s">
         <v>130</v>
       </c>
-      <c r="AO22" t="s">
+      <c r="AS22" t="s">
         <v>93</v>
       </c>
-      <c r="AP22" t="s">
+      <c r="AT22" t="s">
         <v>85</v>
       </c>
-      <c r="AQ22"/>
-      <c r="AR22"/>
-      <c r="AS22"/>
-      <c r="AT22"/>
     </row>
     <row r="23" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
@@ -5306,16 +5784,16 @@
         <v>1.21</v>
       </c>
       <c r="J23" t="s">
-        <v>363</v>
+        <v>320</v>
       </c>
       <c r="K23" t="s">
-        <v>364</v>
+        <v>321</v>
       </c>
       <c r="L23" t="s">
-        <v>365</v>
+        <v>322</v>
       </c>
       <c r="M23" t="s">
-        <v>366</v>
+        <v>323</v>
       </c>
       <c r="N23">
         <v>0.42</v>
@@ -5323,85 +5801,97 @@
       <c r="O23">
         <v>-17.61</v>
       </c>
-      <c r="P23" s="1">
+      <c r="P23">
         <v>7</v>
       </c>
-      <c r="Q23" s="1">
+      <c r="Q23">
         <v>59.57</v>
       </c>
-      <c r="R23" s="1">
+      <c r="R23">
         <v>8.4</v>
       </c>
-      <c r="S23" s="1">
+      <c r="S23">
         <v>71.48</v>
       </c>
-      <c r="T23" s="1">
+      <c r="T23">
         <v>9.8000000000000007</v>
       </c>
-      <c r="U23" s="1">
+      <c r="U23">
         <v>83.4</v>
       </c>
-      <c r="V23" s="1">
+      <c r="V23">
         <v>11.2</v>
       </c>
-      <c r="W23" s="1">
+      <c r="W23">
         <v>95.31</v>
       </c>
-      <c r="X23" s="1">
+      <c r="X23">
         <v>12.6</v>
       </c>
-      <c r="Y23" s="1">
+      <c r="Y23">
         <v>107.2</v>
       </c>
-      <c r="Z23" s="1">
+      <c r="Z23">
         <v>14</v>
       </c>
-      <c r="AA23" s="1">
+      <c r="AA23">
         <v>119.1</v>
       </c>
-      <c r="AB23" s="1">
+      <c r="AB23" t="s">
+        <v>467</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>468</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>469</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>470</v>
+      </c>
+      <c r="AF23" s="1">
         <v>26.73</v>
       </c>
-      <c r="AC23" s="1">
+      <c r="AG23" s="1">
         <v>19.5</v>
       </c>
-      <c r="AD23" s="1">
+      <c r="AH23" s="1">
         <v>21.09</v>
       </c>
-      <c r="AE23" s="1">
+      <c r="AI23" s="1">
         <v>18.899999999999999</v>
       </c>
-      <c r="AF23" s="1">
+      <c r="AJ23" s="1">
         <v>15.12</v>
       </c>
-      <c r="AG23" s="1">
+      <c r="AK23" s="1">
         <v>0.46</v>
       </c>
-      <c r="AH23" s="1">
+      <c r="AL23" s="1">
         <v>103.17</v>
       </c>
-      <c r="AI23" s="1">
+      <c r="AM23" s="1">
         <v>10.72</v>
       </c>
-      <c r="AJ23" s="1">
+      <c r="AN23" s="1">
         <v>10.69</v>
       </c>
-      <c r="AK23" s="1">
+      <c r="AO23" s="1">
         <v>53</v>
       </c>
-      <c r="AL23" s="1" t="s">
+      <c r="AP23" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="AM23" s="1" t="s">
+      <c r="AQ23" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AN23" s="1" t="s">
+      <c r="AR23" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="AO23" s="1" t="s">
+      <c r="AS23" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="AP23" s="1" t="s">
+      <c r="AT23" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -5434,13 +5924,13 @@
         <v>1.58</v>
       </c>
       <c r="J24" t="s">
-        <v>367</v>
+        <v>324</v>
       </c>
       <c r="K24" t="s">
-        <v>368</v>
+        <v>325</v>
       </c>
       <c r="L24" t="s">
-        <v>369</v>
+        <v>326</v>
       </c>
       <c r="M24" t="s">
         <v>159</v>
@@ -5451,85 +5941,97 @@
       <c r="O24">
         <v>8.76</v>
       </c>
-      <c r="P24" s="1">
+      <c r="P24">
         <v>7</v>
       </c>
-      <c r="Q24" s="1">
+      <c r="Q24">
         <v>49.21</v>
       </c>
-      <c r="R24" s="1">
+      <c r="R24">
         <v>8</v>
       </c>
-      <c r="S24" s="1">
+      <c r="S24">
         <v>56.24</v>
       </c>
-      <c r="T24" s="1">
+      <c r="T24">
         <v>9</v>
       </c>
-      <c r="U24" s="1">
+      <c r="U24">
         <v>63.27</v>
       </c>
-      <c r="V24" s="1">
+      <c r="V24">
         <v>10</v>
       </c>
-      <c r="W24" s="1">
+      <c r="W24">
         <v>70.3</v>
       </c>
-      <c r="X24" s="1">
+      <c r="X24">
         <v>11</v>
       </c>
-      <c r="Y24" s="1">
+      <c r="Y24">
         <v>77.33</v>
       </c>
-      <c r="Z24" s="1">
+      <c r="Z24">
         <v>12</v>
       </c>
-      <c r="AA24" s="1">
+      <c r="AA24">
         <v>84.36</v>
       </c>
-      <c r="AB24" s="1">
+      <c r="AB24" t="s">
+        <v>471</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>472</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>473</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>474</v>
+      </c>
+      <c r="AF24" s="1">
         <v>11.23</v>
       </c>
-      <c r="AC24" s="1">
+      <c r="AG24" s="1">
         <v>8.3800000000000008</v>
       </c>
-      <c r="AD24" s="1">
+      <c r="AH24" s="1">
         <v>23.02</v>
       </c>
-      <c r="AE24" s="1">
+      <c r="AI24" s="1">
         <v>9.17</v>
       </c>
-      <c r="AF24" s="1">
+      <c r="AJ24" s="1">
         <v>7.35</v>
       </c>
-      <c r="AG24" s="1">
+      <c r="AK24" s="1">
         <v>1.07</v>
       </c>
-      <c r="AH24" s="1">
+      <c r="AL24" s="1">
         <v>91.38</v>
       </c>
-      <c r="AI24" s="1">
+      <c r="AM24" s="1">
         <v>5.88</v>
       </c>
-      <c r="AJ24" s="1">
+      <c r="AN24" s="1">
         <v>5.85</v>
       </c>
-      <c r="AK24" s="1">
+      <c r="AO24" s="1">
         <v>45</v>
       </c>
-      <c r="AL24" s="1" t="s">
+      <c r="AP24" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="AM24" s="1" t="s">
+      <c r="AQ24" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="AN24" s="1" t="s">
+      <c r="AR24" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="AO24" s="1" t="s">
+      <c r="AS24" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="AP24" s="1" t="s">
+      <c r="AT24" s="1" t="s">
         <v>93</v>
       </c>
     </row>
@@ -5562,16 +6064,16 @@
         <v>1.1399999999999999</v>
       </c>
       <c r="J25" t="s">
-        <v>370</v>
+        <v>327</v>
       </c>
       <c r="K25" t="s">
-        <v>371</v>
+        <v>328</v>
       </c>
       <c r="L25" t="s">
-        <v>372</v>
+        <v>329</v>
       </c>
       <c r="M25" t="s">
-        <v>373</v>
+        <v>330</v>
       </c>
       <c r="N25">
         <v>1.1599999999999999</v>
@@ -5579,85 +6081,97 @@
       <c r="O25" s="8">
         <v>20.04</v>
       </c>
-      <c r="P25" s="1">
+      <c r="P25">
         <v>7</v>
       </c>
-      <c r="Q25" s="1">
+      <c r="Q25">
         <v>92.68</v>
       </c>
-      <c r="R25" s="1">
+      <c r="R25">
         <v>7.8</v>
       </c>
-      <c r="S25" s="1">
+      <c r="S25">
         <v>103.3</v>
       </c>
-      <c r="T25" s="1">
+      <c r="T25">
         <v>8.6</v>
       </c>
-      <c r="U25" s="1">
+      <c r="U25">
         <v>113.9</v>
       </c>
-      <c r="V25" s="1">
+      <c r="V25">
         <v>9.4</v>
       </c>
-      <c r="W25" s="1">
+      <c r="W25">
         <v>124.5</v>
       </c>
-      <c r="X25" s="1">
+      <c r="X25">
         <v>10.199999999999999</v>
       </c>
-      <c r="Y25" s="1">
+      <c r="Y25">
         <v>135</v>
       </c>
-      <c r="Z25" s="1">
+      <c r="Z25">
         <v>11</v>
       </c>
-      <c r="AA25" s="1">
+      <c r="AA25">
         <v>145.6</v>
       </c>
-      <c r="AB25" s="1">
+      <c r="AB25" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>478</v>
+      </c>
+      <c r="AF25" s="1">
         <v>0</v>
       </c>
-      <c r="AC25" s="1">
+      <c r="AG25" s="1">
         <v>0</v>
       </c>
-      <c r="AD25" s="1">
+      <c r="AH25" s="1">
         <v>21.39</v>
       </c>
-      <c r="AE25" s="1">
+      <c r="AI25" s="1">
         <v>39.32</v>
       </c>
-      <c r="AF25" s="1">
+      <c r="AJ25" s="1">
         <v>34.96</v>
       </c>
-      <c r="AG25" s="1">
+      <c r="AK25" s="1">
         <v>0.05</v>
       </c>
-      <c r="AH25" s="1">
+      <c r="AL25" s="1">
         <v>0</v>
       </c>
-      <c r="AI25" s="1">
+      <c r="AM25" s="1">
         <v>5.0999999999999996</v>
       </c>
-      <c r="AJ25" s="1">
+      <c r="AN25" s="1">
         <v>4.46</v>
       </c>
-      <c r="AK25" s="1">
+      <c r="AO25" s="1">
         <v>56</v>
       </c>
-      <c r="AL25" s="1" t="s">
+      <c r="AP25" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="AM25" s="1" t="s">
+      <c r="AQ25" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AN25" s="1" t="s">
+      <c r="AR25" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AO25" s="1" t="s">
+      <c r="AS25" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="AP25" s="1" t="s">
+      <c r="AT25" s="1" t="s">
         <v>99</v>
       </c>
     </row>
@@ -5690,16 +6204,16 @@
         <v>1.91</v>
       </c>
       <c r="J26" t="s">
-        <v>374</v>
+        <v>331</v>
       </c>
       <c r="K26" t="s">
-        <v>375</v>
+        <v>332</v>
       </c>
       <c r="L26" t="s">
-        <v>376</v>
+        <v>333</v>
       </c>
       <c r="M26" t="s">
-        <v>377</v>
+        <v>334</v>
       </c>
       <c r="N26">
         <v>0.28999999999999998</v>
@@ -5707,85 +6221,97 @@
       <c r="O26">
         <v>-21.66</v>
       </c>
-      <c r="P26" s="1">
+      <c r="P26">
         <v>10</v>
       </c>
-      <c r="Q26" s="1">
+      <c r="Q26">
         <v>73</v>
       </c>
-      <c r="R26" s="1">
+      <c r="R26">
         <v>11.4</v>
       </c>
-      <c r="S26" s="1">
+      <c r="S26">
         <v>83.22</v>
       </c>
-      <c r="T26" s="1">
+      <c r="T26">
         <v>12.8</v>
       </c>
-      <c r="U26" s="1">
+      <c r="U26">
         <v>93.44</v>
       </c>
-      <c r="V26" s="1">
+      <c r="V26">
         <v>14.2</v>
       </c>
-      <c r="W26" s="1">
+      <c r="W26">
         <v>103.7</v>
       </c>
-      <c r="X26" s="1">
+      <c r="X26">
         <v>15.6</v>
       </c>
-      <c r="Y26" s="1">
+      <c r="Y26">
         <v>113.9</v>
       </c>
-      <c r="Z26" s="1">
+      <c r="Z26">
         <v>17</v>
       </c>
-      <c r="AA26" s="1">
+      <c r="AA26">
         <v>124.1</v>
       </c>
-      <c r="AB26" s="1">
+      <c r="AB26" t="s">
+        <v>479</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>480</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>481</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>482</v>
+      </c>
+      <c r="AF26" s="1">
         <v>24.89</v>
       </c>
-      <c r="AC26" s="1">
+      <c r="AG26" s="1">
         <v>8.01</v>
       </c>
-      <c r="AD26" s="1">
+      <c r="AH26" s="1">
         <v>25.54</v>
       </c>
-      <c r="AE26" s="1">
+      <c r="AI26" s="1">
         <v>20.46</v>
       </c>
-      <c r="AF26" s="1">
+      <c r="AJ26" s="1">
         <v>15.77</v>
       </c>
-      <c r="AG26" s="1">
+      <c r="AK26" s="1">
         <v>0.86</v>
       </c>
-      <c r="AH26" s="1">
+      <c r="AL26" s="1">
         <v>39.15</v>
       </c>
-      <c r="AI26" s="1">
+      <c r="AM26" s="1">
         <v>0.9</v>
       </c>
-      <c r="AJ26" s="1">
+      <c r="AN26" s="1">
         <v>4.0599999999999996</v>
       </c>
-      <c r="AK26" s="1">
+      <c r="AO26" s="1">
         <v>57</v>
       </c>
-      <c r="AL26" s="1" t="s">
+      <c r="AP26" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="AM26" s="1" t="s">
+      <c r="AQ26" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="AN26" s="1" t="s">
+      <c r="AR26" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="AO26" s="1" t="s">
+      <c r="AS26" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="AP26" s="1" t="s">
+      <c r="AT26" s="1" t="s">
         <v>124</v>
       </c>
     </row>
@@ -5794,10 +6320,10 @@
         <v>3028</v>
       </c>
       <c r="B27" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="C27" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="D27" s="7">
         <v>2138248640</v>
@@ -5818,16 +6344,16 @@
         <v>1.39</v>
       </c>
       <c r="J27" t="s">
-        <v>378</v>
+        <v>335</v>
       </c>
       <c r="K27" t="s">
-        <v>379</v>
+        <v>336</v>
       </c>
       <c r="L27" t="s">
-        <v>380</v>
+        <v>337</v>
       </c>
       <c r="M27" t="s">
-        <v>381</v>
+        <v>338</v>
       </c>
       <c r="N27">
         <v>0.89</v>
@@ -5871,62 +6397,62 @@
       <c r="AA27">
         <v>58.05</v>
       </c>
-      <c r="AB27">
+      <c r="AB27" t="s">
+        <v>483</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>484</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>485</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>486</v>
+      </c>
+      <c r="AF27">
         <v>5.93</v>
       </c>
-      <c r="AC27">
+      <c r="AG27">
         <v>2.59</v>
       </c>
-      <c r="AD27">
+      <c r="AH27">
         <v>18.72</v>
       </c>
-      <c r="AE27">
+      <c r="AI27">
         <v>2.64</v>
       </c>
-      <c r="AF27">
+      <c r="AJ27">
         <v>2.19</v>
       </c>
-      <c r="AG27">
+      <c r="AK27">
         <v>2.15</v>
       </c>
-      <c r="AH27">
+      <c r="AL27">
         <v>98.11</v>
       </c>
-      <c r="AI27">
+      <c r="AM27">
         <v>-1.74</v>
       </c>
-      <c r="AJ27">
+      <c r="AN27">
         <v>-1.7</v>
       </c>
-      <c r="AK27">
+      <c r="AO27">
         <v>30</v>
       </c>
-      <c r="AL27" t="s">
-        <v>223</v>
-      </c>
-      <c r="AM27" t="s">
+      <c r="AP27" t="s">
+        <v>208</v>
+      </c>
+      <c r="AQ27" t="s">
         <v>106</v>
       </c>
-      <c r="AN27" t="s">
+      <c r="AR27" t="s">
         <v>125</v>
       </c>
-      <c r="AO27" t="s">
-        <v>224</v>
-      </c>
-      <c r="AP27" t="s">
+      <c r="AS27" t="s">
+        <v>209</v>
+      </c>
+      <c r="AT27" t="s">
         <v>93</v>
-      </c>
-      <c r="AQ27" t="s">
-        <v>225</v>
-      </c>
-      <c r="AR27" t="s">
-        <v>226</v>
-      </c>
-      <c r="AS27" t="s">
-        <v>227</v>
-      </c>
-      <c r="AT27" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="28" spans="1:49" x14ac:dyDescent="0.25">
@@ -5934,10 +6460,10 @@
         <v>3033</v>
       </c>
       <c r="B28" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C28" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="D28" s="7">
         <v>3990554430</v>
@@ -5958,16 +6484,16 @@
         <v>1.69</v>
       </c>
       <c r="J28" t="s">
-        <v>382</v>
+        <v>339</v>
       </c>
       <c r="K28" t="s">
-        <v>383</v>
+        <v>340</v>
       </c>
       <c r="L28" t="s">
-        <v>384</v>
+        <v>341</v>
       </c>
       <c r="M28" t="s">
-        <v>385</v>
+        <v>342</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -6011,62 +6537,62 @@
       <c r="AA28">
         <v>58.05</v>
       </c>
-      <c r="AB28">
+      <c r="AB28" t="s">
+        <v>487</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>488</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>489</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>490</v>
+      </c>
+      <c r="AF28">
         <v>7.01</v>
       </c>
-      <c r="AC28">
+      <c r="AG28">
         <v>3.51</v>
       </c>
-      <c r="AD28">
+      <c r="AH28">
         <v>25.16</v>
       </c>
-      <c r="AE28">
+      <c r="AI28">
         <v>3.37</v>
       </c>
-      <c r="AF28">
+      <c r="AJ28">
         <v>2.33</v>
       </c>
-      <c r="AG28">
+      <c r="AK28">
         <v>2.89</v>
       </c>
-      <c r="AH28">
+      <c r="AL28">
         <v>104.15</v>
       </c>
-      <c r="AI28">
+      <c r="AM28">
         <v>0.88</v>
       </c>
-      <c r="AJ28">
+      <c r="AN28">
         <v>0.86</v>
       </c>
-      <c r="AK28">
+      <c r="AO28">
         <v>34</v>
       </c>
-      <c r="AL28" t="s">
-        <v>206</v>
-      </c>
-      <c r="AM28" t="s">
-        <v>207</v>
-      </c>
-      <c r="AN28" t="s">
-        <v>208</v>
-      </c>
-      <c r="AO28" t="s">
-        <v>209</v>
-      </c>
       <c r="AP28" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="AQ28" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="AR28" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="AS28" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="AT28" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
     </row>
     <row r="29" spans="1:49" x14ac:dyDescent="0.25">
@@ -6098,16 +6624,16 @@
         <v>1.78</v>
       </c>
       <c r="J29" t="s">
-        <v>386</v>
+        <v>343</v>
       </c>
       <c r="K29" t="s">
-        <v>387</v>
+        <v>344</v>
       </c>
       <c r="L29" t="s">
-        <v>388</v>
+        <v>345</v>
       </c>
       <c r="M29" t="s">
-        <v>389</v>
+        <v>346</v>
       </c>
       <c r="N29">
         <v>1.54</v>
@@ -6115,85 +6641,97 @@
       <c r="O29" s="8">
         <v>13.97</v>
       </c>
-      <c r="P29" s="1">
+      <c r="P29">
         <v>8</v>
       </c>
-      <c r="Q29" s="1">
+      <c r="Q29">
         <v>93.92</v>
       </c>
-      <c r="R29" s="1">
+      <c r="R29">
         <v>9.1999999999999993</v>
       </c>
-      <c r="S29" s="1">
+      <c r="S29">
         <v>108</v>
       </c>
-      <c r="T29" s="1">
+      <c r="T29">
         <v>10.4</v>
       </c>
-      <c r="U29" s="1">
+      <c r="U29">
         <v>122.1</v>
       </c>
-      <c r="V29" s="1">
+      <c r="V29">
         <v>11.6</v>
       </c>
-      <c r="W29" s="1">
+      <c r="W29">
         <v>136.19999999999999</v>
       </c>
-      <c r="X29" s="1">
+      <c r="X29">
         <v>12.8</v>
       </c>
-      <c r="Y29" s="1">
+      <c r="Y29">
         <v>150.30000000000001</v>
       </c>
-      <c r="Z29" s="1">
+      <c r="Z29">
         <v>14</v>
       </c>
-      <c r="AA29" s="1">
+      <c r="AA29">
         <v>164.4</v>
       </c>
-      <c r="AB29" s="1">
+      <c r="AB29" t="s">
+        <v>491</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>492</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>493</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>494</v>
+      </c>
+      <c r="AF29" s="1">
         <v>18.75</v>
       </c>
-      <c r="AC29" s="1">
+      <c r="AG29" s="1">
         <v>10.47</v>
       </c>
-      <c r="AD29" s="1">
+      <c r="AH29" s="1">
         <v>15.91</v>
       </c>
-      <c r="AE29" s="1">
+      <c r="AI29" s="1">
         <v>11.99</v>
       </c>
-      <c r="AF29" s="1">
+      <c r="AJ29" s="1">
         <v>9.36</v>
       </c>
-      <c r="AG29" s="1">
+      <c r="AK29" s="1">
         <v>0.78</v>
       </c>
-      <c r="AH29" s="1">
+      <c r="AL29" s="1">
         <v>87.32</v>
       </c>
-      <c r="AI29" s="1">
+      <c r="AM29" s="1">
         <v>7.58</v>
       </c>
-      <c r="AJ29" s="1">
+      <c r="AN29" s="1">
         <v>-10.16</v>
       </c>
-      <c r="AK29" s="1">
+      <c r="AO29" s="1">
         <v>49</v>
       </c>
-      <c r="AL29" s="1" t="s">
+      <c r="AP29" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="AM29" s="1" t="s">
+      <c r="AQ29" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AN29" s="1" t="s">
+      <c r="AR29" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="AO29" s="1" t="s">
+      <c r="AS29" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AP29" s="1" t="s">
+      <c r="AT29" s="1" t="s">
         <v>79</v>
       </c>
       <c r="AU29"/>
@@ -6205,10 +6743,10 @@
         <v>3048</v>
       </c>
       <c r="B30" t="s">
-        <v>239</v>
+        <v>216</v>
       </c>
       <c r="C30" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="D30" s="7">
         <v>2448297940</v>
@@ -6229,16 +6767,16 @@
         <v>2.0299999999999998</v>
       </c>
       <c r="J30" t="s">
-        <v>390</v>
+        <v>347</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>391</v>
+        <v>348</v>
       </c>
       <c r="L30" t="s">
-        <v>392</v>
+        <v>349</v>
       </c>
       <c r="M30" t="s">
-        <v>393</v>
+        <v>350</v>
       </c>
       <c r="N30">
         <v>1.93</v>
@@ -6282,62 +6820,62 @@
       <c r="AA30">
         <v>68.64</v>
       </c>
-      <c r="AB30">
+      <c r="AB30" t="s">
+        <v>495</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>496</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>497</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>498</v>
+      </c>
+      <c r="AF30">
         <v>3.24</v>
       </c>
-      <c r="AC30">
+      <c r="AG30">
         <v>1.5</v>
       </c>
-      <c r="AD30">
+      <c r="AH30">
         <v>27.8</v>
       </c>
-      <c r="AE30">
+      <c r="AI30">
         <v>1.3</v>
       </c>
-      <c r="AF30">
+      <c r="AJ30">
         <v>1.04</v>
       </c>
-      <c r="AG30">
+      <c r="AK30">
         <v>4.37</v>
       </c>
-      <c r="AH30">
+      <c r="AL30">
         <v>115.38</v>
       </c>
-      <c r="AI30">
+      <c r="AM30">
         <v>-2.5099999999999998</v>
       </c>
-      <c r="AJ30">
+      <c r="AN30">
         <v>-3.46</v>
       </c>
-      <c r="AK30">
+      <c r="AO30">
         <v>30</v>
       </c>
-      <c r="AL30" t="s">
-        <v>241</v>
-      </c>
-      <c r="AM30" t="s">
+      <c r="AP30" t="s">
+        <v>218</v>
+      </c>
+      <c r="AQ30" t="s">
         <v>106</v>
       </c>
-      <c r="AN30" t="s">
+      <c r="AR30" t="s">
         <v>172</v>
       </c>
-      <c r="AO30" t="s">
+      <c r="AS30" t="s">
         <v>106</v>
       </c>
-      <c r="AP30" t="s">
+      <c r="AT30" t="s">
         <v>85</v>
-      </c>
-      <c r="AQ30" t="s">
-        <v>242</v>
-      </c>
-      <c r="AR30" t="s">
-        <v>243</v>
-      </c>
-      <c r="AS30" t="s">
-        <v>244</v>
-      </c>
-      <c r="AT30" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="31" spans="1:49" customFormat="1" x14ac:dyDescent="0.25">
@@ -6369,16 +6907,16 @@
         <v>1.66</v>
       </c>
       <c r="J31" t="s">
-        <v>394</v>
+        <v>351</v>
       </c>
       <c r="K31" t="s">
-        <v>395</v>
+        <v>352</v>
       </c>
       <c r="L31" t="s">
-        <v>396</v>
+        <v>353</v>
       </c>
       <c r="M31" t="s">
-        <v>397</v>
+        <v>354</v>
       </c>
       <c r="N31">
         <v>2.29</v>
@@ -6386,101 +6924,109 @@
       <c r="O31">
         <v>-3.48</v>
       </c>
-      <c r="P31" s="1">
+      <c r="P31">
         <v>9</v>
       </c>
-      <c r="Q31" s="1">
+      <c r="Q31">
         <v>32.04</v>
       </c>
-      <c r="R31" s="1">
+      <c r="R31">
         <v>10</v>
       </c>
-      <c r="S31" s="1">
+      <c r="S31">
         <v>35.6</v>
       </c>
-      <c r="T31" s="1">
+      <c r="T31">
         <v>11</v>
       </c>
-      <c r="U31" s="1">
+      <c r="U31">
         <v>39.159999999999997</v>
       </c>
-      <c r="V31" s="1">
+      <c r="V31">
         <v>12</v>
       </c>
-      <c r="W31" s="1">
+      <c r="W31">
         <v>42.72</v>
       </c>
-      <c r="X31" s="1">
+      <c r="X31">
         <v>13</v>
       </c>
-      <c r="Y31" s="1">
+      <c r="Y31">
         <v>46.28</v>
       </c>
-      <c r="Z31" s="1">
+      <c r="Z31">
         <v>14</v>
       </c>
-      <c r="AA31" s="1">
+      <c r="AA31">
         <v>49.84</v>
       </c>
-      <c r="AB31" s="1">
+      <c r="AB31" t="s">
+        <v>499</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>500</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>501</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>502</v>
+      </c>
+      <c r="AF31" s="1">
         <v>5.31</v>
       </c>
-      <c r="AC31" s="1">
+      <c r="AG31" s="1">
         <v>2.25</v>
       </c>
-      <c r="AD31" s="1">
+      <c r="AH31" s="1">
         <v>22.5</v>
       </c>
-      <c r="AE31" s="1">
+      <c r="AI31" s="1">
         <v>2.11</v>
       </c>
-      <c r="AF31" s="1">
+      <c r="AJ31" s="1">
         <v>1.63</v>
       </c>
-      <c r="AG31" s="1">
+      <c r="AK31" s="1">
         <v>3.25</v>
       </c>
-      <c r="AH31" s="1">
+      <c r="AL31" s="1">
         <v>106.64</v>
       </c>
-      <c r="AI31" s="1">
+      <c r="AM31" s="1">
         <v>0.7</v>
       </c>
-      <c r="AJ31" s="1">
+      <c r="AN31" s="1">
         <v>-1.1599999999999999</v>
       </c>
-      <c r="AK31" s="1">
+      <c r="AO31" s="1">
         <v>38</v>
       </c>
-      <c r="AL31" s="1" t="s">
+      <c r="AP31" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="AM31" s="1" t="s">
+      <c r="AQ31" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="AN31" s="1" t="s">
+      <c r="AR31" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AO31" s="1" t="s">
+      <c r="AS31" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="AP31" s="1" t="s">
+      <c r="AT31" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="AQ31" s="1"/>
-      <c r="AR31" s="1"/>
-      <c r="AS31" s="1"/>
-      <c r="AT31" s="1"/>
     </row>
     <row r="32" spans="1:49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3312</v>
       </c>
       <c r="B32" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="C32" t="s">
-        <v>247</v>
+        <v>220</v>
       </c>
       <c r="D32" s="7">
         <v>1376254550</v>
@@ -6501,16 +7047,16 @@
         <v>1.9</v>
       </c>
       <c r="J32" t="s">
-        <v>398</v>
+        <v>355</v>
       </c>
       <c r="K32" t="s">
-        <v>399</v>
+        <v>356</v>
       </c>
       <c r="L32" t="s">
-        <v>400</v>
+        <v>357</v>
       </c>
       <c r="M32" t="s">
-        <v>401</v>
+        <v>358</v>
       </c>
       <c r="N32">
         <v>1.71</v>
@@ -6554,62 +7100,62 @@
       <c r="AA32">
         <v>94.2</v>
       </c>
-      <c r="AB32">
+      <c r="AB32" t="s">
+        <v>503</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>504</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>505</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>506</v>
+      </c>
+      <c r="AF32">
         <v>5.84</v>
       </c>
-      <c r="AC32">
+      <c r="AG32">
         <v>3.09</v>
       </c>
-      <c r="AD32">
+      <c r="AH32">
         <v>27.98</v>
       </c>
-      <c r="AE32">
+      <c r="AI32">
         <v>3.08</v>
       </c>
-      <c r="AF32">
+      <c r="AJ32">
         <v>2.5</v>
       </c>
-      <c r="AG32">
+      <c r="AK32">
         <v>3.01</v>
       </c>
-      <c r="AH32">
+      <c r="AL32">
         <v>100.32</v>
       </c>
-      <c r="AI32">
+      <c r="AM32">
         <v>-3.19</v>
       </c>
-      <c r="AJ32">
+      <c r="AN32">
         <v>-3.32</v>
       </c>
-      <c r="AK32">
+      <c r="AO32">
         <v>40</v>
       </c>
-      <c r="AL32" t="s">
-        <v>248</v>
-      </c>
-      <c r="AM32" t="s">
-        <v>249</v>
-      </c>
-      <c r="AN32" t="s">
-        <v>250</v>
-      </c>
-      <c r="AO32" t="s">
-        <v>251</v>
-      </c>
       <c r="AP32" t="s">
+        <v>221</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>222</v>
+      </c>
+      <c r="AR32" t="s">
+        <v>223</v>
+      </c>
+      <c r="AS32" t="s">
+        <v>224</v>
+      </c>
+      <c r="AT32" t="s">
         <v>102</v>
-      </c>
-      <c r="AQ32" t="s">
-        <v>252</v>
-      </c>
-      <c r="AR32" t="s">
-        <v>253</v>
-      </c>
-      <c r="AS32" t="s">
-        <v>254</v>
-      </c>
-      <c r="AT32" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="33" spans="1:46" customFormat="1" x14ac:dyDescent="0.25">
@@ -6641,16 +7187,16 @@
         <v>1.43</v>
       </c>
       <c r="J33" t="s">
-        <v>402</v>
+        <v>359</v>
       </c>
       <c r="K33" t="s">
-        <v>403</v>
+        <v>360</v>
       </c>
       <c r="L33" t="s">
-        <v>404</v>
+        <v>361</v>
       </c>
       <c r="M33" t="s">
-        <v>287</v>
+        <v>244</v>
       </c>
       <c r="N33">
         <v>0.45</v>
@@ -6658,91 +7204,99 @@
       <c r="O33">
         <v>-28.03</v>
       </c>
-      <c r="P33" s="1">
+      <c r="P33">
         <v>9</v>
       </c>
-      <c r="Q33" s="1">
+      <c r="Q33">
         <v>55.71</v>
       </c>
-      <c r="R33" s="1">
+      <c r="R33">
         <v>9.8000000000000007</v>
       </c>
-      <c r="S33" s="1">
+      <c r="S33">
         <v>60.66</v>
       </c>
-      <c r="T33" s="1">
+      <c r="T33">
         <v>10.6</v>
       </c>
-      <c r="U33" s="1">
+      <c r="U33">
         <v>65.61</v>
       </c>
-      <c r="V33" s="1">
+      <c r="V33">
         <v>11.4</v>
       </c>
-      <c r="W33" s="1">
+      <c r="W33">
         <v>70.569999999999993</v>
       </c>
-      <c r="X33" s="1">
+      <c r="X33">
         <v>12.2</v>
       </c>
-      <c r="Y33" s="1">
+      <c r="Y33">
         <v>75.52</v>
       </c>
-      <c r="Z33" s="1">
+      <c r="Z33">
         <v>13</v>
       </c>
-      <c r="AA33" s="1">
+      <c r="AA33">
         <v>80.47</v>
       </c>
-      <c r="AB33" s="1">
+      <c r="AB33" t="s">
+        <v>507</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>508</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>509</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>510</v>
+      </c>
+      <c r="AF33" s="1">
         <v>3.89</v>
       </c>
-      <c r="AC33" s="1">
+      <c r="AG33" s="1">
         <v>1.82</v>
       </c>
-      <c r="AD33" s="1">
+      <c r="AH33" s="1">
         <v>17.649999999999999</v>
       </c>
-      <c r="AE33" s="1">
+      <c r="AI33" s="1">
         <v>1.87</v>
       </c>
-      <c r="AF33" s="1">
+      <c r="AJ33" s="1">
         <v>1.54</v>
       </c>
-      <c r="AG33" s="1">
+      <c r="AK33" s="1">
         <v>2.9</v>
       </c>
-      <c r="AH33" s="1">
+      <c r="AL33" s="1">
         <v>97.33</v>
       </c>
-      <c r="AI33" s="1">
+      <c r="AM33" s="1">
         <v>-16.23</v>
       </c>
-      <c r="AJ33" s="1">
+      <c r="AN33" s="1">
         <v>-16.72</v>
       </c>
-      <c r="AK33" s="1">
+      <c r="AO33" s="1">
         <v>28</v>
       </c>
-      <c r="AL33" s="1" t="s">
+      <c r="AP33" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="AM33" s="1" t="s">
+      <c r="AQ33" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="AN33" s="1" t="s">
+      <c r="AR33" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="AO33" s="1" t="s">
+      <c r="AS33" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="AP33" s="1" t="s">
+      <c r="AT33" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="AQ33" s="1"/>
-      <c r="AR33" s="1"/>
-      <c r="AS33" s="1"/>
-      <c r="AT33" s="1"/>
     </row>
     <row r="34" spans="1:46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
@@ -6773,16 +7327,16 @@
         <v>0.81</v>
       </c>
       <c r="J34" t="s">
-        <v>405</v>
+        <v>362</v>
       </c>
       <c r="K34" t="s">
-        <v>406</v>
+        <v>363</v>
       </c>
       <c r="L34" t="s">
-        <v>407</v>
+        <v>364</v>
       </c>
       <c r="M34" t="s">
-        <v>408</v>
+        <v>365</v>
       </c>
       <c r="N34">
         <v>0.79</v>
@@ -6790,91 +7344,99 @@
       <c r="O34">
         <v>-4.74</v>
       </c>
-      <c r="P34" s="1">
+      <c r="P34">
         <v>8</v>
       </c>
-      <c r="Q34" s="1">
+      <c r="Q34">
         <v>82.56</v>
       </c>
-      <c r="R34" s="1">
+      <c r="R34">
         <v>9.4</v>
       </c>
-      <c r="S34" s="1">
+      <c r="S34">
         <v>97.01</v>
       </c>
-      <c r="T34" s="1">
+      <c r="T34">
         <v>10.8</v>
       </c>
-      <c r="U34" s="1">
+      <c r="U34">
         <v>111.5</v>
       </c>
-      <c r="V34" s="1">
+      <c r="V34">
         <v>12.2</v>
       </c>
-      <c r="W34" s="1">
+      <c r="W34">
         <v>125.9</v>
       </c>
-      <c r="X34" s="1">
+      <c r="X34">
         <v>13.6</v>
       </c>
-      <c r="Y34" s="1">
+      <c r="Y34">
         <v>140.4</v>
       </c>
-      <c r="Z34" s="1">
+      <c r="Z34">
         <v>15</v>
       </c>
-      <c r="AA34" s="1">
+      <c r="AA34">
         <v>154.80000000000001</v>
       </c>
-      <c r="AB34" s="1">
+      <c r="AB34" t="s">
+        <v>511</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>512</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>513</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>514</v>
+      </c>
+      <c r="AF34" s="1">
         <v>9.75</v>
       </c>
-      <c r="AC34" s="1">
+      <c r="AG34" s="1">
         <v>-0.09</v>
       </c>
-      <c r="AD34" s="1">
+      <c r="AH34" s="1">
         <v>33</v>
       </c>
-      <c r="AE34" s="1">
+      <c r="AI34" s="1">
         <v>55.14</v>
       </c>
-      <c r="AF34" s="1">
+      <c r="AJ34" s="1">
         <v>34.869999999999997</v>
       </c>
-      <c r="AG34" s="1">
+      <c r="AK34" s="1">
         <v>0.68</v>
       </c>
-      <c r="AH34" s="1">
+      <c r="AL34" s="1">
         <v>-0.16</v>
       </c>
-      <c r="AI34" s="1">
+      <c r="AM34" s="1">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AJ34" s="1">
+      <c r="AN34" s="1">
         <v>1.44</v>
       </c>
-      <c r="AK34" s="1">
+      <c r="AO34" s="1">
         <v>57</v>
       </c>
-      <c r="AL34" s="1" t="s">
+      <c r="AP34" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="AM34" s="1" t="s">
+      <c r="AQ34" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="AN34" s="1" t="s">
+      <c r="AR34" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="AO34" s="1" t="s">
+      <c r="AS34" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="AP34" s="1" t="s">
+      <c r="AT34" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="AQ34" s="1"/>
-      <c r="AR34" s="1"/>
-      <c r="AS34" s="1"/>
-      <c r="AT34" s="1"/>
     </row>
     <row r="35" spans="1:46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
@@ -6905,16 +7467,16 @@
         <v>0.77</v>
       </c>
       <c r="J35" t="s">
-        <v>409</v>
+        <v>366</v>
       </c>
       <c r="K35" t="s">
-        <v>410</v>
+        <v>367</v>
       </c>
       <c r="L35" t="s">
-        <v>288</v>
+        <v>245</v>
       </c>
       <c r="M35" t="s">
-        <v>411</v>
+        <v>368</v>
       </c>
       <c r="N35">
         <v>0.38</v>
@@ -6922,91 +7484,99 @@
       <c r="O35">
         <v>-3.58</v>
       </c>
-      <c r="P35" s="1">
+      <c r="P35">
         <v>11</v>
       </c>
-      <c r="Q35" s="1">
+      <c r="Q35">
         <v>19.8</v>
       </c>
-      <c r="R35" s="1">
+      <c r="R35">
         <v>12.4</v>
       </c>
-      <c r="S35" s="1">
+      <c r="S35">
         <v>22.32</v>
       </c>
-      <c r="T35" s="1">
+      <c r="T35">
         <v>13.8</v>
       </c>
-      <c r="U35" s="1">
+      <c r="U35">
         <v>24.84</v>
       </c>
-      <c r="V35" s="1">
+      <c r="V35">
         <v>15.2</v>
       </c>
-      <c r="W35" s="1">
+      <c r="W35">
         <v>27.36</v>
       </c>
-      <c r="X35" s="1">
+      <c r="X35">
         <v>16.600000000000001</v>
       </c>
-      <c r="Y35" s="1">
+      <c r="Y35">
         <v>29.88</v>
       </c>
-      <c r="Z35" s="1">
+      <c r="Z35">
         <v>18</v>
       </c>
-      <c r="AA35" s="1">
+      <c r="AA35">
         <v>32.4</v>
       </c>
-      <c r="AB35" s="1">
+      <c r="AB35" t="s">
+        <v>515</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>516</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>517</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>518</v>
+      </c>
+      <c r="AF35" s="1">
         <v>13.13</v>
       </c>
-      <c r="AC35" s="1">
+      <c r="AG35" s="1">
         <v>7.24</v>
       </c>
-      <c r="AD35" s="1">
+      <c r="AH35" s="1">
         <v>10.87</v>
       </c>
-      <c r="AE35" s="1">
+      <c r="AI35" s="1">
         <v>12.76</v>
       </c>
-      <c r="AF35" s="1">
+      <c r="AJ35" s="1">
         <v>9.4700000000000006</v>
       </c>
-      <c r="AG35" s="1">
+      <c r="AK35" s="1">
         <v>0.61</v>
       </c>
-      <c r="AH35" s="1">
+      <c r="AL35" s="1">
         <v>56.74</v>
       </c>
-      <c r="AI35" s="1">
+      <c r="AM35" s="1">
         <v>1.3</v>
       </c>
-      <c r="AJ35" s="1">
+      <c r="AN35" s="1">
         <v>2.4500000000000002</v>
       </c>
-      <c r="AK35" s="1">
+      <c r="AO35" s="1">
         <v>51</v>
       </c>
-      <c r="AL35" s="1" t="s">
+      <c r="AP35" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="AM35" s="1" t="s">
+      <c r="AQ35" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="AN35" s="1" t="s">
+      <c r="AR35" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="AO35" s="1" t="s">
+      <c r="AS35" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="AP35" s="1" t="s">
+      <c r="AT35" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="AQ35" s="1"/>
-      <c r="AR35" s="1"/>
-      <c r="AS35" s="1"/>
-      <c r="AT35" s="1"/>
     </row>
     <row r="36" spans="1:46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
@@ -7037,16 +7607,16 @@
         <v>1.83</v>
       </c>
       <c r="J36" t="s">
-        <v>412</v>
+        <v>369</v>
       </c>
       <c r="K36" t="s">
-        <v>413</v>
+        <v>370</v>
       </c>
       <c r="L36" t="s">
-        <v>414</v>
+        <v>371</v>
       </c>
       <c r="M36" t="s">
-        <v>415</v>
+        <v>372</v>
       </c>
       <c r="N36" s="8">
         <v>2.4700000000000002</v>
@@ -7054,91 +7624,99 @@
       <c r="O36" s="8">
         <v>15.34</v>
       </c>
-      <c r="P36" s="1">
+      <c r="P36">
         <v>9</v>
       </c>
-      <c r="Q36" s="1">
+      <c r="Q36">
         <v>52.47</v>
       </c>
-      <c r="R36" s="1">
+      <c r="R36">
         <v>10.199999999999999</v>
       </c>
-      <c r="S36" s="1">
+      <c r="S36">
         <v>59.47</v>
       </c>
-      <c r="T36" s="1">
+      <c r="T36">
         <v>11.4</v>
       </c>
-      <c r="U36" s="1">
+      <c r="U36">
         <v>66.459999999999994</v>
       </c>
-      <c r="V36" s="1">
+      <c r="V36">
         <v>12.6</v>
       </c>
-      <c r="W36" s="1">
+      <c r="W36">
         <v>73.459999999999994</v>
       </c>
-      <c r="X36" s="1">
+      <c r="X36">
         <v>13.8</v>
       </c>
-      <c r="Y36" s="1">
+      <c r="Y36">
         <v>80.45</v>
       </c>
-      <c r="Z36" s="1">
+      <c r="Z36">
         <v>15</v>
       </c>
-      <c r="AA36" s="1">
+      <c r="AA36">
         <v>87.45</v>
       </c>
-      <c r="AB36" s="1">
+      <c r="AB36" t="s">
+        <v>519</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>520</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>521</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>522</v>
+      </c>
+      <c r="AF36" s="1">
         <v>30.03</v>
       </c>
-      <c r="AC36" s="1">
+      <c r="AG36" s="1">
         <v>21.36</v>
       </c>
-      <c r="AD36" s="1">
+      <c r="AH36" s="1">
         <v>19.16</v>
       </c>
-      <c r="AE36" s="1">
+      <c r="AI36" s="1">
         <v>22.37</v>
       </c>
-      <c r="AF36" s="1">
+      <c r="AJ36" s="1">
         <v>18.329999999999998</v>
       </c>
-      <c r="AG36" s="1">
+      <c r="AK36" s="1">
         <v>0.51</v>
       </c>
-      <c r="AH36" s="1">
+      <c r="AL36" s="1">
         <v>95.49</v>
       </c>
-      <c r="AI36" s="1">
+      <c r="AM36" s="1">
         <v>17.23</v>
       </c>
-      <c r="AJ36" s="1">
+      <c r="AN36" s="1">
         <v>-2.14</v>
       </c>
-      <c r="AK36" s="1">
+      <c r="AO36" s="1">
         <v>64</v>
       </c>
-      <c r="AL36" s="1" t="s">
+      <c r="AP36" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="AM36" s="1" t="s">
+      <c r="AQ36" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="AN36" s="1" t="s">
+      <c r="AR36" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="AO36" s="1" t="s">
+      <c r="AS36" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="AP36" s="1" t="s">
+      <c r="AT36" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AQ36" s="1"/>
-      <c r="AR36" s="1"/>
-      <c r="AS36" s="1"/>
-      <c r="AT36" s="1"/>
     </row>
     <row r="37" spans="1:46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
@@ -7169,16 +7747,16 @@
         <v>2.0099999999999998</v>
       </c>
       <c r="J37" t="s">
-        <v>416</v>
+        <v>373</v>
       </c>
       <c r="K37" t="s">
-        <v>417</v>
+        <v>374</v>
       </c>
       <c r="L37" t="s">
-        <v>418</v>
+        <v>375</v>
       </c>
       <c r="M37" t="s">
-        <v>419</v>
+        <v>376</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -7186,91 +7764,99 @@
       <c r="O37">
         <v>-1.19</v>
       </c>
-      <c r="P37" s="1">
+      <c r="P37">
         <v>7</v>
       </c>
-      <c r="Q37" s="1">
+      <c r="Q37">
         <v>46.97</v>
       </c>
-      <c r="R37" s="1">
+      <c r="R37">
         <v>8.1999999999999993</v>
       </c>
-      <c r="S37" s="1">
+      <c r="S37">
         <v>55.02</v>
       </c>
-      <c r="T37" s="1">
+      <c r="T37">
         <v>9.4</v>
       </c>
-      <c r="U37" s="1">
+      <c r="U37">
         <v>63.07</v>
       </c>
-      <c r="V37" s="1">
+      <c r="V37">
         <v>10.6</v>
       </c>
-      <c r="W37" s="1">
+      <c r="W37">
         <v>71.13</v>
       </c>
-      <c r="X37" s="1">
+      <c r="X37">
         <v>11.8</v>
       </c>
-      <c r="Y37" s="1">
+      <c r="Y37">
         <v>79.180000000000007</v>
       </c>
-      <c r="Z37" s="1">
+      <c r="Z37">
         <v>13</v>
       </c>
-      <c r="AA37" s="1">
+      <c r="AA37">
         <v>87.23</v>
       </c>
-      <c r="AB37" s="1">
+      <c r="AB37" t="s">
+        <v>523</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>524</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>525</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>526</v>
+      </c>
+      <c r="AF37" s="1">
         <v>3.26</v>
       </c>
-      <c r="AC37" s="1">
+      <c r="AG37" s="1">
         <v>2.17</v>
       </c>
-      <c r="AD37" s="1">
+      <c r="AH37" s="1">
         <v>31.83</v>
       </c>
-      <c r="AE37" s="1">
+      <c r="AI37" s="1">
         <v>2.02</v>
       </c>
-      <c r="AF37" s="1">
+      <c r="AJ37" s="1">
         <v>1.53</v>
       </c>
-      <c r="AG37" s="1">
+      <c r="AK37" s="1">
         <v>4.42</v>
       </c>
-      <c r="AH37" s="1">
+      <c r="AL37" s="1">
         <v>107.43</v>
       </c>
-      <c r="AI37" s="1">
+      <c r="AM37" s="1">
         <v>-12.76</v>
       </c>
-      <c r="AJ37" s="1">
+      <c r="AN37" s="1">
         <v>-8.07</v>
       </c>
-      <c r="AK37" s="1">
+      <c r="AO37" s="1">
         <v>32</v>
       </c>
-      <c r="AL37" s="1" t="s">
+      <c r="AP37" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="AM37" s="1" t="s">
+      <c r="AQ37" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="AN37" s="1" t="s">
+      <c r="AR37" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="AO37" s="1" t="s">
+      <c r="AS37" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="AP37" s="1" t="s">
+      <c r="AT37" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="AQ37" s="1"/>
-      <c r="AR37" s="1"/>
-      <c r="AS37" s="1"/>
-      <c r="AT37" s="1"/>
     </row>
     <row r="38" spans="1:46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
@@ -7301,16 +7887,16 @@
         <v>1.51</v>
       </c>
       <c r="J38" t="s">
-        <v>420</v>
+        <v>377</v>
       </c>
       <c r="K38" t="s">
-        <v>421</v>
+        <v>378</v>
       </c>
       <c r="L38" t="s">
-        <v>422</v>
+        <v>379</v>
       </c>
       <c r="M38" t="s">
-        <v>423</v>
+        <v>380</v>
       </c>
       <c r="N38">
         <v>1.21</v>
@@ -7318,91 +7904,99 @@
       <c r="O38">
         <v>7.73</v>
       </c>
-      <c r="P38" s="1">
+      <c r="P38">
         <v>9</v>
       </c>
-      <c r="Q38" s="1">
+      <c r="Q38">
         <v>53.55</v>
       </c>
-      <c r="R38" s="1">
+      <c r="R38">
         <v>10.8</v>
       </c>
-      <c r="S38" s="1">
+      <c r="S38">
         <v>64.260000000000005</v>
       </c>
-      <c r="T38" s="1">
+      <c r="T38">
         <v>12.6</v>
       </c>
-      <c r="U38" s="1">
+      <c r="U38">
         <v>74.97</v>
       </c>
-      <c r="V38" s="1">
+      <c r="V38">
         <v>14.4</v>
       </c>
-      <c r="W38" s="1">
+      <c r="W38">
         <v>85.68</v>
       </c>
-      <c r="X38" s="1">
+      <c r="X38">
         <v>16.2</v>
       </c>
-      <c r="Y38" s="1">
+      <c r="Y38">
         <v>96.39</v>
       </c>
-      <c r="Z38" s="1">
+      <c r="Z38">
         <v>18</v>
       </c>
-      <c r="AA38" s="1">
+      <c r="AA38">
         <v>107.1</v>
       </c>
-      <c r="AB38" s="1">
+      <c r="AB38" t="s">
+        <v>527</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>528</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>529</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>530</v>
+      </c>
+      <c r="AF38" s="1">
         <v>26.62</v>
       </c>
-      <c r="AC38" s="1">
+      <c r="AG38" s="1">
         <v>20.51</v>
       </c>
-      <c r="AD38" s="1">
+      <c r="AH38" s="1">
         <v>22.24</v>
       </c>
-      <c r="AE38" s="1">
+      <c r="AI38" s="1">
         <v>21.26</v>
       </c>
-      <c r="AF38" s="1">
+      <c r="AJ38" s="1">
         <v>17.670000000000002</v>
       </c>
-      <c r="AG38" s="1">
+      <c r="AK38" s="1">
         <v>0.74</v>
       </c>
-      <c r="AH38" s="1">
+      <c r="AL38" s="1">
         <v>96.47</v>
       </c>
-      <c r="AI38" s="1">
+      <c r="AM38" s="1">
         <v>7.35</v>
       </c>
-      <c r="AJ38" s="1">
+      <c r="AN38" s="1">
         <v>1.02</v>
       </c>
-      <c r="AK38" s="1">
+      <c r="AO38" s="1">
         <v>66</v>
       </c>
-      <c r="AL38" s="1" t="s">
+      <c r="AP38" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="AM38" s="1" t="s">
+      <c r="AQ38" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="AN38" s="1" t="s">
+      <c r="AR38" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AO38" s="1" t="s">
+      <c r="AS38" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="AP38" s="1" t="s">
+      <c r="AT38" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="AQ38" s="1"/>
-      <c r="AR38" s="1"/>
-      <c r="AS38" s="1"/>
-      <c r="AT38" s="1"/>
     </row>
     <row r="39" spans="1:46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
@@ -7433,16 +8027,16 @@
         <v>0.99</v>
       </c>
       <c r="J39" t="s">
-        <v>424</v>
+        <v>381</v>
       </c>
       <c r="K39" t="s">
-        <v>425</v>
+        <v>382</v>
       </c>
       <c r="L39" t="s">
-        <v>426</v>
+        <v>383</v>
       </c>
       <c r="M39" t="s">
-        <v>427</v>
+        <v>384</v>
       </c>
       <c r="N39">
         <v>1.97</v>
@@ -7450,91 +8044,99 @@
       <c r="O39" s="8">
         <v>12.87</v>
       </c>
-      <c r="P39" s="1">
+      <c r="P39">
         <v>6</v>
       </c>
-      <c r="Q39" s="1">
+      <c r="Q39">
         <v>36.659999999999997</v>
       </c>
-      <c r="R39" s="1">
+      <c r="R39">
         <v>7</v>
       </c>
-      <c r="S39" s="1">
+      <c r="S39">
         <v>42.77</v>
       </c>
-      <c r="T39" s="1">
+      <c r="T39">
         <v>8</v>
       </c>
-      <c r="U39" s="1">
+      <c r="U39">
         <v>48.88</v>
       </c>
-      <c r="V39" s="1">
+      <c r="V39">
         <v>9</v>
       </c>
-      <c r="W39" s="1">
+      <c r="W39">
         <v>54.99</v>
       </c>
-      <c r="X39" s="1">
+      <c r="X39">
         <v>10</v>
       </c>
-      <c r="Y39" s="1">
+      <c r="Y39">
         <v>61.1</v>
       </c>
-      <c r="Z39" s="1">
+      <c r="Z39">
         <v>11</v>
       </c>
-      <c r="AA39" s="1">
+      <c r="AA39">
         <v>67.209999999999994</v>
       </c>
-      <c r="AB39" s="1">
+      <c r="AB39" t="s">
+        <v>531</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>532</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>533</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>534</v>
+      </c>
+      <c r="AF39" s="1">
         <v>15.64</v>
       </c>
-      <c r="AC39" s="1">
+      <c r="AG39" s="1">
         <v>8.6</v>
       </c>
-      <c r="AD39" s="1">
+      <c r="AH39" s="1">
         <v>13.51</v>
       </c>
-      <c r="AE39" s="1">
+      <c r="AI39" s="1">
         <v>9.09</v>
       </c>
-      <c r="AF39" s="1">
+      <c r="AJ39" s="1">
         <v>6.58</v>
       </c>
-      <c r="AG39" s="1">
+      <c r="AK39" s="1">
         <v>0.86</v>
       </c>
-      <c r="AH39" s="1">
+      <c r="AL39" s="1">
         <v>94.61</v>
       </c>
-      <c r="AI39" s="1">
+      <c r="AM39" s="1">
         <v>2.02</v>
       </c>
-      <c r="AJ39" s="1">
+      <c r="AN39" s="1">
         <v>0.38</v>
       </c>
-      <c r="AK39" s="1">
+      <c r="AO39" s="1">
         <v>47</v>
       </c>
-      <c r="AL39" s="1" t="s">
+      <c r="AP39" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AM39" s="1" t="s">
+      <c r="AQ39" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="AN39" s="1" t="s">
+      <c r="AR39" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="AO39" s="1" t="s">
+      <c r="AS39" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="AP39" s="1" t="s">
+      <c r="AT39" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AQ39" s="1"/>
-      <c r="AR39" s="1"/>
-      <c r="AS39" s="1"/>
-      <c r="AT39" s="1"/>
     </row>
     <row r="40" spans="1:46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
@@ -7565,16 +8167,16 @@
         <v>2.48</v>
       </c>
       <c r="J40" t="s">
-        <v>428</v>
+        <v>385</v>
       </c>
       <c r="K40" t="s">
-        <v>429</v>
+        <v>386</v>
       </c>
       <c r="L40" t="s">
-        <v>430</v>
+        <v>387</v>
       </c>
       <c r="M40" t="s">
-        <v>431</v>
+        <v>388</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -7582,106 +8184,107 @@
       <c r="O40">
         <v>5.12</v>
       </c>
-      <c r="P40" s="1">
+      <c r="P40">
         <v>15</v>
       </c>
-      <c r="Q40" s="1">
+      <c r="Q40">
         <v>41.1</v>
       </c>
-      <c r="R40" s="1">
+      <c r="R40">
         <v>18</v>
       </c>
-      <c r="S40" s="1">
+      <c r="S40">
         <v>49.32</v>
       </c>
-      <c r="T40" s="1">
+      <c r="T40">
         <v>21</v>
       </c>
-      <c r="U40" s="1">
+      <c r="U40">
         <v>57.54</v>
       </c>
-      <c r="V40" s="1">
+      <c r="V40">
         <v>24</v>
       </c>
-      <c r="W40" s="1">
+      <c r="W40">
         <v>65.760000000000005</v>
       </c>
-      <c r="X40" s="1">
+      <c r="X40">
         <v>27</v>
       </c>
-      <c r="Y40" s="1">
+      <c r="Y40">
         <v>73.98</v>
       </c>
-      <c r="Z40" s="1">
+      <c r="Z40">
         <v>30</v>
       </c>
-      <c r="AA40" s="1">
+      <c r="AA40">
         <v>82.2</v>
       </c>
-      <c r="AB40" s="1">
+      <c r="AB40" t="s">
+        <v>535</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>536</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>537</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>538</v>
+      </c>
+      <c r="AF40" s="1">
         <v>18.329999999999998</v>
       </c>
-      <c r="AC40" s="1">
+      <c r="AG40" s="1">
         <v>6.21</v>
       </c>
-      <c r="AD40" s="1">
+      <c r="AH40" s="1">
         <v>20.77</v>
       </c>
-      <c r="AE40" s="1">
+      <c r="AI40" s="1">
         <v>7.17</v>
       </c>
-      <c r="AF40" s="1">
+      <c r="AJ40" s="1">
         <v>5.72</v>
       </c>
-      <c r="AG40" s="1">
+      <c r="AK40" s="1">
         <v>1.46</v>
       </c>
-      <c r="AH40" s="1">
+      <c r="AL40" s="1">
         <v>86.61</v>
       </c>
-      <c r="AI40" s="1">
+      <c r="AM40" s="1">
         <v>2.25</v>
       </c>
-      <c r="AJ40" s="1">
+      <c r="AN40" s="1">
         <v>0.89</v>
       </c>
-      <c r="AK40" s="1">
+      <c r="AO40" s="1">
         <v>40</v>
       </c>
-      <c r="AL40" s="1" t="s">
+      <c r="AP40" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="AM40" s="1" t="s">
+      <c r="AQ40" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="AN40" s="1" t="s">
+      <c r="AR40" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="AO40" s="1" t="s">
+      <c r="AS40" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="AP40" s="1" t="s">
+      <c r="AT40" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AQ40" s="1"/>
-      <c r="AR40" s="1"/>
-      <c r="AS40" s="1"/>
-      <c r="AT40" s="1"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:AT40">
     <sortCondition ref="A3:A40"/>
   </sortState>
-  <mergeCells count="23">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="AB1:AB2"/>
-    <mergeCell ref="AC1:AC2"/>
-    <mergeCell ref="AD1:AD2"/>
-    <mergeCell ref="AE1:AE2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="AL1:AP1"/>
-    <mergeCell ref="AF1:AF2"/>
+  <mergeCells count="27">
+    <mergeCell ref="AP1:AT1"/>
+    <mergeCell ref="AJ1:AJ2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
@@ -7691,14 +8294,25 @@
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="P1:Y1"/>
+    <mergeCell ref="AK1:AK2"/>
+    <mergeCell ref="AL1:AL2"/>
+    <mergeCell ref="AM1:AM2"/>
+    <mergeCell ref="AN1:AN2"/>
+    <mergeCell ref="AO1:AO2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="AF1:AF2"/>
     <mergeCell ref="AG1:AG2"/>
     <mergeCell ref="AH1:AH2"/>
     <mergeCell ref="AI1:AI2"/>
-    <mergeCell ref="AJ1:AJ2"/>
-    <mergeCell ref="AK1:AK2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="AE1:AE2"/>
+    <mergeCell ref="AD1:AD2"/>
+    <mergeCell ref="AC1:AC2"/>
+    <mergeCell ref="AB1:AB2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="AB26:AB28">
+  <conditionalFormatting sqref="AF26:AF28">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -7710,7 +8324,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB3:AB28">
+  <conditionalFormatting sqref="AF3:AF28">
     <cfRule type="colorScale" priority="89">
       <colorScale>
         <cfvo type="min"/>
@@ -7720,7 +8334,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB3:AK29">
+  <conditionalFormatting sqref="AF3:AO29">
     <cfRule type="colorScale" priority="101">
       <colorScale>
         <cfvo type="min"/>
@@ -7730,7 +8344,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH3:AH27">
+  <conditionalFormatting sqref="AL3:AL27">
     <cfRule type="colorScale" priority="108">
       <colorScale>
         <cfvo type="min"/>
@@ -7740,7 +8354,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC4:AC27">
+  <conditionalFormatting sqref="AG4:AG27">
     <cfRule type="colorScale" priority="110">
       <colorScale>
         <cfvo type="min"/>
@@ -7750,7 +8364,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB3:AB27">
+  <conditionalFormatting sqref="AF3:AF27">
     <cfRule type="colorScale" priority="112">
       <colorScale>
         <cfvo type="min"/>
@@ -7760,7 +8374,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC3:AC27">
+  <conditionalFormatting sqref="AG3:AG27">
     <cfRule type="colorScale" priority="114">
       <colorScale>
         <cfvo type="min"/>
@@ -7770,7 +8384,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF3:AF27">
+  <conditionalFormatting sqref="AJ3:AJ27">
     <cfRule type="colorScale" priority="116">
       <colorScale>
         <cfvo type="min"/>
@@ -7780,7 +8394,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD3:AD27">
+  <conditionalFormatting sqref="AH3:AH27">
     <cfRule type="colorScale" priority="118">
       <colorScale>
         <cfvo type="min"/>
@@ -7790,7 +8404,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC3:AH28">
+  <conditionalFormatting sqref="AG3:AL28">
     <cfRule type="colorScale" priority="120">
       <colorScale>
         <cfvo type="min"/>
@@ -7800,7 +8414,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI3:AK28">
+  <conditionalFormatting sqref="AM3:AO28">
     <cfRule type="colorScale" priority="122">
       <colorScale>
         <cfvo type="min"/>
@@ -7810,7 +8424,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB3:AK28">
+  <conditionalFormatting sqref="AF3:AO28">
     <cfRule type="colorScale" priority="124">
       <colorScale>
         <cfvo type="min"/>
@@ -7820,7 +8434,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB6:AK29">
+  <conditionalFormatting sqref="AF6:AO29">
     <cfRule type="colorScale" priority="126">
       <colorScale>
         <cfvo type="min"/>
@@ -7830,7 +8444,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB3:AK40">
+  <conditionalFormatting sqref="AF3:AO40">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/Data/彙整清單_整理版.xlsx
+++ b/Data/彙整清單_整理版.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hmlu\svnbox\Research\Python\Stock\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\svnbox\Python\Stock\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205996FA-CD7D-4928-88A4-748C01F7551C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D383FF69-1086-4687-8E1B-B7A90B6698D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D923A086-913E-4840-96DC-7378B4FF8169}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D923A086-913E-4840-96DC-7378B4FF8169}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="527">
   <si>
     <t>公司名稱</t>
   </si>
@@ -74,12 +74,6 @@
   </si>
   <si>
     <t>南茂科技股份有限公司</t>
-  </si>
-  <si>
-    <t>建國</t>
-  </si>
-  <si>
-    <t>建國工程股份有限公司</t>
   </si>
   <si>
     <t>美亞</t>
@@ -521,9 +515,6 @@
     <t xml:space="preserve">   1.3 /    1.5</t>
   </si>
   <si>
-    <t xml:space="preserve">  0.52 /    0.0</t>
-  </si>
-  <si>
     <t xml:space="preserve">   2.7 /    0.0</t>
   </si>
   <si>
@@ -593,18 +584,9 @@
     <t xml:space="preserve">  3.59 /    0.0</t>
   </si>
   <si>
-    <t>明基材</t>
-  </si>
-  <si>
-    <t>明基材料股份有限公司</t>
-  </si>
-  <si>
     <t xml:space="preserve">   0.7 /    0.0</t>
   </si>
   <si>
-    <t xml:space="preserve">   0.9 /    0.0</t>
-  </si>
-  <si>
     <t>大聯大</t>
   </si>
   <si>
@@ -794,31 +776,7 @@
     <t>聲寶股份有限公司</t>
   </si>
   <si>
-    <t xml:space="preserve">    12.1 /     12.1 /    11.99 /    12.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.83 /     1.84 /     1.85 /     1.93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    14.1 /    14.18 /    13.93 /    13.43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    37.3 /     37.7 /    38.34 /    39.91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    10.5 /    10.78 /    10.98 /    14.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     9.4 /     9.05 /     9.45 /     10.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9.14 /      9.1 /     8.98 /     9.21</t>
-  </si>
-  <si>
     <t xml:space="preserve">    0.28 /     0.28 /     0.33 /     0.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6.15 /     6.17 /     6.16 /     6.37</t>
   </si>
   <si>
     <t xml:space="preserve"> 籌碼
@@ -831,429 +789,192 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">    60.8 /     60.7 /    59.72 /    57.85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1955.0 /   1687.0 /  1593.85 /  1530.77</t>
-  </si>
-  <si>
     <t xml:space="preserve">    1.44 /     1.31 /     1.14 /     1.45</t>
   </si>
   <si>
-    <t xml:space="preserve">    69.4 /     68.6 /    68.64 /    68.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    98.2 /   115.78 /   124.16 /   192.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   19.85 /    19.92 /    19.94 /    19.65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1679.0 /   2182.2 /  2872.15 /  3375.27</t>
-  </si>
-  <si>
     <t xml:space="preserve">    0.44 /     0.82 /     0.72 /     0.51</t>
   </si>
   <si>
-    <t xml:space="preserve">    30.2 /    30.54 /    31.03 /    32.94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  6367.0 /  10328.0 /   5648.9 /  7660.53</t>
-  </si>
-  <si>
     <t xml:space="preserve">    0.68 /     0.42 /     0.53 /     2.14</t>
   </si>
   <si>
-    <t xml:space="preserve">    33.8 /    34.65 /    34.27 /    35.46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  6310.0 /   5953.0 /  3970.95 /  7611.98</t>
-  </si>
-  <si>
     <t xml:space="preserve">    1.64 /     0.98 /     0.87 /     1.61</t>
   </si>
   <si>
-    <t xml:space="preserve">    37.3 /    36.38 /    36.46 /    38.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  9865.0 /  14595.2 /   6607.7 / 11349.48</t>
-  </si>
-  <si>
     <t xml:space="preserve">    1.41 /     1.08 /     1.09 /     2.55</t>
   </si>
   <si>
-    <t xml:space="preserve">   21.15 /    21.18 /    21.21 /    22.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2428.0 /   2840.4 /   2886.6 /  3907.38</t>
-  </si>
-  <si>
     <t xml:space="preserve">    0.81 /      0.8 /     0.94 /     1.01</t>
   </si>
   <si>
-    <t xml:space="preserve">    15.7 /    15.71 /    15.38 /    15.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   489.0 /   1228.6 /   712.75 /  1125.95</t>
-  </si>
-  <si>
     <t xml:space="preserve">    2.63 /     2.75 /     2.22 /     2.23</t>
   </si>
   <si>
     <t xml:space="preserve">     0.1 /     0.12 /     0.09 /     0.12</t>
   </si>
   <si>
-    <t xml:space="preserve">    30.0 /    30.01 /    29.73 /    29.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   448.0 /    514.2 /   426.95 /   572.97</t>
-  </si>
-  <si>
     <t xml:space="preserve">    10.4 /    10.36 /    10.25 /     10.3</t>
   </si>
   <si>
     <t xml:space="preserve">    0.99 /     0.97 /     1.02 /     1.62</t>
   </si>
   <si>
-    <t xml:space="preserve">    21.3 /    21.28 /    21.31 /    22.31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    26.2 /    87.66 /    91.08 /   444.84</t>
-  </si>
-  <si>
     <t xml:space="preserve">    1.43 /     1.42 /     1.35 /     1.26</t>
   </si>
   <si>
     <t xml:space="preserve">    0.24 /     0.23 /     0.19 /     1.72</t>
   </si>
   <si>
-    <t xml:space="preserve">   31.35 /    31.28 /    31.66 /    31.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   330.0 /    328.6 /    377.2 /   719.57</t>
-  </si>
-  <si>
     <t xml:space="preserve">    3.11 /     3.15 /     3.27 /     3.06</t>
   </si>
   <si>
     <t xml:space="preserve">    0.53 /     0.51 /     0.41 /     0.73</t>
   </si>
   <si>
-    <t xml:space="preserve">    32.6 /    33.07 /    34.84 /    34.43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1263.0 /   1477.2 /  1839.75 /  4032.85</t>
-  </si>
-  <si>
     <t xml:space="preserve">    1.37 /     1.33 /     1.61 /     1.56</t>
   </si>
   <si>
     <t xml:space="preserve">    5.82 /      5.6 /     5.43 /      5.7</t>
   </si>
   <si>
-    <t xml:space="preserve">   24.85 /    24.63 /    24.18 /    24.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 12398.0 /  13362.8 /  12552.9 / 13398.53</t>
-  </si>
-  <si>
     <t xml:space="preserve">    46.0 /    45.92 /     45.7 /     46.8</t>
   </si>
   <si>
     <t xml:space="preserve">     2.1 /     1.71 /     1.42 /     2.97</t>
   </si>
   <si>
-    <t xml:space="preserve">    66.2 /     66.1 /    65.76 /    59.91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3137.0 /   3807.2 /  11038.7 /  7336.03</t>
-  </si>
-  <si>
     <t xml:space="preserve">    32.8 /     32.8 /    33.56 /    34.53</t>
   </si>
   <si>
     <t xml:space="preserve">    9.11 /     9.15 /     7.51 /     5.55</t>
   </si>
   <si>
-    <t xml:space="preserve">    31.0 /    30.72 /    30.21 /    30.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  6600.0 /   6708.8 /  5185.05 /  7511.42</t>
-  </si>
-  <si>
     <t xml:space="preserve">    20.0 /     20.0 /    19.93 /    21.26</t>
   </si>
   <si>
     <t xml:space="preserve">    1.03 /     0.99 /     1.12 /     1.54</t>
   </si>
   <si>
-    <t xml:space="preserve">    87.0 /     85.6 /    82.76 /    81.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3074.0 /   3556.6 /   2187.6 /   1852.2</t>
-  </si>
-  <si>
     <t xml:space="preserve">    34.5 /    34.24 /    33.78 /    33.52</t>
   </si>
   <si>
     <t xml:space="preserve">    3.97 /     2.18 /     0.64 /      0.8</t>
   </si>
   <si>
-    <t xml:space="preserve">   46.95 /    47.34 /    46.14 /    45.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   556.0 /   1783.2 /  1418.55 /  1296.92</t>
-  </si>
-  <si>
     <t xml:space="preserve">    0.89 /     0.87 /     1.06 /     1.71</t>
   </si>
   <si>
     <t xml:space="preserve">    0.13 /     0.11 /      0.1 /     1.05</t>
   </si>
   <si>
-    <t xml:space="preserve">    34.0 /    35.72 /    29.67 /    27.41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  5916.0 /  10920.2 /  8302.85 /  3400.77</t>
-  </si>
-  <si>
     <t xml:space="preserve">    1.28 /     1.27 /     1.82 /     2.52</t>
   </si>
   <si>
     <t xml:space="preserve">    38.1 /     37.8 /    20.85 /    14.64</t>
   </si>
   <si>
-    <t xml:space="preserve">   165.5 /    167.1 /   165.95 /   164.47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   862.0 /   2865.2 /  2495.75 /  2997.78</t>
-  </si>
-  <si>
     <t xml:space="preserve">    21.8 /     22.0 /    21.94 /    22.14</t>
   </si>
   <si>
     <t xml:space="preserve">    19.7 /    19.32 /    20.08 /    22.47</t>
   </si>
   <si>
-    <t xml:space="preserve">    50.8 /    52.22 /    50.91 /     49.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   277.0 /    825.6 /    499.6 /   495.92</t>
-  </si>
-  <si>
     <t xml:space="preserve">    10.5 /    10.64 /    10.74 /     11.1</t>
   </si>
   <si>
     <t xml:space="preserve">    0.58 /     0.88 /     0.63 /     0.52</t>
   </si>
   <si>
-    <t xml:space="preserve">    36.7 /    37.18 /    37.63 /    38.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1619.0 /   1372.6 /   1413.6 /  1633.83</t>
-  </si>
-  <si>
     <t xml:space="preserve">    20.5 /    20.56 /    20.96 /    21.19</t>
   </si>
   <si>
     <t xml:space="preserve">    0.69 /     0.72 /     0.69 /     0.58</t>
   </si>
   <si>
-    <t xml:space="preserve">   49.95 /     49.7 /    49.36 /    49.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   194.0 /    170.8 /   116.15 /   123.31</t>
-  </si>
-  <si>
     <t xml:space="preserve">    3.66 /     3.63 /      3.7 /     3.66</t>
   </si>
   <si>
-    <t xml:space="preserve">    76.4 /     75.8 /     75.3 /    74.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 14842.0 /  15991.4 / 18806.35 / 20147.03</t>
-  </si>
-  <si>
     <t xml:space="preserve">    22.0 /    21.92 /    21.88 /    22.58</t>
   </si>
   <si>
     <t xml:space="preserve">    10.5 /    10.46 /    10.75 /    16.84</t>
   </si>
   <si>
-    <t xml:space="preserve">    54.9 /    55.46 /    54.64 /    53.83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   748.0 /   1097.2 /   1088.9 /    939.2</t>
-  </si>
-  <si>
     <t xml:space="preserve">    30.8 /    30.82 /    30.94 /    31.23</t>
   </si>
   <si>
     <t xml:space="preserve">    0.28 /      0.3 /     0.51 /     0.65</t>
   </si>
   <si>
-    <t xml:space="preserve">   33.25 /    33.76 /    33.88 /    31.36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   837.0 /   1155.2 /   2066.4 /  1456.22</t>
-  </si>
-  <si>
     <t xml:space="preserve">    8.44 /     8.46 /     8.61 /     7.75</t>
   </si>
   <si>
     <t xml:space="preserve">    1.72 /     1.69 /     1.34 /     1.08</t>
   </si>
   <si>
-    <t xml:space="preserve">   30.85 /    31.65 /    31.21 /    29.62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3002.0 /   8935.0 / 11984.75 /  11571.1</t>
-  </si>
-  <si>
     <t xml:space="preserve">    11.0 /    11.26 /    10.98 /    10.22</t>
   </si>
   <si>
     <t xml:space="preserve">    12.0 /     8.87 /     8.05 /     10.5</t>
   </si>
   <si>
-    <t xml:space="preserve">   124.0 /    123.1 /    123.1 /   120.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   344.0 /    526.8 /   716.05 /   933.53</t>
-  </si>
-  <si>
     <t xml:space="preserve">    42.4 /     42.4 /    42.27 /    41.66</t>
   </si>
   <si>
     <t xml:space="preserve">    1.67 /     1.37 /     1.05 /     1.16</t>
   </si>
   <si>
-    <t xml:space="preserve">   33.05 /    32.63 /    32.31 /    32.39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2031.0 /   1064.6 /   804.95 /  1016.93</t>
-  </si>
-  <si>
     <t xml:space="preserve">    6.12 /      6.1 /     6.22 /      6.8</t>
   </si>
   <si>
     <t xml:space="preserve">    0.17 /     0.15 /     0.23 /     0.96</t>
   </si>
   <si>
-    <t xml:space="preserve">   28.95 /    29.08 /    29.02 /     29.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   234.0 /    383.8 /    389.7 /    583.3</t>
-  </si>
-  <si>
     <t xml:space="preserve">    4.08 /     4.17 /     4.26 /     4.98</t>
   </si>
   <si>
     <t xml:space="preserve">    0.16 /     0.12 /     0.32 /     0.35</t>
   </si>
   <si>
-    <t xml:space="preserve">   24.95 /    24.15 /    24.06 /    23.56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3742.0 /   1362.6 /  1079.15 /  1933.38</t>
-  </si>
-  <si>
     <t xml:space="preserve">    5.89 /      5.8 /      5.8 /     6.57</t>
   </si>
   <si>
     <t xml:space="preserve">    0.98 /     1.15 /     0.83 /     0.54</t>
   </si>
   <si>
-    <t xml:space="preserve">    51.8 /    51.84 /     51.4 /     51.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2754.0 /   4252.6 /  4260.95 /  3830.73</t>
-  </si>
-  <si>
     <t xml:space="preserve">    26.8 /    26.84 /    26.67 /    26.76</t>
   </si>
   <si>
-    <t xml:space="preserve">   33.65 /    34.12 /    34.17 /    31.82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  5207.0 /   5582.0 /  11189.0 / 11605.17</t>
-  </si>
-  <si>
     <t xml:space="preserve">    12.4 /    12.36 /    11.77 /    11.04</t>
   </si>
   <si>
     <t xml:space="preserve">    0.86 /     0.93 /     0.89 /     0.74</t>
   </si>
   <si>
-    <t xml:space="preserve">   13.95 /    13.99 /    13.92 /    13.74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   112.0 /    174.8 /   275.95 /   276.72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     0.0 /      0.0 /     0.08 /      0.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    58.5 /    58.76 /     58.3 /    59.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2037.0 /   3804.2 /  2373.65 /  3581.98</t>
-  </si>
-  <si>
     <t xml:space="preserve">    23.0 /    23.34 /    23.89 /     25.2</t>
   </si>
   <si>
     <t xml:space="preserve">    0.82 /     0.87 /     0.97 /     2.34</t>
   </si>
   <si>
-    <t xml:space="preserve">    49.5 /    49.82 /    48.55 /    45.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2943.0 /   4847.4 /  5690.55 /  4353.05</t>
-  </si>
-  <si>
     <t xml:space="preserve">    24.3 /    24.26 /    23.58 /    22.25</t>
   </si>
   <si>
     <t xml:space="preserve">     1.4 /     1.41 /      0.9 /     0.66</t>
   </si>
   <si>
-    <t xml:space="preserve">    47.4 /    47.79 /    47.49 /    46.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2857.0 /   4505.6 /  5876.05 /  6635.57</t>
-  </si>
-  <si>
     <t xml:space="preserve">    46.9 /    46.98 /    46.83 /    48.76</t>
   </si>
   <si>
     <t xml:space="preserve">    3.82 /     3.76 /     4.89 /     5.01</t>
   </si>
   <si>
-    <t xml:space="preserve">    48.1 /    48.29 /    47.94 /    47.48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   614.0 /   1019.6 /   914.55 /   942.88</t>
-  </si>
-  <si>
     <t xml:space="preserve">    21.5 /    21.42 /    20.91 /    20.59</t>
   </si>
   <si>
     <t xml:space="preserve">    0.24 /     0.21 /     0.19 /     0.22</t>
   </si>
   <si>
-    <t xml:space="preserve">    37.0 /     37.2 /    38.31 /    37.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2011.0 /   3203.6 /  11716.9 / 13091.48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.44 /     2.58 /     3.23 /      4.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.25 /     2.35 /     2.92 /     5.23</t>
-  </si>
-  <si>
     <t>26.11  /  26.12  /  26.22  /  26.3  /  26.36</t>
   </si>
   <si>
@@ -1632,18 +1353,6 @@
     <t>69.0  /  73.0  /  69.0  /  70.0  /  67.0</t>
   </si>
   <si>
-    <t>28.57  /  28.62  /  28.68  /  28.73  /  28.59</t>
-  </si>
-  <si>
-    <t>19.84  /  19.53  /  19.49  /  19.53  /  19.03</t>
-  </si>
-  <si>
-    <t>51.52  /  51.76  /  51.76  /  51.69  /  52.31</t>
-  </si>
-  <si>
-    <t>29.0  /  29.0  /  29.0  /  29.0  /  30.0</t>
-  </si>
-  <si>
     <t>48.67  /  48.59  /  48.41  /  48.31  /  47.95</t>
   </si>
   <si>
@@ -1692,16 +1401,271 @@
     <t>38.0  /  38.0  /  38.0  /  38.0  /  38.0</t>
   </si>
   <si>
-    <t>38.51  /  37.39  /  35.9  /  35.2  /  35.69</t>
-  </si>
-  <si>
-    <t>9.52  /  9.63  /  9.72  /  10.22  /  10.34</t>
-  </si>
-  <si>
-    <t>51.88  /  52.91  /  54.31  /  54.52  /  53.89</t>
-  </si>
-  <si>
-    <t>15.0  /  16.0  /  18.0  /  18.0  /  18.0</t>
+    <t xml:space="preserve">    60.5 /    60.72 /    59.87 /    57.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2037.0 /   1600.6 /   1619.8 /   1546.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    12.2 /    12.12 /     12.0 /    12.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    69.7 /    68.88 /     68.7 /    68.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   181.0 /   121.18 /   125.01 /   188.91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.82 /     1.84 /     1.84 /     1.93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   19.65 /    19.85 /    19.93 /    19.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3151.0 /   2367.8 /  2827.95 /  3342.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    14.1 /    14.16 /    13.95 /    13.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    29.3 /    30.23 /    30.92 /     32.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12083.0 /  11777.4 /   6077.3 /  7470.53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    37.1 /     37.5 /    38.24 /    39.84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   33.55 /    34.38 /    34.26 /    35.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2740.0 /   5819.2 /  3790.15 /  7242.87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    10.2 /    10.66 /    10.91 /    13.87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    35.9 /    36.37 /    36.44 /    37.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  8522.0 /  15616.6 /  6623.55 / 10795.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     9.2 /     9.04 /     9.42 /    10.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   21.15 /    21.17 /    21.22 /    21.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1841.0 /   2951.0 /   2852.2 /  3789.77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    9.09 /      9.1 /     8.99 /      9.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    15.6 /    15.71 /    15.41 /    15.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   539.0 /   1220.0 /   720.55 /  1008.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    30.1 /    30.04 /    29.75 /    29.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   448.0 /    555.8 /    424.4 /   569.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    21.1 /    21.23 /    21.28 /    22.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    55.2 /     75.5 /    90.58 /   420.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   31.05 /    31.25 /     31.6 /    31.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   322.0 /    295.0 /    357.7 /   708.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    32.0 /    32.74 /    34.62 /    34.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1544.0 /   1459.2 /  1778.15 /  4016.93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    25.0 /    24.76 /    24.22 /    24.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12830.0 /  13984.0 / 12338.25 / 13463.82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    67.7 /    66.46 /    65.94 /    60.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  8497.0 /   5118.6 /  10896.6 /  7454.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   30.95 /     30.8 /    30.26 /    30.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  5196.0 /   6662.2 /  5124.95 /   7408.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    88.5 /    86.44 /    83.12 /    81.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4387.0 /   3686.4 /  2343.95 /  1893.88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    46.8 /    46.94 /    46.16 /    45.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   781.0 /   1069.0 /  1353.15 /  1303.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    33.7 /    35.52 /    30.09 /    27.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  6179.0 /  10929.2 /   8572.6 /  3485.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   164.0 /    166.2 /    166.2 /   164.73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1409.0 /   2752.2 /   2530.8 /  3006.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    50.0 /    51.42 /    50.86 /     49.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   498.0 /    472.2 /    503.5 /   494.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   36.85 /    37.04 /    37.54 /    38.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1635.0 /   1479.6 /   1422.6 /  1643.83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    50.5 /    49.87 /    49.42 /    49.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   265.0 /    170.8 /    123.4 /   127.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    79.9 /    76.72 /    75.51 /    74.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 79916.0 /  29524.8 / 21784.85 / 21249.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    54.9 /    55.26 /    54.66 /     53.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   820.0 /    975.2 /   1076.9 /    944.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   33.45 /    33.59 /    33.91 /    31.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1012.0 /   1119.0 /   1975.9 /  1468.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    31.0 /     31.4 /     31.3 /    29.71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4171.0 /   8407.0 /  12036.1 / 11587.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   123.5 /    123.1 /   123.05 /   120.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   766.0 /    530.6 /    725.9 /   930.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   33.25 /    32.78 /    32.37 /    32.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3054.0 /   1580.4 /    924.9 /  1049.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   28.65 /    28.94 /    29.01 /    29.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1077.0 /    548.8 /   421.15 /   591.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   25.05 /    24.28 /    24.12 /    23.63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3137.0 /   1893.0 /  1171.25 /   1981.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    53.2 /     52.1 /    51.52 /    51.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  9212.0 /   5043.0 /   4549.9 /  3922.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    33.5 /    33.92 /    34.14 /     31.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  5273.0 /   5774.4 /  10043.2 / 11671.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    57.5 /     58.6 /     58.3 /    59.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2854.0 /   3993.0 /  2379.75 /  3581.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    49.5 /    49.54 /    48.63 /     45.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4162.0 /   4268.8 /  5619.35 /  4390.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    47.1 /     47.6 /    47.52 /    46.72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  5332.0 /   4727.6 /   5958.6 /  6613.63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   47.95 /    48.23 /    47.98 /    47.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1194.0 /   1022.4 /    952.3 /    956.8</t>
+  </si>
+  <si>
+    <t>力山</t>
+  </si>
+  <si>
+    <t>力山工業股份有限公司</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    52.5 /     54.1 /    56.03 /    61.63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1093.0 /   1919.8 /   1253.6 /   947.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    7.56 /     7.62 /     7.69 /     8.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    13.1 /     9.85 /     5.93 /     2.63</t>
+  </si>
+  <si>
+    <t>36.26  /  35.51  /  35.45  /  34.57  /  33.46</t>
+  </si>
+  <si>
+    <t>17.49  /  18.87  /  18.92  /  19.18  /  18.9</t>
+  </si>
+  <si>
+    <t>46.17  /  45.55  /  45.57  /  46.17  /  47.55</t>
+  </si>
+  <si>
+    <t>20.0  /  19.0  /  19.0  /  20.0  /  22.0</t>
   </si>
 </sst>
 </file>
@@ -2359,13 +2323,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2723,13 +2687,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2696BFBE-0625-42C0-8E1C-A5A53CEB8548}">
-  <dimension ref="A1:AW40"/>
+  <dimension ref="A1:AY39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AC15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AB14" sqref="AB14"/>
+      <selection pane="bottomRight" activeCell="AJ10" sqref="AJ10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2755,15 +2719,15 @@
   <sheetData>
     <row r="1" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="11" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="10" t="s">
@@ -2773,31 +2737,31 @@
         <v>3</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H1" s="10" t="s">
         <v>4</v>
       </c>
       <c r="I1" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="O1" s="11" t="s">
-        <v>246</v>
+      <c r="N1" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>232</v>
       </c>
       <c r="P1" s="10" t="s">
         <v>4</v>
@@ -2813,50 +2777,50 @@
       <c r="Y1" s="10"/>
       <c r="Z1" s="3"/>
       <c r="AA1" s="3"/>
-      <c r="AB1" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="AC1" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="AD1" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="AE1" s="12" t="s">
-        <v>183</v>
+      <c r="AB1" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC1" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="AD1" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="AE1" s="13" t="s">
+        <v>177</v>
       </c>
       <c r="AF1" s="10" t="s">
         <v>5</v>
       </c>
       <c r="AG1" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AH1" s="10" t="s">
         <v>6</v>
       </c>
       <c r="AI1" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ1" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK1" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AJ1" s="9" t="s">
+      <c r="AL1" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="AK1" s="9" t="s">
+      <c r="AM1" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AL1" s="9" t="s">
+      <c r="AN1" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AM1" s="9" t="s">
+      <c r="AO1" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="AN1" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="AO1" s="9" t="s">
-        <v>61</v>
-      </c>
       <c r="AP1" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AQ1" s="9"/>
       <c r="AR1" s="9"/>
@@ -2867,66 +2831,66 @@
       <c r="A2" s="9"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
-      <c r="D2" s="13"/>
+      <c r="D2" s="11"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
       <c r="J2" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
+        <v>34</v>
+      </c>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
       <c r="P2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="U2" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="Q2" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="T2" s="5" t="s">
+      <c r="V2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="W2" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="X2" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="Y2" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="Z2" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="Y2" s="5" t="s">
+      <c r="AA2" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="Z2" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA2" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB2" s="12"/>
-      <c r="AC2" s="12"/>
-      <c r="AD2" s="12"/>
-      <c r="AE2" s="12"/>
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="13"/>
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="13"/>
       <c r="AF2" s="10"/>
       <c r="AG2" s="9"/>
       <c r="AH2" s="10"/>
@@ -2960,10 +2924,10 @@
         <v>1229</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D3" s="7">
         <v>14096480360</v>
@@ -2975,31 +2939,31 @@
         <v>19760719</v>
       </c>
       <c r="G3">
-        <v>4.4400000000000004</v>
+        <v>4.46</v>
       </c>
       <c r="H3">
-        <v>17.27</v>
+        <v>17.190000000000001</v>
       </c>
       <c r="I3">
-        <v>2.19</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="J3" t="s">
-        <v>248</v>
+        <v>438</v>
       </c>
       <c r="K3" t="s">
-        <v>249</v>
+        <v>439</v>
       </c>
       <c r="L3" t="s">
-        <v>237</v>
+        <v>440</v>
       </c>
       <c r="M3" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="N3">
-        <v>0.19</v>
+        <v>0.1</v>
       </c>
       <c r="O3">
-        <v>-45.58</v>
+        <v>-40.54</v>
       </c>
       <c r="P3">
         <v>11</v>
@@ -3038,16 +3002,16 @@
         <v>60.8</v>
       </c>
       <c r="AB3" t="s">
-        <v>389</v>
+        <v>296</v>
       </c>
       <c r="AC3" t="s">
-        <v>390</v>
+        <v>297</v>
       </c>
       <c r="AD3" t="s">
-        <v>391</v>
+        <v>298</v>
       </c>
       <c r="AE3" t="s">
-        <v>392</v>
+        <v>299</v>
       </c>
       <c r="AF3" s="1">
         <v>26.64</v>
@@ -3080,19 +3044,19 @@
         <v>60</v>
       </c>
       <c r="AP3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AQ3" s="1" t="s">
+      <c r="AS3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AR3" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AS3" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="AT3" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:48" x14ac:dyDescent="0.25">
@@ -3100,10 +3064,10 @@
         <v>1231</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D4" s="7">
         <v>2017623940</v>
@@ -3115,31 +3079,31 @@
         <v>19951102</v>
       </c>
       <c r="G4">
-        <v>3.75</v>
+        <v>3.73</v>
       </c>
       <c r="H4">
-        <v>17.61</v>
+        <v>17.690000000000001</v>
       </c>
       <c r="I4">
-        <v>3.26</v>
+        <v>3.27</v>
       </c>
       <c r="J4" t="s">
-        <v>251</v>
+        <v>441</v>
       </c>
       <c r="K4" t="s">
-        <v>252</v>
+        <v>442</v>
       </c>
       <c r="L4" t="s">
-        <v>238</v>
+        <v>443</v>
       </c>
       <c r="M4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="O4">
-        <v>-0.92</v>
+        <v>0.13</v>
       </c>
       <c r="P4">
         <v>11</v>
@@ -3178,16 +3142,16 @@
         <v>66.81</v>
       </c>
       <c r="AB4" t="s">
-        <v>393</v>
+        <v>300</v>
       </c>
       <c r="AC4" t="s">
-        <v>394</v>
+        <v>301</v>
       </c>
       <c r="AD4" t="s">
-        <v>395</v>
+        <v>302</v>
       </c>
       <c r="AE4" t="s">
-        <v>396</v>
+        <v>303</v>
       </c>
       <c r="AF4" s="1">
         <v>23.18</v>
@@ -3220,19 +3184,19 @@
         <v>43</v>
       </c>
       <c r="AP4" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AQ4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR4" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AS4" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AT4" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="AQ4" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AR4" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AS4" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AT4" s="1" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:48" x14ac:dyDescent="0.25">
@@ -3240,10 +3204,10 @@
         <v>1409</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D5" s="7">
         <v>16184092910</v>
@@ -3255,31 +3219,31 @@
         <v>19730831</v>
       </c>
       <c r="G5">
-        <v>5.54</v>
+        <v>5.6</v>
       </c>
       <c r="H5">
-        <v>8.74</v>
+        <v>8.66</v>
       </c>
       <c r="I5">
-        <v>0.94</v>
+        <v>0.93</v>
       </c>
       <c r="J5" t="s">
-        <v>253</v>
+        <v>444</v>
       </c>
       <c r="K5" t="s">
-        <v>254</v>
+        <v>445</v>
       </c>
       <c r="L5" t="s">
-        <v>239</v>
+        <v>446</v>
       </c>
       <c r="M5" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="N5">
-        <v>0.76</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>-9.83</v>
+        <v>-9.5500000000000007</v>
       </c>
       <c r="P5">
         <v>9</v>
@@ -3318,16 +3282,16 @@
         <v>38.590000000000003</v>
       </c>
       <c r="AB5" t="s">
-        <v>397</v>
+        <v>304</v>
       </c>
       <c r="AC5" t="s">
-        <v>398</v>
+        <v>305</v>
       </c>
       <c r="AD5" t="s">
-        <v>399</v>
+        <v>306</v>
       </c>
       <c r="AE5" t="s">
-        <v>400</v>
+        <v>307</v>
       </c>
       <c r="AF5" s="1">
         <v>24.73</v>
@@ -3360,19 +3324,19 @@
         <v>47</v>
       </c>
       <c r="AP5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AR5" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AQ5" s="1" t="s">
+      <c r="AS5" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="AR5" s="1" t="s">
+      <c r="AT5" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="AS5" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AT5" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:48" x14ac:dyDescent="0.25">
@@ -3380,10 +3344,10 @@
         <v>1304</v>
       </c>
       <c r="B6" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C6" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D6" s="7">
         <v>11887635000</v>
@@ -3395,31 +3359,31 @@
         <v>19720520</v>
       </c>
       <c r="G6">
-        <v>3.31</v>
+        <v>3.41</v>
       </c>
       <c r="H6">
-        <v>6.61</v>
+        <v>6.41</v>
       </c>
       <c r="I6">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="J6" t="s">
-        <v>256</v>
+        <v>447</v>
       </c>
       <c r="K6" t="s">
-        <v>257</v>
+        <v>448</v>
       </c>
       <c r="L6" t="s">
-        <v>240</v>
+        <v>449</v>
       </c>
       <c r="M6" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="N6">
-        <v>0.21</v>
+        <v>0.39</v>
       </c>
       <c r="O6">
-        <v>-24.65</v>
+        <v>-14.46</v>
       </c>
       <c r="P6">
         <v>10</v>
@@ -3458,16 +3422,16 @@
         <v>91.4</v>
       </c>
       <c r="AB6" t="s">
-        <v>401</v>
+        <v>308</v>
       </c>
       <c r="AC6" t="s">
-        <v>402</v>
+        <v>309</v>
       </c>
       <c r="AD6" t="s">
-        <v>403</v>
+        <v>310</v>
       </c>
       <c r="AE6" t="s">
-        <v>404</v>
+        <v>311</v>
       </c>
       <c r="AF6">
         <v>23.9</v>
@@ -3500,19 +3464,19 @@
         <v>60</v>
       </c>
       <c r="AP6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AQ6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AR6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AS6" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="AT6" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:48" x14ac:dyDescent="0.25">
@@ -3520,10 +3484,10 @@
         <v>1305</v>
       </c>
       <c r="B7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D7" s="7">
         <v>5810504940</v>
@@ -3535,31 +3499,31 @@
         <v>19730305</v>
       </c>
       <c r="G7">
-        <v>6.8</v>
+        <v>6.86</v>
       </c>
       <c r="H7">
-        <v>6.8</v>
+        <v>6.75</v>
       </c>
       <c r="I7">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="J7" t="s">
-        <v>259</v>
+        <v>450</v>
       </c>
       <c r="K7" t="s">
-        <v>260</v>
+        <v>451</v>
       </c>
       <c r="L7" t="s">
-        <v>241</v>
+        <v>452</v>
       </c>
       <c r="M7" t="s">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="N7">
-        <v>0.45</v>
+        <v>0.61</v>
       </c>
       <c r="O7">
-        <v>-16.43</v>
+        <v>-11.83</v>
       </c>
       <c r="P7">
         <v>7</v>
@@ -3598,16 +3562,16 @@
         <v>79.680000000000007</v>
       </c>
       <c r="AB7" t="s">
-        <v>405</v>
+        <v>312</v>
       </c>
       <c r="AC7" t="s">
-        <v>406</v>
+        <v>313</v>
       </c>
       <c r="AD7" t="s">
-        <v>407</v>
+        <v>314</v>
       </c>
       <c r="AE7" t="s">
-        <v>408</v>
+        <v>315</v>
       </c>
       <c r="AF7">
         <v>25.41</v>
@@ -3640,19 +3604,19 @@
         <v>57</v>
       </c>
       <c r="AP7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AQ7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="AR7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="AS7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="AT7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.25">
@@ -3660,10 +3624,10 @@
         <v>1308</v>
       </c>
       <c r="B8" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C8" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D8" s="7">
         <v>5937439190</v>
@@ -3675,31 +3639,31 @@
         <v>19860620</v>
       </c>
       <c r="G8">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="H8">
-        <v>8.1999999999999993</v>
+        <v>7.89</v>
       </c>
       <c r="I8">
-        <v>1.47</v>
+        <v>1.41</v>
       </c>
       <c r="J8" t="s">
-        <v>262</v>
+        <v>453</v>
       </c>
       <c r="K8" t="s">
-        <v>263</v>
+        <v>454</v>
       </c>
       <c r="L8" t="s">
-        <v>242</v>
+        <v>455</v>
       </c>
       <c r="M8" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="N8">
-        <v>1.01</v>
+        <v>0.84</v>
       </c>
       <c r="O8">
-        <v>-1.63</v>
+        <v>-5.66</v>
       </c>
       <c r="P8">
         <v>11</v>
@@ -3738,16 +3702,16 @@
         <v>100.3</v>
       </c>
       <c r="AB8" t="s">
-        <v>409</v>
+        <v>316</v>
       </c>
       <c r="AC8" t="s">
-        <v>410</v>
+        <v>317</v>
       </c>
       <c r="AD8" t="s">
-        <v>411</v>
+        <v>318</v>
       </c>
       <c r="AE8" t="s">
-        <v>412</v>
+        <v>319</v>
       </c>
       <c r="AF8">
         <v>34.97</v>
@@ -3780,19 +3744,19 @@
         <v>72</v>
       </c>
       <c r="AP8" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="AQ8" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="AR8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AS8" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="AT8" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:48" x14ac:dyDescent="0.25">
@@ -3800,10 +3764,10 @@
         <v>1313</v>
       </c>
       <c r="B9" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C9" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D9" s="7">
         <v>13471206070</v>
@@ -3824,22 +3788,22 @@
         <v>0.95</v>
       </c>
       <c r="J9" t="s">
-        <v>265</v>
+        <v>456</v>
       </c>
       <c r="K9" t="s">
-        <v>266</v>
+        <v>457</v>
       </c>
       <c r="L9" t="s">
-        <v>243</v>
+        <v>458</v>
       </c>
       <c r="M9" t="s">
-        <v>267</v>
+        <v>239</v>
       </c>
       <c r="N9">
-        <v>0.35</v>
+        <v>0.88</v>
       </c>
       <c r="O9">
-        <v>-28.79</v>
+        <v>-5.21</v>
       </c>
       <c r="P9">
         <v>13</v>
@@ -3878,16 +3842,16 @@
         <v>86.32</v>
       </c>
       <c r="AB9" t="s">
-        <v>413</v>
+        <v>320</v>
       </c>
       <c r="AC9" t="s">
-        <v>414</v>
+        <v>321</v>
       </c>
       <c r="AD9" t="s">
-        <v>415</v>
+        <v>322</v>
       </c>
       <c r="AE9" t="s">
-        <v>416</v>
+        <v>323</v>
       </c>
       <c r="AF9">
         <v>9.1999999999999993</v>
@@ -3920,19 +3884,19 @@
         <v>40</v>
       </c>
       <c r="AP9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AQ9" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="AR9" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="AS9" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="AT9" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:48" x14ac:dyDescent="0.25">
@@ -3955,31 +3919,31 @@
         <v>20001031</v>
       </c>
       <c r="G10">
-        <v>2.5499999999999998</v>
+        <v>2.56</v>
       </c>
       <c r="H10">
-        <v>11.13</v>
+        <v>11.06</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="J10" t="s">
-        <v>268</v>
+        <v>459</v>
       </c>
       <c r="K10" t="s">
-        <v>269</v>
+        <v>460</v>
       </c>
       <c r="L10" t="s">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="M10" t="s">
-        <v>271</v>
+        <v>241</v>
       </c>
       <c r="N10">
-        <v>1.92</v>
-      </c>
-      <c r="O10" s="8">
-        <v>17.579999999999998</v>
+        <v>0.75</v>
+      </c>
+      <c r="O10">
+        <v>-14.3</v>
       </c>
       <c r="P10">
         <v>13</v>
@@ -4018,16 +3982,16 @@
         <v>35.25</v>
       </c>
       <c r="AB10" t="s">
-        <v>417</v>
+        <v>324</v>
       </c>
       <c r="AC10" t="s">
-        <v>418</v>
+        <v>325</v>
       </c>
       <c r="AD10" t="s">
-        <v>419</v>
+        <v>326</v>
       </c>
       <c r="AE10" t="s">
-        <v>420</v>
+        <v>327</v>
       </c>
       <c r="AF10" s="1">
         <v>16.04</v>
@@ -4060,2476 +4024,2476 @@
         <v>43</v>
       </c>
       <c r="AP10" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AQ10" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AR10" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AS10" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="AQ10" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AR10" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AS10" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="AT10" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>1604</v>
+        <v>1515</v>
       </c>
       <c r="B11" t="s">
-        <v>235</v>
+        <v>517</v>
       </c>
       <c r="C11" t="s">
-        <v>236</v>
-      </c>
-      <c r="D11" s="7">
-        <v>3872000000</v>
+        <v>518</v>
+      </c>
+      <c r="D11">
+        <v>1814735000</v>
       </c>
       <c r="E11">
-        <v>19620911</v>
+        <v>19730430</v>
       </c>
       <c r="F11">
-        <v>19701214</v>
+        <v>19950204</v>
       </c>
       <c r="G11">
-        <v>8.33</v>
+        <v>6.86</v>
       </c>
       <c r="H11">
-        <v>6.48</v>
+        <v>8.27</v>
       </c>
       <c r="I11">
-        <v>1.32</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="J11" t="s">
-        <v>272</v>
+        <v>519</v>
       </c>
       <c r="K11" t="s">
-        <v>273</v>
+        <v>520</v>
       </c>
       <c r="L11" t="s">
-        <v>274</v>
+        <v>521</v>
       </c>
       <c r="M11" t="s">
-        <v>275</v>
+        <v>522</v>
       </c>
       <c r="N11">
-        <v>0.64</v>
+        <v>0.75</v>
       </c>
       <c r="O11">
-        <v>-6.47</v>
+        <v>-4.21</v>
       </c>
       <c r="P11">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="Q11">
-        <v>32.130000000000003</v>
+        <v>76.2</v>
       </c>
       <c r="R11">
-        <v>8.1999999999999993</v>
+        <v>15.6</v>
       </c>
       <c r="S11">
-        <v>37.64</v>
+        <v>99.06</v>
       </c>
       <c r="T11">
-        <v>9.4</v>
+        <v>19.2</v>
       </c>
       <c r="U11">
-        <v>43.15</v>
+        <v>121.9</v>
       </c>
       <c r="V11">
-        <v>10.6</v>
+        <v>22.8</v>
       </c>
       <c r="W11">
-        <v>48.65</v>
+        <v>144.80000000000001</v>
       </c>
       <c r="X11">
-        <v>11.8</v>
+        <v>26.4</v>
       </c>
       <c r="Y11">
-        <v>54.16</v>
+        <v>167.6</v>
       </c>
       <c r="Z11">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="AA11">
-        <v>59.67</v>
+        <v>190.5</v>
       </c>
       <c r="AB11" t="s">
-        <v>421</v>
+        <v>523</v>
       </c>
       <c r="AC11" t="s">
-        <v>422</v>
+        <v>524</v>
       </c>
       <c r="AD11" t="s">
-        <v>423</v>
+        <v>525</v>
       </c>
       <c r="AE11" t="s">
-        <v>424</v>
+        <v>526</v>
       </c>
       <c r="AF11">
-        <v>17.72</v>
+        <v>13.81</v>
       </c>
       <c r="AG11">
-        <v>7.61</v>
+        <v>8.14</v>
       </c>
       <c r="AH11">
-        <v>26.03</v>
+        <v>28.22</v>
       </c>
       <c r="AI11">
-        <v>26.84</v>
+        <v>7.63</v>
       </c>
       <c r="AJ11">
-        <v>24.99</v>
+        <v>6.12</v>
       </c>
       <c r="AK11">
-        <v>0.67</v>
+        <v>1.74</v>
       </c>
       <c r="AL11">
-        <v>28.35</v>
+        <v>106.68</v>
       </c>
       <c r="AM11">
-        <v>0.53</v>
+        <v>7.24</v>
       </c>
       <c r="AN11">
-        <v>4.1399999999999997</v>
+        <v>2.77</v>
       </c>
       <c r="AO11">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="AP11" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="AQ11" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="AR11" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="AS11" t="s">
-        <v>188</v>
+        <v>88</v>
       </c>
       <c r="AT11" t="s">
-        <v>127</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>1776</v>
+        <v>1604</v>
       </c>
       <c r="B12" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="C12" t="s">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="D12" s="7">
-        <v>703352990</v>
+        <v>3872000000</v>
       </c>
       <c r="E12">
-        <v>19760424</v>
+        <v>19620911</v>
       </c>
       <c r="F12">
-        <v>20160509</v>
+        <v>19701214</v>
       </c>
       <c r="G12">
-        <v>4.6900000000000004</v>
+        <v>8.31</v>
       </c>
       <c r="H12">
-        <v>8.6199999999999992</v>
+        <v>6.5</v>
       </c>
       <c r="I12">
-        <v>1.42</v>
+        <v>1.32</v>
       </c>
       <c r="J12" t="s">
-        <v>276</v>
+        <v>461</v>
       </c>
       <c r="K12" t="s">
-        <v>277</v>
+        <v>462</v>
       </c>
       <c r="L12" t="s">
-        <v>278</v>
+        <v>242</v>
       </c>
       <c r="M12" t="s">
-        <v>279</v>
-      </c>
-      <c r="N12">
-        <v>2.4</v>
-      </c>
-      <c r="O12">
-        <v>8.44</v>
+        <v>243</v>
+      </c>
+      <c r="N12" s="8">
+        <v>2.62</v>
+      </c>
+      <c r="O12" s="8">
+        <v>21.42</v>
       </c>
       <c r="P12">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="Q12">
-        <v>30</v>
+        <v>32.130000000000003</v>
       </c>
       <c r="R12">
-        <v>14.4</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="S12">
-        <v>36</v>
+        <v>37.64</v>
       </c>
       <c r="T12">
-        <v>16.8</v>
+        <v>9.4</v>
       </c>
       <c r="U12">
-        <v>42</v>
+        <v>43.15</v>
       </c>
       <c r="V12">
-        <v>19.2</v>
+        <v>10.6</v>
       </c>
       <c r="W12">
-        <v>48</v>
+        <v>48.65</v>
       </c>
       <c r="X12">
-        <v>21.6</v>
+        <v>11.8</v>
       </c>
       <c r="Y12">
-        <v>54</v>
+        <v>54.16</v>
       </c>
       <c r="Z12">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="AA12">
-        <v>60</v>
+        <v>59.67</v>
       </c>
       <c r="AB12" t="s">
-        <v>425</v>
+        <v>328</v>
       </c>
       <c r="AC12" t="s">
-        <v>426</v>
+        <v>329</v>
       </c>
       <c r="AD12" t="s">
-        <v>427</v>
+        <v>330</v>
       </c>
       <c r="AE12" t="s">
-        <v>205</v>
+        <v>331</v>
       </c>
       <c r="AF12">
-        <v>20.57</v>
+        <v>17.72</v>
       </c>
       <c r="AG12">
-        <v>7.03</v>
+        <v>7.61</v>
       </c>
       <c r="AH12">
-        <v>19.61</v>
+        <v>26.03</v>
       </c>
       <c r="AI12">
-        <v>7.3</v>
+        <v>26.84</v>
       </c>
       <c r="AJ12">
-        <v>15.07</v>
+        <v>24.99</v>
       </c>
       <c r="AK12">
-        <v>0.78</v>
+        <v>0.67</v>
       </c>
       <c r="AL12">
-        <v>96.3</v>
+        <v>28.35</v>
       </c>
       <c r="AM12">
-        <v>1.64</v>
+        <v>0.53</v>
       </c>
       <c r="AN12">
-        <v>7.28</v>
+        <v>4.1399999999999997</v>
       </c>
       <c r="AO12">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AP12" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="AQ12" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="AR12" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="AS12" t="s">
-        <v>93</v>
+        <v>182</v>
       </c>
       <c r="AT12" t="s">
-        <v>89</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>2020</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>16</v>
+      <c r="A13">
+        <v>1776</v>
+      </c>
+      <c r="B13" t="s">
+        <v>197</v>
+      </c>
+      <c r="C13" t="s">
+        <v>198</v>
       </c>
       <c r="D13" s="7">
-        <v>2225261000</v>
-      </c>
-      <c r="E13" s="1">
-        <v>19590929</v>
-      </c>
-      <c r="F13" s="1">
-        <v>19930427</v>
+        <v>703352990</v>
+      </c>
+      <c r="E13">
+        <v>19760424</v>
+      </c>
+      <c r="F13">
+        <v>20160509</v>
       </c>
       <c r="G13">
-        <v>5.42</v>
+        <v>4.74</v>
       </c>
       <c r="H13">
-        <v>8.81</v>
+        <v>8.5399999999999991</v>
       </c>
       <c r="I13">
-        <v>1.95</v>
+        <v>1.4</v>
       </c>
       <c r="J13" t="s">
-        <v>280</v>
+        <v>463</v>
       </c>
       <c r="K13" t="s">
-        <v>281</v>
+        <v>464</v>
       </c>
       <c r="L13" t="s">
-        <v>282</v>
+        <v>244</v>
       </c>
       <c r="M13" t="s">
-        <v>283</v>
+        <v>245</v>
       </c>
       <c r="N13">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="O13">
-        <v>6.97</v>
+        <v>3.98</v>
       </c>
       <c r="P13">
         <v>12</v>
       </c>
       <c r="Q13">
-        <v>42.72</v>
+        <v>30</v>
       </c>
       <c r="R13">
-        <v>14.8</v>
+        <v>14.4</v>
       </c>
       <c r="S13">
-        <v>52.69</v>
+        <v>36</v>
       </c>
       <c r="T13">
-        <v>17.600000000000001</v>
+        <v>16.8</v>
       </c>
       <c r="U13">
-        <v>62.66</v>
+        <v>42</v>
       </c>
       <c r="V13">
-        <v>20.399999999999999</v>
+        <v>19.2</v>
       </c>
       <c r="W13">
-        <v>72.62</v>
+        <v>48</v>
       </c>
       <c r="X13">
-        <v>23.2</v>
+        <v>21.6</v>
       </c>
       <c r="Y13">
-        <v>82.59</v>
+        <v>54</v>
       </c>
       <c r="Z13">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AA13">
-        <v>92.56</v>
+        <v>60</v>
       </c>
       <c r="AB13" t="s">
-        <v>428</v>
+        <v>332</v>
       </c>
       <c r="AC13" t="s">
-        <v>429</v>
+        <v>333</v>
       </c>
       <c r="AD13" t="s">
-        <v>430</v>
+        <v>334</v>
       </c>
       <c r="AE13" t="s">
-        <v>431</v>
-      </c>
-      <c r="AF13" s="1">
-        <v>14.3</v>
-      </c>
-      <c r="AG13" s="1">
-        <v>9.4700000000000006</v>
-      </c>
-      <c r="AH13" s="1">
-        <v>27.47</v>
-      </c>
-      <c r="AI13" s="1">
-        <v>16.52</v>
-      </c>
-      <c r="AJ13" s="1">
-        <v>14.13</v>
-      </c>
-      <c r="AK13" s="1">
-        <v>0.89</v>
-      </c>
-      <c r="AL13" s="1">
-        <v>57.32</v>
-      </c>
-      <c r="AM13" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="AN13" s="1">
-        <v>1.46</v>
-      </c>
-      <c r="AO13" s="1">
-        <v>47</v>
-      </c>
-      <c r="AP13" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AQ13" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AR13" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="AF13">
+        <v>20.57</v>
+      </c>
+      <c r="AG13">
+        <v>7.03</v>
+      </c>
+      <c r="AH13">
+        <v>19.61</v>
+      </c>
+      <c r="AI13">
+        <v>7.3</v>
+      </c>
+      <c r="AJ13">
+        <v>15.07</v>
+      </c>
+      <c r="AK13">
+        <v>0.78</v>
+      </c>
+      <c r="AL13">
+        <v>96.3</v>
+      </c>
+      <c r="AM13">
+        <v>1.64</v>
+      </c>
+      <c r="AN13">
+        <v>7.28</v>
+      </c>
+      <c r="AO13">
+        <v>60</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR13" t="s">
         <v>127</v>
       </c>
-      <c r="AS13" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AT13" s="1" t="s">
-        <v>129</v>
+      <c r="AS13" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>2069</v>
+        <v>2020</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D14" s="7">
-        <v>1663868360</v>
+        <v>2225261000</v>
       </c>
       <c r="E14" s="1">
-        <v>19870724</v>
+        <v>19590929</v>
       </c>
       <c r="F14" s="1">
-        <v>20160322</v>
+        <v>19930427</v>
       </c>
       <c r="G14">
-        <v>1.69</v>
+        <v>5.48</v>
       </c>
       <c r="H14">
-        <v>8.4700000000000006</v>
+        <v>8.7200000000000006</v>
       </c>
       <c r="I14">
-        <v>1.37</v>
+        <v>1.93</v>
       </c>
       <c r="J14" t="s">
-        <v>284</v>
+        <v>465</v>
       </c>
       <c r="K14" t="s">
-        <v>285</v>
+        <v>466</v>
       </c>
       <c r="L14" t="s">
-        <v>286</v>
+        <v>246</v>
       </c>
       <c r="M14" t="s">
-        <v>287</v>
+        <v>247</v>
       </c>
       <c r="N14">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="O14">
-        <v>0.63</v>
+        <v>-7.14</v>
       </c>
       <c r="P14">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Q14">
-        <v>38.6</v>
+        <v>42.72</v>
       </c>
       <c r="R14">
-        <v>13.4</v>
+        <v>14.8</v>
       </c>
       <c r="S14">
-        <v>51.72</v>
+        <v>52.69</v>
       </c>
       <c r="T14">
-        <v>16.8</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="U14">
-        <v>64.849999999999994</v>
+        <v>62.66</v>
       </c>
       <c r="V14">
-        <v>20.2</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="W14">
-        <v>77.97</v>
+        <v>72.62</v>
       </c>
       <c r="X14">
-        <v>23.6</v>
+        <v>23.2</v>
       </c>
       <c r="Y14">
-        <v>91.1</v>
+        <v>82.59</v>
       </c>
       <c r="Z14">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA14">
-        <v>104.2</v>
+        <v>92.56</v>
       </c>
       <c r="AB14" t="s">
-        <v>432</v>
+        <v>335</v>
       </c>
       <c r="AC14" t="s">
-        <v>433</v>
+        <v>336</v>
       </c>
       <c r="AD14" t="s">
-        <v>434</v>
+        <v>337</v>
       </c>
       <c r="AE14" t="s">
-        <v>435</v>
+        <v>338</v>
       </c>
       <c r="AF14" s="1">
-        <v>13</v>
+        <v>14.3</v>
       </c>
       <c r="AG14" s="1">
-        <v>6.49</v>
+        <v>9.4700000000000006</v>
       </c>
       <c r="AH14" s="1">
-        <v>19.260000000000002</v>
+        <v>27.47</v>
       </c>
       <c r="AI14" s="1">
-        <v>6.18</v>
+        <v>16.52</v>
       </c>
       <c r="AJ14" s="1">
-        <v>5.03</v>
+        <v>14.13</v>
       </c>
       <c r="AK14" s="1">
-        <v>1.39</v>
+        <v>0.89</v>
       </c>
       <c r="AL14" s="1">
-        <v>105.02</v>
+        <v>57.32</v>
       </c>
       <c r="AM14" s="1">
-        <v>-7.36</v>
+        <v>0.9</v>
       </c>
       <c r="AN14" s="1">
-        <v>-9.52</v>
+        <v>1.46</v>
       </c>
       <c r="AO14" s="1">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="AP14" s="1" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="AQ14" s="1" t="s">
-        <v>85</v>
+        <v>124</v>
       </c>
       <c r="AR14" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="AS14" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="AT14" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>2324</v>
+        <v>2069</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="D15" s="7">
-        <v>44071466250</v>
+        <v>1663868360</v>
       </c>
       <c r="E15" s="1">
-        <v>19840601</v>
+        <v>19870724</v>
       </c>
       <c r="F15" s="1">
-        <v>19920218</v>
+        <v>20160322</v>
       </c>
       <c r="G15">
-        <v>6.44</v>
+        <v>1.72</v>
       </c>
       <c r="H15">
-        <v>7.72</v>
+        <v>8.31</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>1.34</v>
       </c>
       <c r="J15" t="s">
-        <v>288</v>
+        <v>467</v>
       </c>
       <c r="K15" t="s">
-        <v>289</v>
+        <v>468</v>
       </c>
       <c r="L15" t="s">
-        <v>290</v>
+        <v>248</v>
       </c>
       <c r="M15" t="s">
-        <v>291</v>
+        <v>249</v>
       </c>
       <c r="N15">
-        <v>1.47</v>
+        <v>0.98</v>
       </c>
       <c r="O15">
-        <v>12.4</v>
+        <v>-3.63</v>
       </c>
       <c r="P15">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q15">
-        <v>28.98</v>
+        <v>38.6</v>
       </c>
       <c r="R15">
-        <v>10.199999999999999</v>
+        <v>13.4</v>
       </c>
       <c r="S15">
-        <v>32.840000000000003</v>
+        <v>51.72</v>
       </c>
       <c r="T15">
-        <v>11.4</v>
+        <v>16.8</v>
       </c>
       <c r="U15">
-        <v>36.71</v>
+        <v>64.849999999999994</v>
       </c>
       <c r="V15">
-        <v>12.6</v>
+        <v>20.2</v>
       </c>
       <c r="W15">
-        <v>40.57</v>
+        <v>77.97</v>
       </c>
       <c r="X15">
-        <v>13.8</v>
+        <v>23.6</v>
       </c>
       <c r="Y15">
-        <v>44.44</v>
+        <v>91.1</v>
       </c>
       <c r="Z15">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="AA15">
-        <v>48.3</v>
+        <v>104.2</v>
       </c>
       <c r="AB15" t="s">
-        <v>436</v>
+        <v>339</v>
       </c>
       <c r="AC15" t="s">
-        <v>437</v>
+        <v>340</v>
       </c>
       <c r="AD15" t="s">
-        <v>438</v>
+        <v>341</v>
       </c>
       <c r="AE15" t="s">
-        <v>439</v>
+        <v>342</v>
       </c>
       <c r="AF15" s="1">
-        <v>3.35</v>
+        <v>13</v>
       </c>
       <c r="AG15" s="1">
-        <v>1.0900000000000001</v>
+        <v>6.49</v>
       </c>
       <c r="AH15" s="1">
-        <v>11.72</v>
+        <v>19.260000000000002</v>
       </c>
       <c r="AI15" s="1">
-        <v>1.49</v>
+        <v>6.18</v>
       </c>
       <c r="AJ15" s="1">
-        <v>1.18</v>
+        <v>5.03</v>
       </c>
       <c r="AK15" s="1">
-        <v>2.33</v>
+        <v>1.39</v>
       </c>
       <c r="AL15" s="1">
-        <v>73.150000000000006</v>
+        <v>105.02</v>
       </c>
       <c r="AM15" s="1">
-        <v>-5.67</v>
+        <v>-7.36</v>
       </c>
       <c r="AN15" s="1">
-        <v>-7.8</v>
+        <v>-9.52</v>
       </c>
       <c r="AO15" s="1">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AP15" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AQ15" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="AR15" s="1" t="s">
-        <v>90</v>
+        <v>128</v>
       </c>
       <c r="AS15" s="1" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="AT15" s="1" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>2347</v>
+        <v>2324</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="D16" s="7">
-        <v>16679469680</v>
+        <v>44071466250</v>
       </c>
       <c r="E16" s="1">
-        <v>19880912</v>
+        <v>19840601</v>
       </c>
       <c r="F16" s="1">
-        <v>19951213</v>
+        <v>19920218</v>
       </c>
       <c r="G16">
-        <v>4.9800000000000004</v>
+        <v>6.4</v>
       </c>
       <c r="H16">
-        <v>6.61</v>
+        <v>7.76</v>
       </c>
       <c r="I16">
-        <v>1.87</v>
+        <v>1.01</v>
       </c>
       <c r="J16" t="s">
-        <v>292</v>
+        <v>469</v>
       </c>
       <c r="K16" t="s">
-        <v>293</v>
+        <v>470</v>
       </c>
       <c r="L16" t="s">
-        <v>294</v>
+        <v>250</v>
       </c>
       <c r="M16" t="s">
-        <v>295</v>
+        <v>251</v>
       </c>
       <c r="N16">
-        <v>1.92</v>
+        <v>0.4</v>
       </c>
       <c r="O16">
-        <v>2.44</v>
+        <v>-0.96</v>
       </c>
       <c r="P16">
         <v>9</v>
       </c>
       <c r="Q16">
-        <v>90.18</v>
+        <v>28.98</v>
       </c>
       <c r="R16">
         <v>10.199999999999999</v>
       </c>
       <c r="S16">
-        <v>102.2</v>
+        <v>32.840000000000003</v>
       </c>
       <c r="T16">
         <v>11.4</v>
       </c>
       <c r="U16">
-        <v>114.2</v>
+        <v>36.71</v>
       </c>
       <c r="V16">
         <v>12.6</v>
       </c>
       <c r="W16">
-        <v>126.3</v>
+        <v>40.57</v>
       </c>
       <c r="X16">
         <v>13.8</v>
       </c>
       <c r="Y16">
-        <v>138.30000000000001</v>
+        <v>44.44</v>
       </c>
       <c r="Z16">
         <v>15</v>
       </c>
       <c r="AA16">
-        <v>150.30000000000001</v>
+        <v>48.3</v>
       </c>
       <c r="AB16" t="s">
-        <v>440</v>
+        <v>343</v>
       </c>
       <c r="AC16" t="s">
-        <v>441</v>
+        <v>344</v>
       </c>
       <c r="AD16" t="s">
-        <v>442</v>
+        <v>345</v>
       </c>
       <c r="AE16" t="s">
-        <v>443</v>
+        <v>346</v>
       </c>
       <c r="AF16" s="1">
-        <v>4.4000000000000004</v>
+        <v>3.35</v>
       </c>
       <c r="AG16" s="1">
-        <v>2.29</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="AH16" s="1">
-        <v>32.94</v>
+        <v>11.72</v>
       </c>
       <c r="AI16" s="1">
-        <v>6.79</v>
+        <v>1.49</v>
       </c>
       <c r="AJ16" s="1">
-        <v>5.12</v>
+        <v>1.18</v>
       </c>
       <c r="AK16" s="1">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AL16" s="1">
-        <v>33.729999999999997</v>
+        <v>73.150000000000006</v>
       </c>
       <c r="AM16" s="1">
-        <v>3.64</v>
+        <v>-5.67</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.68</v>
+        <v>-7.8</v>
       </c>
       <c r="AO16" s="1">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AP16" s="1" t="s">
-        <v>133</v>
+        <v>87</v>
       </c>
       <c r="AQ16" s="1" t="s">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="AR16" s="1" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="AS16" s="1" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="AT16" s="1" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>2352</v>
+        <v>2347</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="D17" s="7">
-        <v>19667819580</v>
+        <v>16679469680</v>
       </c>
       <c r="E17" s="1">
-        <v>19840421</v>
+        <v>19880912</v>
       </c>
       <c r="F17" s="1">
-        <v>19960722</v>
+        <v>19951213</v>
       </c>
       <c r="G17">
-        <v>4.84</v>
+        <v>4.87</v>
       </c>
       <c r="H17">
-        <v>6.72</v>
+        <v>6.76</v>
       </c>
       <c r="I17">
-        <v>1.69</v>
+        <v>1.91</v>
       </c>
       <c r="J17" t="s">
-        <v>296</v>
+        <v>471</v>
       </c>
       <c r="K17" t="s">
-        <v>297</v>
+        <v>472</v>
       </c>
       <c r="L17" t="s">
-        <v>298</v>
+        <v>252</v>
       </c>
       <c r="M17" t="s">
-        <v>299</v>
+        <v>253</v>
       </c>
       <c r="N17">
-        <v>1.55</v>
-      </c>
-      <c r="O17" s="8">
-        <v>22.67</v>
+        <v>1.06</v>
+      </c>
+      <c r="O17">
+        <v>-2.97</v>
       </c>
       <c r="P17">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q17">
-        <v>36.96</v>
+        <v>90.18</v>
       </c>
       <c r="R17">
         <v>10.199999999999999</v>
       </c>
       <c r="S17">
-        <v>47.12</v>
+        <v>102.2</v>
       </c>
       <c r="T17">
-        <v>12.4</v>
+        <v>11.4</v>
       </c>
       <c r="U17">
-        <v>57.29</v>
+        <v>114.2</v>
       </c>
       <c r="V17">
-        <v>14.6</v>
+        <v>12.6</v>
       </c>
       <c r="W17">
-        <v>67.45</v>
+        <v>126.3</v>
       </c>
       <c r="X17">
-        <v>16.8</v>
+        <v>13.8</v>
       </c>
       <c r="Y17">
-        <v>77.62</v>
+        <v>138.30000000000001</v>
       </c>
       <c r="Z17">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AA17">
-        <v>87.78</v>
+        <v>150.30000000000001</v>
       </c>
       <c r="AB17" t="s">
-        <v>444</v>
+        <v>347</v>
       </c>
       <c r="AC17" t="s">
-        <v>445</v>
+        <v>348</v>
       </c>
       <c r="AD17" t="s">
-        <v>446</v>
+        <v>349</v>
       </c>
       <c r="AE17" t="s">
-        <v>447</v>
+        <v>350</v>
       </c>
       <c r="AF17" s="1">
-        <v>14.67</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="AG17" s="1">
-        <v>3.42</v>
+        <v>2.29</v>
       </c>
       <c r="AH17" s="1">
-        <v>20.170000000000002</v>
+        <v>32.94</v>
       </c>
       <c r="AI17" s="1">
-        <v>6.69</v>
+        <v>6.79</v>
       </c>
       <c r="AJ17" s="1">
-        <v>5.45</v>
+        <v>5.12</v>
       </c>
       <c r="AK17" s="1">
-        <v>1.24</v>
+        <v>2.25</v>
       </c>
       <c r="AL17" s="1">
-        <v>51.12</v>
+        <v>33.729999999999997</v>
       </c>
       <c r="AM17" s="1">
-        <v>-1.7</v>
+        <v>3.64</v>
       </c>
       <c r="AN17" s="1">
-        <v>-5.0199999999999996</v>
+        <v>0.68</v>
       </c>
       <c r="AO17" s="1">
         <v>40</v>
       </c>
       <c r="AP17" s="1" t="s">
-        <v>93</v>
+        <v>131</v>
       </c>
       <c r="AQ17" s="1" t="s">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="AR17" s="1" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="AS17" s="1" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="AT17" s="1" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>2385</v>
+        <v>2352</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="D18" s="7">
-        <v>7452927490</v>
+        <v>19667819580</v>
       </c>
       <c r="E18" s="1">
-        <v>19830222</v>
+        <v>19840421</v>
       </c>
       <c r="F18" s="1">
-        <v>19990105</v>
+        <v>19960722</v>
       </c>
       <c r="G18">
-        <v>6.32</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="H18">
-        <v>10.73</v>
+        <v>6.71</v>
       </c>
       <c r="I18">
-        <v>2.1800000000000002</v>
+        <v>1.68</v>
       </c>
       <c r="J18" t="s">
-        <v>300</v>
+        <v>473</v>
       </c>
       <c r="K18" t="s">
-        <v>301</v>
+        <v>474</v>
       </c>
       <c r="L18" t="s">
-        <v>302</v>
+        <v>254</v>
       </c>
       <c r="M18" t="s">
-        <v>303</v>
+        <v>255</v>
       </c>
       <c r="N18">
-        <v>0.98</v>
+        <v>2.79</v>
       </c>
       <c r="O18">
-        <v>5.3</v>
+        <v>7.41</v>
       </c>
       <c r="P18">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q18">
-        <v>81.2</v>
+        <v>36.96</v>
       </c>
       <c r="R18">
-        <v>11</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="S18">
-        <v>89.32</v>
+        <v>47.12</v>
       </c>
       <c r="T18">
-        <v>12</v>
+        <v>12.4</v>
       </c>
       <c r="U18">
-        <v>97.44</v>
+        <v>57.29</v>
       </c>
       <c r="V18">
-        <v>13</v>
+        <v>14.6</v>
       </c>
       <c r="W18">
-        <v>105.6</v>
+        <v>67.45</v>
       </c>
       <c r="X18">
-        <v>14</v>
+        <v>16.8</v>
       </c>
       <c r="Y18">
-        <v>113.7</v>
+        <v>77.62</v>
       </c>
       <c r="Z18">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AA18">
-        <v>121.8</v>
+        <v>87.78</v>
       </c>
       <c r="AB18" t="s">
-        <v>448</v>
+        <v>351</v>
       </c>
       <c r="AC18" t="s">
-        <v>449</v>
+        <v>352</v>
       </c>
       <c r="AD18" t="s">
-        <v>450</v>
+        <v>353</v>
       </c>
       <c r="AE18" t="s">
-        <v>451</v>
+        <v>354</v>
       </c>
       <c r="AF18" s="1">
-        <v>17.55</v>
+        <v>14.67</v>
       </c>
       <c r="AG18" s="1">
-        <v>7.9</v>
+        <v>3.42</v>
       </c>
       <c r="AH18" s="1">
-        <v>22.24</v>
+        <v>20.170000000000002</v>
       </c>
       <c r="AI18" s="1">
-        <v>8.7799999999999994</v>
+        <v>6.69</v>
       </c>
       <c r="AJ18" s="1">
-        <v>7.09</v>
+        <v>5.45</v>
       </c>
       <c r="AK18" s="1">
-        <v>1.32</v>
+        <v>1.24</v>
       </c>
       <c r="AL18" s="1">
-        <v>89.98</v>
+        <v>51.12</v>
       </c>
       <c r="AM18" s="1">
-        <v>4.0599999999999996</v>
+        <v>-1.7</v>
       </c>
       <c r="AN18" s="1">
-        <v>1.1399999999999999</v>
+        <v>-5.0199999999999996</v>
       </c>
       <c r="AO18" s="1">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AP18" s="1" t="s">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="AQ18" s="1" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="AR18" s="1" t="s">
-        <v>166</v>
+        <v>82</v>
       </c>
       <c r="AS18" s="1" t="s">
-        <v>167</v>
+        <v>93</v>
       </c>
       <c r="AT18" s="1" t="s">
-        <v>168</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>2387</v>
-      </c>
-      <c r="B19" t="s">
-        <v>225</v>
-      </c>
-      <c r="C19" t="s">
-        <v>226</v>
+      <c r="A19" s="1">
+        <v>2385</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="D19" s="7">
-        <v>1952510510</v>
-      </c>
-      <c r="E19">
-        <v>19910722</v>
-      </c>
-      <c r="F19">
-        <v>19990125</v>
+        <v>7452927490</v>
+      </c>
+      <c r="E19" s="1">
+        <v>19830222</v>
+      </c>
+      <c r="F19" s="1">
+        <v>19990105</v>
       </c>
       <c r="G19">
-        <v>4.26</v>
+        <v>6.21</v>
       </c>
       <c r="H19">
-        <v>7.35</v>
+        <v>10.91</v>
       </c>
       <c r="I19">
-        <v>1.1599999999999999</v>
+        <v>2.21</v>
       </c>
       <c r="J19" t="s">
-        <v>304</v>
+        <v>475</v>
       </c>
       <c r="K19" t="s">
-        <v>305</v>
+        <v>476</v>
       </c>
       <c r="L19" t="s">
-        <v>306</v>
+        <v>256</v>
       </c>
       <c r="M19" t="s">
-        <v>307</v>
-      </c>
-      <c r="N19">
-        <v>0.67</v>
-      </c>
-      <c r="O19">
-        <v>0.36</v>
+        <v>257</v>
+      </c>
+      <c r="N19" s="8">
+        <v>3.78</v>
+      </c>
+      <c r="O19" s="8">
+        <v>21.65</v>
       </c>
       <c r="P19">
         <v>10</v>
       </c>
       <c r="Q19">
-        <v>63.9</v>
+        <v>81.2</v>
       </c>
       <c r="R19">
-        <v>12.6</v>
+        <v>11</v>
       </c>
       <c r="S19">
-        <v>80.510000000000005</v>
+        <v>89.32</v>
       </c>
       <c r="T19">
-        <v>15.2</v>
+        <v>12</v>
       </c>
       <c r="U19">
-        <v>97.13</v>
+        <v>97.44</v>
       </c>
       <c r="V19">
-        <v>17.8</v>
+        <v>13</v>
       </c>
       <c r="W19">
+        <v>105.6</v>
+      </c>
+      <c r="X19">
+        <v>14</v>
+      </c>
+      <c r="Y19">
         <v>113.7</v>
       </c>
-      <c r="X19">
-        <v>20.399999999999999</v>
-      </c>
-      <c r="Y19">
-        <v>130.4</v>
-      </c>
       <c r="Z19">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AA19">
-        <v>147</v>
+        <v>121.8</v>
       </c>
       <c r="AB19" t="s">
-        <v>452</v>
+        <v>355</v>
       </c>
       <c r="AC19" t="s">
-        <v>453</v>
+        <v>356</v>
       </c>
       <c r="AD19" t="s">
-        <v>454</v>
+        <v>357</v>
       </c>
       <c r="AE19" t="s">
-        <v>455</v>
-      </c>
-      <c r="AF19">
-        <v>12.93</v>
-      </c>
-      <c r="AG19">
-        <v>7.05</v>
-      </c>
-      <c r="AH19">
-        <v>12.98</v>
-      </c>
-      <c r="AI19">
-        <v>6.67</v>
-      </c>
-      <c r="AJ19">
-        <v>4.84</v>
-      </c>
-      <c r="AK19">
-        <v>1.06</v>
-      </c>
-      <c r="AL19">
-        <v>105.7</v>
-      </c>
-      <c r="AM19">
-        <v>4.08</v>
-      </c>
-      <c r="AN19">
-        <v>-3.91</v>
-      </c>
-      <c r="AO19">
-        <v>40</v>
-      </c>
-      <c r="AP19" t="s">
-        <v>99</v>
-      </c>
-      <c r="AQ19" t="s">
-        <v>106</v>
-      </c>
-      <c r="AR19" t="s">
-        <v>227</v>
-      </c>
-      <c r="AS19" t="s">
-        <v>120</v>
-      </c>
-      <c r="AT19" t="s">
-        <v>228</v>
+        <v>358</v>
+      </c>
+      <c r="AF19" s="1">
+        <v>17.55</v>
+      </c>
+      <c r="AG19" s="1">
+        <v>7.9</v>
+      </c>
+      <c r="AH19" s="1">
+        <v>22.24</v>
+      </c>
+      <c r="AI19" s="1">
+        <v>8.7799999999999994</v>
+      </c>
+      <c r="AJ19" s="1">
+        <v>7.09</v>
+      </c>
+      <c r="AK19" s="1">
+        <v>1.32</v>
+      </c>
+      <c r="AL19" s="1">
+        <v>89.98</v>
+      </c>
+      <c r="AM19" s="1">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="AN19" s="1">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="AO19" s="1">
+        <v>38</v>
+      </c>
+      <c r="AP19" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AQ19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR19" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AS19" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AT19" s="1" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>2417</v>
-      </c>
-      <c r="B20" s="1" t="s">
+      <c r="A20">
+        <v>2387</v>
+      </c>
+      <c r="B20" t="s">
+        <v>219</v>
+      </c>
+      <c r="C20" t="s">
+        <v>220</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1952510510</v>
+      </c>
+      <c r="E20">
+        <v>19910722</v>
+      </c>
+      <c r="F20">
+        <v>19990125</v>
+      </c>
+      <c r="G20">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="H20">
+        <v>7.32</v>
+      </c>
+      <c r="I20">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="J20" t="s">
+        <v>477</v>
+      </c>
+      <c r="K20" t="s">
+        <v>478</v>
+      </c>
+      <c r="L20" t="s">
+        <v>258</v>
+      </c>
+      <c r="M20" t="s">
+        <v>259</v>
+      </c>
+      <c r="N20">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="O20">
+        <v>-7.56</v>
+      </c>
+      <c r="P20">
+        <v>10</v>
+      </c>
+      <c r="Q20">
+        <v>63.9</v>
+      </c>
+      <c r="R20">
+        <v>12.6</v>
+      </c>
+      <c r="S20">
+        <v>80.510000000000005</v>
+      </c>
+      <c r="T20">
+        <v>15.2</v>
+      </c>
+      <c r="U20">
+        <v>97.13</v>
+      </c>
+      <c r="V20">
+        <v>17.8</v>
+      </c>
+      <c r="W20">
+        <v>113.7</v>
+      </c>
+      <c r="X20">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="Y20">
+        <v>130.4</v>
+      </c>
+      <c r="Z20">
+        <v>23</v>
+      </c>
+      <c r="AA20">
+        <v>147</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>359</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>360</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>361</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>362</v>
+      </c>
+      <c r="AF20">
+        <v>12.93</v>
+      </c>
+      <c r="AG20">
+        <v>7.05</v>
+      </c>
+      <c r="AH20">
+        <v>12.98</v>
+      </c>
+      <c r="AI20">
+        <v>6.67</v>
+      </c>
+      <c r="AJ20">
+        <v>4.84</v>
+      </c>
+      <c r="AK20">
+        <v>1.06</v>
+      </c>
+      <c r="AL20">
+        <v>105.7</v>
+      </c>
+      <c r="AM20">
+        <v>4.08</v>
+      </c>
+      <c r="AN20">
+        <v>-3.91</v>
+      </c>
+      <c r="AO20">
+        <v>40</v>
+      </c>
+      <c r="AP20" t="s">
         <v>97</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1543138640</v>
-      </c>
-      <c r="E20" s="1">
-        <v>19900117</v>
-      </c>
-      <c r="F20" s="1">
-        <v>20000911</v>
-      </c>
-      <c r="G20">
-        <v>5.88</v>
-      </c>
-      <c r="H20">
-        <v>12.59</v>
-      </c>
-      <c r="I20">
-        <v>1.55</v>
-      </c>
-      <c r="J20" t="s">
-        <v>308</v>
-      </c>
-      <c r="K20" t="s">
-        <v>309</v>
-      </c>
-      <c r="L20" t="s">
-        <v>310</v>
-      </c>
-      <c r="M20" t="s">
-        <v>311</v>
-      </c>
-      <c r="N20">
-        <v>1.2</v>
-      </c>
-      <c r="O20">
-        <v>0.76</v>
-      </c>
-      <c r="P20">
-        <v>13</v>
-      </c>
-      <c r="Q20">
-        <v>28.34</v>
-      </c>
-      <c r="R20">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="S20">
-        <v>35.75</v>
-      </c>
-      <c r="T20">
-        <v>19.8</v>
-      </c>
-      <c r="U20">
-        <v>43.16</v>
-      </c>
-      <c r="V20">
-        <v>23.2</v>
-      </c>
-      <c r="W20">
-        <v>50.58</v>
-      </c>
-      <c r="X20">
-        <v>26.6</v>
-      </c>
-      <c r="Y20">
-        <v>57.99</v>
-      </c>
-      <c r="Z20">
-        <v>30</v>
-      </c>
-      <c r="AA20">
-        <v>65.400000000000006</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>456</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>457</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>458</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>459</v>
-      </c>
-      <c r="AF20" s="1">
-        <v>48.85</v>
-      </c>
-      <c r="AG20" s="1">
-        <v>12.06</v>
-      </c>
-      <c r="AH20" s="1">
-        <v>9.5399999999999991</v>
-      </c>
-      <c r="AI20" s="1">
-        <v>12.15</v>
-      </c>
-      <c r="AJ20" s="1">
-        <v>9.57</v>
-      </c>
-      <c r="AK20" s="1">
-        <v>0.67</v>
-      </c>
-      <c r="AL20" s="1">
-        <v>99.26</v>
-      </c>
-      <c r="AM20" s="1">
-        <v>0.98</v>
-      </c>
-      <c r="AN20" s="1">
-        <v>-0.77</v>
-      </c>
-      <c r="AO20" s="1">
-        <v>60</v>
-      </c>
-      <c r="AP20" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AQ20" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AR20" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AS20" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AT20" s="1" t="s">
-        <v>100</v>
+      <c r="AQ20" t="s">
+        <v>104</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>221</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>118</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>2458</v>
+        <v>2417</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="D21" s="7">
-        <v>3038803920</v>
+        <v>1543138640</v>
       </c>
       <c r="E21" s="1">
-        <v>19940505</v>
+        <v>19900117</v>
       </c>
       <c r="F21" s="1">
-        <v>20010917</v>
+        <v>20000911</v>
       </c>
       <c r="G21">
-        <v>5.44</v>
+        <v>5.93</v>
       </c>
       <c r="H21">
-        <v>9.48</v>
+        <v>12.48</v>
       </c>
       <c r="I21">
-        <v>4.96</v>
+        <v>1.53</v>
       </c>
       <c r="J21" t="s">
-        <v>312</v>
+        <v>479</v>
       </c>
       <c r="K21" t="s">
-        <v>313</v>
+        <v>480</v>
       </c>
       <c r="L21" t="s">
-        <v>314</v>
+        <v>260</v>
       </c>
       <c r="M21" t="s">
-        <v>315</v>
-      </c>
-      <c r="N21" s="8">
-        <v>3.43</v>
-      </c>
-      <c r="O21" s="8">
-        <v>19.559999999999999</v>
+        <v>261</v>
+      </c>
+      <c r="N21">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="O21">
+        <v>3.27</v>
       </c>
       <c r="P21">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q21">
-        <v>205.2</v>
+        <v>28.34</v>
       </c>
       <c r="R21">
-        <v>14.2</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="S21">
-        <v>242.8</v>
+        <v>35.75</v>
       </c>
       <c r="T21">
-        <v>16.399999999999999</v>
+        <v>19.8</v>
       </c>
       <c r="U21">
-        <v>280.39999999999998</v>
+        <v>43.16</v>
       </c>
       <c r="V21">
-        <v>18.600000000000001</v>
+        <v>23.2</v>
       </c>
       <c r="W21">
-        <v>318.10000000000002</v>
+        <v>50.58</v>
       </c>
       <c r="X21">
-        <v>20.8</v>
+        <v>26.6</v>
       </c>
       <c r="Y21">
-        <v>355.7</v>
+        <v>57.99</v>
       </c>
       <c r="Z21">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="AA21">
-        <v>393.3</v>
+        <v>65.400000000000006</v>
       </c>
       <c r="AB21" t="s">
-        <v>460</v>
+        <v>363</v>
       </c>
       <c r="AC21" t="s">
-        <v>461</v>
+        <v>364</v>
       </c>
       <c r="AD21" t="s">
-        <v>462</v>
+        <v>365</v>
       </c>
       <c r="AE21" t="s">
-        <v>463</v>
+        <v>366</v>
       </c>
       <c r="AF21" s="1">
-        <v>49.84</v>
+        <v>48.85</v>
       </c>
       <c r="AG21" s="1">
-        <v>31.99</v>
+        <v>12.06</v>
       </c>
       <c r="AH21" s="1">
-        <v>52.13</v>
+        <v>9.5399999999999991</v>
       </c>
       <c r="AI21" s="1">
-        <v>32.97</v>
+        <v>12.15</v>
       </c>
       <c r="AJ21" s="1">
-        <v>26.28</v>
+        <v>9.57</v>
       </c>
       <c r="AK21" s="1">
-        <v>1.23</v>
+        <v>0.67</v>
       </c>
       <c r="AL21" s="1">
-        <v>97.03</v>
+        <v>99.26</v>
       </c>
       <c r="AM21" s="1">
-        <v>12.18</v>
+        <v>0.98</v>
       </c>
       <c r="AN21" s="1">
-        <v>18.04</v>
+        <v>-0.77</v>
       </c>
       <c r="AO21" s="1">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="AP21" s="1" t="s">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="AQ21" s="1" t="s">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AR21" s="1" t="s">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AS21" s="1" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="AT21" s="1" t="s">
-        <v>139</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>2467</v>
-      </c>
-      <c r="B22" t="s">
-        <v>179</v>
-      </c>
-      <c r="C22" t="s">
-        <v>180</v>
+      <c r="A22" s="1">
+        <v>2458</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="D22" s="7">
-        <v>1521896590</v>
-      </c>
-      <c r="E22">
-        <v>19780418</v>
-      </c>
-      <c r="F22">
+        <v>3038803920</v>
+      </c>
+      <c r="E22" s="1">
+        <v>19940505</v>
+      </c>
+      <c r="F22" s="1">
         <v>20010917</v>
       </c>
       <c r="G22">
-        <v>5.33</v>
+        <v>5.49</v>
       </c>
       <c r="H22">
+        <v>9.39</v>
+      </c>
+      <c r="I22">
+        <v>4.91</v>
+      </c>
+      <c r="J22" t="s">
+        <v>481</v>
+      </c>
+      <c r="K22" t="s">
+        <v>482</v>
+      </c>
+      <c r="L22" t="s">
+        <v>262</v>
+      </c>
+      <c r="M22" t="s">
+        <v>263</v>
+      </c>
+      <c r="N22">
+        <v>0.85</v>
+      </c>
+      <c r="O22">
+        <v>-9.1300000000000008</v>
+      </c>
+      <c r="P22">
+        <v>12</v>
+      </c>
+      <c r="Q22">
+        <v>205.2</v>
+      </c>
+      <c r="R22">
+        <v>14.2</v>
+      </c>
+      <c r="S22">
+        <v>242.8</v>
+      </c>
+      <c r="T22">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="U22">
+        <v>280.39999999999998</v>
+      </c>
+      <c r="V22">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="W22">
+        <v>318.10000000000002</v>
+      </c>
+      <c r="X22">
+        <v>20.8</v>
+      </c>
+      <c r="Y22">
+        <v>355.7</v>
+      </c>
+      <c r="Z22">
+        <v>23</v>
+      </c>
+      <c r="AA22">
+        <v>393.3</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>367</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>368</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>369</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>370</v>
+      </c>
+      <c r="AF22" s="1">
+        <v>49.84</v>
+      </c>
+      <c r="AG22" s="1">
+        <v>31.99</v>
+      </c>
+      <c r="AH22" s="1">
+        <v>52.13</v>
+      </c>
+      <c r="AI22" s="1">
+        <v>32.97</v>
+      </c>
+      <c r="AJ22" s="1">
+        <v>26.28</v>
+      </c>
+      <c r="AK22" s="1">
+        <v>1.23</v>
+      </c>
+      <c r="AL22" s="1">
+        <v>97.03</v>
+      </c>
+      <c r="AM22" s="1">
         <v>12.18</v>
       </c>
-      <c r="I22">
-        <v>2.97</v>
-      </c>
-      <c r="J22" t="s">
-        <v>316</v>
-      </c>
-      <c r="K22" t="s">
-        <v>317</v>
-      </c>
-      <c r="L22" t="s">
-        <v>318</v>
-      </c>
-      <c r="M22" t="s">
-        <v>319</v>
-      </c>
-      <c r="N22">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="O22">
-        <v>-14.98</v>
-      </c>
-      <c r="P22">
-        <v>11</v>
-      </c>
-      <c r="Q22">
-        <v>45.76</v>
-      </c>
-      <c r="R22">
-        <v>12.8</v>
-      </c>
-      <c r="S22">
-        <v>53.25</v>
-      </c>
-      <c r="T22">
-        <v>14.6</v>
-      </c>
-      <c r="U22">
-        <v>60.74</v>
-      </c>
-      <c r="V22">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="W22">
-        <v>68.22</v>
-      </c>
-      <c r="X22">
-        <v>18.2</v>
-      </c>
-      <c r="Y22">
-        <v>75.709999999999994</v>
-      </c>
-      <c r="Z22">
-        <v>20</v>
-      </c>
-      <c r="AA22">
-        <v>83.2</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>464</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>465</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>466</v>
-      </c>
-      <c r="AE22" t="s">
-        <v>205</v>
-      </c>
-      <c r="AF22">
-        <v>34.07</v>
-      </c>
-      <c r="AG22">
-        <v>12.91</v>
-      </c>
-      <c r="AH22">
-        <v>26.43</v>
-      </c>
-      <c r="AI22">
-        <v>15.84</v>
-      </c>
-      <c r="AJ22">
-        <v>12.85</v>
-      </c>
-      <c r="AK22">
-        <v>0.8</v>
-      </c>
-      <c r="AL22">
-        <v>81.5</v>
-      </c>
-      <c r="AM22">
-        <v>2.44</v>
-      </c>
-      <c r="AN22">
-        <v>-2.57</v>
-      </c>
-      <c r="AO22">
-        <v>57</v>
-      </c>
-      <c r="AP22" t="s">
-        <v>181</v>
-      </c>
-      <c r="AQ22" t="s">
-        <v>130</v>
-      </c>
-      <c r="AR22" t="s">
-        <v>130</v>
-      </c>
-      <c r="AS22" t="s">
-        <v>93</v>
-      </c>
-      <c r="AT22" t="s">
-        <v>85</v>
+      <c r="AN22" s="1">
+        <v>18.04</v>
+      </c>
+      <c r="AO22" s="1">
+        <v>74</v>
+      </c>
+      <c r="AP22" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AQ22" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AR22" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AS22" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AT22" s="1" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>2520</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>104</v>
+      <c r="A23">
+        <v>2467</v>
+      </c>
+      <c r="B23" t="s">
+        <v>173</v>
+      </c>
+      <c r="C23" t="s">
+        <v>174</v>
       </c>
       <c r="D23" s="7">
-        <v>5541701000</v>
-      </c>
-      <c r="E23" s="1">
-        <v>19791123</v>
-      </c>
-      <c r="F23" s="1">
-        <v>19931027</v>
+        <v>1521896590</v>
+      </c>
+      <c r="E23">
+        <v>19780418</v>
+      </c>
+      <c r="F23">
+        <v>20010917</v>
       </c>
       <c r="G23">
-        <v>9.26</v>
+        <v>5.42</v>
       </c>
       <c r="H23">
-        <v>4.32</v>
+        <v>11.99</v>
       </c>
       <c r="I23">
-        <v>1.21</v>
+        <v>2.92</v>
       </c>
       <c r="J23" t="s">
-        <v>320</v>
+        <v>483</v>
       </c>
       <c r="K23" t="s">
-        <v>321</v>
+        <v>484</v>
       </c>
       <c r="L23" t="s">
-        <v>322</v>
+        <v>264</v>
       </c>
       <c r="M23" t="s">
-        <v>323</v>
+        <v>265</v>
       </c>
       <c r="N23">
-        <v>0.42</v>
+        <v>0.34</v>
       </c>
       <c r="O23">
-        <v>-17.61</v>
+        <v>-24.89</v>
       </c>
       <c r="P23">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="Q23">
-        <v>59.57</v>
+        <v>45.76</v>
       </c>
       <c r="R23">
-        <v>8.4</v>
+        <v>12.8</v>
       </c>
       <c r="S23">
-        <v>71.48</v>
+        <v>53.25</v>
       </c>
       <c r="T23">
-        <v>9.8000000000000007</v>
+        <v>14.6</v>
       </c>
       <c r="U23">
-        <v>83.4</v>
+        <v>60.74</v>
       </c>
       <c r="V23">
-        <v>11.2</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="W23">
-        <v>95.31</v>
+        <v>68.22</v>
       </c>
       <c r="X23">
-        <v>12.6</v>
+        <v>18.2</v>
       </c>
       <c r="Y23">
-        <v>107.2</v>
+        <v>75.709999999999994</v>
       </c>
       <c r="Z23">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AA23">
-        <v>119.1</v>
+        <v>83.2</v>
       </c>
       <c r="AB23" t="s">
-        <v>467</v>
+        <v>371</v>
       </c>
       <c r="AC23" t="s">
-        <v>468</v>
+        <v>372</v>
       </c>
       <c r="AD23" t="s">
-        <v>469</v>
+        <v>373</v>
       </c>
       <c r="AE23" t="s">
-        <v>470</v>
-      </c>
-      <c r="AF23" s="1">
-        <v>26.73</v>
-      </c>
-      <c r="AG23" s="1">
-        <v>19.5</v>
-      </c>
-      <c r="AH23" s="1">
-        <v>21.09</v>
-      </c>
-      <c r="AI23" s="1">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="AJ23" s="1">
-        <v>15.12</v>
-      </c>
-      <c r="AK23" s="1">
-        <v>0.46</v>
-      </c>
-      <c r="AL23" s="1">
-        <v>103.17</v>
-      </c>
-      <c r="AM23" s="1">
-        <v>10.72</v>
-      </c>
-      <c r="AN23" s="1">
-        <v>10.69</v>
-      </c>
-      <c r="AO23" s="1">
-        <v>53</v>
-      </c>
-      <c r="AP23" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AQ23" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AR23" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AS23" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AT23" s="1" t="s">
-        <v>82</v>
+        <v>199</v>
+      </c>
+      <c r="AF23">
+        <v>34.07</v>
+      </c>
+      <c r="AG23">
+        <v>12.91</v>
+      </c>
+      <c r="AH23">
+        <v>26.43</v>
+      </c>
+      <c r="AI23">
+        <v>15.84</v>
+      </c>
+      <c r="AJ23">
+        <v>12.85</v>
+      </c>
+      <c r="AK23">
+        <v>0.8</v>
+      </c>
+      <c r="AL23">
+        <v>81.5</v>
+      </c>
+      <c r="AM23">
+        <v>2.44</v>
+      </c>
+      <c r="AN23">
+        <v>-2.57</v>
+      </c>
+      <c r="AO23">
+        <v>57</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>175</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>128</v>
+      </c>
+      <c r="AR23" t="s">
+        <v>128</v>
+      </c>
+      <c r="AS23" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT23" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>2546</v>
+        <v>2520</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="D24" s="7">
-        <v>1060356600</v>
+        <v>5541701000</v>
       </c>
       <c r="E24" s="1">
-        <v>19820413</v>
+        <v>19791123</v>
       </c>
       <c r="F24" s="1">
-        <v>20000911</v>
+        <v>19931027</v>
       </c>
       <c r="G24">
-        <v>7.21</v>
+        <v>9.23</v>
       </c>
       <c r="H24">
-        <v>7.11</v>
+        <v>4.34</v>
       </c>
       <c r="I24">
-        <v>1.58</v>
+        <v>1.21</v>
       </c>
       <c r="J24" t="s">
-        <v>324</v>
+        <v>485</v>
       </c>
       <c r="K24" t="s">
-        <v>325</v>
+        <v>486</v>
       </c>
       <c r="L24" t="s">
-        <v>326</v>
+        <v>266</v>
       </c>
       <c r="M24" t="s">
-        <v>159</v>
+        <v>267</v>
       </c>
       <c r="N24">
-        <v>0.91</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="O24">
-        <v>8.76</v>
+        <v>-0.12</v>
       </c>
       <c r="P24">
         <v>7</v>
       </c>
       <c r="Q24">
-        <v>49.21</v>
+        <v>59.57</v>
       </c>
       <c r="R24">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="S24">
-        <v>56.24</v>
+        <v>71.48</v>
       </c>
       <c r="T24">
-        <v>9</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="U24">
-        <v>63.27</v>
+        <v>83.4</v>
       </c>
       <c r="V24">
-        <v>10</v>
+        <v>11.2</v>
       </c>
       <c r="W24">
-        <v>70.3</v>
+        <v>95.31</v>
       </c>
       <c r="X24">
-        <v>11</v>
+        <v>12.6</v>
       </c>
       <c r="Y24">
-        <v>77.33</v>
+        <v>107.2</v>
       </c>
       <c r="Z24">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AA24">
-        <v>84.36</v>
+        <v>119.1</v>
       </c>
       <c r="AB24" t="s">
-        <v>471</v>
+        <v>374</v>
       </c>
       <c r="AC24" t="s">
-        <v>472</v>
+        <v>375</v>
       </c>
       <c r="AD24" t="s">
-        <v>473</v>
+        <v>376</v>
       </c>
       <c r="AE24" t="s">
-        <v>474</v>
+        <v>377</v>
       </c>
       <c r="AF24" s="1">
-        <v>11.23</v>
+        <v>26.73</v>
       </c>
       <c r="AG24" s="1">
-        <v>8.3800000000000008</v>
+        <v>19.5</v>
       </c>
       <c r="AH24" s="1">
-        <v>23.02</v>
+        <v>21.09</v>
       </c>
       <c r="AI24" s="1">
-        <v>9.17</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="AJ24" s="1">
-        <v>7.35</v>
+        <v>15.12</v>
       </c>
       <c r="AK24" s="1">
-        <v>1.07</v>
+        <v>0.46</v>
       </c>
       <c r="AL24" s="1">
-        <v>91.38</v>
+        <v>103.17</v>
       </c>
       <c r="AM24" s="1">
-        <v>5.88</v>
+        <v>10.72</v>
       </c>
       <c r="AN24" s="1">
-        <v>5.85</v>
+        <v>10.69</v>
       </c>
       <c r="AO24" s="1">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="AP24" s="1" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="AQ24" s="1" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="AR24" s="1" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="AS24" s="1" t="s">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="AT24" s="1" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>2881</v>
+        <v>2546</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D25" s="7">
-        <v>134049543940</v>
+        <v>1060356600</v>
       </c>
       <c r="E25" s="1">
-        <v>20011219</v>
+        <v>19820413</v>
       </c>
       <c r="F25" s="1">
-        <v>20011219</v>
+        <v>20000911</v>
       </c>
       <c r="G25">
-        <v>3.93</v>
+        <v>7.13</v>
       </c>
       <c r="H25">
-        <v>6.29</v>
+        <v>7.18</v>
       </c>
       <c r="I25">
-        <v>1.1399999999999999</v>
+        <v>1.6</v>
       </c>
       <c r="J25" t="s">
-        <v>327</v>
+        <v>487</v>
       </c>
       <c r="K25" t="s">
-        <v>328</v>
+        <v>488</v>
       </c>
       <c r="L25" t="s">
-        <v>329</v>
+        <v>268</v>
       </c>
       <c r="M25" t="s">
-        <v>330</v>
-      </c>
-      <c r="N25">
-        <v>1.1599999999999999</v>
+        <v>156</v>
+      </c>
+      <c r="N25" s="8">
+        <v>2.73</v>
       </c>
       <c r="O25" s="8">
-        <v>20.04</v>
+        <v>15.84</v>
       </c>
       <c r="P25">
         <v>7</v>
       </c>
       <c r="Q25">
-        <v>92.68</v>
+        <v>49.21</v>
       </c>
       <c r="R25">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="S25">
-        <v>103.3</v>
+        <v>56.24</v>
       </c>
       <c r="T25">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="U25">
-        <v>113.9</v>
+        <v>63.27</v>
       </c>
       <c r="V25">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="W25">
-        <v>124.5</v>
+        <v>70.3</v>
       </c>
       <c r="X25">
-        <v>10.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="Y25">
-        <v>135</v>
+        <v>77.33</v>
       </c>
       <c r="Z25">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA25">
-        <v>145.6</v>
+        <v>84.36</v>
       </c>
       <c r="AB25" t="s">
-        <v>475</v>
+        <v>378</v>
       </c>
       <c r="AC25" t="s">
-        <v>476</v>
+        <v>379</v>
       </c>
       <c r="AD25" t="s">
-        <v>477</v>
+        <v>380</v>
       </c>
       <c r="AE25" t="s">
-        <v>478</v>
+        <v>381</v>
       </c>
       <c r="AF25" s="1">
-        <v>0</v>
+        <v>11.23</v>
       </c>
       <c r="AG25" s="1">
-        <v>0</v>
+        <v>8.3800000000000008</v>
       </c>
       <c r="AH25" s="1">
-        <v>21.39</v>
+        <v>23.02</v>
       </c>
       <c r="AI25" s="1">
-        <v>39.32</v>
+        <v>9.17</v>
       </c>
       <c r="AJ25" s="1">
-        <v>34.96</v>
+        <v>7.35</v>
       </c>
       <c r="AK25" s="1">
-        <v>0.05</v>
+        <v>1.07</v>
       </c>
       <c r="AL25" s="1">
-        <v>0</v>
+        <v>91.38</v>
       </c>
       <c r="AM25" s="1">
-        <v>5.0999999999999996</v>
+        <v>5.88</v>
       </c>
       <c r="AN25" s="1">
-        <v>4.46</v>
+        <v>5.85</v>
       </c>
       <c r="AO25" s="1">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="AP25" s="1" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="AQ25" s="1" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="AR25" s="1" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="AS25" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="AT25" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>3005</v>
+        <v>2881</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D26" s="7">
-        <v>5954614000</v>
+        <v>134049543940</v>
       </c>
       <c r="E26" s="1">
-        <v>19891005</v>
+        <v>20011219</v>
       </c>
       <c r="F26" s="1">
-        <v>20020225</v>
+        <v>20011219</v>
       </c>
       <c r="G26">
-        <v>6.54</v>
+        <v>3.75</v>
       </c>
       <c r="H26">
-        <v>7.56</v>
+        <v>6.58</v>
       </c>
       <c r="I26">
-        <v>1.91</v>
+        <v>1.19</v>
       </c>
       <c r="J26" t="s">
-        <v>331</v>
-      </c>
-      <c r="K26" t="s">
-        <v>332</v>
+        <v>489</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>490</v>
       </c>
       <c r="L26" t="s">
-        <v>333</v>
+        <v>269</v>
       </c>
       <c r="M26" t="s">
-        <v>334</v>
+        <v>270</v>
       </c>
       <c r="N26">
-        <v>0.28999999999999998</v>
+        <v>1.34</v>
       </c>
       <c r="O26">
-        <v>-21.66</v>
+        <v>6.18</v>
       </c>
       <c r="P26">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Q26">
-        <v>73</v>
+        <v>92.68</v>
       </c>
       <c r="R26">
-        <v>11.4</v>
+        <v>7.8</v>
       </c>
       <c r="S26">
-        <v>83.22</v>
+        <v>103.3</v>
       </c>
       <c r="T26">
-        <v>12.8</v>
+        <v>8.6</v>
       </c>
       <c r="U26">
-        <v>93.44</v>
+        <v>113.9</v>
       </c>
       <c r="V26">
-        <v>14.2</v>
+        <v>9.4</v>
       </c>
       <c r="W26">
-        <v>103.7</v>
+        <v>124.5</v>
       </c>
       <c r="X26">
-        <v>15.6</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="Y26">
-        <v>113.9</v>
+        <v>135</v>
       </c>
       <c r="Z26">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AA26">
-        <v>124.1</v>
+        <v>145.6</v>
       </c>
       <c r="AB26" t="s">
-        <v>479</v>
+        <v>382</v>
       </c>
       <c r="AC26" t="s">
-        <v>480</v>
+        <v>383</v>
       </c>
       <c r="AD26" t="s">
-        <v>481</v>
+        <v>384</v>
       </c>
       <c r="AE26" t="s">
-        <v>482</v>
+        <v>385</v>
       </c>
       <c r="AF26" s="1">
-        <v>24.89</v>
+        <v>0</v>
       </c>
       <c r="AG26" s="1">
-        <v>8.01</v>
+        <v>0</v>
       </c>
       <c r="AH26" s="1">
-        <v>25.54</v>
+        <v>21.39</v>
       </c>
       <c r="AI26" s="1">
-        <v>20.46</v>
+        <v>39.32</v>
       </c>
       <c r="AJ26" s="1">
-        <v>15.77</v>
+        <v>34.96</v>
       </c>
       <c r="AK26" s="1">
-        <v>0.86</v>
+        <v>0.05</v>
       </c>
       <c r="AL26" s="1">
-        <v>39.15</v>
+        <v>0</v>
       </c>
       <c r="AM26" s="1">
-        <v>0.9</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="AN26" s="1">
-        <v>4.0599999999999996</v>
+        <v>4.46</v>
       </c>
       <c r="AO26" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AP26" s="1" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="AQ26" s="1" t="s">
-        <v>148</v>
+        <v>97</v>
       </c>
       <c r="AR26" s="1" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="AS26" s="1" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AT26" s="1" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>3028</v>
-      </c>
-      <c r="B27" t="s">
-        <v>206</v>
-      </c>
-      <c r="C27" t="s">
-        <v>207</v>
+      <c r="A27" s="1">
+        <v>3005</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="D27" s="7">
-        <v>2138248640</v>
-      </c>
-      <c r="E27">
-        <v>19821006</v>
-      </c>
-      <c r="F27">
-        <v>20020826</v>
+        <v>5954614000</v>
+      </c>
+      <c r="E27" s="1">
+        <v>19891005</v>
+      </c>
+      <c r="F27" s="1">
+        <v>20020225</v>
       </c>
       <c r="G27">
-        <v>5.71</v>
+        <v>6.54</v>
       </c>
       <c r="H27">
-        <v>8.57</v>
+        <v>7.56</v>
       </c>
       <c r="I27">
-        <v>1.39</v>
+        <v>1.91</v>
       </c>
       <c r="J27" t="s">
-        <v>335</v>
+        <v>491</v>
       </c>
       <c r="K27" t="s">
-        <v>336</v>
+        <v>492</v>
       </c>
       <c r="L27" t="s">
-        <v>337</v>
+        <v>271</v>
       </c>
       <c r="M27" t="s">
-        <v>338</v>
+        <v>272</v>
       </c>
       <c r="N27">
-        <v>0.89</v>
+        <v>0.41</v>
       </c>
       <c r="O27">
-        <v>-17.350000000000001</v>
+        <v>-20.5</v>
       </c>
       <c r="P27">
         <v>10</v>
       </c>
       <c r="Q27">
-        <v>38.700000000000003</v>
+        <v>73</v>
       </c>
       <c r="R27">
-        <v>11</v>
+        <v>11.4</v>
       </c>
       <c r="S27">
-        <v>42.57</v>
+        <v>83.22</v>
       </c>
       <c r="T27">
-        <v>12</v>
+        <v>12.8</v>
       </c>
       <c r="U27">
-        <v>46.44</v>
+        <v>93.44</v>
       </c>
       <c r="V27">
-        <v>13</v>
+        <v>14.2</v>
       </c>
       <c r="W27">
-        <v>50.31</v>
+        <v>103.7</v>
       </c>
       <c r="X27">
-        <v>14</v>
+        <v>15.6</v>
       </c>
       <c r="Y27">
-        <v>54.18</v>
+        <v>113.9</v>
       </c>
       <c r="Z27">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA27">
-        <v>58.05</v>
+        <v>124.1</v>
       </c>
       <c r="AB27" t="s">
-        <v>483</v>
+        <v>386</v>
       </c>
       <c r="AC27" t="s">
-        <v>484</v>
+        <v>387</v>
       </c>
       <c r="AD27" t="s">
-        <v>485</v>
+        <v>388</v>
       </c>
       <c r="AE27" t="s">
-        <v>486</v>
-      </c>
-      <c r="AF27">
-        <v>5.93</v>
-      </c>
-      <c r="AG27">
-        <v>2.59</v>
-      </c>
-      <c r="AH27">
-        <v>18.72</v>
-      </c>
-      <c r="AI27">
-        <v>2.64</v>
-      </c>
-      <c r="AJ27">
-        <v>2.19</v>
-      </c>
-      <c r="AK27">
-        <v>2.15</v>
-      </c>
-      <c r="AL27">
-        <v>98.11</v>
-      </c>
-      <c r="AM27">
-        <v>-1.74</v>
-      </c>
-      <c r="AN27">
-        <v>-1.7</v>
-      </c>
-      <c r="AO27">
-        <v>30</v>
-      </c>
-      <c r="AP27" t="s">
-        <v>208</v>
-      </c>
-      <c r="AQ27" t="s">
-        <v>106</v>
-      </c>
-      <c r="AR27" t="s">
-        <v>125</v>
-      </c>
-      <c r="AS27" t="s">
-        <v>209</v>
-      </c>
-      <c r="AT27" t="s">
-        <v>93</v>
+        <v>389</v>
+      </c>
+      <c r="AF27" s="1">
+        <v>24.89</v>
+      </c>
+      <c r="AG27" s="1">
+        <v>8.01</v>
+      </c>
+      <c r="AH27" s="1">
+        <v>25.54</v>
+      </c>
+      <c r="AI27" s="1">
+        <v>20.46</v>
+      </c>
+      <c r="AJ27" s="1">
+        <v>15.77</v>
+      </c>
+      <c r="AK27" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="AL27" s="1">
+        <v>39.15</v>
+      </c>
+      <c r="AM27" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="AN27" s="1">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="AO27" s="1">
+        <v>57</v>
+      </c>
+      <c r="AP27" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="AQ27" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AR27" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AS27" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AT27" s="1" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>3033</v>
+        <v>3028</v>
       </c>
       <c r="B28" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C28" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D28" s="7">
-        <v>3990554430</v>
+        <v>2138248640</v>
       </c>
       <c r="E28">
-        <v>19770120</v>
+        <v>19821006</v>
       </c>
       <c r="F28">
         <v>20020826</v>
       </c>
       <c r="G28">
-        <v>4.3099999999999996</v>
+        <v>5.68</v>
       </c>
       <c r="H28">
-        <v>8.59</v>
+        <v>8.6199999999999992</v>
       </c>
       <c r="I28">
-        <v>1.69</v>
+        <v>1.4</v>
       </c>
       <c r="J28" t="s">
-        <v>339</v>
+        <v>493</v>
       </c>
       <c r="K28" t="s">
-        <v>340</v>
+        <v>494</v>
       </c>
       <c r="L28" t="s">
-        <v>341</v>
+        <v>273</v>
       </c>
       <c r="M28" t="s">
-        <v>342</v>
+        <v>274</v>
       </c>
       <c r="N28">
-        <v>1</v>
+        <v>0.82</v>
       </c>
       <c r="O28">
-        <v>-1.73</v>
+        <v>-4.4400000000000004</v>
       </c>
       <c r="P28">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q28">
-        <v>34.83</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="R28">
-        <v>10.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="S28">
-        <v>39.47</v>
+        <v>42.57</v>
       </c>
       <c r="T28">
-        <v>11.4</v>
+        <v>12</v>
       </c>
       <c r="U28">
-        <v>44.12</v>
+        <v>46.44</v>
       </c>
       <c r="V28">
-        <v>12.6</v>
+        <v>13</v>
       </c>
       <c r="W28">
-        <v>48.76</v>
+        <v>50.31</v>
       </c>
       <c r="X28">
-        <v>13.8</v>
+        <v>14</v>
       </c>
       <c r="Y28">
-        <v>53.41</v>
+        <v>54.18</v>
       </c>
       <c r="Z28">
         <v>15</v>
@@ -6538,1055 +6502,1055 @@
         <v>58.05</v>
       </c>
       <c r="AB28" t="s">
-        <v>487</v>
+        <v>390</v>
       </c>
       <c r="AC28" t="s">
-        <v>488</v>
+        <v>391</v>
       </c>
       <c r="AD28" t="s">
-        <v>489</v>
+        <v>392</v>
       </c>
       <c r="AE28" t="s">
-        <v>490</v>
+        <v>393</v>
       </c>
       <c r="AF28">
-        <v>7.01</v>
+        <v>5.93</v>
       </c>
       <c r="AG28">
-        <v>3.51</v>
+        <v>2.59</v>
       </c>
       <c r="AH28">
-        <v>25.16</v>
+        <v>18.72</v>
       </c>
       <c r="AI28">
-        <v>3.37</v>
+        <v>2.64</v>
       </c>
       <c r="AJ28">
-        <v>2.33</v>
+        <v>2.19</v>
       </c>
       <c r="AK28">
-        <v>2.89</v>
+        <v>2.15</v>
       </c>
       <c r="AL28">
-        <v>104.15</v>
+        <v>98.11</v>
       </c>
       <c r="AM28">
-        <v>0.88</v>
+        <v>-1.74</v>
       </c>
       <c r="AN28">
-        <v>0.86</v>
+        <v>-1.7</v>
       </c>
       <c r="AO28">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AP28" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="AQ28" t="s">
-        <v>199</v>
+        <v>104</v>
       </c>
       <c r="AR28" t="s">
-        <v>200</v>
+        <v>123</v>
       </c>
       <c r="AS28" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AT28" t="s">
-        <v>202</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>3044</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>69</v>
+      <c r="A29">
+        <v>3033</v>
+      </c>
+      <c r="B29" t="s">
+        <v>190</v>
+      </c>
+      <c r="C29" t="s">
+        <v>191</v>
       </c>
       <c r="D29" s="7">
-        <v>5256058980</v>
-      </c>
-      <c r="E29" s="1">
-        <v>19911216</v>
-      </c>
-      <c r="F29" s="1">
+        <v>3990554430</v>
+      </c>
+      <c r="E29">
+        <v>19770120</v>
+      </c>
+      <c r="F29">
         <v>20020826</v>
       </c>
       <c r="G29">
-        <v>5.93</v>
+        <v>4.29</v>
       </c>
       <c r="H29">
-        <v>10.57</v>
+        <v>8.64</v>
       </c>
       <c r="I29">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="J29" t="s">
-        <v>343</v>
+        <v>495</v>
       </c>
       <c r="K29" t="s">
-        <v>344</v>
+        <v>496</v>
       </c>
       <c r="L29" t="s">
-        <v>345</v>
+        <v>275</v>
       </c>
       <c r="M29" t="s">
-        <v>346</v>
+        <v>276</v>
       </c>
       <c r="N29">
-        <v>1.54</v>
-      </c>
-      <c r="O29" s="8">
-        <v>13.97</v>
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="O29">
+        <v>-2.4</v>
       </c>
       <c r="P29">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q29">
-        <v>93.92</v>
+        <v>34.83</v>
       </c>
       <c r="R29">
-        <v>9.1999999999999993</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="S29">
-        <v>108</v>
+        <v>39.47</v>
       </c>
       <c r="T29">
-        <v>10.4</v>
+        <v>11.4</v>
       </c>
       <c r="U29">
-        <v>122.1</v>
+        <v>44.12</v>
       </c>
       <c r="V29">
-        <v>11.6</v>
+        <v>12.6</v>
       </c>
       <c r="W29">
-        <v>136.19999999999999</v>
+        <v>48.76</v>
       </c>
       <c r="X29">
-        <v>12.8</v>
+        <v>13.8</v>
       </c>
       <c r="Y29">
-        <v>150.30000000000001</v>
+        <v>53.41</v>
       </c>
       <c r="Z29">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AA29">
-        <v>164.4</v>
+        <v>58.05</v>
       </c>
       <c r="AB29" t="s">
-        <v>491</v>
+        <v>394</v>
       </c>
       <c r="AC29" t="s">
-        <v>492</v>
+        <v>395</v>
       </c>
       <c r="AD29" t="s">
-        <v>493</v>
+        <v>396</v>
       </c>
       <c r="AE29" t="s">
-        <v>494</v>
-      </c>
-      <c r="AF29" s="1">
-        <v>18.75</v>
-      </c>
-      <c r="AG29" s="1">
-        <v>10.47</v>
-      </c>
-      <c r="AH29" s="1">
-        <v>15.91</v>
-      </c>
-      <c r="AI29" s="1">
-        <v>11.99</v>
-      </c>
-      <c r="AJ29" s="1">
-        <v>9.36</v>
-      </c>
-      <c r="AK29" s="1">
-        <v>0.78</v>
-      </c>
-      <c r="AL29" s="1">
-        <v>87.32</v>
-      </c>
-      <c r="AM29" s="1">
-        <v>7.58</v>
-      </c>
-      <c r="AN29" s="1">
-        <v>-10.16</v>
-      </c>
-      <c r="AO29" s="1">
-        <v>49</v>
-      </c>
-      <c r="AP29" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AQ29" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AR29" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AS29" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AT29" s="1" t="s">
-        <v>79</v>
+        <v>397</v>
+      </c>
+      <c r="AF29">
+        <v>7.01</v>
+      </c>
+      <c r="AG29">
+        <v>3.51</v>
+      </c>
+      <c r="AH29">
+        <v>25.16</v>
+      </c>
+      <c r="AI29">
+        <v>3.37</v>
+      </c>
+      <c r="AJ29">
+        <v>2.33</v>
+      </c>
+      <c r="AK29">
+        <v>2.89</v>
+      </c>
+      <c r="AL29">
+        <v>104.15</v>
+      </c>
+      <c r="AM29">
+        <v>0.88</v>
+      </c>
+      <c r="AN29">
+        <v>0.86</v>
+      </c>
+      <c r="AO29">
+        <v>34</v>
+      </c>
+      <c r="AP29" t="s">
+        <v>192</v>
+      </c>
+      <c r="AQ29" t="s">
+        <v>193</v>
+      </c>
+      <c r="AR29" t="s">
+        <v>194</v>
+      </c>
+      <c r="AS29" t="s">
+        <v>195</v>
+      </c>
+      <c r="AT29" t="s">
+        <v>196</v>
       </c>
       <c r="AU29"/>
       <c r="AV29"/>
       <c r="AW29"/>
     </row>
     <row r="30" spans="1:49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>3048</v>
-      </c>
-      <c r="B30" t="s">
-        <v>216</v>
-      </c>
-      <c r="C30" t="s">
-        <v>217</v>
+      <c r="A30" s="1">
+        <v>3044</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="D30" s="7">
-        <v>2448297940</v>
-      </c>
-      <c r="E30">
-        <v>19960711</v>
-      </c>
-      <c r="F30">
-        <v>20021001</v>
+        <v>5256058980</v>
+      </c>
+      <c r="E30" s="1">
+        <v>19911216</v>
+      </c>
+      <c r="F30" s="1">
+        <v>20020826</v>
       </c>
       <c r="G30">
-        <v>8.77</v>
+        <v>5.95</v>
       </c>
       <c r="H30">
-        <v>7.7</v>
+        <v>10.53</v>
       </c>
       <c r="I30">
-        <v>2.0299999999999998</v>
+        <v>1.78</v>
       </c>
       <c r="J30" t="s">
-        <v>347</v>
-      </c>
-      <c r="K30" s="8" t="s">
-        <v>348</v>
+        <v>497</v>
+      </c>
+      <c r="K30" t="s">
+        <v>498</v>
       </c>
       <c r="L30" t="s">
-        <v>349</v>
+        <v>277</v>
       </c>
       <c r="M30" t="s">
-        <v>350</v>
+        <v>278</v>
       </c>
       <c r="N30">
-        <v>1.93</v>
-      </c>
-      <c r="O30" s="8">
-        <v>15.02</v>
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="O30">
+        <v>3</v>
       </c>
       <c r="P30">
         <v>8</v>
       </c>
       <c r="Q30">
-        <v>34.32</v>
+        <v>93.92</v>
       </c>
       <c r="R30">
-        <v>9.6</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="S30">
-        <v>41.18</v>
+        <v>108</v>
       </c>
       <c r="T30">
-        <v>11.2</v>
+        <v>10.4</v>
       </c>
       <c r="U30">
-        <v>48.05</v>
+        <v>122.1</v>
       </c>
       <c r="V30">
+        <v>11.6</v>
+      </c>
+      <c r="W30">
+        <v>136.19999999999999</v>
+      </c>
+      <c r="X30">
         <v>12.8</v>
       </c>
-      <c r="W30">
-        <v>54.91</v>
-      </c>
-      <c r="X30">
-        <v>14.4</v>
-      </c>
       <c r="Y30">
-        <v>61.78</v>
+        <v>150.30000000000001</v>
       </c>
       <c r="Z30">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AA30">
-        <v>68.64</v>
+        <v>164.4</v>
       </c>
       <c r="AB30" t="s">
-        <v>495</v>
+        <v>398</v>
       </c>
       <c r="AC30" t="s">
-        <v>496</v>
+        <v>399</v>
       </c>
       <c r="AD30" t="s">
-        <v>497</v>
+        <v>400</v>
       </c>
       <c r="AE30" t="s">
-        <v>498</v>
-      </c>
-      <c r="AF30">
-        <v>3.24</v>
-      </c>
-      <c r="AG30">
-        <v>1.5</v>
-      </c>
-      <c r="AH30">
-        <v>27.8</v>
-      </c>
-      <c r="AI30">
-        <v>1.3</v>
-      </c>
-      <c r="AJ30">
-        <v>1.04</v>
-      </c>
-      <c r="AK30">
-        <v>4.37</v>
-      </c>
-      <c r="AL30">
-        <v>115.38</v>
-      </c>
-      <c r="AM30">
-        <v>-2.5099999999999998</v>
-      </c>
-      <c r="AN30">
-        <v>-3.46</v>
-      </c>
-      <c r="AO30">
-        <v>30</v>
-      </c>
-      <c r="AP30" t="s">
-        <v>218</v>
-      </c>
-      <c r="AQ30" t="s">
-        <v>106</v>
-      </c>
-      <c r="AR30" t="s">
-        <v>172</v>
-      </c>
-      <c r="AS30" t="s">
-        <v>106</v>
-      </c>
-      <c r="AT30" t="s">
-        <v>85</v>
+        <v>401</v>
+      </c>
+      <c r="AF30" s="1">
+        <v>18.75</v>
+      </c>
+      <c r="AG30" s="1">
+        <v>10.47</v>
+      </c>
+      <c r="AH30" s="1">
+        <v>15.91</v>
+      </c>
+      <c r="AI30" s="1">
+        <v>11.99</v>
+      </c>
+      <c r="AJ30" s="1">
+        <v>9.36</v>
+      </c>
+      <c r="AK30" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="AL30" s="1">
+        <v>87.32</v>
+      </c>
+      <c r="AM30" s="1">
+        <v>7.58</v>
+      </c>
+      <c r="AN30" s="1">
+        <v>-10.16</v>
+      </c>
+      <c r="AO30" s="1">
+        <v>49</v>
+      </c>
+      <c r="AP30" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ30" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR30" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS30" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT30" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>3209</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>108</v>
+      <c r="A31">
+        <v>3048</v>
+      </c>
+      <c r="B31" t="s">
+        <v>210</v>
+      </c>
+      <c r="C31" t="s">
+        <v>211</v>
       </c>
       <c r="D31" s="7">
-        <v>2005321840</v>
-      </c>
-      <c r="E31" s="1">
-        <v>19910415</v>
-      </c>
-      <c r="F31" s="1">
-        <v>20081126</v>
+        <v>2448297940</v>
+      </c>
+      <c r="E31">
+        <v>19960711</v>
+      </c>
+      <c r="F31">
+        <v>20021001</v>
       </c>
       <c r="G31">
-        <v>6.91</v>
+        <v>8.7200000000000006</v>
       </c>
       <c r="H31">
-        <v>8.11</v>
+        <v>7.75</v>
       </c>
       <c r="I31">
-        <v>1.66</v>
+        <v>2.04</v>
       </c>
       <c r="J31" t="s">
-        <v>351</v>
-      </c>
-      <c r="K31" t="s">
-        <v>352</v>
+        <v>499</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>500</v>
       </c>
       <c r="L31" t="s">
-        <v>353</v>
+        <v>279</v>
       </c>
       <c r="M31" t="s">
-        <v>354</v>
+        <v>280</v>
       </c>
       <c r="N31">
-        <v>2.29</v>
+        <v>0.49</v>
       </c>
       <c r="O31">
-        <v>-3.48</v>
+        <v>-4.3600000000000003</v>
       </c>
       <c r="P31">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q31">
-        <v>32.04</v>
+        <v>34.32</v>
       </c>
       <c r="R31">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="S31">
-        <v>35.6</v>
+        <v>41.18</v>
       </c>
       <c r="T31">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="U31">
-        <v>39.159999999999997</v>
+        <v>48.05</v>
       </c>
       <c r="V31">
-        <v>12</v>
+        <v>12.8</v>
       </c>
       <c r="W31">
-        <v>42.72</v>
+        <v>54.91</v>
       </c>
       <c r="X31">
-        <v>13</v>
+        <v>14.4</v>
       </c>
       <c r="Y31">
-        <v>46.28</v>
+        <v>61.78</v>
       </c>
       <c r="Z31">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AA31">
-        <v>49.84</v>
+        <v>68.64</v>
       </c>
       <c r="AB31" t="s">
-        <v>499</v>
+        <v>402</v>
       </c>
       <c r="AC31" t="s">
-        <v>500</v>
+        <v>403</v>
       </c>
       <c r="AD31" t="s">
-        <v>501</v>
+        <v>404</v>
       </c>
       <c r="AE31" t="s">
-        <v>502</v>
-      </c>
-      <c r="AF31" s="1">
-        <v>5.31</v>
-      </c>
-      <c r="AG31" s="1">
-        <v>2.25</v>
-      </c>
-      <c r="AH31" s="1">
-        <v>22.5</v>
-      </c>
-      <c r="AI31" s="1">
-        <v>2.11</v>
-      </c>
-      <c r="AJ31" s="1">
-        <v>1.63</v>
-      </c>
-      <c r="AK31" s="1">
-        <v>3.25</v>
-      </c>
-      <c r="AL31" s="1">
-        <v>106.64</v>
-      </c>
-      <c r="AM31" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="AN31" s="1">
-        <v>-1.1599999999999999</v>
-      </c>
-      <c r="AO31" s="1">
-        <v>38</v>
-      </c>
-      <c r="AP31" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AQ31" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AR31" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AS31" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AT31" s="1" t="s">
-        <v>113</v>
+        <v>405</v>
+      </c>
+      <c r="AF31">
+        <v>3.24</v>
+      </c>
+      <c r="AG31">
+        <v>1.5</v>
+      </c>
+      <c r="AH31">
+        <v>27.8</v>
+      </c>
+      <c r="AI31">
+        <v>1.3</v>
+      </c>
+      <c r="AJ31">
+        <v>1.04</v>
+      </c>
+      <c r="AK31">
+        <v>4.37</v>
+      </c>
+      <c r="AL31">
+        <v>115.38</v>
+      </c>
+      <c r="AM31">
+        <v>-2.5099999999999998</v>
+      </c>
+      <c r="AN31">
+        <v>-3.46</v>
+      </c>
+      <c r="AO31">
+        <v>30</v>
+      </c>
+      <c r="AP31" t="s">
+        <v>212</v>
+      </c>
+      <c r="AQ31" t="s">
+        <v>104</v>
+      </c>
+      <c r="AR31" t="s">
+        <v>167</v>
+      </c>
+      <c r="AS31" t="s">
+        <v>104</v>
+      </c>
+      <c r="AT31" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="A32" s="1">
+        <v>3209</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D32" s="7">
+        <v>2005321840</v>
+      </c>
+      <c r="E32" s="1">
+        <v>19910415</v>
+      </c>
+      <c r="F32" s="1">
+        <v>20081126</v>
+      </c>
+      <c r="G32">
+        <v>6.98</v>
+      </c>
+      <c r="H32">
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="I32">
+        <v>1.64</v>
+      </c>
+      <c r="J32" t="s">
+        <v>501</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>502</v>
+      </c>
+      <c r="L32" t="s">
+        <v>281</v>
+      </c>
+      <c r="M32" t="s">
+        <v>282</v>
+      </c>
+      <c r="N32">
+        <v>0.27</v>
+      </c>
+      <c r="O32">
+        <v>-29.81</v>
+      </c>
+      <c r="P32">
+        <v>9</v>
+      </c>
+      <c r="Q32">
+        <v>32.04</v>
+      </c>
+      <c r="R32">
+        <v>10</v>
+      </c>
+      <c r="S32">
+        <v>35.6</v>
+      </c>
+      <c r="T32">
+        <v>11</v>
+      </c>
+      <c r="U32">
+        <v>39.159999999999997</v>
+      </c>
+      <c r="V32">
+        <v>12</v>
+      </c>
+      <c r="W32">
+        <v>42.72</v>
+      </c>
+      <c r="X32">
+        <v>13</v>
+      </c>
+      <c r="Y32">
+        <v>46.28</v>
+      </c>
+      <c r="Z32">
+        <v>14</v>
+      </c>
+      <c r="AA32">
+        <v>49.84</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>406</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>407</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>408</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>409</v>
+      </c>
+      <c r="AF32" s="1">
+        <v>5.31</v>
+      </c>
+      <c r="AG32" s="1">
+        <v>2.25</v>
+      </c>
+      <c r="AH32" s="1">
+        <v>22.5</v>
+      </c>
+      <c r="AI32" s="1">
+        <v>2.11</v>
+      </c>
+      <c r="AJ32" s="1">
+        <v>1.63</v>
+      </c>
+      <c r="AK32" s="1">
+        <v>3.25</v>
+      </c>
+      <c r="AL32" s="1">
+        <v>106.64</v>
+      </c>
+      <c r="AM32" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="AN32" s="1">
+        <v>-1.1599999999999999</v>
+      </c>
+      <c r="AO32" s="1">
+        <v>38</v>
+      </c>
+      <c r="AP32" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AQ32" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AR32" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AS32" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AT32" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="33" spans="1:51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>3312</v>
       </c>
-      <c r="B32" t="s">
-        <v>219</v>
-      </c>
-      <c r="C32" t="s">
-        <v>220</v>
-      </c>
-      <c r="D32" s="7">
+      <c r="B33" t="s">
+        <v>213</v>
+      </c>
+      <c r="C33" t="s">
+        <v>214</v>
+      </c>
+      <c r="D33" s="7">
         <v>1376254550</v>
       </c>
-      <c r="E32">
+      <c r="E33">
         <v>19951006</v>
       </c>
-      <c r="F32">
+      <c r="F33">
         <v>20101229</v>
       </c>
-      <c r="G32">
-        <v>4.01</v>
-      </c>
-      <c r="H32">
-        <v>7.95</v>
-      </c>
-      <c r="I32">
-        <v>1.9</v>
-      </c>
-      <c r="J32" t="s">
-        <v>355</v>
-      </c>
-      <c r="K32" t="s">
-        <v>356</v>
-      </c>
-      <c r="L32" t="s">
-        <v>357</v>
-      </c>
-      <c r="M32" t="s">
-        <v>358</v>
-      </c>
-      <c r="N32">
-        <v>1.71</v>
-      </c>
-      <c r="O32">
-        <v>7.16</v>
-      </c>
-      <c r="P32">
+      <c r="G33">
+        <v>3.99</v>
+      </c>
+      <c r="H33">
+        <v>7.98</v>
+      </c>
+      <c r="I33">
+        <v>1.91</v>
+      </c>
+      <c r="J33" t="s">
+        <v>503</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="L33" t="s">
+        <v>283</v>
+      </c>
+      <c r="M33" t="s">
+        <v>284</v>
+      </c>
+      <c r="N33">
+        <v>1.25</v>
+      </c>
+      <c r="O33">
+        <v>3.6</v>
+      </c>
+      <c r="P33">
         <v>15</v>
       </c>
-      <c r="Q32">
+      <c r="Q33">
         <v>47.1</v>
       </c>
-      <c r="R32">
+      <c r="R33">
         <v>18</v>
       </c>
-      <c r="S32">
+      <c r="S33">
         <v>56.52</v>
       </c>
-      <c r="T32">
+      <c r="T33">
         <v>21</v>
       </c>
-      <c r="U32">
+      <c r="U33">
         <v>65.94</v>
       </c>
-      <c r="V32">
+      <c r="V33">
         <v>24</v>
       </c>
-      <c r="W32">
+      <c r="W33">
         <v>75.36</v>
       </c>
-      <c r="X32">
+      <c r="X33">
         <v>27</v>
       </c>
-      <c r="Y32">
+      <c r="Y33">
         <v>84.78</v>
       </c>
-      <c r="Z32">
+      <c r="Z33">
         <v>30</v>
       </c>
-      <c r="AA32">
+      <c r="AA33">
         <v>94.2</v>
       </c>
-      <c r="AB32" t="s">
-        <v>503</v>
-      </c>
-      <c r="AC32" t="s">
-        <v>504</v>
-      </c>
-      <c r="AD32" t="s">
+      <c r="AB33" t="s">
+        <v>410</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>411</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>412</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>413</v>
+      </c>
+      <c r="AF33">
+        <v>5.84</v>
+      </c>
+      <c r="AG33">
+        <v>3.09</v>
+      </c>
+      <c r="AH33">
+        <v>27.98</v>
+      </c>
+      <c r="AI33">
+        <v>3.08</v>
+      </c>
+      <c r="AJ33">
+        <v>2.5</v>
+      </c>
+      <c r="AK33">
+        <v>3.01</v>
+      </c>
+      <c r="AL33">
+        <v>100.32</v>
+      </c>
+      <c r="AM33">
+        <v>-3.19</v>
+      </c>
+      <c r="AN33">
+        <v>-3.32</v>
+      </c>
+      <c r="AO33">
+        <v>40</v>
+      </c>
+      <c r="AP33" t="s">
+        <v>215</v>
+      </c>
+      <c r="AQ33" t="s">
+        <v>216</v>
+      </c>
+      <c r="AR33" t="s">
+        <v>217</v>
+      </c>
+      <c r="AS33" t="s">
+        <v>218</v>
+      </c>
+      <c r="AT33" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>3702</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D34" s="1">
+        <v>18790568330</v>
+      </c>
+      <c r="E34" s="1">
+        <v>20051109</v>
+      </c>
+      <c r="F34" s="1">
+        <v>20051109</v>
+      </c>
+      <c r="G34">
+        <v>5.83</v>
+      </c>
+      <c r="H34">
+        <v>9.19</v>
+      </c>
+      <c r="I34">
+        <v>1.47</v>
+      </c>
+      <c r="J34" t="s">
         <v>505</v>
       </c>
-      <c r="AE32" t="s">
+      <c r="K34" s="8" t="s">
         <v>506</v>
       </c>
-      <c r="AF32">
-        <v>5.84</v>
-      </c>
-      <c r="AG32">
-        <v>3.09</v>
-      </c>
-      <c r="AH32">
-        <v>27.98</v>
-      </c>
-      <c r="AI32">
-        <v>3.08</v>
-      </c>
-      <c r="AJ32">
-        <v>2.5</v>
-      </c>
-      <c r="AK32">
-        <v>3.01</v>
-      </c>
-      <c r="AL32">
-        <v>100.32</v>
-      </c>
-      <c r="AM32">
-        <v>-3.19</v>
-      </c>
-      <c r="AN32">
-        <v>-3.32</v>
-      </c>
-      <c r="AO32">
-        <v>40</v>
-      </c>
-      <c r="AP32" t="s">
-        <v>221</v>
-      </c>
-      <c r="AQ32" t="s">
-        <v>222</v>
-      </c>
-      <c r="AR32" t="s">
-        <v>223</v>
-      </c>
-      <c r="AS32" t="s">
-        <v>224</v>
-      </c>
-      <c r="AT32" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="33" spans="1:46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>3702</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D33" s="1">
-        <v>18790568330</v>
-      </c>
-      <c r="E33" s="1">
-        <v>20051109</v>
-      </c>
-      <c r="F33" s="1">
-        <v>20051109</v>
-      </c>
-      <c r="G33">
-        <v>5.98</v>
-      </c>
-      <c r="H33">
-        <v>8.9499999999999993</v>
-      </c>
-      <c r="I33">
-        <v>1.43</v>
-      </c>
-      <c r="J33" t="s">
-        <v>359</v>
-      </c>
-      <c r="K33" t="s">
-        <v>360</v>
-      </c>
-      <c r="L33" t="s">
-        <v>361</v>
-      </c>
-      <c r="M33" t="s">
-        <v>244</v>
-      </c>
-      <c r="N33">
-        <v>0.45</v>
-      </c>
-      <c r="O33">
-        <v>-28.03</v>
-      </c>
-      <c r="P33">
+      <c r="L34" t="s">
+        <v>285</v>
+      </c>
+      <c r="M34" t="s">
+        <v>231</v>
+      </c>
+      <c r="N34">
+        <v>1.29</v>
+      </c>
+      <c r="O34">
+        <v>4.24</v>
+      </c>
+      <c r="P34">
         <v>9</v>
       </c>
-      <c r="Q33">
+      <c r="Q34">
         <v>55.71</v>
       </c>
-      <c r="R33">
+      <c r="R34">
         <v>9.8000000000000007</v>
       </c>
-      <c r="S33">
+      <c r="S34">
         <v>60.66</v>
       </c>
-      <c r="T33">
+      <c r="T34">
         <v>10.6</v>
       </c>
-      <c r="U33">
+      <c r="U34">
         <v>65.61</v>
       </c>
-      <c r="V33">
+      <c r="V34">
         <v>11.4</v>
       </c>
-      <c r="W33">
+      <c r="W34">
         <v>70.569999999999993</v>
       </c>
-      <c r="X33">
+      <c r="X34">
         <v>12.2</v>
       </c>
-      <c r="Y33">
+      <c r="Y34">
         <v>75.52</v>
       </c>
-      <c r="Z33">
+      <c r="Z34">
         <v>13</v>
       </c>
-      <c r="AA33">
+      <c r="AA34">
         <v>80.47</v>
       </c>
-      <c r="AB33" t="s">
-        <v>507</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>508</v>
-      </c>
-      <c r="AD33" t="s">
-        <v>509</v>
-      </c>
-      <c r="AE33" t="s">
-        <v>510</v>
-      </c>
-      <c r="AF33" s="1">
+      <c r="AB34" t="s">
+        <v>414</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>415</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>416</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>417</v>
+      </c>
+      <c r="AF34" s="1">
         <v>3.89</v>
       </c>
-      <c r="AG33" s="1">
+      <c r="AG34" s="1">
         <v>1.82</v>
       </c>
-      <c r="AH33" s="1">
+      <c r="AH34" s="1">
         <v>17.649999999999999</v>
       </c>
-      <c r="AI33" s="1">
+      <c r="AI34" s="1">
         <v>1.87</v>
       </c>
-      <c r="AJ33" s="1">
+      <c r="AJ34" s="1">
         <v>1.54</v>
       </c>
-      <c r="AK33" s="1">
+      <c r="AK34" s="1">
         <v>2.9</v>
       </c>
-      <c r="AL33" s="1">
+      <c r="AL34" s="1">
         <v>97.33</v>
       </c>
-      <c r="AM33" s="1">
+      <c r="AM34" s="1">
         <v>-16.23</v>
       </c>
-      <c r="AN33" s="1">
+      <c r="AN34" s="1">
         <v>-16.72</v>
       </c>
-      <c r="AO33" s="1">
+      <c r="AO34" s="1">
         <v>28</v>
       </c>
-      <c r="AP33" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="AQ33" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="AR33" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AS33" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="AT33" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="34" spans="1:46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>3706</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D34" s="7">
-        <v>12065567890</v>
-      </c>
-      <c r="E34" s="1">
-        <v>20130912</v>
-      </c>
-      <c r="F34" s="1">
-        <v>20130912</v>
-      </c>
-      <c r="G34">
-        <v>2.97</v>
-      </c>
-      <c r="H34">
-        <v>3.26</v>
-      </c>
-      <c r="I34">
-        <v>0.81</v>
-      </c>
-      <c r="J34" t="s">
-        <v>362</v>
-      </c>
-      <c r="K34" t="s">
-        <v>363</v>
-      </c>
-      <c r="L34" t="s">
-        <v>364</v>
-      </c>
-      <c r="M34" t="s">
-        <v>365</v>
-      </c>
-      <c r="N34">
-        <v>0.79</v>
-      </c>
-      <c r="O34">
-        <v>-4.74</v>
-      </c>
-      <c r="P34">
-        <v>8</v>
-      </c>
-      <c r="Q34">
-        <v>82.56</v>
-      </c>
-      <c r="R34">
-        <v>9.4</v>
-      </c>
-      <c r="S34">
-        <v>97.01</v>
-      </c>
-      <c r="T34">
-        <v>10.8</v>
-      </c>
-      <c r="U34">
-        <v>111.5</v>
-      </c>
-      <c r="V34">
-        <v>12.2</v>
-      </c>
-      <c r="W34">
-        <v>125.9</v>
-      </c>
-      <c r="X34">
-        <v>13.6</v>
-      </c>
-      <c r="Y34">
-        <v>140.4</v>
-      </c>
-      <c r="Z34">
-        <v>15</v>
-      </c>
-      <c r="AA34">
-        <v>154.80000000000001</v>
-      </c>
-      <c r="AB34" t="s">
-        <v>511</v>
-      </c>
-      <c r="AC34" t="s">
-        <v>512</v>
-      </c>
-      <c r="AD34" t="s">
-        <v>513</v>
-      </c>
-      <c r="AE34" t="s">
-        <v>514</v>
-      </c>
-      <c r="AF34" s="1">
-        <v>9.75</v>
-      </c>
-      <c r="AG34" s="1">
-        <v>-0.09</v>
-      </c>
-      <c r="AH34" s="1">
-        <v>33</v>
-      </c>
-      <c r="AI34" s="1">
-        <v>55.14</v>
-      </c>
-      <c r="AJ34" s="1">
-        <v>34.869999999999997</v>
-      </c>
-      <c r="AK34" s="1">
-        <v>0.68</v>
-      </c>
-      <c r="AL34" s="1">
-        <v>-0.16</v>
-      </c>
-      <c r="AM34" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="AN34" s="1">
-        <v>1.44</v>
-      </c>
-      <c r="AO34" s="1">
-        <v>57</v>
-      </c>
       <c r="AP34" s="1" t="s">
-        <v>106</v>
+        <v>170</v>
       </c>
       <c r="AQ34" s="1" t="s">
-        <v>143</v>
+        <v>171</v>
       </c>
       <c r="AR34" s="1" t="s">
         <v>144</v>
       </c>
       <c r="AS34" s="1" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="AT34" s="1" t="s">
-        <v>130</v>
+        <v>172</v>
       </c>
     </row>
-    <row r="35" spans="1:46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>5515</v>
+        <v>3706</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D35" s="7">
-        <v>2574401050</v>
+        <v>12065567890</v>
       </c>
       <c r="E35" s="1">
-        <v>19601121</v>
+        <v>20130912</v>
       </c>
       <c r="F35" s="1">
-        <v>20031006</v>
+        <v>20130912</v>
       </c>
       <c r="G35">
-        <v>5.73</v>
+        <v>2.99</v>
       </c>
       <c r="H35">
-        <v>7.71</v>
+        <v>3.25</v>
       </c>
       <c r="I35">
-        <v>0.77</v>
+        <v>0.81</v>
       </c>
       <c r="J35" t="s">
-        <v>366</v>
+        <v>507</v>
       </c>
       <c r="K35" t="s">
-        <v>367</v>
+        <v>508</v>
       </c>
       <c r="L35" t="s">
-        <v>245</v>
+        <v>286</v>
       </c>
       <c r="M35" t="s">
-        <v>368</v>
+        <v>287</v>
       </c>
       <c r="N35">
-        <v>0.38</v>
+        <v>0.88</v>
       </c>
       <c r="O35">
-        <v>-3.58</v>
+        <v>-6.37</v>
       </c>
       <c r="P35">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Q35">
-        <v>19.8</v>
+        <v>82.56</v>
       </c>
       <c r="R35">
-        <v>12.4</v>
+        <v>9.4</v>
       </c>
       <c r="S35">
-        <v>22.32</v>
+        <v>97.01</v>
       </c>
       <c r="T35">
-        <v>13.8</v>
+        <v>10.8</v>
       </c>
       <c r="U35">
-        <v>24.84</v>
+        <v>111.5</v>
       </c>
       <c r="V35">
-        <v>15.2</v>
+        <v>12.2</v>
       </c>
       <c r="W35">
-        <v>27.36</v>
+        <v>125.9</v>
       </c>
       <c r="X35">
-        <v>16.600000000000001</v>
+        <v>13.6</v>
       </c>
       <c r="Y35">
-        <v>29.88</v>
+        <v>140.4</v>
       </c>
       <c r="Z35">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AA35">
-        <v>32.4</v>
+        <v>154.80000000000001</v>
       </c>
       <c r="AB35" t="s">
-        <v>515</v>
+        <v>418</v>
       </c>
       <c r="AC35" t="s">
-        <v>516</v>
+        <v>419</v>
       </c>
       <c r="AD35" t="s">
-        <v>517</v>
+        <v>420</v>
       </c>
       <c r="AE35" t="s">
-        <v>518</v>
+        <v>421</v>
       </c>
       <c r="AF35" s="1">
-        <v>13.13</v>
+        <v>9.75</v>
       </c>
       <c r="AG35" s="1">
-        <v>7.24</v>
+        <v>-0.09</v>
       </c>
       <c r="AH35" s="1">
-        <v>10.87</v>
+        <v>33</v>
       </c>
       <c r="AI35" s="1">
-        <v>12.76</v>
+        <v>55.14</v>
       </c>
       <c r="AJ35" s="1">
-        <v>9.4700000000000006</v>
+        <v>34.869999999999997</v>
       </c>
       <c r="AK35" s="1">
-        <v>0.61</v>
+        <v>0.68</v>
       </c>
       <c r="AL35" s="1">
-        <v>56.74</v>
+        <v>-0.16</v>
       </c>
       <c r="AM35" s="1">
-        <v>1.3</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AN35" s="1">
-        <v>2.4500000000000002</v>
+        <v>1.44</v>
       </c>
       <c r="AO35" s="1">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="AP35" s="1" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="AQ35" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="AR35" s="1" t="s">
-        <v>85</v>
+        <v>142</v>
       </c>
       <c r="AS35" s="1" t="s">
-        <v>85</v>
+        <v>143</v>
       </c>
       <c r="AT35" s="1" t="s">
-        <v>85</v>
+        <v>128</v>
       </c>
     </row>
-    <row r="36" spans="1:46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>6257</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D36" s="7">
         <v>4444791420</v>
@@ -7598,31 +7562,31 @@
         <v>20030825</v>
       </c>
       <c r="G36">
-        <v>4.91</v>
+        <v>4.99</v>
       </c>
       <c r="H36">
-        <v>10.19</v>
+        <v>10.02</v>
       </c>
       <c r="I36">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="J36" t="s">
-        <v>369</v>
+        <v>509</v>
       </c>
       <c r="K36" t="s">
-        <v>370</v>
+        <v>510</v>
       </c>
       <c r="L36" t="s">
-        <v>371</v>
+        <v>288</v>
       </c>
       <c r="M36" t="s">
-        <v>372</v>
-      </c>
-      <c r="N36" s="8">
-        <v>2.4700000000000002</v>
-      </c>
-      <c r="O36" s="8">
-        <v>15.34</v>
+        <v>289</v>
+      </c>
+      <c r="N36">
+        <v>0.62</v>
+      </c>
+      <c r="O36">
+        <v>-21.55</v>
       </c>
       <c r="P36">
         <v>9</v>
@@ -7661,16 +7625,16 @@
         <v>87.45</v>
       </c>
       <c r="AB36" t="s">
-        <v>519</v>
+        <v>422</v>
       </c>
       <c r="AC36" t="s">
-        <v>520</v>
+        <v>423</v>
       </c>
       <c r="AD36" t="s">
-        <v>521</v>
+        <v>424</v>
       </c>
       <c r="AE36" t="s">
-        <v>522</v>
+        <v>425</v>
       </c>
       <c r="AF36" s="1">
         <v>30.03</v>
@@ -7703,22 +7667,22 @@
         <v>64</v>
       </c>
       <c r="AP36" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AQ36" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AR36" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="AQ36" s="1" t="s">
+      <c r="AS36" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="AR36" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="AS36" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="AT36" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
-    <row r="37" spans="1:46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>8112</v>
       </c>
@@ -7747,22 +7711,22 @@
         <v>2.0099999999999998</v>
       </c>
       <c r="J37" t="s">
-        <v>373</v>
+        <v>511</v>
       </c>
       <c r="K37" t="s">
-        <v>374</v>
+        <v>512</v>
       </c>
       <c r="L37" t="s">
-        <v>375</v>
+        <v>290</v>
       </c>
       <c r="M37" t="s">
-        <v>376</v>
+        <v>291</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>0.63</v>
       </c>
       <c r="O37">
-        <v>-1.19</v>
+        <v>-8.17</v>
       </c>
       <c r="P37">
         <v>7</v>
@@ -7801,16 +7765,16 @@
         <v>87.23</v>
       </c>
       <c r="AB37" t="s">
-        <v>523</v>
+        <v>426</v>
       </c>
       <c r="AC37" t="s">
-        <v>524</v>
+        <v>427</v>
       </c>
       <c r="AD37" t="s">
-        <v>525</v>
+        <v>428</v>
       </c>
       <c r="AE37" t="s">
-        <v>526</v>
+        <v>429</v>
       </c>
       <c r="AF37" s="1">
         <v>3.26</v>
@@ -7843,22 +7807,22 @@
         <v>32</v>
       </c>
       <c r="AP37" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AQ37" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="AR37" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AS37" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AT37" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
-    <row r="38" spans="1:46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>8150</v>
       </c>
@@ -7878,31 +7842,31 @@
         <v>20140411</v>
       </c>
       <c r="G38">
-        <v>4.6399999999999997</v>
+        <v>4.67</v>
       </c>
       <c r="H38">
-        <v>7.97</v>
+        <v>7.92</v>
       </c>
       <c r="I38">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="J38" t="s">
-        <v>377</v>
+        <v>513</v>
       </c>
       <c r="K38" t="s">
-        <v>378</v>
+        <v>514</v>
       </c>
       <c r="L38" t="s">
-        <v>379</v>
+        <v>292</v>
       </c>
       <c r="M38" t="s">
-        <v>380</v>
+        <v>293</v>
       </c>
       <c r="N38">
-        <v>1.21</v>
+        <v>1.07</v>
       </c>
       <c r="O38">
-        <v>7.73</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="P38">
         <v>9</v>
@@ -7941,16 +7905,16 @@
         <v>107.1</v>
       </c>
       <c r="AB38" t="s">
-        <v>527</v>
+        <v>430</v>
       </c>
       <c r="AC38" t="s">
-        <v>528</v>
+        <v>431</v>
       </c>
       <c r="AD38" t="s">
-        <v>529</v>
+        <v>432</v>
       </c>
       <c r="AE38" t="s">
-        <v>530</v>
+        <v>433</v>
       </c>
       <c r="AF38" s="1">
         <v>26.62</v>
@@ -7983,30 +7947,30 @@
         <v>66</v>
       </c>
       <c r="AP38" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AQ38" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AR38" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AS38" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="AQ38" s="1" t="s">
+      <c r="AT38" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="AR38" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AS38" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AT38" s="1" t="s">
-        <v>154</v>
-      </c>
     </row>
-    <row r="39" spans="1:46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>8213</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D39" s="7">
         <v>2712424880</v>
@@ -8018,31 +7982,31 @@
         <v>20091225</v>
       </c>
       <c r="G39">
-        <v>7.28</v>
+        <v>7.3</v>
       </c>
       <c r="H39">
-        <v>7.95</v>
+        <v>7.93</v>
       </c>
       <c r="I39">
         <v>0.99</v>
       </c>
       <c r="J39" t="s">
-        <v>381</v>
+        <v>515</v>
       </c>
       <c r="K39" t="s">
-        <v>382</v>
+        <v>516</v>
       </c>
       <c r="L39" t="s">
-        <v>383</v>
+        <v>294</v>
       </c>
       <c r="M39" t="s">
-        <v>384</v>
+        <v>295</v>
       </c>
       <c r="N39">
-        <v>1.97</v>
-      </c>
-      <c r="O39" s="8">
-        <v>12.87</v>
+        <v>1.27</v>
+      </c>
+      <c r="O39">
+        <v>1.71</v>
       </c>
       <c r="P39">
         <v>6</v>
@@ -8081,16 +8045,16 @@
         <v>67.209999999999994</v>
       </c>
       <c r="AB39" t="s">
-        <v>531</v>
+        <v>434</v>
       </c>
       <c r="AC39" t="s">
-        <v>532</v>
+        <v>435</v>
       </c>
       <c r="AD39" t="s">
-        <v>533</v>
+        <v>436</v>
       </c>
       <c r="AE39" t="s">
-        <v>534</v>
+        <v>437</v>
       </c>
       <c r="AF39" s="1">
         <v>15.64</v>
@@ -8123,166 +8087,42 @@
         <v>47</v>
       </c>
       <c r="AP39" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AQ39" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AR39" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AS39" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AQ39" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="AR39" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AS39" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="AT39" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="40" spans="1:46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>8215</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D40" s="7">
-        <v>3206745140</v>
-      </c>
-      <c r="E40" s="1">
-        <v>19980716</v>
-      </c>
-      <c r="F40" s="1">
-        <v>20101112</v>
-      </c>
-      <c r="G40">
-        <v>1.89</v>
-      </c>
-      <c r="H40">
-        <v>13.5</v>
-      </c>
-      <c r="I40">
-        <v>2.48</v>
-      </c>
-      <c r="J40" t="s">
-        <v>385</v>
-      </c>
-      <c r="K40" t="s">
-        <v>386</v>
-      </c>
-      <c r="L40" t="s">
-        <v>387</v>
-      </c>
-      <c r="M40" t="s">
-        <v>388</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>5.12</v>
-      </c>
-      <c r="P40">
-        <v>15</v>
-      </c>
-      <c r="Q40">
-        <v>41.1</v>
-      </c>
-      <c r="R40">
-        <v>18</v>
-      </c>
-      <c r="S40">
-        <v>49.32</v>
-      </c>
-      <c r="T40">
-        <v>21</v>
-      </c>
-      <c r="U40">
-        <v>57.54</v>
-      </c>
-      <c r="V40">
-        <v>24</v>
-      </c>
-      <c r="W40">
-        <v>65.760000000000005</v>
-      </c>
-      <c r="X40">
-        <v>27</v>
-      </c>
-      <c r="Y40">
-        <v>73.98</v>
-      </c>
-      <c r="Z40">
-        <v>30</v>
-      </c>
-      <c r="AA40">
-        <v>82.2</v>
-      </c>
-      <c r="AB40" t="s">
-        <v>535</v>
-      </c>
-      <c r="AC40" t="s">
-        <v>536</v>
-      </c>
-      <c r="AD40" t="s">
-        <v>537</v>
-      </c>
-      <c r="AE40" t="s">
-        <v>538</v>
-      </c>
-      <c r="AF40" s="1">
-        <v>18.329999999999998</v>
-      </c>
-      <c r="AG40" s="1">
-        <v>6.21</v>
-      </c>
-      <c r="AH40" s="1">
-        <v>20.77</v>
-      </c>
-      <c r="AI40" s="1">
-        <v>7.17</v>
-      </c>
-      <c r="AJ40" s="1">
-        <v>5.72</v>
-      </c>
-      <c r="AK40" s="1">
-        <v>1.46</v>
-      </c>
-      <c r="AL40" s="1">
-        <v>86.61</v>
-      </c>
-      <c r="AM40" s="1">
-        <v>2.25</v>
-      </c>
-      <c r="AN40" s="1">
-        <v>0.89</v>
-      </c>
-      <c r="AO40" s="1">
-        <v>40</v>
-      </c>
-      <c r="AP40" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="AQ40" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AR40" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AS40" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="AT40" s="1" t="s">
-        <v>102</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="AU39"/>
+      <c r="AV39"/>
+      <c r="AW39"/>
+      <c r="AX39"/>
+      <c r="AY39"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:AT40">
-    <sortCondition ref="A3:A40"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:AT39">
+    <sortCondition ref="A39"/>
   </sortState>
   <mergeCells count="27">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="AF1:AF2"/>
+    <mergeCell ref="AG1:AG2"/>
+    <mergeCell ref="AH1:AH2"/>
+    <mergeCell ref="AI1:AI2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="AE1:AE2"/>
+    <mergeCell ref="AD1:AD2"/>
+    <mergeCell ref="AC1:AC2"/>
+    <mergeCell ref="AB1:AB2"/>
     <mergeCell ref="AP1:AT1"/>
     <mergeCell ref="AJ1:AJ2"/>
     <mergeCell ref="B1:B2"/>
@@ -8299,21 +8139,10 @@
     <mergeCell ref="AM1:AM2"/>
     <mergeCell ref="AN1:AN2"/>
     <mergeCell ref="AO1:AO2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="AF1:AF2"/>
-    <mergeCell ref="AG1:AG2"/>
-    <mergeCell ref="AH1:AH2"/>
-    <mergeCell ref="AI1:AI2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="AE1:AE2"/>
-    <mergeCell ref="AD1:AD2"/>
-    <mergeCell ref="AC1:AC2"/>
-    <mergeCell ref="AB1:AB2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="AF26:AF28">
-    <cfRule type="colorScale" priority="12">
+    <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8325,7 +8154,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF3:AF28">
-    <cfRule type="colorScale" priority="89">
+    <cfRule type="colorScale" priority="92">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8335,7 +8164,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF3:AO29">
-    <cfRule type="colorScale" priority="101">
+    <cfRule type="colorScale" priority="104">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8345,7 +8174,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL3:AL27">
-    <cfRule type="colorScale" priority="108">
+    <cfRule type="colorScale" priority="111">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8355,7 +8184,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG4:AG27">
-    <cfRule type="colorScale" priority="110">
+    <cfRule type="colorScale" priority="113">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8365,7 +8194,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF3:AF27">
-    <cfRule type="colorScale" priority="112">
+    <cfRule type="colorScale" priority="115">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8375,7 +8204,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG3:AG27">
-    <cfRule type="colorScale" priority="114">
+    <cfRule type="colorScale" priority="117">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8385,7 +8214,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ3:AJ27">
-    <cfRule type="colorScale" priority="116">
+    <cfRule type="colorScale" priority="119">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8395,7 +8224,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH3:AH27">
-    <cfRule type="colorScale" priority="118">
+    <cfRule type="colorScale" priority="121">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8405,7 +8234,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG3:AL28">
-    <cfRule type="colorScale" priority="120">
+    <cfRule type="colorScale" priority="123">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8415,7 +8244,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM3:AO28">
-    <cfRule type="colorScale" priority="122">
+    <cfRule type="colorScale" priority="125">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8425,7 +8254,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF3:AO28">
-    <cfRule type="colorScale" priority="124">
+    <cfRule type="colorScale" priority="127">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8435,7 +8264,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF6:AO29">
-    <cfRule type="colorScale" priority="126">
+    <cfRule type="colorScale" priority="129">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8444,7 +8273,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF3:AO40">
+  <conditionalFormatting sqref="AF3:AO38">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF3:AO39">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/Data/彙整清單_整理版.xlsx
+++ b/Data/彙整清單_整理版.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\svnbox\Python\Stock\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D383FF69-1086-4687-8E1B-B7A90B6698D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A123C9-1C86-4210-BE6D-F7A0AE77FD39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D923A086-913E-4840-96DC-7378B4FF8169}"/>
   </bookViews>
@@ -776,9 +776,6 @@
     <t>聲寶股份有限公司</t>
   </si>
   <si>
-    <t xml:space="preserve">    0.28 /     0.28 /     0.33 /     0.51</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 籌碼
 集中度</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -789,192 +786,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">    1.44 /     1.31 /     1.14 /     1.45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.44 /     0.82 /     0.72 /     0.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.68 /     0.42 /     0.53 /     2.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.64 /     0.98 /     0.87 /     1.61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.41 /     1.08 /     1.09 /     2.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.81 /      0.8 /     0.94 /     1.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.63 /     2.75 /     2.22 /     2.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     0.1 /     0.12 /     0.09 /     0.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    10.4 /    10.36 /    10.25 /     10.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.99 /     0.97 /     1.02 /     1.62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.43 /     1.42 /     1.35 /     1.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.24 /     0.23 /     0.19 /     1.72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.11 /     3.15 /     3.27 /     3.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.53 /     0.51 /     0.41 /     0.73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.37 /     1.33 /     1.61 /     1.56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5.82 /      5.6 /     5.43 /      5.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    46.0 /    45.92 /     45.7 /     46.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     2.1 /     1.71 /     1.42 /     2.97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    32.8 /     32.8 /    33.56 /    34.53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9.11 /     9.15 /     7.51 /     5.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    20.0 /     20.0 /    19.93 /    21.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.03 /     0.99 /     1.12 /     1.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    34.5 /    34.24 /    33.78 /    33.52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.97 /     2.18 /     0.64 /      0.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.89 /     0.87 /     1.06 /     1.71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.13 /     0.11 /      0.1 /     1.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.28 /     1.27 /     1.82 /     2.52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    38.1 /     37.8 /    20.85 /    14.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    21.8 /     22.0 /    21.94 /    22.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    19.7 /    19.32 /    20.08 /    22.47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    10.5 /    10.64 /    10.74 /     11.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.58 /     0.88 /     0.63 /     0.52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    20.5 /    20.56 /    20.96 /    21.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.69 /     0.72 /     0.69 /     0.58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.66 /     3.63 /      3.7 /     3.66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    22.0 /    21.92 /    21.88 /    22.58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    10.5 /    10.46 /    10.75 /    16.84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    30.8 /    30.82 /    30.94 /    31.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.28 /      0.3 /     0.51 /     0.65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8.44 /     8.46 /     8.61 /     7.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.72 /     1.69 /     1.34 /     1.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    11.0 /    11.26 /    10.98 /    10.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    12.0 /     8.87 /     8.05 /     10.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    42.4 /     42.4 /    42.27 /    41.66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.67 /     1.37 /     1.05 /     1.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6.12 /      6.1 /     6.22 /      6.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.17 /     0.15 /     0.23 /     0.96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4.08 /     4.17 /     4.26 /     4.98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.16 /     0.12 /     0.32 /     0.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5.89 /      5.8 /      5.8 /     6.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.98 /     1.15 /     0.83 /     0.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    26.8 /    26.84 /    26.67 /    26.76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    12.4 /    12.36 /    11.77 /    11.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.86 /     0.93 /     0.89 /     0.74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    23.0 /    23.34 /    23.89 /     25.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.82 /     0.87 /     0.97 /     2.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    24.3 /    24.26 /    23.58 /    22.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     1.4 /     1.41 /      0.9 /     0.66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    46.9 /    46.98 /    46.83 /    48.76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.82 /     3.76 /     4.89 /     5.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    21.5 /    21.42 /    20.91 /    20.59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.24 /     0.21 /     0.19 /     0.22</t>
-  </si>
-  <si>
     <t>26.11  /  26.12  /  26.22  /  26.3  /  26.36</t>
   </si>
   <si>
@@ -1401,261 +1212,12 @@
     <t>38.0  /  38.0  /  38.0  /  38.0  /  38.0</t>
   </si>
   <si>
-    <t xml:space="preserve">    60.5 /    60.72 /    59.87 /    57.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2037.0 /   1600.6 /   1619.8 /   1546.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    12.2 /    12.12 /     12.0 /    12.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    69.7 /    68.88 /     68.7 /    68.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   181.0 /   121.18 /   125.01 /   188.91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.82 /     1.84 /     1.84 /     1.93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   19.65 /    19.85 /    19.93 /    19.66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3151.0 /   2367.8 /  2827.95 /  3342.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    14.1 /    14.16 /    13.95 /    13.45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    29.3 /    30.23 /    30.92 /     32.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 12083.0 /  11777.4 /   6077.3 /  7470.53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    37.1 /     37.5 /    38.24 /    39.84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   33.55 /    34.38 /    34.26 /    35.36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2740.0 /   5819.2 /  3790.15 /  7242.87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    10.2 /    10.66 /    10.91 /    13.87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    35.9 /    36.37 /    36.44 /    37.99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  8522.0 /  15616.6 /  6623.55 / 10795.47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     9.2 /     9.04 /     9.42 /    10.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   21.15 /    21.17 /    21.22 /    21.97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1841.0 /   2951.0 /   2852.2 /  3789.77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9.09 /      9.1 /     8.99 /      9.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    15.6 /    15.71 /    15.41 /    15.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   539.0 /   1220.0 /   720.55 /  1008.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    30.1 /    30.04 /    29.75 /    29.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   448.0 /    555.8 /    424.4 /   569.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    21.1 /    21.23 /    21.28 /    22.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    55.2 /     75.5 /    90.58 /   420.39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   31.05 /    31.25 /     31.6 /    31.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   322.0 /    295.0 /    357.7 /   708.45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    32.0 /    32.74 /    34.62 /    34.44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1544.0 /   1459.2 /  1778.15 /  4016.93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    25.0 /    24.76 /    24.22 /    24.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 12830.0 /  13984.0 / 12338.25 / 13463.82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    67.7 /    66.46 /    65.94 /    60.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  8497.0 /   5118.6 /  10896.6 /  7454.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   30.95 /     30.8 /    30.26 /    30.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  5196.0 /   6662.2 /  5124.95 /   7408.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    88.5 /    86.44 /    83.12 /    81.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  4387.0 /   3686.4 /  2343.95 /  1893.88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    46.8 /    46.94 /    46.16 /    45.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   781.0 /   1069.0 /  1353.15 /  1303.65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    33.7 /    35.52 /    30.09 /    27.56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  6179.0 /  10929.2 /   8572.6 /  3485.85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   164.0 /    166.2 /    166.2 /   164.73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1409.0 /   2752.2 /   2530.8 /  3006.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    50.0 /    51.42 /    50.86 /     49.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   498.0 /    472.2 /    503.5 /   494.47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   36.85 /    37.04 /    37.54 /    38.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1635.0 /   1479.6 /   1422.6 /  1643.83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    50.5 /    49.87 /    49.42 /    49.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   265.0 /    170.8 /    123.4 /   127.44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    79.9 /    76.72 /    75.51 /    74.65</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 79916.0 /  29524.8 / 21784.85 / 21249.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    54.9 /    55.26 /    54.66 /     53.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   820.0 /    975.2 /   1076.9 /    944.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   33.45 /    33.59 /    33.91 /    31.45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1012.0 /   1119.0 /   1975.9 /  1468.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    31.0 /     31.4 /     31.3 /    29.71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  4171.0 /   8407.0 /  12036.1 / 11587.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   123.5 /    123.1 /   123.05 /   120.37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   766.0 /    530.6 /    725.9 /   930.58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   33.25 /    32.78 /    32.37 /    32.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3054.0 /   1580.4 /    924.9 /  1049.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   28.65 /    28.94 /    29.01 /    29.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1077.0 /    548.8 /   421.15 /   591.48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   25.05 /    24.28 /    24.12 /    23.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3137.0 /   1893.0 /  1171.25 /   1981.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    53.2 /     52.1 /    51.52 /    51.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  9212.0 /   5043.0 /   4549.9 /  3922.48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    33.5 /    33.92 /    34.14 /     31.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  5273.0 /   5774.4 /  10043.2 / 11671.85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    57.5 /     58.6 /     58.3 /    59.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2854.0 /   3993.0 /  2379.75 /  3581.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    49.5 /    49.54 /    48.63 /     45.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  4162.0 /   4268.8 /  5619.35 /  4390.58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    47.1 /     47.6 /    47.52 /    46.72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  5332.0 /   4727.6 /   5958.6 /  6613.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   47.95 /    48.23 /    47.98 /    47.52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1194.0 /   1022.4 /    952.3 /    956.8</t>
-  </si>
-  <si>
     <t>力山</t>
   </si>
   <si>
     <t>力山工業股份有限公司</t>
   </si>
   <si>
-    <t xml:space="preserve">    52.5 /     54.1 /    56.03 /    61.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1093.0 /   1919.8 /   1253.6 /   947.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7.56 /     7.62 /     7.69 /     8.37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    13.1 /     9.85 /     5.93 /     2.63</t>
-  </si>
-  <si>
     <t>36.26  /  35.51  /  35.45  /  34.57  /  33.46</t>
   </si>
   <si>
@@ -1666,6 +1228,444 @@
   </si>
   <si>
     <t>20.0  /  19.0  /  19.0  /  20.0  /  22.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    61.5 /    60.92 /    60.07 /    58.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1399.0 /   1641.0 /  1632.95 /  1549.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    12.2 /    12.14 /    12.02 /    12.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.44 /     1.38 /     1.15 /     1.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    69.8 /    69.16 /    68.78 /    68.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    97.6 /   125.56 /   123.84 /   186.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.82 /     1.83 /     1.84 /     1.93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    19.5 /    19.76 /    19.92 /    19.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3327.0 /   2624.8 /  2895.35 /  3354.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    14.1 /    14.14 /    13.97 /    13.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.35 /     0.71 /     0.72 /     0.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    29.1 /    29.93 /    30.82 /    32.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4252.0 /  11601.2 /  5964.45 /   7368.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    36.9 /     37.3 /    38.13 /    39.76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     2.0 /     0.75 /     0.58 /     2.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   33.75 /    34.17 /    34.27 /    35.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2129.0 /   5650.6 /   3721.5 /  7044.38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    10.1 /     10.5 /    10.85 /    13.69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.82 /     0.99 /     0.86 /     1.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    36.1 /    36.45 /    36.44 /    37.86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3400.0 /  15692.6 /  6539.15 / 10371.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    8.95 /     9.03 /     9.38 /    10.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.21 /     1.13 /      1.1 /     2.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    21.3 /    21.19 /    21.24 /    21.92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1316.0 /   2909.8 /  2753.45 /  3731.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    9.06 /     9.09 /     8.99 /     9.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     0.8 /      0.8 /     0.94 /      1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    52.4 /    53.36 /    55.84 /    61.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   584.0 /   1924.8 /   1218.9 /   950.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    7.34 /     7.53 /     7.69 /     8.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    12.4 /    10.87 /     6.41 /     2.83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   15.55 /    15.66 /    15.44 /    15.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   378.0 /    929.6 /    720.1 /    892.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.74 /     2.71 /     2.28 /      2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     0.1 /     0.12 /     0.09 /      0.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    30.2 /    30.09 /    29.78 /    29.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   633.0 /    602.4 /    436.8 /   570.72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    10.5 /     10.4 /    10.26 /    10.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.97 /     0.98 /     1.02 /     1.59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   20.95 /    21.16 /    21.27 /    22.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    82.0 /     69.3 /    86.63 /   400.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.42 /     1.42 /     1.35 /     1.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.24 /     0.23 /      0.2 /     1.63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   30.65 /    31.13 /    31.56 /    31.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   720.0 /    391.0 /   366.85 /   712.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.07 /     3.13 /     3.26 /     3.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.55 /     0.52 /     0.41 /     0.71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    32.8 /    32.57 /    34.51 /    34.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2703.0 /   1738.4 /   1801.0 /  4029.73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.23 /     1.31 /      1.6 /     1.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     5.4 /     5.62 /     5.45 /     5.72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    24.9 /    24.83 /    24.28 /    24.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12779.0 /  12917.0 / 12510.25 /  13522.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    46.0 /    45.98 /     45.7 /    46.76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.82 /     1.79 /     1.45 /     2.93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    67.6 /    66.76 /    66.15 /    60.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  6527.0 /   5842.8 / 10785.05 /  7511.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    32.8 /     32.8 /    33.43 /    34.49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    8.98 /     8.92 /      7.8 /     5.61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   30.75 /    30.81 /     30.3 /    30.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2948.0 /   6175.2 /   4911.6 /  7285.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    20.0 /     20.0 /    19.93 /    21.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.15 /     1.03 /     1.12 /     1.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    88.6 /    87.16 /    83.53 /    81.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3803.0 /   3861.8 /   2492.4 /  1935.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    34.7 /    34.36 /    33.84 /    33.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.28 /     2.84 /     0.86 /     0.86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    46.3 /    46.67 /    46.22 /    45.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   631.0 /    773.8 /  1298.45 /  1301.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.87 /     0.86 /      1.0 /     1.69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.14 /     0.12 /      0.1 /      1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    33.2 /    34.64 /    30.54 /    27.69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4521.0 /   6967.0 /   8757.2 /  3532.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.57 /     1.32 /     1.79 /     2.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    39.1 /    38.34 /    22.49 /    15.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   161.0 /    164.4 /   166.52 /   164.87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1869.0 /   1803.6 /   2464.5 /  3010.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    21.8 /    21.92 /    21.98 /    22.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    18.7 /    18.98 /     19.9 /    22.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    50.0 /     50.9 /    50.85 /    49.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   320.0 /    372.8 /    499.2 /   489.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    10.4 /    10.54 /    10.72 /    11.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.76 /     0.75 /     0.64 /     0.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    36.8 /    36.91 /    37.47 /    38.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   939.0 /   1451.0 /   1336.6 /  1632.77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    20.5 /    20.54 /     20.9 /    21.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.66 /      0.7 /     0.69 /     0.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    51.3 /    50.23 /    49.53 /    49.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   353.0 /    215.6 /   134.55 /   132.73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.66 /     3.64 /     3.69 /     3.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    80.0 /    77.58 /    75.76 /    74.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 41020.0 /  35206.0 /  23084.0 / 21691.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    22.2 /    21.98 /    21.89 /    22.53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.33 /     8.63 /    10.25 /    16.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    54.8 /     55.0 /     54.7 /    53.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1422.0 /   1087.4 /   1085.6 /    959.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    30.7 /     30.8 /    30.93 /    31.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.27 /     0.29 /     0.46 /     0.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    33.6 /    33.49 /    33.93 /    31.53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   498.0 /    953.4 /   1842.3 /  1469.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    8.26 /     8.41 /     8.62 /     7.79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.79 /     1.74 /     1.48 /     1.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    31.0 /    31.14 /    31.41 /    29.78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2745.0 /   4895.4 / 11921.75 / 11581.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    10.8 /    11.02 /    11.08 /    10.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    10.7 /     9.89 /     8.28 /      9.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   124.5 /    123.5 /   123.15 /   120.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   676.0 /    530.2 /   726.75 /    924.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    42.3 /    42.38 /    42.29 /    41.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.72 /     1.71 /     1.12 /      1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   33.55 /    32.97 /    32.47 /    32.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1160.0 /   1708.4 /   956.15 /  1012.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     6.1 /     6.09 /     6.21 /     6.82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.16 /     0.16 /      0.2 /     0.93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    28.6 /    28.82 /    29.01 /    29.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   506.0 /    564.8 /   423.05 /    591.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.04 /     4.12 /     4.24 /     4.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.33 /     0.23 /     0.31 /     0.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    24.5 /    24.38 /    24.18 /     23.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1550.0 /   2003.2 /   1164.4 /  1999.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5.87 /     5.81 /      5.8 /     6.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.65 /     0.94 /      0.8 /     0.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    53.6 /    52.46 /    51.68 /    51.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10605.0 /   6008.0 /   4962.1 /  4001.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    26.9 /    26.86 /     26.7 /    26.76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.69 /     0.42 /     0.35 /     0.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    33.4 /    33.76 /    34.12 /    31.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3422.0 /   5484.8 /   9432.2 / 11712.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    12.3 /    12.36 /    11.84 /    11.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.89 /     0.85 /     0.91 /     0.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    57.8 /    58.24 /    58.33 /    59.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1578.0 /   2666.8 /  2308.15 /   3533.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    22.7 /    23.18 /    23.79 /    25.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.51 /     0.97 /     0.96 /      2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    50.0 /    49.59 /    48.78 /    45.92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2652.0 /   3356.4 /  5379.55 /  4404.73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    24.1 /    24.28 /    23.62 /    22.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.46 /     1.45 /     0.99 /     0.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    49.7 /    47.92 /    47.76 /    46.78</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21194.0 /   8169.6 /   6669.4 /  6839.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    47.0 /    46.98 /    46.84 /    48.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.97 /     3.85 /     4.47 /     4.86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    48.0 /    48.12 /    48.04 /    47.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   604.0 /    919.2 /   945.95 /   958.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    21.3 /    21.42 /    20.94 /    20.61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.19 /     0.22 /     0.19 /     0.21</t>
   </si>
 </sst>
 </file>
@@ -2323,13 +2323,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2690,10 +2690,10 @@
   <dimension ref="A1:AY39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AC15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AJ10" sqref="AJ10"/>
+      <selection pane="bottomRight" activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2727,7 +2727,7 @@
       <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="13" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="10" t="s">
@@ -2757,11 +2757,11 @@
       <c r="M1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="O1" s="12" t="s">
+      <c r="N1" s="11" t="s">
         <v>232</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>231</v>
       </c>
       <c r="P1" s="10" t="s">
         <v>4</v>
@@ -2777,16 +2777,16 @@
       <c r="Y1" s="10"/>
       <c r="Z1" s="3"/>
       <c r="AA1" s="3"/>
-      <c r="AB1" s="13" t="s">
+      <c r="AB1" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="AC1" s="13" t="s">
+      <c r="AC1" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="AD1" s="13" t="s">
+      <c r="AD1" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="AE1" s="13" t="s">
+      <c r="AE1" s="12" t="s">
         <v>177</v>
       </c>
       <c r="AF1" s="10" t="s">
@@ -2831,7 +2831,7 @@
       <c r="A2" s="9"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
-      <c r="D2" s="11"/>
+      <c r="D2" s="13"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -2849,8 +2849,8 @@
       <c r="M2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
       <c r="P2" s="5" t="s">
         <v>41</v>
       </c>
@@ -2887,10 +2887,10 @@
       <c r="AA2" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="AB2" s="13"/>
-      <c r="AC2" s="13"/>
-      <c r="AD2" s="13"/>
-      <c r="AE2" s="13"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="12"/>
       <c r="AF2" s="10"/>
       <c r="AG2" s="9"/>
       <c r="AH2" s="10"/>
@@ -2939,25 +2939,25 @@
         <v>19760719</v>
       </c>
       <c r="G3">
-        <v>4.46</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="H3">
-        <v>17.190000000000001</v>
+        <v>17.47</v>
       </c>
       <c r="I3">
-        <v>2.1800000000000002</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="J3" t="s">
-        <v>438</v>
+        <v>381</v>
       </c>
       <c r="K3" t="s">
-        <v>439</v>
+        <v>382</v>
       </c>
       <c r="L3" t="s">
-        <v>440</v>
+        <v>383</v>
       </c>
       <c r="M3" t="s">
-        <v>234</v>
+        <v>384</v>
       </c>
       <c r="N3">
         <v>0.1</v>
@@ -3002,16 +3002,16 @@
         <v>60.8</v>
       </c>
       <c r="AB3" t="s">
-        <v>296</v>
+        <v>233</v>
       </c>
       <c r="AC3" t="s">
-        <v>297</v>
+        <v>234</v>
       </c>
       <c r="AD3" t="s">
-        <v>298</v>
+        <v>235</v>
       </c>
       <c r="AE3" t="s">
-        <v>299</v>
+        <v>236</v>
       </c>
       <c r="AF3" s="1">
         <v>26.64</v>
@@ -3079,22 +3079,22 @@
         <v>19951102</v>
       </c>
       <c r="G4">
-        <v>3.73</v>
+        <v>3.72</v>
       </c>
       <c r="H4">
-        <v>17.690000000000001</v>
+        <v>17.72</v>
       </c>
       <c r="I4">
-        <v>3.27</v>
+        <v>3.28</v>
       </c>
       <c r="J4" t="s">
-        <v>441</v>
+        <v>385</v>
       </c>
       <c r="K4" t="s">
-        <v>442</v>
+        <v>386</v>
       </c>
       <c r="L4" t="s">
-        <v>443</v>
+        <v>387</v>
       </c>
       <c r="M4" t="s">
         <v>157</v>
@@ -3142,16 +3142,16 @@
         <v>66.81</v>
       </c>
       <c r="AB4" t="s">
-        <v>300</v>
+        <v>237</v>
       </c>
       <c r="AC4" t="s">
-        <v>301</v>
+        <v>238</v>
       </c>
       <c r="AD4" t="s">
-        <v>302</v>
+        <v>239</v>
       </c>
       <c r="AE4" t="s">
-        <v>303</v>
+        <v>240</v>
       </c>
       <c r="AF4" s="1">
         <v>23.18</v>
@@ -3219,25 +3219,25 @@
         <v>19730831</v>
       </c>
       <c r="G5">
-        <v>5.6</v>
+        <v>5.64</v>
       </c>
       <c r="H5">
-        <v>8.66</v>
+        <v>8.59</v>
       </c>
       <c r="I5">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="J5" t="s">
-        <v>444</v>
+        <v>388</v>
       </c>
       <c r="K5" t="s">
-        <v>445</v>
+        <v>389</v>
       </c>
       <c r="L5" t="s">
-        <v>446</v>
+        <v>390</v>
       </c>
       <c r="M5" t="s">
-        <v>235</v>
+        <v>391</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -3282,16 +3282,16 @@
         <v>38.590000000000003</v>
       </c>
       <c r="AB5" t="s">
-        <v>304</v>
+        <v>241</v>
       </c>
       <c r="AC5" t="s">
-        <v>305</v>
+        <v>242</v>
       </c>
       <c r="AD5" t="s">
-        <v>306</v>
+        <v>243</v>
       </c>
       <c r="AE5" t="s">
-        <v>307</v>
+        <v>244</v>
       </c>
       <c r="AF5" s="1">
         <v>24.73</v>
@@ -3359,31 +3359,31 @@
         <v>19720520</v>
       </c>
       <c r="G6">
-        <v>3.41</v>
+        <v>3.44</v>
       </c>
       <c r="H6">
-        <v>6.41</v>
+        <v>6.37</v>
       </c>
       <c r="I6">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="J6" t="s">
-        <v>447</v>
+        <v>392</v>
       </c>
       <c r="K6" t="s">
-        <v>448</v>
+        <v>393</v>
       </c>
       <c r="L6" t="s">
-        <v>449</v>
+        <v>394</v>
       </c>
       <c r="M6" t="s">
-        <v>236</v>
+        <v>395</v>
       </c>
       <c r="N6">
-        <v>0.39</v>
+        <v>0.84</v>
       </c>
       <c r="O6">
-        <v>-14.46</v>
+        <v>-14.1</v>
       </c>
       <c r="P6">
         <v>10</v>
@@ -3422,16 +3422,16 @@
         <v>91.4</v>
       </c>
       <c r="AB6" t="s">
-        <v>308</v>
+        <v>245</v>
       </c>
       <c r="AC6" t="s">
-        <v>309</v>
+        <v>246</v>
       </c>
       <c r="AD6" t="s">
-        <v>310</v>
+        <v>247</v>
       </c>
       <c r="AE6" t="s">
-        <v>311</v>
+        <v>248</v>
       </c>
       <c r="AF6">
         <v>23.9</v>
@@ -3499,31 +3499,31 @@
         <v>19730305</v>
       </c>
       <c r="G7">
-        <v>6.86</v>
+        <v>6.81</v>
       </c>
       <c r="H7">
-        <v>6.75</v>
+        <v>6.79</v>
       </c>
       <c r="I7">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="J7" t="s">
-        <v>450</v>
+        <v>396</v>
       </c>
       <c r="K7" t="s">
-        <v>451</v>
+        <v>397</v>
       </c>
       <c r="L7" t="s">
-        <v>452</v>
+        <v>398</v>
       </c>
       <c r="M7" t="s">
-        <v>237</v>
+        <v>399</v>
       </c>
       <c r="N7">
-        <v>0.61</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="O7">
-        <v>-11.83</v>
+        <v>-15.83</v>
       </c>
       <c r="P7">
         <v>7</v>
@@ -3562,16 +3562,16 @@
         <v>79.680000000000007</v>
       </c>
       <c r="AB7" t="s">
-        <v>312</v>
+        <v>249</v>
       </c>
       <c r="AC7" t="s">
-        <v>313</v>
+        <v>250</v>
       </c>
       <c r="AD7" t="s">
-        <v>314</v>
+        <v>251</v>
       </c>
       <c r="AE7" t="s">
-        <v>315</v>
+        <v>252</v>
       </c>
       <c r="AF7">
         <v>25.41</v>
@@ -3639,31 +3639,31 @@
         <v>19860620</v>
       </c>
       <c r="G8">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="H8">
-        <v>7.89</v>
+        <v>7.93</v>
       </c>
       <c r="I8">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="J8" t="s">
-        <v>453</v>
+        <v>400</v>
       </c>
       <c r="K8" t="s">
-        <v>454</v>
+        <v>401</v>
       </c>
       <c r="L8" t="s">
-        <v>455</v>
+        <v>402</v>
       </c>
       <c r="M8" t="s">
-        <v>238</v>
+        <v>403</v>
       </c>
       <c r="N8">
-        <v>0.84</v>
+        <v>0.73</v>
       </c>
       <c r="O8">
-        <v>-5.66</v>
+        <v>-7.44</v>
       </c>
       <c r="P8">
         <v>11</v>
@@ -3702,16 +3702,16 @@
         <v>100.3</v>
       </c>
       <c r="AB8" t="s">
-        <v>316</v>
+        <v>253</v>
       </c>
       <c r="AC8" t="s">
-        <v>317</v>
+        <v>254</v>
       </c>
       <c r="AD8" t="s">
-        <v>318</v>
+        <v>255</v>
       </c>
       <c r="AE8" t="s">
-        <v>319</v>
+        <v>256</v>
       </c>
       <c r="AF8">
         <v>34.97</v>
@@ -3779,31 +3779,31 @@
         <v>19890327</v>
       </c>
       <c r="G9">
-        <v>4.7300000000000004</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="H9">
-        <v>6.45</v>
+        <v>6.49</v>
       </c>
       <c r="I9">
         <v>0.95</v>
       </c>
       <c r="J9" t="s">
-        <v>456</v>
+        <v>404</v>
       </c>
       <c r="K9" t="s">
-        <v>457</v>
+        <v>405</v>
       </c>
       <c r="L9" t="s">
-        <v>458</v>
+        <v>406</v>
       </c>
       <c r="M9" t="s">
-        <v>239</v>
-      </c>
-      <c r="N9">
-        <v>0.88</v>
-      </c>
-      <c r="O9">
-        <v>-5.21</v>
+        <v>407</v>
+      </c>
+      <c r="N9" s="8">
+        <v>1.26</v>
+      </c>
+      <c r="O9" s="8">
+        <v>13.98</v>
       </c>
       <c r="P9">
         <v>13</v>
@@ -3842,16 +3842,16 @@
         <v>86.32</v>
       </c>
       <c r="AB9" t="s">
-        <v>320</v>
+        <v>257</v>
       </c>
       <c r="AC9" t="s">
-        <v>321</v>
+        <v>258</v>
       </c>
       <c r="AD9" t="s">
-        <v>322</v>
+        <v>259</v>
       </c>
       <c r="AE9" t="s">
-        <v>323</v>
+        <v>260</v>
       </c>
       <c r="AF9">
         <v>9.1999999999999993</v>
@@ -3919,31 +3919,31 @@
         <v>20001031</v>
       </c>
       <c r="G10">
-        <v>2.56</v>
+        <v>6.87</v>
       </c>
       <c r="H10">
-        <v>11.06</v>
+        <v>8.25</v>
       </c>
       <c r="I10">
-        <v>0.99</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="J10" t="s">
-        <v>459</v>
+        <v>408</v>
       </c>
       <c r="K10" t="s">
-        <v>460</v>
+        <v>409</v>
       </c>
       <c r="L10" t="s">
-        <v>240</v>
+        <v>410</v>
       </c>
       <c r="M10" t="s">
-        <v>241</v>
+        <v>411</v>
       </c>
       <c r="N10">
-        <v>0.75</v>
+        <v>0.87</v>
       </c>
       <c r="O10">
-        <v>-14.3</v>
+        <v>-6.67</v>
       </c>
       <c r="P10">
         <v>13</v>
@@ -3982,16 +3982,16 @@
         <v>35.25</v>
       </c>
       <c r="AB10" t="s">
-        <v>324</v>
+        <v>261</v>
       </c>
       <c r="AC10" t="s">
-        <v>325</v>
+        <v>262</v>
       </c>
       <c r="AD10" t="s">
-        <v>326</v>
+        <v>263</v>
       </c>
       <c r="AE10" t="s">
-        <v>327</v>
+        <v>264</v>
       </c>
       <c r="AF10" s="1">
         <v>16.04</v>
@@ -4044,10 +4044,10 @@
         <v>1515</v>
       </c>
       <c r="B11" t="s">
-        <v>517</v>
+        <v>375</v>
       </c>
       <c r="C11" t="s">
-        <v>518</v>
+        <v>376</v>
       </c>
       <c r="D11">
         <v>1814735000</v>
@@ -4059,31 +4059,31 @@
         <v>19950204</v>
       </c>
       <c r="G11">
-        <v>6.86</v>
+        <v>2.57</v>
       </c>
       <c r="H11">
-        <v>8.27</v>
+        <v>11.03</v>
       </c>
       <c r="I11">
-        <v>2.4500000000000002</v>
+        <v>0.99</v>
       </c>
       <c r="J11" t="s">
-        <v>519</v>
+        <v>412</v>
       </c>
       <c r="K11" t="s">
-        <v>520</v>
+        <v>413</v>
       </c>
       <c r="L11" t="s">
-        <v>521</v>
+        <v>414</v>
       </c>
       <c r="M11" t="s">
-        <v>522</v>
+        <v>415</v>
       </c>
       <c r="N11">
         <v>0.75</v>
       </c>
       <c r="O11">
-        <v>-4.21</v>
+        <v>-14.3</v>
       </c>
       <c r="P11">
         <v>12</v>
@@ -4122,16 +4122,16 @@
         <v>190.5</v>
       </c>
       <c r="AB11" t="s">
-        <v>523</v>
+        <v>377</v>
       </c>
       <c r="AC11" t="s">
-        <v>524</v>
+        <v>378</v>
       </c>
       <c r="AD11" t="s">
-        <v>525</v>
+        <v>379</v>
       </c>
       <c r="AE11" t="s">
-        <v>526</v>
+        <v>380</v>
       </c>
       <c r="AF11">
         <v>13.81</v>
@@ -4199,31 +4199,31 @@
         <v>19701214</v>
       </c>
       <c r="G12">
-        <v>8.31</v>
+        <v>8.2799999999999994</v>
       </c>
       <c r="H12">
-        <v>6.5</v>
+        <v>6.52</v>
       </c>
       <c r="I12">
         <v>1.32</v>
       </c>
       <c r="J12" t="s">
-        <v>461</v>
+        <v>416</v>
       </c>
       <c r="K12" t="s">
-        <v>462</v>
+        <v>417</v>
       </c>
       <c r="L12" t="s">
-        <v>242</v>
+        <v>418</v>
       </c>
       <c r="M12" t="s">
-        <v>243</v>
+        <v>419</v>
       </c>
       <c r="N12" s="8">
-        <v>2.62</v>
+        <v>1.32</v>
       </c>
       <c r="O12" s="8">
-        <v>21.42</v>
+        <v>24.97</v>
       </c>
       <c r="P12">
         <v>7</v>
@@ -4262,16 +4262,16 @@
         <v>59.67</v>
       </c>
       <c r="AB12" t="s">
-        <v>328</v>
+        <v>265</v>
       </c>
       <c r="AC12" t="s">
-        <v>329</v>
+        <v>266</v>
       </c>
       <c r="AD12" t="s">
-        <v>330</v>
+        <v>267</v>
       </c>
       <c r="AE12" t="s">
-        <v>331</v>
+        <v>268</v>
       </c>
       <c r="AF12">
         <v>17.72</v>
@@ -4339,31 +4339,31 @@
         <v>20160509</v>
       </c>
       <c r="G13">
-        <v>4.74</v>
+        <v>4.7699999999999996</v>
       </c>
       <c r="H13">
-        <v>8.5399999999999991</v>
+        <v>8.48</v>
       </c>
       <c r="I13">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="J13" t="s">
-        <v>463</v>
+        <v>420</v>
       </c>
       <c r="K13" t="s">
-        <v>464</v>
+        <v>421</v>
       </c>
       <c r="L13" t="s">
-        <v>244</v>
+        <v>422</v>
       </c>
       <c r="M13" t="s">
-        <v>245</v>
+        <v>423</v>
       </c>
       <c r="N13">
-        <v>1.2</v>
+        <v>0.83</v>
       </c>
       <c r="O13">
-        <v>3.98</v>
+        <v>-9.75</v>
       </c>
       <c r="P13">
         <v>12</v>
@@ -4402,13 +4402,13 @@
         <v>60</v>
       </c>
       <c r="AB13" t="s">
-        <v>332</v>
+        <v>269</v>
       </c>
       <c r="AC13" t="s">
-        <v>333</v>
+        <v>270</v>
       </c>
       <c r="AD13" t="s">
-        <v>334</v>
+        <v>271</v>
       </c>
       <c r="AE13" t="s">
         <v>199</v>
@@ -4479,31 +4479,31 @@
         <v>19930427</v>
       </c>
       <c r="G14">
-        <v>5.48</v>
+        <v>5.55</v>
       </c>
       <c r="H14">
-        <v>8.7200000000000006</v>
+        <v>8.61</v>
       </c>
       <c r="I14">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="J14" t="s">
-        <v>465</v>
+        <v>424</v>
       </c>
       <c r="K14" t="s">
-        <v>466</v>
+        <v>425</v>
       </c>
       <c r="L14" t="s">
-        <v>246</v>
+        <v>426</v>
       </c>
       <c r="M14" t="s">
-        <v>247</v>
+        <v>427</v>
       </c>
       <c r="N14">
-        <v>0.5</v>
+        <v>0.34</v>
       </c>
       <c r="O14">
-        <v>-7.14</v>
+        <v>-21.66</v>
       </c>
       <c r="P14">
         <v>12</v>
@@ -4542,16 +4542,16 @@
         <v>92.56</v>
       </c>
       <c r="AB14" t="s">
-        <v>335</v>
+        <v>272</v>
       </c>
       <c r="AC14" t="s">
-        <v>336</v>
+        <v>273</v>
       </c>
       <c r="AD14" t="s">
-        <v>337</v>
+        <v>274</v>
       </c>
       <c r="AE14" t="s">
-        <v>338</v>
+        <v>275</v>
       </c>
       <c r="AF14" s="1">
         <v>14.3</v>
@@ -4619,31 +4619,31 @@
         <v>20160322</v>
       </c>
       <c r="G15">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="H15">
-        <v>8.31</v>
+        <v>8.52</v>
       </c>
       <c r="I15">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="J15" t="s">
-        <v>467</v>
+        <v>428</v>
       </c>
       <c r="K15" t="s">
-        <v>468</v>
+        <v>429</v>
       </c>
       <c r="L15" t="s">
-        <v>248</v>
+        <v>430</v>
       </c>
       <c r="M15" t="s">
-        <v>249</v>
+        <v>431</v>
       </c>
       <c r="N15">
-        <v>0.98</v>
+        <v>0.67</v>
       </c>
       <c r="O15">
-        <v>-3.63</v>
+        <v>-0.78</v>
       </c>
       <c r="P15">
         <v>10</v>
@@ -4682,16 +4682,16 @@
         <v>104.2</v>
       </c>
       <c r="AB15" t="s">
-        <v>339</v>
+        <v>276</v>
       </c>
       <c r="AC15" t="s">
-        <v>340</v>
+        <v>277</v>
       </c>
       <c r="AD15" t="s">
-        <v>341</v>
+        <v>278</v>
       </c>
       <c r="AE15" t="s">
-        <v>342</v>
+        <v>279</v>
       </c>
       <c r="AF15" s="1">
         <v>13</v>
@@ -4759,31 +4759,31 @@
         <v>19920218</v>
       </c>
       <c r="G16">
-        <v>6.4</v>
+        <v>6.43</v>
       </c>
       <c r="H16">
-        <v>7.76</v>
+        <v>7.73</v>
       </c>
       <c r="I16">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>469</v>
+        <v>432</v>
       </c>
       <c r="K16" t="s">
-        <v>470</v>
+        <v>433</v>
       </c>
       <c r="L16" t="s">
-        <v>250</v>
+        <v>434</v>
       </c>
       <c r="M16" t="s">
-        <v>251</v>
+        <v>435</v>
       </c>
       <c r="N16">
-        <v>0.4</v>
+        <v>1.38</v>
       </c>
       <c r="O16">
-        <v>-0.96</v>
+        <v>-2.31</v>
       </c>
       <c r="P16">
         <v>9</v>
@@ -4822,16 +4822,16 @@
         <v>48.3</v>
       </c>
       <c r="AB16" t="s">
-        <v>343</v>
+        <v>280</v>
       </c>
       <c r="AC16" t="s">
-        <v>344</v>
+        <v>281</v>
       </c>
       <c r="AD16" t="s">
-        <v>345</v>
+        <v>282</v>
       </c>
       <c r="AE16" t="s">
-        <v>346</v>
+        <v>283</v>
       </c>
       <c r="AF16" s="1">
         <v>3.35</v>
@@ -4899,25 +4899,25 @@
         <v>19951213</v>
       </c>
       <c r="G17">
-        <v>4.87</v>
+        <v>4.88</v>
       </c>
       <c r="H17">
-        <v>6.76</v>
+        <v>6.75</v>
       </c>
       <c r="I17">
         <v>1.91</v>
       </c>
       <c r="J17" t="s">
-        <v>471</v>
+        <v>436</v>
       </c>
       <c r="K17" t="s">
-        <v>472</v>
+        <v>437</v>
       </c>
       <c r="L17" t="s">
-        <v>252</v>
+        <v>438</v>
       </c>
       <c r="M17" t="s">
-        <v>253</v>
+        <v>439</v>
       </c>
       <c r="N17">
         <v>1.06</v>
@@ -4962,16 +4962,16 @@
         <v>150.30000000000001</v>
       </c>
       <c r="AB17" t="s">
-        <v>347</v>
+        <v>284</v>
       </c>
       <c r="AC17" t="s">
-        <v>348</v>
+        <v>285</v>
       </c>
       <c r="AD17" t="s">
-        <v>349</v>
+        <v>286</v>
       </c>
       <c r="AE17" t="s">
-        <v>350</v>
+        <v>287</v>
       </c>
       <c r="AF17" s="1">
         <v>4.4000000000000004</v>
@@ -5039,31 +5039,31 @@
         <v>19960722</v>
       </c>
       <c r="G18">
-        <v>4.8499999999999996</v>
+        <v>4.88</v>
       </c>
       <c r="H18">
-        <v>6.71</v>
+        <v>6.67</v>
       </c>
       <c r="I18">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="J18" t="s">
-        <v>473</v>
+        <v>440</v>
       </c>
       <c r="K18" t="s">
-        <v>474</v>
+        <v>441</v>
       </c>
       <c r="L18" t="s">
-        <v>254</v>
+        <v>442</v>
       </c>
       <c r="M18" t="s">
-        <v>255</v>
-      </c>
-      <c r="N18">
-        <v>2.79</v>
-      </c>
-      <c r="O18">
-        <v>7.41</v>
+        <v>443</v>
+      </c>
+      <c r="N18" s="8">
+        <v>1.35</v>
+      </c>
+      <c r="O18" s="8">
+        <v>10.58</v>
       </c>
       <c r="P18">
         <v>8</v>
@@ -5102,16 +5102,16 @@
         <v>87.78</v>
       </c>
       <c r="AB18" t="s">
-        <v>351</v>
+        <v>288</v>
       </c>
       <c r="AC18" t="s">
-        <v>352</v>
+        <v>289</v>
       </c>
       <c r="AD18" t="s">
-        <v>353</v>
+        <v>290</v>
       </c>
       <c r="AE18" t="s">
-        <v>354</v>
+        <v>291</v>
       </c>
       <c r="AF18" s="1">
         <v>14.67</v>
@@ -5182,22 +5182,22 @@
         <v>6.21</v>
       </c>
       <c r="H19">
-        <v>10.91</v>
+        <v>10.92</v>
       </c>
       <c r="I19">
-        <v>2.21</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="J19" t="s">
-        <v>475</v>
+        <v>444</v>
       </c>
       <c r="K19" t="s">
-        <v>476</v>
+        <v>445</v>
       </c>
       <c r="L19" t="s">
-        <v>256</v>
+        <v>446</v>
       </c>
       <c r="M19" t="s">
-        <v>257</v>
+        <v>447</v>
       </c>
       <c r="N19" s="8">
         <v>3.78</v>
@@ -5242,16 +5242,16 @@
         <v>121.8</v>
       </c>
       <c r="AB19" t="s">
-        <v>355</v>
+        <v>292</v>
       </c>
       <c r="AC19" t="s">
-        <v>356</v>
+        <v>293</v>
       </c>
       <c r="AD19" t="s">
-        <v>357</v>
+        <v>294</v>
       </c>
       <c r="AE19" t="s">
-        <v>358</v>
+        <v>295</v>
       </c>
       <c r="AF19" s="1">
         <v>17.55</v>
@@ -5319,31 +5319,31 @@
         <v>19990125</v>
       </c>
       <c r="G20">
-        <v>4.2699999999999996</v>
+        <v>4.32</v>
       </c>
       <c r="H20">
-        <v>7.32</v>
+        <v>7.25</v>
       </c>
       <c r="I20">
-        <v>1.1599999999999999</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="J20" t="s">
-        <v>477</v>
+        <v>448</v>
       </c>
       <c r="K20" t="s">
-        <v>478</v>
+        <v>449</v>
       </c>
       <c r="L20" t="s">
-        <v>258</v>
+        <v>450</v>
       </c>
       <c r="M20" t="s">
-        <v>259</v>
+        <v>451</v>
       </c>
       <c r="N20">
-        <v>0.56999999999999995</v>
+        <v>0.82</v>
       </c>
       <c r="O20">
-        <v>-7.56</v>
+        <v>-12.04</v>
       </c>
       <c r="P20">
         <v>10</v>
@@ -5382,16 +5382,16 @@
         <v>147</v>
       </c>
       <c r="AB20" t="s">
-        <v>359</v>
+        <v>296</v>
       </c>
       <c r="AC20" t="s">
-        <v>360</v>
+        <v>297</v>
       </c>
       <c r="AD20" t="s">
-        <v>361</v>
+        <v>298</v>
       </c>
       <c r="AE20" t="s">
-        <v>362</v>
+        <v>299</v>
       </c>
       <c r="AF20">
         <v>12.93</v>
@@ -5459,31 +5459,31 @@
         <v>20000911</v>
       </c>
       <c r="G21">
-        <v>5.93</v>
+        <v>6.02</v>
       </c>
       <c r="H21">
-        <v>12.48</v>
+        <v>12.3</v>
       </c>
       <c r="I21">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="J21" t="s">
-        <v>479</v>
+        <v>452</v>
       </c>
       <c r="K21" t="s">
-        <v>480</v>
+        <v>453</v>
       </c>
       <c r="L21" t="s">
-        <v>260</v>
+        <v>454</v>
       </c>
       <c r="M21" t="s">
-        <v>261</v>
+        <v>455</v>
       </c>
       <c r="N21">
-        <v>2.3199999999999998</v>
+        <v>0.64</v>
       </c>
       <c r="O21">
-        <v>3.27</v>
+        <v>-1.27</v>
       </c>
       <c r="P21">
         <v>13</v>
@@ -5522,16 +5522,16 @@
         <v>65.400000000000006</v>
       </c>
       <c r="AB21" t="s">
-        <v>363</v>
+        <v>300</v>
       </c>
       <c r="AC21" t="s">
-        <v>364</v>
+        <v>301</v>
       </c>
       <c r="AD21" t="s">
-        <v>365</v>
+        <v>302</v>
       </c>
       <c r="AE21" t="s">
-        <v>366</v>
+        <v>303</v>
       </c>
       <c r="AF21" s="1">
         <v>48.85</v>
@@ -5599,25 +5599,25 @@
         <v>20010917</v>
       </c>
       <c r="G22">
-        <v>5.49</v>
+        <v>5.59</v>
       </c>
       <c r="H22">
-        <v>9.39</v>
+        <v>9.2200000000000006</v>
       </c>
       <c r="I22">
-        <v>4.91</v>
+        <v>4.82</v>
       </c>
       <c r="J22" t="s">
-        <v>481</v>
+        <v>456</v>
       </c>
       <c r="K22" t="s">
-        <v>482</v>
+        <v>457</v>
       </c>
       <c r="L22" t="s">
-        <v>262</v>
+        <v>458</v>
       </c>
       <c r="M22" t="s">
-        <v>263</v>
+        <v>459</v>
       </c>
       <c r="N22">
         <v>0.85</v>
@@ -5662,16 +5662,16 @@
         <v>393.3</v>
       </c>
       <c r="AB22" t="s">
-        <v>367</v>
+        <v>304</v>
       </c>
       <c r="AC22" t="s">
-        <v>368</v>
+        <v>305</v>
       </c>
       <c r="AD22" t="s">
-        <v>369</v>
+        <v>306</v>
       </c>
       <c r="AE22" t="s">
-        <v>370</v>
+        <v>307</v>
       </c>
       <c r="AF22" s="1">
         <v>49.84</v>
@@ -5748,22 +5748,22 @@
         <v>2.92</v>
       </c>
       <c r="J23" t="s">
-        <v>483</v>
+        <v>460</v>
       </c>
       <c r="K23" t="s">
-        <v>484</v>
+        <v>461</v>
       </c>
       <c r="L23" t="s">
-        <v>264</v>
+        <v>462</v>
       </c>
       <c r="M23" t="s">
-        <v>265</v>
+        <v>463</v>
       </c>
       <c r="N23">
-        <v>0.34</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="O23">
-        <v>-24.89</v>
+        <v>-10.01</v>
       </c>
       <c r="P23">
         <v>11</v>
@@ -5802,13 +5802,13 @@
         <v>83.2</v>
       </c>
       <c r="AB23" t="s">
-        <v>371</v>
+        <v>308</v>
       </c>
       <c r="AC23" t="s">
-        <v>372</v>
+        <v>309</v>
       </c>
       <c r="AD23" t="s">
-        <v>373</v>
+        <v>310</v>
       </c>
       <c r="AE23" t="s">
         <v>199</v>
@@ -5879,31 +5879,31 @@
         <v>19931027</v>
       </c>
       <c r="G24">
-        <v>9.23</v>
+        <v>9.24</v>
       </c>
       <c r="H24">
-        <v>4.34</v>
+        <v>4.33</v>
       </c>
       <c r="I24">
         <v>1.21</v>
       </c>
       <c r="J24" t="s">
-        <v>485</v>
+        <v>464</v>
       </c>
       <c r="K24" t="s">
-        <v>486</v>
+        <v>465</v>
       </c>
       <c r="L24" t="s">
-        <v>266</v>
+        <v>466</v>
       </c>
       <c r="M24" t="s">
-        <v>267</v>
+        <v>467</v>
       </c>
       <c r="N24">
-        <v>1.1200000000000001</v>
+        <v>0.52</v>
       </c>
       <c r="O24">
-        <v>-0.12</v>
+        <v>-21.72</v>
       </c>
       <c r="P24">
         <v>7</v>
@@ -5942,16 +5942,16 @@
         <v>119.1</v>
       </c>
       <c r="AB24" t="s">
-        <v>374</v>
+        <v>311</v>
       </c>
       <c r="AC24" t="s">
-        <v>375</v>
+        <v>312</v>
       </c>
       <c r="AD24" t="s">
-        <v>376</v>
+        <v>313</v>
       </c>
       <c r="AE24" t="s">
-        <v>377</v>
+        <v>314</v>
       </c>
       <c r="AF24" s="1">
         <v>26.73</v>
@@ -6019,22 +6019,22 @@
         <v>20000911</v>
       </c>
       <c r="G25">
-        <v>7.13</v>
+        <v>7.02</v>
       </c>
       <c r="H25">
-        <v>7.18</v>
+        <v>7.3</v>
       </c>
       <c r="I25">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="J25" t="s">
-        <v>487</v>
+        <v>468</v>
       </c>
       <c r="K25" t="s">
-        <v>488</v>
+        <v>469</v>
       </c>
       <c r="L25" t="s">
-        <v>268</v>
+        <v>470</v>
       </c>
       <c r="M25" t="s">
         <v>156</v>
@@ -6082,16 +6082,16 @@
         <v>84.36</v>
       </c>
       <c r="AB25" t="s">
-        <v>378</v>
+        <v>315</v>
       </c>
       <c r="AC25" t="s">
-        <v>379</v>
+        <v>316</v>
       </c>
       <c r="AD25" t="s">
-        <v>380</v>
+        <v>317</v>
       </c>
       <c r="AE25" t="s">
-        <v>381</v>
+        <v>318</v>
       </c>
       <c r="AF25" s="1">
         <v>11.23</v>
@@ -6162,28 +6162,28 @@
         <v>3.75</v>
       </c>
       <c r="H26">
-        <v>6.58</v>
+        <v>6.59</v>
       </c>
       <c r="I26">
         <v>1.19</v>
       </c>
       <c r="J26" t="s">
-        <v>489</v>
-      </c>
-      <c r="K26" s="8" t="s">
-        <v>490</v>
+        <v>471</v>
+      </c>
+      <c r="K26" t="s">
+        <v>472</v>
       </c>
       <c r="L26" t="s">
-        <v>269</v>
+        <v>473</v>
       </c>
       <c r="M26" t="s">
-        <v>270</v>
+        <v>474</v>
       </c>
       <c r="N26">
-        <v>1.34</v>
+        <v>0.76</v>
       </c>
       <c r="O26">
-        <v>6.18</v>
+        <v>3.26</v>
       </c>
       <c r="P26">
         <v>7</v>
@@ -6222,16 +6222,16 @@
         <v>145.6</v>
       </c>
       <c r="AB26" t="s">
-        <v>382</v>
+        <v>319</v>
       </c>
       <c r="AC26" t="s">
-        <v>383</v>
+        <v>320</v>
       </c>
       <c r="AD26" t="s">
-        <v>384</v>
+        <v>321</v>
       </c>
       <c r="AE26" t="s">
-        <v>385</v>
+        <v>322</v>
       </c>
       <c r="AF26" s="1">
         <v>0</v>
@@ -6299,31 +6299,31 @@
         <v>20020225</v>
       </c>
       <c r="G27">
-        <v>6.54</v>
+        <v>6.55</v>
       </c>
       <c r="H27">
-        <v>7.56</v>
+        <v>7.55</v>
       </c>
       <c r="I27">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="J27" t="s">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="K27" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="L27" t="s">
-        <v>271</v>
+        <v>477</v>
       </c>
       <c r="M27" t="s">
-        <v>272</v>
+        <v>478</v>
       </c>
       <c r="N27">
-        <v>0.41</v>
+        <v>0.26</v>
       </c>
       <c r="O27">
-        <v>-20.5</v>
+        <v>-31.72</v>
       </c>
       <c r="P27">
         <v>10</v>
@@ -6362,16 +6362,16 @@
         <v>124.1</v>
       </c>
       <c r="AB27" t="s">
-        <v>386</v>
+        <v>323</v>
       </c>
       <c r="AC27" t="s">
-        <v>387</v>
+        <v>324</v>
       </c>
       <c r="AD27" t="s">
-        <v>388</v>
+        <v>325</v>
       </c>
       <c r="AE27" t="s">
-        <v>389</v>
+        <v>326</v>
       </c>
       <c r="AF27" s="1">
         <v>24.89</v>
@@ -6439,31 +6439,31 @@
         <v>20020826</v>
       </c>
       <c r="G28">
-        <v>5.68</v>
+        <v>5.65</v>
       </c>
       <c r="H28">
-        <v>8.6199999999999992</v>
+        <v>8.66</v>
       </c>
       <c r="I28">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="J28" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="K28" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
       <c r="L28" t="s">
-        <v>273</v>
+        <v>481</v>
       </c>
       <c r="M28" t="s">
-        <v>274</v>
-      </c>
-      <c r="N28">
-        <v>0.82</v>
-      </c>
-      <c r="O28">
-        <v>-4.4400000000000004</v>
+        <v>482</v>
+      </c>
+      <c r="N28" s="8">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="O28" s="8">
+        <v>17.12</v>
       </c>
       <c r="P28">
         <v>10</v>
@@ -6502,16 +6502,16 @@
         <v>58.05</v>
       </c>
       <c r="AB28" t="s">
-        <v>390</v>
+        <v>327</v>
       </c>
       <c r="AC28" t="s">
-        <v>391</v>
+        <v>328</v>
       </c>
       <c r="AD28" t="s">
-        <v>392</v>
+        <v>329</v>
       </c>
       <c r="AE28" t="s">
-        <v>393</v>
+        <v>330</v>
       </c>
       <c r="AF28">
         <v>5.93</v>
@@ -6588,16 +6588,16 @@
         <v>1.7</v>
       </c>
       <c r="J29" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="K29" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="L29" t="s">
-        <v>275</v>
+        <v>485</v>
       </c>
       <c r="M29" t="s">
-        <v>276</v>
+        <v>486</v>
       </c>
       <c r="N29">
         <v>1.1299999999999999</v>
@@ -6642,16 +6642,16 @@
         <v>58.05</v>
       </c>
       <c r="AB29" t="s">
-        <v>394</v>
+        <v>331</v>
       </c>
       <c r="AC29" t="s">
-        <v>395</v>
+        <v>332</v>
       </c>
       <c r="AD29" t="s">
-        <v>396</v>
+        <v>333</v>
       </c>
       <c r="AE29" t="s">
-        <v>397</v>
+        <v>334</v>
       </c>
       <c r="AF29">
         <v>7.01</v>
@@ -6722,31 +6722,31 @@
         <v>20020826</v>
       </c>
       <c r="G30">
-        <v>5.95</v>
+        <v>5.9</v>
       </c>
       <c r="H30">
-        <v>10.53</v>
+        <v>10.61</v>
       </c>
       <c r="I30">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="J30" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="K30" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="L30" t="s">
-        <v>277</v>
+        <v>489</v>
       </c>
       <c r="M30" t="s">
-        <v>278</v>
-      </c>
-      <c r="N30">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="O30">
-        <v>3</v>
+        <v>490</v>
+      </c>
+      <c r="N30" s="8">
+        <v>2.36</v>
+      </c>
+      <c r="O30" s="8">
+        <v>29.29</v>
       </c>
       <c r="P30">
         <v>8</v>
@@ -6785,16 +6785,16 @@
         <v>164.4</v>
       </c>
       <c r="AB30" t="s">
-        <v>398</v>
+        <v>335</v>
       </c>
       <c r="AC30" t="s">
-        <v>399</v>
+        <v>336</v>
       </c>
       <c r="AD30" t="s">
-        <v>400</v>
+        <v>337</v>
       </c>
       <c r="AE30" t="s">
-        <v>401</v>
+        <v>338</v>
       </c>
       <c r="AF30" s="1">
         <v>18.75</v>
@@ -6862,31 +6862,31 @@
         <v>20021001</v>
       </c>
       <c r="G31">
-        <v>8.7200000000000006</v>
+        <v>8.64</v>
       </c>
       <c r="H31">
-        <v>7.75</v>
+        <v>7.82</v>
       </c>
       <c r="I31">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="J31" t="s">
-        <v>499</v>
-      </c>
-      <c r="K31" s="8" t="s">
-        <v>500</v>
+        <v>491</v>
+      </c>
+      <c r="K31" t="s">
+        <v>492</v>
       </c>
       <c r="L31" t="s">
-        <v>279</v>
+        <v>493</v>
       </c>
       <c r="M31" t="s">
-        <v>280</v>
+        <v>494</v>
       </c>
       <c r="N31">
-        <v>0.49</v>
+        <v>1.69</v>
       </c>
       <c r="O31">
-        <v>-4.3600000000000003</v>
+        <v>8.8800000000000008</v>
       </c>
       <c r="P31">
         <v>8</v>
@@ -6925,16 +6925,16 @@
         <v>68.64</v>
       </c>
       <c r="AB31" t="s">
-        <v>402</v>
+        <v>339</v>
       </c>
       <c r="AC31" t="s">
-        <v>403</v>
+        <v>340</v>
       </c>
       <c r="AD31" t="s">
-        <v>404</v>
+        <v>341</v>
       </c>
       <c r="AE31" t="s">
-        <v>405</v>
+        <v>342</v>
       </c>
       <c r="AF31">
         <v>3.24</v>
@@ -7002,31 +7002,31 @@
         <v>20081126</v>
       </c>
       <c r="G32">
-        <v>6.98</v>
+        <v>6.99</v>
       </c>
       <c r="H32">
-        <v>8.0299999999999994</v>
+        <v>8.01</v>
       </c>
       <c r="I32">
         <v>1.64</v>
       </c>
       <c r="J32" t="s">
-        <v>501</v>
-      </c>
-      <c r="K32" s="8" t="s">
-        <v>502</v>
+        <v>495</v>
+      </c>
+      <c r="K32" t="s">
+        <v>496</v>
       </c>
       <c r="L32" t="s">
-        <v>281</v>
+        <v>497</v>
       </c>
       <c r="M32" t="s">
-        <v>282</v>
+        <v>498</v>
       </c>
       <c r="N32">
-        <v>0.27</v>
+        <v>0.36</v>
       </c>
       <c r="O32">
-        <v>-29.81</v>
+        <v>-26.29</v>
       </c>
       <c r="P32">
         <v>9</v>
@@ -7065,16 +7065,16 @@
         <v>49.84</v>
       </c>
       <c r="AB32" t="s">
-        <v>406</v>
+        <v>343</v>
       </c>
       <c r="AC32" t="s">
-        <v>407</v>
+        <v>344</v>
       </c>
       <c r="AD32" t="s">
-        <v>408</v>
+        <v>345</v>
       </c>
       <c r="AE32" t="s">
-        <v>409</v>
+        <v>346</v>
       </c>
       <c r="AF32" s="1">
         <v>5.31</v>
@@ -7142,25 +7142,25 @@
         <v>20101229</v>
       </c>
       <c r="G33">
-        <v>3.99</v>
+        <v>4.08</v>
       </c>
       <c r="H33">
-        <v>7.98</v>
+        <v>7.8</v>
       </c>
       <c r="I33">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="J33" t="s">
-        <v>503</v>
-      </c>
-      <c r="K33" s="8" t="s">
-        <v>504</v>
+        <v>499</v>
+      </c>
+      <c r="K33" t="s">
+        <v>500</v>
       </c>
       <c r="L33" t="s">
-        <v>283</v>
+        <v>501</v>
       </c>
       <c r="M33" t="s">
-        <v>284</v>
+        <v>502</v>
       </c>
       <c r="N33">
         <v>1.25</v>
@@ -7205,16 +7205,16 @@
         <v>94.2</v>
       </c>
       <c r="AB33" t="s">
-        <v>410</v>
+        <v>347</v>
       </c>
       <c r="AC33" t="s">
-        <v>411</v>
+        <v>348</v>
       </c>
       <c r="AD33" t="s">
-        <v>412</v>
+        <v>349</v>
       </c>
       <c r="AE33" t="s">
-        <v>413</v>
+        <v>350</v>
       </c>
       <c r="AF33">
         <v>5.84</v>
@@ -7282,25 +7282,25 @@
         <v>20051109</v>
       </c>
       <c r="G34">
-        <v>5.83</v>
+        <v>5.78</v>
       </c>
       <c r="H34">
-        <v>9.19</v>
+        <v>9.26</v>
       </c>
       <c r="I34">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="J34" t="s">
+        <v>503</v>
+      </c>
+      <c r="K34" t="s">
+        <v>504</v>
+      </c>
+      <c r="L34" t="s">
         <v>505</v>
       </c>
-      <c r="K34" s="8" t="s">
+      <c r="M34" t="s">
         <v>506</v>
-      </c>
-      <c r="L34" t="s">
-        <v>285</v>
-      </c>
-      <c r="M34" t="s">
-        <v>231</v>
       </c>
       <c r="N34">
         <v>1.29</v>
@@ -7345,16 +7345,16 @@
         <v>80.47</v>
       </c>
       <c r="AB34" t="s">
-        <v>414</v>
+        <v>351</v>
       </c>
       <c r="AC34" t="s">
-        <v>415</v>
+        <v>352</v>
       </c>
       <c r="AD34" t="s">
-        <v>416</v>
+        <v>353</v>
       </c>
       <c r="AE34" t="s">
-        <v>417</v>
+        <v>354</v>
       </c>
       <c r="AF34" s="1">
         <v>3.89</v>
@@ -7425,7 +7425,7 @@
         <v>2.99</v>
       </c>
       <c r="H35">
-        <v>3.25</v>
+        <v>3.24</v>
       </c>
       <c r="I35">
         <v>0.81</v>
@@ -7437,10 +7437,10 @@
         <v>508</v>
       </c>
       <c r="L35" t="s">
-        <v>286</v>
+        <v>509</v>
       </c>
       <c r="M35" t="s">
-        <v>287</v>
+        <v>510</v>
       </c>
       <c r="N35">
         <v>0.88</v>
@@ -7485,16 +7485,16 @@
         <v>154.80000000000001</v>
       </c>
       <c r="AB35" t="s">
-        <v>418</v>
+        <v>355</v>
       </c>
       <c r="AC35" t="s">
-        <v>419</v>
+        <v>356</v>
       </c>
       <c r="AD35" t="s">
-        <v>420</v>
+        <v>357</v>
       </c>
       <c r="AE35" t="s">
-        <v>421</v>
+        <v>358</v>
       </c>
       <c r="AF35" s="1">
         <v>9.75</v>
@@ -7562,25 +7562,25 @@
         <v>20030825</v>
       </c>
       <c r="G36">
-        <v>4.99</v>
+        <v>4.97</v>
       </c>
       <c r="H36">
-        <v>10.02</v>
+        <v>10.07</v>
       </c>
       <c r="I36">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="J36" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="K36" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="L36" t="s">
-        <v>288</v>
+        <v>513</v>
       </c>
       <c r="M36" t="s">
-        <v>289</v>
+        <v>514</v>
       </c>
       <c r="N36">
         <v>0.62</v>
@@ -7625,16 +7625,16 @@
         <v>87.45</v>
       </c>
       <c r="AB36" t="s">
-        <v>422</v>
+        <v>359</v>
       </c>
       <c r="AC36" t="s">
-        <v>423</v>
+        <v>360</v>
       </c>
       <c r="AD36" t="s">
-        <v>424</v>
+        <v>361</v>
       </c>
       <c r="AE36" t="s">
-        <v>425</v>
+        <v>362</v>
       </c>
       <c r="AF36" s="1">
         <v>30.03</v>
@@ -7702,31 +7702,31 @@
         <v>20071231</v>
       </c>
       <c r="G37">
-        <v>6.06</v>
+        <v>6</v>
       </c>
       <c r="H37">
-        <v>7.81</v>
+        <v>7.89</v>
       </c>
       <c r="I37">
-        <v>2.0099999999999998</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="J37" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="K37" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="L37" t="s">
-        <v>290</v>
+        <v>517</v>
       </c>
       <c r="M37" t="s">
-        <v>291</v>
+        <v>518</v>
       </c>
       <c r="N37">
-        <v>0.63</v>
+        <v>1.23</v>
       </c>
       <c r="O37">
-        <v>-8.17</v>
+        <v>2.75</v>
       </c>
       <c r="P37">
         <v>7</v>
@@ -7765,16 +7765,16 @@
         <v>87.23</v>
       </c>
       <c r="AB37" t="s">
-        <v>426</v>
+        <v>363</v>
       </c>
       <c r="AC37" t="s">
-        <v>427</v>
+        <v>364</v>
       </c>
       <c r="AD37" t="s">
-        <v>428</v>
+        <v>365</v>
       </c>
       <c r="AE37" t="s">
-        <v>429</v>
+        <v>366</v>
       </c>
       <c r="AF37" s="1">
         <v>3.26</v>
@@ -7842,25 +7842,25 @@
         <v>20140411</v>
       </c>
       <c r="G38">
-        <v>4.67</v>
+        <v>4.43</v>
       </c>
       <c r="H38">
-        <v>7.92</v>
+        <v>8.35</v>
       </c>
       <c r="I38">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="J38" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="K38" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="L38" t="s">
-        <v>292</v>
+        <v>521</v>
       </c>
       <c r="M38" t="s">
-        <v>293</v>
+        <v>522</v>
       </c>
       <c r="N38">
         <v>1.07</v>
@@ -7905,16 +7905,16 @@
         <v>107.1</v>
       </c>
       <c r="AB38" t="s">
-        <v>430</v>
+        <v>367</v>
       </c>
       <c r="AC38" t="s">
-        <v>431</v>
+        <v>368</v>
       </c>
       <c r="AD38" t="s">
-        <v>432</v>
+        <v>369</v>
       </c>
       <c r="AE38" t="s">
-        <v>433</v>
+        <v>370</v>
       </c>
       <c r="AF38" s="1">
         <v>26.62</v>
@@ -7982,7 +7982,7 @@
         <v>20091225</v>
       </c>
       <c r="G39">
-        <v>7.3</v>
+        <v>7.29</v>
       </c>
       <c r="H39">
         <v>7.93</v>
@@ -7991,16 +7991,16 @@
         <v>0.99</v>
       </c>
       <c r="J39" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="K39" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="L39" t="s">
-        <v>294</v>
+        <v>525</v>
       </c>
       <c r="M39" t="s">
-        <v>295</v>
+        <v>526</v>
       </c>
       <c r="N39">
         <v>1.27</v>
@@ -8045,16 +8045,16 @@
         <v>67.209999999999994</v>
       </c>
       <c r="AB39" t="s">
-        <v>434</v>
+        <v>371</v>
       </c>
       <c r="AC39" t="s">
-        <v>435</v>
+        <v>372</v>
       </c>
       <c r="AD39" t="s">
-        <v>436</v>
+        <v>373</v>
       </c>
       <c r="AE39" t="s">
-        <v>437</v>
+        <v>374</v>
       </c>
       <c r="AF39" s="1">
         <v>15.64</v>
@@ -8112,17 +8112,6 @@
     <sortCondition ref="A39"/>
   </sortState>
   <mergeCells count="27">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="AF1:AF2"/>
-    <mergeCell ref="AG1:AG2"/>
-    <mergeCell ref="AH1:AH2"/>
-    <mergeCell ref="AI1:AI2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="AE1:AE2"/>
-    <mergeCell ref="AD1:AD2"/>
-    <mergeCell ref="AC1:AC2"/>
-    <mergeCell ref="AB1:AB2"/>
     <mergeCell ref="AP1:AT1"/>
     <mergeCell ref="AJ1:AJ2"/>
     <mergeCell ref="B1:B2"/>
@@ -8139,6 +8128,17 @@
     <mergeCell ref="AM1:AM2"/>
     <mergeCell ref="AN1:AN2"/>
     <mergeCell ref="AO1:AO2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="AF1:AF2"/>
+    <mergeCell ref="AG1:AG2"/>
+    <mergeCell ref="AH1:AH2"/>
+    <mergeCell ref="AI1:AI2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="AE1:AE2"/>
+    <mergeCell ref="AD1:AD2"/>
+    <mergeCell ref="AC1:AC2"/>
+    <mergeCell ref="AB1:AB2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="AF26:AF28">

--- a/Data/彙整清單_整理版.xlsx
+++ b/Data/彙整清單_整理版.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\svnbox\Python\Stock\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A123C9-1C86-4210-BE6D-F7A0AE77FD39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E019A53-2CA5-4DD5-9B82-7F1F24FE317E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D923A086-913E-4840-96DC-7378B4FF8169}"/>
   </bookViews>
@@ -554,9 +554,6 @@
     <t xml:space="preserve">     0.0 /      0.0 /      0.0 /      0.0</t>
   </si>
   <si>
-    <t xml:space="preserve">     0.0 /      0.0 /      0.0 /     0.03</t>
-  </si>
-  <si>
     <t xml:space="preserve">   1.6 /    1.0</t>
   </si>
   <si>
@@ -1236,279 +1233,144 @@
     <t xml:space="preserve">  1399.0 /   1641.0 /  1632.95 /  1549.67</t>
   </si>
   <si>
-    <t xml:space="preserve">    12.2 /    12.14 /    12.02 /    12.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.44 /     1.38 /     1.15 /     1.37</t>
-  </si>
-  <si>
     <t xml:space="preserve">    69.8 /    69.16 /    68.78 /    68.27</t>
   </si>
   <si>
     <t xml:space="preserve">    97.6 /   125.56 /   123.84 /   186.09</t>
   </si>
   <si>
-    <t xml:space="preserve">    1.82 /     1.83 /     1.84 /     1.93</t>
-  </si>
-  <si>
     <t xml:space="preserve">    19.5 /    19.76 /    19.92 /    19.67</t>
   </si>
   <si>
     <t xml:space="preserve">  3327.0 /   2624.8 /  2895.35 /  3354.42</t>
   </si>
   <si>
-    <t xml:space="preserve">    14.1 /    14.14 /    13.97 /    13.47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.35 /     0.71 /     0.72 /     0.51</t>
-  </si>
-  <si>
     <t xml:space="preserve">    29.1 /    29.93 /    30.82 /    32.66</t>
   </si>
   <si>
     <t xml:space="preserve">  4252.0 /  11601.2 /  5964.45 /   7368.9</t>
   </si>
   <si>
-    <t xml:space="preserve">    36.9 /     37.3 /    38.13 /    39.76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     2.0 /     0.75 /     0.58 /     2.05</t>
-  </si>
-  <si>
     <t xml:space="preserve">   33.75 /    34.17 /    34.27 /    35.25</t>
   </si>
   <si>
     <t xml:space="preserve">  2129.0 /   5650.6 /   3721.5 /  7044.38</t>
   </si>
   <si>
-    <t xml:space="preserve">    10.1 /     10.5 /    10.85 /    13.69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.82 /     0.99 /     0.86 /     1.55</t>
-  </si>
-  <si>
     <t xml:space="preserve">    36.1 /    36.45 /    36.44 /    37.86</t>
   </si>
   <si>
     <t xml:space="preserve">  3400.0 /  15692.6 /  6539.15 / 10371.95</t>
   </si>
   <si>
-    <t xml:space="preserve">    8.95 /     9.03 /     9.38 /    10.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.21 /     1.13 /      1.1 /     2.36</t>
-  </si>
-  <si>
     <t xml:space="preserve">    21.3 /    21.19 /    21.24 /    21.92</t>
   </si>
   <si>
     <t xml:space="preserve">  1316.0 /   2909.8 /  2753.45 /  3731.28</t>
   </si>
   <si>
-    <t xml:space="preserve">    9.06 /     9.09 /     8.99 /     9.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     0.8 /      0.8 /     0.94 /      1.0</t>
-  </si>
-  <si>
     <t xml:space="preserve">    52.4 /    53.36 /    55.84 /    61.39</t>
   </si>
   <si>
     <t xml:space="preserve">   584.0 /   1924.8 /   1218.9 /   950.28</t>
   </si>
   <si>
-    <t xml:space="preserve">    7.34 /     7.53 /     7.69 /     8.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    12.4 /    10.87 /     6.41 /     2.83</t>
-  </si>
-  <si>
     <t xml:space="preserve">   15.55 /    15.66 /    15.44 /    15.22</t>
   </si>
   <si>
     <t xml:space="preserve">   378.0 /    929.6 /    720.1 /    892.8</t>
   </si>
   <si>
-    <t xml:space="preserve">    2.74 /     2.71 /     2.28 /      2.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     0.1 /     0.12 /     0.09 /      0.1</t>
-  </si>
-  <si>
     <t xml:space="preserve">    30.2 /    30.09 /    29.78 /    29.67</t>
   </si>
   <si>
     <t xml:space="preserve">   633.0 /    602.4 /    436.8 /   570.72</t>
   </si>
   <si>
-    <t xml:space="preserve">    10.5 /     10.4 /    10.26 /    10.31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.97 /     0.98 /     1.02 /     1.59</t>
-  </si>
-  <si>
     <t xml:space="preserve">   20.95 /    21.16 /    21.27 /    22.21</t>
   </si>
   <si>
     <t xml:space="preserve">    82.0 /     69.3 /    86.63 /   400.41</t>
   </si>
   <si>
-    <t xml:space="preserve">    1.42 /     1.42 /     1.35 /     1.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.24 /     0.23 /      0.2 /     1.63</t>
-  </si>
-  <si>
     <t xml:space="preserve">   30.65 /    31.13 /    31.56 /    31.33</t>
   </si>
   <si>
     <t xml:space="preserve">   720.0 /    391.0 /   366.85 /   712.62</t>
   </si>
   <si>
-    <t xml:space="preserve">    3.07 /     3.13 /     3.26 /     3.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.55 /     0.52 /     0.41 /     0.71</t>
-  </si>
-  <si>
     <t xml:space="preserve">    32.8 /    32.57 /    34.51 /    34.47</t>
   </si>
   <si>
     <t xml:space="preserve">  2703.0 /   1738.4 /   1801.0 /  4029.73</t>
   </si>
   <si>
-    <t xml:space="preserve">    1.23 /     1.31 /      1.6 /     1.56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     5.4 /     5.62 /     5.45 /     5.72</t>
-  </si>
-  <si>
     <t xml:space="preserve">    24.9 /    24.83 /    24.28 /    24.06</t>
   </si>
   <si>
     <t xml:space="preserve"> 12779.0 /  12917.0 / 12510.25 /  13522.9</t>
   </si>
   <si>
-    <t xml:space="preserve">    46.0 /    45.98 /     45.7 /    46.76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.82 /     1.79 /     1.45 /     2.93</t>
-  </si>
-  <si>
     <t xml:space="preserve">    67.6 /    66.76 /    66.15 /    60.41</t>
   </si>
   <si>
     <t xml:space="preserve">  6527.0 /   5842.8 / 10785.05 /  7511.75</t>
   </si>
   <si>
-    <t xml:space="preserve">    32.8 /     32.8 /    33.43 /    34.49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8.98 /     8.92 /      7.8 /     5.61</t>
-  </si>
-  <si>
     <t xml:space="preserve">   30.75 /    30.81 /     30.3 /    30.65</t>
   </si>
   <si>
     <t xml:space="preserve">  2948.0 /   6175.2 /   4911.6 /  7285.57</t>
   </si>
   <si>
-    <t xml:space="preserve">    20.0 /     20.0 /    19.93 /    21.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.15 /     1.03 /     1.12 /     1.52</t>
-  </si>
-  <si>
     <t xml:space="preserve">    88.6 /    87.16 /    83.53 /    81.58</t>
   </si>
   <si>
     <t xml:space="preserve">  3803.0 /   3861.8 /   2492.4 /  1935.32</t>
   </si>
   <si>
-    <t xml:space="preserve">    34.7 /    34.36 /    33.84 /    33.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4.28 /     2.84 /     0.86 /     0.86</t>
-  </si>
-  <si>
     <t xml:space="preserve">    46.3 /    46.67 /    46.22 /    45.16</t>
   </si>
   <si>
     <t xml:space="preserve">   631.0 /    773.8 /  1298.45 /  1301.48</t>
   </si>
   <si>
-    <t xml:space="preserve">    0.87 /     0.86 /      1.0 /     1.69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.14 /     0.12 /      0.1 /      1.0</t>
-  </si>
-  <si>
     <t xml:space="preserve">    33.2 /    34.64 /    30.54 /    27.69</t>
   </si>
   <si>
     <t xml:space="preserve">  4521.0 /   6967.0 /   8757.2 /  3532.43</t>
   </si>
   <si>
-    <t xml:space="preserve">    1.57 /     1.32 /     1.79 /     2.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    39.1 /    38.34 /    22.49 /    15.13</t>
-  </si>
-  <si>
     <t xml:space="preserve">   161.0 /    164.4 /   166.52 /   164.87</t>
   </si>
   <si>
     <t xml:space="preserve">  1869.0 /   1803.6 /   2464.5 /  3010.43</t>
   </si>
   <si>
-    <t xml:space="preserve">    21.8 /    21.92 /    21.98 /    22.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    18.7 /    18.98 /     19.9 /    22.29</t>
-  </si>
-  <si>
     <t xml:space="preserve">    50.0 /     50.9 /    50.85 /    49.17</t>
   </si>
   <si>
     <t xml:space="preserve">   320.0 /    372.8 /    499.2 /   489.67</t>
   </si>
   <si>
-    <t xml:space="preserve">    10.4 /    10.54 /    10.72 /    11.09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.76 /     0.75 /     0.64 /     0.52</t>
-  </si>
-  <si>
     <t xml:space="preserve">    36.8 /    36.91 /    37.47 /    38.12</t>
   </si>
   <si>
     <t xml:space="preserve">   939.0 /   1451.0 /   1336.6 /  1632.77</t>
   </si>
   <si>
-    <t xml:space="preserve">    20.5 /    20.54 /     20.9 /    21.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.66 /      0.7 /     0.69 /     0.58</t>
-  </si>
-  <si>
     <t xml:space="preserve">    51.3 /    50.23 /    49.53 /    49.21</t>
   </si>
   <si>
     <t xml:space="preserve">   353.0 /    215.6 /   134.55 /   132.73</t>
   </si>
   <si>
-    <t xml:space="preserve">    3.66 /     3.64 /     3.69 /     3.66</t>
-  </si>
-  <si>
     <t xml:space="preserve">    80.0 /    77.58 /    75.76 /    74.74</t>
   </si>
   <si>
     <t xml:space="preserve"> 41020.0 /  35206.0 /  23084.0 / 21691.65</t>
   </si>
   <si>
-    <t xml:space="preserve">    22.2 /    21.98 /    21.89 /    22.53</t>
-  </si>
-  <si>
     <t xml:space="preserve">    2.33 /     8.63 /    10.25 /    16.09</t>
   </si>
   <si>
@@ -1518,9 +1380,6 @@
     <t xml:space="preserve">  1422.0 /   1087.4 /   1085.6 /    959.2</t>
   </si>
   <si>
-    <t xml:space="preserve">    30.7 /     30.8 /    30.93 /    31.22</t>
-  </si>
-  <si>
     <t xml:space="preserve">    0.27 /     0.29 /     0.46 /     0.64</t>
   </si>
   <si>
@@ -1530,9 +1389,6 @@
     <t xml:space="preserve">   498.0 /    953.4 /   1842.3 /  1469.58</t>
   </si>
   <si>
-    <t xml:space="preserve">    8.26 /     8.41 /     8.62 /     7.79</t>
-  </si>
-  <si>
     <t xml:space="preserve">    1.79 /     1.74 /     1.48 /     1.07</t>
   </si>
   <si>
@@ -1542,9 +1398,6 @@
     <t xml:space="preserve">  2745.0 /   4895.4 / 11921.75 / 11581.15</t>
   </si>
   <si>
-    <t xml:space="preserve">    10.8 /    11.02 /    11.08 /    10.22</t>
-  </si>
-  <si>
     <t xml:space="preserve">    10.7 /     9.89 /     8.28 /      9.9</t>
   </si>
   <si>
@@ -1554,9 +1407,6 @@
     <t xml:space="preserve">   676.0 /    530.2 /   726.75 /    924.6</t>
   </si>
   <si>
-    <t xml:space="preserve">    42.3 /    42.38 /    42.29 /    41.67</t>
-  </si>
-  <si>
     <t xml:space="preserve">    1.72 /     1.71 /     1.12 /      1.1</t>
   </si>
   <si>
@@ -1566,9 +1416,6 @@
     <t xml:space="preserve">  1160.0 /   1708.4 /   956.15 /  1012.25</t>
   </si>
   <si>
-    <t xml:space="preserve">     6.1 /     6.09 /     6.21 /     6.82</t>
-  </si>
-  <si>
     <t xml:space="preserve">    0.16 /     0.16 /      0.2 /     0.93</t>
   </si>
   <si>
@@ -1578,9 +1425,6 @@
     <t xml:space="preserve">   506.0 /    564.8 /   423.05 /    591.6</t>
   </si>
   <si>
-    <t xml:space="preserve">    4.04 /     4.12 /     4.24 /     4.96</t>
-  </si>
-  <si>
     <t xml:space="preserve">    0.33 /     0.23 /     0.31 /     0.33</t>
   </si>
   <si>
@@ -1590,9 +1434,6 @@
     <t xml:space="preserve">  1550.0 /   2003.2 /   1164.4 /  1999.75</t>
   </si>
   <si>
-    <t xml:space="preserve">    5.87 /     5.81 /      5.8 /     6.58</t>
-  </si>
-  <si>
     <t xml:space="preserve">    0.65 /     0.94 /      0.8 /     0.56</t>
   </si>
   <si>
@@ -1602,9 +1443,6 @@
     <t xml:space="preserve"> 10605.0 /   6008.0 /   4962.1 /  4001.95</t>
   </si>
   <si>
-    <t xml:space="preserve">    26.9 /    26.86 /     26.7 /    26.76</t>
-  </si>
-  <si>
     <t xml:space="preserve">    0.69 /     0.42 /     0.35 /     0.51</t>
   </si>
   <si>
@@ -1614,9 +1452,6 @@
     <t xml:space="preserve">  3422.0 /   5484.8 /   9432.2 / 11712.22</t>
   </si>
   <si>
-    <t xml:space="preserve">    12.3 /    12.36 /    11.84 /    11.08</t>
-  </si>
-  <si>
     <t xml:space="preserve">    0.89 /     0.85 /     0.91 /     0.75</t>
   </si>
   <si>
@@ -1626,9 +1461,6 @@
     <t xml:space="preserve">  1578.0 /   2666.8 /  2308.15 /   3533.2</t>
   </si>
   <si>
-    <t xml:space="preserve">    22.7 /    23.18 /    23.79 /    25.13</t>
-  </si>
-  <si>
     <t xml:space="preserve">    1.51 /     0.97 /     0.96 /      2.2</t>
   </si>
   <si>
@@ -1638,9 +1470,6 @@
     <t xml:space="preserve">  2652.0 /   3356.4 /  5379.55 /  4404.73</t>
   </si>
   <si>
-    <t xml:space="preserve">    24.1 /    24.28 /    23.62 /    22.29</t>
-  </si>
-  <si>
     <t xml:space="preserve">    1.46 /     1.45 /     0.99 /     0.66</t>
   </si>
   <si>
@@ -1650,9 +1479,6 @@
     <t xml:space="preserve"> 21194.0 /   8169.6 /   6669.4 /  6839.52</t>
   </si>
   <si>
-    <t xml:space="preserve">    47.0 /    46.98 /    46.84 /    48.66</t>
-  </si>
-  <si>
     <t xml:space="preserve">    3.97 /     3.85 /     4.47 /     4.86</t>
   </si>
   <si>
@@ -1662,10 +1488,184 @@
     <t xml:space="preserve">   604.0 /    919.2 /   945.95 /   958.68</t>
   </si>
   <si>
-    <t xml:space="preserve">    21.3 /    21.42 /    20.94 /    20.61</t>
-  </si>
-  <si>
     <t xml:space="preserve">    0.19 /     0.22 /     0.19 /     0.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    12.2 /    12.16 /    12.04 /    12.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.44 /     1.41 /     1.17 /     1.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.82 /     1.83 /     1.84 /     1.92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     0.0 /      0.0 /      0.0 /     0.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    14.0 /     14.1 /    13.98 /    13.49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.35 /      0.6 /     0.72 /      0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    36.8 /    37.12 /    38.03 /    39.69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.35 /     0.96 /     0.61 /     1.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    10.1 /    10.36 /    10.79 /    13.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.51 /     0.94 /     0.84 /     1.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    8.94 /     9.04 /     9.33 /    10.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.28 /     1.19 /     1.11 /     2.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    9.09 /     9.09 /      9.0 /     9.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     0.8 /      0.8 /     0.93 /     0.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    7.33 /     7.46 /     7.67 /     8.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    11.5 /    11.71 /     6.86 /     3.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.84 /     2.65 /     2.34 /     2.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     0.1 /     0.11 /     0.09 /     0.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.41 /     1.42 /     1.36 /     1.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.25 /     0.24 /      0.2 /     1.53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     3.0 /     3.09 /     3.25 /     3.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.55 /     0.53 /     0.43 /     0.69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.33 /      1.3 /     1.62 /     1.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5.17 /     5.57 /     5.47 /     5.73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    46.0 /     46.0 /    45.72 /    46.73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.37 /     1.97 /      1.5 /      2.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    32.8 /     32.8 /     33.3 /    34.46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    7.88 /     8.68 /     8.04 /     5.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    20.0 /     20.0 /    19.94 /    21.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.15 /     1.07 /     1.12 /      1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    34.7 /    34.48 /    33.91 /    33.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.54 /     3.52 /     1.08 /     0.91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.81 /     0.86 /     0.95 /     1.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.16 /     0.13 /      0.1 /     0.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.64 /     1.39 /     1.77 /     2.49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    37.8 /    37.92 /    24.04 /    15.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    21.7 /    21.82 /    22.01 /    22.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    15.0 /    18.26 /    19.59 /    22.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    10.3 /    10.46 /    10.68 /    11.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.76 /     0.75 /     0.66 /     0.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    20.5 /    20.52 /    20.84 /    21.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.65 /     0.67 /      0.7 /     0.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.72 /     3.66 /     3.69 /     3.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    22.2 /    22.04 /    21.91 /    22.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    30.6 /    30.74 /    30.91 /    31.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    8.28 /     8.38 /     8.62 /     7.82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    10.8 /    10.94 /    11.21 /    10.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    42.4 /    42.38 /    42.31 /    41.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    6.17 /     6.09 /     6.21 /     6.83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.96 /     4.07 /     4.22 /     4.94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5.78 /      5.8 /      5.8 /     6.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    26.9 /    26.86 /    26.72 /    26.76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    12.2 /    12.34 /     11.9 /    11.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    22.6 /    22.96 /     23.7 /    25.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    24.1 /    24.24 /    23.68 /    22.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    47.4 /    47.06 /    46.89 /    48.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    21.2 /    21.38 /    20.97 /    20.63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    10.5 /    10.44 /    10.28 /    10.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.05 /     0.99 /     1.02 /     1.55</t>
   </si>
 </sst>
 </file>
@@ -2323,13 +2323,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2693,7 +2693,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J28" sqref="J28"/>
+      <selection pane="bottomRight" activeCell="O9" sqref="N9:O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2727,7 +2727,7 @@
       <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="11" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="10" t="s">
@@ -2757,11 +2757,11 @@
       <c r="M1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="O1" s="11" t="s">
+      <c r="N1" s="12" t="s">
         <v>231</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>230</v>
       </c>
       <c r="P1" s="10" t="s">
         <v>4</v>
@@ -2777,17 +2777,17 @@
       <c r="Y1" s="10"/>
       <c r="Z1" s="3"/>
       <c r="AA1" s="3"/>
-      <c r="AB1" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="AC1" s="12" t="s">
+      <c r="AB1" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="AC1" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="AD1" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="AE1" s="13" t="s">
         <v>176</v>
-      </c>
-      <c r="AD1" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="AE1" s="12" t="s">
-        <v>177</v>
       </c>
       <c r="AF1" s="10" t="s">
         <v>5</v>
@@ -2831,7 +2831,7 @@
       <c r="A2" s="9"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
-      <c r="D2" s="13"/>
+      <c r="D2" s="11"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -2849,8 +2849,8 @@
       <c r="M2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
       <c r="P2" s="5" t="s">
         <v>41</v>
       </c>
@@ -2887,10 +2887,10 @@
       <c r="AA2" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="AB2" s="12"/>
-      <c r="AC2" s="12"/>
-      <c r="AD2" s="12"/>
-      <c r="AE2" s="12"/>
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="13"/>
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="13"/>
       <c r="AF2" s="10"/>
       <c r="AG2" s="9"/>
       <c r="AH2" s="10"/>
@@ -2948,22 +2948,22 @@
         <v>2.2200000000000002</v>
       </c>
       <c r="J3" t="s">
+        <v>380</v>
+      </c>
+      <c r="K3" t="s">
         <v>381</v>
       </c>
-      <c r="K3" t="s">
-        <v>382</v>
-      </c>
       <c r="L3" t="s">
-        <v>383</v>
+        <v>468</v>
       </c>
       <c r="M3" t="s">
-        <v>384</v>
+        <v>469</v>
       </c>
       <c r="N3">
-        <v>0.1</v>
+        <v>0.53</v>
       </c>
       <c r="O3">
-        <v>-40.54</v>
+        <v>-17.670000000000002</v>
       </c>
       <c r="P3">
         <v>11</v>
@@ -3002,16 +3002,16 @@
         <v>60.8</v>
       </c>
       <c r="AB3" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC3" t="s">
         <v>233</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>234</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>235</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>236</v>
       </c>
       <c r="AF3" s="1">
         <v>26.64</v>
@@ -3088,16 +3088,16 @@
         <v>3.28</v>
       </c>
       <c r="J4" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K4" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="L4" t="s">
-        <v>387</v>
+        <v>470</v>
       </c>
       <c r="M4" t="s">
-        <v>157</v>
+        <v>471</v>
       </c>
       <c r="N4">
         <v>1.1000000000000001</v>
@@ -3142,16 +3142,16 @@
         <v>66.81</v>
       </c>
       <c r="AB4" t="s">
+        <v>236</v>
+      </c>
+      <c r="AC4" t="s">
         <v>237</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>238</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>239</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>240</v>
       </c>
       <c r="AF4" s="1">
         <v>23.18</v>
@@ -3184,19 +3184,19 @@
         <v>43</v>
       </c>
       <c r="AP4" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AQ4" s="1" t="s">
         <v>71</v>
       </c>
       <c r="AR4" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AS4" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="AS4" s="1" t="s">
+      <c r="AT4" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="AT4" s="1" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:48" x14ac:dyDescent="0.25">
@@ -3228,16 +3228,16 @@
         <v>0.92</v>
       </c>
       <c r="J5" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="K5" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="L5" t="s">
-        <v>390</v>
+        <v>472</v>
       </c>
       <c r="M5" t="s">
-        <v>391</v>
+        <v>473</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -3282,16 +3282,16 @@
         <v>38.590000000000003</v>
       </c>
       <c r="AB5" t="s">
+        <v>240</v>
+      </c>
+      <c r="AC5" t="s">
         <v>241</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>242</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>243</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>244</v>
       </c>
       <c r="AF5" s="1">
         <v>24.73</v>
@@ -3344,10 +3344,10 @@
         <v>1304</v>
       </c>
       <c r="B6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C6" t="s">
         <v>186</v>
-      </c>
-      <c r="C6" t="s">
-        <v>187</v>
       </c>
       <c r="D6" s="7">
         <v>11887635000</v>
@@ -3368,16 +3368,16 @@
         <v>1.3</v>
       </c>
       <c r="J6" t="s">
-        <v>392</v>
-      </c>
-      <c r="K6" t="s">
-        <v>393</v>
+        <v>386</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>387</v>
       </c>
       <c r="L6" t="s">
-        <v>394</v>
+        <v>474</v>
       </c>
       <c r="M6" t="s">
-        <v>395</v>
+        <v>475</v>
       </c>
       <c r="N6">
         <v>0.84</v>
@@ -3422,16 +3422,16 @@
         <v>91.4</v>
       </c>
       <c r="AB6" t="s">
+        <v>244</v>
+      </c>
+      <c r="AC6" t="s">
         <v>245</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>246</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>247</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>248</v>
       </c>
       <c r="AF6">
         <v>23.9</v>
@@ -3473,10 +3473,10 @@
         <v>119</v>
       </c>
       <c r="AS6" t="s">
+        <v>187</v>
+      </c>
+      <c r="AT6" t="s">
         <v>188</v>
-      </c>
-      <c r="AT6" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:48" x14ac:dyDescent="0.25">
@@ -3484,10 +3484,10 @@
         <v>1305</v>
       </c>
       <c r="B7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C7" t="s">
         <v>223</v>
-      </c>
-      <c r="C7" t="s">
-        <v>224</v>
       </c>
       <c r="D7" s="7">
         <v>5810504940</v>
@@ -3508,16 +3508,16 @@
         <v>1.85</v>
       </c>
       <c r="J7" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="K7" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="L7" t="s">
-        <v>398</v>
+        <v>476</v>
       </c>
       <c r="M7" t="s">
-        <v>399</v>
+        <v>477</v>
       </c>
       <c r="N7">
         <v>0.28000000000000003</v>
@@ -3562,16 +3562,16 @@
         <v>79.680000000000007</v>
       </c>
       <c r="AB7" t="s">
+        <v>248</v>
+      </c>
+      <c r="AC7" t="s">
         <v>249</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>250</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>251</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>252</v>
       </c>
       <c r="AF7">
         <v>25.41</v>
@@ -3604,19 +3604,19 @@
         <v>57</v>
       </c>
       <c r="AP7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AQ7" t="s">
+        <v>224</v>
+      </c>
+      <c r="AR7" t="s">
         <v>225</v>
       </c>
-      <c r="AR7" t="s">
+      <c r="AS7" t="s">
         <v>226</v>
       </c>
-      <c r="AS7" t="s">
+      <c r="AT7" t="s">
         <v>227</v>
-      </c>
-      <c r="AT7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.25">
@@ -3624,10 +3624,10 @@
         <v>1308</v>
       </c>
       <c r="B8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C8" t="s">
         <v>204</v>
-      </c>
-      <c r="C8" t="s">
-        <v>205</v>
       </c>
       <c r="D8" s="7">
         <v>5937439190</v>
@@ -3648,16 +3648,16 @@
         <v>1.42</v>
       </c>
       <c r="J8" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="K8" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="L8" t="s">
-        <v>402</v>
+        <v>478</v>
       </c>
       <c r="M8" t="s">
-        <v>403</v>
+        <v>479</v>
       </c>
       <c r="N8">
         <v>0.73</v>
@@ -3702,16 +3702,16 @@
         <v>100.3</v>
       </c>
       <c r="AB8" t="s">
+        <v>252</v>
+      </c>
+      <c r="AC8" t="s">
         <v>253</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>254</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>255</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>256</v>
       </c>
       <c r="AF8">
         <v>34.97</v>
@@ -3744,19 +3744,19 @@
         <v>72</v>
       </c>
       <c r="AP8" t="s">
+        <v>205</v>
+      </c>
+      <c r="AQ8" t="s">
         <v>206</v>
-      </c>
-      <c r="AQ8" t="s">
-        <v>207</v>
       </c>
       <c r="AR8" t="s">
         <v>119</v>
       </c>
       <c r="AS8" t="s">
+        <v>207</v>
+      </c>
+      <c r="AT8" t="s">
         <v>208</v>
-      </c>
-      <c r="AT8" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:48" x14ac:dyDescent="0.25">
@@ -3764,10 +3764,10 @@
         <v>1313</v>
       </c>
       <c r="B9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C9" t="s">
         <v>180</v>
-      </c>
-      <c r="C9" t="s">
-        <v>181</v>
       </c>
       <c r="D9" s="7">
         <v>13471206070</v>
@@ -3788,16 +3788,16 @@
         <v>0.95</v>
       </c>
       <c r="J9" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="K9" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="L9" t="s">
-        <v>406</v>
+        <v>480</v>
       </c>
       <c r="M9" t="s">
-        <v>407</v>
+        <v>481</v>
       </c>
       <c r="N9" s="8">
         <v>1.26</v>
@@ -3842,16 +3842,16 @@
         <v>86.32</v>
       </c>
       <c r="AB9" t="s">
+        <v>256</v>
+      </c>
+      <c r="AC9" t="s">
         <v>257</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>258</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>259</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>260</v>
       </c>
       <c r="AF9">
         <v>9.1999999999999993</v>
@@ -3887,16 +3887,16 @@
         <v>104</v>
       </c>
       <c r="AQ9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AR9" t="s">
         <v>182</v>
       </c>
-      <c r="AR9" t="s">
+      <c r="AS9" t="s">
         <v>183</v>
       </c>
-      <c r="AS9" t="s">
+      <c r="AT9" t="s">
         <v>184</v>
-      </c>
-      <c r="AT9" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:48" x14ac:dyDescent="0.25">
@@ -3919,31 +3919,31 @@
         <v>20001031</v>
       </c>
       <c r="G10">
-        <v>6.87</v>
+        <v>2.57</v>
       </c>
       <c r="H10">
-        <v>8.25</v>
+        <v>11.03</v>
       </c>
       <c r="I10">
-        <v>2.4500000000000002</v>
+        <v>0.99</v>
       </c>
       <c r="J10" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="K10" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="L10" t="s">
-        <v>410</v>
+        <v>484</v>
       </c>
       <c r="M10" t="s">
-        <v>411</v>
+        <v>485</v>
       </c>
       <c r="N10">
-        <v>0.87</v>
+        <v>0.36</v>
       </c>
       <c r="O10">
-        <v>-6.67</v>
+        <v>-9.52</v>
       </c>
       <c r="P10">
         <v>13</v>
@@ -3982,16 +3982,16 @@
         <v>35.25</v>
       </c>
       <c r="AB10" t="s">
+        <v>260</v>
+      </c>
+      <c r="AC10" t="s">
         <v>261</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>262</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>263</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>264</v>
       </c>
       <c r="AF10" s="1">
         <v>16.04</v>
@@ -4044,10 +4044,10 @@
         <v>1515</v>
       </c>
       <c r="B11" t="s">
+        <v>374</v>
+      </c>
+      <c r="C11" t="s">
         <v>375</v>
-      </c>
-      <c r="C11" t="s">
-        <v>376</v>
       </c>
       <c r="D11">
         <v>1814735000</v>
@@ -4059,31 +4059,31 @@
         <v>19950204</v>
       </c>
       <c r="G11">
-        <v>2.57</v>
+        <v>6.87</v>
       </c>
       <c r="H11">
-        <v>11.03</v>
+        <v>8.25</v>
       </c>
       <c r="I11">
-        <v>0.99</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="J11" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
       <c r="K11" t="s">
-        <v>413</v>
+        <v>395</v>
       </c>
       <c r="L11" t="s">
-        <v>414</v>
+        <v>482</v>
       </c>
       <c r="M11" t="s">
-        <v>415</v>
+        <v>483</v>
       </c>
       <c r="N11">
-        <v>0.75</v>
+        <v>0.87</v>
       </c>
       <c r="O11">
-        <v>-14.3</v>
+        <v>-6.67</v>
       </c>
       <c r="P11">
         <v>12</v>
@@ -4122,16 +4122,16 @@
         <v>190.5</v>
       </c>
       <c r="AB11" t="s">
+        <v>376</v>
+      </c>
+      <c r="AC11" t="s">
         <v>377</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>378</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>379</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>380</v>
       </c>
       <c r="AF11">
         <v>13.81</v>
@@ -4184,10 +4184,10 @@
         <v>1604</v>
       </c>
       <c r="B12" t="s">
+        <v>228</v>
+      </c>
+      <c r="C12" t="s">
         <v>229</v>
-      </c>
-      <c r="C12" t="s">
-        <v>230</v>
       </c>
       <c r="D12" s="7">
         <v>3872000000</v>
@@ -4208,16 +4208,16 @@
         <v>1.32</v>
       </c>
       <c r="J12" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
       <c r="K12" t="s">
-        <v>417</v>
+        <v>399</v>
       </c>
       <c r="L12" t="s">
-        <v>418</v>
+        <v>525</v>
       </c>
       <c r="M12" t="s">
-        <v>419</v>
+        <v>526</v>
       </c>
       <c r="N12" s="8">
         <v>1.32</v>
@@ -4262,16 +4262,16 @@
         <v>59.67</v>
       </c>
       <c r="AB12" t="s">
+        <v>264</v>
+      </c>
+      <c r="AC12" t="s">
         <v>265</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>266</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>267</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>268</v>
       </c>
       <c r="AF12">
         <v>17.72</v>
@@ -4313,7 +4313,7 @@
         <v>125</v>
       </c>
       <c r="AS12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AT12" t="s">
         <v>125</v>
@@ -4324,10 +4324,10 @@
         <v>1776</v>
       </c>
       <c r="B13" t="s">
+        <v>196</v>
+      </c>
+      <c r="C13" t="s">
         <v>197</v>
-      </c>
-      <c r="C13" t="s">
-        <v>198</v>
       </c>
       <c r="D13" s="7">
         <v>703352990</v>
@@ -4348,16 +4348,16 @@
         <v>1.39</v>
       </c>
       <c r="J13" t="s">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="K13" t="s">
-        <v>421</v>
+        <v>401</v>
       </c>
       <c r="L13" t="s">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="M13" t="s">
-        <v>423</v>
+        <v>487</v>
       </c>
       <c r="N13">
         <v>0.83</v>
@@ -4402,16 +4402,16 @@
         <v>60</v>
       </c>
       <c r="AB13" t="s">
+        <v>268</v>
+      </c>
+      <c r="AC13" t="s">
         <v>269</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>270</v>
       </c>
-      <c r="AD13" t="s">
-        <v>271</v>
-      </c>
       <c r="AE13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AF13">
         <v>20.57</v>
@@ -4488,16 +4488,16 @@
         <v>1.91</v>
       </c>
       <c r="J14" t="s">
-        <v>424</v>
+        <v>402</v>
       </c>
       <c r="K14" t="s">
-        <v>425</v>
+        <v>403</v>
       </c>
       <c r="L14" t="s">
-        <v>426</v>
+        <v>488</v>
       </c>
       <c r="M14" t="s">
-        <v>427</v>
+        <v>489</v>
       </c>
       <c r="N14">
         <v>0.34</v>
@@ -4542,16 +4542,16 @@
         <v>92.56</v>
       </c>
       <c r="AB14" t="s">
+        <v>271</v>
+      </c>
+      <c r="AC14" t="s">
         <v>272</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>273</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>274</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>275</v>
       </c>
       <c r="AF14" s="1">
         <v>14.3</v>
@@ -4628,16 +4628,16 @@
         <v>1.37</v>
       </c>
       <c r="J15" t="s">
-        <v>428</v>
+        <v>404</v>
       </c>
       <c r="K15" t="s">
-        <v>429</v>
+        <v>405</v>
       </c>
       <c r="L15" t="s">
-        <v>430</v>
+        <v>490</v>
       </c>
       <c r="M15" t="s">
-        <v>431</v>
+        <v>491</v>
       </c>
       <c r="N15">
         <v>0.67</v>
@@ -4682,16 +4682,16 @@
         <v>104.2</v>
       </c>
       <c r="AB15" t="s">
+        <v>275</v>
+      </c>
+      <c r="AC15" t="s">
         <v>276</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>277</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>278</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>279</v>
       </c>
       <c r="AF15" s="1">
         <v>13</v>
@@ -4768,16 +4768,16 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>432</v>
+        <v>406</v>
       </c>
       <c r="K16" t="s">
-        <v>433</v>
+        <v>407</v>
       </c>
       <c r="L16" t="s">
-        <v>434</v>
+        <v>492</v>
       </c>
       <c r="M16" t="s">
-        <v>435</v>
+        <v>493</v>
       </c>
       <c r="N16">
         <v>1.38</v>
@@ -4822,16 +4822,16 @@
         <v>48.3</v>
       </c>
       <c r="AB16" t="s">
+        <v>279</v>
+      </c>
+      <c r="AC16" t="s">
         <v>280</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>281</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>282</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>283</v>
       </c>
       <c r="AF16" s="1">
         <v>3.35</v>
@@ -4908,22 +4908,22 @@
         <v>1.91</v>
       </c>
       <c r="J17" t="s">
-        <v>436</v>
+        <v>408</v>
       </c>
       <c r="K17" t="s">
-        <v>437</v>
+        <v>409</v>
       </c>
       <c r="L17" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
       <c r="M17" t="s">
-        <v>439</v>
+        <v>495</v>
       </c>
       <c r="N17">
-        <v>1.06</v>
+        <v>1.63</v>
       </c>
       <c r="O17">
-        <v>-2.97</v>
+        <v>-4.2</v>
       </c>
       <c r="P17">
         <v>9</v>
@@ -4962,16 +4962,16 @@
         <v>150.30000000000001</v>
       </c>
       <c r="AB17" t="s">
+        <v>283</v>
+      </c>
+      <c r="AC17" t="s">
         <v>284</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>285</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>286</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>287</v>
       </c>
       <c r="AF17" s="1">
         <v>4.4000000000000004</v>
@@ -5048,21 +5048,21 @@
         <v>1.67</v>
       </c>
       <c r="J18" t="s">
-        <v>440</v>
+        <v>410</v>
       </c>
       <c r="K18" t="s">
-        <v>441</v>
+        <v>411</v>
       </c>
       <c r="L18" t="s">
-        <v>442</v>
+        <v>496</v>
       </c>
       <c r="M18" t="s">
-        <v>443</v>
-      </c>
-      <c r="N18" s="8">
+        <v>497</v>
+      </c>
+      <c r="N18">
         <v>1.35</v>
       </c>
-      <c r="O18" s="8">
+      <c r="O18">
         <v>10.58</v>
       </c>
       <c r="P18">
@@ -5102,16 +5102,16 @@
         <v>87.78</v>
       </c>
       <c r="AB18" t="s">
+        <v>287</v>
+      </c>
+      <c r="AC18" t="s">
         <v>288</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AD18" t="s">
         <v>289</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>290</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>291</v>
       </c>
       <c r="AF18" s="1">
         <v>14.67</v>
@@ -5188,16 +5188,16 @@
         <v>2.2200000000000002</v>
       </c>
       <c r="J19" t="s">
-        <v>444</v>
+        <v>412</v>
       </c>
       <c r="K19" t="s">
-        <v>445</v>
+        <v>413</v>
       </c>
       <c r="L19" t="s">
-        <v>446</v>
+        <v>498</v>
       </c>
       <c r="M19" t="s">
-        <v>447</v>
+        <v>499</v>
       </c>
       <c r="N19" s="8">
         <v>3.78</v>
@@ -5242,16 +5242,16 @@
         <v>121.8</v>
       </c>
       <c r="AB19" t="s">
+        <v>291</v>
+      </c>
+      <c r="AC19" t="s">
         <v>292</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AD19" t="s">
         <v>293</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>294</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>295</v>
       </c>
       <c r="AF19" s="1">
         <v>17.55</v>
@@ -5284,19 +5284,19 @@
         <v>38</v>
       </c>
       <c r="AP19" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AQ19" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AR19" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AS19" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="AS19" s="1" t="s">
+      <c r="AT19" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="AT19" s="1" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
@@ -5304,10 +5304,10 @@
         <v>2387</v>
       </c>
       <c r="B20" t="s">
+        <v>218</v>
+      </c>
+      <c r="C20" t="s">
         <v>219</v>
-      </c>
-      <c r="C20" t="s">
-        <v>220</v>
       </c>
       <c r="D20" s="7">
         <v>1952510510</v>
@@ -5328,16 +5328,16 @@
         <v>1.1399999999999999</v>
       </c>
       <c r="J20" t="s">
-        <v>448</v>
+        <v>414</v>
       </c>
       <c r="K20" t="s">
-        <v>449</v>
+        <v>415</v>
       </c>
       <c r="L20" t="s">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="M20" t="s">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="N20">
         <v>0.82</v>
@@ -5382,16 +5382,16 @@
         <v>147</v>
       </c>
       <c r="AB20" t="s">
+        <v>295</v>
+      </c>
+      <c r="AC20" t="s">
         <v>296</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AD20" t="s">
         <v>297</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>298</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>299</v>
       </c>
       <c r="AF20">
         <v>12.93</v>
@@ -5430,13 +5430,13 @@
         <v>104</v>
       </c>
       <c r="AR20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AS20" t="s">
         <v>118</v>
       </c>
       <c r="AT20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
@@ -5468,16 +5468,16 @@
         <v>1.51</v>
       </c>
       <c r="J21" t="s">
-        <v>452</v>
+        <v>416</v>
       </c>
       <c r="K21" t="s">
-        <v>453</v>
+        <v>417</v>
       </c>
       <c r="L21" t="s">
-        <v>454</v>
+        <v>502</v>
       </c>
       <c r="M21" t="s">
-        <v>455</v>
+        <v>503</v>
       </c>
       <c r="N21">
         <v>0.64</v>
@@ -5522,16 +5522,16 @@
         <v>65.400000000000006</v>
       </c>
       <c r="AB21" t="s">
+        <v>299</v>
+      </c>
+      <c r="AC21" t="s">
         <v>300</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="AD21" t="s">
         <v>301</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>302</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>303</v>
       </c>
       <c r="AF21" s="1">
         <v>48.85</v>
@@ -5608,22 +5608,22 @@
         <v>4.82</v>
       </c>
       <c r="J22" t="s">
-        <v>456</v>
+        <v>418</v>
       </c>
       <c r="K22" t="s">
-        <v>457</v>
+        <v>419</v>
       </c>
       <c r="L22" t="s">
-        <v>458</v>
+        <v>504</v>
       </c>
       <c r="M22" t="s">
-        <v>459</v>
+        <v>505</v>
       </c>
       <c r="N22">
-        <v>0.85</v>
+        <v>1.3</v>
       </c>
       <c r="O22">
-        <v>-9.1300000000000008</v>
+        <v>-11.19</v>
       </c>
       <c r="P22">
         <v>12</v>
@@ -5662,16 +5662,16 @@
         <v>393.3</v>
       </c>
       <c r="AB22" t="s">
+        <v>303</v>
+      </c>
+      <c r="AC22" t="s">
         <v>304</v>
       </c>
-      <c r="AC22" t="s">
+      <c r="AD22" t="s">
         <v>305</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
         <v>306</v>
-      </c>
-      <c r="AE22" t="s">
-        <v>307</v>
       </c>
       <c r="AF22" s="1">
         <v>49.84</v>
@@ -5724,10 +5724,10 @@
         <v>2467</v>
       </c>
       <c r="B23" t="s">
+        <v>172</v>
+      </c>
+      <c r="C23" t="s">
         <v>173</v>
-      </c>
-      <c r="C23" t="s">
-        <v>174</v>
       </c>
       <c r="D23" s="7">
         <v>1521896590</v>
@@ -5748,16 +5748,16 @@
         <v>2.92</v>
       </c>
       <c r="J23" t="s">
-        <v>460</v>
+        <v>420</v>
       </c>
       <c r="K23" t="s">
-        <v>461</v>
+        <v>421</v>
       </c>
       <c r="L23" t="s">
-        <v>462</v>
+        <v>506</v>
       </c>
       <c r="M23" t="s">
-        <v>463</v>
+        <v>507</v>
       </c>
       <c r="N23">
         <v>2.1800000000000002</v>
@@ -5802,16 +5802,16 @@
         <v>83.2</v>
       </c>
       <c r="AB23" t="s">
+        <v>307</v>
+      </c>
+      <c r="AC23" t="s">
         <v>308</v>
       </c>
-      <c r="AC23" t="s">
+      <c r="AD23" t="s">
         <v>309</v>
       </c>
-      <c r="AD23" t="s">
-        <v>310</v>
-      </c>
       <c r="AE23" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AF23">
         <v>34.07</v>
@@ -5844,7 +5844,7 @@
         <v>57</v>
       </c>
       <c r="AP23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AQ23" t="s">
         <v>128</v>
@@ -5888,16 +5888,16 @@
         <v>1.21</v>
       </c>
       <c r="J24" t="s">
-        <v>464</v>
+        <v>422</v>
       </c>
       <c r="K24" t="s">
-        <v>465</v>
+        <v>423</v>
       </c>
       <c r="L24" t="s">
-        <v>466</v>
+        <v>508</v>
       </c>
       <c r="M24" t="s">
-        <v>467</v>
+        <v>509</v>
       </c>
       <c r="N24">
         <v>0.52</v>
@@ -5942,16 +5942,16 @@
         <v>119.1</v>
       </c>
       <c r="AB24" t="s">
+        <v>310</v>
+      </c>
+      <c r="AC24" t="s">
         <v>311</v>
       </c>
-      <c r="AC24" t="s">
+      <c r="AD24" t="s">
         <v>312</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>313</v>
-      </c>
-      <c r="AE24" t="s">
-        <v>314</v>
       </c>
       <c r="AF24" s="1">
         <v>26.73</v>
@@ -6028,22 +6028,22 @@
         <v>1.63</v>
       </c>
       <c r="J25" t="s">
-        <v>468</v>
+        <v>424</v>
       </c>
       <c r="K25" t="s">
-        <v>469</v>
+        <v>425</v>
       </c>
       <c r="L25" t="s">
-        <v>470</v>
+        <v>510</v>
       </c>
       <c r="M25" t="s">
         <v>156</v>
       </c>
-      <c r="N25" s="8">
-        <v>2.73</v>
-      </c>
-      <c r="O25" s="8">
-        <v>15.84</v>
+      <c r="N25">
+        <v>0.94</v>
+      </c>
+      <c r="O25">
+        <v>10.07</v>
       </c>
       <c r="P25">
         <v>7</v>
@@ -6082,16 +6082,16 @@
         <v>84.36</v>
       </c>
       <c r="AB25" t="s">
+        <v>314</v>
+      </c>
+      <c r="AC25" t="s">
         <v>315</v>
       </c>
-      <c r="AC25" t="s">
+      <c r="AD25" t="s">
         <v>316</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>317</v>
-      </c>
-      <c r="AE25" t="s">
-        <v>318</v>
       </c>
       <c r="AF25" s="1">
         <v>11.23</v>
@@ -6168,16 +6168,16 @@
         <v>1.19</v>
       </c>
       <c r="J26" t="s">
-        <v>471</v>
+        <v>426</v>
       </c>
       <c r="K26" t="s">
-        <v>472</v>
+        <v>427</v>
       </c>
       <c r="L26" t="s">
-        <v>473</v>
+        <v>511</v>
       </c>
       <c r="M26" t="s">
-        <v>474</v>
+        <v>428</v>
       </c>
       <c r="N26">
         <v>0.76</v>
@@ -6222,16 +6222,16 @@
         <v>145.6</v>
       </c>
       <c r="AB26" t="s">
+        <v>318</v>
+      </c>
+      <c r="AC26" t="s">
         <v>319</v>
       </c>
-      <c r="AC26" t="s">
+      <c r="AD26" t="s">
         <v>320</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>321</v>
-      </c>
-      <c r="AE26" t="s">
-        <v>322</v>
       </c>
       <c r="AF26" s="1">
         <v>0</v>
@@ -6308,16 +6308,16 @@
         <v>1.9</v>
       </c>
       <c r="J27" t="s">
-        <v>475</v>
+        <v>429</v>
       </c>
       <c r="K27" t="s">
-        <v>476</v>
+        <v>430</v>
       </c>
       <c r="L27" t="s">
-        <v>477</v>
+        <v>512</v>
       </c>
       <c r="M27" t="s">
-        <v>478</v>
+        <v>431</v>
       </c>
       <c r="N27">
         <v>0.26</v>
@@ -6362,16 +6362,16 @@
         <v>124.1</v>
       </c>
       <c r="AB27" t="s">
+        <v>322</v>
+      </c>
+      <c r="AC27" t="s">
         <v>323</v>
       </c>
-      <c r="AC27" t="s">
+      <c r="AD27" t="s">
         <v>324</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AE27" t="s">
         <v>325</v>
-      </c>
-      <c r="AE27" t="s">
-        <v>326</v>
       </c>
       <c r="AF27" s="1">
         <v>24.89</v>
@@ -6404,7 +6404,7 @@
         <v>57</v>
       </c>
       <c r="AP27" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AQ27" s="1" t="s">
         <v>145</v>
@@ -6424,10 +6424,10 @@
         <v>3028</v>
       </c>
       <c r="B28" t="s">
+        <v>199</v>
+      </c>
+      <c r="C28" t="s">
         <v>200</v>
-      </c>
-      <c r="C28" t="s">
-        <v>201</v>
       </c>
       <c r="D28" s="7">
         <v>2138248640</v>
@@ -6448,16 +6448,16 @@
         <v>1.41</v>
       </c>
       <c r="J28" t="s">
-        <v>479</v>
+        <v>432</v>
       </c>
       <c r="K28" t="s">
-        <v>480</v>
+        <v>433</v>
       </c>
       <c r="L28" t="s">
-        <v>481</v>
+        <v>513</v>
       </c>
       <c r="M28" t="s">
-        <v>482</v>
+        <v>434</v>
       </c>
       <c r="N28" s="8">
         <v>2.1800000000000002</v>
@@ -6502,16 +6502,16 @@
         <v>58.05</v>
       </c>
       <c r="AB28" t="s">
+        <v>326</v>
+      </c>
+      <c r="AC28" t="s">
         <v>327</v>
       </c>
-      <c r="AC28" t="s">
+      <c r="AD28" t="s">
         <v>328</v>
       </c>
-      <c r="AD28" t="s">
+      <c r="AE28" t="s">
         <v>329</v>
-      </c>
-      <c r="AE28" t="s">
-        <v>330</v>
       </c>
       <c r="AF28">
         <v>5.93</v>
@@ -6544,7 +6544,7 @@
         <v>30</v>
       </c>
       <c r="AP28" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AQ28" t="s">
         <v>104</v>
@@ -6553,7 +6553,7 @@
         <v>123</v>
       </c>
       <c r="AS28" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AT28" t="s">
         <v>91</v>
@@ -6564,10 +6564,10 @@
         <v>3033</v>
       </c>
       <c r="B29" t="s">
+        <v>189</v>
+      </c>
+      <c r="C29" t="s">
         <v>190</v>
-      </c>
-      <c r="C29" t="s">
-        <v>191</v>
       </c>
       <c r="D29" s="7">
         <v>3990554430</v>
@@ -6588,22 +6588,22 @@
         <v>1.7</v>
       </c>
       <c r="J29" t="s">
-        <v>483</v>
+        <v>435</v>
       </c>
       <c r="K29" t="s">
-        <v>484</v>
+        <v>436</v>
       </c>
       <c r="L29" t="s">
-        <v>485</v>
+        <v>514</v>
       </c>
       <c r="M29" t="s">
-        <v>486</v>
+        <v>437</v>
       </c>
       <c r="N29">
-        <v>1.1299999999999999</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="O29">
-        <v>-2.4</v>
+        <v>-1.02</v>
       </c>
       <c r="P29">
         <v>9</v>
@@ -6642,16 +6642,16 @@
         <v>58.05</v>
       </c>
       <c r="AB29" t="s">
+        <v>330</v>
+      </c>
+      <c r="AC29" t="s">
         <v>331</v>
       </c>
-      <c r="AC29" t="s">
+      <c r="AD29" t="s">
         <v>332</v>
       </c>
-      <c r="AD29" t="s">
+      <c r="AE29" t="s">
         <v>333</v>
-      </c>
-      <c r="AE29" t="s">
-        <v>334</v>
       </c>
       <c r="AF29">
         <v>7.01</v>
@@ -6684,19 +6684,19 @@
         <v>34</v>
       </c>
       <c r="AP29" t="s">
+        <v>191</v>
+      </c>
+      <c r="AQ29" t="s">
         <v>192</v>
       </c>
-      <c r="AQ29" t="s">
+      <c r="AR29" t="s">
         <v>193</v>
       </c>
-      <c r="AR29" t="s">
+      <c r="AS29" t="s">
         <v>194</v>
       </c>
-      <c r="AS29" t="s">
+      <c r="AT29" t="s">
         <v>195</v>
-      </c>
-      <c r="AT29" t="s">
-        <v>196</v>
       </c>
       <c r="AU29"/>
       <c r="AV29"/>
@@ -6731,16 +6731,16 @@
         <v>1.79</v>
       </c>
       <c r="J30" t="s">
-        <v>487</v>
+        <v>438</v>
       </c>
       <c r="K30" t="s">
-        <v>488</v>
+        <v>439</v>
       </c>
       <c r="L30" t="s">
-        <v>489</v>
+        <v>515</v>
       </c>
       <c r="M30" t="s">
-        <v>490</v>
+        <v>440</v>
       </c>
       <c r="N30" s="8">
         <v>2.36</v>
@@ -6785,16 +6785,16 @@
         <v>164.4</v>
       </c>
       <c r="AB30" t="s">
+        <v>334</v>
+      </c>
+      <c r="AC30" t="s">
         <v>335</v>
       </c>
-      <c r="AC30" t="s">
+      <c r="AD30" t="s">
         <v>336</v>
       </c>
-      <c r="AD30" t="s">
+      <c r="AE30" t="s">
         <v>337</v>
-      </c>
-      <c r="AE30" t="s">
-        <v>338</v>
       </c>
       <c r="AF30" s="1">
         <v>18.75</v>
@@ -6847,10 +6847,10 @@
         <v>3048</v>
       </c>
       <c r="B31" t="s">
+        <v>209</v>
+      </c>
+      <c r="C31" t="s">
         <v>210</v>
-      </c>
-      <c r="C31" t="s">
-        <v>211</v>
       </c>
       <c r="D31" s="7">
         <v>2448297940</v>
@@ -6871,16 +6871,16 @@
         <v>2.06</v>
       </c>
       <c r="J31" t="s">
-        <v>491</v>
+        <v>441</v>
       </c>
       <c r="K31" t="s">
-        <v>492</v>
+        <v>442</v>
       </c>
       <c r="L31" t="s">
-        <v>493</v>
+        <v>516</v>
       </c>
       <c r="M31" t="s">
-        <v>494</v>
+        <v>443</v>
       </c>
       <c r="N31">
         <v>1.69</v>
@@ -6925,16 +6925,16 @@
         <v>68.64</v>
       </c>
       <c r="AB31" t="s">
+        <v>338</v>
+      </c>
+      <c r="AC31" t="s">
         <v>339</v>
       </c>
-      <c r="AC31" t="s">
+      <c r="AD31" t="s">
         <v>340</v>
       </c>
-      <c r="AD31" t="s">
+      <c r="AE31" t="s">
         <v>341</v>
-      </c>
-      <c r="AE31" t="s">
-        <v>342</v>
       </c>
       <c r="AF31">
         <v>3.24</v>
@@ -6967,13 +6967,13 @@
         <v>30</v>
       </c>
       <c r="AP31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AQ31" t="s">
         <v>104</v>
       </c>
       <c r="AR31" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AS31" t="s">
         <v>104</v>
@@ -7011,16 +7011,16 @@
         <v>1.64</v>
       </c>
       <c r="J32" t="s">
-        <v>495</v>
+        <v>444</v>
       </c>
       <c r="K32" t="s">
-        <v>496</v>
+        <v>445</v>
       </c>
       <c r="L32" t="s">
-        <v>497</v>
+        <v>517</v>
       </c>
       <c r="M32" t="s">
-        <v>498</v>
+        <v>446</v>
       </c>
       <c r="N32">
         <v>0.36</v>
@@ -7065,16 +7065,16 @@
         <v>49.84</v>
       </c>
       <c r="AB32" t="s">
+        <v>342</v>
+      </c>
+      <c r="AC32" t="s">
         <v>343</v>
       </c>
-      <c r="AC32" t="s">
+      <c r="AD32" t="s">
         <v>344</v>
       </c>
-      <c r="AD32" t="s">
+      <c r="AE32" t="s">
         <v>345</v>
-      </c>
-      <c r="AE32" t="s">
-        <v>346</v>
       </c>
       <c r="AF32" s="1">
         <v>5.31</v>
@@ -7127,10 +7127,10 @@
         <v>3312</v>
       </c>
       <c r="B33" t="s">
+        <v>212</v>
+      </c>
+      <c r="C33" t="s">
         <v>213</v>
-      </c>
-      <c r="C33" t="s">
-        <v>214</v>
       </c>
       <c r="D33" s="7">
         <v>1376254550</v>
@@ -7151,16 +7151,16 @@
         <v>1.87</v>
       </c>
       <c r="J33" t="s">
-        <v>499</v>
+        <v>447</v>
       </c>
       <c r="K33" t="s">
-        <v>500</v>
+        <v>448</v>
       </c>
       <c r="L33" t="s">
-        <v>501</v>
+        <v>518</v>
       </c>
       <c r="M33" t="s">
-        <v>502</v>
+        <v>449</v>
       </c>
       <c r="N33">
         <v>1.25</v>
@@ -7205,16 +7205,16 @@
         <v>94.2</v>
       </c>
       <c r="AB33" t="s">
+        <v>346</v>
+      </c>
+      <c r="AC33" t="s">
         <v>347</v>
       </c>
-      <c r="AC33" t="s">
+      <c r="AD33" t="s">
         <v>348</v>
       </c>
-      <c r="AD33" t="s">
+      <c r="AE33" t="s">
         <v>349</v>
-      </c>
-      <c r="AE33" t="s">
-        <v>350</v>
       </c>
       <c r="AF33">
         <v>5.84</v>
@@ -7247,16 +7247,16 @@
         <v>40</v>
       </c>
       <c r="AP33" t="s">
+        <v>214</v>
+      </c>
+      <c r="AQ33" t="s">
         <v>215</v>
       </c>
-      <c r="AQ33" t="s">
+      <c r="AR33" t="s">
         <v>216</v>
       </c>
-      <c r="AR33" t="s">
+      <c r="AS33" t="s">
         <v>217</v>
-      </c>
-      <c r="AS33" t="s">
-        <v>218</v>
       </c>
       <c r="AT33" t="s">
         <v>100</v>
@@ -7267,10 +7267,10 @@
         <v>3702</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="D34" s="1">
         <v>18790568330</v>
@@ -7291,16 +7291,16 @@
         <v>1.48</v>
       </c>
       <c r="J34" t="s">
-        <v>503</v>
-      </c>
-      <c r="K34" t="s">
-        <v>504</v>
+        <v>450</v>
+      </c>
+      <c r="K34" s="8" t="s">
+        <v>451</v>
       </c>
       <c r="L34" t="s">
-        <v>505</v>
+        <v>519</v>
       </c>
       <c r="M34" t="s">
-        <v>506</v>
+        <v>452</v>
       </c>
       <c r="N34">
         <v>1.29</v>
@@ -7345,16 +7345,16 @@
         <v>80.47</v>
       </c>
       <c r="AB34" t="s">
+        <v>350</v>
+      </c>
+      <c r="AC34" t="s">
         <v>351</v>
       </c>
-      <c r="AC34" t="s">
+      <c r="AD34" t="s">
         <v>352</v>
       </c>
-      <c r="AD34" t="s">
+      <c r="AE34" t="s">
         <v>353</v>
-      </c>
-      <c r="AE34" t="s">
-        <v>354</v>
       </c>
       <c r="AF34" s="1">
         <v>3.89</v>
@@ -7387,19 +7387,19 @@
         <v>28</v>
       </c>
       <c r="AP34" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="AQ34" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="AQ34" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="AR34" s="1" t="s">
         <v>144</v>
       </c>
       <c r="AS34" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AT34" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="AT34" s="1" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="35" spans="1:51" customFormat="1" x14ac:dyDescent="0.25">
@@ -7431,22 +7431,22 @@
         <v>0.81</v>
       </c>
       <c r="J35" t="s">
-        <v>507</v>
+        <v>453</v>
       </c>
       <c r="K35" t="s">
-        <v>508</v>
+        <v>454</v>
       </c>
       <c r="L35" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="M35" t="s">
-        <v>510</v>
+        <v>455</v>
       </c>
       <c r="N35">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="O35">
-        <v>-6.37</v>
+        <v>-11.44</v>
       </c>
       <c r="P35">
         <v>8</v>
@@ -7485,16 +7485,16 @@
         <v>154.80000000000001</v>
       </c>
       <c r="AB35" t="s">
+        <v>354</v>
+      </c>
+      <c r="AC35" t="s">
         <v>355</v>
       </c>
-      <c r="AC35" t="s">
+      <c r="AD35" t="s">
         <v>356</v>
       </c>
-      <c r="AD35" t="s">
+      <c r="AE35" t="s">
         <v>357</v>
-      </c>
-      <c r="AE35" t="s">
-        <v>358</v>
       </c>
       <c r="AF35" s="1">
         <v>9.75</v>
@@ -7571,16 +7571,16 @@
         <v>1.81</v>
       </c>
       <c r="J36" t="s">
-        <v>511</v>
+        <v>456</v>
       </c>
       <c r="K36" t="s">
-        <v>512</v>
+        <v>457</v>
       </c>
       <c r="L36" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="M36" t="s">
-        <v>514</v>
+        <v>458</v>
       </c>
       <c r="N36">
         <v>0.62</v>
@@ -7625,16 +7625,16 @@
         <v>87.45</v>
       </c>
       <c r="AB36" t="s">
+        <v>358</v>
+      </c>
+      <c r="AC36" t="s">
         <v>359</v>
       </c>
-      <c r="AC36" t="s">
+      <c r="AD36" t="s">
         <v>360</v>
       </c>
-      <c r="AD36" t="s">
+      <c r="AE36" t="s">
         <v>361</v>
-      </c>
-      <c r="AE36" t="s">
-        <v>362</v>
       </c>
       <c r="AF36" s="1">
         <v>30.03</v>
@@ -7711,16 +7711,16 @@
         <v>2.0299999999999998</v>
       </c>
       <c r="J37" t="s">
-        <v>515</v>
+        <v>459</v>
       </c>
       <c r="K37" t="s">
-        <v>516</v>
+        <v>460</v>
       </c>
       <c r="L37" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="M37" t="s">
-        <v>518</v>
+        <v>461</v>
       </c>
       <c r="N37">
         <v>1.23</v>
@@ -7765,16 +7765,16 @@
         <v>87.23</v>
       </c>
       <c r="AB37" t="s">
+        <v>362</v>
+      </c>
+      <c r="AC37" t="s">
         <v>363</v>
       </c>
-      <c r="AC37" t="s">
+      <c r="AD37" t="s">
         <v>364</v>
       </c>
-      <c r="AD37" t="s">
+      <c r="AE37" t="s">
         <v>365</v>
-      </c>
-      <c r="AE37" t="s">
-        <v>366</v>
       </c>
       <c r="AF37" s="1">
         <v>3.26</v>
@@ -7851,22 +7851,22 @@
         <v>1.58</v>
       </c>
       <c r="J38" t="s">
-        <v>519</v>
-      </c>
-      <c r="K38" t="s">
-        <v>520</v>
+        <v>462</v>
+      </c>
+      <c r="K38" s="8" t="s">
+        <v>463</v>
       </c>
       <c r="L38" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="M38" t="s">
-        <v>522</v>
+        <v>464</v>
       </c>
       <c r="N38">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="O38">
-        <v>8.8000000000000007</v>
+        <v>3.89</v>
       </c>
       <c r="P38">
         <v>9</v>
@@ -7905,16 +7905,16 @@
         <v>107.1</v>
       </c>
       <c r="AB38" t="s">
+        <v>366</v>
+      </c>
+      <c r="AC38" t="s">
         <v>367</v>
       </c>
-      <c r="AC38" t="s">
+      <c r="AD38" t="s">
         <v>368</v>
       </c>
-      <c r="AD38" t="s">
+      <c r="AE38" t="s">
         <v>369</v>
-      </c>
-      <c r="AE38" t="s">
-        <v>370</v>
       </c>
       <c r="AF38" s="1">
         <v>26.62</v>
@@ -7991,16 +7991,16 @@
         <v>0.99</v>
       </c>
       <c r="J39" t="s">
-        <v>523</v>
+        <v>465</v>
       </c>
       <c r="K39" t="s">
+        <v>466</v>
+      </c>
+      <c r="L39" t="s">
         <v>524</v>
       </c>
-      <c r="L39" t="s">
-        <v>525</v>
-      </c>
       <c r="M39" t="s">
-        <v>526</v>
+        <v>467</v>
       </c>
       <c r="N39">
         <v>1.27</v>
@@ -8045,16 +8045,16 @@
         <v>67.209999999999994</v>
       </c>
       <c r="AB39" t="s">
+        <v>370</v>
+      </c>
+      <c r="AC39" t="s">
         <v>371</v>
       </c>
-      <c r="AC39" t="s">
+      <c r="AD39" t="s">
         <v>372</v>
       </c>
-      <c r="AD39" t="s">
+      <c r="AE39" t="s">
         <v>373</v>
-      </c>
-      <c r="AE39" t="s">
-        <v>374</v>
       </c>
       <c r="AF39" s="1">
         <v>15.64</v>
@@ -8112,6 +8112,17 @@
     <sortCondition ref="A39"/>
   </sortState>
   <mergeCells count="27">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="AF1:AF2"/>
+    <mergeCell ref="AG1:AG2"/>
+    <mergeCell ref="AH1:AH2"/>
+    <mergeCell ref="AI1:AI2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="AE1:AE2"/>
+    <mergeCell ref="AD1:AD2"/>
+    <mergeCell ref="AC1:AC2"/>
+    <mergeCell ref="AB1:AB2"/>
     <mergeCell ref="AP1:AT1"/>
     <mergeCell ref="AJ1:AJ2"/>
     <mergeCell ref="B1:B2"/>
@@ -8128,17 +8139,6 @@
     <mergeCell ref="AM1:AM2"/>
     <mergeCell ref="AN1:AN2"/>
     <mergeCell ref="AO1:AO2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="AF1:AF2"/>
-    <mergeCell ref="AG1:AG2"/>
-    <mergeCell ref="AH1:AH2"/>
-    <mergeCell ref="AI1:AI2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="AE1:AE2"/>
-    <mergeCell ref="AD1:AD2"/>
-    <mergeCell ref="AC1:AC2"/>
-    <mergeCell ref="AB1:AB2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="AF26:AF28">

--- a/Data/彙整清單_整理版.xlsx
+++ b/Data/彙整清單_整理版.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\svnbox\Python\Stock\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E019A53-2CA5-4DD5-9B82-7F1F24FE317E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F026DD3A-7686-48E1-BEE5-E764C64EFBB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D923A086-913E-4840-96DC-7378B4FF8169}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="532">
   <si>
     <t>公司名稱</t>
   </si>
@@ -1227,445 +1227,460 @@
     <t>20.0  /  19.0  /  19.0  /  20.0  /  22.0</t>
   </si>
   <si>
-    <t xml:space="preserve">    61.5 /    60.92 /    60.07 /    58.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1399.0 /   1641.0 /  1632.95 /  1549.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    69.8 /    69.16 /    68.78 /    68.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    97.6 /   125.56 /   123.84 /   186.09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    19.5 /    19.76 /    19.92 /    19.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3327.0 /   2624.8 /  2895.35 /  3354.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    29.1 /    29.93 /    30.82 /    32.66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  4252.0 /  11601.2 /  5964.45 /   7368.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   33.75 /    34.17 /    34.27 /    35.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2129.0 /   5650.6 /   3721.5 /  7044.38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    36.1 /    36.45 /    36.44 /    37.86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3400.0 /  15692.6 /  6539.15 / 10371.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    21.3 /    21.19 /    21.24 /    21.92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1316.0 /   2909.8 /  2753.45 /  3731.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    52.4 /    53.36 /    55.84 /    61.39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   584.0 /   1924.8 /   1218.9 /   950.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   15.55 /    15.66 /    15.44 /    15.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   378.0 /    929.6 /    720.1 /    892.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    30.2 /    30.09 /    29.78 /    29.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   633.0 /    602.4 /    436.8 /   570.72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   20.95 /    21.16 /    21.27 /    22.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    82.0 /     69.3 /    86.63 /   400.41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   30.65 /    31.13 /    31.56 /    31.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   720.0 /    391.0 /   366.85 /   712.62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    32.8 /    32.57 /    34.51 /    34.47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2703.0 /   1738.4 /   1801.0 /  4029.73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    24.9 /    24.83 /    24.28 /    24.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 12779.0 /  12917.0 / 12510.25 /  13522.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    67.6 /    66.76 /    66.15 /    60.41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  6527.0 /   5842.8 / 10785.05 /  7511.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   30.75 /    30.81 /     30.3 /    30.65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2948.0 /   6175.2 /   4911.6 /  7285.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    88.6 /    87.16 /    83.53 /    81.58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3803.0 /   3861.8 /   2492.4 /  1935.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    46.3 /    46.67 /    46.22 /    45.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   631.0 /    773.8 /  1298.45 /  1301.48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    33.2 /    34.64 /    30.54 /    27.69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  4521.0 /   6967.0 /   8757.2 /  3532.43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   161.0 /    164.4 /   166.52 /   164.87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1869.0 /   1803.6 /   2464.5 /  3010.43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    50.0 /     50.9 /    50.85 /    49.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   320.0 /    372.8 /    499.2 /   489.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    36.8 /    36.91 /    37.47 /    38.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   939.0 /   1451.0 /   1336.6 /  1632.77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    51.3 /    50.23 /    49.53 /    49.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   353.0 /    215.6 /   134.55 /   132.73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    80.0 /    77.58 /    75.76 /    74.74</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 41020.0 /  35206.0 /  23084.0 / 21691.65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.33 /     8.63 /    10.25 /    16.09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    54.8 /     55.0 /     54.7 /    53.96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1422.0 /   1087.4 /   1085.6 /    959.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.27 /     0.29 /     0.46 /     0.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    33.6 /    33.49 /    33.93 /    31.53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   498.0 /    953.4 /   1842.3 /  1469.58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.79 /     1.74 /     1.48 /     1.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    31.0 /    31.14 /    31.41 /    29.78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2745.0 /   4895.4 / 11921.75 / 11581.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    10.7 /     9.89 /     8.28 /      9.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   124.5 /    123.5 /   123.15 /   120.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   676.0 /    530.2 /   726.75 /    924.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.72 /     1.71 /     1.12 /      1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   33.55 /    32.97 /    32.47 /    32.43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1160.0 /   1708.4 /   956.15 /  1012.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.16 /     0.16 /      0.2 /     0.93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    28.6 /    28.82 /    29.01 /    29.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   506.0 /    564.8 /   423.05 /    591.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.33 /     0.23 /     0.31 /     0.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    24.5 /    24.38 /    24.18 /     23.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1550.0 /   2003.2 /   1164.4 /  1999.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.65 /     0.94 /      0.8 /     0.56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    53.6 /    52.46 /    51.68 /    51.31</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10605.0 /   6008.0 /   4962.1 /  4001.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.69 /     0.42 /     0.35 /     0.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    33.4 /    33.76 /    34.12 /    31.99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3422.0 /   5484.8 /   9432.2 / 11712.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.89 /     0.85 /     0.91 /     0.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    57.8 /    58.24 /    58.33 /    59.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1578.0 /   2666.8 /  2308.15 /   3533.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.51 /     0.97 /     0.96 /      2.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    50.0 /    49.59 /    48.78 /    45.92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2652.0 /   3356.4 /  5379.55 /  4404.73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.46 /     1.45 /     0.99 /     0.66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    49.7 /    47.92 /    47.76 /    46.78</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 21194.0 /   8169.6 /   6669.4 /  6839.52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.97 /     3.85 /     4.47 /     4.86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    48.0 /    48.12 /    48.04 /    47.56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   604.0 /    919.2 /   945.95 /   958.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.19 /     0.22 /     0.19 /     0.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    12.2 /    12.16 /    12.04 /    12.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.44 /     1.41 /     1.17 /     1.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.82 /     1.83 /     1.84 /     1.92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     0.0 /      0.0 /      0.0 /     0.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    14.0 /     14.1 /    13.98 /    13.49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.35 /      0.6 /     0.72 /      0.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    36.8 /    37.12 /    38.03 /    39.69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.35 /     0.96 /     0.61 /     1.96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    10.1 /    10.36 /    10.79 /    13.52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.51 /     0.94 /     0.84 /     1.48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8.94 /     9.04 /     9.33 /    10.47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.28 /     1.19 /     1.11 /     2.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9.09 /     9.09 /      9.0 /     9.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     0.8 /      0.8 /     0.93 /     0.99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7.33 /     7.46 /     7.67 /     8.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    11.5 /    11.71 /     6.86 /     3.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.84 /     2.65 /     2.34 /     2.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     0.1 /     0.11 /     0.09 /     0.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.41 /     1.42 /     1.36 /     1.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.25 /     0.24 /      0.2 /     1.53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     3.0 /     3.09 /     3.25 /     3.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.55 /     0.53 /     0.43 /     0.69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.33 /      1.3 /     1.62 /     1.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5.17 /     5.57 /     5.47 /     5.73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    46.0 /     46.0 /    45.72 /    46.73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.37 /     1.97 /      1.5 /      2.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    32.8 /     32.8 /     33.3 /    34.46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7.88 /     8.68 /     8.04 /     5.65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    20.0 /     20.0 /    19.94 /    21.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.15 /     1.07 /     1.12 /      1.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    34.7 /    34.48 /    33.91 /    33.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4.54 /     3.52 /     1.08 /     0.91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.81 /     0.86 /     0.95 /     1.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.16 /     0.13 /      0.1 /     0.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.64 /     1.39 /     1.77 /     2.49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    37.8 /    37.92 /    24.04 /    15.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    21.7 /    21.82 /    22.01 /    22.09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    15.0 /    18.26 /    19.59 /    22.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    10.3 /    10.46 /    10.68 /    11.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.76 /     0.75 /     0.66 /     0.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    20.5 /    20.52 /    20.84 /    21.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.65 /     0.67 /      0.7 /     0.58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.72 /     3.66 /     3.69 /     3.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    22.2 /    22.04 /    21.91 /    22.48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    30.6 /    30.74 /    30.91 /    31.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8.28 /     8.38 /     8.62 /     7.82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    10.8 /    10.94 /    11.21 /    10.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    42.4 /    42.38 /    42.31 /    41.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6.17 /     6.09 /     6.21 /     6.83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.96 /     4.07 /     4.22 /     4.94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5.78 /      5.8 /      5.8 /     6.58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    26.9 /    26.86 /    26.72 /    26.76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    12.2 /    12.34 /     11.9 /    11.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    22.6 /    22.96 /     23.7 /    25.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    24.1 /    24.24 /    23.68 /    22.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    47.4 /    47.06 /    46.89 /    48.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    21.2 /    21.38 /    20.97 /    20.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    10.5 /    10.44 /    10.28 /    10.31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.05 /     0.99 /     1.02 /     1.55</t>
+    <t>👍    62.3 /     61.2 /     60.3 /    58.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2346.0 /   1840.4 /   1724.6 /  1548.77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    12.2 /    12.18 /    12.05 /    12.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.29 /      1.4 /     1.17 /     1.21</t>
+  </si>
+  <si>
+    <t>👍    69.8 /    69.46 /    68.87 /    68.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   165.0 /   131.76 /   127.38 /    185.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.81 /     1.82 /     1.84 /     1.92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     0.0 /      0.0 /      0.0 /     0.01</t>
+  </si>
+  <si>
+    <t>🏆2.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    19.7 /     19.7 /    19.92 /    19.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1421.0 /   2653.0 /  2862.85 /   3345.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    14.0 /    14.06 /     14.0 /    13.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.37 /     0.49 /     0.72 /      0.5</t>
+  </si>
+  <si>
+    <t>🏆3.8</t>
+  </si>
+  <si>
+    <t>👎   29.35 /    29.75 /    30.73 /    32.53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2980.0 /  10765.6 /  5998.95 /  7279.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    36.8 /    36.98 /    37.93 /    39.61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.46 /     1.19 /     0.65 /     1.87</t>
+  </si>
+  <si>
+    <t>👎    34.0 /    33.97 /     34.3 /    35.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2214.0 /   5413.0 /   3709.3 /  6805.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    10.0 /    10.18 /    10.74 /    13.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     0.5 /     0.88 /     0.83 /     1.43</t>
+  </si>
+  <si>
+    <t>👎   36.25 /    36.56 /    36.44 /    37.76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3627.0 /  15833.4 /  6608.85 /  10056.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    8.87 /     9.07 /     9.29 /    10.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1.2 /     1.25 /     1.11 /     2.06</t>
+  </si>
+  <si>
+    <t>👍   21.55 /    21.28 /    21.27 /    21.88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2933.0 /   3005.0 /   2763.7 /  3720.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    9.18 /     9.11 /     9.02 /     9.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.82 /      0.8 /     0.92 /     0.98</t>
+  </si>
+  <si>
+    <t>🏆20.94</t>
+  </si>
+  <si>
+    <t>👍    15.7 /    15.63 /    15.47 /    15.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   620.0 /    602.4 /   744.35 /    792.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.08 /     2.75 /     2.42 /     2.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     0.1 /      0.1 /      0.1 /     0.08</t>
+  </si>
+  <si>
+    <t>🏆26.12</t>
+  </si>
+  <si>
+    <t>👎    52.5 /    52.68 /    55.68 /    61.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   360.0 /   1804.2 /  1170.15 /   952.83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    7.33 /     7.37 /     7.66 /     8.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    11.4 /    12.46 /     7.26 /     3.19</t>
+  </si>
+  <si>
+    <t>👍   30.75 /    30.22 /    29.84 /    29.69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1910.0 /    822.2 /   520.85 /   584.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    10.6 /    10.48 /     10.3 /    10.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.84 /     0.96 /     1.01 /     1.52</t>
+  </si>
+  <si>
+    <t>👎   21.15 /    21.13 /    21.26 /    22.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    49.0 /    67.28 /    87.23 /   390.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.41 /     1.42 /     1.37 /      1.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.25 /     0.24 /      0.2 /     1.46</t>
+  </si>
+  <si>
+    <t>👎   30.95 /    31.05 /    31.53 /    31.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   261.0 /    409.6 /    369.2 /   707.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.02 /     3.06 /     3.24 /     3.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.55 /     0.54 /     0.44 /     0.67</t>
+  </si>
+  <si>
+    <t>👎    33.2 /    32.59 /     34.4 /    34.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3429.0 /   2136.2 /   1857.6 /   4054.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1.2 /     1.28 /     1.61 /     1.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5.32 /     5.46 /     5.49 /     5.75</t>
+  </si>
+  <si>
+    <t>👍    25.0 /     24.9 /    24.34 /    24.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11268.0 /  12817.8 / 12446.75 / 13531.77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    46.1 /    46.02 /    45.74 /     46.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.44 /     2.13 /     1.56 /     2.86</t>
+  </si>
+  <si>
+    <t>🏆32.04</t>
+  </si>
+  <si>
+    <t>👍    68.0 /     67.1 /     66.3 /    60.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3873.0 /   5220.2 /  10395.6 /  7538.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    32.8 /     32.8 /    33.18 /    34.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    8.51 /     8.68 /     8.29 /      5.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   30.65 /    30.77 /    30.35 /    30.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3081.0 /   4825.8 /  4808.15 /  7205.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    20.0 /     20.0 /    19.94 /    21.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.22 /     1.12 /     1.11 /     1.48</t>
+  </si>
+  <si>
+    <t>👍    88.0 /    87.76 /     83.9 /    81.73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3122.0 /   4017.0 /  2605.85 /  1954.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    34.7 /     34.6 /    33.98 /    33.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.77 /     4.19 /     1.31 /     0.98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   45.95 /    46.46 /    46.25 /    45.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   360.0 /    663.4 /   1260.9 /  1285.53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.73 /     0.83 /     0.89 /     1.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.16 /     0.14 /     0.11 /     0.91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   32.85 /    33.78 /    30.96 /     27.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1824.0 /   5168.2 /  8831.05 /  3537.63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.62 /     1.46 /     1.75 /     2.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    35.1 /    37.56 /    25.44 /    15.98</t>
+  </si>
+  <si>
+    <t>👎   158.5 /    162.5 /   166.52 /    164.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1463.0 /   1678.4 /  2429.45 /   2992.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    21.6 /    21.74 /    22.02 /    22.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    14.6 /    17.42 /    19.28 /     21.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    50.8 /    50.62 /    50.88 /    49.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1075.0 /    533.8 /   538.85 /   492.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    10.1 /    10.36 /    10.64 /    11.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.69 /     0.73 /     0.66 /      0.5</t>
+  </si>
+  <si>
+    <t>👎    36.7 /    36.79 /     37.4 /    38.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   852.0 /   1346.6 /  1274.55 /  1628.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    20.5 /     20.5 /     20.8 /    21.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.65 /     0.66 /      0.7 /     0.57</t>
+  </si>
+  <si>
+    <t>👍    51.5 /     50.6 /    49.66 /     49.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   189.0 /    227.0 /   140.08 /   135.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.73 /     3.68 /     3.69 /     3.67</t>
+  </si>
+  <si>
+    <t>👍    81.6 /    78.72 /    76.11 /    74.86</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 54513.0 /  42788.6 /  25097.1 / 22320.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    22.3 /    22.12 /    21.93 /    22.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.09 /     6.95 /     9.81 /    15.59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    54.7 /    54.84 /    54.71 /    54.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   714.0 /   1044.2 /   1088.8 /   965.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    30.5 /    30.68 /    30.88 /     31.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.27 /     0.28 /     0.44 /     0.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    33.6 /    33.43 /    33.97 /    31.61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   464.0 /    892.0 /   1712.7 /  1473.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    8.24 /     8.32 /     8.63 /     7.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.81 /     1.76 /     1.56 /     1.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    31.1 /    30.99 /     31.5 /    29.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2394.0 /   4311.0 / 11729.25 /  11548.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    10.9 /     10.9 /    11.35 /     10.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    10.7 /    10.59 /      8.4 /     9.61</t>
+  </si>
+  <si>
+    <t>👍   124.5 /    123.9 /   123.28 /   120.73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1911.0 /    850.0 /   788.65 /   936.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    42.4 /    42.38 /    42.34 /     41.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1.7 /      1.7 /     1.17 /     1.09</t>
+  </si>
+  <si>
+    <t>👍    33.6 /    33.23 /    32.56 /    32.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   959.0 /   1758.8 /    986.3 /   1009.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    6.18 /     6.12 /     6.21 /     6.83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.14 /     0.16 /     0.18 /     0.91</t>
+  </si>
+  <si>
+    <t>👎   28.65 /    28.75 /    29.01 /    29.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   335.0 /    561.4 /    429.0 /   590.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.94 /     4.03 /     4.19 /     4.91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.33 /     0.26 /     0.31 /     0.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   24.35 /    24.47 /     24.2 /    23.76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   712.0 /   2052.8 /   1149.0 /   2004.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5.72 /     5.78 /     5.79 /     6.59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.66 /     0.79 /     0.78 /     0.57</t>
+  </si>
+  <si>
+    <t>👍    53.9 /    52.84 /    51.85 /    51.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  5107.0 /   6286.0 /  5102.75 /  4018.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    26.8 /    26.84 /    26.74 /    26.76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     0.6 /     0.49 /     0.37 /     0.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    33.5 /    33.57 /    34.11 /    32.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3379.0 /   4906.2 /   9190.5 / 11751.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    12.2 /    12.28 /    11.96 /    11.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.89 /     0.87 /     0.93 /     0.76</t>
+  </si>
+  <si>
+    <t>👍    59.0 /    58.18 /    58.43 /    59.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  5501.0 /   3184.8 /  2456.85 /  3573.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    23.1 /     22.9 /    23.64 /     25.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.81 /     1.14 /      1.0 /     2.15</t>
+  </si>
+  <si>
+    <t>👍    49.7 /    49.58 /    48.92 /    46.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4115.0 /   3494.2 /  5437.75 /  4444.92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    23.7 /     24.1 /    23.73 /    22.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.36 /     1.42 /     1.03 /     0.67</t>
+  </si>
+  <si>
+    <t>👍    51.3 /    48.52 /    48.06 /    46.88</t>
+  </si>
+  <si>
+    <t>🏆 54104.0 /  17976.8 /   9180.7 /  7678.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    47.3 /     47.1 /    46.94 /    48.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.86 /     4.05 /     4.28 /     4.88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   47.95 /     48.0 /    48.08 /    47.59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   477.0 /    845.4 /    941.6 /   950.78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    21.2 /    21.32 /    21.01 /    20.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     0.2 /     0.21 /     0.19 /     0.21</t>
   </si>
 </sst>
 </file>
@@ -2323,13 +2338,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2690,10 +2705,10 @@
   <dimension ref="A1:AY39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O9" sqref="N9:O9"/>
+      <selection pane="bottomRight" activeCell="O16" sqref="J16:O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2727,7 +2742,7 @@
       <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="13" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="10" t="s">
@@ -2757,10 +2772,10 @@
       <c r="M1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="11" t="s">
         <v>230</v>
       </c>
       <c r="P1" s="10" t="s">
@@ -2777,16 +2792,16 @@
       <c r="Y1" s="10"/>
       <c r="Z1" s="3"/>
       <c r="AA1" s="3"/>
-      <c r="AB1" s="13" t="s">
+      <c r="AB1" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="AC1" s="13" t="s">
+      <c r="AC1" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="AD1" s="13" t="s">
+      <c r="AD1" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="AE1" s="13" t="s">
+      <c r="AE1" s="12" t="s">
         <v>176</v>
       </c>
       <c r="AF1" s="10" t="s">
@@ -2831,7 +2846,7 @@
       <c r="A2" s="9"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
-      <c r="D2" s="11"/>
+      <c r="D2" s="13"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -2849,8 +2864,8 @@
       <c r="M2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
       <c r="P2" s="5" t="s">
         <v>41</v>
       </c>
@@ -2887,10 +2902,10 @@
       <c r="AA2" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="AB2" s="13"/>
-      <c r="AC2" s="13"/>
-      <c r="AD2" s="13"/>
-      <c r="AE2" s="13"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="12"/>
       <c r="AF2" s="10"/>
       <c r="AG2" s="9"/>
       <c r="AH2" s="10"/>
@@ -2939,13 +2954,13 @@
         <v>19760719</v>
       </c>
       <c r="G3">
-        <v>4.3899999999999997</v>
+        <v>4.33</v>
       </c>
       <c r="H3">
-        <v>17.47</v>
+        <v>17.7</v>
       </c>
       <c r="I3">
-        <v>2.2200000000000002</v>
+        <v>2.25</v>
       </c>
       <c r="J3" t="s">
         <v>380</v>
@@ -2954,16 +2969,16 @@
         <v>381</v>
       </c>
       <c r="L3" t="s">
-        <v>468</v>
+        <v>382</v>
       </c>
       <c r="M3" t="s">
-        <v>469</v>
+        <v>383</v>
       </c>
       <c r="N3">
-        <v>0.53</v>
+        <v>0.89</v>
       </c>
       <c r="O3">
-        <v>-17.670000000000002</v>
+        <v>-9.42</v>
       </c>
       <c r="P3">
         <v>11</v>
@@ -3088,22 +3103,22 @@
         <v>3.28</v>
       </c>
       <c r="J4" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K4" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="L4" t="s">
-        <v>470</v>
+        <v>386</v>
       </c>
       <c r="M4" t="s">
-        <v>471</v>
-      </c>
-      <c r="N4">
-        <v>1.1000000000000001</v>
+        <v>387</v>
+      </c>
+      <c r="N4" t="s">
+        <v>388</v>
       </c>
       <c r="O4">
-        <v>0.13</v>
+        <v>8.44</v>
       </c>
       <c r="P4">
         <v>11</v>
@@ -3219,31 +3234,31 @@
         <v>19730831</v>
       </c>
       <c r="G5">
-        <v>5.64</v>
+        <v>5.58</v>
       </c>
       <c r="H5">
-        <v>8.59</v>
+        <v>8.68</v>
       </c>
       <c r="I5">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="J5" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="K5" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="L5" t="s">
-        <v>472</v>
+        <v>391</v>
       </c>
       <c r="M5" t="s">
-        <v>473</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
+        <v>392</v>
+      </c>
+      <c r="N5" t="s">
+        <v>393</v>
       </c>
       <c r="O5">
-        <v>-9.5500000000000007</v>
+        <v>17.45</v>
       </c>
       <c r="P5">
         <v>9</v>
@@ -3359,31 +3374,31 @@
         <v>19720520</v>
       </c>
       <c r="G6">
-        <v>3.44</v>
+        <v>3.41</v>
       </c>
       <c r="H6">
-        <v>6.37</v>
+        <v>6.42</v>
       </c>
       <c r="I6">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="J6" t="s">
-        <v>386</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>387</v>
+        <v>394</v>
+      </c>
+      <c r="K6" t="s">
+        <v>395</v>
       </c>
       <c r="L6" t="s">
-        <v>474</v>
+        <v>396</v>
       </c>
       <c r="M6" t="s">
-        <v>475</v>
+        <v>397</v>
       </c>
       <c r="N6">
-        <v>0.84</v>
+        <v>0.73</v>
       </c>
       <c r="O6">
-        <v>-14.1</v>
+        <v>-4.3</v>
       </c>
       <c r="P6">
         <v>10</v>
@@ -3499,31 +3514,31 @@
         <v>19730305</v>
       </c>
       <c r="G7">
-        <v>6.81</v>
+        <v>6.76</v>
       </c>
       <c r="H7">
-        <v>6.79</v>
+        <v>6.84</v>
       </c>
       <c r="I7">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="J7" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="K7" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="L7" t="s">
-        <v>476</v>
+        <v>400</v>
       </c>
       <c r="M7" t="s">
-        <v>477</v>
+        <v>401</v>
       </c>
       <c r="N7">
-        <v>0.28000000000000003</v>
+        <v>0.9</v>
       </c>
       <c r="O7">
-        <v>-15.83</v>
+        <v>6.59</v>
       </c>
       <c r="P7">
         <v>7</v>
@@ -3639,31 +3654,31 @@
         <v>19860620</v>
       </c>
       <c r="G8">
-        <v>3.88</v>
+        <v>3.86</v>
       </c>
       <c r="H8">
-        <v>7.93</v>
+        <v>7.97</v>
       </c>
       <c r="I8">
         <v>1.42</v>
       </c>
       <c r="J8" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="K8" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="L8" t="s">
-        <v>478</v>
+        <v>404</v>
       </c>
       <c r="M8" t="s">
-        <v>479</v>
+        <v>405</v>
       </c>
       <c r="N8">
-        <v>0.73</v>
+        <v>0.52</v>
       </c>
       <c r="O8">
-        <v>-7.44</v>
+        <v>-5.54</v>
       </c>
       <c r="P8">
         <v>11</v>
@@ -3779,31 +3794,31 @@
         <v>19890327</v>
       </c>
       <c r="G9">
-        <v>4.6900000000000004</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="H9">
-        <v>6.49</v>
+        <v>6.57</v>
       </c>
       <c r="I9">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="J9" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="K9" t="s">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="L9" t="s">
-        <v>480</v>
+        <v>408</v>
       </c>
       <c r="M9" t="s">
-        <v>481</v>
-      </c>
-      <c r="N9" s="8">
-        <v>1.26</v>
-      </c>
-      <c r="O9" s="8">
-        <v>13.98</v>
+        <v>409</v>
+      </c>
+      <c r="N9">
+        <v>1.98</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>410</v>
       </c>
       <c r="P9">
         <v>13</v>
@@ -3919,31 +3934,31 @@
         <v>20001031</v>
       </c>
       <c r="G10">
-        <v>2.57</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="H10">
-        <v>11.03</v>
+        <v>11.13</v>
       </c>
       <c r="I10">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
       <c r="K10" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="L10" t="s">
-        <v>484</v>
+        <v>413</v>
       </c>
       <c r="M10" t="s">
-        <v>485</v>
+        <v>414</v>
       </c>
       <c r="N10">
-        <v>0.36</v>
-      </c>
-      <c r="O10">
-        <v>-9.52</v>
+        <v>1.51</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>415</v>
       </c>
       <c r="P10">
         <v>13</v>
@@ -4059,31 +4074,31 @@
         <v>19950204</v>
       </c>
       <c r="G11">
-        <v>6.87</v>
+        <v>6.86</v>
       </c>
       <c r="H11">
-        <v>8.25</v>
+        <v>8.27</v>
       </c>
       <c r="I11">
         <v>2.4500000000000002</v>
       </c>
       <c r="J11" t="s">
-        <v>394</v>
+        <v>416</v>
       </c>
       <c r="K11" t="s">
-        <v>395</v>
+        <v>417</v>
       </c>
       <c r="L11" t="s">
-        <v>482</v>
+        <v>418</v>
       </c>
       <c r="M11" t="s">
-        <v>483</v>
+        <v>419</v>
       </c>
       <c r="N11">
-        <v>0.87</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="O11">
-        <v>-6.67</v>
+        <v>-6.36</v>
       </c>
       <c r="P11">
         <v>12</v>
@@ -4199,31 +4214,31 @@
         <v>19701214</v>
       </c>
       <c r="G12">
-        <v>8.2799999999999994</v>
+        <v>8.1300000000000008</v>
       </c>
       <c r="H12">
-        <v>6.52</v>
+        <v>6.64</v>
       </c>
       <c r="I12">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="J12" t="s">
-        <v>398</v>
+        <v>420</v>
       </c>
       <c r="K12" t="s">
-        <v>399</v>
+        <v>421</v>
       </c>
       <c r="L12" t="s">
-        <v>525</v>
+        <v>422</v>
       </c>
       <c r="M12" t="s">
-        <v>526</v>
-      </c>
-      <c r="N12" s="8">
-        <v>1.32</v>
-      </c>
-      <c r="O12" s="8">
-        <v>24.97</v>
+        <v>423</v>
+      </c>
+      <c r="N12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O12">
+        <v>5.03</v>
       </c>
       <c r="P12">
         <v>7</v>
@@ -4339,31 +4354,31 @@
         <v>20160509</v>
       </c>
       <c r="G13">
-        <v>4.7699999999999996</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="H13">
-        <v>8.48</v>
+        <v>8.56</v>
       </c>
       <c r="I13">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="J13" t="s">
-        <v>400</v>
+        <v>424</v>
       </c>
       <c r="K13" t="s">
-        <v>401</v>
+        <v>425</v>
       </c>
       <c r="L13" t="s">
-        <v>486</v>
+        <v>426</v>
       </c>
       <c r="M13" t="s">
-        <v>487</v>
+        <v>427</v>
       </c>
       <c r="N13">
-        <v>0.83</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="O13">
-        <v>-9.75</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>12</v>
@@ -4479,31 +4494,31 @@
         <v>19930427</v>
       </c>
       <c r="G14">
-        <v>5.55</v>
+        <v>5.49</v>
       </c>
       <c r="H14">
-        <v>8.61</v>
+        <v>8.69</v>
       </c>
       <c r="I14">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="J14" t="s">
-        <v>402</v>
+        <v>428</v>
       </c>
       <c r="K14" t="s">
-        <v>403</v>
+        <v>429</v>
       </c>
       <c r="L14" t="s">
-        <v>488</v>
+        <v>430</v>
       </c>
       <c r="M14" t="s">
-        <v>489</v>
+        <v>431</v>
       </c>
       <c r="N14">
-        <v>0.34</v>
+        <v>0.67</v>
       </c>
       <c r="O14">
-        <v>-21.66</v>
+        <v>-13.77</v>
       </c>
       <c r="P14">
         <v>12</v>
@@ -4619,31 +4634,31 @@
         <v>20160322</v>
       </c>
       <c r="G15">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="H15">
-        <v>8.52</v>
+        <v>8.6199999999999992</v>
       </c>
       <c r="I15">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="J15" t="s">
-        <v>404</v>
+        <v>432</v>
       </c>
       <c r="K15" t="s">
-        <v>405</v>
+        <v>433</v>
       </c>
       <c r="L15" t="s">
-        <v>490</v>
+        <v>434</v>
       </c>
       <c r="M15" t="s">
-        <v>491</v>
+        <v>435</v>
       </c>
       <c r="N15">
-        <v>0.67</v>
+        <v>0.95</v>
       </c>
       <c r="O15">
-        <v>-0.78</v>
+        <v>-2.25</v>
       </c>
       <c r="P15">
         <v>10</v>
@@ -4759,31 +4774,31 @@
         <v>19920218</v>
       </c>
       <c r="G16">
-        <v>6.43</v>
+        <v>6.4</v>
       </c>
       <c r="H16">
-        <v>7.73</v>
+        <v>7.76</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="J16" t="s">
-        <v>406</v>
+        <v>436</v>
       </c>
       <c r="K16" t="s">
-        <v>407</v>
+        <v>437</v>
       </c>
       <c r="L16" t="s">
-        <v>492</v>
+        <v>438</v>
       </c>
       <c r="M16" t="s">
-        <v>493</v>
+        <v>439</v>
       </c>
       <c r="N16">
-        <v>1.38</v>
-      </c>
-      <c r="O16">
-        <v>-2.31</v>
+        <v>0.91</v>
+      </c>
+      <c r="O16" s="8" t="s">
+        <v>440</v>
       </c>
       <c r="P16">
         <v>9</v>
@@ -4899,31 +4914,31 @@
         <v>19951213</v>
       </c>
       <c r="G17">
-        <v>4.88</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="H17">
-        <v>6.75</v>
+        <v>6.79</v>
       </c>
       <c r="I17">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="J17" t="s">
-        <v>408</v>
+        <v>441</v>
       </c>
       <c r="K17" t="s">
-        <v>409</v>
+        <v>442</v>
       </c>
       <c r="L17" t="s">
-        <v>494</v>
+        <v>443</v>
       </c>
       <c r="M17" t="s">
-        <v>495</v>
+        <v>444</v>
       </c>
       <c r="N17">
-        <v>1.63</v>
+        <v>0.95</v>
       </c>
       <c r="O17">
-        <v>-4.2</v>
+        <v>6.38</v>
       </c>
       <c r="P17">
         <v>9</v>
@@ -5039,31 +5054,31 @@
         <v>19960722</v>
       </c>
       <c r="G18">
-        <v>4.88</v>
+        <v>4.8899999999999997</v>
       </c>
       <c r="H18">
-        <v>6.67</v>
+        <v>6.65</v>
       </c>
       <c r="I18">
         <v>1.67</v>
       </c>
       <c r="J18" t="s">
-        <v>410</v>
+        <v>445</v>
       </c>
       <c r="K18" t="s">
-        <v>411</v>
+        <v>446</v>
       </c>
       <c r="L18" t="s">
-        <v>496</v>
+        <v>447</v>
       </c>
       <c r="M18" t="s">
-        <v>497</v>
+        <v>448</v>
       </c>
       <c r="N18">
-        <v>1.35</v>
+        <v>0.42</v>
       </c>
       <c r="O18">
-        <v>10.58</v>
+        <v>-14.8</v>
       </c>
       <c r="P18">
         <v>8</v>
@@ -5179,31 +5194,31 @@
         <v>19990105</v>
       </c>
       <c r="G19">
-        <v>6.21</v>
+        <v>6.25</v>
       </c>
       <c r="H19">
-        <v>10.92</v>
+        <v>10.85</v>
       </c>
       <c r="I19">
-        <v>2.2200000000000002</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="J19" t="s">
-        <v>412</v>
+        <v>449</v>
       </c>
       <c r="K19" t="s">
-        <v>413</v>
+        <v>450</v>
       </c>
       <c r="L19" t="s">
-        <v>498</v>
+        <v>451</v>
       </c>
       <c r="M19" t="s">
-        <v>499</v>
-      </c>
-      <c r="N19" s="8">
-        <v>3.78</v>
-      </c>
-      <c r="O19" s="8">
-        <v>21.65</v>
+        <v>452</v>
+      </c>
+      <c r="N19">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O19">
+        <v>9.0500000000000007</v>
       </c>
       <c r="P19">
         <v>10</v>
@@ -5319,31 +5334,31 @@
         <v>19990125</v>
       </c>
       <c r="G20">
-        <v>4.32</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="H20">
-        <v>7.25</v>
+        <v>7.19</v>
       </c>
       <c r="I20">
         <v>1.1399999999999999</v>
       </c>
       <c r="J20" t="s">
-        <v>414</v>
+        <v>453</v>
       </c>
       <c r="K20" t="s">
-        <v>415</v>
+        <v>454</v>
       </c>
       <c r="L20" t="s">
-        <v>500</v>
+        <v>455</v>
       </c>
       <c r="M20" t="s">
-        <v>501</v>
+        <v>456</v>
       </c>
       <c r="N20">
-        <v>0.82</v>
+        <v>0.45</v>
       </c>
       <c r="O20">
-        <v>-12.04</v>
+        <v>-21.93</v>
       </c>
       <c r="P20">
         <v>10</v>
@@ -5459,31 +5474,31 @@
         <v>20000911</v>
       </c>
       <c r="G21">
-        <v>6.02</v>
+        <v>6.09</v>
       </c>
       <c r="H21">
-        <v>12.3</v>
+        <v>12.17</v>
       </c>
       <c r="I21">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="J21" t="s">
-        <v>416</v>
+        <v>457</v>
       </c>
       <c r="K21" t="s">
-        <v>417</v>
+        <v>458</v>
       </c>
       <c r="L21" t="s">
-        <v>502</v>
+        <v>459</v>
       </c>
       <c r="M21" t="s">
-        <v>503</v>
+        <v>460</v>
       </c>
       <c r="N21">
-        <v>0.64</v>
+        <v>1.2</v>
       </c>
       <c r="O21">
-        <v>-1.27</v>
+        <v>3.84</v>
       </c>
       <c r="P21">
         <v>13</v>
@@ -5599,31 +5614,31 @@
         <v>20010917</v>
       </c>
       <c r="G22">
-        <v>5.59</v>
+        <v>5.68</v>
       </c>
       <c r="H22">
-        <v>9.2200000000000006</v>
+        <v>9.08</v>
       </c>
       <c r="I22">
-        <v>4.82</v>
+        <v>4.75</v>
       </c>
       <c r="J22" t="s">
-        <v>418</v>
+        <v>461</v>
       </c>
       <c r="K22" t="s">
-        <v>419</v>
+        <v>462</v>
       </c>
       <c r="L22" t="s">
-        <v>504</v>
+        <v>463</v>
       </c>
       <c r="M22" t="s">
-        <v>505</v>
+        <v>464</v>
       </c>
       <c r="N22">
-        <v>1.3</v>
+        <v>0.64</v>
       </c>
       <c r="O22">
-        <v>-11.19</v>
+        <v>-24.13</v>
       </c>
       <c r="P22">
         <v>12</v>
@@ -5739,31 +5754,31 @@
         <v>20010917</v>
       </c>
       <c r="G23">
-        <v>5.42</v>
+        <v>5.33</v>
       </c>
       <c r="H23">
-        <v>11.99</v>
+        <v>12.18</v>
       </c>
       <c r="I23">
-        <v>2.92</v>
+        <v>2.97</v>
       </c>
       <c r="J23" t="s">
-        <v>420</v>
+        <v>465</v>
       </c>
       <c r="K23" t="s">
-        <v>421</v>
+        <v>466</v>
       </c>
       <c r="L23" t="s">
-        <v>506</v>
+        <v>467</v>
       </c>
       <c r="M23" t="s">
-        <v>507</v>
+        <v>468</v>
       </c>
       <c r="N23">
-        <v>2.1800000000000002</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="O23">
-        <v>-10.01</v>
+        <v>-6.98</v>
       </c>
       <c r="P23">
         <v>11</v>
@@ -5879,31 +5894,31 @@
         <v>19931027</v>
       </c>
       <c r="G24">
-        <v>9.24</v>
+        <v>9.26</v>
       </c>
       <c r="H24">
-        <v>4.33</v>
+        <v>4.32</v>
       </c>
       <c r="I24">
         <v>1.21</v>
       </c>
       <c r="J24" t="s">
-        <v>422</v>
+        <v>469</v>
       </c>
       <c r="K24" t="s">
-        <v>423</v>
+        <v>470</v>
       </c>
       <c r="L24" t="s">
-        <v>508</v>
+        <v>471</v>
       </c>
       <c r="M24" t="s">
-        <v>509</v>
+        <v>472</v>
       </c>
       <c r="N24">
-        <v>0.52</v>
+        <v>0.84</v>
       </c>
       <c r="O24">
-        <v>-21.72</v>
+        <v>-12.79</v>
       </c>
       <c r="P24">
         <v>7</v>
@@ -6019,31 +6034,31 @@
         <v>20000911</v>
       </c>
       <c r="G25">
-        <v>7.02</v>
+        <v>6.99</v>
       </c>
       <c r="H25">
-        <v>7.3</v>
+        <v>7.33</v>
       </c>
       <c r="I25">
         <v>1.63</v>
       </c>
       <c r="J25" t="s">
-        <v>424</v>
+        <v>473</v>
       </c>
       <c r="K25" t="s">
-        <v>425</v>
+        <v>474</v>
       </c>
       <c r="L25" t="s">
-        <v>510</v>
+        <v>475</v>
       </c>
       <c r="M25" t="s">
         <v>156</v>
       </c>
       <c r="N25">
-        <v>0.94</v>
+        <v>0.54</v>
       </c>
       <c r="O25">
-        <v>10.07</v>
+        <v>11.64</v>
       </c>
       <c r="P25">
         <v>7</v>
@@ -6159,31 +6174,31 @@
         <v>20011219</v>
       </c>
       <c r="G26">
-        <v>3.75</v>
+        <v>3.68</v>
       </c>
       <c r="H26">
-        <v>6.59</v>
+        <v>6.72</v>
       </c>
       <c r="I26">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="J26" t="s">
-        <v>426</v>
+        <v>476</v>
       </c>
       <c r="K26" t="s">
-        <v>427</v>
+        <v>477</v>
       </c>
       <c r="L26" t="s">
-        <v>511</v>
+        <v>478</v>
       </c>
       <c r="M26" t="s">
-        <v>428</v>
+        <v>479</v>
       </c>
       <c r="N26">
-        <v>0.76</v>
+        <v>0.99</v>
       </c>
       <c r="O26">
-        <v>3.26</v>
+        <v>3.25</v>
       </c>
       <c r="P26">
         <v>7</v>
@@ -6299,31 +6314,31 @@
         <v>20020225</v>
       </c>
       <c r="G27">
-        <v>6.55</v>
+        <v>6.56</v>
       </c>
       <c r="H27">
-        <v>7.55</v>
+        <v>7.53</v>
       </c>
       <c r="I27">
         <v>1.9</v>
       </c>
       <c r="J27" t="s">
-        <v>429</v>
+        <v>480</v>
       </c>
       <c r="K27" t="s">
-        <v>430</v>
+        <v>481</v>
       </c>
       <c r="L27" t="s">
-        <v>512</v>
+        <v>482</v>
       </c>
       <c r="M27" t="s">
-        <v>431</v>
+        <v>483</v>
       </c>
       <c r="N27">
-        <v>0.26</v>
+        <v>0.52</v>
       </c>
       <c r="O27">
-        <v>-31.72</v>
+        <v>-20.72</v>
       </c>
       <c r="P27">
         <v>10</v>
@@ -6448,22 +6463,22 @@
         <v>1.41</v>
       </c>
       <c r="J28" t="s">
-        <v>432</v>
+        <v>484</v>
       </c>
       <c r="K28" t="s">
-        <v>433</v>
+        <v>485</v>
       </c>
       <c r="L28" t="s">
-        <v>513</v>
+        <v>486</v>
       </c>
       <c r="M28" t="s">
-        <v>434</v>
-      </c>
-      <c r="N28" s="8">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="O28" s="8">
-        <v>17.12</v>
+        <v>487</v>
+      </c>
+      <c r="N28">
+        <v>1.65</v>
+      </c>
+      <c r="O28">
+        <v>1.08</v>
       </c>
       <c r="P28">
         <v>10</v>
@@ -6579,31 +6594,31 @@
         <v>20020826</v>
       </c>
       <c r="G29">
-        <v>4.29</v>
+        <v>4.28</v>
       </c>
       <c r="H29">
-        <v>8.64</v>
+        <v>8.66</v>
       </c>
       <c r="I29">
         <v>1.7</v>
       </c>
       <c r="J29" t="s">
-        <v>435</v>
+        <v>488</v>
       </c>
       <c r="K29" t="s">
-        <v>436</v>
+        <v>489</v>
       </c>
       <c r="L29" t="s">
-        <v>514</v>
+        <v>490</v>
       </c>
       <c r="M29" t="s">
-        <v>437</v>
+        <v>491</v>
       </c>
       <c r="N29">
-        <v>1.1499999999999999</v>
+        <v>1.6</v>
       </c>
       <c r="O29">
-        <v>-1.02</v>
+        <v>8.94</v>
       </c>
       <c r="P29">
         <v>9</v>
@@ -6731,22 +6746,22 @@
         <v>1.79</v>
       </c>
       <c r="J30" t="s">
-        <v>438</v>
+        <v>492</v>
       </c>
       <c r="K30" t="s">
-        <v>439</v>
+        <v>493</v>
       </c>
       <c r="L30" t="s">
-        <v>515</v>
+        <v>494</v>
       </c>
       <c r="M30" t="s">
-        <v>440</v>
-      </c>
-      <c r="N30" s="8">
-        <v>2.36</v>
-      </c>
-      <c r="O30" s="8">
-        <v>29.29</v>
+        <v>495</v>
+      </c>
+      <c r="N30">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="O30">
+        <v>-7.43</v>
       </c>
       <c r="P30">
         <v>8</v>
@@ -6862,31 +6877,31 @@
         <v>20021001</v>
       </c>
       <c r="G31">
-        <v>8.64</v>
+        <v>8.6300000000000008</v>
       </c>
       <c r="H31">
-        <v>7.82</v>
+        <v>7.83</v>
       </c>
       <c r="I31">
         <v>2.06</v>
       </c>
       <c r="J31" t="s">
-        <v>441</v>
+        <v>496</v>
       </c>
       <c r="K31" t="s">
-        <v>442</v>
+        <v>497</v>
       </c>
       <c r="L31" t="s">
-        <v>516</v>
+        <v>498</v>
       </c>
       <c r="M31" t="s">
-        <v>443</v>
+        <v>499</v>
       </c>
       <c r="N31">
-        <v>1.69</v>
+        <v>0.89</v>
       </c>
       <c r="O31">
-        <v>8.8800000000000008</v>
+        <v>1.2</v>
       </c>
       <c r="P31">
         <v>8</v>
@@ -7002,31 +7017,31 @@
         <v>20081126</v>
       </c>
       <c r="G32">
-        <v>6.99</v>
+        <v>6.98</v>
       </c>
       <c r="H32">
-        <v>8.01</v>
+        <v>8.0299999999999994</v>
       </c>
       <c r="I32">
         <v>1.64</v>
       </c>
       <c r="J32" t="s">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="K32" t="s">
-        <v>445</v>
+        <v>501</v>
       </c>
       <c r="L32" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="M32" t="s">
-        <v>446</v>
+        <v>503</v>
       </c>
       <c r="N32">
-        <v>0.36</v>
+        <v>0.93</v>
       </c>
       <c r="O32">
-        <v>-26.29</v>
+        <v>-14.55</v>
       </c>
       <c r="P32">
         <v>9</v>
@@ -7142,31 +7157,31 @@
         <v>20101229</v>
       </c>
       <c r="G33">
-        <v>4.08</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="H33">
-        <v>7.8</v>
+        <v>7.75</v>
       </c>
       <c r="I33">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="J33" t="s">
-        <v>447</v>
+        <v>504</v>
       </c>
       <c r="K33" t="s">
-        <v>448</v>
+        <v>505</v>
       </c>
       <c r="L33" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="M33" t="s">
-        <v>449</v>
+        <v>507</v>
       </c>
       <c r="N33">
-        <v>1.25</v>
+        <v>0.92</v>
       </c>
       <c r="O33">
-        <v>3.6</v>
+        <v>-10.25</v>
       </c>
       <c r="P33">
         <v>15</v>
@@ -7282,31 +7297,31 @@
         <v>20051109</v>
       </c>
       <c r="G34">
-        <v>5.78</v>
+        <v>5.75</v>
       </c>
       <c r="H34">
-        <v>9.26</v>
+        <v>9.31</v>
       </c>
       <c r="I34">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="J34" t="s">
-        <v>450</v>
-      </c>
-      <c r="K34" s="8" t="s">
-        <v>451</v>
+        <v>508</v>
+      </c>
+      <c r="K34" t="s">
+        <v>509</v>
       </c>
       <c r="L34" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="M34" t="s">
-        <v>452</v>
+        <v>511</v>
       </c>
       <c r="N34">
-        <v>1.29</v>
+        <v>0.92</v>
       </c>
       <c r="O34">
-        <v>4.24</v>
+        <v>10.26</v>
       </c>
       <c r="P34">
         <v>9</v>
@@ -7425,28 +7440,28 @@
         <v>2.99</v>
       </c>
       <c r="H35">
-        <v>3.24</v>
+        <v>3.25</v>
       </c>
       <c r="I35">
         <v>0.81</v>
       </c>
       <c r="J35" t="s">
-        <v>453</v>
+        <v>512</v>
       </c>
       <c r="K35" t="s">
-        <v>454</v>
+        <v>513</v>
       </c>
       <c r="L35" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="M35" t="s">
-        <v>455</v>
+        <v>515</v>
       </c>
       <c r="N35">
-        <v>0.8</v>
+        <v>0.89</v>
       </c>
       <c r="O35">
-        <v>-11.44</v>
+        <v>-17.309999999999999</v>
       </c>
       <c r="P35">
         <v>8</v>
@@ -7562,31 +7577,31 @@
         <v>20030825</v>
       </c>
       <c r="G36">
-        <v>4.97</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="H36">
-        <v>10.07</v>
+        <v>10.28</v>
       </c>
       <c r="I36">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="J36" t="s">
-        <v>456</v>
+        <v>516</v>
       </c>
       <c r="K36" t="s">
-        <v>457</v>
+        <v>517</v>
       </c>
       <c r="L36" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="M36" t="s">
-        <v>458</v>
+        <v>519</v>
       </c>
       <c r="N36">
-        <v>0.62</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="O36">
-        <v>-21.55</v>
+        <v>-5.71</v>
       </c>
       <c r="P36">
         <v>9</v>
@@ -7702,31 +7717,31 @@
         <v>20071231</v>
       </c>
       <c r="G37">
-        <v>6</v>
+        <v>6.04</v>
       </c>
       <c r="H37">
-        <v>7.89</v>
+        <v>7.84</v>
       </c>
       <c r="I37">
-        <v>2.0299999999999998</v>
+        <v>2.02</v>
       </c>
       <c r="J37" t="s">
-        <v>459</v>
+        <v>520</v>
       </c>
       <c r="K37" t="s">
-        <v>460</v>
+        <v>521</v>
       </c>
       <c r="L37" t="s">
         <v>522</v>
       </c>
       <c r="M37" t="s">
-        <v>461</v>
+        <v>523</v>
       </c>
       <c r="N37">
-        <v>1.23</v>
+        <v>0.53</v>
       </c>
       <c r="O37">
-        <v>2.75</v>
+        <v>-16.059999999999999</v>
       </c>
       <c r="P37">
         <v>7</v>
@@ -7842,31 +7857,31 @@
         <v>20140411</v>
       </c>
       <c r="G38">
-        <v>4.43</v>
+        <v>4.29</v>
       </c>
       <c r="H38">
-        <v>8.35</v>
+        <v>8.6199999999999992</v>
       </c>
       <c r="I38">
-        <v>1.58</v>
+        <v>1.63</v>
       </c>
       <c r="J38" t="s">
-        <v>462</v>
-      </c>
-      <c r="K38" s="8" t="s">
-        <v>463</v>
+        <v>524</v>
+      </c>
+      <c r="K38" t="s">
+        <v>525</v>
       </c>
       <c r="L38" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="M38" t="s">
-        <v>464</v>
+        <v>527</v>
       </c>
       <c r="N38">
-        <v>1.01</v>
+        <v>0.99</v>
       </c>
       <c r="O38">
-        <v>3.89</v>
+        <v>0.64</v>
       </c>
       <c r="P38">
         <v>9</v>
@@ -7982,7 +7997,7 @@
         <v>20091225</v>
       </c>
       <c r="G39">
-        <v>7.29</v>
+        <v>7.3</v>
       </c>
       <c r="H39">
         <v>7.93</v>
@@ -7991,22 +8006,22 @@
         <v>0.99</v>
       </c>
       <c r="J39" t="s">
-        <v>465</v>
+        <v>528</v>
       </c>
       <c r="K39" t="s">
-        <v>466</v>
+        <v>529</v>
       </c>
       <c r="L39" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="M39" t="s">
-        <v>467</v>
+        <v>531</v>
       </c>
       <c r="N39">
-        <v>1.27</v>
+        <v>0.88</v>
       </c>
       <c r="O39">
-        <v>1.71</v>
+        <v>-1.89</v>
       </c>
       <c r="P39">
         <v>6</v>
@@ -8112,17 +8127,6 @@
     <sortCondition ref="A39"/>
   </sortState>
   <mergeCells count="27">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="AF1:AF2"/>
-    <mergeCell ref="AG1:AG2"/>
-    <mergeCell ref="AH1:AH2"/>
-    <mergeCell ref="AI1:AI2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="AE1:AE2"/>
-    <mergeCell ref="AD1:AD2"/>
-    <mergeCell ref="AC1:AC2"/>
-    <mergeCell ref="AB1:AB2"/>
     <mergeCell ref="AP1:AT1"/>
     <mergeCell ref="AJ1:AJ2"/>
     <mergeCell ref="B1:B2"/>
@@ -8139,6 +8143,17 @@
     <mergeCell ref="AM1:AM2"/>
     <mergeCell ref="AN1:AN2"/>
     <mergeCell ref="AO1:AO2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="AF1:AF2"/>
+    <mergeCell ref="AG1:AG2"/>
+    <mergeCell ref="AH1:AH2"/>
+    <mergeCell ref="AI1:AI2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="AE1:AE2"/>
+    <mergeCell ref="AD1:AD2"/>
+    <mergeCell ref="AC1:AC2"/>
+    <mergeCell ref="AB1:AB2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="AF26:AF28">

--- a/Data/彙整清單_整理版.xlsx
+++ b/Data/彙整清單_整理版.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\svnbox\Python\Stock\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hmlu\svnbox\Research\Python\Stock\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F026DD3A-7686-48E1-BEE5-E764C64EFBB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A0C925-67A5-478C-B9F5-F2CE923A64E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D923A086-913E-4840-96DC-7378B4FF8169}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="26760" windowHeight="14520" xr2:uid="{D923A086-913E-4840-96DC-7378B4FF8169}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="542">
   <si>
     <t>公司名稱</t>
   </si>
@@ -783,904 +783,934 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>26.11  /  26.12  /  26.22  /  26.3  /  26.36</t>
-  </si>
-  <si>
-    <t>9.24  /  9.22  /  9.13  /  9.16  /  9.21</t>
-  </si>
-  <si>
-    <t>64.59  /  64.59  /  64.58  /  64.46  /  64.37</t>
-  </si>
-  <si>
-    <t>79.0  /  79.0  /  80.0  /  79.0  /  78.0</t>
-  </si>
-  <si>
-    <t>0.0  /  29.9  /  30.04  /  30.06  /  29.98</t>
-  </si>
-  <si>
-    <t>0.0  /  6.47  /  6.36  /  6.34  /  6.4</t>
-  </si>
-  <si>
-    <t>0.0  /  63.53  /  63.53  /  63.53  /  63.53</t>
-  </si>
-  <si>
-    <t>0.0  /  16.0  /  16.0  /  16.0  /  16.0</t>
-  </si>
-  <si>
-    <t>24.74  /  24.83  /  24.9  /  25.14  /  25.19</t>
-  </si>
-  <si>
-    <t>7.52  /  7.38  /  7.38  /  7.51  /  7.37</t>
-  </si>
-  <si>
-    <t>67.65  /  67.71  /  67.65  /  67.26  /  67.38</t>
-  </si>
-  <si>
-    <t>110.0  /  112.0  /  112.0  /  110.0  /  112.0</t>
-  </si>
-  <si>
-    <t>27.15  /  26.52  /  26.59  /  26.45  /  25.97</t>
-  </si>
-  <si>
-    <t>10.35  /  9.99  /  10.1  /  9.95  /  9.8</t>
-  </si>
-  <si>
-    <t>62.42  /  63.4  /  63.22  /  63.5  /  64.17</t>
-  </si>
-  <si>
-    <t>68.0  /  73.0  /  72.0  /  71.0  /  75.0</t>
-  </si>
-  <si>
-    <t>37.74  /  38.33  /  38.5  /  38.45  /  37.87</t>
-  </si>
-  <si>
-    <t>11.75  /  12.37  /  12.43  /  12.65  /  12.69</t>
-  </si>
-  <si>
-    <t>50.43  /  49.23  /  49.0  /  48.85  /  49.37</t>
-  </si>
-  <si>
-    <t>35.0  /  33.0  /  33.0  /  34.0  /  35.0</t>
-  </si>
-  <si>
-    <t>34.27  /  33.44  /  33.61  /  33.7  /  32.53</t>
-  </si>
-  <si>
-    <t>12.39  /  12.86  /  12.58  /  12.48  /  11.91</t>
-  </si>
-  <si>
-    <t>53.27  /  53.63  /  53.74  /  53.74  /  55.49</t>
-  </si>
-  <si>
-    <t>30.0  /  31.0  /  32.0  /  31.0  /  36.0</t>
-  </si>
-  <si>
-    <t>24.6  /  24.44  /  24.53  /  24.45  /  24.32</t>
-  </si>
-  <si>
-    <t>11.14  /  11.02  /  10.93  /  10.93  /  11.0</t>
-  </si>
-  <si>
-    <t>64.17  /  64.47  /  64.47  /  64.55  /  64.59</t>
-  </si>
-  <si>
-    <t>73.0  /  74.0  /  73.0  /  72.0  /  70.0</t>
-  </si>
-  <si>
-    <t>40.15  /  40.57  /  40.73  /  41.56  /  41.58</t>
-  </si>
-  <si>
-    <t>18.09  /  17.78  /  17.62  /  16.85  /  16.84</t>
-  </si>
-  <si>
-    <t>41.69  /  41.59  /  41.59  /  41.55  /  41.51</t>
-  </si>
-  <si>
     <t>14.0  /  14.0  /  14.0  /  14.0  /  14.0</t>
   </si>
   <si>
-    <t>31.88  /  32.09  /  32.28  /  32.27  /  32.33</t>
-  </si>
-  <si>
-    <t>15.35  /  15.04  /  14.91  /  14.95  /  15.08</t>
-  </si>
-  <si>
-    <t>52.69  /  52.8  /  52.74  /  52.71  /  52.52</t>
-  </si>
-  <si>
-    <t>41.0  /  42.0  /  42.0  /  42.0  /  42.0</t>
-  </si>
-  <si>
-    <t>20.1  /  20.29  /  20.32  /  20.3  /  20.14</t>
-  </si>
-  <si>
-    <t>26.12  /  25.93  /  25.93  /  25.97  /  26.16</t>
-  </si>
-  <si>
-    <t>53.71  /  53.7  /  53.67  /  53.66  /  53.62</t>
-  </si>
-  <si>
-    <t>35.15  /  34.97  /  35.0  /  35.1  /  35.16</t>
-  </si>
-  <si>
-    <t>13.69  /  13.88  /  13.83  /  13.72  /  13.76</t>
-  </si>
-  <si>
-    <t>51.08  /  51.08  /  51.1  /  51.11  /  51.0</t>
-  </si>
-  <si>
     <t>28.0  /  28.0  /  28.0  /  28.0  /  28.0</t>
   </si>
   <si>
-    <t>36.38  /  35.95  /  36.13  /  36.64  /  36.69</t>
-  </si>
-  <si>
-    <t>12.83  /  12.78  /  12.67  /  13.03  /  12.16</t>
-  </si>
-  <si>
-    <t>50.72  /  51.21  /  51.11  /  50.24  /  51.09</t>
-  </si>
-  <si>
-    <t>18.0  /  19.0  /  19.0  /  18.0  /  19.0</t>
-  </si>
-  <si>
-    <t>23.09  /  23.34  /  23.39  /  23.18  /  23.01</t>
-  </si>
-  <si>
-    <t>9.83  /  9.94  /  9.99  /  9.95  /  9.86</t>
-  </si>
-  <si>
-    <t>67.0  /  66.63  /  66.55  /  66.81  /  67.07</t>
-  </si>
-  <si>
-    <t>396.0  /  396.0  /  394.0  /  395.0  /  398.0</t>
-  </si>
-  <si>
-    <t>11.15  /  10.99  /  11.01  /  11.41  /  11.66</t>
-  </si>
-  <si>
-    <t>9.77  /  9.79  /  10.05  /  10.79  /  10.76</t>
-  </si>
-  <si>
-    <t>79.0  /  79.15  /  78.86  /  77.73  /  77.52</t>
-  </si>
-  <si>
-    <t>167.0  /  168.0  /  164.0  /  171.0  /  174.0</t>
-  </si>
-  <si>
-    <t>29.46  /  29.6  /  29.6  /  29.49  /  29.27</t>
-  </si>
-  <si>
-    <t>15.73  /  15.63  /  15.59  /  15.56  /  15.63</t>
-  </si>
-  <si>
-    <t>54.72  /  54.68  /  54.75  /  54.89  /  55.04</t>
-  </si>
-  <si>
-    <t>145.0  /  146.0  /  146.0  /  147.0  /  147.0</t>
-  </si>
-  <si>
-    <t>17.11  /  17.26  /  17.34  /  17.35  /  17.44</t>
-  </si>
-  <si>
-    <t>13.68  /  13.4  /  13.44  /  13.77  /  13.89</t>
-  </si>
-  <si>
-    <t>69.14  /  69.25  /  69.13  /  68.79  /  68.59</t>
-  </si>
-  <si>
-    <t>126.0  /  128.0  /  127.0  /  124.0  /  123.0</t>
-  </si>
-  <si>
-    <t>25.48  /  25.24  /  25.18  /  24.74  /  24.13</t>
-  </si>
-  <si>
-    <t>9.19  /  9.34  /  9.37  /  9.85  /  9.47</t>
-  </si>
-  <si>
-    <t>65.27  /  65.34  /  65.38  /  65.31  /  66.32</t>
-  </si>
-  <si>
-    <t>15.0  /  15.0  /  15.0  /  15.0  /  16.0</t>
-  </si>
-  <si>
-    <t>55.1  /  57.83  /  55.27  /  56.08  /  55.75</t>
-  </si>
-  <si>
-    <t>10.41  /  11.79  /  12.49  /  12.83  /  13.17</t>
-  </si>
-  <si>
-    <t>34.4  /  30.31  /  32.17  /  31.0  /  31.03</t>
-  </si>
-  <si>
-    <t>13.0  /  12.0  /  14.0  /  13.0  /  13.0</t>
-  </si>
-  <si>
-    <t>33.58  /  33.66  /  33.77  /  34.64  /  35.31</t>
-  </si>
-  <si>
-    <t>18.84  /  18.91  /  19.04  /  19.72  /  19.11</t>
-  </si>
-  <si>
-    <t>47.52  /  47.35  /  47.12  /  45.57  /  45.5</t>
-  </si>
-  <si>
-    <t>46.0  /  46.0  /  46.0  /  43.0  /  42.0</t>
-  </si>
-  <si>
-    <t>34.25  /  34.38  /  34.53  /  34.46  /  34.17</t>
-  </si>
-  <si>
-    <t>21.25  /  21.29  /  21.31  /  21.75  /  22.54</t>
-  </si>
-  <si>
-    <t>44.44  /  44.26  /  44.08  /  43.69  /  43.22</t>
-  </si>
-  <si>
-    <t>21.96  /  21.79  /  21.62  /  20.97  /  20.48</t>
-  </si>
-  <si>
-    <t>15.6  /  15.63  /  15.39  /  15.43  /  15.36</t>
-  </si>
-  <si>
-    <t>62.36  /  62.5  /  62.92  /  63.53  /  64.08</t>
-  </si>
-  <si>
-    <t>62.0  /  62.0  /  64.0  /  65.0  /  67.0</t>
-  </si>
-  <si>
-    <t>30.1  /  29.84  /  29.69  /  29.57  /  29.5</t>
-  </si>
-  <si>
-    <t>13.21  /  13.48  /  13.62  /  13.74  /  13.8</t>
-  </si>
-  <si>
     <t>56.62  /  56.62  /  56.62  /  56.62  /  56.62</t>
   </si>
   <si>
     <t>11.0  /  11.0  /  11.0  /  11.0  /  11.0</t>
   </si>
   <si>
-    <t>11.86  /  11.85  /  11.97  /  11.88  /  11.76</t>
-  </si>
-  <si>
-    <t>6.37  /  6.36  /  6.4  /  6.35  /  6.3</t>
-  </si>
-  <si>
-    <t>81.71  /  81.73  /  81.54  /  81.7  /  81.85</t>
-  </si>
-  <si>
-    <t>597.0  /  594.0  /  592.0  /  594.0  /  595.0</t>
-  </si>
-  <si>
-    <t>13.82  /  13.87  /  13.84  /  13.77  /  13.78</t>
-  </si>
-  <si>
-    <t>10.92  /  10.73  /  10.67  /  10.58  /  10.62</t>
-  </si>
-  <si>
-    <t>75.2  /  75.35  /  75.4  /  75.57  /  75.53</t>
-  </si>
-  <si>
-    <t>70.0  /  71.0  /  71.0  /  71.0  /  70.0</t>
-  </si>
-  <si>
-    <t>48.2  /  47.92  /  47.76  /  48.1  /  49.14</t>
-  </si>
-  <si>
-    <t>18.54  /  18.17  /  19.17  /  18.74  /  18.09</t>
-  </si>
-  <si>
-    <t>33.17  /  33.85  /  32.98  /  33.08  /  32.68</t>
-  </si>
-  <si>
-    <t>22.0  /  23.0  /  21.0  /  21.0  /  21.0</t>
-  </si>
-  <si>
-    <t>49.58  /  49.1  /  48.08  /  50.35  /  50.92</t>
-  </si>
-  <si>
-    <t>23.27  /  23.19  /  22.9  /  23.58  /  23.2</t>
-  </si>
-  <si>
-    <t>27.06  /  27.63  /  28.92  /  26.0  /  25.79</t>
-  </si>
-  <si>
-    <t>32.0  /  33.0  /  36.0  /  31.0  /  30.0</t>
-  </si>
-  <si>
-    <t>9.3  /  9.36  /  9.49  /  9.4  /  9.58</t>
-  </si>
-  <si>
-    <t>13.96  /  13.95  /  13.67  /  13.44  /  13.56</t>
-  </si>
-  <si>
-    <t>76.67  /  76.62  /  76.77  /  77.09  /  76.78</t>
-  </si>
-  <si>
-    <t>90.0  /  90.0  /  91.0  /  91.0  /  90.0</t>
-  </si>
-  <si>
-    <t>40.77  /  40.62  /  40.8  /  41.12  /  41.15</t>
-  </si>
-  <si>
-    <t>19.98  /  21.23  /  20.53  /  19.72  /  19.14</t>
-  </si>
-  <si>
-    <t>39.18  /  38.08  /  38.6  /  39.06  /  39.64</t>
-  </si>
-  <si>
-    <t>21.0  /  19.0  /  20.0  /  20.0  /  21.0</t>
-  </si>
-  <si>
-    <t>48.24  /  48.28  /  48.46  /  48.46  /  48.2</t>
-  </si>
-  <si>
-    <t>23.07  /  23.0  /  22.79  /  22.76  /  22.38</t>
-  </si>
-  <si>
-    <t>28.63  /  28.66  /  28.67  /  28.71  /  29.35</t>
-  </si>
-  <si>
-    <t>17.0  /  17.0  /  16.0  /  16.0  /  17.0</t>
-  </si>
-  <si>
-    <t>35.65  /  35.36  /  35.42  /  35.39  /  34.11</t>
-  </si>
-  <si>
-    <t>17.0  /  17.47  /  17.48  /  17.63  /  17.72</t>
-  </si>
-  <si>
-    <t>47.25  /  47.09  /  47.02  /  46.91  /  48.09</t>
-  </si>
-  <si>
-    <t>12.0  /  12.0  /  12.0  /  12.0  /  13.0</t>
-  </si>
-  <si>
-    <t>16.83  /  16.78  /  16.8  /  16.61  /  16.5</t>
-  </si>
-  <si>
-    <t>10.86  /  10.79  /  10.8  /  11.01  /  11.03</t>
-  </si>
-  <si>
-    <t>72.25  /  72.36  /  72.32  /  72.3  /  72.41</t>
-  </si>
-  <si>
-    <t>182.0  /  182.0  /  182.0  /  178.0  /  176.0</t>
-  </si>
-  <si>
-    <t>39.59  /  39.53  /  40.41  /  40.34  /  40.96</t>
-  </si>
-  <si>
-    <t>14.66  /  14.3  /  14.44  /  14.62  /  14.92</t>
-  </si>
-  <si>
-    <t>45.68  /  46.08  /  45.06  /  44.97  /  44.05</t>
-  </si>
-  <si>
-    <t>69.0  /  73.0  /  69.0  /  70.0  /  67.0</t>
-  </si>
-  <si>
-    <t>48.67  /  48.59  /  48.41  /  48.31  /  47.95</t>
-  </si>
-  <si>
-    <t>19.72  /  19.61  /  20.04  /  20.38  /  20.55</t>
-  </si>
-  <si>
-    <t>31.56  /  31.71  /  31.47  /  31.24  /  31.44</t>
-  </si>
-  <si>
-    <t>56.0  /  56.0  /  55.0  /  54.0  /  55.0</t>
-  </si>
-  <si>
-    <t>48.12  /  48.41  /  49.35  /  49.33  /  48.95</t>
-  </si>
-  <si>
-    <t>20.22  /  20.62  /  20.29  /  19.93  /  20.01</t>
-  </si>
-  <si>
-    <t>31.59  /  30.89  /  30.29  /  30.65  /  30.99</t>
-  </si>
-  <si>
-    <t>41.0  /  40.0  /  41.0  /  43.0  /  43.0</t>
-  </si>
-  <si>
-    <t>22.13  /  22.27  /  23.01  /  23.5  /  23.35</t>
-  </si>
-  <si>
-    <t>12.41  /  12.39  /  12.24  /  12.87  /  12.86</t>
-  </si>
-  <si>
-    <t>65.38  /  65.28  /  64.67  /  63.57  /  63.71</t>
-  </si>
-  <si>
-    <t>89.0  /  88.0  /  90.0  /  89.0  /  88.0</t>
-  </si>
-  <si>
-    <t>40.74  /  40.81  /  41.01  /  41.11  /  41.19</t>
-  </si>
-  <si>
-    <t>23.62  /  23.57  /  23.48  /  23.37  /  23.13</t>
-  </si>
-  <si>
-    <t>35.57  /  35.53  /  35.45  /  35.42  /  35.59</t>
-  </si>
-  <si>
-    <t>38.0  /  38.0  /  38.0  /  38.0  /  38.0</t>
-  </si>
-  <si>
     <t>力山</t>
   </si>
   <si>
     <t>力山工業股份有限公司</t>
   </si>
   <si>
-    <t>36.26  /  35.51  /  35.45  /  34.57  /  33.46</t>
-  </si>
-  <si>
-    <t>17.49  /  18.87  /  18.92  /  19.18  /  18.9</t>
-  </si>
-  <si>
-    <t>46.17  /  45.55  /  45.57  /  46.17  /  47.55</t>
-  </si>
-  <si>
-    <t>20.0  /  19.0  /  19.0  /  20.0  /  22.0</t>
-  </si>
-  <si>
-    <t>👍    62.3 /     61.2 /     60.3 /    58.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2346.0 /   1840.4 /   1724.6 /  1548.77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    12.2 /    12.18 /    12.05 /    12.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.29 /      1.4 /     1.17 /     1.21</t>
-  </si>
-  <si>
-    <t>👍    69.8 /    69.46 /    68.87 /    68.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   165.0 /   131.76 /   127.38 /    185.6</t>
-  </si>
-  <si>
     <t xml:space="preserve">    1.81 /     1.82 /     1.84 /     1.92</t>
   </si>
   <si>
-    <t xml:space="preserve">     0.0 /      0.0 /      0.0 /     0.01</t>
-  </si>
-  <si>
-    <t>🏆2.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    19.7 /     19.7 /    19.92 /    19.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1421.0 /   2653.0 /  2862.85 /   3345.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    14.0 /    14.06 /     14.0 /    13.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.37 /     0.49 /     0.72 /      0.5</t>
-  </si>
-  <si>
-    <t>🏆3.8</t>
-  </si>
-  <si>
-    <t>👎   29.35 /    29.75 /    30.73 /    32.53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2980.0 /  10765.6 /  5998.95 /  7279.52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    36.8 /    36.98 /    37.93 /    39.61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.46 /     1.19 /     0.65 /     1.87</t>
-  </si>
-  <si>
-    <t>👎    34.0 /    33.97 /     34.3 /    35.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2214.0 /   5413.0 /   3709.3 /  6805.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    10.0 /    10.18 /    10.74 /    13.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     0.5 /     0.88 /     0.83 /     1.43</t>
-  </si>
-  <si>
-    <t>👎   36.25 /    36.56 /    36.44 /    37.76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3627.0 /  15833.4 /  6608.85 /  10056.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8.87 /     9.07 /     9.29 /    10.43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     1.2 /     1.25 /     1.11 /     2.06</t>
-  </si>
-  <si>
-    <t>👍   21.55 /    21.28 /    21.27 /    21.88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2933.0 /   3005.0 /   2763.7 /  3720.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9.18 /     9.11 /     9.02 /     9.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.82 /      0.8 /     0.92 /     0.98</t>
-  </si>
-  <si>
-    <t>🏆20.94</t>
-  </si>
-  <si>
-    <t>👍    15.7 /    15.63 /    15.47 /    15.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   620.0 /    602.4 /   744.35 /    792.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.08 /     2.75 /     2.42 /     2.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     0.1 /      0.1 /      0.1 /     0.08</t>
-  </si>
-  <si>
-    <t>🏆26.12</t>
-  </si>
-  <si>
-    <t>👎    52.5 /    52.68 /    55.68 /    61.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   360.0 /   1804.2 /  1170.15 /   952.83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7.33 /     7.37 /     7.66 /     8.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    11.4 /    12.46 /     7.26 /     3.19</t>
-  </si>
-  <si>
-    <t>👍   30.75 /    30.22 /    29.84 /    29.69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1910.0 /    822.2 /   520.85 /   584.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    10.6 /    10.48 /     10.3 /    10.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.84 /     0.96 /     1.01 /     1.52</t>
-  </si>
-  <si>
-    <t>👎   21.15 /    21.13 /    21.26 /    22.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    49.0 /    67.28 /    87.23 /   390.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.41 /     1.42 /     1.37 /      1.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.25 /     0.24 /      0.2 /     1.46</t>
-  </si>
-  <si>
-    <t>👎   30.95 /    31.05 /    31.53 /    31.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   261.0 /    409.6 /    369.2 /   707.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.02 /     3.06 /     3.24 /     3.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.55 /     0.54 /     0.44 /     0.67</t>
-  </si>
-  <si>
-    <t>👎    33.2 /    32.59 /     34.4 /    34.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3429.0 /   2136.2 /   1857.6 /   4054.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     1.2 /     1.28 /     1.61 /     1.56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5.32 /     5.46 /     5.49 /     5.75</t>
-  </si>
-  <si>
-    <t>👍    25.0 /     24.9 /    24.34 /    24.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 11268.0 /  12817.8 / 12446.75 / 13531.77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    46.1 /    46.02 /    45.74 /     46.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.44 /     2.13 /     1.56 /     2.86</t>
-  </si>
-  <si>
-    <t>🏆32.04</t>
-  </si>
-  <si>
-    <t>👍    68.0 /     67.1 /     66.3 /    60.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3873.0 /   5220.2 /  10395.6 /  7538.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    32.8 /     32.8 /    33.18 /    34.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8.51 /     8.68 /     8.29 /      5.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   30.65 /    30.77 /    30.35 /    30.65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3081.0 /   4825.8 /  4808.15 /  7205.45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    20.0 /     20.0 /    19.94 /    21.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.22 /     1.12 /     1.11 /     1.48</t>
-  </si>
-  <si>
-    <t>👍    88.0 /    87.76 /     83.9 /    81.73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3122.0 /   4017.0 /  2605.85 /  1954.58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    34.7 /     34.6 /    33.98 /    33.58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4.77 /     4.19 /     1.31 /     0.98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   45.95 /    46.46 /    46.25 /    45.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   360.0 /    663.4 /   1260.9 /  1285.53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.73 /     0.83 /     0.89 /     1.66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.16 /     0.14 /     0.11 /     0.91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   32.85 /    33.78 /    30.96 /     27.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1824.0 /   5168.2 /  8831.05 /  3537.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.62 /     1.46 /     1.75 /     2.47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    35.1 /    37.56 /    25.44 /    15.98</t>
-  </si>
-  <si>
-    <t>👎   158.5 /    162.5 /   166.52 /    164.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1463.0 /   1678.4 /  2429.45 /   2992.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    21.6 /    21.74 /    22.02 /    22.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    14.6 /    17.42 /    19.28 /     21.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    50.8 /    50.62 /    50.88 /    49.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1075.0 /    533.8 /   538.85 /   492.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    10.1 /    10.36 /    10.64 /    11.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.69 /     0.73 /     0.66 /      0.5</t>
-  </si>
-  <si>
-    <t>👎    36.7 /    36.79 /     37.4 /    38.09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   852.0 /   1346.6 /  1274.55 /  1628.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    20.5 /     20.5 /     20.8 /    21.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.65 /     0.66 /      0.7 /     0.57</t>
-  </si>
-  <si>
-    <t>👍    51.5 /     50.6 /    49.66 /     49.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   189.0 /    227.0 /   140.08 /   135.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.73 /     3.68 /     3.69 /     3.67</t>
-  </si>
-  <si>
-    <t>👍    81.6 /    78.72 /    76.11 /    74.86</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 54513.0 /  42788.6 /  25097.1 / 22320.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    22.3 /    22.12 /    21.93 /    22.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.09 /     6.95 /     9.81 /    15.59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    54.7 /    54.84 /    54.71 /    54.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   714.0 /   1044.2 /   1088.8 /   965.52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    30.5 /    30.68 /    30.88 /     31.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.27 /     0.28 /     0.44 /     0.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    33.6 /    33.43 /    33.97 /    31.61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   464.0 /    892.0 /   1712.7 /  1473.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8.24 /     8.32 /     8.63 /     7.85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.81 /     1.76 /     1.56 /     1.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    31.1 /    30.99 /     31.5 /    29.85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2394.0 /   4311.0 / 11729.25 /  11548.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    10.9 /     10.9 /    11.35 /     10.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    10.7 /    10.59 /      8.4 /     9.61</t>
-  </si>
-  <si>
-    <t>👍   124.5 /    123.9 /   123.28 /   120.73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1911.0 /    850.0 /   788.65 /   936.58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    42.4 /    42.38 /    42.34 /     41.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     1.7 /      1.7 /     1.17 /     1.09</t>
-  </si>
-  <si>
-    <t>👍    33.6 /    33.23 /    32.56 /    32.45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   959.0 /   1758.8 /    986.3 /   1009.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6.18 /     6.12 /     6.21 /     6.83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.14 /     0.16 /     0.18 /     0.91</t>
-  </si>
-  <si>
-    <t>👎   28.65 /    28.75 /    29.01 /    29.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   335.0 /    561.4 /    429.0 /   590.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.94 /     4.03 /     4.19 /     4.91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.33 /     0.26 /     0.31 /     0.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   24.35 /    24.47 /     24.2 /    23.76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   712.0 /   2052.8 /   1149.0 /   2004.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5.72 /     5.78 /     5.79 /     6.59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.66 /     0.79 /     0.78 /     0.57</t>
-  </si>
-  <si>
-    <t>👍    53.9 /    52.84 /    51.85 /    51.37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  5107.0 /   6286.0 /  5102.75 /  4018.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    26.8 /    26.84 /    26.74 /    26.76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     0.6 /     0.49 /     0.37 /     0.52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    33.5 /    33.57 /    34.11 /    32.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3379.0 /   4906.2 /   9190.5 / 11751.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    12.2 /    12.28 /    11.96 /    11.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.89 /     0.87 /     0.93 /     0.76</t>
-  </si>
-  <si>
-    <t>👍    59.0 /    58.18 /    58.43 /    59.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  5501.0 /   3184.8 /  2456.85 /  3573.37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    23.1 /     22.9 /    23.64 /     25.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.81 /     1.14 /      1.0 /     2.15</t>
-  </si>
-  <si>
-    <t>👍    49.7 /    49.58 /    48.92 /    46.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  4115.0 /   3494.2 /  5437.75 /  4444.92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    23.7 /     24.1 /    23.73 /    22.37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.36 /     1.42 /     1.03 /     0.67</t>
-  </si>
-  <si>
-    <t>👍    51.3 /    48.52 /    48.06 /    46.88</t>
-  </si>
-  <si>
-    <t>🏆 54104.0 /  17976.8 /   9180.7 /  7678.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    47.3 /     47.1 /    46.94 /    48.48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4.86 /     4.05 /     4.28 /     4.88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   47.95 /     48.0 /    48.08 /    47.59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   477.0 /    845.4 /    941.6 /   950.78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    21.2 /    21.32 /    21.01 /    20.65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     0.2 /     0.21 /     0.19 /     0.21</t>
+    <t>26.22  /  26.11  /  26.12  /  26.22  /  26.3</t>
+  </si>
+  <si>
+    <t>9.17  /  9.24  /  9.22  /  9.13  /  9.16</t>
+  </si>
+  <si>
+    <t>64.53  /  64.59  /  64.59  /  64.58  /  64.46</t>
+  </si>
+  <si>
+    <t>30.06  /  30.01  /  29.9  /  30.04  /  30.06</t>
+  </si>
+  <si>
+    <t>6.31  /  6.37  /  6.47  /  6.36  /  6.34</t>
+  </si>
+  <si>
+    <t>63.53  /  63.53  /  63.53  /  63.53  /  63.53</t>
+  </si>
+  <si>
+    <t>24.78  /  24.74  /  24.83  /  24.9  /  25.14</t>
+  </si>
+  <si>
+    <t>7.67  /  7.52  /  7.38  /  7.38  /  7.51</t>
+  </si>
+  <si>
+    <t>67.46  /  67.65  /  67.71  /  67.65  /  67.26</t>
+  </si>
+  <si>
+    <t>27.77  /  27.15  /  26.52  /  26.59  /  26.45</t>
+  </si>
+  <si>
+    <t>10.21  /  10.35  /  9.99  /  10.1  /  9.95</t>
+  </si>
+  <si>
+    <t>61.92  /  62.42  /  63.4  /  63.22  /  63.5</t>
+  </si>
+  <si>
+    <t>37.95  /  37.74  /  38.33  /  38.5  /  38.45</t>
+  </si>
+  <si>
+    <t>12.21  /  11.75  /  12.37  /  12.43  /  12.65</t>
+  </si>
+  <si>
+    <t>49.78  /  50.43  /  49.23  /  49.0  /  48.85</t>
+  </si>
+  <si>
+    <t>34.49  /  34.27  /  33.44  /  33.61  /  33.7</t>
+  </si>
+  <si>
+    <t>11.45  /  12.39  /  12.86  /  12.58  /  12.48</t>
+  </si>
+  <si>
+    <t>53.98  /  53.27  /  53.63  /  53.74  /  53.74</t>
+  </si>
+  <si>
+    <t>24.57  /  24.6  /  24.44  /  24.53  /  24.45</t>
+  </si>
+  <si>
+    <t>11.08  /  11.14  /  11.02  /  10.93  /  10.93</t>
+  </si>
+  <si>
+    <t>64.27  /  64.17  /  64.47  /  64.47  /  64.55</t>
+  </si>
+  <si>
+    <t>39.34  /  40.15  /  40.57  /  40.73  /  41.56</t>
+  </si>
+  <si>
+    <t>18.85  /  18.09  /  17.78  /  17.62  /  16.85</t>
+  </si>
+  <si>
+    <t>41.76  /  41.69  /  41.59  /  41.59  /  41.55</t>
+  </si>
+  <si>
+    <t>36.93  /  36.26  /  35.51  /  35.45  /  34.57</t>
+  </si>
+  <si>
+    <t>16.86  /  17.49  /  18.87  /  18.92  /  19.18</t>
+  </si>
+  <si>
+    <t>46.12  /  46.17  /  45.55  /  45.57  /  46.17</t>
+  </si>
+  <si>
+    <t>31.49  /  31.88  /  32.09  /  32.28  /  32.27</t>
+  </si>
+  <si>
+    <t>15.33  /  15.35  /  15.04  /  14.91  /  14.95</t>
+  </si>
+  <si>
+    <t>53.11  /  52.69  /  52.8  /  52.74  /  52.71</t>
+  </si>
+  <si>
+    <t>20.21  /  20.1  /  20.29  /  20.32  /  20.3</t>
+  </si>
+  <si>
+    <t>25.96  /  26.12  /  25.93  /  25.93  /  25.97</t>
+  </si>
+  <si>
+    <t>53.74  /  53.71  /  53.7  /  53.67  /  53.66</t>
+  </si>
+  <si>
+    <t>35.14  /  35.15  /  34.97  /  35.0  /  35.1</t>
+  </si>
+  <si>
+    <t>13.7  /  13.69  /  13.88  /  13.83  /  13.72</t>
+  </si>
+  <si>
+    <t>51.08  /  51.08  /  51.08  /  51.1  /  51.11</t>
+  </si>
+  <si>
+    <t>36.56  /  36.38  /  35.95  /  36.13  /  36.64</t>
+  </si>
+  <si>
+    <t>11.73  /  12.83  /  12.78  /  12.67  /  13.03</t>
+  </si>
+  <si>
+    <t>51.62  /  50.72  /  51.21  /  51.11  /  50.24</t>
+  </si>
+  <si>
+    <t>22.86  /  23.09  /  23.34  /  23.39  /  23.18</t>
+  </si>
+  <si>
+    <t>9.69  /  9.83  /  9.94  /  9.99  /  9.95</t>
+  </si>
+  <si>
+    <t>67.37  /  67.0  /  66.63  /  66.55  /  66.81</t>
+  </si>
+  <si>
+    <t>11.23  /  11.15  /  10.99  /  11.01  /  11.41</t>
+  </si>
+  <si>
+    <t>9.74  /  9.77  /  9.79  /  10.05  /  10.79</t>
+  </si>
+  <si>
+    <t>78.95  /  79.0  /  79.15  /  78.86  /  77.73</t>
+  </si>
+  <si>
+    <t>29.26  /  29.46  /  29.6  /  29.6  /  29.49</t>
+  </si>
+  <si>
+    <t>15.79  /  15.73  /  15.63  /  15.59  /  15.56</t>
+  </si>
+  <si>
+    <t>54.86  /  54.72  /  54.68  /  54.75  /  54.89</t>
+  </si>
+  <si>
+    <t>16.15  /  17.11  /  17.26  /  17.34  /  17.35</t>
+  </si>
+  <si>
+    <t>13.41  /  13.68  /  13.4  /  13.44  /  13.77</t>
+  </si>
+  <si>
+    <t>70.36  /  69.14  /  69.25  /  69.13  /  68.79</t>
+  </si>
+  <si>
+    <t>25.49  /  25.48  /  25.24  /  25.18  /  24.74</t>
+  </si>
+  <si>
+    <t>9.69  /  9.19  /  9.34  /  9.37  /  9.85</t>
+  </si>
+  <si>
+    <t>64.74  /  65.27  /  65.34  /  65.38  /  65.31</t>
+  </si>
+  <si>
+    <t>54.95  /  55.1  /  57.83  /  55.27  /  56.08</t>
+  </si>
+  <si>
+    <t>10.41  /  10.41  /  11.79  /  12.49  /  12.83</t>
+  </si>
+  <si>
+    <t>34.57  /  34.4  /  30.31  /  32.17  /  31.0</t>
+  </si>
+  <si>
+    <t>34.55  /  33.58  /  33.66  /  33.77  /  34.64</t>
+  </si>
+  <si>
+    <t>17.89  /  18.84  /  18.91  /  19.04  /  19.72</t>
+  </si>
+  <si>
+    <t>47.48  /  47.52  /  47.35  /  47.12  /  45.57</t>
+  </si>
+  <si>
+    <t>34.94  /  34.25  /  34.38  /  34.53  /  34.46</t>
+  </si>
+  <si>
+    <t>20.56  /  21.25  /  21.29  /  21.31  /  21.75</t>
+  </si>
+  <si>
+    <t>44.42  /  44.44  /  44.26  /  44.08  /  43.69</t>
+  </si>
+  <si>
+    <t>22.09  /  21.96  /  21.79  /  21.62  /  20.97</t>
+  </si>
+  <si>
+    <t>15.59  /  15.6  /  15.63  /  15.39  /  15.43</t>
+  </si>
+  <si>
+    <t>62.24  /  62.36  /  62.5  /  62.92  /  63.53</t>
+  </si>
+  <si>
+    <t>29.97  /  30.1  /  29.84  /  29.69  /  29.57</t>
+  </si>
+  <si>
+    <t>13.35  /  13.21  /  13.48  /  13.62  /  13.74</t>
+  </si>
+  <si>
+    <t>11.47  /  11.86  /  11.85  /  11.97  /  11.88</t>
+  </si>
+  <si>
+    <t>6.32  /  6.37  /  6.36  /  6.4  /  6.35</t>
+  </si>
+  <si>
+    <t>82.12  /  81.71  /  81.73  /  81.54  /  81.7</t>
+  </si>
+  <si>
+    <t>13.94  /  13.82  /  13.87  /  13.84  /  13.77</t>
+  </si>
+  <si>
+    <t>11.15  /  10.92  /  10.73  /  10.67  /  10.58</t>
+  </si>
+  <si>
+    <t>74.83  /  75.2  /  75.35  /  75.4  /  75.57</t>
+  </si>
+  <si>
+    <t>48.33  /  48.2  /  47.92  /  47.76  /  48.1</t>
+  </si>
+  <si>
+    <t>19.47  /  18.54  /  18.17  /  19.17  /  18.74</t>
+  </si>
+  <si>
+    <t>32.11  /  33.17  /  33.85  /  32.98  /  33.08</t>
+  </si>
+  <si>
+    <t>49.83  /  49.58  /  49.1  /  48.08  /  50.35</t>
+  </si>
+  <si>
+    <t>22.94  /  23.27  /  23.19  /  22.9  /  23.58</t>
+  </si>
+  <si>
+    <t>27.15  /  27.06  /  27.63  /  28.92  /  26.0</t>
+  </si>
+  <si>
+    <t>9.2  /  9.3  /  9.36  /  9.49  /  9.4</t>
+  </si>
+  <si>
+    <t>14.06  /  13.96  /  13.95  /  13.67  /  13.44</t>
+  </si>
+  <si>
+    <t>76.68  /  76.67  /  76.62  /  76.77  /  77.09</t>
+  </si>
+  <si>
+    <t>39.84  /  40.77  /  40.62  /  40.8  /  41.12</t>
+  </si>
+  <si>
+    <t>21.27  /  19.98  /  21.23  /  20.53  /  19.72</t>
+  </si>
+  <si>
+    <t>38.83  /  39.18  /  38.08  /  38.6  /  39.06</t>
+  </si>
+  <si>
+    <t>48.38  /  48.24  /  48.28  /  48.46  /  48.46</t>
+  </si>
+  <si>
+    <t>23.0  /  23.07  /  23.0  /  22.79  /  22.76</t>
+  </si>
+  <si>
+    <t>28.54  /  28.63  /  28.66  /  28.67  /  28.71</t>
+  </si>
+  <si>
+    <t>35.33  /  35.65  /  35.36  /  35.42  /  35.39</t>
+  </si>
+  <si>
+    <t>17.31  /  17.0  /  17.47  /  17.48  /  17.63</t>
+  </si>
+  <si>
+    <t>47.3  /  47.25  /  47.09  /  47.02  /  46.91</t>
+  </si>
+  <si>
+    <t>16.64  /  16.83  /  16.78  /  16.8  /  16.61</t>
+  </si>
+  <si>
+    <t>10.94  /  10.86  /  10.79  /  10.8  /  11.01</t>
+  </si>
+  <si>
+    <t>72.33  /  72.25  /  72.36  /  72.32  /  72.3</t>
+  </si>
+  <si>
+    <t>39.74  /  39.59  /  39.53  /  40.41  /  40.34</t>
+  </si>
+  <si>
+    <t>14.71  /  14.66  /  14.3  /  14.44  /  14.62</t>
+  </si>
+  <si>
+    <t>45.47  /  45.68  /  46.08  /  45.06  /  44.97</t>
+  </si>
+  <si>
+    <t>49.02  /  48.67  /  48.59  /  48.41  /  48.31</t>
+  </si>
+  <si>
+    <t>19.6  /  19.72  /  19.61  /  20.04  /  20.38</t>
+  </si>
+  <si>
+    <t>31.31  /  31.56  /  31.71  /  31.47  /  31.24</t>
+  </si>
+  <si>
+    <t>48.5  /  48.12  /  48.41  /  49.35  /  49.33</t>
+  </si>
+  <si>
+    <t>20.31  /  20.22  /  20.62  /  20.29  /  19.93</t>
+  </si>
+  <si>
+    <t>31.11  /  31.59  /  30.89  /  30.29  /  30.65</t>
+  </si>
+  <si>
+    <t>21.05  /  22.13  /  22.27  /  23.01  /  23.5</t>
+  </si>
+  <si>
+    <t>12.03  /  12.41  /  12.39  /  12.24  /  12.87</t>
+  </si>
+  <si>
+    <t>66.85  /  65.38  /  65.28  /  64.67  /  63.57</t>
+  </si>
+  <si>
+    <t>40.82  /  40.74  /  40.81  /  41.01  /  41.11</t>
+  </si>
+  <si>
+    <t>23.2  /  23.62  /  23.57  /  23.48  /  23.37</t>
+  </si>
+  <si>
+    <t>35.92  /  35.57  /  35.53  /  35.45  /  35.42</t>
+  </si>
+  <si>
+    <t>78.0  /  79.0  /  79.0  /  80.0  /  79.0</t>
+  </si>
+  <si>
+    <t>16.0  /  16.0  /  16.0  /  16.0  /  16.0</t>
+  </si>
+  <si>
+    <t>110.0  /  110.0  /  112.0  /  112.0  /  110.0</t>
+  </si>
+  <si>
+    <t>68.0  /  68.0  /  73.0  /  72.0  /  71.0</t>
+  </si>
+  <si>
+    <t>30.0  /  35.0  /  33.0  /  33.0  /  34.0</t>
+  </si>
+  <si>
+    <t>30.0  /  30.0  /  31.0  /  32.0  /  31.0</t>
+  </si>
+  <si>
+    <t>73.0  /  73.0  /  74.0  /  73.0  /  72.0</t>
+  </si>
+  <si>
+    <t>20.0  /  20.0  /  19.0  /  19.0  /  20.0</t>
+  </si>
+  <si>
+    <t>42.0  /  41.0  /  42.0  /  42.0  /  42.0</t>
+  </si>
+  <si>
+    <t>19.0  /  18.0  /  19.0  /  19.0  /  18.0</t>
+  </si>
+  <si>
+    <t>396.0  /  396.0  /  396.0  /  394.0  /  395.0</t>
+  </si>
+  <si>
+    <t>165.0  /  167.0  /  168.0  /  164.0  /  171.0</t>
+  </si>
+  <si>
+    <t>146.0  /  145.0  /  146.0  /  146.0  /  147.0</t>
+  </si>
+  <si>
+    <t>131.0  /  126.0  /  128.0  /  127.0  /  124.0</t>
+  </si>
+  <si>
+    <t>14.0  /  15.0  /  15.0  /  15.0  /  15.0</t>
+  </si>
+  <si>
+    <t>13.0  /  13.0  /  12.0  /  14.0  /  13.0</t>
+  </si>
+  <si>
+    <t>46.0  /  46.0  /  46.0  /  46.0  /  43.0</t>
+  </si>
+  <si>
+    <t>62.0  /  62.0  /  62.0  /  64.0  /  65.0</t>
+  </si>
+  <si>
+    <t>599.0  /  597.0  /  594.0  /  592.0  /  594.0</t>
+  </si>
+  <si>
+    <t>69.0  /  70.0  /  71.0  /  71.0  /  71.0</t>
+  </si>
+  <si>
+    <t>20.0  /  22.0  /  23.0  /  21.0  /  21.0</t>
+  </si>
+  <si>
+    <t>33.0  /  32.0  /  33.0  /  36.0  /  31.0</t>
+  </si>
+  <si>
+    <t>89.0  /  90.0  /  90.0  /  91.0  /  91.0</t>
+  </si>
+  <si>
+    <t>20.0  /  21.0  /  19.0  /  20.0  /  20.0</t>
+  </si>
+  <si>
+    <t>17.0  /  17.0  /  17.0  /  16.0  /  16.0</t>
+  </si>
+  <si>
+    <t>12.0  /  12.0  /  12.0  /  12.0  /  12.0</t>
+  </si>
+  <si>
+    <t>182.0  /  182.0  /  182.0  /  182.0  /  178.0</t>
+  </si>
+  <si>
+    <t>70.0  /  69.0  /  73.0  /  69.0  /  70.0</t>
+  </si>
+  <si>
+    <t>56.0  /  56.0  /  56.0  /  55.0  /  54.0</t>
+  </si>
+  <si>
+    <t>41.0  /  41.0  /  40.0  /  41.0  /  43.0</t>
+  </si>
+  <si>
+    <t>97.0  /  89.0  /  88.0  /  90.0  /  89.0</t>
+  </si>
+  <si>
+    <t>39.0  /  38.0  /  38.0  /  38.0  /  38.0</t>
+  </si>
+  <si>
+    <t>👍    61.6 /    61.34 /    60.48 /    58.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2077.0 /   1962.8 /  1788.05 /  1542.82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    12.2 /     12.2 /    12.07 /    12.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.29 /     1.38 /     1.18 /     1.15</t>
+  </si>
+  <si>
+    <t>⚠️-12.18</t>
+  </si>
+  <si>
+    <t>👍    69.9 /    69.72 /    68.95 /    68.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   157.0 /   139.76 /   131.09 /   183.52</t>
+  </si>
+  <si>
+    <t>🏆2.17</t>
+  </si>
+  <si>
+    <t>👎   19.45 /    19.63 /    19.92 /    19.69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1718.0 /   2259.2 /   2795.6 /  3341.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    14.0 /    14.04 /    14.02 /    13.53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.37 /     0.38 /     0.72 /     0.49</t>
+  </si>
+  <si>
+    <t>⚠️-20.9</t>
+  </si>
+  <si>
+    <t>👎   28.75 /    29.34 /    30.63 /    32.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  7030.0 /   6542.4 /   6191.3 /   7127.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    36.8 /    36.88 /    37.84 /    39.53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.59 /     1.22 /     0.65 /     1.76</t>
+  </si>
+  <si>
+    <t>👎    33.7 /    33.76 /    34.32 /    35.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2542.0 /   3187.0 /   3690.1 /  6626.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     9.9 /    10.06 /    10.68 /    13.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.54 /      0.8 /     0.82 /     1.38</t>
+  </si>
+  <si>
+    <t>👎    35.7 /    36.25 /    36.43 /    37.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3955.0 /   5873.8 /   6645.1 /  9747.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    8.68 /     8.93 /     9.25 /    10.38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.97 /     1.21 /      1.1 /     1.89</t>
+  </si>
+  <si>
+    <t>⚠️-10.09</t>
+  </si>
+  <si>
+    <t>👎   21.15 /    21.26 /    21.28 /    21.83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2771.0 /   2257.8 /   2813.4 /   3684.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    9.12 /     9.11 /     9.03 /     9.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     0.8 /     0.81 /     0.91 /     0.97</t>
+  </si>
+  <si>
+    <t>⚠️-16.82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    15.4 /    15.59 /     15.5 /    15.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   548.0 /    514.8 /   746.65 /   772.87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.09 /     2.88 /      2.5 /     2.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     0.1 /      0.1 /      0.1 /     0.07</t>
+  </si>
+  <si>
+    <t>👎    51.3 /    52.54 /    55.46 /    60.89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   830.0 /   1014.8 /   1154.8 /   953.92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    7.36 /     7.38 /     7.64 /     8.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    11.5 /    11.98 /     7.65 /     3.37</t>
+  </si>
+  <si>
+    <t>👍    30.6 /    30.33 /     29.9 /     29.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   704.0 /    828.6 /    540.2 /   555.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    10.6 /    10.52 /    10.32 /    10.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.81 /     0.93 /      1.0 /     1.48</t>
+  </si>
+  <si>
+    <t>👎    20.9 /    21.08 /    21.24 /     22.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    48.1 /     52.1 /    86.18 /   378.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.38 /     1.41 /     1.37 /     1.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.25 /     0.25 /     0.21 /     1.37</t>
+  </si>
+  <si>
+    <t>👎    30.6 /    30.92 /    31.48 /    31.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   415.0 /    409.6 /   374.25 /   684.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.97 /     3.03 /     3.23 /     3.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.57 /     0.55 /     0.45 /     0.65</t>
+  </si>
+  <si>
+    <t>⚠️-14.47</t>
+  </si>
+  <si>
+    <t>👎    32.3 /    32.58 /    34.25 /     34.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1446.0 /   2077.0 /  1785.55 /  3968.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.05 /     1.24 /     1.58 /     1.53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.79 /      5.3 /     5.47 /     5.74</t>
+  </si>
+  <si>
+    <t>👍   25.15 /    24.98 /     24.4 /     24.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16593.0 /  13173.6 / 12579.05 / 13596.93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    46.1 /    46.04 /    45.77 /    46.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.42 /     2.23 /     1.62 /     2.83</t>
+  </si>
+  <si>
+    <t>👍    67.9 /    67.48 /    66.41 /    60.94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3183.0 /   5043.4 /  9776.25 /   7501.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    32.7 /    32.78 /    33.06 /    34.38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    8.73 /     8.64 /     8.56 /     5.76</t>
+  </si>
+  <si>
+    <t>🏆2.72</t>
+  </si>
+  <si>
+    <t>👎    30.5 /    30.77 /    30.38 /    30.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  5093.0 /   4583.6 /   4851.6 /  7081.83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    20.0 /     20.0 /    19.94 /     21.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.18 /     1.15 /      1.1 /     1.46</t>
+  </si>
+  <si>
+    <t>👍    88.3 /    88.08 /    84.23 /    81.91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4149.0 /   3707.0 /   2717.3 /  1964.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    34.9 /     34.7 /    34.05 /    33.61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5.87 /     4.69 /      1.6 /     1.06</t>
+  </si>
+  <si>
+    <t>👎    45.0 /     46.2 /    46.22 /    45.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   667.0 /    599.0 /   1257.6 /  1282.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.68 /      0.8 /     0.88 /     1.63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.16 /     0.15 /     0.11 /     0.86</t>
+  </si>
+  <si>
+    <t>⚠️-18.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    32.8 /    33.31 /    31.36 /    27.89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2088.0 /   4105.6 /  8909.55 /  3542.77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.68 /     1.56 /     1.73 /     2.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    32.1 /    36.44 /    26.69 /    16.31</t>
+  </si>
+  <si>
+    <t>👎   158.0 /    161.4 /   166.05 /   165.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1389.0 /   1398.4 /  2231.55 /  2968.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    21.5 /    21.68 /     22.0 /    22.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    14.9 /    16.58 /    19.03 /    21.52</t>
+  </si>
+  <si>
+    <t>⚠️-15.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    50.0 /    50.32 /    50.89 /    49.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   710.0 /    576.0 /    558.4 /   479.38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    9.96 /    10.25 /     10.6 /    11.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.05 /     0.77 /     0.68 /     0.51</t>
+  </si>
+  <si>
+    <t>👎    36.2 /    36.65 /    37.32 /    38.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1850.0 /   1379.0 /   1228.2 /  1616.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    20.4 /    20.48 /    20.75 /    21.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1.3 /     0.79 /     0.74 /     0.58</t>
+  </si>
+  <si>
+    <t>⚠️-10.96</t>
+  </si>
+  <si>
+    <t>👍    51.2 /    50.89 /    49.77 /    49.38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   137.0 /    227.6 /   144.78 /   137.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     3.7 /     3.69 /     3.69 /     3.67</t>
+  </si>
+  <si>
+    <t>👍    80.4 /    79.66 /    76.39 /    74.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 38470.0 /  45811.0 / 26438.05 / 22597.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    22.2 /    22.18 /    21.95 /    22.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.73 /     5.21 /     9.35 /    14.79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    54.1 /    54.68 /    54.71 /    54.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1349.0 /   1010.6 /   1081.1 /   957.77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    30.3 /    30.58 /    30.85 /    31.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.27 /     0.27 /     0.42 /     0.63</t>
+  </si>
+  <si>
+    <t>⚠️-17.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    33.2 /    33.42 /    33.94 /     31.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1157.0 /    793.6 /  1533.15 /  1456.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    8.19 /     8.28 /      8.6 /     7.87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.11 /     1.84 /      1.6 /     1.07</t>
+  </si>
+  <si>
+    <t>⚠️-20.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    30.7 /    30.93 /    31.51 /    29.91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3409.0 /   3144.2 /  11108.4 / 11530.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    10.8 /    10.86 /    11.42 /     10.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    8.57 /    10.01 /     8.41 /      9.4</t>
+  </si>
+  <si>
+    <t>⚠️-10.47</t>
+  </si>
+  <si>
+    <t>👍   124.5 /    124.2 /   123.25 /   120.92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   950.0 /    929.4 /    791.7 /   902.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    42.3 /    42.36 /    42.35 /    41.72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.47 /     1.85 /     1.25 /      1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    33.3 /    33.35 /    32.63 /    32.46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1153.0 /   1671.4 /   1010.0 /   976.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    6.18 /     6.15 /     6.21 /     6.83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.14 /     0.15 /     0.17 /     0.89</t>
+  </si>
+  <si>
+    <t>👎    28.6 /    28.69 /     29.0 /    29.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   412.0 /    512.8 /    430.3 /   578.82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.92 /     3.99 /     4.17 /     4.89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.56 /     0.34 /     0.31 /     0.32</t>
+  </si>
+  <si>
+    <t>⚠️-15.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    24.2 /    24.61 /    24.22 /    23.83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   914.0 /   2011.0 /  1144.05 /  2014.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5.54 /     5.76 /     5.78 /     6.59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.02 /     0.64 /     0.73 /     0.56</t>
+  </si>
+  <si>
+    <t>👍    53.4 /    53.18 /    51.99 /    51.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  6550.0 /   6845.6 /  5270.75 /  4031.83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    26.7 /    26.82 /    26.77 /    26.76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.62 /     0.55 /     0.38 /     0.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    33.0 /    33.41 /    34.04 /    32.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  7183.0 /   4892.8 /   8693.5 / 11844.83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    12.2 /    12.26 /    11.99 /    11.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     0.8 /     0.86 /     0.93 /     0.76</t>
+  </si>
+  <si>
+    <t>⚠️-17.9</t>
+  </si>
+  <si>
+    <t>👎    58.0 /    58.16 /    58.45 /    59.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3191.0 /   3032.2 /  2522.55 /  3555.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    22.8 /    22.84 /    23.56 /    24.94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.43 /     1.28 /     1.02 /      2.1</t>
+  </si>
+  <si>
+    <t>⚠️-19.49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   49.35 /    49.61 /    49.02 /    46.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2903.0 /   3355.0 /  5487.85 /  4441.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    23.8 /     24.0 /    23.78 /    22.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.53 /     1.44 /     1.08 /     0.67</t>
+  </si>
+  <si>
+    <t>👍   49.15 /    48.93 /    48.18 /    46.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 29246.0 /  22546.6 /  10280.5 /  8069.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    46.8 /    47.08 /    46.96 /    48.38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.87 /     4.28 /     4.15 /     4.91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    47.8 /    47.96 /    48.09 /    47.63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   660.0 /    709.8 /   951.95 /   948.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    21.2 /    21.28 /    21.04 /    20.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     0.2 /     0.22 /     0.19 /      0.2</t>
   </si>
 </sst>
 </file>
@@ -2338,13 +2368,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2705,10 +2735,10 @@
   <dimension ref="A1:AY39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O16" sqref="J16:O16"/>
+      <selection pane="bottomRight" activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2742,7 +2772,7 @@
       <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="11" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="10" t="s">
@@ -2772,10 +2802,10 @@
       <c r="M1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="12" t="s">
         <v>230</v>
       </c>
       <c r="P1" s="10" t="s">
@@ -2792,16 +2822,16 @@
       <c r="Y1" s="10"/>
       <c r="Z1" s="3"/>
       <c r="AA1" s="3"/>
-      <c r="AB1" s="12" t="s">
+      <c r="AB1" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="AC1" s="12" t="s">
+      <c r="AC1" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="AD1" s="12" t="s">
+      <c r="AD1" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="AE1" s="12" t="s">
+      <c r="AE1" s="13" t="s">
         <v>176</v>
       </c>
       <c r="AF1" s="10" t="s">
@@ -2846,7 +2876,7 @@
       <c r="A2" s="9"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
-      <c r="D2" s="13"/>
+      <c r="D2" s="11"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -2864,8 +2894,8 @@
       <c r="M2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
       <c r="P2" s="5" t="s">
         <v>41</v>
       </c>
@@ -2902,10 +2932,10 @@
       <c r="AA2" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="AB2" s="12"/>
-      <c r="AC2" s="12"/>
-      <c r="AD2" s="12"/>
-      <c r="AE2" s="12"/>
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="13"/>
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="13"/>
       <c r="AF2" s="10"/>
       <c r="AG2" s="9"/>
       <c r="AH2" s="10"/>
@@ -2954,31 +2984,31 @@
         <v>19760719</v>
       </c>
       <c r="G3">
-        <v>4.33</v>
+        <v>4.38</v>
       </c>
       <c r="H3">
-        <v>17.7</v>
+        <v>17.5</v>
       </c>
       <c r="I3">
-        <v>2.25</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="J3" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K3" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L3" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M3" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N3">
-        <v>0.89</v>
-      </c>
-      <c r="O3">
-        <v>-9.42</v>
+        <v>0.5</v>
+      </c>
+      <c r="O3" t="s">
+        <v>385</v>
       </c>
       <c r="P3">
         <v>11</v>
@@ -3017,16 +3047,16 @@
         <v>60.8</v>
       </c>
       <c r="AB3" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="AC3" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AD3" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="AE3" t="s">
-        <v>235</v>
+        <v>349</v>
       </c>
       <c r="AF3" s="1">
         <v>26.64</v>
@@ -3097,28 +3127,28 @@
         <v>3.72</v>
       </c>
       <c r="H4">
-        <v>17.72</v>
+        <v>17.739999999999998</v>
       </c>
       <c r="I4">
         <v>3.28</v>
       </c>
       <c r="J4" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="K4" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="L4" t="s">
-        <v>386</v>
+        <v>238</v>
       </c>
       <c r="M4" t="s">
-        <v>387</v>
-      </c>
-      <c r="N4" t="s">
+        <v>156</v>
+      </c>
+      <c r="N4" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="O4">
-        <v>8.44</v>
+      <c r="O4" s="8">
+        <v>5.72</v>
       </c>
       <c r="P4">
         <v>11</v>
@@ -3157,16 +3187,16 @@
         <v>66.81</v>
       </c>
       <c r="AB4" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="AC4" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="AD4" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="AE4" t="s">
-        <v>239</v>
+        <v>350</v>
       </c>
       <c r="AF4" s="1">
         <v>23.18</v>
@@ -3234,13 +3264,13 @@
         <v>19730831</v>
       </c>
       <c r="G5">
-        <v>5.58</v>
+        <v>5.66</v>
       </c>
       <c r="H5">
-        <v>8.68</v>
+        <v>8.57</v>
       </c>
       <c r="I5">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="J5" t="s">
         <v>389</v>
@@ -3254,11 +3284,11 @@
       <c r="M5" t="s">
         <v>392</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5">
+        <v>0.72</v>
+      </c>
+      <c r="O5" t="s">
         <v>393</v>
-      </c>
-      <c r="O5">
-        <v>17.45</v>
       </c>
       <c r="P5">
         <v>9</v>
@@ -3297,16 +3327,16 @@
         <v>38.590000000000003</v>
       </c>
       <c r="AB5" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="AC5" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="AD5" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="AE5" t="s">
-        <v>243</v>
+        <v>351</v>
       </c>
       <c r="AF5" s="1">
         <v>24.73</v>
@@ -3374,13 +3404,13 @@
         <v>19720520</v>
       </c>
       <c r="G6">
-        <v>3.41</v>
+        <v>3.48</v>
       </c>
       <c r="H6">
-        <v>6.42</v>
+        <v>6.29</v>
       </c>
       <c r="I6">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="J6" t="s">
         <v>394</v>
@@ -3395,10 +3425,10 @@
         <v>397</v>
       </c>
       <c r="N6">
-        <v>0.73</v>
+        <v>1.25</v>
       </c>
       <c r="O6">
-        <v>-4.3</v>
+        <v>-3.24</v>
       </c>
       <c r="P6">
         <v>10</v>
@@ -3437,16 +3467,16 @@
         <v>91.4</v>
       </c>
       <c r="AB6" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="AC6" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="AD6" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="AE6" t="s">
-        <v>247</v>
+        <v>352</v>
       </c>
       <c r="AF6">
         <v>23.9</v>
@@ -3514,13 +3544,13 @@
         <v>19730305</v>
       </c>
       <c r="G7">
-        <v>6.76</v>
+        <v>6.82</v>
       </c>
       <c r="H7">
-        <v>6.84</v>
+        <v>6.78</v>
       </c>
       <c r="I7">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="J7" t="s">
         <v>398</v>
@@ -3535,10 +3565,10 @@
         <v>401</v>
       </c>
       <c r="N7">
-        <v>0.9</v>
+        <v>0.67</v>
       </c>
       <c r="O7">
-        <v>6.59</v>
+        <v>-5.23</v>
       </c>
       <c r="P7">
         <v>7</v>
@@ -3577,16 +3607,16 @@
         <v>79.680000000000007</v>
       </c>
       <c r="AB7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="AC7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="AD7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="AE7" t="s">
-        <v>251</v>
+        <v>353</v>
       </c>
       <c r="AF7">
         <v>25.41</v>
@@ -3654,13 +3684,13 @@
         <v>19860620</v>
       </c>
       <c r="G8">
-        <v>3.86</v>
+        <v>3.92</v>
       </c>
       <c r="H8">
-        <v>7.97</v>
+        <v>7.85</v>
       </c>
       <c r="I8">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="J8" t="s">
         <v>402</v>
@@ -3675,10 +3705,10 @@
         <v>405</v>
       </c>
       <c r="N8">
-        <v>0.52</v>
-      </c>
-      <c r="O8">
-        <v>-5.54</v>
+        <v>0.67</v>
+      </c>
+      <c r="O8" t="s">
+        <v>406</v>
       </c>
       <c r="P8">
         <v>11</v>
@@ -3717,16 +3747,16 @@
         <v>100.3</v>
       </c>
       <c r="AB8" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AC8" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AD8" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AE8" t="s">
-        <v>255</v>
+        <v>354</v>
       </c>
       <c r="AF8">
         <v>34.97</v>
@@ -3794,31 +3824,31 @@
         <v>19890327</v>
       </c>
       <c r="G9">
-        <v>4.6399999999999997</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="H9">
-        <v>6.57</v>
+        <v>6.45</v>
       </c>
       <c r="I9">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="J9" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K9" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L9" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M9" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="N9">
-        <v>1.98</v>
-      </c>
-      <c r="O9" s="8" t="s">
-        <v>410</v>
+        <v>0.64</v>
+      </c>
+      <c r="O9" t="s">
+        <v>411</v>
       </c>
       <c r="P9">
         <v>13</v>
@@ -3857,16 +3887,16 @@
         <v>86.32</v>
       </c>
       <c r="AB9" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AC9" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AD9" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AE9" t="s">
-        <v>259</v>
+        <v>355</v>
       </c>
       <c r="AF9">
         <v>9.1999999999999993</v>
@@ -3934,31 +3964,31 @@
         <v>20001031</v>
       </c>
       <c r="G10">
-        <v>2.5499999999999998</v>
+        <v>2.6</v>
       </c>
       <c r="H10">
-        <v>11.13</v>
+        <v>10.92</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="J10" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="K10" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L10" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M10" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N10">
-        <v>1.51</v>
-      </c>
-      <c r="O10" s="8" t="s">
-        <v>415</v>
+        <v>1.43</v>
+      </c>
+      <c r="O10">
+        <v>0.55000000000000004</v>
       </c>
       <c r="P10">
         <v>13</v>
@@ -4006,7 +4036,7 @@
         <v>262</v>
       </c>
       <c r="AE10" t="s">
-        <v>263</v>
+        <v>232</v>
       </c>
       <c r="AF10" s="1">
         <v>16.04</v>
@@ -4059,10 +4089,10 @@
         <v>1515</v>
       </c>
       <c r="B11" t="s">
-        <v>374</v>
+        <v>236</v>
       </c>
       <c r="C11" t="s">
-        <v>375</v>
+        <v>237</v>
       </c>
       <c r="D11">
         <v>1814735000</v>
@@ -4074,13 +4104,13 @@
         <v>19950204</v>
       </c>
       <c r="G11">
-        <v>6.86</v>
+        <v>7.02</v>
       </c>
       <c r="H11">
-        <v>8.27</v>
+        <v>8.08</v>
       </c>
       <c r="I11">
-        <v>2.4500000000000002</v>
+        <v>2.39</v>
       </c>
       <c r="J11" t="s">
         <v>416</v>
@@ -4095,10 +4125,10 @@
         <v>419</v>
       </c>
       <c r="N11">
-        <v>0.56000000000000005</v>
+        <v>0.49</v>
       </c>
       <c r="O11">
-        <v>-6.36</v>
+        <v>-8.19</v>
       </c>
       <c r="P11">
         <v>12</v>
@@ -4137,16 +4167,16 @@
         <v>190.5</v>
       </c>
       <c r="AB11" t="s">
-        <v>376</v>
+        <v>263</v>
       </c>
       <c r="AC11" t="s">
-        <v>377</v>
+        <v>264</v>
       </c>
       <c r="AD11" t="s">
-        <v>378</v>
+        <v>265</v>
       </c>
       <c r="AE11" t="s">
-        <v>379</v>
+        <v>356</v>
       </c>
       <c r="AF11">
         <v>13.81</v>
@@ -4214,13 +4244,13 @@
         <v>19701214</v>
       </c>
       <c r="G12">
-        <v>8.1300000000000008</v>
+        <v>8.17</v>
       </c>
       <c r="H12">
-        <v>6.64</v>
+        <v>6.61</v>
       </c>
       <c r="I12">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="J12" t="s">
         <v>420</v>
@@ -4235,10 +4265,10 @@
         <v>423</v>
       </c>
       <c r="N12">
-        <v>1.1000000000000001</v>
+        <v>0.54</v>
       </c>
       <c r="O12">
-        <v>5.03</v>
+        <v>-6.68</v>
       </c>
       <c r="P12">
         <v>7</v>
@@ -4277,16 +4307,16 @@
         <v>59.67</v>
       </c>
       <c r="AB12" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AC12" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AD12" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AE12" t="s">
-        <v>267</v>
+        <v>357</v>
       </c>
       <c r="AF12">
         <v>17.72</v>
@@ -4354,13 +4384,13 @@
         <v>20160509</v>
       </c>
       <c r="G13">
-        <v>4.7300000000000004</v>
+        <v>4.78</v>
       </c>
       <c r="H13">
-        <v>8.56</v>
+        <v>8.4600000000000009</v>
       </c>
       <c r="I13">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="J13" t="s">
         <v>424</v>
@@ -4375,10 +4405,10 @@
         <v>427</v>
       </c>
       <c r="N13">
-        <v>1.1100000000000001</v>
+        <v>1.25</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="P13">
         <v>12</v>
@@ -4417,13 +4447,13 @@
         <v>60</v>
       </c>
       <c r="AB13" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AC13" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AD13" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AE13" t="s">
         <v>198</v>
@@ -4494,13 +4524,13 @@
         <v>19930427</v>
       </c>
       <c r="G14">
-        <v>5.49</v>
+        <v>5.56</v>
       </c>
       <c r="H14">
-        <v>8.69</v>
+        <v>8.6</v>
       </c>
       <c r="I14">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="J14" t="s">
         <v>428</v>
@@ -4515,10 +4545,10 @@
         <v>431</v>
       </c>
       <c r="N14">
-        <v>0.67</v>
-      </c>
-      <c r="O14">
-        <v>-13.77</v>
+        <v>0.62</v>
+      </c>
+      <c r="O14" t="s">
+        <v>432</v>
       </c>
       <c r="P14">
         <v>12</v>
@@ -4557,16 +4587,16 @@
         <v>92.56</v>
       </c>
       <c r="AB14" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AC14" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AD14" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AE14" t="s">
-        <v>274</v>
+        <v>233</v>
       </c>
       <c r="AF14" s="1">
         <v>14.3</v>
@@ -4634,31 +4664,31 @@
         <v>20160322</v>
       </c>
       <c r="G15">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="H15">
-        <v>8.6199999999999992</v>
+        <v>8.39</v>
       </c>
       <c r="I15">
+        <v>1.35</v>
+      </c>
+      <c r="J15" t="s">
+        <v>433</v>
+      </c>
+      <c r="K15" t="s">
+        <v>434</v>
+      </c>
+      <c r="L15" t="s">
+        <v>435</v>
+      </c>
+      <c r="M15" t="s">
+        <v>436</v>
+      </c>
+      <c r="N15">
         <v>1.39</v>
       </c>
-      <c r="J15" t="s">
-        <v>432</v>
-      </c>
-      <c r="K15" t="s">
-        <v>433</v>
-      </c>
-      <c r="L15" t="s">
-        <v>434</v>
-      </c>
-      <c r="M15" t="s">
-        <v>435</v>
-      </c>
-      <c r="N15">
-        <v>0.95</v>
-      </c>
       <c r="O15">
-        <v>-2.25</v>
+        <v>-6.57</v>
       </c>
       <c r="P15">
         <v>10</v>
@@ -4706,7 +4736,7 @@
         <v>277</v>
       </c>
       <c r="AE15" t="s">
-        <v>278</v>
+        <v>358</v>
       </c>
       <c r="AF15" s="1">
         <v>13</v>
@@ -4774,31 +4804,31 @@
         <v>19920218</v>
       </c>
       <c r="G16">
-        <v>6.4</v>
+        <v>6.36</v>
       </c>
       <c r="H16">
-        <v>7.76</v>
+        <v>7.81</v>
       </c>
       <c r="I16">
         <v>1.01</v>
       </c>
       <c r="J16" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="K16" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="L16" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M16" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="N16">
-        <v>0.91</v>
-      </c>
-      <c r="O16" s="8" t="s">
-        <v>440</v>
+        <v>1.52</v>
+      </c>
+      <c r="O16">
+        <v>14.87</v>
       </c>
       <c r="P16">
         <v>9</v>
@@ -4837,16 +4867,16 @@
         <v>48.3</v>
       </c>
       <c r="AB16" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC16" t="s">
         <v>279</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>280</v>
       </c>
-      <c r="AD16" t="s">
-        <v>281</v>
-      </c>
       <c r="AE16" t="s">
-        <v>282</v>
+        <v>359</v>
       </c>
       <c r="AF16" s="1">
         <v>3.35</v>
@@ -4914,10 +4944,10 @@
         <v>19951213</v>
       </c>
       <c r="G17">
-        <v>4.8499999999999996</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="H17">
-        <v>6.79</v>
+        <v>6.78</v>
       </c>
       <c r="I17">
         <v>1.92</v>
@@ -4934,11 +4964,11 @@
       <c r="M17" t="s">
         <v>444</v>
       </c>
-      <c r="N17">
-        <v>0.95</v>
-      </c>
-      <c r="O17">
-        <v>6.38</v>
+      <c r="N17" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="O17" s="8">
+        <v>14.8</v>
       </c>
       <c r="P17">
         <v>9</v>
@@ -4977,16 +5007,16 @@
         <v>150.30000000000001</v>
       </c>
       <c r="AB17" t="s">
+        <v>281</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>282</v>
+      </c>
+      <c r="AD17" t="s">
         <v>283</v>
       </c>
-      <c r="AC17" t="s">
-        <v>284</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>285</v>
-      </c>
       <c r="AE17" t="s">
-        <v>286</v>
+        <v>360</v>
       </c>
       <c r="AF17" s="1">
         <v>4.4000000000000004</v>
@@ -5054,31 +5084,31 @@
         <v>19960722</v>
       </c>
       <c r="G18">
-        <v>4.8899999999999997</v>
+        <v>4.92</v>
       </c>
       <c r="H18">
-        <v>6.65</v>
+        <v>6.62</v>
       </c>
       <c r="I18">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="J18" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="K18" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L18" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M18" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="N18">
-        <v>0.42</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="O18">
-        <v>-14.8</v>
+        <v>0.24</v>
       </c>
       <c r="P18">
         <v>8</v>
@@ -5117,16 +5147,16 @@
         <v>87.78</v>
       </c>
       <c r="AB18" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="AC18" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="AD18" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="AE18" t="s">
-        <v>290</v>
+        <v>361</v>
       </c>
       <c r="AF18" s="1">
         <v>14.67</v>
@@ -5194,31 +5224,31 @@
         <v>19990105</v>
       </c>
       <c r="G19">
-        <v>6.25</v>
+        <v>6.23</v>
       </c>
       <c r="H19">
-        <v>10.85</v>
+        <v>10.89</v>
       </c>
       <c r="I19">
-        <v>2.2000000000000002</v>
+        <v>2.21</v>
       </c>
       <c r="J19" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="K19" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="L19" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M19" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N19">
-        <v>1.1000000000000001</v>
+        <v>1.89</v>
       </c>
       <c r="O19">
-        <v>9.0500000000000007</v>
+        <v>12.39</v>
       </c>
       <c r="P19">
         <v>10</v>
@@ -5257,16 +5287,16 @@
         <v>121.8</v>
       </c>
       <c r="AB19" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="AC19" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="AD19" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="AE19" t="s">
-        <v>294</v>
+        <v>362</v>
       </c>
       <c r="AF19" s="1">
         <v>17.55</v>
@@ -5334,31 +5364,31 @@
         <v>19990125</v>
       </c>
       <c r="G20">
-        <v>4.3499999999999996</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="H20">
-        <v>7.19</v>
+        <v>7.04</v>
       </c>
       <c r="I20">
-        <v>1.1399999999999999</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="J20" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="K20" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L20" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M20" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N20">
-        <v>0.45</v>
-      </c>
-      <c r="O20">
-        <v>-21.93</v>
+        <v>0.42</v>
+      </c>
+      <c r="O20" t="s">
+        <v>458</v>
       </c>
       <c r="P20">
         <v>10</v>
@@ -5397,16 +5427,16 @@
         <v>147</v>
       </c>
       <c r="AB20" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="AC20" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="AD20" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="AE20" t="s">
-        <v>298</v>
+        <v>363</v>
       </c>
       <c r="AF20">
         <v>12.93</v>
@@ -5474,31 +5504,31 @@
         <v>20000911</v>
       </c>
       <c r="G21">
-        <v>6.09</v>
+        <v>6.1</v>
       </c>
       <c r="H21">
-        <v>12.17</v>
+        <v>12.15</v>
       </c>
       <c r="I21">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="J21" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="K21" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="L21" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="M21" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="N21">
-        <v>1.2</v>
+        <v>1.52</v>
       </c>
       <c r="O21">
-        <v>3.84</v>
+        <v>2</v>
       </c>
       <c r="P21">
         <v>13</v>
@@ -5537,16 +5567,16 @@
         <v>65.400000000000006</v>
       </c>
       <c r="AB21" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="AC21" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="AD21" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="AE21" t="s">
-        <v>302</v>
+        <v>364</v>
       </c>
       <c r="AF21" s="1">
         <v>48.85</v>
@@ -5614,31 +5644,31 @@
         <v>20010917</v>
       </c>
       <c r="G22">
-        <v>5.68</v>
+        <v>5.7</v>
       </c>
       <c r="H22">
-        <v>9.08</v>
+        <v>9.0500000000000007</v>
       </c>
       <c r="I22">
-        <v>4.75</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="J22" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="K22" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="L22" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="M22" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="N22">
-        <v>0.64</v>
-      </c>
-      <c r="O22">
-        <v>-24.13</v>
+        <v>1.71</v>
+      </c>
+      <c r="O22" t="s">
+        <v>467</v>
       </c>
       <c r="P22">
         <v>12</v>
@@ -5677,16 +5707,16 @@
         <v>393.3</v>
       </c>
       <c r="AB22" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="AC22" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="AD22" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="AE22" t="s">
-        <v>306</v>
+        <v>365</v>
       </c>
       <c r="AF22" s="1">
         <v>49.84</v>
@@ -5754,31 +5784,31 @@
         <v>20010917</v>
       </c>
       <c r="G23">
-        <v>5.33</v>
+        <v>5.42</v>
       </c>
       <c r="H23">
-        <v>12.18</v>
+        <v>11.99</v>
       </c>
       <c r="I23">
-        <v>2.97</v>
+        <v>2.92</v>
       </c>
       <c r="J23" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="K23" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="L23" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="M23" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="N23">
-        <v>0.56000000000000005</v>
+        <v>0.81</v>
       </c>
       <c r="O23">
-        <v>-6.98</v>
+        <v>-7.88</v>
       </c>
       <c r="P23">
         <v>11</v>
@@ -5817,13 +5847,13 @@
         <v>83.2</v>
       </c>
       <c r="AB23" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="AC23" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="AD23" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="AE23" t="s">
         <v>198</v>
@@ -5894,31 +5924,31 @@
         <v>19931027</v>
       </c>
       <c r="G24">
-        <v>9.26</v>
+        <v>9.39</v>
       </c>
       <c r="H24">
-        <v>4.32</v>
+        <v>4.26</v>
       </c>
       <c r="I24">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="J24" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="K24" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="L24" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="M24" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="N24">
-        <v>0.84</v>
-      </c>
-      <c r="O24">
-        <v>-12.79</v>
+        <v>1.19</v>
+      </c>
+      <c r="O24" t="s">
+        <v>476</v>
       </c>
       <c r="P24">
         <v>7</v>
@@ -5957,16 +5987,16 @@
         <v>119.1</v>
       </c>
       <c r="AB24" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="AC24" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="AD24" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="AE24" t="s">
-        <v>313</v>
+        <v>366</v>
       </c>
       <c r="AF24" s="1">
         <v>26.73</v>
@@ -6034,31 +6064,31 @@
         <v>20000911</v>
       </c>
       <c r="G25">
-        <v>6.99</v>
+        <v>7.03</v>
       </c>
       <c r="H25">
-        <v>7.33</v>
+        <v>7.28</v>
       </c>
       <c r="I25">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="J25" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="K25" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="L25" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="M25" t="s">
         <v>156</v>
       </c>
       <c r="N25">
-        <v>0.54</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>11.64</v>
+        <v>1.93</v>
       </c>
       <c r="P25">
         <v>7</v>
@@ -6097,16 +6127,16 @@
         <v>84.36</v>
       </c>
       <c r="AB25" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="AC25" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="AD25" t="s">
-        <v>316</v>
+        <v>234</v>
       </c>
       <c r="AE25" t="s">
-        <v>317</v>
+        <v>235</v>
       </c>
       <c r="AF25" s="1">
         <v>11.23</v>
@@ -6174,31 +6204,31 @@
         <v>20011219</v>
       </c>
       <c r="G26">
-        <v>3.68</v>
+        <v>3.73</v>
       </c>
       <c r="H26">
-        <v>6.72</v>
+        <v>6.62</v>
       </c>
       <c r="I26">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="J26" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="K26" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="L26" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="M26" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="N26">
-        <v>0.99</v>
+        <v>0.67</v>
       </c>
       <c r="O26">
-        <v>3.25</v>
+        <v>-7.52</v>
       </c>
       <c r="P26">
         <v>7</v>
@@ -6237,16 +6267,16 @@
         <v>145.6</v>
       </c>
       <c r="AB26" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="AC26" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="AD26" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="AE26" t="s">
-        <v>321</v>
+        <v>367</v>
       </c>
       <c r="AF26" s="1">
         <v>0</v>
@@ -6314,31 +6344,31 @@
         <v>20020225</v>
       </c>
       <c r="G27">
-        <v>6.56</v>
+        <v>6.64</v>
       </c>
       <c r="H27">
-        <v>7.53</v>
+        <v>7.45</v>
       </c>
       <c r="I27">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="J27" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="K27" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="L27" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="M27" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="N27">
-        <v>0.52</v>
-      </c>
-      <c r="O27">
-        <v>-20.72</v>
+        <v>0.6</v>
+      </c>
+      <c r="O27" t="s">
+        <v>488</v>
       </c>
       <c r="P27">
         <v>10</v>
@@ -6377,16 +6407,16 @@
         <v>124.1</v>
       </c>
       <c r="AB27" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="AC27" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="AD27" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="AE27" t="s">
-        <v>325</v>
+        <v>368</v>
       </c>
       <c r="AF27" s="1">
         <v>24.89</v>
@@ -6454,31 +6484,31 @@
         <v>20020826</v>
       </c>
       <c r="G28">
-        <v>5.65</v>
+        <v>5.72</v>
       </c>
       <c r="H28">
-        <v>8.66</v>
+        <v>8.56</v>
       </c>
       <c r="I28">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="J28" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="K28" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="L28" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="M28" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="N28">
-        <v>1.65</v>
-      </c>
-      <c r="O28">
-        <v>1.08</v>
+        <v>0.65</v>
+      </c>
+      <c r="O28" t="s">
+        <v>493</v>
       </c>
       <c r="P28">
         <v>10</v>
@@ -6517,16 +6547,16 @@
         <v>58.05</v>
       </c>
       <c r="AB28" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="AC28" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="AD28" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="AE28" t="s">
-        <v>329</v>
+        <v>369</v>
       </c>
       <c r="AF28">
         <v>5.93</v>
@@ -6594,31 +6624,31 @@
         <v>20020826</v>
       </c>
       <c r="G29">
-        <v>4.28</v>
+        <v>4.33</v>
       </c>
       <c r="H29">
-        <v>8.66</v>
+        <v>8.5500000000000007</v>
       </c>
       <c r="I29">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="J29" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="K29" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="L29" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="M29" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="N29">
-        <v>1.6</v>
-      </c>
-      <c r="O29">
-        <v>8.94</v>
+        <v>0.47</v>
+      </c>
+      <c r="O29" t="s">
+        <v>498</v>
       </c>
       <c r="P29">
         <v>9</v>
@@ -6657,16 +6687,16 @@
         <v>58.05</v>
       </c>
       <c r="AB29" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="AC29" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="AD29" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="AE29" t="s">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="AF29">
         <v>7.01</v>
@@ -6746,22 +6776,22 @@
         <v>1.79</v>
       </c>
       <c r="J30" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="K30" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="L30" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="M30" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="N30">
-        <v>0.56000000000000005</v>
+        <v>0.42</v>
       </c>
       <c r="O30">
-        <v>-7.43</v>
+        <v>-9.16</v>
       </c>
       <c r="P30">
         <v>8</v>
@@ -6800,16 +6830,16 @@
         <v>164.4</v>
       </c>
       <c r="AB30" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="AC30" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="AD30" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="AE30" t="s">
-        <v>337</v>
+        <v>371</v>
       </c>
       <c r="AF30" s="1">
         <v>18.75</v>
@@ -6877,31 +6907,31 @@
         <v>20021001</v>
       </c>
       <c r="G31">
-        <v>8.6300000000000008</v>
+        <v>8.7100000000000009</v>
       </c>
       <c r="H31">
-        <v>7.83</v>
+        <v>7.76</v>
       </c>
       <c r="I31">
-        <v>2.06</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="J31" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="K31" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="L31" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="M31" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="N31">
-        <v>0.89</v>
+        <v>0.75</v>
       </c>
       <c r="O31">
-        <v>1.2</v>
+        <v>2.86</v>
       </c>
       <c r="P31">
         <v>8</v>
@@ -6940,16 +6970,16 @@
         <v>68.64</v>
       </c>
       <c r="AB31" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="AC31" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="AD31" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="AE31" t="s">
-        <v>341</v>
+        <v>372</v>
       </c>
       <c r="AF31">
         <v>3.24</v>
@@ -7017,31 +7047,31 @@
         <v>20081126</v>
       </c>
       <c r="G32">
-        <v>6.98</v>
+        <v>6.99</v>
       </c>
       <c r="H32">
-        <v>8.0299999999999994</v>
+        <v>8.01</v>
       </c>
       <c r="I32">
         <v>1.64</v>
       </c>
       <c r="J32" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="K32" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="L32" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="M32" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="N32">
-        <v>0.93</v>
-      </c>
-      <c r="O32">
-        <v>-14.55</v>
+        <v>0.87</v>
+      </c>
+      <c r="O32" t="s">
+        <v>511</v>
       </c>
       <c r="P32">
         <v>9</v>
@@ -7080,16 +7110,16 @@
         <v>49.84</v>
       </c>
       <c r="AB32" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="AC32" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="AD32" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="AE32" t="s">
-        <v>345</v>
+        <v>373</v>
       </c>
       <c r="AF32" s="1">
         <v>5.31</v>
@@ -7157,31 +7187,31 @@
         <v>20101229</v>
       </c>
       <c r="G33">
-        <v>4.1100000000000003</v>
+        <v>4.13</v>
       </c>
       <c r="H33">
-        <v>7.75</v>
+        <v>7.71</v>
       </c>
       <c r="I33">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="J33" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="K33" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="L33" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="M33" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="N33">
         <v>0.92</v>
       </c>
       <c r="O33">
-        <v>-10.25</v>
+        <v>-4.2699999999999996</v>
       </c>
       <c r="P33">
         <v>15</v>
@@ -7220,16 +7250,16 @@
         <v>94.2</v>
       </c>
       <c r="AB33" t="s">
-        <v>346</v>
+        <v>328</v>
       </c>
       <c r="AC33" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="AD33" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="AE33" t="s">
-        <v>349</v>
+        <v>374</v>
       </c>
       <c r="AF33">
         <v>5.84</v>
@@ -7297,31 +7327,31 @@
         <v>20051109</v>
       </c>
       <c r="G34">
-        <v>5.75</v>
+        <v>5.81</v>
       </c>
       <c r="H34">
-        <v>9.31</v>
+        <v>9.2200000000000006</v>
       </c>
       <c r="I34">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="J34" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="K34" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="L34" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="M34" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="N34">
-        <v>0.92</v>
+        <v>0.67</v>
       </c>
       <c r="O34">
-        <v>10.26</v>
+        <v>0.12</v>
       </c>
       <c r="P34">
         <v>9</v>
@@ -7360,16 +7390,16 @@
         <v>80.47</v>
       </c>
       <c r="AB34" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="AC34" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="AD34" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
       <c r="AE34" t="s">
-        <v>353</v>
+        <v>375</v>
       </c>
       <c r="AF34" s="1">
         <v>3.89</v>
@@ -7437,31 +7467,31 @@
         <v>20130912</v>
       </c>
       <c r="G35">
-        <v>2.99</v>
+        <v>3.03</v>
       </c>
       <c r="H35">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I35">
-        <v>0.81</v>
+        <v>0.8</v>
       </c>
       <c r="J35" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="K35" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="L35" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="M35" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="N35">
-        <v>0.89</v>
-      </c>
-      <c r="O35">
-        <v>-17.309999999999999</v>
+        <v>0.47</v>
+      </c>
+      <c r="O35" t="s">
+        <v>524</v>
       </c>
       <c r="P35">
         <v>8</v>
@@ -7500,16 +7530,16 @@
         <v>154.80000000000001</v>
       </c>
       <c r="AB35" t="s">
-        <v>354</v>
+        <v>334</v>
       </c>
       <c r="AC35" t="s">
-        <v>355</v>
+        <v>335</v>
       </c>
       <c r="AD35" t="s">
-        <v>356</v>
+        <v>336</v>
       </c>
       <c r="AE35" t="s">
-        <v>357</v>
+        <v>376</v>
       </c>
       <c r="AF35" s="1">
         <v>9.75</v>
@@ -7577,31 +7607,31 @@
         <v>20030825</v>
       </c>
       <c r="G36">
-        <v>4.8600000000000003</v>
+        <v>4.95</v>
       </c>
       <c r="H36">
-        <v>10.28</v>
+        <v>10.1</v>
       </c>
       <c r="I36">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="J36" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="K36" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="L36" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="M36" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="N36">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="O36">
-        <v>-5.71</v>
+        <v>0.26</v>
+      </c>
+      <c r="O36" t="s">
+        <v>529</v>
       </c>
       <c r="P36">
         <v>9</v>
@@ -7640,16 +7670,16 @@
         <v>87.45</v>
       </c>
       <c r="AB36" t="s">
-        <v>358</v>
+        <v>337</v>
       </c>
       <c r="AC36" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
       <c r="AD36" t="s">
-        <v>360</v>
+        <v>339</v>
       </c>
       <c r="AE36" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="AF36" s="1">
         <v>30.03</v>
@@ -7717,31 +7747,31 @@
         <v>20071231</v>
       </c>
       <c r="G37">
-        <v>6.04</v>
+        <v>6.08</v>
       </c>
       <c r="H37">
-        <v>7.84</v>
+        <v>7.78</v>
       </c>
       <c r="I37">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="J37" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="K37" t="s">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="L37" t="s">
-        <v>522</v>
+        <v>532</v>
       </c>
       <c r="M37" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="N37">
-        <v>0.53</v>
+        <v>0.7</v>
       </c>
       <c r="O37">
-        <v>-16.059999999999999</v>
+        <v>-4.13</v>
       </c>
       <c r="P37">
         <v>7</v>
@@ -7780,16 +7810,16 @@
         <v>87.23</v>
       </c>
       <c r="AB37" t="s">
-        <v>362</v>
+        <v>340</v>
       </c>
       <c r="AC37" t="s">
-        <v>363</v>
+        <v>341</v>
       </c>
       <c r="AD37" t="s">
-        <v>364</v>
+        <v>342</v>
       </c>
       <c r="AE37" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="AF37" s="1">
         <v>3.26</v>
@@ -7857,31 +7887,31 @@
         <v>20140411</v>
       </c>
       <c r="G38">
-        <v>4.29</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="H38">
-        <v>8.6199999999999992</v>
+        <v>8.26</v>
       </c>
       <c r="I38">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="J38" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="K38" t="s">
-        <v>525</v>
+        <v>535</v>
       </c>
       <c r="L38" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="M38" t="s">
-        <v>527</v>
+        <v>537</v>
       </c>
       <c r="N38">
-        <v>0.99</v>
+        <v>0.53</v>
       </c>
       <c r="O38">
-        <v>0.64</v>
+        <v>-5.04</v>
       </c>
       <c r="P38">
         <v>9</v>
@@ -7920,16 +7950,16 @@
         <v>107.1</v>
       </c>
       <c r="AB38" t="s">
-        <v>366</v>
+        <v>343</v>
       </c>
       <c r="AC38" t="s">
-        <v>367</v>
+        <v>344</v>
       </c>
       <c r="AD38" t="s">
-        <v>368</v>
+        <v>345</v>
       </c>
       <c r="AE38" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="AF38" s="1">
         <v>26.62</v>
@@ -7997,31 +8027,31 @@
         <v>20091225</v>
       </c>
       <c r="G39">
-        <v>7.3</v>
+        <v>7.32</v>
       </c>
       <c r="H39">
-        <v>7.93</v>
+        <v>7.9</v>
       </c>
       <c r="I39">
         <v>0.99</v>
       </c>
       <c r="J39" t="s">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="K39" t="s">
-        <v>529</v>
+        <v>539</v>
       </c>
       <c r="L39" t="s">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="M39" t="s">
-        <v>531</v>
+        <v>541</v>
       </c>
       <c r="N39">
-        <v>0.88</v>
+        <v>1.67</v>
       </c>
       <c r="O39">
-        <v>-1.89</v>
+        <v>-5.61</v>
       </c>
       <c r="P39">
         <v>6</v>
@@ -8060,16 +8090,16 @@
         <v>67.209999999999994</v>
       </c>
       <c r="AB39" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="AC39" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="AD39" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="AE39" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="AF39" s="1">
         <v>15.64</v>
@@ -8127,6 +8157,17 @@
     <sortCondition ref="A39"/>
   </sortState>
   <mergeCells count="27">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="AF1:AF2"/>
+    <mergeCell ref="AG1:AG2"/>
+    <mergeCell ref="AH1:AH2"/>
+    <mergeCell ref="AI1:AI2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="AE1:AE2"/>
+    <mergeCell ref="AD1:AD2"/>
+    <mergeCell ref="AC1:AC2"/>
+    <mergeCell ref="AB1:AB2"/>
     <mergeCell ref="AP1:AT1"/>
     <mergeCell ref="AJ1:AJ2"/>
     <mergeCell ref="B1:B2"/>
@@ -8143,17 +8184,6 @@
     <mergeCell ref="AM1:AM2"/>
     <mergeCell ref="AN1:AN2"/>
     <mergeCell ref="AO1:AO2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="AF1:AF2"/>
-    <mergeCell ref="AG1:AG2"/>
-    <mergeCell ref="AH1:AH2"/>
-    <mergeCell ref="AI1:AI2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="AE1:AE2"/>
-    <mergeCell ref="AD1:AD2"/>
-    <mergeCell ref="AC1:AC2"/>
-    <mergeCell ref="AB1:AB2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="AF26:AF28">

--- a/Data/彙整清單_整理版.xlsx
+++ b/Data/彙整清單_整理版.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hmlu\svnbox\Research\Python\Stock\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\svnbox\Python\Stock\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A0C925-67A5-478C-B9F5-F2CE923A64E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFCB45A4-7770-4190-9A55-E76F0813E5BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="26760" windowHeight="14520" xr2:uid="{D923A086-913E-4840-96DC-7378B4FF8169}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D923A086-913E-4840-96DC-7378B4FF8169}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$6:$AT$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$6:$AU$27</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="538">
   <si>
     <t>公司名稱</t>
   </si>
@@ -801,9 +801,6 @@
     <t>力山工業股份有限公司</t>
   </si>
   <si>
-    <t xml:space="preserve">    1.81 /     1.82 /     1.84 /     1.92</t>
-  </si>
-  <si>
     <t>26.22  /  26.11  /  26.12  /  26.22  /  26.3</t>
   </si>
   <si>
@@ -1230,487 +1227,480 @@
     <t>39.0  /  38.0  /  38.0  /  38.0  /  38.0</t>
   </si>
   <si>
-    <t>👍    61.6 /    61.34 /    60.48 /    58.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2077.0 /   1962.8 /  1788.05 /  1542.82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    12.2 /     12.2 /    12.07 /    12.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.29 /     1.38 /     1.18 /     1.15</t>
-  </si>
-  <si>
-    <t>⚠️-12.18</t>
-  </si>
-  <si>
-    <t>👍    69.9 /    69.72 /    68.95 /    68.36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   157.0 /   139.76 /   131.09 /   183.52</t>
-  </si>
-  <si>
-    <t>🏆2.17</t>
-  </si>
-  <si>
-    <t>👎   19.45 /    19.63 /    19.92 /    19.69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1718.0 /   2259.2 /   2795.6 /  3341.43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    14.0 /    14.04 /    14.02 /    13.53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.37 /     0.38 /     0.72 /     0.49</t>
-  </si>
-  <si>
-    <t>⚠️-20.9</t>
-  </si>
-  <si>
-    <t>👎   28.75 /    29.34 /    30.63 /    32.39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  7030.0 /   6542.4 /   6191.3 /   7127.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    36.8 /    36.88 /    37.84 /    39.53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.59 /     1.22 /     0.65 /     1.76</t>
-  </si>
-  <si>
-    <t>👎    33.7 /    33.76 /    34.32 /    35.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2542.0 /   3187.0 /   3690.1 /  6626.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     9.9 /    10.06 /    10.68 /    13.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.54 /      0.8 /     0.82 /     1.38</t>
-  </si>
-  <si>
-    <t>👎    35.7 /    36.25 /    36.43 /    37.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3955.0 /   5873.8 /   6645.1 /  9747.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8.68 /     8.93 /     9.25 /    10.38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.97 /     1.21 /      1.1 /     1.89</t>
-  </si>
-  <si>
-    <t>⚠️-10.09</t>
-  </si>
-  <si>
-    <t>👎   21.15 /    21.26 /    21.28 /    21.83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2771.0 /   2257.8 /   2813.4 /   3684.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9.12 /     9.11 /     9.03 /     9.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     0.8 /     0.81 /     0.91 /     0.97</t>
-  </si>
-  <si>
-    <t>⚠️-16.82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    15.4 /    15.59 /     15.5 /    15.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   548.0 /    514.8 /   746.65 /   772.87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.09 /     2.88 /      2.5 /     2.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     0.1 /      0.1 /      0.1 /     0.07</t>
-  </si>
-  <si>
-    <t>👎    51.3 /    52.54 /    55.46 /    60.89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   830.0 /   1014.8 /   1154.8 /   953.92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7.36 /     7.38 /     7.64 /     8.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    11.5 /    11.98 /     7.65 /     3.37</t>
-  </si>
-  <si>
-    <t>👍    30.6 /    30.33 /     29.9 /     29.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   704.0 /    828.6 /    540.2 /   555.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    10.6 /    10.52 /    10.32 /    10.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.81 /     0.93 /      1.0 /     1.48</t>
-  </si>
-  <si>
-    <t>👎    20.9 /    21.08 /    21.24 /     22.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    48.1 /     52.1 /    86.18 /   378.39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.38 /     1.41 /     1.37 /     1.31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.25 /     0.25 /     0.21 /     1.37</t>
-  </si>
-  <si>
-    <t>👎    30.6 /    30.92 /    31.48 /    31.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   415.0 /    409.6 /   374.25 /   684.65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.97 /     3.03 /     3.23 /     3.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.57 /     0.55 /     0.45 /     0.65</t>
-  </si>
-  <si>
-    <t>⚠️-14.47</t>
-  </si>
-  <si>
-    <t>👎    32.3 /    32.58 /    34.25 /     34.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1446.0 /   2077.0 /  1785.55 /  3968.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.05 /     1.24 /     1.58 /     1.53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4.79 /      5.3 /     5.47 /     5.74</t>
-  </si>
-  <si>
-    <t>👍   25.15 /    24.98 /     24.4 /     24.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 16593.0 /  13173.6 / 12579.05 / 13596.93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    46.1 /    46.04 /    45.77 /    46.66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.42 /     2.23 /     1.62 /     2.83</t>
-  </si>
-  <si>
-    <t>👍    67.9 /    67.48 /    66.41 /    60.94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3183.0 /   5043.4 /  9776.25 /   7501.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    32.7 /    32.78 /    33.06 /    34.38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8.73 /     8.64 /     8.56 /     5.76</t>
-  </si>
-  <si>
-    <t>🏆2.72</t>
-  </si>
-  <si>
-    <t>👎    30.5 /    30.77 /    30.38 /    30.65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  5093.0 /   4583.6 /   4851.6 /  7081.83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    20.0 /     20.0 /    19.94 /     21.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.18 /     1.15 /      1.1 /     1.46</t>
-  </si>
-  <si>
-    <t>👍    88.3 /    88.08 /    84.23 /    81.91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  4149.0 /   3707.0 /   2717.3 /  1964.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    34.9 /     34.7 /    34.05 /    33.61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5.87 /     4.69 /      1.6 /     1.06</t>
-  </si>
-  <si>
-    <t>👎    45.0 /     46.2 /    46.22 /    45.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   667.0 /    599.0 /   1257.6 /  1282.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.68 /      0.8 /     0.88 /     1.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.16 /     0.15 /     0.11 /     0.86</t>
-  </si>
-  <si>
-    <t>⚠️-18.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    32.8 /    33.31 /    31.36 /    27.89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2088.0 /   4105.6 /  8909.55 /  3542.77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.68 /     1.56 /     1.73 /     2.45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    32.1 /    36.44 /    26.69 /    16.31</t>
-  </si>
-  <si>
-    <t>👎   158.0 /    161.4 /   166.05 /   165.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1389.0 /   1398.4 /  2231.55 /  2968.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    21.5 /    21.68 /     22.0 /    22.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    14.9 /    16.58 /    19.03 /    21.52</t>
-  </si>
-  <si>
-    <t>⚠️-15.58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    50.0 /    50.32 /    50.89 /    49.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   710.0 /    576.0 /    558.4 /   479.38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9.96 /    10.25 /     10.6 /    11.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.05 /     0.77 /     0.68 /     0.51</t>
-  </si>
-  <si>
-    <t>👎    36.2 /    36.65 /    37.32 /    38.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1850.0 /   1379.0 /   1228.2 /  1616.52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    20.4 /    20.48 /    20.75 /    21.09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     1.3 /     0.79 /     0.74 /     0.58</t>
-  </si>
-  <si>
-    <t>⚠️-10.96</t>
-  </si>
-  <si>
-    <t>👍    51.2 /    50.89 /    49.77 /    49.38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   137.0 /    227.6 /   144.78 /   137.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     3.7 /     3.69 /     3.69 /     3.67</t>
-  </si>
-  <si>
-    <t>👍    80.4 /    79.66 /    76.39 /    74.96</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 38470.0 /  45811.0 / 26438.05 / 22597.52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    22.2 /    22.18 /    21.95 /    22.37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.73 /     5.21 /     9.35 /    14.79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    54.1 /    54.68 /    54.71 /    54.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1349.0 /   1010.6 /   1081.1 /   957.77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    30.3 /    30.58 /    30.85 /    31.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.27 /     0.27 /     0.42 /     0.63</t>
-  </si>
-  <si>
-    <t>⚠️-17.43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    33.2 /    33.42 /    33.94 /     31.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1157.0 /    793.6 /  1533.15 /  1456.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8.19 /     8.28 /      8.6 /     7.87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.11 /     1.84 /      1.6 /     1.07</t>
-  </si>
-  <si>
-    <t>⚠️-20.58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    30.7 /    30.93 /    31.51 /    29.91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3409.0 /   3144.2 /  11108.4 / 11530.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    10.8 /    10.86 /    11.42 /     10.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8.57 /    10.01 /     8.41 /      9.4</t>
-  </si>
-  <si>
-    <t>⚠️-10.47</t>
-  </si>
-  <si>
-    <t>👍   124.5 /    124.2 /   123.25 /   120.92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   950.0 /    929.4 /    791.7 /   902.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    42.3 /    42.36 /    42.35 /    41.72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.47 /     1.85 /     1.25 /      1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    33.3 /    33.35 /    32.63 /    32.46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1153.0 /   1671.4 /   1010.0 /   976.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6.18 /     6.15 /     6.21 /     6.83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.14 /     0.15 /     0.17 /     0.89</t>
-  </si>
-  <si>
-    <t>👎    28.6 /    28.69 /     29.0 /    29.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   412.0 /    512.8 /    430.3 /   578.82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.92 /     3.99 /     4.17 /     4.89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.56 /     0.34 /     0.31 /     0.32</t>
-  </si>
-  <si>
-    <t>⚠️-15.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    24.2 /    24.61 /    24.22 /    23.83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   914.0 /   2011.0 /  1144.05 /  2014.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5.54 /     5.76 /     5.78 /     6.59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.02 /     0.64 /     0.73 /     0.56</t>
-  </si>
-  <si>
-    <t>👍    53.4 /    53.18 /    51.99 /    51.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  6550.0 /   6845.6 /  5270.75 /  4031.83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    26.7 /    26.82 /    26.77 /    26.76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.62 /     0.55 /     0.38 /     0.52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    33.0 /    33.41 /    34.04 /    32.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  7183.0 /   4892.8 /   8693.5 / 11844.83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    12.2 /    12.26 /    11.99 /    11.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     0.8 /     0.86 /     0.93 /     0.76</t>
-  </si>
-  <si>
-    <t>⚠️-17.9</t>
-  </si>
-  <si>
-    <t>👎    58.0 /    58.16 /    58.45 /    59.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3191.0 /   3032.2 /  2522.55 /  3555.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    22.8 /    22.84 /    23.56 /    24.94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.43 /     1.28 /     1.02 /      2.1</t>
-  </si>
-  <si>
-    <t>⚠️-19.49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   49.35 /    49.61 /    49.02 /    46.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2903.0 /   3355.0 /  5487.85 /  4441.97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    23.8 /     24.0 /    23.78 /    22.41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.53 /     1.44 /     1.08 /     0.67</t>
-  </si>
-  <si>
-    <t>👍   49.15 /    48.93 /    48.18 /    46.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 29246.0 /  22546.6 /  10280.5 /  8069.45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    46.8 /    47.08 /    46.96 /    48.38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4.87 /     4.28 /     4.15 /     4.91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    47.8 /    47.96 /    48.09 /    47.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   660.0 /    709.8 /   951.95 /   948.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    21.2 /    21.28 /    21.04 /    20.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     0.2 /     0.22 /     0.19 /      0.2</t>
+    <t>重押
+券商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>👍    62.2 /    61.62 /    60.72 /    58.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1938.0 /   1959.4 /   1794.7 /   1552.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    12.2 /     12.2 /    12.08 /    12.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.32 /     1.36 /     1.19 /     1.14</t>
+  </si>
+  <si>
+    <t>⚠️-12.48</t>
+  </si>
+  <si>
+    <t>👍    71.3 /     70.1 /    69.11 /    68.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   509.0 /   221.92 /   153.67 /   188.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.86 /     1.82 /     1.84 /     1.92</t>
+  </si>
+  <si>
+    <t>👎   19.35 /    19.53 /    19.89 /     19.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1814.0 /   2286.2 /  2538.65 /  3305.63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    14.0 /    14.02 /    14.04 /    13.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.37 /     0.36 /      0.7 /     0.49</t>
+  </si>
+  <si>
+    <t>⚠️-15.21</t>
+  </si>
+  <si>
+    <t>👎    28.9 /    29.08 /    30.53 /    32.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4132.0 /   6095.4 /  6120.95 /  6949.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    36.8 /    36.82 /    37.76 /    39.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.44 /     1.17 /     0.65 /     1.66</t>
+  </si>
+  <si>
+    <t>👎    33.8 /    33.76 /    34.34 /    35.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1307.0 /   2186.4 /   3622.0 /  6330.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    9.81 /     9.98 /    10.61 /     13.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.51 /     0.58 /     0.82 /     1.35</t>
+  </si>
+  <si>
+    <t>👎   35.45 /    35.88 /    36.39 /    37.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4311.0 /   4763.0 /  6720.45 /  9346.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    8.41 /     8.77 /     9.19 /    10.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.99 /     1.13 /     1.09 /      1.8</t>
+  </si>
+  <si>
+    <t>⚠️-22.35</t>
+  </si>
+  <si>
+    <t>👎   21.25 /    21.28 /    21.29 /    21.78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1129.0 /   1998.0 /   2666.6 /  3617.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    9.11 /     9.11 /     9.04 /     9.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.81 /     0.81 /     0.89 /     0.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   15.45 /    15.54 /    15.51 /    15.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   564.0 /    529.8 /   727.15 /   766.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.04 /     2.96 /     2.56 /      2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.33 /     0.55 /     0.21 /     0.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">538E 第一自由 (59.113%) </t>
+  </si>
+  <si>
+    <t>👎    51.0 /    51.94 /    55.19 /    60.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1188.0 /    811.0 /  1136.45 /   963.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    7.46 /     7.36 /     7.62 /     8.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    10.9 /    11.54 /     7.99 /     3.54</t>
+  </si>
+  <si>
+    <t>👍    30.5 /    30.43 /    29.95 /     29.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   472.0 /    833.4 /   548.15 /   555.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    10.6 /    10.56 /    10.34 /    10.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.81 /      0.9 /     0.99 /     1.45</t>
+  </si>
+  <si>
+    <t>👎   21.05 /    21.03 /    21.23 /    22.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    22.0 /    51.26 /    84.23 /   366.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.38 /      1.4 /     1.38 /     1.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.25 /     0.25 /     0.21 /     1.28</t>
+  </si>
+  <si>
+    <t>👎   30.55 /    30.76 /    31.41 /    31.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   211.0 /    385.8 /   347.25 /   661.83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.98 /     3.01 /     3.21 /     3.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.57 /     0.56 /     0.46 /     0.63</t>
+  </si>
+  <si>
+    <t>⚠️-16.1</t>
+  </si>
+  <si>
+    <t>👎   32.65 /    32.59 /     34.1 /    34.53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   602.0 /   1944.8 /  1619.25 /  3897.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.04 /     1.17 /     1.54 /     1.53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5.03 /     5.14 /     5.45 /     5.74</t>
+  </si>
+  <si>
+    <t>👍    25.3 /    25.07 /    24.46 /    24.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13452.0 /  13384.4 /  12172.2 / 13520.98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    46.2 /    46.08 /     45.8 /    46.63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.33 /     2.48 /     1.72 /      2.8</t>
+  </si>
+  <si>
+    <t>👍    68.1 /    67.86 /     66.5 /     61.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2591.0 /   4934.2 /  8305.05 /  7514.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    32.7 /    32.76 /    32.94 /    34.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    8.75 /     8.57 /      8.8 /     5.82</t>
+  </si>
+  <si>
+    <t>👍    31.0 /    30.77 /    30.45 /    30.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  5034.0 /   4270.4 /   4797.8 /  7113.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    20.1 /    20.02 /    19.95 /    21.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.21 /     1.18 /      1.1 /     1.44</t>
+  </si>
+  <si>
+    <t>🏆28.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    88.0 /    88.28 /    84.53 /    82.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1436.0 /   3379.4 /  2618.75 /  1936.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    34.8 /    34.76 /    34.12 /    33.63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5.72 /     5.04 /     1.88 /     1.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   45.75 /    45.96 /    46.24 /    45.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   304.0 /    548.6 /   1243.2 /   1281.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.66 /     0.75 /     0.87 /     1.61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.16 /     0.16 /     0.11 /     0.82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    33.0 /    33.11 /    31.79 /     28.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2532.0 /   3428.8 /  9012.95 /  3568.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.44 /     1.59 /      1.7 /     2.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    31.8 /    35.18 /    27.91 /    16.65</t>
+  </si>
+  <si>
+    <t>👎   162.0 /    160.7 /   165.85 /   164.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   786.0 /   1383.2 /   2092.2 /   2810.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    21.5 /    21.62 /    21.99 /    21.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    12.3 /     15.1 /    18.66 /    21.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    50.2 /     50.2 /    50.94 /    49.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   216.0 /    563.8 /   549.65 /   476.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    9.92 /    10.14 /    10.55 /    10.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.05 /     0.86 /     0.69 /     0.48</t>
+  </si>
+  <si>
+    <t>👎    36.0 /    36.51 /    37.24 /    38.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1336.0 /   1322.4 /  1214.05 /   1625.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    20.3 /    20.44 /     20.7 /    21.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.35 /     0.92 /     0.77 /     0.59</t>
+  </si>
+  <si>
+    <t>⚠️-25.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    50.8 /    51.06 /    49.86 /    49.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   114.0 /    211.6 /   149.16 /   138.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.69 /      3.7 /     3.69 /     3.68</t>
+  </si>
+  <si>
+    <t>⚠️-13.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    78.9 /    80.16 /    76.62 /    75.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 29768.0 /  48796.2 /  23193.6 / 22835.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    22.2 /    22.22 /    21.97 /    22.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.57 /     3.43 /     8.89 /    13.89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    54.2 /    54.54 /    54.74 /     54.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1016.0 /   1064.2 /    970.5 /   966.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    30.2 /    30.46 /    30.81 /    31.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.31 /     0.28 /      0.4 /     0.63</t>
+  </si>
+  <si>
+    <t>⚠️-32.77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   33.55 /    33.48 /     33.9 /    31.79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   325.0 /    691.2 /  1395.45 /  1455.78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    8.19 /     8.23 /     8.59 /      7.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.32 /     1.96 /     1.65 /     1.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   31.15 /    30.99 /    31.56 /    29.98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1639.0 /   2871.6 / 10861.35 / 11502.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    11.0 /    10.86 /     11.5 /    10.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    8.42 /     9.29 /     8.39 /     9.23</t>
+  </si>
+  <si>
+    <t>👍   126.0 /    124.6 /   123.38 /   121.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1389.0 /   1138.4 /    780.5 /   893.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    42.4 /    42.36 /    42.37 /    41.73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.61 /     2.04 /     1.34 /     1.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   33.35 /    33.41 /     32.7 /    32.46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   472.0 /   1359.6 /    998.6 /   950.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    6.21 /     6.17 /     6.21 /     6.82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.14 /     0.15 /     0.16 /     0.86</t>
+  </si>
+  <si>
+    <t>👎   28.65 /    28.63 /     29.0 /    29.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   238.0 /    513.6 /    424.2 /   575.63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.89 /     3.95 /     4.16 /     4.86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.44 /      0.4 /     0.32 /     0.32</t>
+  </si>
+  <si>
+    <t>⚠️-10.48</t>
+  </si>
+  <si>
+    <t>👍   24.65 /    24.55 /    24.27 /     23.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   551.0 /   1372.8 /   1122.4 /  2017.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5.65 /     5.71 /     5.79 /     6.59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.04 /     0.45 /     0.69 /     0.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    53.5 /    53.52 /    52.12 /    51.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3363.0 /   6967.4 /  5029.25 /  3967.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    26.8 /    26.82 /    26.79 /    26.76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.62 /     0.62 /     0.39 /     0.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    33.6 /     33.4 /    34.01 /    32.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4478.0 /   4747.0 /  7254.35 / 11905.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    12.4 /    12.26 /    12.06 /    11.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.51 /     1.39 /     1.08 /     0.81</t>
+  </si>
+  <si>
+    <t>👍    58.9 /    58.24 /    58.52 /    59.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3626.0 /   3350.0 /   2592.9 /  3579.83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    23.1 /    22.86 /    23.51 /    24.88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.39 /     1.39 /     1.03 /     2.05</t>
+  </si>
+  <si>
+    <t>⚠️-19.58</t>
+  </si>
+  <si>
+    <t>👍    50.0 /    49.71 /    49.14 /     46.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1860.0 /   3138.4 /  5403.45 /  4446.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    24.0 /    23.94 /    23.82 /    22.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.51 /     1.46 /     1.12 /     0.67</t>
+  </si>
+  <si>
+    <t>👍    49.5 /    49.35 /    48.35 /    47.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10181.0 /  24011.4 /  10449.7 /  8164.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    46.6 /    47.02 /    46.97 /    48.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.59 /     4.43 /     4.03 /     4.94</t>
+  </si>
+  <si>
+    <t>👍   48.25 /    47.99 /     48.1 /    47.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   610.0 /    709.0 /   901.45 /   952.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    21.2 /    21.22 /    21.07 /     20.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     0.2 /     0.21 /     0.19 /      0.2</t>
   </si>
 </sst>
 </file>
@@ -2732,13 +2722,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2696BFBE-0625-42C0-8E1C-A5A53CEB8548}">
-  <dimension ref="A1:AY39"/>
+  <dimension ref="A1:AZ39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M9" sqref="M9"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2751,18 +2741,18 @@
     <col min="10" max="10" width="30.625" style="1" customWidth="1"/>
     <col min="11" max="11" width="35.625" style="1" customWidth="1"/>
     <col min="12" max="13" width="30.625" style="1" customWidth="1"/>
-    <col min="14" max="15" width="7.625" style="1" customWidth="1"/>
-    <col min="16" max="27" width="6.625" style="1" customWidth="1"/>
-    <col min="28" max="31" width="30.625" style="1" customWidth="1"/>
-    <col min="32" max="38" width="8.625" style="1" customWidth="1"/>
-    <col min="39" max="40" width="9.625" style="1" customWidth="1"/>
-    <col min="41" max="41" width="6.625" style="1" customWidth="1"/>
-    <col min="42" max="46" width="10.625" style="1" customWidth="1"/>
-    <col min="47" max="48" width="20.625" style="1" customWidth="1"/>
-    <col min="49" max="16384" width="9" style="1"/>
+    <col min="14" max="16" width="8.625" style="1" customWidth="1"/>
+    <col min="17" max="28" width="6.625" style="1" customWidth="1"/>
+    <col min="29" max="32" width="30.625" style="1" customWidth="1"/>
+    <col min="33" max="39" width="8.625" style="1" customWidth="1"/>
+    <col min="40" max="41" width="9.625" style="1" customWidth="1"/>
+    <col min="42" max="42" width="6.625" style="1" customWidth="1"/>
+    <col min="43" max="47" width="10.625" style="1" customWidth="1"/>
+    <col min="48" max="49" width="20.625" style="1" customWidth="1"/>
+    <col min="50" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>50</v>
       </c>
@@ -2806,12 +2796,14 @@
         <v>231</v>
       </c>
       <c r="O1" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="P1" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="Q1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="10"/>
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
       <c r="T1" s="10"/>
@@ -2820,59 +2812,60 @@
       <c r="W1" s="10"/>
       <c r="X1" s="10"/>
       <c r="Y1" s="10"/>
-      <c r="Z1" s="3"/>
+      <c r="Z1" s="10"/>
       <c r="AA1" s="3"/>
-      <c r="AB1" s="13" t="s">
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="AC1" s="13" t="s">
+      <c r="AD1" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="AD1" s="13" t="s">
+      <c r="AE1" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="AE1" s="13" t="s">
+      <c r="AF1" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AG1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="AG1" s="9" t="s">
+      <c r="AH1" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="AH1" s="10" t="s">
+      <c r="AI1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="AI1" s="9" t="s">
+      <c r="AJ1" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="AJ1" s="9" t="s">
+      <c r="AK1" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="AK1" s="9" t="s">
+      <c r="AL1" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AL1" s="9" t="s">
+      <c r="AM1" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="AM1" s="9" t="s">
+      <c r="AN1" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AN1" s="9" t="s">
+      <c r="AO1" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AO1" s="9" t="s">
+      <c r="AP1" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="AP1" s="9" t="s">
+      <c r="AQ1" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="AQ1" s="9"/>
       <c r="AR1" s="9"/>
       <c r="AS1" s="9"/>
       <c r="AT1" s="9"/>
+      <c r="AU1" s="9"/>
     </row>
-    <row r="2" spans="1:48" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:49" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -2896,75 +2889,76 @@
       </c>
       <c r="N2" s="13"/>
       <c r="O2" s="13"/>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="13"/>
+      <c r="Q2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="T2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="U2" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="V2" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="W2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="X2" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="Y2" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="Y2" s="5" t="s">
+      <c r="Z2" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="Z2" s="5" t="s">
+      <c r="AA2" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AA2" s="5" t="s">
+      <c r="AB2" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="AB2" s="13"/>
       <c r="AC2" s="13"/>
       <c r="AD2" s="13"/>
       <c r="AE2" s="13"/>
-      <c r="AF2" s="10"/>
-      <c r="AG2" s="9"/>
-      <c r="AH2" s="10"/>
-      <c r="AI2" s="9"/>
+      <c r="AF2" s="13"/>
+      <c r="AG2" s="10"/>
+      <c r="AH2" s="9"/>
+      <c r="AI2" s="10"/>
       <c r="AJ2" s="9"/>
       <c r="AK2" s="9"/>
       <c r="AL2" s="9"/>
       <c r="AM2" s="9"/>
       <c r="AN2" s="9"/>
       <c r="AO2" s="9"/>
-      <c r="AP2" s="2">
+      <c r="AP2" s="9"/>
+      <c r="AQ2" s="2">
         <v>2021</v>
       </c>
-      <c r="AQ2" s="2">
+      <c r="AR2" s="2">
         <v>2020</v>
       </c>
-      <c r="AR2" s="2">
+      <c r="AS2" s="2">
         <v>2019</v>
       </c>
-      <c r="AS2" s="2">
+      <c r="AT2" s="2">
         <v>2018</v>
       </c>
-      <c r="AT2" s="2">
+      <c r="AU2" s="2">
         <v>2017</v>
       </c>
-      <c r="AU2"/>
       <c r="AV2"/>
+      <c r="AW2"/>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1229</v>
       </c>
@@ -2984,13 +2978,13 @@
         <v>19760719</v>
       </c>
       <c r="G3">
-        <v>4.38</v>
+        <v>4.34</v>
       </c>
       <c r="H3">
-        <v>17.5</v>
+        <v>17.670000000000002</v>
       </c>
       <c r="I3">
-        <v>2.2200000000000002</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="J3" t="s">
         <v>381</v>
@@ -3005,106 +2999,107 @@
         <v>384</v>
       </c>
       <c r="N3">
-        <v>0.5</v>
-      </c>
-      <c r="O3" t="s">
+        <v>0.42</v>
+      </c>
+      <c r="O3"/>
+      <c r="P3" t="s">
         <v>385</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>11</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>35.200000000000003</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>12.6</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>40.32</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>14.2</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>45.44</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>15.8</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>50.56</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>17.399999999999999</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>55.68</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>19</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>60.8</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
+        <v>238</v>
+      </c>
+      <c r="AD3" t="s">
         <v>239</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AE3" t="s">
         <v>240</v>
       </c>
-      <c r="AD3" t="s">
-        <v>241</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>349</v>
-      </c>
-      <c r="AF3" s="1">
+      <c r="AF3" t="s">
+        <v>348</v>
+      </c>
+      <c r="AG3" s="1">
         <v>26.64</v>
       </c>
-      <c r="AG3" s="1">
+      <c r="AH3" s="1">
         <v>16.34</v>
       </c>
-      <c r="AH3" s="1">
+      <c r="AI3" s="1">
         <v>12.1</v>
       </c>
-      <c r="AI3" s="1">
+      <c r="AJ3" s="1">
         <v>53.98</v>
       </c>
-      <c r="AJ3" s="1">
+      <c r="AK3" s="1">
         <v>52.93</v>
       </c>
-      <c r="AK3" s="1">
+      <c r="AL3" s="1">
         <v>0.18</v>
       </c>
-      <c r="AL3" s="1">
+      <c r="AM3" s="1">
         <v>30.27</v>
       </c>
-      <c r="AM3" s="1">
+      <c r="AN3" s="1">
         <v>1.28</v>
       </c>
-      <c r="AN3" s="1">
+      <c r="AO3" s="1">
         <v>0.52</v>
       </c>
-      <c r="AO3" s="1">
+      <c r="AP3" s="1">
         <v>60</v>
       </c>
-      <c r="AP3" s="1" t="s">
+      <c r="AQ3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AQ3" s="1" t="s">
+      <c r="AR3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AR3" s="1" t="s">
+      <c r="AS3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AS3" s="1" t="s">
+      <c r="AT3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AT3" s="1" t="s">
+      <c r="AU3" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1231</v>
       </c>
@@ -3124,13 +3119,13 @@
         <v>19951102</v>
       </c>
       <c r="G4">
-        <v>3.72</v>
+        <v>3.65</v>
       </c>
       <c r="H4">
-        <v>17.739999999999998</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="I4">
-        <v>3.28</v>
+        <v>3.35</v>
       </c>
       <c r="J4" t="s">
         <v>386</v>
@@ -3139,112 +3134,113 @@
         <v>387</v>
       </c>
       <c r="L4" t="s">
-        <v>238</v>
+        <v>388</v>
       </c>
       <c r="M4" t="s">
         <v>156</v>
       </c>
-      <c r="N4" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="O4" s="8">
-        <v>5.72</v>
-      </c>
+      <c r="N4">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="O4"/>
       <c r="P4">
+        <v>5.5</v>
+      </c>
+      <c r="Q4">
         <v>11</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>43.23</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>12.2</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>47.95</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>13.4</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>52.66</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>14.6</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>57.38</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>15.8</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>62.09</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>17</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>66.81</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
+        <v>241</v>
+      </c>
+      <c r="AD4" t="s">
         <v>242</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AE4" t="s">
         <v>243</v>
       </c>
-      <c r="AD4" t="s">
-        <v>244</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>350</v>
-      </c>
-      <c r="AF4" s="1">
+      <c r="AF4" t="s">
+        <v>349</v>
+      </c>
+      <c r="AG4" s="1">
         <v>23.18</v>
       </c>
-      <c r="AG4" s="1">
+      <c r="AH4" s="1">
         <v>9.2799999999999994</v>
       </c>
-      <c r="AH4" s="1">
+      <c r="AI4" s="1">
         <v>17.32</v>
       </c>
-      <c r="AI4" s="1">
+      <c r="AJ4" s="1">
         <v>9.73</v>
       </c>
-      <c r="AJ4" s="1">
+      <c r="AK4" s="1">
         <v>7.83</v>
       </c>
-      <c r="AK4" s="1">
+      <c r="AL4" s="1">
         <v>1.03</v>
       </c>
-      <c r="AL4" s="1">
+      <c r="AM4" s="1">
         <v>95.38</v>
       </c>
-      <c r="AM4" s="1">
+      <c r="AN4" s="1">
         <v>2.4900000000000002</v>
       </c>
-      <c r="AN4" s="1">
+      <c r="AO4" s="1">
         <v>0.91</v>
       </c>
-      <c r="AO4" s="1">
+      <c r="AP4" s="1">
         <v>43</v>
       </c>
-      <c r="AP4" s="1" t="s">
+      <c r="AQ4" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="AQ4" s="1" t="s">
+      <c r="AR4" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AR4" s="1" t="s">
+      <c r="AS4" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="AS4" s="1" t="s">
+      <c r="AT4" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="AT4" s="1" t="s">
+      <c r="AU4" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1409</v>
       </c>
@@ -3264,13 +3260,13 @@
         <v>19730831</v>
       </c>
       <c r="G5">
-        <v>5.66</v>
+        <v>5.68</v>
       </c>
       <c r="H5">
-        <v>8.57</v>
+        <v>8.52</v>
       </c>
       <c r="I5">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="J5" t="s">
         <v>389</v>
@@ -3285,106 +3281,107 @@
         <v>392</v>
       </c>
       <c r="N5">
-        <v>0.72</v>
-      </c>
-      <c r="O5" t="s">
+        <v>0.78</v>
+      </c>
+      <c r="O5"/>
+      <c r="P5" t="s">
         <v>393</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>9</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>20.43</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>10.6</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>24.06</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>12.2</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>27.69</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>13.8</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>31.33</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>15.4</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>34.96</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>17</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>38.590000000000003</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
+        <v>244</v>
+      </c>
+      <c r="AD5" t="s">
         <v>245</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AE5" t="s">
         <v>246</v>
       </c>
-      <c r="AD5" t="s">
-        <v>247</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>351</v>
-      </c>
-      <c r="AF5" s="1">
+      <c r="AF5" t="s">
+        <v>350</v>
+      </c>
+      <c r="AG5" s="1">
         <v>24.73</v>
       </c>
-      <c r="AG5" s="1">
+      <c r="AH5" s="1">
         <v>13.99</v>
       </c>
-      <c r="AH5" s="1">
+      <c r="AI5" s="1">
         <v>11.28</v>
       </c>
-      <c r="AI5" s="1">
+      <c r="AJ5" s="1">
         <v>13.87</v>
       </c>
-      <c r="AJ5" s="1">
+      <c r="AK5" s="1">
         <v>11.48</v>
       </c>
-      <c r="AK5" s="1">
+      <c r="AL5" s="1">
         <v>0.24</v>
       </c>
-      <c r="AL5" s="1">
+      <c r="AM5" s="1">
         <v>100.87</v>
       </c>
-      <c r="AM5" s="1">
+      <c r="AN5" s="1">
         <v>-2.2000000000000002</v>
       </c>
-      <c r="AN5" s="1">
+      <c r="AO5" s="1">
         <v>-3.53</v>
       </c>
-      <c r="AO5" s="1">
+      <c r="AP5" s="1">
         <v>47</v>
       </c>
-      <c r="AP5" s="1" t="s">
+      <c r="AQ5" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AQ5" s="1" t="s">
+      <c r="AR5" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AR5" s="1" t="s">
+      <c r="AS5" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AS5" s="1" t="s">
+      <c r="AT5" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="AT5" s="1" t="s">
+      <c r="AU5" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1304</v>
       </c>
@@ -3404,10 +3401,10 @@
         <v>19720520</v>
       </c>
       <c r="G6">
-        <v>3.48</v>
+        <v>3.46</v>
       </c>
       <c r="H6">
-        <v>6.29</v>
+        <v>6.32</v>
       </c>
       <c r="I6">
         <v>1.29</v>
@@ -3425,106 +3422,107 @@
         <v>397</v>
       </c>
       <c r="N6">
-        <v>1.25</v>
-      </c>
-      <c r="O6">
-        <v>-3.24</v>
-      </c>
+        <v>0.52</v>
+      </c>
+      <c r="O6"/>
       <c r="P6">
+        <v>-4.53</v>
+      </c>
+      <c r="Q6">
         <v>10</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>45.7</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>12</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>54.84</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>14</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>63.98</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>16</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>73.12</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>18</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>82.26</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>20</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>91.4</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
+        <v>247</v>
+      </c>
+      <c r="AD6" t="s">
         <v>248</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AE6" t="s">
         <v>249</v>
       </c>
-      <c r="AD6" t="s">
-        <v>250</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>352</v>
-      </c>
-      <c r="AF6">
+      <c r="AF6" t="s">
+        <v>351</v>
+      </c>
+      <c r="AG6">
         <v>23.9</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>16.989999999999998</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>19.39</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>17.850000000000001</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>14.06</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>0.87</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>95.18</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>5.37</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>3.45</v>
       </c>
-      <c r="AO6">
+      <c r="AP6">
         <v>60</v>
       </c>
-      <c r="AP6" t="s">
+      <c r="AQ6" t="s">
         <v>104</v>
       </c>
-      <c r="AQ6" t="s">
+      <c r="AR6" t="s">
         <v>83</v>
       </c>
-      <c r="AR6" t="s">
+      <c r="AS6" t="s">
         <v>119</v>
       </c>
-      <c r="AS6" t="s">
+      <c r="AT6" t="s">
         <v>187</v>
       </c>
-      <c r="AT6" t="s">
+      <c r="AU6" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1305</v>
       </c>
@@ -3544,13 +3542,13 @@
         <v>19730305</v>
       </c>
       <c r="G7">
-        <v>6.82</v>
+        <v>6.8</v>
       </c>
       <c r="H7">
-        <v>6.78</v>
+        <v>6.8</v>
       </c>
       <c r="I7">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="J7" t="s">
         <v>398</v>
@@ -3565,106 +3563,107 @@
         <v>401</v>
       </c>
       <c r="N7">
-        <v>0.67</v>
-      </c>
-      <c r="O7">
-        <v>-5.23</v>
-      </c>
+        <v>0.76</v>
+      </c>
+      <c r="O7"/>
       <c r="P7">
+        <v>6.2</v>
+      </c>
+      <c r="Q7">
         <v>7</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>34.86</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>8.8000000000000007</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>43.82</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>10.6</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>52.79</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>12.4</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>61.75</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>14.2</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>70.72</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>16</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>79.680000000000007</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
+        <v>250</v>
+      </c>
+      <c r="AD7" t="s">
         <v>251</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AE7" t="s">
         <v>252</v>
       </c>
-      <c r="AD7" t="s">
-        <v>253</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>353</v>
-      </c>
-      <c r="AF7">
+      <c r="AF7" t="s">
+        <v>352</v>
+      </c>
+      <c r="AG7">
         <v>25.41</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>16.78</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>24.74</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>16.5</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>13.25</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>1.29</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>101.7</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>1.93</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>-0.39</v>
       </c>
-      <c r="AO7">
+      <c r="AP7">
         <v>57</v>
       </c>
-      <c r="AP7" t="s">
+      <c r="AQ7" t="s">
         <v>158</v>
       </c>
-      <c r="AQ7" t="s">
+      <c r="AR7" t="s">
         <v>224</v>
       </c>
-      <c r="AR7" t="s">
+      <c r="AS7" t="s">
         <v>225</v>
       </c>
-      <c r="AS7" t="s">
+      <c r="AT7" t="s">
         <v>226</v>
       </c>
-      <c r="AT7" t="s">
+      <c r="AU7" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1308</v>
       </c>
@@ -3684,13 +3683,13 @@
         <v>19860620</v>
       </c>
       <c r="G8">
-        <v>3.92</v>
+        <v>3.95</v>
       </c>
       <c r="H8">
-        <v>7.85</v>
+        <v>7.79</v>
       </c>
       <c r="I8">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="J8" t="s">
         <v>402</v>
@@ -3705,106 +3704,107 @@
         <v>405</v>
       </c>
       <c r="N8">
-        <v>0.67</v>
-      </c>
-      <c r="O8" t="s">
+        <v>0.47</v>
+      </c>
+      <c r="O8"/>
+      <c r="P8" t="s">
         <v>406</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>11</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>50.16</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>13.2</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>60.19</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>15.4</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>70.22</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>17.600000000000001</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>80.260000000000005</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>19.8</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>90.29</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>22</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>100.3</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
+        <v>253</v>
+      </c>
+      <c r="AD8" t="s">
         <v>254</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AE8" t="s">
         <v>255</v>
       </c>
-      <c r="AD8" t="s">
-        <v>256</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>354</v>
-      </c>
-      <c r="AF8">
+      <c r="AF8" t="s">
+        <v>353</v>
+      </c>
+      <c r="AG8">
         <v>34.97</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>31.99</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>21.15</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>38.909999999999997</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>32.46</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>0.49</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>82.22</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>2.54</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>2.56</v>
       </c>
-      <c r="AO8">
+      <c r="AP8">
         <v>72</v>
       </c>
-      <c r="AP8" t="s">
+      <c r="AQ8" t="s">
         <v>205</v>
       </c>
-      <c r="AQ8" t="s">
+      <c r="AR8" t="s">
         <v>206</v>
       </c>
-      <c r="AR8" t="s">
+      <c r="AS8" t="s">
         <v>119</v>
       </c>
-      <c r="AS8" t="s">
+      <c r="AT8" t="s">
         <v>207</v>
       </c>
-      <c r="AT8" t="s">
+      <c r="AU8" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1313</v>
       </c>
@@ -3824,10 +3824,10 @@
         <v>19890327</v>
       </c>
       <c r="G9">
-        <v>4.7300000000000004</v>
+        <v>4.71</v>
       </c>
       <c r="H9">
-        <v>6.45</v>
+        <v>6.48</v>
       </c>
       <c r="I9">
         <v>0.95</v>
@@ -3845,106 +3845,107 @@
         <v>410</v>
       </c>
       <c r="N9">
-        <v>0.64</v>
-      </c>
-      <c r="O9" t="s">
-        <v>411</v>
-      </c>
+        <v>1.07</v>
+      </c>
+      <c r="O9"/>
       <c r="P9">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="Q9">
         <v>13</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>43.16</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>15.6</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>51.79</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>18.2</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>60.42</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>20.8</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>69.06</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>23.4</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>77.69</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>26</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>86.32</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
+        <v>256</v>
+      </c>
+      <c r="AD9" t="s">
         <v>257</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AE9" t="s">
         <v>258</v>
       </c>
-      <c r="AD9" t="s">
-        <v>259</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>355</v>
-      </c>
-      <c r="AF9">
+      <c r="AF9" t="s">
+        <v>354</v>
+      </c>
+      <c r="AG9">
         <v>9.1999999999999993</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>5.84</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>14.89</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>6.4</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>5.03</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>1.63</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>91.25</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>-0.67</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>-1.21</v>
       </c>
-      <c r="AO9">
+      <c r="AP9">
         <v>40</v>
       </c>
-      <c r="AP9" t="s">
+      <c r="AQ9" t="s">
         <v>104</v>
       </c>
-      <c r="AQ9" t="s">
+      <c r="AR9" t="s">
         <v>181</v>
       </c>
-      <c r="AR9" t="s">
+      <c r="AS9" t="s">
         <v>182</v>
       </c>
-      <c r="AS9" t="s">
+      <c r="AT9" t="s">
         <v>183</v>
       </c>
-      <c r="AT9" t="s">
+      <c r="AU9" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1474</v>
       </c>
@@ -3964,127 +3965,130 @@
         <v>20001031</v>
       </c>
       <c r="G10">
-        <v>2.6</v>
+        <v>2.59</v>
       </c>
       <c r="H10">
-        <v>10.92</v>
+        <v>10.96</v>
       </c>
       <c r="I10">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="J10" t="s">
+        <v>411</v>
+      </c>
+      <c r="K10" t="s">
         <v>412</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>413</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>414</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10">
+        <v>1.82</v>
+      </c>
+      <c r="O10" s="8" t="s">
         <v>415</v>
       </c>
-      <c r="N10">
-        <v>1.43</v>
-      </c>
-      <c r="O10">
-        <v>0.55000000000000004</v>
-      </c>
       <c r="P10">
+        <v>-0.18</v>
+      </c>
+      <c r="Q10">
         <v>13</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>18.329999999999998</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>15.4</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>21.71</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>17.8</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>25.1</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>20.2</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>28.48</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>22.6</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>31.87</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>25</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>35.25</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
+        <v>259</v>
+      </c>
+      <c r="AD10" t="s">
         <v>260</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AE10" t="s">
         <v>261</v>
       </c>
-      <c r="AD10" t="s">
-        <v>262</v>
-      </c>
-      <c r="AE10" t="s">
+      <c r="AF10" t="s">
         <v>232</v>
       </c>
-      <c r="AF10" s="1">
+      <c r="AG10" s="1">
         <v>16.04</v>
       </c>
-      <c r="AG10" s="1">
+      <c r="AH10" s="1">
         <v>5.23</v>
       </c>
-      <c r="AH10" s="1">
+      <c r="AI10" s="1">
         <v>8.11</v>
       </c>
-      <c r="AI10" s="1">
+      <c r="AJ10" s="1">
         <v>6.05</v>
       </c>
-      <c r="AJ10" s="1">
+      <c r="AK10" s="1">
         <v>4.8099999999999996</v>
       </c>
-      <c r="AK10" s="1">
+      <c r="AL10" s="1">
         <v>0.85</v>
       </c>
-      <c r="AL10" s="1">
+      <c r="AM10" s="1">
         <v>86.45</v>
       </c>
-      <c r="AM10" s="1">
+      <c r="AN10" s="1">
         <v>0.86</v>
       </c>
-      <c r="AN10" s="1">
+      <c r="AO10" s="1">
         <v>-0.96</v>
       </c>
-      <c r="AO10" s="1">
+      <c r="AP10" s="1">
         <v>43</v>
       </c>
-      <c r="AP10" s="1" t="s">
+      <c r="AQ10" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="AQ10" s="1" t="s">
+      <c r="AR10" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AR10" s="1" t="s">
+      <c r="AS10" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="AS10" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="AT10" s="1" t="s">
         <v>120</v>
       </c>
+      <c r="AU10" s="1" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1515</v>
       </c>
@@ -4104,13 +4108,13 @@
         <v>19950204</v>
       </c>
       <c r="G11">
-        <v>7.02</v>
+        <v>7.06</v>
       </c>
       <c r="H11">
-        <v>8.08</v>
+        <v>8.0299999999999994</v>
       </c>
       <c r="I11">
-        <v>2.39</v>
+        <v>2.38</v>
       </c>
       <c r="J11" t="s">
         <v>416</v>
@@ -4125,106 +4129,107 @@
         <v>419</v>
       </c>
       <c r="N11">
-        <v>0.49</v>
-      </c>
-      <c r="O11">
-        <v>-8.19</v>
-      </c>
+        <v>1.19</v>
+      </c>
+      <c r="O11"/>
       <c r="P11">
+        <v>-3.96</v>
+      </c>
+      <c r="Q11">
         <v>12</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>76.2</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>15.6</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>99.06</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>19.2</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>121.9</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>22.8</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>144.80000000000001</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>26.4</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>167.6</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>30</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>190.5</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
+        <v>262</v>
+      </c>
+      <c r="AD11" t="s">
         <v>263</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AE11" t="s">
         <v>264</v>
       </c>
-      <c r="AD11" t="s">
-        <v>265</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>356</v>
-      </c>
-      <c r="AF11">
+      <c r="AF11" t="s">
+        <v>355</v>
+      </c>
+      <c r="AG11">
         <v>13.81</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>8.14</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>28.22</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>7.63</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>6.12</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>1.74</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>106.68</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>7.24</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>2.77</v>
       </c>
-      <c r="AO11">
+      <c r="AP11">
         <v>51</v>
       </c>
-      <c r="AP11" t="s">
+      <c r="AQ11" t="s">
         <v>121</v>
       </c>
-      <c r="AQ11" t="s">
+      <c r="AR11" t="s">
         <v>122</v>
       </c>
-      <c r="AR11" t="s">
+      <c r="AS11" t="s">
         <v>97</v>
       </c>
-      <c r="AS11" t="s">
+      <c r="AT11" t="s">
         <v>88</v>
       </c>
-      <c r="AT11" t="s">
+      <c r="AU11" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1604</v>
       </c>
@@ -4244,10 +4249,10 @@
         <v>19701214</v>
       </c>
       <c r="G12">
-        <v>8.17</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="H12">
-        <v>6.61</v>
+        <v>6.59</v>
       </c>
       <c r="I12">
         <v>1.34</v>
@@ -4265,106 +4270,107 @@
         <v>423</v>
       </c>
       <c r="N12">
-        <v>0.54</v>
-      </c>
-      <c r="O12">
-        <v>-6.68</v>
-      </c>
+        <v>0.71</v>
+      </c>
+      <c r="O12"/>
       <c r="P12">
+        <v>-3.39</v>
+      </c>
+      <c r="Q12">
         <v>7</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>32.130000000000003</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>8.1999999999999993</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>37.64</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>9.4</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>43.15</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>10.6</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>48.65</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>11.8</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>54.16</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>13</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>59.67</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
+        <v>265</v>
+      </c>
+      <c r="AD12" t="s">
         <v>266</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AE12" t="s">
         <v>267</v>
       </c>
-      <c r="AD12" t="s">
-        <v>268</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>357</v>
-      </c>
-      <c r="AF12">
+      <c r="AF12" t="s">
+        <v>356</v>
+      </c>
+      <c r="AG12">
         <v>17.72</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>7.61</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>26.03</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>26.84</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>24.99</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>0.67</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>28.35</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>0.53</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>4.1399999999999997</v>
       </c>
-      <c r="AO12">
+      <c r="AP12">
         <v>62</v>
       </c>
-      <c r="AP12" t="s">
+      <c r="AQ12" t="s">
         <v>128</v>
       </c>
-      <c r="AQ12" t="s">
+      <c r="AR12" t="s">
         <v>91</v>
       </c>
-      <c r="AR12" t="s">
+      <c r="AS12" t="s">
         <v>125</v>
       </c>
-      <c r="AS12" t="s">
+      <c r="AT12" t="s">
         <v>181</v>
       </c>
-      <c r="AT12" t="s">
+      <c r="AU12" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1776</v>
       </c>
@@ -4384,13 +4390,13 @@
         <v>20160509</v>
       </c>
       <c r="G13">
-        <v>4.78</v>
+        <v>4.75</v>
       </c>
       <c r="H13">
-        <v>8.4600000000000009</v>
+        <v>8.52</v>
       </c>
       <c r="I13">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="J13" t="s">
         <v>424</v>
@@ -4405,106 +4411,107 @@
         <v>427</v>
       </c>
       <c r="N13">
-        <v>1.25</v>
-      </c>
-      <c r="O13">
-        <v>4.1500000000000004</v>
-      </c>
+        <v>0.75</v>
+      </c>
+      <c r="O13"/>
       <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>12</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>30</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>14.4</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>36</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>16.8</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>42</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>19.2</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>48</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>21.6</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>54</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>24</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>60</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
+        <v>268</v>
+      </c>
+      <c r="AD13" t="s">
         <v>269</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AE13" t="s">
         <v>270</v>
       </c>
-      <c r="AD13" t="s">
-        <v>271</v>
-      </c>
-      <c r="AE13" t="s">
+      <c r="AF13" t="s">
         <v>198</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>20.57</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>7.03</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>19.61</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>7.3</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>15.07</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>0.78</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>96.3</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>1.64</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>7.28</v>
       </c>
-      <c r="AO13">
+      <c r="AP13">
         <v>60</v>
       </c>
-      <c r="AP13" t="s">
+      <c r="AQ13" t="s">
         <v>104</v>
       </c>
-      <c r="AQ13" t="s">
+      <c r="AR13" t="s">
         <v>82</v>
       </c>
-      <c r="AR13" t="s">
+      <c r="AS13" t="s">
         <v>127</v>
       </c>
-      <c r="AS13" t="s">
+      <c r="AT13" t="s">
         <v>91</v>
       </c>
-      <c r="AT13" t="s">
+      <c r="AU13" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2020</v>
       </c>
@@ -4527,10 +4534,10 @@
         <v>5.56</v>
       </c>
       <c r="H14">
-        <v>8.6</v>
+        <v>8.58</v>
       </c>
       <c r="I14">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="J14" t="s">
         <v>428</v>
@@ -4545,106 +4552,107 @@
         <v>431</v>
       </c>
       <c r="N14">
-        <v>0.62</v>
-      </c>
-      <c r="O14" t="s">
+        <v>0.45</v>
+      </c>
+      <c r="O14"/>
+      <c r="P14" t="s">
         <v>432</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>12</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>42.72</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>14.8</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>52.69</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>17.600000000000001</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>62.66</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>20.399999999999999</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>72.62</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>23.2</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>82.59</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>26</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>92.56</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
+        <v>271</v>
+      </c>
+      <c r="AD14" t="s">
         <v>272</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AE14" t="s">
         <v>273</v>
       </c>
-      <c r="AD14" t="s">
-        <v>274</v>
-      </c>
-      <c r="AE14" t="s">
+      <c r="AF14" t="s">
         <v>233</v>
       </c>
-      <c r="AF14" s="1">
+      <c r="AG14" s="1">
         <v>14.3</v>
       </c>
-      <c r="AG14" s="1">
+      <c r="AH14" s="1">
         <v>9.4700000000000006</v>
       </c>
-      <c r="AH14" s="1">
+      <c r="AI14" s="1">
         <v>27.47</v>
       </c>
-      <c r="AI14" s="1">
+      <c r="AJ14" s="1">
         <v>16.52</v>
       </c>
-      <c r="AJ14" s="1">
+      <c r="AK14" s="1">
         <v>14.13</v>
       </c>
-      <c r="AK14" s="1">
+      <c r="AL14" s="1">
         <v>0.89</v>
       </c>
-      <c r="AL14" s="1">
+      <c r="AM14" s="1">
         <v>57.32</v>
       </c>
-      <c r="AM14" s="1">
+      <c r="AN14" s="1">
         <v>0.9</v>
       </c>
-      <c r="AN14" s="1">
+      <c r="AO14" s="1">
         <v>1.46</v>
       </c>
-      <c r="AO14" s="1">
+      <c r="AP14" s="1">
         <v>47</v>
       </c>
-      <c r="AP14" s="1" t="s">
+      <c r="AQ14" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="AQ14" s="1" t="s">
+      <c r="AR14" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="AR14" s="1" t="s">
+      <c r="AS14" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="AS14" s="1" t="s">
+      <c r="AT14" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="AT14" s="1" t="s">
+      <c r="AU14" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2069</v>
       </c>
@@ -4664,13 +4672,13 @@
         <v>20160322</v>
       </c>
       <c r="G15">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="H15">
-        <v>8.39</v>
+        <v>8.48</v>
       </c>
       <c r="I15">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="J15" t="s">
         <v>433</v>
@@ -4685,106 +4693,107 @@
         <v>436</v>
       </c>
       <c r="N15">
+        <v>0.94</v>
+      </c>
+      <c r="O15"/>
+      <c r="P15">
+        <v>5.31</v>
+      </c>
+      <c r="Q15">
+        <v>10</v>
+      </c>
+      <c r="R15">
+        <v>38.6</v>
+      </c>
+      <c r="S15">
+        <v>13.4</v>
+      </c>
+      <c r="T15">
+        <v>51.72</v>
+      </c>
+      <c r="U15">
+        <v>16.8</v>
+      </c>
+      <c r="V15">
+        <v>64.849999999999994</v>
+      </c>
+      <c r="W15">
+        <v>20.2</v>
+      </c>
+      <c r="X15">
+        <v>77.97</v>
+      </c>
+      <c r="Y15">
+        <v>23.6</v>
+      </c>
+      <c r="Z15">
+        <v>91.1</v>
+      </c>
+      <c r="AA15">
+        <v>27</v>
+      </c>
+      <c r="AB15">
+        <v>104.2</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>274</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>275</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>276</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>357</v>
+      </c>
+      <c r="AG15" s="1">
+        <v>13</v>
+      </c>
+      <c r="AH15" s="1">
+        <v>6.49</v>
+      </c>
+      <c r="AI15" s="1">
+        <v>19.260000000000002</v>
+      </c>
+      <c r="AJ15" s="1">
+        <v>6.18</v>
+      </c>
+      <c r="AK15" s="1">
+        <v>5.03</v>
+      </c>
+      <c r="AL15" s="1">
         <v>1.39</v>
       </c>
-      <c r="O15">
-        <v>-6.57</v>
-      </c>
-      <c r="P15">
-        <v>10</v>
-      </c>
-      <c r="Q15">
-        <v>38.6</v>
-      </c>
-      <c r="R15">
-        <v>13.4</v>
-      </c>
-      <c r="S15">
-        <v>51.72</v>
-      </c>
-      <c r="T15">
-        <v>16.8</v>
-      </c>
-      <c r="U15">
-        <v>64.849999999999994</v>
-      </c>
-      <c r="V15">
-        <v>20.2</v>
-      </c>
-      <c r="W15">
-        <v>77.97</v>
-      </c>
-      <c r="X15">
-        <v>23.6</v>
-      </c>
-      <c r="Y15">
-        <v>91.1</v>
-      </c>
-      <c r="Z15">
-        <v>27</v>
-      </c>
-      <c r="AA15">
-        <v>104.2</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>275</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>276</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>277</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>358</v>
-      </c>
-      <c r="AF15" s="1">
-        <v>13</v>
-      </c>
-      <c r="AG15" s="1">
-        <v>6.49</v>
-      </c>
-      <c r="AH15" s="1">
-        <v>19.260000000000002</v>
-      </c>
-      <c r="AI15" s="1">
-        <v>6.18</v>
-      </c>
-      <c r="AJ15" s="1">
-        <v>5.03</v>
-      </c>
-      <c r="AK15" s="1">
-        <v>1.39</v>
-      </c>
-      <c r="AL15" s="1">
+      <c r="AM15" s="1">
         <v>105.02</v>
       </c>
-      <c r="AM15" s="1">
+      <c r="AN15" s="1">
         <v>-7.36</v>
       </c>
-      <c r="AN15" s="1">
+      <c r="AO15" s="1">
         <v>-9.52</v>
       </c>
-      <c r="AO15" s="1">
+      <c r="AP15" s="1">
         <v>34</v>
       </c>
-      <c r="AP15" s="1" t="s">
+      <c r="AQ15" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AQ15" s="1" t="s">
+      <c r="AR15" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="AR15" s="1" t="s">
+      <c r="AS15" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AS15" s="1" t="s">
+      <c r="AT15" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="AT15" s="1" t="s">
+      <c r="AU15" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2324</v>
       </c>
@@ -4804,13 +4813,13 @@
         <v>19920218</v>
       </c>
       <c r="G16">
-        <v>6.36</v>
+        <v>6.32</v>
       </c>
       <c r="H16">
-        <v>7.81</v>
+        <v>7.86</v>
       </c>
       <c r="I16">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="J16" t="s">
         <v>437</v>
@@ -4825,94 +4834,92 @@
         <v>440</v>
       </c>
       <c r="N16">
-        <v>1.52</v>
-      </c>
-      <c r="O16">
-        <v>14.87</v>
-      </c>
+        <v>1.96</v>
+      </c>
+      <c r="O16"/>
       <c r="P16">
+        <v>16.78</v>
+      </c>
+      <c r="Q16">
         <v>9</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>28.98</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>10.199999999999999</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>32.840000000000003</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>11.4</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>36.71</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>12.6</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>40.57</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>13.8</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>44.44</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>15</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>48.3</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
+        <v>277</v>
+      </c>
+      <c r="AD16" t="s">
         <v>278</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AE16" t="s">
         <v>279</v>
       </c>
-      <c r="AD16" t="s">
-        <v>280</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>359</v>
-      </c>
-      <c r="AF16" s="1">
+      <c r="AF16" t="s">
+        <v>358</v>
+      </c>
+      <c r="AG16" s="1">
         <v>3.35</v>
       </c>
-      <c r="AG16" s="1">
+      <c r="AH16" s="1">
         <v>1.0900000000000001</v>
       </c>
-      <c r="AH16" s="1">
+      <c r="AI16" s="1">
         <v>11.72</v>
       </c>
-      <c r="AI16" s="1">
+      <c r="AJ16" s="1">
         <v>1.49</v>
       </c>
-      <c r="AJ16" s="1">
+      <c r="AK16" s="1">
         <v>1.18</v>
       </c>
-      <c r="AK16" s="1">
+      <c r="AL16" s="1">
         <v>2.33</v>
       </c>
-      <c r="AL16" s="1">
+      <c r="AM16" s="1">
         <v>73.150000000000006</v>
       </c>
-      <c r="AM16" s="1">
+      <c r="AN16" s="1">
         <v>-5.67</v>
       </c>
-      <c r="AN16" s="1">
+      <c r="AO16" s="1">
         <v>-7.8</v>
       </c>
-      <c r="AO16" s="1">
+      <c r="AP16" s="1">
         <v>36</v>
       </c>
-      <c r="AP16" s="1" t="s">
+      <c r="AQ16" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="AQ16" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="AR16" s="1" t="s">
         <v>88</v>
@@ -4923,8 +4930,11 @@
       <c r="AT16" s="1" t="s">
         <v>88</v>
       </c>
+      <c r="AU16" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
-    <row r="17" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2347</v>
       </c>
@@ -4944,10 +4954,10 @@
         <v>19951213</v>
       </c>
       <c r="G17">
-        <v>4.8600000000000003</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="H17">
-        <v>6.78</v>
+        <v>6.8</v>
       </c>
       <c r="I17">
         <v>1.92</v>
@@ -4964,107 +4974,108 @@
       <c r="M17" t="s">
         <v>444</v>
       </c>
-      <c r="N17" s="8" t="s">
-        <v>445</v>
-      </c>
-      <c r="O17" s="8">
-        <v>14.8</v>
-      </c>
+      <c r="N17">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="O17"/>
       <c r="P17">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="Q17">
         <v>9</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>90.18</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>10.199999999999999</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>102.2</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>11.4</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>114.2</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>12.6</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>126.3</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>13.8</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>138.30000000000001</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>15</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>150.30000000000001</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
+        <v>280</v>
+      </c>
+      <c r="AD17" t="s">
         <v>281</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AE17" t="s">
         <v>282</v>
       </c>
-      <c r="AD17" t="s">
-        <v>283</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>360</v>
-      </c>
-      <c r="AF17" s="1">
+      <c r="AF17" t="s">
+        <v>359</v>
+      </c>
+      <c r="AG17" s="1">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AG17" s="1">
+      <c r="AH17" s="1">
         <v>2.29</v>
       </c>
-      <c r="AH17" s="1">
+      <c r="AI17" s="1">
         <v>32.94</v>
       </c>
-      <c r="AI17" s="1">
+      <c r="AJ17" s="1">
         <v>6.79</v>
       </c>
-      <c r="AJ17" s="1">
+      <c r="AK17" s="1">
         <v>5.12</v>
       </c>
-      <c r="AK17" s="1">
+      <c r="AL17" s="1">
         <v>2.25</v>
       </c>
-      <c r="AL17" s="1">
+      <c r="AM17" s="1">
         <v>33.729999999999997</v>
       </c>
-      <c r="AM17" s="1">
+      <c r="AN17" s="1">
         <v>3.64</v>
       </c>
-      <c r="AN17" s="1">
+      <c r="AO17" s="1">
         <v>0.68</v>
       </c>
-      <c r="AO17" s="1">
+      <c r="AP17" s="1">
         <v>40</v>
       </c>
-      <c r="AP17" s="1" t="s">
+      <c r="AQ17" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="AQ17" s="1" t="s">
+      <c r="AR17" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="AR17" s="1" t="s">
+      <c r="AS17" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AS17" s="1" t="s">
+      <c r="AT17" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="AT17" s="1" t="s">
+      <c r="AU17" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2352</v>
       </c>
@@ -5084,127 +5095,128 @@
         <v>19960722</v>
       </c>
       <c r="G18">
-        <v>4.92</v>
+        <v>4.84</v>
       </c>
       <c r="H18">
-        <v>6.62</v>
+        <v>6.72</v>
       </c>
       <c r="I18">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="J18" t="s">
+        <v>445</v>
+      </c>
+      <c r="K18" t="s">
         <v>446</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>447</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
         <v>448</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18">
+        <v>1.87</v>
+      </c>
+      <c r="O18"/>
+      <c r="P18" s="8" t="s">
         <v>449</v>
       </c>
-      <c r="N18">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="O18">
-        <v>0.24</v>
-      </c>
-      <c r="P18">
+      <c r="Q18">
         <v>8</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>36.96</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>10.199999999999999</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>47.12</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>12.4</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>57.29</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>14.6</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>67.45</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>16.8</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>77.62</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>19</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>87.78</v>
       </c>
-      <c r="AB18" t="s">
+      <c r="AC18" t="s">
+        <v>283</v>
+      </c>
+      <c r="AD18" t="s">
         <v>284</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AE18" t="s">
         <v>285</v>
       </c>
-      <c r="AD18" t="s">
-        <v>286</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>361</v>
-      </c>
-      <c r="AF18" s="1">
+      <c r="AF18" t="s">
+        <v>360</v>
+      </c>
+      <c r="AG18" s="1">
         <v>14.67</v>
       </c>
-      <c r="AG18" s="1">
+      <c r="AH18" s="1">
         <v>3.42</v>
       </c>
-      <c r="AH18" s="1">
+      <c r="AI18" s="1">
         <v>20.170000000000002</v>
       </c>
-      <c r="AI18" s="1">
+      <c r="AJ18" s="1">
         <v>6.69</v>
       </c>
-      <c r="AJ18" s="1">
+      <c r="AK18" s="1">
         <v>5.45</v>
       </c>
-      <c r="AK18" s="1">
+      <c r="AL18" s="1">
         <v>1.24</v>
       </c>
-      <c r="AL18" s="1">
+      <c r="AM18" s="1">
         <v>51.12</v>
       </c>
-      <c r="AM18" s="1">
+      <c r="AN18" s="1">
         <v>-1.7</v>
       </c>
-      <c r="AN18" s="1">
+      <c r="AO18" s="1">
         <v>-5.0199999999999996</v>
       </c>
-      <c r="AO18" s="1">
+      <c r="AP18" s="1">
         <v>40</v>
       </c>
-      <c r="AP18" s="1" t="s">
+      <c r="AQ18" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AQ18" s="1" t="s">
+      <c r="AR18" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AR18" s="1" t="s">
+      <c r="AS18" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AS18" s="1" t="s">
+      <c r="AT18" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AT18" s="1" t="s">
+      <c r="AU18" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2385</v>
       </c>
@@ -5224,13 +5236,13 @@
         <v>19990105</v>
       </c>
       <c r="G19">
-        <v>6.23</v>
+        <v>6.25</v>
       </c>
       <c r="H19">
-        <v>10.89</v>
+        <v>10.85</v>
       </c>
       <c r="I19">
-        <v>2.21</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="J19" t="s">
         <v>450</v>
@@ -5245,106 +5257,107 @@
         <v>453</v>
       </c>
       <c r="N19">
-        <v>1.89</v>
-      </c>
-      <c r="O19">
-        <v>12.39</v>
-      </c>
+        <v>0.59</v>
+      </c>
+      <c r="O19"/>
       <c r="P19">
+        <v>-1.32</v>
+      </c>
+      <c r="Q19">
         <v>10</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>81.2</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>11</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>89.32</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>12</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>97.44</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>13</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>105.6</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>14</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>113.7</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>15</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>121.8</v>
       </c>
-      <c r="AB19" t="s">
+      <c r="AC19" t="s">
+        <v>286</v>
+      </c>
+      <c r="AD19" t="s">
         <v>287</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AE19" t="s">
         <v>288</v>
       </c>
-      <c r="AD19" t="s">
-        <v>289</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>362</v>
-      </c>
-      <c r="AF19" s="1">
+      <c r="AF19" t="s">
+        <v>361</v>
+      </c>
+      <c r="AG19" s="1">
         <v>17.55</v>
       </c>
-      <c r="AG19" s="1">
+      <c r="AH19" s="1">
         <v>7.9</v>
       </c>
-      <c r="AH19" s="1">
+      <c r="AI19" s="1">
         <v>22.24</v>
       </c>
-      <c r="AI19" s="1">
+      <c r="AJ19" s="1">
         <v>8.7799999999999994</v>
       </c>
-      <c r="AJ19" s="1">
+      <c r="AK19" s="1">
         <v>7.09</v>
       </c>
-      <c r="AK19" s="1">
+      <c r="AL19" s="1">
         <v>1.32</v>
       </c>
-      <c r="AL19" s="1">
+      <c r="AM19" s="1">
         <v>89.98</v>
       </c>
-      <c r="AM19" s="1">
+      <c r="AN19" s="1">
         <v>4.0599999999999996</v>
       </c>
-      <c r="AN19" s="1">
+      <c r="AO19" s="1">
         <v>1.1399999999999999</v>
       </c>
-      <c r="AO19" s="1">
+      <c r="AP19" s="1">
         <v>38</v>
       </c>
-      <c r="AP19" s="1" t="s">
+      <c r="AQ19" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="AQ19" s="1" t="s">
+      <c r="AR19" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="AR19" s="1" t="s">
+      <c r="AS19" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="AS19" s="1" t="s">
+      <c r="AT19" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="AT19" s="1" t="s">
+      <c r="AU19" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="20" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2387</v>
       </c>
@@ -5364,13 +5377,13 @@
         <v>19990125</v>
       </c>
       <c r="G20">
-        <v>4.4400000000000004</v>
+        <v>4.37</v>
       </c>
       <c r="H20">
-        <v>7.04</v>
+        <v>7.16</v>
       </c>
       <c r="I20">
-        <v>1.1100000000000001</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="J20" t="s">
         <v>454</v>
@@ -5385,106 +5398,107 @@
         <v>457</v>
       </c>
       <c r="N20">
-        <v>0.42</v>
-      </c>
-      <c r="O20" t="s">
-        <v>458</v>
-      </c>
+        <v>1.82</v>
+      </c>
+      <c r="O20"/>
       <c r="P20">
+        <v>9.8699999999999992</v>
+      </c>
+      <c r="Q20">
         <v>10</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>63.9</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>12.6</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>80.510000000000005</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>15.2</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>97.13</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>17.8</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>113.7</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>20.399999999999999</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>130.4</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>23</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>147</v>
       </c>
-      <c r="AB20" t="s">
+      <c r="AC20" t="s">
+        <v>289</v>
+      </c>
+      <c r="AD20" t="s">
         <v>290</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AE20" t="s">
         <v>291</v>
       </c>
-      <c r="AD20" t="s">
-        <v>292</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>363</v>
-      </c>
-      <c r="AF20">
+      <c r="AF20" t="s">
+        <v>362</v>
+      </c>
+      <c r="AG20">
         <v>12.93</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>7.05</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>12.98</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>6.67</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>4.84</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>1.06</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>105.7</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>4.08</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>-3.91</v>
       </c>
-      <c r="AO20">
+      <c r="AP20">
         <v>40</v>
       </c>
-      <c r="AP20" t="s">
+      <c r="AQ20" t="s">
         <v>97</v>
       </c>
-      <c r="AQ20" t="s">
+      <c r="AR20" t="s">
         <v>104</v>
       </c>
-      <c r="AR20" t="s">
+      <c r="AS20" t="s">
         <v>220</v>
       </c>
-      <c r="AS20" t="s">
+      <c r="AT20" t="s">
         <v>118</v>
       </c>
-      <c r="AT20" t="s">
+      <c r="AU20" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="21" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2417</v>
       </c>
@@ -5504,115 +5518,113 @@
         <v>20000911</v>
       </c>
       <c r="G21">
-        <v>6.1</v>
+        <v>6.06</v>
       </c>
       <c r="H21">
+        <v>12.22</v>
+      </c>
+      <c r="I21">
+        <v>1.5</v>
+      </c>
+      <c r="J21" t="s">
+        <v>458</v>
+      </c>
+      <c r="K21" t="s">
+        <v>459</v>
+      </c>
+      <c r="L21" t="s">
+        <v>460</v>
+      </c>
+      <c r="M21" t="s">
+        <v>461</v>
+      </c>
+      <c r="N21">
+        <v>0.6</v>
+      </c>
+      <c r="O21"/>
+      <c r="P21">
+        <v>-2.0499999999999998</v>
+      </c>
+      <c r="Q21">
+        <v>13</v>
+      </c>
+      <c r="R21">
+        <v>28.34</v>
+      </c>
+      <c r="S21">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="T21">
+        <v>35.75</v>
+      </c>
+      <c r="U21">
+        <v>19.8</v>
+      </c>
+      <c r="V21">
+        <v>43.16</v>
+      </c>
+      <c r="W21">
+        <v>23.2</v>
+      </c>
+      <c r="X21">
+        <v>50.58</v>
+      </c>
+      <c r="Y21">
+        <v>26.6</v>
+      </c>
+      <c r="Z21">
+        <v>57.99</v>
+      </c>
+      <c r="AA21">
+        <v>30</v>
+      </c>
+      <c r="AB21">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>292</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>293</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>294</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>363</v>
+      </c>
+      <c r="AG21" s="1">
+        <v>48.85</v>
+      </c>
+      <c r="AH21" s="1">
+        <v>12.06</v>
+      </c>
+      <c r="AI21" s="1">
+        <v>9.5399999999999991</v>
+      </c>
+      <c r="AJ21" s="1">
         <v>12.15</v>
       </c>
-      <c r="I21">
-        <v>1.49</v>
-      </c>
-      <c r="J21" t="s">
-        <v>459</v>
-      </c>
-      <c r="K21" t="s">
-        <v>460</v>
-      </c>
-      <c r="L21" t="s">
-        <v>461</v>
-      </c>
-      <c r="M21" t="s">
-        <v>462</v>
-      </c>
-      <c r="N21">
-        <v>1.52</v>
-      </c>
-      <c r="O21">
-        <v>2</v>
-      </c>
-      <c r="P21">
-        <v>13</v>
-      </c>
-      <c r="Q21">
-        <v>28.34</v>
-      </c>
-      <c r="R21">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="S21">
-        <v>35.75</v>
-      </c>
-      <c r="T21">
-        <v>19.8</v>
-      </c>
-      <c r="U21">
-        <v>43.16</v>
-      </c>
-      <c r="V21">
-        <v>23.2</v>
-      </c>
-      <c r="W21">
-        <v>50.58</v>
-      </c>
-      <c r="X21">
-        <v>26.6</v>
-      </c>
-      <c r="Y21">
-        <v>57.99</v>
-      </c>
-      <c r="Z21">
-        <v>30</v>
-      </c>
-      <c r="AA21">
-        <v>65.400000000000006</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>293</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>294</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>295</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>364</v>
-      </c>
-      <c r="AF21" s="1">
-        <v>48.85</v>
-      </c>
-      <c r="AG21" s="1">
-        <v>12.06</v>
-      </c>
-      <c r="AH21" s="1">
-        <v>9.5399999999999991</v>
-      </c>
-      <c r="AI21" s="1">
-        <v>12.15</v>
-      </c>
-      <c r="AJ21" s="1">
+      <c r="AK21" s="1">
         <v>9.57</v>
       </c>
-      <c r="AK21" s="1">
+      <c r="AL21" s="1">
         <v>0.67</v>
       </c>
-      <c r="AL21" s="1">
+      <c r="AM21" s="1">
         <v>99.26</v>
       </c>
-      <c r="AM21" s="1">
+      <c r="AN21" s="1">
         <v>0.98</v>
       </c>
-      <c r="AN21" s="1">
+      <c r="AO21" s="1">
         <v>-0.77</v>
       </c>
-      <c r="AO21" s="1">
+      <c r="AP21" s="1">
         <v>60</v>
       </c>
-      <c r="AP21" s="1" t="s">
+      <c r="AQ21" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="AQ21" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="AR21" s="1" t="s">
         <v>98</v>
@@ -5623,8 +5635,11 @@
       <c r="AT21" s="1" t="s">
         <v>98</v>
       </c>
+      <c r="AU21" s="1" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="22" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>2458</v>
       </c>
@@ -5644,127 +5659,128 @@
         <v>20010917</v>
       </c>
       <c r="G22">
-        <v>5.7</v>
+        <v>5.56</v>
       </c>
       <c r="H22">
-        <v>9.0500000000000007</v>
+        <v>9.2799999999999994</v>
       </c>
       <c r="I22">
-        <v>4.7300000000000004</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="J22" t="s">
+        <v>462</v>
+      </c>
+      <c r="K22" t="s">
         <v>463</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>464</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>465</v>
       </c>
-      <c r="M22" t="s">
-        <v>466</v>
-      </c>
       <c r="N22">
-        <v>1.71</v>
-      </c>
-      <c r="O22" t="s">
-        <v>467</v>
-      </c>
+        <v>1.41</v>
+      </c>
+      <c r="O22"/>
       <c r="P22">
+        <v>-0.38</v>
+      </c>
+      <c r="Q22">
         <v>12</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>205.2</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>14.2</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>242.8</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>16.399999999999999</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>280.39999999999998</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>18.600000000000001</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>318.10000000000002</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>20.8</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>355.7</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>23</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>393.3</v>
       </c>
-      <c r="AB22" t="s">
+      <c r="AC22" t="s">
+        <v>295</v>
+      </c>
+      <c r="AD22" t="s">
         <v>296</v>
       </c>
-      <c r="AC22" t="s">
+      <c r="AE22" t="s">
         <v>297</v>
       </c>
-      <c r="AD22" t="s">
-        <v>298</v>
-      </c>
-      <c r="AE22" t="s">
-        <v>365</v>
-      </c>
-      <c r="AF22" s="1">
+      <c r="AF22" t="s">
+        <v>364</v>
+      </c>
+      <c r="AG22" s="1">
         <v>49.84</v>
       </c>
-      <c r="AG22" s="1">
+      <c r="AH22" s="1">
         <v>31.99</v>
       </c>
-      <c r="AH22" s="1">
+      <c r="AI22" s="1">
         <v>52.13</v>
       </c>
-      <c r="AI22" s="1">
+      <c r="AJ22" s="1">
         <v>32.97</v>
       </c>
-      <c r="AJ22" s="1">
+      <c r="AK22" s="1">
         <v>26.28</v>
       </c>
-      <c r="AK22" s="1">
+      <c r="AL22" s="1">
         <v>1.23</v>
       </c>
-      <c r="AL22" s="1">
+      <c r="AM22" s="1">
         <v>97.03</v>
       </c>
-      <c r="AM22" s="1">
+      <c r="AN22" s="1">
         <v>12.18</v>
       </c>
-      <c r="AN22" s="1">
+      <c r="AO22" s="1">
         <v>18.04</v>
       </c>
-      <c r="AO22" s="1">
+      <c r="AP22" s="1">
         <v>74</v>
       </c>
-      <c r="AP22" s="1" t="s">
+      <c r="AQ22" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="AQ22" s="1" t="s">
+      <c r="AR22" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="AR22" s="1" t="s">
+      <c r="AS22" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="AS22" s="1" t="s">
+      <c r="AT22" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="AT22" s="1" t="s">
+      <c r="AU22" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="23" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2467</v>
       </c>
@@ -5784,127 +5800,128 @@
         <v>20010917</v>
       </c>
       <c r="G23">
-        <v>5.42</v>
+        <v>5.4</v>
       </c>
       <c r="H23">
-        <v>11.99</v>
+        <v>12.04</v>
       </c>
       <c r="I23">
-        <v>2.92</v>
+        <v>2.93</v>
       </c>
       <c r="J23" t="s">
+        <v>466</v>
+      </c>
+      <c r="K23" t="s">
+        <v>467</v>
+      </c>
+      <c r="L23" t="s">
         <v>468</v>
       </c>
-      <c r="K23" t="s">
+      <c r="M23" t="s">
         <v>469</v>
       </c>
-      <c r="L23" t="s">
-        <v>470</v>
-      </c>
-      <c r="M23" t="s">
-        <v>471</v>
-      </c>
       <c r="N23">
-        <v>0.81</v>
-      </c>
-      <c r="O23">
-        <v>-7.88</v>
-      </c>
+        <v>1.5</v>
+      </c>
+      <c r="O23"/>
       <c r="P23">
+        <v>-4.16</v>
+      </c>
+      <c r="Q23">
         <v>11</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>45.76</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>12.8</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>53.25</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>14.6</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>60.74</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>16.399999999999999</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>68.22</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>18.2</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>75.709999999999994</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>20</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>83.2</v>
       </c>
-      <c r="AB23" t="s">
+      <c r="AC23" t="s">
+        <v>298</v>
+      </c>
+      <c r="AD23" t="s">
         <v>299</v>
       </c>
-      <c r="AC23" t="s">
+      <c r="AE23" t="s">
         <v>300</v>
       </c>
-      <c r="AD23" t="s">
-        <v>301</v>
-      </c>
-      <c r="AE23" t="s">
+      <c r="AF23" t="s">
         <v>198</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>34.07</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>12.91</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>26.43</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>15.84</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>12.85</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>0.8</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>81.5</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>2.44</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>-2.57</v>
       </c>
-      <c r="AO23">
+      <c r="AP23">
         <v>57</v>
       </c>
-      <c r="AP23" t="s">
+      <c r="AQ23" t="s">
         <v>174</v>
-      </c>
-      <c r="AQ23" t="s">
-        <v>128</v>
       </c>
       <c r="AR23" t="s">
         <v>128</v>
       </c>
       <c r="AS23" t="s">
+        <v>128</v>
+      </c>
+      <c r="AT23" t="s">
         <v>91</v>
       </c>
-      <c r="AT23" t="s">
+      <c r="AU23" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>2520</v>
       </c>
@@ -5924,127 +5941,128 @@
         <v>19931027</v>
       </c>
       <c r="G24">
-        <v>9.39</v>
+        <v>9.44</v>
       </c>
       <c r="H24">
-        <v>4.26</v>
+        <v>4.24</v>
       </c>
       <c r="I24">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="J24" t="s">
+        <v>470</v>
+      </c>
+      <c r="K24" t="s">
+        <v>471</v>
+      </c>
+      <c r="L24" t="s">
         <v>472</v>
       </c>
-      <c r="K24" t="s">
+      <c r="M24" t="s">
         <v>473</v>
       </c>
-      <c r="L24" t="s">
+      <c r="N24">
+        <v>0.45</v>
+      </c>
+      <c r="O24"/>
+      <c r="P24" t="s">
         <v>474</v>
       </c>
-      <c r="M24" t="s">
-        <v>475</v>
-      </c>
-      <c r="N24">
-        <v>1.19</v>
-      </c>
-      <c r="O24" t="s">
-        <v>476</v>
-      </c>
-      <c r="P24">
+      <c r="Q24">
         <v>7</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>59.57</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>8.4</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>71.48</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>9.8000000000000007</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>83.4</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>11.2</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>95.31</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>12.6</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>107.2</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>14</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>119.1</v>
       </c>
-      <c r="AB24" t="s">
+      <c r="AC24" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD24" t="s">
         <v>302</v>
       </c>
-      <c r="AC24" t="s">
+      <c r="AE24" t="s">
         <v>303</v>
       </c>
-      <c r="AD24" t="s">
-        <v>304</v>
-      </c>
-      <c r="AE24" t="s">
-        <v>366</v>
-      </c>
-      <c r="AF24" s="1">
+      <c r="AF24" t="s">
+        <v>365</v>
+      </c>
+      <c r="AG24" s="1">
         <v>26.73</v>
       </c>
-      <c r="AG24" s="1">
+      <c r="AH24" s="1">
         <v>19.5</v>
       </c>
-      <c r="AH24" s="1">
+      <c r="AI24" s="1">
         <v>21.09</v>
       </c>
-      <c r="AI24" s="1">
+      <c r="AJ24" s="1">
         <v>18.899999999999999</v>
       </c>
-      <c r="AJ24" s="1">
+      <c r="AK24" s="1">
         <v>15.12</v>
       </c>
-      <c r="AK24" s="1">
+      <c r="AL24" s="1">
         <v>0.46</v>
       </c>
-      <c r="AL24" s="1">
+      <c r="AM24" s="1">
         <v>103.17</v>
       </c>
-      <c r="AM24" s="1">
+      <c r="AN24" s="1">
         <v>10.72</v>
       </c>
-      <c r="AN24" s="1">
+      <c r="AO24" s="1">
         <v>10.69</v>
       </c>
-      <c r="AO24" s="1">
+      <c r="AP24" s="1">
         <v>53</v>
       </c>
-      <c r="AP24" s="1" t="s">
+      <c r="AQ24" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="AQ24" s="1" t="s">
+      <c r="AR24" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AR24" s="1" t="s">
+      <c r="AS24" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AS24" s="1" t="s">
+      <c r="AT24" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="AT24" s="1" t="s">
+      <c r="AU24" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>2546</v>
       </c>
@@ -6064,22 +6082,22 @@
         <v>20000911</v>
       </c>
       <c r="G25">
-        <v>7.03</v>
+        <v>7.09</v>
       </c>
       <c r="H25">
-        <v>7.28</v>
+        <v>7.23</v>
       </c>
       <c r="I25">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="J25" t="s">
+        <v>475</v>
+      </c>
+      <c r="K25" t="s">
+        <v>476</v>
+      </c>
+      <c r="L25" t="s">
         <v>477</v>
-      </c>
-      <c r="K25" t="s">
-        <v>478</v>
-      </c>
-      <c r="L25" t="s">
-        <v>479</v>
       </c>
       <c r="M25" t="s">
         <v>156</v>
@@ -6087,104 +6105,105 @@
       <c r="N25">
         <v>1</v>
       </c>
-      <c r="O25">
-        <v>1.93</v>
-      </c>
-      <c r="P25">
+      <c r="O25"/>
+      <c r="P25" t="s">
+        <v>478</v>
+      </c>
+      <c r="Q25">
         <v>7</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>49.21</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>8</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>56.24</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>9</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>63.27</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>10</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>70.3</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>11</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>77.33</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>12</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>84.36</v>
       </c>
-      <c r="AB25" t="s">
+      <c r="AC25" t="s">
+        <v>304</v>
+      </c>
+      <c r="AD25" t="s">
         <v>305</v>
       </c>
-      <c r="AC25" t="s">
-        <v>306</v>
-      </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>234</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AF25" t="s">
         <v>235</v>
       </c>
-      <c r="AF25" s="1">
+      <c r="AG25" s="1">
         <v>11.23</v>
       </c>
-      <c r="AG25" s="1">
+      <c r="AH25" s="1">
         <v>8.3800000000000008</v>
       </c>
-      <c r="AH25" s="1">
+      <c r="AI25" s="1">
         <v>23.02</v>
       </c>
-      <c r="AI25" s="1">
+      <c r="AJ25" s="1">
         <v>9.17</v>
       </c>
-      <c r="AJ25" s="1">
+      <c r="AK25" s="1">
         <v>7.35</v>
       </c>
-      <c r="AK25" s="1">
+      <c r="AL25" s="1">
         <v>1.07</v>
       </c>
-      <c r="AL25" s="1">
+      <c r="AM25" s="1">
         <v>91.38</v>
       </c>
-      <c r="AM25" s="1">
+      <c r="AN25" s="1">
         <v>5.88</v>
       </c>
-      <c r="AN25" s="1">
+      <c r="AO25" s="1">
         <v>5.85</v>
       </c>
-      <c r="AO25" s="1">
+      <c r="AP25" s="1">
         <v>45</v>
       </c>
-      <c r="AP25" s="1" t="s">
+      <c r="AQ25" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="AQ25" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="AR25" s="1" t="s">
         <v>122</v>
       </c>
       <c r="AS25" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT25" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="AT25" s="1" t="s">
+      <c r="AU25" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>2881</v>
       </c>
@@ -6204,127 +6223,128 @@
         <v>20011219</v>
       </c>
       <c r="G26">
-        <v>3.73</v>
+        <v>3.8</v>
       </c>
       <c r="H26">
-        <v>6.62</v>
+        <v>6.5</v>
       </c>
       <c r="I26">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="J26" t="s">
+        <v>479</v>
+      </c>
+      <c r="K26" t="s">
         <v>480</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>481</v>
       </c>
-      <c r="L26" t="s">
+      <c r="M26" t="s">
         <v>482</v>
       </c>
-      <c r="M26" t="s">
-        <v>483</v>
-      </c>
       <c r="N26">
-        <v>0.67</v>
-      </c>
-      <c r="O26">
-        <v>-7.52</v>
-      </c>
+        <v>1.03</v>
+      </c>
+      <c r="O26"/>
       <c r="P26">
+        <v>-7.87</v>
+      </c>
+      <c r="Q26">
         <v>7</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>92.68</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>7.8</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>103.3</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>8.6</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>113.9</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>9.4</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>124.5</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>10.199999999999999</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>135</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>11</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>145.6</v>
       </c>
-      <c r="AB26" t="s">
+      <c r="AC26" t="s">
+        <v>306</v>
+      </c>
+      <c r="AD26" t="s">
         <v>307</v>
       </c>
-      <c r="AC26" t="s">
+      <c r="AE26" t="s">
         <v>308</v>
       </c>
-      <c r="AD26" t="s">
-        <v>309</v>
-      </c>
-      <c r="AE26" t="s">
-        <v>367</v>
-      </c>
-      <c r="AF26" s="1">
-        <v>0</v>
+      <c r="AF26" t="s">
+        <v>366</v>
       </c>
       <c r="AG26" s="1">
         <v>0</v>
       </c>
       <c r="AH26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI26" s="1">
         <v>21.39</v>
       </c>
-      <c r="AI26" s="1">
+      <c r="AJ26" s="1">
         <v>39.32</v>
       </c>
-      <c r="AJ26" s="1">
+      <c r="AK26" s="1">
         <v>34.96</v>
       </c>
-      <c r="AK26" s="1">
+      <c r="AL26" s="1">
         <v>0.05</v>
       </c>
-      <c r="AL26" s="1">
+      <c r="AM26" s="1">
         <v>0</v>
       </c>
-      <c r="AM26" s="1">
+      <c r="AN26" s="1">
         <v>5.0999999999999996</v>
       </c>
-      <c r="AN26" s="1">
+      <c r="AO26" s="1">
         <v>4.46</v>
       </c>
-      <c r="AO26" s="1">
+      <c r="AP26" s="1">
         <v>56</v>
       </c>
-      <c r="AP26" s="1" t="s">
+      <c r="AQ26" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="AQ26" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="AR26" s="1" t="s">
         <v>97</v>
       </c>
       <c r="AS26" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AT26" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="AT26" s="1" t="s">
+      <c r="AU26" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>3005</v>
       </c>
@@ -6344,127 +6364,128 @@
         <v>20020225</v>
       </c>
       <c r="G27">
-        <v>6.64</v>
+        <v>6.62</v>
       </c>
       <c r="H27">
-        <v>7.45</v>
+        <v>7.47</v>
       </c>
       <c r="I27">
         <v>1.88</v>
       </c>
       <c r="J27" t="s">
+        <v>483</v>
+      </c>
+      <c r="K27" t="s">
         <v>484</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>485</v>
       </c>
-      <c r="L27" t="s">
+      <c r="M27" t="s">
         <v>486</v>
       </c>
-      <c r="M27" t="s">
+      <c r="N27">
+        <v>0.33</v>
+      </c>
+      <c r="O27"/>
+      <c r="P27" t="s">
         <v>487</v>
       </c>
-      <c r="N27">
-        <v>0.6</v>
-      </c>
-      <c r="O27" t="s">
-        <v>488</v>
-      </c>
-      <c r="P27">
+      <c r="Q27">
         <v>10</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>73</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>11.4</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>83.22</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>12.8</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>93.44</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>14.2</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>103.7</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>15.6</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>113.9</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>17</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>124.1</v>
       </c>
-      <c r="AB27" t="s">
+      <c r="AC27" t="s">
+        <v>309</v>
+      </c>
+      <c r="AD27" t="s">
         <v>310</v>
       </c>
-      <c r="AC27" t="s">
+      <c r="AE27" t="s">
         <v>311</v>
       </c>
-      <c r="AD27" t="s">
-        <v>312</v>
-      </c>
-      <c r="AE27" t="s">
-        <v>368</v>
-      </c>
-      <c r="AF27" s="1">
+      <c r="AF27" t="s">
+        <v>367</v>
+      </c>
+      <c r="AG27" s="1">
         <v>24.89</v>
       </c>
-      <c r="AG27" s="1">
+      <c r="AH27" s="1">
         <v>8.01</v>
       </c>
-      <c r="AH27" s="1">
+      <c r="AI27" s="1">
         <v>25.54</v>
       </c>
-      <c r="AI27" s="1">
+      <c r="AJ27" s="1">
         <v>20.46</v>
       </c>
-      <c r="AJ27" s="1">
+      <c r="AK27" s="1">
         <v>15.77</v>
       </c>
-      <c r="AK27" s="1">
+      <c r="AL27" s="1">
         <v>0.86</v>
       </c>
-      <c r="AL27" s="1">
+      <c r="AM27" s="1">
         <v>39.15</v>
       </c>
-      <c r="AM27" s="1">
+      <c r="AN27" s="1">
         <v>0.9</v>
       </c>
-      <c r="AN27" s="1">
+      <c r="AO27" s="1">
         <v>4.0599999999999996</v>
       </c>
-      <c r="AO27" s="1">
+      <c r="AP27" s="1">
         <v>57</v>
       </c>
-      <c r="AP27" s="1" t="s">
+      <c r="AQ27" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="AQ27" s="1" t="s">
+      <c r="AR27" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="AR27" s="1" t="s">
+      <c r="AS27" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="AS27" s="1" t="s">
+      <c r="AT27" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AT27" s="1" t="s">
+      <c r="AU27" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="28" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3028</v>
       </c>
@@ -6484,127 +6505,128 @@
         <v>20020826</v>
       </c>
       <c r="G28">
-        <v>5.72</v>
+        <v>5.66</v>
       </c>
       <c r="H28">
-        <v>8.56</v>
+        <v>8.65</v>
       </c>
       <c r="I28">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="J28" t="s">
+        <v>488</v>
+      </c>
+      <c r="K28" t="s">
         <v>489</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>490</v>
       </c>
-      <c r="L28" t="s">
+      <c r="M28" t="s">
         <v>491</v>
       </c>
-      <c r="M28" t="s">
-        <v>492</v>
-      </c>
       <c r="N28">
-        <v>0.65</v>
-      </c>
-      <c r="O28" t="s">
-        <v>493</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="O28"/>
       <c r="P28">
+        <v>15.7</v>
+      </c>
+      <c r="Q28">
         <v>10</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>38.700000000000003</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>11</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>42.57</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>12</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>46.44</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>13</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>50.31</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>14</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>54.18</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>15</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>58.05</v>
       </c>
-      <c r="AB28" t="s">
+      <c r="AC28" t="s">
+        <v>312</v>
+      </c>
+      <c r="AD28" t="s">
         <v>313</v>
       </c>
-      <c r="AC28" t="s">
+      <c r="AE28" t="s">
         <v>314</v>
       </c>
-      <c r="AD28" t="s">
-        <v>315</v>
-      </c>
-      <c r="AE28" t="s">
-        <v>369</v>
-      </c>
-      <c r="AF28">
+      <c r="AF28" t="s">
+        <v>368</v>
+      </c>
+      <c r="AG28">
         <v>5.93</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>2.59</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>18.72</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>2.64</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>2.19</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>2.15</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>98.11</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>-1.74</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>-1.7</v>
       </c>
-      <c r="AO28">
+      <c r="AP28">
         <v>30</v>
       </c>
-      <c r="AP28" t="s">
+      <c r="AQ28" t="s">
         <v>201</v>
       </c>
-      <c r="AQ28" t="s">
+      <c r="AR28" t="s">
         <v>104</v>
       </c>
-      <c r="AR28" t="s">
+      <c r="AS28" t="s">
         <v>123</v>
       </c>
-      <c r="AS28" t="s">
+      <c r="AT28" t="s">
         <v>202</v>
       </c>
-      <c r="AT28" t="s">
+      <c r="AU28" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>3033</v>
       </c>
@@ -6624,130 +6646,131 @@
         <v>20020826</v>
       </c>
       <c r="G29">
-        <v>4.33</v>
+        <v>4.2699999999999996</v>
       </c>
       <c r="H29">
-        <v>8.5500000000000007</v>
+        <v>8.68</v>
       </c>
       <c r="I29">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="J29" t="s">
+        <v>492</v>
+      </c>
+      <c r="K29" t="s">
+        <v>493</v>
+      </c>
+      <c r="L29" t="s">
         <v>494</v>
       </c>
-      <c r="K29" t="s">
+      <c r="M29" t="s">
         <v>495</v>
       </c>
-      <c r="L29" t="s">
-        <v>496</v>
-      </c>
-      <c r="M29" t="s">
-        <v>497</v>
-      </c>
       <c r="N29">
-        <v>0.47</v>
-      </c>
-      <c r="O29" t="s">
-        <v>498</v>
-      </c>
+        <v>1.78</v>
+      </c>
+      <c r="O29"/>
       <c r="P29">
+        <v>13.67</v>
+      </c>
+      <c r="Q29">
         <v>9</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>34.83</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>10.199999999999999</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>39.47</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>11.4</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>44.12</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>12.6</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>48.76</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>13.8</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>53.41</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>15</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>58.05</v>
       </c>
-      <c r="AB29" t="s">
+      <c r="AC29" t="s">
+        <v>315</v>
+      </c>
+      <c r="AD29" t="s">
         <v>316</v>
       </c>
-      <c r="AC29" t="s">
+      <c r="AE29" t="s">
         <v>317</v>
       </c>
-      <c r="AD29" t="s">
-        <v>318</v>
-      </c>
-      <c r="AE29" t="s">
-        <v>370</v>
-      </c>
-      <c r="AF29">
+      <c r="AF29" t="s">
+        <v>369</v>
+      </c>
+      <c r="AG29">
         <v>7.01</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>3.51</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>25.16</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>3.37</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>2.33</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>2.89</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>104.15</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>0.88</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>0.86</v>
       </c>
-      <c r="AO29">
+      <c r="AP29">
         <v>34</v>
       </c>
-      <c r="AP29" t="s">
+      <c r="AQ29" t="s">
         <v>191</v>
       </c>
-      <c r="AQ29" t="s">
+      <c r="AR29" t="s">
         <v>192</v>
       </c>
-      <c r="AR29" t="s">
+      <c r="AS29" t="s">
         <v>193</v>
       </c>
-      <c r="AS29" t="s">
+      <c r="AT29" t="s">
         <v>194</v>
       </c>
-      <c r="AT29" t="s">
+      <c r="AU29" t="s">
         <v>195</v>
       </c>
-      <c r="AU29"/>
       <c r="AV29"/>
       <c r="AW29"/>
+      <c r="AX29"/>
     </row>
-    <row r="30" spans="1:49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>3044</v>
       </c>
@@ -6767,127 +6790,127 @@
         <v>20020826</v>
       </c>
       <c r="G30">
-        <v>5.9</v>
+        <v>5.83</v>
       </c>
       <c r="H30">
-        <v>10.61</v>
+        <v>10.74</v>
       </c>
       <c r="I30">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="J30" t="s">
+        <v>496</v>
+      </c>
+      <c r="K30" t="s">
+        <v>497</v>
+      </c>
+      <c r="L30" t="s">
+        <v>498</v>
+      </c>
+      <c r="M30" t="s">
         <v>499</v>
       </c>
-      <c r="K30" t="s">
-        <v>500</v>
-      </c>
-      <c r="L30" t="s">
-        <v>501</v>
-      </c>
-      <c r="M30" t="s">
-        <v>502</v>
-      </c>
       <c r="N30">
-        <v>0.42</v>
-      </c>
-      <c r="O30">
-        <v>-9.16</v>
+        <v>0.69</v>
       </c>
       <c r="P30">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="Q30">
         <v>8</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>93.92</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>9.1999999999999993</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>108</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>10.4</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>122.1</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>11.6</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>136.19999999999999</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>12.8</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>150.30000000000001</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>14</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>164.4</v>
       </c>
-      <c r="AB30" t="s">
+      <c r="AC30" t="s">
+        <v>318</v>
+      </c>
+      <c r="AD30" t="s">
         <v>319</v>
       </c>
-      <c r="AC30" t="s">
+      <c r="AE30" t="s">
         <v>320</v>
       </c>
-      <c r="AD30" t="s">
-        <v>321</v>
-      </c>
-      <c r="AE30" t="s">
-        <v>371</v>
-      </c>
-      <c r="AF30" s="1">
+      <c r="AF30" t="s">
+        <v>370</v>
+      </c>
+      <c r="AG30" s="1">
         <v>18.75</v>
       </c>
-      <c r="AG30" s="1">
+      <c r="AH30" s="1">
         <v>10.47</v>
       </c>
-      <c r="AH30" s="1">
+      <c r="AI30" s="1">
         <v>15.91</v>
       </c>
-      <c r="AI30" s="1">
+      <c r="AJ30" s="1">
         <v>11.99</v>
       </c>
-      <c r="AJ30" s="1">
+      <c r="AK30" s="1">
         <v>9.36</v>
       </c>
-      <c r="AK30" s="1">
+      <c r="AL30" s="1">
         <v>0.78</v>
       </c>
-      <c r="AL30" s="1">
+      <c r="AM30" s="1">
         <v>87.32</v>
       </c>
-      <c r="AM30" s="1">
+      <c r="AN30" s="1">
         <v>7.58</v>
       </c>
-      <c r="AN30" s="1">
+      <c r="AO30" s="1">
         <v>-10.16</v>
       </c>
-      <c r="AO30" s="1">
+      <c r="AP30" s="1">
         <v>49</v>
       </c>
-      <c r="AP30" s="1" t="s">
+      <c r="AQ30" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AQ30" s="1" t="s">
+      <c r="AR30" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AR30" s="1" t="s">
+      <c r="AS30" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="AS30" s="1" t="s">
+      <c r="AT30" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AT30" s="1" t="s">
+      <c r="AU30" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="1:49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3048</v>
       </c>
@@ -6907,127 +6930,127 @@
         <v>20021001</v>
       </c>
       <c r="G31">
-        <v>8.7100000000000009</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="H31">
-        <v>7.76</v>
+        <v>7.77</v>
       </c>
       <c r="I31">
         <v>2.0499999999999998</v>
       </c>
       <c r="J31" t="s">
+        <v>500</v>
+      </c>
+      <c r="K31" t="s">
+        <v>501</v>
+      </c>
+      <c r="L31" t="s">
+        <v>502</v>
+      </c>
+      <c r="M31" t="s">
         <v>503</v>
       </c>
-      <c r="K31" t="s">
-        <v>504</v>
-      </c>
-      <c r="L31" t="s">
-        <v>505</v>
-      </c>
-      <c r="M31" t="s">
-        <v>506</v>
-      </c>
       <c r="N31">
-        <v>0.75</v>
-      </c>
-      <c r="O31">
-        <v>2.86</v>
+        <v>1.07</v>
       </c>
       <c r="P31">
+        <v>0.21</v>
+      </c>
+      <c r="Q31">
         <v>8</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>34.32</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>9.6</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>41.18</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>11.2</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>48.05</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>12.8</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>54.91</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>14.4</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>61.78</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>16</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>68.64</v>
       </c>
-      <c r="AB31" t="s">
+      <c r="AC31" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD31" t="s">
         <v>322</v>
       </c>
-      <c r="AC31" t="s">
+      <c r="AE31" t="s">
         <v>323</v>
       </c>
-      <c r="AD31" t="s">
-        <v>324</v>
-      </c>
-      <c r="AE31" t="s">
-        <v>372</v>
-      </c>
-      <c r="AF31">
+      <c r="AF31" t="s">
+        <v>371</v>
+      </c>
+      <c r="AG31">
         <v>3.24</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>1.5</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>27.8</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>1.3</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>1.04</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>4.37</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>115.38</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>-2.5099999999999998</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>-3.46</v>
       </c>
-      <c r="AO31">
+      <c r="AP31">
         <v>30</v>
       </c>
-      <c r="AP31" t="s">
+      <c r="AQ31" t="s">
         <v>211</v>
       </c>
-      <c r="AQ31" t="s">
+      <c r="AR31" t="s">
         <v>104</v>
       </c>
-      <c r="AR31" t="s">
+      <c r="AS31" t="s">
         <v>166</v>
       </c>
-      <c r="AS31" t="s">
+      <c r="AT31" t="s">
         <v>104</v>
       </c>
-      <c r="AT31" t="s">
+      <c r="AU31" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="1:49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>3209</v>
       </c>
@@ -7047,127 +7070,127 @@
         <v>20081126</v>
       </c>
       <c r="G32">
-        <v>6.99</v>
+        <v>6.98</v>
       </c>
       <c r="H32">
-        <v>8.01</v>
+        <v>8.0299999999999994</v>
       </c>
       <c r="I32">
         <v>1.64</v>
       </c>
       <c r="J32" t="s">
+        <v>504</v>
+      </c>
+      <c r="K32" t="s">
+        <v>505</v>
+      </c>
+      <c r="L32" t="s">
+        <v>506</v>
+      </c>
+      <c r="M32" t="s">
         <v>507</v>
       </c>
-      <c r="K32" t="s">
+      <c r="N32">
+        <v>0.79</v>
+      </c>
+      <c r="P32" t="s">
         <v>508</v>
       </c>
-      <c r="L32" t="s">
-        <v>509</v>
-      </c>
-      <c r="M32" t="s">
-        <v>510</v>
-      </c>
-      <c r="N32">
-        <v>0.87</v>
-      </c>
-      <c r="O32" t="s">
-        <v>511</v>
-      </c>
-      <c r="P32">
+      <c r="Q32">
         <v>9</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>32.04</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>10</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>35.6</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>11</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>39.159999999999997</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>12</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>42.72</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>13</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>46.28</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>14</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>49.84</v>
       </c>
-      <c r="AB32" t="s">
+      <c r="AC32" t="s">
+        <v>324</v>
+      </c>
+      <c r="AD32" t="s">
         <v>325</v>
       </c>
-      <c r="AC32" t="s">
+      <c r="AE32" t="s">
         <v>326</v>
       </c>
-      <c r="AD32" t="s">
-        <v>327</v>
-      </c>
-      <c r="AE32" t="s">
-        <v>373</v>
-      </c>
-      <c r="AF32" s="1">
+      <c r="AF32" t="s">
+        <v>372</v>
+      </c>
+      <c r="AG32" s="1">
         <v>5.31</v>
       </c>
-      <c r="AG32" s="1">
+      <c r="AH32" s="1">
         <v>2.25</v>
       </c>
-      <c r="AH32" s="1">
+      <c r="AI32" s="1">
         <v>22.5</v>
       </c>
-      <c r="AI32" s="1">
+      <c r="AJ32" s="1">
         <v>2.11</v>
       </c>
-      <c r="AJ32" s="1">
+      <c r="AK32" s="1">
         <v>1.63</v>
       </c>
-      <c r="AK32" s="1">
+      <c r="AL32" s="1">
         <v>3.25</v>
       </c>
-      <c r="AL32" s="1">
+      <c r="AM32" s="1">
         <v>106.64</v>
       </c>
-      <c r="AM32" s="1">
+      <c r="AN32" s="1">
         <v>0.7</v>
       </c>
-      <c r="AN32" s="1">
+      <c r="AO32" s="1">
         <v>-1.1599999999999999</v>
       </c>
-      <c r="AO32" s="1">
+      <c r="AP32" s="1">
         <v>38</v>
       </c>
-      <c r="AP32" s="1" t="s">
+      <c r="AQ32" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="AQ32" s="1" t="s">
+      <c r="AR32" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AR32" s="1" t="s">
+      <c r="AS32" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="AS32" s="1" t="s">
+      <c r="AT32" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="AT32" s="1" t="s">
+      <c r="AU32" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="33" spans="1:51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3312</v>
       </c>
@@ -7187,127 +7210,127 @@
         <v>20101229</v>
       </c>
       <c r="G33">
-        <v>4.13</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="H33">
-        <v>7.71</v>
+        <v>7.85</v>
       </c>
       <c r="I33">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="J33" t="s">
+        <v>509</v>
+      </c>
+      <c r="K33" t="s">
+        <v>510</v>
+      </c>
+      <c r="L33" t="s">
+        <v>511</v>
+      </c>
+      <c r="M33" t="s">
         <v>512</v>
       </c>
-      <c r="K33" t="s">
-        <v>513</v>
-      </c>
-      <c r="L33" t="s">
-        <v>514</v>
-      </c>
-      <c r="M33" t="s">
-        <v>515</v>
-      </c>
       <c r="N33">
-        <v>0.92</v>
-      </c>
-      <c r="O33">
-        <v>-4.2699999999999996</v>
+        <v>0.98</v>
       </c>
       <c r="P33">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="Q33">
         <v>15</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>47.1</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>18</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>56.52</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>21</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>65.94</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>24</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>75.36</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>27</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>84.78</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>30</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>94.2</v>
       </c>
-      <c r="AB33" t="s">
+      <c r="AC33" t="s">
+        <v>327</v>
+      </c>
+      <c r="AD33" t="s">
         <v>328</v>
       </c>
-      <c r="AC33" t="s">
+      <c r="AE33" t="s">
         <v>329</v>
       </c>
-      <c r="AD33" t="s">
-        <v>330</v>
-      </c>
-      <c r="AE33" t="s">
-        <v>374</v>
-      </c>
-      <c r="AF33">
+      <c r="AF33" t="s">
+        <v>373</v>
+      </c>
+      <c r="AG33">
         <v>5.84</v>
       </c>
-      <c r="AG33">
+      <c r="AH33">
         <v>3.09</v>
       </c>
-      <c r="AH33">
+      <c r="AI33">
         <v>27.98</v>
       </c>
-      <c r="AI33">
+      <c r="AJ33">
         <v>3.08</v>
       </c>
-      <c r="AJ33">
+      <c r="AK33">
         <v>2.5</v>
       </c>
-      <c r="AK33">
+      <c r="AL33">
         <v>3.01</v>
       </c>
-      <c r="AL33">
+      <c r="AM33">
         <v>100.32</v>
       </c>
-      <c r="AM33">
+      <c r="AN33">
         <v>-3.19</v>
       </c>
-      <c r="AN33">
+      <c r="AO33">
         <v>-3.32</v>
       </c>
-      <c r="AO33">
+      <c r="AP33">
         <v>40</v>
       </c>
-      <c r="AP33" t="s">
+      <c r="AQ33" t="s">
         <v>214</v>
       </c>
-      <c r="AQ33" t="s">
+      <c r="AR33" t="s">
         <v>215</v>
       </c>
-      <c r="AR33" t="s">
+      <c r="AS33" t="s">
         <v>216</v>
       </c>
-      <c r="AS33" t="s">
+      <c r="AT33" t="s">
         <v>217</v>
       </c>
-      <c r="AT33" t="s">
+      <c r="AU33" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>3702</v>
       </c>
@@ -7327,127 +7350,127 @@
         <v>20051109</v>
       </c>
       <c r="G34">
-        <v>5.81</v>
+        <v>5.79</v>
       </c>
       <c r="H34">
-        <v>9.2200000000000006</v>
+        <v>9.24</v>
       </c>
       <c r="I34">
         <v>1.48</v>
       </c>
       <c r="J34" t="s">
+        <v>513</v>
+      </c>
+      <c r="K34" t="s">
+        <v>514</v>
+      </c>
+      <c r="L34" t="s">
+        <v>515</v>
+      </c>
+      <c r="M34" t="s">
         <v>516</v>
       </c>
-      <c r="K34" t="s">
-        <v>517</v>
-      </c>
-      <c r="L34" t="s">
-        <v>518</v>
-      </c>
-      <c r="M34" t="s">
-        <v>519</v>
-      </c>
       <c r="N34">
-        <v>0.67</v>
-      </c>
-      <c r="O34">
-        <v>0.12</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="P34">
+        <v>-2.2599999999999998</v>
+      </c>
+      <c r="Q34">
         <v>9</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>55.71</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>9.8000000000000007</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>60.66</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>10.6</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>65.61</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>11.4</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>70.569999999999993</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <v>12.2</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>75.52</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <v>13</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <v>80.47</v>
       </c>
-      <c r="AB34" t="s">
+      <c r="AC34" t="s">
+        <v>330</v>
+      </c>
+      <c r="AD34" t="s">
         <v>331</v>
       </c>
-      <c r="AC34" t="s">
+      <c r="AE34" t="s">
         <v>332</v>
       </c>
-      <c r="AD34" t="s">
-        <v>333</v>
-      </c>
-      <c r="AE34" t="s">
-        <v>375</v>
-      </c>
-      <c r="AF34" s="1">
+      <c r="AF34" t="s">
+        <v>374</v>
+      </c>
+      <c r="AG34" s="1">
         <v>3.89</v>
       </c>
-      <c r="AG34" s="1">
+      <c r="AH34" s="1">
         <v>1.82</v>
       </c>
-      <c r="AH34" s="1">
+      <c r="AI34" s="1">
         <v>17.649999999999999</v>
       </c>
-      <c r="AI34" s="1">
+      <c r="AJ34" s="1">
         <v>1.87</v>
       </c>
-      <c r="AJ34" s="1">
+      <c r="AK34" s="1">
         <v>1.54</v>
       </c>
-      <c r="AK34" s="1">
+      <c r="AL34" s="1">
         <v>2.9</v>
       </c>
-      <c r="AL34" s="1">
+      <c r="AM34" s="1">
         <v>97.33</v>
       </c>
-      <c r="AM34" s="1">
+      <c r="AN34" s="1">
         <v>-16.23</v>
       </c>
-      <c r="AN34" s="1">
+      <c r="AO34" s="1">
         <v>-16.72</v>
       </c>
-      <c r="AO34" s="1">
+      <c r="AP34" s="1">
         <v>28</v>
       </c>
-      <c r="AP34" s="1" t="s">
+      <c r="AQ34" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="AQ34" s="1" t="s">
+      <c r="AR34" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="AR34" s="1" t="s">
+      <c r="AS34" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="AS34" s="1" t="s">
+      <c r="AT34" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="AT34" s="1" t="s">
+      <c r="AU34" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="35" spans="1:51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>3706</v>
       </c>
@@ -7467,127 +7490,127 @@
         <v>20130912</v>
       </c>
       <c r="G35">
-        <v>3.03</v>
+        <v>2.98</v>
       </c>
       <c r="H35">
-        <v>3.2</v>
+        <v>3.26</v>
       </c>
       <c r="I35">
-        <v>0.8</v>
+        <v>0.81</v>
       </c>
       <c r="J35" t="s">
+        <v>517</v>
+      </c>
+      <c r="K35" t="s">
+        <v>518</v>
+      </c>
+      <c r="L35" t="s">
+        <v>519</v>
+      </c>
+      <c r="M35" t="s">
         <v>520</v>
       </c>
-      <c r="K35" t="s">
-        <v>521</v>
-      </c>
-      <c r="L35" t="s">
-        <v>522</v>
-      </c>
-      <c r="M35" t="s">
-        <v>523</v>
-      </c>
       <c r="N35">
-        <v>0.47</v>
-      </c>
-      <c r="O35" t="s">
-        <v>524</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="P35">
+        <v>16.7</v>
+      </c>
+      <c r="Q35">
         <v>8</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>82.56</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <v>9.4</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <v>97.01</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <v>10.8</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>111.5</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>12.2</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>125.9</v>
       </c>
-      <c r="X35">
+      <c r="Y35">
         <v>13.6</v>
       </c>
-      <c r="Y35">
+      <c r="Z35">
         <v>140.4</v>
       </c>
-      <c r="Z35">
+      <c r="AA35">
         <v>15</v>
       </c>
-      <c r="AA35">
+      <c r="AB35">
         <v>154.80000000000001</v>
       </c>
-      <c r="AB35" t="s">
+      <c r="AC35" t="s">
+        <v>333</v>
+      </c>
+      <c r="AD35" t="s">
         <v>334</v>
       </c>
-      <c r="AC35" t="s">
+      <c r="AE35" t="s">
         <v>335</v>
       </c>
-      <c r="AD35" t="s">
-        <v>336</v>
-      </c>
-      <c r="AE35" t="s">
-        <v>376</v>
-      </c>
-      <c r="AF35" s="1">
+      <c r="AF35" t="s">
+        <v>375</v>
+      </c>
+      <c r="AG35" s="1">
         <v>9.75</v>
       </c>
-      <c r="AG35" s="1">
+      <c r="AH35" s="1">
         <v>-0.09</v>
       </c>
-      <c r="AH35" s="1">
+      <c r="AI35" s="1">
         <v>33</v>
       </c>
-      <c r="AI35" s="1">
+      <c r="AJ35" s="1">
         <v>55.14</v>
       </c>
-      <c r="AJ35" s="1">
+      <c r="AK35" s="1">
         <v>34.869999999999997</v>
       </c>
-      <c r="AK35" s="1">
+      <c r="AL35" s="1">
         <v>0.68</v>
       </c>
-      <c r="AL35" s="1">
+      <c r="AM35" s="1">
         <v>-0.16</v>
       </c>
-      <c r="AM35" s="1">
+      <c r="AN35" s="1">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AN35" s="1">
+      <c r="AO35" s="1">
         <v>1.44</v>
       </c>
-      <c r="AO35" s="1">
+      <c r="AP35" s="1">
         <v>57</v>
       </c>
-      <c r="AP35" s="1" t="s">
+      <c r="AQ35" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AQ35" s="1" t="s">
+      <c r="AR35" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="AR35" s="1" t="s">
+      <c r="AS35" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="AS35" s="1" t="s">
+      <c r="AT35" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="AT35" s="1" t="s">
+      <c r="AU35" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="36" spans="1:51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>6257</v>
       </c>
@@ -7607,127 +7630,127 @@
         <v>20030825</v>
       </c>
       <c r="G36">
-        <v>4.95</v>
+        <v>4.87</v>
       </c>
       <c r="H36">
-        <v>10.1</v>
+        <v>10.26</v>
       </c>
       <c r="I36">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="J36" t="s">
+        <v>521</v>
+      </c>
+      <c r="K36" t="s">
+        <v>522</v>
+      </c>
+      <c r="L36" t="s">
+        <v>523</v>
+      </c>
+      <c r="M36" t="s">
+        <v>524</v>
+      </c>
+      <c r="N36">
+        <v>0.4</v>
+      </c>
+      <c r="P36" t="s">
         <v>525</v>
       </c>
-      <c r="K36" t="s">
-        <v>526</v>
-      </c>
-      <c r="L36" t="s">
-        <v>527</v>
-      </c>
-      <c r="M36" t="s">
-        <v>528</v>
-      </c>
-      <c r="N36">
-        <v>0.26</v>
-      </c>
-      <c r="O36" t="s">
-        <v>529</v>
-      </c>
-      <c r="P36">
+      <c r="Q36">
         <v>9</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <v>52.47</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <v>10.199999999999999</v>
       </c>
-      <c r="S36">
+      <c r="T36">
         <v>59.47</v>
       </c>
-      <c r="T36">
+      <c r="U36">
         <v>11.4</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>66.459999999999994</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <v>12.6</v>
       </c>
-      <c r="W36">
+      <c r="X36">
         <v>73.459999999999994</v>
       </c>
-      <c r="X36">
+      <c r="Y36">
         <v>13.8</v>
       </c>
-      <c r="Y36">
+      <c r="Z36">
         <v>80.45</v>
       </c>
-      <c r="Z36">
+      <c r="AA36">
         <v>15</v>
       </c>
-      <c r="AA36">
+      <c r="AB36">
         <v>87.45</v>
       </c>
-      <c r="AB36" t="s">
+      <c r="AC36" t="s">
+        <v>336</v>
+      </c>
+      <c r="AD36" t="s">
         <v>337</v>
       </c>
-      <c r="AC36" t="s">
+      <c r="AE36" t="s">
         <v>338</v>
       </c>
-      <c r="AD36" t="s">
-        <v>339</v>
-      </c>
-      <c r="AE36" t="s">
-        <v>377</v>
-      </c>
-      <c r="AF36" s="1">
+      <c r="AF36" t="s">
+        <v>376</v>
+      </c>
+      <c r="AG36" s="1">
         <v>30.03</v>
       </c>
-      <c r="AG36" s="1">
+      <c r="AH36" s="1">
         <v>21.36</v>
       </c>
-      <c r="AH36" s="1">
+      <c r="AI36" s="1">
         <v>19.16</v>
       </c>
-      <c r="AI36" s="1">
+      <c r="AJ36" s="1">
         <v>22.37</v>
       </c>
-      <c r="AJ36" s="1">
+      <c r="AK36" s="1">
         <v>18.329999999999998</v>
       </c>
-      <c r="AK36" s="1">
+      <c r="AL36" s="1">
         <v>0.51</v>
       </c>
-      <c r="AL36" s="1">
+      <c r="AM36" s="1">
         <v>95.49</v>
       </c>
-      <c r="AM36" s="1">
+      <c r="AN36" s="1">
         <v>17.23</v>
       </c>
-      <c r="AN36" s="1">
+      <c r="AO36" s="1">
         <v>-2.14</v>
       </c>
-      <c r="AO36" s="1">
+      <c r="AP36" s="1">
         <v>64</v>
       </c>
-      <c r="AP36" s="1" t="s">
+      <c r="AQ36" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="AQ36" s="1" t="s">
+      <c r="AR36" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="AR36" s="1" t="s">
+      <c r="AS36" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="AS36" s="1" t="s">
+      <c r="AT36" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="AT36" s="1" t="s">
+      <c r="AU36" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="37" spans="1:51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>8112</v>
       </c>
@@ -7747,127 +7770,127 @@
         <v>20071231</v>
       </c>
       <c r="G37">
-        <v>6.08</v>
+        <v>6</v>
       </c>
       <c r="H37">
-        <v>7.78</v>
+        <v>7.89</v>
       </c>
       <c r="I37">
-        <v>2</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="J37" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="K37" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="L37" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="M37" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="N37">
-        <v>0.7</v>
-      </c>
-      <c r="O37">
-        <v>-4.13</v>
+        <v>1.78</v>
       </c>
       <c r="P37">
+        <v>16.72</v>
+      </c>
+      <c r="Q37">
         <v>7</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
         <v>46.97</v>
       </c>
-      <c r="R37">
+      <c r="S37">
         <v>8.1999999999999993</v>
       </c>
-      <c r="S37">
+      <c r="T37">
         <v>55.02</v>
       </c>
-      <c r="T37">
+      <c r="U37">
         <v>9.4</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <v>63.07</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <v>10.6</v>
       </c>
-      <c r="W37">
+      <c r="X37">
         <v>71.13</v>
       </c>
-      <c r="X37">
+      <c r="Y37">
         <v>11.8</v>
       </c>
-      <c r="Y37">
+      <c r="Z37">
         <v>79.180000000000007</v>
       </c>
-      <c r="Z37">
+      <c r="AA37">
         <v>13</v>
       </c>
-      <c r="AA37">
+      <c r="AB37">
         <v>87.23</v>
       </c>
-      <c r="AB37" t="s">
+      <c r="AC37" t="s">
+        <v>339</v>
+      </c>
+      <c r="AD37" t="s">
         <v>340</v>
       </c>
-      <c r="AC37" t="s">
+      <c r="AE37" t="s">
         <v>341</v>
       </c>
-      <c r="AD37" t="s">
-        <v>342</v>
-      </c>
-      <c r="AE37" t="s">
-        <v>378</v>
-      </c>
-      <c r="AF37" s="1">
+      <c r="AF37" t="s">
+        <v>377</v>
+      </c>
+      <c r="AG37" s="1">
         <v>3.26</v>
       </c>
-      <c r="AG37" s="1">
+      <c r="AH37" s="1">
         <v>2.17</v>
       </c>
-      <c r="AH37" s="1">
+      <c r="AI37" s="1">
         <v>31.83</v>
       </c>
-      <c r="AI37" s="1">
+      <c r="AJ37" s="1">
         <v>2.02</v>
       </c>
-      <c r="AJ37" s="1">
+      <c r="AK37" s="1">
         <v>1.53</v>
       </c>
-      <c r="AK37" s="1">
+      <c r="AL37" s="1">
         <v>4.42</v>
       </c>
-      <c r="AL37" s="1">
+      <c r="AM37" s="1">
         <v>107.43</v>
       </c>
-      <c r="AM37" s="1">
+      <c r="AN37" s="1">
         <v>-12.76</v>
       </c>
-      <c r="AN37" s="1">
+      <c r="AO37" s="1">
         <v>-8.07</v>
       </c>
-      <c r="AO37" s="1">
+      <c r="AP37" s="1">
         <v>32</v>
       </c>
-      <c r="AP37" s="1" t="s">
+      <c r="AQ37" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="AQ37" s="1" t="s">
+      <c r="AR37" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="AR37" s="1" t="s">
+      <c r="AS37" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="AS37" s="1" t="s">
+      <c r="AT37" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="AT37" s="1" t="s">
+      <c r="AU37" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="38" spans="1:51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>8150</v>
       </c>
@@ -7887,127 +7910,127 @@
         <v>20140411</v>
       </c>
       <c r="G38">
-        <v>4.4800000000000004</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="H38">
-        <v>8.26</v>
+        <v>8.32</v>
       </c>
       <c r="I38">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="J38" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="K38" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="L38" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="M38" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="N38">
-        <v>0.53</v>
-      </c>
-      <c r="O38">
-        <v>-5.04</v>
+        <v>1.03</v>
       </c>
       <c r="P38">
+        <v>-1.35</v>
+      </c>
+      <c r="Q38">
         <v>9</v>
       </c>
-      <c r="Q38">
+      <c r="R38">
         <v>53.55</v>
       </c>
-      <c r="R38">
+      <c r="S38">
         <v>10.8</v>
       </c>
-      <c r="S38">
+      <c r="T38">
         <v>64.260000000000005</v>
       </c>
-      <c r="T38">
+      <c r="U38">
         <v>12.6</v>
       </c>
-      <c r="U38">
+      <c r="V38">
         <v>74.97</v>
       </c>
-      <c r="V38">
+      <c r="W38">
         <v>14.4</v>
       </c>
-      <c r="W38">
+      <c r="X38">
         <v>85.68</v>
       </c>
-      <c r="X38">
+      <c r="Y38">
         <v>16.2</v>
       </c>
-      <c r="Y38">
+      <c r="Z38">
         <v>96.39</v>
       </c>
-      <c r="Z38">
+      <c r="AA38">
         <v>18</v>
       </c>
-      <c r="AA38">
+      <c r="AB38">
         <v>107.1</v>
       </c>
-      <c r="AB38" t="s">
+      <c r="AC38" t="s">
+        <v>342</v>
+      </c>
+      <c r="AD38" t="s">
         <v>343</v>
       </c>
-      <c r="AC38" t="s">
+      <c r="AE38" t="s">
         <v>344</v>
       </c>
-      <c r="AD38" t="s">
-        <v>345</v>
-      </c>
-      <c r="AE38" t="s">
-        <v>379</v>
-      </c>
-      <c r="AF38" s="1">
+      <c r="AF38" t="s">
+        <v>378</v>
+      </c>
+      <c r="AG38" s="1">
         <v>26.62</v>
       </c>
-      <c r="AG38" s="1">
+      <c r="AH38" s="1">
         <v>20.51</v>
       </c>
-      <c r="AH38" s="1">
+      <c r="AI38" s="1">
         <v>22.24</v>
       </c>
-      <c r="AI38" s="1">
+      <c r="AJ38" s="1">
         <v>21.26</v>
       </c>
-      <c r="AJ38" s="1">
+      <c r="AK38" s="1">
         <v>17.670000000000002</v>
       </c>
-      <c r="AK38" s="1">
+      <c r="AL38" s="1">
         <v>0.74</v>
       </c>
-      <c r="AL38" s="1">
+      <c r="AM38" s="1">
         <v>96.47</v>
       </c>
-      <c r="AM38" s="1">
+      <c r="AN38" s="1">
         <v>7.35</v>
       </c>
-      <c r="AN38" s="1">
+      <c r="AO38" s="1">
         <v>1.02</v>
       </c>
-      <c r="AO38" s="1">
+      <c r="AP38" s="1">
         <v>66</v>
       </c>
-      <c r="AP38" s="1" t="s">
+      <c r="AQ38" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="AQ38" s="1" t="s">
+      <c r="AR38" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="AR38" s="1" t="s">
+      <c r="AS38" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="AS38" s="1" t="s">
+      <c r="AT38" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="AT38" s="1" t="s">
+      <c r="AU38" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="39" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>8213</v>
       </c>
@@ -8027,149 +8050,151 @@
         <v>20091225</v>
       </c>
       <c r="G39">
-        <v>7.32</v>
+        <v>7.25</v>
       </c>
       <c r="H39">
-        <v>7.9</v>
+        <v>7.98</v>
       </c>
       <c r="I39">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="K39" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="L39" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="M39" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="N39">
-        <v>1.67</v>
-      </c>
-      <c r="O39">
-        <v>-5.61</v>
-      </c>
+        <v>0.6</v>
+      </c>
+      <c r="O39"/>
       <c r="P39">
+        <v>1.64</v>
+      </c>
+      <c r="Q39">
         <v>6</v>
       </c>
-      <c r="Q39">
+      <c r="R39">
         <v>36.659999999999997</v>
       </c>
-      <c r="R39">
+      <c r="S39">
         <v>7</v>
       </c>
-      <c r="S39">
+      <c r="T39">
         <v>42.77</v>
       </c>
-      <c r="T39">
+      <c r="U39">
         <v>8</v>
       </c>
-      <c r="U39">
+      <c r="V39">
         <v>48.88</v>
       </c>
-      <c r="V39">
+      <c r="W39">
         <v>9</v>
       </c>
-      <c r="W39">
+      <c r="X39">
         <v>54.99</v>
       </c>
-      <c r="X39">
+      <c r="Y39">
         <v>10</v>
       </c>
-      <c r="Y39">
+      <c r="Z39">
         <v>61.1</v>
       </c>
-      <c r="Z39">
+      <c r="AA39">
         <v>11</v>
       </c>
-      <c r="AA39">
+      <c r="AB39">
         <v>67.209999999999994</v>
       </c>
-      <c r="AB39" t="s">
+      <c r="AC39" t="s">
+        <v>345</v>
+      </c>
+      <c r="AD39" t="s">
         <v>346</v>
       </c>
-      <c r="AC39" t="s">
+      <c r="AE39" t="s">
         <v>347</v>
       </c>
-      <c r="AD39" t="s">
-        <v>348</v>
-      </c>
-      <c r="AE39" t="s">
-        <v>380</v>
-      </c>
-      <c r="AF39" s="1">
+      <c r="AF39" t="s">
+        <v>379</v>
+      </c>
+      <c r="AG39" s="1">
         <v>15.64</v>
       </c>
-      <c r="AG39" s="1">
+      <c r="AH39" s="1">
         <v>8.6</v>
       </c>
-      <c r="AH39" s="1">
+      <c r="AI39" s="1">
         <v>13.51</v>
       </c>
-      <c r="AI39" s="1">
+      <c r="AJ39" s="1">
         <v>9.09</v>
       </c>
-      <c r="AJ39" s="1">
+      <c r="AK39" s="1">
         <v>6.58</v>
       </c>
-      <c r="AK39" s="1">
+      <c r="AL39" s="1">
         <v>0.86</v>
       </c>
-      <c r="AL39" s="1">
+      <c r="AM39" s="1">
         <v>94.61</v>
       </c>
-      <c r="AM39" s="1">
+      <c r="AN39" s="1">
         <v>2.02</v>
       </c>
-      <c r="AN39" s="1">
+      <c r="AO39" s="1">
         <v>0.38</v>
       </c>
-      <c r="AO39" s="1">
+      <c r="AP39" s="1">
         <v>47</v>
       </c>
-      <c r="AP39" s="1" t="s">
+      <c r="AQ39" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AQ39" s="1" t="s">
+      <c r="AR39" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="AR39" s="1" t="s">
+      <c r="AS39" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="AS39" s="1" t="s">
+      <c r="AT39" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AT39" s="1" t="s">
+      <c r="AU39" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AU39"/>
       <c r="AV39"/>
       <c r="AW39"/>
       <c r="AX39"/>
       <c r="AY39"/>
+      <c r="AZ39"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:AT39">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:AU39">
     <sortCondition ref="A39"/>
   </sortState>
-  <mergeCells count="27">
+  <mergeCells count="28">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="AF1:AF2"/>
     <mergeCell ref="AG1:AG2"/>
     <mergeCell ref="AH1:AH2"/>
     <mergeCell ref="AI1:AI2"/>
+    <mergeCell ref="AJ1:AJ2"/>
     <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="AF1:AF2"/>
     <mergeCell ref="AE1:AE2"/>
     <mergeCell ref="AD1:AD2"/>
     <mergeCell ref="AC1:AC2"/>
-    <mergeCell ref="AB1:AB2"/>
-    <mergeCell ref="AP1:AT1"/>
-    <mergeCell ref="AJ1:AJ2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="AQ1:AU1"/>
+    <mergeCell ref="AK1:AK2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
@@ -8178,15 +8203,15 @@
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
-    <mergeCell ref="P1:Y1"/>
-    <mergeCell ref="AK1:AK2"/>
+    <mergeCell ref="Q1:Z1"/>
     <mergeCell ref="AL1:AL2"/>
     <mergeCell ref="AM1:AM2"/>
     <mergeCell ref="AN1:AN2"/>
     <mergeCell ref="AO1:AO2"/>
+    <mergeCell ref="AP1:AP2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="AF26:AF28">
+  <conditionalFormatting sqref="AG26:AG28">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -8198,7 +8223,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF3:AF28">
+  <conditionalFormatting sqref="AG3:AG28">
     <cfRule type="colorScale" priority="92">
       <colorScale>
         <cfvo type="min"/>
@@ -8208,7 +8233,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF3:AO29">
+  <conditionalFormatting sqref="AG3:AP29">
     <cfRule type="colorScale" priority="104">
       <colorScale>
         <cfvo type="min"/>
@@ -8218,7 +8243,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL3:AL27">
+  <conditionalFormatting sqref="AM3:AM27">
     <cfRule type="colorScale" priority="111">
       <colorScale>
         <cfvo type="min"/>
@@ -8228,7 +8253,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG4:AG27">
+  <conditionalFormatting sqref="AH4:AH27">
     <cfRule type="colorScale" priority="113">
       <colorScale>
         <cfvo type="min"/>
@@ -8238,7 +8263,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF3:AF27">
+  <conditionalFormatting sqref="AG3:AG27">
     <cfRule type="colorScale" priority="115">
       <colorScale>
         <cfvo type="min"/>
@@ -8248,7 +8273,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG3:AG27">
+  <conditionalFormatting sqref="AH3:AH27">
     <cfRule type="colorScale" priority="117">
       <colorScale>
         <cfvo type="min"/>
@@ -8258,7 +8283,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ3:AJ27">
+  <conditionalFormatting sqref="AK3:AK27">
     <cfRule type="colorScale" priority="119">
       <colorScale>
         <cfvo type="min"/>
@@ -8268,7 +8293,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH3:AH27">
+  <conditionalFormatting sqref="AI3:AI27">
     <cfRule type="colorScale" priority="121">
       <colorScale>
         <cfvo type="min"/>
@@ -8278,7 +8303,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG3:AL28">
+  <conditionalFormatting sqref="AH3:AM28">
     <cfRule type="colorScale" priority="123">
       <colorScale>
         <cfvo type="min"/>
@@ -8288,7 +8313,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM3:AO28">
+  <conditionalFormatting sqref="AN3:AP28">
     <cfRule type="colorScale" priority="125">
       <colorScale>
         <cfvo type="min"/>
@@ -8298,7 +8323,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF3:AO28">
+  <conditionalFormatting sqref="AG3:AP28">
     <cfRule type="colorScale" priority="127">
       <colorScale>
         <cfvo type="min"/>
@@ -8308,7 +8333,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF6:AO29">
+  <conditionalFormatting sqref="AG6:AP29">
     <cfRule type="colorScale" priority="129">
       <colorScale>
         <cfvo type="min"/>
@@ -8318,7 +8343,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF3:AO38">
+  <conditionalFormatting sqref="AG3:AP38">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -8328,7 +8353,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF3:AO39">
+  <conditionalFormatting sqref="AG3:AP39">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/Data/彙整清單_整理版.xlsx
+++ b/Data/彙整清單_整理版.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\svnbox\Python\Stock\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFCB45A4-7770-4190-9A55-E76F0813E5BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2B713C-3F59-4393-8339-5B256803E6E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D923A086-913E-4840-96DC-7378B4FF8169}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="548">
   <si>
     <t>公司名稱</t>
   </si>
@@ -1232,475 +1232,505 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>👍    62.2 /    61.62 /    60.72 /    58.36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1938.0 /   1959.4 /   1794.7 /   1552.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    12.2 /     12.2 /    12.08 /    12.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.32 /     1.36 /     1.19 /     1.14</t>
-  </si>
-  <si>
-    <t>⚠️-12.48</t>
-  </si>
-  <si>
-    <t>👍    71.3 /     70.1 /    69.11 /    68.43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   509.0 /   221.92 /   153.67 /   188.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.86 /     1.82 /     1.84 /     1.92</t>
-  </si>
-  <si>
-    <t>👎   19.35 /    19.53 /    19.89 /     19.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1814.0 /   2286.2 /  2538.65 /  3305.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    14.0 /    14.02 /    14.04 /    13.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.37 /     0.36 /      0.7 /     0.49</t>
-  </si>
-  <si>
-    <t>⚠️-15.21</t>
-  </si>
-  <si>
-    <t>👎    28.9 /    29.08 /    30.53 /    32.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  4132.0 /   6095.4 /  6120.95 /  6949.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    36.8 /    36.82 /    37.76 /    39.45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.44 /     1.17 /     0.65 /     1.66</t>
-  </si>
-  <si>
-    <t>👎    33.8 /    33.76 /    34.34 /    35.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1307.0 /   2186.4 /   3622.0 /  6330.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9.81 /     9.98 /    10.61 /     13.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.51 /     0.58 /     0.82 /     1.35</t>
-  </si>
-  <si>
-    <t>👎   35.45 /    35.88 /    36.39 /    37.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  4311.0 /   4763.0 /  6720.45 /  9346.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8.41 /     8.77 /     9.19 /    10.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.99 /     1.13 /     1.09 /      1.8</t>
-  </si>
-  <si>
-    <t>⚠️-22.35</t>
-  </si>
-  <si>
-    <t>👎   21.25 /    21.28 /    21.29 /    21.78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1129.0 /   1998.0 /   2666.6 /  3617.97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9.11 /     9.11 /     9.04 /     9.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.81 /     0.81 /     0.89 /     0.97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   15.45 /    15.54 /    15.51 /    15.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   564.0 /    529.8 /   727.15 /   766.48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.04 /     2.96 /     2.56 /      2.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.33 /     0.55 /     0.21 /     0.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">538E 第一自由 (59.113%) </t>
-  </si>
-  <si>
-    <t>👎    51.0 /    51.94 /    55.19 /    60.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1188.0 /    811.0 /  1136.45 /   963.58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7.46 /     7.36 /     7.62 /     8.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    10.9 /    11.54 /     7.99 /     3.54</t>
-  </si>
-  <si>
-    <t>👍    30.5 /    30.43 /    29.95 /     29.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   472.0 /    833.4 /   548.15 /   555.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    10.6 /    10.56 /    10.34 /    10.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.81 /      0.9 /     0.99 /     1.45</t>
-  </si>
-  <si>
-    <t>👎   21.05 /    21.03 /    21.23 /    22.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    22.0 /    51.26 /    84.23 /   366.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.38 /      1.4 /     1.38 /     1.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.25 /     0.25 /     0.21 /     1.28</t>
-  </si>
-  <si>
-    <t>👎   30.55 /    30.76 /    31.41 /    31.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   211.0 /    385.8 /   347.25 /   661.83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.98 /     3.01 /     3.21 /     3.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.57 /     0.56 /     0.46 /     0.63</t>
-  </si>
-  <si>
-    <t>⚠️-16.1</t>
-  </si>
-  <si>
-    <t>👎   32.65 /    32.59 /     34.1 /    34.53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   602.0 /   1944.8 /  1619.25 /  3897.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.04 /     1.17 /     1.54 /     1.53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5.03 /     5.14 /     5.45 /     5.74</t>
-  </si>
-  <si>
-    <t>👍    25.3 /    25.07 /    24.46 /    24.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 13452.0 /  13384.4 /  12172.2 / 13520.98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    46.2 /    46.08 /     45.8 /    46.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.33 /     2.48 /     1.72 /      2.8</t>
-  </si>
-  <si>
-    <t>👍    68.1 /    67.86 /     66.5 /     61.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2591.0 /   4934.2 /  8305.05 /  7514.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    32.7 /    32.76 /    32.94 /    34.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8.75 /     8.57 /      8.8 /     5.82</t>
-  </si>
-  <si>
-    <t>👍    31.0 /    30.77 /    30.45 /    30.66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  5034.0 /   4270.4 /   4797.8 /  7113.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    20.1 /    20.02 /    19.95 /    21.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.21 /     1.18 /      1.1 /     1.44</t>
-  </si>
-  <si>
-    <t>🏆28.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    88.0 /    88.28 /    84.53 /    82.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1436.0 /   3379.4 /  2618.75 /  1936.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    34.8 /    34.76 /    34.12 /    33.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5.72 /     5.04 /     1.88 /     1.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   45.75 /    45.96 /    46.24 /    45.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   304.0 /    548.6 /   1243.2 /   1281.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.66 /     0.75 /     0.87 /     1.61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.16 /     0.16 /     0.11 /     0.82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    33.0 /    33.11 /    31.79 /     28.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2532.0 /   3428.8 /  9012.95 /  3568.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.44 /     1.59 /      1.7 /     2.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    31.8 /    35.18 /    27.91 /    16.65</t>
-  </si>
-  <si>
-    <t>👎   162.0 /    160.7 /   165.85 /   164.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   786.0 /   1383.2 /   2092.2 /   2810.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    21.5 /    21.62 /    21.99 /    21.99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    12.3 /     15.1 /    18.66 /    21.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    50.2 /     50.2 /    50.94 /    49.41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   216.0 /    563.8 /   549.65 /   476.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9.92 /    10.14 /    10.55 /    10.99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.05 /     0.86 /     0.69 /     0.48</t>
-  </si>
-  <si>
-    <t>👎    36.0 /    36.51 /    37.24 /    38.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1336.0 /   1322.4 /  1214.05 /   1625.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    20.3 /    20.44 /     20.7 /    21.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.35 /     0.92 /     0.77 /     0.59</t>
-  </si>
-  <si>
-    <t>⚠️-25.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    50.8 /    51.06 /    49.86 /    49.44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   114.0 /    211.6 /   149.16 /   138.45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.69 /      3.7 /     3.69 /     3.68</t>
-  </si>
-  <si>
-    <t>⚠️-13.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    78.9 /    80.16 /    76.62 /    75.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 29768.0 /  48796.2 /  23193.6 / 22835.37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    22.2 /    22.22 /    21.97 /    22.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.57 /     3.43 /     8.89 /    13.89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    54.2 /    54.54 /    54.74 /     54.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1016.0 /   1064.2 /    970.5 /   966.62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    30.2 /    30.46 /    30.81 /    31.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.31 /     0.28 /      0.4 /     0.63</t>
-  </si>
-  <si>
-    <t>⚠️-32.77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   33.55 /    33.48 /     33.9 /    31.79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   325.0 /    691.2 /  1395.45 /  1455.78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8.19 /     8.23 /     8.59 /      7.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.32 /     1.96 /     1.65 /     1.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   31.15 /    30.99 /    31.56 /    29.98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1639.0 /   2871.6 / 10861.35 / 11502.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    11.0 /    10.86 /     11.5 /    10.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8.42 /     9.29 /     8.39 /     9.23</t>
-  </si>
-  <si>
-    <t>👍   126.0 /    124.6 /   123.38 /   121.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1389.0 /   1138.4 /    780.5 /   893.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    42.4 /    42.36 /    42.37 /    41.73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.61 /     2.04 /     1.34 /     1.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   33.35 /    33.41 /     32.7 /    32.46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   472.0 /   1359.6 /    998.6 /   950.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6.21 /     6.17 /     6.21 /     6.82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.14 /     0.15 /     0.16 /     0.86</t>
-  </si>
-  <si>
-    <t>👎   28.65 /    28.63 /     29.0 /    29.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   238.0 /    513.6 /    424.2 /   575.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.89 /     3.95 /     4.16 /     4.86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.44 /      0.4 /     0.32 /     0.32</t>
-  </si>
-  <si>
-    <t>⚠️-10.48</t>
-  </si>
-  <si>
-    <t>👍   24.65 /    24.55 /    24.27 /     23.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   551.0 /   1372.8 /   1122.4 /  2017.65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5.65 /     5.71 /     5.79 /     6.59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.04 /     0.45 /     0.69 /     0.56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    53.5 /    53.52 /    52.12 /    51.45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3363.0 /   6967.4 /  5029.25 /  3967.45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    26.8 /    26.82 /    26.79 /    26.76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.62 /     0.62 /     0.39 /     0.52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    33.6 /     33.4 /    34.01 /    32.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  4478.0 /   4747.0 /  7254.35 / 11905.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    12.4 /    12.26 /    12.06 /    11.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.51 /     1.39 /     1.08 /     0.81</t>
-  </si>
-  <si>
-    <t>👍    58.9 /    58.24 /    58.52 /    59.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3626.0 /   3350.0 /   2592.9 /  3579.83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    23.1 /    22.86 /    23.51 /    24.88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.39 /     1.39 /     1.03 /     2.05</t>
-  </si>
-  <si>
-    <t>⚠️-19.58</t>
-  </si>
-  <si>
-    <t>👍    50.0 /    49.71 /    49.14 /     46.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1860.0 /   3138.4 /  5403.45 /  4446.85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    24.0 /    23.94 /    23.82 /    22.45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.51 /     1.46 /     1.12 /     0.67</t>
-  </si>
-  <si>
-    <t>👍    49.5 /    49.35 /    48.35 /    47.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10181.0 /  24011.4 /  10449.7 /  8164.65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    46.6 /    47.02 /    46.97 /    48.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4.59 /     4.43 /     4.03 /     4.94</t>
-  </si>
-  <si>
-    <t>👍   48.25 /    47.99 /     48.1 /    47.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   610.0 /    709.0 /   901.45 /   952.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    21.2 /    21.22 /    21.07 /     20.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     0.2 /     0.21 /     0.19 /      0.2</t>
+    <t>漢平</t>
+  </si>
+  <si>
+    <t>漢平電子工業股份有限公司</t>
+  </si>
+  <si>
+    <t>👍    29.0 /    28.08 /    27.55 /    27.49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   548.0 /    235.5 /   140.93 /   107.59</t>
+  </si>
+  <si>
+    <t>47.73  /  48.08  /  48.22  /  48.29  /  47.88</t>
+  </si>
+  <si>
+    <t>16.04  /  16.07  /  16.1  /  16.07  /  16.51</t>
+  </si>
+  <si>
+    <t>36.16  /  35.78  /  35.62  /  35.58  /  35.54</t>
+  </si>
+  <si>
+    <t>9.0  /  9.0  /  9.0  /  9.0  /  9.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9878 (30.159%) </t>
+  </si>
+  <si>
+    <t>🏆25.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    61.8 /    61.88 /    60.92 /    58.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1665.0 /   1885.0 /  1839.75 /  1564.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    12.2 /     12.2 /     12.1 /    12.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.17 /      1.5 /     1.25 /     1.14</t>
+  </si>
+  <si>
+    <t>⚠️-28.16</t>
+  </si>
+  <si>
+    <t>👍    71.1 /    70.38 /    69.27 /    68.49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   227.0 /   231.12 /   161.73 /   189.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.86 /     1.83 /     1.84 /     1.91</t>
+  </si>
+  <si>
+    <t>👎   19.35 /    19.47 /    19.87 /     19.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1013.0 /   1858.6 /   2431.1 /  3280.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    13.9 /    13.98 /    14.04 /    13.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.36 /     0.36 /     0.68 /     0.48</t>
+  </si>
+  <si>
+    <t>⚠️-30.9</t>
+  </si>
+  <si>
+    <t>👎    28.7 /    28.96 /    30.42 /    32.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4316.0 /   4542.0 /   6160.8 /  6866.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    36.7 /    36.78 /    37.66 /    39.38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.42 /     0.85 /     0.64 /     1.57</t>
+  </si>
+  <si>
+    <t>⚠️-31.0</t>
+  </si>
+  <si>
+    <t>👎   34.25 /     33.9 /    34.37 /    34.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2737.0 /   2185.8 /  3641.85 /  6201.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    9.95 /     9.95 /    10.55 /    12.84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.57 /     0.53 /     0.81 /     1.32</t>
+  </si>
+  <si>
+    <t>🏆21.67</t>
+  </si>
+  <si>
+    <t>👎    35.6 /    35.82 /    36.34 /    37.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2495.0 /   3557.6 /  6704.15 /  9081.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    8.52 /     8.68 /     9.14 /    10.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.99 /     1.09 /     1.08 /      1.7</t>
+  </si>
+  <si>
+    <t>👍   21.45 /    21.34 /     21.3 /    21.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2862.0 /   2202.2 /   2720.1 /  3617.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    9.12 /     9.12 /     9.05 /     9.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.82 /     0.81 /     0.88 /     0.96</t>
+  </si>
+  <si>
+    <t>👍    15.7 /    15.56 /    15.54 /    15.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   747.0 /    571.4 /   754.15 /   766.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.21 /     3.05 /     2.64 /      2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.72 /     1.07 /     0.34 /     0.15</t>
+  </si>
+  <si>
+    <t>👎    52.3 /     51.9 /    54.98 /    60.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1071.0 /    806.6 /   1134.3 /   977.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    7.56 /     7.41 /      7.6 /     8.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    12.2 /     11.5 /     8.37 /     3.73</t>
+  </si>
+  <si>
+    <t>👍    30.7 /    30.55 /    30.01 /    29.71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   734.0 /    890.6 /   575.35 /    563.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    10.6 /    10.58 /    10.36 /    10.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     0.8 /     0.86 /     0.97 /     1.41</t>
+  </si>
+  <si>
+    <t>🏆23.7</t>
+  </si>
+  <si>
+    <t>👎   20.75 /    20.96 /    21.22 /    22.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    61.0 /    52.42 /    79.48 /   359.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.39 /     1.39 /     1.39 /     1.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.25 /     0.25 /     0.22 /     1.19</t>
+  </si>
+  <si>
+    <t>⚠️-22.95</t>
+  </si>
+  <si>
+    <t>👎   30.65 /    30.68 /    31.33 /    31.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   221.0 /    365.6 /    324.1 /    653.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.94 /     2.98 /     3.19 /     3.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.57 /     0.56 /     0.47 /     0.61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">700W (49.18%) </t>
+  </si>
+  <si>
+    <t>👎   32.55 /     32.7 /     33.9 /    34.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   688.0 /   1773.6 /   1510.5 /  3884.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1.0 /     1.12 /     1.48 /     1.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.89 /     5.04 /     5.41 /     5.73</t>
+  </si>
+  <si>
+    <t>👍   25.45 /    25.16 /    24.54 /    24.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22557.0 /  15329.8 /  12563.1 / 13720.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    46.4 /    46.16 /    45.84 /     46.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.34 /     2.78 /     1.82 /     2.78</t>
+  </si>
+  <si>
+    <t>👍    69.3 /    68.18 /    66.78 /    61.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  5571.0 /   4349.0 /   6717.6 /  7583.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    32.7 /    32.74 /    32.87 /     34.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    8.45 /     8.46 /     8.96 /     5.87</t>
+  </si>
+  <si>
+    <t>👍    31.0 /    30.78 /    30.52 /    30.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  5563.0 /   4343.8 /   4857.4 /  7164.82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    20.2 /    20.06 /    19.97 /    21.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.18 /     1.19 /     1.09 /     1.43</t>
+  </si>
+  <si>
+    <t>👍    88.8 /    88.34 /    84.86 /    82.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2863.0 /   3074.6 /  2628.45 /  1968.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    34.9 /     34.8 /    34.19 /    33.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5.61 /      5.3 /     2.16 /      1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    46.0 /     45.8 /    46.32 /     45.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   288.0 /    450.0 /   1202.1 /  1283.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.53 /     0.68 /     0.85 /     1.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     0.1 /     0.15 /     0.11 /     0.77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   32.45 /    32.86 /     32.2 /    28.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1877.0 /   2568.4 /  9090.15 /  3588.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1.2 /     1.52 /     1.67 /     2.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    31.2 /     33.6 /    29.11 /    16.97</t>
+  </si>
+  <si>
+    <t>👎   161.5 /    160.2 /   165.65 /    164.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1720.0 /   1445.4 /  2066.75 /  2606.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    21.5 /    21.56 /    21.96 /    21.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    12.1 /    13.78 /    18.26 /    20.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    50.4 /    50.28 /     51.0 /    49.49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   211.0 /    506.4 /   554.85 /   471.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     9.9 /    10.04 /    10.51 /    10.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.93 /      0.9 /      0.7 /     0.49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.27 /     2.27 /     2.29 /     2.23</t>
+  </si>
+  <si>
+    <t>👎   36.25 /    36.39 /    37.17 /    37.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   833.0 /   1162.0 /  1198.35 /  1627.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    20.3 /     20.4 /    20.65 /    21.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.37 /     1.06 /      0.8 /      0.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    50.9 /    51.14 /    49.96 /    49.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    75.9 /   173.78 /   150.31 /   139.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.69 /     3.71 /     3.69 /     3.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    79.4 /    80.06 /    76.89 /    75.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16567.0 /  36067.6 /  23145.4 / 22960.87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    22.2 /    22.22 /    21.99 /    22.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.59 /     1.86 /     8.43 /    12.93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    54.7 /     54.5 /    54.82 /    54.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   796.0 /   1059.4 /   943.45 /   972.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    30.2 /    30.36 /    30.77 /    31.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.31 /     0.29 /     0.38 /     0.62</t>
+  </si>
+  <si>
+    <t>⚠️-21.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    33.6 /    33.51 /     33.9 /    31.87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   399.0 /    568.6 /  1300.55 /  1459.77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    8.17 /     8.21 /     8.55 /     7.92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.16 /     2.04 /     1.69 /     1.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    31.5 /    31.09 /    31.56 /    30.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  7029.0 /   3443.2 /   9816.2 / 11574.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    10.8 /    10.86 /    11.45 /     10.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    8.77 /     9.43 /      8.4 /     9.06</t>
+  </si>
+  <si>
+    <t>👍   128.0 /    125.5 /   123.72 /   121.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1557.0 /   1296.6 /   785.95 /   907.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    42.5 /     42.4 /     42.4 /    41.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     2.5 /      2.2 /      1.4 /     1.14</t>
+  </si>
+  <si>
+    <t>👍   33.65 /    33.49 /    32.76 /    32.46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1018.0 /    952.4 /    989.7 /    917.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    6.42 /     6.23 /     6.21 /     6.81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.15 /     0.15 /     0.16 /     0.83</t>
+  </si>
+  <si>
+    <t>🏆25.16</t>
+  </si>
+  <si>
+    <t>👎   28.95 /    28.69 /     29.0 /    29.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   676.0 /    433.4 /    434.0 /   581.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     3.9 /     3.92 /     4.14 /     4.84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.22 /     0.38 /      0.3 /     0.31</t>
+  </si>
+  <si>
+    <t>👍   24.55 /    24.45 /    24.31 /    23.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   617.0 /    868.8 /   1113.6 /  2022.53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5.65 /     5.67 /     5.79 /     6.59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.04 /     0.28 /     0.67 /     0.56</t>
+  </si>
+  <si>
+    <t>⚠️-12.31</t>
+  </si>
+  <si>
+    <t>👍    54.5 /    53.78 /    52.32 /     51.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  7870.0 /   6699.0 /  5190.85 /  4046.63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    26.9 /    26.82 /    26.81 /    26.76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.49 /      0.6 /      0.4 /     0.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   33.75 /    33.45 /    34.01 /    32.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4545.0 /   4601.4 /   6919.6 /  11963.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    12.3 /    12.26 /    12.12 /    11.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.38 /     1.69 /     1.16 /     0.84</t>
+  </si>
+  <si>
+    <t>👍    59.7 /    58.68 /    58.64 /    59.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  7712.0 /   4321.6 /   2911.8 /   3675.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    23.8 /    23.08 /    23.49 /    24.83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.36 /      1.5 /     1.05 /     1.99</t>
+  </si>
+  <si>
+    <t>👍    50.7 /    49.95 /     49.3 /    46.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3753.0 /   3056.6 /  5476.45 /  4477.73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    24.1 /    23.94 /    23.86 /     22.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.12 /      1.4 /     1.15 /     0.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    48.8 /    49.69 /    48.46 /    47.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15679.0 /  26080.8 /  11053.5 /  8363.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    46.0 /    46.82 /    46.96 /    48.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.96 /     4.45 /     3.88 /     4.95</t>
+  </si>
+  <si>
+    <t>👍    48.4 /    48.08 /    48.14 /    47.71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1140.0 /    698.2 /   929.05 /    966.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    21.4 /    21.24 /    21.12 /    20.73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     0.2 /      0.2 /      0.2 /      0.2</t>
   </si>
 </sst>
 </file>
@@ -2722,13 +2752,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2696BFBE-0625-42C0-8E1C-A5A53CEB8548}">
-  <dimension ref="A1:AZ39"/>
+  <dimension ref="A1:AZ40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="F9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8:XFD8"/>
+      <selection pane="bottomRight" activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2741,7 +2771,9 @@
     <col min="10" max="10" width="30.625" style="1" customWidth="1"/>
     <col min="11" max="11" width="35.625" style="1" customWidth="1"/>
     <col min="12" max="13" width="30.625" style="1" customWidth="1"/>
-    <col min="14" max="16" width="8.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="13.375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="8.625" style="1" customWidth="1"/>
     <col min="17" max="28" width="6.625" style="1" customWidth="1"/>
     <col min="29" max="32" width="30.625" style="1" customWidth="1"/>
     <col min="33" max="39" width="8.625" style="1" customWidth="1"/>
@@ -2978,32 +3010,32 @@
         <v>19760719</v>
       </c>
       <c r="G3">
-        <v>4.34</v>
+        <v>4.37</v>
       </c>
       <c r="H3">
-        <v>17.670000000000002</v>
+        <v>17.559999999999999</v>
       </c>
       <c r="I3">
-        <v>2.2400000000000002</v>
+        <v>2.23</v>
       </c>
       <c r="J3" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="K3" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="L3" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="M3" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="N3">
-        <v>0.42</v>
+        <v>0.22</v>
       </c>
       <c r="O3"/>
       <c r="P3" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="Q3">
         <v>11</v>
@@ -3119,32 +3151,32 @@
         <v>19951102</v>
       </c>
       <c r="G4">
-        <v>3.65</v>
+        <v>3.66</v>
       </c>
       <c r="H4">
-        <v>18.100000000000001</v>
+        <v>18.05</v>
       </c>
       <c r="I4">
-        <v>3.35</v>
+        <v>3.34</v>
       </c>
       <c r="J4" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="K4" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="L4" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="M4" t="s">
         <v>156</v>
       </c>
       <c r="N4">
-        <v>1.1299999999999999</v>
+        <v>1</v>
       </c>
       <c r="O4"/>
       <c r="P4">
-        <v>5.5</v>
+        <v>-0.44</v>
       </c>
       <c r="Q4">
         <v>11</v>
@@ -3269,23 +3301,23 @@
         <v>0.91</v>
       </c>
       <c r="J5" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="K5" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="L5" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="M5" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="N5">
-        <v>0.78</v>
+        <v>0.41</v>
       </c>
       <c r="O5"/>
       <c r="P5" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="Q5">
         <v>9</v>
@@ -3401,32 +3433,32 @@
         <v>19720520</v>
       </c>
       <c r="G6">
-        <v>3.46</v>
+        <v>3.48</v>
       </c>
       <c r="H6">
-        <v>6.32</v>
+        <v>6.28</v>
       </c>
       <c r="I6">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="J6" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="K6" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="L6" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="M6" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="N6">
-        <v>0.52</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="O6"/>
-      <c r="P6">
-        <v>-4.53</v>
+      <c r="P6" t="s">
+        <v>408</v>
       </c>
       <c r="Q6">
         <v>10</v>
@@ -3542,32 +3574,32 @@
         <v>19730305</v>
       </c>
       <c r="G7">
-        <v>6.8</v>
+        <v>6.72</v>
       </c>
       <c r="H7">
-        <v>6.8</v>
+        <v>6.89</v>
       </c>
       <c r="I7">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="J7" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="K7" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="L7" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="M7" t="s">
-        <v>401</v>
-      </c>
-      <c r="N7">
-        <v>0.76</v>
-      </c>
-      <c r="O7"/>
-      <c r="P7">
-        <v>6.2</v>
+        <v>412</v>
+      </c>
+      <c r="N7" s="8">
+        <v>0.74</v>
+      </c>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8" t="s">
+        <v>413</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -3683,32 +3715,32 @@
         <v>19860620</v>
       </c>
       <c r="G8">
-        <v>3.95</v>
+        <v>3.93</v>
       </c>
       <c r="H8">
-        <v>7.79</v>
+        <v>7.82</v>
       </c>
       <c r="I8">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="J8" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="K8" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="L8" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="M8" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="N8">
-        <v>0.47</v>
+        <v>0.76</v>
       </c>
       <c r="O8"/>
-      <c r="P8" t="s">
-        <v>406</v>
+      <c r="P8">
+        <v>6.93</v>
       </c>
       <c r="Q8">
         <v>11</v>
@@ -3824,32 +3856,32 @@
         <v>19890327</v>
       </c>
       <c r="G9">
-        <v>4.71</v>
+        <v>4.66</v>
       </c>
       <c r="H9">
-        <v>6.48</v>
+        <v>6.54</v>
       </c>
       <c r="I9">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="J9" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="K9" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="L9" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="M9" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="N9">
-        <v>1.07</v>
+        <v>0.7</v>
       </c>
       <c r="O9"/>
       <c r="P9">
-        <v>2.2200000000000002</v>
+        <v>12.3</v>
       </c>
       <c r="Q9">
         <v>13</v>
@@ -3965,34 +3997,32 @@
         <v>20001031</v>
       </c>
       <c r="G10">
-        <v>2.59</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="H10">
-        <v>10.96</v>
+        <v>11.13</v>
       </c>
       <c r="I10">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="K10" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="L10" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="M10" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="N10">
-        <v>1.82</v>
-      </c>
-      <c r="O10" s="8" t="s">
-        <v>415</v>
-      </c>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="O10"/>
       <c r="P10">
-        <v>-0.18</v>
+        <v>-0.27</v>
       </c>
       <c r="Q10">
         <v>13</v>
@@ -4108,32 +4138,32 @@
         <v>19950204</v>
       </c>
       <c r="G11">
-        <v>7.06</v>
+        <v>6.88</v>
       </c>
       <c r="H11">
-        <v>8.0299999999999994</v>
+        <v>8.24</v>
       </c>
       <c r="I11">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="J11" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="K11" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="L11" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="M11" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="N11">
-        <v>1.19</v>
+        <v>0.79</v>
       </c>
       <c r="O11"/>
       <c r="P11">
-        <v>-3.96</v>
+        <v>-1.45</v>
       </c>
       <c r="Q11">
         <v>12</v>
@@ -4249,32 +4279,32 @@
         <v>19701214</v>
       </c>
       <c r="G12">
-        <v>8.1999999999999993</v>
+        <v>8.14</v>
       </c>
       <c r="H12">
-        <v>6.59</v>
+        <v>6.63</v>
       </c>
       <c r="I12">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="J12" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="K12" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="L12" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="M12" t="s">
-        <v>423</v>
-      </c>
-      <c r="N12">
-        <v>0.71</v>
-      </c>
-      <c r="O12"/>
-      <c r="P12">
-        <v>-3.39</v>
+        <v>433</v>
+      </c>
+      <c r="N12" s="8">
+        <v>1.25</v>
+      </c>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8" t="s">
+        <v>434</v>
       </c>
       <c r="Q12">
         <v>7</v>
@@ -4390,32 +4420,32 @@
         <v>20160509</v>
       </c>
       <c r="G13">
-        <v>4.75</v>
+        <v>4.82</v>
       </c>
       <c r="H13">
-        <v>8.52</v>
+        <v>8.4</v>
       </c>
       <c r="I13">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="J13" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="K13" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="L13" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="M13" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="N13">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="O13"/>
-      <c r="P13">
-        <v>0</v>
+      <c r="P13" t="s">
+        <v>439</v>
       </c>
       <c r="Q13">
         <v>12</v>
@@ -4531,32 +4561,34 @@
         <v>19930427</v>
       </c>
       <c r="G14">
-        <v>5.56</v>
+        <v>5.55</v>
       </c>
       <c r="H14">
-        <v>8.58</v>
+        <v>8.61</v>
       </c>
       <c r="I14">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="J14" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="K14" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="L14" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="M14" t="s">
-        <v>431</v>
-      </c>
-      <c r="N14">
-        <v>0.45</v>
-      </c>
-      <c r="O14"/>
-      <c r="P14" t="s">
-        <v>432</v>
+        <v>443</v>
+      </c>
+      <c r="N14" s="8">
+        <v>2.4</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="P14" s="8">
+        <v>15.36</v>
       </c>
       <c r="Q14">
         <v>12</v>
@@ -4672,32 +4704,32 @@
         <v>20160322</v>
       </c>
       <c r="G15">
+        <v>1.69</v>
+      </c>
+      <c r="H15">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="I15">
+        <v>1.36</v>
+      </c>
+      <c r="J15" t="s">
+        <v>445</v>
+      </c>
+      <c r="K15" t="s">
+        <v>446</v>
+      </c>
+      <c r="L15" t="s">
+        <v>447</v>
+      </c>
+      <c r="M15" t="s">
+        <v>448</v>
+      </c>
+      <c r="N15">
         <v>1.68</v>
-      </c>
-      <c r="H15">
-        <v>8.48</v>
-      </c>
-      <c r="I15">
-        <v>1.37</v>
-      </c>
-      <c r="J15" t="s">
-        <v>433</v>
-      </c>
-      <c r="K15" t="s">
-        <v>434</v>
-      </c>
-      <c r="L15" t="s">
-        <v>435</v>
-      </c>
-      <c r="M15" t="s">
-        <v>436</v>
-      </c>
-      <c r="N15">
-        <v>0.94</v>
       </c>
       <c r="O15"/>
       <c r="P15">
-        <v>5.31</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="Q15">
         <v>10</v>
@@ -4813,32 +4845,32 @@
         <v>19920218</v>
       </c>
       <c r="G16">
-        <v>6.32</v>
+        <v>6.29</v>
       </c>
       <c r="H16">
-        <v>7.86</v>
+        <v>7.9</v>
       </c>
       <c r="I16">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="J16" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="K16" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="L16" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="M16" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="N16">
-        <v>1.96</v>
+        <v>1.88</v>
       </c>
       <c r="O16"/>
       <c r="P16">
-        <v>16.78</v>
+        <v>12.06</v>
       </c>
       <c r="Q16">
         <v>9</v>
@@ -4954,32 +4986,32 @@
         <v>19951213</v>
       </c>
       <c r="G17">
-        <v>4.8499999999999996</v>
+        <v>4.76</v>
       </c>
       <c r="H17">
-        <v>6.8</v>
+        <v>6.92</v>
       </c>
       <c r="I17">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="J17" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="K17" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="L17" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="M17" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="N17">
-        <v>1.0900000000000001</v>
+        <v>1.23</v>
       </c>
       <c r="O17"/>
       <c r="P17">
-        <v>4.3600000000000003</v>
+        <v>3.59</v>
       </c>
       <c r="Q17">
         <v>9</v>
@@ -5104,23 +5136,23 @@
         <v>1.69</v>
       </c>
       <c r="J18" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
       <c r="K18" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="L18" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="M18" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="N18">
-        <v>1.87</v>
+        <v>1.67</v>
       </c>
       <c r="O18"/>
-      <c r="P18" s="8" t="s">
-        <v>449</v>
+      <c r="P18">
+        <v>9.02</v>
       </c>
       <c r="Q18">
         <v>8</v>
@@ -5236,32 +5268,32 @@
         <v>19990105</v>
       </c>
       <c r="G19">
-        <v>6.25</v>
+        <v>6.19</v>
       </c>
       <c r="H19">
-        <v>10.85</v>
+        <v>10.95</v>
       </c>
       <c r="I19">
-        <v>2.2000000000000002</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="J19" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="K19" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="L19" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="M19" t="s">
-        <v>453</v>
+        <v>464</v>
       </c>
       <c r="N19">
-        <v>0.59</v>
+        <v>2.68</v>
       </c>
       <c r="O19"/>
       <c r="P19">
-        <v>-1.32</v>
+        <v>12.7</v>
       </c>
       <c r="Q19">
         <v>10</v>
@@ -5377,32 +5409,32 @@
         <v>19990125</v>
       </c>
       <c r="G20">
-        <v>4.37</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="H20">
-        <v>7.16</v>
+        <v>7.2</v>
       </c>
       <c r="I20">
-        <v>1.1299999999999999</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="J20" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="K20" t="s">
-        <v>455</v>
+        <v>466</v>
       </c>
       <c r="L20" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
       <c r="M20" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="N20">
-        <v>1.82</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="O20"/>
       <c r="P20">
-        <v>9.8699999999999992</v>
+        <v>10.07</v>
       </c>
       <c r="Q20">
         <v>10</v>
@@ -5518,32 +5550,32 @@
         <v>20000911</v>
       </c>
       <c r="G21">
-        <v>6.06</v>
+        <v>6.16</v>
       </c>
       <c r="H21">
-        <v>12.22</v>
+        <v>12.02</v>
       </c>
       <c r="I21">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="J21" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="K21" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="L21" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="M21" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="N21">
-        <v>0.6</v>
+        <v>1.42</v>
       </c>
       <c r="O21"/>
       <c r="P21">
-        <v>-2.0499999999999998</v>
+        <v>7.82</v>
       </c>
       <c r="Q21">
         <v>13</v>
@@ -5659,32 +5691,32 @@
         <v>20010917</v>
       </c>
       <c r="G22">
-        <v>5.56</v>
+        <v>5.57</v>
       </c>
       <c r="H22">
-        <v>9.2799999999999994</v>
+        <v>9.25</v>
       </c>
       <c r="I22">
-        <v>4.8499999999999996</v>
+        <v>4.84</v>
       </c>
       <c r="J22" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="K22" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="L22" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="M22" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="N22">
-        <v>1.41</v>
+        <v>1</v>
       </c>
       <c r="O22"/>
       <c r="P22">
-        <v>-0.38</v>
+        <v>-2.19</v>
       </c>
       <c r="Q22">
         <v>12</v>
@@ -5800,32 +5832,32 @@
         <v>20010917</v>
       </c>
       <c r="G23">
-        <v>5.4</v>
+        <v>5.38</v>
       </c>
       <c r="H23">
-        <v>12.04</v>
+        <v>12.09</v>
       </c>
       <c r="I23">
-        <v>2.93</v>
+        <v>2.95</v>
       </c>
       <c r="J23" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="K23" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="L23" t="s">
-        <v>468</v>
+        <v>479</v>
       </c>
       <c r="M23" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
       <c r="N23">
-        <v>1.5</v>
+        <v>0.53</v>
       </c>
       <c r="O23"/>
       <c r="P23">
-        <v>-4.16</v>
+        <v>-7.57</v>
       </c>
       <c r="Q23">
         <v>11</v>
@@ -5922,270 +5954,272 @@
       </c>
     </row>
     <row r="24" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>2520</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D24" s="7">
-        <v>5541701000</v>
-      </c>
-      <c r="E24" s="1">
-        <v>19791123</v>
-      </c>
-      <c r="F24" s="1">
-        <v>19931027</v>
+      <c r="A24">
+        <v>2488</v>
+      </c>
+      <c r="B24" t="s">
+        <v>381</v>
+      </c>
+      <c r="C24" t="s">
+        <v>382</v>
+      </c>
+      <c r="D24">
+        <v>799994330</v>
+      </c>
+      <c r="E24">
+        <v>19690401</v>
+      </c>
+      <c r="F24">
+        <v>20010917</v>
       </c>
       <c r="G24">
-        <v>9.44</v>
+        <v>5.17</v>
       </c>
       <c r="H24">
-        <v>4.24</v>
+        <v>15.68</v>
       </c>
       <c r="I24">
-        <v>1.18</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="J24" t="s">
-        <v>470</v>
+        <v>383</v>
       </c>
       <c r="K24" t="s">
-        <v>471</v>
+        <v>384</v>
       </c>
       <c r="L24" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="M24" t="s">
-        <v>473</v>
-      </c>
-      <c r="N24">
-        <v>0.45</v>
-      </c>
-      <c r="O24"/>
-      <c r="P24" t="s">
-        <v>474</v>
+        <v>156</v>
+      </c>
+      <c r="N24" s="8">
+        <v>1.64</v>
+      </c>
+      <c r="O24" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="P24" s="8" t="s">
+        <v>390</v>
       </c>
       <c r="Q24">
         <v>7</v>
       </c>
       <c r="R24">
-        <v>59.57</v>
+        <v>12.95</v>
       </c>
       <c r="S24">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="T24">
-        <v>71.48</v>
+        <v>15.91</v>
       </c>
       <c r="U24">
-        <v>9.8000000000000007</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="V24">
-        <v>83.4</v>
+        <v>18.87</v>
       </c>
       <c r="W24">
-        <v>11.2</v>
+        <v>11.8</v>
       </c>
       <c r="X24">
-        <v>95.31</v>
+        <v>21.83</v>
       </c>
       <c r="Y24">
-        <v>12.6</v>
+        <v>13.4</v>
       </c>
       <c r="Z24">
-        <v>107.2</v>
+        <v>24.79</v>
       </c>
       <c r="AA24">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AB24">
-        <v>119.1</v>
+        <v>27.75</v>
       </c>
       <c r="AC24" t="s">
-        <v>301</v>
+        <v>385</v>
       </c>
       <c r="AD24" t="s">
-        <v>302</v>
+        <v>386</v>
       </c>
       <c r="AE24" t="s">
-        <v>303</v>
+        <v>387</v>
       </c>
       <c r="AF24" t="s">
-        <v>365</v>
-      </c>
-      <c r="AG24" s="1">
-        <v>26.73</v>
-      </c>
-      <c r="AH24" s="1">
-        <v>19.5</v>
-      </c>
-      <c r="AI24" s="1">
-        <v>21.09</v>
-      </c>
-      <c r="AJ24" s="1">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="AK24" s="1">
-        <v>15.12</v>
-      </c>
-      <c r="AL24" s="1">
-        <v>0.46</v>
-      </c>
-      <c r="AM24" s="1">
-        <v>103.17</v>
-      </c>
-      <c r="AN24" s="1">
-        <v>10.72</v>
-      </c>
-      <c r="AO24" s="1">
-        <v>10.69</v>
-      </c>
-      <c r="AP24" s="1">
-        <v>53</v>
-      </c>
-      <c r="AQ24" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="AG24">
+        <v>16.18</v>
+      </c>
+      <c r="AH24">
+        <v>5.23</v>
+      </c>
+      <c r="AI24">
+        <v>6.3</v>
+      </c>
+      <c r="AJ24">
+        <v>7.03</v>
+      </c>
+      <c r="AK24">
+        <v>5.52</v>
+      </c>
+      <c r="AL24">
+        <v>0.66</v>
+      </c>
+      <c r="AM24">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="AN24">
+        <v>-2.7</v>
+      </c>
+      <c r="AO24">
+        <v>-2.92</v>
+      </c>
+      <c r="AP24">
+        <v>47</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR24" t="s">
+        <v>140</v>
+      </c>
+      <c r="AS24" t="s">
+        <v>128</v>
+      </c>
+      <c r="AT24" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="AR24" s="1" t="s">
+      <c r="AU24" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="AS24" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AT24" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AU24" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>2546</v>
+        <v>2520</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="D25" s="7">
-        <v>1060356600</v>
+        <v>5541701000</v>
       </c>
       <c r="E25" s="1">
-        <v>19820413</v>
+        <v>19791123</v>
       </c>
       <c r="F25" s="1">
-        <v>20000911</v>
+        <v>19931027</v>
       </c>
       <c r="G25">
-        <v>7.09</v>
+        <v>9.3800000000000008</v>
       </c>
       <c r="H25">
-        <v>7.23</v>
+        <v>4.26</v>
       </c>
       <c r="I25">
-        <v>1.61</v>
+        <v>1.19</v>
       </c>
       <c r="J25" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="K25" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="L25" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="M25" t="s">
-        <v>156</v>
+        <v>485</v>
       </c>
       <c r="N25">
-        <v>1</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="O25"/>
-      <c r="P25" t="s">
-        <v>478</v>
+      <c r="P25">
+        <v>-6.47</v>
       </c>
       <c r="Q25">
         <v>7</v>
       </c>
       <c r="R25">
-        <v>49.21</v>
+        <v>59.57</v>
       </c>
       <c r="S25">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="T25">
-        <v>56.24</v>
+        <v>71.48</v>
       </c>
       <c r="U25">
-        <v>9</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="V25">
-        <v>63.27</v>
+        <v>83.4</v>
       </c>
       <c r="W25">
-        <v>10</v>
+        <v>11.2</v>
       </c>
       <c r="X25">
-        <v>70.3</v>
+        <v>95.31</v>
       </c>
       <c r="Y25">
-        <v>11</v>
+        <v>12.6</v>
       </c>
       <c r="Z25">
-        <v>77.33</v>
+        <v>107.2</v>
       </c>
       <c r="AA25">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AB25">
-        <v>84.36</v>
+        <v>119.1</v>
       </c>
       <c r="AC25" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="AD25" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="AE25" t="s">
-        <v>234</v>
+        <v>303</v>
       </c>
       <c r="AF25" t="s">
-        <v>235</v>
+        <v>365</v>
       </c>
       <c r="AG25" s="1">
-        <v>11.23</v>
+        <v>26.73</v>
       </c>
       <c r="AH25" s="1">
-        <v>8.3800000000000008</v>
+        <v>19.5</v>
       </c>
       <c r="AI25" s="1">
-        <v>23.02</v>
+        <v>21.09</v>
       </c>
       <c r="AJ25" s="1">
-        <v>9.17</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="AK25" s="1">
-        <v>7.35</v>
+        <v>15.12</v>
       </c>
       <c r="AL25" s="1">
-        <v>1.07</v>
+        <v>0.46</v>
       </c>
       <c r="AM25" s="1">
-        <v>91.38</v>
+        <v>103.17</v>
       </c>
       <c r="AN25" s="1">
-        <v>5.88</v>
+        <v>10.72</v>
       </c>
       <c r="AO25" s="1">
-        <v>5.85</v>
+        <v>10.69</v>
       </c>
       <c r="AP25" s="1">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="AQ25" s="1" t="s">
         <v>121</v>
@@ -6205,128 +6239,128 @@
     </row>
     <row r="26" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>2881</v>
+        <v>2546</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D26" s="7">
-        <v>134049543940</v>
+        <v>1060356600</v>
       </c>
       <c r="E26" s="1">
-        <v>20011219</v>
+        <v>19820413</v>
       </c>
       <c r="F26" s="1">
-        <v>20011219</v>
+        <v>20000911</v>
       </c>
       <c r="G26">
-        <v>3.8</v>
+        <v>7.07</v>
       </c>
       <c r="H26">
-        <v>6.5</v>
+        <v>7.24</v>
       </c>
       <c r="I26">
-        <v>1.17</v>
+        <v>1.61</v>
       </c>
       <c r="J26" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="K26" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="L26" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="M26" t="s">
-        <v>482</v>
+        <v>156</v>
       </c>
       <c r="N26">
-        <v>1.03</v>
+        <v>1.8</v>
       </c>
       <c r="O26"/>
       <c r="P26">
-        <v>-7.87</v>
+        <v>3.82</v>
       </c>
       <c r="Q26">
         <v>7</v>
       </c>
       <c r="R26">
-        <v>92.68</v>
+        <v>49.21</v>
       </c>
       <c r="S26">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="T26">
-        <v>103.3</v>
+        <v>56.24</v>
       </c>
       <c r="U26">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="V26">
-        <v>113.9</v>
+        <v>63.27</v>
       </c>
       <c r="W26">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="X26">
-        <v>124.5</v>
+        <v>70.3</v>
       </c>
       <c r="Y26">
-        <v>10.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="Z26">
-        <v>135</v>
+        <v>77.33</v>
       </c>
       <c r="AA26">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB26">
-        <v>145.6</v>
+        <v>84.36</v>
       </c>
       <c r="AC26" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AD26" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AE26" t="s">
-        <v>308</v>
+        <v>234</v>
       </c>
       <c r="AF26" t="s">
-        <v>366</v>
+        <v>235</v>
       </c>
       <c r="AG26" s="1">
-        <v>0</v>
+        <v>11.23</v>
       </c>
       <c r="AH26" s="1">
-        <v>0</v>
+        <v>8.3800000000000008</v>
       </c>
       <c r="AI26" s="1">
-        <v>21.39</v>
+        <v>23.02</v>
       </c>
       <c r="AJ26" s="1">
-        <v>39.32</v>
+        <v>9.17</v>
       </c>
       <c r="AK26" s="1">
-        <v>34.96</v>
+        <v>7.35</v>
       </c>
       <c r="AL26" s="1">
-        <v>0.05</v>
+        <v>1.07</v>
       </c>
       <c r="AM26" s="1">
-        <v>0</v>
+        <v>91.38</v>
       </c>
       <c r="AN26" s="1">
-        <v>5.0999999999999996</v>
+        <v>5.88</v>
       </c>
       <c r="AO26" s="1">
-        <v>4.46</v>
+        <v>5.85</v>
       </c>
       <c r="AP26" s="1">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="AQ26" s="1" t="s">
         <v>139</v>
@@ -6346,128 +6380,128 @@
     </row>
     <row r="27" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>3005</v>
+        <v>2881</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D27" s="7">
-        <v>5954614000</v>
+        <v>134049543940</v>
       </c>
       <c r="E27" s="1">
-        <v>19891005</v>
+        <v>20011219</v>
       </c>
       <c r="F27" s="1">
-        <v>20020225</v>
+        <v>20011219</v>
       </c>
       <c r="G27">
-        <v>6.62</v>
+        <v>3.78</v>
       </c>
       <c r="H27">
-        <v>7.47</v>
+        <v>6.54</v>
       </c>
       <c r="I27">
-        <v>1.88</v>
+        <v>1.18</v>
       </c>
       <c r="J27" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="K27" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="L27" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="M27" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="N27">
-        <v>0.33</v>
+        <v>1.92</v>
       </c>
       <c r="O27"/>
-      <c r="P27" t="s">
-        <v>487</v>
+      <c r="P27">
+        <v>5.94</v>
       </c>
       <c r="Q27">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="R27">
-        <v>73</v>
+        <v>92.68</v>
       </c>
       <c r="S27">
-        <v>11.4</v>
+        <v>7.8</v>
       </c>
       <c r="T27">
-        <v>83.22</v>
+        <v>103.3</v>
       </c>
       <c r="U27">
-        <v>12.8</v>
+        <v>8.6</v>
       </c>
       <c r="V27">
-        <v>93.44</v>
+        <v>113.9</v>
       </c>
       <c r="W27">
-        <v>14.2</v>
+        <v>9.4</v>
       </c>
       <c r="X27">
-        <v>103.7</v>
+        <v>124.5</v>
       </c>
       <c r="Y27">
-        <v>15.6</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="Z27">
-        <v>113.9</v>
+        <v>135</v>
       </c>
       <c r="AA27">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AB27">
-        <v>124.1</v>
+        <v>145.6</v>
       </c>
       <c r="AC27" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="AD27" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="AE27" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="AF27" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AG27" s="1">
-        <v>24.89</v>
+        <v>0</v>
       </c>
       <c r="AH27" s="1">
-        <v>8.01</v>
+        <v>0</v>
       </c>
       <c r="AI27" s="1">
-        <v>25.54</v>
+        <v>21.39</v>
       </c>
       <c r="AJ27" s="1">
-        <v>20.46</v>
+        <v>39.32</v>
       </c>
       <c r="AK27" s="1">
-        <v>15.77</v>
+        <v>34.96</v>
       </c>
       <c r="AL27" s="1">
-        <v>0.86</v>
+        <v>0.05</v>
       </c>
       <c r="AM27" s="1">
-        <v>39.15</v>
+        <v>0</v>
       </c>
       <c r="AN27" s="1">
-        <v>0.9</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="AO27" s="1">
-        <v>4.0599999999999996</v>
+        <v>4.46</v>
       </c>
       <c r="AP27" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AQ27" s="1" t="s">
         <v>165</v>
@@ -6486,129 +6520,129 @@
       </c>
     </row>
     <row r="28" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>3028</v>
-      </c>
-      <c r="B28" t="s">
-        <v>199</v>
-      </c>
-      <c r="C28" t="s">
-        <v>200</v>
+      <c r="A28" s="1">
+        <v>3005</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="D28" s="7">
-        <v>2138248640</v>
-      </c>
-      <c r="E28">
-        <v>19821006</v>
-      </c>
-      <c r="F28">
-        <v>20020826</v>
+        <v>5954614000</v>
+      </c>
+      <c r="E28" s="1">
+        <v>19891005</v>
+      </c>
+      <c r="F28" s="1">
+        <v>20020225</v>
       </c>
       <c r="G28">
-        <v>5.66</v>
+        <v>6.56</v>
       </c>
       <c r="H28">
-        <v>8.65</v>
+        <v>7.53</v>
       </c>
       <c r="I28">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="J28" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="K28" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="L28" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="M28" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="N28">
-        <v>1</v>
+        <v>0.38</v>
       </c>
       <c r="O28"/>
-      <c r="P28">
-        <v>15.7</v>
+      <c r="P28" t="s">
+        <v>497</v>
       </c>
       <c r="Q28">
         <v>10</v>
       </c>
       <c r="R28">
-        <v>38.700000000000003</v>
+        <v>73</v>
       </c>
       <c r="S28">
-        <v>11</v>
+        <v>11.4</v>
       </c>
       <c r="T28">
-        <v>42.57</v>
+        <v>83.22</v>
       </c>
       <c r="U28">
-        <v>12</v>
+        <v>12.8</v>
       </c>
       <c r="V28">
-        <v>46.44</v>
+        <v>93.44</v>
       </c>
       <c r="W28">
-        <v>13</v>
+        <v>14.2</v>
       </c>
       <c r="X28">
-        <v>50.31</v>
+        <v>103.7</v>
       </c>
       <c r="Y28">
-        <v>14</v>
+        <v>15.6</v>
       </c>
       <c r="Z28">
-        <v>54.18</v>
+        <v>113.9</v>
       </c>
       <c r="AA28">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB28">
-        <v>58.05</v>
+        <v>124.1</v>
       </c>
       <c r="AC28" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="AD28" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="AE28" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="AF28" t="s">
-        <v>368</v>
-      </c>
-      <c r="AG28">
-        <v>5.93</v>
-      </c>
-      <c r="AH28">
-        <v>2.59</v>
-      </c>
-      <c r="AI28">
-        <v>18.72</v>
-      </c>
-      <c r="AJ28">
-        <v>2.64</v>
-      </c>
-      <c r="AK28">
-        <v>2.19</v>
-      </c>
-      <c r="AL28">
-        <v>2.15</v>
-      </c>
-      <c r="AM28">
-        <v>98.11</v>
-      </c>
-      <c r="AN28">
-        <v>-1.74</v>
-      </c>
-      <c r="AO28">
-        <v>-1.7</v>
-      </c>
-      <c r="AP28">
-        <v>30</v>
+        <v>367</v>
+      </c>
+      <c r="AG28" s="1">
+        <v>24.89</v>
+      </c>
+      <c r="AH28" s="1">
+        <v>8.01</v>
+      </c>
+      <c r="AI28" s="1">
+        <v>25.54</v>
+      </c>
+      <c r="AJ28" s="1">
+        <v>20.46</v>
+      </c>
+      <c r="AK28" s="1">
+        <v>15.77</v>
+      </c>
+      <c r="AL28" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="AM28" s="1">
+        <v>39.15</v>
+      </c>
+      <c r="AN28" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="AO28" s="1">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="AP28" s="1">
+        <v>57</v>
       </c>
       <c r="AQ28" t="s">
         <v>201</v>
@@ -6628,80 +6662,80 @@
     </row>
     <row r="29" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>3033</v>
+        <v>3028</v>
       </c>
       <c r="B29" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="C29" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="D29" s="7">
-        <v>3990554430</v>
+        <v>2138248640</v>
       </c>
       <c r="E29">
-        <v>19770120</v>
+        <v>19821006</v>
       </c>
       <c r="F29">
         <v>20020826</v>
       </c>
       <c r="G29">
-        <v>4.2699999999999996</v>
+        <v>5.65</v>
       </c>
       <c r="H29">
-        <v>8.68</v>
+        <v>8.66</v>
       </c>
       <c r="I29">
-        <v>1.7</v>
+        <v>1.41</v>
       </c>
       <c r="J29" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="K29" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="L29" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="M29" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="N29">
-        <v>1.78</v>
+        <v>0.89</v>
       </c>
       <c r="O29"/>
       <c r="P29">
-        <v>13.67</v>
+        <v>-5.01</v>
       </c>
       <c r="Q29">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R29">
-        <v>34.83</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="S29">
-        <v>10.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="T29">
-        <v>39.47</v>
+        <v>42.57</v>
       </c>
       <c r="U29">
-        <v>11.4</v>
+        <v>12</v>
       </c>
       <c r="V29">
-        <v>44.12</v>
+        <v>46.44</v>
       </c>
       <c r="W29">
-        <v>12.6</v>
+        <v>13</v>
       </c>
       <c r="X29">
-        <v>48.76</v>
+        <v>50.31</v>
       </c>
       <c r="Y29">
-        <v>13.8</v>
+        <v>14</v>
       </c>
       <c r="Z29">
-        <v>53.41</v>
+        <v>54.18</v>
       </c>
       <c r="AA29">
         <v>15</v>
@@ -6710,46 +6744,46 @@
         <v>58.05</v>
       </c>
       <c r="AC29" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AD29" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AE29" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="AF29" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AG29">
-        <v>7.01</v>
+        <v>5.93</v>
       </c>
       <c r="AH29">
-        <v>3.51</v>
+        <v>2.59</v>
       </c>
       <c r="AI29">
-        <v>25.16</v>
+        <v>18.72</v>
       </c>
       <c r="AJ29">
-        <v>3.37</v>
+        <v>2.64</v>
       </c>
       <c r="AK29">
-        <v>2.33</v>
+        <v>2.19</v>
       </c>
       <c r="AL29">
-        <v>2.89</v>
+        <v>2.15</v>
       </c>
       <c r="AM29">
-        <v>104.15</v>
+        <v>98.11</v>
       </c>
       <c r="AN29">
-        <v>0.88</v>
+        <v>-1.74</v>
       </c>
       <c r="AO29">
-        <v>0.86</v>
+        <v>-1.7</v>
       </c>
       <c r="AP29">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AQ29" t="s">
         <v>191</v>
@@ -6771,128 +6805,128 @@
       <c r="AX29"/>
     </row>
     <row r="30" spans="1:50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>3044</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>67</v>
+      <c r="A30">
+        <v>3033</v>
+      </c>
+      <c r="B30" t="s">
+        <v>189</v>
+      </c>
+      <c r="C30" t="s">
+        <v>190</v>
       </c>
       <c r="D30" s="7">
-        <v>5256058980</v>
-      </c>
-      <c r="E30" s="1">
-        <v>19911216</v>
-      </c>
-      <c r="F30" s="1">
+        <v>3990554430</v>
+      </c>
+      <c r="E30">
+        <v>19770120</v>
+      </c>
+      <c r="F30">
         <v>20020826</v>
       </c>
       <c r="G30">
-        <v>5.83</v>
+        <v>4.22</v>
       </c>
       <c r="H30">
-        <v>10.74</v>
+        <v>8.77</v>
       </c>
       <c r="I30">
-        <v>1.81</v>
+        <v>1.72</v>
       </c>
       <c r="J30" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="K30" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="L30" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="M30" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="N30">
-        <v>0.69</v>
+        <v>0.72</v>
       </c>
       <c r="P30">
-        <v>4.3899999999999997</v>
+        <v>-3.04</v>
       </c>
       <c r="Q30">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R30">
-        <v>93.92</v>
+        <v>34.83</v>
       </c>
       <c r="S30">
-        <v>9.1999999999999993</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="T30">
-        <v>108</v>
+        <v>39.47</v>
       </c>
       <c r="U30">
-        <v>10.4</v>
+        <v>11.4</v>
       </c>
       <c r="V30">
-        <v>122.1</v>
+        <v>44.12</v>
       </c>
       <c r="W30">
-        <v>11.6</v>
+        <v>12.6</v>
       </c>
       <c r="X30">
-        <v>136.19999999999999</v>
+        <v>48.76</v>
       </c>
       <c r="Y30">
-        <v>12.8</v>
+        <v>13.8</v>
       </c>
       <c r="Z30">
-        <v>150.30000000000001</v>
+        <v>53.41</v>
       </c>
       <c r="AA30">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AB30">
-        <v>164.4</v>
+        <v>58.05</v>
       </c>
       <c r="AC30" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="AD30" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="AE30" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="AF30" t="s">
-        <v>370</v>
-      </c>
-      <c r="AG30" s="1">
-        <v>18.75</v>
-      </c>
-      <c r="AH30" s="1">
-        <v>10.47</v>
-      </c>
-      <c r="AI30" s="1">
-        <v>15.91</v>
-      </c>
-      <c r="AJ30" s="1">
-        <v>11.99</v>
-      </c>
-      <c r="AK30" s="1">
-        <v>9.36</v>
-      </c>
-      <c r="AL30" s="1">
-        <v>0.78</v>
-      </c>
-      <c r="AM30" s="1">
-        <v>87.32</v>
-      </c>
-      <c r="AN30" s="1">
-        <v>7.58</v>
-      </c>
-      <c r="AO30" s="1">
-        <v>-10.16</v>
-      </c>
-      <c r="AP30" s="1">
-        <v>49</v>
+        <v>369</v>
+      </c>
+      <c r="AG30">
+        <v>7.01</v>
+      </c>
+      <c r="AH30">
+        <v>3.51</v>
+      </c>
+      <c r="AI30">
+        <v>25.16</v>
+      </c>
+      <c r="AJ30">
+        <v>3.37</v>
+      </c>
+      <c r="AK30">
+        <v>2.33</v>
+      </c>
+      <c r="AL30">
+        <v>2.89</v>
+      </c>
+      <c r="AM30">
+        <v>104.15</v>
+      </c>
+      <c r="AN30">
+        <v>0.88</v>
+      </c>
+      <c r="AO30">
+        <v>0.86</v>
+      </c>
+      <c r="AP30">
+        <v>34</v>
       </c>
       <c r="AQ30" s="1" t="s">
         <v>73</v>
@@ -6911,128 +6945,128 @@
       </c>
     </row>
     <row r="31" spans="1:50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>3048</v>
-      </c>
-      <c r="B31" t="s">
-        <v>209</v>
-      </c>
-      <c r="C31" t="s">
-        <v>210</v>
+      <c r="A31" s="1">
+        <v>3044</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="D31" s="7">
-        <v>2448297940</v>
-      </c>
-      <c r="E31">
-        <v>19960711</v>
-      </c>
-      <c r="F31">
-        <v>20021001</v>
+        <v>5256058980</v>
+      </c>
+      <c r="E31" s="1">
+        <v>19911216</v>
+      </c>
+      <c r="F31" s="1">
+        <v>20020826</v>
       </c>
       <c r="G31">
-        <v>8.6999999999999993</v>
+        <v>5.74</v>
       </c>
       <c r="H31">
-        <v>7.77</v>
+        <v>10.91</v>
       </c>
       <c r="I31">
-        <v>2.0499999999999998</v>
+        <v>1.84</v>
       </c>
       <c r="J31" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="K31" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="L31" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="M31" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="N31">
-        <v>1.07</v>
+        <v>1.32</v>
       </c>
       <c r="P31">
-        <v>0.21</v>
+        <v>1.59</v>
       </c>
       <c r="Q31">
         <v>8</v>
       </c>
       <c r="R31">
-        <v>34.32</v>
+        <v>93.92</v>
       </c>
       <c r="S31">
-        <v>9.6</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="T31">
-        <v>41.18</v>
+        <v>108</v>
       </c>
       <c r="U31">
-        <v>11.2</v>
+        <v>10.4</v>
       </c>
       <c r="V31">
-        <v>48.05</v>
+        <v>122.1</v>
       </c>
       <c r="W31">
+        <v>11.6</v>
+      </c>
+      <c r="X31">
+        <v>136.19999999999999</v>
+      </c>
+      <c r="Y31">
         <v>12.8</v>
       </c>
-      <c r="X31">
-        <v>54.91</v>
-      </c>
-      <c r="Y31">
-        <v>14.4</v>
-      </c>
       <c r="Z31">
-        <v>61.78</v>
+        <v>150.30000000000001</v>
       </c>
       <c r="AA31">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AB31">
-        <v>68.64</v>
+        <v>164.4</v>
       </c>
       <c r="AC31" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="AD31" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="AE31" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="AF31" t="s">
-        <v>371</v>
-      </c>
-      <c r="AG31">
-        <v>3.24</v>
-      </c>
-      <c r="AH31">
-        <v>1.5</v>
-      </c>
-      <c r="AI31">
-        <v>27.8</v>
-      </c>
-      <c r="AJ31">
-        <v>1.3</v>
-      </c>
-      <c r="AK31">
-        <v>1.04</v>
-      </c>
-      <c r="AL31">
-        <v>4.37</v>
-      </c>
-      <c r="AM31">
-        <v>115.38</v>
-      </c>
-      <c r="AN31">
-        <v>-2.5099999999999998</v>
-      </c>
-      <c r="AO31">
-        <v>-3.46</v>
-      </c>
-      <c r="AP31">
-        <v>30</v>
+        <v>370</v>
+      </c>
+      <c r="AG31" s="1">
+        <v>18.75</v>
+      </c>
+      <c r="AH31" s="1">
+        <v>10.47</v>
+      </c>
+      <c r="AI31" s="1">
+        <v>15.91</v>
+      </c>
+      <c r="AJ31" s="1">
+        <v>11.99</v>
+      </c>
+      <c r="AK31" s="1">
+        <v>9.36</v>
+      </c>
+      <c r="AL31" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="AM31" s="1">
+        <v>87.32</v>
+      </c>
+      <c r="AN31" s="1">
+        <v>7.58</v>
+      </c>
+      <c r="AO31" s="1">
+        <v>-10.16</v>
+      </c>
+      <c r="AP31" s="1">
+        <v>49</v>
       </c>
       <c r="AQ31" t="s">
         <v>211</v>
@@ -7051,128 +7085,129 @@
       </c>
     </row>
     <row r="32" spans="1:50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>3209</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>106</v>
+      <c r="A32">
+        <v>3048</v>
+      </c>
+      <c r="B32" t="s">
+        <v>209</v>
+      </c>
+      <c r="C32" t="s">
+        <v>210</v>
       </c>
       <c r="D32" s="7">
-        <v>2005321840</v>
-      </c>
-      <c r="E32" s="1">
-        <v>19910415</v>
-      </c>
-      <c r="F32" s="1">
-        <v>20081126</v>
+        <v>2448297940</v>
+      </c>
+      <c r="E32">
+        <v>19960711</v>
+      </c>
+      <c r="F32">
+        <v>20021001</v>
       </c>
       <c r="G32">
-        <v>6.98</v>
+        <v>8.6199999999999992</v>
       </c>
       <c r="H32">
-        <v>8.0299999999999994</v>
+        <v>7.84</v>
       </c>
       <c r="I32">
-        <v>1.64</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="J32" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="K32" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="L32" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="M32" t="s">
-        <v>507</v>
-      </c>
-      <c r="N32">
-        <v>0.79</v>
-      </c>
-      <c r="P32" t="s">
-        <v>508</v>
+        <v>513</v>
+      </c>
+      <c r="N32" s="8">
+        <v>2.61</v>
+      </c>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8" t="s">
+        <v>514</v>
       </c>
       <c r="Q32">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R32">
-        <v>32.04</v>
+        <v>34.32</v>
       </c>
       <c r="S32">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="T32">
-        <v>35.6</v>
+        <v>41.18</v>
       </c>
       <c r="U32">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="V32">
-        <v>39.159999999999997</v>
+        <v>48.05</v>
       </c>
       <c r="W32">
-        <v>12</v>
+        <v>12.8</v>
       </c>
       <c r="X32">
-        <v>42.72</v>
+        <v>54.91</v>
       </c>
       <c r="Y32">
-        <v>13</v>
+        <v>14.4</v>
       </c>
       <c r="Z32">
-        <v>46.28</v>
+        <v>61.78</v>
       </c>
       <c r="AA32">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AB32">
-        <v>49.84</v>
+        <v>68.64</v>
       </c>
       <c r="AC32" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AD32" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="AE32" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="AF32" t="s">
-        <v>372</v>
-      </c>
-      <c r="AG32" s="1">
-        <v>5.31</v>
-      </c>
-      <c r="AH32" s="1">
-        <v>2.25</v>
-      </c>
-      <c r="AI32" s="1">
-        <v>22.5</v>
-      </c>
-      <c r="AJ32" s="1">
-        <v>2.11</v>
-      </c>
-      <c r="AK32" s="1">
-        <v>1.63</v>
-      </c>
-      <c r="AL32" s="1">
-        <v>3.25</v>
-      </c>
-      <c r="AM32" s="1">
-        <v>106.64</v>
-      </c>
-      <c r="AN32" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="AO32" s="1">
-        <v>-1.1599999999999999</v>
-      </c>
-      <c r="AP32" s="1">
-        <v>38</v>
+        <v>371</v>
+      </c>
+      <c r="AG32">
+        <v>3.24</v>
+      </c>
+      <c r="AH32">
+        <v>1.5</v>
+      </c>
+      <c r="AI32">
+        <v>27.8</v>
+      </c>
+      <c r="AJ32">
+        <v>1.3</v>
+      </c>
+      <c r="AK32">
+        <v>1.04</v>
+      </c>
+      <c r="AL32">
+        <v>4.37</v>
+      </c>
+      <c r="AM32">
+        <v>115.38</v>
+      </c>
+      <c r="AN32">
+        <v>-2.5099999999999998</v>
+      </c>
+      <c r="AO32">
+        <v>-3.46</v>
+      </c>
+      <c r="AP32">
+        <v>30</v>
       </c>
       <c r="AQ32" s="1" t="s">
         <v>107</v>
@@ -7191,128 +7226,128 @@
       </c>
     </row>
     <row r="33" spans="1:52" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>3312</v>
-      </c>
-      <c r="B33" t="s">
-        <v>212</v>
-      </c>
-      <c r="C33" t="s">
-        <v>213</v>
+      <c r="A33" s="1">
+        <v>3209</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="D33" s="7">
-        <v>1376254550</v>
-      </c>
-      <c r="E33">
-        <v>19951006</v>
-      </c>
-      <c r="F33">
-        <v>20101229</v>
+        <v>2005321840</v>
+      </c>
+      <c r="E33" s="1">
+        <v>19910415</v>
+      </c>
+      <c r="F33" s="1">
+        <v>20081126</v>
       </c>
       <c r="G33">
-        <v>4.0599999999999996</v>
+        <v>6.91</v>
       </c>
       <c r="H33">
-        <v>7.85</v>
+        <v>8.11</v>
       </c>
       <c r="I33">
-        <v>1.88</v>
+        <v>1.66</v>
       </c>
       <c r="J33" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="K33" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="L33" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="M33" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="N33">
-        <v>0.98</v>
+        <v>0.65</v>
       </c>
       <c r="P33">
-        <v>4.3600000000000003</v>
+        <v>-4.88</v>
       </c>
       <c r="Q33">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="R33">
-        <v>47.1</v>
+        <v>32.04</v>
       </c>
       <c r="S33">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="T33">
-        <v>56.52</v>
+        <v>35.6</v>
       </c>
       <c r="U33">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="V33">
-        <v>65.94</v>
+        <v>39.159999999999997</v>
       </c>
       <c r="W33">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="X33">
-        <v>75.36</v>
+        <v>42.72</v>
       </c>
       <c r="Y33">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="Z33">
-        <v>84.78</v>
+        <v>46.28</v>
       </c>
       <c r="AA33">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="AB33">
-        <v>94.2</v>
+        <v>49.84</v>
       </c>
       <c r="AC33" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="AD33" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="AE33" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="AF33" t="s">
-        <v>373</v>
-      </c>
-      <c r="AG33">
-        <v>5.84</v>
-      </c>
-      <c r="AH33">
-        <v>3.09</v>
-      </c>
-      <c r="AI33">
-        <v>27.98</v>
-      </c>
-      <c r="AJ33">
-        <v>3.08</v>
-      </c>
-      <c r="AK33">
-        <v>2.5</v>
-      </c>
-      <c r="AL33">
-        <v>3.01</v>
-      </c>
-      <c r="AM33">
-        <v>100.32</v>
-      </c>
-      <c r="AN33">
-        <v>-3.19</v>
-      </c>
-      <c r="AO33">
-        <v>-3.32</v>
-      </c>
-      <c r="AP33">
-        <v>40</v>
+        <v>372</v>
+      </c>
+      <c r="AG33" s="1">
+        <v>5.31</v>
+      </c>
+      <c r="AH33" s="1">
+        <v>2.25</v>
+      </c>
+      <c r="AI33" s="1">
+        <v>22.5</v>
+      </c>
+      <c r="AJ33" s="1">
+        <v>2.11</v>
+      </c>
+      <c r="AK33" s="1">
+        <v>1.63</v>
+      </c>
+      <c r="AL33" s="1">
+        <v>3.25</v>
+      </c>
+      <c r="AM33" s="1">
+        <v>106.64</v>
+      </c>
+      <c r="AN33" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="AO33" s="1">
+        <v>-1.1599999999999999</v>
+      </c>
+      <c r="AP33" s="1">
+        <v>38</v>
       </c>
       <c r="AQ33" t="s">
         <v>214</v>
@@ -7331,128 +7366,128 @@
       </c>
     </row>
     <row r="34" spans="1:52" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>3702</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D34" s="1">
-        <v>18790568330</v>
-      </c>
-      <c r="E34" s="1">
-        <v>20051109</v>
-      </c>
-      <c r="F34" s="1">
-        <v>20051109</v>
+      <c r="A34">
+        <v>3312</v>
+      </c>
+      <c r="B34" t="s">
+        <v>212</v>
+      </c>
+      <c r="C34" t="s">
+        <v>213</v>
+      </c>
+      <c r="D34" s="7">
+        <v>1376254550</v>
+      </c>
+      <c r="E34">
+        <v>19951006</v>
+      </c>
+      <c r="F34">
+        <v>20101229</v>
       </c>
       <c r="G34">
-        <v>5.79</v>
+        <v>4.07</v>
       </c>
       <c r="H34">
-        <v>9.24</v>
+        <v>7.82</v>
       </c>
       <c r="I34">
-        <v>1.48</v>
+        <v>1.87</v>
       </c>
       <c r="J34" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="K34" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="L34" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="M34" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="N34">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="P34">
-        <v>-2.2599999999999998</v>
+        <v>0.46</v>
+      </c>
+      <c r="P34" t="s">
+        <v>523</v>
       </c>
       <c r="Q34">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="R34">
-        <v>55.71</v>
+        <v>47.1</v>
       </c>
       <c r="S34">
-        <v>9.8000000000000007</v>
+        <v>18</v>
       </c>
       <c r="T34">
-        <v>60.66</v>
+        <v>56.52</v>
       </c>
       <c r="U34">
-        <v>10.6</v>
+        <v>21</v>
       </c>
       <c r="V34">
-        <v>65.61</v>
+        <v>65.94</v>
       </c>
       <c r="W34">
-        <v>11.4</v>
+        <v>24</v>
       </c>
       <c r="X34">
-        <v>70.569999999999993</v>
+        <v>75.36</v>
       </c>
       <c r="Y34">
-        <v>12.2</v>
+        <v>27</v>
       </c>
       <c r="Z34">
-        <v>75.52</v>
+        <v>84.78</v>
       </c>
       <c r="AA34">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="AB34">
-        <v>80.47</v>
+        <v>94.2</v>
       </c>
       <c r="AC34" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="AD34" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="AE34" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="AF34" t="s">
-        <v>374</v>
-      </c>
-      <c r="AG34" s="1">
-        <v>3.89</v>
-      </c>
-      <c r="AH34" s="1">
-        <v>1.82</v>
-      </c>
-      <c r="AI34" s="1">
-        <v>17.649999999999999</v>
-      </c>
-      <c r="AJ34" s="1">
-        <v>1.87</v>
-      </c>
-      <c r="AK34" s="1">
-        <v>1.54</v>
-      </c>
-      <c r="AL34" s="1">
-        <v>2.9</v>
-      </c>
-      <c r="AM34" s="1">
-        <v>97.33</v>
-      </c>
-      <c r="AN34" s="1">
-        <v>-16.23</v>
-      </c>
-      <c r="AO34" s="1">
-        <v>-16.72</v>
-      </c>
-      <c r="AP34" s="1">
-        <v>28</v>
+        <v>373</v>
+      </c>
+      <c r="AG34">
+        <v>5.84</v>
+      </c>
+      <c r="AH34">
+        <v>3.09</v>
+      </c>
+      <c r="AI34">
+        <v>27.98</v>
+      </c>
+      <c r="AJ34">
+        <v>3.08</v>
+      </c>
+      <c r="AK34">
+        <v>2.5</v>
+      </c>
+      <c r="AL34">
+        <v>3.01</v>
+      </c>
+      <c r="AM34">
+        <v>100.32</v>
+      </c>
+      <c r="AN34">
+        <v>-3.19</v>
+      </c>
+      <c r="AO34">
+        <v>-3.32</v>
+      </c>
+      <c r="AP34">
+        <v>40</v>
       </c>
       <c r="AQ34" s="1" t="s">
         <v>169</v>
@@ -7472,127 +7507,127 @@
     </row>
     <row r="35" spans="1:52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>3706</v>
+        <v>3702</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>29</v>
+        <v>167</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D35" s="7">
-        <v>12065567890</v>
+        <v>168</v>
+      </c>
+      <c r="D35" s="1">
+        <v>18790568330</v>
       </c>
       <c r="E35" s="1">
-        <v>20130912</v>
+        <v>20051109</v>
       </c>
       <c r="F35" s="1">
-        <v>20130912</v>
+        <v>20051109</v>
       </c>
       <c r="G35">
-        <v>2.98</v>
+        <v>5.69</v>
       </c>
       <c r="H35">
-        <v>3.26</v>
+        <v>9.41</v>
       </c>
       <c r="I35">
-        <v>0.81</v>
+        <v>1.51</v>
       </c>
       <c r="J35" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="K35" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="L35" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="M35" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="N35">
-        <v>1.1299999999999999</v>
+        <v>0.63</v>
       </c>
       <c r="P35">
-        <v>16.7</v>
+        <v>0.43</v>
       </c>
       <c r="Q35">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R35">
-        <v>82.56</v>
+        <v>55.71</v>
       </c>
       <c r="S35">
-        <v>9.4</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="T35">
-        <v>97.01</v>
+        <v>60.66</v>
       </c>
       <c r="U35">
-        <v>10.8</v>
+        <v>10.6</v>
       </c>
       <c r="V35">
-        <v>111.5</v>
+        <v>65.61</v>
       </c>
       <c r="W35">
+        <v>11.4</v>
+      </c>
+      <c r="X35">
+        <v>70.569999999999993</v>
+      </c>
+      <c r="Y35">
         <v>12.2</v>
       </c>
-      <c r="X35">
-        <v>125.9</v>
-      </c>
-      <c r="Y35">
-        <v>13.6</v>
-      </c>
       <c r="Z35">
-        <v>140.4</v>
+        <v>75.52</v>
       </c>
       <c r="AA35">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB35">
-        <v>154.80000000000001</v>
+        <v>80.47</v>
       </c>
       <c r="AC35" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="AD35" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AE35" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="AF35" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AG35" s="1">
-        <v>9.75</v>
+        <v>3.89</v>
       </c>
       <c r="AH35" s="1">
-        <v>-0.09</v>
+        <v>1.82</v>
       </c>
       <c r="AI35" s="1">
-        <v>33</v>
+        <v>17.649999999999999</v>
       </c>
       <c r="AJ35" s="1">
-        <v>55.14</v>
+        <v>1.87</v>
       </c>
       <c r="AK35" s="1">
-        <v>34.869999999999997</v>
+        <v>1.54</v>
       </c>
       <c r="AL35" s="1">
-        <v>0.68</v>
+        <v>2.9</v>
       </c>
       <c r="AM35" s="1">
-        <v>-0.16</v>
+        <v>97.33</v>
       </c>
       <c r="AN35" s="1">
-        <v>0.14000000000000001</v>
+        <v>-16.23</v>
       </c>
       <c r="AO35" s="1">
-        <v>1.44</v>
+        <v>-16.72</v>
       </c>
       <c r="AP35" s="1">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="AQ35" s="1" t="s">
         <v>104</v>
@@ -7612,127 +7647,127 @@
     </row>
     <row r="36" spans="1:52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>6257</v>
+        <v>3706</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>112</v>
+        <v>29</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>113</v>
+        <v>30</v>
       </c>
       <c r="D36" s="7">
-        <v>4444791420</v>
+        <v>12065567890</v>
       </c>
       <c r="E36" s="1">
-        <v>19881215</v>
+        <v>20130912</v>
       </c>
       <c r="F36" s="1">
-        <v>20030825</v>
+        <v>20130912</v>
       </c>
       <c r="G36">
-        <v>4.87</v>
+        <v>2.96</v>
       </c>
       <c r="H36">
-        <v>10.26</v>
+        <v>3.27</v>
       </c>
       <c r="I36">
-        <v>1.85</v>
+        <v>0.82</v>
       </c>
       <c r="J36" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="K36" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="L36" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="M36" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="N36">
-        <v>0.4</v>
-      </c>
-      <c r="P36" t="s">
-        <v>525</v>
+        <v>1.69</v>
+      </c>
+      <c r="P36">
+        <v>11.58</v>
       </c>
       <c r="Q36">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R36">
-        <v>52.47</v>
+        <v>82.56</v>
       </c>
       <c r="S36">
-        <v>10.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="T36">
-        <v>59.47</v>
+        <v>97.01</v>
       </c>
       <c r="U36">
-        <v>11.4</v>
+        <v>10.8</v>
       </c>
       <c r="V36">
-        <v>66.459999999999994</v>
+        <v>111.5</v>
       </c>
       <c r="W36">
-        <v>12.6</v>
+        <v>12.2</v>
       </c>
       <c r="X36">
-        <v>73.459999999999994</v>
+        <v>125.9</v>
       </c>
       <c r="Y36">
-        <v>13.8</v>
+        <v>13.6</v>
       </c>
       <c r="Z36">
-        <v>80.45</v>
+        <v>140.4</v>
       </c>
       <c r="AA36">
         <v>15</v>
       </c>
       <c r="AB36">
-        <v>87.45</v>
+        <v>154.80000000000001</v>
       </c>
       <c r="AC36" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="AD36" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="AE36" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="AF36" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AG36" s="1">
-        <v>30.03</v>
+        <v>9.75</v>
       </c>
       <c r="AH36" s="1">
-        <v>21.36</v>
+        <v>-0.09</v>
       </c>
       <c r="AI36" s="1">
-        <v>19.16</v>
+        <v>33</v>
       </c>
       <c r="AJ36" s="1">
-        <v>22.37</v>
+        <v>55.14</v>
       </c>
       <c r="AK36" s="1">
-        <v>18.329999999999998</v>
+        <v>34.869999999999997</v>
       </c>
       <c r="AL36" s="1">
-        <v>0.51</v>
+        <v>0.68</v>
       </c>
       <c r="AM36" s="1">
-        <v>95.49</v>
+        <v>-0.16</v>
       </c>
       <c r="AN36" s="1">
-        <v>17.23</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AO36" s="1">
-        <v>-2.14</v>
+        <v>1.44</v>
       </c>
       <c r="AP36" s="1">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="AQ36" s="1" t="s">
         <v>114</v>
@@ -7752,127 +7787,127 @@
     </row>
     <row r="37" spans="1:52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>8112</v>
+        <v>6257</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D37" s="7">
+        <v>4444791420</v>
+      </c>
+      <c r="E37" s="1">
+        <v>19881215</v>
+      </c>
+      <c r="F37" s="1">
+        <v>20030825</v>
+      </c>
+      <c r="G37">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="H37">
+        <v>10.4</v>
+      </c>
+      <c r="I37">
+        <v>1.87</v>
+      </c>
+      <c r="J37" t="s">
+        <v>532</v>
+      </c>
+      <c r="K37" t="s">
+        <v>533</v>
+      </c>
+      <c r="L37" t="s">
+        <v>534</v>
+      </c>
+      <c r="M37" t="s">
+        <v>535</v>
+      </c>
+      <c r="N37">
+        <v>0.82</v>
+      </c>
+      <c r="P37">
+        <v>5.74</v>
+      </c>
+      <c r="Q37">
         <v>9</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D37" s="7">
-        <v>4284964730</v>
-      </c>
-      <c r="E37" s="1">
-        <v>19870305</v>
-      </c>
-      <c r="F37" s="1">
-        <v>20071231</v>
-      </c>
-      <c r="G37">
-        <v>6</v>
-      </c>
-      <c r="H37">
-        <v>7.89</v>
-      </c>
-      <c r="I37">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="J37" t="s">
-        <v>526</v>
-      </c>
-      <c r="K37" t="s">
-        <v>527</v>
-      </c>
-      <c r="L37" t="s">
-        <v>528</v>
-      </c>
-      <c r="M37" t="s">
-        <v>529</v>
-      </c>
-      <c r="N37">
-        <v>1.78</v>
-      </c>
-      <c r="P37">
-        <v>16.72</v>
-      </c>
-      <c r="Q37">
-        <v>7</v>
-      </c>
       <c r="R37">
-        <v>46.97</v>
+        <v>52.47</v>
       </c>
       <c r="S37">
-        <v>8.1999999999999993</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="T37">
-        <v>55.02</v>
+        <v>59.47</v>
       </c>
       <c r="U37">
-        <v>9.4</v>
+        <v>11.4</v>
       </c>
       <c r="V37">
-        <v>63.07</v>
+        <v>66.459999999999994</v>
       </c>
       <c r="W37">
-        <v>10.6</v>
+        <v>12.6</v>
       </c>
       <c r="X37">
-        <v>71.13</v>
+        <v>73.459999999999994</v>
       </c>
       <c r="Y37">
-        <v>11.8</v>
+        <v>13.8</v>
       </c>
       <c r="Z37">
-        <v>79.180000000000007</v>
+        <v>80.45</v>
       </c>
       <c r="AA37">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB37">
-        <v>87.23</v>
+        <v>87.45</v>
       </c>
       <c r="AC37" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="AD37" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="AE37" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="AF37" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AG37" s="1">
-        <v>3.26</v>
+        <v>30.03</v>
       </c>
       <c r="AH37" s="1">
-        <v>2.17</v>
+        <v>21.36</v>
       </c>
       <c r="AI37" s="1">
-        <v>31.83</v>
+        <v>19.16</v>
       </c>
       <c r="AJ37" s="1">
-        <v>2.02</v>
+        <v>22.37</v>
       </c>
       <c r="AK37" s="1">
-        <v>1.53</v>
+        <v>18.329999999999998</v>
       </c>
       <c r="AL37" s="1">
-        <v>4.42</v>
+        <v>0.51</v>
       </c>
       <c r="AM37" s="1">
-        <v>107.43</v>
+        <v>95.49</v>
       </c>
       <c r="AN37" s="1">
-        <v>-12.76</v>
+        <v>17.23</v>
       </c>
       <c r="AO37" s="1">
-        <v>-8.07</v>
+        <v>-2.14</v>
       </c>
       <c r="AP37" s="1">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="AQ37" s="1" t="s">
         <v>122</v>
@@ -7892,127 +7927,127 @@
     </row>
     <row r="38" spans="1:52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>8150</v>
+        <v>8112</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D38" s="7">
-        <v>7272401260</v>
+        <v>4284964730</v>
       </c>
       <c r="E38" s="1">
-        <v>19970728</v>
+        <v>19870305</v>
       </c>
       <c r="F38" s="1">
-        <v>20140411</v>
+        <v>20071231</v>
       </c>
       <c r="G38">
-        <v>4.4400000000000004</v>
+        <v>5.92</v>
       </c>
       <c r="H38">
-        <v>8.32</v>
+        <v>8</v>
       </c>
       <c r="I38">
-        <v>1.58</v>
+        <v>2.06</v>
       </c>
       <c r="J38" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="K38" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="L38" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="M38" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="N38">
-        <v>1.03</v>
+        <v>1.41</v>
       </c>
       <c r="P38">
-        <v>-1.35</v>
+        <v>8.23</v>
       </c>
       <c r="Q38">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="R38">
-        <v>53.55</v>
+        <v>46.97</v>
       </c>
       <c r="S38">
-        <v>10.8</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="T38">
-        <v>64.260000000000005</v>
+        <v>55.02</v>
       </c>
       <c r="U38">
-        <v>12.6</v>
+        <v>9.4</v>
       </c>
       <c r="V38">
-        <v>74.97</v>
+        <v>63.07</v>
       </c>
       <c r="W38">
-        <v>14.4</v>
+        <v>10.6</v>
       </c>
       <c r="X38">
-        <v>85.68</v>
+        <v>71.13</v>
       </c>
       <c r="Y38">
-        <v>16.2</v>
+        <v>11.8</v>
       </c>
       <c r="Z38">
-        <v>96.39</v>
+        <v>79.180000000000007</v>
       </c>
       <c r="AA38">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AB38">
-        <v>107.1</v>
+        <v>87.23</v>
       </c>
       <c r="AC38" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="AD38" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="AE38" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="AF38" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AG38" s="1">
-        <v>26.62</v>
+        <v>3.26</v>
       </c>
       <c r="AH38" s="1">
-        <v>20.51</v>
+        <v>2.17</v>
       </c>
       <c r="AI38" s="1">
-        <v>22.24</v>
+        <v>31.83</v>
       </c>
       <c r="AJ38" s="1">
-        <v>21.26</v>
+        <v>2.02</v>
       </c>
       <c r="AK38" s="1">
-        <v>17.670000000000002</v>
+        <v>1.53</v>
       </c>
       <c r="AL38" s="1">
-        <v>0.74</v>
+        <v>4.42</v>
       </c>
       <c r="AM38" s="1">
-        <v>96.47</v>
+        <v>107.43</v>
       </c>
       <c r="AN38" s="1">
-        <v>7.35</v>
+        <v>-12.76</v>
       </c>
       <c r="AO38" s="1">
-        <v>1.02</v>
+        <v>-8.07</v>
       </c>
       <c r="AP38" s="1">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="AQ38" s="1" t="s">
         <v>147</v>
@@ -8032,128 +8067,128 @@
     </row>
     <row r="39" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>8213</v>
+        <v>8150</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="D39" s="7">
-        <v>2712424880</v>
+        <v>7272401260</v>
       </c>
       <c r="E39" s="1">
-        <v>19980421</v>
+        <v>19970728</v>
       </c>
       <c r="F39" s="1">
-        <v>20091225</v>
+        <v>20140411</v>
       </c>
       <c r="G39">
-        <v>7.25</v>
+        <v>4.51</v>
       </c>
       <c r="H39">
-        <v>7.98</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>1.55</v>
       </c>
       <c r="J39" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="K39" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="L39" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="M39" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="N39">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="O39"/>
       <c r="P39">
-        <v>1.64</v>
+        <v>-3.98</v>
       </c>
       <c r="Q39">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R39">
-        <v>36.659999999999997</v>
+        <v>53.55</v>
       </c>
       <c r="S39">
-        <v>7</v>
+        <v>10.8</v>
       </c>
       <c r="T39">
-        <v>42.77</v>
+        <v>64.260000000000005</v>
       </c>
       <c r="U39">
-        <v>8</v>
+        <v>12.6</v>
       </c>
       <c r="V39">
-        <v>48.88</v>
+        <v>74.97</v>
       </c>
       <c r="W39">
-        <v>9</v>
+        <v>14.4</v>
       </c>
       <c r="X39">
-        <v>54.99</v>
+        <v>85.68</v>
       </c>
       <c r="Y39">
-        <v>10</v>
+        <v>16.2</v>
       </c>
       <c r="Z39">
-        <v>61.1</v>
+        <v>96.39</v>
       </c>
       <c r="AA39">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AB39">
-        <v>67.209999999999994</v>
+        <v>107.1</v>
       </c>
       <c r="AC39" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="AD39" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="AE39" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="AF39" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AG39" s="1">
-        <v>15.64</v>
+        <v>26.62</v>
       </c>
       <c r="AH39" s="1">
-        <v>8.6</v>
+        <v>20.51</v>
       </c>
       <c r="AI39" s="1">
-        <v>13.51</v>
+        <v>22.24</v>
       </c>
       <c r="AJ39" s="1">
-        <v>9.09</v>
+        <v>21.26</v>
       </c>
       <c r="AK39" s="1">
-        <v>6.58</v>
+        <v>17.670000000000002</v>
       </c>
       <c r="AL39" s="1">
-        <v>0.86</v>
+        <v>0.74</v>
       </c>
       <c r="AM39" s="1">
-        <v>94.61</v>
+        <v>96.47</v>
       </c>
       <c r="AN39" s="1">
-        <v>2.02</v>
+        <v>7.35</v>
       </c>
       <c r="AO39" s="1">
-        <v>0.38</v>
+        <v>1.02</v>
       </c>
       <c r="AP39" s="1">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="AQ39" s="1" t="s">
         <v>152</v>
@@ -8175,6 +8210,132 @@
       <c r="AX39"/>
       <c r="AY39"/>
       <c r="AZ39"/>
+    </row>
+    <row r="40" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>8213</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40" s="7">
+        <v>2712424880</v>
+      </c>
+      <c r="E40" s="1">
+        <v>19980421</v>
+      </c>
+      <c r="F40" s="1">
+        <v>20091225</v>
+      </c>
+      <c r="G40">
+        <v>7.23</v>
+      </c>
+      <c r="H40">
+        <v>8</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40" t="s">
+        <v>544</v>
+      </c>
+      <c r="K40" t="s">
+        <v>545</v>
+      </c>
+      <c r="L40" t="s">
+        <v>546</v>
+      </c>
+      <c r="M40" t="s">
+        <v>547</v>
+      </c>
+      <c r="N40">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="O40"/>
+      <c r="P40">
+        <v>6.32</v>
+      </c>
+      <c r="Q40">
+        <v>6</v>
+      </c>
+      <c r="R40">
+        <v>36.659999999999997</v>
+      </c>
+      <c r="S40">
+        <v>7</v>
+      </c>
+      <c r="T40">
+        <v>42.77</v>
+      </c>
+      <c r="U40">
+        <v>8</v>
+      </c>
+      <c r="V40">
+        <v>48.88</v>
+      </c>
+      <c r="W40">
+        <v>9</v>
+      </c>
+      <c r="X40">
+        <v>54.99</v>
+      </c>
+      <c r="Y40">
+        <v>10</v>
+      </c>
+      <c r="Z40">
+        <v>61.1</v>
+      </c>
+      <c r="AA40">
+        <v>11</v>
+      </c>
+      <c r="AB40">
+        <v>67.209999999999994</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>345</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>346</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>347</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>379</v>
+      </c>
+      <c r="AG40" s="1">
+        <v>15.64</v>
+      </c>
+      <c r="AH40" s="1">
+        <v>8.6</v>
+      </c>
+      <c r="AI40" s="1">
+        <v>13.51</v>
+      </c>
+      <c r="AJ40" s="1">
+        <v>9.09</v>
+      </c>
+      <c r="AK40" s="1">
+        <v>6.58</v>
+      </c>
+      <c r="AL40" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="AM40" s="1">
+        <v>94.61</v>
+      </c>
+      <c r="AN40" s="1">
+        <v>2.02</v>
+      </c>
+      <c r="AO40" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="AP40" s="1">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:AU39">
@@ -8211,7 +8372,7 @@
     <mergeCell ref="AP1:AP2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="AG26:AG28">
+  <conditionalFormatting sqref="AG27:AG29">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -8223,7 +8384,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG3:AG28">
+  <conditionalFormatting sqref="AG3:AG23 AG25:AG28 AJ24">
     <cfRule type="colorScale" priority="92">
       <colorScale>
         <cfvo type="min"/>
@@ -8233,7 +8394,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG3:AP29">
+  <conditionalFormatting sqref="AG3:AP23 AG25:AP29 AJ24:AS24">
     <cfRule type="colorScale" priority="104">
       <colorScale>
         <cfvo type="min"/>
@@ -8243,8 +8404,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM3:AM27">
-    <cfRule type="colorScale" priority="111">
+  <conditionalFormatting sqref="AG3:AP23 AG25:AP39 AJ24:AS24">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8253,8 +8414,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH4:AH27">
-    <cfRule type="colorScale" priority="113">
+  <conditionalFormatting sqref="AG3:AG23 AG25:AG29 AJ24">
+    <cfRule type="colorScale" priority="130">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8263,8 +8424,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG3:AG27">
-    <cfRule type="colorScale" priority="115">
+  <conditionalFormatting sqref="AG3:AP23 AG25:AP30 AJ24:AS24">
+    <cfRule type="colorScale" priority="132">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8273,8 +8434,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH3:AH27">
-    <cfRule type="colorScale" priority="117">
+  <conditionalFormatting sqref="AM3:AM23 AM25:AM28 AP24">
+    <cfRule type="colorScale" priority="134">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8283,8 +8444,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK3:AK27">
-    <cfRule type="colorScale" priority="119">
+  <conditionalFormatting sqref="AH4:AH23 AH25:AH28 AK24">
+    <cfRule type="colorScale" priority="136">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8293,8 +8454,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI3:AI27">
-    <cfRule type="colorScale" priority="121">
+  <conditionalFormatting sqref="AH3:AH23 AH25:AH28 AK24">
+    <cfRule type="colorScale" priority="140">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8303,8 +8464,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH3:AM28">
-    <cfRule type="colorScale" priority="123">
+  <conditionalFormatting sqref="AK3:AK23 AK25:AK28 AN24">
+    <cfRule type="colorScale" priority="142">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8313,8 +8474,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN3:AP28">
-    <cfRule type="colorScale" priority="125">
+  <conditionalFormatting sqref="AI3:AI23 AI25:AI28 AL24">
+    <cfRule type="colorScale" priority="144">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8323,8 +8484,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG3:AP28">
-    <cfRule type="colorScale" priority="127">
+  <conditionalFormatting sqref="AH3:AM23 AH25:AM29 AK24:AP24">
+    <cfRule type="colorScale" priority="146">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8333,8 +8494,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG6:AP29">
-    <cfRule type="colorScale" priority="129">
+  <conditionalFormatting sqref="AN3:AP23 AN25:AP29 AQ24:AS24">
+    <cfRule type="colorScale" priority="148">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8343,8 +8504,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG3:AP38">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="AG6:AP23 AG25:AP30 AJ24:AS24">
+    <cfRule type="colorScale" priority="152">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8353,8 +8514,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG3:AP39">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="AG3:AP23 AG25:AP40 AJ24:AS24">
+    <cfRule type="colorScale" priority="156">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>

--- a/Data/彙整清單_整理版.xlsx
+++ b/Data/彙整清單_整理版.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\svnbox\Python\Stock\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hmlu\svnbox\Research\Python\Stock\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2B713C-3F59-4393-8339-5B256803E6E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C736DC30-1284-4E29-B1C2-3B7C5B36DAF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D923A086-913E-4840-96DC-7378B4FF8169}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D923A086-913E-4840-96DC-7378B4FF8169}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -2388,13 +2388,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2755,10 +2755,10 @@
   <dimension ref="A1:AZ40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="F9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AD3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K32" sqref="K32"/>
+      <selection pane="bottomRight" activeCell="AK10" sqref="AK10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2794,7 +2794,7 @@
       <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="13" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="10" t="s">
@@ -2824,13 +2824,13 @@
       <c r="M1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="11" t="s">
         <v>380</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="P1" s="11" t="s">
         <v>230</v>
       </c>
       <c r="Q1" s="10" t="s">
@@ -2847,16 +2847,16 @@
       <c r="Z1" s="10"/>
       <c r="AA1" s="3"/>
       <c r="AB1" s="3"/>
-      <c r="AC1" s="13" t="s">
+      <c r="AC1" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="AD1" s="13" t="s">
+      <c r="AD1" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="AE1" s="13" t="s">
+      <c r="AE1" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="AF1" s="13" t="s">
+      <c r="AF1" s="12" t="s">
         <v>176</v>
       </c>
       <c r="AG1" s="10" t="s">
@@ -2901,7 +2901,7 @@
       <c r="A2" s="9"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
-      <c r="D2" s="11"/>
+      <c r="D2" s="13"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -2919,9 +2919,9 @@
       <c r="M2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
       <c r="Q2" s="5" t="s">
         <v>41</v>
       </c>
@@ -2958,10 +2958,10 @@
       <c r="AB2" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="AC2" s="13"/>
-      <c r="AD2" s="13"/>
-      <c r="AE2" s="13"/>
-      <c r="AF2" s="13"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="12"/>
+      <c r="AF2" s="12"/>
       <c r="AG2" s="10"/>
       <c r="AH2" s="9"/>
       <c r="AI2" s="10"/>
@@ -8342,18 +8342,6 @@
     <sortCondition ref="A39"/>
   </sortState>
   <mergeCells count="28">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="AG1:AG2"/>
-    <mergeCell ref="AH1:AH2"/>
-    <mergeCell ref="AI1:AI2"/>
-    <mergeCell ref="AJ1:AJ2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="AF1:AF2"/>
-    <mergeCell ref="AE1:AE2"/>
-    <mergeCell ref="AD1:AD2"/>
-    <mergeCell ref="AC1:AC2"/>
-    <mergeCell ref="O1:O2"/>
     <mergeCell ref="AQ1:AU1"/>
     <mergeCell ref="AK1:AK2"/>
     <mergeCell ref="B1:B2"/>
@@ -8370,10 +8358,22 @@
     <mergeCell ref="AN1:AN2"/>
     <mergeCell ref="AO1:AO2"/>
     <mergeCell ref="AP1:AP2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="AG1:AG2"/>
+    <mergeCell ref="AH1:AH2"/>
+    <mergeCell ref="AI1:AI2"/>
+    <mergeCell ref="AJ1:AJ2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="AF1:AF2"/>
+    <mergeCell ref="AE1:AE2"/>
+    <mergeCell ref="AD1:AD2"/>
+    <mergeCell ref="AC1:AC2"/>
+    <mergeCell ref="O1:O2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="AG27:AG29">
-    <cfRule type="colorScale" priority="15">
+    <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8385,7 +8385,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG3:AG23 AG25:AG28 AJ24">
-    <cfRule type="colorScale" priority="92">
+    <cfRule type="colorScale" priority="93">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8395,7 +8395,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG3:AP23 AG25:AP29 AJ24:AS24">
-    <cfRule type="colorScale" priority="104">
+    <cfRule type="colorScale" priority="105">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8405,7 +8405,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG3:AP23 AG25:AP39 AJ24:AS24">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8415,7 +8415,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG3:AG23 AG25:AG29 AJ24">
-    <cfRule type="colorScale" priority="130">
+    <cfRule type="colorScale" priority="131">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8425,7 +8425,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG3:AP23 AG25:AP30 AJ24:AS24">
-    <cfRule type="colorScale" priority="132">
+    <cfRule type="colorScale" priority="133">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8435,7 +8435,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM3:AM23 AM25:AM28 AP24">
-    <cfRule type="colorScale" priority="134">
+    <cfRule type="colorScale" priority="135">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8445,7 +8445,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH4:AH23 AH25:AH28 AK24">
-    <cfRule type="colorScale" priority="136">
+    <cfRule type="colorScale" priority="137">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8455,7 +8455,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH3:AH23 AH25:AH28 AK24">
-    <cfRule type="colorScale" priority="140">
+    <cfRule type="colorScale" priority="141">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8465,7 +8465,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK3:AK23 AK25:AK28 AN24">
-    <cfRule type="colorScale" priority="142">
+    <cfRule type="colorScale" priority="143">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8475,7 +8475,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI3:AI23 AI25:AI28 AL24">
-    <cfRule type="colorScale" priority="144">
+    <cfRule type="colorScale" priority="145">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8485,7 +8485,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH3:AM23 AH25:AM29 AK24:AP24">
-    <cfRule type="colorScale" priority="146">
+    <cfRule type="colorScale" priority="147">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8495,7 +8495,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN3:AP23 AN25:AP29 AQ24:AS24">
-    <cfRule type="colorScale" priority="148">
+    <cfRule type="colorScale" priority="149">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8505,7 +8505,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG6:AP23 AG25:AP30 AJ24:AS24">
-    <cfRule type="colorScale" priority="152">
+    <cfRule type="colorScale" priority="153">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8515,7 +8515,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG3:AP23 AG25:AP40 AJ24:AS24">
-    <cfRule type="colorScale" priority="156">
+    <cfRule type="colorScale" priority="157">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG3:AP40">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>

--- a/Data/彙整清單_整理版.xlsx
+++ b/Data/彙整清單_整理版.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hmlu\svnbox\Research\Python\Stock\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\svnbox\Python\Stock\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C736DC30-1284-4E29-B1C2-3B7C5B36DAF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{480AA417-A4B5-4533-B226-09245364008D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D923A086-913E-4840-96DC-7378B4FF8169}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D923A086-913E-4840-96DC-7378B4FF8169}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="553">
   <si>
     <t>公司名稱</t>
   </si>
@@ -1238,12 +1238,6 @@
     <t>漢平電子工業股份有限公司</t>
   </si>
   <si>
-    <t>👍    29.0 /    28.08 /    27.55 /    27.49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   548.0 /    235.5 /   140.93 /   107.59</t>
-  </si>
-  <si>
     <t>47.73  /  48.08  /  48.22  /  48.29  /  47.88</t>
   </si>
   <si>
@@ -1256,481 +1250,502 @@
     <t>9.0  /  9.0  /  9.0  /  9.0  /  9.0</t>
   </si>
   <si>
-    <t xml:space="preserve">9878 (30.159%) </t>
-  </si>
-  <si>
-    <t>🏆25.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    61.8 /    61.88 /    60.92 /    58.47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1665.0 /   1885.0 /  1839.75 /  1564.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    12.2 /     12.2 /     12.1 /    12.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.17 /      1.5 /     1.25 /     1.14</t>
-  </si>
-  <si>
-    <t>⚠️-28.16</t>
-  </si>
-  <si>
-    <t>👍    71.1 /    70.38 /    69.27 /    68.49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   227.0 /   231.12 /   161.73 /   189.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.86 /     1.83 /     1.84 /     1.91</t>
-  </si>
-  <si>
-    <t>👎   19.35 /    19.47 /    19.87 /     19.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1013.0 /   1858.6 /   2431.1 /  3280.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    13.9 /    13.98 /    14.04 /    13.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.36 /     0.36 /     0.68 /     0.48</t>
-  </si>
-  <si>
-    <t>⚠️-30.9</t>
-  </si>
-  <si>
-    <t>👎    28.7 /    28.96 /    30.42 /    32.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  4316.0 /   4542.0 /   6160.8 /  6866.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    36.7 /    36.78 /    37.66 /    39.38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.42 /     0.85 /     0.64 /     1.57</t>
-  </si>
-  <si>
-    <t>⚠️-31.0</t>
-  </si>
-  <si>
-    <t>👎   34.25 /     33.9 /    34.37 /    34.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2737.0 /   2185.8 /  3641.85 /  6201.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9.95 /     9.95 /    10.55 /    12.84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.57 /     0.53 /     0.81 /     1.32</t>
-  </si>
-  <si>
-    <t>🏆21.67</t>
-  </si>
-  <si>
-    <t>👎    35.6 /    35.82 /    36.34 /    37.45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2495.0 /   3557.6 /  6704.15 /  9081.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8.52 /     8.68 /     9.14 /    10.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.99 /     1.09 /     1.08 /      1.7</t>
-  </si>
-  <si>
-    <t>👍   21.45 /    21.34 /     21.3 /    21.74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2862.0 /   2202.2 /   2720.1 /  3617.43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9.12 /     9.12 /     9.05 /     9.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.82 /     0.81 /     0.88 /     0.96</t>
-  </si>
-  <si>
-    <t>👍    15.7 /    15.56 /    15.54 /    15.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   747.0 /    571.4 /   754.15 /   766.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.21 /     3.05 /     2.64 /      2.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.72 /     1.07 /     0.34 /     0.15</t>
-  </si>
-  <si>
-    <t>👎    52.3 /     51.9 /    54.98 /    60.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1071.0 /    806.6 /   1134.3 /   977.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7.56 /     7.41 /      7.6 /     8.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    12.2 /     11.5 /     8.37 /     3.73</t>
-  </si>
-  <si>
-    <t>👍    30.7 /    30.55 /    30.01 /    29.71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   734.0 /    890.6 /   575.35 /    563.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    10.6 /    10.58 /    10.36 /    10.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     0.8 /     0.86 /     0.97 /     1.41</t>
-  </si>
-  <si>
-    <t>🏆23.7</t>
-  </si>
-  <si>
-    <t>👎   20.75 /    20.96 /    21.22 /    22.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    61.0 /    52.42 /    79.48 /   359.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.39 /     1.39 /     1.39 /     1.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.25 /     0.25 /     0.22 /     1.19</t>
-  </si>
-  <si>
-    <t>⚠️-22.95</t>
-  </si>
-  <si>
-    <t>👎   30.65 /    30.68 /    31.33 /    31.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   221.0 /    365.6 /    324.1 /    653.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.94 /     2.98 /     3.19 /     3.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.57 /     0.56 /     0.47 /     0.61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">700W (49.18%) </t>
-  </si>
-  <si>
-    <t>👎   32.55 /     32.7 /     33.9 /    34.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   688.0 /   1773.6 /   1510.5 /  3884.62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     1.0 /     1.12 /     1.48 /     1.52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4.89 /     5.04 /     5.41 /     5.73</t>
-  </si>
-  <si>
-    <t>👍   25.45 /    25.16 /    24.54 /    24.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 22557.0 /  15329.8 /  12563.1 / 13720.43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    46.4 /    46.16 /    45.84 /     46.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.34 /     2.78 /     1.82 /     2.78</t>
-  </si>
-  <si>
-    <t>👍    69.3 /    68.18 /    66.78 /    61.48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  5571.0 /   4349.0 /   6717.6 /  7583.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    32.7 /    32.74 /    32.87 /     34.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8.45 /     8.46 /     8.96 /     5.87</t>
-  </si>
-  <si>
-    <t>👍    31.0 /    30.78 /    30.52 /    30.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  5563.0 /   4343.8 /   4857.4 /  7164.82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    20.2 /    20.06 /    19.97 /    21.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.18 /     1.19 /     1.09 /     1.43</t>
-  </si>
-  <si>
-    <t>👍    88.8 /    88.34 /    84.86 /    82.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2863.0 /   3074.6 /  2628.45 /  1968.37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    34.9 /     34.8 /    34.19 /    33.66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5.61 /      5.3 /     2.16 /      1.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    46.0 /     45.8 /    46.32 /     45.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   288.0 /    450.0 /   1202.1 /  1283.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.53 /     0.68 /     0.85 /     1.58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     0.1 /     0.15 /     0.11 /     0.77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   32.45 /    32.86 /     32.2 /    28.09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1877.0 /   2568.4 /  9090.15 /  3588.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     1.2 /     1.52 /     1.67 /     2.39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    31.2 /     33.6 /    29.11 /    16.97</t>
-  </si>
-  <si>
-    <t>👎   161.5 /    160.2 /   165.65 /    164.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1720.0 /   1445.4 /  2066.75 /  2606.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    21.5 /    21.56 /    21.96 /    21.97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    12.1 /    13.78 /    18.26 /    20.96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    50.4 /    50.28 /     51.0 /    49.49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   211.0 /    506.4 /   554.85 /   471.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     9.9 /    10.04 /    10.51 /    10.96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.93 /      0.9 /      0.7 /     0.49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.27 /     2.27 /     2.29 /     2.23</t>
-  </si>
-  <si>
-    <t>👎   36.25 /    36.39 /    37.17 /    37.99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   833.0 /   1162.0 /  1198.35 /  1627.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    20.3 /     20.4 /    20.65 /    21.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.37 /     1.06 /      0.8 /      0.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    50.9 /    51.14 /    49.96 /    49.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    75.9 /   173.78 /   150.31 /   139.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.69 /     3.71 /     3.69 /     3.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    79.4 /    80.06 /    76.89 /    75.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 16567.0 /  36067.6 /  23145.4 / 22960.87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    22.2 /    22.22 /    21.99 /    22.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.59 /     1.86 /     8.43 /    12.93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    54.7 /     54.5 /    54.82 /    54.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   796.0 /   1059.4 /   943.45 /   972.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    30.2 /    30.36 /    30.77 /    31.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.31 /     0.29 /     0.38 /     0.62</t>
-  </si>
-  <si>
-    <t>⚠️-21.47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    33.6 /    33.51 /     33.9 /    31.87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   399.0 /    568.6 /  1300.55 /  1459.77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8.17 /     8.21 /     8.55 /     7.92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.16 /     2.04 /     1.69 /     1.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    31.5 /    31.09 /    31.56 /    30.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  7029.0 /   3443.2 /   9816.2 / 11574.45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    10.8 /    10.86 /    11.45 /     10.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8.77 /     9.43 /      8.4 /     9.06</t>
-  </si>
-  <si>
-    <t>👍   128.0 /    125.5 /   123.72 /   121.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1557.0 /   1296.6 /   785.95 /   907.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    42.5 /     42.4 /     42.4 /    41.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     2.5 /      2.2 /      1.4 /     1.14</t>
-  </si>
-  <si>
-    <t>👍   33.65 /    33.49 /    32.76 /    32.46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1018.0 /    952.4 /    989.7 /    917.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6.42 /     6.23 /     6.21 /     6.81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.15 /     0.15 /     0.16 /     0.83</t>
-  </si>
-  <si>
-    <t>🏆25.16</t>
-  </si>
-  <si>
-    <t>👎   28.95 /    28.69 /     29.0 /    29.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   676.0 /    433.4 /    434.0 /   581.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     3.9 /     3.92 /     4.14 /     4.84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.22 /     0.38 /      0.3 /     0.31</t>
-  </si>
-  <si>
-    <t>👍   24.55 /    24.45 /    24.31 /    23.96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   617.0 /    868.8 /   1113.6 /  2022.53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5.65 /     5.67 /     5.79 /     6.59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.04 /     0.28 /     0.67 /     0.56</t>
-  </si>
-  <si>
-    <t>⚠️-12.31</t>
-  </si>
-  <si>
-    <t>👍    54.5 /    53.78 /    52.32 /     51.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  7870.0 /   6699.0 /  5190.85 /  4046.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    26.9 /    26.82 /    26.81 /    26.76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.49 /      0.6 /      0.4 /     0.52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   33.75 /    33.45 /    34.01 /    32.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  4545.0 /   4601.4 /   6919.6 /  11963.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    12.3 /    12.26 /    12.12 /    11.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.38 /     1.69 /     1.16 /     0.84</t>
-  </si>
-  <si>
-    <t>👍    59.7 /    58.68 /    58.64 /    59.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  7712.0 /   4321.6 /   2911.8 /   3675.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    23.8 /    23.08 /    23.49 /    24.83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.36 /      1.5 /     1.05 /     1.99</t>
-  </si>
-  <si>
-    <t>👍    50.7 /    49.95 /     49.3 /    46.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3753.0 /   3056.6 /  5476.45 /  4477.73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    24.1 /    23.94 /    23.86 /     22.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.12 /      1.4 /     1.15 /     0.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    48.8 /    49.69 /    48.46 /    47.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 15679.0 /  26080.8 /  11053.5 /  8363.62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    46.0 /    46.82 /    46.96 /    48.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.96 /     4.45 /     3.88 /     4.95</t>
-  </si>
-  <si>
-    <t>👍    48.4 /    48.08 /    48.14 /    47.71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1140.0 /    698.2 /   929.05 /    966.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    21.4 /    21.24 /    21.12 /    20.73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     0.2 /      0.2 /      0.2 /      0.2</t>
+    <t xml:space="preserve">    0.82 /     0.32 /     0.23 /     0.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    21.4 /    21.28 /    21.16 /    20.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   454.0 /    668.2 /    926.8 /   939.63</t>
+  </si>
+  <si>
+    <t>👍   48.25 /    48.13 /    48.17 /    47.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     4.1 /     4.48 /     3.87 /     4.98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    45.7 /    46.48 /    46.92 /    48.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  9349.0 /  23711.8 / 11075.95 /   8376.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    47.8 /    49.31 /    48.48 /    47.11</t>
+  </si>
+  <si>
+    <t>⚠️-21.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.92 /     1.29 /     1.17 /     0.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    23.7 /    23.86 /    23.88 /    22.53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3875.0 /   3301.2 /  5580.55 /  4479.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   49.75 /     49.9 /    49.41 /    46.53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.34 /     1.47 /     1.06 /     1.92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    23.8 /    23.32 /    23.48 /    24.79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2864.0 /   4578.8 /  3002.05 /  3644.47</t>
+  </si>
+  <si>
+    <t>👍    59.5 /    59.02 /    58.72 /     59.3</t>
+  </si>
+  <si>
+    <t>🏆23.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.93 /      1.9 /     1.21 /     0.87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    12.3 /    12.28 /    12.16 /     11.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3137.0 /   4544.4 /   6824.7 / 11974.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    33.5 /    33.47 /    33.99 /    32.43</t>
+  </si>
+  <si>
+    <t>🏆20.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.51 /     0.57 /      0.4 /     0.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    26.9 /    26.82 /    26.82 /    26.77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4140.0 /   5406.0 /  5169.65 /  4069.65</t>
+  </si>
+  <si>
+    <t>👍    54.4 /    53.94 /     52.5 /    51.54</t>
+  </si>
+  <si>
+    <t>⚠️-14.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.04 /     0.16 /     0.65 /     0.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5.67 /     5.65 /     5.79 /     6.59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   423.0 /    643.4 /  1108.15 /  2020.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    24.4 /    24.43 /    24.34 /    24.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.22 /     0.35 /     0.29 /      0.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.85 /      3.9 /     4.12 /     4.81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   428.0 /    417.8 /    443.4 /   570.77</t>
+  </si>
+  <si>
+    <t>👍   29.05 /    28.78 /     29.0 /    29.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.15 /     0.14 /     0.15 /     0.78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    6.44 /     6.29 /     6.21 /     6.79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   692.0 /    858.8 /   974.05 /    902.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    33.4 /    33.46 /    32.81 /    32.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7000 (33.333%) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.49 /     2.35 /     1.47 /     1.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    42.5 /    42.42 /    42.41 /    41.77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1012.0 /   1363.8 /   780.05 /    914.2</t>
+  </si>
+  <si>
+    <t>👍   127.5 /    126.1 /   124.05 /   121.38</t>
+  </si>
+  <si>
+    <t>⚠️-13.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    11.0 /     9.49 /     8.57 /     9.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    10.7 /    10.84 /    11.44 /     10.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3619.0 /   3618.0 /  9282.25 /  11467.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   30.95 /    31.08 /    31.54 /    30.12</t>
+  </si>
+  <si>
+    <t>⚠️-12.98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.24 /     2.13 /     1.74 /     1.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    8.18 /     8.19 /     8.51 /     7.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   385.0 /    546.0 /  1260.75 /  1444.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    33.4 /    33.47 /    33.89 /    31.95</t>
+  </si>
+  <si>
+    <t>⚠️-28.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.31 /     0.29 /     0.37 /     0.61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    30.2 /    30.28 /    30.73 /    31.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1485.0 /   1072.0 /    996.5 /   989.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    54.6 /    54.46 /    54.87 /     54.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.66 /     1.73 /     7.97 /    11.92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    22.2 /    22.22 /    22.01 /    22.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16199.0 /  31103.4 / 23311.95 / 22989.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    78.8 /    79.82 /    77.09 /    75.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     3.7 /      3.7 /     3.68 /     3.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    70.3 /   117.24 /   152.45 /    139.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    50.9 /    51.06 /    50.06 /    49.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.48 /     1.23 /     0.84 /     0.61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    20.3 /    20.36 /    20.61 /    21.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1274.0 /   1229.0 /   1188.9 /  1621.98</t>
+  </si>
+  <si>
+    <t>👎    36.4 /    36.31 /    37.11 /    37.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.23 /     2.26 /     2.28 /     2.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   229.0 /   273.02 /   141.88 /   110.09</t>
+  </si>
+  <si>
+    <t>👍    28.3 /    28.21 /    27.62 /    27.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.87 /     0.92 /      0.7 /     0.49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    9.85 /     9.95 /    10.47 /    10.94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   258.0 /    494.0 /   562.05 /    464.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    50.1 /     50.3 /    51.04 /    49.57</t>
+  </si>
+  <si>
+    <t>🏆22.79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    12.2 /    13.22 /    17.88 /     20.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    21.6 /    21.54 /    21.94 /    21.94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   970.0 /   1265.6 /   1824.1 /  2534.98</t>
+  </si>
+  <si>
+    <t>👎   163.0 /    160.6 /    165.4 /   164.88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    31.2 /    32.28 /    30.31 /    17.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.33 /     1.45 /     1.63 /     2.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3659.0 /   2396.0 /   9249.5 /  3640.28</t>
+  </si>
+  <si>
+    <t>👍    33.3 /    32.88 /    32.62 /    28.19</t>
+  </si>
+  <si>
+    <t>⚠️-17.72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     0.1 /     0.14 /     0.11 /     0.73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.53 /     0.63 /     0.84 /     1.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   513.0 /    426.4 /  1187.95 /  1286.62</t>
+  </si>
+  <si>
+    <t>👎   45.15 /    45.57 /    46.34 /    45.21</t>
+  </si>
+  <si>
+    <t>🏆20.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5.68 /     5.53 /     2.45 /     1.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    35.1 /    34.88 /    34.28 /    33.69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2980.0 /   2910.0 /  2654.25 /  1987.18</t>
+  </si>
+  <si>
+    <t>👍    89.9 /     88.6 /    85.28 /    82.39</t>
+  </si>
+  <si>
+    <t>🏆23.76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.19 /      1.2 /     1.09 /     1.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    20.2 /     20.1 /    19.99 /    20.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3867.0 /   4527.6 /   4903.4 /   7125.6</t>
+  </si>
+  <si>
+    <t>👍   30.95 /    30.82 /    30.57 /    30.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    9.12 /     8.71 /     9.07 /     5.93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    32.6 /     32.7 /    32.81 /    34.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3595.0 /   3762.6 /   5581.5 /  7599.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    68.0 /    68.26 /    66.94 /    61.72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.43 /     2.99 /     1.93 /     2.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    46.4 /    46.24 /    45.88 /    46.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14931.0 /  15760.2 / 12346.25 / 13795.23</t>
+  </si>
+  <si>
+    <t>👍   25.45 /    25.27 /    24.62 /    24.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.91 /     4.99 /     5.38 /     5.72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.97 /     1.05 /     1.43 /     1.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   468.0 /   1326.6 /   1394.6 /  3855.27</t>
+  </si>
+  <si>
+    <t>👎    32.2 /    32.58 /    33.71 /    34.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.55 /     0.56 /     0.48 /     0.59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.94 /     2.97 /     3.16 /     3.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   190.0 /    259.6 /   310.35 /   644.17</t>
+  </si>
+  <si>
+    <t>👎    30.5 /    30.65 /    31.25 /    31.34</t>
+  </si>
+  <si>
+    <t>⚠️-10.87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1163 (46.429%) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.25 /     0.25 /     0.22 /     1.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.38 /     1.39 /     1.39 /     1.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    46.0 /    45.22 /    75.98 /   350.63</t>
+  </si>
+  <si>
+    <t>👎   20.75 /    20.92 /    21.19 /    21.98</t>
+  </si>
+  <si>
+    <t>🏆20.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.83 /     0.82 /     0.96 /     1.38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    10.7 /    10.62 /    10.38 /    10.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   596.0 /    883.2 /   592.75 /   559.83</t>
+  </si>
+  <si>
+    <t>👍   30.75 /    30.66 /    30.08 /    29.73</t>
+  </si>
+  <si>
+    <t>⚠️-14.94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    14.3 /    12.06 /     8.83 /     3.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    7.54 /     7.45 /     7.59 /      8.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   576.0 /    805.0 /   1090.4 /   982.93</t>
+  </si>
+  <si>
+    <t>👎    51.7 /    51.76 /    54.68 /    60.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.97 /     1.64 /     0.49 /      0.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.25 /     3.13 /     2.71 /     2.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   380.0 /    571.8 /   759.05 /   732.02</t>
+  </si>
+  <si>
+    <t>👍    15.6 /    15.57 /    15.55 /    15.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.24 /      0.9 /     0.89 /     0.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    9.08 /     9.12 /     9.06 /     9.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3756.0 /   2690.2 /   2786.9 /  3598.28</t>
+  </si>
+  <si>
+    <t>👎   21.35 /    21.35 /    21.32 /    21.71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.74 /     0.98 /     1.06 /     1.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    8.33 /     8.56 /     9.07 /    10.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11613.0 /   5200.2 /  7139.25 /  8795.98</t>
+  </si>
+  <si>
+    <t>👎    35.7 /    35.74 /    36.29 /    37.38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.54 /     0.53 /      0.8 /     1.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    9.95 /     9.92 /    10.49 /    12.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  5242.0 /   2808.4 /   3703.5 /  6086.38</t>
+  </si>
+  <si>
+    <t>👎    34.2 /    33.99 /    34.38 /     34.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.77 /     0.74 /     0.65 /     1.49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    36.5 /    36.72 /    37.56 /     39.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10496.0 /   5790.8 /   6487.5 /  6711.65</t>
+  </si>
+  <si>
+    <t>👎   28.65 /    28.87 /     30.3 /    32.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.36 /     0.37 /     0.66 /     0.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    13.9 /    13.96 /    14.05 /    13.59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3113.0 /   1815.8 /  2436.95 /  3264.63</t>
+  </si>
+  <si>
+    <t>👎   19.35 /    19.44 /    19.83 /    19.71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.87 /     1.84 /     1.84 /     1.91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   159.0 /    243.4 /   166.33 /   186.74</t>
+  </si>
+  <si>
+    <t>👍    70.8 /    70.58 /     69.4 /    68.54</t>
+  </si>
+  <si>
+    <t>⚠️-23.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.74 /     1.76 /     1.34 /     1.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    12.3 /    12.22 /    12.12 /    12.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1838.0 /   1972.8 /  1895.25 /  1572.93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    61.5 /    61.88 /    61.09 /    58.56</t>
   </si>
 </sst>
 </file>
@@ -2388,13 +2403,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2755,10 +2770,10 @@
   <dimension ref="A1:AZ40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AD3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="E18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AK10" sqref="AK10"/>
+      <selection pane="bottomRight" activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2794,7 +2809,7 @@
       <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="11" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="10" t="s">
@@ -2824,13 +2839,13 @@
       <c r="M1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="12" t="s">
         <v>380</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="12" t="s">
         <v>230</v>
       </c>
       <c r="Q1" s="10" t="s">
@@ -2847,16 +2862,16 @@
       <c r="Z1" s="10"/>
       <c r="AA1" s="3"/>
       <c r="AB1" s="3"/>
-      <c r="AC1" s="12" t="s">
+      <c r="AC1" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="AD1" s="12" t="s">
+      <c r="AD1" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="AE1" s="12" t="s">
+      <c r="AE1" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="AF1" s="12" t="s">
+      <c r="AF1" s="13" t="s">
         <v>176</v>
       </c>
       <c r="AG1" s="10" t="s">
@@ -2901,7 +2916,7 @@
       <c r="A2" s="9"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
-      <c r="D2" s="13"/>
+      <c r="D2" s="11"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -2919,9 +2934,9 @@
       <c r="M2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
       <c r="Q2" s="5" t="s">
         <v>41</v>
       </c>
@@ -2958,10 +2973,10 @@
       <c r="AB2" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="AC2" s="12"/>
-      <c r="AD2" s="12"/>
-      <c r="AE2" s="12"/>
-      <c r="AF2" s="12"/>
+      <c r="AC2" s="13"/>
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="13"/>
+      <c r="AF2" s="13"/>
       <c r="AG2" s="10"/>
       <c r="AH2" s="9"/>
       <c r="AI2" s="10"/>
@@ -3010,32 +3025,32 @@
         <v>19760719</v>
       </c>
       <c r="G3">
-        <v>4.37</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="H3">
-        <v>17.559999999999999</v>
+        <v>17.47</v>
       </c>
       <c r="I3">
-        <v>2.23</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="J3" t="s">
-        <v>391</v>
+        <v>552</v>
       </c>
       <c r="K3" t="s">
-        <v>392</v>
+        <v>551</v>
       </c>
       <c r="L3" t="s">
-        <v>393</v>
+        <v>550</v>
       </c>
       <c r="M3" t="s">
-        <v>394</v>
+        <v>549</v>
       </c>
       <c r="N3">
-        <v>0.22</v>
+        <v>0.32</v>
       </c>
       <c r="O3"/>
       <c r="P3" t="s">
-        <v>395</v>
+        <v>548</v>
       </c>
       <c r="Q3">
         <v>11</v>
@@ -3151,32 +3166,32 @@
         <v>19951102</v>
       </c>
       <c r="G4">
-        <v>3.66</v>
+        <v>3.67</v>
       </c>
       <c r="H4">
-        <v>18.05</v>
+        <v>17.97</v>
       </c>
       <c r="I4">
-        <v>3.34</v>
+        <v>3.32</v>
       </c>
       <c r="J4" t="s">
-        <v>396</v>
+        <v>547</v>
       </c>
       <c r="K4" t="s">
-        <v>397</v>
+        <v>546</v>
       </c>
       <c r="L4" t="s">
-        <v>398</v>
+        <v>545</v>
       </c>
       <c r="M4" t="s">
         <v>156</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="O4"/>
       <c r="P4">
-        <v>-0.44</v>
+        <v>-6.19</v>
       </c>
       <c r="Q4">
         <v>11</v>
@@ -3301,23 +3316,23 @@
         <v>0.91</v>
       </c>
       <c r="J5" t="s">
-        <v>399</v>
+        <v>544</v>
       </c>
       <c r="K5" t="s">
-        <v>400</v>
+        <v>543</v>
       </c>
       <c r="L5" t="s">
-        <v>401</v>
+        <v>542</v>
       </c>
       <c r="M5" t="s">
-        <v>402</v>
+        <v>541</v>
       </c>
       <c r="N5">
-        <v>0.41</v>
+        <v>1.35</v>
       </c>
       <c r="O5"/>
-      <c r="P5" t="s">
-        <v>403</v>
+      <c r="P5">
+        <v>-7.26</v>
       </c>
       <c r="Q5">
         <v>9</v>
@@ -3433,32 +3448,32 @@
         <v>19720520</v>
       </c>
       <c r="G6">
-        <v>3.48</v>
+        <v>3.49</v>
       </c>
       <c r="H6">
-        <v>6.28</v>
+        <v>6.27</v>
       </c>
       <c r="I6">
         <v>1.28</v>
       </c>
       <c r="J6" t="s">
-        <v>404</v>
+        <v>540</v>
       </c>
       <c r="K6" t="s">
-        <v>405</v>
+        <v>539</v>
       </c>
       <c r="L6" t="s">
-        <v>406</v>
+        <v>538</v>
       </c>
       <c r="M6" t="s">
-        <v>407</v>
+        <v>537</v>
       </c>
       <c r="N6">
-        <v>0.28000000000000003</v>
+        <v>1.23</v>
       </c>
       <c r="O6"/>
-      <c r="P6" t="s">
-        <v>408</v>
+      <c r="P6">
+        <v>-6.81</v>
       </c>
       <c r="Q6">
         <v>10</v>
@@ -3574,32 +3589,32 @@
         <v>19730305</v>
       </c>
       <c r="G7">
-        <v>6.72</v>
+        <v>6.73</v>
       </c>
       <c r="H7">
-        <v>6.89</v>
+        <v>6.88</v>
       </c>
       <c r="I7">
         <v>1.87</v>
       </c>
       <c r="J7" t="s">
-        <v>409</v>
+        <v>536</v>
       </c>
       <c r="K7" t="s">
-        <v>410</v>
+        <v>535</v>
       </c>
       <c r="L7" t="s">
-        <v>411</v>
+        <v>534</v>
       </c>
       <c r="M7" t="s">
-        <v>412</v>
-      </c>
-      <c r="N7" s="8">
-        <v>0.74</v>
-      </c>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8" t="s">
-        <v>413</v>
+        <v>533</v>
+      </c>
+      <c r="N7">
+        <v>1.05</v>
+      </c>
+      <c r="O7"/>
+      <c r="P7">
+        <v>4.29</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -3715,32 +3730,32 @@
         <v>19860620</v>
       </c>
       <c r="G8">
-        <v>3.93</v>
+        <v>3.92</v>
       </c>
       <c r="H8">
-        <v>7.82</v>
+        <v>7.85</v>
       </c>
       <c r="I8">
         <v>1.4</v>
       </c>
       <c r="J8" t="s">
-        <v>414</v>
+        <v>532</v>
       </c>
       <c r="K8" t="s">
-        <v>415</v>
+        <v>531</v>
       </c>
       <c r="L8" t="s">
-        <v>416</v>
+        <v>530</v>
       </c>
       <c r="M8" t="s">
-        <v>417</v>
+        <v>529</v>
       </c>
       <c r="N8">
-        <v>0.76</v>
+        <v>0.92</v>
       </c>
       <c r="O8"/>
       <c r="P8">
-        <v>6.93</v>
+        <v>-1.88</v>
       </c>
       <c r="Q8">
         <v>11</v>
@@ -3856,32 +3871,32 @@
         <v>19890327</v>
       </c>
       <c r="G9">
-        <v>4.66</v>
+        <v>4.68</v>
       </c>
       <c r="H9">
-        <v>6.54</v>
+        <v>6.51</v>
       </c>
       <c r="I9">
         <v>0.96</v>
       </c>
       <c r="J9" t="s">
-        <v>418</v>
+        <v>528</v>
       </c>
       <c r="K9" t="s">
-        <v>419</v>
+        <v>527</v>
       </c>
       <c r="L9" t="s">
-        <v>420</v>
+        <v>526</v>
       </c>
       <c r="M9" t="s">
-        <v>421</v>
+        <v>525</v>
       </c>
       <c r="N9">
-        <v>0.7</v>
+        <v>1.24</v>
       </c>
       <c r="O9"/>
       <c r="P9">
-        <v>12.3</v>
+        <v>-0.21</v>
       </c>
       <c r="Q9">
         <v>13</v>
@@ -3997,32 +4012,32 @@
         <v>20001031</v>
       </c>
       <c r="G10">
-        <v>2.5499999999999998</v>
+        <v>2.56</v>
       </c>
       <c r="H10">
-        <v>11.13</v>
+        <v>11.06</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="J10" t="s">
-        <v>422</v>
+        <v>524</v>
       </c>
       <c r="K10" t="s">
-        <v>423</v>
+        <v>523</v>
       </c>
       <c r="L10" t="s">
-        <v>424</v>
+        <v>522</v>
       </c>
       <c r="M10" t="s">
-        <v>425</v>
+        <v>521</v>
       </c>
       <c r="N10">
-        <v>0.55000000000000004</v>
+        <v>1.41</v>
       </c>
       <c r="O10"/>
       <c r="P10">
-        <v>-0.27</v>
+        <v>-3.15</v>
       </c>
       <c r="Q10">
         <v>13</v>
@@ -4138,32 +4153,32 @@
         <v>19950204</v>
       </c>
       <c r="G11">
-        <v>6.88</v>
+        <v>6.96</v>
       </c>
       <c r="H11">
-        <v>8.24</v>
+        <v>8.14</v>
       </c>
       <c r="I11">
-        <v>2.44</v>
+        <v>2.41</v>
       </c>
       <c r="J11" t="s">
-        <v>426</v>
+        <v>520</v>
       </c>
       <c r="K11" t="s">
-        <v>427</v>
+        <v>519</v>
       </c>
       <c r="L11" t="s">
-        <v>428</v>
+        <v>518</v>
       </c>
       <c r="M11" t="s">
-        <v>429</v>
+        <v>517</v>
       </c>
       <c r="N11">
-        <v>0.79</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="O11"/>
-      <c r="P11">
-        <v>-1.45</v>
+      <c r="P11" t="s">
+        <v>516</v>
       </c>
       <c r="Q11">
         <v>12</v>
@@ -4279,32 +4294,32 @@
         <v>19701214</v>
       </c>
       <c r="G12">
-        <v>8.14</v>
+        <v>8.1300000000000008</v>
       </c>
       <c r="H12">
-        <v>6.63</v>
+        <v>6.64</v>
       </c>
       <c r="I12">
         <v>1.35</v>
       </c>
       <c r="J12" t="s">
-        <v>430</v>
+        <v>515</v>
       </c>
       <c r="K12" t="s">
-        <v>431</v>
+        <v>514</v>
       </c>
       <c r="L12" t="s">
-        <v>432</v>
+        <v>513</v>
       </c>
       <c r="M12" t="s">
-        <v>433</v>
+        <v>512</v>
       </c>
       <c r="N12" s="8">
-        <v>1.25</v>
+        <v>2.25</v>
       </c>
       <c r="O12" s="8"/>
       <c r="P12" s="8" t="s">
-        <v>434</v>
+        <v>511</v>
       </c>
       <c r="Q12">
         <v>7</v>
@@ -4429,23 +4444,25 @@
         <v>1.38</v>
       </c>
       <c r="J13" t="s">
-        <v>435</v>
+        <v>510</v>
       </c>
       <c r="K13" t="s">
-        <v>436</v>
+        <v>509</v>
       </c>
       <c r="L13" t="s">
-        <v>437</v>
+        <v>508</v>
       </c>
       <c r="M13" t="s">
-        <v>438</v>
+        <v>507</v>
       </c>
       <c r="N13">
-        <v>0.67</v>
-      </c>
-      <c r="O13"/>
+        <v>0.68</v>
+      </c>
+      <c r="O13" t="s">
+        <v>506</v>
+      </c>
       <c r="P13" t="s">
-        <v>439</v>
+        <v>505</v>
       </c>
       <c r="Q13">
         <v>12</v>
@@ -4561,34 +4578,32 @@
         <v>19930427</v>
       </c>
       <c r="G14">
-        <v>5.55</v>
+        <v>5.57</v>
       </c>
       <c r="H14">
-        <v>8.61</v>
+        <v>8.57</v>
       </c>
       <c r="I14">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="J14" t="s">
-        <v>440</v>
+        <v>504</v>
       </c>
       <c r="K14" t="s">
-        <v>441</v>
+        <v>503</v>
       </c>
       <c r="L14" t="s">
-        <v>442</v>
+        <v>502</v>
       </c>
       <c r="M14" t="s">
-        <v>443</v>
-      </c>
-      <c r="N14" s="8">
-        <v>2.4</v>
-      </c>
-      <c r="O14" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="P14" s="8">
-        <v>15.36</v>
+        <v>501</v>
+      </c>
+      <c r="N14">
+        <v>1.77</v>
+      </c>
+      <c r="O14"/>
+      <c r="P14">
+        <v>3.16</v>
       </c>
       <c r="Q14">
         <v>12</v>
@@ -4704,32 +4719,32 @@
         <v>20160322</v>
       </c>
       <c r="G15">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="H15">
-        <v>8.4499999999999993</v>
+        <v>8.36</v>
       </c>
       <c r="I15">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="J15" t="s">
-        <v>445</v>
+        <v>500</v>
       </c>
       <c r="K15" t="s">
-        <v>446</v>
+        <v>499</v>
       </c>
       <c r="L15" t="s">
-        <v>447</v>
+        <v>498</v>
       </c>
       <c r="M15" t="s">
-        <v>448</v>
+        <v>497</v>
       </c>
       <c r="N15">
-        <v>1.68</v>
+        <v>1.8</v>
       </c>
       <c r="O15"/>
       <c r="P15">
-        <v>2.4700000000000002</v>
+        <v>8.9700000000000006</v>
       </c>
       <c r="Q15">
         <v>10</v>
@@ -4854,23 +4869,23 @@
         <v>1.03</v>
       </c>
       <c r="J16" t="s">
-        <v>449</v>
+        <v>496</v>
       </c>
       <c r="K16" t="s">
-        <v>450</v>
+        <v>495</v>
       </c>
       <c r="L16" t="s">
-        <v>451</v>
+        <v>494</v>
       </c>
       <c r="M16" t="s">
-        <v>452</v>
+        <v>493</v>
       </c>
       <c r="N16">
-        <v>1.88</v>
+        <v>1.66</v>
       </c>
       <c r="O16"/>
       <c r="P16">
-        <v>12.06</v>
+        <v>2.86</v>
       </c>
       <c r="Q16">
         <v>9</v>
@@ -4986,32 +5001,32 @@
         <v>19951213</v>
       </c>
       <c r="G17">
-        <v>4.76</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="H17">
-        <v>6.92</v>
+        <v>6.79</v>
       </c>
       <c r="I17">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="J17" t="s">
-        <v>453</v>
+        <v>492</v>
       </c>
       <c r="K17" t="s">
-        <v>454</v>
+        <v>491</v>
       </c>
       <c r="L17" t="s">
-        <v>455</v>
+        <v>490</v>
       </c>
       <c r="M17" t="s">
-        <v>456</v>
+        <v>489</v>
       </c>
       <c r="N17">
-        <v>1.23</v>
+        <v>0.44</v>
       </c>
       <c r="O17"/>
       <c r="P17">
-        <v>3.59</v>
+        <v>-4.0599999999999996</v>
       </c>
       <c r="Q17">
         <v>9</v>
@@ -5127,32 +5142,32 @@
         <v>19960722</v>
       </c>
       <c r="G18">
-        <v>4.84</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="H18">
-        <v>6.72</v>
+        <v>6.71</v>
       </c>
       <c r="I18">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="J18" t="s">
-        <v>457</v>
+        <v>488</v>
       </c>
       <c r="K18" t="s">
-        <v>458</v>
+        <v>487</v>
       </c>
       <c r="L18" t="s">
-        <v>459</v>
+        <v>486</v>
       </c>
       <c r="M18" t="s">
-        <v>460</v>
-      </c>
-      <c r="N18">
-        <v>1.67</v>
-      </c>
-      <c r="O18"/>
-      <c r="P18">
-        <v>9.02</v>
+        <v>485</v>
+      </c>
+      <c r="N18" s="8">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8" t="s">
+        <v>484</v>
       </c>
       <c r="Q18">
         <v>8</v>
@@ -5268,32 +5283,32 @@
         <v>19990105</v>
       </c>
       <c r="G19">
-        <v>6.19</v>
+        <v>6.12</v>
       </c>
       <c r="H19">
-        <v>10.95</v>
+        <v>11.09</v>
       </c>
       <c r="I19">
-        <v>2.2200000000000002</v>
+        <v>2.25</v>
       </c>
       <c r="J19" t="s">
-        <v>461</v>
+        <v>483</v>
       </c>
       <c r="K19" t="s">
-        <v>462</v>
+        <v>482</v>
       </c>
       <c r="L19" t="s">
-        <v>463</v>
+        <v>481</v>
       </c>
       <c r="M19" t="s">
-        <v>464</v>
-      </c>
-      <c r="N19">
-        <v>2.68</v>
-      </c>
-      <c r="O19"/>
-      <c r="P19">
-        <v>12.7</v>
+        <v>480</v>
+      </c>
+      <c r="N19" s="8">
+        <v>2</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8" t="s">
+        <v>479</v>
       </c>
       <c r="Q19">
         <v>10</v>
@@ -5409,32 +5424,32 @@
         <v>19990125</v>
       </c>
       <c r="G20">
-        <v>4.3499999999999996</v>
+        <v>4.43</v>
       </c>
       <c r="H20">
-        <v>7.2</v>
+        <v>7.07</v>
       </c>
       <c r="I20">
-        <v>1.1399999999999999</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="J20" t="s">
-        <v>465</v>
+        <v>478</v>
       </c>
       <c r="K20" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="L20" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="M20" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="N20">
-        <v>1.1399999999999999</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="O20"/>
-      <c r="P20">
-        <v>10.07</v>
+      <c r="P20" t="s">
+        <v>474</v>
       </c>
       <c r="Q20">
         <v>10</v>
@@ -5550,32 +5565,32 @@
         <v>20000911</v>
       </c>
       <c r="G21">
-        <v>6.16</v>
+        <v>6.01</v>
       </c>
       <c r="H21">
-        <v>12.02</v>
+        <v>12.33</v>
       </c>
       <c r="I21">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="J21" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="K21" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="L21" t="s">
         <v>471</v>
       </c>
       <c r="M21" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="N21">
-        <v>1.42</v>
+        <v>1.52</v>
       </c>
       <c r="O21"/>
       <c r="P21">
-        <v>7.82</v>
+        <v>2.54</v>
       </c>
       <c r="Q21">
         <v>13</v>
@@ -5691,32 +5706,32 @@
         <v>20010917</v>
       </c>
       <c r="G22">
-        <v>5.57</v>
+        <v>5.52</v>
       </c>
       <c r="H22">
-        <v>9.25</v>
+        <v>9.34</v>
       </c>
       <c r="I22">
-        <v>4.84</v>
+        <v>4.88</v>
       </c>
       <c r="J22" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="K22" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="L22" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="M22" t="s">
-        <v>476</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22"/>
-      <c r="P22">
-        <v>-2.19</v>
+        <v>466</v>
+      </c>
+      <c r="N22" s="8">
+        <v>1.75</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8" t="s">
+        <v>465</v>
       </c>
       <c r="Q22">
         <v>12</v>
@@ -5832,32 +5847,32 @@
         <v>20010917</v>
       </c>
       <c r="G23">
-        <v>5.38</v>
+        <v>5.41</v>
       </c>
       <c r="H23">
-        <v>12.09</v>
+        <v>12.01</v>
       </c>
       <c r="I23">
-        <v>2.95</v>
+        <v>2.93</v>
       </c>
       <c r="J23" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="K23" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="L23" t="s">
-        <v>479</v>
+        <v>462</v>
       </c>
       <c r="M23" t="s">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="N23">
-        <v>0.53</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="O23"/>
       <c r="P23">
-        <v>-7.57</v>
+        <v>-3.88</v>
       </c>
       <c r="Q23">
         <v>11</v>
@@ -5973,34 +5988,32 @@
         <v>20010917</v>
       </c>
       <c r="G24">
-        <v>5.17</v>
+        <v>5.3</v>
       </c>
       <c r="H24">
-        <v>15.68</v>
+        <v>15.3</v>
       </c>
       <c r="I24">
-        <v>1.1499999999999999</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="J24" t="s">
-        <v>383</v>
+        <v>460</v>
       </c>
       <c r="K24" t="s">
-        <v>384</v>
+        <v>459</v>
       </c>
       <c r="L24" t="s">
-        <v>481</v>
+        <v>458</v>
       </c>
       <c r="M24" t="s">
         <v>156</v>
       </c>
-      <c r="N24" s="8">
-        <v>1.64</v>
-      </c>
-      <c r="O24" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="P24" s="8" t="s">
-        <v>390</v>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24"/>
+      <c r="P24">
+        <v>-5.61</v>
       </c>
       <c r="Q24">
         <v>7</v>
@@ -6039,16 +6052,16 @@
         <v>27.75</v>
       </c>
       <c r="AC24" t="s">
+        <v>383</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>384</v>
+      </c>
+      <c r="AE24" t="s">
         <v>385</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AF24" t="s">
         <v>386</v>
-      </c>
-      <c r="AE24" t="s">
-        <v>387</v>
-      </c>
-      <c r="AF24" t="s">
-        <v>388</v>
       </c>
       <c r="AG24">
         <v>16.18</v>
@@ -6116,32 +6129,32 @@
         <v>19931027</v>
       </c>
       <c r="G25">
-        <v>9.3800000000000008</v>
+        <v>9.34</v>
       </c>
       <c r="H25">
-        <v>4.26</v>
+        <v>4.28</v>
       </c>
       <c r="I25">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="J25" t="s">
-        <v>482</v>
+        <v>457</v>
       </c>
       <c r="K25" t="s">
-        <v>483</v>
+        <v>456</v>
       </c>
       <c r="L25" t="s">
-        <v>484</v>
+        <v>455</v>
       </c>
       <c r="M25" t="s">
-        <v>485</v>
+        <v>454</v>
       </c>
       <c r="N25">
-        <v>1.0900000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="O25"/>
       <c r="P25">
-        <v>-6.47</v>
+        <v>-6.91</v>
       </c>
       <c r="Q25">
         <v>7</v>
@@ -6266,23 +6279,23 @@
         <v>1.61</v>
       </c>
       <c r="J26" t="s">
-        <v>486</v>
+        <v>453</v>
       </c>
       <c r="K26" t="s">
-        <v>487</v>
+        <v>452</v>
       </c>
       <c r="L26" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="M26" t="s">
         <v>156</v>
       </c>
       <c r="N26">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="O26"/>
       <c r="P26">
-        <v>3.82</v>
+        <v>4.54</v>
       </c>
       <c r="Q26">
         <v>7</v>
@@ -6398,32 +6411,32 @@
         <v>20011219</v>
       </c>
       <c r="G27">
-        <v>3.78</v>
+        <v>3.81</v>
       </c>
       <c r="H27">
-        <v>6.54</v>
+        <v>6.49</v>
       </c>
       <c r="I27">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="J27" t="s">
-        <v>489</v>
+        <v>450</v>
       </c>
       <c r="K27" t="s">
-        <v>490</v>
+        <v>449</v>
       </c>
       <c r="L27" t="s">
-        <v>491</v>
+        <v>448</v>
       </c>
       <c r="M27" t="s">
-        <v>492</v>
+        <v>447</v>
       </c>
       <c r="N27">
-        <v>1.92</v>
+        <v>0.79</v>
       </c>
       <c r="O27"/>
       <c r="P27">
-        <v>5.94</v>
+        <v>4.24</v>
       </c>
       <c r="Q27">
         <v>7</v>
@@ -6539,32 +6552,32 @@
         <v>20020225</v>
       </c>
       <c r="G28">
-        <v>6.56</v>
+        <v>6.58</v>
       </c>
       <c r="H28">
-        <v>7.53</v>
+        <v>7.52</v>
       </c>
       <c r="I28">
         <v>1.9</v>
       </c>
       <c r="J28" t="s">
-        <v>493</v>
+        <v>446</v>
       </c>
       <c r="K28" t="s">
-        <v>494</v>
+        <v>445</v>
       </c>
       <c r="L28" t="s">
-        <v>495</v>
+        <v>444</v>
       </c>
       <c r="M28" t="s">
-        <v>496</v>
+        <v>443</v>
       </c>
       <c r="N28">
-        <v>0.38</v>
+        <v>0.47</v>
       </c>
       <c r="O28"/>
       <c r="P28" t="s">
-        <v>497</v>
+        <v>442</v>
       </c>
       <c r="Q28">
         <v>10</v>
@@ -6680,32 +6693,32 @@
         <v>20020826</v>
       </c>
       <c r="G29">
-        <v>5.65</v>
+        <v>5.69</v>
       </c>
       <c r="H29">
-        <v>8.66</v>
+        <v>8.61</v>
       </c>
       <c r="I29">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="J29" t="s">
-        <v>498</v>
+        <v>441</v>
       </c>
       <c r="K29" t="s">
-        <v>499</v>
+        <v>440</v>
       </c>
       <c r="L29" t="s">
-        <v>500</v>
+        <v>439</v>
       </c>
       <c r="M29" t="s">
-        <v>501</v>
+        <v>438</v>
       </c>
       <c r="N29">
-        <v>0.89</v>
+        <v>0.64</v>
       </c>
       <c r="O29"/>
-      <c r="P29">
-        <v>-5.01</v>
+      <c r="P29" t="s">
+        <v>437</v>
       </c>
       <c r="Q29">
         <v>10</v>
@@ -6824,31 +6837,31 @@
         <v>20020826</v>
       </c>
       <c r="G30">
-        <v>4.22</v>
+        <v>4.3</v>
       </c>
       <c r="H30">
-        <v>8.77</v>
+        <v>8.6199999999999992</v>
       </c>
       <c r="I30">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="J30" t="s">
-        <v>502</v>
+        <v>436</v>
       </c>
       <c r="K30" t="s">
-        <v>503</v>
+        <v>435</v>
       </c>
       <c r="L30" t="s">
-        <v>504</v>
+        <v>434</v>
       </c>
       <c r="M30" t="s">
-        <v>505</v>
+        <v>433</v>
       </c>
       <c r="N30">
-        <v>0.72</v>
-      </c>
-      <c r="P30">
-        <v>-3.04</v>
+        <v>0.42</v>
+      </c>
+      <c r="P30" t="s">
+        <v>432</v>
       </c>
       <c r="Q30">
         <v>9</v>
@@ -6964,31 +6977,34 @@
         <v>20020826</v>
       </c>
       <c r="G31">
-        <v>5.74</v>
+        <v>5.76</v>
       </c>
       <c r="H31">
-        <v>10.91</v>
+        <v>10.87</v>
       </c>
       <c r="I31">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="J31" t="s">
-        <v>506</v>
+        <v>431</v>
       </c>
       <c r="K31" t="s">
-        <v>507</v>
+        <v>430</v>
       </c>
       <c r="L31" t="s">
-        <v>508</v>
+        <v>429</v>
       </c>
       <c r="M31" t="s">
-        <v>509</v>
-      </c>
-      <c r="N31">
-        <v>1.32</v>
-      </c>
-      <c r="P31">
-        <v>1.59</v>
+        <v>428</v>
+      </c>
+      <c r="N31" s="8">
+        <v>1.95</v>
+      </c>
+      <c r="O31" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="P31" s="8">
+        <v>5.14</v>
       </c>
       <c r="Q31">
         <v>8</v>
@@ -7104,32 +7120,31 @@
         <v>20021001</v>
       </c>
       <c r="G32">
-        <v>8.6199999999999992</v>
+        <v>8.68</v>
       </c>
       <c r="H32">
-        <v>7.84</v>
+        <v>7.79</v>
       </c>
       <c r="I32">
-        <v>2.0699999999999998</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="J32" t="s">
-        <v>510</v>
+        <v>426</v>
       </c>
       <c r="K32" t="s">
-        <v>511</v>
+        <v>425</v>
       </c>
       <c r="L32" t="s">
-        <v>512</v>
+        <v>424</v>
       </c>
       <c r="M32" t="s">
-        <v>513</v>
-      </c>
-      <c r="N32" s="8">
-        <v>2.61</v>
-      </c>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8" t="s">
-        <v>514</v>
+        <v>423</v>
+      </c>
+      <c r="N32">
+        <v>0.65</v>
+      </c>
+      <c r="P32">
+        <v>-4.7699999999999996</v>
       </c>
       <c r="Q32">
         <v>8</v>
@@ -7245,31 +7260,31 @@
         <v>20081126</v>
       </c>
       <c r="G33">
-        <v>6.91</v>
+        <v>6.88</v>
       </c>
       <c r="H33">
-        <v>8.11</v>
+        <v>8.14</v>
       </c>
       <c r="I33">
         <v>1.66</v>
       </c>
       <c r="J33" t="s">
-        <v>515</v>
+        <v>422</v>
       </c>
       <c r="K33" t="s">
-        <v>516</v>
+        <v>421</v>
       </c>
       <c r="L33" t="s">
-        <v>517</v>
+        <v>420</v>
       </c>
       <c r="M33" t="s">
-        <v>518</v>
+        <v>419</v>
       </c>
       <c r="N33">
-        <v>0.65</v>
+        <v>1.39</v>
       </c>
       <c r="P33">
-        <v>-4.88</v>
+        <v>8.8800000000000008</v>
       </c>
       <c r="Q33">
         <v>9</v>
@@ -7385,31 +7400,31 @@
         <v>20101229</v>
       </c>
       <c r="G34">
-        <v>4.07</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="H34">
-        <v>7.82</v>
+        <v>7.77</v>
       </c>
       <c r="I34">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="J34" t="s">
-        <v>519</v>
+        <v>418</v>
       </c>
       <c r="K34" t="s">
-        <v>520</v>
+        <v>417</v>
       </c>
       <c r="L34" t="s">
-        <v>521</v>
+        <v>416</v>
       </c>
       <c r="M34" t="s">
-        <v>522</v>
+        <v>415</v>
       </c>
       <c r="N34">
-        <v>0.46</v>
+        <v>0.79</v>
       </c>
       <c r="P34" t="s">
-        <v>523</v>
+        <v>414</v>
       </c>
       <c r="Q34">
         <v>15</v>
@@ -7525,31 +7540,32 @@
         <v>20051109</v>
       </c>
       <c r="G35">
-        <v>5.69</v>
+        <v>5.7</v>
       </c>
       <c r="H35">
-        <v>9.41</v>
+        <v>9.4</v>
       </c>
       <c r="I35">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="J35" t="s">
-        <v>524</v>
+        <v>413</v>
       </c>
       <c r="K35" t="s">
-        <v>525</v>
+        <v>412</v>
       </c>
       <c r="L35" t="s">
-        <v>526</v>
+        <v>411</v>
       </c>
       <c r="M35" t="s">
-        <v>527</v>
-      </c>
-      <c r="N35">
-        <v>0.63</v>
-      </c>
-      <c r="P35">
-        <v>0.43</v>
+        <v>410</v>
+      </c>
+      <c r="N35" s="8">
+        <v>1.18</v>
+      </c>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8" t="s">
+        <v>409</v>
       </c>
       <c r="Q35">
         <v>9</v>
@@ -7665,31 +7681,32 @@
         <v>20130912</v>
       </c>
       <c r="G36">
-        <v>2.96</v>
+        <v>2.99</v>
       </c>
       <c r="H36">
-        <v>3.27</v>
+        <v>3.25</v>
       </c>
       <c r="I36">
-        <v>0.82</v>
+        <v>0.81</v>
       </c>
       <c r="J36" t="s">
-        <v>528</v>
+        <v>408</v>
       </c>
       <c r="K36" t="s">
-        <v>529</v>
+        <v>407</v>
       </c>
       <c r="L36" t="s">
-        <v>530</v>
+        <v>406</v>
       </c>
       <c r="M36" t="s">
-        <v>531</v>
-      </c>
-      <c r="N36">
-        <v>1.69</v>
-      </c>
-      <c r="P36">
-        <v>11.58</v>
+        <v>405</v>
+      </c>
+      <c r="N36" s="8">
+        <v>1.86</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8" t="s">
+        <v>404</v>
       </c>
       <c r="Q36">
         <v>8</v>
@@ -7805,31 +7822,31 @@
         <v>20030825</v>
       </c>
       <c r="G37">
-        <v>4.8099999999999996</v>
+        <v>4.82</v>
       </c>
       <c r="H37">
-        <v>10.4</v>
+        <v>10.37</v>
       </c>
       <c r="I37">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="J37" t="s">
-        <v>532</v>
+        <v>403</v>
       </c>
       <c r="K37" t="s">
-        <v>533</v>
+        <v>402</v>
       </c>
       <c r="L37" t="s">
-        <v>534</v>
+        <v>401</v>
       </c>
       <c r="M37" t="s">
-        <v>535</v>
+        <v>400</v>
       </c>
       <c r="N37">
-        <v>0.82</v>
+        <v>1.2</v>
       </c>
       <c r="P37">
-        <v>5.74</v>
+        <v>-0.91</v>
       </c>
       <c r="Q37">
         <v>9</v>
@@ -7945,31 +7962,31 @@
         <v>20071231</v>
       </c>
       <c r="G38">
-        <v>5.92</v>
+        <v>6.03</v>
       </c>
       <c r="H38">
-        <v>8</v>
+        <v>7.85</v>
       </c>
       <c r="I38">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="J38" t="s">
-        <v>536</v>
+        <v>399</v>
       </c>
       <c r="K38" t="s">
-        <v>537</v>
+        <v>398</v>
       </c>
       <c r="L38" t="s">
-        <v>538</v>
+        <v>397</v>
       </c>
       <c r="M38" t="s">
-        <v>539</v>
+        <v>396</v>
       </c>
       <c r="N38">
-        <v>1.41</v>
-      </c>
-      <c r="P38">
-        <v>8.23</v>
+        <v>0.49</v>
+      </c>
+      <c r="P38" t="s">
+        <v>395</v>
       </c>
       <c r="Q38">
         <v>7</v>
@@ -8085,32 +8102,32 @@
         <v>20140411</v>
       </c>
       <c r="G39">
-        <v>4.51</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="H39">
-        <v>8.1999999999999993</v>
+        <v>8.0299999999999994</v>
       </c>
       <c r="I39">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="J39" t="s">
-        <v>540</v>
+        <v>394</v>
       </c>
       <c r="K39" t="s">
-        <v>541</v>
+        <v>393</v>
       </c>
       <c r="L39" t="s">
-        <v>542</v>
+        <v>392</v>
       </c>
       <c r="M39" t="s">
-        <v>543</v>
+        <v>391</v>
       </c>
       <c r="N39">
-        <v>0.5</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="O39"/>
       <c r="P39">
-        <v>-3.98</v>
+        <v>-1.07</v>
       </c>
       <c r="Q39">
         <v>9</v>
@@ -8231,32 +8248,32 @@
         <v>20091225</v>
       </c>
       <c r="G40">
-        <v>7.23</v>
+        <v>7.25</v>
       </c>
       <c r="H40">
-        <v>8</v>
+        <v>7.98</v>
       </c>
       <c r="I40">
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>544</v>
+        <v>390</v>
       </c>
       <c r="K40" t="s">
-        <v>545</v>
+        <v>389</v>
       </c>
       <c r="L40" t="s">
-        <v>546</v>
+        <v>388</v>
       </c>
       <c r="M40" t="s">
-        <v>547</v>
+        <v>387</v>
       </c>
       <c r="N40">
-        <v>1.0900000000000001</v>
+        <v>1.38</v>
       </c>
       <c r="O40"/>
       <c r="P40">
-        <v>6.32</v>
+        <v>3.53</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -8342,6 +8359,18 @@
     <sortCondition ref="A39"/>
   </sortState>
   <mergeCells count="28">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="AG1:AG2"/>
+    <mergeCell ref="AH1:AH2"/>
+    <mergeCell ref="AI1:AI2"/>
+    <mergeCell ref="AJ1:AJ2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="AF1:AF2"/>
+    <mergeCell ref="AE1:AE2"/>
+    <mergeCell ref="AD1:AD2"/>
+    <mergeCell ref="AC1:AC2"/>
+    <mergeCell ref="O1:O2"/>
     <mergeCell ref="AQ1:AU1"/>
     <mergeCell ref="AK1:AK2"/>
     <mergeCell ref="B1:B2"/>
@@ -8358,18 +8387,6 @@
     <mergeCell ref="AN1:AN2"/>
     <mergeCell ref="AO1:AO2"/>
     <mergeCell ref="AP1:AP2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="AG1:AG2"/>
-    <mergeCell ref="AH1:AH2"/>
-    <mergeCell ref="AI1:AI2"/>
-    <mergeCell ref="AJ1:AJ2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="AF1:AF2"/>
-    <mergeCell ref="AE1:AE2"/>
-    <mergeCell ref="AD1:AD2"/>
-    <mergeCell ref="AC1:AC2"/>
-    <mergeCell ref="O1:O2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="AG27:AG29">

--- a/Data/彙整清單_整理版.xlsx
+++ b/Data/彙整清單_整理版.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\svnbox\Python\Stock\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{480AA417-A4B5-4533-B226-09245364008D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE07AC6-ABE5-4ACA-B293-903AC3BF5BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D923A086-913E-4840-96DC-7378B4FF8169}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="554">
   <si>
     <t>公司名稱</t>
   </si>
@@ -1250,502 +1250,505 @@
     <t>9.0  /  9.0  /  9.0  /  9.0  /  9.0</t>
   </si>
   <si>
-    <t xml:space="preserve">    0.82 /     0.32 /     0.23 /     0.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    21.4 /    21.28 /    21.16 /    20.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   454.0 /    668.2 /    926.8 /   939.63</t>
-  </si>
-  <si>
-    <t>👍   48.25 /    48.13 /    48.17 /    47.74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     4.1 /     4.48 /     3.87 /     4.98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    45.7 /    46.48 /    46.92 /    48.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  9349.0 /  23711.8 / 11075.95 /   8376.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    47.8 /    49.31 /    48.48 /    47.11</t>
-  </si>
-  <si>
-    <t>⚠️-21.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.92 /     1.29 /     1.17 /     0.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    23.7 /    23.86 /    23.88 /    22.53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3875.0 /   3301.2 /  5580.55 /  4479.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   49.75 /     49.9 /    49.41 /    46.53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.34 /     1.47 /     1.06 /     1.92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    23.8 /    23.32 /    23.48 /    24.79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2864.0 /   4578.8 /  3002.05 /  3644.47</t>
-  </si>
-  <si>
-    <t>👍    59.5 /    59.02 /    58.72 /     59.3</t>
-  </si>
-  <si>
-    <t>🏆23.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.93 /      1.9 /     1.21 /     0.87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    12.3 /    12.28 /    12.16 /     11.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3137.0 /   4544.4 /   6824.7 / 11974.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    33.5 /    33.47 /    33.99 /    32.43</t>
-  </si>
-  <si>
-    <t>🏆20.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.51 /     0.57 /      0.4 /     0.52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    26.9 /    26.82 /    26.82 /    26.77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  4140.0 /   5406.0 /  5169.65 /  4069.65</t>
-  </si>
-  <si>
-    <t>👍    54.4 /    53.94 /     52.5 /    51.54</t>
-  </si>
-  <si>
-    <t>⚠️-14.66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.04 /     0.16 /     0.65 /     0.56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5.67 /     5.65 /     5.79 /     6.59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   423.0 /    643.4 /  1108.15 /  2020.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    24.4 /    24.43 /    24.34 /    24.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.22 /     0.35 /     0.29 /      0.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.85 /      3.9 /     4.12 /     4.81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   428.0 /    417.8 /    443.4 /   570.77</t>
-  </si>
-  <si>
-    <t>👍   29.05 /    28.78 /     29.0 /    29.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.15 /     0.14 /     0.15 /     0.78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6.44 /     6.29 /     6.21 /     6.79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   692.0 /    858.8 /   974.05 /    902.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    33.4 /    33.46 /    32.81 /    32.45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7000 (33.333%) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.49 /     2.35 /     1.47 /     1.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    42.5 /    42.42 /    42.41 /    41.77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1012.0 /   1363.8 /   780.05 /    914.2</t>
-  </si>
-  <si>
-    <t>👍   127.5 /    126.1 /   124.05 /   121.38</t>
-  </si>
-  <si>
-    <t>⚠️-13.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    11.0 /     9.49 /     8.57 /     9.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    10.7 /    10.84 /    11.44 /     10.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3619.0 /   3618.0 /  9282.25 /  11467.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   30.95 /    31.08 /    31.54 /    30.12</t>
-  </si>
-  <si>
-    <t>⚠️-12.98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.24 /     2.13 /     1.74 /     1.09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8.18 /     8.19 /     8.51 /     7.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   385.0 /    546.0 /  1260.75 /  1444.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    33.4 /    33.47 /    33.89 /    31.95</t>
-  </si>
-  <si>
-    <t>⚠️-28.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.31 /     0.29 /     0.37 /     0.61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    30.2 /    30.28 /    30.73 /    31.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1485.0 /   1072.0 /    996.5 /   989.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    54.6 /    54.46 /    54.87 /     54.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.66 /     1.73 /     7.97 /    11.92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    22.2 /    22.22 /    22.01 /    22.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 16199.0 /  31103.4 / 23311.95 / 22989.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    78.8 /    79.82 /    77.09 /    75.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     3.7 /      3.7 /     3.68 /     3.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    70.3 /   117.24 /   152.45 /    139.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    50.9 /    51.06 /    50.06 /    49.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.48 /     1.23 /     0.84 /     0.61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    20.3 /    20.36 /    20.61 /    21.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1274.0 /   1229.0 /   1188.9 /  1621.98</t>
-  </si>
-  <si>
-    <t>👎    36.4 /    36.31 /    37.11 /    37.96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.23 /     2.26 /     2.28 /     2.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   229.0 /   273.02 /   141.88 /   110.09</t>
-  </si>
-  <si>
-    <t>👍    28.3 /    28.21 /    27.62 /    27.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.87 /     0.92 /      0.7 /     0.49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9.85 /     9.95 /    10.47 /    10.94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   258.0 /    494.0 /   562.05 /    464.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    50.1 /     50.3 /    51.04 /    49.57</t>
-  </si>
-  <si>
-    <t>🏆22.79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    12.2 /    13.22 /    17.88 /     20.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    21.6 /    21.54 /    21.94 /    21.94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   970.0 /   1265.6 /   1824.1 /  2534.98</t>
-  </si>
-  <si>
-    <t>👎   163.0 /    160.6 /    165.4 /   164.88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    31.2 /    32.28 /    30.31 /    17.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.33 /     1.45 /     1.63 /     2.36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3659.0 /   2396.0 /   9249.5 /  3640.28</t>
-  </si>
-  <si>
-    <t>👍    33.3 /    32.88 /    32.62 /    28.19</t>
-  </si>
-  <si>
-    <t>⚠️-17.72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     0.1 /     0.14 /     0.11 /     0.73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.53 /     0.63 /     0.84 /     1.56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   513.0 /    426.4 /  1187.95 /  1286.62</t>
-  </si>
-  <si>
-    <t>👎   45.15 /    45.57 /    46.34 /    45.21</t>
-  </si>
-  <si>
-    <t>🏆20.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5.68 /     5.53 /     2.45 /     1.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    35.1 /    34.88 /    34.28 /    33.69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2980.0 /   2910.0 /  2654.25 /  1987.18</t>
-  </si>
-  <si>
-    <t>👍    89.9 /     88.6 /    85.28 /    82.39</t>
-  </si>
-  <si>
-    <t>🏆23.76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.19 /      1.2 /     1.09 /     1.41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    20.2 /     20.1 /    19.99 /    20.97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3867.0 /   4527.6 /   4903.4 /   7125.6</t>
-  </si>
-  <si>
-    <t>👍   30.95 /    30.82 /    30.57 /    30.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9.12 /     8.71 /     9.07 /     5.93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    32.6 /     32.7 /    32.81 /    34.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3595.0 /   3762.6 /   5581.5 /  7599.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    68.0 /    68.26 /    66.94 /    61.72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.43 /     2.99 /     1.93 /     2.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    46.4 /    46.24 /    45.88 /    46.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 14931.0 /  15760.2 / 12346.25 / 13795.23</t>
-  </si>
-  <si>
-    <t>👍   25.45 /    25.27 /    24.62 /    24.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4.91 /     4.99 /     5.38 /     5.72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.97 /     1.05 /     1.43 /     1.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   468.0 /   1326.6 /   1394.6 /  3855.27</t>
-  </si>
-  <si>
-    <t>👎    32.2 /    32.58 /    33.71 /    34.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.55 /     0.56 /     0.48 /     0.59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.94 /     2.97 /     3.16 /     3.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   190.0 /    259.6 /   310.35 /   644.17</t>
-  </si>
-  <si>
-    <t>👎    30.5 /    30.65 /    31.25 /    31.34</t>
-  </si>
-  <si>
-    <t>⚠️-10.87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1163 (46.429%) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.25 /     0.25 /     0.22 /     1.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.38 /     1.39 /     1.39 /     1.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    46.0 /    45.22 /    75.98 /   350.63</t>
-  </si>
-  <si>
-    <t>👎   20.75 /    20.92 /    21.19 /    21.98</t>
-  </si>
-  <si>
-    <t>🏆20.97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.83 /     0.82 /     0.96 /     1.38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    10.7 /    10.62 /    10.38 /    10.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   596.0 /    883.2 /   592.75 /   559.83</t>
-  </si>
-  <si>
-    <t>👍   30.75 /    30.66 /    30.08 /    29.73</t>
-  </si>
-  <si>
-    <t>⚠️-14.94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    14.3 /    12.06 /     8.83 /     3.96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7.54 /     7.45 /     7.59 /      8.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   576.0 /    805.0 /   1090.4 /   982.93</t>
-  </si>
-  <si>
-    <t>👎    51.7 /    51.76 /    54.68 /    60.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.97 /     1.64 /     0.49 /      0.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.25 /     3.13 /     2.71 /     2.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   380.0 /    571.8 /   759.05 /   732.02</t>
-  </si>
-  <si>
-    <t>👍    15.6 /    15.57 /    15.55 /    15.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.24 /      0.9 /     0.89 /     0.96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9.08 /     9.12 /     9.06 /     9.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3756.0 /   2690.2 /   2786.9 /  3598.28</t>
-  </si>
-  <si>
-    <t>👎   21.35 /    21.35 /    21.32 /    21.71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.74 /     0.98 /     1.06 /     1.62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8.33 /     8.56 /     9.07 /    10.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 11613.0 /   5200.2 /  7139.25 /  8795.98</t>
-  </si>
-  <si>
-    <t>👎    35.7 /    35.74 /    36.29 /    37.38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.54 /     0.53 /      0.8 /     1.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9.95 /     9.92 /    10.49 /    12.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  5242.0 /   2808.4 /   3703.5 /  6086.38</t>
-  </si>
-  <si>
-    <t>👎    34.2 /    33.99 /    34.38 /     34.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.77 /     0.74 /     0.65 /     1.49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    36.5 /    36.72 /    37.56 /     39.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10496.0 /   5790.8 /   6487.5 /  6711.65</t>
-  </si>
-  <si>
-    <t>👎   28.65 /    28.87 /     30.3 /    32.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.36 /     0.37 /     0.66 /     0.48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    13.9 /    13.96 /    14.05 /    13.59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3113.0 /   1815.8 /  2436.95 /  3264.63</t>
-  </si>
-  <si>
-    <t>👎   19.35 /    19.44 /    19.83 /    19.71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.87 /     1.84 /     1.84 /     1.91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   159.0 /    243.4 /   166.33 /   186.74</t>
-  </si>
-  <si>
-    <t>👍    70.8 /    70.58 /     69.4 /    68.54</t>
-  </si>
-  <si>
-    <t>⚠️-23.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.74 /     1.76 /     1.34 /     1.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    12.3 /    12.22 /    12.12 /    12.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1838.0 /   1972.8 /  1895.25 /  1572.93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    61.5 /    61.88 /    61.09 /    58.56</t>
+    <t xml:space="preserve">    61.5 /    61.72 /    61.23 /    58.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1830.0 /   1869.6 /  1907.75 /  1585.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    12.4 /    12.26 /    12.14 /    12.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.42 /     2.19 /     1.45 /      1.2</t>
+  </si>
+  <si>
+    <t>⚠️-23.94</t>
+  </si>
+  <si>
+    <t>👍    71.0 /    70.82 /    69.55 /     68.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   150.0 /    240.4 /   166.88 /   187.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.86 /     1.85 /     1.85 /     1.91</t>
+  </si>
+  <si>
+    <t>👎   19.55 /    19.41 /     19.8 /    19.72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1692.0 /   1870.0 /   2304.5 /  3267.83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    13.9 /    13.94 /    14.05 /    13.61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.36 /     0.36 /     0.63 /     0.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1650 (30.334%) </t>
+  </si>
+  <si>
+    <t>👎    28.6 /    28.72 /    30.18 /    31.92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3391.0 /   5873.0 /   6508.0 /  6613.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    36.4 /    36.64 /    37.46 /    39.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.72 /     0.59 /     0.65 /     1.43</t>
+  </si>
+  <si>
+    <t>⚠️-32.44</t>
+  </si>
+  <si>
+    <t>👎   34.25 /    34.04 /    34.36 /    34.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1474.0 /   2660.4 /  3418.95 /  6006.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    9.89 /      9.9 /    10.44 /    12.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.44 /     0.52 /     0.78 /     1.26</t>
+  </si>
+  <si>
+    <t>⚠️-21.03</t>
+  </si>
+  <si>
+    <t>👎    35.9 /    35.67 /    36.25 /    37.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2308.0 /   4936.4 /   7046.4 /  8606.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    8.37 /     8.46 /     9.01 /    10.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.45 /     0.83 /     1.03 /     1.54</t>
+  </si>
+  <si>
+    <t>👍   21.55 /    21.35 /    21.33 /    21.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2036.0 /   2510.8 /   2727.4 /  3564.77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    9.17 /     9.12 /     9.08 /     9.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.23 /     0.98 /      0.9 /     0.95</t>
+  </si>
+  <si>
+    <t>🏆27.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    15.5 /    15.53 /    15.57 /    15.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   340.0 /    515.8 /    749.9 /   723.98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.29 /     3.18 /     2.79 /     2.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.08 /     2.24 /     0.64 /     0.25</t>
+  </si>
+  <si>
+    <t>⚠️-17.35</t>
+  </si>
+  <si>
+    <t>👎    51.2 /     51.5 /    54.37 /    59.93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   574.0 /    847.8 /   1087.2 /   989.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    7.52 /     7.49 /     7.58 /     8.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    14.7 /    12.72 /      9.3 /     4.19</t>
+  </si>
+  <si>
+    <t>⚠️-23.19</t>
+  </si>
+  <si>
+    <t>👍    30.8 /    30.67 /    30.15 /    29.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   358.0 /    572.8 /    581.2 /   541.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    10.7 /    10.64 /    10.41 /    10.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.83 /     0.82 /     0.95 /     1.36</t>
+  </si>
+  <si>
+    <t>👎   20.65 /    20.82 /    21.15 /    21.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    35.0 /    42.42 /    72.24 /   342.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.39 /     1.38 /     1.39 /     1.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.25 /     0.25 /     0.22 /     1.03</t>
+  </si>
+  <si>
+    <t>⚠️-17.14</t>
+  </si>
+  <si>
+    <t>👎    30.6 /    30.58 /    31.18 /    31.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   200.0 /    247.4 /   307.35 /   642.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.95 /     2.96 /     3.14 /     3.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.56 /     0.56 /     0.49 /     0.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">815Y (40.31%) </t>
+  </si>
+  <si>
+    <t>👎   33.25 /    32.59 /    33.59 /     34.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2570.0 /   1154.8 /   1448.9 /   3877.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.09 /     1.03 /     1.39 /      1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5.97 /     5.12 /      5.4 /     5.72</t>
+  </si>
+  <si>
+    <t>👍   25.45 /    25.36 /    24.69 /    24.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  8828.0 /  15272.2 / 12021.05 / 13773.77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    46.4 /     46.3 /    45.92 /    46.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.42 /     3.19 /     2.03 /     2.72</t>
+  </si>
+  <si>
+    <t>👍    68.9 /    68.44 /    67.09 /    61.98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3322.0 /   3652.4 /  4769.05 /  7614.38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    32.7 /    32.68 /    32.78 /    34.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    9.62 /     8.93 /     9.14 /     6.01</t>
+  </si>
+  <si>
+    <t>👍    31.1 /    30.91 /    30.63 /    30.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4264.0 /   4764.2 /   4997.3 /  7141.98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    20.3 /    20.16 /    20.01 /    20.93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.19 /     1.19 /     1.08 /      1.4</t>
+  </si>
+  <si>
+    <t>👍    90.3 /    89.06 /    85.73 /    82.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2846.0 /   2854.8 /   2684.6 /  2019.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    35.2 /    34.98 /    34.36 /    33.72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5.79 /     5.73 /     2.73 /     1.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    45.8 /    45.54 /    46.39 /    45.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   318.0 /    418.0 /   1159.7 /  1288.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.54 /     0.59 /     0.82 /     1.53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     0.1 /     0.12 /     0.11 /     0.69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    32.6 /    32.83 /    33.01 /    28.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1585.0 /   2348.2 /   9293.7 /   3656.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.12 /     1.35 /     1.58 /     2.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    30.3 /    31.32 /    31.46 /    17.59</t>
+  </si>
+  <si>
+    <t>👎   163.5 /    161.6 /    165.2 /   164.77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   881.0 /   1149.2 /   1761.6 /  2447.78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    21.6 /    21.54 /     21.9 /    21.92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    12.2 /    12.74 /    17.48 /    20.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    49.7 /    50.08 /    51.03 /    49.63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   251.0 /    329.2 /    568.0 /   455.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    9.81 /     9.89 /    10.42 /    10.91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.92 /     0.96 /     0.72 /      0.5</t>
+  </si>
+  <si>
+    <t>⚠️-33.61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    28.3 /    28.35 /    27.68 /    27.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   109.0 /    288.4 /   143.16 /   109.59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.21 /     2.25 /     2.28 /     2.23</t>
+  </si>
+  <si>
+    <t>⚠️-26.58</t>
+  </si>
+  <si>
+    <t>👎   36.35 /    36.24 /    37.04 /    37.93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   585.0 /   1175.6 /   1162.6 /   1619.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    20.3 /    20.32 /    20.57 /     21.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.48 /      1.4 /     0.89 /     0.62</t>
+  </si>
+  <si>
+    <t>⚠️-30.79</t>
+  </si>
+  <si>
+    <t>👍    51.2 /     51.0 /    50.16 /    49.63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   102.0 /    99.84 /   154.09 /   140.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.74 /      3.7 /     3.68 /     3.69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    78.3 /    79.16 /    77.28 /    75.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19502.0 /  24101.2 /  23689.2 / 23060.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    22.2 /     22.2 /    22.02 /    22.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1.6 /     1.63 /      7.5 /    10.92</t>
+  </si>
+  <si>
+    <t>👍    55.1 /    54.54 /    54.94 /    54.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1195.0 /   1168.2 /   1044.2 /   1003.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    30.1 /     30.2 /    30.68 /     31.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.31 /      0.3 /     0.35 /      0.6</t>
+  </si>
+  <si>
+    <t>⚠️-14.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    33.2 /    33.39 /    33.88 /    32.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1153.0 /    683.8 /  1260.25 /  1458.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    8.14 /     8.17 /     8.47 /     7.98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.37 /     2.24 /     1.79 /     1.09</t>
+  </si>
+  <si>
+    <t>⚠️-19.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    30.9 /    31.04 /    31.48 /    30.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2198.0 /   3578.8 /  8175.75 / 11314.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    10.6 /    10.78 /    11.34 /    10.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    10.6 /     9.47 /     8.73 /     8.99</t>
+  </si>
+  <si>
+    <t>⚠️-15.51</t>
+  </si>
+  <si>
+    <t>👍   128.0 /    126.8 /   124.38 /   121.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   695.0 /   1120.6 /    761.4 /   917.88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    42.6 /    42.46 /    42.42 /    41.79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.43 /      2.5 /     1.54 /     1.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   33.25 /    33.39 /    32.85 /    32.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   543.0 /    775.6 /    972.0 /   891.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    6.46 /     6.34 /     6.22 /     6.77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.16 /     0.15 /     0.15 /     0.74</t>
+  </si>
+  <si>
+    <t>👍   29.05 /    28.86 /    29.01 /    29.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   306.0 /    412.0 /    448.4 /   566.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.83 /     3.88 /      4.1 /     4.79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.22 /     0.33 /     0.28 /      0.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8886 (45.81%) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    24.3 /    24.42 /    24.35 /    24.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   465.0 /    594.0 /   1106.3 /   2012.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5.62 /     5.63 /     5.79 /     6.59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.04 /     0.04 /     0.63 /     0.56</t>
+  </si>
+  <si>
+    <t>⚠️-14.83</t>
+  </si>
+  <si>
+    <t>👍    54.7 /     54.1 /     52.7 /    51.59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4525.0 /   5289.6 /  5126.65 /  4112.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    26.9 /    26.84 /    26.84 /    26.77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.49 /     0.55 /     0.41 /     0.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   33.75 /    33.52 /    33.99 /    32.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2826.0 /   4433.8 /  6732.85 / 11986.88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    12.4 /    12.32 /    12.21 /    11.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.38 /      2.0 /     1.24 /     0.88</t>
+  </si>
+  <si>
+    <t>🏆28.62</t>
+  </si>
+  <si>
+    <t>👍    59.5 /    59.12 /    58.78 /    59.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1465.0 /   3771.6 /  3019.85 /  3607.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    23.8 /    23.46 /    23.46 /    24.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.36 /     1.38 /     1.08 /     1.85</t>
+  </si>
+  <si>
+    <t>👍    50.0 /    49.96 /    49.51 /    46.63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2873.0 /   3052.8 /  5597.95 /   4507.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    23.6 /    23.84 /     23.9 /    22.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.15 /     1.25 /     1.19 /     0.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   48.45 /    48.74 /     48.5 /    47.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  6824.0 /  14255.8 /  10869.3 /  8433.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    45.7 /    46.16 /    46.86 /    47.93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.83 /     4.07 /     3.84 /     4.98</t>
+  </si>
+  <si>
+    <t>👍    48.3 /     48.2 /    48.19 /    47.77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   465.0 /    665.8 /   924.85 /   940.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    21.4 /    21.32 /     21.2 /    20.78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     0.8 /     0.44 /     0.26 /     0.22</t>
   </si>
 </sst>
 </file>
@@ -2403,13 +2406,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2770,10 +2773,10 @@
   <dimension ref="A1:AZ40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="E18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J22" sqref="J22"/>
+      <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2809,7 +2812,7 @@
       <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="13" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="10" t="s">
@@ -2839,13 +2842,13 @@
       <c r="M1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="11" t="s">
         <v>380</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="P1" s="11" t="s">
         <v>230</v>
       </c>
       <c r="Q1" s="10" t="s">
@@ -2862,16 +2865,16 @@
       <c r="Z1" s="10"/>
       <c r="AA1" s="3"/>
       <c r="AB1" s="3"/>
-      <c r="AC1" s="13" t="s">
+      <c r="AC1" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="AD1" s="13" t="s">
+      <c r="AD1" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="AE1" s="13" t="s">
+      <c r="AE1" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="AF1" s="13" t="s">
+      <c r="AF1" s="12" t="s">
         <v>176</v>
       </c>
       <c r="AG1" s="10" t="s">
@@ -2916,7 +2919,7 @@
       <c r="A2" s="9"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
-      <c r="D2" s="11"/>
+      <c r="D2" s="13"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -2934,9 +2937,9 @@
       <c r="M2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
       <c r="Q2" s="5" t="s">
         <v>41</v>
       </c>
@@ -2973,10 +2976,10 @@
       <c r="AB2" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="AC2" s="13"/>
-      <c r="AD2" s="13"/>
-      <c r="AE2" s="13"/>
-      <c r="AF2" s="13"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="12"/>
+      <c r="AF2" s="12"/>
       <c r="AG2" s="10"/>
       <c r="AH2" s="9"/>
       <c r="AI2" s="10"/>
@@ -3034,23 +3037,23 @@
         <v>2.2200000000000002</v>
       </c>
       <c r="J3" t="s">
-        <v>552</v>
+        <v>387</v>
       </c>
       <c r="K3" t="s">
-        <v>551</v>
+        <v>388</v>
       </c>
       <c r="L3" t="s">
-        <v>550</v>
+        <v>389</v>
       </c>
       <c r="M3" t="s">
-        <v>549</v>
+        <v>390</v>
       </c>
       <c r="N3">
-        <v>0.32</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="O3"/>
       <c r="P3" t="s">
-        <v>548</v>
+        <v>391</v>
       </c>
       <c r="Q3">
         <v>11</v>
@@ -3166,32 +3169,32 @@
         <v>19951102</v>
       </c>
       <c r="G4">
-        <v>3.67</v>
+        <v>3.66</v>
       </c>
       <c r="H4">
-        <v>17.97</v>
+        <v>18.02</v>
       </c>
       <c r="I4">
-        <v>3.32</v>
+        <v>3.33</v>
       </c>
       <c r="J4" t="s">
-        <v>547</v>
+        <v>392</v>
       </c>
       <c r="K4" t="s">
-        <v>546</v>
+        <v>393</v>
       </c>
       <c r="L4" t="s">
-        <v>545</v>
+        <v>394</v>
       </c>
       <c r="M4" t="s">
         <v>156</v>
       </c>
       <c r="N4">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="O4"/>
       <c r="P4">
-        <v>-6.19</v>
+        <v>0.95</v>
       </c>
       <c r="Q4">
         <v>11</v>
@@ -3307,32 +3310,34 @@
         <v>19730831</v>
       </c>
       <c r="G5">
-        <v>5.68</v>
+        <v>5.63</v>
       </c>
       <c r="H5">
-        <v>8.52</v>
+        <v>8.61</v>
       </c>
       <c r="I5">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="J5" t="s">
-        <v>544</v>
+        <v>395</v>
       </c>
       <c r="K5" t="s">
-        <v>543</v>
+        <v>396</v>
       </c>
       <c r="L5" t="s">
-        <v>542</v>
+        <v>397</v>
       </c>
       <c r="M5" t="s">
-        <v>541</v>
+        <v>398</v>
       </c>
       <c r="N5">
-        <v>1.35</v>
-      </c>
-      <c r="O5"/>
+        <v>1.39</v>
+      </c>
+      <c r="O5" t="s">
+        <v>399</v>
+      </c>
       <c r="P5">
-        <v>-7.26</v>
+        <v>18.62</v>
       </c>
       <c r="Q5">
         <v>9</v>
@@ -3448,32 +3453,32 @@
         <v>19720520</v>
       </c>
       <c r="G6">
-        <v>3.49</v>
+        <v>3.5</v>
       </c>
       <c r="H6">
-        <v>6.27</v>
+        <v>6.26</v>
       </c>
       <c r="I6">
         <v>1.28</v>
       </c>
       <c r="J6" t="s">
-        <v>540</v>
+        <v>400</v>
       </c>
       <c r="K6" t="s">
-        <v>539</v>
+        <v>401</v>
       </c>
       <c r="L6" t="s">
-        <v>538</v>
+        <v>402</v>
       </c>
       <c r="M6" t="s">
-        <v>537</v>
+        <v>403</v>
       </c>
       <c r="N6">
-        <v>1.23</v>
+        <v>0.25</v>
       </c>
       <c r="O6"/>
-      <c r="P6">
-        <v>-6.81</v>
+      <c r="P6" t="s">
+        <v>404</v>
       </c>
       <c r="Q6">
         <v>10</v>
@@ -3589,32 +3594,32 @@
         <v>19730305</v>
       </c>
       <c r="G7">
-        <v>6.73</v>
+        <v>6.72</v>
       </c>
       <c r="H7">
-        <v>6.88</v>
+        <v>6.89</v>
       </c>
       <c r="I7">
         <v>1.87</v>
       </c>
       <c r="J7" t="s">
-        <v>536</v>
+        <v>405</v>
       </c>
       <c r="K7" t="s">
-        <v>535</v>
+        <v>406</v>
       </c>
       <c r="L7" t="s">
-        <v>534</v>
+        <v>407</v>
       </c>
       <c r="M7" t="s">
-        <v>533</v>
+        <v>408</v>
       </c>
       <c r="N7">
-        <v>1.05</v>
+        <v>0.32</v>
       </c>
       <c r="O7"/>
-      <c r="P7">
-        <v>4.29</v>
+      <c r="P7" t="s">
+        <v>409</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -3730,32 +3735,32 @@
         <v>19860620</v>
       </c>
       <c r="G8">
-        <v>3.92</v>
+        <v>3.9</v>
       </c>
       <c r="H8">
-        <v>7.85</v>
+        <v>7.89</v>
       </c>
       <c r="I8">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="J8" t="s">
-        <v>532</v>
+        <v>410</v>
       </c>
       <c r="K8" t="s">
-        <v>531</v>
+        <v>411</v>
       </c>
       <c r="L8" t="s">
-        <v>530</v>
+        <v>412</v>
       </c>
       <c r="M8" t="s">
-        <v>529</v>
+        <v>413</v>
       </c>
       <c r="N8">
-        <v>0.92</v>
+        <v>0.45</v>
       </c>
       <c r="O8"/>
       <c r="P8">
-        <v>-1.88</v>
+        <v>-3.34</v>
       </c>
       <c r="Q8">
         <v>11</v>
@@ -3871,32 +3876,32 @@
         <v>19890327</v>
       </c>
       <c r="G9">
-        <v>4.68</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="H9">
-        <v>6.51</v>
+        <v>6.57</v>
       </c>
       <c r="I9">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="J9" t="s">
-        <v>528</v>
+        <v>414</v>
       </c>
       <c r="K9" t="s">
-        <v>527</v>
+        <v>415</v>
       </c>
       <c r="L9" t="s">
-        <v>526</v>
+        <v>416</v>
       </c>
       <c r="M9" t="s">
-        <v>525</v>
-      </c>
-      <c r="N9">
-        <v>1.24</v>
-      </c>
-      <c r="O9"/>
-      <c r="P9">
-        <v>-0.21</v>
+        <v>417</v>
+      </c>
+      <c r="N9" s="8">
+        <v>2.21</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8" t="s">
+        <v>418</v>
       </c>
       <c r="Q9">
         <v>13</v>
@@ -4012,32 +4017,32 @@
         <v>20001031</v>
       </c>
       <c r="G10">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="H10">
-        <v>11.06</v>
+        <v>10.99</v>
       </c>
       <c r="I10">
         <v>0.99</v>
       </c>
       <c r="J10" t="s">
-        <v>524</v>
+        <v>419</v>
       </c>
       <c r="K10" t="s">
-        <v>523</v>
+        <v>420</v>
       </c>
       <c r="L10" t="s">
-        <v>522</v>
+        <v>421</v>
       </c>
       <c r="M10" t="s">
-        <v>521</v>
+        <v>422</v>
       </c>
       <c r="N10">
-        <v>1.41</v>
+        <v>0.38</v>
       </c>
       <c r="O10"/>
-      <c r="P10">
-        <v>-3.15</v>
+      <c r="P10" t="s">
+        <v>423</v>
       </c>
       <c r="Q10">
         <v>13</v>
@@ -4153,32 +4158,32 @@
         <v>19950204</v>
       </c>
       <c r="G11">
-        <v>6.96</v>
+        <v>7.03</v>
       </c>
       <c r="H11">
-        <v>8.14</v>
+        <v>8.06</v>
       </c>
       <c r="I11">
-        <v>2.41</v>
+        <v>2.39</v>
       </c>
       <c r="J11" t="s">
-        <v>520</v>
+        <v>424</v>
       </c>
       <c r="K11" t="s">
-        <v>519</v>
+        <v>425</v>
       </c>
       <c r="L11" t="s">
-        <v>518</v>
+        <v>426</v>
       </c>
       <c r="M11" t="s">
-        <v>517</v>
+        <v>427</v>
       </c>
       <c r="N11">
-        <v>0.55000000000000004</v>
+        <v>0.48</v>
       </c>
       <c r="O11"/>
       <c r="P11" t="s">
-        <v>516</v>
+        <v>428</v>
       </c>
       <c r="Q11">
         <v>12</v>
@@ -4294,32 +4299,32 @@
         <v>19701214</v>
       </c>
       <c r="G12">
-        <v>8.1300000000000008</v>
+        <v>8.1199999999999992</v>
       </c>
       <c r="H12">
-        <v>6.64</v>
+        <v>6.65</v>
       </c>
       <c r="I12">
         <v>1.35</v>
       </c>
       <c r="J12" t="s">
-        <v>515</v>
+        <v>429</v>
       </c>
       <c r="K12" t="s">
-        <v>514</v>
+        <v>430</v>
       </c>
       <c r="L12" t="s">
-        <v>513</v>
+        <v>431</v>
       </c>
       <c r="M12" t="s">
-        <v>512</v>
-      </c>
-      <c r="N12" s="8">
-        <v>2.25</v>
-      </c>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8" t="s">
-        <v>511</v>
+        <v>432</v>
+      </c>
+      <c r="N12">
+        <v>3</v>
+      </c>
+      <c r="O12"/>
+      <c r="P12">
+        <v>16.75</v>
       </c>
       <c r="Q12">
         <v>7</v>
@@ -4435,34 +4440,32 @@
         <v>20160509</v>
       </c>
       <c r="G13">
-        <v>4.82</v>
+        <v>4.84</v>
       </c>
       <c r="H13">
-        <v>8.4</v>
+        <v>8.36</v>
       </c>
       <c r="I13">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="J13" t="s">
-        <v>510</v>
+        <v>433</v>
       </c>
       <c r="K13" t="s">
-        <v>509</v>
+        <v>434</v>
       </c>
       <c r="L13" t="s">
-        <v>508</v>
+        <v>435</v>
       </c>
       <c r="M13" t="s">
-        <v>507</v>
+        <v>436</v>
       </c>
       <c r="N13">
-        <v>0.68</v>
-      </c>
-      <c r="O13" t="s">
-        <v>506</v>
-      </c>
+        <v>0.37</v>
+      </c>
+      <c r="O13"/>
       <c r="P13" t="s">
-        <v>505</v>
+        <v>437</v>
       </c>
       <c r="Q13">
         <v>12</v>
@@ -4578,32 +4581,34 @@
         <v>19930427</v>
       </c>
       <c r="G14">
-        <v>5.57</v>
+        <v>5.56</v>
       </c>
       <c r="H14">
-        <v>8.57</v>
+        <v>8.6</v>
       </c>
       <c r="I14">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="J14" t="s">
-        <v>504</v>
+        <v>438</v>
       </c>
       <c r="K14" t="s">
-        <v>503</v>
+        <v>439</v>
       </c>
       <c r="L14" t="s">
-        <v>502</v>
+        <v>440</v>
       </c>
       <c r="M14" t="s">
-        <v>501</v>
-      </c>
-      <c r="N14">
-        <v>1.77</v>
-      </c>
-      <c r="O14"/>
-      <c r="P14">
-        <v>3.16</v>
+        <v>441</v>
+      </c>
+      <c r="N14" s="8">
+        <v>1.3</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="P14" s="8">
+        <v>6.99</v>
       </c>
       <c r="Q14">
         <v>12</v>
@@ -4719,32 +4724,32 @@
         <v>20160322</v>
       </c>
       <c r="G15">
-        <v>1.71</v>
+        <v>1.65</v>
       </c>
       <c r="H15">
-        <v>8.36</v>
+        <v>8.64</v>
       </c>
       <c r="I15">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="J15" t="s">
-        <v>500</v>
+        <v>443</v>
       </c>
       <c r="K15" t="s">
-        <v>499</v>
+        <v>444</v>
       </c>
       <c r="L15" t="s">
-        <v>498</v>
+        <v>445</v>
       </c>
       <c r="M15" t="s">
-        <v>497</v>
+        <v>446</v>
       </c>
       <c r="N15">
-        <v>1.8</v>
+        <v>0.95</v>
       </c>
       <c r="O15"/>
       <c r="P15">
-        <v>8.9700000000000006</v>
+        <v>1.94</v>
       </c>
       <c r="Q15">
         <v>10</v>
@@ -4869,23 +4874,23 @@
         <v>1.03</v>
       </c>
       <c r="J16" t="s">
-        <v>496</v>
+        <v>447</v>
       </c>
       <c r="K16" t="s">
-        <v>495</v>
+        <v>448</v>
       </c>
       <c r="L16" t="s">
-        <v>494</v>
+        <v>449</v>
       </c>
       <c r="M16" t="s">
-        <v>493</v>
+        <v>450</v>
       </c>
       <c r="N16">
-        <v>1.66</v>
+        <v>1.26</v>
       </c>
       <c r="O16"/>
       <c r="P16">
-        <v>2.86</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="Q16">
         <v>9</v>
@@ -5001,32 +5006,32 @@
         <v>19951213</v>
       </c>
       <c r="G17">
-        <v>4.8499999999999996</v>
+        <v>4.79</v>
       </c>
       <c r="H17">
-        <v>6.79</v>
+        <v>6.88</v>
       </c>
       <c r="I17">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="J17" t="s">
-        <v>492</v>
+        <v>451</v>
       </c>
       <c r="K17" t="s">
-        <v>491</v>
+        <v>452</v>
       </c>
       <c r="L17" t="s">
-        <v>490</v>
+        <v>453</v>
       </c>
       <c r="M17" t="s">
-        <v>489</v>
+        <v>454</v>
       </c>
       <c r="N17">
-        <v>0.44</v>
+        <v>1.88</v>
       </c>
       <c r="O17"/>
       <c r="P17">
-        <v>-4.0599999999999996</v>
+        <v>5.18</v>
       </c>
       <c r="Q17">
         <v>9</v>
@@ -5142,32 +5147,32 @@
         <v>19960722</v>
       </c>
       <c r="G18">
-        <v>4.8499999999999996</v>
+        <v>4.82</v>
       </c>
       <c r="H18">
-        <v>6.71</v>
+        <v>6.75</v>
       </c>
       <c r="I18">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="J18" t="s">
-        <v>488</v>
+        <v>455</v>
       </c>
       <c r="K18" t="s">
-        <v>487</v>
+        <v>456</v>
       </c>
       <c r="L18" t="s">
-        <v>486</v>
+        <v>457</v>
       </c>
       <c r="M18" t="s">
-        <v>485</v>
-      </c>
-      <c r="N18" s="8">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8" t="s">
-        <v>484</v>
+        <v>458</v>
+      </c>
+      <c r="N18">
+        <v>0.91</v>
+      </c>
+      <c r="O18"/>
+      <c r="P18">
+        <v>14.68</v>
       </c>
       <c r="Q18">
         <v>8</v>
@@ -5283,32 +5288,32 @@
         <v>19990105</v>
       </c>
       <c r="G19">
-        <v>6.12</v>
+        <v>6.09</v>
       </c>
       <c r="H19">
-        <v>11.09</v>
+        <v>11.13</v>
       </c>
       <c r="I19">
-        <v>2.25</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="J19" t="s">
-        <v>483</v>
+        <v>459</v>
       </c>
       <c r="K19" t="s">
-        <v>482</v>
+        <v>460</v>
       </c>
       <c r="L19" t="s">
-        <v>481</v>
+        <v>461</v>
       </c>
       <c r="M19" t="s">
-        <v>480</v>
-      </c>
-      <c r="N19" s="8">
-        <v>2</v>
-      </c>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8" t="s">
-        <v>479</v>
+        <v>462</v>
+      </c>
+      <c r="N19">
+        <v>1.9</v>
+      </c>
+      <c r="O19"/>
+      <c r="P19">
+        <v>12.48</v>
       </c>
       <c r="Q19">
         <v>10</v>
@@ -5424,32 +5429,32 @@
         <v>19990125</v>
       </c>
       <c r="G20">
-        <v>4.43</v>
+        <v>4.37</v>
       </c>
       <c r="H20">
-        <v>7.07</v>
+        <v>7.17</v>
       </c>
       <c r="I20">
-        <v>1.1200000000000001</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="J20" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="K20" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="L20" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="M20" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="N20">
-        <v>0.56000000000000005</v>
+        <v>1.83</v>
       </c>
       <c r="O20"/>
-      <c r="P20" t="s">
-        <v>474</v>
+      <c r="P20">
+        <v>15.43</v>
       </c>
       <c r="Q20">
         <v>10</v>
@@ -5565,32 +5570,32 @@
         <v>20000911</v>
       </c>
       <c r="G21">
-        <v>6.01</v>
+        <v>6.13</v>
       </c>
       <c r="H21">
-        <v>12.33</v>
+        <v>12.07</v>
       </c>
       <c r="I21">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="J21" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="K21" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="L21" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="M21" t="s">
         <v>470</v>
       </c>
       <c r="N21">
-        <v>1.52</v>
+        <v>1.18</v>
       </c>
       <c r="O21"/>
       <c r="P21">
-        <v>2.54</v>
+        <v>-0.06</v>
       </c>
       <c r="Q21">
         <v>13</v>
@@ -5706,32 +5711,32 @@
         <v>20010917</v>
       </c>
       <c r="G22">
-        <v>5.52</v>
+        <v>5.5</v>
       </c>
       <c r="H22">
-        <v>9.34</v>
+        <v>9.36</v>
       </c>
       <c r="I22">
-        <v>4.88</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="J22" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="K22" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="L22" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="M22" t="s">
-        <v>466</v>
-      </c>
-      <c r="N22" s="8">
-        <v>1.75</v>
-      </c>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8" t="s">
-        <v>465</v>
+        <v>474</v>
+      </c>
+      <c r="N22">
+        <v>1.52</v>
+      </c>
+      <c r="O22"/>
+      <c r="P22">
+        <v>2.96</v>
       </c>
       <c r="Q22">
         <v>12</v>
@@ -5847,32 +5852,32 @@
         <v>20010917</v>
       </c>
       <c r="G23">
-        <v>5.41</v>
+        <v>5.45</v>
       </c>
       <c r="H23">
-        <v>12.01</v>
+        <v>11.92</v>
       </c>
       <c r="I23">
-        <v>2.93</v>
+        <v>2.9</v>
       </c>
       <c r="J23" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="K23" t="s">
-        <v>463</v>
+        <v>476</v>
       </c>
       <c r="L23" t="s">
-        <v>462</v>
+        <v>477</v>
       </c>
       <c r="M23" t="s">
-        <v>461</v>
+        <v>478</v>
       </c>
       <c r="N23">
-        <v>1.0900000000000001</v>
+        <v>0.21</v>
       </c>
       <c r="O23"/>
-      <c r="P23">
-        <v>-3.88</v>
+      <c r="P23" t="s">
+        <v>479</v>
       </c>
       <c r="Q23">
         <v>11</v>
@@ -5978,7 +5983,7 @@
       <c r="C24" t="s">
         <v>382</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="7">
         <v>799994330</v>
       </c>
       <c r="E24">
@@ -5997,23 +6002,23 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="J24" t="s">
-        <v>460</v>
+        <v>480</v>
       </c>
       <c r="K24" t="s">
-        <v>459</v>
+        <v>481</v>
       </c>
       <c r="L24" t="s">
-        <v>458</v>
+        <v>482</v>
       </c>
       <c r="M24" t="s">
         <v>156</v>
       </c>
       <c r="N24">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="O24"/>
-      <c r="P24">
-        <v>-5.61</v>
+      <c r="P24" t="s">
+        <v>483</v>
       </c>
       <c r="Q24">
         <v>7</v>
@@ -6129,32 +6134,32 @@
         <v>19931027</v>
       </c>
       <c r="G25">
-        <v>9.34</v>
+        <v>9.35</v>
       </c>
       <c r="H25">
         <v>4.28</v>
       </c>
       <c r="I25">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="J25" t="s">
-        <v>457</v>
+        <v>484</v>
       </c>
       <c r="K25" t="s">
-        <v>456</v>
+        <v>485</v>
       </c>
       <c r="L25" t="s">
-        <v>455</v>
+        <v>486</v>
       </c>
       <c r="M25" t="s">
-        <v>454</v>
+        <v>487</v>
       </c>
       <c r="N25">
-        <v>0.74</v>
+        <v>0.46</v>
       </c>
       <c r="O25"/>
-      <c r="P25">
-        <v>-6.91</v>
+      <c r="P25" t="s">
+        <v>488</v>
       </c>
       <c r="Q25">
         <v>7</v>
@@ -6270,32 +6275,32 @@
         <v>20000911</v>
       </c>
       <c r="G26">
-        <v>7.07</v>
+        <v>7.03</v>
       </c>
       <c r="H26">
-        <v>7.24</v>
+        <v>7.28</v>
       </c>
       <c r="I26">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="J26" t="s">
-        <v>453</v>
+        <v>489</v>
       </c>
       <c r="K26" t="s">
-        <v>452</v>
+        <v>490</v>
       </c>
       <c r="L26" t="s">
-        <v>451</v>
+        <v>491</v>
       </c>
       <c r="M26" t="s">
         <v>156</v>
       </c>
       <c r="N26">
-        <v>2</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="O26"/>
       <c r="P26">
-        <v>4.54</v>
+        <v>15.76</v>
       </c>
       <c r="Q26">
         <v>7</v>
@@ -6411,32 +6416,32 @@
         <v>20011219</v>
       </c>
       <c r="G27">
-        <v>3.81</v>
+        <v>3.83</v>
       </c>
       <c r="H27">
-        <v>6.49</v>
+        <v>6.45</v>
       </c>
       <c r="I27">
-        <v>1.17</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="J27" t="s">
-        <v>450</v>
+        <v>492</v>
       </c>
       <c r="K27" t="s">
-        <v>449</v>
+        <v>493</v>
       </c>
       <c r="L27" t="s">
-        <v>448</v>
+        <v>494</v>
       </c>
       <c r="M27" t="s">
-        <v>447</v>
+        <v>495</v>
       </c>
       <c r="N27">
-        <v>0.79</v>
+        <v>0.83</v>
       </c>
       <c r="O27"/>
       <c r="P27">
-        <v>4.24</v>
+        <v>-5.09</v>
       </c>
       <c r="Q27">
         <v>7</v>
@@ -6552,32 +6557,32 @@
         <v>20020225</v>
       </c>
       <c r="G28">
-        <v>6.58</v>
+        <v>6.52</v>
       </c>
       <c r="H28">
-        <v>7.52</v>
+        <v>7.59</v>
       </c>
       <c r="I28">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="J28" t="s">
-        <v>446</v>
+        <v>496</v>
       </c>
       <c r="K28" t="s">
-        <v>445</v>
+        <v>497</v>
       </c>
       <c r="L28" t="s">
-        <v>444</v>
+        <v>498</v>
       </c>
       <c r="M28" t="s">
-        <v>443</v>
+        <v>499</v>
       </c>
       <c r="N28">
-        <v>0.47</v>
+        <v>0.78</v>
       </c>
       <c r="O28"/>
       <c r="P28" t="s">
-        <v>442</v>
+        <v>500</v>
       </c>
       <c r="Q28">
         <v>10</v>
@@ -6693,32 +6698,32 @@
         <v>20020826</v>
       </c>
       <c r="G29">
-        <v>5.69</v>
+        <v>5.72</v>
       </c>
       <c r="H29">
-        <v>8.61</v>
+        <v>8.56</v>
       </c>
       <c r="I29">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="J29" t="s">
-        <v>441</v>
+        <v>501</v>
       </c>
       <c r="K29" t="s">
-        <v>440</v>
+        <v>502</v>
       </c>
       <c r="L29" t="s">
-        <v>439</v>
+        <v>503</v>
       </c>
       <c r="M29" t="s">
-        <v>438</v>
+        <v>504</v>
       </c>
       <c r="N29">
-        <v>0.64</v>
+        <v>0.51</v>
       </c>
       <c r="O29"/>
       <c r="P29" t="s">
-        <v>437</v>
+        <v>505</v>
       </c>
       <c r="Q29">
         <v>10</v>
@@ -6840,28 +6845,28 @@
         <v>4.3</v>
       </c>
       <c r="H30">
-        <v>8.6199999999999992</v>
+        <v>8.61</v>
       </c>
       <c r="I30">
         <v>1.69</v>
       </c>
       <c r="J30" t="s">
-        <v>436</v>
+        <v>506</v>
       </c>
       <c r="K30" t="s">
-        <v>435</v>
+        <v>507</v>
       </c>
       <c r="L30" t="s">
-        <v>434</v>
+        <v>508</v>
       </c>
       <c r="M30" t="s">
-        <v>433</v>
+        <v>509</v>
       </c>
       <c r="N30">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="P30" t="s">
-        <v>432</v>
+        <v>510</v>
       </c>
       <c r="Q30">
         <v>9</v>
@@ -6977,34 +6982,31 @@
         <v>20020826</v>
       </c>
       <c r="G31">
-        <v>5.76</v>
+        <v>5.74</v>
       </c>
       <c r="H31">
-        <v>10.87</v>
+        <v>10.91</v>
       </c>
       <c r="I31">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="J31" t="s">
-        <v>431</v>
+        <v>511</v>
       </c>
       <c r="K31" t="s">
-        <v>430</v>
+        <v>512</v>
       </c>
       <c r="L31" t="s">
-        <v>429</v>
+        <v>513</v>
       </c>
       <c r="M31" t="s">
-        <v>428</v>
-      </c>
-      <c r="N31" s="8">
-        <v>1.95</v>
-      </c>
-      <c r="O31" s="8" t="s">
-        <v>427</v>
-      </c>
-      <c r="P31" s="8">
-        <v>5.14</v>
+        <v>514</v>
+      </c>
+      <c r="N31">
+        <v>0.38</v>
+      </c>
+      <c r="P31">
+        <v>-4.66</v>
       </c>
       <c r="Q31">
         <v>8</v>
@@ -7120,31 +7122,31 @@
         <v>20021001</v>
       </c>
       <c r="G32">
-        <v>8.68</v>
+        <v>8.7200000000000006</v>
       </c>
       <c r="H32">
-        <v>7.79</v>
+        <v>7.75</v>
       </c>
       <c r="I32">
-        <v>2.0499999999999998</v>
+        <v>2.04</v>
       </c>
       <c r="J32" t="s">
-        <v>426</v>
+        <v>515</v>
       </c>
       <c r="K32" t="s">
-        <v>425</v>
+        <v>516</v>
       </c>
       <c r="L32" t="s">
-        <v>424</v>
+        <v>517</v>
       </c>
       <c r="M32" t="s">
-        <v>423</v>
+        <v>518</v>
       </c>
       <c r="N32">
-        <v>0.65</v>
+        <v>0.54</v>
       </c>
       <c r="P32">
-        <v>-4.7699999999999996</v>
+        <v>-5.71</v>
       </c>
       <c r="Q32">
         <v>8</v>
@@ -7269,22 +7271,25 @@
         <v>1.66</v>
       </c>
       <c r="J33" t="s">
-        <v>422</v>
+        <v>519</v>
       </c>
       <c r="K33" t="s">
-        <v>421</v>
+        <v>520</v>
       </c>
       <c r="L33" t="s">
-        <v>420</v>
+        <v>521</v>
       </c>
       <c r="M33" t="s">
-        <v>419</v>
-      </c>
-      <c r="N33">
-        <v>1.39</v>
-      </c>
-      <c r="P33">
-        <v>8.8800000000000008</v>
+        <v>522</v>
+      </c>
+      <c r="N33" s="8">
+        <v>0.77</v>
+      </c>
+      <c r="O33" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="P33" s="8">
+        <v>0</v>
       </c>
       <c r="Q33">
         <v>9</v>
@@ -7400,31 +7405,31 @@
         <v>20101229</v>
       </c>
       <c r="G34">
-        <v>4.0999999999999996</v>
+        <v>4.12</v>
       </c>
       <c r="H34">
-        <v>7.77</v>
+        <v>7.74</v>
       </c>
       <c r="I34">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="J34" t="s">
-        <v>418</v>
+        <v>524</v>
       </c>
       <c r="K34" t="s">
-        <v>417</v>
+        <v>525</v>
       </c>
       <c r="L34" t="s">
-        <v>416</v>
+        <v>526</v>
       </c>
       <c r="M34" t="s">
-        <v>415</v>
+        <v>527</v>
       </c>
       <c r="N34">
-        <v>0.79</v>
+        <v>1.03</v>
       </c>
       <c r="P34" t="s">
-        <v>414</v>
+        <v>528</v>
       </c>
       <c r="Q34">
         <v>15</v>
@@ -7540,32 +7545,31 @@
         <v>20051109</v>
       </c>
       <c r="G35">
-        <v>5.7</v>
+        <v>5.67</v>
       </c>
       <c r="H35">
-        <v>9.4</v>
+        <v>9.4499999999999993</v>
       </c>
       <c r="I35">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="J35" t="s">
-        <v>413</v>
+        <v>529</v>
       </c>
       <c r="K35" t="s">
-        <v>412</v>
+        <v>530</v>
       </c>
       <c r="L35" t="s">
-        <v>411</v>
+        <v>531</v>
       </c>
       <c r="M35" t="s">
-        <v>410</v>
-      </c>
-      <c r="N35" s="8">
-        <v>1.18</v>
-      </c>
-      <c r="O35" s="8"/>
-      <c r="P35" s="8" t="s">
-        <v>409</v>
+        <v>532</v>
+      </c>
+      <c r="N35">
+        <v>1.48</v>
+      </c>
+      <c r="P35">
+        <v>0.81</v>
       </c>
       <c r="Q35">
         <v>9</v>
@@ -7681,32 +7685,32 @@
         <v>20130912</v>
       </c>
       <c r="G36">
-        <v>2.99</v>
+        <v>2.96</v>
       </c>
       <c r="H36">
-        <v>3.25</v>
+        <v>3.27</v>
       </c>
       <c r="I36">
-        <v>0.81</v>
+        <v>0.82</v>
       </c>
       <c r="J36" t="s">
-        <v>408</v>
+        <v>533</v>
       </c>
       <c r="K36" t="s">
-        <v>407</v>
+        <v>534</v>
       </c>
       <c r="L36" t="s">
-        <v>406</v>
+        <v>535</v>
       </c>
       <c r="M36" t="s">
-        <v>405</v>
+        <v>536</v>
       </c>
       <c r="N36" s="8">
-        <v>1.86</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="O36" s="8"/>
       <c r="P36" s="8" t="s">
-        <v>404</v>
+        <v>537</v>
       </c>
       <c r="Q36">
         <v>8</v>
@@ -7831,22 +7835,22 @@
         <v>1.86</v>
       </c>
       <c r="J37" t="s">
-        <v>403</v>
+        <v>538</v>
       </c>
       <c r="K37" t="s">
-        <v>402</v>
+        <v>539</v>
       </c>
       <c r="L37" t="s">
-        <v>401</v>
+        <v>540</v>
       </c>
       <c r="M37" t="s">
-        <v>400</v>
+        <v>541</v>
       </c>
       <c r="N37">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P37">
-        <v>-0.91</v>
+        <v>-9.83</v>
       </c>
       <c r="Q37">
         <v>9</v>
@@ -7962,31 +7966,31 @@
         <v>20071231</v>
       </c>
       <c r="G38">
-        <v>6.03</v>
+        <v>6</v>
       </c>
       <c r="H38">
-        <v>7.85</v>
+        <v>7.89</v>
       </c>
       <c r="I38">
-        <v>2.02</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="J38" t="s">
-        <v>399</v>
+        <v>542</v>
       </c>
       <c r="K38" t="s">
-        <v>398</v>
+        <v>543</v>
       </c>
       <c r="L38" t="s">
-        <v>397</v>
+        <v>544</v>
       </c>
       <c r="M38" t="s">
-        <v>396</v>
+        <v>545</v>
       </c>
       <c r="N38">
-        <v>0.49</v>
-      </c>
-      <c r="P38" t="s">
-        <v>395</v>
+        <v>0.67</v>
+      </c>
+      <c r="P38">
+        <v>-1.84</v>
       </c>
       <c r="Q38">
         <v>7</v>
@@ -8102,32 +8106,32 @@
         <v>20140411</v>
       </c>
       <c r="G39">
-        <v>4.5999999999999996</v>
+        <v>4.54</v>
       </c>
       <c r="H39">
-        <v>8.0299999999999994</v>
+        <v>8.14</v>
       </c>
       <c r="I39">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="J39" t="s">
-        <v>394</v>
+        <v>546</v>
       </c>
       <c r="K39" t="s">
-        <v>393</v>
+        <v>547</v>
       </c>
       <c r="L39" t="s">
-        <v>392</v>
+        <v>548</v>
       </c>
       <c r="M39" t="s">
-        <v>391</v>
+        <v>549</v>
       </c>
       <c r="N39">
-        <v>1.1299999999999999</v>
+        <v>1.36</v>
       </c>
       <c r="O39"/>
       <c r="P39">
-        <v>-1.07</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="Q39">
         <v>9</v>
@@ -8257,23 +8261,23 @@
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>390</v>
+        <v>550</v>
       </c>
       <c r="K40" t="s">
-        <v>389</v>
+        <v>551</v>
       </c>
       <c r="L40" t="s">
-        <v>388</v>
+        <v>552</v>
       </c>
       <c r="M40" t="s">
-        <v>387</v>
+        <v>553</v>
       </c>
       <c r="N40">
-        <v>1.38</v>
+        <v>1.21</v>
       </c>
       <c r="O40"/>
       <c r="P40">
-        <v>3.53</v>
+        <v>1.01</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -8359,18 +8363,6 @@
     <sortCondition ref="A39"/>
   </sortState>
   <mergeCells count="28">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="AG1:AG2"/>
-    <mergeCell ref="AH1:AH2"/>
-    <mergeCell ref="AI1:AI2"/>
-    <mergeCell ref="AJ1:AJ2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="AF1:AF2"/>
-    <mergeCell ref="AE1:AE2"/>
-    <mergeCell ref="AD1:AD2"/>
-    <mergeCell ref="AC1:AC2"/>
-    <mergeCell ref="O1:O2"/>
     <mergeCell ref="AQ1:AU1"/>
     <mergeCell ref="AK1:AK2"/>
     <mergeCell ref="B1:B2"/>
@@ -8387,6 +8379,18 @@
     <mergeCell ref="AN1:AN2"/>
     <mergeCell ref="AO1:AO2"/>
     <mergeCell ref="AP1:AP2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="AG1:AG2"/>
+    <mergeCell ref="AH1:AH2"/>
+    <mergeCell ref="AI1:AI2"/>
+    <mergeCell ref="AJ1:AJ2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="AF1:AF2"/>
+    <mergeCell ref="AE1:AE2"/>
+    <mergeCell ref="AD1:AD2"/>
+    <mergeCell ref="AC1:AC2"/>
+    <mergeCell ref="O1:O2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="AG27:AG29">

--- a/Data/彙整清單_整理版.xlsx
+++ b/Data/彙整清單_整理版.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\svnbox\Python\Stock\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hmlu\svnbox\Research\Python\Stock\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE07AC6-ABE5-4ACA-B293-903AC3BF5BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B5593A4-1872-45BE-B322-4CB97A23B86F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D923A086-913E-4840-96DC-7378B4FF8169}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="544">
   <si>
     <t>公司名稱</t>
   </si>
@@ -1250,505 +1250,475 @@
     <t>9.0  /  9.0  /  9.0  /  9.0  /  9.0</t>
   </si>
   <si>
-    <t xml:space="preserve">    61.5 /    61.72 /    61.23 /    58.66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1830.0 /   1869.6 /  1907.75 /  1585.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    12.4 /    12.26 /    12.14 /    12.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.42 /     2.19 /     1.45 /      1.2</t>
-  </si>
-  <si>
-    <t>⚠️-23.94</t>
-  </si>
-  <si>
-    <t>👍    71.0 /    70.82 /    69.55 /     68.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   150.0 /    240.4 /   166.88 /   187.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.86 /     1.85 /     1.85 /     1.91</t>
-  </si>
-  <si>
-    <t>👎   19.55 /    19.41 /     19.8 /    19.72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1692.0 /   1870.0 /   2304.5 /  3267.83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    13.9 /    13.94 /    14.05 /    13.61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.36 /     0.36 /     0.63 /     0.47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1650 (30.334%) </t>
-  </si>
-  <si>
-    <t>👎    28.6 /    28.72 /    30.18 /    31.92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3391.0 /   5873.0 /   6508.0 /  6613.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    36.4 /    36.64 /    37.46 /    39.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.72 /     0.59 /     0.65 /     1.43</t>
-  </si>
-  <si>
-    <t>⚠️-32.44</t>
-  </si>
-  <si>
-    <t>👎   34.25 /    34.04 /    34.36 /    34.85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1474.0 /   2660.4 /  3418.95 /  6006.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9.89 /      9.9 /    10.44 /    12.52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.44 /     0.52 /     0.78 /     1.26</t>
-  </si>
-  <si>
-    <t>⚠️-21.03</t>
-  </si>
-  <si>
-    <t>👎    35.9 /    35.67 /    36.25 /    37.31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2308.0 /   4936.4 /   7046.4 /  8606.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8.37 /     8.46 /     9.01 /    10.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.45 /     0.83 /     1.03 /     1.54</t>
-  </si>
-  <si>
-    <t>👍   21.55 /    21.35 /    21.33 /    21.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2036.0 /   2510.8 /   2727.4 /  3564.77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9.17 /     9.12 /     9.08 /     9.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.23 /     0.98 /      0.9 /     0.95</t>
-  </si>
-  <si>
-    <t>🏆27.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    15.5 /    15.53 /    15.57 /    15.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   340.0 /    515.8 /    749.9 /   723.98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.29 /     3.18 /     2.79 /     2.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.08 /     2.24 /     0.64 /     0.25</t>
-  </si>
-  <si>
-    <t>⚠️-17.35</t>
-  </si>
-  <si>
-    <t>👎    51.2 /     51.5 /    54.37 /    59.93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   574.0 /    847.8 /   1087.2 /   989.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7.52 /     7.49 /     7.58 /     8.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    14.7 /    12.72 /      9.3 /     4.19</t>
-  </si>
-  <si>
-    <t>⚠️-23.19</t>
-  </si>
-  <si>
-    <t>👍    30.8 /    30.67 /    30.15 /    29.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   358.0 /    572.8 /    581.2 /   541.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    10.7 /    10.64 /    10.41 /    10.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.83 /     0.82 /     0.95 /     1.36</t>
-  </si>
-  <si>
-    <t>👎   20.65 /    20.82 /    21.15 /    21.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    35.0 /    42.42 /    72.24 /   342.58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.39 /     1.38 /     1.39 /     1.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.25 /     0.25 /     0.22 /     1.03</t>
-  </si>
-  <si>
-    <t>⚠️-17.14</t>
-  </si>
-  <si>
-    <t>👎    30.6 /    30.58 /    31.18 /    31.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   200.0 /    247.4 /   307.35 /   642.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.95 /     2.96 /     3.14 /     3.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.56 /     0.56 /     0.49 /     0.58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">815Y (40.31%) </t>
-  </si>
-  <si>
-    <t>👎   33.25 /    32.59 /    33.59 /     34.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2570.0 /   1154.8 /   1448.9 /   3877.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.09 /     1.03 /     1.39 /      1.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5.97 /     5.12 /      5.4 /     5.72</t>
-  </si>
-  <si>
-    <t>👍   25.45 /    25.36 /    24.69 /    24.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  8828.0 /  15272.2 / 12021.05 / 13773.77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    46.4 /     46.3 /    45.92 /    46.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.42 /     3.19 /     2.03 /     2.72</t>
-  </si>
-  <si>
-    <t>👍    68.9 /    68.44 /    67.09 /    61.98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3322.0 /   3652.4 /  4769.05 /  7614.38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    32.7 /    32.68 /    32.78 /    34.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9.62 /     8.93 /     9.14 /     6.01</t>
-  </si>
-  <si>
-    <t>👍    31.1 /    30.91 /    30.63 /    30.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  4264.0 /   4764.2 /   4997.3 /  7141.98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    20.3 /    20.16 /    20.01 /    20.93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.19 /     1.19 /     1.08 /      1.4</t>
-  </si>
-  <si>
-    <t>👍    90.3 /    89.06 /    85.73 /    82.56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2846.0 /   2854.8 /   2684.6 /  2019.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    35.2 /    34.98 /    34.36 /    33.72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5.79 /     5.73 /     2.73 /     1.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    45.8 /    45.54 /    46.39 /    45.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   318.0 /    418.0 /   1159.7 /  1288.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.54 /     0.59 /     0.82 /     1.53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     0.1 /     0.12 /     0.11 /     0.69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    32.6 /    32.83 /    33.01 /    28.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1585.0 /   2348.2 /   9293.7 /   3656.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.12 /     1.35 /     1.58 /     2.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    30.3 /    31.32 /    31.46 /    17.59</t>
-  </si>
-  <si>
-    <t>👎   163.5 /    161.6 /    165.2 /   164.77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   881.0 /   1149.2 /   1761.6 /  2447.78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    21.6 /    21.54 /     21.9 /    21.92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    12.2 /    12.74 /    17.48 /    20.44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    49.7 /    50.08 /    51.03 /    49.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   251.0 /    329.2 /    568.0 /   455.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9.81 /     9.89 /    10.42 /    10.91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.92 /     0.96 /     0.72 /      0.5</t>
-  </si>
-  <si>
-    <t>⚠️-33.61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    28.3 /    28.35 /    27.68 /    27.52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   109.0 /    288.4 /   143.16 /   109.59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.21 /     2.25 /     2.28 /     2.23</t>
-  </si>
-  <si>
-    <t>⚠️-26.58</t>
-  </si>
-  <si>
-    <t>👎   36.35 /    36.24 /    37.04 /    37.93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   585.0 /   1175.6 /   1162.6 /   1619.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    20.3 /    20.32 /    20.57 /     21.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.48 /      1.4 /     0.89 /     0.62</t>
-  </si>
-  <si>
-    <t>⚠️-30.79</t>
-  </si>
-  <si>
-    <t>👍    51.2 /     51.0 /    50.16 /    49.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   102.0 /    99.84 /   154.09 /   140.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.74 /      3.7 /     3.68 /     3.69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    78.3 /    79.16 /    77.28 /    75.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 19502.0 /  24101.2 /  23689.2 / 23060.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    22.2 /     22.2 /    22.02 /    22.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     1.6 /     1.63 /      7.5 /    10.92</t>
-  </si>
-  <si>
-    <t>👍    55.1 /    54.54 /    54.94 /    54.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1195.0 /   1168.2 /   1044.2 /   1003.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    30.1 /     30.2 /    30.68 /     31.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.31 /      0.3 /     0.35 /      0.6</t>
-  </si>
-  <si>
-    <t>⚠️-14.39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    33.2 /    33.39 /    33.88 /    32.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1153.0 /    683.8 /  1260.25 /  1458.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8.14 /     8.17 /     8.47 /     7.98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.37 /     2.24 /     1.79 /     1.09</t>
-  </si>
-  <si>
-    <t>⚠️-19.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    30.9 /    31.04 /    31.48 /    30.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2198.0 /   3578.8 /  8175.75 / 11314.45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    10.6 /    10.78 /    11.34 /    10.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    10.6 /     9.47 /     8.73 /     8.99</t>
-  </si>
-  <si>
-    <t>⚠️-15.51</t>
-  </si>
-  <si>
-    <t>👍   128.0 /    126.8 /   124.38 /   121.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   695.0 /   1120.6 /    761.4 /   917.88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    42.6 /    42.46 /    42.42 /    41.79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.43 /      2.5 /     1.54 /     1.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   33.25 /    33.39 /    32.85 /    32.43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   543.0 /    775.6 /    972.0 /   891.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6.46 /     6.34 /     6.22 /     6.77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.16 /     0.15 /     0.15 /     0.74</t>
-  </si>
-  <si>
-    <t>👍   29.05 /    28.86 /    29.01 /    29.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   306.0 /    412.0 /    448.4 /   566.62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.83 /     3.88 /      4.1 /     4.79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.22 /     0.33 /     0.28 /      0.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8886 (45.81%) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    24.3 /    24.42 /    24.35 /    24.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   465.0 /    594.0 /   1106.3 /   2012.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5.62 /     5.63 /     5.79 /     6.59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.04 /     0.04 /     0.63 /     0.56</t>
-  </si>
-  <si>
-    <t>⚠️-14.83</t>
-  </si>
-  <si>
-    <t>👍    54.7 /     54.1 /     52.7 /    51.59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  4525.0 /   5289.6 /  5126.65 /  4112.43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    26.9 /    26.84 /    26.84 /    26.77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.49 /     0.55 /     0.41 /     0.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   33.75 /    33.52 /    33.99 /    32.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2826.0 /   4433.8 /  6732.85 / 11986.88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    12.4 /    12.32 /    12.21 /    11.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.38 /      2.0 /     1.24 /     0.88</t>
-  </si>
-  <si>
-    <t>🏆28.62</t>
-  </si>
-  <si>
-    <t>👍    59.5 /    59.12 /    58.78 /    59.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1465.0 /   3771.6 /  3019.85 /  3607.45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    23.8 /    23.46 /    23.46 /    24.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.36 /     1.38 /     1.08 /     1.85</t>
-  </si>
-  <si>
-    <t>👍    50.0 /    49.96 /    49.51 /    46.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2873.0 /   3052.8 /  5597.95 /   4507.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    23.6 /    23.84 /     23.9 /    22.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.15 /     1.25 /     1.19 /     0.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   48.45 /    48.74 /     48.5 /    47.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  6824.0 /  14255.8 /  10869.3 /  8433.45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    45.7 /    46.16 /    46.86 /    47.93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.83 /     4.07 /     3.84 /     4.98</t>
-  </si>
-  <si>
-    <t>👍    48.3 /     48.2 /    48.19 /    47.77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   465.0 /    665.8 /   924.85 /   940.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    21.4 /    21.32 /     21.2 /    20.78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     0.8 /     0.44 /     0.26 /     0.22</t>
+    <t xml:space="preserve">    61.3 /    61.22 /     61.3 /    59.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2070.0 /   1734.8 /  1782.45 /  1463.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    12.4 /     12.4 /    12.24 /    12.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.81 /     3.95 /     2.18 /     1.51</t>
+  </si>
+  <si>
+    <t>⚠️-21.26</t>
+  </si>
+  <si>
+    <t>👍    70.6 /     70.1 /    69.75 /    69.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   222.0 /    179.4 /   169.78 /   177.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.83 /     1.82 /     1.84 /     1.87</t>
+  </si>
+  <si>
+    <t>👎   19.55 /    19.17 /    19.58 /    19.76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3118.0 /   2746.8 /   2360.1 /  3103.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    13.8 /    13.76 /    13.99 /    13.76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.53 /     0.44 /     0.55 /      0.5</t>
+  </si>
+  <si>
+    <t>👎   28.75 /    27.89 /    29.31 /     31.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  6872.0 /   5524.8 /  6811.95 /  6233.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    36.6 /    36.42 /    36.98 /     38.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.71 /     0.73 /     0.71 /     1.07</t>
+  </si>
+  <si>
+    <t>👍    34.3 /     33.5 /     34.1 /     34.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2850.0 /   2213.0 /  3342.05 /  4768.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    9.86 /     9.76 /    10.17 /    11.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.48 /     0.47 /     0.66 /     0.81</t>
+  </si>
+  <si>
+    <t>👍   36.75 /    35.36 /    35.91 /    36.76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  8527.0 /   4460.4 /   7192.8 /  6848.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    8.89 /     8.41 /     8.75 /     9.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.91 /     0.62 /     0.91 /     1.01</t>
+  </si>
+  <si>
+    <t>👍    21.6 /    20.77 /    21.17 /    21.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  6047.0 /   4527.2 /   3101.1 /  3271.87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    9.12 /     8.98 /     9.08 /     9.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1.0 /      1.2 /     0.95 /     0.96</t>
+  </si>
+  <si>
+    <t>👎   15.15 /     15.1 /    15.48 /    15.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   292.0 /    627.2 /   719.45 /   721.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.44 /      2.6 /     2.85 /     2.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     3.4 /     3.05 /     1.38 /     0.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8440 (32.09%) </t>
+  </si>
+  <si>
+    <t>👎   45.65 /    46.13 /    51.62 /    57.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2673.0 /   3220.8 /   1719.8 /  1249.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    8.74 /     7.82 /      7.6 /      7.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    16.7 /    17.26 /    12.29 /     6.01</t>
+  </si>
+  <si>
+    <t>⚠️-20.24</t>
+  </si>
+  <si>
+    <t>👍    30.8 /    30.49 /    30.34 /    29.86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   585.0 /    623.2 /    632.0 /   534.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    10.7 /     10.7 /    10.54 /    10.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.86 /     0.88 /     0.91 /     1.21</t>
+  </si>
+  <si>
+    <t>👎   20.45 /    20.23 /    20.89 /    21.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    30.0 /    79.62 /    70.46 /   212.81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.33 /     1.33 /     1.39 /      1.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.41 /     0.33 /     0.26 /     0.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9A79 (38.095%) </t>
+  </si>
+  <si>
+    <t>👍   30.75 /    29.96 /    30.74 /     31.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   540.0 /    427.6 /    351.3 /   573.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     2.8 /     2.79 /     3.01 /     3.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.51 /     0.59 /     0.55 /     0.51</t>
+  </si>
+  <si>
+    <t>👎    32.6 /    31.82 /    32.71 /    34.82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1463.0 /   1731.0 /  1630.25 /  3515.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.13 /     0.97 /     1.16 /     1.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.88 /     2.83 /     4.71 /     6.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   25.15 /     25.3 /    24.99 /    24.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18635.0 /  18134.8 /  14322.4 / 14786.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    46.0 /    46.14 /    46.06 /    46.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     4.0 /     4.22 /     2.75 /     2.48</t>
+  </si>
+  <si>
+    <t>⚠️-22.94</t>
+  </si>
+  <si>
+    <t>👍    69.9 /     68.4 /    67.52 /    63.69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  7176.0 /   5194.0 /  4422.85 /  7968.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    32.7 /    32.64 /    32.73 /     33.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    9.51 /    10.13 /     9.31 /     6.61</t>
+  </si>
+  <si>
+    <t>👎   30.35 /    30.12 /    30.62 /     30.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2665.0 /   4948.6 /   5361.0 /  6928.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    19.9 /     20.0 /    20.04 /    20.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.27 /     1.23 /     1.13 /     1.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    88.0 /     88.9 /    87.38 /    83.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3123.0 /   2998.4 /   3043.0 /  2158.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    35.1 /     35.2 /     34.7 /    33.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.94 /     5.51 /     4.08 /     1.78</t>
+  </si>
+  <si>
+    <t>⚠️-13.26</t>
+  </si>
+  <si>
+    <t>👎    44.0 /    43.79 /    45.95 /    45.46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   381.0 /    540.6 /   1019.5 /  1387.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     0.3 /     0.36 /     0.68 /     1.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.07 /     0.24 /     0.15 /     0.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    30.4 /    31.03 /    33.06 /    28.69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1186.0 /   1337.6 /   4995.7 /   3982.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.48 /     1.27 /     1.39 /     2.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    23.9 /    25.66 /     32.2 /    19.28</t>
+  </si>
+  <si>
+    <t>👍   168.5 /    162.9 /   163.95 /   164.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3854.0 /   1680.6 /   1802.9 /  2137.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    21.7 /    21.42 /    21.72 /    21.76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    13.2 /     12.4 /    15.58 /    18.35</t>
+  </si>
+  <si>
+    <t>🏆26.13</t>
+  </si>
+  <si>
+    <t>👎    48.4 /    48.06 /     50.3 /    50.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   178.0 /    327.6 /    569.4 /   468.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     9.5 /     9.59 /    10.14 /    10.71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.76 /     0.95 /     0.85 /     0.57</t>
+  </si>
+  <si>
+    <t>👍    27.9 /    27.61 /    27.79 /    27.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    39.4 /    76.76 /   139.88 /   109.49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.16 /     2.15 /     2.25 /     2.23</t>
+  </si>
+  <si>
+    <t>👍   36.75 /    35.86 /    36.61 /    37.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1066.0 /   1146.2 /   1180.1 /  1488.49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    20.3 /    20.18 /    20.41 /    20.89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.61 /     1.42 /     1.06 /     0.73</t>
+  </si>
+  <si>
+    <t>🏆23.43</t>
+  </si>
+  <si>
+    <t>👍    51.4 /    50.56 /    50.45 /    49.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   169.0 /   126.06 /   157.38 /   127.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.76 /     3.73 /     3.69 /     3.72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    77.1 /    76.28 /    77.46 /     75.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 28502.0 /  29428.6 /  27625.6 / 24012.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    22.0 /    22.08 /    22.08 /    22.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.31 /     1.33 /     5.11 /     8.45</t>
+  </si>
+  <si>
+    <t>👍    55.2 /     54.5 /    54.95 /    54.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1361.0 /   1109.6 /   1170.7 /  1039.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    29.7 /    29.84 /     30.4 /    30.92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.44 /      0.4 /     0.32 /     0.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   33.35 /     32.7 /    33.47 /    32.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   436.0 /    690.0 /    834.6 /  1508.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     7.9 /     7.97 /     8.25 /      8.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.06 /     2.84 /     2.12 /     1.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    30.7 /    30.12 /    31.04 /    30.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3246.0 /   3460.6 /   4876.5 / 10194.38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    10.4 /    10.24 /    10.85 /    10.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     9.5 /     9.07 /     9.04 /     8.73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   128.0 /    128.0 /    125.5 /   123.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1356.0 /   1042.4 /    879.0 /   970.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    42.5 /    42.54 /    42.45 /    41.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.77 /     2.61 /     1.96 /     1.33</t>
+  </si>
+  <si>
+    <t>👍   33.15 /    32.83 /    32.99 /    32.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   681.0 /    971.6 /  1069.85 /   812.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5.97 /     6.17 /      6.2 /     6.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.19 /     0.15 /     0.15 /      0.4</t>
+  </si>
+  <si>
+    <t>👍   28.95 /     28.6 /    28.86 /    29.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   312.0 /    414.8 /   432.65 /   459.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.72 /     3.74 /     3.97 /     4.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     0.0 /     0.07 /     0.18 /     0.31</t>
+  </si>
+  <si>
+    <t>👎   23.65 /    23.29 /    24.12 /    24.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   534.0 /    834.8 /  1086.15 /  2133.89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     5.2 /     5.25 /     5.63 /      6.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.37 /     0.41 /     0.62 /     0.64</t>
+  </si>
+  <si>
+    <t>👍    55.1 /    54.54 /     53.4 /    51.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  7447.0 /   4817.8 /  5339.65 /  4467.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    26.9 /     26.9 /    26.86 /    26.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.57 /     0.51 /     0.46 /     0.47</t>
+  </si>
+  <si>
+    <t>👎    33.0 /    32.69 /    33.59 /    33.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2882.0 /   4046.0 /  5487.35 / 12797.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    12.3 /    12.32 /    12.31 /    11.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.54 /     0.54 /     1.11 /     0.95</t>
+  </si>
+  <si>
+    <t>👎    57.2 /    57.38 /    58.41 /    59.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3667.0 /   2826.6 /   3283.5 /  3232.93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    22.7 /     23.2 /    23.28 /    24.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.57 /     1.65 /     1.27 /     1.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   49.15 /    48.59 /    49.63 /    47.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2531.0 /   3039.0 /   4484.3 /   4454.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    23.3 /    23.32 /    23.86 /    22.83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     0.0 /     0.48 /     1.12 /     0.68</t>
+  </si>
+  <si>
+    <t>👎    45.8 /    46.43 /    47.97 /    47.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  7225.0 /   7343.4 / 11048.45 /  8593.69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    44.3 /     44.9 /    46.32 /    46.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1.6 /     1.76 /      3.4 /     5.04</t>
+  </si>
+  <si>
+    <t>👎    47.6 /    47.17 /    47.95 /    47.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   749.0 /    941.2 /    925.1 /   908.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    21.2 /    21.26 /     21.3 /    20.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.86 /     0.86 /     0.43 /     0.27</t>
   </si>
 </sst>
 </file>
@@ -1941,7 +1911,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2119,12 +2089,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2372,7 +2336,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2395,9 +2359,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2773,10 +2734,10 @@
   <dimension ref="A1:AZ40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
+      <selection pane="bottomRight" activeCell="G3" sqref="G3:P40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2803,31 +2764,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>31</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -2842,89 +2803,89 @@
       <c r="M1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="10" t="s">
         <v>380</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="Q1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="10"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
       <c r="AA1" s="3"/>
       <c r="AB1" s="3"/>
-      <c r="AC1" s="12" t="s">
+      <c r="AC1" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="AD1" s="12" t="s">
+      <c r="AD1" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="AE1" s="12" t="s">
+      <c r="AE1" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="AF1" s="12" t="s">
+      <c r="AF1" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="AG1" s="10" t="s">
+      <c r="AG1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="AH1" s="9" t="s">
+      <c r="AH1" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="AI1" s="10" t="s">
+      <c r="AI1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="AJ1" s="9" t="s">
+      <c r="AJ1" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="AK1" s="9" t="s">
+      <c r="AK1" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="AL1" s="9" t="s">
+      <c r="AL1" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="AM1" s="9" t="s">
+      <c r="AM1" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="AN1" s="9" t="s">
+      <c r="AN1" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="AO1" s="9" t="s">
+      <c r="AO1" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="AP1" s="9" t="s">
+      <c r="AP1" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="AQ1" s="9" t="s">
+      <c r="AQ1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AR1" s="9"/>
-      <c r="AS1" s="9"/>
-      <c r="AT1" s="9"/>
-      <c r="AU1" s="9"/>
+      <c r="AR1" s="8"/>
+      <c r="AS1" s="8"/>
+      <c r="AT1" s="8"/>
+      <c r="AU1" s="8"/>
     </row>
     <row r="2" spans="1:49" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
       <c r="J2" s="4" t="s">
         <v>34</v>
       </c>
@@ -2937,9 +2898,9 @@
       <c r="M2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
       <c r="Q2" s="5" t="s">
         <v>41</v>
       </c>
@@ -2976,20 +2937,20 @@
       <c r="AB2" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="AC2" s="12"/>
-      <c r="AD2" s="12"/>
-      <c r="AE2" s="12"/>
-      <c r="AF2" s="12"/>
-      <c r="AG2" s="10"/>
-      <c r="AH2" s="9"/>
-      <c r="AI2" s="10"/>
-      <c r="AJ2" s="9"/>
-      <c r="AK2" s="9"/>
-      <c r="AL2" s="9"/>
-      <c r="AM2" s="9"/>
-      <c r="AN2" s="9"/>
-      <c r="AO2" s="9"/>
-      <c r="AP2" s="9"/>
+      <c r="AC2" s="11"/>
+      <c r="AD2" s="11"/>
+      <c r="AE2" s="11"/>
+      <c r="AF2" s="11"/>
+      <c r="AG2" s="9"/>
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="9"/>
+      <c r="AJ2" s="8"/>
+      <c r="AK2" s="8"/>
+      <c r="AL2" s="8"/>
+      <c r="AM2" s="8"/>
+      <c r="AN2" s="8"/>
+      <c r="AO2" s="8"/>
+      <c r="AP2" s="8"/>
       <c r="AQ2" s="2">
         <v>2021</v>
       </c>
@@ -3028,13 +2989,13 @@
         <v>19760719</v>
       </c>
       <c r="G3">
-        <v>4.3899999999999997</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="H3">
-        <v>17.47</v>
+        <v>17.41</v>
       </c>
       <c r="I3">
-        <v>2.2200000000000002</v>
+        <v>2.21</v>
       </c>
       <c r="J3" t="s">
         <v>387</v>
@@ -3049,7 +3010,7 @@
         <v>390</v>
       </c>
       <c r="N3">
-        <v>0.28000000000000003</v>
+        <v>0.67</v>
       </c>
       <c r="O3"/>
       <c r="P3" t="s">
@@ -3169,13 +3130,13 @@
         <v>19951102</v>
       </c>
       <c r="G4">
-        <v>3.66</v>
+        <v>3.68</v>
       </c>
       <c r="H4">
-        <v>18.02</v>
+        <v>17.920000000000002</v>
       </c>
       <c r="I4">
-        <v>3.33</v>
+        <v>3.31</v>
       </c>
       <c r="J4" t="s">
         <v>392</v>
@@ -3190,11 +3151,11 @@
         <v>156</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0.26</v>
       </c>
       <c r="O4"/>
       <c r="P4">
-        <v>0.95</v>
+        <v>-18.93</v>
       </c>
       <c r="Q4">
         <v>11</v>
@@ -3331,13 +3292,11 @@
         <v>398</v>
       </c>
       <c r="N5">
-        <v>1.39</v>
-      </c>
-      <c r="O5" t="s">
-        <v>399</v>
-      </c>
+        <v>1.2</v>
+      </c>
+      <c r="O5"/>
       <c r="P5">
-        <v>18.62</v>
+        <v>5.36</v>
       </c>
       <c r="Q5">
         <v>9</v>
@@ -3453,32 +3412,32 @@
         <v>19720520</v>
       </c>
       <c r="G6">
-        <v>3.5</v>
+        <v>3.48</v>
       </c>
       <c r="H6">
-        <v>6.26</v>
+        <v>6.29</v>
       </c>
       <c r="I6">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="J6" t="s">
+        <v>399</v>
+      </c>
+      <c r="K6" t="s">
         <v>400</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>401</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>402</v>
       </c>
-      <c r="M6" t="s">
-        <v>403</v>
-      </c>
       <c r="N6">
-        <v>0.25</v>
+        <v>0.98</v>
       </c>
       <c r="O6"/>
-      <c r="P6" t="s">
-        <v>404</v>
+      <c r="P6">
+        <v>8.99</v>
       </c>
       <c r="Q6">
         <v>10</v>
@@ -3594,32 +3553,32 @@
         <v>19730305</v>
       </c>
       <c r="G7">
-        <v>6.72</v>
+        <v>6.71</v>
       </c>
       <c r="H7">
-        <v>6.89</v>
+        <v>6.9</v>
       </c>
       <c r="I7">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="J7" t="s">
+        <v>403</v>
+      </c>
+      <c r="K7" t="s">
+        <v>404</v>
+      </c>
+      <c r="L7" t="s">
         <v>405</v>
       </c>
-      <c r="K7" t="s">
+      <c r="M7" t="s">
         <v>406</v>
       </c>
-      <c r="L7" t="s">
-        <v>407</v>
-      </c>
-      <c r="M7" t="s">
-        <v>408</v>
-      </c>
       <c r="N7">
-        <v>0.32</v>
+        <v>0.99</v>
       </c>
       <c r="O7"/>
-      <c r="P7" t="s">
-        <v>409</v>
+      <c r="P7">
+        <v>12.84</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -3735,32 +3694,32 @@
         <v>19860620</v>
       </c>
       <c r="G8">
-        <v>3.9</v>
+        <v>3.81</v>
       </c>
       <c r="H8">
-        <v>7.89</v>
+        <v>8.08</v>
       </c>
       <c r="I8">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="J8" t="s">
+        <v>407</v>
+      </c>
+      <c r="K8" t="s">
+        <v>408</v>
+      </c>
+      <c r="L8" t="s">
+        <v>409</v>
+      </c>
+      <c r="M8" t="s">
         <v>410</v>
       </c>
-      <c r="K8" t="s">
-        <v>411</v>
-      </c>
-      <c r="L8" t="s">
-        <v>412</v>
-      </c>
-      <c r="M8" t="s">
-        <v>413</v>
-      </c>
       <c r="N8">
-        <v>0.45</v>
+        <v>1.84</v>
       </c>
       <c r="O8"/>
       <c r="P8">
-        <v>-3.34</v>
+        <v>9.65</v>
       </c>
       <c r="Q8">
         <v>11</v>
@@ -3876,32 +3835,32 @@
         <v>19890327</v>
       </c>
       <c r="G9">
-        <v>4.6399999999999997</v>
+        <v>4.63</v>
       </c>
       <c r="H9">
-        <v>6.57</v>
+        <v>6.59</v>
       </c>
       <c r="I9">
         <v>0.97</v>
       </c>
       <c r="J9" t="s">
+        <v>411</v>
+      </c>
+      <c r="K9" t="s">
+        <v>412</v>
+      </c>
+      <c r="L9" t="s">
+        <v>413</v>
+      </c>
+      <c r="M9" t="s">
         <v>414</v>
       </c>
-      <c r="K9" t="s">
-        <v>415</v>
-      </c>
-      <c r="L9" t="s">
-        <v>416</v>
-      </c>
-      <c r="M9" t="s">
-        <v>417</v>
-      </c>
-      <c r="N9" s="8">
-        <v>2.21</v>
-      </c>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8" t="s">
-        <v>418</v>
+      <c r="N9">
+        <v>1.29</v>
+      </c>
+      <c r="O9"/>
+      <c r="P9">
+        <v>12.09</v>
       </c>
       <c r="Q9">
         <v>13</v>
@@ -4017,32 +3976,34 @@
         <v>20001031</v>
       </c>
       <c r="G10">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="H10">
-        <v>10.99</v>
+        <v>10.74</v>
       </c>
       <c r="I10">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="J10" t="s">
+        <v>415</v>
+      </c>
+      <c r="K10" t="s">
+        <v>416</v>
+      </c>
+      <c r="L10" t="s">
+        <v>417</v>
+      </c>
+      <c r="M10" t="s">
+        <v>418</v>
+      </c>
+      <c r="N10">
+        <v>0.86</v>
+      </c>
+      <c r="O10" t="s">
         <v>419</v>
       </c>
-      <c r="K10" t="s">
-        <v>420</v>
-      </c>
-      <c r="L10" t="s">
-        <v>421</v>
-      </c>
-      <c r="M10" t="s">
-        <v>422</v>
-      </c>
-      <c r="N10">
-        <v>0.38</v>
-      </c>
-      <c r="O10"/>
-      <c r="P10" t="s">
-        <v>423</v>
+      <c r="P10">
+        <v>2.74</v>
       </c>
       <c r="Q10">
         <v>13</v>
@@ -4158,32 +4119,32 @@
         <v>19950204</v>
       </c>
       <c r="G11">
-        <v>7.03</v>
+        <v>7.89</v>
       </c>
       <c r="H11">
-        <v>8.06</v>
+        <v>7.19</v>
       </c>
       <c r="I11">
-        <v>2.39</v>
+        <v>2.13</v>
       </c>
       <c r="J11" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="K11" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="L11" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="M11" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="N11">
-        <v>0.48</v>
+        <v>0.27</v>
       </c>
       <c r="O11"/>
       <c r="P11" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="Q11">
         <v>12</v>
@@ -4308,23 +4269,23 @@
         <v>1.35</v>
       </c>
       <c r="J12" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="K12" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="L12" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="M12" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="N12">
-        <v>3</v>
+        <v>1.57</v>
       </c>
       <c r="O12"/>
       <c r="P12">
-        <v>16.75</v>
+        <v>11.79</v>
       </c>
       <c r="Q12">
         <v>7</v>
@@ -4440,32 +4401,34 @@
         <v>20160509</v>
       </c>
       <c r="G13">
-        <v>4.84</v>
+        <v>4.8899999999999997</v>
       </c>
       <c r="H13">
-        <v>8.36</v>
+        <v>8.2799999999999994</v>
       </c>
       <c r="I13">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="J13" t="s">
+        <v>429</v>
+      </c>
+      <c r="K13" t="s">
+        <v>430</v>
+      </c>
+      <c r="L13" t="s">
+        <v>431</v>
+      </c>
+      <c r="M13" t="s">
+        <v>432</v>
+      </c>
+      <c r="N13">
+        <v>1.33</v>
+      </c>
+      <c r="O13" t="s">
         <v>433</v>
       </c>
-      <c r="K13" t="s">
-        <v>434</v>
-      </c>
-      <c r="L13" t="s">
-        <v>435</v>
-      </c>
-      <c r="M13" t="s">
-        <v>436</v>
-      </c>
-      <c r="N13">
-        <v>0.37</v>
-      </c>
-      <c r="O13"/>
-      <c r="P13" t="s">
-        <v>437</v>
+      <c r="P13">
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>12</v>
@@ -4581,34 +4544,32 @@
         <v>19930427</v>
       </c>
       <c r="G14">
-        <v>5.56</v>
+        <v>5.53</v>
       </c>
       <c r="H14">
-        <v>8.6</v>
+        <v>8.64</v>
       </c>
       <c r="I14">
         <v>1.91</v>
       </c>
       <c r="J14" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="K14" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="L14" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="M14" t="s">
-        <v>441</v>
-      </c>
-      <c r="N14" s="8">
-        <v>1.3</v>
-      </c>
-      <c r="O14" s="8" t="s">
-        <v>442</v>
-      </c>
-      <c r="P14" s="8">
-        <v>6.99</v>
+        <v>437</v>
+      </c>
+      <c r="N14">
+        <v>0.96</v>
+      </c>
+      <c r="O14"/>
+      <c r="P14">
+        <v>4.63</v>
       </c>
       <c r="Q14">
         <v>12</v>
@@ -4724,32 +4685,32 @@
         <v>20160322</v>
       </c>
       <c r="G15">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="H15">
-        <v>8.64</v>
+        <v>8.4700000000000006</v>
       </c>
       <c r="I15">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="J15" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="K15" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="L15" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="M15" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="N15">
-        <v>0.95</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="O15"/>
       <c r="P15">
-        <v>1.94</v>
+        <v>4.92</v>
       </c>
       <c r="Q15">
         <v>10</v>
@@ -4865,32 +4826,32 @@
         <v>19920218</v>
       </c>
       <c r="G16">
-        <v>6.29</v>
+        <v>6.36</v>
       </c>
       <c r="H16">
-        <v>7.9</v>
+        <v>7.81</v>
       </c>
       <c r="I16">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="J16" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="K16" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="L16" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="M16" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="N16">
-        <v>1.26</v>
+        <v>0.41</v>
       </c>
       <c r="O16"/>
-      <c r="P16">
-        <v>2.2400000000000002</v>
+      <c r="P16" t="s">
+        <v>446</v>
       </c>
       <c r="Q16">
         <v>9</v>
@@ -5006,32 +4967,32 @@
         <v>19951213</v>
       </c>
       <c r="G17">
-        <v>4.79</v>
+        <v>4.72</v>
       </c>
       <c r="H17">
-        <v>6.88</v>
+        <v>6.98</v>
       </c>
       <c r="I17">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="J17" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="K17" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="L17" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="M17" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="N17">
-        <v>1.88</v>
+        <v>2.81</v>
       </c>
       <c r="O17"/>
       <c r="P17">
-        <v>5.18</v>
+        <v>7.01</v>
       </c>
       <c r="Q17">
         <v>9</v>
@@ -5147,32 +5108,32 @@
         <v>19960722</v>
       </c>
       <c r="G18">
-        <v>4.82</v>
+        <v>4.9400000000000004</v>
       </c>
       <c r="H18">
-        <v>6.75</v>
+        <v>6.58</v>
       </c>
       <c r="I18">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="J18" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="K18" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="L18" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="M18" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="N18">
-        <v>0.91</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="O18"/>
       <c r="P18">
-        <v>14.68</v>
+        <v>14.78</v>
       </c>
       <c r="Q18">
         <v>8</v>
@@ -5288,32 +5249,32 @@
         <v>19990105</v>
       </c>
       <c r="G19">
-        <v>6.09</v>
+        <v>6.25</v>
       </c>
       <c r="H19">
-        <v>11.13</v>
+        <v>10.85</v>
       </c>
       <c r="I19">
-        <v>2.2599999999999998</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="J19" t="s">
+        <v>455</v>
+      </c>
+      <c r="K19" t="s">
+        <v>456</v>
+      </c>
+      <c r="L19" t="s">
+        <v>457</v>
+      </c>
+      <c r="M19" t="s">
+        <v>458</v>
+      </c>
+      <c r="N19">
+        <v>0.74</v>
+      </c>
+      <c r="O19"/>
+      <c r="P19" t="s">
         <v>459</v>
-      </c>
-      <c r="K19" t="s">
-        <v>460</v>
-      </c>
-      <c r="L19" t="s">
-        <v>461</v>
-      </c>
-      <c r="M19" t="s">
-        <v>462</v>
-      </c>
-      <c r="N19">
-        <v>1.9</v>
-      </c>
-      <c r="O19"/>
-      <c r="P19">
-        <v>12.48</v>
       </c>
       <c r="Q19">
         <v>10</v>
@@ -5429,32 +5390,32 @@
         <v>19990125</v>
       </c>
       <c r="G20">
-        <v>4.37</v>
+        <v>4.55</v>
       </c>
       <c r="H20">
-        <v>7.17</v>
+        <v>6.89</v>
       </c>
       <c r="I20">
-        <v>1.1299999999999999</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="J20" t="s">
+        <v>460</v>
+      </c>
+      <c r="K20" t="s">
+        <v>461</v>
+      </c>
+      <c r="L20" t="s">
+        <v>462</v>
+      </c>
+      <c r="M20" t="s">
         <v>463</v>
       </c>
-      <c r="K20" t="s">
-        <v>464</v>
-      </c>
-      <c r="L20" t="s">
-        <v>465</v>
-      </c>
-      <c r="M20" t="s">
-        <v>466</v>
-      </c>
       <c r="N20">
-        <v>1.83</v>
+        <v>2.5</v>
       </c>
       <c r="O20"/>
       <c r="P20">
-        <v>15.43</v>
+        <v>13.92</v>
       </c>
       <c r="Q20">
         <v>10</v>
@@ -5570,32 +5531,32 @@
         <v>20000911</v>
       </c>
       <c r="G21">
-        <v>6.13</v>
+        <v>6.58</v>
       </c>
       <c r="H21">
-        <v>12.07</v>
+        <v>11.26</v>
       </c>
       <c r="I21">
-        <v>1.48</v>
+        <v>1.38</v>
       </c>
       <c r="J21" t="s">
+        <v>464</v>
+      </c>
+      <c r="K21" t="s">
+        <v>465</v>
+      </c>
+      <c r="L21" t="s">
+        <v>466</v>
+      </c>
+      <c r="M21" t="s">
         <v>467</v>
       </c>
-      <c r="K21" t="s">
-        <v>468</v>
-      </c>
-      <c r="L21" t="s">
-        <v>469</v>
-      </c>
-      <c r="M21" t="s">
-        <v>470</v>
-      </c>
       <c r="N21">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="O21"/>
       <c r="P21">
-        <v>-0.06</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="Q21">
         <v>13</v>
@@ -5711,32 +5672,32 @@
         <v>20010917</v>
       </c>
       <c r="G22">
-        <v>5.5</v>
+        <v>5.34</v>
       </c>
       <c r="H22">
-        <v>9.36</v>
+        <v>9.65</v>
       </c>
       <c r="I22">
-        <v>4.9000000000000004</v>
+        <v>5.04</v>
       </c>
       <c r="J22" t="s">
+        <v>468</v>
+      </c>
+      <c r="K22" t="s">
+        <v>469</v>
+      </c>
+      <c r="L22" t="s">
+        <v>470</v>
+      </c>
+      <c r="M22" t="s">
         <v>471</v>
       </c>
-      <c r="K22" t="s">
+      <c r="N22">
+        <v>2.4</v>
+      </c>
+      <c r="O22"/>
+      <c r="P22" t="s">
         <v>472</v>
-      </c>
-      <c r="L22" t="s">
-        <v>473</v>
-      </c>
-      <c r="M22" t="s">
-        <v>474</v>
-      </c>
-      <c r="N22">
-        <v>1.52</v>
-      </c>
-      <c r="O22"/>
-      <c r="P22">
-        <v>2.96</v>
       </c>
       <c r="Q22">
         <v>12</v>
@@ -5852,32 +5813,32 @@
         <v>20010917</v>
       </c>
       <c r="G23">
-        <v>5.45</v>
+        <v>5.6</v>
       </c>
       <c r="H23">
-        <v>11.92</v>
+        <v>11.61</v>
       </c>
       <c r="I23">
-        <v>2.9</v>
+        <v>2.83</v>
       </c>
       <c r="J23" t="s">
+        <v>473</v>
+      </c>
+      <c r="K23" t="s">
+        <v>474</v>
+      </c>
+      <c r="L23" t="s">
         <v>475</v>
       </c>
-      <c r="K23" t="s">
+      <c r="M23" t="s">
         <v>476</v>
       </c>
-      <c r="L23" t="s">
-        <v>477</v>
-      </c>
-      <c r="M23" t="s">
-        <v>478</v>
-      </c>
       <c r="N23">
-        <v>0.21</v>
+        <v>0.9</v>
       </c>
       <c r="O23"/>
-      <c r="P23" t="s">
-        <v>479</v>
+      <c r="P23">
+        <v>-1.59</v>
       </c>
       <c r="Q23">
         <v>11</v>
@@ -5993,32 +5954,32 @@
         <v>20010917</v>
       </c>
       <c r="G24">
-        <v>5.3</v>
+        <v>5.38</v>
       </c>
       <c r="H24">
-        <v>15.3</v>
+        <v>15.08</v>
       </c>
       <c r="I24">
-        <v>1.1200000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J24" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="K24" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="L24" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="M24" t="s">
         <v>156</v>
       </c>
       <c r="N24">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
       <c r="O24"/>
-      <c r="P24" t="s">
-        <v>483</v>
+      <c r="P24">
+        <v>15.24</v>
       </c>
       <c r="Q24">
         <v>7</v>
@@ -6134,32 +6095,32 @@
         <v>19931027</v>
       </c>
       <c r="G25">
-        <v>9.35</v>
+        <v>9.25</v>
       </c>
       <c r="H25">
-        <v>4.28</v>
+        <v>4.32</v>
       </c>
       <c r="I25">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="J25" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="K25" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="L25" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="M25" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="N25">
-        <v>0.46</v>
+        <v>2.79</v>
       </c>
       <c r="O25"/>
       <c r="P25" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="Q25">
         <v>7</v>
@@ -6275,32 +6236,32 @@
         <v>20000911</v>
       </c>
       <c r="G26">
-        <v>7.03</v>
+        <v>7</v>
       </c>
       <c r="H26">
-        <v>7.28</v>
+        <v>7.31</v>
       </c>
       <c r="I26">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="J26" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="K26" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="L26" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="M26" t="s">
         <v>156</v>
       </c>
       <c r="N26">
-        <v>1.1499999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="O26"/>
       <c r="P26">
-        <v>15.76</v>
+        <v>6.53</v>
       </c>
       <c r="Q26">
         <v>7</v>
@@ -6416,32 +6377,32 @@
         <v>20011219</v>
       </c>
       <c r="G27">
-        <v>3.83</v>
+        <v>3.89</v>
       </c>
       <c r="H27">
-        <v>6.45</v>
+        <v>6.35</v>
       </c>
       <c r="I27">
-        <v>1.1599999999999999</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="J27" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="K27" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="L27" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="M27" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="N27">
-        <v>0.83</v>
+        <v>1.47</v>
       </c>
       <c r="O27"/>
       <c r="P27">
-        <v>-5.09</v>
+        <v>-1.74</v>
       </c>
       <c r="Q27">
         <v>7</v>
@@ -6557,32 +6518,32 @@
         <v>20020225</v>
       </c>
       <c r="G28">
-        <v>6.52</v>
+        <v>6.5</v>
       </c>
       <c r="H28">
-        <v>7.59</v>
+        <v>7.6</v>
       </c>
       <c r="I28">
         <v>1.92</v>
       </c>
       <c r="J28" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="K28" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="L28" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="M28" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="N28">
-        <v>0.78</v>
+        <v>1.87</v>
       </c>
       <c r="O28"/>
-      <c r="P28" t="s">
-        <v>500</v>
+      <c r="P28">
+        <v>6.47</v>
       </c>
       <c r="Q28">
         <v>10</v>
@@ -6698,32 +6659,32 @@
         <v>20020826</v>
       </c>
       <c r="G29">
-        <v>5.72</v>
+        <v>5.7</v>
       </c>
       <c r="H29">
-        <v>8.56</v>
+        <v>8.6</v>
       </c>
       <c r="I29">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="J29" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="K29" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="L29" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="M29" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="N29">
-        <v>0.51</v>
+        <v>1.85</v>
       </c>
       <c r="O29"/>
-      <c r="P29" t="s">
-        <v>505</v>
+      <c r="P29">
+        <v>7.57</v>
       </c>
       <c r="Q29">
         <v>10</v>
@@ -6842,31 +6803,31 @@
         <v>20020826</v>
       </c>
       <c r="G30">
-        <v>4.3</v>
+        <v>4.33</v>
       </c>
       <c r="H30">
-        <v>8.61</v>
+        <v>8.5500000000000007</v>
       </c>
       <c r="I30">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="J30" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="K30" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="L30" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="M30" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="N30">
-        <v>0.4</v>
-      </c>
-      <c r="P30" t="s">
-        <v>510</v>
+        <v>0.7</v>
+      </c>
+      <c r="P30">
+        <v>-4.1500000000000004</v>
       </c>
       <c r="Q30">
         <v>9</v>
@@ -6991,22 +6952,22 @@
         <v>1.84</v>
       </c>
       <c r="J31" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="K31" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="L31" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="M31" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="N31">
-        <v>0.38</v>
+        <v>0.94</v>
       </c>
       <c r="P31">
-        <v>-4.66</v>
+        <v>-4.03</v>
       </c>
       <c r="Q31">
         <v>8</v>
@@ -7122,31 +7083,31 @@
         <v>20021001</v>
       </c>
       <c r="G32">
-        <v>8.7200000000000006</v>
+        <v>8.75</v>
       </c>
       <c r="H32">
-        <v>7.75</v>
+        <v>7.73</v>
       </c>
       <c r="I32">
         <v>2.04</v>
       </c>
       <c r="J32" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="K32" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="L32" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="M32" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="N32">
-        <v>0.54</v>
+        <v>0.91</v>
       </c>
       <c r="P32">
-        <v>-5.71</v>
+        <v>-0.59</v>
       </c>
       <c r="Q32">
         <v>8</v>
@@ -7262,34 +7223,31 @@
         <v>20081126</v>
       </c>
       <c r="G33">
-        <v>6.88</v>
+        <v>6.91</v>
       </c>
       <c r="H33">
-        <v>8.14</v>
+        <v>8.11</v>
       </c>
       <c r="I33">
         <v>1.66</v>
       </c>
       <c r="J33" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="K33" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="L33" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="M33" t="s">
-        <v>522</v>
-      </c>
-      <c r="N33" s="8">
-        <v>0.77</v>
-      </c>
-      <c r="O33" s="8" t="s">
-        <v>523</v>
-      </c>
-      <c r="P33" s="8">
-        <v>0</v>
+        <v>515</v>
+      </c>
+      <c r="N33">
+        <v>1.02</v>
+      </c>
+      <c r="P33">
+        <v>6.41</v>
       </c>
       <c r="Q33">
         <v>9</v>
@@ -7405,31 +7363,31 @@
         <v>20101229</v>
       </c>
       <c r="G34">
-        <v>4.12</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="H34">
-        <v>7.74</v>
+        <v>7.53</v>
       </c>
       <c r="I34">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="J34" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="K34" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="L34" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="M34" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="N34">
-        <v>1.03</v>
-      </c>
-      <c r="P34" t="s">
-        <v>528</v>
+        <v>0.39</v>
+      </c>
+      <c r="P34">
+        <v>-5.81</v>
       </c>
       <c r="Q34">
         <v>15</v>
@@ -7545,31 +7503,31 @@
         <v>20051109</v>
       </c>
       <c r="G35">
-        <v>5.67</v>
+        <v>5.63</v>
       </c>
       <c r="H35">
-        <v>9.4499999999999993</v>
+        <v>9.52</v>
       </c>
       <c r="I35">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="J35" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="K35" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="L35" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="M35" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="N35">
-        <v>1.48</v>
+        <v>1.01</v>
       </c>
       <c r="P35">
-        <v>0.81</v>
+        <v>-3.44</v>
       </c>
       <c r="Q35">
         <v>9</v>
@@ -7685,32 +7643,31 @@
         <v>20130912</v>
       </c>
       <c r="G36">
-        <v>2.96</v>
+        <v>3.03</v>
       </c>
       <c r="H36">
-        <v>3.27</v>
+        <v>3.2</v>
       </c>
       <c r="I36">
-        <v>0.82</v>
+        <v>0.8</v>
       </c>
       <c r="J36" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="K36" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="L36" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="M36" t="s">
-        <v>536</v>
-      </c>
-      <c r="N36" s="8">
-        <v>2.4700000000000002</v>
-      </c>
-      <c r="O36" s="8"/>
-      <c r="P36" s="8" t="s">
-        <v>537</v>
+        <v>527</v>
+      </c>
+      <c r="N36">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="P36">
+        <v>-4.71</v>
       </c>
       <c r="Q36">
         <v>8</v>
@@ -7826,31 +7783,31 @@
         <v>20030825</v>
       </c>
       <c r="G37">
-        <v>4.82</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="H37">
-        <v>10.37</v>
+        <v>9.9700000000000006</v>
       </c>
       <c r="I37">
-        <v>1.86</v>
+        <v>1.79</v>
       </c>
       <c r="J37" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="K37" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="L37" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="M37" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="N37">
-        <v>1.22</v>
+        <v>2.46</v>
       </c>
       <c r="P37">
-        <v>-9.83</v>
+        <v>6.93</v>
       </c>
       <c r="Q37">
         <v>9</v>
@@ -7966,31 +7923,31 @@
         <v>20071231</v>
       </c>
       <c r="G38">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="H38">
-        <v>7.89</v>
+        <v>7.75</v>
       </c>
       <c r="I38">
-        <v>2.0299999999999998</v>
+        <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="K38" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="L38" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="M38" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="N38">
-        <v>0.67</v>
+        <v>1.31</v>
       </c>
       <c r="P38">
-        <v>-1.84</v>
+        <v>-5.66</v>
       </c>
       <c r="Q38">
         <v>7</v>
@@ -8106,32 +8063,32 @@
         <v>20140411</v>
       </c>
       <c r="G39">
-        <v>4.54</v>
+        <v>4.8</v>
       </c>
       <c r="H39">
-        <v>8.14</v>
+        <v>7.7</v>
       </c>
       <c r="I39">
-        <v>1.54</v>
+        <v>1.46</v>
       </c>
       <c r="J39" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="K39" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="L39" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="M39" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="N39">
-        <v>1.36</v>
+        <v>0.94</v>
       </c>
       <c r="O39"/>
       <c r="P39">
-        <v>2.1800000000000002</v>
+        <v>-4.26</v>
       </c>
       <c r="Q39">
         <v>9</v>
@@ -8252,32 +8209,32 @@
         <v>20091225</v>
       </c>
       <c r="G40">
-        <v>7.25</v>
+        <v>7.35</v>
       </c>
       <c r="H40">
-        <v>7.98</v>
+        <v>7.87</v>
       </c>
       <c r="I40">
+        <v>0.98</v>
+      </c>
+      <c r="J40" t="s">
+        <v>540</v>
+      </c>
+      <c r="K40" t="s">
+        <v>541</v>
+      </c>
+      <c r="L40" t="s">
+        <v>542</v>
+      </c>
+      <c r="M40" t="s">
+        <v>543</v>
+      </c>
+      <c r="N40">
         <v>1</v>
-      </c>
-      <c r="J40" t="s">
-        <v>550</v>
-      </c>
-      <c r="K40" t="s">
-        <v>551</v>
-      </c>
-      <c r="L40" t="s">
-        <v>552</v>
-      </c>
-      <c r="M40" t="s">
-        <v>553</v>
-      </c>
-      <c r="N40">
-        <v>1.21</v>
       </c>
       <c r="O40"/>
       <c r="P40">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="Q40">
         <v>6</v>

--- a/Data/彙整清單_整理版.xlsx
+++ b/Data/彙整清單_整理版.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hmlu\svnbox\Research\Python\Stock\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\svnbox\Python\Stock\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B5593A4-1872-45BE-B322-4CB97A23B86F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74CBCDEC-936A-48ED-A14E-4C9E67C52CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D923A086-913E-4840-96DC-7378B4FF8169}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$6:$AU$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$6:$AU$26</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="536">
   <si>
     <t>公司名稱</t>
   </si>
@@ -671,12 +671,6 @@
     <t xml:space="preserve">  1.06 /    0.0</t>
   </si>
   <si>
-    <t>展宇</t>
-  </si>
-  <si>
-    <t>展宇科技材料股份有限公司</t>
-  </si>
-  <si>
     <t>20.0  /  20.0  /  20.0  /  20.0  /  20.0</t>
   </si>
   <si>
@@ -891,15 +885,6 @@
     <t>53.11  /  52.69  /  52.8  /  52.74  /  52.71</t>
   </si>
   <si>
-    <t>20.21  /  20.1  /  20.29  /  20.32  /  20.3</t>
-  </si>
-  <si>
-    <t>25.96  /  26.12  /  25.93  /  25.93  /  25.97</t>
-  </si>
-  <si>
-    <t>53.74  /  53.71  /  53.7  /  53.67  /  53.66</t>
-  </si>
-  <si>
     <t>35.14  /  35.15  /  34.97  /  35.0  /  35.1</t>
   </si>
   <si>
@@ -1250,475 +1235,466 @@
     <t>9.0  /  9.0  /  9.0  /  9.0  /  9.0</t>
   </si>
   <si>
-    <t xml:space="preserve">    61.3 /    61.22 /     61.3 /    59.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2070.0 /   1734.8 /  1782.45 /  1463.85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    12.4 /     12.4 /    12.24 /    12.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.81 /     3.95 /     2.18 /     1.51</t>
-  </si>
-  <si>
-    <t>⚠️-21.26</t>
-  </si>
-  <si>
-    <t>👍    70.6 /     70.1 /    69.75 /    69.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   222.0 /    179.4 /   169.78 /   177.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.83 /     1.82 /     1.84 /     1.87</t>
-  </si>
-  <si>
-    <t>👎   19.55 /    19.17 /    19.58 /    19.76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3118.0 /   2746.8 /   2360.1 /  3103.65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    13.8 /    13.76 /    13.99 /    13.76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.53 /     0.44 /     0.55 /      0.5</t>
-  </si>
-  <si>
-    <t>👎   28.75 /    27.89 /    29.31 /     31.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  6872.0 /   5524.8 /  6811.95 /  6233.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    36.6 /    36.42 /    36.98 /     38.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.71 /     0.73 /     0.71 /     1.07</t>
-  </si>
-  <si>
-    <t>👍    34.3 /     33.5 /     34.1 /     34.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2850.0 /   2213.0 /  3342.05 /  4768.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9.86 /     9.76 /    10.17 /    11.37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.48 /     0.47 /     0.66 /     0.81</t>
-  </si>
-  <si>
-    <t>👍   36.75 /    35.36 /    35.91 /    36.76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  8527.0 /   4460.4 /   7192.8 /  6848.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8.89 /     8.41 /     8.75 /     9.58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.91 /     0.62 /     0.91 /     1.01</t>
-  </si>
-  <si>
-    <t>👍    21.6 /    20.77 /    21.17 /    21.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  6047.0 /   4527.2 /   3101.1 /  3271.87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9.12 /     8.98 /     9.08 /     9.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     1.0 /      1.2 /     0.95 /     0.96</t>
-  </si>
-  <si>
-    <t>👎   15.15 /     15.1 /    15.48 /    15.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   292.0 /    627.2 /   719.45 /   721.96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.44 /      2.6 /     2.85 /     2.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     3.4 /     3.05 /     1.38 /     0.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8440 (32.09%) </t>
-  </si>
-  <si>
-    <t>👎   45.65 /    46.13 /    51.62 /    57.44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2673.0 /   3220.8 /   1719.8 /  1249.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8.74 /     7.82 /      7.6 /      7.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    16.7 /    17.26 /    12.29 /     6.01</t>
-  </si>
-  <si>
-    <t>⚠️-20.24</t>
-  </si>
-  <si>
-    <t>👍    30.8 /    30.49 /    30.34 /    29.86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   585.0 /    623.2 /    632.0 /   534.45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    10.7 /     10.7 /    10.54 /    10.36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.86 /     0.88 /     0.91 /     1.21</t>
-  </si>
-  <si>
-    <t>👎   20.45 /    20.23 /    20.89 /    21.58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    30.0 /    79.62 /    70.46 /   212.81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.33 /     1.33 /     1.39 /      1.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.41 /     0.33 /     0.26 /     0.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9A79 (38.095%) </t>
-  </si>
-  <si>
-    <t>👍   30.75 /    29.96 /    30.74 /     31.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   540.0 /    427.6 /    351.3 /   573.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     2.8 /     2.79 /     3.01 /     3.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.51 /     0.59 /     0.55 /     0.51</t>
-  </si>
-  <si>
-    <t>👎    32.6 /    31.82 /    32.71 /    34.82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1463.0 /   1731.0 /  1630.25 /  3515.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.13 /     0.97 /     1.16 /     1.44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.88 /     2.83 /     4.71 /     6.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   25.15 /     25.3 /    24.99 /    24.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 18635.0 /  18134.8 /  14322.4 / 14786.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    46.0 /    46.14 /    46.06 /    46.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     4.0 /     4.22 /     2.75 /     2.48</t>
-  </si>
-  <si>
-    <t>⚠️-22.94</t>
-  </si>
-  <si>
-    <t>👍    69.9 /     68.4 /    67.52 /    63.69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  7176.0 /   5194.0 /  4422.85 /  7968.56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    32.7 /    32.64 /    32.73 /     33.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9.51 /    10.13 /     9.31 /     6.61</t>
-  </si>
-  <si>
-    <t>👎   30.35 /    30.12 /    30.62 /     30.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2665.0 /   4948.6 /   5361.0 /  6928.96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    19.9 /     20.0 /    20.04 /    20.48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.27 /     1.23 /     1.13 /     1.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    88.0 /     88.9 /    87.38 /    83.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3123.0 /   2998.4 /   3043.0 /  2158.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    35.1 /     35.2 /     34.7 /    33.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4.94 /     5.51 /     4.08 /     1.78</t>
-  </si>
-  <si>
-    <t>⚠️-13.26</t>
-  </si>
-  <si>
-    <t>👎    44.0 /    43.79 /    45.95 /    45.46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   381.0 /    540.6 /   1019.5 /  1387.31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     0.3 /     0.36 /     0.68 /     1.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.07 /     0.24 /     0.15 /     0.31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    30.4 /    31.03 /    33.06 /    28.69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1186.0 /   1337.6 /   4995.7 /   3982.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.48 /     1.27 /     1.39 /     2.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    23.9 /    25.66 /     32.2 /    19.28</t>
-  </si>
-  <si>
-    <t>👍   168.5 /    162.9 /   163.95 /   164.47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3854.0 /   1680.6 /   1802.9 /  2137.47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    21.7 /    21.42 /    21.72 /    21.76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    13.2 /     12.4 /    15.58 /    18.35</t>
-  </si>
-  <si>
-    <t>🏆26.13</t>
-  </si>
-  <si>
-    <t>👎    48.4 /    48.06 /     50.3 /    50.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   178.0 /    327.6 /    569.4 /   468.47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     9.5 /     9.59 /    10.14 /    10.71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.76 /     0.95 /     0.85 /     0.57</t>
-  </si>
-  <si>
-    <t>👍    27.9 /    27.61 /    27.79 /    27.45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    39.4 /    76.76 /   139.88 /   109.49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.16 /     2.15 /     2.25 /     2.23</t>
-  </si>
-  <si>
-    <t>👍   36.75 /    35.86 /    36.61 /    37.65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1066.0 /   1146.2 /   1180.1 /  1488.49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    20.3 /    20.18 /    20.41 /    20.89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.61 /     1.42 /     1.06 /     0.73</t>
-  </si>
-  <si>
-    <t>🏆23.43</t>
-  </si>
-  <si>
-    <t>👍    51.4 /    50.56 /    50.45 /    49.85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   169.0 /   126.06 /   157.38 /   127.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.76 /     3.73 /     3.69 /     3.72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    77.1 /    76.28 /    77.46 /     75.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 28502.0 /  29428.6 /  27625.6 / 24012.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    22.0 /    22.08 /    22.08 /    22.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.31 /     1.33 /     5.11 /     8.45</t>
-  </si>
-  <si>
-    <t>👍    55.2 /     54.5 /    54.95 /    54.36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1361.0 /   1109.6 /   1170.7 /  1039.31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    29.7 /    29.84 /     30.4 /    30.92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.44 /      0.4 /     0.32 /     0.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   33.35 /     32.7 /    33.47 /    32.62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   436.0 /    690.0 /    834.6 /  1508.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     7.9 /     7.97 /     8.25 /      8.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.06 /     2.84 /     2.12 /     1.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    30.7 /    30.12 /    31.04 /    30.48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3246.0 /   3460.6 /   4876.5 / 10194.38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    10.4 /    10.24 /    10.85 /    10.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     9.5 /     9.07 /     9.04 /     8.73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   128.0 /    128.0 /    125.5 /   123.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1356.0 /   1042.4 /    879.0 /   970.36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    42.5 /    42.54 /    42.45 /    41.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.77 /     2.61 /     1.96 /     1.33</t>
-  </si>
-  <si>
-    <t>👍   33.15 /    32.83 /    32.99 /    32.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   681.0 /    971.6 /  1069.85 /   812.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5.97 /     6.17 /      6.2 /     6.52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.19 /     0.15 /     0.15 /      0.4</t>
-  </si>
-  <si>
-    <t>👍   28.95 /     28.6 /    28.86 /    29.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   312.0 /    414.8 /   432.65 /   459.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.72 /     3.74 /     3.97 /     4.52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     0.0 /     0.07 /     0.18 /     0.31</t>
-  </si>
-  <si>
-    <t>👎   23.65 /    23.29 /    24.12 /    24.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   534.0 /    834.8 /  1086.15 /  2133.89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     5.2 /     5.25 /     5.63 /      6.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.37 /     0.41 /     0.62 /     0.64</t>
-  </si>
-  <si>
-    <t>👍    55.1 /    54.54 /     53.4 /    51.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  7447.0 /   4817.8 /  5339.65 /  4467.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    26.9 /     26.9 /    26.86 /    26.74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.57 /     0.51 /     0.46 /     0.47</t>
-  </si>
-  <si>
-    <t>👎    33.0 /    32.69 /    33.59 /    33.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2882.0 /   4046.0 /  5487.35 / 12797.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    12.3 /    12.32 /    12.31 /    11.58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.54 /     0.54 /     1.11 /     0.95</t>
-  </si>
-  <si>
-    <t>👎    57.2 /    57.38 /    58.41 /    59.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3667.0 /   2826.6 /   3283.5 /  3232.93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    22.7 /     23.2 /    23.28 /    24.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.57 /     1.65 /     1.27 /     1.37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   49.15 /    48.59 /    49.63 /    47.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2531.0 /   3039.0 /   4484.3 /   4454.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    23.3 /    23.32 /    23.86 /    22.83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     0.0 /     0.48 /     1.12 /     0.68</t>
-  </si>
-  <si>
-    <t>👎    45.8 /    46.43 /    47.97 /    47.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  7225.0 /   7343.4 / 11048.45 /  8593.69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    44.3 /     44.9 /    46.32 /    46.96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     1.6 /     1.76 /      3.4 /     5.04</t>
-  </si>
-  <si>
-    <t>👎    47.6 /    47.17 /    47.95 /    47.74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   749.0 /    941.2 /    925.1 /   908.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    21.2 /    21.26 /     21.3 /    20.96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.86 /     0.86 /     0.43 /     0.27</t>
+    <t>👍    62.2 /     61.4 /    61.32 /    59.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1874.0 /   1819.2 /   1754.9 /  1479.98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    12.4 /     12.4 /    12.25 /    12.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.77 /     3.95 /     2.31 /     1.56</t>
+  </si>
+  <si>
+    <t>⚠️-10.3</t>
+  </si>
+  <si>
+    <t>👍    71.7 /     70.4 /    69.87 /    69.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   249.0 /    193.2 /   176.32 /   179.82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.88 /     1.83 /     1.84 /     1.87</t>
+  </si>
+  <si>
+    <t>👍   19.65 /    19.25 /    19.56 /    19.76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1389.0 /   2501.0 /   2283.7 /   2929.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    13.8 /    13.76 /    13.97 /    13.77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.54 /     0.47 /     0.53 /      0.5</t>
+  </si>
+  <si>
+    <t>👎    29.2 /    28.11 /     29.2 /     31.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  6669.0 /   5624.2 /  6912.55 /  6208.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    36.6 /    36.48 /     36.9 /    38.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.83 /     0.75 /     0.73 /     1.05</t>
+  </si>
+  <si>
+    <t>👍   34.55 /    33.63 /    34.09 /    34.38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2367.0 /   2207.4 /  3367.85 /  4578.84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    9.95 /     9.77 /    10.13 /    11.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.51 /     0.48 /     0.65 /     0.81</t>
+  </si>
+  <si>
+    <t>👍   36.85 /    35.63 /    35.92 /    36.72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4619.0 /   4594.2 /   7230.5 /  6561.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    9.02 /     8.55 /     8.73 /     9.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.92 /      0.7 /     0.91 /     0.99</t>
+  </si>
+  <si>
+    <t>👍   21.85 /    20.92 /    21.18 /    21.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4684.0 /   4840.6 /   3161.9 /   3280.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     9.2 /      9.0 /     9.08 /     9.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.04 /     1.17 /     0.96 /     0.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9621 (32.125%) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    15.4 /    15.11 /    15.48 /    15.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   424.0 /    609.4 /   713.05 /   657.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.65 /     2.49 /     2.84 /     2.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.88 /     3.24 /     1.57 /     0.61</t>
+  </si>
+  <si>
+    <t>👎    43.6 /    45.21 /    50.98 /    57.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  7370.0 /   4031.8 /  2026.15 /  1371.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    8.63 /     8.07 /     7.64 /      7.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    15.7 /     16.9 /    12.81 /     6.28</t>
+  </si>
+  <si>
+    <t>👍   30.85 /    30.54 /    30.39 /    29.88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   571.0 /    597.6 /    637.8 /   510.69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    10.8 /    10.72 /    10.56 /    10.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.86 /     0.87 /      0.9 /     1.19</t>
+  </si>
+  <si>
+    <t>🏆20.83</t>
+  </si>
+  <si>
+    <t>👍   31.25 /    30.21 /    30.72 /     31.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   236.0 /    352.8 /    350.2 /   549.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.83 /     2.78 /     2.99 /     3.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.58 /     0.59 /     0.55 /     0.51</t>
+  </si>
+  <si>
+    <t>👍   33.15 /    32.02 /    32.64 /    34.79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1272.0 /   1116.4 /  1625.45 /  3334.71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.39 /     1.05 /     1.16 /     1.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.16 /     2.84 /      4.6 /      6.1</t>
+  </si>
+  <si>
+    <t>👍   25.55 /    25.32 /    25.06 /    24.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12808.0 /  15597.6 / 14538.25 / 14886.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    46.1 /     46.1 /    46.08 /    46.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.87 /     4.06 /     2.88 /     2.46</t>
+  </si>
+  <si>
+    <t>👍    70.0 /     68.7 /     67.7 /    63.91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4166.0 /   4924.0 /  4525.85 /  7962.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    32.7 /    32.66 /    32.72 /    33.86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     9.1 /     10.1 /     9.28 /     6.71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    30.4 /    30.09 /    30.61 /    30.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3072.0 /   4426.0 /  5275.75 /  6816.69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    19.9 /    19.94 /    20.04 /    20.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.26 /     1.25 /     1.14 /     1.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    88.2 /    88.48 /    87.68 /    83.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2638.0 /   2907.0 /   3109.3 /  2186.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    35.0 /    35.14 /    34.76 /    33.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.96 /     5.28 /     4.32 /     1.85</t>
+  </si>
+  <si>
+    <t>⚠️-12.66</t>
+  </si>
+  <si>
+    <t>👎    44.4 /    43.71 /    45.78 /    45.49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   361.0 /    446.4 /    946.9 /  1382.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.37 /     0.34 /     0.65 /      1.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.07 /     0.24 /     0.15 /     0.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    30.8 /    30.79 /     33.0 /    28.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   646.0 /   1141.4 /  4703.65 /  3984.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.55 /     1.35 /     1.38 /     2.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    24.3 /    24.56 /    32.02 /    19.48</t>
+  </si>
+  <si>
+    <t>👍   171.0 /    164.7 /    164.0 /   164.61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3276.0 /   1997.2 /  1890.25 /   2159.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    21.9 /     21.5 /     21.7 /    21.76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    13.3 /     12.6 /    15.21 /    18.27</t>
+  </si>
+  <si>
+    <t>🏆23.91</t>
+  </si>
+  <si>
+    <t>👎   49.85 /    48.22 /    50.19 /    50.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   197.0 /    288.6 /   497.85 /   466.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     9.5 /     9.55 /    10.08 /    10.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.74 /     0.88 /     0.86 /     0.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    27.8 /    27.57 /     27.8 /    27.46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    50.1 /     70.1 /   138.16 /   109.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.16 /     2.15 /     2.24 /     2.23</t>
+  </si>
+  <si>
+    <t>👍   36.95 /    36.06 /    36.57 /    37.63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1045.0 /   1061.0 /  1192.65 /   1462.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    20.2 /    20.18 /    20.39 /    20.87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.61 /     1.45 /      1.1 /     0.75</t>
+  </si>
+  <si>
+    <t>👍    51.7 /    50.84 /    50.55 /    49.88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   153.0 /   131.46 /   155.43 /   125.98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.73 /     3.73 /     3.69 /     3.72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    76.8 /     76.3 /    77.49 /    75.77</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18973.0 /  26563.6 /  27896.6 / 24072.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    22.0 /    22.04 /    22.08 /    22.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.39 /     1.31 /     4.65 /     8.28</t>
+  </si>
+  <si>
+    <t>⚠️-16.31</t>
+  </si>
+  <si>
+    <t>👍    55.8 /    54.74 /    54.95 /    54.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1267.0 /   1151.0 /   1157.0 /  1041.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    29.7 /    29.78 /    30.34 /    30.88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.31 /      0.6 /     0.37 /     0.56</t>
+  </si>
+  <si>
+    <t>👍   33.75 /    32.87 /    33.42 /    32.69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   483.0 /    608.8 /    821.0 /  1484.78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    7.94 /     7.94 /     8.22 /     8.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.03 /     2.91 /     2.19 /     1.23</t>
+  </si>
+  <si>
+    <t>👍    31.2 /     30.3 /    31.01 /    30.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3270.0 /   3158.4 /  4792.15 /  8288.84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    10.8 /    10.36 /    10.82 /    10.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     7.3 /     8.76 /     9.03 /     8.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   127.0 /    127.9 /   125.62 /   123.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   934.0 /   1007.4 /   903.05 /    975.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    42.5 /    42.52 /    42.45 /    41.98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     2.7 /     2.66 /     2.06 /     1.36</t>
+  </si>
+  <si>
+    <t>👍    34.4 /    33.07 /    33.08 /    32.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2261.0 /   1216.6 /   1129.5 /   836.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    6.24 /     6.12 /      6.2 /      6.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.17 /     0.15 /     0.15 /     0.38</t>
+  </si>
+  <si>
+    <t>👍   29.05 /    28.67 /    28.85 /     29.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   312.0 /    391.8 /    431.7 /   451.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.65 /     3.71 /     3.94 /     4.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     0.0 /     0.02 /     0.18 /     0.31</t>
+  </si>
+  <si>
+    <t>👍    24.2 /    23.42 /     24.1 /    24.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   891.0 /    762.2 /   1069.1 /  2129.82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5.46 /     5.27 /      5.6 /     6.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.37 /     0.37 /     0.58 /     0.65</t>
+  </si>
+  <si>
+    <t>👍    55.2 /    54.72 /    53.53 /    51.81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4277.0 /   4507.4 /   5371.1 /  4501.98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    27.0 /    26.92 /    26.86 /    26.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.61 /     0.52 /     0.47 /     0.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    33.5 /    32.77 /     33.5 /    33.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2668.0 /   3657.6 /   4834.7 / 12791.89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    12.4 /    12.32 /    12.32 /    11.61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.53 /     0.53 /     1.08 /     0.96</t>
+  </si>
+  <si>
+    <t>👎    57.5 /    57.22 /    58.34 /    59.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1733.0 /   2624.2 /  3264.25 /  3219.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    22.6 /    23.02 /    23.23 /    24.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.45 /     1.68 /      1.3 /     1.36</t>
+  </si>
+  <si>
+    <t>⚠️-15.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   49.05 /    48.57 /    49.56 /    47.38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1981.0 /   2748.2 /   3758.0 /  4448.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    23.3 /    23.32 /    23.82 /    22.86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     0.0 /     0.26 /     1.06 /     0.68</t>
+  </si>
+  <si>
+    <t>⚠️-11.0</t>
+  </si>
+  <si>
+    <t>👎   46.35 /    46.18 /    47.86 /    47.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  8442.0 /   7270.2 /  11268.4 /  8619.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    44.1 /    44.64 /    46.16 /    46.87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.27 /     1.45 /     3.28 /     4.96</t>
+  </si>
+  <si>
+    <t>⚠️-24.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    47.8 /    47.19 /    47.92 /    47.72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   466.0 /    843.2 /    876.6 /   890.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    21.2 /    21.22 /     21.3 /    20.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.85 /     0.86 /     0.46 /     0.29</t>
   </si>
 </sst>
 </file>
@@ -2367,13 +2343,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2731,13 +2707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2696BFBE-0625-42C0-8E1C-A5A53CEB8548}">
-  <dimension ref="A1:AZ40"/>
+  <dimension ref="A1:AZ39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G3" sqref="G3:P40"/>
+      <selection pane="bottomRight" activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2773,7 +2749,7 @@
       <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="9" t="s">
@@ -2803,14 +2779,14 @@
       <c r="M1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>380</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>230</v>
+      <c r="N1" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>228</v>
       </c>
       <c r="Q1" s="9" t="s">
         <v>4</v>
@@ -2826,16 +2802,16 @@
       <c r="Z1" s="9"/>
       <c r="AA1" s="3"/>
       <c r="AB1" s="3"/>
-      <c r="AC1" s="11" t="s">
+      <c r="AC1" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="AD1" s="11" t="s">
+      <c r="AD1" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="AE1" s="11" t="s">
+      <c r="AE1" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="AF1" s="11" t="s">
+      <c r="AF1" s="12" t="s">
         <v>176</v>
       </c>
       <c r="AG1" s="9" t="s">
@@ -2880,7 +2856,7 @@
       <c r="A2" s="8"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
-      <c r="D2" s="12"/>
+      <c r="D2" s="10"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
@@ -2898,9 +2874,9 @@
       <c r="M2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
       <c r="Q2" s="5" t="s">
         <v>41</v>
       </c>
@@ -2937,10 +2913,10 @@
       <c r="AB2" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="AC2" s="11"/>
-      <c r="AD2" s="11"/>
-      <c r="AE2" s="11"/>
-      <c r="AF2" s="11"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="12"/>
+      <c r="AF2" s="12"/>
       <c r="AG2" s="9"/>
       <c r="AH2" s="8"/>
       <c r="AI2" s="9"/>
@@ -2989,32 +2965,32 @@
         <v>19760719</v>
       </c>
       <c r="G3">
-        <v>4.4000000000000004</v>
+        <v>4.34</v>
       </c>
       <c r="H3">
-        <v>17.41</v>
+        <v>17.670000000000002</v>
       </c>
       <c r="I3">
-        <v>2.21</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="J3" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="K3" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="L3" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="M3" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="N3">
-        <v>0.67</v>
+        <v>0.69</v>
       </c>
       <c r="O3"/>
       <c r="P3" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="Q3">
         <v>11</v>
@@ -3053,16 +3029,16 @@
         <v>60.8</v>
       </c>
       <c r="AC3" t="s">
+        <v>236</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>237</v>
+      </c>
+      <c r="AE3" t="s">
         <v>238</v>
       </c>
-      <c r="AD3" t="s">
-        <v>239</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>240</v>
-      </c>
       <c r="AF3" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="AG3" s="1">
         <v>26.64</v>
@@ -3130,32 +3106,32 @@
         <v>19951102</v>
       </c>
       <c r="G4">
-        <v>3.68</v>
+        <v>3.63</v>
       </c>
       <c r="H4">
-        <v>17.920000000000002</v>
+        <v>18.2</v>
       </c>
       <c r="I4">
-        <v>3.31</v>
+        <v>3.36</v>
       </c>
       <c r="J4" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="K4" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="L4" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="M4" t="s">
         <v>156</v>
       </c>
       <c r="N4">
-        <v>0.26</v>
+        <v>1.08</v>
       </c>
       <c r="O4"/>
       <c r="P4">
-        <v>-18.93</v>
+        <v>8.85</v>
       </c>
       <c r="Q4">
         <v>11</v>
@@ -3194,16 +3170,16 @@
         <v>66.81</v>
       </c>
       <c r="AC4" t="s">
+        <v>239</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>240</v>
+      </c>
+      <c r="AE4" t="s">
         <v>241</v>
       </c>
-      <c r="AD4" t="s">
-        <v>242</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>243</v>
-      </c>
       <c r="AF4" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="AG4" s="1">
         <v>23.18</v>
@@ -3271,32 +3247,32 @@
         <v>19730831</v>
       </c>
       <c r="G5">
-        <v>5.63</v>
+        <v>5.6</v>
       </c>
       <c r="H5">
-        <v>8.61</v>
+        <v>8.66</v>
       </c>
       <c r="I5">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="J5" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="K5" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="L5" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="M5" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="N5">
-        <v>1.2</v>
+        <v>0.74</v>
       </c>
       <c r="O5"/>
       <c r="P5">
-        <v>5.36</v>
+        <v>-2.59</v>
       </c>
       <c r="Q5">
         <v>9</v>
@@ -3335,16 +3311,16 @@
         <v>38.590000000000003</v>
       </c>
       <c r="AC5" t="s">
+        <v>242</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>243</v>
+      </c>
+      <c r="AE5" t="s">
         <v>244</v>
       </c>
-      <c r="AD5" t="s">
-        <v>245</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>246</v>
-      </c>
       <c r="AF5" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="AG5" s="1">
         <v>24.73</v>
@@ -3412,32 +3388,32 @@
         <v>19720520</v>
       </c>
       <c r="G6">
-        <v>3.48</v>
+        <v>3.42</v>
       </c>
       <c r="H6">
-        <v>6.29</v>
+        <v>6.39</v>
       </c>
       <c r="I6">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="J6" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="K6" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="L6" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="M6" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="N6">
-        <v>0.98</v>
+        <v>0.86</v>
       </c>
       <c r="O6"/>
       <c r="P6">
-        <v>8.99</v>
+        <v>1.42</v>
       </c>
       <c r="Q6">
         <v>10</v>
@@ -3476,16 +3452,16 @@
         <v>91.4</v>
       </c>
       <c r="AC6" t="s">
+        <v>245</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>246</v>
+      </c>
+      <c r="AE6" t="s">
         <v>247</v>
       </c>
-      <c r="AD6" t="s">
-        <v>248</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>249</v>
-      </c>
       <c r="AF6" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="AG6">
         <v>23.9</v>
@@ -3538,10 +3514,10 @@
         <v>1305</v>
       </c>
       <c r="B7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D7" s="7">
         <v>5810504940</v>
@@ -3553,32 +3529,32 @@
         <v>19730305</v>
       </c>
       <c r="G7">
-        <v>6.71</v>
+        <v>6.66</v>
       </c>
       <c r="H7">
-        <v>6.9</v>
+        <v>6.95</v>
       </c>
       <c r="I7">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="J7" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="K7" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="L7" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="M7" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="N7">
-        <v>0.99</v>
+        <v>1.28</v>
       </c>
       <c r="O7"/>
       <c r="P7">
-        <v>12.84</v>
+        <v>10.87</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -3617,16 +3593,16 @@
         <v>79.680000000000007</v>
       </c>
       <c r="AC7" t="s">
+        <v>248</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AE7" t="s">
         <v>250</v>
       </c>
-      <c r="AD7" t="s">
-        <v>251</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>252</v>
-      </c>
       <c r="AF7" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="AG7">
         <v>25.41</v>
@@ -3662,16 +3638,16 @@
         <v>158</v>
       </c>
       <c r="AR7" t="s">
+        <v>222</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>223</v>
+      </c>
+      <c r="AT7" t="s">
         <v>224</v>
       </c>
-      <c r="AS7" t="s">
+      <c r="AU7" t="s">
         <v>225</v>
-      </c>
-      <c r="AT7" t="s">
-        <v>226</v>
-      </c>
-      <c r="AU7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
@@ -3679,10 +3655,10 @@
         <v>1308</v>
       </c>
       <c r="B8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C8" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D8" s="7">
         <v>5937439190</v>
@@ -3694,32 +3670,32 @@
         <v>19860620</v>
       </c>
       <c r="G8">
-        <v>3.81</v>
+        <v>3.8</v>
       </c>
       <c r="H8">
-        <v>8.08</v>
+        <v>8.1</v>
       </c>
       <c r="I8">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="J8" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="K8" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="L8" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="M8" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="N8">
-        <v>1.84</v>
+        <v>1.37</v>
       </c>
       <c r="O8"/>
       <c r="P8">
-        <v>9.65</v>
+        <v>6.6</v>
       </c>
       <c r="Q8">
         <v>11</v>
@@ -3758,16 +3734,16 @@
         <v>100.3</v>
       </c>
       <c r="AC8" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>252</v>
+      </c>
+      <c r="AE8" t="s">
         <v>253</v>
       </c>
-      <c r="AD8" t="s">
-        <v>254</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>255</v>
-      </c>
       <c r="AF8" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="AG8">
         <v>34.97</v>
@@ -3800,19 +3776,19 @@
         <v>72</v>
       </c>
       <c r="AQ8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AR8" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AS8" t="s">
         <v>119</v>
       </c>
       <c r="AT8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AU8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
@@ -3835,32 +3811,34 @@
         <v>19890327</v>
       </c>
       <c r="G9">
-        <v>4.63</v>
+        <v>4.58</v>
       </c>
       <c r="H9">
-        <v>6.59</v>
+        <v>6.66</v>
       </c>
       <c r="I9">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="J9" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="K9" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="L9" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="M9" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="N9">
-        <v>1.29</v>
-      </c>
-      <c r="O9"/>
+        <v>2.06</v>
+      </c>
+      <c r="O9" t="s">
+        <v>410</v>
+      </c>
       <c r="P9">
-        <v>12.09</v>
+        <v>17.37</v>
       </c>
       <c r="Q9">
         <v>13</v>
@@ -3899,16 +3877,16 @@
         <v>86.32</v>
       </c>
       <c r="AC9" t="s">
+        <v>254</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>255</v>
+      </c>
+      <c r="AE9" t="s">
         <v>256</v>
       </c>
-      <c r="AD9" t="s">
-        <v>257</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>258</v>
-      </c>
       <c r="AF9" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="AG9">
         <v>9.1999999999999993</v>
@@ -3976,34 +3954,32 @@
         <v>20001031</v>
       </c>
       <c r="G10">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="H10">
-        <v>10.74</v>
+        <v>10.92</v>
       </c>
       <c r="I10">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="J10" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="K10" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="L10" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="M10" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="N10">
-        <v>0.86</v>
-      </c>
-      <c r="O10" t="s">
-        <v>419</v>
-      </c>
+        <v>1.03</v>
+      </c>
+      <c r="O10"/>
       <c r="P10">
-        <v>2.74</v>
+        <v>2.83</v>
       </c>
       <c r="Q10">
         <v>13</v>
@@ -4042,16 +4018,16 @@
         <v>35.25</v>
       </c>
       <c r="AC10" t="s">
+        <v>257</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>258</v>
+      </c>
+      <c r="AE10" t="s">
         <v>259</v>
       </c>
-      <c r="AD10" t="s">
-        <v>260</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>261</v>
-      </c>
       <c r="AF10" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AG10" s="1">
         <v>16.04</v>
@@ -4104,10 +4080,10 @@
         <v>1515</v>
       </c>
       <c r="B11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D11">
         <v>1814735000</v>
@@ -4119,32 +4095,32 @@
         <v>19950204</v>
       </c>
       <c r="G11">
-        <v>7.89</v>
+        <v>8.26</v>
       </c>
       <c r="H11">
-        <v>7.19</v>
+        <v>6.87</v>
       </c>
       <c r="I11">
-        <v>2.13</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="J11" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="K11" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="L11" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="M11" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="N11">
-        <v>0.27</v>
+        <v>0.69</v>
       </c>
       <c r="O11"/>
-      <c r="P11" t="s">
-        <v>424</v>
+      <c r="P11">
+        <v>-2.82</v>
       </c>
       <c r="Q11">
         <v>12</v>
@@ -4183,16 +4159,16 @@
         <v>190.5</v>
       </c>
       <c r="AC11" t="s">
+        <v>260</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>261</v>
+      </c>
+      <c r="AE11" t="s">
         <v>262</v>
       </c>
-      <c r="AD11" t="s">
-        <v>263</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>264</v>
-      </c>
       <c r="AF11" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="AG11">
         <v>13.81</v>
@@ -4245,10 +4221,10 @@
         <v>1604</v>
       </c>
       <c r="B12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D12" s="7">
         <v>3872000000</v>
@@ -4260,32 +4236,32 @@
         <v>19701214</v>
       </c>
       <c r="G12">
-        <v>8.1199999999999992</v>
+        <v>8.1</v>
       </c>
       <c r="H12">
-        <v>6.65</v>
+        <v>6.66</v>
       </c>
       <c r="I12">
         <v>1.35</v>
       </c>
       <c r="J12" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="K12" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="L12" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="M12" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="N12">
-        <v>1.57</v>
+        <v>2.33</v>
       </c>
       <c r="O12"/>
-      <c r="P12">
-        <v>11.79</v>
+      <c r="P12" t="s">
+        <v>423</v>
       </c>
       <c r="Q12">
         <v>7</v>
@@ -4324,16 +4300,16 @@
         <v>59.67</v>
       </c>
       <c r="AC12" t="s">
+        <v>263</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>264</v>
+      </c>
+      <c r="AE12" t="s">
         <v>265</v>
       </c>
-      <c r="AD12" t="s">
-        <v>266</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>267</v>
-      </c>
       <c r="AF12" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="AG12">
         <v>17.72</v>
@@ -4382,2339 +4358,2339 @@
       </c>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1776</v>
-      </c>
-      <c r="B13" t="s">
-        <v>196</v>
-      </c>
-      <c r="C13" t="s">
-        <v>197</v>
+      <c r="A13" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="D13" s="7">
-        <v>703352990</v>
-      </c>
-      <c r="E13">
-        <v>19760424</v>
-      </c>
-      <c r="F13">
-        <v>20160509</v>
+        <v>2225261000</v>
+      </c>
+      <c r="E13" s="1">
+        <v>19590929</v>
+      </c>
+      <c r="F13" s="1">
+        <v>19930427</v>
       </c>
       <c r="G13">
-        <v>4.8899999999999997</v>
+        <v>5.44</v>
       </c>
       <c r="H13">
-        <v>8.2799999999999994</v>
+        <v>8.7799999999999994</v>
       </c>
       <c r="I13">
-        <v>1.36</v>
+        <v>1.95</v>
       </c>
       <c r="J13" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="K13" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="L13" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="M13" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="N13">
-        <v>1.33</v>
-      </c>
-      <c r="O13" t="s">
-        <v>433</v>
-      </c>
+        <v>1.8</v>
+      </c>
+      <c r="O13"/>
       <c r="P13">
-        <v>0</v>
+        <v>20.32</v>
       </c>
       <c r="Q13">
         <v>12</v>
       </c>
       <c r="R13">
-        <v>30</v>
+        <v>42.72</v>
       </c>
       <c r="S13">
-        <v>14.4</v>
+        <v>14.8</v>
       </c>
       <c r="T13">
-        <v>36</v>
+        <v>52.69</v>
       </c>
       <c r="U13">
-        <v>16.8</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="V13">
-        <v>42</v>
+        <v>62.66</v>
       </c>
       <c r="W13">
-        <v>19.2</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="X13">
-        <v>48</v>
+        <v>72.62</v>
       </c>
       <c r="Y13">
-        <v>21.6</v>
+        <v>23.2</v>
       </c>
       <c r="Z13">
-        <v>54</v>
+        <v>82.59</v>
       </c>
       <c r="AA13">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AB13">
-        <v>60</v>
+        <v>92.56</v>
       </c>
       <c r="AC13" t="s">
+        <v>266</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>267</v>
+      </c>
+      <c r="AE13" t="s">
         <v>268</v>
       </c>
-      <c r="AD13" t="s">
-        <v>269</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>270</v>
-      </c>
       <c r="AF13" t="s">
-        <v>198</v>
-      </c>
-      <c r="AG13">
-        <v>20.57</v>
-      </c>
-      <c r="AH13">
-        <v>7.03</v>
-      </c>
-      <c r="AI13">
-        <v>19.61</v>
-      </c>
-      <c r="AJ13">
-        <v>7.3</v>
-      </c>
-      <c r="AK13">
-        <v>15.07</v>
-      </c>
-      <c r="AL13">
-        <v>0.78</v>
-      </c>
-      <c r="AM13">
-        <v>96.3</v>
-      </c>
-      <c r="AN13">
-        <v>1.64</v>
-      </c>
-      <c r="AO13">
-        <v>7.28</v>
-      </c>
-      <c r="AP13">
-        <v>60</v>
-      </c>
-      <c r="AQ13" t="s">
-        <v>104</v>
-      </c>
-      <c r="AR13" t="s">
-        <v>82</v>
-      </c>
-      <c r="AS13" t="s">
+        <v>231</v>
+      </c>
+      <c r="AG13" s="1">
+        <v>14.3</v>
+      </c>
+      <c r="AH13" s="1">
+        <v>9.4700000000000006</v>
+      </c>
+      <c r="AI13" s="1">
+        <v>27.47</v>
+      </c>
+      <c r="AJ13" s="1">
+        <v>16.52</v>
+      </c>
+      <c r="AK13" s="1">
+        <v>14.13</v>
+      </c>
+      <c r="AL13" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="AM13" s="1">
+        <v>57.32</v>
+      </c>
+      <c r="AN13" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="AO13" s="1">
+        <v>1.46</v>
+      </c>
+      <c r="AP13" s="1">
+        <v>47</v>
+      </c>
+      <c r="AQ13" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AR13" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AS13" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AT13" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AU13" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="AT13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AU13" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>2020</v>
+        <v>2069</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D14" s="7">
-        <v>2225261000</v>
+        <v>1663868360</v>
       </c>
       <c r="E14" s="1">
-        <v>19590929</v>
+        <v>19870724</v>
       </c>
       <c r="F14" s="1">
-        <v>19930427</v>
+        <v>20160322</v>
       </c>
       <c r="G14">
-        <v>5.53</v>
+        <v>1.66</v>
       </c>
       <c r="H14">
-        <v>8.64</v>
+        <v>8.61</v>
       </c>
       <c r="I14">
-        <v>1.91</v>
+        <v>1.39</v>
       </c>
       <c r="J14" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="K14" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="L14" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="M14" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="N14">
-        <v>0.96</v>
+        <v>1.42</v>
       </c>
       <c r="O14"/>
       <c r="P14">
-        <v>4.63</v>
+        <v>5.33</v>
       </c>
       <c r="Q14">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R14">
-        <v>42.72</v>
+        <v>38.6</v>
       </c>
       <c r="S14">
-        <v>14.8</v>
+        <v>13.4</v>
       </c>
       <c r="T14">
-        <v>52.69</v>
+        <v>51.72</v>
       </c>
       <c r="U14">
-        <v>17.600000000000001</v>
+        <v>16.8</v>
       </c>
       <c r="V14">
-        <v>62.66</v>
+        <v>64.849999999999994</v>
       </c>
       <c r="W14">
-        <v>20.399999999999999</v>
+        <v>20.2</v>
       </c>
       <c r="X14">
-        <v>72.62</v>
+        <v>77.97</v>
       </c>
       <c r="Y14">
-        <v>23.2</v>
+        <v>23.6</v>
       </c>
       <c r="Z14">
-        <v>82.59</v>
+        <v>91.1</v>
       </c>
       <c r="AA14">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AB14">
-        <v>92.56</v>
+        <v>104.2</v>
       </c>
       <c r="AC14" t="s">
+        <v>269</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>270</v>
+      </c>
+      <c r="AE14" t="s">
         <v>271</v>
       </c>
-      <c r="AD14" t="s">
-        <v>272</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>273</v>
-      </c>
       <c r="AF14" t="s">
-        <v>233</v>
+        <v>352</v>
       </c>
       <c r="AG14" s="1">
-        <v>14.3</v>
+        <v>13</v>
       </c>
       <c r="AH14" s="1">
-        <v>9.4700000000000006</v>
+        <v>6.49</v>
       </c>
       <c r="AI14" s="1">
-        <v>27.47</v>
+        <v>19.260000000000002</v>
       </c>
       <c r="AJ14" s="1">
-        <v>16.52</v>
+        <v>6.18</v>
       </c>
       <c r="AK14" s="1">
-        <v>14.13</v>
+        <v>5.03</v>
       </c>
       <c r="AL14" s="1">
-        <v>0.89</v>
+        <v>1.39</v>
       </c>
       <c r="AM14" s="1">
-        <v>57.32</v>
+        <v>105.02</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.9</v>
+        <v>-7.36</v>
       </c>
       <c r="AO14" s="1">
-        <v>1.46</v>
+        <v>-9.52</v>
       </c>
       <c r="AP14" s="1">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="AQ14" s="1" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="AR14" s="1" t="s">
-        <v>124</v>
+        <v>83</v>
       </c>
       <c r="AS14" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AT14" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AU14" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>2069</v>
+        <v>2324</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="D15" s="7">
-        <v>1663868360</v>
+        <v>44071466250</v>
       </c>
       <c r="E15" s="1">
-        <v>19870724</v>
+        <v>19840601</v>
       </c>
       <c r="F15" s="1">
-        <v>20160322</v>
+        <v>19920218</v>
       </c>
       <c r="G15">
-        <v>1.69</v>
+        <v>6.26</v>
       </c>
       <c r="H15">
-        <v>8.4700000000000006</v>
+        <v>7.93</v>
       </c>
       <c r="I15">
-        <v>1.37</v>
+        <v>1.03</v>
       </c>
       <c r="J15" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="K15" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="L15" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="M15" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="N15">
-        <v>1.1100000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="O15"/>
       <c r="P15">
-        <v>4.92</v>
+        <v>10.84</v>
       </c>
       <c r="Q15">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R15">
-        <v>38.6</v>
+        <v>28.98</v>
       </c>
       <c r="S15">
-        <v>13.4</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="T15">
-        <v>51.72</v>
+        <v>32.840000000000003</v>
       </c>
       <c r="U15">
-        <v>16.8</v>
+        <v>11.4</v>
       </c>
       <c r="V15">
-        <v>64.849999999999994</v>
+        <v>36.71</v>
       </c>
       <c r="W15">
-        <v>20.2</v>
+        <v>12.6</v>
       </c>
       <c r="X15">
-        <v>77.97</v>
+        <v>40.57</v>
       </c>
       <c r="Y15">
-        <v>23.6</v>
+        <v>13.8</v>
       </c>
       <c r="Z15">
-        <v>91.1</v>
+        <v>44.44</v>
       </c>
       <c r="AA15">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="AB15">
-        <v>104.2</v>
+        <v>48.3</v>
       </c>
       <c r="AC15" t="s">
+        <v>272</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>273</v>
+      </c>
+      <c r="AE15" t="s">
         <v>274</v>
       </c>
-      <c r="AD15" t="s">
-        <v>275</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>276</v>
-      </c>
       <c r="AF15" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="AG15" s="1">
-        <v>13</v>
+        <v>3.35</v>
       </c>
       <c r="AH15" s="1">
-        <v>6.49</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="AI15" s="1">
-        <v>19.260000000000002</v>
+        <v>11.72</v>
       </c>
       <c r="AJ15" s="1">
-        <v>6.18</v>
+        <v>1.49</v>
       </c>
       <c r="AK15" s="1">
-        <v>5.03</v>
+        <v>1.18</v>
       </c>
       <c r="AL15" s="1">
-        <v>1.39</v>
+        <v>2.33</v>
       </c>
       <c r="AM15" s="1">
-        <v>105.02</v>
+        <v>73.150000000000006</v>
       </c>
       <c r="AN15" s="1">
-        <v>-7.36</v>
+        <v>-5.67</v>
       </c>
       <c r="AO15" s="1">
-        <v>-9.52</v>
+        <v>-7.8</v>
       </c>
       <c r="AP15" s="1">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AQ15" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="AR15" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="AS15" s="1" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="AT15" s="1" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="AU15" s="1" t="s">
-        <v>130</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>2324</v>
+        <v>2347</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="D16" s="7">
-        <v>44071466250</v>
+        <v>16679469680</v>
       </c>
       <c r="E16" s="1">
-        <v>19840601</v>
+        <v>19880912</v>
       </c>
       <c r="F16" s="1">
-        <v>19920218</v>
+        <v>19951213</v>
       </c>
       <c r="G16">
-        <v>6.36</v>
+        <v>4.71</v>
       </c>
       <c r="H16">
-        <v>7.81</v>
+        <v>6.99</v>
       </c>
       <c r="I16">
-        <v>1.01</v>
+        <v>1.98</v>
       </c>
       <c r="J16" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="K16" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="L16" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="M16" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="N16">
-        <v>0.41</v>
+        <v>1.37</v>
       </c>
       <c r="O16"/>
-      <c r="P16" t="s">
-        <v>446</v>
+      <c r="P16">
+        <v>1.37</v>
       </c>
       <c r="Q16">
         <v>9</v>
       </c>
       <c r="R16">
-        <v>28.98</v>
+        <v>90.18</v>
       </c>
       <c r="S16">
         <v>10.199999999999999</v>
       </c>
       <c r="T16">
-        <v>32.840000000000003</v>
+        <v>102.2</v>
       </c>
       <c r="U16">
         <v>11.4</v>
       </c>
       <c r="V16">
-        <v>36.71</v>
+        <v>114.2</v>
       </c>
       <c r="W16">
         <v>12.6</v>
       </c>
       <c r="X16">
-        <v>40.57</v>
+        <v>126.3</v>
       </c>
       <c r="Y16">
         <v>13.8</v>
       </c>
       <c r="Z16">
-        <v>44.44</v>
+        <v>138.30000000000001</v>
       </c>
       <c r="AA16">
         <v>15</v>
       </c>
       <c r="AB16">
-        <v>48.3</v>
+        <v>150.30000000000001</v>
       </c>
       <c r="AC16" t="s">
+        <v>275</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>276</v>
+      </c>
+      <c r="AE16" t="s">
         <v>277</v>
       </c>
-      <c r="AD16" t="s">
-        <v>278</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>279</v>
-      </c>
       <c r="AF16" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="AG16" s="1">
-        <v>3.35</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="AH16" s="1">
-        <v>1.0900000000000001</v>
+        <v>2.29</v>
       </c>
       <c r="AI16" s="1">
-        <v>11.72</v>
+        <v>32.94</v>
       </c>
       <c r="AJ16" s="1">
-        <v>1.49</v>
+        <v>6.79</v>
       </c>
       <c r="AK16" s="1">
-        <v>1.18</v>
+        <v>5.12</v>
       </c>
       <c r="AL16" s="1">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AM16" s="1">
-        <v>73.150000000000006</v>
+        <v>33.729999999999997</v>
       </c>
       <c r="AN16" s="1">
-        <v>-5.67</v>
+        <v>3.64</v>
       </c>
       <c r="AO16" s="1">
-        <v>-7.8</v>
+        <v>0.68</v>
       </c>
       <c r="AP16" s="1">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AQ16" s="1" t="s">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="AR16" s="1" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="AS16" s="1" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="AT16" s="1" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="AU16" s="1" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>2347</v>
+        <v>2352</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="D17" s="7">
-        <v>16679469680</v>
+        <v>19667819580</v>
       </c>
       <c r="E17" s="1">
-        <v>19880912</v>
+        <v>19840421</v>
       </c>
       <c r="F17" s="1">
-        <v>19951213</v>
+        <v>19960722</v>
       </c>
       <c r="G17">
-        <v>4.72</v>
+        <v>4.93</v>
       </c>
       <c r="H17">
-        <v>6.98</v>
+        <v>6.59</v>
       </c>
       <c r="I17">
-        <v>1.97</v>
+        <v>1.65</v>
       </c>
       <c r="J17" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="K17" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="L17" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="M17" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="N17">
-        <v>2.81</v>
+        <v>0.79</v>
       </c>
       <c r="O17"/>
       <c r="P17">
-        <v>7.01</v>
+        <v>-7.36</v>
       </c>
       <c r="Q17">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R17">
-        <v>90.18</v>
+        <v>36.96</v>
       </c>
       <c r="S17">
         <v>10.199999999999999</v>
       </c>
       <c r="T17">
-        <v>102.2</v>
+        <v>47.12</v>
       </c>
       <c r="U17">
-        <v>11.4</v>
+        <v>12.4</v>
       </c>
       <c r="V17">
-        <v>114.2</v>
+        <v>57.29</v>
       </c>
       <c r="W17">
-        <v>12.6</v>
+        <v>14.6</v>
       </c>
       <c r="X17">
-        <v>126.3</v>
+        <v>67.45</v>
       </c>
       <c r="Y17">
-        <v>13.8</v>
+        <v>16.8</v>
       </c>
       <c r="Z17">
-        <v>138.30000000000001</v>
+        <v>77.62</v>
       </c>
       <c r="AA17">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AB17">
-        <v>150.30000000000001</v>
+        <v>87.78</v>
       </c>
       <c r="AC17" t="s">
+        <v>278</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>279</v>
+      </c>
+      <c r="AE17" t="s">
         <v>280</v>
       </c>
-      <c r="AD17" t="s">
-        <v>281</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>282</v>
-      </c>
       <c r="AF17" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="AG17" s="1">
-        <v>4.4000000000000004</v>
+        <v>14.67</v>
       </c>
       <c r="AH17" s="1">
-        <v>2.29</v>
+        <v>3.42</v>
       </c>
       <c r="AI17" s="1">
-        <v>32.94</v>
+        <v>20.170000000000002</v>
       </c>
       <c r="AJ17" s="1">
-        <v>6.79</v>
+        <v>6.69</v>
       </c>
       <c r="AK17" s="1">
-        <v>5.12</v>
+        <v>5.45</v>
       </c>
       <c r="AL17" s="1">
-        <v>2.25</v>
+        <v>1.24</v>
       </c>
       <c r="AM17" s="1">
-        <v>33.729999999999997</v>
+        <v>51.12</v>
       </c>
       <c r="AN17" s="1">
-        <v>3.64</v>
+        <v>-1.7</v>
       </c>
       <c r="AO17" s="1">
-        <v>0.68</v>
+        <v>-5.0199999999999996</v>
       </c>
       <c r="AP17" s="1">
         <v>40</v>
       </c>
       <c r="AQ17" s="1" t="s">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="AR17" s="1" t="s">
-        <v>132</v>
+        <v>92</v>
       </c>
       <c r="AS17" s="1" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="AT17" s="1" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="AU17" s="1" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>2352</v>
+        <v>2385</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="D18" s="7">
-        <v>19667819580</v>
+        <v>7452927490</v>
       </c>
       <c r="E18" s="1">
-        <v>19840421</v>
+        <v>19830222</v>
       </c>
       <c r="F18" s="1">
-        <v>19960722</v>
+        <v>19990105</v>
       </c>
       <c r="G18">
-        <v>4.9400000000000004</v>
+        <v>6.24</v>
       </c>
       <c r="H18">
-        <v>6.58</v>
+        <v>10.88</v>
       </c>
       <c r="I18">
-        <v>1.65</v>
+        <v>2.21</v>
       </c>
       <c r="J18" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="K18" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="L18" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="M18" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="N18">
-        <v>2.2200000000000002</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="O18"/>
-      <c r="P18">
-        <v>14.78</v>
+      <c r="P18" t="s">
+        <v>448</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R18">
-        <v>36.96</v>
+        <v>81.2</v>
       </c>
       <c r="S18">
-        <v>10.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="T18">
-        <v>47.12</v>
+        <v>89.32</v>
       </c>
       <c r="U18">
-        <v>12.4</v>
+        <v>12</v>
       </c>
       <c r="V18">
-        <v>57.29</v>
+        <v>97.44</v>
       </c>
       <c r="W18">
-        <v>14.6</v>
+        <v>13</v>
       </c>
       <c r="X18">
-        <v>67.45</v>
+        <v>105.6</v>
       </c>
       <c r="Y18">
-        <v>16.8</v>
+        <v>14</v>
       </c>
       <c r="Z18">
-        <v>77.62</v>
+        <v>113.7</v>
       </c>
       <c r="AA18">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AB18">
-        <v>87.78</v>
+        <v>121.8</v>
       </c>
       <c r="AC18" t="s">
+        <v>281</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>282</v>
+      </c>
+      <c r="AE18" t="s">
         <v>283</v>
       </c>
-      <c r="AD18" t="s">
-        <v>284</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>285</v>
-      </c>
       <c r="AF18" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="AG18" s="1">
-        <v>14.67</v>
+        <v>17.55</v>
       </c>
       <c r="AH18" s="1">
-        <v>3.42</v>
+        <v>7.9</v>
       </c>
       <c r="AI18" s="1">
-        <v>20.170000000000002</v>
+        <v>22.24</v>
       </c>
       <c r="AJ18" s="1">
-        <v>6.69</v>
+        <v>8.7799999999999994</v>
       </c>
       <c r="AK18" s="1">
-        <v>5.45</v>
+        <v>7.09</v>
       </c>
       <c r="AL18" s="1">
-        <v>1.24</v>
+        <v>1.32</v>
       </c>
       <c r="AM18" s="1">
-        <v>51.12</v>
+        <v>89.98</v>
       </c>
       <c r="AN18" s="1">
-        <v>-1.7</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="AO18" s="1">
-        <v>-5.0199999999999996</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="AP18" s="1">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AQ18" s="1" t="s">
-        <v>91</v>
+        <v>161</v>
       </c>
       <c r="AR18" s="1" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="AS18" s="1" t="s">
-        <v>82</v>
+        <v>162</v>
       </c>
       <c r="AT18" s="1" t="s">
-        <v>93</v>
+        <v>163</v>
       </c>
       <c r="AU18" s="1" t="s">
-        <v>94</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>2385</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>20</v>
+      <c r="A19">
+        <v>2387</v>
+      </c>
+      <c r="B19" t="s">
+        <v>216</v>
+      </c>
+      <c r="C19" t="s">
+        <v>217</v>
       </c>
       <c r="D19" s="7">
-        <v>7452927490</v>
-      </c>
-      <c r="E19" s="1">
-        <v>19830222</v>
-      </c>
-      <c r="F19" s="1">
-        <v>19990105</v>
+        <v>1952510510</v>
+      </c>
+      <c r="E19">
+        <v>19910722</v>
+      </c>
+      <c r="F19">
+        <v>19990125</v>
       </c>
       <c r="G19">
-        <v>6.25</v>
+        <v>4.5</v>
       </c>
       <c r="H19">
-        <v>10.85</v>
+        <v>6.95</v>
       </c>
       <c r="I19">
-        <v>2.2000000000000002</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J19" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="K19" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="L19" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="M19" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="N19">
-        <v>0.74</v>
+        <v>0.78</v>
       </c>
       <c r="O19"/>
-      <c r="P19" t="s">
-        <v>459</v>
+      <c r="P19">
+        <v>-4.9800000000000004</v>
       </c>
       <c r="Q19">
         <v>10</v>
       </c>
       <c r="R19">
-        <v>81.2</v>
+        <v>63.9</v>
       </c>
       <c r="S19">
-        <v>11</v>
+        <v>12.6</v>
       </c>
       <c r="T19">
-        <v>89.32</v>
+        <v>80.510000000000005</v>
       </c>
       <c r="U19">
-        <v>12</v>
+        <v>15.2</v>
       </c>
       <c r="V19">
-        <v>97.44</v>
+        <v>97.13</v>
       </c>
       <c r="W19">
-        <v>13</v>
+        <v>17.8</v>
       </c>
       <c r="X19">
-        <v>105.6</v>
+        <v>113.7</v>
       </c>
       <c r="Y19">
-        <v>14</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="Z19">
-        <v>113.7</v>
+        <v>130.4</v>
       </c>
       <c r="AA19">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AB19">
-        <v>121.8</v>
+        <v>147</v>
       </c>
       <c r="AC19" t="s">
+        <v>284</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>285</v>
+      </c>
+      <c r="AE19" t="s">
         <v>286</v>
       </c>
-      <c r="AD19" t="s">
-        <v>287</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>288</v>
-      </c>
       <c r="AF19" t="s">
-        <v>361</v>
-      </c>
-      <c r="AG19" s="1">
-        <v>17.55</v>
-      </c>
-      <c r="AH19" s="1">
-        <v>7.9</v>
-      </c>
-      <c r="AI19" s="1">
-        <v>22.24</v>
-      </c>
-      <c r="AJ19" s="1">
-        <v>8.7799999999999994</v>
-      </c>
-      <c r="AK19" s="1">
-        <v>7.09</v>
-      </c>
-      <c r="AL19" s="1">
-        <v>1.32</v>
-      </c>
-      <c r="AM19" s="1">
-        <v>89.98</v>
-      </c>
-      <c r="AN19" s="1">
-        <v>4.0599999999999996</v>
-      </c>
-      <c r="AO19" s="1">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="AP19" s="1">
-        <v>38</v>
-      </c>
-      <c r="AQ19" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="AR19" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AS19" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AT19" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AU19" s="1" t="s">
-        <v>164</v>
+        <v>357</v>
+      </c>
+      <c r="AG19">
+        <v>12.93</v>
+      </c>
+      <c r="AH19">
+        <v>7.05</v>
+      </c>
+      <c r="AI19">
+        <v>12.98</v>
+      </c>
+      <c r="AJ19">
+        <v>6.67</v>
+      </c>
+      <c r="AK19">
+        <v>4.84</v>
+      </c>
+      <c r="AL19">
+        <v>1.06</v>
+      </c>
+      <c r="AM19">
+        <v>105.7</v>
+      </c>
+      <c r="AN19">
+        <v>4.08</v>
+      </c>
+      <c r="AO19">
+        <v>-3.91</v>
+      </c>
+      <c r="AP19">
+        <v>40</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>97</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>218</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>118</v>
+      </c>
+      <c r="AU19" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>2387</v>
-      </c>
-      <c r="B20" t="s">
-        <v>218</v>
-      </c>
-      <c r="C20" t="s">
-        <v>219</v>
+      <c r="A20" s="1">
+        <v>2417</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="D20" s="7">
-        <v>1952510510</v>
-      </c>
-      <c r="E20">
-        <v>19910722</v>
-      </c>
-      <c r="F20">
-        <v>19990125</v>
+        <v>1543138640</v>
+      </c>
+      <c r="E20" s="1">
+        <v>19900117</v>
+      </c>
+      <c r="F20" s="1">
+        <v>20000911</v>
       </c>
       <c r="G20">
-        <v>4.55</v>
+        <v>6.49</v>
       </c>
       <c r="H20">
-        <v>6.89</v>
+        <v>11.41</v>
       </c>
       <c r="I20">
-        <v>1.0900000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="J20" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="K20" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="L20" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="M20" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="N20">
-        <v>2.5</v>
+        <v>1.18</v>
       </c>
       <c r="O20"/>
       <c r="P20">
-        <v>13.92</v>
+        <v>-2.17</v>
       </c>
       <c r="Q20">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="R20">
-        <v>63.9</v>
+        <v>28.34</v>
       </c>
       <c r="S20">
-        <v>12.6</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="T20">
-        <v>80.510000000000005</v>
+        <v>35.75</v>
       </c>
       <c r="U20">
-        <v>15.2</v>
+        <v>19.8</v>
       </c>
       <c r="V20">
-        <v>97.13</v>
+        <v>43.16</v>
       </c>
       <c r="W20">
-        <v>17.8</v>
+        <v>23.2</v>
       </c>
       <c r="X20">
-        <v>113.7</v>
+        <v>50.58</v>
       </c>
       <c r="Y20">
-        <v>20.399999999999999</v>
+        <v>26.6</v>
       </c>
       <c r="Z20">
-        <v>130.4</v>
+        <v>57.99</v>
       </c>
       <c r="AA20">
+        <v>30</v>
+      </c>
+      <c r="AB20">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>287</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>288</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>289</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>358</v>
+      </c>
+      <c r="AG20" s="1">
+        <v>48.85</v>
+      </c>
+      <c r="AH20" s="1">
+        <v>12.06</v>
+      </c>
+      <c r="AI20" s="1">
+        <v>9.5399999999999991</v>
+      </c>
+      <c r="AJ20" s="1">
+        <v>12.15</v>
+      </c>
+      <c r="AK20" s="1">
+        <v>9.57</v>
+      </c>
+      <c r="AL20" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="AM20" s="1">
+        <v>99.26</v>
+      </c>
+      <c r="AN20" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="AO20" s="1">
+        <v>-0.77</v>
+      </c>
+      <c r="AP20" s="1">
+        <v>60</v>
+      </c>
+      <c r="AQ20" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AR20" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AS20" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AT20" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AU20" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>2458</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AB20">
-        <v>147</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>289</v>
-      </c>
-      <c r="AD20" t="s">
+      <c r="C21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="7">
+        <v>3038803920</v>
+      </c>
+      <c r="E21" s="1">
+        <v>19940505</v>
+      </c>
+      <c r="F21" s="1">
+        <v>20010917</v>
+      </c>
+      <c r="G21">
+        <v>5.26</v>
+      </c>
+      <c r="H21">
+        <v>9.7899999999999991</v>
+      </c>
+      <c r="I21">
+        <v>5.12</v>
+      </c>
+      <c r="J21" t="s">
+        <v>457</v>
+      </c>
+      <c r="K21" t="s">
+        <v>458</v>
+      </c>
+      <c r="L21" t="s">
+        <v>459</v>
+      </c>
+      <c r="M21" t="s">
+        <v>460</v>
+      </c>
+      <c r="N21">
+        <v>3.78</v>
+      </c>
+      <c r="O21"/>
+      <c r="P21" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q21">
+        <v>12</v>
+      </c>
+      <c r="R21">
+        <v>205.2</v>
+      </c>
+      <c r="S21">
+        <v>14.2</v>
+      </c>
+      <c r="T21">
+        <v>242.8</v>
+      </c>
+      <c r="U21">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="V21">
+        <v>280.39999999999998</v>
+      </c>
+      <c r="W21">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="X21">
+        <v>318.10000000000002</v>
+      </c>
+      <c r="Y21">
+        <v>20.8</v>
+      </c>
+      <c r="Z21">
+        <v>355.7</v>
+      </c>
+      <c r="AA21">
+        <v>23</v>
+      </c>
+      <c r="AB21">
+        <v>393.3</v>
+      </c>
+      <c r="AC21" t="s">
         <v>290</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AD21" t="s">
         <v>291</v>
       </c>
-      <c r="AF20" t="s">
-        <v>362</v>
-      </c>
-      <c r="AG20">
-        <v>12.93</v>
-      </c>
-      <c r="AH20">
-        <v>7.05</v>
-      </c>
-      <c r="AI20">
-        <v>12.98</v>
-      </c>
-      <c r="AJ20">
-        <v>6.67</v>
-      </c>
-      <c r="AK20">
-        <v>4.84</v>
-      </c>
-      <c r="AL20">
-        <v>1.06</v>
-      </c>
-      <c r="AM20">
-        <v>105.7</v>
-      </c>
-      <c r="AN20">
-        <v>4.08</v>
-      </c>
-      <c r="AO20">
-        <v>-3.91</v>
-      </c>
-      <c r="AP20">
-        <v>40</v>
-      </c>
-      <c r="AQ20" t="s">
-        <v>97</v>
-      </c>
-      <c r="AR20" t="s">
-        <v>104</v>
-      </c>
-      <c r="AS20" t="s">
-        <v>220</v>
-      </c>
-      <c r="AT20" t="s">
-        <v>118</v>
-      </c>
-      <c r="AU20" t="s">
-        <v>221</v>
+      <c r="AE21" t="s">
+        <v>292</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>359</v>
+      </c>
+      <c r="AG21" s="1">
+        <v>49.84</v>
+      </c>
+      <c r="AH21" s="1">
+        <v>31.99</v>
+      </c>
+      <c r="AI21" s="1">
+        <v>52.13</v>
+      </c>
+      <c r="AJ21" s="1">
+        <v>32.97</v>
+      </c>
+      <c r="AK21" s="1">
+        <v>26.28</v>
+      </c>
+      <c r="AL21" s="1">
+        <v>1.23</v>
+      </c>
+      <c r="AM21" s="1">
+        <v>97.03</v>
+      </c>
+      <c r="AN21" s="1">
+        <v>12.18</v>
+      </c>
+      <c r="AO21" s="1">
+        <v>18.04</v>
+      </c>
+      <c r="AP21" s="1">
+        <v>74</v>
+      </c>
+      <c r="AQ21" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AR21" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AS21" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AT21" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AU21" s="1" t="s">
+        <v>137</v>
       </c>
     </row>
-    <row r="21" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>2417</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1543138640</v>
-      </c>
-      <c r="E21" s="1">
-        <v>19900117</v>
-      </c>
-      <c r="F21" s="1">
-        <v>20000911</v>
-      </c>
-      <c r="G21">
-        <v>6.58</v>
-      </c>
-      <c r="H21">
-        <v>11.26</v>
-      </c>
-      <c r="I21">
-        <v>1.38</v>
-      </c>
-      <c r="J21" t="s">
+    <row r="22" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2467</v>
+      </c>
+      <c r="B22" t="s">
+        <v>172</v>
+      </c>
+      <c r="C22" t="s">
+        <v>173</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1521896590</v>
+      </c>
+      <c r="E22">
+        <v>19780418</v>
+      </c>
+      <c r="F22">
+        <v>20010917</v>
+      </c>
+      <c r="G22">
+        <v>5.44</v>
+      </c>
+      <c r="H22">
+        <v>11.95</v>
+      </c>
+      <c r="I22">
+        <v>2.91</v>
+      </c>
+      <c r="J22" t="s">
+        <v>462</v>
+      </c>
+      <c r="K22" t="s">
+        <v>463</v>
+      </c>
+      <c r="L22" t="s">
         <v>464</v>
       </c>
-      <c r="K21" t="s">
+      <c r="M22" t="s">
         <v>465</v>
       </c>
-      <c r="L21" t="s">
-        <v>466</v>
-      </c>
-      <c r="M21" t="s">
-        <v>467</v>
-      </c>
-      <c r="N21">
-        <v>1.17</v>
-      </c>
-      <c r="O21"/>
-      <c r="P21">
-        <v>2.5299999999999998</v>
-      </c>
-      <c r="Q21">
-        <v>13</v>
-      </c>
-      <c r="R21">
-        <v>28.34</v>
-      </c>
-      <c r="S21">
+      <c r="N22">
+        <v>1.25</v>
+      </c>
+      <c r="O22"/>
+      <c r="P22">
+        <v>6.6</v>
+      </c>
+      <c r="Q22">
+        <v>11</v>
+      </c>
+      <c r="R22">
+        <v>45.76</v>
+      </c>
+      <c r="S22">
+        <v>12.8</v>
+      </c>
+      <c r="T22">
+        <v>53.25</v>
+      </c>
+      <c r="U22">
+        <v>14.6</v>
+      </c>
+      <c r="V22">
+        <v>60.74</v>
+      </c>
+      <c r="W22">
         <v>16.399999999999999</v>
       </c>
-      <c r="T21">
-        <v>35.75</v>
-      </c>
-      <c r="U21">
-        <v>19.8</v>
-      </c>
-      <c r="V21">
-        <v>43.16</v>
-      </c>
-      <c r="W21">
-        <v>23.2</v>
-      </c>
-      <c r="X21">
-        <v>50.58</v>
-      </c>
-      <c r="Y21">
-        <v>26.6</v>
-      </c>
-      <c r="Z21">
-        <v>57.99</v>
-      </c>
-      <c r="AA21">
-        <v>30</v>
-      </c>
-      <c r="AB21">
-        <v>65.400000000000006</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>292</v>
-      </c>
-      <c r="AD21" t="s">
+      <c r="X22">
+        <v>68.22</v>
+      </c>
+      <c r="Y22">
+        <v>18.2</v>
+      </c>
+      <c r="Z22">
+        <v>75.709999999999994</v>
+      </c>
+      <c r="AA22">
+        <v>20</v>
+      </c>
+      <c r="AB22">
+        <v>83.2</v>
+      </c>
+      <c r="AC22" t="s">
         <v>293</v>
       </c>
-      <c r="AE21" t="s">
+      <c r="AD22" t="s">
         <v>294</v>
       </c>
-      <c r="AF21" t="s">
-        <v>363</v>
-      </c>
-      <c r="AG21" s="1">
-        <v>48.85</v>
-      </c>
-      <c r="AH21" s="1">
-        <v>12.06</v>
-      </c>
-      <c r="AI21" s="1">
-        <v>9.5399999999999991</v>
-      </c>
-      <c r="AJ21" s="1">
-        <v>12.15</v>
-      </c>
-      <c r="AK21" s="1">
-        <v>9.57</v>
-      </c>
-      <c r="AL21" s="1">
-        <v>0.67</v>
-      </c>
-      <c r="AM21" s="1">
-        <v>99.26</v>
-      </c>
-      <c r="AN21" s="1">
-        <v>0.98</v>
-      </c>
-      <c r="AO21" s="1">
-        <v>-0.77</v>
-      </c>
-      <c r="AP21" s="1">
-        <v>60</v>
-      </c>
-      <c r="AQ21" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AR21" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AS21" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AT21" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AU21" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="22" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>2458</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="7">
-        <v>3038803920</v>
-      </c>
-      <c r="E22" s="1">
-        <v>19940505</v>
-      </c>
-      <c r="F22" s="1">
-        <v>20010917</v>
-      </c>
-      <c r="G22">
-        <v>5.34</v>
-      </c>
-      <c r="H22">
-        <v>9.65</v>
-      </c>
-      <c r="I22">
-        <v>5.04</v>
-      </c>
-      <c r="J22" t="s">
-        <v>468</v>
-      </c>
-      <c r="K22" t="s">
-        <v>469</v>
-      </c>
-      <c r="L22" t="s">
-        <v>470</v>
-      </c>
-      <c r="M22" t="s">
-        <v>471</v>
-      </c>
-      <c r="N22">
-        <v>2.4</v>
-      </c>
-      <c r="O22"/>
-      <c r="P22" t="s">
-        <v>472</v>
-      </c>
-      <c r="Q22">
-        <v>12</v>
-      </c>
-      <c r="R22">
-        <v>205.2</v>
-      </c>
-      <c r="S22">
-        <v>14.2</v>
-      </c>
-      <c r="T22">
-        <v>242.8</v>
-      </c>
-      <c r="U22">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="V22">
-        <v>280.39999999999998</v>
-      </c>
-      <c r="W22">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="X22">
-        <v>318.10000000000002</v>
-      </c>
-      <c r="Y22">
-        <v>20.8</v>
-      </c>
-      <c r="Z22">
-        <v>355.7</v>
-      </c>
-      <c r="AA22">
-        <v>23</v>
-      </c>
-      <c r="AB22">
-        <v>393.3</v>
-      </c>
-      <c r="AC22" t="s">
+      <c r="AE22" t="s">
         <v>295</v>
       </c>
-      <c r="AD22" t="s">
-        <v>296</v>
-      </c>
-      <c r="AE22" t="s">
-        <v>297</v>
-      </c>
       <c r="AF22" t="s">
-        <v>364</v>
-      </c>
-      <c r="AG22" s="1">
-        <v>49.84</v>
-      </c>
-      <c r="AH22" s="1">
-        <v>31.99</v>
-      </c>
-      <c r="AI22" s="1">
-        <v>52.13</v>
-      </c>
-      <c r="AJ22" s="1">
-        <v>32.97</v>
-      </c>
-      <c r="AK22" s="1">
-        <v>26.28</v>
-      </c>
-      <c r="AL22" s="1">
-        <v>1.23</v>
-      </c>
-      <c r="AM22" s="1">
-        <v>97.03</v>
-      </c>
-      <c r="AN22" s="1">
-        <v>12.18</v>
-      </c>
-      <c r="AO22" s="1">
-        <v>18.04</v>
-      </c>
-      <c r="AP22" s="1">
-        <v>74</v>
-      </c>
-      <c r="AQ22" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="AR22" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="AS22" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AT22" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AU22" s="1" t="s">
-        <v>137</v>
+        <v>196</v>
+      </c>
+      <c r="AG22">
+        <v>34.07</v>
+      </c>
+      <c r="AH22">
+        <v>12.91</v>
+      </c>
+      <c r="AI22">
+        <v>26.43</v>
+      </c>
+      <c r="AJ22">
+        <v>15.84</v>
+      </c>
+      <c r="AK22">
+        <v>12.85</v>
+      </c>
+      <c r="AL22">
+        <v>0.8</v>
+      </c>
+      <c r="AM22">
+        <v>81.5</v>
+      </c>
+      <c r="AN22">
+        <v>2.44</v>
+      </c>
+      <c r="AO22">
+        <v>-2.57</v>
+      </c>
+      <c r="AP22">
+        <v>57</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>174</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>128</v>
+      </c>
+      <c r="AS22" t="s">
+        <v>128</v>
+      </c>
+      <c r="AT22" t="s">
+        <v>91</v>
+      </c>
+      <c r="AU22" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>2467</v>
+        <v>2488</v>
       </c>
       <c r="B23" t="s">
-        <v>172</v>
+        <v>376</v>
       </c>
       <c r="C23" t="s">
-        <v>173</v>
+        <v>377</v>
       </c>
       <c r="D23" s="7">
-        <v>1521896590</v>
+        <v>799994330</v>
       </c>
       <c r="E23">
-        <v>19780418</v>
+        <v>19690401</v>
       </c>
       <c r="F23">
         <v>20010917</v>
       </c>
       <c r="G23">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="H23">
-        <v>11.61</v>
+        <v>15.03</v>
       </c>
       <c r="I23">
-        <v>2.83</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J23" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="K23" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="L23" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="M23" t="s">
-        <v>476</v>
+        <v>156</v>
       </c>
       <c r="N23">
-        <v>0.9</v>
+        <v>0.71</v>
       </c>
       <c r="O23"/>
       <c r="P23">
-        <v>-1.59</v>
+        <v>-17.95</v>
       </c>
       <c r="Q23">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="R23">
-        <v>45.76</v>
+        <v>12.95</v>
       </c>
       <c r="S23">
-        <v>12.8</v>
+        <v>8.6</v>
       </c>
       <c r="T23">
-        <v>53.25</v>
+        <v>15.91</v>
       </c>
       <c r="U23">
-        <v>14.6</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="V23">
-        <v>60.74</v>
+        <v>18.87</v>
       </c>
       <c r="W23">
-        <v>16.399999999999999</v>
+        <v>11.8</v>
       </c>
       <c r="X23">
-        <v>68.22</v>
+        <v>21.83</v>
       </c>
       <c r="Y23">
-        <v>18.2</v>
+        <v>13.4</v>
       </c>
       <c r="Z23">
-        <v>75.709999999999994</v>
+        <v>24.79</v>
       </c>
       <c r="AA23">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AB23">
-        <v>83.2</v>
+        <v>27.75</v>
       </c>
       <c r="AC23" t="s">
-        <v>298</v>
+        <v>378</v>
       </c>
       <c r="AD23" t="s">
-        <v>299</v>
+        <v>379</v>
       </c>
       <c r="AE23" t="s">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="AF23" t="s">
-        <v>198</v>
+        <v>381</v>
       </c>
       <c r="AG23">
-        <v>34.07</v>
+        <v>16.18</v>
       </c>
       <c r="AH23">
-        <v>12.91</v>
+        <v>5.23</v>
       </c>
       <c r="AI23">
-        <v>26.43</v>
+        <v>6.3</v>
       </c>
       <c r="AJ23">
-        <v>15.84</v>
+        <v>7.03</v>
       </c>
       <c r="AK23">
-        <v>12.85</v>
+        <v>5.52</v>
       </c>
       <c r="AL23">
-        <v>0.8</v>
+        <v>0.66</v>
       </c>
       <c r="AM23">
-        <v>81.5</v>
+        <v>74.400000000000006</v>
       </c>
       <c r="AN23">
-        <v>2.44</v>
+        <v>-2.7</v>
       </c>
       <c r="AO23">
-        <v>-2.57</v>
+        <v>-2.92</v>
       </c>
       <c r="AP23">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="AQ23" t="s">
-        <v>174</v>
+        <v>91</v>
       </c>
       <c r="AR23" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="AS23" t="s">
         <v>128</v>
       </c>
-      <c r="AT23" t="s">
+      <c r="AT23" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AU23" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="AU23" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>2488</v>
-      </c>
-      <c r="B24" t="s">
-        <v>381</v>
-      </c>
-      <c r="C24" t="s">
-        <v>382</v>
+      <c r="A24" s="1">
+        <v>2520</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="D24" s="7">
-        <v>799994330</v>
-      </c>
-      <c r="E24">
-        <v>19690401</v>
-      </c>
-      <c r="F24">
-        <v>20010917</v>
+        <v>5541701000</v>
+      </c>
+      <c r="E24" s="1">
+        <v>19791123</v>
+      </c>
+      <c r="F24" s="1">
+        <v>19931027</v>
       </c>
       <c r="G24">
-        <v>5.38</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="H24">
-        <v>15.08</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="I24">
-        <v>1.1000000000000001</v>
+        <v>1.21</v>
       </c>
       <c r="J24" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="K24" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="L24" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="M24" t="s">
-        <v>156</v>
+        <v>472</v>
       </c>
       <c r="N24">
-        <v>2.5</v>
+        <v>1.27</v>
       </c>
       <c r="O24"/>
       <c r="P24">
-        <v>15.24</v>
+        <v>1.53</v>
       </c>
       <c r="Q24">
         <v>7</v>
       </c>
       <c r="R24">
-        <v>12.95</v>
+        <v>59.57</v>
       </c>
       <c r="S24">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="T24">
-        <v>15.91</v>
+        <v>71.48</v>
       </c>
       <c r="U24">
-        <v>10.199999999999999</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="V24">
-        <v>18.87</v>
+        <v>83.4</v>
       </c>
       <c r="W24">
-        <v>11.8</v>
+        <v>11.2</v>
       </c>
       <c r="X24">
-        <v>21.83</v>
+        <v>95.31</v>
       </c>
       <c r="Y24">
-        <v>13.4</v>
+        <v>12.6</v>
       </c>
       <c r="Z24">
-        <v>24.79</v>
+        <v>107.2</v>
       </c>
       <c r="AA24">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AB24">
-        <v>27.75</v>
+        <v>119.1</v>
       </c>
       <c r="AC24" t="s">
-        <v>383</v>
+        <v>296</v>
       </c>
       <c r="AD24" t="s">
-        <v>384</v>
+        <v>297</v>
       </c>
       <c r="AE24" t="s">
-        <v>385</v>
+        <v>298</v>
       </c>
       <c r="AF24" t="s">
-        <v>386</v>
-      </c>
-      <c r="AG24">
-        <v>16.18</v>
-      </c>
-      <c r="AH24">
-        <v>5.23</v>
-      </c>
-      <c r="AI24">
-        <v>6.3</v>
-      </c>
-      <c r="AJ24">
-        <v>7.03</v>
-      </c>
-      <c r="AK24">
-        <v>5.52</v>
-      </c>
-      <c r="AL24">
-        <v>0.66</v>
-      </c>
-      <c r="AM24">
-        <v>74.400000000000006</v>
-      </c>
-      <c r="AN24">
-        <v>-2.7</v>
-      </c>
-      <c r="AO24">
-        <v>-2.92</v>
-      </c>
-      <c r="AP24">
-        <v>47</v>
-      </c>
-      <c r="AQ24" t="s">
-        <v>91</v>
-      </c>
-      <c r="AR24" t="s">
-        <v>140</v>
-      </c>
-      <c r="AS24" t="s">
-        <v>128</v>
+        <v>360</v>
+      </c>
+      <c r="AG24" s="1">
+        <v>26.73</v>
+      </c>
+      <c r="AH24" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="AI24" s="1">
+        <v>21.09</v>
+      </c>
+      <c r="AJ24" s="1">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="AK24" s="1">
+        <v>15.12</v>
+      </c>
+      <c r="AL24" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="AM24" s="1">
+        <v>103.17</v>
+      </c>
+      <c r="AN24" s="1">
+        <v>10.72</v>
+      </c>
+      <c r="AO24" s="1">
+        <v>10.69</v>
+      </c>
+      <c r="AP24" s="1">
+        <v>53</v>
+      </c>
+      <c r="AQ24" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AR24" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AS24" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="AT24" s="1" t="s">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="AU24" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>2520</v>
+        <v>2546</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="D25" s="7">
-        <v>5541701000</v>
+        <v>1060356600</v>
       </c>
       <c r="E25" s="1">
-        <v>19791123</v>
+        <v>19820413</v>
       </c>
       <c r="F25" s="1">
-        <v>19931027</v>
+        <v>20000911</v>
       </c>
       <c r="G25">
-        <v>9.25</v>
+        <v>6.96</v>
       </c>
       <c r="H25">
-        <v>4.32</v>
+        <v>7.35</v>
       </c>
       <c r="I25">
-        <v>1.21</v>
+        <v>1.64</v>
       </c>
       <c r="J25" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="K25" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="L25" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="M25" t="s">
-        <v>483</v>
+        <v>156</v>
       </c>
       <c r="N25">
-        <v>2.79</v>
+        <v>1.9</v>
       </c>
       <c r="O25"/>
-      <c r="P25" t="s">
-        <v>484</v>
+      <c r="P25">
+        <v>4.4800000000000004</v>
       </c>
       <c r="Q25">
         <v>7</v>
       </c>
       <c r="R25">
-        <v>59.57</v>
+        <v>49.21</v>
       </c>
       <c r="S25">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="T25">
-        <v>71.48</v>
+        <v>56.24</v>
       </c>
       <c r="U25">
-        <v>9.8000000000000007</v>
+        <v>9</v>
       </c>
       <c r="V25">
-        <v>83.4</v>
+        <v>63.27</v>
       </c>
       <c r="W25">
-        <v>11.2</v>
+        <v>10</v>
       </c>
       <c r="X25">
-        <v>95.31</v>
+        <v>70.3</v>
       </c>
       <c r="Y25">
-        <v>12.6</v>
+        <v>11</v>
       </c>
       <c r="Z25">
-        <v>107.2</v>
+        <v>77.33</v>
       </c>
       <c r="AA25">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AB25">
-        <v>119.1</v>
+        <v>84.36</v>
       </c>
       <c r="AC25" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="AD25" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AE25" t="s">
-        <v>303</v>
+        <v>232</v>
       </c>
       <c r="AF25" t="s">
-        <v>365</v>
+        <v>233</v>
       </c>
       <c r="AG25" s="1">
-        <v>26.73</v>
+        <v>11.23</v>
       </c>
       <c r="AH25" s="1">
-        <v>19.5</v>
+        <v>8.3800000000000008</v>
       </c>
       <c r="AI25" s="1">
-        <v>21.09</v>
+        <v>23.02</v>
       </c>
       <c r="AJ25" s="1">
-        <v>18.899999999999999</v>
+        <v>9.17</v>
       </c>
       <c r="AK25" s="1">
-        <v>15.12</v>
+        <v>7.35</v>
       </c>
       <c r="AL25" s="1">
-        <v>0.46</v>
+        <v>1.07</v>
       </c>
       <c r="AM25" s="1">
-        <v>103.17</v>
+        <v>91.38</v>
       </c>
       <c r="AN25" s="1">
-        <v>10.72</v>
+        <v>5.88</v>
       </c>
       <c r="AO25" s="1">
-        <v>10.69</v>
+        <v>5.85</v>
       </c>
       <c r="AP25" s="1">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="AQ25" s="1" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="AR25" s="1" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="AS25" s="1" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="AT25" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AU25" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>2546</v>
+        <v>2881</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D26" s="7">
-        <v>1060356600</v>
+        <v>134049543940</v>
       </c>
       <c r="E26" s="1">
-        <v>19820413</v>
+        <v>20011219</v>
       </c>
       <c r="F26" s="1">
-        <v>20000911</v>
+        <v>20011219</v>
       </c>
       <c r="G26">
-        <v>7</v>
+        <v>3.91</v>
       </c>
       <c r="H26">
-        <v>7.31</v>
+        <v>6.33</v>
       </c>
       <c r="I26">
-        <v>1.63</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="J26" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="K26" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="L26" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="M26" t="s">
-        <v>156</v>
+        <v>479</v>
       </c>
       <c r="N26">
-        <v>1.4</v>
+        <v>0.38</v>
       </c>
       <c r="O26"/>
-      <c r="P26">
-        <v>6.53</v>
+      <c r="P26" t="s">
+        <v>480</v>
       </c>
       <c r="Q26">
         <v>7</v>
       </c>
       <c r="R26">
-        <v>49.21</v>
+        <v>92.68</v>
       </c>
       <c r="S26">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="T26">
-        <v>56.24</v>
+        <v>103.3</v>
       </c>
       <c r="U26">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="V26">
-        <v>63.27</v>
+        <v>113.9</v>
       </c>
       <c r="W26">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="X26">
-        <v>70.3</v>
+        <v>124.5</v>
       </c>
       <c r="Y26">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="Z26">
+        <v>135</v>
+      </c>
+      <c r="AA26">
         <v>11</v>
       </c>
-      <c r="Z26">
-        <v>77.33</v>
-      </c>
-      <c r="AA26">
-        <v>12</v>
-      </c>
       <c r="AB26">
-        <v>84.36</v>
+        <v>145.6</v>
       </c>
       <c r="AC26" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="AD26" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="AE26" t="s">
-        <v>234</v>
+        <v>303</v>
       </c>
       <c r="AF26" t="s">
-        <v>235</v>
+        <v>361</v>
       </c>
       <c r="AG26" s="1">
-        <v>11.23</v>
+        <v>0</v>
       </c>
       <c r="AH26" s="1">
-        <v>8.3800000000000008</v>
+        <v>0</v>
       </c>
       <c r="AI26" s="1">
-        <v>23.02</v>
+        <v>21.39</v>
       </c>
       <c r="AJ26" s="1">
-        <v>9.17</v>
+        <v>39.32</v>
       </c>
       <c r="AK26" s="1">
-        <v>7.35</v>
+        <v>34.96</v>
       </c>
       <c r="AL26" s="1">
-        <v>1.07</v>
+        <v>0.05</v>
       </c>
       <c r="AM26" s="1">
-        <v>91.38</v>
+        <v>0</v>
       </c>
       <c r="AN26" s="1">
-        <v>5.88</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="AO26" s="1">
-        <v>5.85</v>
+        <v>4.46</v>
       </c>
       <c r="AP26" s="1">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="AQ26" s="1" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="AR26" s="1" t="s">
-        <v>97</v>
+        <v>145</v>
       </c>
       <c r="AS26" s="1" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="AT26" s="1" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="AU26" s="1" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>2881</v>
+        <v>3005</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D27" s="7">
-        <v>134049543940</v>
+        <v>5954614000</v>
       </c>
       <c r="E27" s="1">
-        <v>20011219</v>
+        <v>19891005</v>
       </c>
       <c r="F27" s="1">
-        <v>20011219</v>
+        <v>20020225</v>
       </c>
       <c r="G27">
-        <v>3.89</v>
+        <v>6.43</v>
       </c>
       <c r="H27">
-        <v>6.35</v>
+        <v>7.69</v>
       </c>
       <c r="I27">
-        <v>1.1499999999999999</v>
+        <v>1.94</v>
       </c>
       <c r="J27" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="K27" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="L27" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="M27" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="N27">
-        <v>1.47</v>
+        <v>0.49</v>
       </c>
       <c r="O27"/>
       <c r="P27">
-        <v>-1.74</v>
+        <v>-3.47</v>
       </c>
       <c r="Q27">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="R27">
-        <v>92.68</v>
+        <v>73</v>
       </c>
       <c r="S27">
-        <v>7.8</v>
+        <v>11.4</v>
       </c>
       <c r="T27">
-        <v>103.3</v>
+        <v>83.22</v>
       </c>
       <c r="U27">
-        <v>8.6</v>
+        <v>12.8</v>
       </c>
       <c r="V27">
+        <v>93.44</v>
+      </c>
+      <c r="W27">
+        <v>14.2</v>
+      </c>
+      <c r="X27">
+        <v>103.7</v>
+      </c>
+      <c r="Y27">
+        <v>15.6</v>
+      </c>
+      <c r="Z27">
         <v>113.9</v>
       </c>
-      <c r="W27">
-        <v>9.4</v>
-      </c>
-      <c r="X27">
-        <v>124.5</v>
-      </c>
-      <c r="Y27">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="Z27">
-        <v>135</v>
-      </c>
       <c r="AA27">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AB27">
-        <v>145.6</v>
+        <v>124.1</v>
       </c>
       <c r="AC27" t="s">
+        <v>304</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>305</v>
+      </c>
+      <c r="AE27" t="s">
         <v>306</v>
       </c>
-      <c r="AD27" t="s">
-        <v>307</v>
-      </c>
-      <c r="AE27" t="s">
-        <v>308</v>
-      </c>
       <c r="AF27" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="AG27" s="1">
-        <v>0</v>
+        <v>24.89</v>
       </c>
       <c r="AH27" s="1">
-        <v>0</v>
+        <v>8.01</v>
       </c>
       <c r="AI27" s="1">
-        <v>21.39</v>
+        <v>25.54</v>
       </c>
       <c r="AJ27" s="1">
-        <v>39.32</v>
+        <v>20.46</v>
       </c>
       <c r="AK27" s="1">
-        <v>34.96</v>
+        <v>15.77</v>
       </c>
       <c r="AL27" s="1">
-        <v>0.05</v>
+        <v>0.86</v>
       </c>
       <c r="AM27" s="1">
-        <v>0</v>
+        <v>39.15</v>
       </c>
       <c r="AN27" s="1">
-        <v>5.0999999999999996</v>
+        <v>0.9</v>
       </c>
       <c r="AO27" s="1">
-        <v>4.46</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="AP27" s="1">
-        <v>56</v>
-      </c>
-      <c r="AQ27" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AR27" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AS27" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AT27" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AU27" s="1" t="s">
-        <v>122</v>
+        <v>57</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>199</v>
+      </c>
+      <c r="AR27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS27" t="s">
+        <v>123</v>
+      </c>
+      <c r="AT27" t="s">
+        <v>200</v>
+      </c>
+      <c r="AU27" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>3005</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>28</v>
+      <c r="A28">
+        <v>3028</v>
+      </c>
+      <c r="B28" t="s">
+        <v>197</v>
+      </c>
+      <c r="C28" t="s">
+        <v>198</v>
       </c>
       <c r="D28" s="7">
-        <v>5954614000</v>
-      </c>
-      <c r="E28" s="1">
-        <v>19891005</v>
-      </c>
-      <c r="F28" s="1">
-        <v>20020225</v>
+        <v>2138248640</v>
+      </c>
+      <c r="E28">
+        <v>19821006</v>
+      </c>
+      <c r="F28">
+        <v>20020826</v>
       </c>
       <c r="G28">
-        <v>6.5</v>
+        <v>5.63</v>
       </c>
       <c r="H28">
-        <v>7.6</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="I28">
-        <v>1.92</v>
+        <v>1.41</v>
       </c>
       <c r="J28" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="K28" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="L28" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="M28" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="N28">
-        <v>1.87</v>
+        <v>1.35</v>
       </c>
       <c r="O28"/>
       <c r="P28">
-        <v>6.47</v>
+        <v>9.94</v>
       </c>
       <c r="Q28">
         <v>10</v>
       </c>
       <c r="R28">
-        <v>73</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="S28">
-        <v>11.4</v>
+        <v>11</v>
       </c>
       <c r="T28">
-        <v>83.22</v>
+        <v>42.57</v>
       </c>
       <c r="U28">
-        <v>12.8</v>
+        <v>12</v>
       </c>
       <c r="V28">
-        <v>93.44</v>
+        <v>46.44</v>
       </c>
       <c r="W28">
-        <v>14.2</v>
+        <v>13</v>
       </c>
       <c r="X28">
-        <v>103.7</v>
+        <v>50.31</v>
       </c>
       <c r="Y28">
-        <v>15.6</v>
+        <v>14</v>
       </c>
       <c r="Z28">
-        <v>113.9</v>
+        <v>54.18</v>
       </c>
       <c r="AA28">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB28">
-        <v>124.1</v>
+        <v>58.05</v>
       </c>
       <c r="AC28" t="s">
+        <v>307</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>308</v>
+      </c>
+      <c r="AE28" t="s">
         <v>309</v>
       </c>
-      <c r="AD28" t="s">
-        <v>310</v>
-      </c>
-      <c r="AE28" t="s">
-        <v>311</v>
-      </c>
       <c r="AF28" t="s">
-        <v>367</v>
-      </c>
-      <c r="AG28" s="1">
-        <v>24.89</v>
-      </c>
-      <c r="AH28" s="1">
-        <v>8.01</v>
-      </c>
-      <c r="AI28" s="1">
-        <v>25.54</v>
-      </c>
-      <c r="AJ28" s="1">
-        <v>20.46</v>
-      </c>
-      <c r="AK28" s="1">
-        <v>15.77</v>
-      </c>
-      <c r="AL28" s="1">
-        <v>0.86</v>
-      </c>
-      <c r="AM28" s="1">
-        <v>39.15</v>
-      </c>
-      <c r="AN28" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="AO28" s="1">
-        <v>4.0599999999999996</v>
-      </c>
-      <c r="AP28" s="1">
-        <v>57</v>
+        <v>363</v>
+      </c>
+      <c r="AG28">
+        <v>5.93</v>
+      </c>
+      <c r="AH28">
+        <v>2.59</v>
+      </c>
+      <c r="AI28">
+        <v>18.72</v>
+      </c>
+      <c r="AJ28">
+        <v>2.64</v>
+      </c>
+      <c r="AK28">
+        <v>2.19</v>
+      </c>
+      <c r="AL28">
+        <v>2.15</v>
+      </c>
+      <c r="AM28">
+        <v>98.11</v>
+      </c>
+      <c r="AN28">
+        <v>-1.74</v>
+      </c>
+      <c r="AO28">
+        <v>-1.7</v>
+      </c>
+      <c r="AP28">
+        <v>30</v>
       </c>
       <c r="AQ28" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="AR28" t="s">
-        <v>104</v>
+        <v>192</v>
       </c>
       <c r="AS28" t="s">
-        <v>123</v>
+        <v>193</v>
       </c>
       <c r="AT28" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="AU28" t="s">
-        <v>91</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="AV28"/>
+      <c r="AW28"/>
+      <c r="AX28"/>
     </row>
-    <row r="29" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>3028</v>
+        <v>3033</v>
       </c>
       <c r="B29" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="C29" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="D29" s="7">
-        <v>2138248640</v>
+        <v>3990554430</v>
       </c>
       <c r="E29">
-        <v>19821006</v>
+        <v>19770120</v>
       </c>
       <c r="F29">
         <v>20020826</v>
       </c>
       <c r="G29">
-        <v>5.7</v>
+        <v>4.26</v>
       </c>
       <c r="H29">
-        <v>8.6</v>
+        <v>8.69</v>
       </c>
       <c r="I29">
-        <v>1.4</v>
+        <v>1.71</v>
       </c>
       <c r="J29" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="K29" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="L29" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="M29" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="N29">
-        <v>1.85</v>
-      </c>
-      <c r="O29"/>
+        <v>1.62</v>
+      </c>
       <c r="P29">
-        <v>7.57</v>
+        <v>14.77</v>
       </c>
       <c r="Q29">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R29">
-        <v>38.700000000000003</v>
+        <v>34.83</v>
       </c>
       <c r="S29">
-        <v>11</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="T29">
-        <v>42.57</v>
+        <v>39.47</v>
       </c>
       <c r="U29">
-        <v>12</v>
+        <v>11.4</v>
       </c>
       <c r="V29">
-        <v>46.44</v>
+        <v>44.12</v>
       </c>
       <c r="W29">
-        <v>13</v>
+        <v>12.6</v>
       </c>
       <c r="X29">
-        <v>50.31</v>
+        <v>48.76</v>
       </c>
       <c r="Y29">
-        <v>14</v>
+        <v>13.8</v>
       </c>
       <c r="Z29">
-        <v>54.18</v>
+        <v>53.41</v>
       </c>
       <c r="AA29">
         <v>15</v>
@@ -6723,1603 +6699,1472 @@
         <v>58.05</v>
       </c>
       <c r="AC29" t="s">
+        <v>310</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>311</v>
+      </c>
+      <c r="AE29" t="s">
         <v>312</v>
       </c>
-      <c r="AD29" t="s">
-        <v>313</v>
-      </c>
-      <c r="AE29" t="s">
-        <v>314</v>
-      </c>
       <c r="AF29" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="AG29">
-        <v>5.93</v>
+        <v>7.01</v>
       </c>
       <c r="AH29">
-        <v>2.59</v>
+        <v>3.51</v>
       </c>
       <c r="AI29">
-        <v>18.72</v>
+        <v>25.16</v>
       </c>
       <c r="AJ29">
-        <v>2.64</v>
+        <v>3.37</v>
       </c>
       <c r="AK29">
-        <v>2.19</v>
+        <v>2.33</v>
       </c>
       <c r="AL29">
-        <v>2.15</v>
+        <v>2.89</v>
       </c>
       <c r="AM29">
-        <v>98.11</v>
+        <v>104.15</v>
       </c>
       <c r="AN29">
-        <v>-1.74</v>
+        <v>0.88</v>
       </c>
       <c r="AO29">
-        <v>-1.7</v>
+        <v>0.86</v>
       </c>
       <c r="AP29">
-        <v>30</v>
-      </c>
-      <c r="AQ29" t="s">
-        <v>191</v>
-      </c>
-      <c r="AR29" t="s">
-        <v>192</v>
-      </c>
-      <c r="AS29" t="s">
-        <v>193</v>
-      </c>
-      <c r="AT29" t="s">
-        <v>194</v>
-      </c>
-      <c r="AU29" t="s">
-        <v>195</v>
-      </c>
-      <c r="AV29"/>
-      <c r="AW29"/>
-      <c r="AX29"/>
+        <v>34</v>
+      </c>
+      <c r="AQ29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR29" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS29" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT29" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU29" s="1" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="30" spans="1:50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>3033</v>
-      </c>
-      <c r="B30" t="s">
-        <v>189</v>
-      </c>
-      <c r="C30" t="s">
-        <v>190</v>
+      <c r="A30" s="1">
+        <v>3044</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="D30" s="7">
-        <v>3990554430</v>
-      </c>
-      <c r="E30">
-        <v>19770120</v>
-      </c>
-      <c r="F30">
+        <v>5256058980</v>
+      </c>
+      <c r="E30" s="1">
+        <v>19911216</v>
+      </c>
+      <c r="F30" s="1">
         <v>20020826</v>
       </c>
       <c r="G30">
-        <v>4.33</v>
+        <v>5.79</v>
       </c>
       <c r="H30">
-        <v>8.5500000000000007</v>
+        <v>10.83</v>
       </c>
       <c r="I30">
-        <v>1.68</v>
+        <v>1.83</v>
       </c>
       <c r="J30" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="K30" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="L30" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="M30" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="N30">
-        <v>0.7</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="P30">
-        <v>-4.1500000000000004</v>
+        <v>-5.87</v>
       </c>
       <c r="Q30">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R30">
-        <v>34.83</v>
+        <v>93.92</v>
       </c>
       <c r="S30">
-        <v>10.199999999999999</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="T30">
-        <v>39.47</v>
+        <v>108</v>
       </c>
       <c r="U30">
-        <v>11.4</v>
+        <v>10.4</v>
       </c>
       <c r="V30">
-        <v>44.12</v>
+        <v>122.1</v>
       </c>
       <c r="W30">
-        <v>12.6</v>
+        <v>11.6</v>
       </c>
       <c r="X30">
-        <v>48.76</v>
+        <v>136.19999999999999</v>
       </c>
       <c r="Y30">
-        <v>13.8</v>
+        <v>12.8</v>
       </c>
       <c r="Z30">
-        <v>53.41</v>
+        <v>150.30000000000001</v>
       </c>
       <c r="AA30">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AB30">
-        <v>58.05</v>
+        <v>164.4</v>
       </c>
       <c r="AC30" t="s">
+        <v>313</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>314</v>
+      </c>
+      <c r="AE30" t="s">
         <v>315</v>
       </c>
-      <c r="AD30" t="s">
-        <v>316</v>
-      </c>
-      <c r="AE30" t="s">
-        <v>317</v>
-      </c>
       <c r="AF30" t="s">
-        <v>369</v>
-      </c>
-      <c r="AG30">
-        <v>7.01</v>
-      </c>
-      <c r="AH30">
-        <v>3.51</v>
-      </c>
-      <c r="AI30">
-        <v>25.16</v>
-      </c>
-      <c r="AJ30">
-        <v>3.37</v>
-      </c>
-      <c r="AK30">
-        <v>2.33</v>
-      </c>
-      <c r="AL30">
-        <v>2.89</v>
-      </c>
-      <c r="AM30">
-        <v>104.15</v>
-      </c>
-      <c r="AN30">
-        <v>0.88</v>
-      </c>
-      <c r="AO30">
-        <v>0.86</v>
-      </c>
-      <c r="AP30">
-        <v>34</v>
-      </c>
-      <c r="AQ30" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AR30" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AS30" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AT30" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AU30" s="1" t="s">
-        <v>77</v>
+        <v>365</v>
+      </c>
+      <c r="AG30" s="1">
+        <v>18.75</v>
+      </c>
+      <c r="AH30" s="1">
+        <v>10.47</v>
+      </c>
+      <c r="AI30" s="1">
+        <v>15.91</v>
+      </c>
+      <c r="AJ30" s="1">
+        <v>11.99</v>
+      </c>
+      <c r="AK30" s="1">
+        <v>9.36</v>
+      </c>
+      <c r="AL30" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="AM30" s="1">
+        <v>87.32</v>
+      </c>
+      <c r="AN30" s="1">
+        <v>7.58</v>
+      </c>
+      <c r="AO30" s="1">
+        <v>-10.16</v>
+      </c>
+      <c r="AP30" s="1">
+        <v>49</v>
+      </c>
+      <c r="AQ30" t="s">
+        <v>209</v>
+      </c>
+      <c r="AR30" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS30" t="s">
+        <v>166</v>
+      </c>
+      <c r="AT30" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU30" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>3044</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>67</v>
+      <c r="A31">
+        <v>3048</v>
+      </c>
+      <c r="B31" t="s">
+        <v>207</v>
+      </c>
+      <c r="C31" t="s">
+        <v>208</v>
       </c>
       <c r="D31" s="7">
-        <v>5256058980</v>
-      </c>
-      <c r="E31" s="1">
-        <v>19911216</v>
-      </c>
-      <c r="F31" s="1">
-        <v>20020826</v>
+        <v>2448297940</v>
+      </c>
+      <c r="E31">
+        <v>19960711</v>
+      </c>
+      <c r="F31">
+        <v>20021001</v>
       </c>
       <c r="G31">
-        <v>5.74</v>
+        <v>8.43</v>
       </c>
       <c r="H31">
-        <v>10.91</v>
+        <v>8.02</v>
       </c>
       <c r="I31">
-        <v>1.84</v>
+        <v>2.11</v>
       </c>
       <c r="J31" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="K31" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="L31" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="M31" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="N31">
-        <v>0.94</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="P31">
-        <v>-4.03</v>
+        <v>9.82</v>
       </c>
       <c r="Q31">
         <v>8</v>
       </c>
       <c r="R31">
-        <v>93.92</v>
+        <v>34.32</v>
       </c>
       <c r="S31">
-        <v>9.1999999999999993</v>
+        <v>9.6</v>
       </c>
       <c r="T31">
+        <v>41.18</v>
+      </c>
+      <c r="U31">
+        <v>11.2</v>
+      </c>
+      <c r="V31">
+        <v>48.05</v>
+      </c>
+      <c r="W31">
+        <v>12.8</v>
+      </c>
+      <c r="X31">
+        <v>54.91</v>
+      </c>
+      <c r="Y31">
+        <v>14.4</v>
+      </c>
+      <c r="Z31">
+        <v>61.78</v>
+      </c>
+      <c r="AA31">
+        <v>16</v>
+      </c>
+      <c r="AB31">
+        <v>68.64</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>316</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>317</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>318</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>366</v>
+      </c>
+      <c r="AG31">
+        <v>3.24</v>
+      </c>
+      <c r="AH31">
+        <v>1.5</v>
+      </c>
+      <c r="AI31">
+        <v>27.8</v>
+      </c>
+      <c r="AJ31">
+        <v>1.3</v>
+      </c>
+      <c r="AK31">
+        <v>1.04</v>
+      </c>
+      <c r="AL31">
+        <v>4.37</v>
+      </c>
+      <c r="AM31">
+        <v>115.38</v>
+      </c>
+      <c r="AN31">
+        <v>-2.5099999999999998</v>
+      </c>
+      <c r="AO31">
+        <v>-3.46</v>
+      </c>
+      <c r="AP31">
+        <v>30</v>
+      </c>
+      <c r="AQ31" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AR31" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="U31">
-        <v>10.4</v>
-      </c>
-      <c r="V31">
-        <v>122.1</v>
-      </c>
-      <c r="W31">
-        <v>11.6</v>
-      </c>
-      <c r="X31">
-        <v>136.19999999999999</v>
-      </c>
-      <c r="Y31">
-        <v>12.8</v>
-      </c>
-      <c r="Z31">
-        <v>150.30000000000001</v>
-      </c>
-      <c r="AA31">
-        <v>14</v>
-      </c>
-      <c r="AB31">
-        <v>164.4</v>
-      </c>
-      <c r="AC31" t="s">
-        <v>318</v>
-      </c>
-      <c r="AD31" t="s">
-        <v>319</v>
-      </c>
-      <c r="AE31" t="s">
-        <v>320</v>
-      </c>
-      <c r="AF31" t="s">
-        <v>370</v>
-      </c>
-      <c r="AG31" s="1">
-        <v>18.75</v>
-      </c>
-      <c r="AH31" s="1">
-        <v>10.47</v>
-      </c>
-      <c r="AI31" s="1">
-        <v>15.91</v>
-      </c>
-      <c r="AJ31" s="1">
-        <v>11.99</v>
-      </c>
-      <c r="AK31" s="1">
-        <v>9.36</v>
-      </c>
-      <c r="AL31" s="1">
-        <v>0.78</v>
-      </c>
-      <c r="AM31" s="1">
-        <v>87.32</v>
-      </c>
-      <c r="AN31" s="1">
-        <v>7.58</v>
-      </c>
-      <c r="AO31" s="1">
-        <v>-10.16</v>
-      </c>
-      <c r="AP31" s="1">
-        <v>49</v>
-      </c>
-      <c r="AQ31" t="s">
-        <v>211</v>
-      </c>
-      <c r="AR31" t="s">
-        <v>104</v>
-      </c>
-      <c r="AS31" t="s">
-        <v>166</v>
-      </c>
-      <c r="AT31" t="s">
-        <v>104</v>
-      </c>
-      <c r="AU31" t="s">
-        <v>83</v>
+      <c r="AS31" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AT31" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AU31" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>3048</v>
-      </c>
-      <c r="B32" t="s">
-        <v>209</v>
-      </c>
-      <c r="C32" t="s">
-        <v>210</v>
+      <c r="A32" s="1">
+        <v>3209</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="D32" s="7">
-        <v>2448297940</v>
-      </c>
-      <c r="E32">
-        <v>19960711</v>
-      </c>
-      <c r="F32">
-        <v>20021001</v>
+        <v>2005321840</v>
+      </c>
+      <c r="E32" s="1">
+        <v>19910415</v>
+      </c>
+      <c r="F32" s="1">
+        <v>20081126</v>
       </c>
       <c r="G32">
-        <v>8.75</v>
+        <v>6.88</v>
       </c>
       <c r="H32">
-        <v>7.73</v>
+        <v>8.14</v>
       </c>
       <c r="I32">
-        <v>2.04</v>
+        <v>1.66</v>
       </c>
       <c r="J32" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="K32" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="L32" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="M32" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="N32">
-        <v>0.91</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="P32">
-        <v>-0.59</v>
+        <v>-22.42</v>
       </c>
       <c r="Q32">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R32">
-        <v>34.32</v>
+        <v>32.04</v>
       </c>
       <c r="S32">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="T32">
-        <v>41.18</v>
+        <v>35.6</v>
       </c>
       <c r="U32">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="V32">
-        <v>48.05</v>
+        <v>39.159999999999997</v>
       </c>
       <c r="W32">
-        <v>12.8</v>
+        <v>12</v>
       </c>
       <c r="X32">
-        <v>54.91</v>
+        <v>42.72</v>
       </c>
       <c r="Y32">
-        <v>14.4</v>
+        <v>13</v>
       </c>
       <c r="Z32">
-        <v>61.78</v>
+        <v>46.28</v>
       </c>
       <c r="AA32">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AB32">
-        <v>68.64</v>
+        <v>49.84</v>
       </c>
       <c r="AC32" t="s">
+        <v>319</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>320</v>
+      </c>
+      <c r="AE32" t="s">
         <v>321</v>
       </c>
-      <c r="AD32" t="s">
-        <v>322</v>
-      </c>
-      <c r="AE32" t="s">
-        <v>323</v>
-      </c>
       <c r="AF32" t="s">
-        <v>371</v>
-      </c>
-      <c r="AG32">
-        <v>3.24</v>
-      </c>
-      <c r="AH32">
-        <v>1.5</v>
-      </c>
-      <c r="AI32">
-        <v>27.8</v>
-      </c>
-      <c r="AJ32">
-        <v>1.3</v>
-      </c>
-      <c r="AK32">
-        <v>1.04</v>
-      </c>
-      <c r="AL32">
-        <v>4.37</v>
-      </c>
-      <c r="AM32">
-        <v>115.38</v>
-      </c>
-      <c r="AN32">
-        <v>-2.5099999999999998</v>
-      </c>
-      <c r="AO32">
-        <v>-3.46</v>
-      </c>
-      <c r="AP32">
-        <v>30</v>
-      </c>
-      <c r="AQ32" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AR32" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AS32" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AT32" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AU32" s="1" t="s">
-        <v>111</v>
+        <v>367</v>
+      </c>
+      <c r="AG32" s="1">
+        <v>5.31</v>
+      </c>
+      <c r="AH32" s="1">
+        <v>2.25</v>
+      </c>
+      <c r="AI32" s="1">
+        <v>22.5</v>
+      </c>
+      <c r="AJ32" s="1">
+        <v>2.11</v>
+      </c>
+      <c r="AK32" s="1">
+        <v>1.63</v>
+      </c>
+      <c r="AL32" s="1">
+        <v>3.25</v>
+      </c>
+      <c r="AM32" s="1">
+        <v>106.64</v>
+      </c>
+      <c r="AN32" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="AO32" s="1">
+        <v>-1.1599999999999999</v>
+      </c>
+      <c r="AP32" s="1">
+        <v>38</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>212</v>
+      </c>
+      <c r="AR32" t="s">
+        <v>213</v>
+      </c>
+      <c r="AS32" t="s">
+        <v>214</v>
+      </c>
+      <c r="AT32" t="s">
+        <v>215</v>
+      </c>
+      <c r="AU32" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:52" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>3209</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>106</v>
+      <c r="A33">
+        <v>3312</v>
+      </c>
+      <c r="B33" t="s">
+        <v>210</v>
+      </c>
+      <c r="C33" t="s">
+        <v>211</v>
       </c>
       <c r="D33" s="7">
-        <v>2005321840</v>
-      </c>
-      <c r="E33" s="1">
-        <v>19910415</v>
-      </c>
-      <c r="F33" s="1">
-        <v>20081126</v>
+        <v>1376254550</v>
+      </c>
+      <c r="E33">
+        <v>19951006</v>
+      </c>
+      <c r="F33">
+        <v>20101229</v>
       </c>
       <c r="G33">
-        <v>6.91</v>
+        <v>4.13</v>
       </c>
       <c r="H33">
-        <v>8.11</v>
+        <v>7.71</v>
       </c>
       <c r="I33">
-        <v>1.66</v>
+        <v>1.85</v>
       </c>
       <c r="J33" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="K33" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L33" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="M33" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="N33">
-        <v>1.02</v>
+        <v>0.83</v>
       </c>
       <c r="P33">
-        <v>6.41</v>
+        <v>5.73</v>
       </c>
       <c r="Q33">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="R33">
-        <v>32.04</v>
+        <v>47.1</v>
       </c>
       <c r="S33">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="T33">
-        <v>35.6</v>
+        <v>56.52</v>
       </c>
       <c r="U33">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="V33">
-        <v>39.159999999999997</v>
+        <v>65.94</v>
       </c>
       <c r="W33">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="X33">
-        <v>42.72</v>
+        <v>75.36</v>
       </c>
       <c r="Y33">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="Z33">
-        <v>46.28</v>
+        <v>84.78</v>
       </c>
       <c r="AA33">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="AB33">
-        <v>49.84</v>
+        <v>94.2</v>
       </c>
       <c r="AC33" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>323</v>
+      </c>
+      <c r="AE33" t="s">
         <v>324</v>
       </c>
-      <c r="AD33" t="s">
-        <v>325</v>
-      </c>
-      <c r="AE33" t="s">
-        <v>326</v>
-      </c>
       <c r="AF33" t="s">
-        <v>372</v>
-      </c>
-      <c r="AG33" s="1">
-        <v>5.31</v>
-      </c>
-      <c r="AH33" s="1">
-        <v>2.25</v>
-      </c>
-      <c r="AI33" s="1">
-        <v>22.5</v>
-      </c>
-      <c r="AJ33" s="1">
-        <v>2.11</v>
-      </c>
-      <c r="AK33" s="1">
-        <v>1.63</v>
-      </c>
-      <c r="AL33" s="1">
-        <v>3.25</v>
-      </c>
-      <c r="AM33" s="1">
-        <v>106.64</v>
-      </c>
-      <c r="AN33" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="AO33" s="1">
-        <v>-1.1599999999999999</v>
-      </c>
-      <c r="AP33" s="1">
-        <v>38</v>
-      </c>
-      <c r="AQ33" t="s">
-        <v>214</v>
-      </c>
-      <c r="AR33" t="s">
-        <v>215</v>
-      </c>
-      <c r="AS33" t="s">
-        <v>216</v>
-      </c>
-      <c r="AT33" t="s">
-        <v>217</v>
-      </c>
-      <c r="AU33" t="s">
-        <v>100</v>
+        <v>368</v>
+      </c>
+      <c r="AG33">
+        <v>5.84</v>
+      </c>
+      <c r="AH33">
+        <v>3.09</v>
+      </c>
+      <c r="AI33">
+        <v>27.98</v>
+      </c>
+      <c r="AJ33">
+        <v>3.08</v>
+      </c>
+      <c r="AK33">
+        <v>2.5</v>
+      </c>
+      <c r="AL33">
+        <v>3.01</v>
+      </c>
+      <c r="AM33">
+        <v>100.32</v>
+      </c>
+      <c r="AN33">
+        <v>-3.19</v>
+      </c>
+      <c r="AO33">
+        <v>-3.32</v>
+      </c>
+      <c r="AP33">
+        <v>40</v>
+      </c>
+      <c r="AQ33" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="AR33" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AS33" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AT33" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AU33" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="34" spans="1:52" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>3312</v>
-      </c>
-      <c r="B34" t="s">
-        <v>212</v>
-      </c>
-      <c r="C34" t="s">
-        <v>213</v>
-      </c>
-      <c r="D34" s="7">
-        <v>1376254550</v>
-      </c>
-      <c r="E34">
-        <v>19951006</v>
-      </c>
-      <c r="F34">
-        <v>20101229</v>
+      <c r="A34" s="1">
+        <v>3702</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D34" s="1">
+        <v>18790568330</v>
+      </c>
+      <c r="E34" s="1">
+        <v>20051109</v>
+      </c>
+      <c r="F34" s="1">
+        <v>20051109</v>
       </c>
       <c r="G34">
-        <v>4.2300000000000004</v>
+        <v>5.62</v>
       </c>
       <c r="H34">
-        <v>7.53</v>
+        <v>9.5299999999999994</v>
       </c>
       <c r="I34">
-        <v>1.81</v>
+        <v>1.53</v>
       </c>
       <c r="J34" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="K34" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="L34" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="M34" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="N34">
-        <v>0.39</v>
+        <v>1.03</v>
       </c>
       <c r="P34">
-        <v>-5.81</v>
+        <v>-1.79</v>
       </c>
       <c r="Q34">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="R34">
-        <v>47.1</v>
+        <v>55.71</v>
       </c>
       <c r="S34">
-        <v>18</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="T34">
-        <v>56.52</v>
+        <v>60.66</v>
       </c>
       <c r="U34">
-        <v>21</v>
+        <v>10.6</v>
       </c>
       <c r="V34">
-        <v>65.94</v>
+        <v>65.61</v>
       </c>
       <c r="W34">
-        <v>24</v>
+        <v>11.4</v>
       </c>
       <c r="X34">
-        <v>75.36</v>
+        <v>70.569999999999993</v>
       </c>
       <c r="Y34">
-        <v>27</v>
+        <v>12.2</v>
       </c>
       <c r="Z34">
-        <v>84.78</v>
+        <v>75.52</v>
       </c>
       <c r="AA34">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="AB34">
-        <v>94.2</v>
+        <v>80.47</v>
       </c>
       <c r="AC34" t="s">
+        <v>325</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>326</v>
+      </c>
+      <c r="AE34" t="s">
         <v>327</v>
       </c>
-      <c r="AD34" t="s">
-        <v>328</v>
-      </c>
-      <c r="AE34" t="s">
-        <v>329</v>
-      </c>
       <c r="AF34" t="s">
-        <v>373</v>
-      </c>
-      <c r="AG34">
-        <v>5.84</v>
-      </c>
-      <c r="AH34">
-        <v>3.09</v>
-      </c>
-      <c r="AI34">
-        <v>27.98</v>
-      </c>
-      <c r="AJ34">
-        <v>3.08</v>
-      </c>
-      <c r="AK34">
-        <v>2.5</v>
-      </c>
-      <c r="AL34">
-        <v>3.01</v>
-      </c>
-      <c r="AM34">
-        <v>100.32</v>
-      </c>
-      <c r="AN34">
-        <v>-3.19</v>
-      </c>
-      <c r="AO34">
-        <v>-3.32</v>
-      </c>
-      <c r="AP34">
-        <v>40</v>
+        <v>369</v>
+      </c>
+      <c r="AG34" s="1">
+        <v>3.89</v>
+      </c>
+      <c r="AH34" s="1">
+        <v>1.82</v>
+      </c>
+      <c r="AI34" s="1">
+        <v>17.649999999999999</v>
+      </c>
+      <c r="AJ34" s="1">
+        <v>1.87</v>
+      </c>
+      <c r="AK34" s="1">
+        <v>1.54</v>
+      </c>
+      <c r="AL34" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="AM34" s="1">
+        <v>97.33</v>
+      </c>
+      <c r="AN34" s="1">
+        <v>-16.23</v>
+      </c>
+      <c r="AO34" s="1">
+        <v>-16.72</v>
+      </c>
+      <c r="AP34" s="1">
+        <v>28</v>
       </c>
       <c r="AQ34" s="1" t="s">
-        <v>169</v>
+        <v>104</v>
       </c>
       <c r="AR34" s="1" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="AS34" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AT34" s="1" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="AU34" s="1" t="s">
-        <v>171</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35" spans="1:52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>3702</v>
+        <v>3706</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>167</v>
+        <v>29</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D35" s="1">
-        <v>18790568330</v>
+        <v>30</v>
+      </c>
+      <c r="D35" s="7">
+        <v>12065567890</v>
       </c>
       <c r="E35" s="1">
-        <v>20051109</v>
+        <v>20130912</v>
       </c>
       <c r="F35" s="1">
-        <v>20051109</v>
+        <v>20130912</v>
       </c>
       <c r="G35">
-        <v>5.63</v>
+        <v>2.99</v>
       </c>
       <c r="H35">
-        <v>9.52</v>
+        <v>3.25</v>
       </c>
       <c r="I35">
-        <v>1.52</v>
+        <v>0.81</v>
       </c>
       <c r="J35" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="K35" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="L35" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="M35" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="N35">
-        <v>1.01</v>
+        <v>2.17</v>
       </c>
       <c r="P35">
-        <v>-3.44</v>
+        <v>16.64</v>
       </c>
       <c r="Q35">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R35">
-        <v>55.71</v>
+        <v>82.56</v>
       </c>
       <c r="S35">
-        <v>9.8000000000000007</v>
+        <v>9.4</v>
       </c>
       <c r="T35">
-        <v>60.66</v>
+        <v>97.01</v>
       </c>
       <c r="U35">
-        <v>10.6</v>
+        <v>10.8</v>
       </c>
       <c r="V35">
-        <v>65.61</v>
+        <v>111.5</v>
       </c>
       <c r="W35">
-        <v>11.4</v>
+        <v>12.2</v>
       </c>
       <c r="X35">
-        <v>70.569999999999993</v>
+        <v>125.9</v>
       </c>
       <c r="Y35">
-        <v>12.2</v>
+        <v>13.6</v>
       </c>
       <c r="Z35">
-        <v>75.52</v>
+        <v>140.4</v>
       </c>
       <c r="AA35">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB35">
-        <v>80.47</v>
+        <v>154.80000000000001</v>
       </c>
       <c r="AC35" t="s">
+        <v>328</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>329</v>
+      </c>
+      <c r="AE35" t="s">
         <v>330</v>
       </c>
-      <c r="AD35" t="s">
-        <v>331</v>
-      </c>
-      <c r="AE35" t="s">
-        <v>332</v>
-      </c>
       <c r="AF35" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="AG35" s="1">
-        <v>3.89</v>
+        <v>9.75</v>
       </c>
       <c r="AH35" s="1">
-        <v>1.82</v>
+        <v>-0.09</v>
       </c>
       <c r="AI35" s="1">
-        <v>17.649999999999999</v>
+        <v>33</v>
       </c>
       <c r="AJ35" s="1">
-        <v>1.87</v>
+        <v>55.14</v>
       </c>
       <c r="AK35" s="1">
-        <v>1.54</v>
+        <v>34.869999999999997</v>
       </c>
       <c r="AL35" s="1">
-        <v>2.9</v>
+        <v>0.68</v>
       </c>
       <c r="AM35" s="1">
-        <v>97.33</v>
+        <v>-0.16</v>
       </c>
       <c r="AN35" s="1">
-        <v>-16.23</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AO35" s="1">
-        <v>-16.72</v>
+        <v>1.44</v>
       </c>
       <c r="AP35" s="1">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="AQ35" s="1" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="AR35" s="1" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="AS35" s="1" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="AT35" s="1" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="AU35" s="1" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>3706</v>
+        <v>6257</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>29</v>
+        <v>112</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="D36" s="7">
-        <v>12065567890</v>
+        <v>4444791420</v>
       </c>
       <c r="E36" s="1">
-        <v>20130912</v>
+        <v>19881215</v>
       </c>
       <c r="F36" s="1">
-        <v>20130912</v>
+        <v>20030825</v>
       </c>
       <c r="G36">
-        <v>3.03</v>
+        <v>4.99</v>
       </c>
       <c r="H36">
-        <v>3.2</v>
+        <v>10.02</v>
       </c>
       <c r="I36">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="J36" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="K36" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="L36" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="M36" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="N36">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="P36">
-        <v>-4.71</v>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="P36" t="s">
+        <v>521</v>
       </c>
       <c r="Q36">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R36">
-        <v>82.56</v>
+        <v>52.47</v>
       </c>
       <c r="S36">
-        <v>9.4</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="T36">
-        <v>97.01</v>
+        <v>59.47</v>
       </c>
       <c r="U36">
-        <v>10.8</v>
+        <v>11.4</v>
       </c>
       <c r="V36">
-        <v>111.5</v>
+        <v>66.459999999999994</v>
       </c>
       <c r="W36">
-        <v>12.2</v>
+        <v>12.6</v>
       </c>
       <c r="X36">
-        <v>125.9</v>
+        <v>73.459999999999994</v>
       </c>
       <c r="Y36">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="Z36">
-        <v>140.4</v>
+        <v>80.45</v>
       </c>
       <c r="AA36">
         <v>15</v>
       </c>
       <c r="AB36">
-        <v>154.80000000000001</v>
+        <v>87.45</v>
       </c>
       <c r="AC36" t="s">
+        <v>331</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>332</v>
+      </c>
+      <c r="AE36" t="s">
         <v>333</v>
       </c>
-      <c r="AD36" t="s">
-        <v>334</v>
-      </c>
-      <c r="AE36" t="s">
-        <v>335</v>
-      </c>
       <c r="AF36" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="AG36" s="1">
-        <v>9.75</v>
+        <v>30.03</v>
       </c>
       <c r="AH36" s="1">
-        <v>-0.09</v>
+        <v>21.36</v>
       </c>
       <c r="AI36" s="1">
-        <v>33</v>
+        <v>19.16</v>
       </c>
       <c r="AJ36" s="1">
-        <v>55.14</v>
+        <v>22.37</v>
       </c>
       <c r="AK36" s="1">
-        <v>34.869999999999997</v>
+        <v>18.329999999999998</v>
       </c>
       <c r="AL36" s="1">
-        <v>0.68</v>
+        <v>0.51</v>
       </c>
       <c r="AM36" s="1">
-        <v>-0.16</v>
+        <v>95.49</v>
       </c>
       <c r="AN36" s="1">
-        <v>0.14000000000000001</v>
+        <v>17.23</v>
       </c>
       <c r="AO36" s="1">
-        <v>1.44</v>
+        <v>-2.14</v>
       </c>
       <c r="AP36" s="1">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="AQ36" s="1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="AR36" s="1" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="AS36" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="AT36" s="1" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="AU36" s="1" t="s">
-        <v>99</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" spans="1:52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>6257</v>
+        <v>8112</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>112</v>
+        <v>9</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="D37" s="7">
-        <v>4444791420</v>
+        <v>4284964730</v>
       </c>
       <c r="E37" s="1">
-        <v>19881215</v>
+        <v>19870305</v>
       </c>
       <c r="F37" s="1">
-        <v>20030825</v>
+        <v>20071231</v>
       </c>
       <c r="G37">
-        <v>5.0199999999999996</v>
+        <v>6.12</v>
       </c>
       <c r="H37">
-        <v>9.9700000000000006</v>
+        <v>7.74</v>
       </c>
       <c r="I37">
-        <v>1.79</v>
+        <v>1.99</v>
       </c>
       <c r="J37" t="s">
+        <v>522</v>
+      </c>
+      <c r="K37" t="s">
+        <v>523</v>
+      </c>
+      <c r="L37" t="s">
+        <v>524</v>
+      </c>
+      <c r="M37" t="s">
+        <v>525</v>
+      </c>
+      <c r="N37">
+        <v>0.39</v>
+      </c>
+      <c r="P37" t="s">
+        <v>526</v>
+      </c>
+      <c r="Q37">
+        <v>7</v>
+      </c>
+      <c r="R37">
+        <v>46.97</v>
+      </c>
+      <c r="S37">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="T37">
+        <v>55.02</v>
+      </c>
+      <c r="U37">
+        <v>9.4</v>
+      </c>
+      <c r="V37">
+        <v>63.07</v>
+      </c>
+      <c r="W37">
+        <v>10.6</v>
+      </c>
+      <c r="X37">
+        <v>71.13</v>
+      </c>
+      <c r="Y37">
+        <v>11.8</v>
+      </c>
+      <c r="Z37">
+        <v>79.180000000000007</v>
+      </c>
+      <c r="AA37">
+        <v>13</v>
+      </c>
+      <c r="AB37">
+        <v>87.23</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>334</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>335</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>336</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>372</v>
+      </c>
+      <c r="AG37" s="1">
+        <v>3.26</v>
+      </c>
+      <c r="AH37" s="1">
+        <v>2.17</v>
+      </c>
+      <c r="AI37" s="1">
+        <v>31.83</v>
+      </c>
+      <c r="AJ37" s="1">
+        <v>2.02</v>
+      </c>
+      <c r="AK37" s="1">
+        <v>1.53</v>
+      </c>
+      <c r="AL37" s="1">
+        <v>4.42</v>
+      </c>
+      <c r="AM37" s="1">
+        <v>107.43</v>
+      </c>
+      <c r="AN37" s="1">
+        <v>-12.76</v>
+      </c>
+      <c r="AO37" s="1">
+        <v>-8.07</v>
+      </c>
+      <c r="AP37" s="1">
+        <v>32</v>
+      </c>
+      <c r="AQ37" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AR37" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AS37" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AT37" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AU37" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="38" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>8150</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="7">
+        <v>7272401260</v>
+      </c>
+      <c r="E38" s="1">
+        <v>19970728</v>
+      </c>
+      <c r="F38" s="1">
+        <v>20140411</v>
+      </c>
+      <c r="G38">
+        <v>4.75</v>
+      </c>
+      <c r="H38">
+        <v>7.79</v>
+      </c>
+      <c r="I38">
+        <v>1.48</v>
+      </c>
+      <c r="J38" t="s">
+        <v>527</v>
+      </c>
+      <c r="K38" t="s">
         <v>528</v>
       </c>
-      <c r="K37" t="s">
+      <c r="L38" t="s">
         <v>529</v>
       </c>
-      <c r="L37" t="s">
+      <c r="M38" t="s">
         <v>530</v>
       </c>
-      <c r="M37" t="s">
+      <c r="N38">
+        <v>0.62</v>
+      </c>
+      <c r="O38"/>
+      <c r="P38" t="s">
         <v>531</v>
       </c>
-      <c r="N37">
-        <v>2.46</v>
-      </c>
-      <c r="P37">
-        <v>6.93</v>
-      </c>
-      <c r="Q37">
+      <c r="Q38">
         <v>9</v>
       </c>
-      <c r="R37">
-        <v>52.47</v>
-      </c>
-      <c r="S37">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="T37">
-        <v>59.47</v>
-      </c>
-      <c r="U37">
-        <v>11.4</v>
-      </c>
-      <c r="V37">
-        <v>66.459999999999994</v>
-      </c>
-      <c r="W37">
+      <c r="R38">
+        <v>53.55</v>
+      </c>
+      <c r="S38">
+        <v>10.8</v>
+      </c>
+      <c r="T38">
+        <v>64.260000000000005</v>
+      </c>
+      <c r="U38">
         <v>12.6</v>
       </c>
-      <c r="X37">
-        <v>73.459999999999994</v>
-      </c>
-      <c r="Y37">
-        <v>13.8</v>
-      </c>
-      <c r="Z37">
-        <v>80.45</v>
-      </c>
-      <c r="AA37">
-        <v>15</v>
-      </c>
-      <c r="AB37">
-        <v>87.45</v>
-      </c>
-      <c r="AC37" t="s">
-        <v>336</v>
-      </c>
-      <c r="AD37" t="s">
+      <c r="V38">
+        <v>74.97</v>
+      </c>
+      <c r="W38">
+        <v>14.4</v>
+      </c>
+      <c r="X38">
+        <v>85.68</v>
+      </c>
+      <c r="Y38">
+        <v>16.2</v>
+      </c>
+      <c r="Z38">
+        <v>96.39</v>
+      </c>
+      <c r="AA38">
+        <v>18</v>
+      </c>
+      <c r="AB38">
+        <v>107.1</v>
+      </c>
+      <c r="AC38" t="s">
         <v>337</v>
       </c>
-      <c r="AE37" t="s">
+      <c r="AD38" t="s">
         <v>338</v>
       </c>
-      <c r="AF37" t="s">
-        <v>376</v>
-      </c>
-      <c r="AG37" s="1">
-        <v>30.03</v>
-      </c>
-      <c r="AH37" s="1">
-        <v>21.36</v>
-      </c>
-      <c r="AI37" s="1">
-        <v>19.16</v>
-      </c>
-      <c r="AJ37" s="1">
-        <v>22.37</v>
-      </c>
-      <c r="AK37" s="1">
-        <v>18.329999999999998</v>
-      </c>
-      <c r="AL37" s="1">
-        <v>0.51</v>
-      </c>
-      <c r="AM37" s="1">
-        <v>95.49</v>
-      </c>
-      <c r="AN37" s="1">
-        <v>17.23</v>
-      </c>
-      <c r="AO37" s="1">
-        <v>-2.14</v>
-      </c>
-      <c r="AP37" s="1">
-        <v>64</v>
-      </c>
-      <c r="AQ37" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AR37" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AS37" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AT37" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AU37" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="38" spans="1:52" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>8112</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38" s="7">
-        <v>4284964730</v>
-      </c>
-      <c r="E38" s="1">
-        <v>19870305</v>
-      </c>
-      <c r="F38" s="1">
-        <v>20071231</v>
-      </c>
-      <c r="G38">
-        <v>6.1</v>
-      </c>
-      <c r="H38">
-        <v>7.75</v>
-      </c>
-      <c r="I38">
-        <v>2</v>
-      </c>
-      <c r="J38" t="s">
-        <v>532</v>
-      </c>
-      <c r="K38" t="s">
-        <v>533</v>
-      </c>
-      <c r="L38" t="s">
-        <v>534</v>
-      </c>
-      <c r="M38" t="s">
-        <v>535</v>
-      </c>
-      <c r="N38">
-        <v>1.31</v>
-      </c>
-      <c r="P38">
-        <v>-5.66</v>
-      </c>
-      <c r="Q38">
-        <v>7</v>
-      </c>
-      <c r="R38">
-        <v>46.97</v>
-      </c>
-      <c r="S38">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="T38">
-        <v>55.02</v>
-      </c>
-      <c r="U38">
-        <v>9.4</v>
-      </c>
-      <c r="V38">
-        <v>63.07</v>
-      </c>
-      <c r="W38">
-        <v>10.6</v>
-      </c>
-      <c r="X38">
-        <v>71.13</v>
-      </c>
-      <c r="Y38">
-        <v>11.8</v>
-      </c>
-      <c r="Z38">
-        <v>79.180000000000007</v>
-      </c>
-      <c r="AA38">
-        <v>13</v>
-      </c>
-      <c r="AB38">
-        <v>87.23</v>
-      </c>
-      <c r="AC38" t="s">
+      <c r="AE38" t="s">
         <v>339</v>
       </c>
-      <c r="AD38" t="s">
-        <v>340</v>
-      </c>
-      <c r="AE38" t="s">
-        <v>341</v>
-      </c>
       <c r="AF38" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="AG38" s="1">
-        <v>3.26</v>
+        <v>26.62</v>
       </c>
       <c r="AH38" s="1">
-        <v>2.17</v>
+        <v>20.51</v>
       </c>
       <c r="AI38" s="1">
-        <v>31.83</v>
+        <v>22.24</v>
       </c>
       <c r="AJ38" s="1">
-        <v>2.02</v>
+        <v>21.26</v>
       </c>
       <c r="AK38" s="1">
-        <v>1.53</v>
+        <v>17.670000000000002</v>
       </c>
       <c r="AL38" s="1">
-        <v>4.42</v>
+        <v>0.74</v>
       </c>
       <c r="AM38" s="1">
-        <v>107.43</v>
+        <v>96.47</v>
       </c>
       <c r="AN38" s="1">
-        <v>-12.76</v>
+        <v>7.35</v>
       </c>
       <c r="AO38" s="1">
-        <v>-8.07</v>
+        <v>1.02</v>
       </c>
       <c r="AP38" s="1">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="AQ38" s="1" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="AR38" s="1" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="AS38" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="AT38" s="1" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="AU38" s="1" t="s">
-        <v>151</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="AV38"/>
+      <c r="AW38"/>
+      <c r="AX38"/>
+      <c r="AY38"/>
+      <c r="AZ38"/>
     </row>
     <row r="39" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>8150</v>
+        <v>8213</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="D39" s="7">
-        <v>7272401260</v>
+        <v>2712424880</v>
       </c>
       <c r="E39" s="1">
-        <v>19970728</v>
+        <v>19980421</v>
       </c>
       <c r="F39" s="1">
-        <v>20140411</v>
+        <v>20091225</v>
       </c>
       <c r="G39">
-        <v>4.8</v>
+        <v>7.32</v>
       </c>
       <c r="H39">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="I39">
-        <v>1.46</v>
+        <v>0.99</v>
       </c>
       <c r="J39" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="K39" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="L39" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="M39" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="N39">
-        <v>0.94</v>
+        <v>1.84</v>
       </c>
       <c r="O39"/>
       <c r="P39">
-        <v>-4.26</v>
+        <v>3.01</v>
       </c>
       <c r="Q39">
+        <v>6</v>
+      </c>
+      <c r="R39">
+        <v>36.659999999999997</v>
+      </c>
+      <c r="S39">
+        <v>7</v>
+      </c>
+      <c r="T39">
+        <v>42.77</v>
+      </c>
+      <c r="U39">
+        <v>8</v>
+      </c>
+      <c r="V39">
+        <v>48.88</v>
+      </c>
+      <c r="W39">
         <v>9</v>
       </c>
-      <c r="R39">
-        <v>53.55</v>
-      </c>
-      <c r="S39">
-        <v>10.8</v>
-      </c>
-      <c r="T39">
-        <v>64.260000000000005</v>
-      </c>
-      <c r="U39">
-        <v>12.6</v>
-      </c>
-      <c r="V39">
-        <v>74.97</v>
-      </c>
-      <c r="W39">
-        <v>14.4</v>
-      </c>
       <c r="X39">
-        <v>85.68</v>
+        <v>54.99</v>
       </c>
       <c r="Y39">
-        <v>16.2</v>
+        <v>10</v>
       </c>
       <c r="Z39">
-        <v>96.39</v>
+        <v>61.1</v>
       </c>
       <c r="AA39">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="AB39">
-        <v>107.1</v>
+        <v>67.209999999999994</v>
       </c>
       <c r="AC39" t="s">
+        <v>340</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>341</v>
+      </c>
+      <c r="AE39" t="s">
         <v>342</v>
       </c>
-      <c r="AD39" t="s">
-        <v>343</v>
-      </c>
-      <c r="AE39" t="s">
-        <v>344</v>
-      </c>
       <c r="AF39" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="AG39" s="1">
-        <v>26.62</v>
+        <v>15.64</v>
       </c>
       <c r="AH39" s="1">
-        <v>20.51</v>
+        <v>8.6</v>
       </c>
       <c r="AI39" s="1">
-        <v>22.24</v>
+        <v>13.51</v>
       </c>
       <c r="AJ39" s="1">
-        <v>21.26</v>
+        <v>9.09</v>
       </c>
       <c r="AK39" s="1">
-        <v>17.670000000000002</v>
+        <v>6.58</v>
       </c>
       <c r="AL39" s="1">
-        <v>0.74</v>
+        <v>0.86</v>
       </c>
       <c r="AM39" s="1">
-        <v>96.47</v>
+        <v>94.61</v>
       </c>
       <c r="AN39" s="1">
-        <v>7.35</v>
+        <v>2.02</v>
       </c>
       <c r="AO39" s="1">
-        <v>1.02</v>
+        <v>0.38</v>
       </c>
       <c r="AP39" s="1">
-        <v>66</v>
-      </c>
-      <c r="AQ39" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AR39" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AS39" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="AT39" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="AU39" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AV39"/>
-      <c r="AW39"/>
-      <c r="AX39"/>
-      <c r="AY39"/>
-      <c r="AZ39"/>
-    </row>
-    <row r="40" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>8213</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D40" s="7">
-        <v>2712424880</v>
-      </c>
-      <c r="E40" s="1">
-        <v>19980421</v>
-      </c>
-      <c r="F40" s="1">
-        <v>20091225</v>
-      </c>
-      <c r="G40">
-        <v>7.35</v>
-      </c>
-      <c r="H40">
-        <v>7.87</v>
-      </c>
-      <c r="I40">
-        <v>0.98</v>
-      </c>
-      <c r="J40" t="s">
-        <v>540</v>
-      </c>
-      <c r="K40" t="s">
-        <v>541</v>
-      </c>
-      <c r="L40" t="s">
-        <v>542</v>
-      </c>
-      <c r="M40" t="s">
-        <v>543</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40"/>
-      <c r="P40">
-        <v>1.2</v>
-      </c>
-      <c r="Q40">
-        <v>6</v>
-      </c>
-      <c r="R40">
-        <v>36.659999999999997</v>
-      </c>
-      <c r="S40">
-        <v>7</v>
-      </c>
-      <c r="T40">
-        <v>42.77</v>
-      </c>
-      <c r="U40">
-        <v>8</v>
-      </c>
-      <c r="V40">
-        <v>48.88</v>
-      </c>
-      <c r="W40">
-        <v>9</v>
-      </c>
-      <c r="X40">
-        <v>54.99</v>
-      </c>
-      <c r="Y40">
-        <v>10</v>
-      </c>
-      <c r="Z40">
-        <v>61.1</v>
-      </c>
-      <c r="AA40">
-        <v>11</v>
-      </c>
-      <c r="AB40">
-        <v>67.209999999999994</v>
-      </c>
-      <c r="AC40" t="s">
-        <v>345</v>
-      </c>
-      <c r="AD40" t="s">
-        <v>346</v>
-      </c>
-      <c r="AE40" t="s">
-        <v>347</v>
-      </c>
-      <c r="AF40" t="s">
-        <v>379</v>
-      </c>
-      <c r="AG40" s="1">
-        <v>15.64</v>
-      </c>
-      <c r="AH40" s="1">
-        <v>8.6</v>
-      </c>
-      <c r="AI40" s="1">
-        <v>13.51</v>
-      </c>
-      <c r="AJ40" s="1">
-        <v>9.09</v>
-      </c>
-      <c r="AK40" s="1">
-        <v>6.58</v>
-      </c>
-      <c r="AL40" s="1">
-        <v>0.86</v>
-      </c>
-      <c r="AM40" s="1">
-        <v>94.61</v>
-      </c>
-      <c r="AN40" s="1">
-        <v>2.02</v>
-      </c>
-      <c r="AO40" s="1">
-        <v>0.38</v>
-      </c>
-      <c r="AP40" s="1">
         <v>47</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:AU39">
-    <sortCondition ref="A39"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:AU38">
+    <sortCondition ref="A38"/>
   </sortState>
   <mergeCells count="28">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="AG1:AG2"/>
+    <mergeCell ref="AH1:AH2"/>
+    <mergeCell ref="AI1:AI2"/>
+    <mergeCell ref="AJ1:AJ2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="AF1:AF2"/>
+    <mergeCell ref="AE1:AE2"/>
+    <mergeCell ref="AD1:AD2"/>
+    <mergeCell ref="AC1:AC2"/>
+    <mergeCell ref="O1:O2"/>
     <mergeCell ref="AQ1:AU1"/>
     <mergeCell ref="AK1:AK2"/>
     <mergeCell ref="B1:B2"/>
@@ -8336,21 +8181,9 @@
     <mergeCell ref="AN1:AN2"/>
     <mergeCell ref="AO1:AO2"/>
     <mergeCell ref="AP1:AP2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="AG1:AG2"/>
-    <mergeCell ref="AH1:AH2"/>
-    <mergeCell ref="AI1:AI2"/>
-    <mergeCell ref="AJ1:AJ2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="AF1:AF2"/>
-    <mergeCell ref="AE1:AE2"/>
-    <mergeCell ref="AD1:AD2"/>
-    <mergeCell ref="AC1:AC2"/>
-    <mergeCell ref="O1:O2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="AG27:AG29">
+  <conditionalFormatting sqref="AG26:AG28">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -8362,7 +8195,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG3:AG23 AG25:AG28 AJ24">
+  <conditionalFormatting sqref="AG24:AG27 AG3:AG22 AJ23">
     <cfRule type="colorScale" priority="93">
       <colorScale>
         <cfvo type="min"/>
@@ -8372,7 +8205,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG3:AP23 AG25:AP29 AJ24:AS24">
+  <conditionalFormatting sqref="AG24:AP28 AG3:AP22 AJ23:AS23">
     <cfRule type="colorScale" priority="105">
       <colorScale>
         <cfvo type="min"/>
@@ -8382,7 +8215,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG3:AP23 AG25:AP39 AJ24:AS24">
+  <conditionalFormatting sqref="AG24:AP38 AG3:AP22 AJ23:AS23">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -8392,7 +8225,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG3:AG23 AG25:AG29 AJ24">
+  <conditionalFormatting sqref="AG24:AG28 AG3:AG22 AJ23">
     <cfRule type="colorScale" priority="131">
       <colorScale>
         <cfvo type="min"/>
@@ -8402,7 +8235,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG3:AP23 AG25:AP30 AJ24:AS24">
+  <conditionalFormatting sqref="AG24:AP29 AG3:AP22 AJ23:AS23">
     <cfRule type="colorScale" priority="133">
       <colorScale>
         <cfvo type="min"/>
@@ -8412,7 +8245,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM3:AM23 AM25:AM28 AP24">
+  <conditionalFormatting sqref="AM24:AM27 AM3:AM22 AP23">
     <cfRule type="colorScale" priority="135">
       <colorScale>
         <cfvo type="min"/>
@@ -8422,7 +8255,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH4:AH23 AH25:AH28 AK24">
+  <conditionalFormatting sqref="AH24:AH27 AH4:AH22 AK23">
     <cfRule type="colorScale" priority="137">
       <colorScale>
         <cfvo type="min"/>
@@ -8432,7 +8265,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH3:AH23 AH25:AH28 AK24">
+  <conditionalFormatting sqref="AH24:AH27 AH3:AH22 AK23">
     <cfRule type="colorScale" priority="141">
       <colorScale>
         <cfvo type="min"/>
@@ -8442,7 +8275,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK3:AK23 AK25:AK28 AN24">
+  <conditionalFormatting sqref="AK24:AK27 AK3:AK22 AN23">
     <cfRule type="colorScale" priority="143">
       <colorScale>
         <cfvo type="min"/>
@@ -8452,7 +8285,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI3:AI23 AI25:AI28 AL24">
+  <conditionalFormatting sqref="AI24:AI27 AI3:AI22 AL23">
     <cfRule type="colorScale" priority="145">
       <colorScale>
         <cfvo type="min"/>
@@ -8462,7 +8295,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH3:AM23 AH25:AM29 AK24:AP24">
+  <conditionalFormatting sqref="AH24:AM28 AH3:AM22 AK23:AP23">
     <cfRule type="colorScale" priority="147">
       <colorScale>
         <cfvo type="min"/>
@@ -8472,7 +8305,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN3:AP23 AN25:AP29 AQ24:AS24">
+  <conditionalFormatting sqref="AN24:AP28 AN3:AP22 AQ23:AS23">
     <cfRule type="colorScale" priority="149">
       <colorScale>
         <cfvo type="min"/>
@@ -8482,7 +8315,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG6:AP23 AG25:AP30 AJ24:AS24">
+  <conditionalFormatting sqref="AG24:AP29 AG6:AP22 AJ23:AS23">
     <cfRule type="colorScale" priority="153">
       <colorScale>
         <cfvo type="min"/>
@@ -8492,7 +8325,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG3:AP23 AG25:AP40 AJ24:AS24">
+  <conditionalFormatting sqref="AG24:AP39 AG3:AP22 AJ23:AS23">
     <cfRule type="colorScale" priority="157">
       <colorScale>
         <cfvo type="min"/>
@@ -8502,8 +8335,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG3:AP40">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="AG3:AP39">
+    <cfRule type="colorScale" priority="200">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>

--- a/Data/彙整清單_整理版.xlsx
+++ b/Data/彙整清單_整理版.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\svnbox\Python\Stock\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74CBCDEC-936A-48ED-A14E-4C9E67C52CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA5FECD-73B9-4958-BABF-46F14D8786A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D923A086-913E-4840-96DC-7378B4FF8169}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="534">
   <si>
     <t>公司名稱</t>
   </si>
@@ -1235,466 +1235,460 @@
     <t>9.0  /  9.0  /  9.0  /  9.0  /  9.0</t>
   </si>
   <si>
-    <t>👍    62.2 /     61.4 /    61.32 /    59.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1874.0 /   1819.2 /   1754.9 /  1479.98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    12.4 /     12.4 /    12.25 /    12.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.77 /     3.95 /     2.31 /     1.56</t>
-  </si>
-  <si>
-    <t>⚠️-10.3</t>
-  </si>
-  <si>
-    <t>👍    71.7 /     70.4 /    69.87 /    69.09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   249.0 /    193.2 /   176.32 /   179.82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.88 /     1.83 /     1.84 /     1.87</t>
-  </si>
-  <si>
-    <t>👍   19.65 /    19.25 /    19.56 /    19.76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1389.0 /   2501.0 /   2283.7 /   2929.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    13.8 /    13.76 /    13.97 /    13.77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.54 /     0.47 /     0.53 /      0.5</t>
-  </si>
-  <si>
-    <t>👎    29.2 /    28.11 /     29.2 /     31.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  6669.0 /   5624.2 /  6912.55 /  6208.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    36.6 /    36.48 /     36.9 /    38.52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.83 /     0.75 /     0.73 /     1.05</t>
-  </si>
-  <si>
-    <t>👍   34.55 /    33.63 /    34.09 /    34.38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2367.0 /   2207.4 /  3367.85 /  4578.84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9.95 /     9.77 /    10.13 /    11.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.51 /     0.48 /     0.65 /     0.81</t>
-  </si>
-  <si>
-    <t>👍   36.85 /    35.63 /    35.92 /    36.72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  4619.0 /   4594.2 /   7230.5 /  6561.65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9.02 /     8.55 /     8.73 /     9.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.92 /      0.7 /     0.91 /     0.99</t>
-  </si>
-  <si>
-    <t>👍   21.85 /    20.92 /    21.18 /    21.41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  4684.0 /   4840.6 /   3161.9 /   3280.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     9.2 /      9.0 /     9.08 /     9.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.04 /     1.17 /     0.96 /     0.96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9621 (32.125%) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    15.4 /    15.11 /    15.48 /    15.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   424.0 /    609.4 /   713.05 /   657.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.65 /     2.49 /     2.84 /     2.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.88 /     3.24 /     1.57 /     0.61</t>
-  </si>
-  <si>
-    <t>👎    43.6 /    45.21 /    50.98 /    57.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  7370.0 /   4031.8 /  2026.15 /  1371.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8.63 /     8.07 /     7.64 /      7.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    15.7 /     16.9 /    12.81 /     6.28</t>
-  </si>
-  <si>
-    <t>👍   30.85 /    30.54 /    30.39 /    29.88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   571.0 /    597.6 /    637.8 /   510.69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    10.8 /    10.72 /    10.56 /    10.37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.86 /     0.87 /      0.9 /     1.19</t>
-  </si>
-  <si>
-    <t>🏆20.83</t>
-  </si>
-  <si>
-    <t>👍   31.25 /    30.21 /    30.72 /     31.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   236.0 /    352.8 /    350.2 /   549.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.83 /     2.78 /     2.99 /     3.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.58 /     0.59 /     0.55 /     0.51</t>
-  </si>
-  <si>
-    <t>👍   33.15 /    32.02 /    32.64 /    34.79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1272.0 /   1116.4 /  1625.45 /  3334.71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.39 /     1.05 /     1.16 /     1.45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.16 /     2.84 /      4.6 /      6.1</t>
-  </si>
-  <si>
-    <t>👍   25.55 /    25.32 /    25.06 /    24.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 12808.0 /  15597.6 / 14538.25 / 14886.96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    46.1 /     46.1 /    46.08 /    46.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.87 /     4.06 /     2.88 /     2.46</t>
-  </si>
-  <si>
-    <t>👍    70.0 /     68.7 /     67.7 /    63.91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  4166.0 /   4924.0 /  4525.85 /  7962.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    32.7 /    32.66 /    32.72 /    33.86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     9.1 /     10.1 /     9.28 /     6.71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    30.4 /    30.09 /    30.61 /    30.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3072.0 /   4426.0 /  5275.75 /  6816.69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    19.9 /    19.94 /    20.04 /    20.43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.26 /     1.25 /     1.14 /     1.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    88.2 /    88.48 /    87.68 /    83.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2638.0 /   2907.0 /   3109.3 /  2186.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    35.0 /    35.14 /    34.76 /    33.97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4.96 /     5.28 /     4.32 /     1.85</t>
-  </si>
-  <si>
-    <t>⚠️-12.66</t>
-  </si>
-  <si>
-    <t>👎    44.4 /    43.71 /    45.78 /    45.49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   361.0 /    446.4 /    946.9 /  1382.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.37 /     0.34 /     0.65 /      1.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.07 /     0.24 /     0.15 /     0.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    30.8 /    30.79 /     33.0 /    28.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   646.0 /   1141.4 /  4703.65 /  3984.85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.55 /     1.35 /     1.38 /     2.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    24.3 /    24.56 /    32.02 /    19.48</t>
-  </si>
-  <si>
-    <t>👍   171.0 /    164.7 /    164.0 /   164.61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3276.0 /   1997.2 /  1890.25 /   2159.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    21.9 /     21.5 /     21.7 /    21.76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    13.3 /     12.6 /    15.21 /    18.27</t>
-  </si>
-  <si>
-    <t>🏆23.91</t>
-  </si>
-  <si>
-    <t>👎   49.85 /    48.22 /    50.19 /    50.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   197.0 /    288.6 /   497.85 /   466.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     9.5 /     9.55 /    10.08 /    10.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.74 /     0.88 /     0.86 /     0.58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    27.8 /    27.57 /     27.8 /    27.46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    50.1 /     70.1 /   138.16 /   109.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.16 /     2.15 /     2.24 /     2.23</t>
-  </si>
-  <si>
-    <t>👍   36.95 /    36.06 /    36.57 /    37.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1045.0 /   1061.0 /  1192.65 /   1462.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    20.2 /    20.18 /    20.39 /    20.87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.61 /     1.45 /      1.1 /     0.75</t>
-  </si>
-  <si>
-    <t>👍    51.7 /    50.84 /    50.55 /    49.88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   153.0 /   131.46 /   155.43 /   125.98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.73 /     3.73 /     3.69 /     3.72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    76.8 /     76.3 /    77.49 /    75.77</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 18973.0 /  26563.6 /  27896.6 / 24072.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    22.0 /    22.04 /    22.08 /    22.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.39 /     1.31 /     4.65 /     8.28</t>
-  </si>
-  <si>
-    <t>⚠️-16.31</t>
-  </si>
-  <si>
-    <t>👍    55.8 /    54.74 /    54.95 /    54.39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1267.0 /   1151.0 /   1157.0 /  1041.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    29.7 /    29.78 /    30.34 /    30.88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.31 /      0.6 /     0.37 /     0.56</t>
-  </si>
-  <si>
-    <t>👍   33.75 /    32.87 /    33.42 /    32.69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   483.0 /    608.8 /    821.0 /  1484.78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7.94 /     7.94 /     8.22 /     8.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.03 /     2.91 /     2.19 /     1.23</t>
-  </si>
-  <si>
-    <t>👍    31.2 /     30.3 /    31.01 /    30.48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3270.0 /   3158.4 /  4792.15 /  8288.84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    10.8 /    10.36 /    10.82 /    10.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     7.3 /     8.76 /     9.03 /     8.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   127.0 /    127.9 /   125.62 /   123.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   934.0 /   1007.4 /   903.05 /    975.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    42.5 /    42.52 /    42.45 /    41.98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     2.7 /     2.66 /     2.06 /     1.36</t>
-  </si>
-  <si>
-    <t>👍    34.4 /    33.07 /    33.08 /    32.37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2261.0 /   1216.6 /   1129.5 /   836.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6.24 /     6.12 /      6.2 /      6.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.17 /     0.15 /     0.15 /     0.38</t>
-  </si>
-  <si>
-    <t>👍   29.05 /    28.67 /    28.85 /     29.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   312.0 /    391.8 /    431.7 /   451.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.65 /     3.71 /     3.94 /     4.48</t>
-  </si>
-  <si>
     <t xml:space="preserve">     0.0 /     0.02 /     0.18 /     0.31</t>
   </si>
   <si>
-    <t>👍    24.2 /    23.42 /     24.1 /    24.37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   891.0 /    762.2 /   1069.1 /  2129.82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5.46 /     5.27 /      5.6 /     6.58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.37 /     0.37 /     0.58 /     0.65</t>
-  </si>
-  <si>
-    <t>👍    55.2 /    54.72 /    53.53 /    51.81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  4277.0 /   4507.4 /   5371.1 /  4501.98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    27.0 /    26.92 /    26.86 /    26.74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.61 /     0.52 /     0.47 /     0.47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    33.5 /    32.77 /     33.5 /    33.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2668.0 /   3657.6 /   4834.7 / 12791.89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    12.4 /    12.32 /    12.32 /    11.61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.53 /     0.53 /     1.08 /     0.96</t>
-  </si>
-  <si>
-    <t>👎    57.5 /    57.22 /    58.34 /    59.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1733.0 /   2624.2 /  3264.25 /  3219.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    22.6 /    23.02 /    23.23 /    24.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.45 /     1.68 /      1.3 /     1.36</t>
-  </si>
-  <si>
-    <t>⚠️-15.47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   49.05 /    48.57 /    49.56 /    47.38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1981.0 /   2748.2 /   3758.0 /  4448.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    23.3 /    23.32 /    23.82 /    22.86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     0.0 /     0.26 /     1.06 /     0.68</t>
-  </si>
-  <si>
-    <t>⚠️-11.0</t>
-  </si>
-  <si>
-    <t>👎   46.35 /    46.18 /    47.86 /    47.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  8442.0 /   7270.2 /  11268.4 /  8619.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    44.1 /    44.64 /    46.16 /    46.87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.27 /     1.45 /     3.28 /     4.96</t>
-  </si>
-  <si>
-    <t>⚠️-24.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    47.8 /    47.19 /    47.92 /    47.72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   466.0 /    843.2 /    876.6 /   890.47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    21.2 /    21.22 /     21.3 /    20.97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.85 /     0.86 /     0.46 /     0.29</t>
+    <t>👍    64.4 /    62.04 /    61.46 /    59.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4192.0 /   2262.0 /  1915.25 /  1518.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    12.4 /     12.4 /    12.26 /    12.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     2.8 /     3.69 /      2.4 /     1.59</t>
+  </si>
+  <si>
+    <t>👍    72.0 /    70.82 /    70.03 /    69.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   258.0 /    198.0 /   181.42 /   177.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1.9 /     1.85 /     1.84 /     1.86</t>
+  </si>
+  <si>
+    <t>👍    19.8 /     19.4 /    19.54 /    19.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2957.0 /   2585.6 /   2312.0 /  2889.53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    13.7 /    13.74 /    13.94 /    13.77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.51 /      0.5 /     0.51 /      0.5</t>
+  </si>
+  <si>
+    <t>👍   29.45 /    28.43 /    29.11 /     30.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4016.0 /   5485.8 /  6931.45 /  6188.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    36.6 /    36.52 /    36.82 /    38.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     0.8 /     0.76 /     0.76 /     1.03</t>
+  </si>
+  <si>
+    <t>👍   34.55 /    33.87 /    34.07 /    34.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1712.0 /   2183.0 /   3264.7 /  4361.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    9.89 /     9.79 /    10.08 /    11.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.51 /     0.51 /     0.64 /      0.8</t>
+  </si>
+  <si>
+    <t>👍   37.25 /     36.1 /    35.97 /    36.69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4852.0 /   4818.0 /   7249.0 /   6468.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    9.22 /     8.73 /     8.73 /     9.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.95 /     0.79 /     0.91 /     0.97</t>
+  </si>
+  <si>
+    <t>👍   21.95 /    21.18 /    21.21 /     21.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3304.0 /   4831.2 /   3173.5 /  3266.73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    9.28 /     9.06 /     9.09 /     9.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.07 /     1.08 /     0.97 /     0.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   15.45 /    15.16 /    15.47 /    15.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   287.0 /    540.8 /    705.3 /   615.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.69 /     2.49 /     2.83 /     2.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.87 /     3.42 /     1.76 /     0.68</t>
+  </si>
+  <si>
+    <t>👎   46.75 /    45.27 /    50.52 /    56.72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  6733.0 /   4647.2 /   2310.6 /  1483.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    8.82 /     8.38 /      7.7 /      7.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    17.8 /     16.7 /     13.4 /     6.59</t>
+  </si>
+  <si>
+    <t>👍    30.9 /    30.64 /    30.43 /     29.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   611.0 /    567.8 /    636.2 /   506.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    10.8 /    10.74 /    10.59 /    10.38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.87 /     0.87 /      0.9 /     1.17</t>
+  </si>
+  <si>
+    <t>👍   31.65 /    30.56 /    30.73 /     31.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   846.0 /    466.6 /   370.15 /   550.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.84 /     2.78 /     2.96 /     3.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.62 /     0.58 /     0.56 /     0.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1160 (195.984%) </t>
+  </si>
+  <si>
+    <t>👍   33.25 /    32.32 /    32.59 /    34.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1377.0 /   1163.8 /   1607.0 /  3272.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.18 /      1.1 /     1.15 /     1.46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.42 /     2.96 /     4.51 /     6.12</t>
+  </si>
+  <si>
+    <t>👍    25.8 /    25.39 /    25.14 /    24.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15426.0 /  15118.8 /  14948.0 / 14614.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    46.0 /    46.06 /     46.1 /     46.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.96 /      4.0 /      3.0 /     2.38</t>
+  </si>
+  <si>
+    <t>👍    70.0 /     69.1 /     67.9 /    64.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3379.0 /   4502.6 /   4485.5 /  7963.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    32.6 /    32.64 /    32.71 /    33.81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     9.2 /     9.92 /     9.24 /     6.82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    30.5 /    30.16 /     30.6 /    30.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4043.0 /   3936.6 /   5022.4 /  6750.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    19.9 /     19.9 /    20.03 /    20.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.08 /     1.23 /     1.15 /     1.19</t>
+  </si>
+  <si>
+    <t>👍    90.9 /    88.84 /     88.1 /    83.84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4934.0 /   3336.0 /  3296.65 /   2257.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    35.1 /    35.12 /    34.82 /     34.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.78 /     5.12 /     4.52 /     1.92</t>
+  </si>
+  <si>
+    <t>👎    44.9 /    43.89 /    45.58 /    45.53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   413.0 /    432.6 /   812.75 /  1381.84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     0.4 /     0.34 /     0.61 /     1.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.09 /     0.16 /     0.15 /     0.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   31.65 /    30.72 /    33.01 /    28.83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   737.0 /    954.6 /  4346.85 /  3990.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.58 /     1.42 /     1.37 /     1.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    24.3 /    23.92 /    31.72 /     19.7</t>
+  </si>
+  <si>
+    <t>👍   175.5 /    167.4 /    164.4 /   164.84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  5684.0 /   2940.4 /   2108.8 /  2231.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    22.2 /    21.68 /     21.7 /    21.76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    14.8 /     13.3 /    14.93 /    18.24</t>
+  </si>
+  <si>
+    <t>👎    49.5 /    48.48 /     50.1 /    50.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   170.0 /    234.8 /    483.6 /   461.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    9.47 /     9.51 /    10.02 /    10.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.74 /     0.84 /     0.88 /     0.59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    27.8 /    27.62 /    27.82 /    27.46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    27.1 /    44.12 /   133.86 /   108.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.17 /     2.15 /     2.23 /     2.23</t>
+  </si>
+  <si>
+    <t>👍    36.9 /    36.28 /    36.53 /    37.59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   730.0 /    971.6 /  1183.65 /  1456.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    20.2 /    20.18 /    20.36 /    20.86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.62 /     1.47 /     1.14 /     0.77</t>
+  </si>
+  <si>
+    <t>👍    51.8 /    51.06 /    50.65 /    49.92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   105.0 /    132.8 /   152.43 /   124.78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.72 /     3.73 /     3.69 /     3.72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    77.1 /    76.42 /    77.58 /    75.84</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17812.0 /  24880.4 /  28006.7 / 24121.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    21.9 /    21.98 /    22.08 /    22.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1.5 /     1.36 /     4.19 /     8.11</t>
+  </si>
+  <si>
+    <t>⚠️-20.81</t>
+  </si>
+  <si>
+    <t>👍    56.4 /     55.1 /    54.96 /    54.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1426.0 /   1278.8 /   1126.2 /  1048.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    29.6 /     29.7 /    30.27 /    30.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.29 /     0.78 /     0.42 /     0.57</t>
+  </si>
+  <si>
+    <t>👍    33.9 /    33.14 /    33.38 /    32.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   479.0 /    547.6 /   779.05 /  1476.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    7.92 /     7.93 /     8.18 /     8.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.04 /      3.0 /     2.26 /     1.28</t>
+  </si>
+  <si>
+    <t>👍    31.7 /    30.62 /     31.0 /    30.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3966.0 /   3303.0 /   4820.9 /  7916.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    11.3 /    10.56 /     10.8 /    10.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    12.3 /     9.43 /     9.31 /     8.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   127.0 /    127.6 /    125.8 /   123.46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2114.0 /   1235.0 /    992.5 /   998.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    42.6 /    42.52 /    42.46 /    42.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.84 /     2.72 /     2.15 /     1.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1380 (65.587%) </t>
+  </si>
+  <si>
+    <t>👍   34.25 /    33.33 /    33.17 /    32.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1198.0 /   1236.8 /  1134.55 /   834.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    6.26 /      6.1 /      6.2 /     6.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.17 /     0.16 /     0.15 /     0.35</t>
+  </si>
+  <si>
+    <t>👍    29.1 /    28.77 /    28.84 /     29.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   450.0 /    398.2 /   436.65 /   441.71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.71 /      3.7 /     3.91 /     4.45</t>
+  </si>
+  <si>
+    <t>👍   24.45 /    23.64 /    24.09 /     24.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   602.0 /    691.0 /  1042.45 /  2115.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5.62 /      5.3 /     5.59 /     6.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.37 /     0.37 /     0.54 /     0.66</t>
+  </si>
+  <si>
+    <t>⚠️-12.96</t>
+  </si>
+  <si>
+    <t>👍    55.2 /    54.88 /    53.68 /    51.86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3977.0 /   4537.6 /   5248.9 /  4541.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    27.0 /    26.94 /    26.88 /    26.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.54 /     0.54 /     0.48 /     0.46</t>
+  </si>
+  <si>
+    <t>⚠️-15.99</t>
+  </si>
+  <si>
+    <t>👍   33.75 /    32.96 /    33.46 /    33.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2765.0 /   3263.2 /   4390.8 / 12514.38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    12.4 /    12.34 /    12.33 /    11.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.54 /     0.53 /     1.05 /     0.96</t>
+  </si>
+  <si>
+    <t>👍    59.0 /    57.46 /    58.36 /    59.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2704.0 /   2584.6 /   3319.1 /  3219.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    22.8 /     22.9 /    23.19 /    24.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.44 /     1.69 /     1.33 /     1.34</t>
+  </si>
+  <si>
+    <t>🏆21.71</t>
+  </si>
+  <si>
+    <t>👍   49.65 /    48.79 /    49.49 /    47.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3815.0 /   2834.0 /  3571.05 /  4469.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    23.5 /    23.34 /    23.79 /     22.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     0.0 /     0.12 /      1.0 /     0.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1470 (30.886%) </t>
+  </si>
+  <si>
+    <t>👎    47.1 /     46.2 /    47.82 /    47.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4450.0 /   6771.8 /  11202.3 /  8592.93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    44.1 /    44.42 /     46.0 /    46.77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.29 /     1.43 /     3.16 /     4.88</t>
+  </si>
+  <si>
+    <t>👍    48.1 /    47.36 /     47.9 /    47.73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   844.0 /    834.4 /    835.9 /   846.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    21.3 /    21.22 /    21.31 /    20.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.82 /     0.86 /     0.49 /      0.3</t>
   </si>
 </sst>
 </file>
@@ -2343,13 +2337,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2713,7 +2707,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A24" sqref="A24:XFD24"/>
+      <selection pane="bottomRight" activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2749,7 +2743,7 @@
       <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="9" t="s">
@@ -2779,13 +2773,13 @@
       <c r="M1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="10" t="s">
         <v>228</v>
       </c>
       <c r="Q1" s="9" t="s">
@@ -2802,16 +2796,16 @@
       <c r="Z1" s="9"/>
       <c r="AA1" s="3"/>
       <c r="AB1" s="3"/>
-      <c r="AC1" s="12" t="s">
+      <c r="AC1" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="AD1" s="12" t="s">
+      <c r="AD1" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="AE1" s="12" t="s">
+      <c r="AE1" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="AF1" s="12" t="s">
+      <c r="AF1" s="11" t="s">
         <v>176</v>
       </c>
       <c r="AG1" s="9" t="s">
@@ -2856,7 +2850,7 @@
       <c r="A2" s="8"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
-      <c r="D2" s="10"/>
+      <c r="D2" s="12"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
@@ -2874,9 +2868,9 @@
       <c r="M2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
       <c r="Q2" s="5" t="s">
         <v>41</v>
       </c>
@@ -2913,10 +2907,10 @@
       <c r="AB2" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="AC2" s="12"/>
-      <c r="AD2" s="12"/>
-      <c r="AE2" s="12"/>
-      <c r="AF2" s="12"/>
+      <c r="AC2" s="11"/>
+      <c r="AD2" s="11"/>
+      <c r="AE2" s="11"/>
+      <c r="AF2" s="11"/>
       <c r="AG2" s="9"/>
       <c r="AH2" s="8"/>
       <c r="AI2" s="9"/>
@@ -2965,32 +2959,32 @@
         <v>19760719</v>
       </c>
       <c r="G3">
-        <v>4.34</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="H3">
-        <v>17.670000000000002</v>
+        <v>18.3</v>
       </c>
       <c r="I3">
-        <v>2.2400000000000002</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="J3" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K3" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L3" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M3" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N3">
-        <v>0.69</v>
+        <v>0.68</v>
       </c>
       <c r="O3"/>
-      <c r="P3" t="s">
-        <v>386</v>
+      <c r="P3">
+        <v>-1.81</v>
       </c>
       <c r="Q3">
         <v>11</v>
@@ -3106,13 +3100,13 @@
         <v>19951102</v>
       </c>
       <c r="G4">
-        <v>3.63</v>
+        <v>3.61</v>
       </c>
       <c r="H4">
-        <v>18.2</v>
+        <v>18.27</v>
       </c>
       <c r="I4">
-        <v>3.36</v>
+        <v>3.38</v>
       </c>
       <c r="J4" t="s">
         <v>387</v>
@@ -3127,11 +3121,11 @@
         <v>156</v>
       </c>
       <c r="N4">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="O4"/>
       <c r="P4">
-        <v>8.85</v>
+        <v>6.02</v>
       </c>
       <c r="Q4">
         <v>11</v>
@@ -3247,10 +3241,10 @@
         <v>19730831</v>
       </c>
       <c r="G5">
-        <v>5.6</v>
+        <v>5.56</v>
       </c>
       <c r="H5">
-        <v>8.66</v>
+        <v>8.7200000000000006</v>
       </c>
       <c r="I5">
         <v>0.93</v>
@@ -3268,11 +3262,11 @@
         <v>393</v>
       </c>
       <c r="N5">
-        <v>0.74</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="O5"/>
       <c r="P5">
-        <v>-2.59</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="Q5">
         <v>9</v>
@@ -3388,13 +3382,13 @@
         <v>19720520</v>
       </c>
       <c r="G6">
-        <v>3.42</v>
+        <v>3.4</v>
       </c>
       <c r="H6">
-        <v>6.39</v>
+        <v>6.44</v>
       </c>
       <c r="I6">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="J6" t="s">
         <v>394</v>
@@ -3409,11 +3403,11 @@
         <v>397</v>
       </c>
       <c r="N6">
-        <v>0.86</v>
+        <v>1.78</v>
       </c>
       <c r="O6"/>
       <c r="P6">
-        <v>1.42</v>
+        <v>7.1</v>
       </c>
       <c r="Q6">
         <v>10</v>
@@ -3550,11 +3544,11 @@
         <v>401</v>
       </c>
       <c r="N7">
-        <v>1.28</v>
+        <v>0.84</v>
       </c>
       <c r="O7"/>
       <c r="P7">
-        <v>10.87</v>
+        <v>9.75</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -3670,13 +3664,13 @@
         <v>19860620</v>
       </c>
       <c r="G8">
-        <v>3.8</v>
+        <v>3.76</v>
       </c>
       <c r="H8">
-        <v>8.1</v>
+        <v>8.19</v>
       </c>
       <c r="I8">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="J8" t="s">
         <v>402</v>
@@ -3691,11 +3685,11 @@
         <v>405</v>
       </c>
       <c r="N8">
-        <v>1.37</v>
+        <v>1.97</v>
       </c>
       <c r="O8"/>
       <c r="P8">
-        <v>6.6</v>
+        <v>16.98</v>
       </c>
       <c r="Q8">
         <v>11</v>
@@ -3811,10 +3805,10 @@
         <v>19890327</v>
       </c>
       <c r="G9">
-        <v>4.58</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="H9">
-        <v>6.66</v>
+        <v>6.69</v>
       </c>
       <c r="I9">
         <v>0.98</v>
@@ -3832,13 +3826,11 @@
         <v>409</v>
       </c>
       <c r="N9">
-        <v>2.06</v>
-      </c>
-      <c r="O9" t="s">
-        <v>410</v>
-      </c>
+        <v>1.29</v>
+      </c>
+      <c r="O9"/>
       <c r="P9">
-        <v>17.37</v>
+        <v>17.98</v>
       </c>
       <c r="Q9">
         <v>13</v>
@@ -3934,7 +3926,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1474</v>
       </c>
@@ -3954,32 +3946,32 @@
         <v>20001031</v>
       </c>
       <c r="G10">
-        <v>2.6</v>
+        <v>2.59</v>
       </c>
       <c r="H10">
-        <v>10.92</v>
+        <v>10.96</v>
       </c>
       <c r="I10">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="J10" t="s">
+        <v>410</v>
+      </c>
+      <c r="K10" t="s">
         <v>411</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>412</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>413</v>
       </c>
-      <c r="M10" t="s">
-        <v>414</v>
-      </c>
       <c r="N10">
-        <v>1.03</v>
+        <v>0.75</v>
       </c>
       <c r="O10"/>
       <c r="P10">
-        <v>2.83</v>
+        <v>-10.119999999999999</v>
       </c>
       <c r="Q10">
         <v>13</v>
@@ -4095,32 +4087,32 @@
         <v>19950204</v>
       </c>
       <c r="G11">
-        <v>8.26</v>
+        <v>7.7</v>
       </c>
       <c r="H11">
-        <v>6.87</v>
+        <v>7.36</v>
       </c>
       <c r="I11">
-        <v>2.0299999999999998</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="J11" t="s">
+        <v>414</v>
+      </c>
+      <c r="K11" t="s">
         <v>415</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>416</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>417</v>
       </c>
-      <c r="M11" t="s">
-        <v>418</v>
-      </c>
       <c r="N11">
-        <v>0.69</v>
+        <v>1.05</v>
       </c>
       <c r="O11"/>
       <c r="P11">
-        <v>-2.82</v>
+        <v>0.01</v>
       </c>
       <c r="Q11">
         <v>12</v>
@@ -4236,32 +4228,32 @@
         <v>19701214</v>
       </c>
       <c r="G12">
-        <v>8.1</v>
+        <v>8.09</v>
       </c>
       <c r="H12">
-        <v>6.66</v>
+        <v>6.67</v>
       </c>
       <c r="I12">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="J12" t="s">
+        <v>418</v>
+      </c>
+      <c r="K12" t="s">
         <v>419</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>420</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>421</v>
       </c>
-      <c r="M12" t="s">
-        <v>422</v>
-      </c>
       <c r="N12">
-        <v>2.33</v>
+        <v>0.83</v>
       </c>
       <c r="O12"/>
-      <c r="P12" t="s">
-        <v>423</v>
+      <c r="P12">
+        <v>10.76</v>
       </c>
       <c r="Q12">
         <v>7</v>
@@ -4377,32 +4369,34 @@
         <v>19930427</v>
       </c>
       <c r="G13">
-        <v>5.44</v>
+        <v>5.37</v>
       </c>
       <c r="H13">
-        <v>8.7799999999999994</v>
+        <v>8.89</v>
       </c>
       <c r="I13">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="J13" t="s">
+        <v>422</v>
+      </c>
+      <c r="K13" t="s">
+        <v>423</v>
+      </c>
+      <c r="L13" t="s">
         <v>424</v>
       </c>
-      <c r="K13" t="s">
+      <c r="M13" t="s">
         <v>425</v>
       </c>
-      <c r="L13" t="s">
+      <c r="N13">
+        <v>1.01</v>
+      </c>
+      <c r="O13" t="s">
         <v>426</v>
       </c>
-      <c r="M13" t="s">
-        <v>427</v>
-      </c>
-      <c r="N13">
-        <v>1.8</v>
-      </c>
-      <c r="O13"/>
       <c r="P13">
-        <v>20.32</v>
+        <v>9.11</v>
       </c>
       <c r="Q13">
         <v>12</v>
@@ -4518,32 +4512,32 @@
         <v>20160322</v>
       </c>
       <c r="G14">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="H14">
-        <v>8.61</v>
+        <v>8.64</v>
       </c>
       <c r="I14">
         <v>1.39</v>
       </c>
       <c r="J14" t="s">
+        <v>427</v>
+      </c>
+      <c r="K14" t="s">
         <v>428</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>429</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>430</v>
       </c>
-      <c r="M14" t="s">
-        <v>431</v>
-      </c>
       <c r="N14">
-        <v>1.42</v>
+        <v>0.9</v>
       </c>
       <c r="O14"/>
       <c r="P14">
-        <v>5.33</v>
+        <v>-3.63</v>
       </c>
       <c r="Q14">
         <v>10</v>
@@ -4659,32 +4653,32 @@
         <v>19920218</v>
       </c>
       <c r="G15">
-        <v>6.26</v>
+        <v>6.2</v>
       </c>
       <c r="H15">
-        <v>7.93</v>
+        <v>8.01</v>
       </c>
       <c r="I15">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="J15" t="s">
+        <v>431</v>
+      </c>
+      <c r="K15" t="s">
         <v>432</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>433</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>434</v>
       </c>
-      <c r="M15" t="s">
-        <v>435</v>
-      </c>
       <c r="N15">
-        <v>0.74</v>
+        <v>1.57</v>
       </c>
       <c r="O15"/>
       <c r="P15">
-        <v>10.84</v>
+        <v>-1.37</v>
       </c>
       <c r="Q15">
         <v>9</v>
@@ -4809,23 +4803,23 @@
         <v>1.98</v>
       </c>
       <c r="J16" t="s">
+        <v>435</v>
+      </c>
+      <c r="K16" t="s">
         <v>436</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>437</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>438</v>
       </c>
-      <c r="M16" t="s">
-        <v>439</v>
-      </c>
       <c r="N16">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="O16"/>
       <c r="P16">
-        <v>1.37</v>
+        <v>-1.83</v>
       </c>
       <c r="Q16">
         <v>9</v>
@@ -4941,32 +4935,32 @@
         <v>19960722</v>
       </c>
       <c r="G17">
-        <v>4.93</v>
+        <v>4.92</v>
       </c>
       <c r="H17">
-        <v>6.59</v>
+        <v>6.62</v>
       </c>
       <c r="I17">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="J17" t="s">
+        <v>439</v>
+      </c>
+      <c r="K17" t="s">
         <v>440</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>441</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>442</v>
       </c>
-      <c r="M17" t="s">
-        <v>443</v>
-      </c>
       <c r="N17">
-        <v>0.79</v>
+        <v>0.86</v>
       </c>
       <c r="O17"/>
       <c r="P17">
-        <v>-7.36</v>
+        <v>2.08</v>
       </c>
       <c r="Q17">
         <v>8</v>
@@ -5082,32 +5076,32 @@
         <v>19990105</v>
       </c>
       <c r="G18">
-        <v>6.24</v>
+        <v>6.05</v>
       </c>
       <c r="H18">
-        <v>10.88</v>
+        <v>11.21</v>
       </c>
       <c r="I18">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="J18" t="s">
+        <v>443</v>
+      </c>
+      <c r="K18" t="s">
         <v>444</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>445</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
         <v>446</v>
       </c>
-      <c r="M18" t="s">
-        <v>447</v>
-      </c>
       <c r="N18">
-        <v>1.1000000000000001</v>
+        <v>1.01</v>
       </c>
       <c r="O18"/>
-      <c r="P18" t="s">
-        <v>448</v>
+      <c r="P18">
+        <v>1.56</v>
       </c>
       <c r="Q18">
         <v>10</v>
@@ -5223,32 +5217,32 @@
         <v>19990125</v>
       </c>
       <c r="G19">
-        <v>4.5</v>
+        <v>4.45</v>
       </c>
       <c r="H19">
-        <v>6.95</v>
+        <v>7.03</v>
       </c>
       <c r="I19">
-        <v>1.1000000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="J19" t="s">
+        <v>447</v>
+      </c>
+      <c r="K19" t="s">
+        <v>448</v>
+      </c>
+      <c r="L19" t="s">
         <v>449</v>
       </c>
-      <c r="K19" t="s">
+      <c r="M19" t="s">
         <v>450</v>
       </c>
-      <c r="L19" t="s">
-        <v>451</v>
-      </c>
-      <c r="M19" t="s">
-        <v>452</v>
-      </c>
       <c r="N19">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="O19"/>
       <c r="P19">
-        <v>-4.9800000000000004</v>
+        <v>6.54</v>
       </c>
       <c r="Q19">
         <v>10</v>
@@ -5364,32 +5358,32 @@
         <v>20000911</v>
       </c>
       <c r="G20">
-        <v>6.49</v>
+        <v>6.32</v>
       </c>
       <c r="H20">
-        <v>11.41</v>
+        <v>11.72</v>
       </c>
       <c r="I20">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="J20" t="s">
+        <v>451</v>
+      </c>
+      <c r="K20" t="s">
+        <v>452</v>
+      </c>
+      <c r="L20" t="s">
         <v>453</v>
       </c>
-      <c r="K20" t="s">
+      <c r="M20" t="s">
         <v>454</v>
       </c>
-      <c r="L20" t="s">
-        <v>455</v>
-      </c>
-      <c r="M20" t="s">
-        <v>456</v>
-      </c>
       <c r="N20">
-        <v>1.18</v>
+        <v>0.77</v>
       </c>
       <c r="O20"/>
       <c r="P20">
-        <v>-2.17</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="Q20">
         <v>13</v>
@@ -5505,32 +5499,32 @@
         <v>20010917</v>
       </c>
       <c r="G21">
-        <v>5.26</v>
+        <v>5.13</v>
       </c>
       <c r="H21">
-        <v>9.7899999999999991</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="I21">
-        <v>5.12</v>
+        <v>5.25</v>
       </c>
       <c r="J21" t="s">
+        <v>455</v>
+      </c>
+      <c r="K21" t="s">
+        <v>456</v>
+      </c>
+      <c r="L21" t="s">
         <v>457</v>
       </c>
-      <c r="K21" t="s">
+      <c r="M21" t="s">
         <v>458</v>
       </c>
-      <c r="L21" t="s">
-        <v>459</v>
-      </c>
-      <c r="M21" t="s">
-        <v>460</v>
-      </c>
       <c r="N21">
-        <v>3.78</v>
+        <v>1.32</v>
       </c>
       <c r="O21"/>
-      <c r="P21" t="s">
-        <v>461</v>
+      <c r="P21">
+        <v>8.4600000000000009</v>
       </c>
       <c r="Q21">
         <v>12</v>
@@ -5646,32 +5640,32 @@
         <v>20010917</v>
       </c>
       <c r="G22">
-        <v>5.44</v>
+        <v>5.47</v>
       </c>
       <c r="H22">
-        <v>11.95</v>
+        <v>11.87</v>
       </c>
       <c r="I22">
-        <v>2.91</v>
+        <v>2.89</v>
       </c>
       <c r="J22" t="s">
+        <v>459</v>
+      </c>
+      <c r="K22" t="s">
+        <v>460</v>
+      </c>
+      <c r="L22" t="s">
+        <v>461</v>
+      </c>
+      <c r="M22" t="s">
         <v>462</v>
       </c>
-      <c r="K22" t="s">
-        <v>463</v>
-      </c>
-      <c r="L22" t="s">
-        <v>464</v>
-      </c>
-      <c r="M22" t="s">
-        <v>465</v>
-      </c>
       <c r="N22">
-        <v>1.25</v>
+        <v>0.83</v>
       </c>
       <c r="O22"/>
       <c r="P22">
-        <v>6.6</v>
+        <v>-5.43</v>
       </c>
       <c r="Q22">
         <v>11</v>
@@ -5796,23 +5790,23 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="J23" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="K23" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="L23" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="M23" t="s">
         <v>156</v>
       </c>
       <c r="N23">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="O23"/>
       <c r="P23">
-        <v>-17.95</v>
+        <v>-7.37</v>
       </c>
       <c r="Q23">
         <v>7</v>
@@ -5928,32 +5922,32 @@
         <v>19931027</v>
       </c>
       <c r="G24">
-        <v>9.1999999999999993</v>
+        <v>9.2100000000000009</v>
       </c>
       <c r="H24">
-        <v>4.3499999999999996</v>
+        <v>4.34</v>
       </c>
       <c r="I24">
         <v>1.21</v>
       </c>
       <c r="J24" t="s">
+        <v>466</v>
+      </c>
+      <c r="K24" t="s">
+        <v>467</v>
+      </c>
+      <c r="L24" t="s">
+        <v>468</v>
+      </c>
+      <c r="M24" t="s">
         <v>469</v>
       </c>
-      <c r="K24" t="s">
-        <v>470</v>
-      </c>
-      <c r="L24" t="s">
-        <v>471</v>
-      </c>
-      <c r="M24" t="s">
-        <v>472</v>
-      </c>
       <c r="N24">
-        <v>1.27</v>
+        <v>0.98</v>
       </c>
       <c r="O24"/>
       <c r="P24">
-        <v>1.53</v>
+        <v>-4.93</v>
       </c>
       <c r="Q24">
         <v>7</v>
@@ -6069,32 +6063,32 @@
         <v>20000911</v>
       </c>
       <c r="G25">
-        <v>6.96</v>
+        <v>6.95</v>
       </c>
       <c r="H25">
-        <v>7.35</v>
+        <v>7.37</v>
       </c>
       <c r="I25">
         <v>1.64</v>
       </c>
       <c r="J25" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="K25" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="L25" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="M25" t="s">
         <v>156</v>
       </c>
       <c r="N25">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="O25"/>
       <c r="P25">
-        <v>4.4800000000000004</v>
+        <v>7.65</v>
       </c>
       <c r="Q25">
         <v>7</v>
@@ -6210,32 +6204,32 @@
         <v>20011219</v>
       </c>
       <c r="G26">
-        <v>3.91</v>
+        <v>3.89</v>
       </c>
       <c r="H26">
-        <v>6.33</v>
+        <v>6.35</v>
       </c>
       <c r="I26">
-        <v>1.1399999999999999</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="J26" t="s">
+        <v>473</v>
+      </c>
+      <c r="K26" t="s">
+        <v>474</v>
+      </c>
+      <c r="L26" t="s">
+        <v>475</v>
+      </c>
+      <c r="M26" t="s">
         <v>476</v>
       </c>
-      <c r="K26" t="s">
-        <v>477</v>
-      </c>
-      <c r="L26" t="s">
-        <v>478</v>
-      </c>
-      <c r="M26" t="s">
-        <v>479</v>
-      </c>
       <c r="N26">
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
       <c r="O26"/>
       <c r="P26" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="Q26">
         <v>7</v>
@@ -6351,32 +6345,32 @@
         <v>20020225</v>
       </c>
       <c r="G27">
-        <v>6.43</v>
+        <v>6.37</v>
       </c>
       <c r="H27">
-        <v>7.69</v>
+        <v>7.77</v>
       </c>
       <c r="I27">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="J27" t="s">
+        <v>478</v>
+      </c>
+      <c r="K27" t="s">
+        <v>479</v>
+      </c>
+      <c r="L27" t="s">
+        <v>480</v>
+      </c>
+      <c r="M27" t="s">
         <v>481</v>
       </c>
-      <c r="K27" t="s">
-        <v>482</v>
-      </c>
-      <c r="L27" t="s">
-        <v>483</v>
-      </c>
-      <c r="M27" t="s">
-        <v>484</v>
-      </c>
       <c r="N27">
-        <v>0.49</v>
+        <v>0.96</v>
       </c>
       <c r="O27"/>
       <c r="P27">
-        <v>-3.47</v>
+        <v>0</v>
       </c>
       <c r="Q27">
         <v>10</v>
@@ -6492,32 +6486,32 @@
         <v>20020826</v>
       </c>
       <c r="G28">
-        <v>5.63</v>
+        <v>5.6</v>
       </c>
       <c r="H28">
-        <v>8.6999999999999993</v>
+        <v>8.74</v>
       </c>
       <c r="I28">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="J28" t="s">
+        <v>482</v>
+      </c>
+      <c r="K28" t="s">
+        <v>483</v>
+      </c>
+      <c r="L28" t="s">
+        <v>484</v>
+      </c>
+      <c r="M28" t="s">
         <v>485</v>
       </c>
-      <c r="K28" t="s">
-        <v>486</v>
-      </c>
-      <c r="L28" t="s">
-        <v>487</v>
-      </c>
-      <c r="M28" t="s">
-        <v>488</v>
-      </c>
       <c r="N28">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="O28"/>
       <c r="P28">
-        <v>9.94</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="Q28">
         <v>10</v>
@@ -6636,31 +6630,31 @@
         <v>20020826</v>
       </c>
       <c r="G29">
-        <v>4.26</v>
+        <v>4.2</v>
       </c>
       <c r="H29">
-        <v>8.69</v>
+        <v>8.83</v>
       </c>
       <c r="I29">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="J29" t="s">
+        <v>486</v>
+      </c>
+      <c r="K29" t="s">
+        <v>487</v>
+      </c>
+      <c r="L29" t="s">
+        <v>488</v>
+      </c>
+      <c r="M29" t="s">
         <v>489</v>
       </c>
-      <c r="K29" t="s">
-        <v>490</v>
-      </c>
-      <c r="L29" t="s">
-        <v>491</v>
-      </c>
-      <c r="M29" t="s">
-        <v>492</v>
-      </c>
       <c r="N29">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="P29">
-        <v>14.77</v>
+        <v>16.04</v>
       </c>
       <c r="Q29">
         <v>9</v>
@@ -6785,22 +6779,25 @@
         <v>1.83</v>
       </c>
       <c r="J30" t="s">
+        <v>490</v>
+      </c>
+      <c r="K30" t="s">
+        <v>491</v>
+      </c>
+      <c r="L30" t="s">
+        <v>492</v>
+      </c>
+      <c r="M30" t="s">
         <v>493</v>
       </c>
-      <c r="K30" t="s">
+      <c r="N30">
+        <v>0.97</v>
+      </c>
+      <c r="O30" t="s">
         <v>494</v>
       </c>
-      <c r="L30" t="s">
-        <v>495</v>
-      </c>
-      <c r="M30" t="s">
-        <v>496</v>
-      </c>
-      <c r="N30">
-        <v>1.0900000000000001</v>
-      </c>
       <c r="P30">
-        <v>-5.87</v>
+        <v>-2.98</v>
       </c>
       <c r="Q30">
         <v>8</v>
@@ -6916,31 +6913,31 @@
         <v>20021001</v>
       </c>
       <c r="G31">
-        <v>8.43</v>
+        <v>8.4700000000000006</v>
       </c>
       <c r="H31">
-        <v>8.02</v>
+        <v>7.98</v>
       </c>
       <c r="I31">
-        <v>2.11</v>
+        <v>2.1</v>
       </c>
       <c r="J31" t="s">
+        <v>495</v>
+      </c>
+      <c r="K31" t="s">
+        <v>496</v>
+      </c>
+      <c r="L31" t="s">
         <v>497</v>
       </c>
-      <c r="K31" t="s">
+      <c r="M31" t="s">
         <v>498</v>
       </c>
-      <c r="L31" t="s">
-        <v>499</v>
-      </c>
-      <c r="M31" t="s">
-        <v>500</v>
-      </c>
       <c r="N31">
-        <v>2.2400000000000002</v>
+        <v>2.96</v>
       </c>
       <c r="P31">
-        <v>9.82</v>
+        <v>4.34</v>
       </c>
       <c r="Q31">
         <v>8</v>
@@ -7056,31 +7053,31 @@
         <v>20081126</v>
       </c>
       <c r="G32">
-        <v>6.88</v>
+        <v>6.87</v>
       </c>
       <c r="H32">
-        <v>8.14</v>
+        <v>8.15</v>
       </c>
       <c r="I32">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="J32" t="s">
+        <v>499</v>
+      </c>
+      <c r="K32" t="s">
+        <v>500</v>
+      </c>
+      <c r="L32" t="s">
         <v>501</v>
       </c>
-      <c r="K32" t="s">
-        <v>502</v>
-      </c>
-      <c r="L32" t="s">
-        <v>503</v>
-      </c>
       <c r="M32" t="s">
-        <v>504</v>
+        <v>382</v>
       </c>
       <c r="N32">
-        <v>0.56999999999999995</v>
+        <v>0.41</v>
       </c>
       <c r="P32">
-        <v>-22.42</v>
+        <v>-11.77</v>
       </c>
       <c r="Q32">
         <v>9</v>
@@ -7196,31 +7193,31 @@
         <v>20101229</v>
       </c>
       <c r="G33">
-        <v>4.13</v>
+        <v>4.09</v>
       </c>
       <c r="H33">
-        <v>7.71</v>
+        <v>7.79</v>
       </c>
       <c r="I33">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="J33" t="s">
+        <v>502</v>
+      </c>
+      <c r="K33" t="s">
+        <v>503</v>
+      </c>
+      <c r="L33" t="s">
+        <v>504</v>
+      </c>
+      <c r="M33" t="s">
         <v>505</v>
       </c>
-      <c r="K33" t="s">
+      <c r="N33">
+        <v>0.53</v>
+      </c>
+      <c r="P33" t="s">
         <v>506</v>
-      </c>
-      <c r="L33" t="s">
-        <v>507</v>
-      </c>
-      <c r="M33" t="s">
-        <v>508</v>
-      </c>
-      <c r="N33">
-        <v>0.83</v>
-      </c>
-      <c r="P33">
-        <v>5.73</v>
       </c>
       <c r="Q33">
         <v>15</v>
@@ -7345,22 +7342,22 @@
         <v>1.53</v>
       </c>
       <c r="J34" t="s">
+        <v>507</v>
+      </c>
+      <c r="K34" t="s">
+        <v>508</v>
+      </c>
+      <c r="L34" t="s">
         <v>509</v>
       </c>
-      <c r="K34" t="s">
+      <c r="M34" t="s">
         <v>510</v>
       </c>
-      <c r="L34" t="s">
+      <c r="N34">
+        <v>0.92</v>
+      </c>
+      <c r="P34" t="s">
         <v>511</v>
-      </c>
-      <c r="M34" t="s">
-        <v>512</v>
-      </c>
-      <c r="N34">
-        <v>1.03</v>
-      </c>
-      <c r="P34">
-        <v>-1.79</v>
       </c>
       <c r="Q34">
         <v>9</v>
@@ -7476,31 +7473,31 @@
         <v>20130912</v>
       </c>
       <c r="G35">
-        <v>2.99</v>
+        <v>2.96</v>
       </c>
       <c r="H35">
-        <v>3.25</v>
+        <v>3.27</v>
       </c>
       <c r="I35">
-        <v>0.81</v>
+        <v>0.82</v>
       </c>
       <c r="J35" t="s">
+        <v>512</v>
+      </c>
+      <c r="K35" t="s">
         <v>513</v>
       </c>
-      <c r="K35" t="s">
+      <c r="L35" t="s">
         <v>514</v>
       </c>
-      <c r="L35" t="s">
+      <c r="M35" t="s">
         <v>515</v>
       </c>
-      <c r="M35" t="s">
-        <v>516</v>
-      </c>
       <c r="N35">
-        <v>2.17</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="P35">
-        <v>16.64</v>
+        <v>5.71</v>
       </c>
       <c r="Q35">
         <v>8</v>
@@ -7616,31 +7613,31 @@
         <v>20030825</v>
       </c>
       <c r="G36">
-        <v>4.99</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="H36">
-        <v>10.02</v>
+        <v>10.28</v>
       </c>
       <c r="I36">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="J36" t="s">
+        <v>516</v>
+      </c>
+      <c r="K36" t="s">
         <v>517</v>
       </c>
-      <c r="K36" t="s">
+      <c r="L36" t="s">
         <v>518</v>
       </c>
-      <c r="L36" t="s">
+      <c r="M36" t="s">
         <v>519</v>
       </c>
-      <c r="M36" t="s">
+      <c r="N36">
+        <v>1.53</v>
+      </c>
+      <c r="P36" t="s">
         <v>520</v>
-      </c>
-      <c r="N36">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="P36" t="s">
-        <v>521</v>
       </c>
       <c r="Q36">
         <v>9</v>
@@ -7756,31 +7753,34 @@
         <v>20071231</v>
       </c>
       <c r="G37">
-        <v>6.12</v>
+        <v>6.04</v>
       </c>
       <c r="H37">
-        <v>7.74</v>
+        <v>7.83</v>
       </c>
       <c r="I37">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="J37" t="s">
+        <v>521</v>
+      </c>
+      <c r="K37" t="s">
         <v>522</v>
       </c>
-      <c r="K37" t="s">
+      <c r="L37" t="s">
         <v>523</v>
       </c>
-      <c r="L37" t="s">
+      <c r="M37" t="s">
         <v>524</v>
       </c>
-      <c r="M37" t="s">
+      <c r="N37">
+        <v>1.39</v>
+      </c>
+      <c r="O37" t="s">
         <v>525</v>
       </c>
-      <c r="N37">
-        <v>0.39</v>
-      </c>
-      <c r="P37" t="s">
-        <v>526</v>
+      <c r="P37">
+        <v>-9.1199999999999992</v>
       </c>
       <c r="Q37">
         <v>7</v>
@@ -7896,32 +7896,32 @@
         <v>20140411</v>
       </c>
       <c r="G38">
-        <v>4.75</v>
+        <v>4.67</v>
       </c>
       <c r="H38">
-        <v>7.79</v>
+        <v>7.92</v>
       </c>
       <c r="I38">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="J38" t="s">
+        <v>526</v>
+      </c>
+      <c r="K38" t="s">
         <v>527</v>
       </c>
-      <c r="K38" t="s">
+      <c r="L38" t="s">
         <v>528</v>
       </c>
-      <c r="L38" t="s">
+      <c r="M38" t="s">
         <v>529</v>
       </c>
-      <c r="M38" t="s">
-        <v>530</v>
-      </c>
       <c r="N38">
-        <v>0.62</v>
+        <v>3.4</v>
       </c>
       <c r="O38"/>
-      <c r="P38" t="s">
-        <v>531</v>
+      <c r="P38">
+        <v>15.91</v>
       </c>
       <c r="Q38">
         <v>9</v>
@@ -8042,32 +8042,32 @@
         <v>20091225</v>
       </c>
       <c r="G39">
-        <v>7.32</v>
+        <v>7.28</v>
       </c>
       <c r="H39">
-        <v>7.9</v>
+        <v>7.95</v>
       </c>
       <c r="I39">
         <v>0.99</v>
       </c>
       <c r="J39" t="s">
+        <v>530</v>
+      </c>
+      <c r="K39" t="s">
+        <v>531</v>
+      </c>
+      <c r="L39" t="s">
         <v>532</v>
       </c>
-      <c r="K39" t="s">
+      <c r="M39" t="s">
         <v>533</v>
       </c>
-      <c r="L39" t="s">
-        <v>534</v>
-      </c>
-      <c r="M39" t="s">
-        <v>535</v>
-      </c>
       <c r="N39">
-        <v>1.84</v>
+        <v>1.33</v>
       </c>
       <c r="O39"/>
       <c r="P39">
-        <v>3.01</v>
+        <v>9.2100000000000009</v>
       </c>
       <c r="Q39">
         <v>6</v>
@@ -8153,18 +8153,6 @@
     <sortCondition ref="A38"/>
   </sortState>
   <mergeCells count="28">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="AG1:AG2"/>
-    <mergeCell ref="AH1:AH2"/>
-    <mergeCell ref="AI1:AI2"/>
-    <mergeCell ref="AJ1:AJ2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="AF1:AF2"/>
-    <mergeCell ref="AE1:AE2"/>
-    <mergeCell ref="AD1:AD2"/>
-    <mergeCell ref="AC1:AC2"/>
-    <mergeCell ref="O1:O2"/>
     <mergeCell ref="AQ1:AU1"/>
     <mergeCell ref="AK1:AK2"/>
     <mergeCell ref="B1:B2"/>
@@ -8181,6 +8169,18 @@
     <mergeCell ref="AN1:AN2"/>
     <mergeCell ref="AO1:AO2"/>
     <mergeCell ref="AP1:AP2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="AG1:AG2"/>
+    <mergeCell ref="AH1:AH2"/>
+    <mergeCell ref="AI1:AI2"/>
+    <mergeCell ref="AJ1:AJ2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="AF1:AF2"/>
+    <mergeCell ref="AE1:AE2"/>
+    <mergeCell ref="AD1:AD2"/>
+    <mergeCell ref="AC1:AC2"/>
+    <mergeCell ref="O1:O2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="AG26:AG28">

--- a/Data/彙整清單_整理版.xlsx
+++ b/Data/彙整清單_整理版.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\svnbox\Python\Stock\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA5FECD-73B9-4958-BABF-46F14D8786A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14BE02C2-5BFA-435C-8699-DDF043B5288F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D923A086-913E-4840-96DC-7378B4FF8169}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="536">
   <si>
     <t>公司名稱</t>
   </si>
@@ -1235,460 +1235,466 @@
     <t>9.0  /  9.0  /  9.0  /  9.0  /  9.0</t>
   </si>
   <si>
-    <t xml:space="preserve">     0.0 /     0.02 /     0.18 /     0.31</t>
-  </si>
-  <si>
-    <t>👍    64.4 /    62.04 /    61.46 /    59.36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  4192.0 /   2262.0 /  1915.25 /  1518.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    12.4 /     12.4 /    12.26 /    12.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     2.8 /     3.69 /      2.4 /     1.59</t>
-  </si>
-  <si>
-    <t>👍    72.0 /    70.82 /    70.03 /    69.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   258.0 /    198.0 /   181.42 /   177.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     1.9 /     1.85 /     1.84 /     1.86</t>
-  </si>
-  <si>
-    <t>👍    19.8 /     19.4 /    19.54 /    19.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2957.0 /   2585.6 /   2312.0 /  2889.53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    13.7 /    13.74 /    13.94 /    13.77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.51 /      0.5 /     0.51 /      0.5</t>
-  </si>
-  <si>
-    <t>👍   29.45 /    28.43 /    29.11 /     30.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  4016.0 /   5485.8 /  6931.45 /  6188.45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    36.6 /    36.52 /    36.82 /    38.44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     0.8 /     0.76 /     0.76 /     1.03</t>
-  </si>
-  <si>
-    <t>👍   34.55 /    33.87 /    34.07 /    34.36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1712.0 /   2183.0 /   3264.7 /  4361.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9.89 /     9.79 /    10.08 /    11.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.51 /     0.51 /     0.64 /      0.8</t>
-  </si>
-  <si>
-    <t>👍   37.25 /     36.1 /    35.97 /    36.69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  4852.0 /   4818.0 /   7249.0 /   6468.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9.22 /     8.73 /     8.73 /     9.52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.95 /     0.79 /     0.91 /     0.97</t>
-  </si>
-  <si>
-    <t>👍   21.95 /    21.18 /    21.21 /     21.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3304.0 /   4831.2 /   3173.5 /  3266.73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9.28 /     9.06 /     9.09 /     9.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.07 /     1.08 /     0.97 /     0.96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   15.45 /    15.16 /    15.47 /    15.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   287.0 /    540.8 /    705.3 /   615.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.69 /     2.49 /     2.83 /     2.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.87 /     3.42 /     1.76 /     0.68</t>
-  </si>
-  <si>
-    <t>👎   46.75 /    45.27 /    50.52 /    56.72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  6733.0 /   4647.2 /   2310.6 /  1483.96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8.82 /     8.38 /      7.7 /      7.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    17.8 /     16.7 /     13.4 /     6.59</t>
-  </si>
-  <si>
-    <t>👍    30.9 /    30.64 /    30.43 /     29.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   611.0 /    567.8 /    636.2 /   506.47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    10.8 /    10.74 /    10.59 /    10.38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.87 /     0.87 /      0.9 /     1.17</t>
-  </si>
-  <si>
-    <t>👍   31.65 /    30.56 /    30.73 /     31.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   846.0 /    466.6 /   370.15 /   550.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.84 /     2.78 /     2.96 /     3.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.62 /     0.58 /     0.56 /     0.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1160 (195.984%) </t>
-  </si>
-  <si>
-    <t>👍   33.25 /    32.32 /    32.59 /    34.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1377.0 /   1163.8 /   1607.0 /  3272.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.18 /      1.1 /     1.15 /     1.46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.42 /     2.96 /     4.51 /     6.12</t>
-  </si>
-  <si>
-    <t>👍    25.8 /    25.39 /    25.14 /    24.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 15426.0 /  15118.8 /  14948.0 / 14614.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    46.0 /    46.06 /     46.1 /     46.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.96 /      4.0 /      3.0 /     2.38</t>
-  </si>
-  <si>
-    <t>👍    70.0 /     69.1 /     67.9 /    64.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3379.0 /   4502.6 /   4485.5 /  7963.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    32.6 /    32.64 /    32.71 /    33.81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     9.2 /     9.92 /     9.24 /     6.82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    30.5 /    30.16 /     30.6 /    30.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  4043.0 /   3936.6 /   5022.4 /  6750.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    19.9 /     19.9 /    20.03 /    20.37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.08 /     1.23 /     1.15 /     1.19</t>
-  </si>
-  <si>
-    <t>👍    90.9 /    88.84 /     88.1 /    83.84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  4934.0 /   3336.0 /  3296.65 /   2257.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    35.1 /    35.12 /    34.82 /     34.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4.78 /     5.12 /     4.52 /     1.92</t>
-  </si>
-  <si>
-    <t>👎    44.9 /    43.89 /    45.58 /    45.53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   413.0 /    432.6 /   812.75 /  1381.84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     0.4 /     0.34 /     0.61 /     1.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.09 /     0.16 /     0.15 /     0.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   31.65 /    30.72 /    33.01 /    28.83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   737.0 /    954.6 /  4346.85 /  3990.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.58 /     1.42 /     1.37 /     1.99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    24.3 /    23.92 /    31.72 /     19.7</t>
-  </si>
-  <si>
-    <t>👍   175.5 /    167.4 /    164.4 /   164.84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  5684.0 /   2940.4 /   2108.8 /  2231.85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    22.2 /    21.68 /     21.7 /    21.76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    14.8 /     13.3 /    14.93 /    18.24</t>
-  </si>
-  <si>
-    <t>👎    49.5 /    48.48 /     50.1 /    50.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   170.0 /    234.8 /    483.6 /   461.65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9.47 /     9.51 /    10.02 /    10.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.74 /     0.84 /     0.88 /     0.59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    27.8 /    27.62 /    27.82 /    27.46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    27.1 /    44.12 /   133.86 /   108.43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.17 /     2.15 /     2.23 /     2.23</t>
-  </si>
-  <si>
-    <t>👍    36.9 /    36.28 /    36.53 /    37.59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   730.0 /    971.6 /  1183.65 /  1456.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    20.2 /    20.18 /    20.36 /    20.86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.62 /     1.47 /     1.14 /     0.77</t>
-  </si>
-  <si>
-    <t>👍    51.8 /    51.06 /    50.65 /    49.92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   105.0 /    132.8 /   152.43 /   124.78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.72 /     3.73 /     3.69 /     3.72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    77.1 /    76.42 /    77.58 /    75.84</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 17812.0 /  24880.4 /  28006.7 / 24121.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    21.9 /    21.98 /    22.08 /    22.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     1.5 /     1.36 /     4.19 /     8.11</t>
-  </si>
-  <si>
-    <t>⚠️-20.81</t>
-  </si>
-  <si>
-    <t>👍    56.4 /     55.1 /    54.96 /    54.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1426.0 /   1278.8 /   1126.2 /  1048.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    29.6 /     29.7 /    30.27 /    30.85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.29 /     0.78 /     0.42 /     0.57</t>
-  </si>
-  <si>
-    <t>👍    33.9 /    33.14 /    33.38 /    32.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   479.0 /    547.6 /   779.05 /  1476.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7.92 /     7.93 /     8.18 /     8.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.04 /      3.0 /     2.26 /     1.28</t>
-  </si>
-  <si>
-    <t>👍    31.7 /    30.62 /     31.0 /    30.48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3966.0 /   3303.0 /   4820.9 /  7916.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    11.3 /    10.56 /     10.8 /    10.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    12.3 /     9.43 /     9.31 /     8.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   127.0 /    127.6 /    125.8 /   123.46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2114.0 /   1235.0 /    992.5 /   998.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    42.6 /    42.52 /    42.46 /    42.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.84 /     2.72 /     2.15 /     1.39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1380 (65.587%) </t>
-  </si>
-  <si>
-    <t>👍   34.25 /    33.33 /    33.17 /    32.41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1198.0 /   1236.8 /  1134.55 /   834.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6.26 /      6.1 /      6.2 /     6.48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.17 /     0.16 /     0.15 /     0.35</t>
-  </si>
-  <si>
-    <t>👍    29.1 /    28.77 /    28.84 /     29.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   450.0 /    398.2 /   436.65 /   441.71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.71 /      3.7 /     3.91 /     4.45</t>
-  </si>
-  <si>
-    <t>👍   24.45 /    23.64 /    24.09 /     24.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   602.0 /    691.0 /  1042.45 /  2115.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5.62 /      5.3 /     5.59 /     6.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.37 /     0.37 /     0.54 /     0.66</t>
-  </si>
-  <si>
-    <t>⚠️-12.96</t>
-  </si>
-  <si>
-    <t>👍    55.2 /    54.88 /    53.68 /    51.86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3977.0 /   4537.6 /   5248.9 /  4541.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    27.0 /    26.94 /    26.88 /    26.74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.54 /     0.54 /     0.48 /     0.46</t>
-  </si>
-  <si>
-    <t>⚠️-15.99</t>
-  </si>
-  <si>
-    <t>👍   33.75 /    32.96 /    33.46 /    33.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2765.0 /   3263.2 /   4390.8 / 12514.38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    12.4 /    12.34 /    12.33 /    11.65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.54 /     0.53 /     1.05 /     0.96</t>
-  </si>
-  <si>
-    <t>👍    59.0 /    57.46 /    58.36 /    59.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2704.0 /   2584.6 /   3319.1 /  3219.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    22.8 /     22.9 /    23.19 /    24.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.44 /     1.69 /     1.33 /     1.34</t>
-  </si>
-  <si>
-    <t>🏆21.71</t>
-  </si>
-  <si>
-    <t>👍   49.65 /    48.79 /    49.49 /    47.47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3815.0 /   2834.0 /  3571.05 /  4469.65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    23.5 /    23.34 /    23.79 /     22.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     0.0 /     0.12 /      1.0 /     0.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1470 (30.886%) </t>
-  </si>
-  <si>
-    <t>👎    47.1 /     46.2 /    47.82 /    47.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  4450.0 /   6771.8 /  11202.3 /  8592.93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    44.1 /    44.42 /     46.0 /    46.77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.29 /     1.43 /     3.16 /     4.88</t>
-  </si>
-  <si>
-    <t>👍    48.1 /    47.36 /     47.9 /    47.73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   844.0 /    834.4 /    835.9 /   846.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    21.3 /    21.22 /    21.31 /    20.99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.82 /     0.86 /     0.49 /      0.3</t>
+    <t>👍    66.3 /    63.06 /    61.75 /    59.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4283.0 /   2766.2 /  2005.95 /  1567.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    12.4 /     12.4 /    12.28 /    12.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.64 /     3.36 /     2.48 /     1.61</t>
+  </si>
+  <si>
+    <t>👍    72.8 /    71.42 /    70.26 /    69.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   308.0 /    230.6 /   189.12 /   179.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.93 /     1.87 /     1.84 /     1.87</t>
+  </si>
+  <si>
+    <t>👍    19.6 /    19.56 /    19.52 /    19.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2426.0 /   2603.4 /  2322.15 /  2881.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    13.7 /    13.74 /    13.92 /    13.77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.51 /     0.52 /     0.49 /      0.5</t>
+  </si>
+  <si>
+    <t>⚠️-35.53</t>
+  </si>
+  <si>
+    <t>👍   29.45 /    28.88 /    29.04 /    30.88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4149.0 /   5319.8 /   6897.1 /  6152.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    36.5 /    36.54 /    36.76 /    38.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.79 /     0.78 /     0.78 /     1.03</t>
+  </si>
+  <si>
+    <t>⚠️-17.24</t>
+  </si>
+  <si>
+    <t>👍    35.1 /    34.29 /    34.08 /    34.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  5245.0 /   2800.0 /   3356.5 /  4377.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    10.1 /     9.89 /    10.04 /    11.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.57 /     0.52 /     0.63 /      0.8</t>
+  </si>
+  <si>
+    <t>👍   37.25 /    36.64 /    36.04 /     36.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4043.0 /   5031.6 /   7280.4 /  6425.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    9.29 /     8.94 /     8.74 /     9.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.97 /     0.87 /     0.91 /     0.97</t>
+  </si>
+  <si>
+    <t>👍   22.35 /    21.65 /    21.27 /    21.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  8411.0 /   5240.8 /  3529.65 /  3358.59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    9.43 /     9.18 /     9.11 /     9.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.07 /     1.06 /     0.99 /     0.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   15.35 /    15.25 /    15.46 /    15.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   292.0 /    425.0 /    690.8 /   609.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.73 /     2.56 /     2.82 /     2.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.65 /     3.58 /     1.93 /     0.73</t>
+  </si>
+  <si>
+    <t>👎    45.2 /    45.12 /    49.96 /    56.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4004.0 /   4849.4 /  2449.65 /  1528.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    8.28 /     8.49 /     7.73 /     7.81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    18.7 /    17.14 /    13.97 /     6.81</t>
+  </si>
+  <si>
+    <t>👍   30.95 /    30.78 /    30.48 /    29.92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   565.0 /    540.4 /   652.45 /   507.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    10.8 /    10.76 /    10.61 /    10.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     0.9 /     0.87 /     0.89 /     1.16</t>
+  </si>
+  <si>
+    <t>👍    31.8 /    31.01 /    30.76 /    31.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   301.0 /    442.0 /    360.7 /   545.89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.87 /      2.8 /     2.95 /     3.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     0.6 /     0.58 /     0.56 /     0.51</t>
+  </si>
+  <si>
+    <t>👍   33.55 /    32.75 /    32.58 /    34.73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1122.0 /   1179.8 /   1581.4 /  3233.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.34 /     1.19 /     1.15 /     1.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.32 /     3.09 /     4.41 /     6.07</t>
+  </si>
+  <si>
+    <t>👍    25.7 /    25.48 /     25.2 /     24.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17847.0 /  15684.6 / 15354.15 /  14672.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    45.9 /    46.02 /    46.11 /    46.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.03 /     3.99 /     3.13 /     2.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1520 (40.928%) </t>
+  </si>
+  <si>
+    <t>⚠️-20.69</t>
+  </si>
+  <si>
+    <t>👍    70.0 /     69.5 /     68.1 /    64.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3414.0 /   4168.6 /   4559.2 /  7881.88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    32.6 /    32.64 /     32.7 /    33.79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    9.25 /     9.57 /     9.19 /     6.86</t>
+  </si>
+  <si>
+    <t>👍    30.9 /    30.36 /    30.62 /     30.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  6587.0 /   4542.4 /   5080.3 /  6747.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    19.9 /    19.88 /    20.02 /    20.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.11 /     1.18 /     1.16 /     1.18</t>
+  </si>
+  <si>
+    <t>👍    91.8 /    89.48 /    88.48 /    83.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3174.0 /   3211.0 /  3268.45 /  2273.38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    35.1 /     35.1 /    34.86 /    34.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.83 /     4.93 /     4.72 /     1.97</t>
+  </si>
+  <si>
+    <t>🏆22.71</t>
+  </si>
+  <si>
+    <t>👎    44.6 /    44.18 /    45.38 /    45.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   588.0 /    418.4 /   624.55 /  1367.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.49 /     0.37 /     0.59 /     1.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.08 /     0.07 /     0.15 /     0.23</t>
+  </si>
+  <si>
+    <t>⚠️-12.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   30.75 /    30.74 /    32.81 /    28.87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   964.0 /    921.4 /  4088.35 /  3936.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.39 /     1.46 /     1.37 /     1.98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    24.1 /    24.04 /    31.11 /    19.78</t>
+  </si>
+  <si>
+    <t>👍   172.0 /    169.7 /   164.58 /   164.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2659.0 /   3244.8 /  2143.05 /  2239.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    22.2 /    21.86 /     21.7 /    21.77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    14.4 /     13.7 /    14.64 /    18.17</t>
+  </si>
+  <si>
+    <t>👎   49.75 /    48.96 /    49.88 /    50.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   161.0 /    188.2 /    378.4 /   456.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    9.49 /     9.49 /     9.95 /    10.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.74 /     0.78 /     0.85 /     0.59</t>
+  </si>
+  <si>
+    <t>👍   27.95 /    27.75 /    27.84 /    27.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    20.4 /    38.84 /   130.53 /   106.86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.18 /     2.16 /     2.23 /     2.23</t>
+  </si>
+  <si>
+    <t>👍   37.05 /    36.63 /    36.51 /    37.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   567.0 /    826.2 /   1157.0 /  1440.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    20.2 /     20.2 /    20.34 /    20.84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.63 /     1.61 /     1.19 /     0.79</t>
+  </si>
+  <si>
+    <t>👍    52.1 /    51.44 /    50.78 /    49.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   164.0 /    141.8 /   147.38 /   125.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.72 /     3.73 /      3.7 /     3.72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    77.4 /     76.8 /    77.69 /    75.87</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15115.0 /  19885.0 /  28150.0 / 23960.91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    21.9 /    21.96 /    22.08 /    22.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.53 /     1.42 /     3.74 /     7.99</t>
+  </si>
+  <si>
+    <t>⚠️-12.14</t>
+  </si>
+  <si>
+    <t>👍    56.0 /    55.46 /    54.96 /    54.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   978.0 /   1255.0 /   1103.6 /  1046.88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    29.6 /    29.66 /    30.21 /    30.82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.44 /     0.78 /     0.43 /     0.57</t>
+  </si>
+  <si>
+    <t>⚠️-22.28</t>
+  </si>
+  <si>
+    <t>👍    34.1 /    33.53 /    33.37 /    32.78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   538.0 /    481.6 /    746.3 /  1459.59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    7.97 /     7.93 /     8.16 /     8.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.05 /     3.05 /     2.34 /     1.31</t>
+  </si>
+  <si>
+    <t>👍    31.7 /    31.04 /    30.98 /     30.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4290.0 /   3534.8 /  4694.85 /  7851.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    11.2 /    10.78 /    10.76 /    10.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    14.1 /    10.46 /     9.68 /     8.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   127.0 /    127.4 /   125.98 /   123.53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   682.0 /   1177.0 /   989.25 /   992.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    42.6 /    42.54 /    42.47 /    42.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.71 /     2.74 /     2.25 /     1.41</t>
+  </si>
+  <si>
+    <t>👍    34.9 /    33.84 /    33.28 /    32.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3747.0 /   1733.0 /  1298.15 /    886.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    6.84 /     6.24 /     6.24 /     6.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.17 /     0.18 /     0.15 /     0.35</t>
+  </si>
+  <si>
+    <t>👍    30.1 /    29.12 /    28.88 /    29.02</t>
+  </si>
+  <si>
+    <t>🏆  2830.0 /    837.6 /   565.55 /   484.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.98 /     3.75 /      3.9 /     4.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.05 /     0.03 /     0.18 /     0.31</t>
+  </si>
+  <si>
+    <t>👍    24.8 /    24.01 /    24.11 /    24.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   789.0 /    681.4 /  1057.65 /  2091.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5.69 /     5.42 /     5.58 /     6.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     0.4 /     0.38 /     0.51 /     0.65</t>
+  </si>
+  <si>
+    <t>👍    55.6 /     55.1 /    53.86 /    51.93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3654.0 /   4433.4 /   5168.6 /  4525.82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    27.1 /    26.98 /    26.89 /    26.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.56 /     0.55 /      0.5 /     0.47</t>
+  </si>
+  <si>
+    <t>👍    33.7 /    33.25 /    33.42 /    33.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3262.0 /   2909.8 /  4338.35 / 12349.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    12.4 /    12.36 /    12.33 /    11.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.54 /     0.53 /     1.02 /     0.95</t>
+  </si>
+  <si>
+    <t>👍    59.3 /     57.9 /     58.4 /    59.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3056.0 /   2774.0 /   3376.4 /  3216.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    22.9 /    22.82 /    23.16 /    24.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.67 /     1.69 /     1.36 /     1.35</t>
+  </si>
+  <si>
+    <t>👍    49.5 /    49.13 /    49.42 /    47.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2475.0 /   2599.8 /  3342.05 /  4434.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    23.8 /    23.44 /    23.78 /    22.92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     0.2 /     0.06 /     0.94 /     0.66</t>
+  </si>
+  <si>
+    <t>⚠️-20.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    47.4 /    46.53 /    47.78 /    47.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4207.0 /   5894.6 / 11201.55 /  8514.61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    44.0 /    44.24 /    45.86 /    46.72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.28 /      1.4 /     3.04 /     4.82</t>
+  </si>
+  <si>
+    <t>👍   48.15 /    47.65 /     47.9 /    47.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   479.0 /    714.4 /   800.85 /   839.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    21.2 /    21.22 /     21.3 /    20.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.82 /     0.85 /     0.52 /     0.31</t>
   </si>
 </sst>
 </file>
@@ -2337,13 +2343,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2704,10 +2710,10 @@
   <dimension ref="A1:AZ39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A21" sqref="A21:XFD21"/>
+      <selection pane="bottomRight" activeCell="G3" sqref="G3:P39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2743,7 +2749,7 @@
       <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="9" t="s">
@@ -2773,13 +2779,13 @@
       <c r="M1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="11" t="s">
         <v>228</v>
       </c>
       <c r="Q1" s="9" t="s">
@@ -2796,16 +2802,16 @@
       <c r="Z1" s="9"/>
       <c r="AA1" s="3"/>
       <c r="AB1" s="3"/>
-      <c r="AC1" s="11" t="s">
+      <c r="AC1" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="AD1" s="11" t="s">
+      <c r="AD1" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="AE1" s="11" t="s">
+      <c r="AE1" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="AF1" s="11" t="s">
+      <c r="AF1" s="12" t="s">
         <v>176</v>
       </c>
       <c r="AG1" s="9" t="s">
@@ -2850,7 +2856,7 @@
       <c r="A2" s="8"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
-      <c r="D2" s="12"/>
+      <c r="D2" s="10"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
@@ -2868,9 +2874,9 @@
       <c r="M2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
       <c r="Q2" s="5" t="s">
         <v>41</v>
       </c>
@@ -2907,10 +2913,10 @@
       <c r="AB2" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="AC2" s="11"/>
-      <c r="AD2" s="11"/>
-      <c r="AE2" s="11"/>
-      <c r="AF2" s="11"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="12"/>
+      <c r="AF2" s="12"/>
       <c r="AG2" s="9"/>
       <c r="AH2" s="8"/>
       <c r="AI2" s="9"/>
@@ -2959,32 +2965,32 @@
         <v>19760719</v>
       </c>
       <c r="G3">
-        <v>4.1900000000000004</v>
+        <v>4.07</v>
       </c>
       <c r="H3">
-        <v>18.3</v>
+        <v>18.84</v>
       </c>
       <c r="I3">
-        <v>2.3199999999999998</v>
+        <v>2.39</v>
       </c>
       <c r="J3" t="s">
+        <v>382</v>
+      </c>
+      <c r="K3" t="s">
         <v>383</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>384</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>385</v>
       </c>
-      <c r="M3" t="s">
-        <v>386</v>
-      </c>
       <c r="N3">
-        <v>0.68</v>
+        <v>0.97</v>
       </c>
       <c r="O3"/>
       <c r="P3">
-        <v>-1.81</v>
+        <v>-6.13</v>
       </c>
       <c r="Q3">
         <v>11</v>
@@ -3100,32 +3106,32 @@
         <v>19951102</v>
       </c>
       <c r="G4">
-        <v>3.61</v>
+        <v>3.57</v>
       </c>
       <c r="H4">
-        <v>18.27</v>
+        <v>18.48</v>
       </c>
       <c r="I4">
-        <v>3.38</v>
+        <v>3.42</v>
       </c>
       <c r="J4" t="s">
+        <v>386</v>
+      </c>
+      <c r="K4" t="s">
         <v>387</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>388</v>
-      </c>
-      <c r="L4" t="s">
-        <v>389</v>
       </c>
       <c r="M4" t="s">
         <v>156</v>
       </c>
       <c r="N4">
-        <v>1.21</v>
+        <v>2.29</v>
       </c>
       <c r="O4"/>
       <c r="P4">
-        <v>6.02</v>
+        <v>9.09</v>
       </c>
       <c r="Q4">
         <v>11</v>
@@ -3241,32 +3247,32 @@
         <v>19730831</v>
       </c>
       <c r="G5">
-        <v>5.56</v>
+        <v>5.61</v>
       </c>
       <c r="H5">
-        <v>8.7200000000000006</v>
+        <v>8.6300000000000008</v>
       </c>
       <c r="I5">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="J5" t="s">
+        <v>389</v>
+      </c>
+      <c r="K5" t="s">
         <v>390</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>391</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>392</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5">
+        <v>0.27</v>
+      </c>
+      <c r="O5"/>
+      <c r="P5" t="s">
         <v>393</v>
-      </c>
-      <c r="N5">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="O5"/>
-      <c r="P5">
-        <v>4.5999999999999996</v>
       </c>
       <c r="Q5">
         <v>9</v>
@@ -3403,11 +3409,11 @@
         <v>397</v>
       </c>
       <c r="N6">
-        <v>1.78</v>
+        <v>0.51</v>
       </c>
       <c r="O6"/>
-      <c r="P6">
-        <v>7.1</v>
+      <c r="P6" t="s">
+        <v>398</v>
       </c>
       <c r="Q6">
         <v>10</v>
@@ -3523,32 +3529,32 @@
         <v>19730305</v>
       </c>
       <c r="G7">
-        <v>6.66</v>
+        <v>6.55</v>
       </c>
       <c r="H7">
-        <v>6.95</v>
+        <v>7.06</v>
       </c>
       <c r="I7">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="J7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N7">
-        <v>0.84</v>
+        <v>1.83</v>
       </c>
       <c r="O7"/>
       <c r="P7">
-        <v>9.75</v>
+        <v>11.82</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -3673,23 +3679,23 @@
         <v>1.46</v>
       </c>
       <c r="J8" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K8" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L8" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M8" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="N8">
-        <v>1.97</v>
+        <v>1.08</v>
       </c>
       <c r="O8"/>
       <c r="P8">
-        <v>16.98</v>
+        <v>6.09</v>
       </c>
       <c r="Q8">
         <v>11</v>
@@ -3805,32 +3811,32 @@
         <v>19890327</v>
       </c>
       <c r="G9">
-        <v>4.5599999999999996</v>
+        <v>4.47</v>
       </c>
       <c r="H9">
-        <v>6.69</v>
+        <v>6.81</v>
       </c>
       <c r="I9">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K9" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L9" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M9" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="N9">
-        <v>1.29</v>
+        <v>0.97</v>
       </c>
       <c r="O9"/>
       <c r="P9">
-        <v>17.98</v>
+        <v>18.73</v>
       </c>
       <c r="Q9">
         <v>13</v>
@@ -3946,32 +3952,32 @@
         <v>20001031</v>
       </c>
       <c r="G10">
-        <v>2.59</v>
+        <v>2.61</v>
       </c>
       <c r="H10">
-        <v>10.96</v>
+        <v>10.89</v>
       </c>
       <c r="I10">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="J10" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="K10" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L10" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M10" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="N10">
-        <v>0.75</v>
+        <v>0.38</v>
       </c>
       <c r="O10"/>
       <c r="P10">
-        <v>-10.119999999999999</v>
+        <v>-25.33</v>
       </c>
       <c r="Q10">
         <v>13</v>
@@ -4087,32 +4093,32 @@
         <v>19950204</v>
       </c>
       <c r="G11">
-        <v>7.7</v>
+        <v>7.96</v>
       </c>
       <c r="H11">
-        <v>7.36</v>
+        <v>7.12</v>
       </c>
       <c r="I11">
-        <v>2.1800000000000002</v>
+        <v>2.11</v>
       </c>
       <c r="J11" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K11" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L11" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M11" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="N11">
-        <v>1.05</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="O11"/>
       <c r="P11">
-        <v>0.01</v>
+        <v>-4.95</v>
       </c>
       <c r="Q11">
         <v>12</v>
@@ -4228,32 +4234,32 @@
         <v>19701214</v>
       </c>
       <c r="G12">
-        <v>8.09</v>
+        <v>8.08</v>
       </c>
       <c r="H12">
-        <v>6.67</v>
+        <v>6.68</v>
       </c>
       <c r="I12">
         <v>1.36</v>
       </c>
       <c r="J12" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="K12" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L12" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M12" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N12">
-        <v>0.83</v>
+        <v>1.69</v>
       </c>
       <c r="O12"/>
       <c r="P12">
-        <v>10.76</v>
+        <v>16.2</v>
       </c>
       <c r="Q12">
         <v>7</v>
@@ -4369,34 +4375,32 @@
         <v>19930427</v>
       </c>
       <c r="G13">
-        <v>5.37</v>
+        <v>5.35</v>
       </c>
       <c r="H13">
-        <v>8.89</v>
+        <v>8.93</v>
       </c>
       <c r="I13">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="J13" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="K13" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L13" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M13" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="N13">
-        <v>1.01</v>
-      </c>
-      <c r="O13" t="s">
-        <v>426</v>
-      </c>
+        <v>1.48</v>
+      </c>
+      <c r="O13"/>
       <c r="P13">
-        <v>9.11</v>
+        <v>15.32</v>
       </c>
       <c r="Q13">
         <v>12</v>
@@ -4512,13 +4516,13 @@
         <v>20160322</v>
       </c>
       <c r="G14">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="H14">
-        <v>8.64</v>
+        <v>8.7100000000000009</v>
       </c>
       <c r="I14">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="J14" t="s">
         <v>427</v>
@@ -4533,11 +4537,11 @@
         <v>430</v>
       </c>
       <c r="N14">
-        <v>0.9</v>
+        <v>0.96</v>
       </c>
       <c r="O14"/>
       <c r="P14">
-        <v>-3.63</v>
+        <v>11.5</v>
       </c>
       <c r="Q14">
         <v>10</v>
@@ -4653,10 +4657,10 @@
         <v>19920218</v>
       </c>
       <c r="G15">
-        <v>6.2</v>
+        <v>6.23</v>
       </c>
       <c r="H15">
-        <v>8.01</v>
+        <v>7.98</v>
       </c>
       <c r="I15">
         <v>1.04</v>
@@ -4674,11 +4678,13 @@
         <v>434</v>
       </c>
       <c r="N15">
-        <v>1.57</v>
-      </c>
-      <c r="O15"/>
-      <c r="P15">
-        <v>-1.37</v>
+        <v>1.17</v>
+      </c>
+      <c r="O15" t="s">
+        <v>435</v>
+      </c>
+      <c r="P15" t="s">
+        <v>436</v>
       </c>
       <c r="Q15">
         <v>9</v>
@@ -4803,23 +4809,23 @@
         <v>1.98</v>
       </c>
       <c r="J16" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="K16" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L16" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="M16" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="N16">
-        <v>1.35</v>
+        <v>0.51</v>
       </c>
       <c r="O16"/>
       <c r="P16">
-        <v>-1.83</v>
+        <v>-1.64</v>
       </c>
       <c r="Q16">
         <v>9</v>
@@ -4935,32 +4941,32 @@
         <v>19960722</v>
       </c>
       <c r="G17">
-        <v>4.92</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="H17">
-        <v>6.62</v>
+        <v>6.7</v>
       </c>
       <c r="I17">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="J17" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="K17" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="L17" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="M17" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="N17">
-        <v>0.86</v>
+        <v>2</v>
       </c>
       <c r="O17"/>
       <c r="P17">
-        <v>2.08</v>
+        <v>12.89</v>
       </c>
       <c r="Q17">
         <v>8</v>
@@ -5076,32 +5082,32 @@
         <v>19990105</v>
       </c>
       <c r="G18">
-        <v>6.05</v>
+        <v>5.99</v>
       </c>
       <c r="H18">
-        <v>11.21</v>
+        <v>11.32</v>
       </c>
       <c r="I18">
-        <v>2.27</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="J18" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="K18" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="L18" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="M18" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="N18">
-        <v>1.01</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="O18"/>
-      <c r="P18">
-        <v>1.56</v>
+      <c r="P18" t="s">
+        <v>449</v>
       </c>
       <c r="Q18">
         <v>10</v>
@@ -5217,32 +5223,32 @@
         <v>19990125</v>
       </c>
       <c r="G19">
-        <v>4.45</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="H19">
-        <v>7.03</v>
+        <v>6.98</v>
       </c>
       <c r="I19">
-        <v>1.1100000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J19" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="K19" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="L19" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="M19" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="N19">
-        <v>0.74</v>
+        <v>0.9</v>
       </c>
       <c r="O19"/>
-      <c r="P19">
-        <v>6.54</v>
+      <c r="P19" t="s">
+        <v>454</v>
       </c>
       <c r="Q19">
         <v>10</v>
@@ -5358,32 +5364,32 @@
         <v>20000911</v>
       </c>
       <c r="G20">
-        <v>6.32</v>
+        <v>6.5</v>
       </c>
       <c r="H20">
-        <v>11.72</v>
+        <v>11.39</v>
       </c>
       <c r="I20">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="J20" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="K20" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="L20" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="M20" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="N20">
-        <v>0.77</v>
+        <v>0.68</v>
       </c>
       <c r="O20"/>
       <c r="P20">
-        <v>-0.14000000000000001</v>
+        <v>-9.0299999999999994</v>
       </c>
       <c r="Q20">
         <v>13</v>
@@ -5499,32 +5505,32 @@
         <v>20010917</v>
       </c>
       <c r="G21">
-        <v>5.13</v>
+        <v>5.23</v>
       </c>
       <c r="H21">
-        <v>10.050000000000001</v>
+        <v>9.85</v>
       </c>
       <c r="I21">
-        <v>5.25</v>
+        <v>5.15</v>
       </c>
       <c r="J21" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="K21" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="L21" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="M21" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="N21">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="O21"/>
       <c r="P21">
-        <v>8.4600000000000009</v>
+        <v>6.6</v>
       </c>
       <c r="Q21">
         <v>12</v>
@@ -5640,32 +5646,32 @@
         <v>20010917</v>
       </c>
       <c r="G22">
-        <v>5.47</v>
+        <v>5.45</v>
       </c>
       <c r="H22">
-        <v>11.87</v>
+        <v>11.93</v>
       </c>
       <c r="I22">
-        <v>2.89</v>
+        <v>2.91</v>
       </c>
       <c r="J22" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="K22" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="L22" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="M22" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="N22">
-        <v>0.83</v>
+        <v>1.65</v>
       </c>
       <c r="O22"/>
       <c r="P22">
-        <v>-5.43</v>
+        <v>7.47</v>
       </c>
       <c r="Q22">
         <v>11</v>
@@ -5781,32 +5787,32 @@
         <v>20010917</v>
       </c>
       <c r="G23">
-        <v>5.4</v>
+        <v>5.37</v>
       </c>
       <c r="H23">
-        <v>15.03</v>
+        <v>15.11</v>
       </c>
       <c r="I23">
-        <v>1.1000000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="J23" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="K23" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="L23" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="M23" t="s">
         <v>156</v>
       </c>
       <c r="N23">
-        <v>0.83</v>
+        <v>2</v>
       </c>
       <c r="O23"/>
       <c r="P23">
-        <v>-7.37</v>
+        <v>1.78</v>
       </c>
       <c r="Q23">
         <v>7</v>
@@ -5922,32 +5928,32 @@
         <v>19931027</v>
       </c>
       <c r="G24">
-        <v>9.2100000000000009</v>
+        <v>9.18</v>
       </c>
       <c r="H24">
-        <v>4.34</v>
+        <v>4.3600000000000003</v>
       </c>
       <c r="I24">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="J24" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="K24" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="L24" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="M24" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="N24">
         <v>0.98</v>
       </c>
       <c r="O24"/>
       <c r="P24">
-        <v>-4.93</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="Q24">
         <v>7</v>
@@ -6063,32 +6069,32 @@
         <v>20000911</v>
       </c>
       <c r="G25">
-        <v>6.95</v>
+        <v>6.91</v>
       </c>
       <c r="H25">
-        <v>7.37</v>
+        <v>7.41</v>
       </c>
       <c r="I25">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="J25" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="K25" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="L25" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="M25" t="s">
         <v>156</v>
       </c>
       <c r="N25">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="O25"/>
       <c r="P25">
-        <v>7.65</v>
+        <v>-2.44</v>
       </c>
       <c r="Q25">
         <v>7</v>
@@ -6204,32 +6210,32 @@
         <v>20011219</v>
       </c>
       <c r="G26">
-        <v>3.89</v>
+        <v>3.88</v>
       </c>
       <c r="H26">
-        <v>6.35</v>
+        <v>6.38</v>
       </c>
       <c r="I26">
         <v>1.1499999999999999</v>
       </c>
       <c r="J26" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="K26" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="L26" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="M26" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="N26">
-        <v>0.4</v>
+        <v>0.43</v>
       </c>
       <c r="O26"/>
       <c r="P26" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="Q26">
         <v>7</v>
@@ -6345,32 +6351,32 @@
         <v>20020225</v>
       </c>
       <c r="G27">
-        <v>6.37</v>
+        <v>6.41</v>
       </c>
       <c r="H27">
-        <v>7.77</v>
+        <v>7.71</v>
       </c>
       <c r="I27">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="J27" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="K27" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="L27" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="M27" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="N27">
-        <v>0.96</v>
+        <v>0.32</v>
       </c>
       <c r="O27"/>
-      <c r="P27">
-        <v>0</v>
+      <c r="P27" t="s">
+        <v>486</v>
       </c>
       <c r="Q27">
         <v>10</v>
@@ -6486,32 +6492,32 @@
         <v>20020826</v>
       </c>
       <c r="G28">
-        <v>5.6</v>
+        <v>5.57</v>
       </c>
       <c r="H28">
-        <v>8.74</v>
+        <v>8.7899999999999991</v>
       </c>
       <c r="I28">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="J28" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="K28" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="L28" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="M28" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="N28">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="O28"/>
       <c r="P28">
-        <v>4.5999999999999996</v>
+        <v>10.4</v>
       </c>
       <c r="Q28">
         <v>10</v>
@@ -6639,22 +6645,22 @@
         <v>1.73</v>
       </c>
       <c r="J29" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="K29" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="L29" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="M29" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="N29">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="P29">
-        <v>16.04</v>
+        <v>8.69</v>
       </c>
       <c r="Q29">
         <v>9</v>
@@ -6779,25 +6785,22 @@
         <v>1.83</v>
       </c>
       <c r="J30" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="K30" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="L30" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="M30" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="N30">
-        <v>0.97</v>
-      </c>
-      <c r="O30" t="s">
-        <v>494</v>
+        <v>1.05</v>
       </c>
       <c r="P30">
-        <v>-2.98</v>
+        <v>-0.8</v>
       </c>
       <c r="Q30">
         <v>8</v>
@@ -6913,31 +6916,31 @@
         <v>20021001</v>
       </c>
       <c r="G31">
-        <v>8.4700000000000006</v>
+        <v>8.31</v>
       </c>
       <c r="H31">
-        <v>7.98</v>
+        <v>8.14</v>
       </c>
       <c r="I31">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="J31" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="K31" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="L31" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="M31" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="N31">
-        <v>2.96</v>
+        <v>1.59</v>
       </c>
       <c r="P31">
-        <v>4.34</v>
+        <v>13.45</v>
       </c>
       <c r="Q31">
         <v>8</v>
@@ -7053,31 +7056,31 @@
         <v>20081126</v>
       </c>
       <c r="G32">
-        <v>6.87</v>
+        <v>6.64</v>
       </c>
       <c r="H32">
-        <v>8.15</v>
+        <v>8.43</v>
       </c>
       <c r="I32">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="J32" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="K32" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="L32" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="M32" t="s">
-        <v>382</v>
+        <v>506</v>
       </c>
       <c r="N32">
-        <v>0.41</v>
+        <v>2.12</v>
       </c>
       <c r="P32">
-        <v>-11.77</v>
+        <v>8.3699999999999992</v>
       </c>
       <c r="Q32">
         <v>9</v>
@@ -7193,31 +7196,31 @@
         <v>20101229</v>
       </c>
       <c r="G33">
-        <v>4.09</v>
+        <v>4.03</v>
       </c>
       <c r="H33">
-        <v>7.79</v>
+        <v>7.9</v>
       </c>
       <c r="I33">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="J33" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="K33" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="L33" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="M33" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="N33">
-        <v>0.53</v>
-      </c>
-      <c r="P33" t="s">
-        <v>506</v>
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="P33">
+        <v>14.58</v>
       </c>
       <c r="Q33">
         <v>15</v>
@@ -7333,31 +7336,31 @@
         <v>20051109</v>
       </c>
       <c r="G34">
-        <v>5.62</v>
+        <v>5.58</v>
       </c>
       <c r="H34">
-        <v>9.5299999999999994</v>
+        <v>9.6</v>
       </c>
       <c r="I34">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="J34" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="K34" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="L34" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="M34" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="N34">
-        <v>0.92</v>
-      </c>
-      <c r="P34" t="s">
-        <v>511</v>
+        <v>0.7</v>
+      </c>
+      <c r="P34">
+        <v>12.26</v>
       </c>
       <c r="Q34">
         <v>9</v>
@@ -7473,31 +7476,31 @@
         <v>20130912</v>
       </c>
       <c r="G35">
-        <v>2.96</v>
+        <v>2.97</v>
       </c>
       <c r="H35">
         <v>3.27</v>
       </c>
       <c r="I35">
-        <v>0.82</v>
+    